--- a/DPI_Table_Audit/Audit-Process-Sheet.xlsx
+++ b/DPI_Table_Audit/Audit-Process-Sheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="105">
   <si>
     <t>Column Name</t>
   </si>
@@ -272,6 +272,63 @@
   </si>
   <si>
     <t>MstVillages</t>
+  </si>
+  <si>
+    <t>MstSubject</t>
+  </si>
+  <si>
+    <t>CreatedByIp</t>
+  </si>
+  <si>
+    <t>AssemblyNameEng</t>
+  </si>
+  <si>
+    <t>AssemblyNameHin</t>
+  </si>
+  <si>
+    <t>Nvarchar</t>
+  </si>
+  <si>
+    <t>AssemblyCode</t>
+  </si>
+  <si>
+    <t>Highest code len 3</t>
+  </si>
+  <si>
+    <t>MstAssembly</t>
+  </si>
+  <si>
+    <t>BlockNameEng</t>
+  </si>
+  <si>
+    <t>BlockNameHin</t>
+  </si>
+  <si>
+    <t>BlockCode</t>
+  </si>
+  <si>
+    <t>Max 22</t>
+  </si>
+  <si>
+    <t>Max 24</t>
+  </si>
+  <si>
+    <t>Max 3</t>
+  </si>
+  <si>
+    <t>MstBlock</t>
+  </si>
+  <si>
+    <t>LastUpdatedByIp</t>
+  </si>
+  <si>
+    <t>MstDesignation</t>
+  </si>
+  <si>
+    <t>MstLevelBasicPay</t>
+  </si>
+  <si>
+    <t>MstNagarPanchayat</t>
   </si>
 </sst>
 </file>
@@ -330,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -348,6 +405,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -656,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J81"/>
+  <dimension ref="A1:J106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="G111" sqref="G111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,10 +768,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -734,8 +794,8 @@
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
@@ -756,8 +816,8 @@
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
@@ -778,8 +838,8 @@
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
@@ -800,8 +860,8 @@
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
@@ -822,10 +882,10 @@
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7" s="9">
         <v>2</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -848,8 +908,8 @@
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
@@ -870,8 +930,8 @@
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
@@ -892,8 +952,8 @@
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
@@ -914,8 +974,8 @@
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
@@ -936,10 +996,10 @@
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="9">
         <v>3</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -962,8 +1022,8 @@
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="3" t="s">
         <v>8</v>
       </c>
@@ -984,8 +1044,8 @@
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="3" t="s">
         <v>19</v>
       </c>
@@ -1006,8 +1066,8 @@
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="3" t="s">
         <v>20</v>
       </c>
@@ -1026,8 +1086,8 @@
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="3" t="s">
         <v>22</v>
       </c>
@@ -1048,10 +1108,10 @@
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="A17" s="9">
         <v>4</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -1074,8 +1134,8 @@
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="3" t="s">
         <v>8</v>
       </c>
@@ -1096,8 +1156,8 @@
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="3" t="s">
         <v>24</v>
       </c>
@@ -1116,8 +1176,8 @@
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="3" t="s">
         <v>25</v>
       </c>
@@ -1140,8 +1200,8 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
       <c r="C21" s="3" t="s">
         <v>26</v>
       </c>
@@ -1156,10 +1216,10 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+      <c r="A22" s="9">
         <v>5</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -1182,8 +1242,8 @@
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
       <c r="C23" s="3" t="s">
         <v>29</v>
       </c>
@@ -1204,8 +1264,8 @@
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
       <c r="C24" s="3" t="s">
         <v>30</v>
       </c>
@@ -1226,10 +1286,10 @@
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
+      <c r="A25" s="9">
         <v>6</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -1252,8 +1312,8 @@
       <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
       <c r="C26" s="3" t="s">
         <v>8</v>
       </c>
@@ -1274,8 +1334,8 @@
       <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
       <c r="C27" s="3" t="s">
         <v>33</v>
       </c>
@@ -1294,8 +1354,8 @@
       <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
       <c r="C28" s="3" t="s">
         <v>34</v>
       </c>
@@ -1316,10 +1376,10 @@
       <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
-        <v>7</v>
-      </c>
-      <c r="B29" s="8" t="s">
+      <c r="A29" s="9">
+        <v>7</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -1342,8 +1402,8 @@
       <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
       <c r="C30" s="3" t="s">
         <v>8</v>
       </c>
@@ -1364,10 +1424,10 @@
       <c r="J30" s="3"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
+      <c r="A31" s="9">
         <v>8</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -1390,8 +1450,8 @@
       <c r="J31" s="3"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
       <c r="C32" s="3" t="s">
         <v>8</v>
       </c>
@@ -1412,8 +1472,8 @@
       <c r="J32" s="3"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
       <c r="C33" s="3" t="s">
         <v>37</v>
       </c>
@@ -1432,8 +1492,8 @@
       <c r="J33" s="3"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
       <c r="C34" s="3" t="s">
         <v>38</v>
       </c>
@@ -1454,8 +1514,8 @@
       <c r="J34" s="3"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
       <c r="C35" s="3" t="s">
         <v>39</v>
       </c>
@@ -1476,8 +1536,8 @@
       <c r="J35" s="3"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
       <c r="C36" s="3" t="s">
         <v>9</v>
       </c>
@@ -1498,8 +1558,8 @@
       <c r="J36" s="3"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
       <c r="C37" s="3" t="s">
         <v>12</v>
       </c>
@@ -1520,10 +1580,10 @@
       <c r="J37" s="3"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="8">
+      <c r="A38" s="9">
         <v>9</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C38" s="3" t="s">
@@ -1546,8 +1606,8 @@
       <c r="J38" s="3"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
       <c r="C39" s="3" t="s">
         <v>42</v>
       </c>
@@ -1568,8 +1628,8 @@
       <c r="J39" s="3"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
       <c r="C40" s="3" t="s">
         <v>43</v>
       </c>
@@ -1590,8 +1650,8 @@
       <c r="J40" s="3"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
       <c r="C41" s="3" t="s">
         <v>44</v>
       </c>
@@ -1612,10 +1672,10 @@
       <c r="J41" s="3"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="8">
-        <v>10</v>
-      </c>
-      <c r="B42" s="8" t="s">
+      <c r="A42" s="9">
+        <v>10</v>
+      </c>
+      <c r="B42" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C42" s="3" t="s">
@@ -1638,8 +1698,8 @@
       <c r="J42" s="3"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
       <c r="C43" s="3" t="s">
         <v>29</v>
       </c>
@@ -1660,8 +1720,8 @@
       <c r="J43" s="3"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
       <c r="C44" s="3" t="s">
         <v>46</v>
       </c>
@@ -1682,8 +1742,8 @@
       <c r="J44" s="3"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
       <c r="C45" s="3" t="s">
         <v>47</v>
       </c>
@@ -1704,8 +1764,8 @@
       <c r="J45" s="3"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
       <c r="C46" s="3" t="s">
         <v>48</v>
       </c>
@@ -1726,10 +1786,10 @@
       <c r="J46" s="3"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="8">
+      <c r="A47" s="9">
         <v>11</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C47" s="3" t="s">
@@ -1752,8 +1812,8 @@
       <c r="J47" s="3"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
       <c r="C48" s="3" t="s">
         <v>51</v>
       </c>
@@ -1774,10 +1834,10 @@
       <c r="J48" s="3"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="8">
+      <c r="A49" s="9">
         <v>12</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="9" t="s">
         <v>56</v>
       </c>
       <c r="C49" s="3" t="s">
@@ -1800,8 +1860,8 @@
       <c r="J49" s="3"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
       <c r="C50" s="3" t="s">
         <v>53</v>
       </c>
@@ -1822,8 +1882,8 @@
       <c r="J50" s="3"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
       <c r="C51" s="3" t="s">
         <v>54</v>
       </c>
@@ -1844,8 +1904,8 @@
       <c r="J51" s="3"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
       <c r="C52" s="3" t="s">
         <v>55</v>
       </c>
@@ -1866,10 +1926,10 @@
       <c r="J52" s="3"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="8">
+      <c r="A53" s="9">
         <v>13</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C53" s="3" t="s">
@@ -1892,8 +1952,8 @@
       <c r="J53" s="3"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
       <c r="C54" s="3" t="s">
         <v>57</v>
       </c>
@@ -1914,10 +1974,10 @@
       <c r="J54" s="3"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="8">
+      <c r="A55" s="9">
         <v>14</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="9" t="s">
         <v>59</v>
       </c>
       <c r="C55" s="3" t="s">
@@ -1940,8 +2000,8 @@
       <c r="J55" s="3"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
       <c r="C56" s="3" t="s">
         <v>29</v>
       </c>
@@ -1962,8 +2022,8 @@
       <c r="J56" s="3"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
       <c r="C57" s="3" t="s">
         <v>30</v>
       </c>
@@ -1984,10 +2044,10 @@
       <c r="J57" s="3"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="8">
+      <c r="A58" s="9">
         <v>15</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C58" s="3" t="s">
@@ -2010,8 +2070,8 @@
       <c r="J58" s="3"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
       <c r="C59" s="3" t="s">
         <v>60</v>
       </c>
@@ -2084,10 +2144,10 @@
       <c r="J61" s="3"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="8">
+      <c r="A62" s="9">
         <v>18</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="9" t="s">
         <v>65</v>
       </c>
       <c r="C62" s="3" t="s">
@@ -2110,8 +2170,8 @@
       <c r="J62" s="3"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="8"/>
-      <c r="B63" s="8"/>
+      <c r="A63" s="9"/>
+      <c r="B63" s="9"/>
       <c r="C63" s="3" t="s">
         <v>64</v>
       </c>
@@ -2158,10 +2218,10 @@
       <c r="J64" s="3"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="8">
-        <v>20</v>
-      </c>
-      <c r="B65" s="8" t="s">
+      <c r="A65" s="9">
+        <v>20</v>
+      </c>
+      <c r="B65" s="9" t="s">
         <v>69</v>
       </c>
       <c r="C65" s="3" t="s">
@@ -2184,8 +2244,8 @@
       <c r="J65" s="3"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="8"/>
-      <c r="B66" s="8"/>
+      <c r="A66" s="9"/>
+      <c r="B66" s="9"/>
       <c r="C66" s="3" t="s">
         <v>8</v>
       </c>
@@ -2206,8 +2266,8 @@
       <c r="J66" s="3"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="8"/>
-      <c r="B67" s="8"/>
+      <c r="A67" s="9"/>
+      <c r="B67" s="9"/>
       <c r="C67" s="3" t="s">
         <v>67</v>
       </c>
@@ -2224,10 +2284,10 @@
       <c r="J67" s="3"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="8">
+      <c r="A68" s="9">
         <v>21</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C68" s="3" t="s">
@@ -2250,8 +2310,8 @@
       <c r="J68" s="3"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="8"/>
-      <c r="B69" s="8"/>
+      <c r="A69" s="9"/>
+      <c r="B69" s="9"/>
       <c r="C69" s="3" t="s">
         <v>70</v>
       </c>
@@ -2268,8 +2328,8 @@
       <c r="J69" s="3"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="8"/>
-      <c r="B70" s="8"/>
+      <c r="A70" s="9"/>
+      <c r="B70" s="9"/>
       <c r="C70" s="3" t="s">
         <v>71</v>
       </c>
@@ -2288,8 +2348,8 @@
       <c r="J70" s="3"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="8"/>
-      <c r="B71" s="8"/>
+      <c r="A71" s="9"/>
+      <c r="B71" s="9"/>
       <c r="C71" s="3" t="s">
         <v>73</v>
       </c>
@@ -2310,8 +2370,8 @@
       <c r="J71" s="3"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="8"/>
-      <c r="B72" s="8"/>
+      <c r="A72" s="9"/>
+      <c r="B72" s="9"/>
       <c r="C72" s="3" t="s">
         <v>74</v>
       </c>
@@ -2332,10 +2392,10 @@
       <c r="J72" s="3"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="8">
+      <c r="A73" s="9">
         <v>22</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C73" s="3" t="s">
@@ -2358,8 +2418,8 @@
       <c r="J73" s="3"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="8"/>
-      <c r="B74" s="8"/>
+      <c r="A74" s="9"/>
+      <c r="B74" s="9"/>
       <c r="C74" s="3" t="s">
         <v>76</v>
       </c>
@@ -2380,10 +2440,10 @@
       <c r="J74" s="3"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="8">
+      <c r="A75" s="9">
         <v>23</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="9" t="s">
         <v>80</v>
       </c>
       <c r="C75" s="3" t="s">
@@ -2406,8 +2466,8 @@
       <c r="J75" s="3"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="8"/>
-      <c r="B76" s="8"/>
+      <c r="A76" s="9"/>
+      <c r="B76" s="9"/>
       <c r="C76" s="3" t="s">
         <v>79</v>
       </c>
@@ -2454,10 +2514,10 @@
       <c r="J77" s="3"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="8">
+      <c r="A78" s="9">
         <v>25</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="9" t="s">
         <v>85</v>
       </c>
       <c r="C78" s="3" t="s">
@@ -2480,8 +2540,8 @@
       <c r="J78" s="3"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="8"/>
-      <c r="B79" s="8"/>
+      <c r="A79" s="9"/>
+      <c r="B79" s="9"/>
       <c r="C79" s="3" t="s">
         <v>82</v>
       </c>
@@ -2502,8 +2562,8 @@
       <c r="J79" s="3"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="8"/>
-      <c r="B80" s="8"/>
+      <c r="A80" s="9"/>
+      <c r="B80" s="9"/>
       <c r="C80" s="3" t="s">
         <v>83</v>
       </c>
@@ -2524,8 +2584,8 @@
       <c r="J80" s="3"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="8"/>
-      <c r="B81" s="8"/>
+      <c r="A81" s="9"/>
+      <c r="B81" s="9"/>
       <c r="C81" s="3" t="s">
         <v>84</v>
       </c>
@@ -2545,8 +2605,597 @@
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
     </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="8">
+        <v>26</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" s="3">
+        <v>50</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G82" s="3">
+        <v>20</v>
+      </c>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="9">
+        <v>27</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83" s="3">
+        <v>50</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G83" s="3">
+        <v>20</v>
+      </c>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="9"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84" s="3">
+        <v>50</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G84" s="3">
+        <v>20</v>
+      </c>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="9"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G85" s="5"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="9">
+        <v>28</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E86" s="3">
+        <v>50</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G86" s="3">
+        <v>20</v>
+      </c>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="9"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G87" s="5"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="9"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" s="3">
+        <v>15</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="9"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89" s="3">
+        <v>60</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G89" s="3">
+        <v>50</v>
+      </c>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="9"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90" s="6">
+        <v>80</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="3">
+        <v>50</v>
+      </c>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="9">
+        <v>29</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91" s="3">
+        <v>30</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G91" s="3">
+        <v>10</v>
+      </c>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="9"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92" s="3">
+        <v>30</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G92" s="5">
+        <v>5</v>
+      </c>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="9">
+        <v>30</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" s="3">
+        <v>50</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G93" s="3">
+        <v>20</v>
+      </c>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="9"/>
+      <c r="B94" s="9"/>
+      <c r="C94" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94" s="3">
+        <v>60</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G94" s="3">
+        <v>30</v>
+      </c>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="9"/>
+      <c r="B95" s="9"/>
+      <c r="C95" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E95" s="3">
+        <v>90</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G95" s="3">
+        <v>30</v>
+      </c>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="9"/>
+      <c r="B96" s="9"/>
+      <c r="C96" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E96" s="3">
+        <v>10</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G96" s="3">
+        <v>5</v>
+      </c>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="9">
+        <v>31</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E97" s="3">
+        <v>50</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G97" s="3">
+        <v>20</v>
+      </c>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="9"/>
+      <c r="B98" s="9"/>
+      <c r="C98" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E98" s="3">
+        <v>50</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G98" s="3">
+        <v>30</v>
+      </c>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="9"/>
+      <c r="B99" s="9"/>
+      <c r="C99" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E99" s="3">
+        <v>60</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G99" s="3">
+        <v>40</v>
+      </c>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="9"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E100" s="6">
+        <v>10</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G100" s="6">
+        <v>5</v>
+      </c>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="9">
+        <v>32</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E101" s="3">
+        <v>50</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G101" s="3">
+        <v>20</v>
+      </c>
+      <c r="H101" s="3"/>
+      <c r="I101" s="3"/>
+      <c r="J101" s="3"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="9"/>
+      <c r="B102" s="9"/>
+      <c r="C102" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E102" s="3">
+        <v>50</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G102" s="3">
+        <v>20</v>
+      </c>
+      <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="9">
+        <v>33</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E103" s="3">
+        <v>50</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G103" s="3">
+        <v>20</v>
+      </c>
+      <c r="H103" s="3"/>
+      <c r="I103" s="3"/>
+      <c r="J103" s="3"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="9"/>
+      <c r="B104" s="9"/>
+      <c r="C104" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E104" s="3">
+        <v>50</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G104" s="3">
+        <v>20</v>
+      </c>
+      <c r="H104" s="3"/>
+      <c r="I104" s="3"/>
+      <c r="J104" s="3"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="9"/>
+      <c r="B105" s="9"/>
+      <c r="C105" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E105" s="3">
+        <v>15</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
+      <c r="I105" s="3"/>
+      <c r="J105" s="3"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="8">
+        <v>34</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E106" s="3">
+        <v>50</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G106" s="3">
+        <v>20</v>
+      </c>
+      <c r="H106" s="3"/>
+      <c r="I106" s="3"/>
+      <c r="J106" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="56">
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A93:A96"/>
+    <mergeCell ref="A97:A100"/>
     <mergeCell ref="A75:A76"/>
     <mergeCell ref="A78:A81"/>
     <mergeCell ref="A55:A57"/>
@@ -2555,27 +3204,30 @@
     <mergeCell ref="A65:A67"/>
     <mergeCell ref="A68:A72"/>
     <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="A53:A54"/>
     <mergeCell ref="B65:B67"/>
     <mergeCell ref="B68:B72"/>
     <mergeCell ref="B73:B74"/>
     <mergeCell ref="B75:B76"/>
     <mergeCell ref="B78:B81"/>
+    <mergeCell ref="B58:B59"/>
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A25:A28"/>
     <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="B101:B102"/>
     <mergeCell ref="B62:B63"/>
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B25:B28"/>
@@ -2583,12 +3235,16 @@
     <mergeCell ref="B31:B37"/>
     <mergeCell ref="B38:B41"/>
     <mergeCell ref="B42:B46"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="B93:B96"/>
+    <mergeCell ref="B97:B100"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DPI_Table_Audit/Audit-Process-Sheet.xlsx
+++ b/DPI_Table_Audit/Audit-Process-Sheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="135">
   <si>
     <t>Column Name</t>
   </si>
@@ -329,6 +329,96 @@
   </si>
   <si>
     <t>MstNagarPanchayat</t>
+  </si>
+  <si>
+    <t>PositionCategoryNameHin</t>
+  </si>
+  <si>
+    <t>MstPositionCategoryApplies</t>
+  </si>
+  <si>
+    <t>TeacherDegreeNameHin</t>
+  </si>
+  <si>
+    <t>MstPrimaryTeacherDegree</t>
+  </si>
+  <si>
+    <t>QualificationNameHin</t>
+  </si>
+  <si>
+    <t>QualificationNameEng</t>
+  </si>
+  <si>
+    <t>QualificationCodeNo</t>
+  </si>
+  <si>
+    <t>SubjectName</t>
+  </si>
+  <si>
+    <t>MstQualification</t>
+  </si>
+  <si>
+    <t>MstReligion</t>
+  </si>
+  <si>
+    <t>MstRoleOfficetypeMap</t>
+  </si>
+  <si>
+    <t>SchoolCateNameEng</t>
+  </si>
+  <si>
+    <t>SchoolCateNameHin</t>
+  </si>
+  <si>
+    <t>PreferenceNo</t>
+  </si>
+  <si>
+    <t>tinyint</t>
+  </si>
+  <si>
+    <t>MstSchoolCategory</t>
+  </si>
+  <si>
+    <t>SchoolClassNameEng</t>
+  </si>
+  <si>
+    <t>SchoolInchargeTypeNameHin</t>
+  </si>
+  <si>
+    <t>MstSchoolClassName</t>
+  </si>
+  <si>
+    <t>SchoolInchargeTypeNameEng</t>
+  </si>
+  <si>
+    <t>MstSchoolInchargeType</t>
+  </si>
+  <si>
+    <t>SchoolMgmtGroupNameHin</t>
+  </si>
+  <si>
+    <t>SchoolMediumNameEng</t>
+  </si>
+  <si>
+    <t>MstSchoolManagementGroup</t>
+  </si>
+  <si>
+    <t>SchoolMediumNameHin</t>
+  </si>
+  <si>
+    <t>MstSchoolMedium</t>
+  </si>
+  <si>
+    <t>MstSchoolSubCategoryDtlToClassMap</t>
+  </si>
+  <si>
+    <t>SchooltypeNameHin</t>
+  </si>
+  <si>
+    <t>SchooltypeNameEng</t>
+  </si>
+  <si>
+    <t>MstSchooltype</t>
   </si>
 </sst>
 </file>
@@ -360,7 +450,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -383,11 +473,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -409,7 +556,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -716,17 +881,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J106"/>
+  <dimension ref="A1:J135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="G111" sqref="G111"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="D142" sqref="D142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
     <col min="5" max="6" width="20.7109375" customWidth="1"/>
     <col min="7" max="7" width="20.85546875" customWidth="1"/>
@@ -768,10 +933,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -794,8 +959,8 @@
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
@@ -816,8 +981,8 @@
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
@@ -838,8 +1003,8 @@
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
@@ -860,8 +1025,8 @@
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
@@ -882,10 +1047,10 @@
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="10">
         <v>2</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -908,8 +1073,8 @@
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
@@ -930,8 +1095,8 @@
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
@@ -952,8 +1117,8 @@
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
@@ -974,8 +1139,8 @@
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
@@ -996,10 +1161,10 @@
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="10">
         <v>3</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1022,8 +1187,8 @@
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="3" t="s">
         <v>8</v>
       </c>
@@ -1044,8 +1209,8 @@
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="3" t="s">
         <v>19</v>
       </c>
@@ -1066,8 +1231,8 @@
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="3" t="s">
         <v>20</v>
       </c>
@@ -1086,8 +1251,8 @@
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="3" t="s">
         <v>22</v>
       </c>
@@ -1108,10 +1273,10 @@
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="A17" s="10">
         <v>4</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -1134,8 +1299,8 @@
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
       <c r="C18" s="3" t="s">
         <v>8</v>
       </c>
@@ -1156,8 +1321,8 @@
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
       <c r="C19" s="3" t="s">
         <v>24</v>
       </c>
@@ -1176,8 +1341,8 @@
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="3" t="s">
         <v>25</v>
       </c>
@@ -1200,8 +1365,8 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
       <c r="C21" s="3" t="s">
         <v>26</v>
       </c>
@@ -1216,10 +1381,10 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+      <c r="A22" s="10">
         <v>5</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -1242,8 +1407,8 @@
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
       <c r="C23" s="3" t="s">
         <v>29</v>
       </c>
@@ -1264,8 +1429,8 @@
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
       <c r="C24" s="3" t="s">
         <v>30</v>
       </c>
@@ -1286,10 +1451,10 @@
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
+      <c r="A25" s="10">
         <v>6</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -1312,8 +1477,8 @@
       <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
       <c r="C26" s="3" t="s">
         <v>8</v>
       </c>
@@ -1334,8 +1499,8 @@
       <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
       <c r="C27" s="3" t="s">
         <v>33</v>
       </c>
@@ -1354,8 +1519,8 @@
       <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
       <c r="C28" s="3" t="s">
         <v>34</v>
       </c>
@@ -1376,10 +1541,10 @@
       <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
-        <v>7</v>
-      </c>
-      <c r="B29" s="9" t="s">
+      <c r="A29" s="10">
+        <v>7</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -1402,8 +1567,8 @@
       <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
       <c r="C30" s="3" t="s">
         <v>8</v>
       </c>
@@ -1424,10 +1589,10 @@
       <c r="J30" s="3"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
+      <c r="A31" s="10">
         <v>8</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -1450,8 +1615,8 @@
       <c r="J31" s="3"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
       <c r="C32" s="3" t="s">
         <v>8</v>
       </c>
@@ -1472,8 +1637,8 @@
       <c r="J32" s="3"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
       <c r="C33" s="3" t="s">
         <v>37</v>
       </c>
@@ -1492,8 +1657,8 @@
       <c r="J33" s="3"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
       <c r="C34" s="3" t="s">
         <v>38</v>
       </c>
@@ -1514,8 +1679,8 @@
       <c r="J34" s="3"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
       <c r="C35" s="3" t="s">
         <v>39</v>
       </c>
@@ -1536,8 +1701,8 @@
       <c r="J35" s="3"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
       <c r="C36" s="3" t="s">
         <v>9</v>
       </c>
@@ -1558,8 +1723,8 @@
       <c r="J36" s="3"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
       <c r="C37" s="3" t="s">
         <v>12</v>
       </c>
@@ -1580,10 +1745,10 @@
       <c r="J37" s="3"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="9">
+      <c r="A38" s="10">
         <v>9</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C38" s="3" t="s">
@@ -1606,8 +1771,8 @@
       <c r="J38" s="3"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
       <c r="C39" s="3" t="s">
         <v>42</v>
       </c>
@@ -1628,8 +1793,8 @@
       <c r="J39" s="3"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
       <c r="C40" s="3" t="s">
         <v>43</v>
       </c>
@@ -1650,8 +1815,8 @@
       <c r="J40" s="3"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
       <c r="C41" s="3" t="s">
         <v>44</v>
       </c>
@@ -1672,10 +1837,10 @@
       <c r="J41" s="3"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="9">
-        <v>10</v>
-      </c>
-      <c r="B42" s="9" t="s">
+      <c r="A42" s="10">
+        <v>10</v>
+      </c>
+      <c r="B42" s="10" t="s">
         <v>49</v>
       </c>
       <c r="C42" s="3" t="s">
@@ -1698,8 +1863,8 @@
       <c r="J42" s="3"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
       <c r="C43" s="3" t="s">
         <v>29</v>
       </c>
@@ -1720,8 +1885,8 @@
       <c r="J43" s="3"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
       <c r="C44" s="3" t="s">
         <v>46</v>
       </c>
@@ -1742,8 +1907,8 @@
       <c r="J44" s="3"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
       <c r="C45" s="3" t="s">
         <v>47</v>
       </c>
@@ -1764,8 +1929,8 @@
       <c r="J45" s="3"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
       <c r="C46" s="3" t="s">
         <v>48</v>
       </c>
@@ -1786,10 +1951,10 @@
       <c r="J46" s="3"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="9">
+      <c r="A47" s="10">
         <v>11</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="10" t="s">
         <v>52</v>
       </c>
       <c r="C47" s="3" t="s">
@@ -1812,8 +1977,8 @@
       <c r="J47" s="3"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
       <c r="C48" s="3" t="s">
         <v>51</v>
       </c>
@@ -1834,10 +1999,10 @@
       <c r="J48" s="3"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="9">
+      <c r="A49" s="10">
         <v>12</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C49" s="3" t="s">
@@ -1860,8 +2025,8 @@
       <c r="J49" s="3"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
       <c r="C50" s="3" t="s">
         <v>53</v>
       </c>
@@ -1882,8 +2047,8 @@
       <c r="J50" s="3"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9"/>
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
       <c r="C51" s="3" t="s">
         <v>54</v>
       </c>
@@ -1904,8 +2069,8 @@
       <c r="J51" s="3"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="9"/>
-      <c r="B52" s="9"/>
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
       <c r="C52" s="3" t="s">
         <v>55</v>
       </c>
@@ -1926,10 +2091,10 @@
       <c r="J52" s="3"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="9">
+      <c r="A53" s="10">
         <v>13</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C53" s="3" t="s">
@@ -1952,8 +2117,8 @@
       <c r="J53" s="3"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="9"/>
-      <c r="B54" s="9"/>
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
       <c r="C54" s="3" t="s">
         <v>57</v>
       </c>
@@ -1974,10 +2139,10 @@
       <c r="J54" s="3"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="9">
+      <c r="A55" s="10">
         <v>14</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="10" t="s">
         <v>59</v>
       </c>
       <c r="C55" s="3" t="s">
@@ -2000,8 +2165,8 @@
       <c r="J55" s="3"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="9"/>
-      <c r="B56" s="9"/>
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
       <c r="C56" s="3" t="s">
         <v>29</v>
       </c>
@@ -2022,8 +2187,8 @@
       <c r="J56" s="3"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="9"/>
-      <c r="B57" s="9"/>
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
       <c r="C57" s="3" t="s">
         <v>30</v>
       </c>
@@ -2044,10 +2209,10 @@
       <c r="J57" s="3"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="9">
+      <c r="A58" s="10">
         <v>15</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C58" s="3" t="s">
@@ -2070,8 +2235,8 @@
       <c r="J58" s="3"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="9"/>
-      <c r="B59" s="9"/>
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
       <c r="C59" s="3" t="s">
         <v>60</v>
       </c>
@@ -2144,10 +2309,10 @@
       <c r="J61" s="3"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="9">
+      <c r="A62" s="10">
         <v>18</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="10" t="s">
         <v>65</v>
       </c>
       <c r="C62" s="3" t="s">
@@ -2170,8 +2335,8 @@
       <c r="J62" s="3"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="9"/>
-      <c r="B63" s="9"/>
+      <c r="A63" s="10"/>
+      <c r="B63" s="10"/>
       <c r="C63" s="3" t="s">
         <v>64</v>
       </c>
@@ -2218,10 +2383,10 @@
       <c r="J64" s="3"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="9">
-        <v>20</v>
-      </c>
-      <c r="B65" s="9" t="s">
+      <c r="A65" s="10">
+        <v>20</v>
+      </c>
+      <c r="B65" s="10" t="s">
         <v>69</v>
       </c>
       <c r="C65" s="3" t="s">
@@ -2244,8 +2409,8 @@
       <c r="J65" s="3"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="9"/>
-      <c r="B66" s="9"/>
+      <c r="A66" s="10"/>
+      <c r="B66" s="10"/>
       <c r="C66" s="3" t="s">
         <v>8</v>
       </c>
@@ -2266,8 +2431,8 @@
       <c r="J66" s="3"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="9"/>
-      <c r="B67" s="9"/>
+      <c r="A67" s="10"/>
+      <c r="B67" s="10"/>
       <c r="C67" s="3" t="s">
         <v>67</v>
       </c>
@@ -2284,10 +2449,10 @@
       <c r="J67" s="3"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="9">
+      <c r="A68" s="10">
         <v>21</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="10" t="s">
         <v>75</v>
       </c>
       <c r="C68" s="3" t="s">
@@ -2310,8 +2475,8 @@
       <c r="J68" s="3"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="9"/>
-      <c r="B69" s="9"/>
+      <c r="A69" s="10"/>
+      <c r="B69" s="10"/>
       <c r="C69" s="3" t="s">
         <v>70</v>
       </c>
@@ -2328,8 +2493,8 @@
       <c r="J69" s="3"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="9"/>
-      <c r="B70" s="9"/>
+      <c r="A70" s="10"/>
+      <c r="B70" s="10"/>
       <c r="C70" s="3" t="s">
         <v>71</v>
       </c>
@@ -2348,8 +2513,8 @@
       <c r="J70" s="3"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="9"/>
-      <c r="B71" s="9"/>
+      <c r="A71" s="10"/>
+      <c r="B71" s="10"/>
       <c r="C71" s="3" t="s">
         <v>73</v>
       </c>
@@ -2370,8 +2535,8 @@
       <c r="J71" s="3"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="9"/>
-      <c r="B72" s="9"/>
+      <c r="A72" s="10"/>
+      <c r="B72" s="10"/>
       <c r="C72" s="3" t="s">
         <v>74</v>
       </c>
@@ -2392,10 +2557,10 @@
       <c r="J72" s="3"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="9">
+      <c r="A73" s="10">
         <v>22</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="10" t="s">
         <v>77</v>
       </c>
       <c r="C73" s="3" t="s">
@@ -2418,8 +2583,8 @@
       <c r="J73" s="3"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="9"/>
-      <c r="B74" s="9"/>
+      <c r="A74" s="10"/>
+      <c r="B74" s="10"/>
       <c r="C74" s="3" t="s">
         <v>76</v>
       </c>
@@ -2440,10 +2605,10 @@
       <c r="J74" s="3"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="9">
+      <c r="A75" s="10">
         <v>23</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="10" t="s">
         <v>80</v>
       </c>
       <c r="C75" s="3" t="s">
@@ -2466,8 +2631,8 @@
       <c r="J75" s="3"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="9"/>
-      <c r="B76" s="9"/>
+      <c r="A76" s="10"/>
+      <c r="B76" s="10"/>
       <c r="C76" s="3" t="s">
         <v>79</v>
       </c>
@@ -2514,10 +2679,10 @@
       <c r="J77" s="3"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="9">
+      <c r="A78" s="10">
         <v>25</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="10" t="s">
         <v>85</v>
       </c>
       <c r="C78" s="3" t="s">
@@ -2540,8 +2705,8 @@
       <c r="J78" s="3"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="9"/>
-      <c r="B79" s="9"/>
+      <c r="A79" s="10"/>
+      <c r="B79" s="10"/>
       <c r="C79" s="3" t="s">
         <v>82</v>
       </c>
@@ -2562,8 +2727,8 @@
       <c r="J79" s="3"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="9"/>
-      <c r="B80" s="9"/>
+      <c r="A80" s="10"/>
+      <c r="B80" s="10"/>
       <c r="C80" s="3" t="s">
         <v>83</v>
       </c>
@@ -2584,8 +2749,8 @@
       <c r="J80" s="3"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="9"/>
-      <c r="B81" s="9"/>
+      <c r="A81" s="10"/>
+      <c r="B81" s="10"/>
       <c r="C81" s="3" t="s">
         <v>84</v>
       </c>
@@ -2632,10 +2797,10 @@
       <c r="J82" s="3"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="9">
+      <c r="A83" s="10">
         <v>27</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="B83" s="10" t="s">
         <v>69</v>
       </c>
       <c r="C83" s="3" t="s">
@@ -2658,8 +2823,8 @@
       <c r="J83" s="3"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="9"/>
-      <c r="B84" s="9"/>
+      <c r="A84" s="10"/>
+      <c r="B84" s="10"/>
       <c r="C84" s="3" t="s">
         <v>8</v>
       </c>
@@ -2680,8 +2845,8 @@
       <c r="J84" s="3"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="9"/>
-      <c r="B85" s="9"/>
+      <c r="A85" s="10"/>
+      <c r="B85" s="10"/>
       <c r="C85" s="3" t="s">
         <v>67</v>
       </c>
@@ -2698,10 +2863,10 @@
       <c r="J85" s="3"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="9">
+      <c r="A86" s="10">
         <v>28</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="10" t="s">
         <v>86</v>
       </c>
       <c r="C86" s="3" t="s">
@@ -2724,8 +2889,8 @@
       <c r="J86" s="3"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="9"/>
-      <c r="B87" s="9"/>
+      <c r="A87" s="10"/>
+      <c r="B87" s="10"/>
       <c r="C87" s="3" t="s">
         <v>70</v>
       </c>
@@ -2742,8 +2907,8 @@
       <c r="J87" s="3"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="9"/>
-      <c r="B88" s="9"/>
+      <c r="A88" s="10"/>
+      <c r="B88" s="10"/>
       <c r="C88" s="3" t="s">
         <v>71</v>
       </c>
@@ -2762,8 +2927,8 @@
       <c r="J88" s="3"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="9"/>
-      <c r="B89" s="9"/>
+      <c r="A89" s="10"/>
+      <c r="B89" s="10"/>
       <c r="C89" s="3" t="s">
         <v>73</v>
       </c>
@@ -2784,8 +2949,8 @@
       <c r="J89" s="3"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="9"/>
-      <c r="B90" s="9"/>
+      <c r="A90" s="10"/>
+      <c r="B90" s="10"/>
       <c r="C90" s="3" t="s">
         <v>74</v>
       </c>
@@ -2806,10 +2971,10 @@
       <c r="J90" s="3"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="9">
+      <c r="A91" s="10">
         <v>29</v>
       </c>
-      <c r="B91" s="9" t="s">
+      <c r="B91" s="10" t="s">
         <v>80</v>
       </c>
       <c r="C91" s="3" t="s">
@@ -2832,8 +2997,8 @@
       <c r="J91" s="3"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="9"/>
-      <c r="B92" s="9"/>
+      <c r="A92" s="10"/>
+      <c r="B92" s="10"/>
       <c r="C92" s="3" t="s">
         <v>79</v>
       </c>
@@ -2854,10 +3019,10 @@
       <c r="J92" s="3"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="9">
+      <c r="A93" s="10">
         <v>30</v>
       </c>
-      <c r="B93" s="9" t="s">
+      <c r="B93" s="10" t="s">
         <v>93</v>
       </c>
       <c r="C93" s="3" t="s">
@@ -2880,8 +3045,8 @@
       <c r="J93" s="3"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="9"/>
-      <c r="B94" s="9"/>
+      <c r="A94" s="10"/>
+      <c r="B94" s="10"/>
       <c r="C94" s="3" t="s">
         <v>88</v>
       </c>
@@ -2902,8 +3067,8 @@
       <c r="J94" s="3"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="9"/>
-      <c r="B95" s="9"/>
+      <c r="A95" s="10"/>
+      <c r="B95" s="10"/>
       <c r="C95" s="3" t="s">
         <v>89</v>
       </c>
@@ -2924,8 +3089,8 @@
       <c r="J95" s="3"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="9"/>
-      <c r="B96" s="9"/>
+      <c r="A96" s="10"/>
+      <c r="B96" s="10"/>
       <c r="C96" s="3" t="s">
         <v>91</v>
       </c>
@@ -2948,10 +3113,10 @@
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="9">
+      <c r="A97" s="10">
         <v>31</v>
       </c>
-      <c r="B97" s="9" t="s">
+      <c r="B97" s="10" t="s">
         <v>100</v>
       </c>
       <c r="C97" s="3" t="s">
@@ -2974,8 +3139,8 @@
       <c r="J97" s="3"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="9"/>
-      <c r="B98" s="9"/>
+      <c r="A98" s="10"/>
+      <c r="B98" s="10"/>
       <c r="C98" s="3" t="s">
         <v>94</v>
       </c>
@@ -2998,8 +3163,8 @@
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="9"/>
-      <c r="B99" s="9"/>
+      <c r="A99" s="10"/>
+      <c r="B99" s="10"/>
       <c r="C99" s="3" t="s">
         <v>95</v>
       </c>
@@ -3022,8 +3187,8 @@
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="9"/>
-      <c r="B100" s="9"/>
+      <c r="A100" s="10"/>
+      <c r="B100" s="10"/>
       <c r="C100" s="3" t="s">
         <v>96</v>
       </c>
@@ -3046,10 +3211,10 @@
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="9">
+      <c r="A101" s="10">
         <v>32</v>
       </c>
-      <c r="B101" s="9" t="s">
+      <c r="B101" s="10" t="s">
         <v>102</v>
       </c>
       <c r="C101" s="3" t="s">
@@ -3072,8 +3237,8 @@
       <c r="J101" s="3"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="9"/>
-      <c r="B102" s="9"/>
+      <c r="A102" s="10"/>
+      <c r="B102" s="10"/>
       <c r="C102" s="3" t="s">
         <v>101</v>
       </c>
@@ -3094,10 +3259,10 @@
       <c r="J102" s="3"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="9">
+      <c r="A103" s="10">
         <v>33</v>
       </c>
-      <c r="B103" s="9" t="s">
+      <c r="B103" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C103" s="3" t="s">
@@ -3120,8 +3285,8 @@
       <c r="J103" s="3"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="9"/>
-      <c r="B104" s="9"/>
+      <c r="A104" s="10"/>
+      <c r="B104" s="10"/>
       <c r="C104" s="3" t="s">
         <v>101</v>
       </c>
@@ -3142,8 +3307,8 @@
       <c r="J104" s="3"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="9"/>
-      <c r="B105" s="9"/>
+      <c r="A105" s="10"/>
+      <c r="B105" s="10"/>
       <c r="C105" s="3" t="s">
         <v>71</v>
       </c>
@@ -3187,8 +3352,670 @@
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
     </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>35</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107" s="3">
+        <v>60</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="3">
+        <v>30</v>
+      </c>
+      <c r="H107" s="3"/>
+      <c r="I107" s="3"/>
+      <c r="J107" s="3"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>36</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E108" s="3">
+        <v>60</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="3">
+        <v>30</v>
+      </c>
+      <c r="H108" s="3"/>
+      <c r="I108" s="3"/>
+      <c r="J108" s="3"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="12">
+        <v>37</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E109" s="3">
+        <v>100</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="3">
+        <v>50</v>
+      </c>
+      <c r="H109" s="3"/>
+      <c r="I109" s="3"/>
+      <c r="J109" s="3"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="13"/>
+      <c r="B110" s="10"/>
+      <c r="C110" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E110" s="3">
+        <v>100</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G110" s="3">
+        <v>50</v>
+      </c>
+      <c r="H110" s="3"/>
+      <c r="I110" s="3"/>
+      <c r="J110" s="3"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="13"/>
+      <c r="B111" s="10"/>
+      <c r="C111" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E111" s="3">
+        <v>10</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G111" s="3">
+        <v>3</v>
+      </c>
+      <c r="H111" s="3"/>
+      <c r="I111" s="3"/>
+      <c r="J111" s="3"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="13"/>
+      <c r="B112" s="10"/>
+      <c r="C112" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E112" s="6">
+        <v>50</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G112" s="5">
+        <v>20</v>
+      </c>
+      <c r="H112" s="3"/>
+      <c r="I112" s="3"/>
+      <c r="J112" s="3"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="14"/>
+      <c r="B113" s="10"/>
+      <c r="C113" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E113" s="6">
+        <v>200</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G113" s="6">
+        <v>50</v>
+      </c>
+      <c r="H113" s="3"/>
+      <c r="I113" s="3"/>
+      <c r="J113" s="3"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>38</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E114" s="3">
+        <v>50</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G114" s="3">
+        <v>20</v>
+      </c>
+      <c r="H114" s="3"/>
+      <c r="I114" s="3"/>
+      <c r="J114" s="3"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <v>39</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E115" s="3">
+        <v>50</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G115" s="3">
+        <v>20</v>
+      </c>
+      <c r="H115" s="3"/>
+      <c r="I115" s="3"/>
+      <c r="J115" s="3"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="12">
+        <v>40</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E116" s="3">
+        <v>50</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G116" s="3">
+        <v>20</v>
+      </c>
+      <c r="H116" s="3"/>
+      <c r="I116" s="3"/>
+      <c r="J116" s="3"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="13"/>
+      <c r="B117" s="10"/>
+      <c r="C117" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E117" s="3">
+        <v>80</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G117" s="5">
+        <v>30</v>
+      </c>
+      <c r="H117" s="3"/>
+      <c r="I117" s="3"/>
+      <c r="J117" s="3"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="13"/>
+      <c r="B118" s="10"/>
+      <c r="C118" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E118" s="3">
+        <v>100</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="3">
+        <v>30</v>
+      </c>
+      <c r="H118" s="3"/>
+      <c r="I118" s="3"/>
+      <c r="J118" s="3"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="14"/>
+      <c r="B119" s="10"/>
+      <c r="C119" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E119" s="3"/>
+      <c r="F119" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G119" s="3"/>
+      <c r="H119" s="3"/>
+      <c r="I119" s="3"/>
+      <c r="J119" s="3"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="3"/>
+      <c r="B120" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E120" s="3">
+        <v>50</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G120" s="3">
+        <v>20</v>
+      </c>
+      <c r="H120" s="3"/>
+      <c r="I120" s="3"/>
+      <c r="J120" s="3"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="3"/>
+      <c r="B121" s="10"/>
+      <c r="C121" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E121" s="3">
+        <v>50</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G121" s="5">
+        <v>10</v>
+      </c>
+      <c r="H121" s="3"/>
+      <c r="I121" s="3"/>
+      <c r="J121" s="3"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="3"/>
+      <c r="B122" s="10"/>
+      <c r="C122" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E122" s="3">
+        <v>80</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="3">
+        <v>15</v>
+      </c>
+      <c r="H122" s="3"/>
+      <c r="I122" s="3"/>
+      <c r="J122" s="3"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="3"/>
+      <c r="B123" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E123" s="3">
+        <v>50</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G123" s="3">
+        <v>20</v>
+      </c>
+      <c r="H123" s="3"/>
+      <c r="I123" s="3"/>
+      <c r="J123" s="3"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="3"/>
+      <c r="B124" s="10"/>
+      <c r="C124" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E124" s="3">
+        <v>100</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G124" s="5">
+        <v>50</v>
+      </c>
+      <c r="H124" s="3"/>
+      <c r="I124" s="3"/>
+      <c r="J124" s="3"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="3"/>
+      <c r="B125" s="10"/>
+      <c r="C125" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E125" s="3">
+        <v>130</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="3">
+        <v>50</v>
+      </c>
+      <c r="H125" s="3"/>
+      <c r="I125" s="3"/>
+      <c r="J125" s="3"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="3"/>
+      <c r="B126" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E126" s="3">
+        <v>50</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G126" s="3">
+        <v>20</v>
+      </c>
+      <c r="H126" s="3"/>
+      <c r="I126" s="3"/>
+      <c r="J126" s="3"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" s="3"/>
+      <c r="B127" s="10"/>
+      <c r="C127" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E127" s="3">
+        <v>130</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="5">
+        <v>60</v>
+      </c>
+      <c r="H127" s="3"/>
+      <c r="I127" s="3"/>
+      <c r="J127" s="3"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="3"/>
+      <c r="B128" s="10"/>
+      <c r="C128" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E128" s="3">
+        <v>100</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G128" s="3">
+        <v>60</v>
+      </c>
+      <c r="H128" s="3"/>
+      <c r="I128" s="3"/>
+      <c r="J128" s="3"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="3"/>
+      <c r="B129" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E129" s="3">
+        <v>50</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G129" s="3">
+        <v>20</v>
+      </c>
+      <c r="H129" s="3"/>
+      <c r="I129" s="3"/>
+      <c r="J129" s="3"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="3"/>
+      <c r="B130" s="10"/>
+      <c r="C130" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E130" s="3">
+        <v>90</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="5">
+        <v>50</v>
+      </c>
+      <c r="H130" s="3"/>
+      <c r="I130" s="3"/>
+      <c r="J130" s="3"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" s="3"/>
+      <c r="B131" s="10"/>
+      <c r="C131" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E131" s="3">
+        <v>60</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G131" s="3">
+        <v>50</v>
+      </c>
+      <c r="H131" s="3"/>
+      <c r="I131" s="3"/>
+      <c r="J131" s="3"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" s="3"/>
+      <c r="B132" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E132" s="3">
+        <v>50</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G132" s="3">
+        <v>20</v>
+      </c>
+      <c r="H132" s="3"/>
+      <c r="I132" s="3"/>
+      <c r="J132" s="3"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B133" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E133" s="3">
+        <v>50</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G133" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B134" s="9"/>
+      <c r="C134" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E134" s="3">
+        <v>100</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B135" s="9"/>
+      <c r="C135" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E135" s="3">
+        <v>60</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G135" s="3">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="65">
+    <mergeCell ref="B129:B131"/>
+    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="A116:A119"/>
+    <mergeCell ref="B133:B135"/>
     <mergeCell ref="A101:A102"/>
     <mergeCell ref="A103:A105"/>
     <mergeCell ref="A83:A85"/>
@@ -3209,25 +4036,23 @@
     <mergeCell ref="B73:B74"/>
     <mergeCell ref="B75:B76"/>
     <mergeCell ref="B78:B81"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A42:A46"/>
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A25:A28"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="A53:A54"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="B7:B11"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="B12:B16"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="A12:A16"/>
     <mergeCell ref="B62:B63"/>
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B25:B28"/>
@@ -3239,12 +4064,19 @@
     <mergeCell ref="B49:B52"/>
     <mergeCell ref="B53:B54"/>
     <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B59"/>
     <mergeCell ref="B103:B105"/>
     <mergeCell ref="B83:B85"/>
     <mergeCell ref="B86:B90"/>
     <mergeCell ref="B91:B92"/>
     <mergeCell ref="B93:B96"/>
     <mergeCell ref="B97:B100"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B109:B113"/>
+    <mergeCell ref="B116:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B123:B125"/>
+    <mergeCell ref="B126:B128"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DPI_Table_Audit/Audit-Process-Sheet.xlsx
+++ b/DPI_Table_Audit/Audit-Process-Sheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="259">
   <si>
     <t>Column Name</t>
   </si>
@@ -419,13 +419,391 @@
   </si>
   <si>
     <t>MstSchooltype</t>
+  </si>
+  <si>
+    <t>SectionCode</t>
+  </si>
+  <si>
+    <t>MstSection</t>
+  </si>
+  <si>
+    <t>DocumentType</t>
+  </si>
+  <si>
+    <t>DocumentLevel</t>
+  </si>
+  <si>
+    <t>if no need then delete</t>
+  </si>
+  <si>
+    <t>DocumentType_Hindi</t>
+  </si>
+  <si>
+    <t>DocumentCode</t>
+  </si>
+  <si>
+    <t>MstDocumentType</t>
+  </si>
+  <si>
+    <t>GenderCode</t>
+  </si>
+  <si>
+    <t>GenderEng</t>
+  </si>
+  <si>
+    <t>GenderHin</t>
+  </si>
+  <si>
+    <t>CreatedIp</t>
+  </si>
+  <si>
+    <t>MstGender</t>
+  </si>
+  <si>
+    <t>OfficetypeLevelCodeNo</t>
+  </si>
+  <si>
+    <t>OfficetypeLevelNameEng</t>
+  </si>
+  <si>
+    <t>MstOfficeTypelevels</t>
+  </si>
+  <si>
+    <t>OfficetypeCode</t>
+  </si>
+  <si>
+    <t>OfficetypeNameHin</t>
+  </si>
+  <si>
+    <t>HierarchyOrder</t>
+  </si>
+  <si>
+    <t>MstOfficeTypes</t>
+  </si>
+  <si>
+    <t>MstPanelDesignationMapping</t>
+  </si>
+  <si>
+    <t>Panel_Name</t>
+  </si>
+  <si>
+    <t>MstPanelGroup</t>
+  </si>
+  <si>
+    <t>BankName</t>
+  </si>
+  <si>
+    <t>MstBank</t>
+  </si>
+  <si>
+    <t>BloodGroupName</t>
+  </si>
+  <si>
+    <t>MstBlood</t>
+  </si>
+  <si>
+    <t>BoardNameHin</t>
+  </si>
+  <si>
+    <t>MstBoard</t>
+  </si>
+  <si>
+    <t>CasteNameHin</t>
+  </si>
+  <si>
+    <t>CastCode</t>
+  </si>
+  <si>
+    <t>MstCaste</t>
+  </si>
+  <si>
+    <t>ClassNameEng</t>
+  </si>
+  <si>
+    <t>ClassNameHin</t>
+  </si>
+  <si>
+    <t>ClassCode</t>
+  </si>
+  <si>
+    <t>MstCategory</t>
+  </si>
+  <si>
+    <t>MstClassToSubject</t>
+  </si>
+  <si>
+    <t>MstClasses</t>
+  </si>
+  <si>
+    <t>Audit Date</t>
+  </si>
+  <si>
+    <t>DesignationTypeCode</t>
+  </si>
+  <si>
+    <t>MstDesignationType</t>
+  </si>
+  <si>
+    <t>FinancialYear</t>
+  </si>
+  <si>
+    <t>UseOfLearningAid</t>
+  </si>
+  <si>
+    <t>UseOfLessonPlan</t>
+  </si>
+  <si>
+    <t>InnovationandImpact</t>
+  </si>
+  <si>
+    <t>NotebookChecking</t>
+  </si>
+  <si>
+    <t>RemedialTeaching</t>
+  </si>
+  <si>
+    <t>ExtraClasses</t>
+  </si>
+  <si>
+    <t>SportsLiteraryCulturalActivity</t>
+  </si>
+  <si>
+    <t>ExtraOrdiaryHygeneWork</t>
+  </si>
+  <si>
+    <t>UseofICTTeachingLearning</t>
+  </si>
+  <si>
+    <t>OtherContributions</t>
+  </si>
+  <si>
+    <t>Gvid</t>
+  </si>
+  <si>
+    <t>MstEmployeeAcademicandExtraCurricularActivityPerformanceSheet</t>
+  </si>
+  <si>
+    <t>MstGradeLevel</t>
+  </si>
+  <si>
+    <t>MstGradePay</t>
+  </si>
+  <si>
+    <t>JanpadPanchayatEng</t>
+  </si>
+  <si>
+    <t>JanpadPanchayatHin</t>
+  </si>
+  <si>
+    <t>MstJanpadPanchayat</t>
+  </si>
+  <si>
+    <t>JilaPanchayaNameEng</t>
+  </si>
+  <si>
+    <t>JilaPanchayaNameHin</t>
+  </si>
+  <si>
+    <t>MstJilaPanchayat</t>
+  </si>
+  <si>
+    <t>NagarNigamNameHin</t>
+  </si>
+  <si>
+    <t>NagarNigamNameEng</t>
+  </si>
+  <si>
+    <t>MstNagarNigam</t>
+  </si>
+  <si>
+    <t>NagarPalikaNameEng</t>
+  </si>
+  <si>
+    <t>NagarPalikaNameHin</t>
+  </si>
+  <si>
+    <t>MstNagarPalika</t>
+  </si>
+  <si>
+    <t>SchoolMgmtNameHin</t>
+  </si>
+  <si>
+    <t>SchoolMgmtNameEng</t>
+  </si>
+  <si>
+    <t>MstPayScale</t>
+  </si>
+  <si>
+    <t>MstSchoolManagementGroupDetail</t>
+  </si>
+  <si>
+    <t>SchoolSubCatDetail</t>
+  </si>
+  <si>
+    <t>Higherrange</t>
+  </si>
+  <si>
+    <t>Lowerrange</t>
+  </si>
+  <si>
+    <t>MstSchoolSubCategoryDetail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if no need then delete
+</t>
+  </si>
+  <si>
+    <t>MstAddEmployeeACR</t>
+  </si>
+  <si>
+    <t>ReportingOfficerId</t>
+  </si>
+  <si>
+    <t>UpdatedByIp</t>
+  </si>
+  <si>
+    <t>DistrictNameEng</t>
+  </si>
+  <si>
+    <t>DistrictNameHin</t>
+  </si>
+  <si>
+    <t>MstDistricts</t>
+  </si>
+  <si>
+    <t>DivisionNameEng</t>
+  </si>
+  <si>
+    <t>DivisionNameHin</t>
+  </si>
+  <si>
+    <t>MstDivision</t>
+  </si>
+  <si>
+    <t>MstEmployeeAcademican…ivityPerformanceSheet</t>
+  </si>
+  <si>
+    <t>DesignationName</t>
+  </si>
+  <si>
+    <t>EmployeeId</t>
+  </si>
+  <si>
+    <t>EmployeeName</t>
+  </si>
+  <si>
+    <t>SupportingDocument</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>MstAnnualConfidentialReport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no need can delete because DesignationId using
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no need can delete because EmployeeId using
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can take custom with datetime and some uniqueno
+</t>
+  </si>
+  <si>
+    <t>MartialStatusNameEng</t>
+  </si>
+  <si>
+    <t>MartialStatusHin</t>
+  </si>
+  <si>
+    <t>MstApplicantMartialStatus</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>AttachingDocument</t>
+  </si>
+  <si>
+    <t>LeaveReason</t>
+  </si>
+  <si>
+    <t>FirstAppCreatedByIP</t>
+  </si>
+  <si>
+    <t>FourthAppCreatedByIP</t>
+  </si>
+  <si>
+    <t>SecondAppCreatedOn</t>
+  </si>
+  <si>
+    <t>ThirdAppCreatedByIP</t>
+  </si>
+  <si>
+    <t>FirstApproverComment</t>
+  </si>
+  <si>
+    <t>FourthApproverComment</t>
+  </si>
+  <si>
+    <t>SecondApproverComment</t>
+  </si>
+  <si>
+    <t>ThirdApproverComment</t>
+  </si>
+  <si>
+    <t>MstApplyLeave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value not more than 4 digit
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">should be uniquewithid and datetime
+</t>
+  </si>
+  <si>
+    <t>DepartmentNameEng</t>
+  </si>
+  <si>
+    <t>DepartmentNameHin</t>
+  </si>
+  <si>
+    <t>CodeNo</t>
+  </si>
+  <si>
+    <t>MstAppointDepartment</t>
+  </si>
+  <si>
+    <t>BankTypeName</t>
+  </si>
+  <si>
+    <t>MstBankType</t>
+  </si>
+  <si>
+    <t>MstBasicFacilities</t>
+  </si>
+  <si>
+    <t>should be unique with datetime</t>
+  </si>
+  <si>
+    <t>MstCircularModule</t>
+  </si>
+  <si>
+    <t>DocTypeNameHin</t>
+  </si>
+  <si>
+    <t>MstCivilDocumentType</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,6 +819,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -450,7 +834,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -471,15 +855,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -519,22 +894,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -556,14 +920,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -571,10 +935,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -881,27 +1258,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J135"/>
+  <dimension ref="A1:Z294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="D142" sqref="D142"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="A294" sqref="A294"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" customWidth="1"/>
-    <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" customWidth="1"/>
-    <col min="10" max="10" width="40.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="3" customWidth="1"/>
+    <col min="5" max="6" width="20.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="19" style="3" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="40.85546875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" style="3" customWidth="1"/>
+    <col min="12" max="15" width="9.140625" style="3"/>
+    <col min="16" max="16" width="9.140625" style="3" customWidth="1"/>
+    <col min="17" max="26" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="20" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -931,8 +1312,11 @@
       <c r="J1" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -955,10 +1339,8 @@
         <v>20</v>
       </c>
       <c r="H2" s="4"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="3" t="s">
@@ -977,10 +1359,8 @@
         <v>20</v>
       </c>
       <c r="H3" s="4"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="3" t="s">
@@ -999,10 +1379,8 @@
         <v>80</v>
       </c>
       <c r="H4" s="4"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="3" t="s">
@@ -1021,10 +1399,8 @@
         <v>11</v>
       </c>
       <c r="H5" s="4"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="3" t="s">
@@ -1043,10 +1419,8 @@
         <v>100</v>
       </c>
       <c r="H6" s="4"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="10">
         <v>2</v>
       </c>
@@ -1068,11 +1442,8 @@
       <c r="G7" s="3">
         <v>20</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="3" t="s">
@@ -1090,11 +1461,8 @@
       <c r="G8" s="5">
         <v>20</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="3" t="s">
@@ -1112,11 +1480,8 @@
       <c r="G9" s="3">
         <v>80</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="3" t="s">
@@ -1134,11 +1499,8 @@
       <c r="G10" s="3">
         <v>11</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="3" t="s">
@@ -1156,11 +1518,8 @@
       <c r="G11" s="3">
         <v>100</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="10">
         <v>3</v>
       </c>
@@ -1182,11 +1541,8 @@
       <c r="G12" s="3">
         <v>20</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="3" t="s">
@@ -1204,11 +1560,8 @@
       <c r="G13" s="5">
         <v>20</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="3" t="s">
@@ -1226,11 +1579,8 @@
       <c r="G14" s="3">
         <v>50</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="3" t="s">
@@ -1245,12 +1595,8 @@
       <c r="F15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="3" t="s">
@@ -1268,11 +1614,8 @@
       <c r="G16" s="5">
         <v>5</v>
       </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="10">
         <v>4</v>
       </c>
@@ -1294,11 +1637,9 @@
       <c r="G17" s="3">
         <v>20</v>
       </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="3" t="s">
@@ -1316,11 +1657,9 @@
       <c r="G18" s="5">
         <v>20</v>
       </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="3" t="s">
@@ -1335,12 +1674,9 @@
       <c r="F19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="3" t="s">
@@ -1358,29 +1694,21 @@
       <c r="G20" s="3">
         <v>50</v>
       </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
       <c r="J20" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
       <c r="J21" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="A22" s="10">
         <v>5</v>
       </c>
@@ -1402,11 +1730,8 @@
       <c r="G22" s="3">
         <v>20</v>
       </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="3" t="s">
@@ -1424,11 +1749,8 @@
       <c r="G23" s="5">
         <v>20</v>
       </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="3" t="s">
@@ -1446,11 +1768,8 @@
       <c r="G24" s="3">
         <v>3000</v>
       </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="10">
         <v>6</v>
       </c>
@@ -1472,11 +1791,8 @@
       <c r="G25" s="3">
         <v>20</v>
       </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="3" t="s">
@@ -1494,11 +1810,8 @@
       <c r="G26" s="5">
         <v>20</v>
       </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="3" t="s">
@@ -1513,12 +1826,8 @@
       <c r="F27" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="3" t="s">
@@ -1536,11 +1845,8 @@
       <c r="G28" s="3">
         <v>50</v>
       </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="10">
         <v>7</v>
       </c>
@@ -1562,11 +1868,8 @@
       <c r="G29" s="3">
         <v>20</v>
       </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="3" t="s">
@@ -1584,11 +1887,8 @@
       <c r="G30" s="5">
         <v>20</v>
       </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="10">
         <v>8</v>
       </c>
@@ -1610,11 +1910,8 @@
       <c r="G31" s="3">
         <v>20</v>
       </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="3" t="s">
@@ -1632,11 +1929,8 @@
       <c r="G32" s="5">
         <v>20</v>
       </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="3" t="s">
@@ -1651,12 +1945,8 @@
       <c r="F33" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="3" t="s">
@@ -1674,11 +1964,8 @@
       <c r="G34" s="3">
         <v>10</v>
       </c>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="3" t="s">
@@ -1696,11 +1983,8 @@
       <c r="G35" s="3">
         <v>11</v>
       </c>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="3" t="s">
@@ -1718,11 +2002,8 @@
       <c r="G36" s="6">
         <v>80</v>
       </c>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="3" t="s">
@@ -1740,11 +2021,8 @@
       <c r="G37" s="6">
         <v>100</v>
       </c>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="10">
         <v>9</v>
       </c>
@@ -1766,11 +2044,8 @@
       <c r="G38" s="3">
         <v>20</v>
       </c>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="3" t="s">
@@ -1788,11 +2063,8 @@
       <c r="G39" s="3">
         <v>50</v>
       </c>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="3" t="s">
@@ -1810,11 +2082,8 @@
       <c r="G40" s="3">
         <v>50</v>
       </c>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="3" t="s">
@@ -1832,11 +2101,8 @@
       <c r="G41" s="3">
         <v>6</v>
       </c>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="10">
         <v>10</v>
       </c>
@@ -1858,11 +2124,8 @@
       <c r="G42" s="3">
         <v>20</v>
       </c>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="3" t="s">
@@ -1880,11 +2143,8 @@
       <c r="G43" s="5">
         <v>20</v>
       </c>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="3" t="s">
@@ -1902,11 +2162,8 @@
       <c r="G44" s="3">
         <v>20</v>
       </c>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="3" t="s">
@@ -1924,11 +2181,8 @@
       <c r="G45" s="3">
         <v>10</v>
       </c>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="3" t="s">
@@ -1946,11 +2200,8 @@
       <c r="G46" s="6">
         <v>20</v>
       </c>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="10">
         <v>11</v>
       </c>
@@ -1972,11 +2223,8 @@
       <c r="G47" s="3">
         <v>20</v>
       </c>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="3" t="s">
@@ -1994,11 +2242,8 @@
       <c r="G48" s="5">
         <v>11</v>
       </c>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="10">
         <v>12</v>
       </c>
@@ -2020,11 +2265,8 @@
       <c r="G49" s="3">
         <v>20</v>
       </c>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="3" t="s">
@@ -2042,11 +2284,8 @@
       <c r="G50" s="3">
         <v>50</v>
       </c>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="3" t="s">
@@ -2064,11 +2303,8 @@
       <c r="G51" s="3">
         <v>40</v>
       </c>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="3" t="s">
@@ -2086,11 +2322,8 @@
       <c r="G52" s="3">
         <v>10</v>
       </c>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="10">
         <v>13</v>
       </c>
@@ -2112,11 +2345,8 @@
       <c r="G53" s="3">
         <v>20</v>
       </c>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="3" t="s">
@@ -2134,11 +2364,8 @@
       <c r="G54" s="5">
         <v>25</v>
       </c>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="10">
         <v>14</v>
       </c>
@@ -2160,11 +2387,8 @@
       <c r="G55" s="3">
         <v>20</v>
       </c>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="3" t="s">
@@ -2182,11 +2406,8 @@
       <c r="G56" s="5">
         <v>20</v>
       </c>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="3" t="s">
@@ -2204,11 +2425,8 @@
       <c r="G57" s="3">
         <v>5000</v>
       </c>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="10">
         <v>15</v>
       </c>
@@ -2230,11 +2448,8 @@
       <c r="G58" s="3">
         <v>20</v>
       </c>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="3" t="s">
@@ -2252,12 +2467,9 @@
       <c r="G59" s="5">
         <v>30</v>
       </c>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="8">
         <v>16</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -2278,12 +2490,9 @@
       <c r="G60" s="3">
         <v>20</v>
       </c>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="8">
         <v>17</v>
       </c>
       <c r="B61" s="2" t="s">
@@ -2304,11 +2513,8 @@
       <c r="G61" s="3">
         <v>20</v>
       </c>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="10">
         <v>18</v>
       </c>
@@ -2330,11 +2536,8 @@
       <c r="G62" s="3">
         <v>20</v>
       </c>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="3" t="s">
@@ -2352,12 +2555,9 @@
       <c r="G63" s="5">
         <v>20</v>
       </c>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="8">
         <v>19</v>
       </c>
       <c r="B64" s="2" t="s">
@@ -2378,11 +2578,8 @@
       <c r="G64" s="3">
         <v>20</v>
       </c>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="10">
         <v>20</v>
       </c>
@@ -2404,11 +2601,8 @@
       <c r="G65" s="3">
         <v>20</v>
       </c>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="3" t="s">
@@ -2426,11 +2620,8 @@
       <c r="G66" s="3">
         <v>20</v>
       </c>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="10"/>
       <c r="B67" s="10"/>
       <c r="C67" s="3" t="s">
@@ -2439,16 +2630,12 @@
       <c r="D67" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E67" s="3"/>
       <c r="F67" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G67" s="5"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="10">
         <v>21</v>
       </c>
@@ -2470,11 +2657,8 @@
       <c r="G68" s="3">
         <v>20</v>
       </c>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="3" t="s">
@@ -2483,16 +2667,12 @@
       <c r="D69" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E69" s="3"/>
       <c r="F69" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G69" s="5"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="10"/>
       <c r="B70" s="10"/>
       <c r="C70" s="3" t="s">
@@ -2507,12 +2687,8 @@
       <c r="F70" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="3" t="s">
@@ -2530,11 +2706,8 @@
       <c r="G71" s="3">
         <v>50</v>
       </c>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
       <c r="C72" s="3" t="s">
@@ -2552,11 +2725,8 @@
       <c r="G72" s="3">
         <v>50</v>
       </c>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="10">
         <v>22</v>
       </c>
@@ -2578,11 +2748,8 @@
       <c r="G73" s="3">
         <v>20</v>
       </c>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="10"/>
       <c r="B74" s="10"/>
       <c r="C74" s="3" t="s">
@@ -2600,11 +2767,8 @@
       <c r="G74" s="3">
         <v>1000</v>
       </c>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="10">
         <v>23</v>
       </c>
@@ -2626,11 +2790,8 @@
       <c r="G75" s="3">
         <v>10</v>
       </c>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="10"/>
       <c r="B76" s="10"/>
       <c r="C76" s="3" t="s">
@@ -2648,12 +2809,9 @@
       <c r="G76" s="5">
         <v>5</v>
       </c>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="8">
         <v>24</v>
       </c>
       <c r="B77" s="2" t="s">
@@ -2674,11 +2832,8 @@
       <c r="G77" s="3">
         <v>20</v>
       </c>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="10">
         <v>25</v>
       </c>
@@ -2700,11 +2855,8 @@
       <c r="G78" s="3">
         <v>20</v>
       </c>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="10"/>
       <c r="B79" s="10"/>
       <c r="C79" s="3" t="s">
@@ -2722,11 +2874,8 @@
       <c r="G79" s="3">
         <v>50</v>
       </c>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="10"/>
       <c r="B80" s="10"/>
       <c r="C80" s="3" t="s">
@@ -2744,11 +2893,8 @@
       <c r="G80" s="3">
         <v>50</v>
       </c>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="10"/>
       <c r="B81" s="10"/>
       <c r="C81" s="3" t="s">
@@ -2766,11 +2912,8 @@
       <c r="G81" s="3">
         <v>6</v>
       </c>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="8">
         <v>26</v>
       </c>
@@ -2792,11 +2935,8 @@
       <c r="G82" s="3">
         <v>20</v>
       </c>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="10">
         <v>27</v>
       </c>
@@ -2818,11 +2958,8 @@
       <c r="G83" s="3">
         <v>20</v>
       </c>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="10"/>
       <c r="B84" s="10"/>
       <c r="C84" s="3" t="s">
@@ -2840,11 +2977,8 @@
       <c r="G84" s="3">
         <v>20</v>
       </c>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="10"/>
       <c r="B85" s="10"/>
       <c r="C85" s="3" t="s">
@@ -2853,16 +2987,12 @@
       <c r="D85" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E85" s="3"/>
       <c r="F85" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G85" s="5"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="10">
         <v>28</v>
       </c>
@@ -2884,11 +3014,8 @@
       <c r="G86" s="3">
         <v>20</v>
       </c>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="10"/>
       <c r="B87" s="10"/>
       <c r="C87" s="3" t="s">
@@ -2897,16 +3024,12 @@
       <c r="D87" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E87" s="3"/>
       <c r="F87" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G87" s="5"/>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
-      <c r="J87" s="3"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="10"/>
       <c r="B88" s="10"/>
       <c r="C88" s="3" t="s">
@@ -2921,12 +3044,8 @@
       <c r="F88" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="10"/>
       <c r="B89" s="10"/>
       <c r="C89" s="3" t="s">
@@ -2944,11 +3063,8 @@
       <c r="G89" s="3">
         <v>50</v>
       </c>
-      <c r="H89" s="3"/>
-      <c r="I89" s="3"/>
-      <c r="J89" s="3"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="10"/>
       <c r="B90" s="10"/>
       <c r="C90" s="3" t="s">
@@ -2966,11 +3082,8 @@
       <c r="G90" s="3">
         <v>50</v>
       </c>
-      <c r="H90" s="3"/>
-      <c r="I90" s="3"/>
-      <c r="J90" s="3"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="10">
         <v>29</v>
       </c>
@@ -2992,11 +3105,8 @@
       <c r="G91" s="3">
         <v>10</v>
       </c>
-      <c r="H91" s="3"/>
-      <c r="I91" s="3"/>
-      <c r="J91" s="3"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="10"/>
       <c r="B92" s="10"/>
       <c r="C92" s="3" t="s">
@@ -3014,11 +3124,8 @@
       <c r="G92" s="5">
         <v>5</v>
       </c>
-      <c r="H92" s="3"/>
-      <c r="I92" s="3"/>
-      <c r="J92" s="3"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="10">
         <v>30</v>
       </c>
@@ -3040,11 +3147,8 @@
       <c r="G93" s="3">
         <v>20</v>
       </c>
-      <c r="H93" s="3"/>
-      <c r="I93" s="3"/>
-      <c r="J93" s="3"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="10"/>
       <c r="B94" s="10"/>
       <c r="C94" s="3" t="s">
@@ -3062,11 +3166,8 @@
       <c r="G94" s="3">
         <v>30</v>
       </c>
-      <c r="H94" s="3"/>
-      <c r="I94" s="3"/>
-      <c r="J94" s="3"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="10"/>
       <c r="B95" s="10"/>
       <c r="C95" s="3" t="s">
@@ -3084,11 +3185,8 @@
       <c r="G95" s="3">
         <v>30</v>
       </c>
-      <c r="H95" s="3"/>
-      <c r="I95" s="3"/>
-      <c r="J95" s="3"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="10"/>
       <c r="B96" s="10"/>
       <c r="C96" s="3" t="s">
@@ -3106,13 +3204,11 @@
       <c r="G96" s="3">
         <v>5</v>
       </c>
-      <c r="H96" s="3"/>
-      <c r="I96" s="3"/>
       <c r="J96" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10">
       <c r="A97" s="10">
         <v>31</v>
       </c>
@@ -3134,11 +3230,8 @@
       <c r="G97" s="3">
         <v>20</v>
       </c>
-      <c r="H97" s="3"/>
-      <c r="I97" s="3"/>
-      <c r="J97" s="3"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="10"/>
       <c r="B98" s="10"/>
       <c r="C98" s="3" t="s">
@@ -3156,13 +3249,11 @@
       <c r="G98" s="3">
         <v>30</v>
       </c>
-      <c r="H98" s="3"/>
-      <c r="I98" s="3"/>
       <c r="J98" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10">
       <c r="A99" s="10"/>
       <c r="B99" s="10"/>
       <c r="C99" s="3" t="s">
@@ -3180,13 +3271,11 @@
       <c r="G99" s="3">
         <v>40</v>
       </c>
-      <c r="H99" s="3"/>
-      <c r="I99" s="3"/>
       <c r="J99" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10">
       <c r="A100" s="10"/>
       <c r="B100" s="10"/>
       <c r="C100" s="3" t="s">
@@ -3204,13 +3293,11 @@
       <c r="G100" s="6">
         <v>5</v>
       </c>
-      <c r="H100" s="3"/>
-      <c r="I100" s="3"/>
       <c r="J100" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10">
       <c r="A101" s="10">
         <v>32</v>
       </c>
@@ -3232,11 +3319,8 @@
       <c r="G101" s="3">
         <v>20</v>
       </c>
-      <c r="H101" s="3"/>
-      <c r="I101" s="3"/>
-      <c r="J101" s="3"/>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="10"/>
       <c r="B102" s="10"/>
       <c r="C102" s="3" t="s">
@@ -3254,11 +3338,8 @@
       <c r="G102" s="3">
         <v>20</v>
       </c>
-      <c r="H102" s="3"/>
-      <c r="I102" s="3"/>
-      <c r="J102" s="3"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="10">
         <v>33</v>
       </c>
@@ -3280,11 +3361,8 @@
       <c r="G103" s="3">
         <v>20</v>
       </c>
-      <c r="H103" s="3"/>
-      <c r="I103" s="3"/>
-      <c r="J103" s="3"/>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="10"/>
       <c r="B104" s="10"/>
       <c r="C104" s="3" t="s">
@@ -3302,11 +3380,8 @@
       <c r="G104" s="3">
         <v>20</v>
       </c>
-      <c r="H104" s="3"/>
-      <c r="I104" s="3"/>
-      <c r="J104" s="3"/>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="10"/>
       <c r="B105" s="10"/>
       <c r="C105" s="3" t="s">
@@ -3321,12 +3396,8 @@
       <c r="F105" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G105" s="3"/>
-      <c r="H105" s="3"/>
-      <c r="I105" s="3"/>
-      <c r="J105" s="3"/>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="8">
         <v>34</v>
       </c>
@@ -3348,12 +3419,9 @@
       <c r="G106" s="3">
         <v>20</v>
       </c>
-      <c r="H106" s="3"/>
-      <c r="I106" s="3"/>
-      <c r="J106" s="3"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="3">
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107" s="8">
         <v>35</v>
       </c>
       <c r="B107" s="2" t="s">
@@ -3374,12 +3442,9 @@
       <c r="G107" s="3">
         <v>30</v>
       </c>
-      <c r="H107" s="3"/>
-      <c r="I107" s="3"/>
-      <c r="J107" s="3"/>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="3">
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108" s="8">
         <v>36</v>
       </c>
       <c r="B108" s="2" t="s">
@@ -3400,12 +3465,9 @@
       <c r="G108" s="3">
         <v>30</v>
       </c>
-      <c r="H108" s="3"/>
-      <c r="I108" s="3"/>
-      <c r="J108" s="3"/>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="12">
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" s="10">
         <v>37</v>
       </c>
       <c r="B109" s="10" t="s">
@@ -3426,12 +3488,9 @@
       <c r="G109" s="3">
         <v>50</v>
       </c>
-      <c r="H109" s="3"/>
-      <c r="I109" s="3"/>
-      <c r="J109" s="3"/>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="13"/>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" s="10"/>
       <c r="B110" s="10"/>
       <c r="C110" s="3" t="s">
         <v>110</v>
@@ -3448,12 +3507,9 @@
       <c r="G110" s="3">
         <v>50</v>
       </c>
-      <c r="H110" s="3"/>
-      <c r="I110" s="3"/>
-      <c r="J110" s="3"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="13"/>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111" s="10"/>
       <c r="B111" s="10"/>
       <c r="C111" s="3" t="s">
         <v>111</v>
@@ -3470,12 +3526,9 @@
       <c r="G111" s="3">
         <v>3</v>
       </c>
-      <c r="H111" s="3"/>
-      <c r="I111" s="3"/>
-      <c r="J111" s="3"/>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="13"/>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" s="10"/>
       <c r="B112" s="10"/>
       <c r="C112" s="3" t="s">
         <v>41</v>
@@ -3492,12 +3545,9 @@
       <c r="G112" s="5">
         <v>20</v>
       </c>
-      <c r="H112" s="3"/>
-      <c r="I112" s="3"/>
-      <c r="J112" s="3"/>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="14"/>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="10"/>
       <c r="B113" s="10"/>
       <c r="C113" s="3" t="s">
         <v>112</v>
@@ -3514,15 +3564,12 @@
       <c r="G113" s="6">
         <v>50</v>
       </c>
-      <c r="H113" s="3"/>
-      <c r="I113" s="3"/>
-      <c r="J113" s="3"/>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="3">
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="8">
         <v>38</v>
       </c>
-      <c r="B114" s="11" t="s">
+      <c r="B114" s="9" t="s">
         <v>114</v>
       </c>
       <c r="C114" s="3" t="s">
@@ -3540,15 +3587,12 @@
       <c r="G114" s="3">
         <v>20</v>
       </c>
-      <c r="H114" s="3"/>
-      <c r="I114" s="3"/>
-      <c r="J114" s="3"/>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="3">
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="8">
         <v>39</v>
       </c>
-      <c r="B115" s="11" t="s">
+      <c r="B115" s="9" t="s">
         <v>115</v>
       </c>
       <c r="C115" s="3" t="s">
@@ -3566,12 +3610,9 @@
       <c r="G115" s="3">
         <v>20</v>
       </c>
-      <c r="H115" s="3"/>
-      <c r="I115" s="3"/>
-      <c r="J115" s="3"/>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="12">
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="10">
         <v>40</v>
       </c>
       <c r="B116" s="10" t="s">
@@ -3592,12 +3633,9 @@
       <c r="G116" s="3">
         <v>20</v>
       </c>
-      <c r="H116" s="3"/>
-      <c r="I116" s="3"/>
-      <c r="J116" s="3"/>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="13"/>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="10"/>
       <c r="B117" s="10"/>
       <c r="C117" s="3" t="s">
         <v>116</v>
@@ -3614,12 +3652,9 @@
       <c r="G117" s="5">
         <v>30</v>
       </c>
-      <c r="H117" s="3"/>
-      <c r="I117" s="3"/>
-      <c r="J117" s="3"/>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="13"/>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="10"/>
       <c r="B118" s="10"/>
       <c r="C118" s="3" t="s">
         <v>117</v>
@@ -3636,12 +3671,9 @@
       <c r="G118" s="3">
         <v>30</v>
       </c>
-      <c r="H118" s="3"/>
-      <c r="I118" s="3"/>
-      <c r="J118" s="3"/>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="14"/>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="10"/>
       <c r="B119" s="10"/>
       <c r="C119" s="3" t="s">
         <v>118</v>
@@ -3649,17 +3681,14 @@
       <c r="D119" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E119" s="3"/>
       <c r="F119" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="G119" s="3"/>
-      <c r="H119" s="3"/>
-      <c r="I119" s="3"/>
-      <c r="J119" s="3"/>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="3"/>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="11">
+        <v>41</v>
+      </c>
       <c r="B120" s="10" t="s">
         <v>123</v>
       </c>
@@ -3678,12 +3707,9 @@
       <c r="G120" s="3">
         <v>20</v>
       </c>
-      <c r="H120" s="3"/>
-      <c r="I120" s="3"/>
-      <c r="J120" s="3"/>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="3"/>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="12"/>
       <c r="B121" s="10"/>
       <c r="C121" s="3" t="s">
         <v>121</v>
@@ -3700,12 +3726,9 @@
       <c r="G121" s="5">
         <v>10</v>
       </c>
-      <c r="H121" s="3"/>
-      <c r="I121" s="3"/>
-      <c r="J121" s="3"/>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="3"/>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="13"/>
       <c r="B122" s="10"/>
       <c r="C122" s="3" t="s">
         <v>122</v>
@@ -3722,12 +3745,11 @@
       <c r="G122" s="3">
         <v>15</v>
       </c>
-      <c r="H122" s="3"/>
-      <c r="I122" s="3"/>
-      <c r="J122" s="3"/>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="3"/>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="11">
+        <v>42</v>
+      </c>
       <c r="B123" s="10" t="s">
         <v>125</v>
       </c>
@@ -3746,12 +3768,9 @@
       <c r="G123" s="3">
         <v>20</v>
       </c>
-      <c r="H123" s="3"/>
-      <c r="I123" s="3"/>
-      <c r="J123" s="3"/>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="3"/>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="12"/>
       <c r="B124" s="10"/>
       <c r="C124" s="3" t="s">
         <v>124</v>
@@ -3768,12 +3787,9 @@
       <c r="G124" s="5">
         <v>50</v>
       </c>
-      <c r="H124" s="3"/>
-      <c r="I124" s="3"/>
-      <c r="J124" s="3"/>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="3"/>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="13"/>
       <c r="B125" s="10"/>
       <c r="C125" s="3" t="s">
         <v>122</v>
@@ -3790,12 +3806,11 @@
       <c r="G125" s="3">
         <v>50</v>
       </c>
-      <c r="H125" s="3"/>
-      <c r="I125" s="3"/>
-      <c r="J125" s="3"/>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="3"/>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="11">
+        <v>43</v>
+      </c>
       <c r="B126" s="10" t="s">
         <v>128</v>
       </c>
@@ -3814,12 +3829,9 @@
       <c r="G126" s="3">
         <v>20</v>
       </c>
-      <c r="H126" s="3"/>
-      <c r="I126" s="3"/>
-      <c r="J126" s="3"/>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="3"/>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="12"/>
       <c r="B127" s="10"/>
       <c r="C127" s="3" t="s">
         <v>126</v>
@@ -3836,12 +3848,9 @@
       <c r="G127" s="5">
         <v>60</v>
       </c>
-      <c r="H127" s="3"/>
-      <c r="I127" s="3"/>
-      <c r="J127" s="3"/>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="3"/>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="13"/>
       <c r="B128" s="10"/>
       <c r="C128" s="3" t="s">
         <v>127</v>
@@ -3858,12 +3867,11 @@
       <c r="G128" s="3">
         <v>60</v>
       </c>
-      <c r="H128" s="3"/>
-      <c r="I128" s="3"/>
-      <c r="J128" s="3"/>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="3"/>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129" s="11">
+        <v>44</v>
+      </c>
       <c r="B129" s="10" t="s">
         <v>130</v>
       </c>
@@ -3882,12 +3890,9 @@
       <c r="G129" s="3">
         <v>20</v>
       </c>
-      <c r="H129" s="3"/>
-      <c r="I129" s="3"/>
-      <c r="J129" s="3"/>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="3"/>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" s="12"/>
       <c r="B130" s="10"/>
       <c r="C130" s="3" t="s">
         <v>129</v>
@@ -3904,12 +3909,9 @@
       <c r="G130" s="5">
         <v>50</v>
       </c>
-      <c r="H130" s="3"/>
-      <c r="I130" s="3"/>
-      <c r="J130" s="3"/>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="3"/>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="A131" s="13"/>
       <c r="B131" s="10"/>
       <c r="C131" s="3" t="s">
         <v>127</v>
@@ -3926,12 +3928,11 @@
       <c r="G131" s="3">
         <v>50</v>
       </c>
-      <c r="H131" s="3"/>
-      <c r="I131" s="3"/>
-      <c r="J131" s="3"/>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="3"/>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132" s="8">
+        <v>45</v>
+      </c>
       <c r="B132" s="3" t="s">
         <v>131</v>
       </c>
@@ -3950,12 +3951,12 @@
       <c r="G132" s="3">
         <v>20</v>
       </c>
-      <c r="H132" s="3"/>
-      <c r="I132" s="3"/>
-      <c r="J132" s="3"/>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B133" s="15" t="s">
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133" s="11">
+        <v>46</v>
+      </c>
+      <c r="B133" s="10" t="s">
         <v>134</v>
       </c>
       <c r="C133" s="3" t="s">
@@ -3974,8 +3975,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B134" s="9"/>
+    <row r="134" spans="1:10">
+      <c r="A134" s="12"/>
+      <c r="B134" s="10"/>
       <c r="C134" s="3" t="s">
         <v>132</v>
       </c>
@@ -3992,8 +3994,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B135" s="9"/>
+    <row r="135" spans="1:10">
+      <c r="A135" s="13"/>
+      <c r="B135" s="10"/>
       <c r="C135" s="3" t="s">
         <v>133</v>
       </c>
@@ -4010,49 +4013,3226 @@
         <v>20</v>
       </c>
     </row>
+    <row r="136" spans="1:10">
+      <c r="A136" s="11">
+        <v>47</v>
+      </c>
+      <c r="B136" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E136" s="3">
+        <v>50</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G136" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
+      <c r="A137" s="12"/>
+      <c r="B137" s="10"/>
+      <c r="C137" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E137" s="3">
+        <v>50</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G137" s="3">
+        <v>20</v>
+      </c>
+      <c r="I137" s="4"/>
+    </row>
+    <row r="138" spans="1:10">
+      <c r="A138" s="13"/>
+      <c r="B138" s="10"/>
+      <c r="C138" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E138" s="3">
+        <v>10</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I138" s="4"/>
+    </row>
+    <row r="139" spans="1:10">
+      <c r="A139" s="11">
+        <v>48</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E139" s="3">
+        <v>80</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G139" s="3">
+        <v>50</v>
+      </c>
+      <c r="I139" s="4"/>
+    </row>
+    <row r="140" spans="1:10">
+      <c r="A140" s="12"/>
+      <c r="B140" s="10"/>
+      <c r="C140" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E140" s="3">
+        <v>200</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G140" s="3">
+        <v>11</v>
+      </c>
+      <c r="I140" s="4"/>
+      <c r="J140" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
+      <c r="A141" s="12"/>
+      <c r="B141" s="10"/>
+      <c r="C141" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E141" s="3">
+        <v>200</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="3">
+        <v>50</v>
+      </c>
+      <c r="I141" s="4"/>
+    </row>
+    <row r="142" spans="1:10">
+      <c r="A142" s="13"/>
+      <c r="B142" s="10"/>
+      <c r="C142" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F142" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I142" s="4"/>
+    </row>
+    <row r="143" spans="1:10">
+      <c r="A143" s="11">
+        <v>49</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E143" s="3">
+        <v>10</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G143" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
+      <c r="A144" s="12"/>
+      <c r="B144" s="10"/>
+      <c r="C144" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E144" s="3">
+        <v>20</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G144" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="12"/>
+      <c r="B145" s="10"/>
+      <c r="C145" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E145" s="3">
+        <v>25</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="13"/>
+      <c r="B146" s="10"/>
+      <c r="C146" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E146" s="3">
+        <v>50</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G146" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="11">
+        <v>50</v>
+      </c>
+      <c r="B147" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E147" s="3">
+        <v>2</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G147" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="13"/>
+      <c r="B148" s="10"/>
+      <c r="C148" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E148" s="3">
+        <v>50</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G148" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="11">
+        <v>51</v>
+      </c>
+      <c r="B149" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E149" s="3">
+        <v>50</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G149" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="12"/>
+      <c r="B150" s="10"/>
+      <c r="C150" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E150" s="3">
+        <v>10</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G150" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="12"/>
+      <c r="B151" s="10"/>
+      <c r="C151" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E151" s="3">
+        <v>80</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G151" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="13"/>
+      <c r="B152" s="10"/>
+      <c r="C152" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="14">
+        <v>52</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E153" s="3">
+        <v>50</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G153" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="11">
+        <v>53</v>
+      </c>
+      <c r="B154" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E154" s="3">
+        <v>100</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G154" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="13"/>
+      <c r="B155" s="10"/>
+      <c r="C155" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E155" s="3">
+        <v>50</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G155" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="11">
+        <v>54</v>
+      </c>
+      <c r="B156" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E156" s="3">
+        <v>50</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G156" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="13"/>
+      <c r="B157" s="10"/>
+      <c r="C157" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E157" s="3">
+        <v>100</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G157" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="14">
+        <v>55</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G158" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="11">
+        <v>56</v>
+      </c>
+      <c r="B159" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E159" s="3">
+        <v>50</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G159" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="13"/>
+      <c r="B160" s="10"/>
+      <c r="C160" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E160" s="3">
+        <v>50</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="11">
+        <v>57</v>
+      </c>
+      <c r="B161" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E161" s="3">
+        <v>50</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G161" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="13"/>
+      <c r="B162" s="10"/>
+      <c r="C162" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E162" s="3">
+        <v>90</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="11">
+        <v>58</v>
+      </c>
+      <c r="B163" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E163" s="3">
+        <v>50</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G163" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="12"/>
+      <c r="B164" s="10"/>
+      <c r="C164" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E164" s="3">
+        <v>50</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="13"/>
+      <c r="B165" s="10"/>
+      <c r="C165" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="11">
+        <v>59</v>
+      </c>
+      <c r="B166" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E166" s="3">
+        <v>50</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G166" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="12"/>
+      <c r="B167" s="10"/>
+      <c r="C167" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E167" s="3">
+        <v>80</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G167" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="12"/>
+      <c r="B168" s="10"/>
+      <c r="C168" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E168" s="3">
+        <v>80</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="13"/>
+      <c r="B169" s="10"/>
+      <c r="C169" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E169" s="3">
+        <v>2</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G169" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="11">
+        <v>60</v>
+      </c>
+      <c r="B170" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E170" s="3">
+        <v>50</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G170" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="13"/>
+      <c r="B171" s="10"/>
+      <c r="C171" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E171" s="3">
+        <v>20</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="11">
+        <v>61</v>
+      </c>
+      <c r="B172" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E172" s="3">
+        <v>50</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G172" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="12"/>
+      <c r="B173" s="10"/>
+      <c r="C173" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E173" s="3">
+        <v>80</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G173" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="12"/>
+      <c r="B174" s="10"/>
+      <c r="C174" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E174" s="3">
+        <v>80</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="13"/>
+      <c r="B175" s="10"/>
+      <c r="C175" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E175" s="3">
+        <v>2</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G175" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="11">
+        <v>62</v>
+      </c>
+      <c r="B176" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E176" s="3">
+        <v>50</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G176" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="12"/>
+      <c r="B177" s="10"/>
+      <c r="C177" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E177" s="3">
+        <v>50</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G177" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="13"/>
+      <c r="B178" s="10"/>
+      <c r="C178" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E178" s="3">
+        <v>10</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G178" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="11">
+        <v>63</v>
+      </c>
+      <c r="B179" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F179" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="12"/>
+      <c r="B180" s="16"/>
+      <c r="C180" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="12"/>
+      <c r="B181" s="16"/>
+      <c r="C181" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="12"/>
+      <c r="B182" s="16"/>
+      <c r="C182" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="12"/>
+      <c r="B183" s="16"/>
+      <c r="C183" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F183" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="12"/>
+      <c r="B184" s="16"/>
+      <c r="C184" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F184" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="12"/>
+      <c r="B185" s="16"/>
+      <c r="C185" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F185" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="12"/>
+      <c r="B186" s="16"/>
+      <c r="C186" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F186" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="12"/>
+      <c r="B187" s="16"/>
+      <c r="C187" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F187" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="12"/>
+      <c r="B188" s="16"/>
+      <c r="C188" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F188" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="12"/>
+      <c r="B189" s="16"/>
+      <c r="C189" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="12"/>
+      <c r="B190" s="16"/>
+      <c r="C190" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E190" s="3">
+        <v>50</v>
+      </c>
+      <c r="F190" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G190" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="12"/>
+      <c r="B191" s="16"/>
+      <c r="C191" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E191" s="3">
+        <v>50</v>
+      </c>
+      <c r="F191" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G191" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="13"/>
+      <c r="B192" s="16"/>
+      <c r="C192" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E192" s="3">
+        <v>50</v>
+      </c>
+      <c r="F192" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" s="11">
+        <v>64</v>
+      </c>
+      <c r="B193" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E193" s="3">
+        <v>50</v>
+      </c>
+      <c r="F193" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G193" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="12"/>
+      <c r="B194" s="10"/>
+      <c r="C194" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E194" s="3">
+        <v>50</v>
+      </c>
+      <c r="F194" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G194" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" s="13"/>
+      <c r="B195" s="10"/>
+      <c r="C195" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E195" s="3">
+        <v>15</v>
+      </c>
+      <c r="F195" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" s="11">
+        <v>65</v>
+      </c>
+      <c r="B196" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E196" s="3">
+        <v>50</v>
+      </c>
+      <c r="F196" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G196" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" s="12"/>
+      <c r="B197" s="10"/>
+      <c r="C197" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E197" s="3">
+        <v>50</v>
+      </c>
+      <c r="F197" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G197" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="13"/>
+      <c r="B198" s="10"/>
+      <c r="C198" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E198" s="3">
+        <v>15</v>
+      </c>
+      <c r="F198" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="11">
+        <v>66</v>
+      </c>
+      <c r="B199" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E199" s="3">
+        <v>50</v>
+      </c>
+      <c r="F199" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G199" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" s="12"/>
+      <c r="B200" s="10"/>
+      <c r="C200" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E200" s="3">
+        <v>50</v>
+      </c>
+      <c r="F200" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G200" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" s="13"/>
+      <c r="B201" s="10"/>
+      <c r="C201" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E201" s="3">
+        <v>60</v>
+      </c>
+      <c r="F201" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G201" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="11">
+        <v>67</v>
+      </c>
+      <c r="B202" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E202" s="3">
+        <v>50</v>
+      </c>
+      <c r="F202" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G202" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" s="12"/>
+      <c r="B203" s="10"/>
+      <c r="C203" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E203" s="3">
+        <v>60</v>
+      </c>
+      <c r="F203" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G203" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" s="13"/>
+      <c r="B204" s="10"/>
+      <c r="C204" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E204" s="3">
+        <v>90</v>
+      </c>
+      <c r="F204" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G204" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" s="11">
+        <v>68</v>
+      </c>
+      <c r="B205" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E205" s="3">
+        <v>50</v>
+      </c>
+      <c r="F205" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G205" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" s="12"/>
+      <c r="B206" s="10"/>
+      <c r="C206" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E206" s="3">
+        <v>60</v>
+      </c>
+      <c r="F206" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G206" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" s="13"/>
+      <c r="B207" s="10"/>
+      <c r="C207" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E207" s="3">
+        <v>50</v>
+      </c>
+      <c r="F207" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G207" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" s="11">
+        <v>69</v>
+      </c>
+      <c r="B208" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E208" s="3">
+        <v>50</v>
+      </c>
+      <c r="F208" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G208" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10">
+      <c r="A209" s="12"/>
+      <c r="B209" s="10"/>
+      <c r="C209" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E209" s="3">
+        <v>50</v>
+      </c>
+      <c r="F209" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G209" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10">
+      <c r="A210" s="13"/>
+      <c r="B210" s="10"/>
+      <c r="C210" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E210" s="3">
+        <v>60</v>
+      </c>
+      <c r="F210" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G210" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10">
+      <c r="A211" s="11">
+        <v>70</v>
+      </c>
+      <c r="B211" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E211" s="3">
+        <v>50</v>
+      </c>
+      <c r="F211" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G211" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10">
+      <c r="A212" s="12"/>
+      <c r="B212" s="10"/>
+      <c r="C212" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E212" s="3">
+        <v>130</v>
+      </c>
+      <c r="F212" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G212" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10">
+      <c r="A213" s="13"/>
+      <c r="B213" s="10"/>
+      <c r="C213" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E213" s="3">
+        <v>100</v>
+      </c>
+      <c r="F213" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G213" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10">
+      <c r="A214" s="11">
+        <v>71</v>
+      </c>
+      <c r="B214" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C214" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D214" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E214" s="15">
+        <v>50</v>
+      </c>
+      <c r="F214" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G214" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10">
+      <c r="A215" s="12"/>
+      <c r="B215" s="10"/>
+      <c r="C215" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="D215" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E215" s="15">
+        <v>130</v>
+      </c>
+      <c r="F215" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G215" s="15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10">
+      <c r="A216" s="13"/>
+      <c r="B216" s="10"/>
+      <c r="C216" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="D216" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E216" s="15">
+        <v>100</v>
+      </c>
+      <c r="F216" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G216" s="15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10">
+      <c r="A217" s="11">
+        <v>72</v>
+      </c>
+      <c r="B217" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E217" s="3">
+        <v>50</v>
+      </c>
+      <c r="F217" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G217" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10">
+      <c r="A218" s="12"/>
+      <c r="B218" s="12"/>
+      <c r="C218" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E218" s="3">
+        <v>100</v>
+      </c>
+      <c r="F218" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G218" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" s="4" customFormat="1" ht="30" customHeight="1">
+      <c r="A219" s="12"/>
+      <c r="B219" s="12"/>
+      <c r="C219" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D219" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J219" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10">
+      <c r="A220" s="13"/>
+      <c r="B220" s="13"/>
+      <c r="C220" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D220" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J220" s="15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10">
+      <c r="A221" s="11">
+        <v>73</v>
+      </c>
+      <c r="B221" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E221" s="3">
+        <v>6</v>
+      </c>
+      <c r="F221" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G221" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10">
+      <c r="A222" s="12"/>
+      <c r="B222" s="12"/>
+      <c r="C222" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E222" s="3">
+        <v>6</v>
+      </c>
+      <c r="F222" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G222" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10">
+      <c r="A223" s="12"/>
+      <c r="B223" s="12"/>
+      <c r="C223" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D223" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E223" s="3">
+        <v>50</v>
+      </c>
+      <c r="F223" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G223" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10">
+      <c r="A224" s="13"/>
+      <c r="B224" s="13"/>
+      <c r="C224" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E224" s="3">
+        <v>50</v>
+      </c>
+      <c r="F224" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G224" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" s="11">
+        <v>74</v>
+      </c>
+      <c r="B225" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E225" s="3">
+        <v>50</v>
+      </c>
+      <c r="F225" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G225" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" s="12"/>
+      <c r="B226" s="12"/>
+      <c r="C226" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D226" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E226" s="3">
+        <v>50</v>
+      </c>
+      <c r="F226" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G226" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" s="12"/>
+      <c r="B227" s="12"/>
+      <c r="C227" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D227" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E227" s="3">
+        <v>50</v>
+      </c>
+      <c r="F227" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G227" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228" s="13"/>
+      <c r="B228" s="13"/>
+      <c r="C228" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D228" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E228" s="3">
+        <v>50</v>
+      </c>
+      <c r="F228" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G228" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" s="11">
+        <v>75</v>
+      </c>
+      <c r="B229" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E229" s="3">
+        <v>50</v>
+      </c>
+      <c r="F229" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G229" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" s="12"/>
+      <c r="B230" s="12"/>
+      <c r="C230" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D230" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E230" s="3">
+        <v>50</v>
+      </c>
+      <c r="F230" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G230" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" s="13"/>
+      <c r="B231" s="13"/>
+      <c r="C231" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D231" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E231" s="3">
+        <v>50</v>
+      </c>
+      <c r="F231" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G231" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" s="11">
+        <v>76</v>
+      </c>
+      <c r="B232" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D232" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F232" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" s="12"/>
+      <c r="B233" s="18"/>
+      <c r="C233" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E233" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F233" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G233" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" s="12"/>
+      <c r="B234" s="18"/>
+      <c r="C234" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D234" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E234" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F234" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G234" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" s="12"/>
+      <c r="B235" s="18"/>
+      <c r="C235" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D235" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E235" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F235" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G235" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" s="12"/>
+      <c r="B236" s="18"/>
+      <c r="C236" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D236" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E236" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F236" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G236" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" s="12"/>
+      <c r="B237" s="18"/>
+      <c r="C237" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D237" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E237" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F237" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G237" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" s="12"/>
+      <c r="B238" s="18"/>
+      <c r="C238" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D238" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E238" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F238" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G238" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" s="12"/>
+      <c r="B239" s="18"/>
+      <c r="C239" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D239" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E239" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F239" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G239" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" s="12"/>
+      <c r="B240" s="18"/>
+      <c r="C240" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D240" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E240" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F240" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G240" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10">
+      <c r="A241" s="12"/>
+      <c r="B241" s="18"/>
+      <c r="C241" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D241" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E241" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F241" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G241" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10">
+      <c r="A242" s="12"/>
+      <c r="B242" s="18"/>
+      <c r="C242" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D242" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E242" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F242" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G242" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10">
+      <c r="A243" s="12"/>
+      <c r="B243" s="18"/>
+      <c r="C243" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D243" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E243" s="3">
+        <v>50</v>
+      </c>
+      <c r="F243" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G243" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10">
+      <c r="A244" s="12"/>
+      <c r="B244" s="18"/>
+      <c r="C244" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D244" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E244" s="3">
+        <v>50</v>
+      </c>
+      <c r="F244" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G244" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10">
+      <c r="A245" s="13"/>
+      <c r="B245" s="19"/>
+      <c r="C245" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D245" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E245" s="3">
+        <v>50</v>
+      </c>
+      <c r="F245" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" ht="45">
+      <c r="A246" s="11">
+        <v>77</v>
+      </c>
+      <c r="B246" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D246" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E246" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J246" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10">
+      <c r="A247" s="12"/>
+      <c r="B247" s="12"/>
+      <c r="C247" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D247" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E247" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F247" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" ht="45">
+      <c r="A248" s="12"/>
+      <c r="B248" s="12"/>
+      <c r="C248" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D248" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E248" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J248" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" ht="45">
+      <c r="A249" s="12"/>
+      <c r="B249" s="12"/>
+      <c r="C249" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D249" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E249" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F249" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G249" s="3">
+        <v>50</v>
+      </c>
+      <c r="J249" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10">
+      <c r="A250" s="12"/>
+      <c r="B250" s="12"/>
+      <c r="C250" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D250" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E250" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F250" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G250" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10">
+      <c r="A251" s="12"/>
+      <c r="B251" s="12"/>
+      <c r="C251" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D251" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E251" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F251" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G251" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10">
+      <c r="A252" s="12"/>
+      <c r="B252" s="12"/>
+      <c r="C252" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D252" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E252" s="3">
+        <v>50</v>
+      </c>
+      <c r="F252" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G252" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10">
+      <c r="A253" s="13"/>
+      <c r="B253" s="13"/>
+      <c r="C253" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D253" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E253" s="3">
+        <v>50</v>
+      </c>
+      <c r="F253" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G253" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10">
+      <c r="A254" s="11">
+        <v>78</v>
+      </c>
+      <c r="B254" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D254" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E254" s="3">
+        <v>30</v>
+      </c>
+      <c r="F254" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G254" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10">
+      <c r="A255" s="13"/>
+      <c r="B255" s="13"/>
+      <c r="C255" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D255" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E255" s="3">
+        <v>60</v>
+      </c>
+      <c r="F255" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G255" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" ht="30">
+      <c r="A256" s="11">
+        <v>79</v>
+      </c>
+      <c r="B256" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D256" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F256" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G256" s="3">
+        <v>0</v>
+      </c>
+      <c r="J256" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" ht="30">
+      <c r="A257" s="12"/>
+      <c r="B257" s="12"/>
+      <c r="C257" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D257" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E257" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F257" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G257" s="3">
+        <v>50</v>
+      </c>
+      <c r="J257" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10">
+      <c r="A258" s="12"/>
+      <c r="B258" s="12"/>
+      <c r="C258" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D258" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E258" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F258" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G258" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10">
+      <c r="A259" s="12"/>
+      <c r="B259" s="12"/>
+      <c r="C259" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D259" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E259" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F259" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G259" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10">
+      <c r="A260" s="12"/>
+      <c r="B260" s="12"/>
+      <c r="C260" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D260" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E260" s="3">
+        <v>50</v>
+      </c>
+      <c r="F260" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G260" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10">
+      <c r="A261" s="12"/>
+      <c r="B261" s="12"/>
+      <c r="C261" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D261" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E261" s="3">
+        <v>50</v>
+      </c>
+      <c r="F261" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G261" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10">
+      <c r="A262" s="12"/>
+      <c r="B262" s="12"/>
+      <c r="C262" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D262" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E262" s="3">
+        <v>50</v>
+      </c>
+      <c r="F262" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G262" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10">
+      <c r="A263" s="12"/>
+      <c r="B263" s="12"/>
+      <c r="C263" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D263" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E263" s="3">
+        <v>50</v>
+      </c>
+      <c r="F263" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G263" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10">
+      <c r="A264" s="12"/>
+      <c r="B264" s="12"/>
+      <c r="C264" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D264" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E264" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F264" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G264" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10">
+      <c r="A265" s="12"/>
+      <c r="B265" s="12"/>
+      <c r="C265" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D265" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E265" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F265" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G265" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10">
+      <c r="A266" s="12"/>
+      <c r="B266" s="12"/>
+      <c r="C266" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D266" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E266" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F266" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G266" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10">
+      <c r="A267" s="13"/>
+      <c r="B267" s="13"/>
+      <c r="C267" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D267" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E267" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F267" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G267" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10">
+      <c r="A268" s="11">
+        <v>80</v>
+      </c>
+      <c r="B268" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D268" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E268" s="3">
+        <v>50</v>
+      </c>
+      <c r="F268" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G268" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10">
+      <c r="A269" s="12"/>
+      <c r="B269" s="12"/>
+      <c r="C269" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D269" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E269" s="3">
+        <v>50</v>
+      </c>
+      <c r="F269" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G269" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10">
+      <c r="A270" s="12"/>
+      <c r="B270" s="12"/>
+      <c r="C270" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D270" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E270" s="3">
+        <v>80</v>
+      </c>
+      <c r="F270" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G270" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10">
+      <c r="A271" s="12"/>
+      <c r="B271" s="12"/>
+      <c r="C271" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D271" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E271" s="6">
+        <v>100</v>
+      </c>
+      <c r="F271" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G271" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10">
+      <c r="A272" s="13"/>
+      <c r="B272" s="13"/>
+      <c r="C272" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D272" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E272" s="3">
+        <v>10</v>
+      </c>
+      <c r="F272" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G272" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10">
+      <c r="A273" s="11">
+        <v>81</v>
+      </c>
+      <c r="B273" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C273" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D273" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E273" s="3">
+        <v>50</v>
+      </c>
+      <c r="F273" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G273" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10">
+      <c r="A274" s="13"/>
+      <c r="B274" s="13"/>
+      <c r="C274" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D274" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E274" s="3">
+        <v>150</v>
+      </c>
+      <c r="F274" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G274" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10">
+      <c r="A275" s="11">
+        <v>82</v>
+      </c>
+      <c r="B275" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D275" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E275" s="3">
+        <v>50</v>
+      </c>
+      <c r="F275" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G275" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10">
+      <c r="A276" s="13"/>
+      <c r="B276" s="13"/>
+      <c r="C276" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D276" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E276" s="3">
+        <v>50</v>
+      </c>
+      <c r="F276" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G276" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10">
+      <c r="A277" s="11">
+        <v>83</v>
+      </c>
+      <c r="B277" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D277" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E277" s="3">
+        <v>150</v>
+      </c>
+      <c r="F277" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G277" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10">
+      <c r="A278" s="12"/>
+      <c r="B278" s="12"/>
+      <c r="C278" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D278" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E278" s="3">
+        <v>50</v>
+      </c>
+      <c r="F278" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G278" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10">
+      <c r="A279" s="12"/>
+      <c r="B279" s="12"/>
+      <c r="C279" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D279" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E279" s="3">
+        <v>50</v>
+      </c>
+      <c r="F279" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G279" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10">
+      <c r="A280" s="12"/>
+      <c r="B280" s="12"/>
+      <c r="C280" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D280" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E280" s="3">
+        <v>150</v>
+      </c>
+      <c r="F280" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G280" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10">
+      <c r="A281" s="13"/>
+      <c r="B281" s="13"/>
+      <c r="C281" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D281" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E281" s="3">
+        <v>15</v>
+      </c>
+      <c r="F281" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G281" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10">
+      <c r="A282" s="11">
+        <v>84</v>
+      </c>
+      <c r="B282" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C282" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D282" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E282" s="3">
+        <v>150</v>
+      </c>
+      <c r="F282" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G282" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10">
+      <c r="A283" s="12"/>
+      <c r="B283" s="12"/>
+      <c r="C283" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D283" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E283" s="3">
+        <v>50</v>
+      </c>
+      <c r="F283" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G283" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10">
+      <c r="A284" s="12"/>
+      <c r="B284" s="12"/>
+      <c r="C284" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D284" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E284" s="3">
+        <v>50</v>
+      </c>
+      <c r="F284" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G284" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10">
+      <c r="A285" s="12"/>
+      <c r="B285" s="12"/>
+      <c r="C285" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D285" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E285" s="3">
+        <v>150</v>
+      </c>
+      <c r="F285" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G285" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10">
+      <c r="A286" s="13"/>
+      <c r="B286" s="13"/>
+      <c r="C286" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D286" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E286" s="3">
+        <v>15</v>
+      </c>
+      <c r="F286" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G286" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10">
+      <c r="A287" s="11">
+        <v>85</v>
+      </c>
+      <c r="B287" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C287" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D287" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E287" s="3">
+        <v>100</v>
+      </c>
+      <c r="F287" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G287" s="3">
+        <v>50</v>
+      </c>
+      <c r="J287" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10">
+      <c r="A288" s="12"/>
+      <c r="B288" s="12"/>
+      <c r="C288" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D288" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E288" s="3">
+        <v>50</v>
+      </c>
+      <c r="F288" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G288" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
+      <c r="A289" s="12"/>
+      <c r="B289" s="12"/>
+      <c r="C289" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D289" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E289" s="3">
+        <v>50</v>
+      </c>
+      <c r="F289" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G289" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
+      <c r="A290" s="12"/>
+      <c r="B290" s="12"/>
+      <c r="C290" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D290" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E290" s="6">
+        <v>50</v>
+      </c>
+      <c r="F290" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G290"/>
+    </row>
+    <row r="291" spans="1:7">
+      <c r="A291" s="13"/>
+      <c r="B291" s="13"/>
+      <c r="C291" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D291" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E291" s="6">
+        <v>15</v>
+      </c>
+      <c r="F291" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G291" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
+      <c r="A292" s="11">
+        <v>86</v>
+      </c>
+      <c r="B292" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D292" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E292" s="3">
+        <v>50</v>
+      </c>
+      <c r="F292" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G292" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
+      <c r="A293" s="13"/>
+      <c r="B293" s="13"/>
+      <c r="C293" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D293" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E293" s="3">
+        <v>50</v>
+      </c>
+      <c r="F293" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G293" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
+      <c r="A294" s="8">
+        <v>87</v>
+      </c>
+      <c r="B294" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C294" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D294" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E294" s="3">
+        <v>120</v>
+      </c>
+      <c r="F294" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G294" s="3">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="65">
-    <mergeCell ref="B129:B131"/>
-    <mergeCell ref="A109:A113"/>
-    <mergeCell ref="A116:A119"/>
-    <mergeCell ref="B133:B135"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="A86:A90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="A93:A96"/>
-    <mergeCell ref="A97:A100"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A68:A72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="B68:B72"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="A12:A16"/>
+  <mergeCells count="146">
+    <mergeCell ref="A287:A291"/>
+    <mergeCell ref="A292:A293"/>
+    <mergeCell ref="A268:A272"/>
+    <mergeCell ref="A273:A274"/>
+    <mergeCell ref="A275:A276"/>
+    <mergeCell ref="A277:A281"/>
+    <mergeCell ref="A282:A286"/>
+    <mergeCell ref="A225:A228"/>
+    <mergeCell ref="A229:A231"/>
+    <mergeCell ref="A232:A245"/>
+    <mergeCell ref="A246:A253"/>
+    <mergeCell ref="A254:A255"/>
+    <mergeCell ref="A256:A267"/>
+    <mergeCell ref="A214:A216"/>
+    <mergeCell ref="A217:A220"/>
+    <mergeCell ref="A221:A224"/>
+    <mergeCell ref="A199:A201"/>
+    <mergeCell ref="A202:A204"/>
+    <mergeCell ref="A205:A207"/>
+    <mergeCell ref="A208:A210"/>
+    <mergeCell ref="A211:A213"/>
+    <mergeCell ref="A172:A175"/>
+    <mergeCell ref="A176:A178"/>
+    <mergeCell ref="A179:A192"/>
+    <mergeCell ref="A193:A195"/>
+    <mergeCell ref="A196:A198"/>
+    <mergeCell ref="A159:A160"/>
+    <mergeCell ref="A161:A162"/>
+    <mergeCell ref="A163:A165"/>
+    <mergeCell ref="A166:A169"/>
+    <mergeCell ref="A170:A171"/>
+    <mergeCell ref="B277:B281"/>
+    <mergeCell ref="B282:B286"/>
+    <mergeCell ref="B287:B291"/>
+    <mergeCell ref="B292:B293"/>
+    <mergeCell ref="A120:A122"/>
+    <mergeCell ref="A123:A125"/>
+    <mergeCell ref="A126:A128"/>
+    <mergeCell ref="A129:A131"/>
+    <mergeCell ref="A133:A135"/>
+    <mergeCell ref="A136:A138"/>
+    <mergeCell ref="A139:A142"/>
+    <mergeCell ref="A143:A146"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="A149:A152"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="A156:A157"/>
+    <mergeCell ref="B254:B255"/>
+    <mergeCell ref="B256:B267"/>
+    <mergeCell ref="B268:B272"/>
+    <mergeCell ref="B273:B274"/>
+    <mergeCell ref="B275:B276"/>
+    <mergeCell ref="B225:B228"/>
+    <mergeCell ref="B229:B231"/>
+    <mergeCell ref="B232:B245"/>
+    <mergeCell ref="B246:B253"/>
+    <mergeCell ref="B208:B210"/>
+    <mergeCell ref="B211:B213"/>
+    <mergeCell ref="B214:B216"/>
+    <mergeCell ref="B217:B220"/>
+    <mergeCell ref="B221:B224"/>
+    <mergeCell ref="B193:B195"/>
+    <mergeCell ref="B196:B198"/>
+    <mergeCell ref="B199:B201"/>
+    <mergeCell ref="B202:B204"/>
+    <mergeCell ref="B205:B207"/>
+    <mergeCell ref="B166:B169"/>
+    <mergeCell ref="B170:B171"/>
+    <mergeCell ref="B172:B175"/>
+    <mergeCell ref="B176:B178"/>
+    <mergeCell ref="B179:B192"/>
+    <mergeCell ref="B154:B155"/>
+    <mergeCell ref="B156:B157"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="B163:B165"/>
+    <mergeCell ref="B136:B138"/>
+    <mergeCell ref="B139:B142"/>
+    <mergeCell ref="B143:B146"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="B149:B152"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="B93:B96"/>
+    <mergeCell ref="B97:B100"/>
     <mergeCell ref="B62:B63"/>
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B25:B28"/>
@@ -4065,12 +7245,48 @@
     <mergeCell ref="B53:B54"/>
     <mergeCell ref="B55:B57"/>
     <mergeCell ref="B58:B59"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="B68:B72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A68:A72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A93:A96"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="B129:B131"/>
+    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="A116:A119"/>
+    <mergeCell ref="B133:B135"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="A103:A105"/>
     <mergeCell ref="B103:B105"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="B86:B90"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="B93:B96"/>
-    <mergeCell ref="B97:B100"/>
     <mergeCell ref="B101:B102"/>
     <mergeCell ref="B109:B113"/>
     <mergeCell ref="B116:B119"/>
@@ -4079,5 +7295,6 @@
     <mergeCell ref="B126:B128"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DPI_Table_Audit/Audit-Process-Sheet.xlsx
+++ b/DPI_Table_Audit/Audit-Process-Sheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="259">
   <si>
     <t>Column Name</t>
   </si>
@@ -898,7 +898,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -924,6 +924,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -935,13 +939,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -951,8 +948,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1258,15 +1264,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z294"/>
+  <dimension ref="A1:Z296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="A294" sqref="A294"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" style="10" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" style="3" customWidth="1"/>
     <col min="3" max="3" width="26.5703125" style="3" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" style="3" customWidth="1"/>
@@ -1282,7 +1288,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1317,10 +1323,10 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="10">
+      <c r="A2" s="19">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1341,8 +1347,8 @@
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
@@ -1361,8 +1367,8 @@
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1381,8 +1387,8 @@
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
@@ -1401,8 +1407,8 @@
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
@@ -1421,10 +1427,10 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="10">
+      <c r="A7" s="19">
         <v>2</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="19" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1444,8 +1450,8 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
@@ -1463,8 +1469,8 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
@@ -1482,8 +1488,8 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
@@ -1501,8 +1507,8 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
@@ -1520,10 +1526,10 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="10">
+      <c r="A12" s="19">
         <v>3</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="19" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1543,8 +1549,8 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="3" t="s">
         <v>8</v>
       </c>
@@ -1562,8 +1568,8 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="3" t="s">
         <v>19</v>
       </c>
@@ -1581,8 +1587,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="3" t="s">
         <v>20</v>
       </c>
@@ -1597,8 +1603,8 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="3" t="s">
         <v>22</v>
       </c>
@@ -1616,10 +1622,10 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="10">
+      <c r="A17" s="19">
         <v>4</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="19" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -1640,8 +1646,8 @@
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="3" t="s">
         <v>8</v>
       </c>
@@ -1660,8 +1666,8 @@
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="3" t="s">
         <v>24</v>
       </c>
@@ -1677,8 +1683,8 @@
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="3" t="s">
         <v>25</v>
       </c>
@@ -1699,8 +1705,8 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="3" t="s">
         <v>26</v>
       </c>
@@ -1709,10 +1715,10 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="10">
+      <c r="A22" s="19">
         <v>5</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="19" t="s">
         <v>32</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -1732,8 +1738,8 @@
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="3" t="s">
         <v>29</v>
       </c>
@@ -1751,8 +1757,8 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
       <c r="C24" s="3" t="s">
         <v>30</v>
       </c>
@@ -1770,10 +1776,10 @@
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="10">
+      <c r="A25" s="19">
         <v>6</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="19" t="s">
         <v>35</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -1793,8 +1799,8 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
       <c r="C26" s="3" t="s">
         <v>8</v>
       </c>
@@ -1812,8 +1818,8 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="3" t="s">
         <v>33</v>
       </c>
@@ -1828,8 +1834,8 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
       <c r="C28" s="3" t="s">
         <v>34</v>
       </c>
@@ -1847,10 +1853,10 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="10">
-        <v>7</v>
-      </c>
-      <c r="B29" s="10" t="s">
+      <c r="A29" s="19">
+        <v>7</v>
+      </c>
+      <c r="B29" s="19" t="s">
         <v>36</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -1870,8 +1876,8 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
       <c r="C30" s="3" t="s">
         <v>8</v>
       </c>
@@ -1889,10 +1895,10 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="10">
+      <c r="A31" s="19">
         <v>8</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="19" t="s">
         <v>40</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -1912,8 +1918,8 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
       <c r="C32" s="3" t="s">
         <v>8</v>
       </c>
@@ -1931,8 +1937,8 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
       <c r="C33" s="3" t="s">
         <v>37</v>
       </c>
@@ -1947,8 +1953,8 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
       <c r="C34" s="3" t="s">
         <v>38</v>
       </c>
@@ -1966,8 +1972,8 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="19"/>
       <c r="C35" s="3" t="s">
         <v>39</v>
       </c>
@@ -1985,8 +1991,8 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="19"/>
       <c r="C36" s="3" t="s">
         <v>9</v>
       </c>
@@ -2004,8 +2010,8 @@
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="19"/>
       <c r="C37" s="3" t="s">
         <v>12</v>
       </c>
@@ -2023,10 +2029,10 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="10">
+      <c r="A38" s="19">
         <v>9</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="19" t="s">
         <v>45</v>
       </c>
       <c r="C38" s="3" t="s">
@@ -2046,8 +2052,8 @@
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="19"/>
       <c r="C39" s="3" t="s">
         <v>42</v>
       </c>
@@ -2065,8 +2071,8 @@
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="19"/>
       <c r="C40" s="3" t="s">
         <v>43</v>
       </c>
@@ -2084,8 +2090,8 @@
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
+      <c r="A41" s="19"/>
+      <c r="B41" s="19"/>
       <c r="C41" s="3" t="s">
         <v>44</v>
       </c>
@@ -2103,10 +2109,10 @@
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="10">
-        <v>10</v>
-      </c>
-      <c r="B42" s="10" t="s">
+      <c r="A42" s="19">
+        <v>10</v>
+      </c>
+      <c r="B42" s="19" t="s">
         <v>49</v>
       </c>
       <c r="C42" s="3" t="s">
@@ -2126,8 +2132,8 @@
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
+      <c r="A43" s="19"/>
+      <c r="B43" s="19"/>
       <c r="C43" s="3" t="s">
         <v>29</v>
       </c>
@@ -2145,8 +2151,8 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
+      <c r="A44" s="19"/>
+      <c r="B44" s="19"/>
       <c r="C44" s="3" t="s">
         <v>46</v>
       </c>
@@ -2164,8 +2170,8 @@
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
+      <c r="A45" s="19"/>
+      <c r="B45" s="19"/>
       <c r="C45" s="3" t="s">
         <v>47</v>
       </c>
@@ -2183,8 +2189,8 @@
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
+      <c r="A46" s="19"/>
+      <c r="B46" s="19"/>
       <c r="C46" s="3" t="s">
         <v>48</v>
       </c>
@@ -2202,10 +2208,10 @@
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="10">
+      <c r="A47" s="19">
         <v>11</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="19" t="s">
         <v>52</v>
       </c>
       <c r="C47" s="3" t="s">
@@ -2225,8 +2231,8 @@
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
+      <c r="A48" s="19"/>
+      <c r="B48" s="19"/>
       <c r="C48" s="3" t="s">
         <v>51</v>
       </c>
@@ -2244,10 +2250,10 @@
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="10">
+      <c r="A49" s="19">
         <v>12</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="19" t="s">
         <v>56</v>
       </c>
       <c r="C49" s="3" t="s">
@@ -2267,8 +2273,8 @@
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
+      <c r="A50" s="19"/>
+      <c r="B50" s="19"/>
       <c r="C50" s="3" t="s">
         <v>53</v>
       </c>
@@ -2286,8 +2292,8 @@
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10"/>
+      <c r="A51" s="19"/>
+      <c r="B51" s="19"/>
       <c r="C51" s="3" t="s">
         <v>54</v>
       </c>
@@ -2305,8 +2311,8 @@
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10"/>
+      <c r="A52" s="19"/>
+      <c r="B52" s="19"/>
       <c r="C52" s="3" t="s">
         <v>55</v>
       </c>
@@ -2324,10 +2330,10 @@
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="10">
+      <c r="A53" s="19">
         <v>13</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="19" t="s">
         <v>58</v>
       </c>
       <c r="C53" s="3" t="s">
@@ -2347,8 +2353,8 @@
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10"/>
+      <c r="A54" s="19"/>
+      <c r="B54" s="19"/>
       <c r="C54" s="3" t="s">
         <v>57</v>
       </c>
@@ -2366,10 +2372,10 @@
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="10">
+      <c r="A55" s="19">
         <v>14</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="19" t="s">
         <v>59</v>
       </c>
       <c r="C55" s="3" t="s">
@@ -2389,8 +2395,8 @@
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10"/>
+      <c r="A56" s="19"/>
+      <c r="B56" s="19"/>
       <c r="C56" s="3" t="s">
         <v>29</v>
       </c>
@@ -2408,8 +2414,8 @@
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="10"/>
-      <c r="B57" s="10"/>
+      <c r="A57" s="19"/>
+      <c r="B57" s="19"/>
       <c r="C57" s="3" t="s">
         <v>30</v>
       </c>
@@ -2427,10 +2433,10 @@
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="10">
+      <c r="A58" s="19">
         <v>15</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="19" t="s">
         <v>61</v>
       </c>
       <c r="C58" s="3" t="s">
@@ -2450,8 +2456,8 @@
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="10"/>
-      <c r="B59" s="10"/>
+      <c r="A59" s="19"/>
+      <c r="B59" s="19"/>
       <c r="C59" s="3" t="s">
         <v>60</v>
       </c>
@@ -2515,10 +2521,10 @@
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="10">
+      <c r="A62" s="19">
         <v>18</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="19" t="s">
         <v>65</v>
       </c>
       <c r="C62" s="3" t="s">
@@ -2538,8 +2544,8 @@
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10"/>
+      <c r="A63" s="19"/>
+      <c r="B63" s="19"/>
       <c r="C63" s="3" t="s">
         <v>64</v>
       </c>
@@ -2580,10 +2586,10 @@
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="10">
-        <v>20</v>
-      </c>
-      <c r="B65" s="10" t="s">
+      <c r="A65" s="19">
+        <v>20</v>
+      </c>
+      <c r="B65" s="19" t="s">
         <v>69</v>
       </c>
       <c r="C65" s="3" t="s">
@@ -2603,8 +2609,8 @@
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="10"/>
-      <c r="B66" s="10"/>
+      <c r="A66" s="19"/>
+      <c r="B66" s="19"/>
       <c r="C66" s="3" t="s">
         <v>8</v>
       </c>
@@ -2622,8 +2628,8 @@
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="10"/>
-      <c r="B67" s="10"/>
+      <c r="A67" s="19"/>
+      <c r="B67" s="19"/>
       <c r="C67" s="3" t="s">
         <v>67</v>
       </c>
@@ -2636,10 +2642,10 @@
       <c r="G67" s="5"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="10">
+      <c r="A68" s="19">
         <v>21</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="19" t="s">
         <v>75</v>
       </c>
       <c r="C68" s="3" t="s">
@@ -2659,8 +2665,8 @@
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="10"/>
-      <c r="B69" s="10"/>
+      <c r="A69" s="19"/>
+      <c r="B69" s="19"/>
       <c r="C69" s="3" t="s">
         <v>70</v>
       </c>
@@ -2673,8 +2679,8 @@
       <c r="G69" s="5"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="10"/>
-      <c r="B70" s="10"/>
+      <c r="A70" s="19"/>
+      <c r="B70" s="19"/>
       <c r="C70" s="3" t="s">
         <v>71</v>
       </c>
@@ -2689,8 +2695,8 @@
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="10"/>
-      <c r="B71" s="10"/>
+      <c r="A71" s="19"/>
+      <c r="B71" s="19"/>
       <c r="C71" s="3" t="s">
         <v>73</v>
       </c>
@@ -2708,8 +2714,8 @@
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="10"/>
-      <c r="B72" s="10"/>
+      <c r="A72" s="19"/>
+      <c r="B72" s="19"/>
       <c r="C72" s="3" t="s">
         <v>74</v>
       </c>
@@ -2727,10 +2733,10 @@
       </c>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="10">
+      <c r="A73" s="19">
         <v>22</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B73" s="19" t="s">
         <v>77</v>
       </c>
       <c r="C73" s="3" t="s">
@@ -2750,8 +2756,8 @@
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="10"/>
-      <c r="B74" s="10"/>
+      <c r="A74" s="19"/>
+      <c r="B74" s="19"/>
       <c r="C74" s="3" t="s">
         <v>76</v>
       </c>
@@ -2769,10 +2775,10 @@
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="10">
+      <c r="A75" s="19">
         <v>23</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B75" s="19" t="s">
         <v>80</v>
       </c>
       <c r="C75" s="3" t="s">
@@ -2792,8 +2798,8 @@
       </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="10"/>
-      <c r="B76" s="10"/>
+      <c r="A76" s="19"/>
+      <c r="B76" s="19"/>
       <c r="C76" s="3" t="s">
         <v>79</v>
       </c>
@@ -2834,10 +2840,10 @@
       </c>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="10">
+      <c r="A78" s="19">
         <v>25</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="B78" s="19" t="s">
         <v>85</v>
       </c>
       <c r="C78" s="3" t="s">
@@ -2857,8 +2863,8 @@
       </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="10"/>
-      <c r="B79" s="10"/>
+      <c r="A79" s="19"/>
+      <c r="B79" s="19"/>
       <c r="C79" s="3" t="s">
         <v>82</v>
       </c>
@@ -2876,8 +2882,8 @@
       </c>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="10"/>
-      <c r="B80" s="10"/>
+      <c r="A80" s="19"/>
+      <c r="B80" s="19"/>
       <c r="C80" s="3" t="s">
         <v>83</v>
       </c>
@@ -2895,8 +2901,8 @@
       </c>
     </row>
     <row r="81" spans="1:10">
-      <c r="A81" s="10"/>
-      <c r="B81" s="10"/>
+      <c r="A81" s="19"/>
+      <c r="B81" s="19"/>
       <c r="C81" s="3" t="s">
         <v>84</v>
       </c>
@@ -2937,10 +2943,10 @@
       </c>
     </row>
     <row r="83" spans="1:10">
-      <c r="A83" s="10">
+      <c r="A83" s="19">
         <v>27</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="B83" s="19" t="s">
         <v>69</v>
       </c>
       <c r="C83" s="3" t="s">
@@ -2960,8 +2966,8 @@
       </c>
     </row>
     <row r="84" spans="1:10">
-      <c r="A84" s="10"/>
-      <c r="B84" s="10"/>
+      <c r="A84" s="19"/>
+      <c r="B84" s="19"/>
       <c r="C84" s="3" t="s">
         <v>8</v>
       </c>
@@ -2979,8 +2985,8 @@
       </c>
     </row>
     <row r="85" spans="1:10">
-      <c r="A85" s="10"/>
-      <c r="B85" s="10"/>
+      <c r="A85" s="19"/>
+      <c r="B85" s="19"/>
       <c r="C85" s="3" t="s">
         <v>67</v>
       </c>
@@ -2993,10 +2999,10 @@
       <c r="G85" s="5"/>
     </row>
     <row r="86" spans="1:10">
-      <c r="A86" s="10">
+      <c r="A86" s="19">
         <v>28</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B86" s="19" t="s">
         <v>86</v>
       </c>
       <c r="C86" s="3" t="s">
@@ -3016,8 +3022,8 @@
       </c>
     </row>
     <row r="87" spans="1:10">
-      <c r="A87" s="10"/>
-      <c r="B87" s="10"/>
+      <c r="A87" s="19"/>
+      <c r="B87" s="19"/>
       <c r="C87" s="3" t="s">
         <v>70</v>
       </c>
@@ -3030,8 +3036,8 @@
       <c r="G87" s="5"/>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="10"/>
-      <c r="B88" s="10"/>
+      <c r="A88" s="19"/>
+      <c r="B88" s="19"/>
       <c r="C88" s="3" t="s">
         <v>71</v>
       </c>
@@ -3046,8 +3052,8 @@
       </c>
     </row>
     <row r="89" spans="1:10">
-      <c r="A89" s="10"/>
-      <c r="B89" s="10"/>
+      <c r="A89" s="19"/>
+      <c r="B89" s="19"/>
       <c r="C89" s="3" t="s">
         <v>73</v>
       </c>
@@ -3065,8 +3071,8 @@
       </c>
     </row>
     <row r="90" spans="1:10">
-      <c r="A90" s="10"/>
-      <c r="B90" s="10"/>
+      <c r="A90" s="19"/>
+      <c r="B90" s="19"/>
       <c r="C90" s="3" t="s">
         <v>74</v>
       </c>
@@ -3084,10 +3090,10 @@
       </c>
     </row>
     <row r="91" spans="1:10">
-      <c r="A91" s="10">
+      <c r="A91" s="19">
         <v>29</v>
       </c>
-      <c r="B91" s="10" t="s">
+      <c r="B91" s="19" t="s">
         <v>80</v>
       </c>
       <c r="C91" s="3" t="s">
@@ -3107,8 +3113,8 @@
       </c>
     </row>
     <row r="92" spans="1:10">
-      <c r="A92" s="10"/>
-      <c r="B92" s="10"/>
+      <c r="A92" s="19"/>
+      <c r="B92" s="19"/>
       <c r="C92" s="3" t="s">
         <v>79</v>
       </c>
@@ -3126,10 +3132,10 @@
       </c>
     </row>
     <row r="93" spans="1:10">
-      <c r="A93" s="10">
+      <c r="A93" s="19">
         <v>30</v>
       </c>
-      <c r="B93" s="10" t="s">
+      <c r="B93" s="19" t="s">
         <v>93</v>
       </c>
       <c r="C93" s="3" t="s">
@@ -3149,8 +3155,8 @@
       </c>
     </row>
     <row r="94" spans="1:10">
-      <c r="A94" s="10"/>
-      <c r="B94" s="10"/>
+      <c r="A94" s="19"/>
+      <c r="B94" s="19"/>
       <c r="C94" s="3" t="s">
         <v>88</v>
       </c>
@@ -3168,8 +3174,8 @@
       </c>
     </row>
     <row r="95" spans="1:10">
-      <c r="A95" s="10"/>
-      <c r="B95" s="10"/>
+      <c r="A95" s="19"/>
+      <c r="B95" s="19"/>
       <c r="C95" s="3" t="s">
         <v>89</v>
       </c>
@@ -3187,8 +3193,8 @@
       </c>
     </row>
     <row r="96" spans="1:10">
-      <c r="A96" s="10"/>
-      <c r="B96" s="10"/>
+      <c r="A96" s="19"/>
+      <c r="B96" s="19"/>
       <c r="C96" s="3" t="s">
         <v>91</v>
       </c>
@@ -3209,10 +3215,10 @@
       </c>
     </row>
     <row r="97" spans="1:10">
-      <c r="A97" s="10">
+      <c r="A97" s="19">
         <v>31</v>
       </c>
-      <c r="B97" s="10" t="s">
+      <c r="B97" s="19" t="s">
         <v>100</v>
       </c>
       <c r="C97" s="3" t="s">
@@ -3232,8 +3238,8 @@
       </c>
     </row>
     <row r="98" spans="1:10">
-      <c r="A98" s="10"/>
-      <c r="B98" s="10"/>
+      <c r="A98" s="19"/>
+      <c r="B98" s="19"/>
       <c r="C98" s="3" t="s">
         <v>94</v>
       </c>
@@ -3254,8 +3260,8 @@
       </c>
     </row>
     <row r="99" spans="1:10">
-      <c r="A99" s="10"/>
-      <c r="B99" s="10"/>
+      <c r="A99" s="19"/>
+      <c r="B99" s="19"/>
       <c r="C99" s="3" t="s">
         <v>95</v>
       </c>
@@ -3276,8 +3282,8 @@
       </c>
     </row>
     <row r="100" spans="1:10">
-      <c r="A100" s="10"/>
-      <c r="B100" s="10"/>
+      <c r="A100" s="19"/>
+      <c r="B100" s="19"/>
       <c r="C100" s="3" t="s">
         <v>96</v>
       </c>
@@ -3298,10 +3304,10 @@
       </c>
     </row>
     <row r="101" spans="1:10">
-      <c r="A101" s="10">
+      <c r="A101" s="19">
         <v>32</v>
       </c>
-      <c r="B101" s="10" t="s">
+      <c r="B101" s="19" t="s">
         <v>102</v>
       </c>
       <c r="C101" s="3" t="s">
@@ -3321,8 +3327,8 @@
       </c>
     </row>
     <row r="102" spans="1:10">
-      <c r="A102" s="10"/>
-      <c r="B102" s="10"/>
+      <c r="A102" s="19"/>
+      <c r="B102" s="19"/>
       <c r="C102" s="3" t="s">
         <v>101</v>
       </c>
@@ -3340,10 +3346,10 @@
       </c>
     </row>
     <row r="103" spans="1:10">
-      <c r="A103" s="10">
+      <c r="A103" s="19">
         <v>33</v>
       </c>
-      <c r="B103" s="10" t="s">
+      <c r="B103" s="19" t="s">
         <v>103</v>
       </c>
       <c r="C103" s="3" t="s">
@@ -3363,8 +3369,8 @@
       </c>
     </row>
     <row r="104" spans="1:10">
-      <c r="A104" s="10"/>
-      <c r="B104" s="10"/>
+      <c r="A104" s="19"/>
+      <c r="B104" s="19"/>
       <c r="C104" s="3" t="s">
         <v>101</v>
       </c>
@@ -3382,8 +3388,8 @@
       </c>
     </row>
     <row r="105" spans="1:10">
-      <c r="A105" s="10"/>
-      <c r="B105" s="10"/>
+      <c r="A105" s="19"/>
+      <c r="B105" s="19"/>
       <c r="C105" s="3" t="s">
         <v>71</v>
       </c>
@@ -3467,10 +3473,10 @@
       </c>
     </row>
     <row r="109" spans="1:10">
-      <c r="A109" s="10">
+      <c r="A109" s="19">
         <v>37</v>
       </c>
-      <c r="B109" s="10" t="s">
+      <c r="B109" s="19" t="s">
         <v>113</v>
       </c>
       <c r="C109" s="3" t="s">
@@ -3490,8 +3496,8 @@
       </c>
     </row>
     <row r="110" spans="1:10">
-      <c r="A110" s="10"/>
-      <c r="B110" s="10"/>
+      <c r="A110" s="19"/>
+      <c r="B110" s="19"/>
       <c r="C110" s="3" t="s">
         <v>110</v>
       </c>
@@ -3509,8 +3515,8 @@
       </c>
     </row>
     <row r="111" spans="1:10">
-      <c r="A111" s="10"/>
-      <c r="B111" s="10"/>
+      <c r="A111" s="19"/>
+      <c r="B111" s="19"/>
       <c r="C111" s="3" t="s">
         <v>111</v>
       </c>
@@ -3528,8 +3534,8 @@
       </c>
     </row>
     <row r="112" spans="1:10">
-      <c r="A112" s="10"/>
-      <c r="B112" s="10"/>
+      <c r="A112" s="19"/>
+      <c r="B112" s="19"/>
       <c r="C112" s="3" t="s">
         <v>41</v>
       </c>
@@ -3547,8 +3553,8 @@
       </c>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="10"/>
-      <c r="B113" s="10"/>
+      <c r="A113" s="19"/>
+      <c r="B113" s="19"/>
       <c r="C113" s="3" t="s">
         <v>112</v>
       </c>
@@ -3612,10 +3618,10 @@
       </c>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="10">
+      <c r="A116" s="19">
         <v>40</v>
       </c>
-      <c r="B116" s="10" t="s">
+      <c r="B116" s="19" t="s">
         <v>120</v>
       </c>
       <c r="C116" s="3" t="s">
@@ -3635,8 +3641,8 @@
       </c>
     </row>
     <row r="117" spans="1:7">
-      <c r="A117" s="10"/>
-      <c r="B117" s="10"/>
+      <c r="A117" s="19"/>
+      <c r="B117" s="19"/>
       <c r="C117" s="3" t="s">
         <v>116</v>
       </c>
@@ -3654,8 +3660,8 @@
       </c>
     </row>
     <row r="118" spans="1:7">
-      <c r="A118" s="10"/>
-      <c r="B118" s="10"/>
+      <c r="A118" s="19"/>
+      <c r="B118" s="19"/>
       <c r="C118" s="3" t="s">
         <v>117</v>
       </c>
@@ -3673,8 +3679,8 @@
       </c>
     </row>
     <row r="119" spans="1:7">
-      <c r="A119" s="10"/>
-      <c r="B119" s="10"/>
+      <c r="A119" s="19"/>
+      <c r="B119" s="19"/>
       <c r="C119" s="3" t="s">
         <v>118</v>
       </c>
@@ -3686,10 +3692,10 @@
       </c>
     </row>
     <row r="120" spans="1:7">
-      <c r="A120" s="11">
+      <c r="A120" s="13">
         <v>41</v>
       </c>
-      <c r="B120" s="10" t="s">
+      <c r="B120" s="19" t="s">
         <v>123</v>
       </c>
       <c r="C120" s="3" t="s">
@@ -3709,8 +3715,8 @@
       </c>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="12"/>
-      <c r="B121" s="10"/>
+      <c r="A121" s="14"/>
+      <c r="B121" s="19"/>
       <c r="C121" s="3" t="s">
         <v>121</v>
       </c>
@@ -3728,8 +3734,8 @@
       </c>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" s="13"/>
-      <c r="B122" s="10"/>
+      <c r="A122" s="15"/>
+      <c r="B122" s="19"/>
       <c r="C122" s="3" t="s">
         <v>122</v>
       </c>
@@ -3747,10 +3753,10 @@
       </c>
     </row>
     <row r="123" spans="1:7">
-      <c r="A123" s="11">
+      <c r="A123" s="13">
         <v>42</v>
       </c>
-      <c r="B123" s="10" t="s">
+      <c r="B123" s="19" t="s">
         <v>125</v>
       </c>
       <c r="C123" s="3" t="s">
@@ -3770,8 +3776,8 @@
       </c>
     </row>
     <row r="124" spans="1:7">
-      <c r="A124" s="12"/>
-      <c r="B124" s="10"/>
+      <c r="A124" s="14"/>
+      <c r="B124" s="19"/>
       <c r="C124" s="3" t="s">
         <v>124</v>
       </c>
@@ -3789,8 +3795,8 @@
       </c>
     </row>
     <row r="125" spans="1:7">
-      <c r="A125" s="13"/>
-      <c r="B125" s="10"/>
+      <c r="A125" s="15"/>
+      <c r="B125" s="19"/>
       <c r="C125" s="3" t="s">
         <v>122</v>
       </c>
@@ -3808,10 +3814,10 @@
       </c>
     </row>
     <row r="126" spans="1:7">
-      <c r="A126" s="11">
+      <c r="A126" s="13">
         <v>43</v>
       </c>
-      <c r="B126" s="10" t="s">
+      <c r="B126" s="19" t="s">
         <v>128</v>
       </c>
       <c r="C126" s="3" t="s">
@@ -3831,8 +3837,8 @@
       </c>
     </row>
     <row r="127" spans="1:7">
-      <c r="A127" s="12"/>
-      <c r="B127" s="10"/>
+      <c r="A127" s="14"/>
+      <c r="B127" s="19"/>
       <c r="C127" s="3" t="s">
         <v>126</v>
       </c>
@@ -3850,8 +3856,8 @@
       </c>
     </row>
     <row r="128" spans="1:7">
-      <c r="A128" s="13"/>
-      <c r="B128" s="10"/>
+      <c r="A128" s="15"/>
+      <c r="B128" s="19"/>
       <c r="C128" s="3" t="s">
         <v>127</v>
       </c>
@@ -3869,10 +3875,10 @@
       </c>
     </row>
     <row r="129" spans="1:10">
-      <c r="A129" s="11">
+      <c r="A129" s="13">
         <v>44</v>
       </c>
-      <c r="B129" s="10" t="s">
+      <c r="B129" s="19" t="s">
         <v>130</v>
       </c>
       <c r="C129" s="3" t="s">
@@ -3892,8 +3898,8 @@
       </c>
     </row>
     <row r="130" spans="1:10">
-      <c r="A130" s="12"/>
-      <c r="B130" s="10"/>
+      <c r="A130" s="14"/>
+      <c r="B130" s="19"/>
       <c r="C130" s="3" t="s">
         <v>129</v>
       </c>
@@ -3911,8 +3917,8 @@
       </c>
     </row>
     <row r="131" spans="1:10">
-      <c r="A131" s="13"/>
-      <c r="B131" s="10"/>
+      <c r="A131" s="15"/>
+      <c r="B131" s="19"/>
       <c r="C131" s="3" t="s">
         <v>127</v>
       </c>
@@ -3953,10 +3959,10 @@
       </c>
     </row>
     <row r="133" spans="1:10">
-      <c r="A133" s="11">
+      <c r="A133" s="13">
         <v>46</v>
       </c>
-      <c r="B133" s="10" t="s">
+      <c r="B133" s="19" t="s">
         <v>134</v>
       </c>
       <c r="C133" s="3" t="s">
@@ -3976,8 +3982,8 @@
       </c>
     </row>
     <row r="134" spans="1:10">
-      <c r="A134" s="12"/>
-      <c r="B134" s="10"/>
+      <c r="A134" s="14"/>
+      <c r="B134" s="19"/>
       <c r="C134" s="3" t="s">
         <v>132</v>
       </c>
@@ -3995,8 +4001,8 @@
       </c>
     </row>
     <row r="135" spans="1:10">
-      <c r="A135" s="13"/>
-      <c r="B135" s="10"/>
+      <c r="A135" s="15"/>
+      <c r="B135" s="19"/>
       <c r="C135" s="3" t="s">
         <v>133</v>
       </c>
@@ -4014,10 +4020,10 @@
       </c>
     </row>
     <row r="136" spans="1:10">
-      <c r="A136" s="11">
+      <c r="A136" s="13">
         <v>47</v>
       </c>
-      <c r="B136" s="10" t="s">
+      <c r="B136" s="19" t="s">
         <v>136</v>
       </c>
       <c r="C136" s="3" t="s">
@@ -4037,8 +4043,8 @@
       </c>
     </row>
     <row r="137" spans="1:10">
-      <c r="A137" s="12"/>
-      <c r="B137" s="10"/>
+      <c r="A137" s="14"/>
+      <c r="B137" s="19"/>
       <c r="C137" s="3" t="s">
         <v>8</v>
       </c>
@@ -4057,8 +4063,8 @@
       <c r="I137" s="4"/>
     </row>
     <row r="138" spans="1:10">
-      <c r="A138" s="13"/>
-      <c r="B138" s="10"/>
+      <c r="A138" s="15"/>
+      <c r="B138" s="19"/>
       <c r="C138" s="3" t="s">
         <v>135</v>
       </c>
@@ -4074,10 +4080,10 @@
       <c r="I138" s="4"/>
     </row>
     <row r="139" spans="1:10">
-      <c r="A139" s="11">
+      <c r="A139" s="13">
         <v>48</v>
       </c>
-      <c r="B139" s="10" t="s">
+      <c r="B139" s="19" t="s">
         <v>142</v>
       </c>
       <c r="C139" s="3" t="s">
@@ -4098,8 +4104,8 @@
       <c r="I139" s="4"/>
     </row>
     <row r="140" spans="1:10">
-      <c r="A140" s="12"/>
-      <c r="B140" s="10"/>
+      <c r="A140" s="14"/>
+      <c r="B140" s="19"/>
       <c r="C140" s="3" t="s">
         <v>138</v>
       </c>
@@ -4121,8 +4127,8 @@
       </c>
     </row>
     <row r="141" spans="1:10">
-      <c r="A141" s="12"/>
-      <c r="B141" s="10"/>
+      <c r="A141" s="14"/>
+      <c r="B141" s="19"/>
       <c r="C141" s="3" t="s">
         <v>140</v>
       </c>
@@ -4141,8 +4147,8 @@
       <c r="I141" s="4"/>
     </row>
     <row r="142" spans="1:10">
-      <c r="A142" s="13"/>
-      <c r="B142" s="10"/>
+      <c r="A142" s="15"/>
+      <c r="B142" s="19"/>
       <c r="C142" s="3" t="s">
         <v>141</v>
       </c>
@@ -4155,10 +4161,10 @@
       <c r="I142" s="4"/>
     </row>
     <row r="143" spans="1:10">
-      <c r="A143" s="11">
+      <c r="A143" s="13">
         <v>49</v>
       </c>
-      <c r="B143" s="10" t="s">
+      <c r="B143" s="19" t="s">
         <v>147</v>
       </c>
       <c r="C143" s="3" t="s">
@@ -4178,8 +4184,8 @@
       </c>
     </row>
     <row r="144" spans="1:10">
-      <c r="A144" s="12"/>
-      <c r="B144" s="10"/>
+      <c r="A144" s="14"/>
+      <c r="B144" s="19"/>
       <c r="C144" s="3" t="s">
         <v>144</v>
       </c>
@@ -4197,8 +4203,8 @@
       </c>
     </row>
     <row r="145" spans="1:7">
-      <c r="A145" s="12"/>
-      <c r="B145" s="10"/>
+      <c r="A145" s="14"/>
+      <c r="B145" s="19"/>
       <c r="C145" s="3" t="s">
         <v>145</v>
       </c>
@@ -4216,8 +4222,8 @@
       </c>
     </row>
     <row r="146" spans="1:7">
-      <c r="A146" s="13"/>
-      <c r="B146" s="10"/>
+      <c r="A146" s="15"/>
+      <c r="B146" s="19"/>
       <c r="C146" s="3" t="s">
         <v>146</v>
       </c>
@@ -4235,10 +4241,10 @@
       </c>
     </row>
     <row r="147" spans="1:7">
-      <c r="A147" s="11">
-        <v>50</v>
-      </c>
-      <c r="B147" s="10" t="s">
+      <c r="A147" s="13">
+        <v>50</v>
+      </c>
+      <c r="B147" s="19" t="s">
         <v>150</v>
       </c>
       <c r="C147" s="3" t="s">
@@ -4258,8 +4264,8 @@
       </c>
     </row>
     <row r="148" spans="1:7">
-      <c r="A148" s="13"/>
-      <c r="B148" s="10"/>
+      <c r="A148" s="15"/>
+      <c r="B148" s="19"/>
       <c r="C148" s="3" t="s">
         <v>149</v>
       </c>
@@ -4277,10 +4283,10 @@
       </c>
     </row>
     <row r="149" spans="1:7">
-      <c r="A149" s="11">
+      <c r="A149" s="13">
         <v>51</v>
       </c>
-      <c r="B149" s="10" t="s">
+      <c r="B149" s="19" t="s">
         <v>154</v>
       </c>
       <c r="C149" s="3" t="s">
@@ -4300,9 +4306,9 @@
       </c>
     </row>
     <row r="150" spans="1:7">
-      <c r="A150" s="12"/>
-      <c r="B150" s="10"/>
-      <c r="C150" s="14" t="s">
+      <c r="A150" s="14"/>
+      <c r="B150" s="19"/>
+      <c r="C150" s="10" t="s">
         <v>151</v>
       </c>
       <c r="D150" s="3" t="s">
@@ -4319,8 +4325,8 @@
       </c>
     </row>
     <row r="151" spans="1:7">
-      <c r="A151" s="12"/>
-      <c r="B151" s="10"/>
+      <c r="A151" s="14"/>
+      <c r="B151" s="19"/>
       <c r="C151" s="3" t="s">
         <v>152</v>
       </c>
@@ -4338,8 +4344,8 @@
       </c>
     </row>
     <row r="152" spans="1:7">
-      <c r="A152" s="13"/>
-      <c r="B152" s="10"/>
+      <c r="A152" s="15"/>
+      <c r="B152" s="19"/>
       <c r="C152" s="3" t="s">
         <v>153</v>
       </c>
@@ -4351,7 +4357,7 @@
       </c>
     </row>
     <row r="153" spans="1:7">
-      <c r="A153" s="14">
+      <c r="A153" s="10">
         <v>52</v>
       </c>
       <c r="B153" s="3" t="s">
@@ -4374,10 +4380,10 @@
       </c>
     </row>
     <row r="154" spans="1:7">
-      <c r="A154" s="11">
+      <c r="A154" s="13">
         <v>53</v>
       </c>
-      <c r="B154" s="10" t="s">
+      <c r="B154" s="19" t="s">
         <v>157</v>
       </c>
       <c r="C154" s="3" t="s">
@@ -4397,8 +4403,8 @@
       </c>
     </row>
     <row r="155" spans="1:7">
-      <c r="A155" s="13"/>
-      <c r="B155" s="10"/>
+      <c r="A155" s="15"/>
+      <c r="B155" s="19"/>
       <c r="C155" s="3" t="s">
         <v>50</v>
       </c>
@@ -4416,10 +4422,10 @@
       </c>
     </row>
     <row r="156" spans="1:7">
-      <c r="A156" s="11">
+      <c r="A156" s="13">
         <v>54</v>
       </c>
-      <c r="B156" s="10" t="s">
+      <c r="B156" s="19" t="s">
         <v>156</v>
       </c>
       <c r="C156" s="3" t="s">
@@ -4439,8 +4445,8 @@
       </c>
     </row>
     <row r="157" spans="1:7">
-      <c r="A157" s="13"/>
-      <c r="B157" s="10"/>
+      <c r="A157" s="15"/>
+      <c r="B157" s="19"/>
       <c r="C157" s="3" t="s">
         <v>156</v>
       </c>
@@ -4458,7 +4464,7 @@
       </c>
     </row>
     <row r="158" spans="1:7">
-      <c r="A158" s="14">
+      <c r="A158" s="10">
         <v>55</v>
       </c>
       <c r="B158" s="8" t="s">
@@ -4481,10 +4487,10 @@
       </c>
     </row>
     <row r="159" spans="1:7">
-      <c r="A159" s="11">
+      <c r="A159" s="13">
         <v>56</v>
       </c>
-      <c r="B159" s="10" t="s">
+      <c r="B159" s="19" t="s">
         <v>161</v>
       </c>
       <c r="C159" s="3" t="s">
@@ -4504,8 +4510,8 @@
       </c>
     </row>
     <row r="160" spans="1:7">
-      <c r="A160" s="13"/>
-      <c r="B160" s="10"/>
+      <c r="A160" s="15"/>
+      <c r="B160" s="19"/>
       <c r="C160" s="3" t="s">
         <v>160</v>
       </c>
@@ -4523,10 +4529,10 @@
       </c>
     </row>
     <row r="161" spans="1:7">
-      <c r="A161" s="11">
+      <c r="A161" s="13">
         <v>57</v>
       </c>
-      <c r="B161" s="10" t="s">
+      <c r="B161" s="19" t="s">
         <v>163</v>
       </c>
       <c r="C161" s="3" t="s">
@@ -4546,8 +4552,8 @@
       </c>
     </row>
     <row r="162" spans="1:7">
-      <c r="A162" s="13"/>
-      <c r="B162" s="10"/>
+      <c r="A162" s="15"/>
+      <c r="B162" s="19"/>
       <c r="C162" s="3" t="s">
         <v>162</v>
       </c>
@@ -4565,10 +4571,10 @@
       </c>
     </row>
     <row r="163" spans="1:7">
-      <c r="A163" s="11">
+      <c r="A163" s="13">
         <v>58</v>
       </c>
-      <c r="B163" s="10" t="s">
+      <c r="B163" s="19" t="s">
         <v>166</v>
       </c>
       <c r="C163" s="3" t="s">
@@ -4588,8 +4594,8 @@
       </c>
     </row>
     <row r="164" spans="1:7">
-      <c r="A164" s="12"/>
-      <c r="B164" s="10"/>
+      <c r="A164" s="14"/>
+      <c r="B164" s="19"/>
       <c r="C164" s="3" t="s">
         <v>164</v>
       </c>
@@ -4607,8 +4613,8 @@
       </c>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="13"/>
-      <c r="B165" s="10"/>
+      <c r="A165" s="15"/>
+      <c r="B165" s="19"/>
       <c r="C165" s="3" t="s">
         <v>165</v>
       </c>
@@ -4620,10 +4626,10 @@
       </c>
     </row>
     <row r="166" spans="1:7">
-      <c r="A166" s="11">
+      <c r="A166" s="13">
         <v>59</v>
       </c>
-      <c r="B166" s="10" t="s">
+      <c r="B166" s="19" t="s">
         <v>170</v>
       </c>
       <c r="C166" s="3" t="s">
@@ -4643,8 +4649,8 @@
       </c>
     </row>
     <row r="167" spans="1:7">
-      <c r="A167" s="12"/>
-      <c r="B167" s="10"/>
+      <c r="A167" s="14"/>
+      <c r="B167" s="19"/>
       <c r="C167" s="3" t="s">
         <v>167</v>
       </c>
@@ -4662,8 +4668,8 @@
       </c>
     </row>
     <row r="168" spans="1:7">
-      <c r="A168" s="12"/>
-      <c r="B168" s="10"/>
+      <c r="A168" s="14"/>
+      <c r="B168" s="19"/>
       <c r="C168" s="3" t="s">
         <v>168</v>
       </c>
@@ -4681,8 +4687,8 @@
       </c>
     </row>
     <row r="169" spans="1:7">
-      <c r="A169" s="13"/>
-      <c r="B169" s="10"/>
+      <c r="A169" s="15"/>
+      <c r="B169" s="19"/>
       <c r="C169" s="3" t="s">
         <v>169</v>
       </c>
@@ -4700,10 +4706,10 @@
       </c>
     </row>
     <row r="170" spans="1:7">
-      <c r="A170" s="11">
+      <c r="A170" s="13">
         <v>60</v>
       </c>
-      <c r="B170" s="10" t="s">
+      <c r="B170" s="19" t="s">
         <v>171</v>
       </c>
       <c r="C170" s="3" t="s">
@@ -4723,8 +4729,8 @@
       </c>
     </row>
     <row r="171" spans="1:7">
-      <c r="A171" s="13"/>
-      <c r="B171" s="10"/>
+      <c r="A171" s="15"/>
+      <c r="B171" s="19"/>
       <c r="C171" s="3" t="s">
         <v>71</v>
       </c>
@@ -4739,10 +4745,10 @@
       </c>
     </row>
     <row r="172" spans="1:7">
-      <c r="A172" s="11">
+      <c r="A172" s="13">
         <v>61</v>
       </c>
-      <c r="B172" s="10" t="s">
+      <c r="B172" s="19" t="s">
         <v>172</v>
       </c>
       <c r="C172" s="3" t="s">
@@ -4762,8 +4768,8 @@
       </c>
     </row>
     <row r="173" spans="1:7">
-      <c r="A173" s="12"/>
-      <c r="B173" s="10"/>
+      <c r="A173" s="14"/>
+      <c r="B173" s="19"/>
       <c r="C173" s="3" t="s">
         <v>167</v>
       </c>
@@ -4781,8 +4787,8 @@
       </c>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="12"/>
-      <c r="B174" s="10"/>
+      <c r="A174" s="14"/>
+      <c r="B174" s="19"/>
       <c r="C174" s="3" t="s">
         <v>168</v>
       </c>
@@ -4800,8 +4806,8 @@
       </c>
     </row>
     <row r="175" spans="1:7">
-      <c r="A175" s="13"/>
-      <c r="B175" s="10"/>
+      <c r="A175" s="15"/>
+      <c r="B175" s="19"/>
       <c r="C175" s="3" t="s">
         <v>169</v>
       </c>
@@ -4819,10 +4825,10 @@
       </c>
     </row>
     <row r="176" spans="1:7">
-      <c r="A176" s="11">
+      <c r="A176" s="13">
         <v>62</v>
       </c>
-      <c r="B176" s="10" t="s">
+      <c r="B176" s="19" t="s">
         <v>175</v>
       </c>
       <c r="C176" s="3" t="s">
@@ -4842,8 +4848,8 @@
       </c>
     </row>
     <row r="177" spans="1:7">
-      <c r="A177" s="12"/>
-      <c r="B177" s="10"/>
+      <c r="A177" s="14"/>
+      <c r="B177" s="19"/>
       <c r="C177" s="3" t="s">
         <v>8</v>
       </c>
@@ -4861,8 +4867,8 @@
       </c>
     </row>
     <row r="178" spans="1:7">
-      <c r="A178" s="13"/>
-      <c r="B178" s="10"/>
+      <c r="A178" s="15"/>
+      <c r="B178" s="19"/>
       <c r="C178" s="3" t="s">
         <v>174</v>
       </c>
@@ -4880,10 +4886,10 @@
       </c>
     </row>
     <row r="179" spans="1:7">
-      <c r="A179" s="11">
+      <c r="A179" s="13">
         <v>63</v>
       </c>
-      <c r="B179" s="16" t="s">
+      <c r="B179" s="20" t="s">
         <v>188</v>
       </c>
       <c r="C179" s="3" t="s">
@@ -4897,8 +4903,8 @@
       </c>
     </row>
     <row r="180" spans="1:7">
-      <c r="A180" s="12"/>
-      <c r="B180" s="16"/>
+      <c r="A180" s="14"/>
+      <c r="B180" s="20"/>
       <c r="C180" s="3" t="s">
         <v>177</v>
       </c>
@@ -4916,8 +4922,8 @@
       </c>
     </row>
     <row r="181" spans="1:7">
-      <c r="A181" s="12"/>
-      <c r="B181" s="16"/>
+      <c r="A181" s="14"/>
+      <c r="B181" s="20"/>
       <c r="C181" s="3" t="s">
         <v>178</v>
       </c>
@@ -4935,8 +4941,8 @@
       </c>
     </row>
     <row r="182" spans="1:7">
-      <c r="A182" s="12"/>
-      <c r="B182" s="16"/>
+      <c r="A182" s="14"/>
+      <c r="B182" s="20"/>
       <c r="C182" s="3" t="s">
         <v>179</v>
       </c>
@@ -4954,8 +4960,8 @@
       </c>
     </row>
     <row r="183" spans="1:7">
-      <c r="A183" s="12"/>
-      <c r="B183" s="16"/>
+      <c r="A183" s="14"/>
+      <c r="B183" s="20"/>
       <c r="C183" s="3" t="s">
         <v>180</v>
       </c>
@@ -4973,8 +4979,8 @@
       </c>
     </row>
     <row r="184" spans="1:7">
-      <c r="A184" s="12"/>
-      <c r="B184" s="16"/>
+      <c r="A184" s="14"/>
+      <c r="B184" s="20"/>
       <c r="C184" s="3" t="s">
         <v>181</v>
       </c>
@@ -4992,8 +4998,8 @@
       </c>
     </row>
     <row r="185" spans="1:7">
-      <c r="A185" s="12"/>
-      <c r="B185" s="16"/>
+      <c r="A185" s="14"/>
+      <c r="B185" s="20"/>
       <c r="C185" s="3" t="s">
         <v>182</v>
       </c>
@@ -5011,8 +5017,8 @@
       </c>
     </row>
     <row r="186" spans="1:7">
-      <c r="A186" s="12"/>
-      <c r="B186" s="16"/>
+      <c r="A186" s="14"/>
+      <c r="B186" s="20"/>
       <c r="C186" s="3" t="s">
         <v>183</v>
       </c>
@@ -5030,8 +5036,8 @@
       </c>
     </row>
     <row r="187" spans="1:7">
-      <c r="A187" s="12"/>
-      <c r="B187" s="16"/>
+      <c r="A187" s="14"/>
+      <c r="B187" s="20"/>
       <c r="C187" s="3" t="s">
         <v>184</v>
       </c>
@@ -5049,8 +5055,8 @@
       </c>
     </row>
     <row r="188" spans="1:7">
-      <c r="A188" s="12"/>
-      <c r="B188" s="16"/>
+      <c r="A188" s="14"/>
+      <c r="B188" s="20"/>
       <c r="C188" s="3" t="s">
         <v>185</v>
       </c>
@@ -5068,8 +5074,8 @@
       </c>
     </row>
     <row r="189" spans="1:7">
-      <c r="A189" s="12"/>
-      <c r="B189" s="16"/>
+      <c r="A189" s="14"/>
+      <c r="B189" s="20"/>
       <c r="C189" s="3" t="s">
         <v>186</v>
       </c>
@@ -5087,8 +5093,8 @@
       </c>
     </row>
     <row r="190" spans="1:7">
-      <c r="A190" s="12"/>
-      <c r="B190" s="16"/>
+      <c r="A190" s="14"/>
+      <c r="B190" s="20"/>
       <c r="C190" s="3" t="s">
         <v>6</v>
       </c>
@@ -5106,8 +5112,8 @@
       </c>
     </row>
     <row r="191" spans="1:7">
-      <c r="A191" s="12"/>
-      <c r="B191" s="16"/>
+      <c r="A191" s="14"/>
+      <c r="B191" s="20"/>
       <c r="C191" s="3" t="s">
         <v>8</v>
       </c>
@@ -5125,8 +5131,8 @@
       </c>
     </row>
     <row r="192" spans="1:7">
-      <c r="A192" s="13"/>
-      <c r="B192" s="16"/>
+      <c r="A192" s="15"/>
+      <c r="B192" s="20"/>
       <c r="C192" s="3" t="s">
         <v>187</v>
       </c>
@@ -5141,10 +5147,10 @@
       </c>
     </row>
     <row r="193" spans="1:7">
-      <c r="A193" s="11">
+      <c r="A193" s="13">
         <v>64</v>
       </c>
-      <c r="B193" s="10" t="s">
+      <c r="B193" s="19" t="s">
         <v>189</v>
       </c>
       <c r="C193" s="3" t="s">
@@ -5164,8 +5170,8 @@
       </c>
     </row>
     <row r="194" spans="1:7">
-      <c r="A194" s="12"/>
-      <c r="B194" s="10"/>
+      <c r="A194" s="14"/>
+      <c r="B194" s="19"/>
       <c r="C194" s="3" t="s">
         <v>8</v>
       </c>
@@ -5183,8 +5189,8 @@
       </c>
     </row>
     <row r="195" spans="1:7">
-      <c r="A195" s="13"/>
-      <c r="B195" s="10"/>
+      <c r="A195" s="15"/>
+      <c r="B195" s="19"/>
       <c r="C195" s="3" t="s">
         <v>71</v>
       </c>
@@ -5199,10 +5205,10 @@
       </c>
     </row>
     <row r="196" spans="1:7">
-      <c r="A196" s="11">
+      <c r="A196" s="13">
         <v>65</v>
       </c>
-      <c r="B196" s="10" t="s">
+      <c r="B196" s="19" t="s">
         <v>190</v>
       </c>
       <c r="C196" s="3" t="s">
@@ -5222,8 +5228,8 @@
       </c>
     </row>
     <row r="197" spans="1:7">
-      <c r="A197" s="12"/>
-      <c r="B197" s="10"/>
+      <c r="A197" s="14"/>
+      <c r="B197" s="19"/>
       <c r="C197" s="3" t="s">
         <v>8</v>
       </c>
@@ -5241,8 +5247,8 @@
       </c>
     </row>
     <row r="198" spans="1:7">
-      <c r="A198" s="13"/>
-      <c r="B198" s="10"/>
+      <c r="A198" s="15"/>
+      <c r="B198" s="19"/>
       <c r="C198" s="3" t="s">
         <v>71</v>
       </c>
@@ -5257,10 +5263,10 @@
       </c>
     </row>
     <row r="199" spans="1:7">
-      <c r="A199" s="11">
+      <c r="A199" s="13">
         <v>66</v>
       </c>
-      <c r="B199" s="10" t="s">
+      <c r="B199" s="19" t="s">
         <v>193</v>
       </c>
       <c r="C199" s="3" t="s">
@@ -5280,8 +5286,8 @@
       </c>
     </row>
     <row r="200" spans="1:7">
-      <c r="A200" s="12"/>
-      <c r="B200" s="10"/>
+      <c r="A200" s="14"/>
+      <c r="B200" s="19"/>
       <c r="C200" s="3" t="s">
         <v>191</v>
       </c>
@@ -5299,8 +5305,8 @@
       </c>
     </row>
     <row r="201" spans="1:7">
-      <c r="A201" s="13"/>
-      <c r="B201" s="10"/>
+      <c r="A201" s="15"/>
+      <c r="B201" s="19"/>
       <c r="C201" s="3" t="s">
         <v>192</v>
       </c>
@@ -5318,10 +5324,10 @@
       </c>
     </row>
     <row r="202" spans="1:7">
-      <c r="A202" s="11">
+      <c r="A202" s="13">
         <v>67</v>
       </c>
-      <c r="B202" s="10" t="s">
+      <c r="B202" s="19" t="s">
         <v>196</v>
       </c>
       <c r="C202" s="3" t="s">
@@ -5341,8 +5347,8 @@
       </c>
     </row>
     <row r="203" spans="1:7">
-      <c r="A203" s="12"/>
-      <c r="B203" s="10"/>
+      <c r="A203" s="14"/>
+      <c r="B203" s="19"/>
       <c r="C203" s="3" t="s">
         <v>194</v>
       </c>
@@ -5360,8 +5366,8 @@
       </c>
     </row>
     <row r="204" spans="1:7">
-      <c r="A204" s="13"/>
-      <c r="B204" s="10"/>
+      <c r="A204" s="15"/>
+      <c r="B204" s="19"/>
       <c r="C204" s="3" t="s">
         <v>195</v>
       </c>
@@ -5379,10 +5385,10 @@
       </c>
     </row>
     <row r="205" spans="1:7">
-      <c r="A205" s="11">
+      <c r="A205" s="13">
         <v>68</v>
       </c>
-      <c r="B205" s="10" t="s">
+      <c r="B205" s="19" t="s">
         <v>199</v>
       </c>
       <c r="C205" s="3" t="s">
@@ -5402,8 +5408,8 @@
       </c>
     </row>
     <row r="206" spans="1:7">
-      <c r="A206" s="12"/>
-      <c r="B206" s="10"/>
+      <c r="A206" s="14"/>
+      <c r="B206" s="19"/>
       <c r="C206" s="3" t="s">
         <v>197</v>
       </c>
@@ -5421,8 +5427,8 @@
       </c>
     </row>
     <row r="207" spans="1:7">
-      <c r="A207" s="13"/>
-      <c r="B207" s="10"/>
+      <c r="A207" s="15"/>
+      <c r="B207" s="19"/>
       <c r="C207" s="3" t="s">
         <v>198</v>
       </c>
@@ -5440,10 +5446,10 @@
       </c>
     </row>
     <row r="208" spans="1:7">
-      <c r="A208" s="11">
+      <c r="A208" s="13">
         <v>69</v>
       </c>
-      <c r="B208" s="10" t="s">
+      <c r="B208" s="19" t="s">
         <v>202</v>
       </c>
       <c r="C208" s="3" t="s">
@@ -5463,8 +5469,8 @@
       </c>
     </row>
     <row r="209" spans="1:10">
-      <c r="A209" s="12"/>
-      <c r="B209" s="10"/>
+      <c r="A209" s="14"/>
+      <c r="B209" s="19"/>
       <c r="C209" s="3" t="s">
         <v>200</v>
       </c>
@@ -5482,8 +5488,8 @@
       </c>
     </row>
     <row r="210" spans="1:10">
-      <c r="A210" s="13"/>
-      <c r="B210" s="10"/>
+      <c r="A210" s="15"/>
+      <c r="B210" s="19"/>
       <c r="C210" s="3" t="s">
         <v>201</v>
       </c>
@@ -5501,10 +5507,10 @@
       </c>
     </row>
     <row r="211" spans="1:10">
-      <c r="A211" s="11">
+      <c r="A211" s="13">
         <v>70</v>
       </c>
-      <c r="B211" s="10" t="s">
+      <c r="B211" s="19" t="s">
         <v>205</v>
       </c>
       <c r="C211" s="3" t="s">
@@ -5524,8 +5530,8 @@
       </c>
     </row>
     <row r="212" spans="1:10">
-      <c r="A212" s="12"/>
-      <c r="B212" s="10"/>
+      <c r="A212" s="14"/>
+      <c r="B212" s="19"/>
       <c r="C212" s="3" t="s">
         <v>203</v>
       </c>
@@ -5543,8 +5549,8 @@
       </c>
     </row>
     <row r="213" spans="1:10">
-      <c r="A213" s="13"/>
-      <c r="B213" s="10"/>
+      <c r="A213" s="15"/>
+      <c r="B213" s="19"/>
       <c r="C213" s="3" t="s">
         <v>204</v>
       </c>
@@ -5562,71 +5568,71 @@
       </c>
     </row>
     <row r="214" spans="1:10">
-      <c r="A214" s="11">
+      <c r="A214" s="13">
         <v>71</v>
       </c>
-      <c r="B214" s="10" t="s">
+      <c r="B214" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="C214" s="15" t="s">
+      <c r="C214" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D214" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E214" s="15">
-        <v>50</v>
-      </c>
-      <c r="F214" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G214" s="15">
+      <c r="D214" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E214" s="11">
+        <v>50</v>
+      </c>
+      <c r="F214" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G214" s="11">
         <v>20</v>
       </c>
     </row>
     <row r="215" spans="1:10">
-      <c r="A215" s="12"/>
-      <c r="B215" s="10"/>
-      <c r="C215" s="15" t="s">
+      <c r="A215" s="14"/>
+      <c r="B215" s="19"/>
+      <c r="C215" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="D215" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E215" s="15">
+      <c r="D215" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E215" s="11">
         <v>130</v>
       </c>
-      <c r="F215" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G215" s="15">
+      <c r="F215" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G215" s="11">
         <v>60</v>
       </c>
     </row>
     <row r="216" spans="1:10">
-      <c r="A216" s="13"/>
-      <c r="B216" s="10"/>
-      <c r="C216" s="15" t="s">
+      <c r="A216" s="15"/>
+      <c r="B216" s="19"/>
+      <c r="C216" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="D216" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E216" s="15">
+      <c r="D216" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E216" s="11">
         <v>100</v>
       </c>
-      <c r="F216" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G216" s="15">
+      <c r="F216" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G216" s="11">
         <v>60</v>
       </c>
     </row>
     <row r="217" spans="1:10">
-      <c r="A217" s="11">
+      <c r="A217" s="13">
         <v>72</v>
       </c>
-      <c r="B217" s="11" t="s">
+      <c r="B217" s="13" t="s">
         <v>210</v>
       </c>
       <c r="C217" s="3" t="s">
@@ -5646,8 +5652,8 @@
       </c>
     </row>
     <row r="218" spans="1:10">
-      <c r="A218" s="12"/>
-      <c r="B218" s="12"/>
+      <c r="A218" s="14"/>
+      <c r="B218" s="14"/>
       <c r="C218" s="3" t="s">
         <v>207</v>
       </c>
@@ -5665,8 +5671,8 @@
       </c>
     </row>
     <row r="219" spans="1:10" s="4" customFormat="1" ht="30" customHeight="1">
-      <c r="A219" s="12"/>
-      <c r="B219" s="12"/>
+      <c r="A219" s="14"/>
+      <c r="B219" s="14"/>
       <c r="C219" s="4" t="s">
         <v>208</v>
       </c>
@@ -5678,23 +5684,23 @@
       </c>
     </row>
     <row r="220" spans="1:10">
-      <c r="A220" s="13"/>
-      <c r="B220" s="13"/>
+      <c r="A220" s="15"/>
+      <c r="B220" s="15"/>
       <c r="C220" s="3" t="s">
         <v>209</v>
       </c>
       <c r="D220" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="J220" s="15" t="s">
+      <c r="J220" s="11" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="221" spans="1:10">
-      <c r="A221" s="11">
+      <c r="A221" s="13">
         <v>73</v>
       </c>
-      <c r="B221" s="11" t="s">
+      <c r="B221" s="13" t="s">
         <v>212</v>
       </c>
       <c r="C221" s="3" t="s">
@@ -5714,8 +5720,8 @@
       </c>
     </row>
     <row r="222" spans="1:10">
-      <c r="A222" s="12"/>
-      <c r="B222" s="12"/>
+      <c r="A222" s="14"/>
+      <c r="B222" s="14"/>
       <c r="C222" s="3" t="s">
         <v>213</v>
       </c>
@@ -5733,8 +5739,8 @@
       </c>
     </row>
     <row r="223" spans="1:10">
-      <c r="A223" s="12"/>
-      <c r="B223" s="12"/>
+      <c r="A223" s="14"/>
+      <c r="B223" s="14"/>
       <c r="C223" s="3" t="s">
         <v>87</v>
       </c>
@@ -5752,8 +5758,8 @@
       </c>
     </row>
     <row r="224" spans="1:10">
-      <c r="A224" s="13"/>
-      <c r="B224" s="13"/>
+      <c r="A224" s="15"/>
+      <c r="B224" s="15"/>
       <c r="C224" s="3" t="s">
         <v>214</v>
       </c>
@@ -5771,10 +5777,10 @@
       </c>
     </row>
     <row r="225" spans="1:7">
-      <c r="A225" s="11">
+      <c r="A225" s="13">
         <v>74</v>
       </c>
-      <c r="B225" s="11" t="s">
+      <c r="B225" s="13" t="s">
         <v>217</v>
       </c>
       <c r="C225" s="3" t="s">
@@ -5794,8 +5800,8 @@
       </c>
     </row>
     <row r="226" spans="1:7">
-      <c r="A226" s="12"/>
-      <c r="B226" s="12"/>
+      <c r="A226" s="14"/>
+      <c r="B226" s="14"/>
       <c r="C226" s="3" t="s">
         <v>8</v>
       </c>
@@ -5813,8 +5819,8 @@
       </c>
     </row>
     <row r="227" spans="1:7">
-      <c r="A227" s="12"/>
-      <c r="B227" s="12"/>
+      <c r="A227" s="14"/>
+      <c r="B227" s="14"/>
       <c r="C227" s="3" t="s">
         <v>215</v>
       </c>
@@ -5832,8 +5838,8 @@
       </c>
     </row>
     <row r="228" spans="1:7">
-      <c r="A228" s="13"/>
-      <c r="B228" s="13"/>
+      <c r="A228" s="15"/>
+      <c r="B228" s="15"/>
       <c r="C228" s="3" t="s">
         <v>216</v>
       </c>
@@ -5851,10 +5857,10 @@
       </c>
     </row>
     <row r="229" spans="1:7">
-      <c r="A229" s="11">
+      <c r="A229" s="13">
         <v>75</v>
       </c>
-      <c r="B229" s="11" t="s">
+      <c r="B229" s="13" t="s">
         <v>220</v>
       </c>
       <c r="C229" s="3" t="s">
@@ -5874,8 +5880,8 @@
       </c>
     </row>
     <row r="230" spans="1:7">
-      <c r="A230" s="12"/>
-      <c r="B230" s="12"/>
+      <c r="A230" s="14"/>
+      <c r="B230" s="14"/>
       <c r="C230" s="3" t="s">
         <v>218</v>
       </c>
@@ -5893,8 +5899,8 @@
       </c>
     </row>
     <row r="231" spans="1:7">
-      <c r="A231" s="13"/>
-      <c r="B231" s="13"/>
+      <c r="A231" s="15"/>
+      <c r="B231" s="15"/>
       <c r="C231" s="3" t="s">
         <v>219</v>
       </c>
@@ -5912,10 +5918,10 @@
       </c>
     </row>
     <row r="232" spans="1:7">
-      <c r="A232" s="11">
+      <c r="A232" s="13">
         <v>76</v>
       </c>
-      <c r="B232" s="17" t="s">
+      <c r="B232" s="16" t="s">
         <v>221</v>
       </c>
       <c r="C232" s="3" t="s">
@@ -5929,8 +5935,8 @@
       </c>
     </row>
     <row r="233" spans="1:7">
-      <c r="A233" s="12"/>
-      <c r="B233" s="18"/>
+      <c r="A233" s="14"/>
+      <c r="B233" s="17"/>
       <c r="C233" s="3" t="s">
         <v>177</v>
       </c>
@@ -5948,8 +5954,8 @@
       </c>
     </row>
     <row r="234" spans="1:7">
-      <c r="A234" s="12"/>
-      <c r="B234" s="18"/>
+      <c r="A234" s="14"/>
+      <c r="B234" s="17"/>
       <c r="C234" s="3" t="s">
         <v>178</v>
       </c>
@@ -5967,8 +5973,8 @@
       </c>
     </row>
     <row r="235" spans="1:7">
-      <c r="A235" s="12"/>
-      <c r="B235" s="18"/>
+      <c r="A235" s="14"/>
+      <c r="B235" s="17"/>
       <c r="C235" s="3" t="s">
         <v>179</v>
       </c>
@@ -5986,8 +5992,8 @@
       </c>
     </row>
     <row r="236" spans="1:7">
-      <c r="A236" s="12"/>
-      <c r="B236" s="18"/>
+      <c r="A236" s="14"/>
+      <c r="B236" s="17"/>
       <c r="C236" s="3" t="s">
         <v>180</v>
       </c>
@@ -6005,8 +6011,8 @@
       </c>
     </row>
     <row r="237" spans="1:7">
-      <c r="A237" s="12"/>
-      <c r="B237" s="18"/>
+      <c r="A237" s="14"/>
+      <c r="B237" s="17"/>
       <c r="C237" s="3" t="s">
         <v>181</v>
       </c>
@@ -6024,8 +6030,8 @@
       </c>
     </row>
     <row r="238" spans="1:7">
-      <c r="A238" s="12"/>
-      <c r="B238" s="18"/>
+      <c r="A238" s="14"/>
+      <c r="B238" s="17"/>
       <c r="C238" s="3" t="s">
         <v>182</v>
       </c>
@@ -6043,8 +6049,8 @@
       </c>
     </row>
     <row r="239" spans="1:7">
-      <c r="A239" s="12"/>
-      <c r="B239" s="18"/>
+      <c r="A239" s="14"/>
+      <c r="B239" s="17"/>
       <c r="C239" s="3" t="s">
         <v>183</v>
       </c>
@@ -6062,8 +6068,8 @@
       </c>
     </row>
     <row r="240" spans="1:7">
-      <c r="A240" s="12"/>
-      <c r="B240" s="18"/>
+      <c r="A240" s="14"/>
+      <c r="B240" s="17"/>
       <c r="C240" s="3" t="s">
         <v>184</v>
       </c>
@@ -6081,8 +6087,8 @@
       </c>
     </row>
     <row r="241" spans="1:10">
-      <c r="A241" s="12"/>
-      <c r="B241" s="18"/>
+      <c r="A241" s="14"/>
+      <c r="B241" s="17"/>
       <c r="C241" s="3" t="s">
         <v>185</v>
       </c>
@@ -6100,8 +6106,8 @@
       </c>
     </row>
     <row r="242" spans="1:10">
-      <c r="A242" s="12"/>
-      <c r="B242" s="18"/>
+      <c r="A242" s="14"/>
+      <c r="B242" s="17"/>
       <c r="C242" s="3" t="s">
         <v>186</v>
       </c>
@@ -6119,8 +6125,8 @@
       </c>
     </row>
     <row r="243" spans="1:10">
-      <c r="A243" s="12"/>
-      <c r="B243" s="18"/>
+      <c r="A243" s="14"/>
+      <c r="B243" s="17"/>
       <c r="C243" s="3" t="s">
         <v>6</v>
       </c>
@@ -6138,8 +6144,8 @@
       </c>
     </row>
     <row r="244" spans="1:10">
-      <c r="A244" s="12"/>
-      <c r="B244" s="18"/>
+      <c r="A244" s="14"/>
+      <c r="B244" s="17"/>
       <c r="C244" s="3" t="s">
         <v>8</v>
       </c>
@@ -6157,8 +6163,8 @@
       </c>
     </row>
     <row r="245" spans="1:10">
-      <c r="A245" s="13"/>
-      <c r="B245" s="19"/>
+      <c r="A245" s="15"/>
+      <c r="B245" s="18"/>
       <c r="C245" s="3" t="s">
         <v>187</v>
       </c>
@@ -6173,10 +6179,10 @@
       </c>
     </row>
     <row r="246" spans="1:10" ht="45">
-      <c r="A246" s="11">
+      <c r="A246" s="13">
         <v>77</v>
       </c>
-      <c r="B246" s="11" t="s">
+      <c r="B246" s="13" t="s">
         <v>227</v>
       </c>
       <c r="C246" s="3" t="s">
@@ -6193,8 +6199,8 @@
       </c>
     </row>
     <row r="247" spans="1:10">
-      <c r="A247" s="12"/>
-      <c r="B247" s="12"/>
+      <c r="A247" s="14"/>
+      <c r="B247" s="14"/>
       <c r="C247" s="3" t="s">
         <v>223</v>
       </c>
@@ -6209,8 +6215,8 @@
       </c>
     </row>
     <row r="248" spans="1:10" ht="45">
-      <c r="A248" s="12"/>
-      <c r="B248" s="12"/>
+      <c r="A248" s="14"/>
+      <c r="B248" s="14"/>
       <c r="C248" s="3" t="s">
         <v>224</v>
       </c>
@@ -6225,8 +6231,8 @@
       </c>
     </row>
     <row r="249" spans="1:10" ht="45">
-      <c r="A249" s="12"/>
-      <c r="B249" s="12"/>
+      <c r="A249" s="14"/>
+      <c r="B249" s="14"/>
       <c r="C249" s="3" t="s">
         <v>225</v>
       </c>
@@ -6247,8 +6253,8 @@
       </c>
     </row>
     <row r="250" spans="1:10">
-      <c r="A250" s="12"/>
-      <c r="B250" s="12"/>
+      <c r="A250" s="14"/>
+      <c r="B250" s="14"/>
       <c r="C250" s="3" t="s">
         <v>5</v>
       </c>
@@ -6266,8 +6272,8 @@
       </c>
     </row>
     <row r="251" spans="1:10">
-      <c r="A251" s="12"/>
-      <c r="B251" s="12"/>
+      <c r="A251" s="14"/>
+      <c r="B251" s="14"/>
       <c r="C251" s="3" t="s">
         <v>226</v>
       </c>
@@ -6285,8 +6291,8 @@
       </c>
     </row>
     <row r="252" spans="1:10">
-      <c r="A252" s="12"/>
-      <c r="B252" s="12"/>
+      <c r="A252" s="14"/>
+      <c r="B252" s="14"/>
       <c r="C252" s="3" t="s">
         <v>6</v>
       </c>
@@ -6304,8 +6310,8 @@
       </c>
     </row>
     <row r="253" spans="1:10">
-      <c r="A253" s="13"/>
-      <c r="B253" s="13"/>
+      <c r="A253" s="15"/>
+      <c r="B253" s="15"/>
       <c r="C253" s="3" t="s">
         <v>8</v>
       </c>
@@ -6323,10 +6329,10 @@
       </c>
     </row>
     <row r="254" spans="1:10">
-      <c r="A254" s="11">
+      <c r="A254" s="13">
         <v>78</v>
       </c>
-      <c r="B254" s="11" t="s">
+      <c r="B254" s="13" t="s">
         <v>233</v>
       </c>
       <c r="C254" s="3" t="s">
@@ -6346,8 +6352,8 @@
       </c>
     </row>
     <row r="255" spans="1:10">
-      <c r="A255" s="13"/>
-      <c r="B255" s="13"/>
+      <c r="A255" s="15"/>
+      <c r="B255" s="15"/>
       <c r="C255" s="3" t="s">
         <v>232</v>
       </c>
@@ -6365,10 +6371,10 @@
       </c>
     </row>
     <row r="256" spans="1:10" ht="30">
-      <c r="A256" s="11">
+      <c r="A256" s="13">
         <v>79</v>
       </c>
-      <c r="B256" s="11" t="s">
+      <c r="B256" s="13" t="s">
         <v>245</v>
       </c>
       <c r="C256" s="3" t="s">
@@ -6388,8 +6394,8 @@
       </c>
     </row>
     <row r="257" spans="1:10" ht="30">
-      <c r="A257" s="12"/>
-      <c r="B257" s="12"/>
+      <c r="A257" s="14"/>
+      <c r="B257" s="14"/>
       <c r="C257" s="3" t="s">
         <v>235</v>
       </c>
@@ -6410,8 +6416,8 @@
       </c>
     </row>
     <row r="258" spans="1:10">
-      <c r="A258" s="12"/>
-      <c r="B258" s="12"/>
+      <c r="A258" s="14"/>
+      <c r="B258" s="14"/>
       <c r="C258" s="3" t="s">
         <v>236</v>
       </c>
@@ -6429,8 +6435,8 @@
       </c>
     </row>
     <row r="259" spans="1:10">
-      <c r="A259" s="12"/>
-      <c r="B259" s="12"/>
+      <c r="A259" s="14"/>
+      <c r="B259" s="14"/>
       <c r="C259" s="3" t="s">
         <v>6</v>
       </c>
@@ -6448,8 +6454,8 @@
       </c>
     </row>
     <row r="260" spans="1:10">
-      <c r="A260" s="12"/>
-      <c r="B260" s="12"/>
+      <c r="A260" s="14"/>
+      <c r="B260" s="14"/>
       <c r="C260" s="3" t="s">
         <v>237</v>
       </c>
@@ -6467,8 +6473,8 @@
       </c>
     </row>
     <row r="261" spans="1:10">
-      <c r="A261" s="12"/>
-      <c r="B261" s="12"/>
+      <c r="A261" s="14"/>
+      <c r="B261" s="14"/>
       <c r="C261" s="3" t="s">
         <v>238</v>
       </c>
@@ -6486,8 +6492,8 @@
       </c>
     </row>
     <row r="262" spans="1:10">
-      <c r="A262" s="12"/>
-      <c r="B262" s="12"/>
+      <c r="A262" s="14"/>
+      <c r="B262" s="14"/>
       <c r="C262" s="3" t="s">
         <v>239</v>
       </c>
@@ -6505,8 +6511,8 @@
       </c>
     </row>
     <row r="263" spans="1:10">
-      <c r="A263" s="12"/>
-      <c r="B263" s="12"/>
+      <c r="A263" s="14"/>
+      <c r="B263" s="14"/>
       <c r="C263" s="3" t="s">
         <v>240</v>
       </c>
@@ -6524,8 +6530,8 @@
       </c>
     </row>
     <row r="264" spans="1:10">
-      <c r="A264" s="12"/>
-      <c r="B264" s="12"/>
+      <c r="A264" s="14"/>
+      <c r="B264" s="14"/>
       <c r="C264" s="3" t="s">
         <v>241</v>
       </c>
@@ -6543,8 +6549,8 @@
       </c>
     </row>
     <row r="265" spans="1:10">
-      <c r="A265" s="12"/>
-      <c r="B265" s="12"/>
+      <c r="A265" s="14"/>
+      <c r="B265" s="14"/>
       <c r="C265" s="3" t="s">
         <v>242</v>
       </c>
@@ -6562,8 +6568,8 @@
       </c>
     </row>
     <row r="266" spans="1:10">
-      <c r="A266" s="12"/>
-      <c r="B266" s="12"/>
+      <c r="A266" s="14"/>
+      <c r="B266" s="14"/>
       <c r="C266" s="3" t="s">
         <v>243</v>
       </c>
@@ -6581,8 +6587,8 @@
       </c>
     </row>
     <row r="267" spans="1:10">
-      <c r="A267" s="13"/>
-      <c r="B267" s="13"/>
+      <c r="A267" s="15"/>
+      <c r="B267" s="15"/>
       <c r="C267" s="3" t="s">
         <v>244</v>
       </c>
@@ -6600,10 +6606,10 @@
       </c>
     </row>
     <row r="268" spans="1:10">
-      <c r="A268" s="11">
+      <c r="A268" s="13">
         <v>80</v>
       </c>
-      <c r="B268" s="11" t="s">
+      <c r="B268" s="13" t="s">
         <v>251</v>
       </c>
       <c r="C268" s="3" t="s">
@@ -6623,8 +6629,8 @@
       </c>
     </row>
     <row r="269" spans="1:10">
-      <c r="A269" s="12"/>
-      <c r="B269" s="12"/>
+      <c r="A269" s="14"/>
+      <c r="B269" s="14"/>
       <c r="C269" s="3" t="s">
         <v>8</v>
       </c>
@@ -6642,8 +6648,8 @@
       </c>
     </row>
     <row r="270" spans="1:10">
-      <c r="A270" s="12"/>
-      <c r="B270" s="12"/>
+      <c r="A270" s="14"/>
+      <c r="B270" s="14"/>
       <c r="C270" s="3" t="s">
         <v>248</v>
       </c>
@@ -6661,8 +6667,8 @@
       </c>
     </row>
     <row r="271" spans="1:10">
-      <c r="A271" s="12"/>
-      <c r="B271" s="12"/>
+      <c r="A271" s="14"/>
+      <c r="B271" s="14"/>
       <c r="C271" s="3" t="s">
         <v>249</v>
       </c>
@@ -6680,8 +6686,8 @@
       </c>
     </row>
     <row r="272" spans="1:10">
-      <c r="A272" s="13"/>
-      <c r="B272" s="13"/>
+      <c r="A272" s="15"/>
+      <c r="B272" s="15"/>
       <c r="C272" s="3" t="s">
         <v>250</v>
       </c>
@@ -6699,10 +6705,10 @@
       </c>
     </row>
     <row r="273" spans="1:10">
-      <c r="A273" s="11">
+      <c r="A273" s="13">
         <v>81</v>
       </c>
-      <c r="B273" s="11" t="s">
+      <c r="B273" s="13" t="s">
         <v>253</v>
       </c>
       <c r="C273" s="3" t="s">
@@ -6722,8 +6728,8 @@
       </c>
     </row>
     <row r="274" spans="1:10">
-      <c r="A274" s="13"/>
-      <c r="B274" s="13"/>
+      <c r="A274" s="15"/>
+      <c r="B274" s="15"/>
       <c r="C274" s="3" t="s">
         <v>252</v>
       </c>
@@ -6741,10 +6747,10 @@
       </c>
     </row>
     <row r="275" spans="1:10">
-      <c r="A275" s="11">
+      <c r="A275" s="13">
         <v>82</v>
       </c>
-      <c r="B275" s="11" t="s">
+      <c r="B275" s="13" t="s">
         <v>254</v>
       </c>
       <c r="C275" s="3" t="s">
@@ -6764,8 +6770,8 @@
       </c>
     </row>
     <row r="276" spans="1:10">
-      <c r="A276" s="13"/>
-      <c r="B276" s="13"/>
+      <c r="A276" s="15"/>
+      <c r="B276" s="15"/>
       <c r="C276" s="3" t="s">
         <v>8</v>
       </c>
@@ -6783,10 +6789,10 @@
       </c>
     </row>
     <row r="277" spans="1:10">
-      <c r="A277" s="11">
+      <c r="A277" s="13">
         <v>83</v>
       </c>
-      <c r="B277" s="11" t="s">
+      <c r="B277" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C277" s="3" t="s">
@@ -6806,8 +6812,8 @@
       </c>
     </row>
     <row r="278" spans="1:10">
-      <c r="A278" s="12"/>
-      <c r="B278" s="12"/>
+      <c r="A278" s="14"/>
+      <c r="B278" s="14"/>
       <c r="C278" s="3" t="s">
         <v>6</v>
       </c>
@@ -6825,8 +6831,8 @@
       </c>
     </row>
     <row r="279" spans="1:10">
-      <c r="A279" s="12"/>
-      <c r="B279" s="12"/>
+      <c r="A279" s="14"/>
+      <c r="B279" s="14"/>
       <c r="C279" s="3" t="s">
         <v>8</v>
       </c>
@@ -6844,8 +6850,8 @@
       </c>
     </row>
     <row r="280" spans="1:10">
-      <c r="A280" s="12"/>
-      <c r="B280" s="12"/>
+      <c r="A280" s="14"/>
+      <c r="B280" s="14"/>
       <c r="C280" s="3" t="s">
         <v>12</v>
       </c>
@@ -6863,8 +6869,8 @@
       </c>
     </row>
     <row r="281" spans="1:10">
-      <c r="A281" s="13"/>
-      <c r="B281" s="13"/>
+      <c r="A281" s="15"/>
+      <c r="B281" s="15"/>
       <c r="C281" s="3" t="s">
         <v>11</v>
       </c>
@@ -6882,10 +6888,10 @@
       </c>
     </row>
     <row r="282" spans="1:10">
-      <c r="A282" s="11">
+      <c r="A282" s="13">
         <v>84</v>
       </c>
-      <c r="B282" s="11" t="s">
+      <c r="B282" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C282" s="3" t="s">
@@ -6905,8 +6911,8 @@
       </c>
     </row>
     <row r="283" spans="1:10">
-      <c r="A283" s="12"/>
-      <c r="B283" s="12"/>
+      <c r="A283" s="14"/>
+      <c r="B283" s="14"/>
       <c r="C283" s="3" t="s">
         <v>6</v>
       </c>
@@ -6924,8 +6930,8 @@
       </c>
     </row>
     <row r="284" spans="1:10">
-      <c r="A284" s="12"/>
-      <c r="B284" s="12"/>
+      <c r="A284" s="14"/>
+      <c r="B284" s="14"/>
       <c r="C284" s="3" t="s">
         <v>8</v>
       </c>
@@ -6943,8 +6949,8 @@
       </c>
     </row>
     <row r="285" spans="1:10">
-      <c r="A285" s="12"/>
-      <c r="B285" s="12"/>
+      <c r="A285" s="14"/>
+      <c r="B285" s="14"/>
       <c r="C285" s="3" t="s">
         <v>12</v>
       </c>
@@ -6962,8 +6968,8 @@
       </c>
     </row>
     <row r="286" spans="1:10">
-      <c r="A286" s="13"/>
-      <c r="B286" s="13"/>
+      <c r="A286" s="15"/>
+      <c r="B286" s="15"/>
       <c r="C286" s="3" t="s">
         <v>11</v>
       </c>
@@ -6981,10 +6987,10 @@
       </c>
     </row>
     <row r="287" spans="1:10">
-      <c r="A287" s="11">
+      <c r="A287" s="13">
         <v>85</v>
       </c>
-      <c r="B287" s="11" t="s">
+      <c r="B287" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C287" s="3" t="s">
@@ -7007,8 +7013,8 @@
       </c>
     </row>
     <row r="288" spans="1:10">
-      <c r="A288" s="12"/>
-      <c r="B288" s="12"/>
+      <c r="A288" s="14"/>
+      <c r="B288" s="14"/>
       <c r="C288" s="3" t="s">
         <v>6</v>
       </c>
@@ -7026,8 +7032,8 @@
       </c>
     </row>
     <row r="289" spans="1:7">
-      <c r="A289" s="12"/>
-      <c r="B289" s="12"/>
+      <c r="A289" s="14"/>
+      <c r="B289" s="14"/>
       <c r="C289" s="3" t="s">
         <v>8</v>
       </c>
@@ -7045,8 +7051,8 @@
       </c>
     </row>
     <row r="290" spans="1:7">
-      <c r="A290" s="12"/>
-      <c r="B290" s="12"/>
+      <c r="A290" s="14"/>
+      <c r="B290" s="14"/>
       <c r="C290" s="3" t="s">
         <v>20</v>
       </c>
@@ -7062,8 +7068,8 @@
       <c r="G290"/>
     </row>
     <row r="291" spans="1:7">
-      <c r="A291" s="13"/>
-      <c r="B291" s="13"/>
+      <c r="A291" s="15"/>
+      <c r="B291" s="15"/>
       <c r="C291" s="3" t="s">
         <v>11</v>
       </c>
@@ -7081,10 +7087,10 @@
       </c>
     </row>
     <row r="292" spans="1:7">
-      <c r="A292" s="11">
+      <c r="A292" s="13">
         <v>86</v>
       </c>
-      <c r="B292" s="11" t="s">
+      <c r="B292" s="13" t="s">
         <v>256</v>
       </c>
       <c r="C292" s="3" t="s">
@@ -7104,8 +7110,8 @@
       </c>
     </row>
     <row r="293" spans="1:7">
-      <c r="A293" s="13"/>
-      <c r="B293" s="13"/>
+      <c r="A293" s="15"/>
+      <c r="B293" s="15"/>
       <c r="C293" s="3" t="s">
         <v>101</v>
       </c>
@@ -7145,52 +7151,120 @@
         <v>60</v>
       </c>
     </row>
+    <row r="295" spans="1:7">
+      <c r="B295" s="21"/>
+      <c r="C295" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D295" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E295" s="3">
+        <v>50</v>
+      </c>
+      <c r="F295" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G295" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
+      <c r="B296" s="22"/>
+      <c r="C296" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D296" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E296" s="3">
+        <v>50</v>
+      </c>
+      <c r="F296" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G296" s="3">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="146">
-    <mergeCell ref="A287:A291"/>
-    <mergeCell ref="A292:A293"/>
-    <mergeCell ref="A268:A272"/>
-    <mergeCell ref="A273:A274"/>
-    <mergeCell ref="A275:A276"/>
-    <mergeCell ref="A277:A281"/>
-    <mergeCell ref="A282:A286"/>
-    <mergeCell ref="A225:A228"/>
-    <mergeCell ref="A229:A231"/>
-    <mergeCell ref="A232:A245"/>
-    <mergeCell ref="A246:A253"/>
-    <mergeCell ref="A254:A255"/>
-    <mergeCell ref="A256:A267"/>
-    <mergeCell ref="A214:A216"/>
-    <mergeCell ref="A217:A220"/>
-    <mergeCell ref="A221:A224"/>
-    <mergeCell ref="A199:A201"/>
-    <mergeCell ref="A202:A204"/>
-    <mergeCell ref="A205:A207"/>
-    <mergeCell ref="A208:A210"/>
-    <mergeCell ref="A211:A213"/>
-    <mergeCell ref="A172:A175"/>
-    <mergeCell ref="A176:A178"/>
-    <mergeCell ref="A179:A192"/>
-    <mergeCell ref="A193:A195"/>
-    <mergeCell ref="A196:A198"/>
-    <mergeCell ref="A159:A160"/>
-    <mergeCell ref="A161:A162"/>
-    <mergeCell ref="A163:A165"/>
-    <mergeCell ref="A166:A169"/>
-    <mergeCell ref="A170:A171"/>
-    <mergeCell ref="B277:B281"/>
-    <mergeCell ref="B282:B286"/>
-    <mergeCell ref="B287:B291"/>
-    <mergeCell ref="B292:B293"/>
-    <mergeCell ref="A120:A122"/>
-    <mergeCell ref="A123:A125"/>
-    <mergeCell ref="A126:A128"/>
-    <mergeCell ref="A129:A131"/>
-    <mergeCell ref="A133:A135"/>
-    <mergeCell ref="A136:A138"/>
-    <mergeCell ref="A139:A142"/>
-    <mergeCell ref="A143:A146"/>
-    <mergeCell ref="A147:A148"/>
+  <mergeCells count="147">
+    <mergeCell ref="B295:B296"/>
+    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A93:A96"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="B129:B131"/>
+    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="A116:A119"/>
+    <mergeCell ref="B133:B135"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B109:B113"/>
+    <mergeCell ref="B116:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B123:B125"/>
+    <mergeCell ref="B126:B128"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A68:A72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="B93:B96"/>
+    <mergeCell ref="B97:B100"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="B68:B72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="B154:B155"/>
+    <mergeCell ref="B156:B157"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="B163:B165"/>
+    <mergeCell ref="B136:B138"/>
+    <mergeCell ref="B139:B142"/>
+    <mergeCell ref="B143:B146"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="B149:B152"/>
     <mergeCell ref="A149:A152"/>
     <mergeCell ref="A154:A155"/>
     <mergeCell ref="A156:A157"/>
@@ -7215,84 +7289,53 @@
     <mergeCell ref="B205:B207"/>
     <mergeCell ref="B166:B169"/>
     <mergeCell ref="B170:B171"/>
+    <mergeCell ref="A120:A122"/>
+    <mergeCell ref="A123:A125"/>
+    <mergeCell ref="A126:A128"/>
+    <mergeCell ref="A129:A131"/>
+    <mergeCell ref="A133:A135"/>
+    <mergeCell ref="A136:A138"/>
+    <mergeCell ref="A139:A142"/>
+    <mergeCell ref="A143:A146"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="A159:A160"/>
+    <mergeCell ref="A161:A162"/>
+    <mergeCell ref="A163:A165"/>
+    <mergeCell ref="A166:A169"/>
+    <mergeCell ref="A170:A171"/>
+    <mergeCell ref="B277:B281"/>
+    <mergeCell ref="B282:B286"/>
+    <mergeCell ref="B287:B291"/>
+    <mergeCell ref="B292:B293"/>
     <mergeCell ref="B172:B175"/>
     <mergeCell ref="B176:B178"/>
     <mergeCell ref="B179:B192"/>
-    <mergeCell ref="B154:B155"/>
-    <mergeCell ref="B156:B157"/>
-    <mergeCell ref="B159:B160"/>
-    <mergeCell ref="B161:B162"/>
-    <mergeCell ref="B163:B165"/>
-    <mergeCell ref="B136:B138"/>
-    <mergeCell ref="B139:B142"/>
-    <mergeCell ref="B143:B146"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="B149:B152"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="B86:B90"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="B93:B96"/>
-    <mergeCell ref="B97:B100"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="B68:B72"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A68:A72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="A86:A90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="A93:A96"/>
-    <mergeCell ref="A97:A100"/>
-    <mergeCell ref="B129:B131"/>
-    <mergeCell ref="A109:A113"/>
-    <mergeCell ref="A116:A119"/>
-    <mergeCell ref="B133:B135"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="B109:B113"/>
-    <mergeCell ref="B116:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B123:B125"/>
-    <mergeCell ref="B126:B128"/>
+    <mergeCell ref="A214:A216"/>
+    <mergeCell ref="A217:A220"/>
+    <mergeCell ref="A221:A224"/>
+    <mergeCell ref="A199:A201"/>
+    <mergeCell ref="A202:A204"/>
+    <mergeCell ref="A205:A207"/>
+    <mergeCell ref="A208:A210"/>
+    <mergeCell ref="A211:A213"/>
+    <mergeCell ref="A172:A175"/>
+    <mergeCell ref="A176:A178"/>
+    <mergeCell ref="A179:A192"/>
+    <mergeCell ref="A193:A195"/>
+    <mergeCell ref="A196:A198"/>
+    <mergeCell ref="A287:A291"/>
+    <mergeCell ref="A292:A293"/>
+    <mergeCell ref="A268:A272"/>
+    <mergeCell ref="A273:A274"/>
+    <mergeCell ref="A275:A276"/>
+    <mergeCell ref="A277:A281"/>
+    <mergeCell ref="A282:A286"/>
+    <mergeCell ref="A225:A228"/>
+    <mergeCell ref="A229:A231"/>
+    <mergeCell ref="A232:A245"/>
+    <mergeCell ref="A246:A253"/>
+    <mergeCell ref="A254:A255"/>
+    <mergeCell ref="A256:A267"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/DPI_Table_Audit/Audit-Process-Sheet.xlsx
+++ b/DPI_Table_Audit/Audit-Process-Sheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="267">
   <si>
     <t>Column Name</t>
   </si>
@@ -797,6 +797,30 @@
   </si>
   <si>
     <t>MstCivilDocumentType</t>
+  </si>
+  <si>
+    <t>ComplaintTopicNameEng</t>
+  </si>
+  <si>
+    <t>ComplaintTopicNameHin</t>
+  </si>
+  <si>
+    <t>ComplaintTopicCode</t>
+  </si>
+  <si>
+    <t>MstComplaintTopics</t>
+  </si>
+  <si>
+    <t>ComplaintTypeNameEng</t>
+  </si>
+  <si>
+    <t>ComplaintTypeNameHin</t>
+  </si>
+  <si>
+    <t>ComplaintCode</t>
+  </si>
+  <si>
+    <t>MstComplaintType</t>
   </si>
 </sst>
 </file>
@@ -834,7 +858,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -894,11 +918,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -930,6 +978,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -949,16 +1000,31 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1264,10 +1330,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z296"/>
+  <dimension ref="A1:Z312"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A302" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1276,7 +1342,8 @@
     <col min="2" max="2" width="37.5703125" style="3" customWidth="1"/>
     <col min="3" max="3" width="26.5703125" style="3" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" style="3" customWidth="1"/>
-    <col min="5" max="6" width="20.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="3" customWidth="1"/>
     <col min="7" max="7" width="20.85546875" style="3" customWidth="1"/>
     <col min="8" max="8" width="19" style="3" customWidth="1"/>
     <col min="9" max="9" width="19.42578125" style="3" customWidth="1"/>
@@ -1300,7 +1367,7 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="25" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1323,10 +1390,10 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="19">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1335,7 +1402,7 @@
       <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="5">
         <v>50</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -1347,15 +1414,15 @@
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="5">
         <v>50</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -1367,15 +1434,15 @@
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="5">
         <v>150</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -1387,15 +1454,15 @@
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="26">
         <v>15</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -1407,15 +1474,15 @@
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="26">
         <v>150</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -1427,10 +1494,10 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="19">
+      <c r="A7" s="13">
         <v>2</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1439,7 +1506,7 @@
       <c r="D7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="5">
         <v>50</v>
       </c>
       <c r="F7" s="3" t="s">
@@ -1450,15 +1517,15 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="5">
         <v>50</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -1469,15 +1536,15 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="5">
         <v>150</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -1488,15 +1555,15 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="5">
         <v>15</v>
       </c>
       <c r="F10" s="3" t="s">
@@ -1507,15 +1574,15 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="5">
         <v>150</v>
       </c>
       <c r="F11" s="3" t="s">
@@ -1526,10 +1593,10 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="19">
+      <c r="A12" s="13">
         <v>3</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1538,7 +1605,7 @@
       <c r="D12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="5">
         <v>50</v>
       </c>
       <c r="F12" s="3" t="s">
@@ -1549,15 +1616,15 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="5">
         <v>50</v>
       </c>
       <c r="F13" s="3" t="s">
@@ -1568,15 +1635,15 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="5">
         <v>100</v>
       </c>
       <c r="F14" s="3" t="s">
@@ -1587,15 +1654,15 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="26">
         <v>50</v>
       </c>
       <c r="F15" s="6" t="s">
@@ -1603,15 +1670,15 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="26">
         <v>50</v>
       </c>
       <c r="F16" s="3" t="s">
@@ -1622,10 +1689,10 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="19">
+      <c r="A17" s="13">
         <v>4</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="13" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -1634,7 +1701,7 @@
       <c r="D17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="5">
         <v>50</v>
       </c>
       <c r="F17" s="3" t="s">
@@ -1646,15 +1713,15 @@
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="5">
         <v>50</v>
       </c>
       <c r="F18" s="3" t="s">
@@ -1666,15 +1733,15 @@
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="5">
         <v>50</v>
       </c>
       <c r="F19" s="3" t="s">
@@ -1683,15 +1750,15 @@
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="26">
         <v>150</v>
       </c>
       <c r="F20" s="3" t="s">
@@ -1705,8 +1772,8 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="3" t="s">
         <v>26</v>
       </c>
@@ -1715,10 +1782,10 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="19">
+      <c r="A22" s="13">
         <v>5</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="13" t="s">
         <v>32</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -1727,7 +1794,7 @@
       <c r="D22" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="5">
         <v>40</v>
       </c>
       <c r="F22" s="3" t="s">
@@ -1738,15 +1805,15 @@
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="5">
         <v>40</v>
       </c>
       <c r="F23" s="3" t="s">
@@ -1757,15 +1824,15 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
       <c r="C24" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F24" s="3" t="s">
@@ -1776,10 +1843,10 @@
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="19">
+      <c r="A25" s="13">
         <v>6</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="13" t="s">
         <v>35</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -1788,7 +1855,7 @@
       <c r="D25" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="5">
         <v>50</v>
       </c>
       <c r="F25" s="3" t="s">
@@ -1799,15 +1866,15 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="5">
         <v>50</v>
       </c>
       <c r="F26" s="3" t="s">
@@ -1818,15 +1885,15 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
       <c r="C27" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="5">
         <v>50</v>
       </c>
       <c r="F27" s="3" t="s">
@@ -1834,15 +1901,15 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
       <c r="C28" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="26">
         <v>100</v>
       </c>
       <c r="F28" s="3" t="s">
@@ -1853,10 +1920,10 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="19">
-        <v>7</v>
-      </c>
-      <c r="B29" s="19" t="s">
+      <c r="A29" s="13">
+        <v>7</v>
+      </c>
+      <c r="B29" s="13" t="s">
         <v>36</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -1865,7 +1932,7 @@
       <c r="D29" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="5">
         <v>50</v>
       </c>
       <c r="F29" s="3" t="s">
@@ -1876,15 +1943,15 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
       <c r="C30" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="5">
         <v>50</v>
       </c>
       <c r="F30" s="3" t="s">
@@ -1895,10 +1962,10 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="19">
+      <c r="A31" s="13">
         <v>8</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="13" t="s">
         <v>40</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -1907,7 +1974,7 @@
       <c r="D31" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="5">
         <v>50</v>
       </c>
       <c r="F31" s="3" t="s">
@@ -1918,15 +1985,15 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
       <c r="C32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="5">
         <v>50</v>
       </c>
       <c r="F32" s="3" t="s">
@@ -1937,15 +2004,15 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
       <c r="C33" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="5">
         <v>50</v>
       </c>
       <c r="F33" s="3" t="s">
@@ -1953,15 +2020,15 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="19"/>
-      <c r="B34" s="19"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
       <c r="C34" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="5">
         <v>15</v>
       </c>
       <c r="F34" s="3" t="s">
@@ -1972,15 +2039,15 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="19"/>
-      <c r="B35" s="19"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
       <c r="C35" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="5">
         <v>15</v>
       </c>
       <c r="F35" s="3" t="s">
@@ -1991,15 +2058,15 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
       <c r="C36" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="26">
         <v>100</v>
       </c>
       <c r="F36" s="6" t="s">
@@ -2010,15 +2077,15 @@
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="19"/>
-      <c r="B37" s="19"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
       <c r="C37" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="26">
         <v>150</v>
       </c>
       <c r="F37" s="3" t="s">
@@ -2029,10 +2096,10 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="19">
+      <c r="A38" s="13">
         <v>9</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C38" s="3" t="s">
@@ -2041,7 +2108,7 @@
       <c r="D38" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="5">
         <v>50</v>
       </c>
       <c r="F38" s="3" t="s">
@@ -2052,15 +2119,15 @@
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="19"/>
-      <c r="B39" s="19"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
       <c r="C39" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="5">
         <v>50</v>
       </c>
       <c r="F39" s="3" t="s">
@@ -2071,15 +2138,15 @@
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="19"/>
-      <c r="B40" s="19"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
       <c r="C40" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="5">
         <v>90</v>
       </c>
       <c r="F40" s="3" t="s">
@@ -2090,15 +2157,15 @@
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="19"/>
-      <c r="B41" s="19"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
       <c r="C41" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="5">
         <v>10</v>
       </c>
       <c r="F41" s="3" t="s">
@@ -2109,10 +2176,10 @@
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="19">
-        <v>10</v>
-      </c>
-      <c r="B42" s="19" t="s">
+      <c r="A42" s="13">
+        <v>10</v>
+      </c>
+      <c r="B42" s="13" t="s">
         <v>49</v>
       </c>
       <c r="C42" s="3" t="s">
@@ -2121,7 +2188,7 @@
       <c r="D42" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="5">
         <v>40</v>
       </c>
       <c r="F42" s="3" t="s">
@@ -2132,15 +2199,15 @@
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="19"/>
-      <c r="B43" s="19"/>
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
       <c r="C43" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="5">
         <v>40</v>
       </c>
       <c r="F43" s="3" t="s">
@@ -2151,15 +2218,15 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="19"/>
-      <c r="B44" s="19"/>
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
       <c r="C44" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="5">
         <v>40</v>
       </c>
       <c r="F44" s="3" t="s">
@@ -2170,15 +2237,15 @@
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="19"/>
-      <c r="B45" s="19"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
       <c r="C45" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="26">
         <v>30</v>
       </c>
       <c r="F45" s="3" t="s">
@@ -2189,15 +2256,15 @@
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="19"/>
-      <c r="B46" s="19"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
       <c r="C46" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46" s="26">
         <v>40</v>
       </c>
       <c r="F46" s="3" t="s">
@@ -2208,10 +2275,10 @@
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="19">
+      <c r="A47" s="13">
         <v>11</v>
       </c>
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="13" t="s">
         <v>52</v>
       </c>
       <c r="C47" s="3" t="s">
@@ -2220,7 +2287,7 @@
       <c r="D47" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="5">
         <v>50</v>
       </c>
       <c r="F47" s="3" t="s">
@@ -2231,15 +2298,15 @@
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="19"/>
-      <c r="B48" s="19"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="13"/>
       <c r="C48" s="3" t="s">
         <v>51</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="5">
         <v>20</v>
       </c>
       <c r="F48" s="3" t="s">
@@ -2250,10 +2317,10 @@
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="19">
+      <c r="A49" s="13">
         <v>12</v>
       </c>
-      <c r="B49" s="19" t="s">
+      <c r="B49" s="13" t="s">
         <v>56</v>
       </c>
       <c r="C49" s="3" t="s">
@@ -2262,7 +2329,7 @@
       <c r="D49" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="5">
         <v>50</v>
       </c>
       <c r="F49" s="3" t="s">
@@ -2273,15 +2340,15 @@
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="19"/>
-      <c r="B50" s="19"/>
+      <c r="A50" s="13"/>
+      <c r="B50" s="13"/>
       <c r="C50" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="5">
         <v>100</v>
       </c>
       <c r="F50" s="3" t="s">
@@ -2292,15 +2359,15 @@
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="19"/>
-      <c r="B51" s="19"/>
+      <c r="A51" s="13"/>
+      <c r="B51" s="13"/>
       <c r="C51" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="5">
         <v>80</v>
       </c>
       <c r="F51" s="3" t="s">
@@ -2311,15 +2378,15 @@
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="19"/>
-      <c r="B52" s="19"/>
+      <c r="A52" s="13"/>
+      <c r="B52" s="13"/>
       <c r="C52" s="3" t="s">
         <v>55</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="5">
         <v>15</v>
       </c>
       <c r="F52" s="3" t="s">
@@ -2330,10 +2397,10 @@
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="19">
+      <c r="A53" s="13">
         <v>13</v>
       </c>
-      <c r="B53" s="19" t="s">
+      <c r="B53" s="13" t="s">
         <v>58</v>
       </c>
       <c r="C53" s="3" t="s">
@@ -2342,7 +2409,7 @@
       <c r="D53" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="5">
         <v>50</v>
       </c>
       <c r="F53" s="3" t="s">
@@ -2353,15 +2420,15 @@
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="19"/>
-      <c r="B54" s="19"/>
+      <c r="A54" s="13"/>
+      <c r="B54" s="13"/>
       <c r="C54" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="5">
         <v>100</v>
       </c>
       <c r="F54" s="3" t="s">
@@ -2372,10 +2439,10 @@
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="19">
+      <c r="A55" s="13">
         <v>14</v>
       </c>
-      <c r="B55" s="19" t="s">
+      <c r="B55" s="13" t="s">
         <v>59</v>
       </c>
       <c r="C55" s="3" t="s">
@@ -2384,7 +2451,7 @@
       <c r="D55" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55" s="5">
         <v>40</v>
       </c>
       <c r="F55" s="3" t="s">
@@ -2395,15 +2462,15 @@
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="19"/>
-      <c r="B56" s="19"/>
+      <c r="A56" s="13"/>
+      <c r="B56" s="13"/>
       <c r="C56" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56" s="5">
         <v>40</v>
       </c>
       <c r="F56" s="3" t="s">
@@ -2414,15 +2481,15 @@
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="19"/>
-      <c r="B57" s="19"/>
+      <c r="A57" s="13"/>
+      <c r="B57" s="13"/>
       <c r="C57" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E57" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F57" s="3" t="s">
@@ -2433,10 +2500,10 @@
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="19">
+      <c r="A58" s="13">
         <v>15</v>
       </c>
-      <c r="B58" s="19" t="s">
+      <c r="B58" s="13" t="s">
         <v>61</v>
       </c>
       <c r="C58" s="3" t="s">
@@ -2445,7 +2512,7 @@
       <c r="D58" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="5">
         <v>50</v>
       </c>
       <c r="F58" s="3" t="s">
@@ -2456,15 +2523,15 @@
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="19"/>
-      <c r="B59" s="19"/>
+      <c r="A59" s="13"/>
+      <c r="B59" s="13"/>
       <c r="C59" s="3" t="s">
         <v>60</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="5">
         <v>100</v>
       </c>
       <c r="F59" s="3" t="s">
@@ -2487,7 +2554,7 @@
       <c r="D60" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E60" s="5">
         <v>50</v>
       </c>
       <c r="F60" s="3" t="s">
@@ -2510,7 +2577,7 @@
       <c r="D61" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E61" s="5">
         <v>50</v>
       </c>
       <c r="F61" s="3" t="s">
@@ -2521,10 +2588,10 @@
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="19">
+      <c r="A62" s="13">
         <v>18</v>
       </c>
-      <c r="B62" s="19" t="s">
+      <c r="B62" s="13" t="s">
         <v>65</v>
       </c>
       <c r="C62" s="3" t="s">
@@ -2533,7 +2600,7 @@
       <c r="D62" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62" s="5">
         <v>40</v>
       </c>
       <c r="F62" s="3" t="s">
@@ -2544,15 +2611,15 @@
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="19"/>
-      <c r="B63" s="19"/>
+      <c r="A63" s="13"/>
+      <c r="B63" s="13"/>
       <c r="C63" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E63" s="5">
         <v>40</v>
       </c>
       <c r="F63" s="3" t="s">
@@ -2575,7 +2642,7 @@
       <c r="D64" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E64" s="5">
         <v>50</v>
       </c>
       <c r="F64" s="3" t="s">
@@ -2586,10 +2653,10 @@
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="19">
-        <v>20</v>
-      </c>
-      <c r="B65" s="19" t="s">
+      <c r="A65" s="13">
+        <v>20</v>
+      </c>
+      <c r="B65" s="13" t="s">
         <v>69</v>
       </c>
       <c r="C65" s="3" t="s">
@@ -2598,7 +2665,7 @@
       <c r="D65" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E65" s="5">
         <v>50</v>
       </c>
       <c r="F65" s="3" t="s">
@@ -2609,15 +2676,15 @@
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="19"/>
-      <c r="B66" s="19"/>
+      <c r="A66" s="13"/>
+      <c r="B66" s="13"/>
       <c r="C66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E66" s="5">
         <v>50</v>
       </c>
       <c r="F66" s="3" t="s">
@@ -2628,8 +2695,8 @@
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="19"/>
-      <c r="B67" s="19"/>
+      <c r="A67" s="13"/>
+      <c r="B67" s="13"/>
       <c r="C67" s="3" t="s">
         <v>67</v>
       </c>
@@ -2642,10 +2709,10 @@
       <c r="G67" s="5"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="19">
+      <c r="A68" s="13">
         <v>21</v>
       </c>
-      <c r="B68" s="19" t="s">
+      <c r="B68" s="13" t="s">
         <v>75</v>
       </c>
       <c r="C68" s="3" t="s">
@@ -2654,7 +2721,7 @@
       <c r="D68" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E68" s="3">
+      <c r="E68" s="5">
         <v>50</v>
       </c>
       <c r="F68" s="3" t="s">
@@ -2665,8 +2732,8 @@
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="19"/>
-      <c r="B69" s="19"/>
+      <c r="A69" s="13"/>
+      <c r="B69" s="13"/>
       <c r="C69" s="3" t="s">
         <v>70</v>
       </c>
@@ -2679,15 +2746,15 @@
       <c r="G69" s="5"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="19"/>
-      <c r="B70" s="19"/>
+      <c r="A70" s="13"/>
+      <c r="B70" s="13"/>
       <c r="C70" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E70" s="3">
+      <c r="E70" s="5">
         <v>15</v>
       </c>
       <c r="F70" s="3" t="s">
@@ -2695,15 +2762,15 @@
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="19"/>
-      <c r="B71" s="19"/>
+      <c r="A71" s="13"/>
+      <c r="B71" s="13"/>
       <c r="C71" s="3" t="s">
         <v>73</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E71" s="3">
+      <c r="E71" s="5">
         <v>60</v>
       </c>
       <c r="F71" s="3" t="s">
@@ -2714,15 +2781,15 @@
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="19"/>
-      <c r="B72" s="19"/>
+      <c r="A72" s="13"/>
+      <c r="B72" s="13"/>
       <c r="C72" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E72" s="6">
+      <c r="E72" s="26">
         <v>80</v>
       </c>
       <c r="F72" s="3" t="s">
@@ -2733,10 +2800,10 @@
       </c>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="19">
+      <c r="A73" s="13">
         <v>22</v>
       </c>
-      <c r="B73" s="19" t="s">
+      <c r="B73" s="13" t="s">
         <v>77</v>
       </c>
       <c r="C73" s="3" t="s">
@@ -2745,7 +2812,7 @@
       <c r="D73" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E73" s="3">
+      <c r="E73" s="5">
         <v>50</v>
       </c>
       <c r="F73" s="3" t="s">
@@ -2756,15 +2823,15 @@
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="19"/>
-      <c r="B74" s="19"/>
+      <c r="A74" s="13"/>
+      <c r="B74" s="13"/>
       <c r="C74" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E74" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F74" s="3" t="s">
@@ -2775,10 +2842,10 @@
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="19">
+      <c r="A75" s="13">
         <v>23</v>
       </c>
-      <c r="B75" s="19" t="s">
+      <c r="B75" s="13" t="s">
         <v>80</v>
       </c>
       <c r="C75" s="3" t="s">
@@ -2787,7 +2854,7 @@
       <c r="D75" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E75" s="3">
+      <c r="E75" s="5">
         <v>30</v>
       </c>
       <c r="F75" s="3" t="s">
@@ -2798,15 +2865,15 @@
       </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="19"/>
-      <c r="B76" s="19"/>
+      <c r="A76" s="13"/>
+      <c r="B76" s="13"/>
       <c r="C76" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E76" s="3">
+      <c r="E76" s="5">
         <v>30</v>
       </c>
       <c r="F76" s="3" t="s">
@@ -2829,7 +2896,7 @@
       <c r="D77" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E77" s="3">
+      <c r="E77" s="5">
         <v>50</v>
       </c>
       <c r="F77" s="3" t="s">
@@ -2840,10 +2907,10 @@
       </c>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="19">
+      <c r="A78" s="13">
         <v>25</v>
       </c>
-      <c r="B78" s="19" t="s">
+      <c r="B78" s="13" t="s">
         <v>85</v>
       </c>
       <c r="C78" s="3" t="s">
@@ -2852,7 +2919,7 @@
       <c r="D78" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E78" s="3">
+      <c r="E78" s="5">
         <v>50</v>
       </c>
       <c r="F78" s="3" t="s">
@@ -2863,15 +2930,15 @@
       </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="19"/>
-      <c r="B79" s="19"/>
+      <c r="A79" s="13"/>
+      <c r="B79" s="13"/>
       <c r="C79" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E79" s="3">
+      <c r="E79" s="5">
         <v>80</v>
       </c>
       <c r="F79" s="3" t="s">
@@ -2882,15 +2949,15 @@
       </c>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="19"/>
-      <c r="B80" s="19"/>
+      <c r="A80" s="13"/>
+      <c r="B80" s="13"/>
       <c r="C80" s="3" t="s">
         <v>83</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E80" s="3">
+      <c r="E80" s="5">
         <v>100</v>
       </c>
       <c r="F80" s="3" t="s">
@@ -2901,15 +2968,15 @@
       </c>
     </row>
     <row r="81" spans="1:10">
-      <c r="A81" s="19"/>
-      <c r="B81" s="19"/>
+      <c r="A81" s="13"/>
+      <c r="B81" s="13"/>
       <c r="C81" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E81" s="3">
+      <c r="E81" s="5">
         <v>10</v>
       </c>
       <c r="F81" s="3" t="s">
@@ -2932,7 +2999,7 @@
       <c r="D82" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E82" s="3">
+      <c r="E82" s="5">
         <v>50</v>
       </c>
       <c r="F82" s="3" t="s">
@@ -2943,10 +3010,10 @@
       </c>
     </row>
     <row r="83" spans="1:10">
-      <c r="A83" s="19">
+      <c r="A83" s="13">
         <v>27</v>
       </c>
-      <c r="B83" s="19" t="s">
+      <c r="B83" s="13" t="s">
         <v>69</v>
       </c>
       <c r="C83" s="3" t="s">
@@ -2955,7 +3022,7 @@
       <c r="D83" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E83" s="5">
         <v>50</v>
       </c>
       <c r="F83" s="3" t="s">
@@ -2966,15 +3033,15 @@
       </c>
     </row>
     <row r="84" spans="1:10">
-      <c r="A84" s="19"/>
-      <c r="B84" s="19"/>
+      <c r="A84" s="13"/>
+      <c r="B84" s="13"/>
       <c r="C84" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E84" s="3">
+      <c r="E84" s="5">
         <v>50</v>
       </c>
       <c r="F84" s="3" t="s">
@@ -2985,8 +3052,8 @@
       </c>
     </row>
     <row r="85" spans="1:10">
-      <c r="A85" s="19"/>
-      <c r="B85" s="19"/>
+      <c r="A85" s="13"/>
+      <c r="B85" s="13"/>
       <c r="C85" s="3" t="s">
         <v>67</v>
       </c>
@@ -2999,10 +3066,10 @@
       <c r="G85" s="5"/>
     </row>
     <row r="86" spans="1:10">
-      <c r="A86" s="19">
+      <c r="A86" s="13">
         <v>28</v>
       </c>
-      <c r="B86" s="19" t="s">
+      <c r="B86" s="13" t="s">
         <v>86</v>
       </c>
       <c r="C86" s="3" t="s">
@@ -3011,7 +3078,7 @@
       <c r="D86" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E86" s="3">
+      <c r="E86" s="5">
         <v>50</v>
       </c>
       <c r="F86" s="3" t="s">
@@ -3022,8 +3089,8 @@
       </c>
     </row>
     <row r="87" spans="1:10">
-      <c r="A87" s="19"/>
-      <c r="B87" s="19"/>
+      <c r="A87" s="13"/>
+      <c r="B87" s="13"/>
       <c r="C87" s="3" t="s">
         <v>70</v>
       </c>
@@ -3036,15 +3103,15 @@
       <c r="G87" s="5"/>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="19"/>
-      <c r="B88" s="19"/>
+      <c r="A88" s="13"/>
+      <c r="B88" s="13"/>
       <c r="C88" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E88" s="3">
+      <c r="E88" s="5">
         <v>15</v>
       </c>
       <c r="F88" s="3" t="s">
@@ -3052,15 +3119,15 @@
       </c>
     </row>
     <row r="89" spans="1:10">
-      <c r="A89" s="19"/>
-      <c r="B89" s="19"/>
+      <c r="A89" s="13"/>
+      <c r="B89" s="13"/>
       <c r="C89" s="3" t="s">
         <v>73</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E89" s="3">
+      <c r="E89" s="5">
         <v>60</v>
       </c>
       <c r="F89" s="3" t="s">
@@ -3071,15 +3138,15 @@
       </c>
     </row>
     <row r="90" spans="1:10">
-      <c r="A90" s="19"/>
-      <c r="B90" s="19"/>
+      <c r="A90" s="13"/>
+      <c r="B90" s="13"/>
       <c r="C90" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E90" s="6">
+      <c r="E90" s="26">
         <v>80</v>
       </c>
       <c r="F90" s="3" t="s">
@@ -3090,10 +3157,10 @@
       </c>
     </row>
     <row r="91" spans="1:10">
-      <c r="A91" s="19">
+      <c r="A91" s="13">
         <v>29</v>
       </c>
-      <c r="B91" s="19" t="s">
+      <c r="B91" s="13" t="s">
         <v>80</v>
       </c>
       <c r="C91" s="3" t="s">
@@ -3102,7 +3169,7 @@
       <c r="D91" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="5">
         <v>30</v>
       </c>
       <c r="F91" s="3" t="s">
@@ -3113,15 +3180,15 @@
       </c>
     </row>
     <row r="92" spans="1:10">
-      <c r="A92" s="19"/>
-      <c r="B92" s="19"/>
+      <c r="A92" s="13"/>
+      <c r="B92" s="13"/>
       <c r="C92" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E92" s="3">
+      <c r="E92" s="5">
         <v>30</v>
       </c>
       <c r="F92" s="3" t="s">
@@ -3132,10 +3199,10 @@
       </c>
     </row>
     <row r="93" spans="1:10">
-      <c r="A93" s="19">
+      <c r="A93" s="13">
         <v>30</v>
       </c>
-      <c r="B93" s="19" t="s">
+      <c r="B93" s="13" t="s">
         <v>93</v>
       </c>
       <c r="C93" s="3" t="s">
@@ -3144,7 +3211,7 @@
       <c r="D93" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E93" s="3">
+      <c r="E93" s="5">
         <v>50</v>
       </c>
       <c r="F93" s="3" t="s">
@@ -3155,15 +3222,15 @@
       </c>
     </row>
     <row r="94" spans="1:10">
-      <c r="A94" s="19"/>
-      <c r="B94" s="19"/>
+      <c r="A94" s="13"/>
+      <c r="B94" s="13"/>
       <c r="C94" s="3" t="s">
         <v>88</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E94" s="5">
         <v>60</v>
       </c>
       <c r="F94" s="3" t="s">
@@ -3174,15 +3241,15 @@
       </c>
     </row>
     <row r="95" spans="1:10">
-      <c r="A95" s="19"/>
-      <c r="B95" s="19"/>
+      <c r="A95" s="13"/>
+      <c r="B95" s="13"/>
       <c r="C95" s="3" t="s">
         <v>89</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E95" s="3">
+      <c r="E95" s="5">
         <v>90</v>
       </c>
       <c r="F95" s="3" t="s">
@@ -3193,15 +3260,15 @@
       </c>
     </row>
     <row r="96" spans="1:10">
-      <c r="A96" s="19"/>
-      <c r="B96" s="19"/>
+      <c r="A96" s="13"/>
+      <c r="B96" s="13"/>
       <c r="C96" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E96" s="3">
+      <c r="E96" s="5">
         <v>10</v>
       </c>
       <c r="F96" s="3" t="s">
@@ -3215,10 +3282,10 @@
       </c>
     </row>
     <row r="97" spans="1:10">
-      <c r="A97" s="19">
+      <c r="A97" s="13">
         <v>31</v>
       </c>
-      <c r="B97" s="19" t="s">
+      <c r="B97" s="13" t="s">
         <v>100</v>
       </c>
       <c r="C97" s="3" t="s">
@@ -3227,7 +3294,7 @@
       <c r="D97" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E97" s="3">
+      <c r="E97" s="5">
         <v>50</v>
       </c>
       <c r="F97" s="3" t="s">
@@ -3238,15 +3305,15 @@
       </c>
     </row>
     <row r="98" spans="1:10">
-      <c r="A98" s="19"/>
-      <c r="B98" s="19"/>
+      <c r="A98" s="13"/>
+      <c r="B98" s="13"/>
       <c r="C98" s="3" t="s">
         <v>94</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E98" s="3">
+      <c r="E98" s="5">
         <v>50</v>
       </c>
       <c r="F98" s="3" t="s">
@@ -3260,15 +3327,15 @@
       </c>
     </row>
     <row r="99" spans="1:10">
-      <c r="A99" s="19"/>
-      <c r="B99" s="19"/>
+      <c r="A99" s="13"/>
+      <c r="B99" s="13"/>
       <c r="C99" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E99" s="3">
+      <c r="E99" s="5">
         <v>60</v>
       </c>
       <c r="F99" s="3" t="s">
@@ -3282,15 +3349,15 @@
       </c>
     </row>
     <row r="100" spans="1:10">
-      <c r="A100" s="19"/>
-      <c r="B100" s="19"/>
+      <c r="A100" s="13"/>
+      <c r="B100" s="13"/>
       <c r="C100" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E100" s="6">
+      <c r="E100" s="26">
         <v>10</v>
       </c>
       <c r="F100" s="3" t="s">
@@ -3304,10 +3371,10 @@
       </c>
     </row>
     <row r="101" spans="1:10">
-      <c r="A101" s="19">
+      <c r="A101" s="13">
         <v>32</v>
       </c>
-      <c r="B101" s="19" t="s">
+      <c r="B101" s="13" t="s">
         <v>102</v>
       </c>
       <c r="C101" s="3" t="s">
@@ -3316,7 +3383,7 @@
       <c r="D101" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E101" s="3">
+      <c r="E101" s="5">
         <v>50</v>
       </c>
       <c r="F101" s="3" t="s">
@@ -3327,15 +3394,15 @@
       </c>
     </row>
     <row r="102" spans="1:10">
-      <c r="A102" s="19"/>
-      <c r="B102" s="19"/>
+      <c r="A102" s="13"/>
+      <c r="B102" s="13"/>
       <c r="C102" s="3" t="s">
         <v>101</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E102" s="3">
+      <c r="E102" s="5">
         <v>50</v>
       </c>
       <c r="F102" s="3" t="s">
@@ -3346,10 +3413,10 @@
       </c>
     </row>
     <row r="103" spans="1:10">
-      <c r="A103" s="19">
+      <c r="A103" s="13">
         <v>33</v>
       </c>
-      <c r="B103" s="19" t="s">
+      <c r="B103" s="13" t="s">
         <v>103</v>
       </c>
       <c r="C103" s="3" t="s">
@@ -3358,7 +3425,7 @@
       <c r="D103" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E103" s="3">
+      <c r="E103" s="5">
         <v>50</v>
       </c>
       <c r="F103" s="3" t="s">
@@ -3369,15 +3436,15 @@
       </c>
     </row>
     <row r="104" spans="1:10">
-      <c r="A104" s="19"/>
-      <c r="B104" s="19"/>
+      <c r="A104" s="13"/>
+      <c r="B104" s="13"/>
       <c r="C104" s="3" t="s">
         <v>101</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E104" s="3">
+      <c r="E104" s="5">
         <v>50</v>
       </c>
       <c r="F104" s="3" t="s">
@@ -3388,15 +3455,15 @@
       </c>
     </row>
     <row r="105" spans="1:10">
-      <c r="A105" s="19"/>
-      <c r="B105" s="19"/>
+      <c r="A105" s="13"/>
+      <c r="B105" s="13"/>
       <c r="C105" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E105" s="3">
+      <c r="E105" s="5">
         <v>15</v>
       </c>
       <c r="F105" s="3" t="s">
@@ -3416,7 +3483,7 @@
       <c r="D106" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E106" s="3">
+      <c r="E106" s="5">
         <v>50</v>
       </c>
       <c r="F106" s="3" t="s">
@@ -3439,7 +3506,7 @@
       <c r="D107" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E107" s="3">
+      <c r="E107" s="5">
         <v>60</v>
       </c>
       <c r="F107" s="3" t="s">
@@ -3462,7 +3529,7 @@
       <c r="D108" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E108" s="3">
+      <c r="E108" s="5">
         <v>60</v>
       </c>
       <c r="F108" s="3" t="s">
@@ -3473,10 +3540,10 @@
       </c>
     </row>
     <row r="109" spans="1:10">
-      <c r="A109" s="19">
+      <c r="A109" s="13">
         <v>37</v>
       </c>
-      <c r="B109" s="19" t="s">
+      <c r="B109" s="13" t="s">
         <v>113</v>
       </c>
       <c r="C109" s="3" t="s">
@@ -3485,7 +3552,7 @@
       <c r="D109" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E109" s="3">
+      <c r="E109" s="5">
         <v>100</v>
       </c>
       <c r="F109" s="3" t="s">
@@ -3496,15 +3563,15 @@
       </c>
     </row>
     <row r="110" spans="1:10">
-      <c r="A110" s="19"/>
-      <c r="B110" s="19"/>
+      <c r="A110" s="13"/>
+      <c r="B110" s="13"/>
       <c r="C110" s="3" t="s">
         <v>110</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E110" s="3">
+      <c r="E110" s="5">
         <v>100</v>
       </c>
       <c r="F110" s="3" t="s">
@@ -3515,15 +3582,15 @@
       </c>
     </row>
     <row r="111" spans="1:10">
-      <c r="A111" s="19"/>
-      <c r="B111" s="19"/>
+      <c r="A111" s="13"/>
+      <c r="B111" s="13"/>
       <c r="C111" s="3" t="s">
         <v>111</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E111" s="3">
+      <c r="E111" s="5">
         <v>10</v>
       </c>
       <c r="F111" s="3" t="s">
@@ -3534,15 +3601,15 @@
       </c>
     </row>
     <row r="112" spans="1:10">
-      <c r="A112" s="19"/>
-      <c r="B112" s="19"/>
+      <c r="A112" s="13"/>
+      <c r="B112" s="13"/>
       <c r="C112" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E112" s="6">
+      <c r="E112" s="26">
         <v>50</v>
       </c>
       <c r="F112" s="3" t="s">
@@ -3553,15 +3620,15 @@
       </c>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="19"/>
-      <c r="B113" s="19"/>
+      <c r="A113" s="13"/>
+      <c r="B113" s="13"/>
       <c r="C113" s="3" t="s">
         <v>112</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E113" s="6">
+      <c r="E113" s="26">
         <v>200</v>
       </c>
       <c r="F113" s="3" t="s">
@@ -3584,7 +3651,7 @@
       <c r="D114" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E114" s="3">
+      <c r="E114" s="5">
         <v>50</v>
       </c>
       <c r="F114" s="3" t="s">
@@ -3607,7 +3674,7 @@
       <c r="D115" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E115" s="3">
+      <c r="E115" s="5">
         <v>50</v>
       </c>
       <c r="F115" s="3" t="s">
@@ -3618,10 +3685,10 @@
       </c>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="19">
+      <c r="A116" s="13">
         <v>40</v>
       </c>
-      <c r="B116" s="19" t="s">
+      <c r="B116" s="13" t="s">
         <v>120</v>
       </c>
       <c r="C116" s="3" t="s">
@@ -3630,7 +3697,7 @@
       <c r="D116" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E116" s="3">
+      <c r="E116" s="5">
         <v>50</v>
       </c>
       <c r="F116" s="3" t="s">
@@ -3641,15 +3708,15 @@
       </c>
     </row>
     <row r="117" spans="1:7">
-      <c r="A117" s="19"/>
-      <c r="B117" s="19"/>
+      <c r="A117" s="13"/>
+      <c r="B117" s="13"/>
       <c r="C117" s="3" t="s">
         <v>116</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E117" s="3">
+      <c r="E117" s="5">
         <v>80</v>
       </c>
       <c r="F117" s="3" t="s">
@@ -3660,15 +3727,15 @@
       </c>
     </row>
     <row r="118" spans="1:7">
-      <c r="A118" s="19"/>
-      <c r="B118" s="19"/>
+      <c r="A118" s="13"/>
+      <c r="B118" s="13"/>
       <c r="C118" s="3" t="s">
         <v>117</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E118" s="3">
+      <c r="E118" s="5">
         <v>100</v>
       </c>
       <c r="F118" s="3" t="s">
@@ -3679,8 +3746,8 @@
       </c>
     </row>
     <row r="119" spans="1:7">
-      <c r="A119" s="19"/>
-      <c r="B119" s="19"/>
+      <c r="A119" s="13"/>
+      <c r="B119" s="13"/>
       <c r="C119" s="3" t="s">
         <v>118</v>
       </c>
@@ -3692,10 +3759,10 @@
       </c>
     </row>
     <row r="120" spans="1:7">
-      <c r="A120" s="13">
+      <c r="A120" s="14">
         <v>41</v>
       </c>
-      <c r="B120" s="19" t="s">
+      <c r="B120" s="13" t="s">
         <v>123</v>
       </c>
       <c r="C120" s="3" t="s">
@@ -3704,7 +3771,7 @@
       <c r="D120" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E120" s="3">
+      <c r="E120" s="5">
         <v>50</v>
       </c>
       <c r="F120" s="3" t="s">
@@ -3715,15 +3782,15 @@
       </c>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="14"/>
-      <c r="B121" s="19"/>
+      <c r="A121" s="15"/>
+      <c r="B121" s="13"/>
       <c r="C121" s="3" t="s">
         <v>121</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E121" s="3">
+      <c r="E121" s="5">
         <v>50</v>
       </c>
       <c r="F121" s="3" t="s">
@@ -3734,15 +3801,15 @@
       </c>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" s="15"/>
-      <c r="B122" s="19"/>
+      <c r="A122" s="16"/>
+      <c r="B122" s="13"/>
       <c r="C122" s="3" t="s">
         <v>122</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E122" s="3">
+      <c r="E122" s="5">
         <v>80</v>
       </c>
       <c r="F122" s="3" t="s">
@@ -3753,10 +3820,10 @@
       </c>
     </row>
     <row r="123" spans="1:7">
-      <c r="A123" s="13">
+      <c r="A123" s="14">
         <v>42</v>
       </c>
-      <c r="B123" s="19" t="s">
+      <c r="B123" s="13" t="s">
         <v>125</v>
       </c>
       <c r="C123" s="3" t="s">
@@ -3765,7 +3832,7 @@
       <c r="D123" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E123" s="3">
+      <c r="E123" s="5">
         <v>50</v>
       </c>
       <c r="F123" s="3" t="s">
@@ -3776,15 +3843,15 @@
       </c>
     </row>
     <row r="124" spans="1:7">
-      <c r="A124" s="14"/>
-      <c r="B124" s="19"/>
+      <c r="A124" s="15"/>
+      <c r="B124" s="13"/>
       <c r="C124" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E124" s="3">
+      <c r="E124" s="5">
         <v>100</v>
       </c>
       <c r="F124" s="3" t="s">
@@ -3795,15 +3862,15 @@
       </c>
     </row>
     <row r="125" spans="1:7">
-      <c r="A125" s="15"/>
-      <c r="B125" s="19"/>
+      <c r="A125" s="16"/>
+      <c r="B125" s="13"/>
       <c r="C125" s="3" t="s">
         <v>122</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E125" s="3">
+      <c r="E125" s="5">
         <v>130</v>
       </c>
       <c r="F125" s="3" t="s">
@@ -3814,10 +3881,10 @@
       </c>
     </row>
     <row r="126" spans="1:7">
-      <c r="A126" s="13">
+      <c r="A126" s="14">
         <v>43</v>
       </c>
-      <c r="B126" s="19" t="s">
+      <c r="B126" s="13" t="s">
         <v>128</v>
       </c>
       <c r="C126" s="3" t="s">
@@ -3826,7 +3893,7 @@
       <c r="D126" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E126" s="3">
+      <c r="E126" s="5">
         <v>50</v>
       </c>
       <c r="F126" s="3" t="s">
@@ -3837,15 +3904,15 @@
       </c>
     </row>
     <row r="127" spans="1:7">
-      <c r="A127" s="14"/>
-      <c r="B127" s="19"/>
+      <c r="A127" s="15"/>
+      <c r="B127" s="13"/>
       <c r="C127" s="3" t="s">
         <v>126</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E127" s="3">
+      <c r="E127" s="5">
         <v>130</v>
       </c>
       <c r="F127" s="3" t="s">
@@ -3856,15 +3923,15 @@
       </c>
     </row>
     <row r="128" spans="1:7">
-      <c r="A128" s="15"/>
-      <c r="B128" s="19"/>
+      <c r="A128" s="16"/>
+      <c r="B128" s="13"/>
       <c r="C128" s="3" t="s">
         <v>127</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E128" s="3">
+      <c r="E128" s="5">
         <v>100</v>
       </c>
       <c r="F128" s="3" t="s">
@@ -3875,10 +3942,10 @@
       </c>
     </row>
     <row r="129" spans="1:10">
-      <c r="A129" s="13">
+      <c r="A129" s="14">
         <v>44</v>
       </c>
-      <c r="B129" s="19" t="s">
+      <c r="B129" s="13" t="s">
         <v>130</v>
       </c>
       <c r="C129" s="3" t="s">
@@ -3887,7 +3954,7 @@
       <c r="D129" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E129" s="3">
+      <c r="E129" s="5">
         <v>50</v>
       </c>
       <c r="F129" s="3" t="s">
@@ -3898,15 +3965,15 @@
       </c>
     </row>
     <row r="130" spans="1:10">
-      <c r="A130" s="14"/>
-      <c r="B130" s="19"/>
+      <c r="A130" s="15"/>
+      <c r="B130" s="13"/>
       <c r="C130" s="3" t="s">
         <v>129</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E130" s="3">
+      <c r="E130" s="5">
         <v>90</v>
       </c>
       <c r="F130" s="3" t="s">
@@ -3917,15 +3984,15 @@
       </c>
     </row>
     <row r="131" spans="1:10">
-      <c r="A131" s="15"/>
-      <c r="B131" s="19"/>
+      <c r="A131" s="16"/>
+      <c r="B131" s="13"/>
       <c r="C131" s="3" t="s">
         <v>127</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E131" s="3">
+      <c r="E131" s="5">
         <v>60</v>
       </c>
       <c r="F131" s="3" t="s">
@@ -3948,7 +4015,7 @@
       <c r="D132" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E132" s="3">
+      <c r="E132" s="5">
         <v>50</v>
       </c>
       <c r="F132" s="3" t="s">
@@ -3959,10 +4026,10 @@
       </c>
     </row>
     <row r="133" spans="1:10">
-      <c r="A133" s="13">
+      <c r="A133" s="14">
         <v>46</v>
       </c>
-      <c r="B133" s="19" t="s">
+      <c r="B133" s="13" t="s">
         <v>134</v>
       </c>
       <c r="C133" s="3" t="s">
@@ -3971,7 +4038,7 @@
       <c r="D133" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E133" s="3">
+      <c r="E133" s="5">
         <v>50</v>
       </c>
       <c r="F133" s="3" t="s">
@@ -3982,15 +4049,15 @@
       </c>
     </row>
     <row r="134" spans="1:10">
-      <c r="A134" s="14"/>
-      <c r="B134" s="19"/>
+      <c r="A134" s="15"/>
+      <c r="B134" s="13"/>
       <c r="C134" s="3" t="s">
         <v>132</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E134" s="3">
+      <c r="E134" s="5">
         <v>100</v>
       </c>
       <c r="F134" s="3" t="s">
@@ -4001,15 +4068,15 @@
       </c>
     </row>
     <row r="135" spans="1:10">
-      <c r="A135" s="15"/>
-      <c r="B135" s="19"/>
+      <c r="A135" s="16"/>
+      <c r="B135" s="13"/>
       <c r="C135" s="3" t="s">
         <v>133</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E135" s="3">
+      <c r="E135" s="5">
         <v>60</v>
       </c>
       <c r="F135" s="3" t="s">
@@ -4020,10 +4087,10 @@
       </c>
     </row>
     <row r="136" spans="1:10">
-      <c r="A136" s="13">
+      <c r="A136" s="14">
         <v>47</v>
       </c>
-      <c r="B136" s="19" t="s">
+      <c r="B136" s="13" t="s">
         <v>136</v>
       </c>
       <c r="C136" s="3" t="s">
@@ -4032,7 +4099,7 @@
       <c r="D136" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E136" s="3">
+      <c r="E136" s="5">
         <v>50</v>
       </c>
       <c r="F136" s="3" t="s">
@@ -4043,15 +4110,15 @@
       </c>
     </row>
     <row r="137" spans="1:10">
-      <c r="A137" s="14"/>
-      <c r="B137" s="19"/>
+      <c r="A137" s="15"/>
+      <c r="B137" s="13"/>
       <c r="C137" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E137" s="3">
+      <c r="E137" s="5">
         <v>50</v>
       </c>
       <c r="F137" s="3" t="s">
@@ -4063,15 +4130,15 @@
       <c r="I137" s="4"/>
     </row>
     <row r="138" spans="1:10">
-      <c r="A138" s="15"/>
-      <c r="B138" s="19"/>
+      <c r="A138" s="16"/>
+      <c r="B138" s="13"/>
       <c r="C138" s="3" t="s">
         <v>135</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E138" s="3">
+      <c r="E138" s="5">
         <v>10</v>
       </c>
       <c r="F138" s="3" t="s">
@@ -4080,10 +4147,10 @@
       <c r="I138" s="4"/>
     </row>
     <row r="139" spans="1:10">
-      <c r="A139" s="13">
+      <c r="A139" s="14">
         <v>48</v>
       </c>
-      <c r="B139" s="19" t="s">
+      <c r="B139" s="13" t="s">
         <v>142</v>
       </c>
       <c r="C139" s="3" t="s">
@@ -4092,7 +4159,7 @@
       <c r="D139" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E139" s="3">
+      <c r="E139" s="5">
         <v>80</v>
       </c>
       <c r="F139" s="3" t="s">
@@ -4104,15 +4171,15 @@
       <c r="I139" s="4"/>
     </row>
     <row r="140" spans="1:10">
-      <c r="A140" s="14"/>
-      <c r="B140" s="19"/>
+      <c r="A140" s="15"/>
+      <c r="B140" s="13"/>
       <c r="C140" s="3" t="s">
         <v>138</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E140" s="3">
+      <c r="E140" s="5">
         <v>200</v>
       </c>
       <c r="F140" s="3" t="s">
@@ -4127,15 +4194,15 @@
       </c>
     </row>
     <row r="141" spans="1:10">
-      <c r="A141" s="14"/>
-      <c r="B141" s="19"/>
+      <c r="A141" s="15"/>
+      <c r="B141" s="13"/>
       <c r="C141" s="3" t="s">
         <v>140</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E141" s="3">
+      <c r="E141" s="5">
         <v>200</v>
       </c>
       <c r="F141" s="3" t="s">
@@ -4147,8 +4214,8 @@
       <c r="I141" s="4"/>
     </row>
     <row r="142" spans="1:10">
-      <c r="A142" s="15"/>
-      <c r="B142" s="19"/>
+      <c r="A142" s="16"/>
+      <c r="B142" s="13"/>
       <c r="C142" s="3" t="s">
         <v>141</v>
       </c>
@@ -4161,10 +4228,10 @@
       <c r="I142" s="4"/>
     </row>
     <row r="143" spans="1:10">
-      <c r="A143" s="13">
+      <c r="A143" s="14">
         <v>49</v>
       </c>
-      <c r="B143" s="19" t="s">
+      <c r="B143" s="13" t="s">
         <v>147</v>
       </c>
       <c r="C143" s="3" t="s">
@@ -4173,7 +4240,7 @@
       <c r="D143" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E143" s="3">
+      <c r="E143" s="5">
         <v>10</v>
       </c>
       <c r="F143" s="3" t="s">
@@ -4184,15 +4251,15 @@
       </c>
     </row>
     <row r="144" spans="1:10">
-      <c r="A144" s="14"/>
-      <c r="B144" s="19"/>
+      <c r="A144" s="15"/>
+      <c r="B144" s="13"/>
       <c r="C144" s="3" t="s">
         <v>144</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E144" s="3">
+      <c r="E144" s="5">
         <v>20</v>
       </c>
       <c r="F144" s="3" t="s">
@@ -4203,15 +4270,15 @@
       </c>
     </row>
     <row r="145" spans="1:7">
-      <c r="A145" s="14"/>
-      <c r="B145" s="19"/>
+      <c r="A145" s="15"/>
+      <c r="B145" s="13"/>
       <c r="C145" s="3" t="s">
         <v>145</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E145" s="3">
+      <c r="E145" s="5">
         <v>25</v>
       </c>
       <c r="F145" s="3" t="s">
@@ -4222,15 +4289,15 @@
       </c>
     </row>
     <row r="146" spans="1:7">
-      <c r="A146" s="15"/>
-      <c r="B146" s="19"/>
+      <c r="A146" s="16"/>
+      <c r="B146" s="13"/>
       <c r="C146" s="3" t="s">
         <v>146</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E146" s="3">
+      <c r="E146" s="5">
         <v>50</v>
       </c>
       <c r="F146" s="3" t="s">
@@ -4241,10 +4308,10 @@
       </c>
     </row>
     <row r="147" spans="1:7">
-      <c r="A147" s="13">
-        <v>50</v>
-      </c>
-      <c r="B147" s="19" t="s">
+      <c r="A147" s="14">
+        <v>50</v>
+      </c>
+      <c r="B147" s="13" t="s">
         <v>150</v>
       </c>
       <c r="C147" s="3" t="s">
@@ -4253,7 +4320,7 @@
       <c r="D147" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E147" s="3">
+      <c r="E147" s="5">
         <v>2</v>
       </c>
       <c r="F147" s="3" t="s">
@@ -4264,15 +4331,15 @@
       </c>
     </row>
     <row r="148" spans="1:7">
-      <c r="A148" s="15"/>
-      <c r="B148" s="19"/>
+      <c r="A148" s="16"/>
+      <c r="B148" s="13"/>
       <c r="C148" s="3" t="s">
         <v>149</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E148" s="3">
+      <c r="E148" s="5">
         <v>50</v>
       </c>
       <c r="F148" s="3" t="s">
@@ -4283,10 +4350,10 @@
       </c>
     </row>
     <row r="149" spans="1:7">
-      <c r="A149" s="13">
+      <c r="A149" s="14">
         <v>51</v>
       </c>
-      <c r="B149" s="19" t="s">
+      <c r="B149" s="13" t="s">
         <v>154</v>
       </c>
       <c r="C149" s="3" t="s">
@@ -4295,7 +4362,7 @@
       <c r="D149" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E149" s="3">
+      <c r="E149" s="5">
         <v>50</v>
       </c>
       <c r="F149" s="3" t="s">
@@ -4306,15 +4373,15 @@
       </c>
     </row>
     <row r="150" spans="1:7">
-      <c r="A150" s="14"/>
-      <c r="B150" s="19"/>
+      <c r="A150" s="15"/>
+      <c r="B150" s="13"/>
       <c r="C150" s="10" t="s">
         <v>151</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E150" s="3">
+      <c r="E150" s="5">
         <v>10</v>
       </c>
       <c r="F150" s="3" t="s">
@@ -4325,15 +4392,15 @@
       </c>
     </row>
     <row r="151" spans="1:7">
-      <c r="A151" s="14"/>
-      <c r="B151" s="19"/>
+      <c r="A151" s="15"/>
+      <c r="B151" s="13"/>
       <c r="C151" s="3" t="s">
         <v>152</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E151" s="3">
+      <c r="E151" s="5">
         <v>80</v>
       </c>
       <c r="F151" s="3" t="s">
@@ -4344,8 +4411,8 @@
       </c>
     </row>
     <row r="152" spans="1:7">
-      <c r="A152" s="15"/>
-      <c r="B152" s="19"/>
+      <c r="A152" s="16"/>
+      <c r="B152" s="13"/>
       <c r="C152" s="3" t="s">
         <v>153</v>
       </c>
@@ -4369,7 +4436,7 @@
       <c r="D153" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E153" s="3">
+      <c r="E153" s="5">
         <v>50</v>
       </c>
       <c r="F153" s="3" t="s">
@@ -4380,10 +4447,10 @@
       </c>
     </row>
     <row r="154" spans="1:7">
-      <c r="A154" s="13">
+      <c r="A154" s="14">
         <v>53</v>
       </c>
-      <c r="B154" s="19" t="s">
+      <c r="B154" s="13" t="s">
         <v>157</v>
       </c>
       <c r="C154" s="3" t="s">
@@ -4392,7 +4459,7 @@
       <c r="D154" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E154" s="3">
+      <c r="E154" s="5">
         <v>100</v>
       </c>
       <c r="F154" s="3" t="s">
@@ -4403,15 +4470,15 @@
       </c>
     </row>
     <row r="155" spans="1:7">
-      <c r="A155" s="15"/>
-      <c r="B155" s="19"/>
+      <c r="A155" s="16"/>
+      <c r="B155" s="13"/>
       <c r="C155" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D155" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E155" s="3">
+      <c r="E155" s="5">
         <v>50</v>
       </c>
       <c r="F155" s="3" t="s">
@@ -4422,10 +4489,10 @@
       </c>
     </row>
     <row r="156" spans="1:7">
-      <c r="A156" s="13">
+      <c r="A156" s="14">
         <v>54</v>
       </c>
-      <c r="B156" s="19" t="s">
+      <c r="B156" s="13" t="s">
         <v>156</v>
       </c>
       <c r="C156" s="3" t="s">
@@ -4434,7 +4501,7 @@
       <c r="D156" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E156" s="3">
+      <c r="E156" s="5">
         <v>50</v>
       </c>
       <c r="F156" s="3" t="s">
@@ -4445,15 +4512,15 @@
       </c>
     </row>
     <row r="157" spans="1:7">
-      <c r="A157" s="15"/>
-      <c r="B157" s="19"/>
+      <c r="A157" s="16"/>
+      <c r="B157" s="13"/>
       <c r="C157" s="3" t="s">
         <v>156</v>
       </c>
       <c r="D157" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E157" s="3">
+      <c r="E157" s="5">
         <v>100</v>
       </c>
       <c r="F157" s="3" t="s">
@@ -4476,7 +4543,7 @@
       <c r="D158" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E158" s="3" t="s">
+      <c r="E158" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F158" s="3" t="s">
@@ -4487,10 +4554,10 @@
       </c>
     </row>
     <row r="159" spans="1:7">
-      <c r="A159" s="13">
+      <c r="A159" s="14">
         <v>56</v>
       </c>
-      <c r="B159" s="19" t="s">
+      <c r="B159" s="13" t="s">
         <v>161</v>
       </c>
       <c r="C159" s="3" t="s">
@@ -4499,7 +4566,7 @@
       <c r="D159" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E159" s="3">
+      <c r="E159" s="5">
         <v>50</v>
       </c>
       <c r="F159" s="3" t="s">
@@ -4510,15 +4577,15 @@
       </c>
     </row>
     <row r="160" spans="1:7">
-      <c r="A160" s="15"/>
-      <c r="B160" s="19"/>
+      <c r="A160" s="16"/>
+      <c r="B160" s="13"/>
       <c r="C160" s="3" t="s">
         <v>160</v>
       </c>
       <c r="D160" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E160" s="3">
+      <c r="E160" s="5">
         <v>50</v>
       </c>
       <c r="F160" s="3" t="s">
@@ -4529,10 +4596,10 @@
       </c>
     </row>
     <row r="161" spans="1:7">
-      <c r="A161" s="13">
+      <c r="A161" s="14">
         <v>57</v>
       </c>
-      <c r="B161" s="19" t="s">
+      <c r="B161" s="13" t="s">
         <v>163</v>
       </c>
       <c r="C161" s="3" t="s">
@@ -4541,7 +4608,7 @@
       <c r="D161" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E161" s="3">
+      <c r="E161" s="5">
         <v>50</v>
       </c>
       <c r="F161" s="3" t="s">
@@ -4552,15 +4619,15 @@
       </c>
     </row>
     <row r="162" spans="1:7">
-      <c r="A162" s="15"/>
-      <c r="B162" s="19"/>
+      <c r="A162" s="16"/>
+      <c r="B162" s="13"/>
       <c r="C162" s="3" t="s">
         <v>162</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E162" s="3">
+      <c r="E162" s="5">
         <v>90</v>
       </c>
       <c r="F162" s="3" t="s">
@@ -4571,10 +4638,10 @@
       </c>
     </row>
     <row r="163" spans="1:7">
-      <c r="A163" s="13">
+      <c r="A163" s="14">
         <v>58</v>
       </c>
-      <c r="B163" s="19" t="s">
+      <c r="B163" s="13" t="s">
         <v>166</v>
       </c>
       <c r="C163" s="3" t="s">
@@ -4583,7 +4650,7 @@
       <c r="D163" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E163" s="3">
+      <c r="E163" s="5">
         <v>50</v>
       </c>
       <c r="F163" s="3" t="s">
@@ -4594,15 +4661,15 @@
       </c>
     </row>
     <row r="164" spans="1:7">
-      <c r="A164" s="14"/>
-      <c r="B164" s="19"/>
+      <c r="A164" s="15"/>
+      <c r="B164" s="13"/>
       <c r="C164" s="3" t="s">
         <v>164</v>
       </c>
       <c r="D164" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E164" s="3">
+      <c r="E164" s="5">
         <v>50</v>
       </c>
       <c r="F164" s="3" t="s">
@@ -4613,8 +4680,8 @@
       </c>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="15"/>
-      <c r="B165" s="19"/>
+      <c r="A165" s="16"/>
+      <c r="B165" s="13"/>
       <c r="C165" s="3" t="s">
         <v>165</v>
       </c>
@@ -4626,10 +4693,10 @@
       </c>
     </row>
     <row r="166" spans="1:7">
-      <c r="A166" s="13">
+      <c r="A166" s="14">
         <v>59</v>
       </c>
-      <c r="B166" s="19" t="s">
+      <c r="B166" s="13" t="s">
         <v>170</v>
       </c>
       <c r="C166" s="3" t="s">
@@ -4638,7 +4705,7 @@
       <c r="D166" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E166" s="3">
+      <c r="E166" s="5">
         <v>50</v>
       </c>
       <c r="F166" s="3" t="s">
@@ -4649,15 +4716,15 @@
       </c>
     </row>
     <row r="167" spans="1:7">
-      <c r="A167" s="14"/>
-      <c r="B167" s="19"/>
+      <c r="A167" s="15"/>
+      <c r="B167" s="13"/>
       <c r="C167" s="3" t="s">
         <v>167</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E167" s="3">
+      <c r="E167" s="5">
         <v>80</v>
       </c>
       <c r="F167" s="3" t="s">
@@ -4668,15 +4735,15 @@
       </c>
     </row>
     <row r="168" spans="1:7">
-      <c r="A168" s="14"/>
-      <c r="B168" s="19"/>
+      <c r="A168" s="15"/>
+      <c r="B168" s="13"/>
       <c r="C168" s="3" t="s">
         <v>168</v>
       </c>
       <c r="D168" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E168" s="3">
+      <c r="E168" s="5">
         <v>80</v>
       </c>
       <c r="F168" s="3" t="s">
@@ -4687,15 +4754,15 @@
       </c>
     </row>
     <row r="169" spans="1:7">
-      <c r="A169" s="15"/>
-      <c r="B169" s="19"/>
+      <c r="A169" s="16"/>
+      <c r="B169" s="13"/>
       <c r="C169" s="3" t="s">
         <v>169</v>
       </c>
       <c r="D169" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E169" s="3">
+      <c r="E169" s="5">
         <v>2</v>
       </c>
       <c r="F169" s="3" t="s">
@@ -4706,10 +4773,10 @@
       </c>
     </row>
     <row r="170" spans="1:7">
-      <c r="A170" s="13">
+      <c r="A170" s="14">
         <v>60</v>
       </c>
-      <c r="B170" s="19" t="s">
+      <c r="B170" s="13" t="s">
         <v>171</v>
       </c>
       <c r="C170" s="3" t="s">
@@ -4718,7 +4785,7 @@
       <c r="D170" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E170" s="3">
+      <c r="E170" s="5">
         <v>50</v>
       </c>
       <c r="F170" s="3" t="s">
@@ -4729,15 +4796,15 @@
       </c>
     </row>
     <row r="171" spans="1:7">
-      <c r="A171" s="15"/>
-      <c r="B171" s="19"/>
+      <c r="A171" s="16"/>
+      <c r="B171" s="13"/>
       <c r="C171" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D171" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E171" s="3">
+      <c r="E171" s="5">
         <v>20</v>
       </c>
       <c r="F171" s="3" t="s">
@@ -4745,10 +4812,10 @@
       </c>
     </row>
     <row r="172" spans="1:7">
-      <c r="A172" s="13">
+      <c r="A172" s="14">
         <v>61</v>
       </c>
-      <c r="B172" s="19" t="s">
+      <c r="B172" s="13" t="s">
         <v>172</v>
       </c>
       <c r="C172" s="3" t="s">
@@ -4757,7 +4824,7 @@
       <c r="D172" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E172" s="3">
+      <c r="E172" s="5">
         <v>50</v>
       </c>
       <c r="F172" s="3" t="s">
@@ -4768,15 +4835,15 @@
       </c>
     </row>
     <row r="173" spans="1:7">
-      <c r="A173" s="14"/>
-      <c r="B173" s="19"/>
+      <c r="A173" s="15"/>
+      <c r="B173" s="13"/>
       <c r="C173" s="3" t="s">
         <v>167</v>
       </c>
       <c r="D173" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E173" s="3">
+      <c r="E173" s="5">
         <v>80</v>
       </c>
       <c r="F173" s="3" t="s">
@@ -4787,15 +4854,15 @@
       </c>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="14"/>
-      <c r="B174" s="19"/>
+      <c r="A174" s="15"/>
+      <c r="B174" s="13"/>
       <c r="C174" s="3" t="s">
         <v>168</v>
       </c>
       <c r="D174" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E174" s="3">
+      <c r="E174" s="5">
         <v>80</v>
       </c>
       <c r="F174" s="3" t="s">
@@ -4806,15 +4873,15 @@
       </c>
     </row>
     <row r="175" spans="1:7">
-      <c r="A175" s="15"/>
-      <c r="B175" s="19"/>
+      <c r="A175" s="16"/>
+      <c r="B175" s="13"/>
       <c r="C175" s="3" t="s">
         <v>169</v>
       </c>
       <c r="D175" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E175" s="3">
+      <c r="E175" s="5">
         <v>2</v>
       </c>
       <c r="F175" s="3" t="s">
@@ -4825,10 +4892,10 @@
       </c>
     </row>
     <row r="176" spans="1:7">
-      <c r="A176" s="13">
+      <c r="A176" s="14">
         <v>62</v>
       </c>
-      <c r="B176" s="19" t="s">
+      <c r="B176" s="13" t="s">
         <v>175</v>
       </c>
       <c r="C176" s="3" t="s">
@@ -4837,7 +4904,7 @@
       <c r="D176" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E176" s="3">
+      <c r="E176" s="5">
         <v>50</v>
       </c>
       <c r="F176" s="3" t="s">
@@ -4848,15 +4915,15 @@
       </c>
     </row>
     <row r="177" spans="1:7">
-      <c r="A177" s="14"/>
-      <c r="B177" s="19"/>
+      <c r="A177" s="15"/>
+      <c r="B177" s="13"/>
       <c r="C177" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D177" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E177" s="3">
+      <c r="E177" s="5">
         <v>50</v>
       </c>
       <c r="F177" s="3" t="s">
@@ -4867,15 +4934,15 @@
       </c>
     </row>
     <row r="178" spans="1:7">
-      <c r="A178" s="15"/>
-      <c r="B178" s="19"/>
+      <c r="A178" s="16"/>
+      <c r="B178" s="13"/>
       <c r="C178" s="3" t="s">
         <v>174</v>
       </c>
       <c r="D178" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E178" s="3">
+      <c r="E178" s="5">
         <v>10</v>
       </c>
       <c r="F178" s="3" t="s">
@@ -4886,7 +4953,7 @@
       </c>
     </row>
     <row r="179" spans="1:7">
-      <c r="A179" s="13">
+      <c r="A179" s="14">
         <v>63</v>
       </c>
       <c r="B179" s="20" t="s">
@@ -4903,7 +4970,7 @@
       </c>
     </row>
     <row r="180" spans="1:7">
-      <c r="A180" s="14"/>
+      <c r="A180" s="15"/>
       <c r="B180" s="20"/>
       <c r="C180" s="3" t="s">
         <v>177</v>
@@ -4911,7 +4978,7 @@
       <c r="D180" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E180" s="3" t="s">
+      <c r="E180" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F180" s="3" t="s">
@@ -4922,7 +4989,7 @@
       </c>
     </row>
     <row r="181" spans="1:7">
-      <c r="A181" s="14"/>
+      <c r="A181" s="15"/>
       <c r="B181" s="20"/>
       <c r="C181" s="3" t="s">
         <v>178</v>
@@ -4930,7 +4997,7 @@
       <c r="D181" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E181" s="3" t="s">
+      <c r="E181" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F181" s="3" t="s">
@@ -4941,7 +5008,7 @@
       </c>
     </row>
     <row r="182" spans="1:7">
-      <c r="A182" s="14"/>
+      <c r="A182" s="15"/>
       <c r="B182" s="20"/>
       <c r="C182" s="3" t="s">
         <v>179</v>
@@ -4949,7 +5016,7 @@
       <c r="D182" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E182" s="3" t="s">
+      <c r="E182" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F182" s="3" t="s">
@@ -4960,7 +5027,7 @@
       </c>
     </row>
     <row r="183" spans="1:7">
-      <c r="A183" s="14"/>
+      <c r="A183" s="15"/>
       <c r="B183" s="20"/>
       <c r="C183" s="3" t="s">
         <v>180</v>
@@ -4968,7 +5035,7 @@
       <c r="D183" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E183" s="3" t="s">
+      <c r="E183" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F183" s="3" t="s">
@@ -4979,7 +5046,7 @@
       </c>
     </row>
     <row r="184" spans="1:7">
-      <c r="A184" s="14"/>
+      <c r="A184" s="15"/>
       <c r="B184" s="20"/>
       <c r="C184" s="3" t="s">
         <v>181</v>
@@ -4987,7 +5054,7 @@
       <c r="D184" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E184" s="3" t="s">
+      <c r="E184" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F184" s="3" t="s">
@@ -4998,7 +5065,7 @@
       </c>
     </row>
     <row r="185" spans="1:7">
-      <c r="A185" s="14"/>
+      <c r="A185" s="15"/>
       <c r="B185" s="20"/>
       <c r="C185" s="3" t="s">
         <v>182</v>
@@ -5006,7 +5073,7 @@
       <c r="D185" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E185" s="3" t="s">
+      <c r="E185" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F185" s="3" t="s">
@@ -5017,7 +5084,7 @@
       </c>
     </row>
     <row r="186" spans="1:7">
-      <c r="A186" s="14"/>
+      <c r="A186" s="15"/>
       <c r="B186" s="20"/>
       <c r="C186" s="3" t="s">
         <v>183</v>
@@ -5025,7 +5092,7 @@
       <c r="D186" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E186" s="3" t="s">
+      <c r="E186" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F186" s="3" t="s">
@@ -5036,7 +5103,7 @@
       </c>
     </row>
     <row r="187" spans="1:7">
-      <c r="A187" s="14"/>
+      <c r="A187" s="15"/>
       <c r="B187" s="20"/>
       <c r="C187" s="3" t="s">
         <v>184</v>
@@ -5044,7 +5111,7 @@
       <c r="D187" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E187" s="3" t="s">
+      <c r="E187" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F187" s="3" t="s">
@@ -5055,7 +5122,7 @@
       </c>
     </row>
     <row r="188" spans="1:7">
-      <c r="A188" s="14"/>
+      <c r="A188" s="15"/>
       <c r="B188" s="20"/>
       <c r="C188" s="3" t="s">
         <v>185</v>
@@ -5063,7 +5130,7 @@
       <c r="D188" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E188" s="3" t="s">
+      <c r="E188" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F188" s="3" t="s">
@@ -5074,7 +5141,7 @@
       </c>
     </row>
     <row r="189" spans="1:7">
-      <c r="A189" s="14"/>
+      <c r="A189" s="15"/>
       <c r="B189" s="20"/>
       <c r="C189" s="3" t="s">
         <v>186</v>
@@ -5082,7 +5149,7 @@
       <c r="D189" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E189" s="3" t="s">
+      <c r="E189" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F189" s="3" t="s">
@@ -5093,7 +5160,7 @@
       </c>
     </row>
     <row r="190" spans="1:7">
-      <c r="A190" s="14"/>
+      <c r="A190" s="15"/>
       <c r="B190" s="20"/>
       <c r="C190" s="3" t="s">
         <v>6</v>
@@ -5101,7 +5168,7 @@
       <c r="D190" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E190" s="3">
+      <c r="E190" s="5">
         <v>50</v>
       </c>
       <c r="F190" s="6" t="s">
@@ -5112,7 +5179,7 @@
       </c>
     </row>
     <row r="191" spans="1:7">
-      <c r="A191" s="14"/>
+      <c r="A191" s="15"/>
       <c r="B191" s="20"/>
       <c r="C191" s="3" t="s">
         <v>8</v>
@@ -5120,7 +5187,7 @@
       <c r="D191" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E191" s="3">
+      <c r="E191" s="5">
         <v>50</v>
       </c>
       <c r="F191" s="6" t="s">
@@ -5131,7 +5198,7 @@
       </c>
     </row>
     <row r="192" spans="1:7">
-      <c r="A192" s="15"/>
+      <c r="A192" s="16"/>
       <c r="B192" s="20"/>
       <c r="C192" s="3" t="s">
         <v>187</v>
@@ -5139,7 +5206,7 @@
       <c r="D192" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E192" s="3">
+      <c r="E192" s="5">
         <v>50</v>
       </c>
       <c r="F192" s="3" t="s">
@@ -5147,10 +5214,10 @@
       </c>
     </row>
     <row r="193" spans="1:7">
-      <c r="A193" s="13">
+      <c r="A193" s="14">
         <v>64</v>
       </c>
-      <c r="B193" s="19" t="s">
+      <c r="B193" s="13" t="s">
         <v>189</v>
       </c>
       <c r="C193" s="3" t="s">
@@ -5159,7 +5226,7 @@
       <c r="D193" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E193" s="3">
+      <c r="E193" s="5">
         <v>50</v>
       </c>
       <c r="F193" s="3" t="s">
@@ -5170,15 +5237,15 @@
       </c>
     </row>
     <row r="194" spans="1:7">
-      <c r="A194" s="14"/>
-      <c r="B194" s="19"/>
+      <c r="A194" s="15"/>
+      <c r="B194" s="13"/>
       <c r="C194" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D194" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E194" s="3">
+      <c r="E194" s="5">
         <v>50</v>
       </c>
       <c r="F194" s="3" t="s">
@@ -5189,15 +5256,15 @@
       </c>
     </row>
     <row r="195" spans="1:7">
-      <c r="A195" s="15"/>
-      <c r="B195" s="19"/>
+      <c r="A195" s="16"/>
+      <c r="B195" s="13"/>
       <c r="C195" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D195" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E195" s="3">
+      <c r="E195" s="5">
         <v>15</v>
       </c>
       <c r="F195" s="3" t="s">
@@ -5205,10 +5272,10 @@
       </c>
     </row>
     <row r="196" spans="1:7">
-      <c r="A196" s="13">
+      <c r="A196" s="14">
         <v>65</v>
       </c>
-      <c r="B196" s="19" t="s">
+      <c r="B196" s="13" t="s">
         <v>190</v>
       </c>
       <c r="C196" s="3" t="s">
@@ -5217,7 +5284,7 @@
       <c r="D196" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E196" s="3">
+      <c r="E196" s="5">
         <v>50</v>
       </c>
       <c r="F196" s="3" t="s">
@@ -5228,15 +5295,15 @@
       </c>
     </row>
     <row r="197" spans="1:7">
-      <c r="A197" s="14"/>
-      <c r="B197" s="19"/>
+      <c r="A197" s="15"/>
+      <c r="B197" s="13"/>
       <c r="C197" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D197" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E197" s="3">
+      <c r="E197" s="5">
         <v>50</v>
       </c>
       <c r="F197" s="3" t="s">
@@ -5247,15 +5314,15 @@
       </c>
     </row>
     <row r="198" spans="1:7">
-      <c r="A198" s="15"/>
-      <c r="B198" s="19"/>
+      <c r="A198" s="16"/>
+      <c r="B198" s="13"/>
       <c r="C198" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D198" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E198" s="3">
+      <c r="E198" s="5">
         <v>15</v>
       </c>
       <c r="F198" s="3" t="s">
@@ -5263,10 +5330,10 @@
       </c>
     </row>
     <row r="199" spans="1:7">
-      <c r="A199" s="13">
+      <c r="A199" s="14">
         <v>66</v>
       </c>
-      <c r="B199" s="19" t="s">
+      <c r="B199" s="13" t="s">
         <v>193</v>
       </c>
       <c r="C199" s="3" t="s">
@@ -5275,7 +5342,7 @@
       <c r="D199" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E199" s="3">
+      <c r="E199" s="5">
         <v>50</v>
       </c>
       <c r="F199" s="3" t="s">
@@ -5286,15 +5353,15 @@
       </c>
     </row>
     <row r="200" spans="1:7">
-      <c r="A200" s="14"/>
-      <c r="B200" s="19"/>
+      <c r="A200" s="15"/>
+      <c r="B200" s="13"/>
       <c r="C200" s="3" t="s">
         <v>191</v>
       </c>
       <c r="D200" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E200" s="3">
+      <c r="E200" s="5">
         <v>50</v>
       </c>
       <c r="F200" s="3" t="s">
@@ -5305,15 +5372,15 @@
       </c>
     </row>
     <row r="201" spans="1:7">
-      <c r="A201" s="15"/>
-      <c r="B201" s="19"/>
+      <c r="A201" s="16"/>
+      <c r="B201" s="13"/>
       <c r="C201" s="3" t="s">
         <v>192</v>
       </c>
       <c r="D201" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E201" s="3">
+      <c r="E201" s="5">
         <v>60</v>
       </c>
       <c r="F201" s="3" t="s">
@@ -5324,10 +5391,10 @@
       </c>
     </row>
     <row r="202" spans="1:7">
-      <c r="A202" s="13">
+      <c r="A202" s="14">
         <v>67</v>
       </c>
-      <c r="B202" s="19" t="s">
+      <c r="B202" s="13" t="s">
         <v>196</v>
       </c>
       <c r="C202" s="3" t="s">
@@ -5336,7 +5403,7 @@
       <c r="D202" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E202" s="3">
+      <c r="E202" s="5">
         <v>50</v>
       </c>
       <c r="F202" s="3" t="s">
@@ -5347,15 +5414,15 @@
       </c>
     </row>
     <row r="203" spans="1:7">
-      <c r="A203" s="14"/>
-      <c r="B203" s="19"/>
+      <c r="A203" s="15"/>
+      <c r="B203" s="13"/>
       <c r="C203" s="3" t="s">
         <v>194</v>
       </c>
       <c r="D203" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E203" s="3">
+      <c r="E203" s="5">
         <v>60</v>
       </c>
       <c r="F203" s="3" t="s">
@@ -5366,15 +5433,15 @@
       </c>
     </row>
     <row r="204" spans="1:7">
-      <c r="A204" s="15"/>
-      <c r="B204" s="19"/>
+      <c r="A204" s="16"/>
+      <c r="B204" s="13"/>
       <c r="C204" s="3" t="s">
         <v>195</v>
       </c>
       <c r="D204" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E204" s="3">
+      <c r="E204" s="5">
         <v>90</v>
       </c>
       <c r="F204" s="3" t="s">
@@ -5385,10 +5452,10 @@
       </c>
     </row>
     <row r="205" spans="1:7">
-      <c r="A205" s="13">
+      <c r="A205" s="14">
         <v>68</v>
       </c>
-      <c r="B205" s="19" t="s">
+      <c r="B205" s="13" t="s">
         <v>199</v>
       </c>
       <c r="C205" s="3" t="s">
@@ -5397,7 +5464,7 @@
       <c r="D205" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E205" s="3">
+      <c r="E205" s="5">
         <v>50</v>
       </c>
       <c r="F205" s="3" t="s">
@@ -5408,15 +5475,15 @@
       </c>
     </row>
     <row r="206" spans="1:7">
-      <c r="A206" s="14"/>
-      <c r="B206" s="19"/>
+      <c r="A206" s="15"/>
+      <c r="B206" s="13"/>
       <c r="C206" s="3" t="s">
         <v>197</v>
       </c>
       <c r="D206" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E206" s="3">
+      <c r="E206" s="5">
         <v>60</v>
       </c>
       <c r="F206" s="3" t="s">
@@ -5427,15 +5494,15 @@
       </c>
     </row>
     <row r="207" spans="1:7">
-      <c r="A207" s="15"/>
-      <c r="B207" s="19"/>
+      <c r="A207" s="16"/>
+      <c r="B207" s="13"/>
       <c r="C207" s="3" t="s">
         <v>198</v>
       </c>
       <c r="D207" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E207" s="3">
+      <c r="E207" s="5">
         <v>50</v>
       </c>
       <c r="F207" s="3" t="s">
@@ -5446,10 +5513,10 @@
       </c>
     </row>
     <row r="208" spans="1:7">
-      <c r="A208" s="13">
+      <c r="A208" s="14">
         <v>69</v>
       </c>
-      <c r="B208" s="19" t="s">
+      <c r="B208" s="13" t="s">
         <v>202</v>
       </c>
       <c r="C208" s="3" t="s">
@@ -5458,7 +5525,7 @@
       <c r="D208" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E208" s="3">
+      <c r="E208" s="5">
         <v>50</v>
       </c>
       <c r="F208" s="3" t="s">
@@ -5469,15 +5536,15 @@
       </c>
     </row>
     <row r="209" spans="1:10">
-      <c r="A209" s="14"/>
-      <c r="B209" s="19"/>
+      <c r="A209" s="15"/>
+      <c r="B209" s="13"/>
       <c r="C209" s="3" t="s">
         <v>200</v>
       </c>
       <c r="D209" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E209" s="3">
+      <c r="E209" s="5">
         <v>50</v>
       </c>
       <c r="F209" s="3" t="s">
@@ -5488,15 +5555,15 @@
       </c>
     </row>
     <row r="210" spans="1:10">
-      <c r="A210" s="15"/>
-      <c r="B210" s="19"/>
+      <c r="A210" s="16"/>
+      <c r="B210" s="13"/>
       <c r="C210" s="3" t="s">
         <v>201</v>
       </c>
       <c r="D210" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E210" s="3">
+      <c r="E210" s="5">
         <v>60</v>
       </c>
       <c r="F210" s="3" t="s">
@@ -5507,10 +5574,10 @@
       </c>
     </row>
     <row r="211" spans="1:10">
-      <c r="A211" s="13">
+      <c r="A211" s="14">
         <v>70</v>
       </c>
-      <c r="B211" s="19" t="s">
+      <c r="B211" s="13" t="s">
         <v>205</v>
       </c>
       <c r="C211" s="3" t="s">
@@ -5519,7 +5586,7 @@
       <c r="D211" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E211" s="3">
+      <c r="E211" s="5">
         <v>50</v>
       </c>
       <c r="F211" s="3" t="s">
@@ -5530,15 +5597,15 @@
       </c>
     </row>
     <row r="212" spans="1:10">
-      <c r="A212" s="14"/>
-      <c r="B212" s="19"/>
+      <c r="A212" s="15"/>
+      <c r="B212" s="13"/>
       <c r="C212" s="3" t="s">
         <v>203</v>
       </c>
       <c r="D212" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E212" s="3">
+      <c r="E212" s="5">
         <v>130</v>
       </c>
       <c r="F212" s="3" t="s">
@@ -5549,15 +5616,15 @@
       </c>
     </row>
     <row r="213" spans="1:10">
-      <c r="A213" s="15"/>
-      <c r="B213" s="19"/>
+      <c r="A213" s="16"/>
+      <c r="B213" s="13"/>
       <c r="C213" s="3" t="s">
         <v>204</v>
       </c>
       <c r="D213" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E213" s="3">
+      <c r="E213" s="5">
         <v>100</v>
       </c>
       <c r="F213" s="3" t="s">
@@ -5568,10 +5635,10 @@
       </c>
     </row>
     <row r="214" spans="1:10">
-      <c r="A214" s="13">
+      <c r="A214" s="14">
         <v>71</v>
       </c>
-      <c r="B214" s="19" t="s">
+      <c r="B214" s="13" t="s">
         <v>206</v>
       </c>
       <c r="C214" s="11" t="s">
@@ -5580,7 +5647,7 @@
       <c r="D214" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E214" s="11">
+      <c r="E214" s="27">
         <v>50</v>
       </c>
       <c r="F214" s="11" t="s">
@@ -5591,15 +5658,15 @@
       </c>
     </row>
     <row r="215" spans="1:10">
-      <c r="A215" s="14"/>
-      <c r="B215" s="19"/>
+      <c r="A215" s="15"/>
+      <c r="B215" s="13"/>
       <c r="C215" s="11" t="s">
         <v>203</v>
       </c>
       <c r="D215" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E215" s="11">
+      <c r="E215" s="27">
         <v>130</v>
       </c>
       <c r="F215" s="11" t="s">
@@ -5610,15 +5677,15 @@
       </c>
     </row>
     <row r="216" spans="1:10">
-      <c r="A216" s="15"/>
-      <c r="B216" s="19"/>
+      <c r="A216" s="16"/>
+      <c r="B216" s="13"/>
       <c r="C216" s="11" t="s">
         <v>204</v>
       </c>
       <c r="D216" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E216" s="11">
+      <c r="E216" s="27">
         <v>100</v>
       </c>
       <c r="F216" s="11" t="s">
@@ -5629,10 +5696,10 @@
       </c>
     </row>
     <row r="217" spans="1:10">
-      <c r="A217" s="13">
+      <c r="A217" s="14">
         <v>72</v>
       </c>
-      <c r="B217" s="13" t="s">
+      <c r="B217" s="14" t="s">
         <v>210</v>
       </c>
       <c r="C217" s="3" t="s">
@@ -5641,7 +5708,7 @@
       <c r="D217" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E217" s="3">
+      <c r="E217" s="5">
         <v>50</v>
       </c>
       <c r="F217" s="3" t="s">
@@ -5652,15 +5719,15 @@
       </c>
     </row>
     <row r="218" spans="1:10">
-      <c r="A218" s="14"/>
-      <c r="B218" s="14"/>
+      <c r="A218" s="15"/>
+      <c r="B218" s="15"/>
       <c r="C218" s="3" t="s">
         <v>207</v>
       </c>
       <c r="D218" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E218" s="3">
+      <c r="E218" s="5">
         <v>100</v>
       </c>
       <c r="F218" s="3" t="s">
@@ -5671,21 +5738,22 @@
       </c>
     </row>
     <row r="219" spans="1:10" s="4" customFormat="1" ht="30" customHeight="1">
-      <c r="A219" s="14"/>
-      <c r="B219" s="14"/>
+      <c r="A219" s="15"/>
+      <c r="B219" s="15"/>
       <c r="C219" s="4" t="s">
         <v>208</v>
       </c>
       <c r="D219" s="4" t="s">
         <v>68</v>
       </c>
+      <c r="E219" s="28"/>
       <c r="J219" s="4" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="220" spans="1:10">
-      <c r="A220" s="15"/>
-      <c r="B220" s="15"/>
+      <c r="A220" s="16"/>
+      <c r="B220" s="16"/>
       <c r="C220" s="3" t="s">
         <v>209</v>
       </c>
@@ -5697,10 +5765,10 @@
       </c>
     </row>
     <row r="221" spans="1:10">
-      <c r="A221" s="13">
+      <c r="A221" s="14">
         <v>73</v>
       </c>
-      <c r="B221" s="13" t="s">
+      <c r="B221" s="14" t="s">
         <v>212</v>
       </c>
       <c r="C221" s="3" t="s">
@@ -5709,7 +5777,7 @@
       <c r="D221" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E221" s="3">
+      <c r="E221" s="5">
         <v>6</v>
       </c>
       <c r="F221" s="3" t="s">
@@ -5720,15 +5788,15 @@
       </c>
     </row>
     <row r="222" spans="1:10">
-      <c r="A222" s="14"/>
-      <c r="B222" s="14"/>
+      <c r="A222" s="15"/>
+      <c r="B222" s="15"/>
       <c r="C222" s="3" t="s">
         <v>213</v>
       </c>
       <c r="D222" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E222" s="3">
+      <c r="E222" s="5">
         <v>6</v>
       </c>
       <c r="F222" s="3" t="s">
@@ -5739,15 +5807,15 @@
       </c>
     </row>
     <row r="223" spans="1:10">
-      <c r="A223" s="14"/>
-      <c r="B223" s="14"/>
+      <c r="A223" s="15"/>
+      <c r="B223" s="15"/>
       <c r="C223" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D223" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E223" s="3">
+      <c r="E223" s="5">
         <v>50</v>
       </c>
       <c r="F223" s="3" t="s">
@@ -5758,15 +5826,15 @@
       </c>
     </row>
     <row r="224" spans="1:10">
-      <c r="A224" s="15"/>
-      <c r="B224" s="15"/>
+      <c r="A224" s="16"/>
+      <c r="B224" s="16"/>
       <c r="C224" s="3" t="s">
         <v>214</v>
       </c>
       <c r="D224" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E224" s="3">
+      <c r="E224" s="5">
         <v>50</v>
       </c>
       <c r="F224" s="3" t="s">
@@ -5777,10 +5845,10 @@
       </c>
     </row>
     <row r="225" spans="1:7">
-      <c r="A225" s="13">
+      <c r="A225" s="14">
         <v>74</v>
       </c>
-      <c r="B225" s="13" t="s">
+      <c r="B225" s="14" t="s">
         <v>217</v>
       </c>
       <c r="C225" s="3" t="s">
@@ -5789,7 +5857,7 @@
       <c r="D225" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E225" s="3">
+      <c r="E225" s="5">
         <v>50</v>
       </c>
       <c r="F225" s="3" t="s">
@@ -5800,15 +5868,15 @@
       </c>
     </row>
     <row r="226" spans="1:7">
-      <c r="A226" s="14"/>
-      <c r="B226" s="14"/>
+      <c r="A226" s="15"/>
+      <c r="B226" s="15"/>
       <c r="C226" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D226" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E226" s="3">
+      <c r="E226" s="5">
         <v>50</v>
       </c>
       <c r="F226" s="3" t="s">
@@ -5819,15 +5887,15 @@
       </c>
     </row>
     <row r="227" spans="1:7">
-      <c r="A227" s="14"/>
-      <c r="B227" s="14"/>
+      <c r="A227" s="15"/>
+      <c r="B227" s="15"/>
       <c r="C227" s="3" t="s">
         <v>215</v>
       </c>
       <c r="D227" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E227" s="3">
+      <c r="E227" s="5">
         <v>50</v>
       </c>
       <c r="F227" s="3" t="s">
@@ -5838,15 +5906,15 @@
       </c>
     </row>
     <row r="228" spans="1:7">
-      <c r="A228" s="15"/>
-      <c r="B228" s="15"/>
+      <c r="A228" s="16"/>
+      <c r="B228" s="16"/>
       <c r="C228" s="3" t="s">
         <v>216</v>
       </c>
       <c r="D228" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E228" s="3">
+      <c r="E228" s="5">
         <v>50</v>
       </c>
       <c r="F228" s="3" t="s">
@@ -5857,10 +5925,10 @@
       </c>
     </row>
     <row r="229" spans="1:7">
-      <c r="A229" s="13">
+      <c r="A229" s="14">
         <v>75</v>
       </c>
-      <c r="B229" s="13" t="s">
+      <c r="B229" s="14" t="s">
         <v>220</v>
       </c>
       <c r="C229" s="3" t="s">
@@ -5869,7 +5937,7 @@
       <c r="D229" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E229" s="3">
+      <c r="E229" s="5">
         <v>50</v>
       </c>
       <c r="F229" s="3" t="s">
@@ -5880,15 +5948,15 @@
       </c>
     </row>
     <row r="230" spans="1:7">
-      <c r="A230" s="14"/>
-      <c r="B230" s="14"/>
+      <c r="A230" s="15"/>
+      <c r="B230" s="15"/>
       <c r="C230" s="3" t="s">
         <v>218</v>
       </c>
       <c r="D230" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E230" s="3">
+      <c r="E230" s="5">
         <v>50</v>
       </c>
       <c r="F230" s="3" t="s">
@@ -5899,15 +5967,15 @@
       </c>
     </row>
     <row r="231" spans="1:7">
-      <c r="A231" s="15"/>
-      <c r="B231" s="15"/>
+      <c r="A231" s="16"/>
+      <c r="B231" s="16"/>
       <c r="C231" s="3" t="s">
         <v>219</v>
       </c>
       <c r="D231" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E231" s="3">
+      <c r="E231" s="5">
         <v>50</v>
       </c>
       <c r="F231" s="3" t="s">
@@ -5918,10 +5986,10 @@
       </c>
     </row>
     <row r="232" spans="1:7">
-      <c r="A232" s="13">
+      <c r="A232" s="14">
         <v>76</v>
       </c>
-      <c r="B232" s="16" t="s">
+      <c r="B232" s="17" t="s">
         <v>221</v>
       </c>
       <c r="C232" s="3" t="s">
@@ -5935,15 +6003,15 @@
       </c>
     </row>
     <row r="233" spans="1:7">
-      <c r="A233" s="14"/>
-      <c r="B233" s="17"/>
+      <c r="A233" s="15"/>
+      <c r="B233" s="18"/>
       <c r="C233" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D233" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E233" s="3" t="s">
+      <c r="E233" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F233" s="3" t="s">
@@ -5954,15 +6022,15 @@
       </c>
     </row>
     <row r="234" spans="1:7">
-      <c r="A234" s="14"/>
-      <c r="B234" s="17"/>
+      <c r="A234" s="15"/>
+      <c r="B234" s="18"/>
       <c r="C234" s="3" t="s">
         <v>178</v>
       </c>
       <c r="D234" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E234" s="3" t="s">
+      <c r="E234" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F234" s="3" t="s">
@@ -5973,15 +6041,15 @@
       </c>
     </row>
     <row r="235" spans="1:7">
-      <c r="A235" s="14"/>
-      <c r="B235" s="17"/>
+      <c r="A235" s="15"/>
+      <c r="B235" s="18"/>
       <c r="C235" s="3" t="s">
         <v>179</v>
       </c>
       <c r="D235" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E235" s="3" t="s">
+      <c r="E235" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F235" s="3" t="s">
@@ -5992,15 +6060,15 @@
       </c>
     </row>
     <row r="236" spans="1:7">
-      <c r="A236" s="14"/>
-      <c r="B236" s="17"/>
+      <c r="A236" s="15"/>
+      <c r="B236" s="18"/>
       <c r="C236" s="3" t="s">
         <v>180</v>
       </c>
       <c r="D236" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E236" s="3" t="s">
+      <c r="E236" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F236" s="3" t="s">
@@ -6011,15 +6079,15 @@
       </c>
     </row>
     <row r="237" spans="1:7">
-      <c r="A237" s="14"/>
-      <c r="B237" s="17"/>
+      <c r="A237" s="15"/>
+      <c r="B237" s="18"/>
       <c r="C237" s="3" t="s">
         <v>181</v>
       </c>
       <c r="D237" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E237" s="3" t="s">
+      <c r="E237" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F237" s="3" t="s">
@@ -6030,15 +6098,15 @@
       </c>
     </row>
     <row r="238" spans="1:7">
-      <c r="A238" s="14"/>
-      <c r="B238" s="17"/>
+      <c r="A238" s="15"/>
+      <c r="B238" s="18"/>
       <c r="C238" s="3" t="s">
         <v>182</v>
       </c>
       <c r="D238" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E238" s="3" t="s">
+      <c r="E238" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F238" s="3" t="s">
@@ -6049,15 +6117,15 @@
       </c>
     </row>
     <row r="239" spans="1:7">
-      <c r="A239" s="14"/>
-      <c r="B239" s="17"/>
+      <c r="A239" s="15"/>
+      <c r="B239" s="18"/>
       <c r="C239" s="3" t="s">
         <v>183</v>
       </c>
       <c r="D239" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E239" s="3" t="s">
+      <c r="E239" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F239" s="3" t="s">
@@ -6068,15 +6136,15 @@
       </c>
     </row>
     <row r="240" spans="1:7">
-      <c r="A240" s="14"/>
-      <c r="B240" s="17"/>
+      <c r="A240" s="15"/>
+      <c r="B240" s="18"/>
       <c r="C240" s="3" t="s">
         <v>184</v>
       </c>
       <c r="D240" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E240" s="3" t="s">
+      <c r="E240" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F240" s="3" t="s">
@@ -6087,15 +6155,15 @@
       </c>
     </row>
     <row r="241" spans="1:10">
-      <c r="A241" s="14"/>
-      <c r="B241" s="17"/>
+      <c r="A241" s="15"/>
+      <c r="B241" s="18"/>
       <c r="C241" s="3" t="s">
         <v>185</v>
       </c>
       <c r="D241" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E241" s="3" t="s">
+      <c r="E241" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F241" s="3" t="s">
@@ -6106,15 +6174,15 @@
       </c>
     </row>
     <row r="242" spans="1:10">
-      <c r="A242" s="14"/>
-      <c r="B242" s="17"/>
+      <c r="A242" s="15"/>
+      <c r="B242" s="18"/>
       <c r="C242" s="3" t="s">
         <v>186</v>
       </c>
       <c r="D242" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E242" s="3" t="s">
+      <c r="E242" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F242" s="3" t="s">
@@ -6125,15 +6193,15 @@
       </c>
     </row>
     <row r="243" spans="1:10">
-      <c r="A243" s="14"/>
-      <c r="B243" s="17"/>
+      <c r="A243" s="15"/>
+      <c r="B243" s="18"/>
       <c r="C243" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D243" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E243" s="3">
+      <c r="E243" s="5">
         <v>50</v>
       </c>
       <c r="F243" s="6" t="s">
@@ -6144,15 +6212,15 @@
       </c>
     </row>
     <row r="244" spans="1:10">
-      <c r="A244" s="14"/>
-      <c r="B244" s="17"/>
+      <c r="A244" s="15"/>
+      <c r="B244" s="18"/>
       <c r="C244" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D244" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E244" s="3">
+      <c r="E244" s="5">
         <v>50</v>
       </c>
       <c r="F244" s="6" t="s">
@@ -6163,15 +6231,15 @@
       </c>
     </row>
     <row r="245" spans="1:10">
-      <c r="A245" s="15"/>
-      <c r="B245" s="18"/>
+      <c r="A245" s="16"/>
+      <c r="B245" s="19"/>
       <c r="C245" s="3" t="s">
         <v>187</v>
       </c>
       <c r="D245" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E245" s="3">
+      <c r="E245" s="5">
         <v>50</v>
       </c>
       <c r="F245" s="3" t="s">
@@ -6179,10 +6247,10 @@
       </c>
     </row>
     <row r="246" spans="1:10" ht="45">
-      <c r="A246" s="13">
+      <c r="A246" s="14">
         <v>77</v>
       </c>
-      <c r="B246" s="13" t="s">
+      <c r="B246" s="14" t="s">
         <v>227</v>
       </c>
       <c r="C246" s="3" t="s">
@@ -6191,7 +6259,7 @@
       <c r="D246" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E246" s="3" t="s">
+      <c r="E246" s="5" t="s">
         <v>31</v>
       </c>
       <c r="J246" s="4" t="s">
@@ -6199,15 +6267,15 @@
       </c>
     </row>
     <row r="247" spans="1:10">
-      <c r="A247" s="14"/>
-      <c r="B247" s="14"/>
+      <c r="A247" s="15"/>
+      <c r="B247" s="15"/>
       <c r="C247" s="3" t="s">
         <v>223</v>
       </c>
       <c r="D247" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E247" s="3" t="s">
+      <c r="E247" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F247" s="3" t="s">
@@ -6215,15 +6283,15 @@
       </c>
     </row>
     <row r="248" spans="1:10" ht="45">
-      <c r="A248" s="14"/>
-      <c r="B248" s="14"/>
+      <c r="A248" s="15"/>
+      <c r="B248" s="15"/>
       <c r="C248" s="3" t="s">
         <v>224</v>
       </c>
       <c r="D248" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E248" s="3" t="s">
+      <c r="E248" s="5" t="s">
         <v>31</v>
       </c>
       <c r="J248" s="4" t="s">
@@ -6231,15 +6299,15 @@
       </c>
     </row>
     <row r="249" spans="1:10" ht="45">
-      <c r="A249" s="14"/>
-      <c r="B249" s="14"/>
+      <c r="A249" s="15"/>
+      <c r="B249" s="15"/>
       <c r="C249" s="3" t="s">
         <v>225</v>
       </c>
       <c r="D249" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E249" s="3" t="s">
+      <c r="E249" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F249" s="3" t="s">
@@ -6253,15 +6321,15 @@
       </c>
     </row>
     <row r="250" spans="1:10">
-      <c r="A250" s="14"/>
-      <c r="B250" s="14"/>
+      <c r="A250" s="15"/>
+      <c r="B250" s="15"/>
       <c r="C250" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D250" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E250" s="3" t="s">
+      <c r="E250" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F250" s="3" t="s">
@@ -6272,15 +6340,15 @@
       </c>
     </row>
     <row r="251" spans="1:10">
-      <c r="A251" s="14"/>
-      <c r="B251" s="14"/>
+      <c r="A251" s="15"/>
+      <c r="B251" s="15"/>
       <c r="C251" s="3" t="s">
         <v>226</v>
       </c>
       <c r="D251" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E251" s="3" t="s">
+      <c r="E251" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F251" s="3" t="s">
@@ -6291,15 +6359,15 @@
       </c>
     </row>
     <row r="252" spans="1:10">
-      <c r="A252" s="14"/>
-      <c r="B252" s="14"/>
+      <c r="A252" s="15"/>
+      <c r="B252" s="15"/>
       <c r="C252" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D252" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E252" s="3">
+      <c r="E252" s="5">
         <v>50</v>
       </c>
       <c r="F252" s="3" t="s">
@@ -6310,15 +6378,15 @@
       </c>
     </row>
     <row r="253" spans="1:10">
-      <c r="A253" s="15"/>
-      <c r="B253" s="15"/>
+      <c r="A253" s="16"/>
+      <c r="B253" s="16"/>
       <c r="C253" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D253" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E253" s="3">
+      <c r="E253" s="5">
         <v>50</v>
       </c>
       <c r="F253" s="3" t="s">
@@ -6329,10 +6397,10 @@
       </c>
     </row>
     <row r="254" spans="1:10">
-      <c r="A254" s="13">
+      <c r="A254" s="14">
         <v>78</v>
       </c>
-      <c r="B254" s="13" t="s">
+      <c r="B254" s="14" t="s">
         <v>233</v>
       </c>
       <c r="C254" s="3" t="s">
@@ -6341,7 +6409,7 @@
       <c r="D254" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E254" s="3">
+      <c r="E254" s="5">
         <v>30</v>
       </c>
       <c r="F254" s="3" t="s">
@@ -6352,15 +6420,15 @@
       </c>
     </row>
     <row r="255" spans="1:10">
-      <c r="A255" s="15"/>
-      <c r="B255" s="15"/>
+      <c r="A255" s="16"/>
+      <c r="B255" s="16"/>
       <c r="C255" s="3" t="s">
         <v>232</v>
       </c>
       <c r="D255" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E255" s="3">
+      <c r="E255" s="5">
         <v>60</v>
       </c>
       <c r="F255" s="3" t="s">
@@ -6371,10 +6439,10 @@
       </c>
     </row>
     <row r="256" spans="1:10" ht="30">
-      <c r="A256" s="13">
+      <c r="A256" s="14">
         <v>79</v>
       </c>
-      <c r="B256" s="13" t="s">
+      <c r="B256" s="14" t="s">
         <v>245</v>
       </c>
       <c r="C256" s="3" t="s">
@@ -6394,15 +6462,15 @@
       </c>
     </row>
     <row r="257" spans="1:10" ht="30">
-      <c r="A257" s="14"/>
-      <c r="B257" s="14"/>
+      <c r="A257" s="15"/>
+      <c r="B257" s="15"/>
       <c r="C257" s="3" t="s">
         <v>235</v>
       </c>
       <c r="D257" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E257" s="3" t="s">
+      <c r="E257" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F257" s="3" t="s">
@@ -6416,15 +6484,15 @@
       </c>
     </row>
     <row r="258" spans="1:10">
-      <c r="A258" s="14"/>
-      <c r="B258" s="14"/>
+      <c r="A258" s="15"/>
+      <c r="B258" s="15"/>
       <c r="C258" s="3" t="s">
         <v>236</v>
       </c>
       <c r="D258" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E258" s="3" t="s">
+      <c r="E258" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F258" s="3" t="s">
@@ -6435,15 +6503,15 @@
       </c>
     </row>
     <row r="259" spans="1:10">
-      <c r="A259" s="14"/>
-      <c r="B259" s="14"/>
+      <c r="A259" s="15"/>
+      <c r="B259" s="15"/>
       <c r="C259" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D259" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E259" s="3" t="s">
+      <c r="E259" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F259" s="3" t="s">
@@ -6454,15 +6522,15 @@
       </c>
     </row>
     <row r="260" spans="1:10">
-      <c r="A260" s="14"/>
-      <c r="B260" s="14"/>
+      <c r="A260" s="15"/>
+      <c r="B260" s="15"/>
       <c r="C260" s="3" t="s">
         <v>237</v>
       </c>
       <c r="D260" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E260" s="3">
+      <c r="E260" s="5">
         <v>50</v>
       </c>
       <c r="F260" s="3" t="s">
@@ -6473,15 +6541,15 @@
       </c>
     </row>
     <row r="261" spans="1:10">
-      <c r="A261" s="14"/>
-      <c r="B261" s="14"/>
+      <c r="A261" s="15"/>
+      <c r="B261" s="15"/>
       <c r="C261" s="3" t="s">
         <v>238</v>
       </c>
       <c r="D261" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E261" s="3">
+      <c r="E261" s="5">
         <v>50</v>
       </c>
       <c r="F261" s="3" t="s">
@@ -6492,15 +6560,15 @@
       </c>
     </row>
     <row r="262" spans="1:10">
-      <c r="A262" s="14"/>
-      <c r="B262" s="14"/>
+      <c r="A262" s="15"/>
+      <c r="B262" s="15"/>
       <c r="C262" s="3" t="s">
         <v>239</v>
       </c>
       <c r="D262" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E262" s="3">
+      <c r="E262" s="5">
         <v>50</v>
       </c>
       <c r="F262" s="3" t="s">
@@ -6511,15 +6579,15 @@
       </c>
     </row>
     <row r="263" spans="1:10">
-      <c r="A263" s="14"/>
-      <c r="B263" s="14"/>
+      <c r="A263" s="15"/>
+      <c r="B263" s="15"/>
       <c r="C263" s="3" t="s">
         <v>240</v>
       </c>
       <c r="D263" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E263" s="3">
+      <c r="E263" s="5">
         <v>50</v>
       </c>
       <c r="F263" s="3" t="s">
@@ -6530,15 +6598,15 @@
       </c>
     </row>
     <row r="264" spans="1:10">
-      <c r="A264" s="14"/>
-      <c r="B264" s="14"/>
+      <c r="A264" s="15"/>
+      <c r="B264" s="15"/>
       <c r="C264" s="3" t="s">
         <v>241</v>
       </c>
       <c r="D264" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E264" s="3" t="s">
+      <c r="E264" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F264" s="3" t="s">
@@ -6549,15 +6617,15 @@
       </c>
     </row>
     <row r="265" spans="1:10">
-      <c r="A265" s="14"/>
-      <c r="B265" s="14"/>
+      <c r="A265" s="15"/>
+      <c r="B265" s="15"/>
       <c r="C265" s="3" t="s">
         <v>242</v>
       </c>
       <c r="D265" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E265" s="3" t="s">
+      <c r="E265" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F265" s="3" t="s">
@@ -6568,15 +6636,15 @@
       </c>
     </row>
     <row r="266" spans="1:10">
-      <c r="A266" s="14"/>
-      <c r="B266" s="14"/>
+      <c r="A266" s="15"/>
+      <c r="B266" s="15"/>
       <c r="C266" s="3" t="s">
         <v>243</v>
       </c>
       <c r="D266" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E266" s="3" t="s">
+      <c r="E266" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F266" s="3" t="s">
@@ -6587,15 +6655,15 @@
       </c>
     </row>
     <row r="267" spans="1:10">
-      <c r="A267" s="15"/>
-      <c r="B267" s="15"/>
+      <c r="A267" s="16"/>
+      <c r="B267" s="16"/>
       <c r="C267" s="3" t="s">
         <v>244</v>
       </c>
       <c r="D267" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E267" s="3" t="s">
+      <c r="E267" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F267" s="3" t="s">
@@ -6606,10 +6674,10 @@
       </c>
     </row>
     <row r="268" spans="1:10">
-      <c r="A268" s="13">
+      <c r="A268" s="14">
         <v>80</v>
       </c>
-      <c r="B268" s="13" t="s">
+      <c r="B268" s="14" t="s">
         <v>251</v>
       </c>
       <c r="C268" s="3" t="s">
@@ -6618,7 +6686,7 @@
       <c r="D268" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E268" s="3">
+      <c r="E268" s="5">
         <v>50</v>
       </c>
       <c r="F268" s="3" t="s">
@@ -6629,15 +6697,15 @@
       </c>
     </row>
     <row r="269" spans="1:10">
-      <c r="A269" s="14"/>
-      <c r="B269" s="14"/>
+      <c r="A269" s="15"/>
+      <c r="B269" s="15"/>
       <c r="C269" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D269" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E269" s="3">
+      <c r="E269" s="5">
         <v>50</v>
       </c>
       <c r="F269" s="3" t="s">
@@ -6648,15 +6716,15 @@
       </c>
     </row>
     <row r="270" spans="1:10">
-      <c r="A270" s="14"/>
-      <c r="B270" s="14"/>
+      <c r="A270" s="15"/>
+      <c r="B270" s="15"/>
       <c r="C270" s="3" t="s">
         <v>248</v>
       </c>
       <c r="D270" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E270" s="3">
+      <c r="E270" s="5">
         <v>80</v>
       </c>
       <c r="F270" s="3" t="s">
@@ -6667,15 +6735,15 @@
       </c>
     </row>
     <row r="271" spans="1:10">
-      <c r="A271" s="14"/>
-      <c r="B271" s="14"/>
+      <c r="A271" s="15"/>
+      <c r="B271" s="15"/>
       <c r="C271" s="3" t="s">
         <v>249</v>
       </c>
       <c r="D271" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E271" s="6">
+      <c r="E271" s="26">
         <v>100</v>
       </c>
       <c r="F271" s="3" t="s">
@@ -6686,15 +6754,15 @@
       </c>
     </row>
     <row r="272" spans="1:10">
-      <c r="A272" s="15"/>
-      <c r="B272" s="15"/>
+      <c r="A272" s="16"/>
+      <c r="B272" s="16"/>
       <c r="C272" s="3" t="s">
         <v>250</v>
       </c>
       <c r="D272" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E272" s="3">
+      <c r="E272" s="5">
         <v>10</v>
       </c>
       <c r="F272" s="3" t="s">
@@ -6705,10 +6773,10 @@
       </c>
     </row>
     <row r="273" spans="1:10">
-      <c r="A273" s="13">
+      <c r="A273" s="14">
         <v>81</v>
       </c>
-      <c r="B273" s="13" t="s">
+      <c r="B273" s="14" t="s">
         <v>253</v>
       </c>
       <c r="C273" s="3" t="s">
@@ -6717,7 +6785,7 @@
       <c r="D273" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E273" s="3">
+      <c r="E273" s="5">
         <v>50</v>
       </c>
       <c r="F273" s="3" t="s">
@@ -6728,15 +6796,15 @@
       </c>
     </row>
     <row r="274" spans="1:10">
-      <c r="A274" s="15"/>
-      <c r="B274" s="15"/>
+      <c r="A274" s="16"/>
+      <c r="B274" s="16"/>
       <c r="C274" s="3" t="s">
         <v>252</v>
       </c>
       <c r="D274" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E274" s="3">
+      <c r="E274" s="5">
         <v>150</v>
       </c>
       <c r="F274" s="3" t="s">
@@ -6747,10 +6815,10 @@
       </c>
     </row>
     <row r="275" spans="1:10">
-      <c r="A275" s="13">
+      <c r="A275" s="14">
         <v>82</v>
       </c>
-      <c r="B275" s="13" t="s">
+      <c r="B275" s="14" t="s">
         <v>254</v>
       </c>
       <c r="C275" s="3" t="s">
@@ -6759,7 +6827,7 @@
       <c r="D275" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E275" s="3">
+      <c r="E275" s="5">
         <v>50</v>
       </c>
       <c r="F275" s="3" t="s">
@@ -6770,15 +6838,15 @@
       </c>
     </row>
     <row r="276" spans="1:10">
-      <c r="A276" s="15"/>
-      <c r="B276" s="15"/>
+      <c r="A276" s="16"/>
+      <c r="B276" s="16"/>
       <c r="C276" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D276" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E276" s="3">
+      <c r="E276" s="5">
         <v>50</v>
       </c>
       <c r="F276" s="3" t="s">
@@ -6789,10 +6857,10 @@
       </c>
     </row>
     <row r="277" spans="1:10">
-      <c r="A277" s="13">
+      <c r="A277" s="14">
         <v>83</v>
       </c>
-      <c r="B277" s="13" t="s">
+      <c r="B277" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C277" s="3" t="s">
@@ -6801,7 +6869,7 @@
       <c r="D277" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E277" s="3">
+      <c r="E277" s="5">
         <v>150</v>
       </c>
       <c r="F277" s="3" t="s">
@@ -6812,15 +6880,15 @@
       </c>
     </row>
     <row r="278" spans="1:10">
-      <c r="A278" s="14"/>
-      <c r="B278" s="14"/>
+      <c r="A278" s="15"/>
+      <c r="B278" s="15"/>
       <c r="C278" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D278" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E278" s="3">
+      <c r="E278" s="5">
         <v>50</v>
       </c>
       <c r="F278" s="3" t="s">
@@ -6831,15 +6899,15 @@
       </c>
     </row>
     <row r="279" spans="1:10">
-      <c r="A279" s="14"/>
-      <c r="B279" s="14"/>
+      <c r="A279" s="15"/>
+      <c r="B279" s="15"/>
       <c r="C279" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D279" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E279" s="3">
+      <c r="E279" s="5">
         <v>50</v>
       </c>
       <c r="F279" s="3" t="s">
@@ -6850,15 +6918,15 @@
       </c>
     </row>
     <row r="280" spans="1:10">
-      <c r="A280" s="14"/>
-      <c r="B280" s="14"/>
+      <c r="A280" s="15"/>
+      <c r="B280" s="15"/>
       <c r="C280" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D280" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E280" s="3">
+      <c r="E280" s="5">
         <v>150</v>
       </c>
       <c r="F280" s="3" t="s">
@@ -6869,15 +6937,15 @@
       </c>
     </row>
     <row r="281" spans="1:10">
-      <c r="A281" s="15"/>
-      <c r="B281" s="15"/>
+      <c r="A281" s="16"/>
+      <c r="B281" s="16"/>
       <c r="C281" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D281" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E281" s="3">
+      <c r="E281" s="5">
         <v>15</v>
       </c>
       <c r="F281" s="3" t="s">
@@ -6888,10 +6956,10 @@
       </c>
     </row>
     <row r="282" spans="1:10">
-      <c r="A282" s="13">
+      <c r="A282" s="14">
         <v>84</v>
       </c>
-      <c r="B282" s="13" t="s">
+      <c r="B282" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C282" s="3" t="s">
@@ -6900,7 +6968,7 @@
       <c r="D282" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E282" s="3">
+      <c r="E282" s="5">
         <v>150</v>
       </c>
       <c r="F282" s="3" t="s">
@@ -6911,15 +6979,15 @@
       </c>
     </row>
     <row r="283" spans="1:10">
-      <c r="A283" s="14"/>
-      <c r="B283" s="14"/>
+      <c r="A283" s="15"/>
+      <c r="B283" s="15"/>
       <c r="C283" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D283" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E283" s="3">
+      <c r="E283" s="5">
         <v>50</v>
       </c>
       <c r="F283" s="3" t="s">
@@ -6930,15 +6998,15 @@
       </c>
     </row>
     <row r="284" spans="1:10">
-      <c r="A284" s="14"/>
-      <c r="B284" s="14"/>
+      <c r="A284" s="15"/>
+      <c r="B284" s="15"/>
       <c r="C284" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D284" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E284" s="3">
+      <c r="E284" s="5">
         <v>50</v>
       </c>
       <c r="F284" s="3" t="s">
@@ -6949,15 +7017,15 @@
       </c>
     </row>
     <row r="285" spans="1:10">
-      <c r="A285" s="14"/>
-      <c r="B285" s="14"/>
+      <c r="A285" s="15"/>
+      <c r="B285" s="15"/>
       <c r="C285" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D285" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E285" s="3">
+      <c r="E285" s="5">
         <v>150</v>
       </c>
       <c r="F285" s="3" t="s">
@@ -6968,15 +7036,15 @@
       </c>
     </row>
     <row r="286" spans="1:10">
-      <c r="A286" s="15"/>
-      <c r="B286" s="15"/>
+      <c r="A286" s="16"/>
+      <c r="B286" s="16"/>
       <c r="C286" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D286" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E286" s="3">
+      <c r="E286" s="5">
         <v>15</v>
       </c>
       <c r="F286" s="3" t="s">
@@ -6987,10 +7055,10 @@
       </c>
     </row>
     <row r="287" spans="1:10">
-      <c r="A287" s="13">
+      <c r="A287" s="14">
         <v>85</v>
       </c>
-      <c r="B287" s="13" t="s">
+      <c r="B287" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C287" s="3" t="s">
@@ -6999,7 +7067,7 @@
       <c r="D287" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E287" s="3">
+      <c r="E287" s="5">
         <v>100</v>
       </c>
       <c r="F287" s="3" t="s">
@@ -7013,15 +7081,15 @@
       </c>
     </row>
     <row r="288" spans="1:10">
-      <c r="A288" s="14"/>
-      <c r="B288" s="14"/>
+      <c r="A288" s="15"/>
+      <c r="B288" s="15"/>
       <c r="C288" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D288" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E288" s="3">
+      <c r="E288" s="5">
         <v>50</v>
       </c>
       <c r="F288" s="3" t="s">
@@ -7031,16 +7099,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="289" spans="1:7">
-      <c r="A289" s="14"/>
-      <c r="B289" s="14"/>
+    <row r="289" spans="1:8">
+      <c r="A289" s="15"/>
+      <c r="B289" s="15"/>
       <c r="C289" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D289" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E289" s="3">
+      <c r="E289" s="5">
         <v>50</v>
       </c>
       <c r="F289" s="3" t="s">
@@ -7050,16 +7118,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="290" spans="1:7">
-      <c r="A290" s="14"/>
-      <c r="B290" s="14"/>
+    <row r="290" spans="1:8">
+      <c r="A290" s="15"/>
+      <c r="B290" s="15"/>
       <c r="C290" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D290" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E290" s="6">
+      <c r="E290" s="26">
         <v>50</v>
       </c>
       <c r="F290" s="6" t="s">
@@ -7067,16 +7135,16 @@
       </c>
       <c r="G290"/>
     </row>
-    <row r="291" spans="1:7">
-      <c r="A291" s="15"/>
-      <c r="B291" s="15"/>
+    <row r="291" spans="1:8">
+      <c r="A291" s="16"/>
+      <c r="B291" s="16"/>
       <c r="C291" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D291" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E291" s="6">
+      <c r="E291" s="26">
         <v>15</v>
       </c>
       <c r="F291" s="3" t="s">
@@ -7086,11 +7154,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="292" spans="1:7">
-      <c r="A292" s="13">
+    <row r="292" spans="1:8">
+      <c r="A292" s="14">
         <v>86</v>
       </c>
-      <c r="B292" s="13" t="s">
+      <c r="B292" s="14" t="s">
         <v>256</v>
       </c>
       <c r="C292" s="3" t="s">
@@ -7099,7 +7167,7 @@
       <c r="D292" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E292" s="3">
+      <c r="E292" s="5">
         <v>50</v>
       </c>
       <c r="F292" s="3" t="s">
@@ -7109,16 +7177,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="293" spans="1:7">
-      <c r="A293" s="15"/>
-      <c r="B293" s="15"/>
+    <row r="293" spans="1:8">
+      <c r="A293" s="16"/>
+      <c r="B293" s="16"/>
       <c r="C293" s="3" t="s">
         <v>101</v>
       </c>
       <c r="D293" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E293" s="3">
+      <c r="E293" s="5">
         <v>50</v>
       </c>
       <c r="F293" s="3" t="s">
@@ -7128,11 +7196,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="294" spans="1:7">
-      <c r="A294" s="8">
+    <row r="294" spans="1:8">
+      <c r="A294" s="14">
         <v>87</v>
       </c>
-      <c r="B294" s="8" t="s">
+      <c r="B294" s="14" t="s">
         <v>258</v>
       </c>
       <c r="C294" s="3" t="s">
@@ -7141,7 +7209,7 @@
       <c r="D294" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E294" s="3">
+      <c r="E294" s="5">
         <v>120</v>
       </c>
       <c r="F294" s="3" t="s">
@@ -7151,15 +7219,16 @@
         <v>60</v>
       </c>
     </row>
-    <row r="295" spans="1:7">
-      <c r="B295" s="21"/>
+    <row r="295" spans="1:8">
+      <c r="A295" s="15"/>
+      <c r="B295" s="15"/>
       <c r="C295" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D295" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E295" s="3">
+      <c r="E295" s="5">
         <v>50</v>
       </c>
       <c r="F295" s="3" t="s">
@@ -7169,15 +7238,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="296" spans="1:7">
-      <c r="B296" s="22"/>
+    <row r="296" spans="1:8">
+      <c r="A296" s="16"/>
+      <c r="B296" s="16"/>
       <c r="C296" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D296" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E296" s="3">
+      <c r="E296" s="5">
         <v>50</v>
       </c>
       <c r="F296" s="3" t="s">
@@ -7187,122 +7257,347 @@
         <v>20</v>
       </c>
     </row>
+    <row r="297" spans="1:8">
+      <c r="A297" s="14">
+        <v>88</v>
+      </c>
+      <c r="B297" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C297" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D297" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E297" s="29">
+        <v>50</v>
+      </c>
+      <c r="F297" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G297" s="21">
+        <v>20</v>
+      </c>
+      <c r="H297" s="22"/>
+    </row>
+    <row r="298" spans="1:8">
+      <c r="A298" s="15"/>
+      <c r="B298" s="15"/>
+      <c r="C298" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D298" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E298" s="30">
+        <v>50</v>
+      </c>
+      <c r="F298" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G298" s="24">
+        <v>20</v>
+      </c>
+      <c r="H298" s="24"/>
+    </row>
+    <row r="299" spans="1:8">
+      <c r="A299" s="15"/>
+      <c r="B299" s="15"/>
+      <c r="C299" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D299" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E299" s="30">
+        <v>15</v>
+      </c>
+      <c r="F299" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G299" s="24">
+        <v>10</v>
+      </c>
+      <c r="H299" s="24"/>
+    </row>
+    <row r="300" spans="1:8">
+      <c r="A300" s="15"/>
+      <c r="B300" s="15"/>
+      <c r="C300" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D300" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E300" s="30">
+        <v>15</v>
+      </c>
+      <c r="F300" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G300" s="24">
+        <v>11</v>
+      </c>
+      <c r="H300" s="24"/>
+    </row>
+    <row r="301" spans="1:8">
+      <c r="A301" s="15"/>
+      <c r="B301" s="15"/>
+      <c r="C301" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D301" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E301" s="30">
+        <v>100</v>
+      </c>
+      <c r="F301" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G301" s="24">
+        <v>50</v>
+      </c>
+      <c r="H301" s="24"/>
+    </row>
+    <row r="302" spans="1:8">
+      <c r="A302" s="16"/>
+      <c r="B302" s="16"/>
+      <c r="C302" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D302" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E302" s="30">
+        <v>50</v>
+      </c>
+      <c r="F302" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G302" s="24"/>
+      <c r="H302" s="24"/>
+    </row>
+    <row r="303" spans="1:8">
+      <c r="A303" s="14">
+        <v>89</v>
+      </c>
+      <c r="B303" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D303" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E303" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F303" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G303" s="3">
+        <v>20</v>
+      </c>
+      <c r="H303" s="4"/>
+    </row>
+    <row r="304" spans="1:8">
+      <c r="A304" s="15"/>
+      <c r="B304" s="15"/>
+      <c r="C304" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D304" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E304" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F304" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G304" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8">
+      <c r="A305" s="15"/>
+      <c r="B305" s="15"/>
+      <c r="C305" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D305" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E305" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F305" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G305" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8">
+      <c r="A306" s="15"/>
+      <c r="B306" s="15"/>
+      <c r="C306" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D306" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E306" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F306" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G306" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8">
+      <c r="A307" s="16"/>
+      <c r="B307" s="16"/>
+      <c r="C307" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D307" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E307" s="5">
+        <v>2</v>
+      </c>
+      <c r="F307" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G307" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8">
+      <c r="A308" s="14">
+        <v>90</v>
+      </c>
+      <c r="B308" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="C308" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D308" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E308" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F308" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G308" s="3">
+        <v>20</v>
+      </c>
+      <c r="H308" s="4"/>
+    </row>
+    <row r="309" spans="1:8">
+      <c r="A309" s="15"/>
+      <c r="B309" s="15"/>
+      <c r="C309" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D309" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E309" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F309" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G309" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8">
+      <c r="A310" s="15"/>
+      <c r="B310" s="15"/>
+      <c r="C310" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D310" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E310" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F310" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G310" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8">
+      <c r="A311" s="15"/>
+      <c r="B311" s="15"/>
+      <c r="C311" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D311" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E311" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F311" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G311" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8">
+      <c r="A312" s="16"/>
+      <c r="B312" s="16"/>
+      <c r="C312" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D312" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E312" s="5">
+        <v>2</v>
+      </c>
+      <c r="F312" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G312" s="3">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="147">
-    <mergeCell ref="B295:B296"/>
-    <mergeCell ref="A86:A90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="A93:A96"/>
-    <mergeCell ref="A97:A100"/>
-    <mergeCell ref="B129:B131"/>
-    <mergeCell ref="A109:A113"/>
-    <mergeCell ref="A116:A119"/>
-    <mergeCell ref="B133:B135"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="B109:B113"/>
-    <mergeCell ref="B116:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B123:B125"/>
-    <mergeCell ref="B126:B128"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A68:A72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="B86:B90"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="B93:B96"/>
-    <mergeCell ref="B97:B100"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="B68:B72"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="B154:B155"/>
-    <mergeCell ref="B156:B157"/>
-    <mergeCell ref="B159:B160"/>
-    <mergeCell ref="B161:B162"/>
-    <mergeCell ref="B163:B165"/>
-    <mergeCell ref="B136:B138"/>
-    <mergeCell ref="B139:B142"/>
-    <mergeCell ref="B143:B146"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="B149:B152"/>
-    <mergeCell ref="A149:A152"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="A156:A157"/>
-    <mergeCell ref="B254:B255"/>
-    <mergeCell ref="B256:B267"/>
-    <mergeCell ref="B268:B272"/>
-    <mergeCell ref="B273:B274"/>
-    <mergeCell ref="B275:B276"/>
-    <mergeCell ref="B225:B228"/>
-    <mergeCell ref="B229:B231"/>
-    <mergeCell ref="B232:B245"/>
-    <mergeCell ref="B246:B253"/>
-    <mergeCell ref="B208:B210"/>
-    <mergeCell ref="B211:B213"/>
-    <mergeCell ref="B214:B216"/>
-    <mergeCell ref="B217:B220"/>
-    <mergeCell ref="B221:B224"/>
-    <mergeCell ref="B193:B195"/>
-    <mergeCell ref="B196:B198"/>
-    <mergeCell ref="B199:B201"/>
-    <mergeCell ref="B202:B204"/>
-    <mergeCell ref="B205:B207"/>
-    <mergeCell ref="B166:B169"/>
-    <mergeCell ref="B170:B171"/>
-    <mergeCell ref="A120:A122"/>
-    <mergeCell ref="A123:A125"/>
-    <mergeCell ref="A126:A128"/>
-    <mergeCell ref="A129:A131"/>
-    <mergeCell ref="A133:A135"/>
-    <mergeCell ref="A136:A138"/>
-    <mergeCell ref="A139:A142"/>
-    <mergeCell ref="A143:A146"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="A159:A160"/>
-    <mergeCell ref="A161:A162"/>
-    <mergeCell ref="A163:A165"/>
-    <mergeCell ref="A166:A169"/>
-    <mergeCell ref="A170:A171"/>
+  <mergeCells count="154">
+    <mergeCell ref="B294:B296"/>
+    <mergeCell ref="A294:A296"/>
+    <mergeCell ref="B297:B302"/>
+    <mergeCell ref="A297:A302"/>
+    <mergeCell ref="B303:B307"/>
+    <mergeCell ref="A303:A307"/>
+    <mergeCell ref="B308:B312"/>
+    <mergeCell ref="A308:A312"/>
+    <mergeCell ref="A275:A276"/>
+    <mergeCell ref="A277:A281"/>
+    <mergeCell ref="A282:A286"/>
+    <mergeCell ref="A225:A228"/>
+    <mergeCell ref="A229:A231"/>
+    <mergeCell ref="A232:A245"/>
+    <mergeCell ref="A246:A253"/>
+    <mergeCell ref="A254:A255"/>
+    <mergeCell ref="A256:A267"/>
     <mergeCell ref="B277:B281"/>
     <mergeCell ref="B282:B286"/>
     <mergeCell ref="B287:B291"/>
@@ -7327,15 +7622,119 @@
     <mergeCell ref="A292:A293"/>
     <mergeCell ref="A268:A272"/>
     <mergeCell ref="A273:A274"/>
-    <mergeCell ref="A275:A276"/>
-    <mergeCell ref="A277:A281"/>
-    <mergeCell ref="A282:A286"/>
-    <mergeCell ref="A225:A228"/>
-    <mergeCell ref="A229:A231"/>
-    <mergeCell ref="A232:A245"/>
-    <mergeCell ref="A246:A253"/>
-    <mergeCell ref="A254:A255"/>
-    <mergeCell ref="A256:A267"/>
+    <mergeCell ref="A120:A122"/>
+    <mergeCell ref="A123:A125"/>
+    <mergeCell ref="A126:A128"/>
+    <mergeCell ref="A129:A131"/>
+    <mergeCell ref="A133:A135"/>
+    <mergeCell ref="A136:A138"/>
+    <mergeCell ref="A139:A142"/>
+    <mergeCell ref="A143:A146"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="B268:B272"/>
+    <mergeCell ref="B273:B274"/>
+    <mergeCell ref="B275:B276"/>
+    <mergeCell ref="B225:B228"/>
+    <mergeCell ref="B229:B231"/>
+    <mergeCell ref="B232:B245"/>
+    <mergeCell ref="B246:B253"/>
+    <mergeCell ref="B208:B210"/>
+    <mergeCell ref="B211:B213"/>
+    <mergeCell ref="B214:B216"/>
+    <mergeCell ref="B217:B220"/>
+    <mergeCell ref="B221:B224"/>
+    <mergeCell ref="B139:B142"/>
+    <mergeCell ref="B143:B146"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="B149:B152"/>
+    <mergeCell ref="A149:A152"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="A156:A157"/>
+    <mergeCell ref="B254:B255"/>
+    <mergeCell ref="B256:B267"/>
+    <mergeCell ref="B193:B195"/>
+    <mergeCell ref="B196:B198"/>
+    <mergeCell ref="B199:B201"/>
+    <mergeCell ref="B202:B204"/>
+    <mergeCell ref="B205:B207"/>
+    <mergeCell ref="B166:B169"/>
+    <mergeCell ref="B170:B171"/>
+    <mergeCell ref="A159:A160"/>
+    <mergeCell ref="A161:A162"/>
+    <mergeCell ref="A163:A165"/>
+    <mergeCell ref="A166:A169"/>
+    <mergeCell ref="A170:A171"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="B93:B96"/>
+    <mergeCell ref="B97:B100"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="B68:B72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A68:A72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A93:A96"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="B129:B131"/>
+    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="A116:A119"/>
+    <mergeCell ref="B133:B135"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B109:B113"/>
+    <mergeCell ref="B116:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B123:B125"/>
+    <mergeCell ref="B126:B128"/>
+    <mergeCell ref="B154:B155"/>
+    <mergeCell ref="B156:B157"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="B163:B165"/>
+    <mergeCell ref="B136:B138"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/DPI_Table_Audit/Audit-Process-Sheet.xlsx
+++ b/DPI_Table_Audit/Audit-Process-Sheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="267">
   <si>
     <t>Column Name</t>
   </si>
@@ -239,9 +239,6 @@
   </si>
   <si>
     <t>SubjectNameHin</t>
-  </si>
-  <si>
-    <t>MstSubject_</t>
   </si>
   <si>
     <t>SubMenuDescription</t>
@@ -821,6 +818,9 @@
   </si>
   <si>
     <t>MstComplaintType</t>
+  </si>
+  <si>
+    <t>10-09-024</t>
   </si>
 </sst>
 </file>
@@ -946,7 +946,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -981,27 +981,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1025,6 +1004,51 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1332,13 +1356,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A302" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="E299" workbookViewId="0">
+      <selection activeCell="I307" sqref="I307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" style="13" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" style="3" customWidth="1"/>
     <col min="3" max="3" width="26.5703125" style="3" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" style="3" customWidth="1"/>
@@ -1348,7 +1372,7 @@
     <col min="8" max="8" width="19" style="3" customWidth="1"/>
     <col min="9" max="9" width="19.42578125" style="3" customWidth="1"/>
     <col min="10" max="10" width="40.85546875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" style="2" customWidth="1"/>
     <col min="12" max="15" width="9.140625" style="3"/>
     <col min="16" max="16" width="9.140625" style="3" customWidth="1"/>
     <col min="17" max="26" width="9.140625" style="3"/>
@@ -1367,7 +1391,7 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="18" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1386,14 +1410,14 @@
         <v>5</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="13">
+      <c r="A2" s="27">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="27" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1412,10 +1436,13 @@
         <v>20</v>
       </c>
       <c r="H2" s="4"/>
+      <c r="K2" s="33">
+        <v>45552</v>
+      </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
@@ -1432,10 +1459,11 @@
         <v>20</v>
       </c>
       <c r="H3" s="4"/>
+      <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1452,17 +1480,18 @@
         <v>80</v>
       </c>
       <c r="H4" s="4"/>
+      <c r="K4" s="25"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="19">
         <v>15</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -1472,17 +1501,18 @@
         <v>11</v>
       </c>
       <c r="H5" s="4"/>
+      <c r="K5" s="25"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="19">
         <v>150</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -1492,12 +1522,13 @@
         <v>100</v>
       </c>
       <c r="H6" s="4"/>
+      <c r="K6" s="26"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="13">
+      <c r="A7" s="27">
         <v>2</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="27" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1515,10 +1546,13 @@
       <c r="G7" s="3">
         <v>20</v>
       </c>
+      <c r="K7" s="33">
+        <v>45552</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
@@ -1534,10 +1568,11 @@
       <c r="G8" s="5">
         <v>20</v>
       </c>
+      <c r="K8" s="25"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
@@ -1553,10 +1588,11 @@
       <c r="G9" s="3">
         <v>80</v>
       </c>
+      <c r="K9" s="25"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
@@ -1572,10 +1608,11 @@
       <c r="G10" s="3">
         <v>11</v>
       </c>
+      <c r="K10" s="25"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
@@ -1591,12 +1628,13 @@
       <c r="G11" s="3">
         <v>100</v>
       </c>
+      <c r="K11" s="26"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="13">
+      <c r="A12" s="27">
         <v>3</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="27" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1614,10 +1652,13 @@
       <c r="G12" s="3">
         <v>20</v>
       </c>
+      <c r="K12" s="33">
+        <v>45552</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="3" t="s">
         <v>8</v>
       </c>
@@ -1633,10 +1674,11 @@
       <c r="G13" s="5">
         <v>20</v>
       </c>
+      <c r="K13" s="25"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
       <c r="C14" s="3" t="s">
         <v>19</v>
       </c>
@@ -1652,33 +1694,35 @@
       <c r="G14" s="3">
         <v>50</v>
       </c>
+      <c r="K14" s="25"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="19">
         <v>50</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>21</v>
       </c>
+      <c r="K15" s="25"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="19">
         <v>50</v>
       </c>
       <c r="F16" s="3" t="s">
@@ -1687,12 +1731,13 @@
       <c r="G16" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="13">
+      <c r="K16" s="26"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="27">
         <v>4</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="27" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -1711,10 +1756,13 @@
         <v>20</v>
       </c>
       <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
+      <c r="K17" s="33">
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
       <c r="C18" s="3" t="s">
         <v>8</v>
       </c>
@@ -1731,10 +1779,11 @@
         <v>20</v>
       </c>
       <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
+      <c r="K18" s="25"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
       <c r="C19" s="3" t="s">
         <v>24</v>
       </c>
@@ -1748,17 +1797,18 @@
         <v>21</v>
       </c>
       <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
+      <c r="K19" s="25"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E20" s="19">
         <v>150</v>
       </c>
       <c r="F20" s="3" t="s">
@@ -1770,22 +1820,24 @@
       <c r="J20" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
+      <c r="K20" s="25"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
       <c r="C21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="13">
+      <c r="K21" s="26"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="27">
         <v>5</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="27" t="s">
         <v>32</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -1803,10 +1855,13 @@
       <c r="G22" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
+      <c r="K22" s="33">
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
       <c r="C23" s="3" t="s">
         <v>29</v>
       </c>
@@ -1822,10 +1877,11 @@
       <c r="G23" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
+      <c r="K23" s="25"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
       <c r="C24" s="3" t="s">
         <v>30</v>
       </c>
@@ -1841,12 +1897,13 @@
       <c r="G24" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="13">
+      <c r="K24" s="26"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="27">
         <v>6</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="27" t="s">
         <v>35</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -1864,10 +1921,13 @@
       <c r="G25" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
+      <c r="K25" s="33">
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
       <c r="C26" s="3" t="s">
         <v>8</v>
       </c>
@@ -1883,10 +1943,11 @@
       <c r="G26" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
+      <c r="K26" s="25"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
       <c r="C27" s="3" t="s">
         <v>33</v>
       </c>
@@ -1899,17 +1960,18 @@
       <c r="F27" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
+      <c r="K27" s="25"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
       <c r="C28" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="26">
+      <c r="E28" s="19">
         <v>100</v>
       </c>
       <c r="F28" s="3" t="s">
@@ -1918,12 +1980,13 @@
       <c r="G28" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="13">
-        <v>7</v>
-      </c>
-      <c r="B29" s="13" t="s">
+      <c r="K28" s="26"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="27">
+        <v>7</v>
+      </c>
+      <c r="B29" s="27" t="s">
         <v>36</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -1941,10 +2004,13 @@
       <c r="G29" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
+      <c r="K29" s="33">
+        <v>45553</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
       <c r="C30" s="3" t="s">
         <v>8</v>
       </c>
@@ -1960,12 +2026,13 @@
       <c r="G30" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="13">
+      <c r="K30" s="26"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="27">
         <v>8</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="27" t="s">
         <v>40</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -1983,10 +2050,13 @@
       <c r="G31" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
+      <c r="K31" s="33">
+        <v>45553</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
       <c r="C32" s="3" t="s">
         <v>8</v>
       </c>
@@ -2002,10 +2072,11 @@
       <c r="G32" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
+      <c r="K32" s="25"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="27"/>
+      <c r="B33" s="27"/>
       <c r="C33" s="3" t="s">
         <v>37</v>
       </c>
@@ -2018,10 +2089,11 @@
       <c r="F33" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
+      <c r="K33" s="25"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="27"/>
+      <c r="B34" s="27"/>
       <c r="C34" s="3" t="s">
         <v>38</v>
       </c>
@@ -2037,10 +2109,11 @@
       <c r="G34" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
+      <c r="K34" s="25"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="27"/>
+      <c r="B35" s="27"/>
       <c r="C35" s="3" t="s">
         <v>39</v>
       </c>
@@ -2056,17 +2129,18 @@
       <c r="G35" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
+      <c r="K35" s="25"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="27"/>
+      <c r="B36" s="27"/>
       <c r="C36" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="26">
+      <c r="E36" s="19">
         <v>100</v>
       </c>
       <c r="F36" s="6" t="s">
@@ -2075,17 +2149,18 @@
       <c r="G36" s="6">
         <v>80</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
+      <c r="K36" s="25"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="27"/>
+      <c r="B37" s="27"/>
       <c r="C37" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="26">
+      <c r="E37" s="19">
         <v>150</v>
       </c>
       <c r="F37" s="3" t="s">
@@ -2094,12 +2169,13 @@
       <c r="G37" s="6">
         <v>100</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="13">
+      <c r="K37" s="26"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="27">
         <v>9</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="27" t="s">
         <v>45</v>
       </c>
       <c r="C38" s="3" t="s">
@@ -2117,10 +2193,13 @@
       <c r="G38" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
+      <c r="K38" s="33">
+        <v>45553</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="27"/>
+      <c r="B39" s="27"/>
       <c r="C39" s="3" t="s">
         <v>42</v>
       </c>
@@ -2136,10 +2215,11 @@
       <c r="G39" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
+      <c r="K39" s="25"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="27"/>
+      <c r="B40" s="27"/>
       <c r="C40" s="3" t="s">
         <v>43</v>
       </c>
@@ -2155,10 +2235,11 @@
       <c r="G40" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
+      <c r="K40" s="25"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="27"/>
+      <c r="B41" s="27"/>
       <c r="C41" s="3" t="s">
         <v>44</v>
       </c>
@@ -2174,12 +2255,13 @@
       <c r="G41" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="13">
-        <v>10</v>
-      </c>
-      <c r="B42" s="13" t="s">
+      <c r="K41" s="26"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="27">
+        <v>10</v>
+      </c>
+      <c r="B42" s="27" t="s">
         <v>49</v>
       </c>
       <c r="C42" s="3" t="s">
@@ -2197,10 +2279,13 @@
       <c r="G42" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13"/>
+      <c r="K42" s="33">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="27"/>
+      <c r="B43" s="27"/>
       <c r="C43" s="3" t="s">
         <v>29</v>
       </c>
@@ -2216,10 +2301,11 @@
       <c r="G43" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
+      <c r="K43" s="25"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="27"/>
+      <c r="B44" s="27"/>
       <c r="C44" s="3" t="s">
         <v>46</v>
       </c>
@@ -2235,17 +2321,18 @@
       <c r="G44" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="13"/>
-      <c r="B45" s="13"/>
+      <c r="K44" s="25"/>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="27"/>
+      <c r="B45" s="27"/>
       <c r="C45" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="26">
+      <c r="E45" s="19">
         <v>30</v>
       </c>
       <c r="F45" s="3" t="s">
@@ -2254,17 +2341,18 @@
       <c r="G45" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="13"/>
-      <c r="B46" s="13"/>
+      <c r="K45" s="25"/>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="27"/>
+      <c r="B46" s="27"/>
       <c r="C46" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E46" s="26">
+      <c r="E46" s="19">
         <v>40</v>
       </c>
       <c r="F46" s="3" t="s">
@@ -2273,12 +2361,13 @@
       <c r="G46" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="13">
+      <c r="K46" s="26"/>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="27">
         <v>11</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="27" t="s">
         <v>52</v>
       </c>
       <c r="C47" s="3" t="s">
@@ -2296,10 +2385,13 @@
       <c r="G47" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="13"/>
-      <c r="B48" s="13"/>
+      <c r="K47" s="33">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="27"/>
+      <c r="B48" s="27"/>
       <c r="C48" s="3" t="s">
         <v>51</v>
       </c>
@@ -2315,12 +2407,13 @@
       <c r="G48" s="5">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="13">
+      <c r="K48" s="26"/>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="27">
         <v>12</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="27" t="s">
         <v>56</v>
       </c>
       <c r="C49" s="3" t="s">
@@ -2338,10 +2431,13 @@
       <c r="G49" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="13"/>
-      <c r="B50" s="13"/>
+      <c r="K49" s="33">
+        <v>45539</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="27"/>
+      <c r="B50" s="27"/>
       <c r="C50" s="3" t="s">
         <v>53</v>
       </c>
@@ -2357,10 +2453,11 @@
       <c r="G50" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="13"/>
-      <c r="B51" s="13"/>
+      <c r="K50" s="25"/>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="27"/>
+      <c r="B51" s="27"/>
       <c r="C51" s="3" t="s">
         <v>54</v>
       </c>
@@ -2376,10 +2473,11 @@
       <c r="G51" s="3">
         <v>40</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="13"/>
-      <c r="B52" s="13"/>
+      <c r="K51" s="25"/>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="27"/>
+      <c r="B52" s="27"/>
       <c r="C52" s="3" t="s">
         <v>55</v>
       </c>
@@ -2395,12 +2493,13 @@
       <c r="G52" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="13">
+      <c r="K52" s="26"/>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="27">
         <v>13</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="27" t="s">
         <v>58</v>
       </c>
       <c r="C53" s="3" t="s">
@@ -2418,10 +2517,13 @@
       <c r="G53" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="13"/>
-      <c r="B54" s="13"/>
+      <c r="K53" s="33">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="27"/>
+      <c r="B54" s="27"/>
       <c r="C54" s="3" t="s">
         <v>57</v>
       </c>
@@ -2437,12 +2539,13 @@
       <c r="G54" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="13">
+      <c r="K54" s="26"/>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="27">
         <v>14</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="27" t="s">
         <v>59</v>
       </c>
       <c r="C55" s="3" t="s">
@@ -2460,10 +2563,13 @@
       <c r="G55" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="13"/>
-      <c r="B56" s="13"/>
+      <c r="K55" s="33">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="27"/>
+      <c r="B56" s="27"/>
       <c r="C56" s="3" t="s">
         <v>29</v>
       </c>
@@ -2479,10 +2585,11 @@
       <c r="G56" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="13"/>
-      <c r="B57" s="13"/>
+      <c r="K56" s="25"/>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="27"/>
+      <c r="B57" s="27"/>
       <c r="C57" s="3" t="s">
         <v>30</v>
       </c>
@@ -2498,12 +2605,13 @@
       <c r="G57" s="3">
         <v>5000</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="13">
+      <c r="K57" s="26"/>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="27">
         <v>15</v>
       </c>
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="27" t="s">
         <v>61</v>
       </c>
       <c r="C58" s="3" t="s">
@@ -2521,10 +2629,13 @@
       <c r="G58" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="13"/>
-      <c r="B59" s="13"/>
+      <c r="K58" s="33">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="27"/>
+      <c r="B59" s="27"/>
       <c r="C59" s="3" t="s">
         <v>60</v>
       </c>
@@ -2540,9 +2651,10 @@
       <c r="G59" s="5">
         <v>30</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="8">
+      <c r="K59" s="26"/>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="13">
         <v>16</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -2563,9 +2675,12 @@
       <c r="G60" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="8">
+      <c r="K60" s="34">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="13">
         <v>17</v>
       </c>
       <c r="B61" s="2" t="s">
@@ -2586,12 +2701,15 @@
       <c r="G61" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="13">
+      <c r="K61" s="34">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="27">
         <v>18</v>
       </c>
-      <c r="B62" s="13" t="s">
+      <c r="B62" s="27" t="s">
         <v>65</v>
       </c>
       <c r="C62" s="3" t="s">
@@ -2609,10 +2727,13 @@
       <c r="G62" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="13"/>
-      <c r="B63" s="13"/>
+      <c r="K62" s="33">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="27"/>
+      <c r="B63" s="27"/>
       <c r="C63" s="3" t="s">
         <v>64</v>
       </c>
@@ -2628,9 +2749,10 @@
       <c r="G63" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="8">
+      <c r="K63" s="26"/>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="13">
         <v>19</v>
       </c>
       <c r="B64" s="2" t="s">
@@ -2651,12 +2773,15 @@
       <c r="G64" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="13">
-        <v>20</v>
-      </c>
-      <c r="B65" s="13" t="s">
+      <c r="K64" s="35">
+        <v>45544</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="27">
+        <v>20</v>
+      </c>
+      <c r="B65" s="27" t="s">
         <v>69</v>
       </c>
       <c r="C65" s="3" t="s">
@@ -2674,10 +2799,13 @@
       <c r="G65" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="13"/>
-      <c r="B66" s="13"/>
+      <c r="K65" s="33">
+        <v>45544</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="27"/>
+      <c r="B66" s="27"/>
       <c r="C66" s="3" t="s">
         <v>8</v>
       </c>
@@ -2693,10 +2821,11 @@
       <c r="G66" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="13"/>
-      <c r="B67" s="13"/>
+      <c r="K66" s="25"/>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="27"/>
+      <c r="B67" s="27"/>
       <c r="C67" s="3" t="s">
         <v>67</v>
       </c>
@@ -2707,13 +2836,14 @@
         <v>21</v>
       </c>
       <c r="G67" s="5"/>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="13">
+      <c r="K67" s="26"/>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="27">
         <v>21</v>
       </c>
-      <c r="B68" s="13" t="s">
-        <v>75</v>
+      <c r="B68" s="27" t="s">
+        <v>85</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>41</v>
@@ -2730,10 +2860,13 @@
       <c r="G68" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="13"/>
-      <c r="B69" s="13"/>
+      <c r="K68" s="33">
+        <v>45544</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="27"/>
+      <c r="B69" s="27"/>
       <c r="C69" s="3" t="s">
         <v>70</v>
       </c>
@@ -2744,10 +2877,11 @@
         <v>21</v>
       </c>
       <c r="G69" s="5"/>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="13"/>
-      <c r="B70" s="13"/>
+      <c r="K69" s="25"/>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="27"/>
+      <c r="B70" s="27"/>
       <c r="C70" s="3" t="s">
         <v>71</v>
       </c>
@@ -2760,10 +2894,11 @@
       <c r="F70" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="13"/>
-      <c r="B71" s="13"/>
+      <c r="K70" s="25"/>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="27"/>
+      <c r="B71" s="27"/>
       <c r="C71" s="3" t="s">
         <v>73</v>
       </c>
@@ -2779,17 +2914,18 @@
       <c r="G71" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="13"/>
-      <c r="B72" s="13"/>
+      <c r="K71" s="25"/>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="27"/>
+      <c r="B72" s="27"/>
       <c r="C72" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E72" s="26">
+      <c r="E72" s="19">
         <v>80</v>
       </c>
       <c r="F72" s="3" t="s">
@@ -2798,13 +2934,14 @@
       <c r="G72" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="13">
+      <c r="K72" s="26"/>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="27">
         <v>22</v>
       </c>
-      <c r="B73" s="13" t="s">
-        <v>77</v>
+      <c r="B73" s="27" t="s">
+        <v>76</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>50</v>
@@ -2821,12 +2958,15 @@
       <c r="G73" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="13"/>
-      <c r="B74" s="13"/>
+      <c r="K73" s="33">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="27"/>
+      <c r="B74" s="27"/>
       <c r="C74" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>10</v>
@@ -2840,16 +2980,17 @@
       <c r="G74" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="13">
+      <c r="K74" s="26"/>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="27">
         <v>23</v>
       </c>
-      <c r="B75" s="13" t="s">
-        <v>80</v>
+      <c r="B75" s="27" t="s">
+        <v>79</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>7</v>
@@ -2863,12 +3004,15 @@
       <c r="G75" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="13"/>
-      <c r="B76" s="13"/>
+      <c r="K75" s="33">
+        <v>45544</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="27"/>
+      <c r="B76" s="27"/>
       <c r="C76" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>7</v>
@@ -2882,13 +3026,14 @@
       <c r="G76" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="8">
+      <c r="K76" s="26"/>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="13">
         <v>24</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>50</v>
@@ -2905,13 +3050,16 @@
       <c r="G77" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="13">
+      <c r="K77" s="35">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="27">
         <v>25</v>
       </c>
-      <c r="B78" s="13" t="s">
-        <v>85</v>
+      <c r="B78" s="27" t="s">
+        <v>84</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>41</v>
@@ -2928,12 +3076,15 @@
       <c r="G78" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="13"/>
-      <c r="B79" s="13"/>
+      <c r="K78" s="33">
+        <v>45553</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="27"/>
+      <c r="B79" s="27"/>
       <c r="C79" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>7</v>
@@ -2947,12 +3098,13 @@
       <c r="G79" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="13"/>
-      <c r="B80" s="13"/>
+      <c r="K79" s="25"/>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="27"/>
+      <c r="B80" s="27"/>
       <c r="C80" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>10</v>
@@ -2966,12 +3118,13 @@
       <c r="G80" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="81" spans="1:10">
-      <c r="A81" s="13"/>
-      <c r="B81" s="13"/>
+      <c r="K80" s="25"/>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="27"/>
+      <c r="B81" s="27"/>
       <c r="C81" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>7</v>
@@ -2985,9 +3138,10 @@
       <c r="G81" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="82" spans="1:10">
-      <c r="A82" s="8">
+      <c r="K81" s="26"/>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="13">
         <v>26</v>
       </c>
       <c r="B82" s="2" t="s">
@@ -3008,12 +3162,15 @@
       <c r="G82" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="83" spans="1:10">
-      <c r="A83" s="13">
+      <c r="K82" s="35">
+        <v>45553</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" s="27">
         <v>27</v>
       </c>
-      <c r="B83" s="13" t="s">
+      <c r="B83" s="27" t="s">
         <v>69</v>
       </c>
       <c r="C83" s="3" t="s">
@@ -3031,10 +3188,13 @@
       <c r="G83" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="84" spans="1:10">
-      <c r="A84" s="13"/>
-      <c r="B84" s="13"/>
+      <c r="K83" s="33">
+        <v>45544</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="27"/>
+      <c r="B84" s="27"/>
       <c r="C84" s="3" t="s">
         <v>8</v>
       </c>
@@ -3050,10 +3210,11 @@
       <c r="G84" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="85" spans="1:10">
-      <c r="A85" s="13"/>
-      <c r="B85" s="13"/>
+      <c r="K84" s="25"/>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="27"/>
+      <c r="B85" s="27"/>
       <c r="C85" s="3" t="s">
         <v>67</v>
       </c>
@@ -3064,13 +3225,14 @@
         <v>21</v>
       </c>
       <c r="G85" s="5"/>
-    </row>
-    <row r="86" spans="1:10">
-      <c r="A86" s="13">
+      <c r="K85" s="26"/>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="27">
         <v>28</v>
       </c>
-      <c r="B86" s="13" t="s">
-        <v>86</v>
+      <c r="B86" s="27" t="s">
+        <v>85</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>41</v>
@@ -3087,10 +3249,13 @@
       <c r="G86" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="87" spans="1:10">
-      <c r="A87" s="13"/>
-      <c r="B87" s="13"/>
+      <c r="K86" s="33">
+        <v>45544</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="27"/>
+      <c r="B87" s="27"/>
       <c r="C87" s="3" t="s">
         <v>70</v>
       </c>
@@ -3101,10 +3266,11 @@
         <v>21</v>
       </c>
       <c r="G87" s="5"/>
-    </row>
-    <row r="88" spans="1:10">
-      <c r="A88" s="13"/>
-      <c r="B88" s="13"/>
+      <c r="K87" s="25"/>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="27"/>
+      <c r="B88" s="27"/>
       <c r="C88" s="3" t="s">
         <v>71</v>
       </c>
@@ -3117,10 +3283,11 @@
       <c r="F88" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="89" spans="1:10">
-      <c r="A89" s="13"/>
-      <c r="B89" s="13"/>
+      <c r="K88" s="25"/>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" s="27"/>
+      <c r="B89" s="27"/>
       <c r="C89" s="3" t="s">
         <v>73</v>
       </c>
@@ -3136,17 +3303,18 @@
       <c r="G89" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="90" spans="1:10">
-      <c r="A90" s="13"/>
-      <c r="B90" s="13"/>
+      <c r="K89" s="25"/>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" s="27"/>
+      <c r="B90" s="27"/>
       <c r="C90" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E90" s="26">
+      <c r="E90" s="19">
         <v>80</v>
       </c>
       <c r="F90" s="3" t="s">
@@ -3155,16 +3323,17 @@
       <c r="G90" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="91" spans="1:10">
-      <c r="A91" s="13">
+      <c r="K90" s="26"/>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" s="27">
         <v>29</v>
       </c>
-      <c r="B91" s="13" t="s">
-        <v>80</v>
+      <c r="B91" s="27" t="s">
+        <v>79</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>7</v>
@@ -3178,12 +3347,15 @@
       <c r="G91" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="1:10">
-      <c r="A92" s="13"/>
-      <c r="B92" s="13"/>
+      <c r="K91" s="33">
+        <v>45544</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" s="27"/>
+      <c r="B92" s="27"/>
       <c r="C92" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>7</v>
@@ -3197,35 +3369,39 @@
       <c r="G92" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="93" spans="1:10">
-      <c r="A93" s="13">
+      <c r="K92" s="26"/>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" s="27">
         <v>30</v>
       </c>
-      <c r="B93" s="13" t="s">
-        <v>93</v>
+      <c r="B93" s="27" t="s">
+        <v>92</v>
       </c>
       <c r="C93" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" s="5">
+        <v>50</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G93" s="3">
+        <v>20</v>
+      </c>
+      <c r="K93" s="33">
+        <v>45544</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" s="27"/>
+      <c r="B94" s="27"/>
+      <c r="C94" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E93" s="5">
-        <v>50</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G93" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10">
-      <c r="A94" s="13"/>
-      <c r="B94" s="13"/>
-      <c r="C94" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>7</v>
@@ -3239,31 +3415,33 @@
       <c r="G94" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="95" spans="1:10">
-      <c r="A95" s="13"/>
-      <c r="B95" s="13"/>
+      <c r="K94" s="25"/>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" s="27"/>
+      <c r="B95" s="27"/>
       <c r="C95" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D95" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="E95" s="5">
         <v>90</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G95" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="96" spans="1:10">
-      <c r="A96" s="13"/>
-      <c r="B96" s="13"/>
+      <c r="K95" s="25"/>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" s="27"/>
+      <c r="B96" s="27"/>
       <c r="C96" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>7</v>
@@ -3278,15 +3456,16 @@
         <v>5</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10">
-      <c r="A97" s="13">
+        <v>91</v>
+      </c>
+      <c r="K96" s="26"/>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" s="27">
         <v>31</v>
       </c>
-      <c r="B97" s="13" t="s">
-        <v>100</v>
+      <c r="B97" s="27" t="s">
+        <v>99</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>50</v>
@@ -3303,12 +3482,15 @@
       <c r="G97" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="98" spans="1:10">
-      <c r="A98" s="13"/>
-      <c r="B98" s="13"/>
+      <c r="K97" s="33">
+        <v>45544</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" s="27"/>
+      <c r="B98" s="27"/>
       <c r="C98" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>7</v>
@@ -3323,14 +3505,15 @@
         <v>30</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10">
-      <c r="A99" s="13"/>
-      <c r="B99" s="13"/>
+        <v>96</v>
+      </c>
+      <c r="K98" s="25"/>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" s="27"/>
+      <c r="B99" s="27"/>
       <c r="C99" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>7</v>
@@ -3345,19 +3528,20 @@
         <v>40</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10">
-      <c r="A100" s="13"/>
-      <c r="B100" s="13"/>
+        <v>97</v>
+      </c>
+      <c r="K99" s="25"/>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" s="27"/>
+      <c r="B100" s="27"/>
       <c r="C100" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E100" s="26">
+      <c r="E100" s="19">
         <v>10</v>
       </c>
       <c r="F100" s="3" t="s">
@@ -3367,60 +3551,65 @@
         <v>5</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10">
-      <c r="A101" s="13">
+        <v>98</v>
+      </c>
+      <c r="K100" s="26"/>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" s="27">
         <v>32</v>
       </c>
-      <c r="B101" s="13" t="s">
+      <c r="B101" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E101" s="5">
+        <v>50</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G101" s="3">
+        <v>20</v>
+      </c>
+      <c r="K101" s="33">
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" s="27"/>
+      <c r="B102" s="27"/>
+      <c r="C102" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E102" s="5">
+        <v>50</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G102" s="3">
+        <v>20</v>
+      </c>
+      <c r="K102" s="26"/>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" s="27">
+        <v>33</v>
+      </c>
+      <c r="B103" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="C101" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E101" s="5">
-        <v>50</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G101" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10">
-      <c r="A102" s="13"/>
-      <c r="B102" s="13"/>
-      <c r="C102" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E102" s="5">
-        <v>50</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G102" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10">
-      <c r="A103" s="13">
-        <v>33</v>
-      </c>
-      <c r="B103" s="13" t="s">
-        <v>103</v>
-      </c>
       <c r="C103" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>7</v>
@@ -3434,12 +3623,15 @@
       <c r="G103" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="104" spans="1:10">
-      <c r="A104" s="13"/>
-      <c r="B104" s="13"/>
+      <c r="K103" s="33">
+        <v>45544</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" s="27"/>
+      <c r="B104" s="27"/>
       <c r="C104" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>7</v>
@@ -3453,10 +3645,11 @@
       <c r="G104" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="105" spans="1:10">
-      <c r="A105" s="13"/>
-      <c r="B105" s="13"/>
+      <c r="K104" s="25"/>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" s="27"/>
+      <c r="B105" s="27"/>
       <c r="C105" s="3" t="s">
         <v>71</v>
       </c>
@@ -3469,13 +3662,14 @@
       <c r="F105" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="106" spans="1:10">
-      <c r="A106" s="8">
+      <c r="K105" s="26"/>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" s="13">
         <v>34</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>41</v>
@@ -3492,16 +3686,19 @@
       <c r="G106" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="107" spans="1:10">
-      <c r="A107" s="8">
+      <c r="K106" s="35">
+        <v>45544</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" s="13">
         <v>35</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>10</v>
@@ -3515,16 +3712,19 @@
       <c r="G107" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="108" spans="1:10">
-      <c r="A108" s="8">
+      <c r="K107" s="35">
+        <v>45545</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" s="13">
         <v>36</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>10</v>
@@ -3538,16 +3738,19 @@
       <c r="G108" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="109" spans="1:10">
-      <c r="A109" s="13">
+      <c r="K108" s="35">
+        <v>45545</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" s="27">
         <v>37</v>
       </c>
-      <c r="B109" s="13" t="s">
-        <v>113</v>
+      <c r="B109" s="27" t="s">
+        <v>112</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>10</v>
@@ -3561,12 +3764,15 @@
       <c r="G109" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="110" spans="1:10">
-      <c r="A110" s="13"/>
-      <c r="B110" s="13"/>
+      <c r="K109" s="33">
+        <v>45545</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" s="27"/>
+      <c r="B110" s="27"/>
       <c r="C110" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>10</v>
@@ -3580,12 +3786,13 @@
       <c r="G110" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="111" spans="1:10">
-      <c r="A111" s="13"/>
-      <c r="B111" s="13"/>
+      <c r="K110" s="25"/>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" s="27"/>
+      <c r="B111" s="27"/>
       <c r="C111" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>10</v>
@@ -3599,17 +3806,18 @@
       <c r="G111" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="112" spans="1:10">
-      <c r="A112" s="13"/>
-      <c r="B112" s="13"/>
+      <c r="K111" s="25"/>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" s="27"/>
+      <c r="B112" s="27"/>
       <c r="C112" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E112" s="26">
+      <c r="E112" s="19">
         <v>50</v>
       </c>
       <c r="F112" s="3" t="s">
@@ -3618,17 +3826,18 @@
       <c r="G112" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="113" spans="1:7">
-      <c r="A113" s="13"/>
-      <c r="B113" s="13"/>
+      <c r="K112" s="25"/>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113" s="27"/>
+      <c r="B113" s="27"/>
       <c r="C113" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E113" s="26">
+      <c r="E113" s="19">
         <v>200</v>
       </c>
       <c r="F113" s="3" t="s">
@@ -3637,13 +3846,14 @@
       <c r="G113" s="6">
         <v>50</v>
       </c>
-    </row>
-    <row r="114" spans="1:7">
-      <c r="A114" s="8">
+      <c r="K113" s="26"/>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114" s="13">
         <v>38</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>41</v>
@@ -3660,13 +3870,16 @@
       <c r="G114" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="115" spans="1:7">
-      <c r="A115" s="8">
+      <c r="K114" s="35">
+        <v>45545</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" s="13">
         <v>39</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>41</v>
@@ -3683,13 +3896,16 @@
       <c r="G115" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="116" spans="1:7">
-      <c r="A116" s="13">
+      <c r="K115" s="35">
+        <v>45545</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116" s="27">
         <v>40</v>
       </c>
-      <c r="B116" s="13" t="s">
-        <v>120</v>
+      <c r="B116" s="27" t="s">
+        <v>119</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>41</v>
@@ -3706,12 +3922,15 @@
       <c r="G116" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="117" spans="1:7">
-      <c r="A117" s="13"/>
-      <c r="B117" s="13"/>
+      <c r="K116" s="33">
+        <v>45545</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117" s="27"/>
+      <c r="B117" s="27"/>
       <c r="C117" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>7</v>
@@ -3725,12 +3944,13 @@
       <c r="G117" s="5">
         <v>30</v>
       </c>
-    </row>
-    <row r="118" spans="1:7">
-      <c r="A118" s="13"/>
-      <c r="B118" s="13"/>
+      <c r="K117" s="25"/>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118" s="27"/>
+      <c r="B118" s="27"/>
       <c r="C118" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>10</v>
@@ -3744,26 +3964,28 @@
       <c r="G118" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="119" spans="1:7">
-      <c r="A119" s="13"/>
-      <c r="B119" s="13"/>
+      <c r="K118" s="25"/>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119" s="27"/>
+      <c r="B119" s="27"/>
       <c r="C119" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D119" s="6" t="s">
         <v>68</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
-      <c r="A120" s="14">
+        <v>118</v>
+      </c>
+      <c r="K119" s="26"/>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120" s="24">
         <v>41</v>
       </c>
-      <c r="B120" s="13" t="s">
-        <v>123</v>
+      <c r="B120" s="27" t="s">
+        <v>122</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>41</v>
@@ -3780,31 +4002,35 @@
       <c r="G120" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="121" spans="1:7">
-      <c r="A121" s="15"/>
-      <c r="B121" s="13"/>
+      <c r="K120" s="24" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121" s="25"/>
+      <c r="B121" s="27"/>
       <c r="C121" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E121" s="5">
+        <v>50</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G121" s="5">
+        <v>10</v>
+      </c>
+      <c r="K121" s="25"/>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122" s="26"/>
+      <c r="B122" s="27"/>
+      <c r="C122" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E121" s="5">
-        <v>50</v>
-      </c>
-      <c r="F121" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G121" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
-      <c r="A122" s="16"/>
-      <c r="B122" s="13"/>
-      <c r="C122" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>10</v>
@@ -3818,13 +4044,14 @@
       <c r="G122" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="123" spans="1:7">
-      <c r="A123" s="14">
+      <c r="K122" s="26"/>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" s="24">
         <v>42</v>
       </c>
-      <c r="B123" s="13" t="s">
-        <v>125</v>
+      <c r="B123" s="27" t="s">
+        <v>124</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>41</v>
@@ -3841,12 +4068,15 @@
       <c r="G123" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="124" spans="1:7">
-      <c r="A124" s="15"/>
-      <c r="B124" s="13"/>
+      <c r="K123" s="33">
+        <v>45545</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124" s="25"/>
+      <c r="B124" s="27"/>
       <c r="C124" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>7</v>
@@ -3860,12 +4090,13 @@
       <c r="G124" s="5">
         <v>50</v>
       </c>
-    </row>
-    <row r="125" spans="1:7">
-      <c r="A125" s="16"/>
-      <c r="B125" s="13"/>
+      <c r="K124" s="25"/>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125" s="26"/>
+      <c r="B125" s="27"/>
       <c r="C125" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>10</v>
@@ -3879,13 +4110,14 @@
       <c r="G125" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="126" spans="1:7">
-      <c r="A126" s="14">
+      <c r="K125" s="26"/>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126" s="24">
         <v>43</v>
       </c>
-      <c r="B126" s="13" t="s">
-        <v>128</v>
+      <c r="B126" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>41</v>
@@ -3902,12 +4134,15 @@
       <c r="G126" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="127" spans="1:7">
-      <c r="A127" s="15"/>
-      <c r="B127" s="13"/>
+      <c r="K126" s="33">
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127" s="25"/>
+      <c r="B127" s="27"/>
       <c r="C127" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>10</v>
@@ -3921,12 +4156,13 @@
       <c r="G127" s="5">
         <v>60</v>
       </c>
-    </row>
-    <row r="128" spans="1:7">
-      <c r="A128" s="16"/>
-      <c r="B128" s="13"/>
+      <c r="K127" s="25"/>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128" s="26"/>
+      <c r="B128" s="27"/>
       <c r="C128" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>7</v>
@@ -3940,13 +4176,14 @@
       <c r="G128" s="3">
         <v>60</v>
       </c>
-    </row>
-    <row r="129" spans="1:10">
-      <c r="A129" s="14">
+      <c r="K128" s="26"/>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129" s="24">
         <v>44</v>
       </c>
-      <c r="B129" s="13" t="s">
-        <v>130</v>
+      <c r="B129" s="27" t="s">
+        <v>129</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>41</v>
@@ -3963,12 +4200,15 @@
       <c r="G129" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="130" spans="1:10">
-      <c r="A130" s="15"/>
-      <c r="B130" s="13"/>
+      <c r="K129" s="33">
+        <v>45545</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="25"/>
+      <c r="B130" s="27"/>
       <c r="C130" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>10</v>
@@ -3982,12 +4222,13 @@
       <c r="G130" s="5">
         <v>50</v>
       </c>
-    </row>
-    <row r="131" spans="1:10">
-      <c r="A131" s="16"/>
-      <c r="B131" s="13"/>
+      <c r="K130" s="25"/>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="26"/>
+      <c r="B131" s="27"/>
       <c r="C131" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>7</v>
@@ -4001,13 +4242,14 @@
       <c r="G131" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="132" spans="1:10">
-      <c r="A132" s="8">
+      <c r="K131" s="26"/>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132" s="13">
         <v>45</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>6</v>
@@ -4024,13 +4266,16 @@
       <c r="G132" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="133" spans="1:10">
-      <c r="A133" s="14">
+      <c r="K132" s="34">
+        <v>45545</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133" s="24">
         <v>46</v>
       </c>
-      <c r="B133" s="13" t="s">
-        <v>134</v>
+      <c r="B133" s="27" t="s">
+        <v>133</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>41</v>
@@ -4047,12 +4292,15 @@
       <c r="G133" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="134" spans="1:10">
-      <c r="A134" s="15"/>
-      <c r="B134" s="13"/>
+      <c r="K133" s="33">
+        <v>45545</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134" s="25"/>
+      <c r="B134" s="27"/>
       <c r="C134" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>10</v>
@@ -4066,12 +4314,13 @@
       <c r="G134" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="135" spans="1:10">
-      <c r="A135" s="16"/>
-      <c r="B135" s="13"/>
+      <c r="K134" s="25"/>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135" s="26"/>
+      <c r="B135" s="27"/>
       <c r="C135" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>7</v>
@@ -4085,13 +4334,14 @@
       <c r="G135" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="136" spans="1:10">
-      <c r="A136" s="14">
+      <c r="K135" s="26"/>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136" s="24">
         <v>47</v>
       </c>
-      <c r="B136" s="13" t="s">
-        <v>136</v>
+      <c r="B136" s="27" t="s">
+        <v>135</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>6</v>
@@ -4108,10 +4358,13 @@
       <c r="G136" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="137" spans="1:10">
-      <c r="A137" s="15"/>
-      <c r="B137" s="13"/>
+      <c r="K136" s="33">
+        <v>45545</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137" s="25"/>
+      <c r="B137" s="27"/>
       <c r="C137" s="3" t="s">
         <v>8</v>
       </c>
@@ -4128,12 +4381,13 @@
         <v>20</v>
       </c>
       <c r="I137" s="4"/>
-    </row>
-    <row r="138" spans="1:10">
-      <c r="A138" s="16"/>
-      <c r="B138" s="13"/>
+      <c r="K137" s="25"/>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138" s="26"/>
+      <c r="B138" s="27"/>
       <c r="C138" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>7</v>
@@ -4145,16 +4399,17 @@
         <v>21</v>
       </c>
       <c r="I138" s="4"/>
-    </row>
-    <row r="139" spans="1:10">
-      <c r="A139" s="14">
+      <c r="K138" s="26"/>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139" s="24">
         <v>48</v>
       </c>
-      <c r="B139" s="13" t="s">
-        <v>142</v>
+      <c r="B139" s="27" t="s">
+        <v>141</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>7</v>
@@ -4169,12 +4424,15 @@
         <v>50</v>
       </c>
       <c r="I139" s="4"/>
-    </row>
-    <row r="140" spans="1:10">
-      <c r="A140" s="15"/>
-      <c r="B140" s="13"/>
+      <c r="K139" s="33">
+        <v>45545</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140" s="25"/>
+      <c r="B140" s="27"/>
       <c r="C140" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>10</v>
@@ -4190,14 +4448,15 @@
       </c>
       <c r="I140" s="4"/>
       <c r="J140" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K140" s="25"/>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141" s="25"/>
+      <c r="B141" s="27"/>
+      <c r="C141" s="3" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10">
-      <c r="A141" s="15"/>
-      <c r="B141" s="13"/>
-      <c r="C141" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>10</v>
@@ -4212,12 +4471,13 @@
         <v>50</v>
       </c>
       <c r="I141" s="4"/>
-    </row>
-    <row r="142" spans="1:10">
-      <c r="A142" s="16"/>
-      <c r="B142" s="13"/>
+      <c r="K141" s="25"/>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142" s="26"/>
+      <c r="B142" s="27"/>
       <c r="C142" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D142" s="6" t="s">
         <v>68</v>
@@ -4226,16 +4486,17 @@
         <v>21</v>
       </c>
       <c r="I142" s="4"/>
-    </row>
-    <row r="143" spans="1:10">
-      <c r="A143" s="14">
+      <c r="K142" s="26"/>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143" s="24">
         <v>49</v>
       </c>
-      <c r="B143" s="13" t="s">
-        <v>147</v>
+      <c r="B143" s="27" t="s">
+        <v>146</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D143" s="3" t="s">
         <v>7</v>
@@ -4249,12 +4510,15 @@
       <c r="G143" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="144" spans="1:10">
-      <c r="A144" s="15"/>
-      <c r="B144" s="13"/>
+      <c r="K143" s="33">
+        <v>45545</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144" s="25"/>
+      <c r="B144" s="27"/>
       <c r="C144" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>7</v>
@@ -4268,12 +4532,13 @@
       <c r="G144" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="145" spans="1:7">
-      <c r="A145" s="15"/>
-      <c r="B145" s="13"/>
+      <c r="K144" s="25"/>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145" s="25"/>
+      <c r="B145" s="27"/>
       <c r="C145" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>10</v>
@@ -4287,12 +4552,13 @@
       <c r="G145" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="146" spans="1:7">
-      <c r="A146" s="16"/>
-      <c r="B146" s="13"/>
+      <c r="K145" s="25"/>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146" s="26"/>
+      <c r="B146" s="27"/>
       <c r="C146" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>7</v>
@@ -4306,16 +4572,17 @@
       <c r="G146" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="147" spans="1:7">
-      <c r="A147" s="14">
-        <v>50</v>
-      </c>
-      <c r="B147" s="13" t="s">
-        <v>150</v>
+      <c r="K146" s="26"/>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147" s="24">
+        <v>50</v>
+      </c>
+      <c r="B147" s="27" t="s">
+        <v>149</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>10</v>
@@ -4329,12 +4596,15 @@
       <c r="G147" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="148" spans="1:7">
-      <c r="A148" s="16"/>
-      <c r="B148" s="13"/>
+      <c r="K147" s="33">
+        <v>45545</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148" s="26"/>
+      <c r="B148" s="27"/>
       <c r="C148" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>10</v>
@@ -4348,13 +4618,14 @@
       <c r="G148" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="149" spans="1:7">
-      <c r="A149" s="14">
+      <c r="K148" s="26"/>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149" s="24">
         <v>51</v>
       </c>
-      <c r="B149" s="13" t="s">
-        <v>154</v>
+      <c r="B149" s="27" t="s">
+        <v>153</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>41</v>
@@ -4371,12 +4642,15 @@
       <c r="G149" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="150" spans="1:7">
-      <c r="A150" s="15"/>
-      <c r="B150" s="13"/>
+      <c r="K149" s="33">
+        <v>45545</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150" s="25"/>
+      <c r="B150" s="27"/>
       <c r="C150" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>7</v>
@@ -4390,12 +4664,13 @@
       <c r="G150" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="151" spans="1:7">
-      <c r="A151" s="15"/>
-      <c r="B151" s="13"/>
+      <c r="K150" s="25"/>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151" s="25"/>
+      <c r="B151" s="27"/>
       <c r="C151" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>10</v>
@@ -4409,12 +4684,13 @@
       <c r="G151" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="152" spans="1:7">
-      <c r="A152" s="16"/>
-      <c r="B152" s="13"/>
+      <c r="K151" s="25"/>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152" s="26"/>
+      <c r="B152" s="27"/>
       <c r="C152" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>68</v>
@@ -4422,39 +4698,43 @@
       <c r="F152" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="153" spans="1:7">
-      <c r="A153" s="10">
+      <c r="K152" s="26"/>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153" s="13">
         <v>52</v>
       </c>
       <c r="B153" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E153" s="5">
+        <v>50</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G153" s="3">
+        <v>20</v>
+      </c>
+      <c r="K153" s="35">
+        <v>45545</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154" s="24">
+        <v>53</v>
+      </c>
+      <c r="B154" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="C154" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="C153" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D153" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E153" s="5">
-        <v>50</v>
-      </c>
-      <c r="F153" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G153" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7">
-      <c r="A154" s="14">
-        <v>53</v>
-      </c>
-      <c r="B154" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="D154" s="3" t="s">
         <v>7</v>
@@ -4468,10 +4748,13 @@
       <c r="G154" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="155" spans="1:7">
-      <c r="A155" s="16"/>
-      <c r="B155" s="13"/>
+      <c r="K154" s="33">
+        <v>45545</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155" s="26"/>
+      <c r="B155" s="27"/>
       <c r="C155" s="3" t="s">
         <v>50</v>
       </c>
@@ -4487,13 +4770,14 @@
       <c r="G155" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="156" spans="1:7">
-      <c r="A156" s="14">
+      <c r="K155" s="26"/>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156" s="24">
         <v>54</v>
       </c>
-      <c r="B156" s="13" t="s">
-        <v>156</v>
+      <c r="B156" s="27" t="s">
+        <v>155</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>50</v>
@@ -4510,12 +4794,15 @@
       <c r="G156" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="157" spans="1:7">
-      <c r="A157" s="16"/>
-      <c r="B157" s="13"/>
+      <c r="K156" s="33">
+        <v>45545</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157" s="26"/>
+      <c r="B157" s="27"/>
       <c r="C157" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D157" s="3" t="s">
         <v>7</v>
@@ -4529,16 +4816,17 @@
       <c r="G157" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="158" spans="1:7">
-      <c r="A158" s="10">
+      <c r="K157" s="26"/>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158" s="13">
         <v>55</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D158" s="3" t="s">
         <v>7</v>
@@ -4552,13 +4840,16 @@
       <c r="G158" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="159" spans="1:7">
-      <c r="A159" s="14">
+      <c r="K158" s="35">
+        <v>45552</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159" s="24">
         <v>56</v>
       </c>
-      <c r="B159" s="13" t="s">
-        <v>161</v>
+      <c r="B159" s="27" t="s">
+        <v>160</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>6</v>
@@ -4575,12 +4866,15 @@
       <c r="G159" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="160" spans="1:7">
-      <c r="A160" s="16"/>
-      <c r="B160" s="13"/>
+      <c r="K159" s="33">
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160" s="26"/>
+      <c r="B160" s="27"/>
       <c r="C160" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D160" s="3" t="s">
         <v>7</v>
@@ -4594,13 +4888,14 @@
       <c r="G160" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="161" spans="1:7">
-      <c r="A161" s="14">
+      <c r="K160" s="26"/>
+    </row>
+    <row r="161" spans="1:11">
+      <c r="A161" s="24">
         <v>57</v>
       </c>
-      <c r="B161" s="13" t="s">
-        <v>163</v>
+      <c r="B161" s="27" t="s">
+        <v>162</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>41</v>
@@ -4617,12 +4912,15 @@
       <c r="G161" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="162" spans="1:7">
-      <c r="A162" s="16"/>
-      <c r="B162" s="13"/>
+      <c r="K161" s="33">
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162" s="26"/>
+      <c r="B162" s="27"/>
       <c r="C162" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>10</v>
@@ -4636,13 +4934,14 @@
       <c r="G162" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="163" spans="1:7">
-      <c r="A163" s="14">
+      <c r="K162" s="26"/>
+    </row>
+    <row r="163" spans="1:11">
+      <c r="A163" s="24">
         <v>58</v>
       </c>
-      <c r="B163" s="13" t="s">
-        <v>166</v>
+      <c r="B163" s="27" t="s">
+        <v>165</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>6</v>
@@ -4659,12 +4958,15 @@
       <c r="G163" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="164" spans="1:7">
-      <c r="A164" s="15"/>
-      <c r="B164" s="13"/>
+      <c r="K163" s="33">
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
+      <c r="A164" s="25"/>
+      <c r="B164" s="27"/>
       <c r="C164" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D164" s="3" t="s">
         <v>10</v>
@@ -4678,26 +4980,28 @@
       <c r="G164" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="165" spans="1:7">
-      <c r="A165" s="16"/>
-      <c r="B165" s="13"/>
+      <c r="K164" s="25"/>
+    </row>
+    <row r="165" spans="1:11">
+      <c r="A165" s="26"/>
+      <c r="B165" s="27"/>
       <c r="C165" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D165" s="3" t="s">
         <v>68</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7">
-      <c r="A166" s="14">
+        <v>118</v>
+      </c>
+      <c r="K165" s="26"/>
+    </row>
+    <row r="166" spans="1:11">
+      <c r="A166" s="24">
         <v>59</v>
       </c>
-      <c r="B166" s="13" t="s">
-        <v>170</v>
+      <c r="B166" s="27" t="s">
+        <v>169</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>50</v>
@@ -4714,12 +5018,15 @@
       <c r="G166" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="167" spans="1:7">
-      <c r="A167" s="15"/>
-      <c r="B167" s="13"/>
+      <c r="K166" s="33">
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
+      <c r="A167" s="25"/>
+      <c r="B167" s="27"/>
       <c r="C167" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>10</v>
@@ -4733,12 +5040,13 @@
       <c r="G167" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="168" spans="1:7">
-      <c r="A168" s="15"/>
-      <c r="B168" s="13"/>
+      <c r="K167" s="25"/>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="A168" s="25"/>
+      <c r="B168" s="27"/>
       <c r="C168" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D168" s="3" t="s">
         <v>10</v>
@@ -4752,12 +5060,13 @@
       <c r="G168" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="169" spans="1:7">
-      <c r="A169" s="16"/>
-      <c r="B169" s="13"/>
+      <c r="K168" s="25"/>
+    </row>
+    <row r="169" spans="1:11">
+      <c r="A169" s="26"/>
+      <c r="B169" s="27"/>
       <c r="C169" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D169" s="3" t="s">
         <v>10</v>
@@ -4771,13 +5080,14 @@
       <c r="G169" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="170" spans="1:7">
-      <c r="A170" s="14">
+      <c r="K169" s="26"/>
+    </row>
+    <row r="170" spans="1:11">
+      <c r="A170" s="24">
         <v>60</v>
       </c>
-      <c r="B170" s="13" t="s">
-        <v>171</v>
+      <c r="B170" s="27" t="s">
+        <v>170</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>41</v>
@@ -4794,10 +5104,13 @@
       <c r="G170" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="171" spans="1:7">
-      <c r="A171" s="16"/>
-      <c r="B171" s="13"/>
+      <c r="K170" s="33">
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
+      <c r="A171" s="26"/>
+      <c r="B171" s="27"/>
       <c r="C171" s="3" t="s">
         <v>71</v>
       </c>
@@ -4810,13 +5123,14 @@
       <c r="F171" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="172" spans="1:7">
-      <c r="A172" s="14">
+      <c r="K171" s="26"/>
+    </row>
+    <row r="172" spans="1:11">
+      <c r="A172" s="24">
         <v>61</v>
       </c>
-      <c r="B172" s="13" t="s">
-        <v>172</v>
+      <c r="B172" s="27" t="s">
+        <v>171</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>41</v>
@@ -4833,12 +5147,15 @@
       <c r="G172" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="173" spans="1:7">
-      <c r="A173" s="15"/>
-      <c r="B173" s="13"/>
+      <c r="K172" s="33">
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
+      <c r="A173" s="25"/>
+      <c r="B173" s="27"/>
       <c r="C173" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D173" s="3" t="s">
         <v>10</v>
@@ -4852,12 +5169,13 @@
       <c r="G173" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="174" spans="1:7">
-      <c r="A174" s="15"/>
-      <c r="B174" s="13"/>
+      <c r="K173" s="25"/>
+    </row>
+    <row r="174" spans="1:11">
+      <c r="A174" s="25"/>
+      <c r="B174" s="27"/>
       <c r="C174" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D174" s="3" t="s">
         <v>10</v>
@@ -4871,12 +5189,13 @@
       <c r="G174" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="175" spans="1:7">
-      <c r="A175" s="16"/>
-      <c r="B175" s="13"/>
+      <c r="K174" s="25"/>
+    </row>
+    <row r="175" spans="1:11">
+      <c r="A175" s="26"/>
+      <c r="B175" s="27"/>
       <c r="C175" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D175" s="3" t="s">
         <v>10</v>
@@ -4890,13 +5209,14 @@
       <c r="G175" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="176" spans="1:7">
-      <c r="A176" s="14">
+      <c r="K175" s="26"/>
+    </row>
+    <row r="176" spans="1:11">
+      <c r="A176" s="24">
         <v>62</v>
       </c>
-      <c r="B176" s="13" t="s">
-        <v>175</v>
+      <c r="B176" s="27" t="s">
+        <v>174</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>6</v>
@@ -4913,10 +5233,13 @@
       <c r="G176" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="177" spans="1:7">
-      <c r="A177" s="15"/>
-      <c r="B177" s="13"/>
+      <c r="K176" s="33">
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
+      <c r="A177" s="25"/>
+      <c r="B177" s="27"/>
       <c r="C177" s="3" t="s">
         <v>8</v>
       </c>
@@ -4932,12 +5255,13 @@
       <c r="G177" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="178" spans="1:7">
-      <c r="A178" s="16"/>
-      <c r="B178" s="13"/>
+      <c r="K177" s="25"/>
+    </row>
+    <row r="178" spans="1:11">
+      <c r="A178" s="26"/>
+      <c r="B178" s="27"/>
       <c r="C178" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D178" s="3" t="s">
         <v>7</v>
@@ -4951,16 +5275,17 @@
       <c r="G178" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="179" spans="1:7">
-      <c r="A179" s="14">
+      <c r="K178" s="26"/>
+    </row>
+    <row r="179" spans="1:11">
+      <c r="A179" s="24">
         <v>63</v>
       </c>
-      <c r="B179" s="20" t="s">
-        <v>188</v>
+      <c r="B179" s="28" t="s">
+        <v>187</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D179" s="3" t="s">
         <v>68</v>
@@ -4968,12 +5293,15 @@
       <c r="F179" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="180" spans="1:7">
-      <c r="A180" s="15"/>
-      <c r="B180" s="20"/>
+      <c r="K179" s="33">
+        <v>45551</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
+      <c r="A180" s="25"/>
+      <c r="B180" s="28"/>
       <c r="C180" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D180" s="3" t="s">
         <v>10</v>
@@ -4987,12 +5315,13 @@
       <c r="G180" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="181" spans="1:7">
-      <c r="A181" s="15"/>
-      <c r="B181" s="20"/>
+      <c r="K180" s="25"/>
+    </row>
+    <row r="181" spans="1:11">
+      <c r="A181" s="25"/>
+      <c r="B181" s="28"/>
       <c r="C181" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D181" s="3" t="s">
         <v>10</v>
@@ -5006,12 +5335,13 @@
       <c r="G181" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="182" spans="1:7">
-      <c r="A182" s="15"/>
-      <c r="B182" s="20"/>
+      <c r="K181" s="25"/>
+    </row>
+    <row r="182" spans="1:11">
+      <c r="A182" s="25"/>
+      <c r="B182" s="28"/>
       <c r="C182" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D182" s="3" t="s">
         <v>10</v>
@@ -5025,12 +5355,13 @@
       <c r="G182" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="183" spans="1:7">
-      <c r="A183" s="15"/>
-      <c r="B183" s="20"/>
+      <c r="K182" s="25"/>
+    </row>
+    <row r="183" spans="1:11">
+      <c r="A183" s="25"/>
+      <c r="B183" s="28"/>
       <c r="C183" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D183" s="3" t="s">
         <v>10</v>
@@ -5044,12 +5375,13 @@
       <c r="G183" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="184" spans="1:7">
-      <c r="A184" s="15"/>
-      <c r="B184" s="20"/>
+      <c r="K183" s="25"/>
+    </row>
+    <row r="184" spans="1:11">
+      <c r="A184" s="25"/>
+      <c r="B184" s="28"/>
       <c r="C184" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D184" s="3" t="s">
         <v>10</v>
@@ -5063,12 +5395,13 @@
       <c r="G184" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="185" spans="1:7">
-      <c r="A185" s="15"/>
-      <c r="B185" s="20"/>
+      <c r="K184" s="25"/>
+    </row>
+    <row r="185" spans="1:11">
+      <c r="A185" s="25"/>
+      <c r="B185" s="28"/>
       <c r="C185" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D185" s="3" t="s">
         <v>10</v>
@@ -5082,12 +5415,13 @@
       <c r="G185" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="186" spans="1:7">
-      <c r="A186" s="15"/>
-      <c r="B186" s="20"/>
+      <c r="K185" s="25"/>
+    </row>
+    <row r="186" spans="1:11">
+      <c r="A186" s="25"/>
+      <c r="B186" s="28"/>
       <c r="C186" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D186" s="3" t="s">
         <v>10</v>
@@ -5101,12 +5435,13 @@
       <c r="G186" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="187" spans="1:7">
-      <c r="A187" s="15"/>
-      <c r="B187" s="20"/>
+      <c r="K186" s="25"/>
+    </row>
+    <row r="187" spans="1:11">
+      <c r="A187" s="25"/>
+      <c r="B187" s="28"/>
       <c r="C187" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D187" s="3" t="s">
         <v>10</v>
@@ -5120,12 +5455,13 @@
       <c r="G187" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="188" spans="1:7">
-      <c r="A188" s="15"/>
-      <c r="B188" s="20"/>
+      <c r="K187" s="25"/>
+    </row>
+    <row r="188" spans="1:11">
+      <c r="A188" s="25"/>
+      <c r="B188" s="28"/>
       <c r="C188" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D188" s="3" t="s">
         <v>10</v>
@@ -5139,12 +5475,13 @@
       <c r="G188" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="189" spans="1:7">
-      <c r="A189" s="15"/>
-      <c r="B189" s="20"/>
+      <c r="K188" s="25"/>
+    </row>
+    <row r="189" spans="1:11">
+      <c r="A189" s="25"/>
+      <c r="B189" s="28"/>
       <c r="C189" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D189" s="3" t="s">
         <v>10</v>
@@ -5158,10 +5495,11 @@
       <c r="G189" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="190" spans="1:7">
-      <c r="A190" s="15"/>
-      <c r="B190" s="20"/>
+      <c r="K189" s="25"/>
+    </row>
+    <row r="190" spans="1:11">
+      <c r="A190" s="25"/>
+      <c r="B190" s="28"/>
       <c r="C190" s="3" t="s">
         <v>6</v>
       </c>
@@ -5177,10 +5515,11 @@
       <c r="G190" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="191" spans="1:7">
-      <c r="A191" s="15"/>
-      <c r="B191" s="20"/>
+      <c r="K190" s="25"/>
+    </row>
+    <row r="191" spans="1:11">
+      <c r="A191" s="25"/>
+      <c r="B191" s="28"/>
       <c r="C191" s="3" t="s">
         <v>8</v>
       </c>
@@ -5196,12 +5535,13 @@
       <c r="G191" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="192" spans="1:7">
-      <c r="A192" s="16"/>
-      <c r="B192" s="20"/>
+      <c r="K191" s="25"/>
+    </row>
+    <row r="192" spans="1:11">
+      <c r="A192" s="26"/>
+      <c r="B192" s="28"/>
       <c r="C192" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D192" s="3" t="s">
         <v>10</v>
@@ -5212,13 +5552,14 @@
       <c r="F192" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="193" spans="1:7">
-      <c r="A193" s="14">
+      <c r="K192" s="26"/>
+    </row>
+    <row r="193" spans="1:11">
+      <c r="A193" s="24">
         <v>64</v>
       </c>
-      <c r="B193" s="13" t="s">
-        <v>189</v>
+      <c r="B193" s="27" t="s">
+        <v>188</v>
       </c>
       <c r="C193" s="3" t="s">
         <v>6</v>
@@ -5235,10 +5576,13 @@
       <c r="G193" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="194" spans="1:7">
-      <c r="A194" s="15"/>
-      <c r="B194" s="13"/>
+      <c r="K193" s="33">
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
+      <c r="A194" s="25"/>
+      <c r="B194" s="27"/>
       <c r="C194" s="3" t="s">
         <v>8</v>
       </c>
@@ -5254,10 +5598,11 @@
       <c r="G194" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="195" spans="1:7">
-      <c r="A195" s="16"/>
-      <c r="B195" s="13"/>
+      <c r="K194" s="25"/>
+    </row>
+    <row r="195" spans="1:11">
+      <c r="A195" s="26"/>
+      <c r="B195" s="27"/>
       <c r="C195" s="3" t="s">
         <v>71</v>
       </c>
@@ -5270,13 +5615,14 @@
       <c r="F195" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="196" spans="1:7">
-      <c r="A196" s="14">
+      <c r="K195" s="26"/>
+    </row>
+    <row r="196" spans="1:11">
+      <c r="A196" s="24">
         <v>65</v>
       </c>
-      <c r="B196" s="13" t="s">
-        <v>190</v>
+      <c r="B196" s="27" t="s">
+        <v>189</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>6</v>
@@ -5293,10 +5639,13 @@
       <c r="G196" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="197" spans="1:7">
-      <c r="A197" s="15"/>
-      <c r="B197" s="13"/>
+      <c r="K196" s="33">
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
+      <c r="A197" s="25"/>
+      <c r="B197" s="27"/>
       <c r="C197" s="3" t="s">
         <v>8</v>
       </c>
@@ -5312,10 +5661,11 @@
       <c r="G197" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="198" spans="1:7">
-      <c r="A198" s="16"/>
-      <c r="B198" s="13"/>
+      <c r="K197" s="25"/>
+    </row>
+    <row r="198" spans="1:11">
+      <c r="A198" s="26"/>
+      <c r="B198" s="27"/>
       <c r="C198" s="3" t="s">
         <v>71</v>
       </c>
@@ -5328,13 +5678,14 @@
       <c r="F198" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="199" spans="1:7">
-      <c r="A199" s="14">
+      <c r="K198" s="26"/>
+    </row>
+    <row r="199" spans="1:11">
+      <c r="A199" s="24">
         <v>66</v>
       </c>
-      <c r="B199" s="13" t="s">
-        <v>193</v>
+      <c r="B199" s="27" t="s">
+        <v>192</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>50</v>
@@ -5351,12 +5702,15 @@
       <c r="G199" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="200" spans="1:7">
-      <c r="A200" s="15"/>
-      <c r="B200" s="13"/>
+      <c r="K199" s="33">
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
+      <c r="A200" s="25"/>
+      <c r="B200" s="27"/>
       <c r="C200" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D200" s="3" t="s">
         <v>7</v>
@@ -5370,12 +5724,13 @@
       <c r="G200" s="3">
         <v>40</v>
       </c>
-    </row>
-    <row r="201" spans="1:7">
-      <c r="A201" s="16"/>
-      <c r="B201" s="13"/>
+      <c r="K200" s="25"/>
+    </row>
+    <row r="201" spans="1:11">
+      <c r="A201" s="26"/>
+      <c r="B201" s="27"/>
       <c r="C201" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D201" s="3" t="s">
         <v>10</v>
@@ -5389,13 +5744,14 @@
       <c r="G201" s="3">
         <v>40</v>
       </c>
-    </row>
-    <row r="202" spans="1:7">
-      <c r="A202" s="14">
+      <c r="K201" s="26"/>
+    </row>
+    <row r="202" spans="1:11">
+      <c r="A202" s="24">
         <v>67</v>
       </c>
-      <c r="B202" s="13" t="s">
-        <v>196</v>
+      <c r="B202" s="27" t="s">
+        <v>195</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>41</v>
@@ -5412,12 +5768,15 @@
       <c r="G202" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="203" spans="1:7">
-      <c r="A203" s="15"/>
-      <c r="B203" s="13"/>
+      <c r="K202" s="33">
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
+      <c r="A203" s="25"/>
+      <c r="B203" s="27"/>
       <c r="C203" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D203" s="3" t="s">
         <v>7</v>
@@ -5431,12 +5790,13 @@
       <c r="G203" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="204" spans="1:7">
-      <c r="A204" s="16"/>
-      <c r="B204" s="13"/>
+      <c r="K203" s="25"/>
+    </row>
+    <row r="204" spans="1:11">
+      <c r="A204" s="26"/>
+      <c r="B204" s="27"/>
       <c r="C204" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D204" s="3" t="s">
         <v>10</v>
@@ -5450,13 +5810,14 @@
       <c r="G204" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="205" spans="1:7">
-      <c r="A205" s="14">
+      <c r="K204" s="26"/>
+    </row>
+    <row r="205" spans="1:11">
+      <c r="A205" s="24">
         <v>68</v>
       </c>
-      <c r="B205" s="13" t="s">
-        <v>199</v>
+      <c r="B205" s="27" t="s">
+        <v>198</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>41</v>
@@ -5473,12 +5834,15 @@
       <c r="G205" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="206" spans="1:7">
-      <c r="A206" s="15"/>
-      <c r="B206" s="13"/>
+      <c r="K205" s="33">
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
+      <c r="A206" s="25"/>
+      <c r="B206" s="27"/>
       <c r="C206" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D206" s="3" t="s">
         <v>10</v>
@@ -5492,12 +5856,13 @@
       <c r="G206" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="207" spans="1:7">
-      <c r="A207" s="16"/>
-      <c r="B207" s="13"/>
+      <c r="K206" s="25"/>
+    </row>
+    <row r="207" spans="1:11">
+      <c r="A207" s="26"/>
+      <c r="B207" s="27"/>
       <c r="C207" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D207" s="3" t="s">
         <v>7</v>
@@ -5511,13 +5876,14 @@
       <c r="G207" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="208" spans="1:7">
-      <c r="A208" s="14">
+      <c r="K207" s="26"/>
+    </row>
+    <row r="208" spans="1:11">
+      <c r="A208" s="24">
         <v>69</v>
       </c>
-      <c r="B208" s="13" t="s">
-        <v>202</v>
+      <c r="B208" s="27" t="s">
+        <v>201</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>41</v>
@@ -5534,12 +5900,15 @@
       <c r="G208" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="209" spans="1:10">
-      <c r="A209" s="15"/>
-      <c r="B209" s="13"/>
+      <c r="K208" s="33">
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
+      <c r="A209" s="25"/>
+      <c r="B209" s="27"/>
       <c r="C209" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D209" s="3" t="s">
         <v>7</v>
@@ -5553,12 +5922,13 @@
       <c r="G209" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="210" spans="1:10">
-      <c r="A210" s="16"/>
-      <c r="B210" s="13"/>
+      <c r="K209" s="25"/>
+    </row>
+    <row r="210" spans="1:11">
+      <c r="A210" s="26"/>
+      <c r="B210" s="27"/>
       <c r="C210" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D210" s="3" t="s">
         <v>10</v>
@@ -5572,13 +5942,14 @@
       <c r="G210" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="211" spans="1:10">
-      <c r="A211" s="14">
+      <c r="K210" s="26"/>
+    </row>
+    <row r="211" spans="1:11">
+      <c r="A211" s="24">
         <v>70</v>
       </c>
-      <c r="B211" s="13" t="s">
-        <v>205</v>
+      <c r="B211" s="27" t="s">
+        <v>204</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>41</v>
@@ -5595,12 +5966,15 @@
       <c r="G211" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="212" spans="1:10">
-      <c r="A212" s="15"/>
-      <c r="B212" s="13"/>
+      <c r="K211" s="33">
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
+      <c r="A212" s="25"/>
+      <c r="B212" s="27"/>
       <c r="C212" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D212" s="3" t="s">
         <v>10</v>
@@ -5614,12 +5988,13 @@
       <c r="G212" s="3">
         <v>60</v>
       </c>
-    </row>
-    <row r="213" spans="1:10">
-      <c r="A213" s="16"/>
-      <c r="B213" s="13"/>
+      <c r="K212" s="25"/>
+    </row>
+    <row r="213" spans="1:11">
+      <c r="A213" s="26"/>
+      <c r="B213" s="27"/>
       <c r="C213" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D213" s="3" t="s">
         <v>7</v>
@@ -5633,13 +6008,14 @@
       <c r="G213" s="3">
         <v>60</v>
       </c>
-    </row>
-    <row r="214" spans="1:10">
-      <c r="A214" s="14">
+      <c r="K213" s="26"/>
+    </row>
+    <row r="214" spans="1:11">
+      <c r="A214" s="24">
         <v>71</v>
       </c>
-      <c r="B214" s="13" t="s">
-        <v>206</v>
+      <c r="B214" s="27" t="s">
+        <v>205</v>
       </c>
       <c r="C214" s="11" t="s">
         <v>41</v>
@@ -5647,7 +6023,7 @@
       <c r="D214" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E214" s="27">
+      <c r="E214" s="20">
         <v>50</v>
       </c>
       <c r="F214" s="11" t="s">
@@ -5656,17 +6032,20 @@
       <c r="G214" s="11">
         <v>20</v>
       </c>
-    </row>
-    <row r="215" spans="1:10">
-      <c r="A215" s="15"/>
-      <c r="B215" s="13"/>
+      <c r="K214" s="33">
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11">
+      <c r="A215" s="25"/>
+      <c r="B215" s="27"/>
       <c r="C215" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D215" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E215" s="27">
+      <c r="E215" s="20">
         <v>130</v>
       </c>
       <c r="F215" s="11" t="s">
@@ -5675,17 +6054,18 @@
       <c r="G215" s="11">
         <v>60</v>
       </c>
-    </row>
-    <row r="216" spans="1:10">
-      <c r="A216" s="16"/>
-      <c r="B216" s="13"/>
+      <c r="K215" s="25"/>
+    </row>
+    <row r="216" spans="1:11">
+      <c r="A216" s="26"/>
+      <c r="B216" s="27"/>
       <c r="C216" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D216" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E216" s="27">
+      <c r="E216" s="20">
         <v>100</v>
       </c>
       <c r="F216" s="11" t="s">
@@ -5694,13 +6074,14 @@
       <c r="G216" s="11">
         <v>60</v>
       </c>
-    </row>
-    <row r="217" spans="1:10">
-      <c r="A217" s="14">
+      <c r="K216" s="26"/>
+    </row>
+    <row r="217" spans="1:11">
+      <c r="A217" s="24">
         <v>72</v>
       </c>
-      <c r="B217" s="14" t="s">
-        <v>210</v>
+      <c r="B217" s="24" t="s">
+        <v>209</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>41</v>
@@ -5717,12 +6098,15 @@
       <c r="G217" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="218" spans="1:10">
-      <c r="A218" s="15"/>
-      <c r="B218" s="15"/>
+      <c r="K217" s="33">
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11">
+      <c r="A218" s="25"/>
+      <c r="B218" s="25"/>
       <c r="C218" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D218" s="3" t="s">
         <v>10</v>
@@ -5736,46 +6120,49 @@
       <c r="G218" s="3">
         <v>60</v>
       </c>
-    </row>
-    <row r="219" spans="1:10" s="4" customFormat="1" ht="30" customHeight="1">
-      <c r="A219" s="15"/>
-      <c r="B219" s="15"/>
+      <c r="K218" s="25"/>
+    </row>
+    <row r="219" spans="1:11" s="4" customFormat="1" ht="30" customHeight="1">
+      <c r="A219" s="25"/>
+      <c r="B219" s="25"/>
       <c r="C219" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D219" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E219" s="28"/>
+      <c r="E219" s="21"/>
       <c r="J219" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10">
-      <c r="A220" s="16"/>
-      <c r="B220" s="16"/>
+        <v>210</v>
+      </c>
+      <c r="K219" s="25"/>
+    </row>
+    <row r="220" spans="1:11">
+      <c r="A220" s="26"/>
+      <c r="B220" s="26"/>
       <c r="C220" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D220" s="3" t="s">
         <v>68</v>
       </c>
       <c r="J220" s="11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10">
-      <c r="A221" s="14">
+        <v>138</v>
+      </c>
+      <c r="K220" s="26"/>
+    </row>
+    <row r="221" spans="1:11">
+      <c r="A221" s="24">
         <v>73</v>
       </c>
-      <c r="B221" s="14" t="s">
-        <v>212</v>
+      <c r="B221" s="24" t="s">
+        <v>211</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E221" s="5">
         <v>6</v>
@@ -5786,15 +6173,18 @@
       <c r="G221" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="222" spans="1:10">
-      <c r="A222" s="15"/>
-      <c r="B222" s="15"/>
+      <c r="K221" s="33">
+        <v>45551</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11">
+      <c r="A222" s="25"/>
+      <c r="B222" s="25"/>
       <c r="C222" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E222" s="5">
         <v>6</v>
@@ -5805,12 +6195,13 @@
       <c r="G222" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="223" spans="1:10">
-      <c r="A223" s="15"/>
-      <c r="B223" s="15"/>
+      <c r="K222" s="25"/>
+    </row>
+    <row r="223" spans="1:11">
+      <c r="A223" s="25"/>
+      <c r="B223" s="25"/>
       <c r="C223" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D223" s="3" t="s">
         <v>7</v>
@@ -5824,12 +6215,13 @@
       <c r="G223" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="224" spans="1:10">
-      <c r="A224" s="16"/>
-      <c r="B224" s="16"/>
+      <c r="K223" s="25"/>
+    </row>
+    <row r="224" spans="1:11">
+      <c r="A224" s="26"/>
+      <c r="B224" s="26"/>
       <c r="C224" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D224" s="3" t="s">
         <v>7</v>
@@ -5843,13 +6235,14 @@
       <c r="G224" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="225" spans="1:7">
-      <c r="A225" s="14">
+      <c r="K224" s="26"/>
+    </row>
+    <row r="225" spans="1:11">
+      <c r="A225" s="24">
         <v>74</v>
       </c>
-      <c r="B225" s="14" t="s">
-        <v>217</v>
+      <c r="B225" s="24" t="s">
+        <v>216</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>6</v>
@@ -5866,10 +6259,13 @@
       <c r="G225" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="226" spans="1:7">
-      <c r="A226" s="15"/>
-      <c r="B226" s="15"/>
+      <c r="K225" s="33">
+        <v>45551</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11">
+      <c r="A226" s="25"/>
+      <c r="B226" s="25"/>
       <c r="C226" s="3" t="s">
         <v>8</v>
       </c>
@@ -5885,32 +6281,34 @@
       <c r="G226" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="227" spans="1:7">
-      <c r="A227" s="15"/>
-      <c r="B227" s="15"/>
+      <c r="K226" s="25"/>
+    </row>
+    <row r="227" spans="1:11">
+      <c r="A227" s="25"/>
+      <c r="B227" s="25"/>
       <c r="C227" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D227" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E227" s="5">
+        <v>50</v>
+      </c>
+      <c r="F227" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G227" s="3">
+        <v>20</v>
+      </c>
+      <c r="K227" s="25"/>
+    </row>
+    <row r="228" spans="1:11">
+      <c r="A228" s="26"/>
+      <c r="B228" s="26"/>
+      <c r="C228" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="D227" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E227" s="5">
-        <v>50</v>
-      </c>
-      <c r="F227" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G227" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7">
-      <c r="A228" s="16"/>
-      <c r="B228" s="16"/>
-      <c r="C228" s="3" t="s">
-        <v>216</v>
-      </c>
       <c r="D228" s="3" t="s">
         <v>10</v>
       </c>
@@ -5923,13 +6321,14 @@
       <c r="G228" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="229" spans="1:7">
-      <c r="A229" s="14">
+      <c r="K228" s="26"/>
+    </row>
+    <row r="229" spans="1:11">
+      <c r="A229" s="24">
         <v>75</v>
       </c>
-      <c r="B229" s="14" t="s">
-        <v>220</v>
+      <c r="B229" s="24" t="s">
+        <v>219</v>
       </c>
       <c r="C229" s="3" t="s">
         <v>41</v>
@@ -5946,32 +6345,36 @@
       <c r="G229" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="230" spans="1:7">
-      <c r="A230" s="15"/>
-      <c r="B230" s="15"/>
+      <c r="K229" s="33">
+        <v>45551</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11">
+      <c r="A230" s="25"/>
+      <c r="B230" s="25"/>
       <c r="C230" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D230" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E230" s="5">
+        <v>50</v>
+      </c>
+      <c r="F230" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G230" s="3">
+        <v>20</v>
+      </c>
+      <c r="K230" s="25"/>
+    </row>
+    <row r="231" spans="1:11">
+      <c r="A231" s="26"/>
+      <c r="B231" s="26"/>
+      <c r="C231" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="D230" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E230" s="5">
-        <v>50</v>
-      </c>
-      <c r="F230" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G230" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7">
-      <c r="A231" s="16"/>
-      <c r="B231" s="16"/>
-      <c r="C231" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="D231" s="3" t="s">
         <v>10</v>
       </c>
@@ -5984,16 +6387,17 @@
       <c r="G231" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="232" spans="1:7">
-      <c r="A232" s="14">
+      <c r="K231" s="26"/>
+    </row>
+    <row r="232" spans="1:11">
+      <c r="A232" s="24">
         <v>76</v>
       </c>
-      <c r="B232" s="17" t="s">
-        <v>221</v>
+      <c r="B232" s="29" t="s">
+        <v>220</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D232" s="3" t="s">
         <v>68</v>
@@ -6001,12 +6405,15 @@
       <c r="F232" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="233" spans="1:7">
-      <c r="A233" s="15"/>
-      <c r="B233" s="18"/>
+      <c r="K232" s="33">
+        <v>45551</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11">
+      <c r="A233" s="25"/>
+      <c r="B233" s="30"/>
       <c r="C233" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D233" s="3" t="s">
         <v>10</v>
@@ -6020,12 +6427,13 @@
       <c r="G233" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="234" spans="1:7">
-      <c r="A234" s="15"/>
-      <c r="B234" s="18"/>
+      <c r="K233" s="36"/>
+    </row>
+    <row r="234" spans="1:11">
+      <c r="A234" s="25"/>
+      <c r="B234" s="30"/>
       <c r="C234" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D234" s="3" t="s">
         <v>10</v>
@@ -6039,12 +6447,13 @@
       <c r="G234" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="235" spans="1:7">
-      <c r="A235" s="15"/>
-      <c r="B235" s="18"/>
+      <c r="K234" s="36"/>
+    </row>
+    <row r="235" spans="1:11">
+      <c r="A235" s="25"/>
+      <c r="B235" s="30"/>
       <c r="C235" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D235" s="3" t="s">
         <v>10</v>
@@ -6058,12 +6467,13 @@
       <c r="G235" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="236" spans="1:7">
-      <c r="A236" s="15"/>
-      <c r="B236" s="18"/>
+      <c r="K235" s="36"/>
+    </row>
+    <row r="236" spans="1:11">
+      <c r="A236" s="25"/>
+      <c r="B236" s="30"/>
       <c r="C236" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D236" s="3" t="s">
         <v>10</v>
@@ -6077,12 +6487,13 @@
       <c r="G236" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="237" spans="1:7">
-      <c r="A237" s="15"/>
-      <c r="B237" s="18"/>
+      <c r="K236" s="36"/>
+    </row>
+    <row r="237" spans="1:11">
+      <c r="A237" s="25"/>
+      <c r="B237" s="30"/>
       <c r="C237" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D237" s="3" t="s">
         <v>10</v>
@@ -6096,12 +6507,13 @@
       <c r="G237" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="238" spans="1:7">
-      <c r="A238" s="15"/>
-      <c r="B238" s="18"/>
+      <c r="K237" s="36"/>
+    </row>
+    <row r="238" spans="1:11">
+      <c r="A238" s="25"/>
+      <c r="B238" s="30"/>
       <c r="C238" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D238" s="3" t="s">
         <v>10</v>
@@ -6115,12 +6527,13 @@
       <c r="G238" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="239" spans="1:7">
-      <c r="A239" s="15"/>
-      <c r="B239" s="18"/>
+      <c r="K238" s="36"/>
+    </row>
+    <row r="239" spans="1:11">
+      <c r="A239" s="25"/>
+      <c r="B239" s="30"/>
       <c r="C239" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D239" s="3" t="s">
         <v>10</v>
@@ -6134,12 +6547,13 @@
       <c r="G239" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="240" spans="1:7">
-      <c r="A240" s="15"/>
-      <c r="B240" s="18"/>
+      <c r="K239" s="36"/>
+    </row>
+    <row r="240" spans="1:11">
+      <c r="A240" s="25"/>
+      <c r="B240" s="30"/>
       <c r="C240" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D240" s="3" t="s">
         <v>10</v>
@@ -6153,12 +6567,13 @@
       <c r="G240" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="241" spans="1:10">
-      <c r="A241" s="15"/>
-      <c r="B241" s="18"/>
+      <c r="K240" s="36"/>
+    </row>
+    <row r="241" spans="1:11">
+      <c r="A241" s="25"/>
+      <c r="B241" s="30"/>
       <c r="C241" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D241" s="3" t="s">
         <v>10</v>
@@ -6172,12 +6587,13 @@
       <c r="G241" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="242" spans="1:10">
-      <c r="A242" s="15"/>
-      <c r="B242" s="18"/>
+      <c r="K241" s="36"/>
+    </row>
+    <row r="242" spans="1:11">
+      <c r="A242" s="25"/>
+      <c r="B242" s="30"/>
       <c r="C242" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D242" s="3" t="s">
         <v>10</v>
@@ -6191,10 +6607,11 @@
       <c r="G242" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="243" spans="1:10">
-      <c r="A243" s="15"/>
-      <c r="B243" s="18"/>
+      <c r="K242" s="36"/>
+    </row>
+    <row r="243" spans="1:11">
+      <c r="A243" s="25"/>
+      <c r="B243" s="30"/>
       <c r="C243" s="3" t="s">
         <v>6</v>
       </c>
@@ -6210,10 +6627,11 @@
       <c r="G243" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="244" spans="1:10">
-      <c r="A244" s="15"/>
-      <c r="B244" s="18"/>
+      <c r="K243" s="36"/>
+    </row>
+    <row r="244" spans="1:11">
+      <c r="A244" s="25"/>
+      <c r="B244" s="30"/>
       <c r="C244" s="3" t="s">
         <v>8</v>
       </c>
@@ -6229,12 +6647,13 @@
       <c r="G244" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="245" spans="1:10">
-      <c r="A245" s="16"/>
-      <c r="B245" s="19"/>
+      <c r="K244" s="36"/>
+    </row>
+    <row r="245" spans="1:11">
+      <c r="A245" s="26"/>
+      <c r="B245" s="31"/>
       <c r="C245" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D245" s="3" t="s">
         <v>10</v>
@@ -6245,16 +6664,17 @@
       <c r="F245" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="246" spans="1:10" ht="45">
-      <c r="A246" s="14">
+      <c r="K245" s="37"/>
+    </row>
+    <row r="246" spans="1:11" ht="45">
+      <c r="A246" s="24">
         <v>77</v>
       </c>
-      <c r="B246" s="14" t="s">
-        <v>227</v>
+      <c r="B246" s="24" t="s">
+        <v>226</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D246" s="3" t="s">
         <v>10</v>
@@ -6263,14 +6683,17 @@
         <v>31</v>
       </c>
       <c r="J246" s="4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="247" spans="1:10">
-      <c r="A247" s="15"/>
-      <c r="B247" s="15"/>
+        <v>227</v>
+      </c>
+      <c r="K246" s="33">
+        <v>45552</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11">
+      <c r="A247" s="25"/>
+      <c r="B247" s="25"/>
       <c r="C247" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D247" s="3" t="s">
         <v>10</v>
@@ -6281,12 +6704,13 @@
       <c r="F247" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="248" spans="1:10" ht="45">
-      <c r="A248" s="15"/>
-      <c r="B248" s="15"/>
+      <c r="K247" s="25"/>
+    </row>
+    <row r="248" spans="1:11" ht="45">
+      <c r="A248" s="25"/>
+      <c r="B248" s="25"/>
       <c r="C248" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D248" s="3" t="s">
         <v>10</v>
@@ -6295,14 +6719,15 @@
         <v>31</v>
       </c>
       <c r="J248" s="4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="249" spans="1:10" ht="45">
-      <c r="A249" s="15"/>
-      <c r="B249" s="15"/>
+        <v>228</v>
+      </c>
+      <c r="K248" s="25"/>
+    </row>
+    <row r="249" spans="1:11" ht="45">
+      <c r="A249" s="25"/>
+      <c r="B249" s="25"/>
       <c r="C249" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D249" s="3" t="s">
         <v>10</v>
@@ -6317,12 +6742,13 @@
         <v>50</v>
       </c>
       <c r="J249" s="4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="250" spans="1:10">
-      <c r="A250" s="15"/>
-      <c r="B250" s="15"/>
+        <v>229</v>
+      </c>
+      <c r="K249" s="25"/>
+    </row>
+    <row r="250" spans="1:11">
+      <c r="A250" s="25"/>
+      <c r="B250" s="25"/>
       <c r="C250" s="3" t="s">
         <v>5</v>
       </c>
@@ -6338,12 +6764,13 @@
       <c r="G250" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="251" spans="1:10">
-      <c r="A251" s="15"/>
-      <c r="B251" s="15"/>
+      <c r="K250" s="25"/>
+    </row>
+    <row r="251" spans="1:11">
+      <c r="A251" s="25"/>
+      <c r="B251" s="25"/>
       <c r="C251" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D251" s="3" t="s">
         <v>10</v>
@@ -6357,10 +6784,11 @@
       <c r="G251" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="252" spans="1:10">
-      <c r="A252" s="15"/>
-      <c r="B252" s="15"/>
+      <c r="K251" s="25"/>
+    </row>
+    <row r="252" spans="1:11">
+      <c r="A252" s="25"/>
+      <c r="B252" s="25"/>
       <c r="C252" s="3" t="s">
         <v>6</v>
       </c>
@@ -6376,10 +6804,11 @@
       <c r="G252" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="253" spans="1:10">
-      <c r="A253" s="16"/>
-      <c r="B253" s="16"/>
+      <c r="K252" s="25"/>
+    </row>
+    <row r="253" spans="1:11">
+      <c r="A253" s="26"/>
+      <c r="B253" s="26"/>
       <c r="C253" s="3" t="s">
         <v>8</v>
       </c>
@@ -6395,16 +6824,17 @@
       <c r="G253" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="254" spans="1:10">
-      <c r="A254" s="14">
+      <c r="K253" s="26"/>
+    </row>
+    <row r="254" spans="1:11">
+      <c r="A254" s="24">
         <v>78</v>
       </c>
-      <c r="B254" s="14" t="s">
-        <v>233</v>
+      <c r="B254" s="24" t="s">
+        <v>232</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D254" s="3" t="s">
         <v>7</v>
@@ -6418,12 +6848,15 @@
       <c r="G254" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="255" spans="1:10">
-      <c r="A255" s="16"/>
-      <c r="B255" s="16"/>
+      <c r="K254" s="33">
+        <v>45552</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11">
+      <c r="A255" s="26"/>
+      <c r="B255" s="26"/>
       <c r="C255" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D255" s="3" t="s">
         <v>10</v>
@@ -6437,16 +6870,17 @@
       <c r="G255" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="256" spans="1:10" ht="30">
-      <c r="A256" s="14">
+      <c r="K255" s="26"/>
+    </row>
+    <row r="256" spans="1:11" ht="30">
+      <c r="A256" s="24">
         <v>79</v>
       </c>
-      <c r="B256" s="14" t="s">
-        <v>245</v>
+      <c r="B256" s="24" t="s">
+        <v>244</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D256" s="3" t="s">
         <v>68</v>
@@ -6458,14 +6892,17 @@
         <v>0</v>
       </c>
       <c r="J256" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="257" spans="1:10" ht="30">
-      <c r="A257" s="15"/>
-      <c r="B257" s="15"/>
+        <v>245</v>
+      </c>
+      <c r="K256" s="33">
+        <v>45552</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" ht="30">
+      <c r="A257" s="25"/>
+      <c r="B257" s="25"/>
       <c r="C257" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D257" s="3" t="s">
         <v>10</v>
@@ -6480,14 +6917,15 @@
         <v>50</v>
       </c>
       <c r="J257" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="258" spans="1:10">
-      <c r="A258" s="15"/>
-      <c r="B258" s="15"/>
+        <v>246</v>
+      </c>
+      <c r="K257" s="25"/>
+    </row>
+    <row r="258" spans="1:11">
+      <c r="A258" s="25"/>
+      <c r="B258" s="25"/>
       <c r="C258" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D258" s="3" t="s">
         <v>10</v>
@@ -6501,10 +6939,11 @@
       <c r="G258" s="3">
         <v>250</v>
       </c>
-    </row>
-    <row r="259" spans="1:10">
-      <c r="A259" s="15"/>
-      <c r="B259" s="15"/>
+      <c r="K258" s="25"/>
+    </row>
+    <row r="259" spans="1:11">
+      <c r="A259" s="25"/>
+      <c r="B259" s="25"/>
       <c r="C259" s="3" t="s">
         <v>6</v>
       </c>
@@ -6520,88 +6959,93 @@
       <c r="G259" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="260" spans="1:10">
-      <c r="A260" s="15"/>
-      <c r="B260" s="15"/>
+      <c r="K259" s="25"/>
+    </row>
+    <row r="260" spans="1:11">
+      <c r="A260" s="25"/>
+      <c r="B260" s="25"/>
       <c r="C260" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D260" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E260" s="5">
+        <v>50</v>
+      </c>
+      <c r="F260" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G260" s="3">
+        <v>20</v>
+      </c>
+      <c r="K260" s="25"/>
+    </row>
+    <row r="261" spans="1:11">
+      <c r="A261" s="25"/>
+      <c r="B261" s="25"/>
+      <c r="C261" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="D260" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E260" s="5">
-        <v>50</v>
-      </c>
-      <c r="F260" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G260" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="261" spans="1:10">
-      <c r="A261" s="15"/>
-      <c r="B261" s="15"/>
-      <c r="C261" s="3" t="s">
+      <c r="D261" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E261" s="5">
+        <v>50</v>
+      </c>
+      <c r="F261" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G261" s="3">
+        <v>20</v>
+      </c>
+      <c r="K261" s="25"/>
+    </row>
+    <row r="262" spans="1:11">
+      <c r="A262" s="25"/>
+      <c r="B262" s="25"/>
+      <c r="C262" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="D261" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E261" s="5">
-        <v>50</v>
-      </c>
-      <c r="F261" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G261" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="262" spans="1:10">
-      <c r="A262" s="15"/>
-      <c r="B262" s="15"/>
-      <c r="C262" s="3" t="s">
+      <c r="D262" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E262" s="5">
+        <v>50</v>
+      </c>
+      <c r="F262" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G262" s="3">
+        <v>20</v>
+      </c>
+      <c r="K262" s="25"/>
+    </row>
+    <row r="263" spans="1:11">
+      <c r="A263" s="25"/>
+      <c r="B263" s="25"/>
+      <c r="C263" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="D262" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E262" s="5">
-        <v>50</v>
-      </c>
-      <c r="F262" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G262" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="263" spans="1:10">
-      <c r="A263" s="15"/>
-      <c r="B263" s="15"/>
-      <c r="C263" s="3" t="s">
+      <c r="D263" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E263" s="5">
+        <v>50</v>
+      </c>
+      <c r="F263" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G263" s="3">
+        <v>20</v>
+      </c>
+      <c r="K263" s="25"/>
+    </row>
+    <row r="264" spans="1:11">
+      <c r="A264" s="25"/>
+      <c r="B264" s="25"/>
+      <c r="C264" s="3" t="s">
         <v>240</v>
-      </c>
-      <c r="D263" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E263" s="5">
-        <v>50</v>
-      </c>
-      <c r="F263" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G263" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="264" spans="1:10">
-      <c r="A264" s="15"/>
-      <c r="B264" s="15"/>
-      <c r="C264" s="3" t="s">
-        <v>241</v>
       </c>
       <c r="D264" s="3" t="s">
         <v>10</v>
@@ -6615,12 +7059,13 @@
       <c r="G264" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="265" spans="1:10">
-      <c r="A265" s="15"/>
-      <c r="B265" s="15"/>
+      <c r="K264" s="25"/>
+    </row>
+    <row r="265" spans="1:11">
+      <c r="A265" s="25"/>
+      <c r="B265" s="25"/>
       <c r="C265" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D265" s="3" t="s">
         <v>10</v>
@@ -6634,12 +7079,13 @@
       <c r="G265" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="266" spans="1:10">
-      <c r="A266" s="15"/>
-      <c r="B266" s="15"/>
+      <c r="K265" s="25"/>
+    </row>
+    <row r="266" spans="1:11">
+      <c r="A266" s="25"/>
+      <c r="B266" s="25"/>
       <c r="C266" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D266" s="3" t="s">
         <v>10</v>
@@ -6653,12 +7099,13 @@
       <c r="G266" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="267" spans="1:10">
-      <c r="A267" s="16"/>
-      <c r="B267" s="16"/>
+      <c r="K266" s="25"/>
+    </row>
+    <row r="267" spans="1:11">
+      <c r="A267" s="26"/>
+      <c r="B267" s="26"/>
       <c r="C267" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D267" s="3" t="s">
         <v>10</v>
@@ -6672,13 +7119,14 @@
       <c r="G267" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="268" spans="1:10">
-      <c r="A268" s="14">
+      <c r="K267" s="26"/>
+    </row>
+    <row r="268" spans="1:11">
+      <c r="A268" s="24">
         <v>80</v>
       </c>
-      <c r="B268" s="14" t="s">
-        <v>251</v>
+      <c r="B268" s="24" t="s">
+        <v>250</v>
       </c>
       <c r="C268" s="3" t="s">
         <v>6</v>
@@ -6695,10 +7143,13 @@
       <c r="G268" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="269" spans="1:10">
-      <c r="A269" s="15"/>
-      <c r="B269" s="15"/>
+      <c r="K268" s="33">
+        <v>45552</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11">
+      <c r="A269" s="25"/>
+      <c r="B269" s="25"/>
       <c r="C269" s="3" t="s">
         <v>8</v>
       </c>
@@ -6714,12 +7165,13 @@
       <c r="G269" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="270" spans="1:10">
-      <c r="A270" s="15"/>
-      <c r="B270" s="15"/>
+      <c r="K269" s="25"/>
+    </row>
+    <row r="270" spans="1:11">
+      <c r="A270" s="25"/>
+      <c r="B270" s="25"/>
       <c r="C270" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D270" s="3" t="s">
         <v>7</v>
@@ -6733,17 +7185,18 @@
       <c r="G270" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="271" spans="1:10">
-      <c r="A271" s="15"/>
-      <c r="B271" s="15"/>
+      <c r="K270" s="25"/>
+    </row>
+    <row r="271" spans="1:11">
+      <c r="A271" s="25"/>
+      <c r="B271" s="25"/>
       <c r="C271" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D271" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E271" s="26">
+      <c r="E271" s="19">
         <v>100</v>
       </c>
       <c r="F271" s="3" t="s">
@@ -6752,12 +7205,13 @@
       <c r="G271" s="6">
         <v>60</v>
       </c>
-    </row>
-    <row r="272" spans="1:10">
-      <c r="A272" s="16"/>
-      <c r="B272" s="16"/>
+      <c r="K271" s="25"/>
+    </row>
+    <row r="272" spans="1:11">
+      <c r="A272" s="26"/>
+      <c r="B272" s="26"/>
       <c r="C272" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D272" s="3" t="s">
         <v>7</v>
@@ -6771,13 +7225,14 @@
       <c r="G272" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="273" spans="1:10">
-      <c r="A273" s="14">
+      <c r="K272" s="26"/>
+    </row>
+    <row r="273" spans="1:11">
+      <c r="A273" s="24">
         <v>81</v>
       </c>
-      <c r="B273" s="14" t="s">
-        <v>253</v>
+      <c r="B273" s="24" t="s">
+        <v>252</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>50</v>
@@ -6794,12 +7249,15 @@
       <c r="G273" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="274" spans="1:10">
-      <c r="A274" s="16"/>
-      <c r="B274" s="16"/>
+      <c r="K273" s="33">
+        <v>45552</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11">
+      <c r="A274" s="26"/>
+      <c r="B274" s="26"/>
       <c r="C274" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D274" s="3" t="s">
         <v>7</v>
@@ -6813,13 +7271,14 @@
       <c r="G274" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="275" spans="1:10">
-      <c r="A275" s="14">
+      <c r="K274" s="26"/>
+    </row>
+    <row r="275" spans="1:11">
+      <c r="A275" s="24">
         <v>82</v>
       </c>
-      <c r="B275" s="14" t="s">
-        <v>254</v>
+      <c r="B275" s="24" t="s">
+        <v>253</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>6</v>
@@ -6836,10 +7295,13 @@
       <c r="G275" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="276" spans="1:10">
-      <c r="A276" s="16"/>
-      <c r="B276" s="16"/>
+      <c r="K275" s="38">
+        <v>45552</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11">
+      <c r="A276" s="26"/>
+      <c r="B276" s="26"/>
       <c r="C276" s="3" t="s">
         <v>8</v>
       </c>
@@ -6855,12 +7317,13 @@
       <c r="G276" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="277" spans="1:10">
-      <c r="A277" s="14">
+      <c r="K276" s="32"/>
+    </row>
+    <row r="277" spans="1:11">
+      <c r="A277" s="24">
         <v>83</v>
       </c>
-      <c r="B277" s="14" t="s">
+      <c r="B277" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C277" s="3" t="s">
@@ -6878,10 +7341,13 @@
       <c r="G277" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="278" spans="1:10">
-      <c r="A278" s="15"/>
-      <c r="B278" s="15"/>
+      <c r="K277" s="33">
+        <v>45552</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11">
+      <c r="A278" s="25"/>
+      <c r="B278" s="25"/>
       <c r="C278" s="3" t="s">
         <v>6</v>
       </c>
@@ -6897,10 +7363,11 @@
       <c r="G278" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="279" spans="1:10">
-      <c r="A279" s="15"/>
-      <c r="B279" s="15"/>
+      <c r="K278" s="25"/>
+    </row>
+    <row r="279" spans="1:11">
+      <c r="A279" s="25"/>
+      <c r="B279" s="25"/>
       <c r="C279" s="3" t="s">
         <v>8</v>
       </c>
@@ -6916,10 +7383,11 @@
       <c r="G279" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="280" spans="1:10">
-      <c r="A280" s="15"/>
-      <c r="B280" s="15"/>
+      <c r="K279" s="25"/>
+    </row>
+    <row r="280" spans="1:11">
+      <c r="A280" s="25"/>
+      <c r="B280" s="25"/>
       <c r="C280" s="3" t="s">
         <v>12</v>
       </c>
@@ -6935,10 +7403,11 @@
       <c r="G280" s="3">
         <v>80</v>
       </c>
-    </row>
-    <row r="281" spans="1:10">
-      <c r="A281" s="16"/>
-      <c r="B281" s="16"/>
+      <c r="K280" s="25"/>
+    </row>
+    <row r="281" spans="1:11">
+      <c r="A281" s="26"/>
+      <c r="B281" s="26"/>
       <c r="C281" s="3" t="s">
         <v>11</v>
       </c>
@@ -6954,12 +7423,13 @@
       <c r="G281" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="282" spans="1:10">
-      <c r="A282" s="14">
+      <c r="K281" s="26"/>
+    </row>
+    <row r="282" spans="1:11">
+      <c r="A282" s="24">
         <v>84</v>
       </c>
-      <c r="B282" s="14" t="s">
+      <c r="B282" s="24" t="s">
         <v>18</v>
       </c>
       <c r="C282" s="3" t="s">
@@ -6977,10 +7447,13 @@
       <c r="G282" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="283" spans="1:10">
-      <c r="A283" s="15"/>
-      <c r="B283" s="15"/>
+      <c r="K282" s="33">
+        <v>45552</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11">
+      <c r="A283" s="25"/>
+      <c r="B283" s="25"/>
       <c r="C283" s="3" t="s">
         <v>6</v>
       </c>
@@ -6996,10 +7469,11 @@
       <c r="G283" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="284" spans="1:10">
-      <c r="A284" s="15"/>
-      <c r="B284" s="15"/>
+      <c r="K283" s="25"/>
+    </row>
+    <row r="284" spans="1:11">
+      <c r="A284" s="25"/>
+      <c r="B284" s="25"/>
       <c r="C284" s="3" t="s">
         <v>8</v>
       </c>
@@ -7015,10 +7489,11 @@
       <c r="G284" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="285" spans="1:10">
-      <c r="A285" s="15"/>
-      <c r="B285" s="15"/>
+      <c r="K284" s="25"/>
+    </row>
+    <row r="285" spans="1:11">
+      <c r="A285" s="25"/>
+      <c r="B285" s="25"/>
       <c r="C285" s="3" t="s">
         <v>12</v>
       </c>
@@ -7034,10 +7509,11 @@
       <c r="G285" s="3">
         <v>80</v>
       </c>
-    </row>
-    <row r="286" spans="1:10">
-      <c r="A286" s="16"/>
-      <c r="B286" s="16"/>
+      <c r="K285" s="25"/>
+    </row>
+    <row r="286" spans="1:11">
+      <c r="A286" s="26"/>
+      <c r="B286" s="26"/>
       <c r="C286" s="3" t="s">
         <v>11</v>
       </c>
@@ -7053,12 +7529,13 @@
       <c r="G286" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="287" spans="1:10">
-      <c r="A287" s="14">
+      <c r="K286" s="26"/>
+    </row>
+    <row r="287" spans="1:11">
+      <c r="A287" s="24">
         <v>85</v>
       </c>
-      <c r="B287" s="14" t="s">
+      <c r="B287" s="24" t="s">
         <v>23</v>
       </c>
       <c r="C287" s="3" t="s">
@@ -7077,12 +7554,15 @@
         <v>50</v>
       </c>
       <c r="J287" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="288" spans="1:10">
-      <c r="A288" s="15"/>
-      <c r="B288" s="15"/>
+        <v>254</v>
+      </c>
+      <c r="K287" s="33">
+        <v>45552</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11">
+      <c r="A288" s="25"/>
+      <c r="B288" s="25"/>
       <c r="C288" s="3" t="s">
         <v>6</v>
       </c>
@@ -7098,10 +7578,11 @@
       <c r="G288" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="289" spans="1:8">
-      <c r="A289" s="15"/>
-      <c r="B289" s="15"/>
+      <c r="K288" s="25"/>
+    </row>
+    <row r="289" spans="1:11">
+      <c r="A289" s="25"/>
+      <c r="B289" s="25"/>
       <c r="C289" s="3" t="s">
         <v>8</v>
       </c>
@@ -7117,34 +7598,36 @@
       <c r="G289" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="290" spans="1:8">
-      <c r="A290" s="15"/>
-      <c r="B290" s="15"/>
+      <c r="K289" s="25"/>
+    </row>
+    <row r="290" spans="1:11">
+      <c r="A290" s="25"/>
+      <c r="B290" s="25"/>
       <c r="C290" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D290" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E290" s="26">
+      <c r="E290" s="19">
         <v>50</v>
       </c>
       <c r="F290" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G290"/>
-    </row>
-    <row r="291" spans="1:8">
-      <c r="A291" s="16"/>
-      <c r="B291" s="16"/>
+      <c r="K290" s="25"/>
+    </row>
+    <row r="291" spans="1:11">
+      <c r="A291" s="26"/>
+      <c r="B291" s="26"/>
       <c r="C291" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D291" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E291" s="26">
+      <c r="E291" s="19">
         <v>15</v>
       </c>
       <c r="F291" s="3" t="s">
@@ -7153,58 +7636,63 @@
       <c r="G291" s="6">
         <v>11</v>
       </c>
-    </row>
-    <row r="292" spans="1:8">
-      <c r="A292" s="14">
+      <c r="K291" s="26"/>
+    </row>
+    <row r="292" spans="1:11">
+      <c r="A292" s="24">
         <v>86</v>
       </c>
-      <c r="B292" s="14" t="s">
+      <c r="B292" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D292" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E292" s="5">
+        <v>50</v>
+      </c>
+      <c r="F292" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G292" s="3">
+        <v>20</v>
+      </c>
+      <c r="K292" s="33">
+        <v>45552</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11">
+      <c r="A293" s="26"/>
+      <c r="B293" s="26"/>
+      <c r="C293" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D293" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E293" s="5">
+        <v>50</v>
+      </c>
+      <c r="F293" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G293" s="3">
+        <v>20</v>
+      </c>
+      <c r="K293" s="26"/>
+    </row>
+    <row r="294" spans="1:11">
+      <c r="A294" s="24">
+        <v>87</v>
+      </c>
+      <c r="B294" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="C294" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="C292" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D292" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E292" s="5">
-        <v>50</v>
-      </c>
-      <c r="F292" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G292" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8">
-      <c r="A293" s="16"/>
-      <c r="B293" s="16"/>
-      <c r="C293" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D293" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E293" s="5">
-        <v>50</v>
-      </c>
-      <c r="F293" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G293" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8">
-      <c r="A294" s="14">
-        <v>87</v>
-      </c>
-      <c r="B294" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="C294" s="3" t="s">
-        <v>257</v>
       </c>
       <c r="D294" s="3" t="s">
         <v>10</v>
@@ -7218,10 +7706,13 @@
       <c r="G294" s="3">
         <v>60</v>
       </c>
-    </row>
-    <row r="295" spans="1:8">
-      <c r="A295" s="15"/>
-      <c r="B295" s="15"/>
+      <c r="K294" s="33">
+        <v>45552</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11">
+      <c r="A295" s="25"/>
+      <c r="B295" s="25"/>
       <c r="C295" s="3" t="s">
         <v>6</v>
       </c>
@@ -7237,10 +7728,11 @@
       <c r="G295" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="296" spans="1:8">
-      <c r="A296" s="16"/>
-      <c r="B296" s="16"/>
+      <c r="K295" s="25"/>
+    </row>
+    <row r="296" spans="1:11">
+      <c r="A296" s="26"/>
+      <c r="B296" s="26"/>
       <c r="C296" s="3" t="s">
         <v>8</v>
       </c>
@@ -7256,135 +7748,144 @@
       <c r="G296" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="297" spans="1:8">
-      <c r="A297" s="14">
+      <c r="K296" s="26"/>
+    </row>
+    <row r="297" spans="1:11">
+      <c r="A297" s="24">
         <v>88</v>
       </c>
-      <c r="B297" s="14" t="s">
+      <c r="B297" s="24" t="s">
         <v>40</v>
       </c>
       <c r="C297" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D297" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E297" s="29">
-        <v>50</v>
-      </c>
-      <c r="F297" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="G297" s="21">
-        <v>20</v>
-      </c>
-      <c r="H297" s="22"/>
-    </row>
-    <row r="298" spans="1:8">
-      <c r="A298" s="15"/>
-      <c r="B298" s="15"/>
-      <c r="C298" s="23" t="s">
+      <c r="D297" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E297" s="22">
+        <v>50</v>
+      </c>
+      <c r="F297" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G297" s="14">
+        <v>20</v>
+      </c>
+      <c r="H297" s="15"/>
+      <c r="K297" s="33">
+        <v>45552</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11">
+      <c r="A298" s="25"/>
+      <c r="B298" s="25"/>
+      <c r="C298" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D298" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E298" s="30">
-        <v>50</v>
-      </c>
-      <c r="F298" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G298" s="24">
-        <v>20</v>
-      </c>
-      <c r="H298" s="24"/>
-    </row>
-    <row r="299" spans="1:8">
-      <c r="A299" s="15"/>
-      <c r="B299" s="15"/>
-      <c r="C299" s="23" t="s">
+      <c r="D298" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E298" s="23">
+        <v>50</v>
+      </c>
+      <c r="F298" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G298" s="17">
+        <v>20</v>
+      </c>
+      <c r="H298" s="17"/>
+      <c r="K298" s="25"/>
+    </row>
+    <row r="299" spans="1:11">
+      <c r="A299" s="25"/>
+      <c r="B299" s="25"/>
+      <c r="C299" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D299" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E299" s="30">
+      <c r="D299" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E299" s="23">
         <v>15</v>
       </c>
-      <c r="F299" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G299" s="24">
-        <v>10</v>
-      </c>
-      <c r="H299" s="24"/>
-    </row>
-    <row r="300" spans="1:8">
-      <c r="A300" s="15"/>
-      <c r="B300" s="15"/>
-      <c r="C300" s="23" t="s">
+      <c r="F299" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G299" s="17">
+        <v>10</v>
+      </c>
+      <c r="H299" s="17"/>
+      <c r="K299" s="25"/>
+    </row>
+    <row r="300" spans="1:11">
+      <c r="A300" s="25"/>
+      <c r="B300" s="25"/>
+      <c r="C300" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D300" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E300" s="30">
+      <c r="D300" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E300" s="23">
         <v>15</v>
       </c>
-      <c r="F300" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G300" s="24">
+      <c r="F300" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G300" s="17">
         <v>11</v>
       </c>
-      <c r="H300" s="24"/>
-    </row>
-    <row r="301" spans="1:8">
-      <c r="A301" s="15"/>
-      <c r="B301" s="15"/>
-      <c r="C301" s="23" t="s">
+      <c r="H300" s="17"/>
+      <c r="K300" s="25"/>
+    </row>
+    <row r="301" spans="1:11">
+      <c r="A301" s="25"/>
+      <c r="B301" s="25"/>
+      <c r="C301" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D301" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E301" s="30">
+      <c r="D301" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E301" s="23">
         <v>100</v>
       </c>
-      <c r="F301" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G301" s="24">
-        <v>50</v>
-      </c>
-      <c r="H301" s="24"/>
-    </row>
-    <row r="302" spans="1:8">
-      <c r="A302" s="16"/>
-      <c r="B302" s="16"/>
-      <c r="C302" s="23" t="s">
+      <c r="F301" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G301" s="17">
+        <v>50</v>
+      </c>
+      <c r="H301" s="17"/>
+      <c r="K301" s="25"/>
+    </row>
+    <row r="302" spans="1:11">
+      <c r="A302" s="26"/>
+      <c r="B302" s="26"/>
+      <c r="C302" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D302" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E302" s="30">
-        <v>50</v>
-      </c>
-      <c r="F302" s="24" t="s">
+      <c r="D302" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E302" s="23">
+        <v>50</v>
+      </c>
+      <c r="F302" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G302" s="24"/>
-      <c r="H302" s="24"/>
-    </row>
-    <row r="303" spans="1:8">
-      <c r="A303" s="14">
+      <c r="G302" s="17"/>
+      <c r="H302" s="17"/>
+      <c r="K302" s="26"/>
+    </row>
+    <row r="303" spans="1:11">
+      <c r="A303" s="24">
         <v>89</v>
       </c>
-      <c r="B303" s="14" t="s">
-        <v>262</v>
+      <c r="B303" s="24" t="s">
+        <v>261</v>
       </c>
       <c r="C303" s="3" t="s">
         <v>6</v>
@@ -7402,10 +7903,13 @@
         <v>20</v>
       </c>
       <c r="H303" s="4"/>
-    </row>
-    <row r="304" spans="1:8">
-      <c r="A304" s="15"/>
-      <c r="B304" s="15"/>
+      <c r="K303" s="33">
+        <v>45553</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11">
+      <c r="A304" s="25"/>
+      <c r="B304" s="25"/>
       <c r="C304" s="3" t="s">
         <v>8</v>
       </c>
@@ -7421,12 +7925,13 @@
       <c r="G304" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="305" spans="1:8">
-      <c r="A305" s="15"/>
-      <c r="B305" s="15"/>
+      <c r="K304" s="25"/>
+    </row>
+    <row r="305" spans="1:11">
+      <c r="A305" s="25"/>
+      <c r="B305" s="25"/>
       <c r="C305" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D305" s="3" t="s">
         <v>10</v>
@@ -7440,12 +7945,13 @@
       <c r="G305" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="306" spans="1:8">
-      <c r="A306" s="15"/>
-      <c r="B306" s="15"/>
+      <c r="K305" s="25"/>
+    </row>
+    <row r="306" spans="1:11">
+      <c r="A306" s="25"/>
+      <c r="B306" s="25"/>
       <c r="C306" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D306" s="3" t="s">
         <v>10</v>
@@ -7459,12 +7965,13 @@
       <c r="G306" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="307" spans="1:8">
-      <c r="A307" s="16"/>
-      <c r="B307" s="16"/>
+      <c r="K306" s="25"/>
+    </row>
+    <row r="307" spans="1:11">
+      <c r="A307" s="26"/>
+      <c r="B307" s="26"/>
       <c r="C307" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D307" s="3" t="s">
         <v>10</v>
@@ -7478,13 +7985,14 @@
       <c r="G307" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="308" spans="1:8">
-      <c r="A308" s="14">
+      <c r="K307" s="26"/>
+    </row>
+    <row r="308" spans="1:11">
+      <c r="A308" s="24">
         <v>90</v>
       </c>
-      <c r="B308" s="14" t="s">
-        <v>266</v>
+      <c r="B308" s="24" t="s">
+        <v>265</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>6</v>
@@ -7502,10 +8010,13 @@
         <v>20</v>
       </c>
       <c r="H308" s="4"/>
-    </row>
-    <row r="309" spans="1:8">
-      <c r="A309" s="15"/>
-      <c r="B309" s="15"/>
+      <c r="K308" s="33">
+        <v>45553</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11">
+      <c r="A309" s="25"/>
+      <c r="B309" s="25"/>
       <c r="C309" s="3" t="s">
         <v>8</v>
       </c>
@@ -7521,12 +8032,13 @@
       <c r="G309" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="310" spans="1:8">
-      <c r="A310" s="15"/>
-      <c r="B310" s="15"/>
+      <c r="K309" s="25"/>
+    </row>
+    <row r="310" spans="1:11">
+      <c r="A310" s="25"/>
+      <c r="B310" s="25"/>
       <c r="C310" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D310" s="3" t="s">
         <v>10</v>
@@ -7540,12 +8052,13 @@
       <c r="G310" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="311" spans="1:8">
-      <c r="A311" s="15"/>
-      <c r="B311" s="15"/>
+      <c r="K310" s="25"/>
+    </row>
+    <row r="311" spans="1:11">
+      <c r="A311" s="25"/>
+      <c r="B311" s="25"/>
       <c r="C311" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D311" s="3" t="s">
         <v>10</v>
@@ -7559,12 +8072,13 @@
       <c r="G311" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="312" spans="1:8">
-      <c r="A312" s="16"/>
-      <c r="B312" s="16"/>
+      <c r="K311" s="26"/>
+    </row>
+    <row r="312" spans="1:11">
+      <c r="A312" s="26"/>
+      <c r="B312" s="26"/>
       <c r="C312" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D312" s="3" t="s">
         <v>10</v>
@@ -7580,90 +8094,130 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="154">
-    <mergeCell ref="B294:B296"/>
-    <mergeCell ref="A294:A296"/>
-    <mergeCell ref="B297:B302"/>
-    <mergeCell ref="A297:A302"/>
-    <mergeCell ref="B303:B307"/>
-    <mergeCell ref="A303:A307"/>
-    <mergeCell ref="B308:B312"/>
-    <mergeCell ref="A308:A312"/>
-    <mergeCell ref="A275:A276"/>
-    <mergeCell ref="A277:A281"/>
-    <mergeCell ref="A282:A286"/>
-    <mergeCell ref="A225:A228"/>
-    <mergeCell ref="A229:A231"/>
-    <mergeCell ref="A232:A245"/>
-    <mergeCell ref="A246:A253"/>
-    <mergeCell ref="A254:A255"/>
-    <mergeCell ref="A256:A267"/>
-    <mergeCell ref="B277:B281"/>
-    <mergeCell ref="B282:B286"/>
-    <mergeCell ref="B287:B291"/>
-    <mergeCell ref="B292:B293"/>
-    <mergeCell ref="B172:B175"/>
-    <mergeCell ref="B176:B178"/>
-    <mergeCell ref="B179:B192"/>
-    <mergeCell ref="A214:A216"/>
-    <mergeCell ref="A217:A220"/>
-    <mergeCell ref="A221:A224"/>
-    <mergeCell ref="A199:A201"/>
-    <mergeCell ref="A202:A204"/>
-    <mergeCell ref="A205:A207"/>
-    <mergeCell ref="A208:A210"/>
-    <mergeCell ref="A211:A213"/>
-    <mergeCell ref="A172:A175"/>
-    <mergeCell ref="A176:A178"/>
-    <mergeCell ref="A179:A192"/>
-    <mergeCell ref="A193:A195"/>
-    <mergeCell ref="A196:A198"/>
-    <mergeCell ref="A287:A291"/>
-    <mergeCell ref="A292:A293"/>
-    <mergeCell ref="A268:A272"/>
-    <mergeCell ref="A273:A274"/>
-    <mergeCell ref="A120:A122"/>
-    <mergeCell ref="A123:A125"/>
-    <mergeCell ref="A126:A128"/>
-    <mergeCell ref="A129:A131"/>
-    <mergeCell ref="A133:A135"/>
-    <mergeCell ref="A136:A138"/>
-    <mergeCell ref="A139:A142"/>
-    <mergeCell ref="A143:A146"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="B268:B272"/>
-    <mergeCell ref="B273:B274"/>
-    <mergeCell ref="B275:B276"/>
-    <mergeCell ref="B225:B228"/>
-    <mergeCell ref="B229:B231"/>
-    <mergeCell ref="B232:B245"/>
-    <mergeCell ref="B246:B253"/>
-    <mergeCell ref="B208:B210"/>
-    <mergeCell ref="B211:B213"/>
-    <mergeCell ref="B214:B216"/>
-    <mergeCell ref="B217:B220"/>
-    <mergeCell ref="B221:B224"/>
-    <mergeCell ref="B139:B142"/>
-    <mergeCell ref="B143:B146"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="B149:B152"/>
-    <mergeCell ref="A149:A152"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="A156:A157"/>
-    <mergeCell ref="B254:B255"/>
-    <mergeCell ref="B256:B267"/>
-    <mergeCell ref="B193:B195"/>
-    <mergeCell ref="B196:B198"/>
-    <mergeCell ref="B199:B201"/>
-    <mergeCell ref="B202:B204"/>
-    <mergeCell ref="B205:B207"/>
-    <mergeCell ref="B166:B169"/>
-    <mergeCell ref="B170:B171"/>
-    <mergeCell ref="A159:A160"/>
-    <mergeCell ref="A161:A162"/>
-    <mergeCell ref="A163:A165"/>
-    <mergeCell ref="A166:A169"/>
-    <mergeCell ref="A170:A171"/>
+  <mergeCells count="231">
+    <mergeCell ref="K303:K307"/>
+    <mergeCell ref="K308:K311"/>
+    <mergeCell ref="K268:K272"/>
+    <mergeCell ref="K273:K274"/>
+    <mergeCell ref="K275:K276"/>
+    <mergeCell ref="K277:K281"/>
+    <mergeCell ref="K282:K286"/>
+    <mergeCell ref="K287:K291"/>
+    <mergeCell ref="K292:K293"/>
+    <mergeCell ref="K294:K296"/>
+    <mergeCell ref="K297:K302"/>
+    <mergeCell ref="K214:K216"/>
+    <mergeCell ref="K217:K220"/>
+    <mergeCell ref="K221:K224"/>
+    <mergeCell ref="K225:K228"/>
+    <mergeCell ref="K229:K231"/>
+    <mergeCell ref="K232:K245"/>
+    <mergeCell ref="K246:K253"/>
+    <mergeCell ref="K254:K255"/>
+    <mergeCell ref="K256:K267"/>
+    <mergeCell ref="K176:K178"/>
+    <mergeCell ref="K179:K192"/>
+    <mergeCell ref="K193:K195"/>
+    <mergeCell ref="K196:K198"/>
+    <mergeCell ref="K199:K201"/>
+    <mergeCell ref="K202:K204"/>
+    <mergeCell ref="K205:K207"/>
+    <mergeCell ref="K208:K210"/>
+    <mergeCell ref="K211:K213"/>
+    <mergeCell ref="K149:K152"/>
+    <mergeCell ref="K154:K155"/>
+    <mergeCell ref="K156:K157"/>
+    <mergeCell ref="K159:K160"/>
+    <mergeCell ref="K161:K162"/>
+    <mergeCell ref="K163:K165"/>
+    <mergeCell ref="K166:K169"/>
+    <mergeCell ref="K170:K171"/>
+    <mergeCell ref="K172:K175"/>
+    <mergeCell ref="K120:K122"/>
+    <mergeCell ref="K123:K125"/>
+    <mergeCell ref="K126:K128"/>
+    <mergeCell ref="K129:K131"/>
+    <mergeCell ref="K133:K135"/>
+    <mergeCell ref="K136:K138"/>
+    <mergeCell ref="K139:K142"/>
+    <mergeCell ref="K143:K146"/>
+    <mergeCell ref="K147:K148"/>
+    <mergeCell ref="K83:K85"/>
+    <mergeCell ref="K86:K90"/>
+    <mergeCell ref="K91:K92"/>
+    <mergeCell ref="K93:K96"/>
+    <mergeCell ref="K97:K100"/>
+    <mergeCell ref="K101:K102"/>
+    <mergeCell ref="K103:K105"/>
+    <mergeCell ref="K109:K113"/>
+    <mergeCell ref="K116:K119"/>
+    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="B163:B165"/>
+    <mergeCell ref="B136:B138"/>
+    <mergeCell ref="K2:K6"/>
+    <mergeCell ref="K7:K11"/>
+    <mergeCell ref="K12:K16"/>
+    <mergeCell ref="K17:K21"/>
+    <mergeCell ref="K22:K24"/>
+    <mergeCell ref="K25:K28"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K31:K37"/>
+    <mergeCell ref="K38:K41"/>
+    <mergeCell ref="K42:K46"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="K49:K52"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="K55:K57"/>
+    <mergeCell ref="K58:K59"/>
+    <mergeCell ref="K62:K63"/>
+    <mergeCell ref="K65:K67"/>
+    <mergeCell ref="K68:K72"/>
+    <mergeCell ref="K73:K74"/>
+    <mergeCell ref="K75:K76"/>
+    <mergeCell ref="K78:K81"/>
+    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A93:A96"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="B129:B131"/>
+    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="A116:A119"/>
+    <mergeCell ref="B133:B135"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B109:B113"/>
+    <mergeCell ref="B116:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B123:B125"/>
+    <mergeCell ref="B126:B128"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A68:A72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A47:A48"/>
     <mergeCell ref="B83:B85"/>
     <mergeCell ref="B86:B90"/>
     <mergeCell ref="B91:B92"/>
@@ -7686,55 +8240,92 @@
     <mergeCell ref="B73:B74"/>
     <mergeCell ref="B75:B76"/>
     <mergeCell ref="B78:B81"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A68:A72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="A86:A90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="A93:A96"/>
-    <mergeCell ref="A97:A100"/>
-    <mergeCell ref="B129:B131"/>
-    <mergeCell ref="A109:A113"/>
-    <mergeCell ref="A116:A119"/>
-    <mergeCell ref="B133:B135"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="B109:B113"/>
-    <mergeCell ref="B116:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B123:B125"/>
-    <mergeCell ref="B126:B128"/>
+    <mergeCell ref="B139:B142"/>
+    <mergeCell ref="B143:B146"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="B149:B152"/>
+    <mergeCell ref="A149:A152"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="A156:A157"/>
+    <mergeCell ref="B254:B255"/>
+    <mergeCell ref="B256:B267"/>
+    <mergeCell ref="B193:B195"/>
+    <mergeCell ref="B196:B198"/>
+    <mergeCell ref="B199:B201"/>
+    <mergeCell ref="B202:B204"/>
+    <mergeCell ref="B205:B207"/>
+    <mergeCell ref="B166:B169"/>
+    <mergeCell ref="B170:B171"/>
+    <mergeCell ref="A159:A160"/>
+    <mergeCell ref="A161:A162"/>
+    <mergeCell ref="A163:A165"/>
+    <mergeCell ref="A166:A169"/>
+    <mergeCell ref="A170:A171"/>
     <mergeCell ref="B154:B155"/>
     <mergeCell ref="B156:B157"/>
     <mergeCell ref="B159:B160"/>
-    <mergeCell ref="B161:B162"/>
-    <mergeCell ref="B163:B165"/>
-    <mergeCell ref="B136:B138"/>
+    <mergeCell ref="A120:A122"/>
+    <mergeCell ref="A123:A125"/>
+    <mergeCell ref="A126:A128"/>
+    <mergeCell ref="A129:A131"/>
+    <mergeCell ref="A133:A135"/>
+    <mergeCell ref="A136:A138"/>
+    <mergeCell ref="A139:A142"/>
+    <mergeCell ref="A143:A146"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="B172:B175"/>
+    <mergeCell ref="B176:B178"/>
+    <mergeCell ref="B179:B192"/>
+    <mergeCell ref="A214:A216"/>
+    <mergeCell ref="A217:A220"/>
+    <mergeCell ref="A221:A224"/>
+    <mergeCell ref="A199:A201"/>
+    <mergeCell ref="A202:A204"/>
+    <mergeCell ref="A205:A207"/>
+    <mergeCell ref="A208:A210"/>
+    <mergeCell ref="A211:A213"/>
+    <mergeCell ref="A172:A175"/>
+    <mergeCell ref="A176:A178"/>
+    <mergeCell ref="A179:A192"/>
+    <mergeCell ref="A193:A195"/>
+    <mergeCell ref="A196:A198"/>
+    <mergeCell ref="B208:B210"/>
+    <mergeCell ref="B211:B213"/>
+    <mergeCell ref="B214:B216"/>
+    <mergeCell ref="B217:B220"/>
+    <mergeCell ref="B221:B224"/>
+    <mergeCell ref="A225:A228"/>
+    <mergeCell ref="A229:A231"/>
+    <mergeCell ref="A232:A245"/>
+    <mergeCell ref="A246:A253"/>
+    <mergeCell ref="A254:A255"/>
+    <mergeCell ref="A256:A267"/>
+    <mergeCell ref="B277:B281"/>
+    <mergeCell ref="B282:B286"/>
+    <mergeCell ref="B287:B291"/>
+    <mergeCell ref="A287:A291"/>
+    <mergeCell ref="A268:A272"/>
+    <mergeCell ref="A273:A274"/>
+    <mergeCell ref="B268:B272"/>
+    <mergeCell ref="B273:B274"/>
+    <mergeCell ref="B275:B276"/>
+    <mergeCell ref="B225:B228"/>
+    <mergeCell ref="B229:B231"/>
+    <mergeCell ref="B232:B245"/>
+    <mergeCell ref="B246:B253"/>
+    <mergeCell ref="B294:B296"/>
+    <mergeCell ref="A294:A296"/>
+    <mergeCell ref="B297:B302"/>
+    <mergeCell ref="A297:A302"/>
+    <mergeCell ref="B303:B307"/>
+    <mergeCell ref="A303:A307"/>
+    <mergeCell ref="B308:B312"/>
+    <mergeCell ref="A308:A312"/>
+    <mergeCell ref="A275:A276"/>
+    <mergeCell ref="A277:A281"/>
+    <mergeCell ref="A282:A286"/>
+    <mergeCell ref="B292:B293"/>
+    <mergeCell ref="A292:A293"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/DPI_Table_Audit/Audit-Process-Sheet.xlsx
+++ b/DPI_Table_Audit/Audit-Process-Sheet.xlsx
@@ -827,6 +827,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -946,7 +949,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1005,13 +1008,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1029,25 +1032,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1356,8 +1362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E299" workbookViewId="0">
-      <selection activeCell="I307" sqref="I307"/>
+    <sheetView tabSelected="1" topLeftCell="E38" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1372,7 +1378,7 @@
     <col min="8" max="8" width="19" style="3" customWidth="1"/>
     <col min="9" max="9" width="19.42578125" style="3" customWidth="1"/>
     <col min="10" max="10" width="40.85546875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="24.42578125" style="37" customWidth="1"/>
     <col min="12" max="15" width="9.140625" style="3"/>
     <col min="16" max="16" width="9.140625" style="3" customWidth="1"/>
     <col min="17" max="26" width="9.140625" style="3"/>
@@ -1409,7 +1415,7 @@
       <c r="J1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="32" t="s">
         <v>172</v>
       </c>
     </row>
@@ -1459,7 +1465,7 @@
         <v>20</v>
       </c>
       <c r="H3" s="4"/>
-      <c r="K3" s="25"/>
+      <c r="K3" s="34"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="27"/>
@@ -1480,7 +1486,7 @@
         <v>80</v>
       </c>
       <c r="H4" s="4"/>
-      <c r="K4" s="25"/>
+      <c r="K4" s="34"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="27"/>
@@ -1501,7 +1507,7 @@
         <v>11</v>
       </c>
       <c r="H5" s="4"/>
-      <c r="K5" s="25"/>
+      <c r="K5" s="34"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="27"/>
@@ -1522,7 +1528,7 @@
         <v>100</v>
       </c>
       <c r="H6" s="4"/>
-      <c r="K6" s="26"/>
+      <c r="K6" s="35"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="27">
@@ -1568,7 +1574,7 @@
       <c r="G8" s="5">
         <v>20</v>
       </c>
-      <c r="K8" s="25"/>
+      <c r="K8" s="34"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="27"/>
@@ -1588,7 +1594,7 @@
       <c r="G9" s="3">
         <v>80</v>
       </c>
-      <c r="K9" s="25"/>
+      <c r="K9" s="34"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="27"/>
@@ -1608,7 +1614,7 @@
       <c r="G10" s="3">
         <v>11</v>
       </c>
-      <c r="K10" s="25"/>
+      <c r="K10" s="34"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="27"/>
@@ -1628,7 +1634,7 @@
       <c r="G11" s="3">
         <v>100</v>
       </c>
-      <c r="K11" s="26"/>
+      <c r="K11" s="35"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="27">
@@ -1674,7 +1680,7 @@
       <c r="G13" s="5">
         <v>20</v>
       </c>
-      <c r="K13" s="25"/>
+      <c r="K13" s="34"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="27"/>
@@ -1694,7 +1700,7 @@
       <c r="G14" s="3">
         <v>50</v>
       </c>
-      <c r="K14" s="25"/>
+      <c r="K14" s="34"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="27"/>
@@ -1711,7 +1717,7 @@
       <c r="F15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="25"/>
+      <c r="K15" s="34"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="27"/>
@@ -1731,7 +1737,7 @@
       <c r="G16" s="5">
         <v>5</v>
       </c>
-      <c r="K16" s="26"/>
+      <c r="K16" s="35"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="27">
@@ -1779,7 +1785,7 @@
         <v>20</v>
       </c>
       <c r="J18" s="4"/>
-      <c r="K18" s="25"/>
+      <c r="K18" s="34"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="27"/>
@@ -1797,7 +1803,7 @@
         <v>21</v>
       </c>
       <c r="J19" s="4"/>
-      <c r="K19" s="25"/>
+      <c r="K19" s="34"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="27"/>
@@ -1820,7 +1826,7 @@
       <c r="J20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K20" s="25"/>
+      <c r="K20" s="34"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="27"/>
@@ -1831,7 +1837,7 @@
       <c r="J21" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K21" s="26"/>
+      <c r="K21" s="35"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="27">
@@ -1877,7 +1883,7 @@
       <c r="G23" s="5">
         <v>20</v>
       </c>
-      <c r="K23" s="25"/>
+      <c r="K23" s="34"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="27"/>
@@ -1897,7 +1903,7 @@
       <c r="G24" s="3">
         <v>3000</v>
       </c>
-      <c r="K24" s="26"/>
+      <c r="K24" s="35"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="27">
@@ -1943,7 +1949,7 @@
       <c r="G26" s="5">
         <v>20</v>
       </c>
-      <c r="K26" s="25"/>
+      <c r="K26" s="34"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="27"/>
@@ -1960,7 +1966,7 @@
       <c r="F27" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K27" s="25"/>
+      <c r="K27" s="34"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="27"/>
@@ -1980,7 +1986,7 @@
       <c r="G28" s="3">
         <v>50</v>
       </c>
-      <c r="K28" s="26"/>
+      <c r="K28" s="35"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="27">
@@ -2026,7 +2032,7 @@
       <c r="G30" s="5">
         <v>20</v>
       </c>
-      <c r="K30" s="26"/>
+      <c r="K30" s="35"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="27">
@@ -2072,7 +2078,7 @@
       <c r="G32" s="5">
         <v>20</v>
       </c>
-      <c r="K32" s="25"/>
+      <c r="K32" s="34"/>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="27"/>
@@ -2089,7 +2095,7 @@
       <c r="F33" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K33" s="25"/>
+      <c r="K33" s="34"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="27"/>
@@ -2109,7 +2115,7 @@
       <c r="G34" s="3">
         <v>10</v>
       </c>
-      <c r="K34" s="25"/>
+      <c r="K34" s="34"/>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="27"/>
@@ -2129,7 +2135,7 @@
       <c r="G35" s="3">
         <v>11</v>
       </c>
-      <c r="K35" s="25"/>
+      <c r="K35" s="34"/>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="27"/>
@@ -2149,7 +2155,7 @@
       <c r="G36" s="6">
         <v>80</v>
       </c>
-      <c r="K36" s="25"/>
+      <c r="K36" s="34"/>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="27"/>
@@ -2169,7 +2175,7 @@
       <c r="G37" s="6">
         <v>100</v>
       </c>
-      <c r="K37" s="26"/>
+      <c r="K37" s="35"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="27">
@@ -2215,7 +2221,7 @@
       <c r="G39" s="3">
         <v>50</v>
       </c>
-      <c r="K39" s="25"/>
+      <c r="K39" s="34"/>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="27"/>
@@ -2235,7 +2241,7 @@
       <c r="G40" s="3">
         <v>50</v>
       </c>
-      <c r="K40" s="25"/>
+      <c r="K40" s="34"/>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="27"/>
@@ -2255,7 +2261,7 @@
       <c r="G41" s="3">
         <v>6</v>
       </c>
-      <c r="K41" s="26"/>
+      <c r="K41" s="35"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="27">
@@ -2301,7 +2307,7 @@
       <c r="G43" s="5">
         <v>20</v>
       </c>
-      <c r="K43" s="25"/>
+      <c r="K43" s="34"/>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="27"/>
@@ -2321,7 +2327,7 @@
       <c r="G44" s="3">
         <v>20</v>
       </c>
-      <c r="K44" s="25"/>
+      <c r="K44" s="34"/>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="27"/>
@@ -2341,7 +2347,7 @@
       <c r="G45" s="3">
         <v>10</v>
       </c>
-      <c r="K45" s="25"/>
+      <c r="K45" s="34"/>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="27"/>
@@ -2361,7 +2367,7 @@
       <c r="G46" s="6">
         <v>20</v>
       </c>
-      <c r="K46" s="26"/>
+      <c r="K46" s="35"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="27">
@@ -2407,7 +2413,7 @@
       <c r="G48" s="5">
         <v>11</v>
       </c>
-      <c r="K48" s="26"/>
+      <c r="K48" s="35"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="27">
@@ -2453,7 +2459,7 @@
       <c r="G50" s="3">
         <v>50</v>
       </c>
-      <c r="K50" s="25"/>
+      <c r="K50" s="34"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="27"/>
@@ -2473,7 +2479,7 @@
       <c r="G51" s="3">
         <v>40</v>
       </c>
-      <c r="K51" s="25"/>
+      <c r="K51" s="34"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="27"/>
@@ -2493,7 +2499,7 @@
       <c r="G52" s="3">
         <v>10</v>
       </c>
-      <c r="K52" s="26"/>
+      <c r="K52" s="35"/>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="27">
@@ -2539,7 +2545,7 @@
       <c r="G54" s="5">
         <v>25</v>
       </c>
-      <c r="K54" s="26"/>
+      <c r="K54" s="35"/>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="27">
@@ -2585,7 +2591,7 @@
       <c r="G56" s="5">
         <v>20</v>
       </c>
-      <c r="K56" s="25"/>
+      <c r="K56" s="34"/>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="27"/>
@@ -2605,7 +2611,7 @@
       <c r="G57" s="3">
         <v>5000</v>
       </c>
-      <c r="K57" s="26"/>
+      <c r="K57" s="35"/>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="27">
@@ -2651,7 +2657,7 @@
       <c r="G59" s="5">
         <v>30</v>
       </c>
-      <c r="K59" s="26"/>
+      <c r="K59" s="35"/>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="13">
@@ -2675,7 +2681,7 @@
       <c r="G60" s="3">
         <v>20</v>
       </c>
-      <c r="K60" s="34">
+      <c r="K60" s="36">
         <v>45540</v>
       </c>
     </row>
@@ -2701,7 +2707,7 @@
       <c r="G61" s="3">
         <v>20</v>
       </c>
-      <c r="K61" s="34">
+      <c r="K61" s="36">
         <v>45540</v>
       </c>
     </row>
@@ -2749,7 +2755,7 @@
       <c r="G63" s="5">
         <v>20</v>
       </c>
-      <c r="K63" s="26"/>
+      <c r="K63" s="35"/>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="13">
@@ -2773,7 +2779,7 @@
       <c r="G64" s="3">
         <v>20</v>
       </c>
-      <c r="K64" s="35">
+      <c r="K64" s="37">
         <v>45544</v>
       </c>
     </row>
@@ -2821,7 +2827,7 @@
       <c r="G66" s="3">
         <v>20</v>
       </c>
-      <c r="K66" s="25"/>
+      <c r="K66" s="34"/>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="27"/>
@@ -2836,7 +2842,7 @@
         <v>21</v>
       </c>
       <c r="G67" s="5"/>
-      <c r="K67" s="26"/>
+      <c r="K67" s="35"/>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="27">
@@ -2877,7 +2883,7 @@
         <v>21</v>
       </c>
       <c r="G69" s="5"/>
-      <c r="K69" s="25"/>
+      <c r="K69" s="34"/>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="27"/>
@@ -2894,7 +2900,7 @@
       <c r="F70" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K70" s="25"/>
+      <c r="K70" s="34"/>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="27"/>
@@ -2914,7 +2920,7 @@
       <c r="G71" s="3">
         <v>50</v>
       </c>
-      <c r="K71" s="25"/>
+      <c r="K71" s="34"/>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="27"/>
@@ -2934,7 +2940,7 @@
       <c r="G72" s="3">
         <v>50</v>
       </c>
-      <c r="K72" s="26"/>
+      <c r="K72" s="35"/>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="27">
@@ -2980,7 +2986,7 @@
       <c r="G74" s="3">
         <v>1000</v>
       </c>
-      <c r="K74" s="26"/>
+      <c r="K74" s="35"/>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="27">
@@ -3026,7 +3032,7 @@
       <c r="G76" s="5">
         <v>5</v>
       </c>
-      <c r="K76" s="26"/>
+      <c r="K76" s="35"/>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="13">
@@ -3050,7 +3056,7 @@
       <c r="G77" s="3">
         <v>20</v>
       </c>
-      <c r="K77" s="35">
+      <c r="K77" s="37">
         <v>45540</v>
       </c>
     </row>
@@ -3098,7 +3104,7 @@
       <c r="G79" s="3">
         <v>50</v>
       </c>
-      <c r="K79" s="25"/>
+      <c r="K79" s="34"/>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="27"/>
@@ -3118,7 +3124,7 @@
       <c r="G80" s="3">
         <v>50</v>
       </c>
-      <c r="K80" s="25"/>
+      <c r="K80" s="34"/>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="27"/>
@@ -3138,7 +3144,7 @@
       <c r="G81" s="3">
         <v>6</v>
       </c>
-      <c r="K81" s="26"/>
+      <c r="K81" s="35"/>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="13">
@@ -3162,7 +3168,7 @@
       <c r="G82" s="3">
         <v>20</v>
       </c>
-      <c r="K82" s="35">
+      <c r="K82" s="37">
         <v>45553</v>
       </c>
     </row>
@@ -3210,7 +3216,7 @@
       <c r="G84" s="3">
         <v>20</v>
       </c>
-      <c r="K84" s="25"/>
+      <c r="K84" s="34"/>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="27"/>
@@ -3225,7 +3231,7 @@
         <v>21</v>
       </c>
       <c r="G85" s="5"/>
-      <c r="K85" s="26"/>
+      <c r="K85" s="35"/>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="27">
@@ -3266,7 +3272,7 @@
         <v>21</v>
       </c>
       <c r="G87" s="5"/>
-      <c r="K87" s="25"/>
+      <c r="K87" s="34"/>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="27"/>
@@ -3283,7 +3289,7 @@
       <c r="F88" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K88" s="25"/>
+      <c r="K88" s="34"/>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="27"/>
@@ -3303,7 +3309,7 @@
       <c r="G89" s="3">
         <v>50</v>
       </c>
-      <c r="K89" s="25"/>
+      <c r="K89" s="34"/>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="27"/>
@@ -3323,7 +3329,7 @@
       <c r="G90" s="3">
         <v>50</v>
       </c>
-      <c r="K90" s="26"/>
+      <c r="K90" s="35"/>
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="27">
@@ -3369,7 +3375,7 @@
       <c r="G92" s="5">
         <v>5</v>
       </c>
-      <c r="K92" s="26"/>
+      <c r="K92" s="35"/>
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="27">
@@ -3415,7 +3421,7 @@
       <c r="G94" s="3">
         <v>30</v>
       </c>
-      <c r="K94" s="25"/>
+      <c r="K94" s="34"/>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="27"/>
@@ -3435,7 +3441,7 @@
       <c r="G95" s="3">
         <v>30</v>
       </c>
-      <c r="K95" s="25"/>
+      <c r="K95" s="34"/>
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="27"/>
@@ -3458,7 +3464,7 @@
       <c r="J96" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K96" s="26"/>
+      <c r="K96" s="35"/>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="27">
@@ -3507,7 +3513,7 @@
       <c r="J98" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="K98" s="25"/>
+      <c r="K98" s="34"/>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="27"/>
@@ -3530,7 +3536,7 @@
       <c r="J99" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="K99" s="25"/>
+      <c r="K99" s="34"/>
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="27"/>
@@ -3553,7 +3559,7 @@
       <c r="J100" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="K100" s="26"/>
+      <c r="K100" s="35"/>
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="27">
@@ -3599,7 +3605,7 @@
       <c r="G102" s="3">
         <v>20</v>
       </c>
-      <c r="K102" s="26"/>
+      <c r="K102" s="35"/>
     </row>
     <row r="103" spans="1:11">
       <c r="A103" s="27">
@@ -3645,7 +3651,7 @@
       <c r="G104" s="3">
         <v>20</v>
       </c>
-      <c r="K104" s="25"/>
+      <c r="K104" s="34"/>
     </row>
     <row r="105" spans="1:11">
       <c r="A105" s="27"/>
@@ -3662,7 +3668,7 @@
       <c r="F105" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K105" s="26"/>
+      <c r="K105" s="35"/>
     </row>
     <row r="106" spans="1:11">
       <c r="A106" s="13">
@@ -3686,7 +3692,7 @@
       <c r="G106" s="3">
         <v>20</v>
       </c>
-      <c r="K106" s="35">
+      <c r="K106" s="37">
         <v>45544</v>
       </c>
     </row>
@@ -3712,7 +3718,7 @@
       <c r="G107" s="3">
         <v>30</v>
       </c>
-      <c r="K107" s="35">
+      <c r="K107" s="37">
         <v>45545</v>
       </c>
     </row>
@@ -3738,7 +3744,7 @@
       <c r="G108" s="3">
         <v>30</v>
       </c>
-      <c r="K108" s="35">
+      <c r="K108" s="37">
         <v>45545</v>
       </c>
     </row>
@@ -3786,7 +3792,7 @@
       <c r="G110" s="3">
         <v>50</v>
       </c>
-      <c r="K110" s="25"/>
+      <c r="K110" s="34"/>
     </row>
     <row r="111" spans="1:11">
       <c r="A111" s="27"/>
@@ -3806,7 +3812,7 @@
       <c r="G111" s="3">
         <v>3</v>
       </c>
-      <c r="K111" s="25"/>
+      <c r="K111" s="34"/>
     </row>
     <row r="112" spans="1:11">
       <c r="A112" s="27"/>
@@ -3826,7 +3832,7 @@
       <c r="G112" s="5">
         <v>20</v>
       </c>
-      <c r="K112" s="25"/>
+      <c r="K112" s="34"/>
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="27"/>
@@ -3846,7 +3852,7 @@
       <c r="G113" s="6">
         <v>50</v>
       </c>
-      <c r="K113" s="26"/>
+      <c r="K113" s="35"/>
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="13">
@@ -3870,7 +3876,7 @@
       <c r="G114" s="3">
         <v>20</v>
       </c>
-      <c r="K114" s="35">
+      <c r="K114" s="37">
         <v>45545</v>
       </c>
     </row>
@@ -3896,7 +3902,7 @@
       <c r="G115" s="3">
         <v>20</v>
       </c>
-      <c r="K115" s="35">
+      <c r="K115" s="37">
         <v>45545</v>
       </c>
     </row>
@@ -3944,7 +3950,7 @@
       <c r="G117" s="5">
         <v>30</v>
       </c>
-      <c r="K117" s="25"/>
+      <c r="K117" s="34"/>
     </row>
     <row r="118" spans="1:11">
       <c r="A118" s="27"/>
@@ -3964,7 +3970,7 @@
       <c r="G118" s="3">
         <v>30</v>
       </c>
-      <c r="K118" s="25"/>
+      <c r="K118" s="34"/>
     </row>
     <row r="119" spans="1:11">
       <c r="A119" s="27"/>
@@ -3978,10 +3984,10 @@
       <c r="F119" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="K119" s="26"/>
+      <c r="K119" s="35"/>
     </row>
     <row r="120" spans="1:11">
-      <c r="A120" s="24">
+      <c r="A120" s="26">
         <v>41</v>
       </c>
       <c r="B120" s="27" t="s">
@@ -4002,12 +4008,12 @@
       <c r="G120" s="3">
         <v>20</v>
       </c>
-      <c r="K120" s="24" t="s">
+      <c r="K120" s="33" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="121" spans="1:11">
-      <c r="A121" s="25"/>
+      <c r="A121" s="24"/>
       <c r="B121" s="27"/>
       <c r="C121" s="3" t="s">
         <v>120</v>
@@ -4024,10 +4030,10 @@
       <c r="G121" s="5">
         <v>10</v>
       </c>
-      <c r="K121" s="25"/>
+      <c r="K121" s="34"/>
     </row>
     <row r="122" spans="1:11">
-      <c r="A122" s="26"/>
+      <c r="A122" s="25"/>
       <c r="B122" s="27"/>
       <c r="C122" s="3" t="s">
         <v>121</v>
@@ -4044,10 +4050,10 @@
       <c r="G122" s="3">
         <v>15</v>
       </c>
-      <c r="K122" s="26"/>
+      <c r="K122" s="35"/>
     </row>
     <row r="123" spans="1:11">
-      <c r="A123" s="24">
+      <c r="A123" s="26">
         <v>42</v>
       </c>
       <c r="B123" s="27" t="s">
@@ -4073,7 +4079,7 @@
       </c>
     </row>
     <row r="124" spans="1:11">
-      <c r="A124" s="25"/>
+      <c r="A124" s="24"/>
       <c r="B124" s="27"/>
       <c r="C124" s="3" t="s">
         <v>123</v>
@@ -4090,10 +4096,10 @@
       <c r="G124" s="5">
         <v>50</v>
       </c>
-      <c r="K124" s="25"/>
+      <c r="K124" s="34"/>
     </row>
     <row r="125" spans="1:11">
-      <c r="A125" s="26"/>
+      <c r="A125" s="25"/>
       <c r="B125" s="27"/>
       <c r="C125" s="3" t="s">
         <v>121</v>
@@ -4110,10 +4116,10 @@
       <c r="G125" s="3">
         <v>50</v>
       </c>
-      <c r="K125" s="26"/>
+      <c r="K125" s="35"/>
     </row>
     <row r="126" spans="1:11">
-      <c r="A126" s="24">
+      <c r="A126" s="26">
         <v>43</v>
       </c>
       <c r="B126" s="27" t="s">
@@ -4139,7 +4145,7 @@
       </c>
     </row>
     <row r="127" spans="1:11">
-      <c r="A127" s="25"/>
+      <c r="A127" s="24"/>
       <c r="B127" s="27"/>
       <c r="C127" s="3" t="s">
         <v>125</v>
@@ -4156,10 +4162,10 @@
       <c r="G127" s="5">
         <v>60</v>
       </c>
-      <c r="K127" s="25"/>
+      <c r="K127" s="34"/>
     </row>
     <row r="128" spans="1:11">
-      <c r="A128" s="26"/>
+      <c r="A128" s="25"/>
       <c r="B128" s="27"/>
       <c r="C128" s="3" t="s">
         <v>126</v>
@@ -4176,10 +4182,10 @@
       <c r="G128" s="3">
         <v>60</v>
       </c>
-      <c r="K128" s="26"/>
+      <c r="K128" s="35"/>
     </row>
     <row r="129" spans="1:11">
-      <c r="A129" s="24">
+      <c r="A129" s="26">
         <v>44</v>
       </c>
       <c r="B129" s="27" t="s">
@@ -4205,7 +4211,7 @@
       </c>
     </row>
     <row r="130" spans="1:11">
-      <c r="A130" s="25"/>
+      <c r="A130" s="24"/>
       <c r="B130" s="27"/>
       <c r="C130" s="3" t="s">
         <v>128</v>
@@ -4222,10 +4228,10 @@
       <c r="G130" s="5">
         <v>50</v>
       </c>
-      <c r="K130" s="25"/>
+      <c r="K130" s="34"/>
     </row>
     <row r="131" spans="1:11">
-      <c r="A131" s="26"/>
+      <c r="A131" s="25"/>
       <c r="B131" s="27"/>
       <c r="C131" s="3" t="s">
         <v>126</v>
@@ -4242,7 +4248,7 @@
       <c r="G131" s="3">
         <v>50</v>
       </c>
-      <c r="K131" s="26"/>
+      <c r="K131" s="35"/>
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="13">
@@ -4266,12 +4272,12 @@
       <c r="G132" s="3">
         <v>20</v>
       </c>
-      <c r="K132" s="34">
+      <c r="K132" s="36">
         <v>45545</v>
       </c>
     </row>
     <row r="133" spans="1:11">
-      <c r="A133" s="24">
+      <c r="A133" s="26">
         <v>46</v>
       </c>
       <c r="B133" s="27" t="s">
@@ -4297,7 +4303,7 @@
       </c>
     </row>
     <row r="134" spans="1:11">
-      <c r="A134" s="25"/>
+      <c r="A134" s="24"/>
       <c r="B134" s="27"/>
       <c r="C134" s="3" t="s">
         <v>131</v>
@@ -4314,10 +4320,10 @@
       <c r="G134" s="3">
         <v>30</v>
       </c>
-      <c r="K134" s="25"/>
+      <c r="K134" s="34"/>
     </row>
     <row r="135" spans="1:11">
-      <c r="A135" s="26"/>
+      <c r="A135" s="25"/>
       <c r="B135" s="27"/>
       <c r="C135" s="3" t="s">
         <v>132</v>
@@ -4334,10 +4340,10 @@
       <c r="G135" s="3">
         <v>20</v>
       </c>
-      <c r="K135" s="26"/>
+      <c r="K135" s="35"/>
     </row>
     <row r="136" spans="1:11">
-      <c r="A136" s="24">
+      <c r="A136" s="26">
         <v>47</v>
       </c>
       <c r="B136" s="27" t="s">
@@ -4363,7 +4369,7 @@
       </c>
     </row>
     <row r="137" spans="1:11">
-      <c r="A137" s="25"/>
+      <c r="A137" s="24"/>
       <c r="B137" s="27"/>
       <c r="C137" s="3" t="s">
         <v>8</v>
@@ -4381,10 +4387,10 @@
         <v>20</v>
       </c>
       <c r="I137" s="4"/>
-      <c r="K137" s="25"/>
+      <c r="K137" s="34"/>
     </row>
     <row r="138" spans="1:11">
-      <c r="A138" s="26"/>
+      <c r="A138" s="25"/>
       <c r="B138" s="27"/>
       <c r="C138" s="3" t="s">
         <v>134</v>
@@ -4399,10 +4405,10 @@
         <v>21</v>
       </c>
       <c r="I138" s="4"/>
-      <c r="K138" s="26"/>
+      <c r="K138" s="35"/>
     </row>
     <row r="139" spans="1:11">
-      <c r="A139" s="24">
+      <c r="A139" s="26">
         <v>48</v>
       </c>
       <c r="B139" s="27" t="s">
@@ -4429,7 +4435,7 @@
       </c>
     </row>
     <row r="140" spans="1:11">
-      <c r="A140" s="25"/>
+      <c r="A140" s="24"/>
       <c r="B140" s="27"/>
       <c r="C140" s="3" t="s">
         <v>137</v>
@@ -4450,10 +4456,10 @@
       <c r="J140" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="K140" s="25"/>
+      <c r="K140" s="34"/>
     </row>
     <row r="141" spans="1:11">
-      <c r="A141" s="25"/>
+      <c r="A141" s="24"/>
       <c r="B141" s="27"/>
       <c r="C141" s="3" t="s">
         <v>139</v>
@@ -4471,10 +4477,10 @@
         <v>50</v>
       </c>
       <c r="I141" s="4"/>
-      <c r="K141" s="25"/>
+      <c r="K141" s="34"/>
     </row>
     <row r="142" spans="1:11">
-      <c r="A142" s="26"/>
+      <c r="A142" s="25"/>
       <c r="B142" s="27"/>
       <c r="C142" s="3" t="s">
         <v>140</v>
@@ -4486,10 +4492,10 @@
         <v>21</v>
       </c>
       <c r="I142" s="4"/>
-      <c r="K142" s="26"/>
+      <c r="K142" s="35"/>
     </row>
     <row r="143" spans="1:11">
-      <c r="A143" s="24">
+      <c r="A143" s="26">
         <v>49</v>
       </c>
       <c r="B143" s="27" t="s">
@@ -4515,7 +4521,7 @@
       </c>
     </row>
     <row r="144" spans="1:11">
-      <c r="A144" s="25"/>
+      <c r="A144" s="24"/>
       <c r="B144" s="27"/>
       <c r="C144" s="3" t="s">
         <v>143</v>
@@ -4532,10 +4538,10 @@
       <c r="G144" s="3">
         <v>11</v>
       </c>
-      <c r="K144" s="25"/>
+      <c r="K144" s="34"/>
     </row>
     <row r="145" spans="1:11">
-      <c r="A145" s="25"/>
+      <c r="A145" s="24"/>
       <c r="B145" s="27"/>
       <c r="C145" s="3" t="s">
         <v>144</v>
@@ -4552,10 +4558,10 @@
       <c r="G145" s="3">
         <v>11</v>
       </c>
-      <c r="K145" s="25"/>
+      <c r="K145" s="34"/>
     </row>
     <row r="146" spans="1:11">
-      <c r="A146" s="26"/>
+      <c r="A146" s="25"/>
       <c r="B146" s="27"/>
       <c r="C146" s="3" t="s">
         <v>145</v>
@@ -4572,10 +4578,10 @@
       <c r="G146" s="3">
         <v>20</v>
       </c>
-      <c r="K146" s="26"/>
+      <c r="K146" s="35"/>
     </row>
     <row r="147" spans="1:11">
-      <c r="A147" s="24">
+      <c r="A147" s="26">
         <v>50</v>
       </c>
       <c r="B147" s="27" t="s">
@@ -4601,7 +4607,7 @@
       </c>
     </row>
     <row r="148" spans="1:11">
-      <c r="A148" s="26"/>
+      <c r="A148" s="25"/>
       <c r="B148" s="27"/>
       <c r="C148" s="3" t="s">
         <v>148</v>
@@ -4618,10 +4624,10 @@
       <c r="G148" s="3">
         <v>50</v>
       </c>
-      <c r="K148" s="26"/>
+      <c r="K148" s="35"/>
     </row>
     <row r="149" spans="1:11">
-      <c r="A149" s="24">
+      <c r="A149" s="26">
         <v>51</v>
       </c>
       <c r="B149" s="27" t="s">
@@ -4647,7 +4653,7 @@
       </c>
     </row>
     <row r="150" spans="1:11">
-      <c r="A150" s="25"/>
+      <c r="A150" s="24"/>
       <c r="B150" s="27"/>
       <c r="C150" s="10" t="s">
         <v>150</v>
@@ -4664,10 +4670,10 @@
       <c r="G150" s="3">
         <v>5</v>
       </c>
-      <c r="K150" s="25"/>
+      <c r="K150" s="34"/>
     </row>
     <row r="151" spans="1:11">
-      <c r="A151" s="25"/>
+      <c r="A151" s="24"/>
       <c r="B151" s="27"/>
       <c r="C151" s="3" t="s">
         <v>151</v>
@@ -4684,10 +4690,10 @@
       <c r="G151" s="3">
         <v>50</v>
       </c>
-      <c r="K151" s="25"/>
+      <c r="K151" s="34"/>
     </row>
     <row r="152" spans="1:11">
-      <c r="A152" s="26"/>
+      <c r="A152" s="25"/>
       <c r="B152" s="27"/>
       <c r="C152" s="3" t="s">
         <v>152</v>
@@ -4698,7 +4704,7 @@
       <c r="F152" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K152" s="26"/>
+      <c r="K152" s="35"/>
     </row>
     <row r="153" spans="1:11">
       <c r="A153" s="13">
@@ -4722,12 +4728,12 @@
       <c r="G153" s="3">
         <v>20</v>
       </c>
-      <c r="K153" s="35">
+      <c r="K153" s="37">
         <v>45545</v>
       </c>
     </row>
     <row r="154" spans="1:11">
-      <c r="A154" s="24">
+      <c r="A154" s="26">
         <v>53</v>
       </c>
       <c r="B154" s="27" t="s">
@@ -4753,7 +4759,7 @@
       </c>
     </row>
     <row r="155" spans="1:11">
-      <c r="A155" s="26"/>
+      <c r="A155" s="25"/>
       <c r="B155" s="27"/>
       <c r="C155" s="3" t="s">
         <v>50</v>
@@ -4770,10 +4776,10 @@
       <c r="G155" s="3">
         <v>20</v>
       </c>
-      <c r="K155" s="26"/>
+      <c r="K155" s="35"/>
     </row>
     <row r="156" spans="1:11">
-      <c r="A156" s="24">
+      <c r="A156" s="26">
         <v>54</v>
       </c>
       <c r="B156" s="27" t="s">
@@ -4799,7 +4805,7 @@
       </c>
     </row>
     <row r="157" spans="1:11">
-      <c r="A157" s="26"/>
+      <c r="A157" s="25"/>
       <c r="B157" s="27"/>
       <c r="C157" s="3" t="s">
         <v>155</v>
@@ -4816,7 +4822,7 @@
       <c r="G157" s="3">
         <v>50</v>
       </c>
-      <c r="K157" s="26"/>
+      <c r="K157" s="35"/>
     </row>
     <row r="158" spans="1:11">
       <c r="A158" s="13">
@@ -4840,12 +4846,12 @@
       <c r="G158" s="3">
         <v>100</v>
       </c>
-      <c r="K158" s="35">
+      <c r="K158" s="37">
         <v>45552</v>
       </c>
     </row>
     <row r="159" spans="1:11">
-      <c r="A159" s="24">
+      <c r="A159" s="26">
         <v>56</v>
       </c>
       <c r="B159" s="27" t="s">
@@ -4871,7 +4877,7 @@
       </c>
     </row>
     <row r="160" spans="1:11">
-      <c r="A160" s="26"/>
+      <c r="A160" s="25"/>
       <c r="B160" s="27"/>
       <c r="C160" s="3" t="s">
         <v>159</v>
@@ -4888,10 +4894,10 @@
       <c r="G160" s="3">
         <v>3</v>
       </c>
-      <c r="K160" s="26"/>
+      <c r="K160" s="35"/>
     </row>
     <row r="161" spans="1:11">
-      <c r="A161" s="24">
+      <c r="A161" s="26">
         <v>57</v>
       </c>
       <c r="B161" s="27" t="s">
@@ -4917,7 +4923,7 @@
       </c>
     </row>
     <row r="162" spans="1:11">
-      <c r="A162" s="26"/>
+      <c r="A162" s="25"/>
       <c r="B162" s="27"/>
       <c r="C162" s="3" t="s">
         <v>161</v>
@@ -4934,10 +4940,10 @@
       <c r="G162" s="3">
         <v>50</v>
       </c>
-      <c r="K162" s="26"/>
+      <c r="K162" s="35"/>
     </row>
     <row r="163" spans="1:11">
-      <c r="A163" s="24">
+      <c r="A163" s="26">
         <v>58</v>
       </c>
       <c r="B163" s="27" t="s">
@@ -4963,7 +4969,7 @@
       </c>
     </row>
     <row r="164" spans="1:11">
-      <c r="A164" s="25"/>
+      <c r="A164" s="24"/>
       <c r="B164" s="27"/>
       <c r="C164" s="3" t="s">
         <v>163</v>
@@ -4980,10 +4986,10 @@
       <c r="G164" s="3">
         <v>25</v>
       </c>
-      <c r="K164" s="25"/>
+      <c r="K164" s="34"/>
     </row>
     <row r="165" spans="1:11">
-      <c r="A165" s="26"/>
+      <c r="A165" s="25"/>
       <c r="B165" s="27"/>
       <c r="C165" s="3" t="s">
         <v>164</v>
@@ -4994,10 +5000,10 @@
       <c r="F165" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="K165" s="26"/>
+      <c r="K165" s="35"/>
     </row>
     <row r="166" spans="1:11">
-      <c r="A166" s="24">
+      <c r="A166" s="26">
         <v>59</v>
       </c>
       <c r="B166" s="27" t="s">
@@ -5023,7 +5029,7 @@
       </c>
     </row>
     <row r="167" spans="1:11">
-      <c r="A167" s="25"/>
+      <c r="A167" s="24"/>
       <c r="B167" s="27"/>
       <c r="C167" s="3" t="s">
         <v>166</v>
@@ -5040,10 +5046,10 @@
       <c r="G167" s="3">
         <v>10</v>
       </c>
-      <c r="K167" s="25"/>
+      <c r="K167" s="34"/>
     </row>
     <row r="168" spans="1:11">
-      <c r="A168" s="25"/>
+      <c r="A168" s="24"/>
       <c r="B168" s="27"/>
       <c r="C168" s="3" t="s">
         <v>167</v>
@@ -5060,10 +5066,10 @@
       <c r="G168" s="3">
         <v>10</v>
       </c>
-      <c r="K168" s="25"/>
+      <c r="K168" s="34"/>
     </row>
     <row r="169" spans="1:11">
-      <c r="A169" s="26"/>
+      <c r="A169" s="25"/>
       <c r="B169" s="27"/>
       <c r="C169" s="3" t="s">
         <v>168</v>
@@ -5080,10 +5086,10 @@
       <c r="G169" s="3">
         <v>2</v>
       </c>
-      <c r="K169" s="26"/>
+      <c r="K169" s="35"/>
     </row>
     <row r="170" spans="1:11">
-      <c r="A170" s="24">
+      <c r="A170" s="26">
         <v>60</v>
       </c>
       <c r="B170" s="27" t="s">
@@ -5109,7 +5115,7 @@
       </c>
     </row>
     <row r="171" spans="1:11">
-      <c r="A171" s="26"/>
+      <c r="A171" s="25"/>
       <c r="B171" s="27"/>
       <c r="C171" s="3" t="s">
         <v>71</v>
@@ -5123,10 +5129,10 @@
       <c r="F171" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K171" s="26"/>
+      <c r="K171" s="35"/>
     </row>
     <row r="172" spans="1:11">
-      <c r="A172" s="24">
+      <c r="A172" s="26">
         <v>61</v>
       </c>
       <c r="B172" s="27" t="s">
@@ -5152,7 +5158,7 @@
       </c>
     </row>
     <row r="173" spans="1:11">
-      <c r="A173" s="25"/>
+      <c r="A173" s="24"/>
       <c r="B173" s="27"/>
       <c r="C173" s="3" t="s">
         <v>166</v>
@@ -5169,10 +5175,10 @@
       <c r="G173" s="3">
         <v>10</v>
       </c>
-      <c r="K173" s="25"/>
+      <c r="K173" s="34"/>
     </row>
     <row r="174" spans="1:11">
-      <c r="A174" s="25"/>
+      <c r="A174" s="24"/>
       <c r="B174" s="27"/>
       <c r="C174" s="3" t="s">
         <v>167</v>
@@ -5189,10 +5195,10 @@
       <c r="G174" s="3">
         <v>10</v>
       </c>
-      <c r="K174" s="25"/>
+      <c r="K174" s="34"/>
     </row>
     <row r="175" spans="1:11">
-      <c r="A175" s="26"/>
+      <c r="A175" s="25"/>
       <c r="B175" s="27"/>
       <c r="C175" s="3" t="s">
         <v>168</v>
@@ -5209,10 +5215,10 @@
       <c r="G175" s="3">
         <v>2</v>
       </c>
-      <c r="K175" s="26"/>
+      <c r="K175" s="35"/>
     </row>
     <row r="176" spans="1:11">
-      <c r="A176" s="24">
+      <c r="A176" s="26">
         <v>62</v>
       </c>
       <c r="B176" s="27" t="s">
@@ -5238,7 +5244,7 @@
       </c>
     </row>
     <row r="177" spans="1:11">
-      <c r="A177" s="25"/>
+      <c r="A177" s="24"/>
       <c r="B177" s="27"/>
       <c r="C177" s="3" t="s">
         <v>8</v>
@@ -5255,10 +5261,10 @@
       <c r="G177" s="3">
         <v>20</v>
       </c>
-      <c r="K177" s="25"/>
+      <c r="K177" s="34"/>
     </row>
     <row r="178" spans="1:11">
-      <c r="A178" s="26"/>
+      <c r="A178" s="25"/>
       <c r="B178" s="27"/>
       <c r="C178" s="3" t="s">
         <v>173</v>
@@ -5275,10 +5281,10 @@
       <c r="G178" s="3">
         <v>3</v>
       </c>
-      <c r="K178" s="26"/>
+      <c r="K178" s="35"/>
     </row>
     <row r="179" spans="1:11">
-      <c r="A179" s="24">
+      <c r="A179" s="26">
         <v>63</v>
       </c>
       <c r="B179" s="28" t="s">
@@ -5298,7 +5304,7 @@
       </c>
     </row>
     <row r="180" spans="1:11">
-      <c r="A180" s="25"/>
+      <c r="A180" s="24"/>
       <c r="B180" s="28"/>
       <c r="C180" s="3" t="s">
         <v>176</v>
@@ -5315,10 +5321,10 @@
       <c r="G180" s="3">
         <v>3000</v>
       </c>
-      <c r="K180" s="25"/>
+      <c r="K180" s="34"/>
     </row>
     <row r="181" spans="1:11">
-      <c r="A181" s="25"/>
+      <c r="A181" s="24"/>
       <c r="B181" s="28"/>
       <c r="C181" s="3" t="s">
         <v>177</v>
@@ -5335,10 +5341,10 @@
       <c r="G181" s="3">
         <v>3000</v>
       </c>
-      <c r="K181" s="25"/>
+      <c r="K181" s="34"/>
     </row>
     <row r="182" spans="1:11">
-      <c r="A182" s="25"/>
+      <c r="A182" s="24"/>
       <c r="B182" s="28"/>
       <c r="C182" s="3" t="s">
         <v>178</v>
@@ -5355,10 +5361,10 @@
       <c r="G182" s="3">
         <v>3000</v>
       </c>
-      <c r="K182" s="25"/>
+      <c r="K182" s="34"/>
     </row>
     <row r="183" spans="1:11">
-      <c r="A183" s="25"/>
+      <c r="A183" s="24"/>
       <c r="B183" s="28"/>
       <c r="C183" s="3" t="s">
         <v>179</v>
@@ -5375,10 +5381,10 @@
       <c r="G183" s="3">
         <v>3000</v>
       </c>
-      <c r="K183" s="25"/>
+      <c r="K183" s="34"/>
     </row>
     <row r="184" spans="1:11">
-      <c r="A184" s="25"/>
+      <c r="A184" s="24"/>
       <c r="B184" s="28"/>
       <c r="C184" s="3" t="s">
         <v>180</v>
@@ -5395,10 +5401,10 @@
       <c r="G184" s="3">
         <v>3000</v>
       </c>
-      <c r="K184" s="25"/>
+      <c r="K184" s="34"/>
     </row>
     <row r="185" spans="1:11">
-      <c r="A185" s="25"/>
+      <c r="A185" s="24"/>
       <c r="B185" s="28"/>
       <c r="C185" s="3" t="s">
         <v>181</v>
@@ -5415,10 +5421,10 @@
       <c r="G185" s="3">
         <v>3000</v>
       </c>
-      <c r="K185" s="25"/>
+      <c r="K185" s="34"/>
     </row>
     <row r="186" spans="1:11">
-      <c r="A186" s="25"/>
+      <c r="A186" s="24"/>
       <c r="B186" s="28"/>
       <c r="C186" s="3" t="s">
         <v>182</v>
@@ -5435,10 +5441,10 @@
       <c r="G186" s="3">
         <v>3000</v>
       </c>
-      <c r="K186" s="25"/>
+      <c r="K186" s="34"/>
     </row>
     <row r="187" spans="1:11">
-      <c r="A187" s="25"/>
+      <c r="A187" s="24"/>
       <c r="B187" s="28"/>
       <c r="C187" s="3" t="s">
         <v>183</v>
@@ -5455,10 +5461,10 @@
       <c r="G187" s="3">
         <v>3000</v>
       </c>
-      <c r="K187" s="25"/>
+      <c r="K187" s="34"/>
     </row>
     <row r="188" spans="1:11">
-      <c r="A188" s="25"/>
+      <c r="A188" s="24"/>
       <c r="B188" s="28"/>
       <c r="C188" s="3" t="s">
         <v>184</v>
@@ -5475,10 +5481,10 @@
       <c r="G188" s="3">
         <v>3000</v>
       </c>
-      <c r="K188" s="25"/>
+      <c r="K188" s="34"/>
     </row>
     <row r="189" spans="1:11">
-      <c r="A189" s="25"/>
+      <c r="A189" s="24"/>
       <c r="B189" s="28"/>
       <c r="C189" s="3" t="s">
         <v>185</v>
@@ -5495,10 +5501,10 @@
       <c r="G189" s="3">
         <v>3000</v>
       </c>
-      <c r="K189" s="25"/>
+      <c r="K189" s="34"/>
     </row>
     <row r="190" spans="1:11">
-      <c r="A190" s="25"/>
+      <c r="A190" s="24"/>
       <c r="B190" s="28"/>
       <c r="C190" s="3" t="s">
         <v>6</v>
@@ -5515,10 +5521,10 @@
       <c r="G190" s="6">
         <v>20</v>
       </c>
-      <c r="K190" s="25"/>
+      <c r="K190" s="34"/>
     </row>
     <row r="191" spans="1:11">
-      <c r="A191" s="25"/>
+      <c r="A191" s="24"/>
       <c r="B191" s="28"/>
       <c r="C191" s="3" t="s">
         <v>8</v>
@@ -5535,10 +5541,10 @@
       <c r="G191" s="6">
         <v>20</v>
       </c>
-      <c r="K191" s="25"/>
+      <c r="K191" s="34"/>
     </row>
     <row r="192" spans="1:11">
-      <c r="A192" s="26"/>
+      <c r="A192" s="25"/>
       <c r="B192" s="28"/>
       <c r="C192" s="3" t="s">
         <v>186</v>
@@ -5552,10 +5558,10 @@
       <c r="F192" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="K192" s="26"/>
+      <c r="K192" s="35"/>
     </row>
     <row r="193" spans="1:11">
-      <c r="A193" s="24">
+      <c r="A193" s="26">
         <v>64</v>
       </c>
       <c r="B193" s="27" t="s">
@@ -5581,7 +5587,7 @@
       </c>
     </row>
     <row r="194" spans="1:11">
-      <c r="A194" s="25"/>
+      <c r="A194" s="24"/>
       <c r="B194" s="27"/>
       <c r="C194" s="3" t="s">
         <v>8</v>
@@ -5598,10 +5604,10 @@
       <c r="G194" s="3">
         <v>20</v>
       </c>
-      <c r="K194" s="25"/>
+      <c r="K194" s="34"/>
     </row>
     <row r="195" spans="1:11">
-      <c r="A195" s="26"/>
+      <c r="A195" s="25"/>
       <c r="B195" s="27"/>
       <c r="C195" s="3" t="s">
         <v>71</v>
@@ -5615,10 +5621,10 @@
       <c r="F195" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K195" s="26"/>
+      <c r="K195" s="35"/>
     </row>
     <row r="196" spans="1:11">
-      <c r="A196" s="24">
+      <c r="A196" s="26">
         <v>65</v>
       </c>
       <c r="B196" s="27" t="s">
@@ -5644,7 +5650,7 @@
       </c>
     </row>
     <row r="197" spans="1:11">
-      <c r="A197" s="25"/>
+      <c r="A197" s="24"/>
       <c r="B197" s="27"/>
       <c r="C197" s="3" t="s">
         <v>8</v>
@@ -5661,10 +5667,10 @@
       <c r="G197" s="3">
         <v>20</v>
       </c>
-      <c r="K197" s="25"/>
+      <c r="K197" s="34"/>
     </row>
     <row r="198" spans="1:11">
-      <c r="A198" s="26"/>
+      <c r="A198" s="25"/>
       <c r="B198" s="27"/>
       <c r="C198" s="3" t="s">
         <v>71</v>
@@ -5678,10 +5684,10 @@
       <c r="F198" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K198" s="26"/>
+      <c r="K198" s="35"/>
     </row>
     <row r="199" spans="1:11">
-      <c r="A199" s="24">
+      <c r="A199" s="26">
         <v>66</v>
       </c>
       <c r="B199" s="27" t="s">
@@ -5707,7 +5713,7 @@
       </c>
     </row>
     <row r="200" spans="1:11">
-      <c r="A200" s="25"/>
+      <c r="A200" s="24"/>
       <c r="B200" s="27"/>
       <c r="C200" s="3" t="s">
         <v>190</v>
@@ -5724,10 +5730,10 @@
       <c r="G200" s="3">
         <v>40</v>
       </c>
-      <c r="K200" s="25"/>
+      <c r="K200" s="34"/>
     </row>
     <row r="201" spans="1:11">
-      <c r="A201" s="26"/>
+      <c r="A201" s="25"/>
       <c r="B201" s="27"/>
       <c r="C201" s="3" t="s">
         <v>191</v>
@@ -5744,10 +5750,10 @@
       <c r="G201" s="3">
         <v>40</v>
       </c>
-      <c r="K201" s="26"/>
+      <c r="K201" s="35"/>
     </row>
     <row r="202" spans="1:11">
-      <c r="A202" s="24">
+      <c r="A202" s="26">
         <v>67</v>
       </c>
       <c r="B202" s="27" t="s">
@@ -5773,7 +5779,7 @@
       </c>
     </row>
     <row r="203" spans="1:11">
-      <c r="A203" s="25"/>
+      <c r="A203" s="24"/>
       <c r="B203" s="27"/>
       <c r="C203" s="3" t="s">
         <v>193</v>
@@ -5790,10 +5796,10 @@
       <c r="G203" s="3">
         <v>30</v>
       </c>
-      <c r="K203" s="25"/>
+      <c r="K203" s="34"/>
     </row>
     <row r="204" spans="1:11">
-      <c r="A204" s="26"/>
+      <c r="A204" s="25"/>
       <c r="B204" s="27"/>
       <c r="C204" s="3" t="s">
         <v>194</v>
@@ -5810,10 +5816,10 @@
       <c r="G204" s="3">
         <v>30</v>
       </c>
-      <c r="K204" s="26"/>
+      <c r="K204" s="35"/>
     </row>
     <row r="205" spans="1:11">
-      <c r="A205" s="24">
+      <c r="A205" s="26">
         <v>68</v>
       </c>
       <c r="B205" s="27" t="s">
@@ -5839,7 +5845,7 @@
       </c>
     </row>
     <row r="206" spans="1:11">
-      <c r="A206" s="25"/>
+      <c r="A206" s="24"/>
       <c r="B206" s="27"/>
       <c r="C206" s="3" t="s">
         <v>196</v>
@@ -5856,10 +5862,10 @@
       <c r="G206" s="3">
         <v>30</v>
       </c>
-      <c r="K206" s="25"/>
+      <c r="K206" s="34"/>
     </row>
     <row r="207" spans="1:11">
-      <c r="A207" s="26"/>
+      <c r="A207" s="25"/>
       <c r="B207" s="27"/>
       <c r="C207" s="3" t="s">
         <v>197</v>
@@ -5876,10 +5882,10 @@
       <c r="G207" s="3">
         <v>30</v>
       </c>
-      <c r="K207" s="26"/>
+      <c r="K207" s="35"/>
     </row>
     <row r="208" spans="1:11">
-      <c r="A208" s="24">
+      <c r="A208" s="26">
         <v>69</v>
       </c>
       <c r="B208" s="27" t="s">
@@ -5905,7 +5911,7 @@
       </c>
     </row>
     <row r="209" spans="1:11">
-      <c r="A209" s="25"/>
+      <c r="A209" s="24"/>
       <c r="B209" s="27"/>
       <c r="C209" s="3" t="s">
         <v>199</v>
@@ -5922,10 +5928,10 @@
       <c r="G209" s="3">
         <v>30</v>
       </c>
-      <c r="K209" s="25"/>
+      <c r="K209" s="34"/>
     </row>
     <row r="210" spans="1:11">
-      <c r="A210" s="26"/>
+      <c r="A210" s="25"/>
       <c r="B210" s="27"/>
       <c r="C210" s="3" t="s">
         <v>200</v>
@@ -5942,10 +5948,10 @@
       <c r="G210" s="3">
         <v>30</v>
       </c>
-      <c r="K210" s="26"/>
+      <c r="K210" s="35"/>
     </row>
     <row r="211" spans="1:11">
-      <c r="A211" s="24">
+      <c r="A211" s="26">
         <v>70</v>
       </c>
       <c r="B211" s="27" t="s">
@@ -5971,7 +5977,7 @@
       </c>
     </row>
     <row r="212" spans="1:11">
-      <c r="A212" s="25"/>
+      <c r="A212" s="24"/>
       <c r="B212" s="27"/>
       <c r="C212" s="3" t="s">
         <v>202</v>
@@ -5988,10 +5994,10 @@
       <c r="G212" s="3">
         <v>60</v>
       </c>
-      <c r="K212" s="25"/>
+      <c r="K212" s="34"/>
     </row>
     <row r="213" spans="1:11">
-      <c r="A213" s="26"/>
+      <c r="A213" s="25"/>
       <c r="B213" s="27"/>
       <c r="C213" s="3" t="s">
         <v>203</v>
@@ -6008,10 +6014,10 @@
       <c r="G213" s="3">
         <v>60</v>
       </c>
-      <c r="K213" s="26"/>
+      <c r="K213" s="35"/>
     </row>
     <row r="214" spans="1:11">
-      <c r="A214" s="24">
+      <c r="A214" s="26">
         <v>71</v>
       </c>
       <c r="B214" s="27" t="s">
@@ -6037,7 +6043,7 @@
       </c>
     </row>
     <row r="215" spans="1:11">
-      <c r="A215" s="25"/>
+      <c r="A215" s="24"/>
       <c r="B215" s="27"/>
       <c r="C215" s="11" t="s">
         <v>202</v>
@@ -6054,10 +6060,10 @@
       <c r="G215" s="11">
         <v>60</v>
       </c>
-      <c r="K215" s="25"/>
+      <c r="K215" s="34"/>
     </row>
     <row r="216" spans="1:11">
-      <c r="A216" s="26"/>
+      <c r="A216" s="25"/>
       <c r="B216" s="27"/>
       <c r="C216" s="11" t="s">
         <v>203</v>
@@ -6074,13 +6080,13 @@
       <c r="G216" s="11">
         <v>60</v>
       </c>
-      <c r="K216" s="26"/>
+      <c r="K216" s="35"/>
     </row>
     <row r="217" spans="1:11">
-      <c r="A217" s="24">
+      <c r="A217" s="26">
         <v>72</v>
       </c>
-      <c r="B217" s="24" t="s">
+      <c r="B217" s="26" t="s">
         <v>209</v>
       </c>
       <c r="C217" s="3" t="s">
@@ -6103,8 +6109,8 @@
       </c>
     </row>
     <row r="218" spans="1:11">
-      <c r="A218" s="25"/>
-      <c r="B218" s="25"/>
+      <c r="A218" s="24"/>
+      <c r="B218" s="24"/>
       <c r="C218" s="3" t="s">
         <v>206</v>
       </c>
@@ -6120,11 +6126,11 @@
       <c r="G218" s="3">
         <v>60</v>
       </c>
-      <c r="K218" s="25"/>
+      <c r="K218" s="34"/>
     </row>
     <row r="219" spans="1:11" s="4" customFormat="1" ht="30" customHeight="1">
-      <c r="A219" s="25"/>
-      <c r="B219" s="25"/>
+      <c r="A219" s="24"/>
+      <c r="B219" s="24"/>
       <c r="C219" s="4" t="s">
         <v>207</v>
       </c>
@@ -6135,11 +6141,11 @@
       <c r="J219" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="K219" s="25"/>
+      <c r="K219" s="34"/>
     </row>
     <row r="220" spans="1:11">
-      <c r="A220" s="26"/>
-      <c r="B220" s="26"/>
+      <c r="A220" s="25"/>
+      <c r="B220" s="25"/>
       <c r="C220" s="3" t="s">
         <v>208</v>
       </c>
@@ -6149,13 +6155,13 @@
       <c r="J220" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="K220" s="26"/>
+      <c r="K220" s="35"/>
     </row>
     <row r="221" spans="1:11">
-      <c r="A221" s="24">
+      <c r="A221" s="26">
         <v>73</v>
       </c>
-      <c r="B221" s="24" t="s">
+      <c r="B221" s="26" t="s">
         <v>211</v>
       </c>
       <c r="C221" s="3" t="s">
@@ -6178,8 +6184,8 @@
       </c>
     </row>
     <row r="222" spans="1:11">
-      <c r="A222" s="25"/>
-      <c r="B222" s="25"/>
+      <c r="A222" s="24"/>
+      <c r="B222" s="24"/>
       <c r="C222" s="3" t="s">
         <v>212</v>
       </c>
@@ -6195,11 +6201,11 @@
       <c r="G222" s="3">
         <v>6</v>
       </c>
-      <c r="K222" s="25"/>
+      <c r="K222" s="34"/>
     </row>
     <row r="223" spans="1:11">
-      <c r="A223" s="25"/>
-      <c r="B223" s="25"/>
+      <c r="A223" s="24"/>
+      <c r="B223" s="24"/>
       <c r="C223" s="3" t="s">
         <v>86</v>
       </c>
@@ -6215,11 +6221,11 @@
       <c r="G223" s="3">
         <v>20</v>
       </c>
-      <c r="K223" s="25"/>
+      <c r="K223" s="34"/>
     </row>
     <row r="224" spans="1:11">
-      <c r="A224" s="26"/>
-      <c r="B224" s="26"/>
+      <c r="A224" s="25"/>
+      <c r="B224" s="25"/>
       <c r="C224" s="3" t="s">
         <v>213</v>
       </c>
@@ -6235,13 +6241,13 @@
       <c r="G224" s="3">
         <v>20</v>
       </c>
-      <c r="K224" s="26"/>
+      <c r="K224" s="35"/>
     </row>
     <row r="225" spans="1:11">
-      <c r="A225" s="24">
+      <c r="A225" s="26">
         <v>74</v>
       </c>
-      <c r="B225" s="24" t="s">
+      <c r="B225" s="26" t="s">
         <v>216</v>
       </c>
       <c r="C225" s="3" t="s">
@@ -6264,8 +6270,8 @@
       </c>
     </row>
     <row r="226" spans="1:11">
-      <c r="A226" s="25"/>
-      <c r="B226" s="25"/>
+      <c r="A226" s="24"/>
+      <c r="B226" s="24"/>
       <c r="C226" s="3" t="s">
         <v>8</v>
       </c>
@@ -6281,11 +6287,11 @@
       <c r="G226" s="3">
         <v>20</v>
       </c>
-      <c r="K226" s="25"/>
+      <c r="K226" s="34"/>
     </row>
     <row r="227" spans="1:11">
-      <c r="A227" s="25"/>
-      <c r="B227" s="25"/>
+      <c r="A227" s="24"/>
+      <c r="B227" s="24"/>
       <c r="C227" s="3" t="s">
         <v>214</v>
       </c>
@@ -6301,11 +6307,11 @@
       <c r="G227" s="3">
         <v>20</v>
       </c>
-      <c r="K227" s="25"/>
+      <c r="K227" s="34"/>
     </row>
     <row r="228" spans="1:11">
-      <c r="A228" s="26"/>
-      <c r="B228" s="26"/>
+      <c r="A228" s="25"/>
+      <c r="B228" s="25"/>
       <c r="C228" s="3" t="s">
         <v>215</v>
       </c>
@@ -6321,13 +6327,13 @@
       <c r="G228" s="3">
         <v>20</v>
       </c>
-      <c r="K228" s="26"/>
+      <c r="K228" s="35"/>
     </row>
     <row r="229" spans="1:11">
-      <c r="A229" s="24">
+      <c r="A229" s="26">
         <v>75</v>
       </c>
-      <c r="B229" s="24" t="s">
+      <c r="B229" s="26" t="s">
         <v>219</v>
       </c>
       <c r="C229" s="3" t="s">
@@ -6350,8 +6356,8 @@
       </c>
     </row>
     <row r="230" spans="1:11">
-      <c r="A230" s="25"/>
-      <c r="B230" s="25"/>
+      <c r="A230" s="24"/>
+      <c r="B230" s="24"/>
       <c r="C230" s="3" t="s">
         <v>217</v>
       </c>
@@ -6367,11 +6373,11 @@
       <c r="G230" s="3">
         <v>20</v>
       </c>
-      <c r="K230" s="25"/>
+      <c r="K230" s="34"/>
     </row>
     <row r="231" spans="1:11">
-      <c r="A231" s="26"/>
-      <c r="B231" s="26"/>
+      <c r="A231" s="25"/>
+      <c r="B231" s="25"/>
       <c r="C231" s="3" t="s">
         <v>218</v>
       </c>
@@ -6387,10 +6393,10 @@
       <c r="G231" s="3">
         <v>20</v>
       </c>
-      <c r="K231" s="26"/>
+      <c r="K231" s="35"/>
     </row>
     <row r="232" spans="1:11">
-      <c r="A232" s="24">
+      <c r="A232" s="26">
         <v>76</v>
       </c>
       <c r="B232" s="29" t="s">
@@ -6410,7 +6416,7 @@
       </c>
     </row>
     <row r="233" spans="1:11">
-      <c r="A233" s="25"/>
+      <c r="A233" s="24"/>
       <c r="B233" s="30"/>
       <c r="C233" s="3" t="s">
         <v>176</v>
@@ -6427,10 +6433,10 @@
       <c r="G233" s="3">
         <v>3000</v>
       </c>
-      <c r="K233" s="36"/>
+      <c r="K233" s="34"/>
     </row>
     <row r="234" spans="1:11">
-      <c r="A234" s="25"/>
+      <c r="A234" s="24"/>
       <c r="B234" s="30"/>
       <c r="C234" s="3" t="s">
         <v>177</v>
@@ -6447,10 +6453,10 @@
       <c r="G234" s="3">
         <v>3000</v>
       </c>
-      <c r="K234" s="36"/>
+      <c r="K234" s="34"/>
     </row>
     <row r="235" spans="1:11">
-      <c r="A235" s="25"/>
+      <c r="A235" s="24"/>
       <c r="B235" s="30"/>
       <c r="C235" s="3" t="s">
         <v>178</v>
@@ -6467,10 +6473,10 @@
       <c r="G235" s="3">
         <v>3000</v>
       </c>
-      <c r="K235" s="36"/>
+      <c r="K235" s="34"/>
     </row>
     <row r="236" spans="1:11">
-      <c r="A236" s="25"/>
+      <c r="A236" s="24"/>
       <c r="B236" s="30"/>
       <c r="C236" s="3" t="s">
         <v>179</v>
@@ -6487,10 +6493,10 @@
       <c r="G236" s="3">
         <v>3000</v>
       </c>
-      <c r="K236" s="36"/>
+      <c r="K236" s="34"/>
     </row>
     <row r="237" spans="1:11">
-      <c r="A237" s="25"/>
+      <c r="A237" s="24"/>
       <c r="B237" s="30"/>
       <c r="C237" s="3" t="s">
         <v>180</v>
@@ -6507,10 +6513,10 @@
       <c r="G237" s="3">
         <v>3000</v>
       </c>
-      <c r="K237" s="36"/>
+      <c r="K237" s="34"/>
     </row>
     <row r="238" spans="1:11">
-      <c r="A238" s="25"/>
+      <c r="A238" s="24"/>
       <c r="B238" s="30"/>
       <c r="C238" s="3" t="s">
         <v>181</v>
@@ -6527,10 +6533,10 @@
       <c r="G238" s="3">
         <v>3000</v>
       </c>
-      <c r="K238" s="36"/>
+      <c r="K238" s="34"/>
     </row>
     <row r="239" spans="1:11">
-      <c r="A239" s="25"/>
+      <c r="A239" s="24"/>
       <c r="B239" s="30"/>
       <c r="C239" s="3" t="s">
         <v>182</v>
@@ -6547,10 +6553,10 @@
       <c r="G239" s="3">
         <v>3000</v>
       </c>
-      <c r="K239" s="36"/>
+      <c r="K239" s="34"/>
     </row>
     <row r="240" spans="1:11">
-      <c r="A240" s="25"/>
+      <c r="A240" s="24"/>
       <c r="B240" s="30"/>
       <c r="C240" s="3" t="s">
         <v>183</v>
@@ -6567,10 +6573,10 @@
       <c r="G240" s="3">
         <v>3000</v>
       </c>
-      <c r="K240" s="36"/>
+      <c r="K240" s="34"/>
     </row>
     <row r="241" spans="1:11">
-      <c r="A241" s="25"/>
+      <c r="A241" s="24"/>
       <c r="B241" s="30"/>
       <c r="C241" s="3" t="s">
         <v>184</v>
@@ -6587,10 +6593,10 @@
       <c r="G241" s="3">
         <v>3000</v>
       </c>
-      <c r="K241" s="36"/>
+      <c r="K241" s="34"/>
     </row>
     <row r="242" spans="1:11">
-      <c r="A242" s="25"/>
+      <c r="A242" s="24"/>
       <c r="B242" s="30"/>
       <c r="C242" s="3" t="s">
         <v>185</v>
@@ -6607,10 +6613,10 @@
       <c r="G242" s="3">
         <v>3000</v>
       </c>
-      <c r="K242" s="36"/>
+      <c r="K242" s="34"/>
     </row>
     <row r="243" spans="1:11">
-      <c r="A243" s="25"/>
+      <c r="A243" s="24"/>
       <c r="B243" s="30"/>
       <c r="C243" s="3" t="s">
         <v>6</v>
@@ -6627,10 +6633,10 @@
       <c r="G243" s="6">
         <v>20</v>
       </c>
-      <c r="K243" s="36"/>
+      <c r="K243" s="34"/>
     </row>
     <row r="244" spans="1:11">
-      <c r="A244" s="25"/>
+      <c r="A244" s="24"/>
       <c r="B244" s="30"/>
       <c r="C244" s="3" t="s">
         <v>8</v>
@@ -6647,10 +6653,10 @@
       <c r="G244" s="6">
         <v>20</v>
       </c>
-      <c r="K244" s="36"/>
+      <c r="K244" s="34"/>
     </row>
     <row r="245" spans="1:11">
-      <c r="A245" s="26"/>
+      <c r="A245" s="25"/>
       <c r="B245" s="31"/>
       <c r="C245" s="3" t="s">
         <v>186</v>
@@ -6664,13 +6670,13 @@
       <c r="F245" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="K245" s="37"/>
+      <c r="K245" s="35"/>
     </row>
     <row r="246" spans="1:11" ht="45">
-      <c r="A246" s="24">
+      <c r="A246" s="26">
         <v>77</v>
       </c>
-      <c r="B246" s="24" t="s">
+      <c r="B246" s="26" t="s">
         <v>226</v>
       </c>
       <c r="C246" s="3" t="s">
@@ -6690,8 +6696,8 @@
       </c>
     </row>
     <row r="247" spans="1:11">
-      <c r="A247" s="25"/>
-      <c r="B247" s="25"/>
+      <c r="A247" s="24"/>
+      <c r="B247" s="24"/>
       <c r="C247" s="3" t="s">
         <v>222</v>
       </c>
@@ -6704,11 +6710,11 @@
       <c r="F247" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="K247" s="25"/>
+      <c r="K247" s="34"/>
     </row>
     <row r="248" spans="1:11" ht="45">
-      <c r="A248" s="25"/>
-      <c r="B248" s="25"/>
+      <c r="A248" s="24"/>
+      <c r="B248" s="24"/>
       <c r="C248" s="3" t="s">
         <v>223</v>
       </c>
@@ -6721,11 +6727,11 @@
       <c r="J248" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="K248" s="25"/>
+      <c r="K248" s="34"/>
     </row>
     <row r="249" spans="1:11" ht="45">
-      <c r="A249" s="25"/>
-      <c r="B249" s="25"/>
+      <c r="A249" s="24"/>
+      <c r="B249" s="24"/>
       <c r="C249" s="3" t="s">
         <v>224</v>
       </c>
@@ -6744,11 +6750,11 @@
       <c r="J249" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="K249" s="25"/>
+      <c r="K249" s="34"/>
     </row>
     <row r="250" spans="1:11">
-      <c r="A250" s="25"/>
-      <c r="B250" s="25"/>
+      <c r="A250" s="24"/>
+      <c r="B250" s="24"/>
       <c r="C250" s="3" t="s">
         <v>5</v>
       </c>
@@ -6764,11 +6770,11 @@
       <c r="G250" s="3">
         <v>3000</v>
       </c>
-      <c r="K250" s="25"/>
+      <c r="K250" s="34"/>
     </row>
     <row r="251" spans="1:11">
-      <c r="A251" s="25"/>
-      <c r="B251" s="25"/>
+      <c r="A251" s="24"/>
+      <c r="B251" s="24"/>
       <c r="C251" s="3" t="s">
         <v>225</v>
       </c>
@@ -6784,11 +6790,11 @@
       <c r="G251" s="3">
         <v>5</v>
       </c>
-      <c r="K251" s="25"/>
+      <c r="K251" s="34"/>
     </row>
     <row r="252" spans="1:11">
-      <c r="A252" s="25"/>
-      <c r="B252" s="25"/>
+      <c r="A252" s="24"/>
+      <c r="B252" s="24"/>
       <c r="C252" s="3" t="s">
         <v>6</v>
       </c>
@@ -6804,11 +6810,11 @@
       <c r="G252" s="3">
         <v>20</v>
       </c>
-      <c r="K252" s="25"/>
+      <c r="K252" s="34"/>
     </row>
     <row r="253" spans="1:11">
-      <c r="A253" s="26"/>
-      <c r="B253" s="26"/>
+      <c r="A253" s="25"/>
+      <c r="B253" s="25"/>
       <c r="C253" s="3" t="s">
         <v>8</v>
       </c>
@@ -6824,13 +6830,13 @@
       <c r="G253" s="3">
         <v>20</v>
       </c>
-      <c r="K253" s="26"/>
+      <c r="K253" s="35"/>
     </row>
     <row r="254" spans="1:11">
-      <c r="A254" s="24">
+      <c r="A254" s="26">
         <v>78</v>
       </c>
-      <c r="B254" s="24" t="s">
+      <c r="B254" s="26" t="s">
         <v>232</v>
       </c>
       <c r="C254" s="3" t="s">
@@ -6853,8 +6859,8 @@
       </c>
     </row>
     <row r="255" spans="1:11">
-      <c r="A255" s="26"/>
-      <c r="B255" s="26"/>
+      <c r="A255" s="25"/>
+      <c r="B255" s="25"/>
       <c r="C255" s="3" t="s">
         <v>231</v>
       </c>
@@ -6870,13 +6876,13 @@
       <c r="G255" s="3">
         <v>15</v>
       </c>
-      <c r="K255" s="26"/>
+      <c r="K255" s="35"/>
     </row>
     <row r="256" spans="1:11" ht="30">
-      <c r="A256" s="24">
+      <c r="A256" s="26">
         <v>79</v>
       </c>
-      <c r="B256" s="24" t="s">
+      <c r="B256" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C256" s="3" t="s">
@@ -6899,8 +6905,8 @@
       </c>
     </row>
     <row r="257" spans="1:11" ht="30">
-      <c r="A257" s="25"/>
-      <c r="B257" s="25"/>
+      <c r="A257" s="24"/>
+      <c r="B257" s="24"/>
       <c r="C257" s="3" t="s">
         <v>234</v>
       </c>
@@ -6919,11 +6925,11 @@
       <c r="J257" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="K257" s="25"/>
+      <c r="K257" s="34"/>
     </row>
     <row r="258" spans="1:11">
-      <c r="A258" s="25"/>
-      <c r="B258" s="25"/>
+      <c r="A258" s="24"/>
+      <c r="B258" s="24"/>
       <c r="C258" s="3" t="s">
         <v>235</v>
       </c>
@@ -6939,11 +6945,11 @@
       <c r="G258" s="3">
         <v>250</v>
       </c>
-      <c r="K258" s="25"/>
+      <c r="K258" s="34"/>
     </row>
     <row r="259" spans="1:11">
-      <c r="A259" s="25"/>
-      <c r="B259" s="25"/>
+      <c r="A259" s="24"/>
+      <c r="B259" s="24"/>
       <c r="C259" s="3" t="s">
         <v>6</v>
       </c>
@@ -6959,11 +6965,11 @@
       <c r="G259" s="3">
         <v>50</v>
       </c>
-      <c r="K259" s="25"/>
+      <c r="K259" s="34"/>
     </row>
     <row r="260" spans="1:11">
-      <c r="A260" s="25"/>
-      <c r="B260" s="25"/>
+      <c r="A260" s="24"/>
+      <c r="B260" s="24"/>
       <c r="C260" s="3" t="s">
         <v>236</v>
       </c>
@@ -6979,11 +6985,11 @@
       <c r="G260" s="3">
         <v>20</v>
       </c>
-      <c r="K260" s="25"/>
+      <c r="K260" s="34"/>
     </row>
     <row r="261" spans="1:11">
-      <c r="A261" s="25"/>
-      <c r="B261" s="25"/>
+      <c r="A261" s="24"/>
+      <c r="B261" s="24"/>
       <c r="C261" s="3" t="s">
         <v>237</v>
       </c>
@@ -6999,11 +7005,11 @@
       <c r="G261" s="3">
         <v>20</v>
       </c>
-      <c r="K261" s="25"/>
+      <c r="K261" s="34"/>
     </row>
     <row r="262" spans="1:11">
-      <c r="A262" s="25"/>
-      <c r="B262" s="25"/>
+      <c r="A262" s="24"/>
+      <c r="B262" s="24"/>
       <c r="C262" s="3" t="s">
         <v>238</v>
       </c>
@@ -7019,11 +7025,11 @@
       <c r="G262" s="3">
         <v>20</v>
       </c>
-      <c r="K262" s="25"/>
+      <c r="K262" s="34"/>
     </row>
     <row r="263" spans="1:11">
-      <c r="A263" s="25"/>
-      <c r="B263" s="25"/>
+      <c r="A263" s="24"/>
+      <c r="B263" s="24"/>
       <c r="C263" s="3" t="s">
         <v>239</v>
       </c>
@@ -7039,11 +7045,11 @@
       <c r="G263" s="3">
         <v>20</v>
       </c>
-      <c r="K263" s="25"/>
+      <c r="K263" s="34"/>
     </row>
     <row r="264" spans="1:11">
-      <c r="A264" s="25"/>
-      <c r="B264" s="25"/>
+      <c r="A264" s="24"/>
+      <c r="B264" s="24"/>
       <c r="C264" s="3" t="s">
         <v>240</v>
       </c>
@@ -7059,11 +7065,11 @@
       <c r="G264" s="3">
         <v>100</v>
       </c>
-      <c r="K264" s="25"/>
+      <c r="K264" s="34"/>
     </row>
     <row r="265" spans="1:11">
-      <c r="A265" s="25"/>
-      <c r="B265" s="25"/>
+      <c r="A265" s="24"/>
+      <c r="B265" s="24"/>
       <c r="C265" s="3" t="s">
         <v>241</v>
       </c>
@@ -7079,11 +7085,11 @@
       <c r="G265" s="3">
         <v>100</v>
       </c>
-      <c r="K265" s="25"/>
+      <c r="K265" s="34"/>
     </row>
     <row r="266" spans="1:11">
-      <c r="A266" s="25"/>
-      <c r="B266" s="25"/>
+      <c r="A266" s="24"/>
+      <c r="B266" s="24"/>
       <c r="C266" s="3" t="s">
         <v>242</v>
       </c>
@@ -7099,11 +7105,11 @@
       <c r="G266" s="3">
         <v>100</v>
       </c>
-      <c r="K266" s="25"/>
+      <c r="K266" s="34"/>
     </row>
     <row r="267" spans="1:11">
-      <c r="A267" s="26"/>
-      <c r="B267" s="26"/>
+      <c r="A267" s="25"/>
+      <c r="B267" s="25"/>
       <c r="C267" s="3" t="s">
         <v>243</v>
       </c>
@@ -7119,13 +7125,13 @@
       <c r="G267" s="3">
         <v>100</v>
       </c>
-      <c r="K267" s="26"/>
+      <c r="K267" s="35"/>
     </row>
     <row r="268" spans="1:11">
-      <c r="A268" s="24">
+      <c r="A268" s="26">
         <v>80</v>
       </c>
-      <c r="B268" s="24" t="s">
+      <c r="B268" s="26" t="s">
         <v>250</v>
       </c>
       <c r="C268" s="3" t="s">
@@ -7148,8 +7154,8 @@
       </c>
     </row>
     <row r="269" spans="1:11">
-      <c r="A269" s="25"/>
-      <c r="B269" s="25"/>
+      <c r="A269" s="24"/>
+      <c r="B269" s="24"/>
       <c r="C269" s="3" t="s">
         <v>8</v>
       </c>
@@ -7165,11 +7171,11 @@
       <c r="G269" s="3">
         <v>30</v>
       </c>
-      <c r="K269" s="25"/>
+      <c r="K269" s="34"/>
     </row>
     <row r="270" spans="1:11">
-      <c r="A270" s="25"/>
-      <c r="B270" s="25"/>
+      <c r="A270" s="24"/>
+      <c r="B270" s="24"/>
       <c r="C270" s="3" t="s">
         <v>247</v>
       </c>
@@ -7185,11 +7191,11 @@
       <c r="G270" s="3">
         <v>50</v>
       </c>
-      <c r="K270" s="25"/>
+      <c r="K270" s="34"/>
     </row>
     <row r="271" spans="1:11">
-      <c r="A271" s="25"/>
-      <c r="B271" s="25"/>
+      <c r="A271" s="24"/>
+      <c r="B271" s="24"/>
       <c r="C271" s="3" t="s">
         <v>248</v>
       </c>
@@ -7205,11 +7211,11 @@
       <c r="G271" s="6">
         <v>60</v>
       </c>
-      <c r="K271" s="25"/>
+      <c r="K271" s="34"/>
     </row>
     <row r="272" spans="1:11">
-      <c r="A272" s="26"/>
-      <c r="B272" s="26"/>
+      <c r="A272" s="25"/>
+      <c r="B272" s="25"/>
       <c r="C272" s="3" t="s">
         <v>249</v>
       </c>
@@ -7225,13 +7231,13 @@
       <c r="G272" s="6">
         <v>3</v>
       </c>
-      <c r="K272" s="26"/>
+      <c r="K272" s="35"/>
     </row>
     <row r="273" spans="1:11">
-      <c r="A273" s="24">
+      <c r="A273" s="26">
         <v>81</v>
       </c>
-      <c r="B273" s="24" t="s">
+      <c r="B273" s="26" t="s">
         <v>252</v>
       </c>
       <c r="C273" s="3" t="s">
@@ -7254,8 +7260,8 @@
       </c>
     </row>
     <row r="274" spans="1:11">
-      <c r="A274" s="26"/>
-      <c r="B274" s="26"/>
+      <c r="A274" s="25"/>
+      <c r="B274" s="25"/>
       <c r="C274" s="3" t="s">
         <v>251</v>
       </c>
@@ -7271,13 +7277,13 @@
       <c r="G274" s="3">
         <v>50</v>
       </c>
-      <c r="K274" s="26"/>
+      <c r="K274" s="35"/>
     </row>
     <row r="275" spans="1:11">
-      <c r="A275" s="24">
+      <c r="A275" s="26">
         <v>82</v>
       </c>
-      <c r="B275" s="24" t="s">
+      <c r="B275" s="26" t="s">
         <v>253</v>
       </c>
       <c r="C275" s="3" t="s">
@@ -7300,8 +7306,8 @@
       </c>
     </row>
     <row r="276" spans="1:11">
-      <c r="A276" s="26"/>
-      <c r="B276" s="26"/>
+      <c r="A276" s="25"/>
+      <c r="B276" s="25"/>
       <c r="C276" s="3" t="s">
         <v>8</v>
       </c>
@@ -7317,13 +7323,13 @@
       <c r="G276" s="3">
         <v>20</v>
       </c>
-      <c r="K276" s="32"/>
+      <c r="K276" s="39"/>
     </row>
     <row r="277" spans="1:11">
-      <c r="A277" s="24">
+      <c r="A277" s="26">
         <v>83</v>
       </c>
-      <c r="B277" s="24" t="s">
+      <c r="B277" s="26" t="s">
         <v>17</v>
       </c>
       <c r="C277" s="3" t="s">
@@ -7346,8 +7352,8 @@
       </c>
     </row>
     <row r="278" spans="1:11">
-      <c r="A278" s="25"/>
-      <c r="B278" s="25"/>
+      <c r="A278" s="24"/>
+      <c r="B278" s="24"/>
       <c r="C278" s="3" t="s">
         <v>6</v>
       </c>
@@ -7363,11 +7369,11 @@
       <c r="G278" s="3">
         <v>20</v>
       </c>
-      <c r="K278" s="25"/>
+      <c r="K278" s="34"/>
     </row>
     <row r="279" spans="1:11">
-      <c r="A279" s="25"/>
-      <c r="B279" s="25"/>
+      <c r="A279" s="24"/>
+      <c r="B279" s="24"/>
       <c r="C279" s="3" t="s">
         <v>8</v>
       </c>
@@ -7383,11 +7389,11 @@
       <c r="G279" s="3">
         <v>20</v>
       </c>
-      <c r="K279" s="25"/>
+      <c r="K279" s="34"/>
     </row>
     <row r="280" spans="1:11">
-      <c r="A280" s="25"/>
-      <c r="B280" s="25"/>
+      <c r="A280" s="24"/>
+      <c r="B280" s="24"/>
       <c r="C280" s="3" t="s">
         <v>12</v>
       </c>
@@ -7403,11 +7409,11 @@
       <c r="G280" s="3">
         <v>80</v>
       </c>
-      <c r="K280" s="25"/>
+      <c r="K280" s="34"/>
     </row>
     <row r="281" spans="1:11">
-      <c r="A281" s="26"/>
-      <c r="B281" s="26"/>
+      <c r="A281" s="25"/>
+      <c r="B281" s="25"/>
       <c r="C281" s="3" t="s">
         <v>11</v>
       </c>
@@ -7423,13 +7429,13 @@
       <c r="G281" s="3">
         <v>11</v>
       </c>
-      <c r="K281" s="26"/>
+      <c r="K281" s="35"/>
     </row>
     <row r="282" spans="1:11">
-      <c r="A282" s="24">
+      <c r="A282" s="26">
         <v>84</v>
       </c>
-      <c r="B282" s="24" t="s">
+      <c r="B282" s="26" t="s">
         <v>18</v>
       </c>
       <c r="C282" s="3" t="s">
@@ -7452,8 +7458,8 @@
       </c>
     </row>
     <row r="283" spans="1:11">
-      <c r="A283" s="25"/>
-      <c r="B283" s="25"/>
+      <c r="A283" s="24"/>
+      <c r="B283" s="24"/>
       <c r="C283" s="3" t="s">
         <v>6</v>
       </c>
@@ -7469,11 +7475,11 @@
       <c r="G283" s="3">
         <v>20</v>
       </c>
-      <c r="K283" s="25"/>
+      <c r="K283" s="34"/>
     </row>
     <row r="284" spans="1:11">
-      <c r="A284" s="25"/>
-      <c r="B284" s="25"/>
+      <c r="A284" s="24"/>
+      <c r="B284" s="24"/>
       <c r="C284" s="3" t="s">
         <v>8</v>
       </c>
@@ -7489,11 +7495,11 @@
       <c r="G284" s="3">
         <v>20</v>
       </c>
-      <c r="K284" s="25"/>
+      <c r="K284" s="34"/>
     </row>
     <row r="285" spans="1:11">
-      <c r="A285" s="25"/>
-      <c r="B285" s="25"/>
+      <c r="A285" s="24"/>
+      <c r="B285" s="24"/>
       <c r="C285" s="3" t="s">
         <v>12</v>
       </c>
@@ -7509,11 +7515,11 @@
       <c r="G285" s="3">
         <v>80</v>
       </c>
-      <c r="K285" s="25"/>
+      <c r="K285" s="34"/>
     </row>
     <row r="286" spans="1:11">
-      <c r="A286" s="26"/>
-      <c r="B286" s="26"/>
+      <c r="A286" s="25"/>
+      <c r="B286" s="25"/>
       <c r="C286" s="3" t="s">
         <v>11</v>
       </c>
@@ -7529,13 +7535,13 @@
       <c r="G286" s="3">
         <v>11</v>
       </c>
-      <c r="K286" s="26"/>
+      <c r="K286" s="35"/>
     </row>
     <row r="287" spans="1:11">
-      <c r="A287" s="24">
+      <c r="A287" s="26">
         <v>85</v>
       </c>
-      <c r="B287" s="24" t="s">
+      <c r="B287" s="26" t="s">
         <v>23</v>
       </c>
       <c r="C287" s="3" t="s">
@@ -7561,8 +7567,8 @@
       </c>
     </row>
     <row r="288" spans="1:11">
-      <c r="A288" s="25"/>
-      <c r="B288" s="25"/>
+      <c r="A288" s="24"/>
+      <c r="B288" s="24"/>
       <c r="C288" s="3" t="s">
         <v>6</v>
       </c>
@@ -7578,11 +7584,11 @@
       <c r="G288" s="3">
         <v>20</v>
       </c>
-      <c r="K288" s="25"/>
+      <c r="K288" s="34"/>
     </row>
     <row r="289" spans="1:11">
-      <c r="A289" s="25"/>
-      <c r="B289" s="25"/>
+      <c r="A289" s="24"/>
+      <c r="B289" s="24"/>
       <c r="C289" s="3" t="s">
         <v>8</v>
       </c>
@@ -7598,11 +7604,11 @@
       <c r="G289" s="3">
         <v>20</v>
       </c>
-      <c r="K289" s="25"/>
+      <c r="K289" s="34"/>
     </row>
     <row r="290" spans="1:11">
-      <c r="A290" s="25"/>
-      <c r="B290" s="25"/>
+      <c r="A290" s="24"/>
+      <c r="B290" s="24"/>
       <c r="C290" s="3" t="s">
         <v>20</v>
       </c>
@@ -7616,11 +7622,11 @@
         <v>118</v>
       </c>
       <c r="G290"/>
-      <c r="K290" s="25"/>
+      <c r="K290" s="34"/>
     </row>
     <row r="291" spans="1:11">
-      <c r="A291" s="26"/>
-      <c r="B291" s="26"/>
+      <c r="A291" s="25"/>
+      <c r="B291" s="25"/>
       <c r="C291" s="3" t="s">
         <v>11</v>
       </c>
@@ -7636,13 +7642,13 @@
       <c r="G291" s="6">
         <v>11</v>
       </c>
-      <c r="K291" s="26"/>
+      <c r="K291" s="35"/>
     </row>
     <row r="292" spans="1:11">
-      <c r="A292" s="24">
+      <c r="A292" s="26">
         <v>86</v>
       </c>
-      <c r="B292" s="24" t="s">
+      <c r="B292" s="26" t="s">
         <v>255</v>
       </c>
       <c r="C292" s="3" t="s">
@@ -7665,8 +7671,8 @@
       </c>
     </row>
     <row r="293" spans="1:11">
-      <c r="A293" s="26"/>
-      <c r="B293" s="26"/>
+      <c r="A293" s="25"/>
+      <c r="B293" s="25"/>
       <c r="C293" s="3" t="s">
         <v>100</v>
       </c>
@@ -7682,13 +7688,13 @@
       <c r="G293" s="3">
         <v>20</v>
       </c>
-      <c r="K293" s="26"/>
+      <c r="K293" s="35"/>
     </row>
     <row r="294" spans="1:11">
-      <c r="A294" s="24">
+      <c r="A294" s="26">
         <v>87</v>
       </c>
-      <c r="B294" s="24" t="s">
+      <c r="B294" s="26" t="s">
         <v>257</v>
       </c>
       <c r="C294" s="3" t="s">
@@ -7711,8 +7717,8 @@
       </c>
     </row>
     <row r="295" spans="1:11">
-      <c r="A295" s="25"/>
-      <c r="B295" s="25"/>
+      <c r="A295" s="24"/>
+      <c r="B295" s="24"/>
       <c r="C295" s="3" t="s">
         <v>6</v>
       </c>
@@ -7728,11 +7734,11 @@
       <c r="G295" s="3">
         <v>20</v>
       </c>
-      <c r="K295" s="25"/>
+      <c r="K295" s="34"/>
     </row>
     <row r="296" spans="1:11">
-      <c r="A296" s="26"/>
-      <c r="B296" s="26"/>
+      <c r="A296" s="25"/>
+      <c r="B296" s="25"/>
       <c r="C296" s="3" t="s">
         <v>8</v>
       </c>
@@ -7748,13 +7754,13 @@
       <c r="G296" s="3">
         <v>20</v>
       </c>
-      <c r="K296" s="26"/>
+      <c r="K296" s="35"/>
     </row>
     <row r="297" spans="1:11">
-      <c r="A297" s="24">
+      <c r="A297" s="26">
         <v>88</v>
       </c>
-      <c r="B297" s="24" t="s">
+      <c r="B297" s="26" t="s">
         <v>40</v>
       </c>
       <c r="C297" s="11" t="s">
@@ -7778,8 +7784,8 @@
       </c>
     </row>
     <row r="298" spans="1:11">
-      <c r="A298" s="25"/>
-      <c r="B298" s="25"/>
+      <c r="A298" s="24"/>
+      <c r="B298" s="24"/>
       <c r="C298" s="16" t="s">
         <v>8</v>
       </c>
@@ -7796,11 +7802,11 @@
         <v>20</v>
       </c>
       <c r="H298" s="17"/>
-      <c r="K298" s="25"/>
+      <c r="K298" s="34"/>
     </row>
     <row r="299" spans="1:11">
-      <c r="A299" s="25"/>
-      <c r="B299" s="25"/>
+      <c r="A299" s="24"/>
+      <c r="B299" s="24"/>
       <c r="C299" s="16" t="s">
         <v>38</v>
       </c>
@@ -7817,11 +7823,11 @@
         <v>10</v>
       </c>
       <c r="H299" s="17"/>
-      <c r="K299" s="25"/>
+      <c r="K299" s="34"/>
     </row>
     <row r="300" spans="1:11">
-      <c r="A300" s="25"/>
-      <c r="B300" s="25"/>
+      <c r="A300" s="24"/>
+      <c r="B300" s="24"/>
       <c r="C300" s="16" t="s">
         <v>39</v>
       </c>
@@ -7838,11 +7844,11 @@
         <v>11</v>
       </c>
       <c r="H300" s="17"/>
-      <c r="K300" s="25"/>
+      <c r="K300" s="34"/>
     </row>
     <row r="301" spans="1:11">
-      <c r="A301" s="25"/>
-      <c r="B301" s="25"/>
+      <c r="A301" s="24"/>
+      <c r="B301" s="24"/>
       <c r="C301" s="16" t="s">
         <v>9</v>
       </c>
@@ -7859,11 +7865,11 @@
         <v>50</v>
       </c>
       <c r="H301" s="17"/>
-      <c r="K301" s="25"/>
+      <c r="K301" s="34"/>
     </row>
     <row r="302" spans="1:11">
-      <c r="A302" s="26"/>
-      <c r="B302" s="26"/>
+      <c r="A302" s="25"/>
+      <c r="B302" s="25"/>
       <c r="C302" s="16" t="s">
         <v>37</v>
       </c>
@@ -7878,13 +7884,13 @@
       </c>
       <c r="G302" s="17"/>
       <c r="H302" s="17"/>
-      <c r="K302" s="26"/>
+      <c r="K302" s="35"/>
     </row>
     <row r="303" spans="1:11">
-      <c r="A303" s="24">
+      <c r="A303" s="26">
         <v>89</v>
       </c>
-      <c r="B303" s="24" t="s">
+      <c r="B303" s="26" t="s">
         <v>261</v>
       </c>
       <c r="C303" s="3" t="s">
@@ -7908,8 +7914,8 @@
       </c>
     </row>
     <row r="304" spans="1:11">
-      <c r="A304" s="25"/>
-      <c r="B304" s="25"/>
+      <c r="A304" s="24"/>
+      <c r="B304" s="24"/>
       <c r="C304" s="3" t="s">
         <v>8</v>
       </c>
@@ -7925,11 +7931,11 @@
       <c r="G304" s="3">
         <v>20</v>
       </c>
-      <c r="K304" s="25"/>
+      <c r="K304" s="34"/>
     </row>
     <row r="305" spans="1:11">
-      <c r="A305" s="25"/>
-      <c r="B305" s="25"/>
+      <c r="A305" s="24"/>
+      <c r="B305" s="24"/>
       <c r="C305" s="3" t="s">
         <v>258</v>
       </c>
@@ -7945,11 +7951,11 @@
       <c r="G305" s="3">
         <v>50</v>
       </c>
-      <c r="K305" s="25"/>
+      <c r="K305" s="34"/>
     </row>
     <row r="306" spans="1:11">
-      <c r="A306" s="25"/>
-      <c r="B306" s="25"/>
+      <c r="A306" s="24"/>
+      <c r="B306" s="24"/>
       <c r="C306" s="3" t="s">
         <v>259</v>
       </c>
@@ -7965,11 +7971,11 @@
       <c r="G306" s="3">
         <v>50</v>
       </c>
-      <c r="K306" s="25"/>
+      <c r="K306" s="34"/>
     </row>
     <row r="307" spans="1:11">
-      <c r="A307" s="26"/>
-      <c r="B307" s="26"/>
+      <c r="A307" s="25"/>
+      <c r="B307" s="25"/>
       <c r="C307" s="3" t="s">
         <v>260</v>
       </c>
@@ -7985,13 +7991,13 @@
       <c r="G307" s="3">
         <v>2</v>
       </c>
-      <c r="K307" s="26"/>
+      <c r="K307" s="35"/>
     </row>
     <row r="308" spans="1:11">
-      <c r="A308" s="24">
+      <c r="A308" s="26">
         <v>90</v>
       </c>
-      <c r="B308" s="24" t="s">
+      <c r="B308" s="26" t="s">
         <v>265</v>
       </c>
       <c r="C308" s="3" t="s">
@@ -8015,8 +8021,8 @@
       </c>
     </row>
     <row r="309" spans="1:11">
-      <c r="A309" s="25"/>
-      <c r="B309" s="25"/>
+      <c r="A309" s="24"/>
+      <c r="B309" s="24"/>
       <c r="C309" s="3" t="s">
         <v>8</v>
       </c>
@@ -8032,11 +8038,11 @@
       <c r="G309" s="3">
         <v>20</v>
       </c>
-      <c r="K309" s="25"/>
+      <c r="K309" s="34"/>
     </row>
     <row r="310" spans="1:11">
-      <c r="A310" s="25"/>
-      <c r="B310" s="25"/>
+      <c r="A310" s="24"/>
+      <c r="B310" s="24"/>
       <c r="C310" s="3" t="s">
         <v>262</v>
       </c>
@@ -8052,11 +8058,11 @@
       <c r="G310" s="3">
         <v>100</v>
       </c>
-      <c r="K310" s="25"/>
+      <c r="K310" s="34"/>
     </row>
     <row r="311" spans="1:11">
-      <c r="A311" s="25"/>
-      <c r="B311" s="25"/>
+      <c r="A311" s="24"/>
+      <c r="B311" s="24"/>
       <c r="C311" s="3" t="s">
         <v>263</v>
       </c>
@@ -8072,11 +8078,11 @@
       <c r="G311" s="3">
         <v>100</v>
       </c>
-      <c r="K311" s="26"/>
+      <c r="K311" s="35"/>
     </row>
     <row r="312" spans="1:11">
-      <c r="A312" s="26"/>
-      <c r="B312" s="26"/>
+      <c r="A312" s="25"/>
+      <c r="B312" s="25"/>
       <c r="C312" s="3" t="s">
         <v>264</v>
       </c>
@@ -8095,62 +8101,157 @@
     </row>
   </sheetData>
   <mergeCells count="231">
-    <mergeCell ref="K303:K307"/>
-    <mergeCell ref="K308:K311"/>
-    <mergeCell ref="K268:K272"/>
-    <mergeCell ref="K273:K274"/>
-    <mergeCell ref="K275:K276"/>
-    <mergeCell ref="K277:K281"/>
-    <mergeCell ref="K282:K286"/>
-    <mergeCell ref="K287:K291"/>
-    <mergeCell ref="K292:K293"/>
-    <mergeCell ref="K294:K296"/>
-    <mergeCell ref="K297:K302"/>
-    <mergeCell ref="K214:K216"/>
-    <mergeCell ref="K217:K220"/>
-    <mergeCell ref="K221:K224"/>
-    <mergeCell ref="K225:K228"/>
-    <mergeCell ref="K229:K231"/>
-    <mergeCell ref="K232:K245"/>
-    <mergeCell ref="K246:K253"/>
-    <mergeCell ref="K254:K255"/>
-    <mergeCell ref="K256:K267"/>
-    <mergeCell ref="K176:K178"/>
-    <mergeCell ref="K179:K192"/>
-    <mergeCell ref="K193:K195"/>
-    <mergeCell ref="K196:K198"/>
-    <mergeCell ref="K199:K201"/>
-    <mergeCell ref="K202:K204"/>
-    <mergeCell ref="K205:K207"/>
-    <mergeCell ref="K208:K210"/>
-    <mergeCell ref="K211:K213"/>
-    <mergeCell ref="K149:K152"/>
-    <mergeCell ref="K154:K155"/>
-    <mergeCell ref="K156:K157"/>
-    <mergeCell ref="K159:K160"/>
-    <mergeCell ref="K161:K162"/>
-    <mergeCell ref="K163:K165"/>
-    <mergeCell ref="K166:K169"/>
-    <mergeCell ref="K170:K171"/>
-    <mergeCell ref="K172:K175"/>
-    <mergeCell ref="K120:K122"/>
-    <mergeCell ref="K123:K125"/>
-    <mergeCell ref="K126:K128"/>
-    <mergeCell ref="K129:K131"/>
-    <mergeCell ref="K133:K135"/>
-    <mergeCell ref="K136:K138"/>
-    <mergeCell ref="K139:K142"/>
-    <mergeCell ref="K143:K146"/>
-    <mergeCell ref="K147:K148"/>
-    <mergeCell ref="K83:K85"/>
-    <mergeCell ref="K86:K90"/>
-    <mergeCell ref="K91:K92"/>
-    <mergeCell ref="K93:K96"/>
-    <mergeCell ref="K97:K100"/>
-    <mergeCell ref="K101:K102"/>
-    <mergeCell ref="K103:K105"/>
-    <mergeCell ref="K109:K113"/>
-    <mergeCell ref="K116:K119"/>
+    <mergeCell ref="B294:B296"/>
+    <mergeCell ref="A294:A296"/>
+    <mergeCell ref="B297:B302"/>
+    <mergeCell ref="A297:A302"/>
+    <mergeCell ref="B303:B307"/>
+    <mergeCell ref="A303:A307"/>
+    <mergeCell ref="B308:B312"/>
+    <mergeCell ref="A308:A312"/>
+    <mergeCell ref="A275:A276"/>
+    <mergeCell ref="A277:A281"/>
+    <mergeCell ref="A282:A286"/>
+    <mergeCell ref="B292:B293"/>
+    <mergeCell ref="A292:A293"/>
+    <mergeCell ref="B287:B291"/>
+    <mergeCell ref="A287:A291"/>
+    <mergeCell ref="A268:A272"/>
+    <mergeCell ref="A273:A274"/>
+    <mergeCell ref="B268:B272"/>
+    <mergeCell ref="B273:B274"/>
+    <mergeCell ref="B275:B276"/>
+    <mergeCell ref="B225:B228"/>
+    <mergeCell ref="B229:B231"/>
+    <mergeCell ref="B232:B245"/>
+    <mergeCell ref="B246:B253"/>
+    <mergeCell ref="B221:B224"/>
+    <mergeCell ref="A225:A228"/>
+    <mergeCell ref="A229:A231"/>
+    <mergeCell ref="A232:A245"/>
+    <mergeCell ref="A246:A253"/>
+    <mergeCell ref="A254:A255"/>
+    <mergeCell ref="A256:A267"/>
+    <mergeCell ref="B277:B281"/>
+    <mergeCell ref="B282:B286"/>
+    <mergeCell ref="A221:A224"/>
+    <mergeCell ref="A199:A201"/>
+    <mergeCell ref="A202:A204"/>
+    <mergeCell ref="A205:A207"/>
+    <mergeCell ref="A208:A210"/>
+    <mergeCell ref="A211:A213"/>
+    <mergeCell ref="A172:A175"/>
+    <mergeCell ref="A176:A178"/>
+    <mergeCell ref="A179:A192"/>
+    <mergeCell ref="A193:A195"/>
+    <mergeCell ref="A196:A198"/>
+    <mergeCell ref="A136:A138"/>
+    <mergeCell ref="A139:A142"/>
+    <mergeCell ref="A143:A146"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="B172:B175"/>
+    <mergeCell ref="B176:B178"/>
+    <mergeCell ref="B179:B192"/>
+    <mergeCell ref="A214:A216"/>
+    <mergeCell ref="A217:A220"/>
+    <mergeCell ref="B208:B210"/>
+    <mergeCell ref="B211:B213"/>
+    <mergeCell ref="B214:B216"/>
+    <mergeCell ref="B217:B220"/>
+    <mergeCell ref="B139:B142"/>
+    <mergeCell ref="B143:B146"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="B149:B152"/>
+    <mergeCell ref="A149:A152"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="A156:A157"/>
+    <mergeCell ref="B254:B255"/>
+    <mergeCell ref="B256:B267"/>
+    <mergeCell ref="B193:B195"/>
+    <mergeCell ref="B196:B198"/>
+    <mergeCell ref="B199:B201"/>
+    <mergeCell ref="B202:B204"/>
+    <mergeCell ref="B205:B207"/>
+    <mergeCell ref="B166:B169"/>
+    <mergeCell ref="B170:B171"/>
+    <mergeCell ref="A159:A160"/>
+    <mergeCell ref="A161:A162"/>
+    <mergeCell ref="A163:A165"/>
+    <mergeCell ref="A166:A169"/>
+    <mergeCell ref="A170:A171"/>
+    <mergeCell ref="B154:B155"/>
+    <mergeCell ref="B156:B157"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="B93:B96"/>
+    <mergeCell ref="B97:B100"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="B68:B72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A68:A72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A93:A96"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="B129:B131"/>
+    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="A116:A119"/>
+    <mergeCell ref="B133:B135"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B109:B113"/>
+    <mergeCell ref="B116:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B123:B125"/>
+    <mergeCell ref="B126:B128"/>
+    <mergeCell ref="A120:A122"/>
+    <mergeCell ref="A123:A125"/>
+    <mergeCell ref="A126:A128"/>
+    <mergeCell ref="A129:A131"/>
+    <mergeCell ref="A133:A135"/>
     <mergeCell ref="B161:B162"/>
     <mergeCell ref="B163:B165"/>
     <mergeCell ref="B136:B138"/>
@@ -8175,157 +8276,62 @@
     <mergeCell ref="K73:K74"/>
     <mergeCell ref="K75:K76"/>
     <mergeCell ref="K78:K81"/>
-    <mergeCell ref="A86:A90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="A93:A96"/>
-    <mergeCell ref="A97:A100"/>
-    <mergeCell ref="B129:B131"/>
-    <mergeCell ref="A109:A113"/>
-    <mergeCell ref="A116:A119"/>
-    <mergeCell ref="B133:B135"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="B109:B113"/>
-    <mergeCell ref="B116:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B123:B125"/>
-    <mergeCell ref="B126:B128"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A68:A72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="B86:B90"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="B93:B96"/>
-    <mergeCell ref="B97:B100"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="B68:B72"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="B139:B142"/>
-    <mergeCell ref="B143:B146"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="B149:B152"/>
-    <mergeCell ref="A149:A152"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="A156:A157"/>
-    <mergeCell ref="B254:B255"/>
-    <mergeCell ref="B256:B267"/>
-    <mergeCell ref="B193:B195"/>
-    <mergeCell ref="B196:B198"/>
-    <mergeCell ref="B199:B201"/>
-    <mergeCell ref="B202:B204"/>
-    <mergeCell ref="B205:B207"/>
-    <mergeCell ref="B166:B169"/>
-    <mergeCell ref="B170:B171"/>
-    <mergeCell ref="A159:A160"/>
-    <mergeCell ref="A161:A162"/>
-    <mergeCell ref="A163:A165"/>
-    <mergeCell ref="A166:A169"/>
-    <mergeCell ref="A170:A171"/>
-    <mergeCell ref="B154:B155"/>
-    <mergeCell ref="B156:B157"/>
-    <mergeCell ref="B159:B160"/>
-    <mergeCell ref="A120:A122"/>
-    <mergeCell ref="A123:A125"/>
-    <mergeCell ref="A126:A128"/>
-    <mergeCell ref="A129:A131"/>
-    <mergeCell ref="A133:A135"/>
-    <mergeCell ref="A136:A138"/>
-    <mergeCell ref="A139:A142"/>
-    <mergeCell ref="A143:A146"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="B172:B175"/>
-    <mergeCell ref="B176:B178"/>
-    <mergeCell ref="B179:B192"/>
-    <mergeCell ref="A214:A216"/>
-    <mergeCell ref="A217:A220"/>
-    <mergeCell ref="A221:A224"/>
-    <mergeCell ref="A199:A201"/>
-    <mergeCell ref="A202:A204"/>
-    <mergeCell ref="A205:A207"/>
-    <mergeCell ref="A208:A210"/>
-    <mergeCell ref="A211:A213"/>
-    <mergeCell ref="A172:A175"/>
-    <mergeCell ref="A176:A178"/>
-    <mergeCell ref="A179:A192"/>
-    <mergeCell ref="A193:A195"/>
-    <mergeCell ref="A196:A198"/>
-    <mergeCell ref="B208:B210"/>
-    <mergeCell ref="B211:B213"/>
-    <mergeCell ref="B214:B216"/>
-    <mergeCell ref="B217:B220"/>
-    <mergeCell ref="B221:B224"/>
-    <mergeCell ref="A225:A228"/>
-    <mergeCell ref="A229:A231"/>
-    <mergeCell ref="A232:A245"/>
-    <mergeCell ref="A246:A253"/>
-    <mergeCell ref="A254:A255"/>
-    <mergeCell ref="A256:A267"/>
-    <mergeCell ref="B277:B281"/>
-    <mergeCell ref="B282:B286"/>
-    <mergeCell ref="B287:B291"/>
-    <mergeCell ref="A287:A291"/>
-    <mergeCell ref="A268:A272"/>
-    <mergeCell ref="A273:A274"/>
-    <mergeCell ref="B268:B272"/>
-    <mergeCell ref="B273:B274"/>
-    <mergeCell ref="B275:B276"/>
-    <mergeCell ref="B225:B228"/>
-    <mergeCell ref="B229:B231"/>
-    <mergeCell ref="B232:B245"/>
-    <mergeCell ref="B246:B253"/>
-    <mergeCell ref="B294:B296"/>
-    <mergeCell ref="A294:A296"/>
-    <mergeCell ref="B297:B302"/>
-    <mergeCell ref="A297:A302"/>
-    <mergeCell ref="B303:B307"/>
-    <mergeCell ref="A303:A307"/>
-    <mergeCell ref="B308:B312"/>
-    <mergeCell ref="A308:A312"/>
-    <mergeCell ref="A275:A276"/>
-    <mergeCell ref="A277:A281"/>
-    <mergeCell ref="A282:A286"/>
-    <mergeCell ref="B292:B293"/>
-    <mergeCell ref="A292:A293"/>
+    <mergeCell ref="K83:K85"/>
+    <mergeCell ref="K86:K90"/>
+    <mergeCell ref="K91:K92"/>
+    <mergeCell ref="K93:K96"/>
+    <mergeCell ref="K97:K100"/>
+    <mergeCell ref="K101:K102"/>
+    <mergeCell ref="K103:K105"/>
+    <mergeCell ref="K109:K113"/>
+    <mergeCell ref="K116:K119"/>
+    <mergeCell ref="K120:K122"/>
+    <mergeCell ref="K123:K125"/>
+    <mergeCell ref="K126:K128"/>
+    <mergeCell ref="K129:K131"/>
+    <mergeCell ref="K133:K135"/>
+    <mergeCell ref="K136:K138"/>
+    <mergeCell ref="K139:K142"/>
+    <mergeCell ref="K143:K146"/>
+    <mergeCell ref="K147:K148"/>
+    <mergeCell ref="K149:K152"/>
+    <mergeCell ref="K154:K155"/>
+    <mergeCell ref="K156:K157"/>
+    <mergeCell ref="K159:K160"/>
+    <mergeCell ref="K161:K162"/>
+    <mergeCell ref="K163:K165"/>
+    <mergeCell ref="K166:K169"/>
+    <mergeCell ref="K170:K171"/>
+    <mergeCell ref="K172:K175"/>
+    <mergeCell ref="K176:K178"/>
+    <mergeCell ref="K179:K192"/>
+    <mergeCell ref="K193:K195"/>
+    <mergeCell ref="K196:K198"/>
+    <mergeCell ref="K199:K201"/>
+    <mergeCell ref="K202:K204"/>
+    <mergeCell ref="K205:K207"/>
+    <mergeCell ref="K208:K210"/>
+    <mergeCell ref="K211:K213"/>
+    <mergeCell ref="K214:K216"/>
+    <mergeCell ref="K217:K220"/>
+    <mergeCell ref="K221:K224"/>
+    <mergeCell ref="K225:K228"/>
+    <mergeCell ref="K229:K231"/>
+    <mergeCell ref="K232:K245"/>
+    <mergeCell ref="K246:K253"/>
+    <mergeCell ref="K254:K255"/>
+    <mergeCell ref="K256:K267"/>
+    <mergeCell ref="K303:K307"/>
+    <mergeCell ref="K308:K311"/>
+    <mergeCell ref="K268:K272"/>
+    <mergeCell ref="K273:K274"/>
+    <mergeCell ref="K275:K276"/>
+    <mergeCell ref="K277:K281"/>
+    <mergeCell ref="K282:K286"/>
+    <mergeCell ref="K287:K291"/>
+    <mergeCell ref="K292:K293"/>
+    <mergeCell ref="K294:K296"/>
+    <mergeCell ref="K297:K302"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/DPI_Table_Audit/Audit-Process-Sheet.xlsx
+++ b/DPI_Table_Audit/Audit-Process-Sheet.xlsx
@@ -828,7 +828,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="167" formatCode="[$-C09]dd/mmm/yy;@"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -1008,20 +1008,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1032,28 +1026,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1362,8 +1362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E38" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K6"/>
+    <sheetView tabSelected="1" topLeftCell="E280" workbookViewId="0">
+      <selection activeCell="K49" sqref="K49:K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1378,7 +1378,7 @@
     <col min="8" max="8" width="19" style="3" customWidth="1"/>
     <col min="9" max="9" width="19.42578125" style="3" customWidth="1"/>
     <col min="10" max="10" width="40.85546875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="24.42578125" style="37" customWidth="1"/>
+    <col min="11" max="11" width="18" style="37" customWidth="1"/>
     <col min="12" max="15" width="9.140625" style="3"/>
     <col min="16" max="16" width="9.140625" style="3" customWidth="1"/>
     <col min="17" max="26" width="9.140625" style="3"/>
@@ -1415,15 +1415,15 @@
       <c r="J1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="35" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="27">
+      <c r="A2" s="30">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="30" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1442,13 +1442,13 @@
         <v>20</v>
       </c>
       <c r="H2" s="4"/>
-      <c r="K2" s="33">
+      <c r="K2" s="32">
         <v>45552</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
@@ -1465,11 +1465,11 @@
         <v>20</v>
       </c>
       <c r="H3" s="4"/>
-      <c r="K3" s="34"/>
+      <c r="K3" s="33"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1486,11 +1486,11 @@
         <v>80</v>
       </c>
       <c r="H4" s="4"/>
-      <c r="K4" s="34"/>
+      <c r="K4" s="33"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
@@ -1507,11 +1507,11 @@
         <v>11</v>
       </c>
       <c r="H5" s="4"/>
-      <c r="K5" s="34"/>
+      <c r="K5" s="33"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
@@ -1528,13 +1528,13 @@
         <v>100</v>
       </c>
       <c r="H6" s="4"/>
-      <c r="K6" s="35"/>
+      <c r="K6" s="34"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="27">
+      <c r="A7" s="30">
         <v>2</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="30" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1552,13 +1552,13 @@
       <c r="G7" s="3">
         <v>20</v>
       </c>
-      <c r="K7" s="33">
+      <c r="K7" s="32">
         <v>45552</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
@@ -1574,11 +1574,11 @@
       <c r="G8" s="5">
         <v>20</v>
       </c>
-      <c r="K8" s="34"/>
+      <c r="K8" s="33"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
@@ -1594,11 +1594,11 @@
       <c r="G9" s="3">
         <v>80</v>
       </c>
-      <c r="K9" s="34"/>
+      <c r="K9" s="33"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
@@ -1614,11 +1614,11 @@
       <c r="G10" s="3">
         <v>11</v>
       </c>
-      <c r="K10" s="34"/>
+      <c r="K10" s="33"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
@@ -1634,13 +1634,13 @@
       <c r="G11" s="3">
         <v>100</v>
       </c>
-      <c r="K11" s="35"/>
+      <c r="K11" s="34"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="27">
+      <c r="A12" s="30">
         <v>3</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="30" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1658,13 +1658,13 @@
       <c r="G12" s="3">
         <v>20</v>
       </c>
-      <c r="K12" s="33">
+      <c r="K12" s="32">
         <v>45552</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="3" t="s">
         <v>8</v>
       </c>
@@ -1680,11 +1680,11 @@
       <c r="G13" s="5">
         <v>20</v>
       </c>
-      <c r="K13" s="34"/>
+      <c r="K13" s="33"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="3" t="s">
         <v>19</v>
       </c>
@@ -1700,11 +1700,11 @@
       <c r="G14" s="3">
         <v>50</v>
       </c>
-      <c r="K14" s="34"/>
+      <c r="K14" s="33"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="3" t="s">
         <v>20</v>
       </c>
@@ -1717,11 +1717,11 @@
       <c r="F15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="34"/>
+      <c r="K15" s="33"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="3" t="s">
         <v>22</v>
       </c>
@@ -1737,13 +1737,13 @@
       <c r="G16" s="5">
         <v>5</v>
       </c>
-      <c r="K16" s="35"/>
+      <c r="K16" s="34"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="27">
+      <c r="A17" s="30">
         <v>4</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="30" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -1762,13 +1762,13 @@
         <v>20</v>
       </c>
       <c r="J17" s="4"/>
-      <c r="K17" s="33">
+      <c r="K17" s="32">
         <v>45541</v>
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="3" t="s">
         <v>8</v>
       </c>
@@ -1785,11 +1785,11 @@
         <v>20</v>
       </c>
       <c r="J18" s="4"/>
-      <c r="K18" s="34"/>
+      <c r="K18" s="33"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
       <c r="C19" s="3" t="s">
         <v>24</v>
       </c>
@@ -1803,11 +1803,11 @@
         <v>21</v>
       </c>
       <c r="J19" s="4"/>
-      <c r="K19" s="34"/>
+      <c r="K19" s="33"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="3" t="s">
         <v>25</v>
       </c>
@@ -1826,24 +1826,24 @@
       <c r="J20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K20" s="34"/>
+      <c r="K20" s="33"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K21" s="35"/>
+      <c r="K21" s="34"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="27">
+      <c r="A22" s="30">
         <v>5</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="30" t="s">
         <v>32</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -1861,13 +1861,13 @@
       <c r="G22" s="3">
         <v>20</v>
       </c>
-      <c r="K22" s="33">
+      <c r="K22" s="32">
         <v>45541</v>
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="3" t="s">
         <v>29</v>
       </c>
@@ -1883,11 +1883,11 @@
       <c r="G23" s="5">
         <v>20</v>
       </c>
-      <c r="K23" s="34"/>
+      <c r="K23" s="33"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
       <c r="C24" s="3" t="s">
         <v>30</v>
       </c>
@@ -1903,13 +1903,13 @@
       <c r="G24" s="3">
         <v>3000</v>
       </c>
-      <c r="K24" s="35"/>
+      <c r="K24" s="34"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="27">
+      <c r="A25" s="30">
         <v>6</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="30" t="s">
         <v>35</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -1927,13 +1927,13 @@
       <c r="G25" s="3">
         <v>20</v>
       </c>
-      <c r="K25" s="33">
+      <c r="K25" s="32">
         <v>45541</v>
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
       <c r="C26" s="3" t="s">
         <v>8</v>
       </c>
@@ -1949,11 +1949,11 @@
       <c r="G26" s="5">
         <v>20</v>
       </c>
-      <c r="K26" s="34"/>
+      <c r="K26" s="33"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
       <c r="C27" s="3" t="s">
         <v>33</v>
       </c>
@@ -1966,11 +1966,11 @@
       <c r="F27" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K27" s="34"/>
+      <c r="K27" s="33"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="30"/>
       <c r="C28" s="3" t="s">
         <v>34</v>
       </c>
@@ -1986,13 +1986,13 @@
       <c r="G28" s="3">
         <v>50</v>
       </c>
-      <c r="K28" s="35"/>
+      <c r="K28" s="34"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="27">
-        <v>7</v>
-      </c>
-      <c r="B29" s="27" t="s">
+      <c r="A29" s="30">
+        <v>7</v>
+      </c>
+      <c r="B29" s="30" t="s">
         <v>36</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -2010,13 +2010,13 @@
       <c r="G29" s="3">
         <v>20</v>
       </c>
-      <c r="K29" s="33">
+      <c r="K29" s="32">
         <v>45553</v>
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
       <c r="C30" s="3" t="s">
         <v>8</v>
       </c>
@@ -2032,13 +2032,13 @@
       <c r="G30" s="5">
         <v>20</v>
       </c>
-      <c r="K30" s="35"/>
+      <c r="K30" s="34"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="27">
+      <c r="A31" s="30">
         <v>8</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="30" t="s">
         <v>40</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -2056,13 +2056,13 @@
       <c r="G31" s="3">
         <v>20</v>
       </c>
-      <c r="K31" s="33">
+      <c r="K31" s="32">
         <v>45553</v>
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="30"/>
       <c r="C32" s="3" t="s">
         <v>8</v>
       </c>
@@ -2078,11 +2078,11 @@
       <c r="G32" s="5">
         <v>20</v>
       </c>
-      <c r="K32" s="34"/>
+      <c r="K32" s="33"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="30"/>
       <c r="C33" s="3" t="s">
         <v>37</v>
       </c>
@@ -2095,11 +2095,11 @@
       <c r="F33" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K33" s="34"/>
+      <c r="K33" s="33"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="27"/>
-      <c r="B34" s="27"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="30"/>
       <c r="C34" s="3" t="s">
         <v>38</v>
       </c>
@@ -2115,11 +2115,11 @@
       <c r="G34" s="3">
         <v>10</v>
       </c>
-      <c r="K34" s="34"/>
+      <c r="K34" s="33"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="27"/>
-      <c r="B35" s="27"/>
+      <c r="A35" s="30"/>
+      <c r="B35" s="30"/>
       <c r="C35" s="3" t="s">
         <v>39</v>
       </c>
@@ -2135,11 +2135,11 @@
       <c r="G35" s="3">
         <v>11</v>
       </c>
-      <c r="K35" s="34"/>
+      <c r="K35" s="33"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="27"/>
-      <c r="B36" s="27"/>
+      <c r="A36" s="30"/>
+      <c r="B36" s="30"/>
       <c r="C36" s="3" t="s">
         <v>9</v>
       </c>
@@ -2155,11 +2155,11 @@
       <c r="G36" s="6">
         <v>80</v>
       </c>
-      <c r="K36" s="34"/>
+      <c r="K36" s="33"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="27"/>
-      <c r="B37" s="27"/>
+      <c r="A37" s="30"/>
+      <c r="B37" s="30"/>
       <c r="C37" s="3" t="s">
         <v>12</v>
       </c>
@@ -2175,13 +2175,13 @@
       <c r="G37" s="6">
         <v>100</v>
       </c>
-      <c r="K37" s="35"/>
+      <c r="K37" s="34"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="27">
+      <c r="A38" s="30">
         <v>9</v>
       </c>
-      <c r="B38" s="27" t="s">
+      <c r="B38" s="30" t="s">
         <v>45</v>
       </c>
       <c r="C38" s="3" t="s">
@@ -2199,13 +2199,13 @@
       <c r="G38" s="3">
         <v>20</v>
       </c>
-      <c r="K38" s="33">
+      <c r="K38" s="32">
         <v>45553</v>
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="27"/>
-      <c r="B39" s="27"/>
+      <c r="A39" s="30"/>
+      <c r="B39" s="30"/>
       <c r="C39" s="3" t="s">
         <v>42</v>
       </c>
@@ -2221,11 +2221,11 @@
       <c r="G39" s="3">
         <v>50</v>
       </c>
-      <c r="K39" s="34"/>
+      <c r="K39" s="33"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="27"/>
-      <c r="B40" s="27"/>
+      <c r="A40" s="30"/>
+      <c r="B40" s="30"/>
       <c r="C40" s="3" t="s">
         <v>43</v>
       </c>
@@ -2241,11 +2241,11 @@
       <c r="G40" s="3">
         <v>50</v>
       </c>
-      <c r="K40" s="34"/>
+      <c r="K40" s="33"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="27"/>
-      <c r="B41" s="27"/>
+      <c r="A41" s="30"/>
+      <c r="B41" s="30"/>
       <c r="C41" s="3" t="s">
         <v>44</v>
       </c>
@@ -2261,13 +2261,13 @@
       <c r="G41" s="3">
         <v>6</v>
       </c>
-      <c r="K41" s="35"/>
+      <c r="K41" s="34"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="27">
-        <v>10</v>
-      </c>
-      <c r="B42" s="27" t="s">
+      <c r="A42" s="30">
+        <v>10</v>
+      </c>
+      <c r="B42" s="30" t="s">
         <v>49</v>
       </c>
       <c r="C42" s="3" t="s">
@@ -2285,13 +2285,13 @@
       <c r="G42" s="3">
         <v>20</v>
       </c>
-      <c r="K42" s="33">
+      <c r="K42" s="32">
         <v>45540</v>
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="27"/>
-      <c r="B43" s="27"/>
+      <c r="A43" s="30"/>
+      <c r="B43" s="30"/>
       <c r="C43" s="3" t="s">
         <v>29</v>
       </c>
@@ -2307,11 +2307,11 @@
       <c r="G43" s="5">
         <v>20</v>
       </c>
-      <c r="K43" s="34"/>
+      <c r="K43" s="33"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="27"/>
-      <c r="B44" s="27"/>
+      <c r="A44" s="30"/>
+      <c r="B44" s="30"/>
       <c r="C44" s="3" t="s">
         <v>46</v>
       </c>
@@ -2327,11 +2327,11 @@
       <c r="G44" s="3">
         <v>20</v>
       </c>
-      <c r="K44" s="34"/>
+      <c r="K44" s="33"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="27"/>
-      <c r="B45" s="27"/>
+      <c r="A45" s="30"/>
+      <c r="B45" s="30"/>
       <c r="C45" s="3" t="s">
         <v>47</v>
       </c>
@@ -2347,11 +2347,11 @@
       <c r="G45" s="3">
         <v>10</v>
       </c>
-      <c r="K45" s="34"/>
+      <c r="K45" s="33"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="27"/>
-      <c r="B46" s="27"/>
+      <c r="A46" s="30"/>
+      <c r="B46" s="30"/>
       <c r="C46" s="3" t="s">
         <v>48</v>
       </c>
@@ -2367,13 +2367,13 @@
       <c r="G46" s="6">
         <v>20</v>
       </c>
-      <c r="K46" s="35"/>
+      <c r="K46" s="34"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="27">
+      <c r="A47" s="30">
         <v>11</v>
       </c>
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="30" t="s">
         <v>52</v>
       </c>
       <c r="C47" s="3" t="s">
@@ -2391,13 +2391,13 @@
       <c r="G47" s="3">
         <v>20</v>
       </c>
-      <c r="K47" s="33">
+      <c r="K47" s="32">
         <v>45540</v>
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="27"/>
-      <c r="B48" s="27"/>
+      <c r="A48" s="30"/>
+      <c r="B48" s="30"/>
       <c r="C48" s="3" t="s">
         <v>51</v>
       </c>
@@ -2413,13 +2413,13 @@
       <c r="G48" s="5">
         <v>11</v>
       </c>
-      <c r="K48" s="35"/>
+      <c r="K48" s="34"/>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="27">
+      <c r="A49" s="30">
         <v>12</v>
       </c>
-      <c r="B49" s="27" t="s">
+      <c r="B49" s="30" t="s">
         <v>56</v>
       </c>
       <c r="C49" s="3" t="s">
@@ -2437,13 +2437,13 @@
       <c r="G49" s="3">
         <v>20</v>
       </c>
-      <c r="K49" s="33">
+      <c r="K49" s="32">
         <v>45539</v>
       </c>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="27"/>
-      <c r="B50" s="27"/>
+      <c r="A50" s="30"/>
+      <c r="B50" s="30"/>
       <c r="C50" s="3" t="s">
         <v>53</v>
       </c>
@@ -2459,11 +2459,11 @@
       <c r="G50" s="3">
         <v>50</v>
       </c>
-      <c r="K50" s="34"/>
+      <c r="K50" s="33"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="27"/>
-      <c r="B51" s="27"/>
+      <c r="A51" s="30"/>
+      <c r="B51" s="30"/>
       <c r="C51" s="3" t="s">
         <v>54</v>
       </c>
@@ -2479,11 +2479,11 @@
       <c r="G51" s="3">
         <v>40</v>
       </c>
-      <c r="K51" s="34"/>
+      <c r="K51" s="33"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="27"/>
-      <c r="B52" s="27"/>
+      <c r="A52" s="30"/>
+      <c r="B52" s="30"/>
       <c r="C52" s="3" t="s">
         <v>55</v>
       </c>
@@ -2499,13 +2499,13 @@
       <c r="G52" s="3">
         <v>10</v>
       </c>
-      <c r="K52" s="35"/>
+      <c r="K52" s="34"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="27">
+      <c r="A53" s="30">
         <v>13</v>
       </c>
-      <c r="B53" s="27" t="s">
+      <c r="B53" s="30" t="s">
         <v>58</v>
       </c>
       <c r="C53" s="3" t="s">
@@ -2523,13 +2523,13 @@
       <c r="G53" s="3">
         <v>20</v>
       </c>
-      <c r="K53" s="33">
+      <c r="K53" s="32">
         <v>45540</v>
       </c>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="27"/>
-      <c r="B54" s="27"/>
+      <c r="A54" s="30"/>
+      <c r="B54" s="30"/>
       <c r="C54" s="3" t="s">
         <v>57</v>
       </c>
@@ -2545,13 +2545,13 @@
       <c r="G54" s="5">
         <v>25</v>
       </c>
-      <c r="K54" s="35"/>
+      <c r="K54" s="34"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="27">
+      <c r="A55" s="30">
         <v>14</v>
       </c>
-      <c r="B55" s="27" t="s">
+      <c r="B55" s="30" t="s">
         <v>59</v>
       </c>
       <c r="C55" s="3" t="s">
@@ -2569,13 +2569,13 @@
       <c r="G55" s="3">
         <v>20</v>
       </c>
-      <c r="K55" s="33">
+      <c r="K55" s="32">
         <v>45540</v>
       </c>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="27"/>
-      <c r="B56" s="27"/>
+      <c r="A56" s="30"/>
+      <c r="B56" s="30"/>
       <c r="C56" s="3" t="s">
         <v>29</v>
       </c>
@@ -2591,11 +2591,11 @@
       <c r="G56" s="5">
         <v>20</v>
       </c>
-      <c r="K56" s="34"/>
+      <c r="K56" s="33"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="27"/>
-      <c r="B57" s="27"/>
+      <c r="A57" s="30"/>
+      <c r="B57" s="30"/>
       <c r="C57" s="3" t="s">
         <v>30</v>
       </c>
@@ -2611,13 +2611,13 @@
       <c r="G57" s="3">
         <v>5000</v>
       </c>
-      <c r="K57" s="35"/>
+      <c r="K57" s="34"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="27">
+      <c r="A58" s="30">
         <v>15</v>
       </c>
-      <c r="B58" s="27" t="s">
+      <c r="B58" s="30" t="s">
         <v>61</v>
       </c>
       <c r="C58" s="3" t="s">
@@ -2635,13 +2635,13 @@
       <c r="G58" s="3">
         <v>20</v>
       </c>
-      <c r="K58" s="33">
+      <c r="K58" s="32">
         <v>45540</v>
       </c>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="27"/>
-      <c r="B59" s="27"/>
+      <c r="A59" s="30"/>
+      <c r="B59" s="30"/>
       <c r="C59" s="3" t="s">
         <v>60</v>
       </c>
@@ -2657,7 +2657,7 @@
       <c r="G59" s="5">
         <v>30</v>
       </c>
-      <c r="K59" s="35"/>
+      <c r="K59" s="34"/>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="13">
@@ -2712,10 +2712,10 @@
       </c>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="27">
+      <c r="A62" s="30">
         <v>18</v>
       </c>
-      <c r="B62" s="27" t="s">
+      <c r="B62" s="30" t="s">
         <v>65</v>
       </c>
       <c r="C62" s="3" t="s">
@@ -2733,13 +2733,13 @@
       <c r="G62" s="3">
         <v>20</v>
       </c>
-      <c r="K62" s="33">
+      <c r="K62" s="32">
         <v>45540</v>
       </c>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="27"/>
-      <c r="B63" s="27"/>
+      <c r="A63" s="30"/>
+      <c r="B63" s="30"/>
       <c r="C63" s="3" t="s">
         <v>64</v>
       </c>
@@ -2755,7 +2755,7 @@
       <c r="G63" s="5">
         <v>20</v>
       </c>
-      <c r="K63" s="35"/>
+      <c r="K63" s="34"/>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="13">
@@ -2784,10 +2784,10 @@
       </c>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="27">
-        <v>20</v>
-      </c>
-      <c r="B65" s="27" t="s">
+      <c r="A65" s="30">
+        <v>20</v>
+      </c>
+      <c r="B65" s="30" t="s">
         <v>69</v>
       </c>
       <c r="C65" s="3" t="s">
@@ -2805,13 +2805,13 @@
       <c r="G65" s="3">
         <v>20</v>
       </c>
-      <c r="K65" s="33">
+      <c r="K65" s="32">
         <v>45544</v>
       </c>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="27"/>
-      <c r="B66" s="27"/>
+      <c r="A66" s="30"/>
+      <c r="B66" s="30"/>
       <c r="C66" s="3" t="s">
         <v>8</v>
       </c>
@@ -2827,11 +2827,11 @@
       <c r="G66" s="3">
         <v>20</v>
       </c>
-      <c r="K66" s="34"/>
+      <c r="K66" s="33"/>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="27"/>
-      <c r="B67" s="27"/>
+      <c r="A67" s="30"/>
+      <c r="B67" s="30"/>
       <c r="C67" s="3" t="s">
         <v>67</v>
       </c>
@@ -2842,13 +2842,13 @@
         <v>21</v>
       </c>
       <c r="G67" s="5"/>
-      <c r="K67" s="35"/>
+      <c r="K67" s="34"/>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="27">
+      <c r="A68" s="30">
         <v>21</v>
       </c>
-      <c r="B68" s="27" t="s">
+      <c r="B68" s="30" t="s">
         <v>85</v>
       </c>
       <c r="C68" s="3" t="s">
@@ -2866,13 +2866,13 @@
       <c r="G68" s="3">
         <v>20</v>
       </c>
-      <c r="K68" s="33">
+      <c r="K68" s="32">
         <v>45544</v>
       </c>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="27"/>
-      <c r="B69" s="27"/>
+      <c r="A69" s="30"/>
+      <c r="B69" s="30"/>
       <c r="C69" s="3" t="s">
         <v>70</v>
       </c>
@@ -2883,11 +2883,11 @@
         <v>21</v>
       </c>
       <c r="G69" s="5"/>
-      <c r="K69" s="34"/>
+      <c r="K69" s="33"/>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="27"/>
-      <c r="B70" s="27"/>
+      <c r="A70" s="30"/>
+      <c r="B70" s="30"/>
       <c r="C70" s="3" t="s">
         <v>71</v>
       </c>
@@ -2900,11 +2900,11 @@
       <c r="F70" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K70" s="34"/>
+      <c r="K70" s="33"/>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="27"/>
-      <c r="B71" s="27"/>
+      <c r="A71" s="30"/>
+      <c r="B71" s="30"/>
       <c r="C71" s="3" t="s">
         <v>73</v>
       </c>
@@ -2920,11 +2920,11 @@
       <c r="G71" s="3">
         <v>50</v>
       </c>
-      <c r="K71" s="34"/>
+      <c r="K71" s="33"/>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="27"/>
-      <c r="B72" s="27"/>
+      <c r="A72" s="30"/>
+      <c r="B72" s="30"/>
       <c r="C72" s="3" t="s">
         <v>74</v>
       </c>
@@ -2940,13 +2940,13 @@
       <c r="G72" s="3">
         <v>50</v>
       </c>
-      <c r="K72" s="35"/>
+      <c r="K72" s="34"/>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="27">
+      <c r="A73" s="30">
         <v>22</v>
       </c>
-      <c r="B73" s="27" t="s">
+      <c r="B73" s="30" t="s">
         <v>76</v>
       </c>
       <c r="C73" s="3" t="s">
@@ -2964,13 +2964,13 @@
       <c r="G73" s="3">
         <v>20</v>
       </c>
-      <c r="K73" s="33">
+      <c r="K73" s="32">
         <v>45540</v>
       </c>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="27"/>
-      <c r="B74" s="27"/>
+      <c r="A74" s="30"/>
+      <c r="B74" s="30"/>
       <c r="C74" s="3" t="s">
         <v>75</v>
       </c>
@@ -2986,13 +2986,13 @@
       <c r="G74" s="3">
         <v>1000</v>
       </c>
-      <c r="K74" s="35"/>
+      <c r="K74" s="34"/>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="27">
+      <c r="A75" s="30">
         <v>23</v>
       </c>
-      <c r="B75" s="27" t="s">
+      <c r="B75" s="30" t="s">
         <v>79</v>
       </c>
       <c r="C75" s="3" t="s">
@@ -3010,13 +3010,13 @@
       <c r="G75" s="3">
         <v>10</v>
       </c>
-      <c r="K75" s="33">
+      <c r="K75" s="32">
         <v>45544</v>
       </c>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="27"/>
-      <c r="B76" s="27"/>
+      <c r="A76" s="30"/>
+      <c r="B76" s="30"/>
       <c r="C76" s="3" t="s">
         <v>78</v>
       </c>
@@ -3032,7 +3032,7 @@
       <c r="G76" s="5">
         <v>5</v>
       </c>
-      <c r="K76" s="35"/>
+      <c r="K76" s="34"/>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="13">
@@ -3061,10 +3061,10 @@
       </c>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="27">
+      <c r="A78" s="30">
         <v>25</v>
       </c>
-      <c r="B78" s="27" t="s">
+      <c r="B78" s="30" t="s">
         <v>84</v>
       </c>
       <c r="C78" s="3" t="s">
@@ -3082,13 +3082,13 @@
       <c r="G78" s="3">
         <v>20</v>
       </c>
-      <c r="K78" s="33">
+      <c r="K78" s="32">
         <v>45553</v>
       </c>
     </row>
     <row r="79" spans="1:11">
-      <c r="A79" s="27"/>
-      <c r="B79" s="27"/>
+      <c r="A79" s="30"/>
+      <c r="B79" s="30"/>
       <c r="C79" s="3" t="s">
         <v>81</v>
       </c>
@@ -3104,11 +3104,11 @@
       <c r="G79" s="3">
         <v>50</v>
       </c>
-      <c r="K79" s="34"/>
+      <c r="K79" s="33"/>
     </row>
     <row r="80" spans="1:11">
-      <c r="A80" s="27"/>
-      <c r="B80" s="27"/>
+      <c r="A80" s="30"/>
+      <c r="B80" s="30"/>
       <c r="C80" s="3" t="s">
         <v>82</v>
       </c>
@@ -3124,11 +3124,11 @@
       <c r="G80" s="3">
         <v>50</v>
       </c>
-      <c r="K80" s="34"/>
+      <c r="K80" s="33"/>
     </row>
     <row r="81" spans="1:11">
-      <c r="A81" s="27"/>
-      <c r="B81" s="27"/>
+      <c r="A81" s="30"/>
+      <c r="B81" s="30"/>
       <c r="C81" s="3" t="s">
         <v>83</v>
       </c>
@@ -3144,7 +3144,7 @@
       <c r="G81" s="3">
         <v>6</v>
       </c>
-      <c r="K81" s="35"/>
+      <c r="K81" s="34"/>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="13">
@@ -3173,10 +3173,10 @@
       </c>
     </row>
     <row r="83" spans="1:11">
-      <c r="A83" s="27">
+      <c r="A83" s="30">
         <v>27</v>
       </c>
-      <c r="B83" s="27" t="s">
+      <c r="B83" s="30" t="s">
         <v>69</v>
       </c>
       <c r="C83" s="3" t="s">
@@ -3194,13 +3194,13 @@
       <c r="G83" s="3">
         <v>20</v>
       </c>
-      <c r="K83" s="33">
+      <c r="K83" s="32">
         <v>45544</v>
       </c>
     </row>
     <row r="84" spans="1:11">
-      <c r="A84" s="27"/>
-      <c r="B84" s="27"/>
+      <c r="A84" s="30"/>
+      <c r="B84" s="30"/>
       <c r="C84" s="3" t="s">
         <v>8</v>
       </c>
@@ -3216,11 +3216,11 @@
       <c r="G84" s="3">
         <v>20</v>
       </c>
-      <c r="K84" s="34"/>
+      <c r="K84" s="33"/>
     </row>
     <row r="85" spans="1:11">
-      <c r="A85" s="27"/>
-      <c r="B85" s="27"/>
+      <c r="A85" s="30"/>
+      <c r="B85" s="30"/>
       <c r="C85" s="3" t="s">
         <v>67</v>
       </c>
@@ -3231,13 +3231,13 @@
         <v>21</v>
       </c>
       <c r="G85" s="5"/>
-      <c r="K85" s="35"/>
+      <c r="K85" s="34"/>
     </row>
     <row r="86" spans="1:11">
-      <c r="A86" s="27">
+      <c r="A86" s="30">
         <v>28</v>
       </c>
-      <c r="B86" s="27" t="s">
+      <c r="B86" s="30" t="s">
         <v>85</v>
       </c>
       <c r="C86" s="3" t="s">
@@ -3255,13 +3255,13 @@
       <c r="G86" s="3">
         <v>20</v>
       </c>
-      <c r="K86" s="33">
+      <c r="K86" s="32">
         <v>45544</v>
       </c>
     </row>
     <row r="87" spans="1:11">
-      <c r="A87" s="27"/>
-      <c r="B87" s="27"/>
+      <c r="A87" s="30"/>
+      <c r="B87" s="30"/>
       <c r="C87" s="3" t="s">
         <v>70</v>
       </c>
@@ -3272,11 +3272,11 @@
         <v>21</v>
       </c>
       <c r="G87" s="5"/>
-      <c r="K87" s="34"/>
+      <c r="K87" s="33"/>
     </row>
     <row r="88" spans="1:11">
-      <c r="A88" s="27"/>
-      <c r="B88" s="27"/>
+      <c r="A88" s="30"/>
+      <c r="B88" s="30"/>
       <c r="C88" s="3" t="s">
         <v>71</v>
       </c>
@@ -3289,11 +3289,11 @@
       <c r="F88" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K88" s="34"/>
+      <c r="K88" s="33"/>
     </row>
     <row r="89" spans="1:11">
-      <c r="A89" s="27"/>
-      <c r="B89" s="27"/>
+      <c r="A89" s="30"/>
+      <c r="B89" s="30"/>
       <c r="C89" s="3" t="s">
         <v>73</v>
       </c>
@@ -3309,11 +3309,11 @@
       <c r="G89" s="3">
         <v>50</v>
       </c>
-      <c r="K89" s="34"/>
+      <c r="K89" s="33"/>
     </row>
     <row r="90" spans="1:11">
-      <c r="A90" s="27"/>
-      <c r="B90" s="27"/>
+      <c r="A90" s="30"/>
+      <c r="B90" s="30"/>
       <c r="C90" s="3" t="s">
         <v>74</v>
       </c>
@@ -3329,13 +3329,13 @@
       <c r="G90" s="3">
         <v>50</v>
       </c>
-      <c r="K90" s="35"/>
+      <c r="K90" s="34"/>
     </row>
     <row r="91" spans="1:11">
-      <c r="A91" s="27">
+      <c r="A91" s="30">
         <v>29</v>
       </c>
-      <c r="B91" s="27" t="s">
+      <c r="B91" s="30" t="s">
         <v>79</v>
       </c>
       <c r="C91" s="3" t="s">
@@ -3353,13 +3353,13 @@
       <c r="G91" s="3">
         <v>10</v>
       </c>
-      <c r="K91" s="33">
+      <c r="K91" s="32">
         <v>45544</v>
       </c>
     </row>
     <row r="92" spans="1:11">
-      <c r="A92" s="27"/>
-      <c r="B92" s="27"/>
+      <c r="A92" s="30"/>
+      <c r="B92" s="30"/>
       <c r="C92" s="3" t="s">
         <v>78</v>
       </c>
@@ -3375,13 +3375,13 @@
       <c r="G92" s="5">
         <v>5</v>
       </c>
-      <c r="K92" s="35"/>
+      <c r="K92" s="34"/>
     </row>
     <row r="93" spans="1:11">
-      <c r="A93" s="27">
+      <c r="A93" s="30">
         <v>30</v>
       </c>
-      <c r="B93" s="27" t="s">
+      <c r="B93" s="30" t="s">
         <v>92</v>
       </c>
       <c r="C93" s="3" t="s">
@@ -3399,13 +3399,13 @@
       <c r="G93" s="3">
         <v>20</v>
       </c>
-      <c r="K93" s="33">
+      <c r="K93" s="32">
         <v>45544</v>
       </c>
     </row>
     <row r="94" spans="1:11">
-      <c r="A94" s="27"/>
-      <c r="B94" s="27"/>
+      <c r="A94" s="30"/>
+      <c r="B94" s="30"/>
       <c r="C94" s="3" t="s">
         <v>87</v>
       </c>
@@ -3421,11 +3421,11 @@
       <c r="G94" s="3">
         <v>30</v>
       </c>
-      <c r="K94" s="34"/>
+      <c r="K94" s="33"/>
     </row>
     <row r="95" spans="1:11">
-      <c r="A95" s="27"/>
-      <c r="B95" s="27"/>
+      <c r="A95" s="30"/>
+      <c r="B95" s="30"/>
       <c r="C95" s="3" t="s">
         <v>88</v>
       </c>
@@ -3441,11 +3441,11 @@
       <c r="G95" s="3">
         <v>30</v>
       </c>
-      <c r="K95" s="34"/>
+      <c r="K95" s="33"/>
     </row>
     <row r="96" spans="1:11">
-      <c r="A96" s="27"/>
-      <c r="B96" s="27"/>
+      <c r="A96" s="30"/>
+      <c r="B96" s="30"/>
       <c r="C96" s="3" t="s">
         <v>90</v>
       </c>
@@ -3464,13 +3464,13 @@
       <c r="J96" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K96" s="35"/>
+      <c r="K96" s="34"/>
     </row>
     <row r="97" spans="1:11">
-      <c r="A97" s="27">
+      <c r="A97" s="30">
         <v>31</v>
       </c>
-      <c r="B97" s="27" t="s">
+      <c r="B97" s="30" t="s">
         <v>99</v>
       </c>
       <c r="C97" s="3" t="s">
@@ -3488,13 +3488,13 @@
       <c r="G97" s="3">
         <v>20</v>
       </c>
-      <c r="K97" s="33">
+      <c r="K97" s="32">
         <v>45544</v>
       </c>
     </row>
     <row r="98" spans="1:11">
-      <c r="A98" s="27"/>
-      <c r="B98" s="27"/>
+      <c r="A98" s="30"/>
+      <c r="B98" s="30"/>
       <c r="C98" s="3" t="s">
         <v>93</v>
       </c>
@@ -3513,11 +3513,11 @@
       <c r="J98" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="K98" s="34"/>
+      <c r="K98" s="33"/>
     </row>
     <row r="99" spans="1:11">
-      <c r="A99" s="27"/>
-      <c r="B99" s="27"/>
+      <c r="A99" s="30"/>
+      <c r="B99" s="30"/>
       <c r="C99" s="3" t="s">
         <v>94</v>
       </c>
@@ -3536,11 +3536,11 @@
       <c r="J99" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="K99" s="34"/>
+      <c r="K99" s="33"/>
     </row>
     <row r="100" spans="1:11">
-      <c r="A100" s="27"/>
-      <c r="B100" s="27"/>
+      <c r="A100" s="30"/>
+      <c r="B100" s="30"/>
       <c r="C100" s="3" t="s">
         <v>95</v>
       </c>
@@ -3559,13 +3559,13 @@
       <c r="J100" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="K100" s="35"/>
+      <c r="K100" s="34"/>
     </row>
     <row r="101" spans="1:11">
-      <c r="A101" s="27">
+      <c r="A101" s="30">
         <v>32</v>
       </c>
-      <c r="B101" s="27" t="s">
+      <c r="B101" s="30" t="s">
         <v>101</v>
       </c>
       <c r="C101" s="3" t="s">
@@ -3583,13 +3583,13 @@
       <c r="G101" s="3">
         <v>20</v>
       </c>
-      <c r="K101" s="33">
+      <c r="K101" s="32">
         <v>45546</v>
       </c>
     </row>
     <row r="102" spans="1:11">
-      <c r="A102" s="27"/>
-      <c r="B102" s="27"/>
+      <c r="A102" s="30"/>
+      <c r="B102" s="30"/>
       <c r="C102" s="3" t="s">
         <v>100</v>
       </c>
@@ -3605,13 +3605,13 @@
       <c r="G102" s="3">
         <v>20</v>
       </c>
-      <c r="K102" s="35"/>
+      <c r="K102" s="34"/>
     </row>
     <row r="103" spans="1:11">
-      <c r="A103" s="27">
+      <c r="A103" s="30">
         <v>33</v>
       </c>
-      <c r="B103" s="27" t="s">
+      <c r="B103" s="30" t="s">
         <v>102</v>
       </c>
       <c r="C103" s="3" t="s">
@@ -3629,13 +3629,13 @@
       <c r="G103" s="3">
         <v>20</v>
       </c>
-      <c r="K103" s="33">
+      <c r="K103" s="32">
         <v>45544</v>
       </c>
     </row>
     <row r="104" spans="1:11">
-      <c r="A104" s="27"/>
-      <c r="B104" s="27"/>
+      <c r="A104" s="30"/>
+      <c r="B104" s="30"/>
       <c r="C104" s="3" t="s">
         <v>100</v>
       </c>
@@ -3651,11 +3651,11 @@
       <c r="G104" s="3">
         <v>20</v>
       </c>
-      <c r="K104" s="34"/>
+      <c r="K104" s="33"/>
     </row>
     <row r="105" spans="1:11">
-      <c r="A105" s="27"/>
-      <c r="B105" s="27"/>
+      <c r="A105" s="30"/>
+      <c r="B105" s="30"/>
       <c r="C105" s="3" t="s">
         <v>71</v>
       </c>
@@ -3668,7 +3668,7 @@
       <c r="F105" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K105" s="35"/>
+      <c r="K105" s="34"/>
     </row>
     <row r="106" spans="1:11">
       <c r="A106" s="13">
@@ -3749,10 +3749,10 @@
       </c>
     </row>
     <row r="109" spans="1:11">
-      <c r="A109" s="27">
+      <c r="A109" s="30">
         <v>37</v>
       </c>
-      <c r="B109" s="27" t="s">
+      <c r="B109" s="30" t="s">
         <v>112</v>
       </c>
       <c r="C109" s="3" t="s">
@@ -3770,13 +3770,13 @@
       <c r="G109" s="3">
         <v>50</v>
       </c>
-      <c r="K109" s="33">
+      <c r="K109" s="32">
         <v>45545</v>
       </c>
     </row>
     <row r="110" spans="1:11">
-      <c r="A110" s="27"/>
-      <c r="B110" s="27"/>
+      <c r="A110" s="30"/>
+      <c r="B110" s="30"/>
       <c r="C110" s="3" t="s">
         <v>109</v>
       </c>
@@ -3792,11 +3792,11 @@
       <c r="G110" s="3">
         <v>50</v>
       </c>
-      <c r="K110" s="34"/>
+      <c r="K110" s="33"/>
     </row>
     <row r="111" spans="1:11">
-      <c r="A111" s="27"/>
-      <c r="B111" s="27"/>
+      <c r="A111" s="30"/>
+      <c r="B111" s="30"/>
       <c r="C111" s="3" t="s">
         <v>110</v>
       </c>
@@ -3812,11 +3812,11 @@
       <c r="G111" s="3">
         <v>3</v>
       </c>
-      <c r="K111" s="34"/>
+      <c r="K111" s="33"/>
     </row>
     <row r="112" spans="1:11">
-      <c r="A112" s="27"/>
-      <c r="B112" s="27"/>
+      <c r="A112" s="30"/>
+      <c r="B112" s="30"/>
       <c r="C112" s="3" t="s">
         <v>41</v>
       </c>
@@ -3832,11 +3832,11 @@
       <c r="G112" s="5">
         <v>20</v>
       </c>
-      <c r="K112" s="34"/>
+      <c r="K112" s="33"/>
     </row>
     <row r="113" spans="1:11">
-      <c r="A113" s="27"/>
-      <c r="B113" s="27"/>
+      <c r="A113" s="30"/>
+      <c r="B113" s="30"/>
       <c r="C113" s="3" t="s">
         <v>111</v>
       </c>
@@ -3852,7 +3852,7 @@
       <c r="G113" s="6">
         <v>50</v>
       </c>
-      <c r="K113" s="35"/>
+      <c r="K113" s="34"/>
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="13">
@@ -3907,10 +3907,10 @@
       </c>
     </row>
     <row r="116" spans="1:11">
-      <c r="A116" s="27">
+      <c r="A116" s="30">
         <v>40</v>
       </c>
-      <c r="B116" s="27" t="s">
+      <c r="B116" s="30" t="s">
         <v>119</v>
       </c>
       <c r="C116" s="3" t="s">
@@ -3928,13 +3928,13 @@
       <c r="G116" s="3">
         <v>20</v>
       </c>
-      <c r="K116" s="33">
+      <c r="K116" s="32">
         <v>45545</v>
       </c>
     </row>
     <row r="117" spans="1:11">
-      <c r="A117" s="27"/>
-      <c r="B117" s="27"/>
+      <c r="A117" s="30"/>
+      <c r="B117" s="30"/>
       <c r="C117" s="3" t="s">
         <v>115</v>
       </c>
@@ -3950,11 +3950,11 @@
       <c r="G117" s="5">
         <v>30</v>
       </c>
-      <c r="K117" s="34"/>
+      <c r="K117" s="33"/>
     </row>
     <row r="118" spans="1:11">
-      <c r="A118" s="27"/>
-      <c r="B118" s="27"/>
+      <c r="A118" s="30"/>
+      <c r="B118" s="30"/>
       <c r="C118" s="3" t="s">
         <v>116</v>
       </c>
@@ -3970,11 +3970,11 @@
       <c r="G118" s="3">
         <v>30</v>
       </c>
-      <c r="K118" s="34"/>
+      <c r="K118" s="33"/>
     </row>
     <row r="119" spans="1:11">
-      <c r="A119" s="27"/>
-      <c r="B119" s="27"/>
+      <c r="A119" s="30"/>
+      <c r="B119" s="30"/>
       <c r="C119" s="3" t="s">
         <v>117</v>
       </c>
@@ -3984,13 +3984,13 @@
       <c r="F119" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="K119" s="35"/>
+      <c r="K119" s="34"/>
     </row>
     <row r="120" spans="1:11">
-      <c r="A120" s="26">
+      <c r="A120" s="24">
         <v>41</v>
       </c>
-      <c r="B120" s="27" t="s">
+      <c r="B120" s="30" t="s">
         <v>122</v>
       </c>
       <c r="C120" s="3" t="s">
@@ -4008,13 +4008,13 @@
       <c r="G120" s="3">
         <v>20</v>
       </c>
-      <c r="K120" s="33" t="s">
+      <c r="K120" s="32" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="121" spans="1:11">
-      <c r="A121" s="24"/>
-      <c r="B121" s="27"/>
+      <c r="A121" s="25"/>
+      <c r="B121" s="30"/>
       <c r="C121" s="3" t="s">
         <v>120</v>
       </c>
@@ -4030,11 +4030,11 @@
       <c r="G121" s="5">
         <v>10</v>
       </c>
-      <c r="K121" s="34"/>
+      <c r="K121" s="33"/>
     </row>
     <row r="122" spans="1:11">
-      <c r="A122" s="25"/>
-      <c r="B122" s="27"/>
+      <c r="A122" s="26"/>
+      <c r="B122" s="30"/>
       <c r="C122" s="3" t="s">
         <v>121</v>
       </c>
@@ -4050,13 +4050,13 @@
       <c r="G122" s="3">
         <v>15</v>
       </c>
-      <c r="K122" s="35"/>
+      <c r="K122" s="34"/>
     </row>
     <row r="123" spans="1:11">
-      <c r="A123" s="26">
+      <c r="A123" s="24">
         <v>42</v>
       </c>
-      <c r="B123" s="27" t="s">
+      <c r="B123" s="30" t="s">
         <v>124</v>
       </c>
       <c r="C123" s="3" t="s">
@@ -4074,13 +4074,13 @@
       <c r="G123" s="3">
         <v>20</v>
       </c>
-      <c r="K123" s="33">
+      <c r="K123" s="32">
         <v>45545</v>
       </c>
     </row>
     <row r="124" spans="1:11">
-      <c r="A124" s="24"/>
-      <c r="B124" s="27"/>
+      <c r="A124" s="25"/>
+      <c r="B124" s="30"/>
       <c r="C124" s="3" t="s">
         <v>123</v>
       </c>
@@ -4096,11 +4096,11 @@
       <c r="G124" s="5">
         <v>50</v>
       </c>
-      <c r="K124" s="34"/>
+      <c r="K124" s="33"/>
     </row>
     <row r="125" spans="1:11">
-      <c r="A125" s="25"/>
-      <c r="B125" s="27"/>
+      <c r="A125" s="26"/>
+      <c r="B125" s="30"/>
       <c r="C125" s="3" t="s">
         <v>121</v>
       </c>
@@ -4116,13 +4116,13 @@
       <c r="G125" s="3">
         <v>50</v>
       </c>
-      <c r="K125" s="35"/>
+      <c r="K125" s="34"/>
     </row>
     <row r="126" spans="1:11">
-      <c r="A126" s="26">
+      <c r="A126" s="24">
         <v>43</v>
       </c>
-      <c r="B126" s="27" t="s">
+      <c r="B126" s="30" t="s">
         <v>127</v>
       </c>
       <c r="C126" s="3" t="s">
@@ -4140,13 +4140,13 @@
       <c r="G126" s="3">
         <v>20</v>
       </c>
-      <c r="K126" s="33">
+      <c r="K126" s="32">
         <v>45546</v>
       </c>
     </row>
     <row r="127" spans="1:11">
-      <c r="A127" s="24"/>
-      <c r="B127" s="27"/>
+      <c r="A127" s="25"/>
+      <c r="B127" s="30"/>
       <c r="C127" s="3" t="s">
         <v>125</v>
       </c>
@@ -4162,11 +4162,11 @@
       <c r="G127" s="5">
         <v>60</v>
       </c>
-      <c r="K127" s="34"/>
+      <c r="K127" s="33"/>
     </row>
     <row r="128" spans="1:11">
-      <c r="A128" s="25"/>
-      <c r="B128" s="27"/>
+      <c r="A128" s="26"/>
+      <c r="B128" s="30"/>
       <c r="C128" s="3" t="s">
         <v>126</v>
       </c>
@@ -4182,13 +4182,13 @@
       <c r="G128" s="3">
         <v>60</v>
       </c>
-      <c r="K128" s="35"/>
+      <c r="K128" s="34"/>
     </row>
     <row r="129" spans="1:11">
-      <c r="A129" s="26">
+      <c r="A129" s="24">
         <v>44</v>
       </c>
-      <c r="B129" s="27" t="s">
+      <c r="B129" s="30" t="s">
         <v>129</v>
       </c>
       <c r="C129" s="3" t="s">
@@ -4206,13 +4206,13 @@
       <c r="G129" s="3">
         <v>20</v>
       </c>
-      <c r="K129" s="33">
+      <c r="K129" s="32">
         <v>45545</v>
       </c>
     </row>
     <row r="130" spans="1:11">
-      <c r="A130" s="24"/>
-      <c r="B130" s="27"/>
+      <c r="A130" s="25"/>
+      <c r="B130" s="30"/>
       <c r="C130" s="3" t="s">
         <v>128</v>
       </c>
@@ -4228,11 +4228,11 @@
       <c r="G130" s="5">
         <v>50</v>
       </c>
-      <c r="K130" s="34"/>
+      <c r="K130" s="33"/>
     </row>
     <row r="131" spans="1:11">
-      <c r="A131" s="25"/>
-      <c r="B131" s="27"/>
+      <c r="A131" s="26"/>
+      <c r="B131" s="30"/>
       <c r="C131" s="3" t="s">
         <v>126</v>
       </c>
@@ -4248,7 +4248,7 @@
       <c r="G131" s="3">
         <v>50</v>
       </c>
-      <c r="K131" s="35"/>
+      <c r="K131" s="34"/>
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="13">
@@ -4277,10 +4277,10 @@
       </c>
     </row>
     <row r="133" spans="1:11">
-      <c r="A133" s="26">
+      <c r="A133" s="24">
         <v>46</v>
       </c>
-      <c r="B133" s="27" t="s">
+      <c r="B133" s="30" t="s">
         <v>133</v>
       </c>
       <c r="C133" s="3" t="s">
@@ -4298,13 +4298,13 @@
       <c r="G133" s="3">
         <v>20</v>
       </c>
-      <c r="K133" s="33">
+      <c r="K133" s="32">
         <v>45545</v>
       </c>
     </row>
     <row r="134" spans="1:11">
-      <c r="A134" s="24"/>
-      <c r="B134" s="27"/>
+      <c r="A134" s="25"/>
+      <c r="B134" s="30"/>
       <c r="C134" s="3" t="s">
         <v>131</v>
       </c>
@@ -4320,11 +4320,11 @@
       <c r="G134" s="3">
         <v>30</v>
       </c>
-      <c r="K134" s="34"/>
+      <c r="K134" s="33"/>
     </row>
     <row r="135" spans="1:11">
-      <c r="A135" s="25"/>
-      <c r="B135" s="27"/>
+      <c r="A135" s="26"/>
+      <c r="B135" s="30"/>
       <c r="C135" s="3" t="s">
         <v>132</v>
       </c>
@@ -4340,13 +4340,13 @@
       <c r="G135" s="3">
         <v>20</v>
       </c>
-      <c r="K135" s="35"/>
+      <c r="K135" s="34"/>
     </row>
     <row r="136" spans="1:11">
-      <c r="A136" s="26">
+      <c r="A136" s="24">
         <v>47</v>
       </c>
-      <c r="B136" s="27" t="s">
+      <c r="B136" s="30" t="s">
         <v>135</v>
       </c>
       <c r="C136" s="3" t="s">
@@ -4364,13 +4364,13 @@
       <c r="G136" s="3">
         <v>20</v>
       </c>
-      <c r="K136" s="33">
+      <c r="K136" s="32">
         <v>45545</v>
       </c>
     </row>
     <row r="137" spans="1:11">
-      <c r="A137" s="24"/>
-      <c r="B137" s="27"/>
+      <c r="A137" s="25"/>
+      <c r="B137" s="30"/>
       <c r="C137" s="3" t="s">
         <v>8</v>
       </c>
@@ -4387,11 +4387,11 @@
         <v>20</v>
       </c>
       <c r="I137" s="4"/>
-      <c r="K137" s="34"/>
+      <c r="K137" s="33"/>
     </row>
     <row r="138" spans="1:11">
-      <c r="A138" s="25"/>
-      <c r="B138" s="27"/>
+      <c r="A138" s="26"/>
+      <c r="B138" s="30"/>
       <c r="C138" s="3" t="s">
         <v>134</v>
       </c>
@@ -4405,13 +4405,13 @@
         <v>21</v>
       </c>
       <c r="I138" s="4"/>
-      <c r="K138" s="35"/>
+      <c r="K138" s="34"/>
     </row>
     <row r="139" spans="1:11">
-      <c r="A139" s="26">
+      <c r="A139" s="24">
         <v>48</v>
       </c>
-      <c r="B139" s="27" t="s">
+      <c r="B139" s="30" t="s">
         <v>141</v>
       </c>
       <c r="C139" s="3" t="s">
@@ -4430,13 +4430,13 @@
         <v>50</v>
       </c>
       <c r="I139" s="4"/>
-      <c r="K139" s="33">
+      <c r="K139" s="32">
         <v>45545</v>
       </c>
     </row>
     <row r="140" spans="1:11">
-      <c r="A140" s="24"/>
-      <c r="B140" s="27"/>
+      <c r="A140" s="25"/>
+      <c r="B140" s="30"/>
       <c r="C140" s="3" t="s">
         <v>137</v>
       </c>
@@ -4456,11 +4456,11 @@
       <c r="J140" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="K140" s="34"/>
+      <c r="K140" s="33"/>
     </row>
     <row r="141" spans="1:11">
-      <c r="A141" s="24"/>
-      <c r="B141" s="27"/>
+      <c r="A141" s="25"/>
+      <c r="B141" s="30"/>
       <c r="C141" s="3" t="s">
         <v>139</v>
       </c>
@@ -4477,11 +4477,11 @@
         <v>50</v>
       </c>
       <c r="I141" s="4"/>
-      <c r="K141" s="34"/>
+      <c r="K141" s="33"/>
     </row>
     <row r="142" spans="1:11">
-      <c r="A142" s="25"/>
-      <c r="B142" s="27"/>
+      <c r="A142" s="26"/>
+      <c r="B142" s="30"/>
       <c r="C142" s="3" t="s">
         <v>140</v>
       </c>
@@ -4492,13 +4492,13 @@
         <v>21</v>
       </c>
       <c r="I142" s="4"/>
-      <c r="K142" s="35"/>
+      <c r="K142" s="34"/>
     </row>
     <row r="143" spans="1:11">
-      <c r="A143" s="26">
+      <c r="A143" s="24">
         <v>49</v>
       </c>
-      <c r="B143" s="27" t="s">
+      <c r="B143" s="30" t="s">
         <v>146</v>
       </c>
       <c r="C143" s="3" t="s">
@@ -4516,13 +4516,13 @@
       <c r="G143" s="3">
         <v>2</v>
       </c>
-      <c r="K143" s="33">
+      <c r="K143" s="32">
         <v>45545</v>
       </c>
     </row>
     <row r="144" spans="1:11">
-      <c r="A144" s="24"/>
-      <c r="B144" s="27"/>
+      <c r="A144" s="25"/>
+      <c r="B144" s="30"/>
       <c r="C144" s="3" t="s">
         <v>143</v>
       </c>
@@ -4538,11 +4538,11 @@
       <c r="G144" s="3">
         <v>11</v>
       </c>
-      <c r="K144" s="34"/>
+      <c r="K144" s="33"/>
     </row>
     <row r="145" spans="1:11">
-      <c r="A145" s="24"/>
-      <c r="B145" s="27"/>
+      <c r="A145" s="25"/>
+      <c r="B145" s="30"/>
       <c r="C145" s="3" t="s">
         <v>144</v>
       </c>
@@ -4558,11 +4558,11 @@
       <c r="G145" s="3">
         <v>11</v>
       </c>
-      <c r="K145" s="34"/>
+      <c r="K145" s="33"/>
     </row>
     <row r="146" spans="1:11">
-      <c r="A146" s="25"/>
-      <c r="B146" s="27"/>
+      <c r="A146" s="26"/>
+      <c r="B146" s="30"/>
       <c r="C146" s="3" t="s">
         <v>145</v>
       </c>
@@ -4578,13 +4578,13 @@
       <c r="G146" s="3">
         <v>20</v>
       </c>
-      <c r="K146" s="35"/>
+      <c r="K146" s="34"/>
     </row>
     <row r="147" spans="1:11">
-      <c r="A147" s="26">
-        <v>50</v>
-      </c>
-      <c r="B147" s="27" t="s">
+      <c r="A147" s="24">
+        <v>50</v>
+      </c>
+      <c r="B147" s="30" t="s">
         <v>149</v>
       </c>
       <c r="C147" s="3" t="s">
@@ -4602,13 +4602,13 @@
       <c r="G147" s="3">
         <v>2</v>
       </c>
-      <c r="K147" s="33">
+      <c r="K147" s="32">
         <v>45545</v>
       </c>
     </row>
     <row r="148" spans="1:11">
-      <c r="A148" s="25"/>
-      <c r="B148" s="27"/>
+      <c r="A148" s="26"/>
+      <c r="B148" s="30"/>
       <c r="C148" s="3" t="s">
         <v>148</v>
       </c>
@@ -4624,13 +4624,13 @@
       <c r="G148" s="3">
         <v>50</v>
       </c>
-      <c r="K148" s="35"/>
+      <c r="K148" s="34"/>
     </row>
     <row r="149" spans="1:11">
-      <c r="A149" s="26">
+      <c r="A149" s="24">
         <v>51</v>
       </c>
-      <c r="B149" s="27" t="s">
+      <c r="B149" s="30" t="s">
         <v>153</v>
       </c>
       <c r="C149" s="3" t="s">
@@ -4648,13 +4648,13 @@
       <c r="G149" s="3">
         <v>20</v>
       </c>
-      <c r="K149" s="33">
+      <c r="K149" s="32">
         <v>45545</v>
       </c>
     </row>
     <row r="150" spans="1:11">
-      <c r="A150" s="24"/>
-      <c r="B150" s="27"/>
+      <c r="A150" s="25"/>
+      <c r="B150" s="30"/>
       <c r="C150" s="10" t="s">
         <v>150</v>
       </c>
@@ -4670,11 +4670,11 @@
       <c r="G150" s="3">
         <v>5</v>
       </c>
-      <c r="K150" s="34"/>
+      <c r="K150" s="33"/>
     </row>
     <row r="151" spans="1:11">
-      <c r="A151" s="24"/>
-      <c r="B151" s="27"/>
+      <c r="A151" s="25"/>
+      <c r="B151" s="30"/>
       <c r="C151" s="3" t="s">
         <v>151</v>
       </c>
@@ -4690,11 +4690,11 @@
       <c r="G151" s="3">
         <v>50</v>
       </c>
-      <c r="K151" s="34"/>
+      <c r="K151" s="33"/>
     </row>
     <row r="152" spans="1:11">
-      <c r="A152" s="25"/>
-      <c r="B152" s="27"/>
+      <c r="A152" s="26"/>
+      <c r="B152" s="30"/>
       <c r="C152" s="3" t="s">
         <v>152</v>
       </c>
@@ -4704,7 +4704,7 @@
       <c r="F152" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K152" s="35"/>
+      <c r="K152" s="34"/>
     </row>
     <row r="153" spans="1:11">
       <c r="A153" s="13">
@@ -4733,10 +4733,10 @@
       </c>
     </row>
     <row r="154" spans="1:11">
-      <c r="A154" s="26">
+      <c r="A154" s="24">
         <v>53</v>
       </c>
-      <c r="B154" s="27" t="s">
+      <c r="B154" s="30" t="s">
         <v>156</v>
       </c>
       <c r="C154" s="3" t="s">
@@ -4754,13 +4754,13 @@
       <c r="G154" s="3">
         <v>30</v>
       </c>
-      <c r="K154" s="33">
+      <c r="K154" s="32">
         <v>45545</v>
       </c>
     </row>
     <row r="155" spans="1:11">
-      <c r="A155" s="25"/>
-      <c r="B155" s="27"/>
+      <c r="A155" s="26"/>
+      <c r="B155" s="30"/>
       <c r="C155" s="3" t="s">
         <v>50</v>
       </c>
@@ -4776,13 +4776,13 @@
       <c r="G155" s="3">
         <v>20</v>
       </c>
-      <c r="K155" s="35"/>
+      <c r="K155" s="34"/>
     </row>
     <row r="156" spans="1:11">
-      <c r="A156" s="26">
+      <c r="A156" s="24">
         <v>54</v>
       </c>
-      <c r="B156" s="27" t="s">
+      <c r="B156" s="30" t="s">
         <v>155</v>
       </c>
       <c r="C156" s="3" t="s">
@@ -4800,13 +4800,13 @@
       <c r="G156" s="3">
         <v>20</v>
       </c>
-      <c r="K156" s="33">
+      <c r="K156" s="32">
         <v>45545</v>
       </c>
     </row>
     <row r="157" spans="1:11">
-      <c r="A157" s="25"/>
-      <c r="B157" s="27"/>
+      <c r="A157" s="26"/>
+      <c r="B157" s="30"/>
       <c r="C157" s="3" t="s">
         <v>155</v>
       </c>
@@ -4822,7 +4822,7 @@
       <c r="G157" s="3">
         <v>50</v>
       </c>
-      <c r="K157" s="35"/>
+      <c r="K157" s="34"/>
     </row>
     <row r="158" spans="1:11">
       <c r="A158" s="13">
@@ -4851,10 +4851,10 @@
       </c>
     </row>
     <row r="159" spans="1:11">
-      <c r="A159" s="26">
+      <c r="A159" s="24">
         <v>56</v>
       </c>
-      <c r="B159" s="27" t="s">
+      <c r="B159" s="30" t="s">
         <v>160</v>
       </c>
       <c r="C159" s="3" t="s">
@@ -4872,13 +4872,13 @@
       <c r="G159" s="3">
         <v>20</v>
       </c>
-      <c r="K159" s="33">
+      <c r="K159" s="32">
         <v>45546</v>
       </c>
     </row>
     <row r="160" spans="1:11">
-      <c r="A160" s="25"/>
-      <c r="B160" s="27"/>
+      <c r="A160" s="26"/>
+      <c r="B160" s="30"/>
       <c r="C160" s="3" t="s">
         <v>159</v>
       </c>
@@ -4894,13 +4894,13 @@
       <c r="G160" s="3">
         <v>3</v>
       </c>
-      <c r="K160" s="35"/>
+      <c r="K160" s="34"/>
     </row>
     <row r="161" spans="1:11">
-      <c r="A161" s="26">
+      <c r="A161" s="24">
         <v>57</v>
       </c>
-      <c r="B161" s="27" t="s">
+      <c r="B161" s="30" t="s">
         <v>162</v>
       </c>
       <c r="C161" s="3" t="s">
@@ -4918,13 +4918,13 @@
       <c r="G161" s="3">
         <v>20</v>
       </c>
-      <c r="K161" s="33">
+      <c r="K161" s="32">
         <v>45546</v>
       </c>
     </row>
     <row r="162" spans="1:11">
-      <c r="A162" s="25"/>
-      <c r="B162" s="27"/>
+      <c r="A162" s="26"/>
+      <c r="B162" s="30"/>
       <c r="C162" s="3" t="s">
         <v>161</v>
       </c>
@@ -4940,13 +4940,13 @@
       <c r="G162" s="3">
         <v>50</v>
       </c>
-      <c r="K162" s="35"/>
+      <c r="K162" s="34"/>
     </row>
     <row r="163" spans="1:11">
-      <c r="A163" s="26">
+      <c r="A163" s="24">
         <v>58</v>
       </c>
-      <c r="B163" s="27" t="s">
+      <c r="B163" s="30" t="s">
         <v>165</v>
       </c>
       <c r="C163" s="3" t="s">
@@ -4964,13 +4964,13 @@
       <c r="G163" s="3">
         <v>20</v>
       </c>
-      <c r="K163" s="33">
+      <c r="K163" s="32">
         <v>45546</v>
       </c>
     </row>
     <row r="164" spans="1:11">
-      <c r="A164" s="24"/>
-      <c r="B164" s="27"/>
+      <c r="A164" s="25"/>
+      <c r="B164" s="30"/>
       <c r="C164" s="3" t="s">
         <v>163</v>
       </c>
@@ -4986,11 +4986,11 @@
       <c r="G164" s="3">
         <v>25</v>
       </c>
-      <c r="K164" s="34"/>
+      <c r="K164" s="33"/>
     </row>
     <row r="165" spans="1:11">
-      <c r="A165" s="25"/>
-      <c r="B165" s="27"/>
+      <c r="A165" s="26"/>
+      <c r="B165" s="30"/>
       <c r="C165" s="3" t="s">
         <v>164</v>
       </c>
@@ -5000,13 +5000,13 @@
       <c r="F165" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="K165" s="35"/>
+      <c r="K165" s="34"/>
     </row>
     <row r="166" spans="1:11">
-      <c r="A166" s="26">
+      <c r="A166" s="24">
         <v>59</v>
       </c>
-      <c r="B166" s="27" t="s">
+      <c r="B166" s="30" t="s">
         <v>169</v>
       </c>
       <c r="C166" s="3" t="s">
@@ -5024,13 +5024,13 @@
       <c r="G166" s="3">
         <v>20</v>
       </c>
-      <c r="K166" s="33">
+      <c r="K166" s="32">
         <v>45546</v>
       </c>
     </row>
     <row r="167" spans="1:11">
-      <c r="A167" s="24"/>
-      <c r="B167" s="27"/>
+      <c r="A167" s="25"/>
+      <c r="B167" s="30"/>
       <c r="C167" s="3" t="s">
         <v>166</v>
       </c>
@@ -5046,11 +5046,11 @@
       <c r="G167" s="3">
         <v>10</v>
       </c>
-      <c r="K167" s="34"/>
+      <c r="K167" s="33"/>
     </row>
     <row r="168" spans="1:11">
-      <c r="A168" s="24"/>
-      <c r="B168" s="27"/>
+      <c r="A168" s="25"/>
+      <c r="B168" s="30"/>
       <c r="C168" s="3" t="s">
         <v>167</v>
       </c>
@@ -5066,11 +5066,11 @@
       <c r="G168" s="3">
         <v>10</v>
       </c>
-      <c r="K168" s="34"/>
+      <c r="K168" s="33"/>
     </row>
     <row r="169" spans="1:11">
-      <c r="A169" s="25"/>
-      <c r="B169" s="27"/>
+      <c r="A169" s="26"/>
+      <c r="B169" s="30"/>
       <c r="C169" s="3" t="s">
         <v>168</v>
       </c>
@@ -5086,13 +5086,13 @@
       <c r="G169" s="3">
         <v>2</v>
       </c>
-      <c r="K169" s="35"/>
+      <c r="K169" s="34"/>
     </row>
     <row r="170" spans="1:11">
-      <c r="A170" s="26">
+      <c r="A170" s="24">
         <v>60</v>
       </c>
-      <c r="B170" s="27" t="s">
+      <c r="B170" s="30" t="s">
         <v>170</v>
       </c>
       <c r="C170" s="3" t="s">
@@ -5110,13 +5110,13 @@
       <c r="G170" s="3">
         <v>20</v>
       </c>
-      <c r="K170" s="33">
+      <c r="K170" s="32">
         <v>45546</v>
       </c>
     </row>
     <row r="171" spans="1:11">
-      <c r="A171" s="25"/>
-      <c r="B171" s="27"/>
+      <c r="A171" s="26"/>
+      <c r="B171" s="30"/>
       <c r="C171" s="3" t="s">
         <v>71</v>
       </c>
@@ -5129,13 +5129,13 @@
       <c r="F171" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K171" s="35"/>
+      <c r="K171" s="34"/>
     </row>
     <row r="172" spans="1:11">
-      <c r="A172" s="26">
+      <c r="A172" s="24">
         <v>61</v>
       </c>
-      <c r="B172" s="27" t="s">
+      <c r="B172" s="30" t="s">
         <v>171</v>
       </c>
       <c r="C172" s="3" t="s">
@@ -5153,13 +5153,13 @@
       <c r="G172" s="3">
         <v>20</v>
       </c>
-      <c r="K172" s="33">
+      <c r="K172" s="32">
         <v>45546</v>
       </c>
     </row>
     <row r="173" spans="1:11">
-      <c r="A173" s="24"/>
-      <c r="B173" s="27"/>
+      <c r="A173" s="25"/>
+      <c r="B173" s="30"/>
       <c r="C173" s="3" t="s">
         <v>166</v>
       </c>
@@ -5175,11 +5175,11 @@
       <c r="G173" s="3">
         <v>10</v>
       </c>
-      <c r="K173" s="34"/>
+      <c r="K173" s="33"/>
     </row>
     <row r="174" spans="1:11">
-      <c r="A174" s="24"/>
-      <c r="B174" s="27"/>
+      <c r="A174" s="25"/>
+      <c r="B174" s="30"/>
       <c r="C174" s="3" t="s">
         <v>167</v>
       </c>
@@ -5195,11 +5195,11 @@
       <c r="G174" s="3">
         <v>10</v>
       </c>
-      <c r="K174" s="34"/>
+      <c r="K174" s="33"/>
     </row>
     <row r="175" spans="1:11">
-      <c r="A175" s="25"/>
-      <c r="B175" s="27"/>
+      <c r="A175" s="26"/>
+      <c r="B175" s="30"/>
       <c r="C175" s="3" t="s">
         <v>168</v>
       </c>
@@ -5215,13 +5215,13 @@
       <c r="G175" s="3">
         <v>2</v>
       </c>
-      <c r="K175" s="35"/>
+      <c r="K175" s="34"/>
     </row>
     <row r="176" spans="1:11">
-      <c r="A176" s="26">
+      <c r="A176" s="24">
         <v>62</v>
       </c>
-      <c r="B176" s="27" t="s">
+      <c r="B176" s="30" t="s">
         <v>174</v>
       </c>
       <c r="C176" s="3" t="s">
@@ -5239,13 +5239,13 @@
       <c r="G176" s="3">
         <v>20</v>
       </c>
-      <c r="K176" s="33">
+      <c r="K176" s="32">
         <v>45546</v>
       </c>
     </row>
     <row r="177" spans="1:11">
-      <c r="A177" s="24"/>
-      <c r="B177" s="27"/>
+      <c r="A177" s="25"/>
+      <c r="B177" s="30"/>
       <c r="C177" s="3" t="s">
         <v>8</v>
       </c>
@@ -5261,11 +5261,11 @@
       <c r="G177" s="3">
         <v>20</v>
       </c>
-      <c r="K177" s="34"/>
+      <c r="K177" s="33"/>
     </row>
     <row r="178" spans="1:11">
-      <c r="A178" s="25"/>
-      <c r="B178" s="27"/>
+      <c r="A178" s="26"/>
+      <c r="B178" s="30"/>
       <c r="C178" s="3" t="s">
         <v>173</v>
       </c>
@@ -5281,13 +5281,13 @@
       <c r="G178" s="3">
         <v>3</v>
       </c>
-      <c r="K178" s="35"/>
+      <c r="K178" s="34"/>
     </row>
     <row r="179" spans="1:11">
-      <c r="A179" s="26">
+      <c r="A179" s="24">
         <v>63</v>
       </c>
-      <c r="B179" s="28" t="s">
+      <c r="B179" s="31" t="s">
         <v>187</v>
       </c>
       <c r="C179" s="3" t="s">
@@ -5299,13 +5299,13 @@
       <c r="F179" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K179" s="33">
+      <c r="K179" s="32">
         <v>45551</v>
       </c>
     </row>
     <row r="180" spans="1:11">
-      <c r="A180" s="24"/>
-      <c r="B180" s="28"/>
+      <c r="A180" s="25"/>
+      <c r="B180" s="31"/>
       <c r="C180" s="3" t="s">
         <v>176</v>
       </c>
@@ -5321,11 +5321,11 @@
       <c r="G180" s="3">
         <v>3000</v>
       </c>
-      <c r="K180" s="34"/>
+      <c r="K180" s="33"/>
     </row>
     <row r="181" spans="1:11">
-      <c r="A181" s="24"/>
-      <c r="B181" s="28"/>
+      <c r="A181" s="25"/>
+      <c r="B181" s="31"/>
       <c r="C181" s="3" t="s">
         <v>177</v>
       </c>
@@ -5341,11 +5341,11 @@
       <c r="G181" s="3">
         <v>3000</v>
       </c>
-      <c r="K181" s="34"/>
+      <c r="K181" s="33"/>
     </row>
     <row r="182" spans="1:11">
-      <c r="A182" s="24"/>
-      <c r="B182" s="28"/>
+      <c r="A182" s="25"/>
+      <c r="B182" s="31"/>
       <c r="C182" s="3" t="s">
         <v>178</v>
       </c>
@@ -5361,11 +5361,11 @@
       <c r="G182" s="3">
         <v>3000</v>
       </c>
-      <c r="K182" s="34"/>
+      <c r="K182" s="33"/>
     </row>
     <row r="183" spans="1:11">
-      <c r="A183" s="24"/>
-      <c r="B183" s="28"/>
+      <c r="A183" s="25"/>
+      <c r="B183" s="31"/>
       <c r="C183" s="3" t="s">
         <v>179</v>
       </c>
@@ -5381,11 +5381,11 @@
       <c r="G183" s="3">
         <v>3000</v>
       </c>
-      <c r="K183" s="34"/>
+      <c r="K183" s="33"/>
     </row>
     <row r="184" spans="1:11">
-      <c r="A184" s="24"/>
-      <c r="B184" s="28"/>
+      <c r="A184" s="25"/>
+      <c r="B184" s="31"/>
       <c r="C184" s="3" t="s">
         <v>180</v>
       </c>
@@ -5401,11 +5401,11 @@
       <c r="G184" s="3">
         <v>3000</v>
       </c>
-      <c r="K184" s="34"/>
+      <c r="K184" s="33"/>
     </row>
     <row r="185" spans="1:11">
-      <c r="A185" s="24"/>
-      <c r="B185" s="28"/>
+      <c r="A185" s="25"/>
+      <c r="B185" s="31"/>
       <c r="C185" s="3" t="s">
         <v>181</v>
       </c>
@@ -5421,11 +5421,11 @@
       <c r="G185" s="3">
         <v>3000</v>
       </c>
-      <c r="K185" s="34"/>
+      <c r="K185" s="33"/>
     </row>
     <row r="186" spans="1:11">
-      <c r="A186" s="24"/>
-      <c r="B186" s="28"/>
+      <c r="A186" s="25"/>
+      <c r="B186" s="31"/>
       <c r="C186" s="3" t="s">
         <v>182</v>
       </c>
@@ -5441,11 +5441,11 @@
       <c r="G186" s="3">
         <v>3000</v>
       </c>
-      <c r="K186" s="34"/>
+      <c r="K186" s="33"/>
     </row>
     <row r="187" spans="1:11">
-      <c r="A187" s="24"/>
-      <c r="B187" s="28"/>
+      <c r="A187" s="25"/>
+      <c r="B187" s="31"/>
       <c r="C187" s="3" t="s">
         <v>183</v>
       </c>
@@ -5461,11 +5461,11 @@
       <c r="G187" s="3">
         <v>3000</v>
       </c>
-      <c r="K187" s="34"/>
+      <c r="K187" s="33"/>
     </row>
     <row r="188" spans="1:11">
-      <c r="A188" s="24"/>
-      <c r="B188" s="28"/>
+      <c r="A188" s="25"/>
+      <c r="B188" s="31"/>
       <c r="C188" s="3" t="s">
         <v>184</v>
       </c>
@@ -5481,11 +5481,11 @@
       <c r="G188" s="3">
         <v>3000</v>
       </c>
-      <c r="K188" s="34"/>
+      <c r="K188" s="33"/>
     </row>
     <row r="189" spans="1:11">
-      <c r="A189" s="24"/>
-      <c r="B189" s="28"/>
+      <c r="A189" s="25"/>
+      <c r="B189" s="31"/>
       <c r="C189" s="3" t="s">
         <v>185</v>
       </c>
@@ -5501,11 +5501,11 @@
       <c r="G189" s="3">
         <v>3000</v>
       </c>
-      <c r="K189" s="34"/>
+      <c r="K189" s="33"/>
     </row>
     <row r="190" spans="1:11">
-      <c r="A190" s="24"/>
-      <c r="B190" s="28"/>
+      <c r="A190" s="25"/>
+      <c r="B190" s="31"/>
       <c r="C190" s="3" t="s">
         <v>6</v>
       </c>
@@ -5521,11 +5521,11 @@
       <c r="G190" s="6">
         <v>20</v>
       </c>
-      <c r="K190" s="34"/>
+      <c r="K190" s="33"/>
     </row>
     <row r="191" spans="1:11">
-      <c r="A191" s="24"/>
-      <c r="B191" s="28"/>
+      <c r="A191" s="25"/>
+      <c r="B191" s="31"/>
       <c r="C191" s="3" t="s">
         <v>8</v>
       </c>
@@ -5541,11 +5541,11 @@
       <c r="G191" s="6">
         <v>20</v>
       </c>
-      <c r="K191" s="34"/>
+      <c r="K191" s="33"/>
     </row>
     <row r="192" spans="1:11">
-      <c r="A192" s="25"/>
-      <c r="B192" s="28"/>
+      <c r="A192" s="26"/>
+      <c r="B192" s="31"/>
       <c r="C192" s="3" t="s">
         <v>186</v>
       </c>
@@ -5558,13 +5558,13 @@
       <c r="F192" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="K192" s="35"/>
+      <c r="K192" s="34"/>
     </row>
     <row r="193" spans="1:11">
-      <c r="A193" s="26">
+      <c r="A193" s="24">
         <v>64</v>
       </c>
-      <c r="B193" s="27" t="s">
+      <c r="B193" s="30" t="s">
         <v>188</v>
       </c>
       <c r="C193" s="3" t="s">
@@ -5582,13 +5582,13 @@
       <c r="G193" s="3">
         <v>20</v>
       </c>
-      <c r="K193" s="33">
+      <c r="K193" s="32">
         <v>45546</v>
       </c>
     </row>
     <row r="194" spans="1:11">
-      <c r="A194" s="24"/>
-      <c r="B194" s="27"/>
+      <c r="A194" s="25"/>
+      <c r="B194" s="30"/>
       <c r="C194" s="3" t="s">
         <v>8</v>
       </c>
@@ -5604,11 +5604,11 @@
       <c r="G194" s="3">
         <v>20</v>
       </c>
-      <c r="K194" s="34"/>
+      <c r="K194" s="33"/>
     </row>
     <row r="195" spans="1:11">
-      <c r="A195" s="25"/>
-      <c r="B195" s="27"/>
+      <c r="A195" s="26"/>
+      <c r="B195" s="30"/>
       <c r="C195" s="3" t="s">
         <v>71</v>
       </c>
@@ -5621,13 +5621,13 @@
       <c r="F195" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K195" s="35"/>
+      <c r="K195" s="34"/>
     </row>
     <row r="196" spans="1:11">
-      <c r="A196" s="26">
+      <c r="A196" s="24">
         <v>65</v>
       </c>
-      <c r="B196" s="27" t="s">
+      <c r="B196" s="30" t="s">
         <v>189</v>
       </c>
       <c r="C196" s="3" t="s">
@@ -5645,13 +5645,13 @@
       <c r="G196" s="3">
         <v>20</v>
       </c>
-      <c r="K196" s="33">
+      <c r="K196" s="32">
         <v>45546</v>
       </c>
     </row>
     <row r="197" spans="1:11">
-      <c r="A197" s="24"/>
-      <c r="B197" s="27"/>
+      <c r="A197" s="25"/>
+      <c r="B197" s="30"/>
       <c r="C197" s="3" t="s">
         <v>8</v>
       </c>
@@ -5667,11 +5667,11 @@
       <c r="G197" s="3">
         <v>20</v>
       </c>
-      <c r="K197" s="34"/>
+      <c r="K197" s="33"/>
     </row>
     <row r="198" spans="1:11">
-      <c r="A198" s="25"/>
-      <c r="B198" s="27"/>
+      <c r="A198" s="26"/>
+      <c r="B198" s="30"/>
       <c r="C198" s="3" t="s">
         <v>71</v>
       </c>
@@ -5684,13 +5684,13 @@
       <c r="F198" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K198" s="35"/>
+      <c r="K198" s="34"/>
     </row>
     <row r="199" spans="1:11">
-      <c r="A199" s="26">
+      <c r="A199" s="24">
         <v>66</v>
       </c>
-      <c r="B199" s="27" t="s">
+      <c r="B199" s="30" t="s">
         <v>192</v>
       </c>
       <c r="C199" s="3" t="s">
@@ -5708,13 +5708,13 @@
       <c r="G199" s="3">
         <v>20</v>
       </c>
-      <c r="K199" s="33">
+      <c r="K199" s="32">
         <v>45546</v>
       </c>
     </row>
     <row r="200" spans="1:11">
-      <c r="A200" s="24"/>
-      <c r="B200" s="27"/>
+      <c r="A200" s="25"/>
+      <c r="B200" s="30"/>
       <c r="C200" s="3" t="s">
         <v>190</v>
       </c>
@@ -5730,11 +5730,11 @@
       <c r="G200" s="3">
         <v>40</v>
       </c>
-      <c r="K200" s="34"/>
+      <c r="K200" s="33"/>
     </row>
     <row r="201" spans="1:11">
-      <c r="A201" s="25"/>
-      <c r="B201" s="27"/>
+      <c r="A201" s="26"/>
+      <c r="B201" s="30"/>
       <c r="C201" s="3" t="s">
         <v>191</v>
       </c>
@@ -5750,13 +5750,13 @@
       <c r="G201" s="3">
         <v>40</v>
       </c>
-      <c r="K201" s="35"/>
+      <c r="K201" s="34"/>
     </row>
     <row r="202" spans="1:11">
-      <c r="A202" s="26">
+      <c r="A202" s="24">
         <v>67</v>
       </c>
-      <c r="B202" s="27" t="s">
+      <c r="B202" s="30" t="s">
         <v>195</v>
       </c>
       <c r="C202" s="3" t="s">
@@ -5774,13 +5774,13 @@
       <c r="G202" s="3">
         <v>20</v>
       </c>
-      <c r="K202" s="33">
+      <c r="K202" s="32">
         <v>45546</v>
       </c>
     </row>
     <row r="203" spans="1:11">
-      <c r="A203" s="24"/>
-      <c r="B203" s="27"/>
+      <c r="A203" s="25"/>
+      <c r="B203" s="30"/>
       <c r="C203" s="3" t="s">
         <v>193</v>
       </c>
@@ -5796,11 +5796,11 @@
       <c r="G203" s="3">
         <v>30</v>
       </c>
-      <c r="K203" s="34"/>
+      <c r="K203" s="33"/>
     </row>
     <row r="204" spans="1:11">
-      <c r="A204" s="25"/>
-      <c r="B204" s="27"/>
+      <c r="A204" s="26"/>
+      <c r="B204" s="30"/>
       <c r="C204" s="3" t="s">
         <v>194</v>
       </c>
@@ -5816,13 +5816,13 @@
       <c r="G204" s="3">
         <v>30</v>
       </c>
-      <c r="K204" s="35"/>
+      <c r="K204" s="34"/>
     </row>
     <row r="205" spans="1:11">
-      <c r="A205" s="26">
+      <c r="A205" s="24">
         <v>68</v>
       </c>
-      <c r="B205" s="27" t="s">
+      <c r="B205" s="30" t="s">
         <v>198</v>
       </c>
       <c r="C205" s="3" t="s">
@@ -5840,13 +5840,13 @@
       <c r="G205" s="3">
         <v>20</v>
       </c>
-      <c r="K205" s="33">
+      <c r="K205" s="32">
         <v>45546</v>
       </c>
     </row>
     <row r="206" spans="1:11">
-      <c r="A206" s="24"/>
-      <c r="B206" s="27"/>
+      <c r="A206" s="25"/>
+      <c r="B206" s="30"/>
       <c r="C206" s="3" t="s">
         <v>196</v>
       </c>
@@ -5862,11 +5862,11 @@
       <c r="G206" s="3">
         <v>30</v>
       </c>
-      <c r="K206" s="34"/>
+      <c r="K206" s="33"/>
     </row>
     <row r="207" spans="1:11">
-      <c r="A207" s="25"/>
-      <c r="B207" s="27"/>
+      <c r="A207" s="26"/>
+      <c r="B207" s="30"/>
       <c r="C207" s="3" t="s">
         <v>197</v>
       </c>
@@ -5882,13 +5882,13 @@
       <c r="G207" s="3">
         <v>30</v>
       </c>
-      <c r="K207" s="35"/>
+      <c r="K207" s="34"/>
     </row>
     <row r="208" spans="1:11">
-      <c r="A208" s="26">
+      <c r="A208" s="24">
         <v>69</v>
       </c>
-      <c r="B208" s="27" t="s">
+      <c r="B208" s="30" t="s">
         <v>201</v>
       </c>
       <c r="C208" s="3" t="s">
@@ -5906,13 +5906,13 @@
       <c r="G208" s="3">
         <v>20</v>
       </c>
-      <c r="K208" s="33">
+      <c r="K208" s="32">
         <v>45546</v>
       </c>
     </row>
     <row r="209" spans="1:11">
-      <c r="A209" s="24"/>
-      <c r="B209" s="27"/>
+      <c r="A209" s="25"/>
+      <c r="B209" s="30"/>
       <c r="C209" s="3" t="s">
         <v>199</v>
       </c>
@@ -5928,11 +5928,11 @@
       <c r="G209" s="3">
         <v>30</v>
       </c>
-      <c r="K209" s="34"/>
+      <c r="K209" s="33"/>
     </row>
     <row r="210" spans="1:11">
-      <c r="A210" s="25"/>
-      <c r="B210" s="27"/>
+      <c r="A210" s="26"/>
+      <c r="B210" s="30"/>
       <c r="C210" s="3" t="s">
         <v>200</v>
       </c>
@@ -5948,13 +5948,13 @@
       <c r="G210" s="3">
         <v>30</v>
       </c>
-      <c r="K210" s="35"/>
+      <c r="K210" s="34"/>
     </row>
     <row r="211" spans="1:11">
-      <c r="A211" s="26">
+      <c r="A211" s="24">
         <v>70</v>
       </c>
-      <c r="B211" s="27" t="s">
+      <c r="B211" s="30" t="s">
         <v>204</v>
       </c>
       <c r="C211" s="3" t="s">
@@ -5972,13 +5972,13 @@
       <c r="G211" s="3">
         <v>20</v>
       </c>
-      <c r="K211" s="33">
+      <c r="K211" s="32">
         <v>45546</v>
       </c>
     </row>
     <row r="212" spans="1:11">
-      <c r="A212" s="24"/>
-      <c r="B212" s="27"/>
+      <c r="A212" s="25"/>
+      <c r="B212" s="30"/>
       <c r="C212" s="3" t="s">
         <v>202</v>
       </c>
@@ -5994,11 +5994,11 @@
       <c r="G212" s="3">
         <v>60</v>
       </c>
-      <c r="K212" s="34"/>
+      <c r="K212" s="33"/>
     </row>
     <row r="213" spans="1:11">
-      <c r="A213" s="25"/>
-      <c r="B213" s="27"/>
+      <c r="A213" s="26"/>
+      <c r="B213" s="30"/>
       <c r="C213" s="3" t="s">
         <v>203</v>
       </c>
@@ -6014,13 +6014,13 @@
       <c r="G213" s="3">
         <v>60</v>
       </c>
-      <c r="K213" s="35"/>
+      <c r="K213" s="34"/>
     </row>
     <row r="214" spans="1:11">
-      <c r="A214" s="26">
+      <c r="A214" s="24">
         <v>71</v>
       </c>
-      <c r="B214" s="27" t="s">
+      <c r="B214" s="30" t="s">
         <v>205</v>
       </c>
       <c r="C214" s="11" t="s">
@@ -6038,13 +6038,13 @@
       <c r="G214" s="11">
         <v>20</v>
       </c>
-      <c r="K214" s="33">
+      <c r="K214" s="32">
         <v>45546</v>
       </c>
     </row>
     <row r="215" spans="1:11">
-      <c r="A215" s="24"/>
-      <c r="B215" s="27"/>
+      <c r="A215" s="25"/>
+      <c r="B215" s="30"/>
       <c r="C215" s="11" t="s">
         <v>202</v>
       </c>
@@ -6060,11 +6060,11 @@
       <c r="G215" s="11">
         <v>60</v>
       </c>
-      <c r="K215" s="34"/>
+      <c r="K215" s="33"/>
     </row>
     <row r="216" spans="1:11">
-      <c r="A216" s="25"/>
-      <c r="B216" s="27"/>
+      <c r="A216" s="26"/>
+      <c r="B216" s="30"/>
       <c r="C216" s="11" t="s">
         <v>203</v>
       </c>
@@ -6080,13 +6080,13 @@
       <c r="G216" s="11">
         <v>60</v>
       </c>
-      <c r="K216" s="35"/>
+      <c r="K216" s="34"/>
     </row>
     <row r="217" spans="1:11">
-      <c r="A217" s="26">
+      <c r="A217" s="24">
         <v>72</v>
       </c>
-      <c r="B217" s="26" t="s">
+      <c r="B217" s="24" t="s">
         <v>209</v>
       </c>
       <c r="C217" s="3" t="s">
@@ -6104,13 +6104,13 @@
       <c r="G217" s="3">
         <v>20</v>
       </c>
-      <c r="K217" s="33">
+      <c r="K217" s="32">
         <v>45546</v>
       </c>
     </row>
     <row r="218" spans="1:11">
-      <c r="A218" s="24"/>
-      <c r="B218" s="24"/>
+      <c r="A218" s="25"/>
+      <c r="B218" s="25"/>
       <c r="C218" s="3" t="s">
         <v>206</v>
       </c>
@@ -6126,11 +6126,11 @@
       <c r="G218" s="3">
         <v>60</v>
       </c>
-      <c r="K218" s="34"/>
+      <c r="K218" s="33"/>
     </row>
     <row r="219" spans="1:11" s="4" customFormat="1" ht="30" customHeight="1">
-      <c r="A219" s="24"/>
-      <c r="B219" s="24"/>
+      <c r="A219" s="25"/>
+      <c r="B219" s="25"/>
       <c r="C219" s="4" t="s">
         <v>207</v>
       </c>
@@ -6141,11 +6141,11 @@
       <c r="J219" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="K219" s="34"/>
+      <c r="K219" s="33"/>
     </row>
     <row r="220" spans="1:11">
-      <c r="A220" s="25"/>
-      <c r="B220" s="25"/>
+      <c r="A220" s="26"/>
+      <c r="B220" s="26"/>
       <c r="C220" s="3" t="s">
         <v>208</v>
       </c>
@@ -6155,13 +6155,13 @@
       <c r="J220" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="K220" s="35"/>
+      <c r="K220" s="34"/>
     </row>
     <row r="221" spans="1:11">
-      <c r="A221" s="26">
+      <c r="A221" s="24">
         <v>73</v>
       </c>
-      <c r="B221" s="26" t="s">
+      <c r="B221" s="24" t="s">
         <v>211</v>
       </c>
       <c r="C221" s="3" t="s">
@@ -6179,13 +6179,13 @@
       <c r="G221" s="3">
         <v>6</v>
       </c>
-      <c r="K221" s="33">
+      <c r="K221" s="32">
         <v>45551</v>
       </c>
     </row>
     <row r="222" spans="1:11">
-      <c r="A222" s="24"/>
-      <c r="B222" s="24"/>
+      <c r="A222" s="25"/>
+      <c r="B222" s="25"/>
       <c r="C222" s="3" t="s">
         <v>212</v>
       </c>
@@ -6201,11 +6201,11 @@
       <c r="G222" s="3">
         <v>6</v>
       </c>
-      <c r="K222" s="34"/>
+      <c r="K222" s="33"/>
     </row>
     <row r="223" spans="1:11">
-      <c r="A223" s="24"/>
-      <c r="B223" s="24"/>
+      <c r="A223" s="25"/>
+      <c r="B223" s="25"/>
       <c r="C223" s="3" t="s">
         <v>86</v>
       </c>
@@ -6221,11 +6221,11 @@
       <c r="G223" s="3">
         <v>20</v>
       </c>
-      <c r="K223" s="34"/>
+      <c r="K223" s="33"/>
     </row>
     <row r="224" spans="1:11">
-      <c r="A224" s="25"/>
-      <c r="B224" s="25"/>
+      <c r="A224" s="26"/>
+      <c r="B224" s="26"/>
       <c r="C224" s="3" t="s">
         <v>213</v>
       </c>
@@ -6241,13 +6241,13 @@
       <c r="G224" s="3">
         <v>20</v>
       </c>
-      <c r="K224" s="35"/>
+      <c r="K224" s="34"/>
     </row>
     <row r="225" spans="1:11">
-      <c r="A225" s="26">
+      <c r="A225" s="24">
         <v>74</v>
       </c>
-      <c r="B225" s="26" t="s">
+      <c r="B225" s="24" t="s">
         <v>216</v>
       </c>
       <c r="C225" s="3" t="s">
@@ -6265,13 +6265,13 @@
       <c r="G225" s="3">
         <v>20</v>
       </c>
-      <c r="K225" s="33">
+      <c r="K225" s="32">
         <v>45551</v>
       </c>
     </row>
     <row r="226" spans="1:11">
-      <c r="A226" s="24"/>
-      <c r="B226" s="24"/>
+      <c r="A226" s="25"/>
+      <c r="B226" s="25"/>
       <c r="C226" s="3" t="s">
         <v>8</v>
       </c>
@@ -6287,11 +6287,11 @@
       <c r="G226" s="3">
         <v>20</v>
       </c>
-      <c r="K226" s="34"/>
+      <c r="K226" s="33"/>
     </row>
     <row r="227" spans="1:11">
-      <c r="A227" s="24"/>
-      <c r="B227" s="24"/>
+      <c r="A227" s="25"/>
+      <c r="B227" s="25"/>
       <c r="C227" s="3" t="s">
         <v>214</v>
       </c>
@@ -6307,11 +6307,11 @@
       <c r="G227" s="3">
         <v>20</v>
       </c>
-      <c r="K227" s="34"/>
+      <c r="K227" s="33"/>
     </row>
     <row r="228" spans="1:11">
-      <c r="A228" s="25"/>
-      <c r="B228" s="25"/>
+      <c r="A228" s="26"/>
+      <c r="B228" s="26"/>
       <c r="C228" s="3" t="s">
         <v>215</v>
       </c>
@@ -6327,13 +6327,13 @@
       <c r="G228" s="3">
         <v>20</v>
       </c>
-      <c r="K228" s="35"/>
+      <c r="K228" s="34"/>
     </row>
     <row r="229" spans="1:11">
-      <c r="A229" s="26">
+      <c r="A229" s="24">
         <v>75</v>
       </c>
-      <c r="B229" s="26" t="s">
+      <c r="B229" s="24" t="s">
         <v>219</v>
       </c>
       <c r="C229" s="3" t="s">
@@ -6351,13 +6351,13 @@
       <c r="G229" s="3">
         <v>20</v>
       </c>
-      <c r="K229" s="33">
+      <c r="K229" s="32">
         <v>45551</v>
       </c>
     </row>
     <row r="230" spans="1:11">
-      <c r="A230" s="24"/>
-      <c r="B230" s="24"/>
+      <c r="A230" s="25"/>
+      <c r="B230" s="25"/>
       <c r="C230" s="3" t="s">
         <v>217</v>
       </c>
@@ -6373,11 +6373,11 @@
       <c r="G230" s="3">
         <v>20</v>
       </c>
-      <c r="K230" s="34"/>
+      <c r="K230" s="33"/>
     </row>
     <row r="231" spans="1:11">
-      <c r="A231" s="25"/>
-      <c r="B231" s="25"/>
+      <c r="A231" s="26"/>
+      <c r="B231" s="26"/>
       <c r="C231" s="3" t="s">
         <v>218</v>
       </c>
@@ -6393,13 +6393,13 @@
       <c r="G231" s="3">
         <v>20</v>
       </c>
-      <c r="K231" s="35"/>
+      <c r="K231" s="34"/>
     </row>
     <row r="232" spans="1:11">
-      <c r="A232" s="26">
+      <c r="A232" s="24">
         <v>76</v>
       </c>
-      <c r="B232" s="29" t="s">
+      <c r="B232" s="27" t="s">
         <v>220</v>
       </c>
       <c r="C232" s="3" t="s">
@@ -6411,13 +6411,13 @@
       <c r="F232" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K232" s="33">
+      <c r="K232" s="32">
         <v>45551</v>
       </c>
     </row>
     <row r="233" spans="1:11">
-      <c r="A233" s="24"/>
-      <c r="B233" s="30"/>
+      <c r="A233" s="25"/>
+      <c r="B233" s="28"/>
       <c r="C233" s="3" t="s">
         <v>176</v>
       </c>
@@ -6433,11 +6433,11 @@
       <c r="G233" s="3">
         <v>3000</v>
       </c>
-      <c r="K233" s="34"/>
+      <c r="K233" s="33"/>
     </row>
     <row r="234" spans="1:11">
-      <c r="A234" s="24"/>
-      <c r="B234" s="30"/>
+      <c r="A234" s="25"/>
+      <c r="B234" s="28"/>
       <c r="C234" s="3" t="s">
         <v>177</v>
       </c>
@@ -6453,11 +6453,11 @@
       <c r="G234" s="3">
         <v>3000</v>
       </c>
-      <c r="K234" s="34"/>
+      <c r="K234" s="33"/>
     </row>
     <row r="235" spans="1:11">
-      <c r="A235" s="24"/>
-      <c r="B235" s="30"/>
+      <c r="A235" s="25"/>
+      <c r="B235" s="28"/>
       <c r="C235" s="3" t="s">
         <v>178</v>
       </c>
@@ -6473,11 +6473,11 @@
       <c r="G235" s="3">
         <v>3000</v>
       </c>
-      <c r="K235" s="34"/>
+      <c r="K235" s="33"/>
     </row>
     <row r="236" spans="1:11">
-      <c r="A236" s="24"/>
-      <c r="B236" s="30"/>
+      <c r="A236" s="25"/>
+      <c r="B236" s="28"/>
       <c r="C236" s="3" t="s">
         <v>179</v>
       </c>
@@ -6493,11 +6493,11 @@
       <c r="G236" s="3">
         <v>3000</v>
       </c>
-      <c r="K236" s="34"/>
+      <c r="K236" s="33"/>
     </row>
     <row r="237" spans="1:11">
-      <c r="A237" s="24"/>
-      <c r="B237" s="30"/>
+      <c r="A237" s="25"/>
+      <c r="B237" s="28"/>
       <c r="C237" s="3" t="s">
         <v>180</v>
       </c>
@@ -6513,11 +6513,11 @@
       <c r="G237" s="3">
         <v>3000</v>
       </c>
-      <c r="K237" s="34"/>
+      <c r="K237" s="33"/>
     </row>
     <row r="238" spans="1:11">
-      <c r="A238" s="24"/>
-      <c r="B238" s="30"/>
+      <c r="A238" s="25"/>
+      <c r="B238" s="28"/>
       <c r="C238" s="3" t="s">
         <v>181</v>
       </c>
@@ -6533,11 +6533,11 @@
       <c r="G238" s="3">
         <v>3000</v>
       </c>
-      <c r="K238" s="34"/>
+      <c r="K238" s="33"/>
     </row>
     <row r="239" spans="1:11">
-      <c r="A239" s="24"/>
-      <c r="B239" s="30"/>
+      <c r="A239" s="25"/>
+      <c r="B239" s="28"/>
       <c r="C239" s="3" t="s">
         <v>182</v>
       </c>
@@ -6553,11 +6553,11 @@
       <c r="G239" s="3">
         <v>3000</v>
       </c>
-      <c r="K239" s="34"/>
+      <c r="K239" s="33"/>
     </row>
     <row r="240" spans="1:11">
-      <c r="A240" s="24"/>
-      <c r="B240" s="30"/>
+      <c r="A240" s="25"/>
+      <c r="B240" s="28"/>
       <c r="C240" s="3" t="s">
         <v>183</v>
       </c>
@@ -6573,11 +6573,11 @@
       <c r="G240" s="3">
         <v>3000</v>
       </c>
-      <c r="K240" s="34"/>
+      <c r="K240" s="33"/>
     </row>
     <row r="241" spans="1:11">
-      <c r="A241" s="24"/>
-      <c r="B241" s="30"/>
+      <c r="A241" s="25"/>
+      <c r="B241" s="28"/>
       <c r="C241" s="3" t="s">
         <v>184</v>
       </c>
@@ -6593,11 +6593,11 @@
       <c r="G241" s="3">
         <v>3000</v>
       </c>
-      <c r="K241" s="34"/>
+      <c r="K241" s="33"/>
     </row>
     <row r="242" spans="1:11">
-      <c r="A242" s="24"/>
-      <c r="B242" s="30"/>
+      <c r="A242" s="25"/>
+      <c r="B242" s="28"/>
       <c r="C242" s="3" t="s">
         <v>185</v>
       </c>
@@ -6613,11 +6613,11 @@
       <c r="G242" s="3">
         <v>3000</v>
       </c>
-      <c r="K242" s="34"/>
+      <c r="K242" s="33"/>
     </row>
     <row r="243" spans="1:11">
-      <c r="A243" s="24"/>
-      <c r="B243" s="30"/>
+      <c r="A243" s="25"/>
+      <c r="B243" s="28"/>
       <c r="C243" s="3" t="s">
         <v>6</v>
       </c>
@@ -6633,11 +6633,11 @@
       <c r="G243" s="6">
         <v>20</v>
       </c>
-      <c r="K243" s="34"/>
+      <c r="K243" s="33"/>
     </row>
     <row r="244" spans="1:11">
-      <c r="A244" s="24"/>
-      <c r="B244" s="30"/>
+      <c r="A244" s="25"/>
+      <c r="B244" s="28"/>
       <c r="C244" s="3" t="s">
         <v>8</v>
       </c>
@@ -6653,11 +6653,11 @@
       <c r="G244" s="6">
         <v>20</v>
       </c>
-      <c r="K244" s="34"/>
+      <c r="K244" s="33"/>
     </row>
     <row r="245" spans="1:11">
-      <c r="A245" s="25"/>
-      <c r="B245" s="31"/>
+      <c r="A245" s="26"/>
+      <c r="B245" s="29"/>
       <c r="C245" s="3" t="s">
         <v>186</v>
       </c>
@@ -6670,13 +6670,13 @@
       <c r="F245" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="K245" s="35"/>
+      <c r="K245" s="34"/>
     </row>
     <row r="246" spans="1:11" ht="45">
-      <c r="A246" s="26">
+      <c r="A246" s="24">
         <v>77</v>
       </c>
-      <c r="B246" s="26" t="s">
+      <c r="B246" s="24" t="s">
         <v>226</v>
       </c>
       <c r="C246" s="3" t="s">
@@ -6691,13 +6691,13 @@
       <c r="J246" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="K246" s="33">
+      <c r="K246" s="32">
         <v>45552</v>
       </c>
     </row>
     <row r="247" spans="1:11">
-      <c r="A247" s="24"/>
-      <c r="B247" s="24"/>
+      <c r="A247" s="25"/>
+      <c r="B247" s="25"/>
       <c r="C247" s="3" t="s">
         <v>222</v>
       </c>
@@ -6710,11 +6710,11 @@
       <c r="F247" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="K247" s="34"/>
+      <c r="K247" s="33"/>
     </row>
     <row r="248" spans="1:11" ht="45">
-      <c r="A248" s="24"/>
-      <c r="B248" s="24"/>
+      <c r="A248" s="25"/>
+      <c r="B248" s="25"/>
       <c r="C248" s="3" t="s">
         <v>223</v>
       </c>
@@ -6727,11 +6727,11 @@
       <c r="J248" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="K248" s="34"/>
+      <c r="K248" s="33"/>
     </row>
     <row r="249" spans="1:11" ht="45">
-      <c r="A249" s="24"/>
-      <c r="B249" s="24"/>
+      <c r="A249" s="25"/>
+      <c r="B249" s="25"/>
       <c r="C249" s="3" t="s">
         <v>224</v>
       </c>
@@ -6750,11 +6750,11 @@
       <c r="J249" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="K249" s="34"/>
+      <c r="K249" s="33"/>
     </row>
     <row r="250" spans="1:11">
-      <c r="A250" s="24"/>
-      <c r="B250" s="24"/>
+      <c r="A250" s="25"/>
+      <c r="B250" s="25"/>
       <c r="C250" s="3" t="s">
         <v>5</v>
       </c>
@@ -6770,11 +6770,11 @@
       <c r="G250" s="3">
         <v>3000</v>
       </c>
-      <c r="K250" s="34"/>
+      <c r="K250" s="33"/>
     </row>
     <row r="251" spans="1:11">
-      <c r="A251" s="24"/>
-      <c r="B251" s="24"/>
+      <c r="A251" s="25"/>
+      <c r="B251" s="25"/>
       <c r="C251" s="3" t="s">
         <v>225</v>
       </c>
@@ -6790,11 +6790,11 @@
       <c r="G251" s="3">
         <v>5</v>
       </c>
-      <c r="K251" s="34"/>
+      <c r="K251" s="33"/>
     </row>
     <row r="252" spans="1:11">
-      <c r="A252" s="24"/>
-      <c r="B252" s="24"/>
+      <c r="A252" s="25"/>
+      <c r="B252" s="25"/>
       <c r="C252" s="3" t="s">
         <v>6</v>
       </c>
@@ -6810,11 +6810,11 @@
       <c r="G252" s="3">
         <v>20</v>
       </c>
-      <c r="K252" s="34"/>
+      <c r="K252" s="33"/>
     </row>
     <row r="253" spans="1:11">
-      <c r="A253" s="25"/>
-      <c r="B253" s="25"/>
+      <c r="A253" s="26"/>
+      <c r="B253" s="26"/>
       <c r="C253" s="3" t="s">
         <v>8</v>
       </c>
@@ -6830,13 +6830,13 @@
       <c r="G253" s="3">
         <v>20</v>
       </c>
-      <c r="K253" s="35"/>
+      <c r="K253" s="34"/>
     </row>
     <row r="254" spans="1:11">
-      <c r="A254" s="26">
+      <c r="A254" s="24">
         <v>78</v>
       </c>
-      <c r="B254" s="26" t="s">
+      <c r="B254" s="24" t="s">
         <v>232</v>
       </c>
       <c r="C254" s="3" t="s">
@@ -6854,13 +6854,13 @@
       <c r="G254" s="3">
         <v>15</v>
       </c>
-      <c r="K254" s="33">
+      <c r="K254" s="32">
         <v>45552</v>
       </c>
     </row>
     <row r="255" spans="1:11">
-      <c r="A255" s="25"/>
-      <c r="B255" s="25"/>
+      <c r="A255" s="26"/>
+      <c r="B255" s="26"/>
       <c r="C255" s="3" t="s">
         <v>231</v>
       </c>
@@ -6876,13 +6876,13 @@
       <c r="G255" s="3">
         <v>15</v>
       </c>
-      <c r="K255" s="35"/>
+      <c r="K255" s="34"/>
     </row>
     <row r="256" spans="1:11" ht="30">
-      <c r="A256" s="26">
+      <c r="A256" s="24">
         <v>79</v>
       </c>
-      <c r="B256" s="26" t="s">
+      <c r="B256" s="24" t="s">
         <v>244</v>
       </c>
       <c r="C256" s="3" t="s">
@@ -6900,13 +6900,13 @@
       <c r="J256" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="K256" s="33">
+      <c r="K256" s="32">
         <v>45552</v>
       </c>
     </row>
     <row r="257" spans="1:11" ht="30">
-      <c r="A257" s="24"/>
-      <c r="B257" s="24"/>
+      <c r="A257" s="25"/>
+      <c r="B257" s="25"/>
       <c r="C257" s="3" t="s">
         <v>234</v>
       </c>
@@ -6925,11 +6925,11 @@
       <c r="J257" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="K257" s="34"/>
+      <c r="K257" s="33"/>
     </row>
     <row r="258" spans="1:11">
-      <c r="A258" s="24"/>
-      <c r="B258" s="24"/>
+      <c r="A258" s="25"/>
+      <c r="B258" s="25"/>
       <c r="C258" s="3" t="s">
         <v>235</v>
       </c>
@@ -6945,11 +6945,11 @@
       <c r="G258" s="3">
         <v>250</v>
       </c>
-      <c r="K258" s="34"/>
+      <c r="K258" s="33"/>
     </row>
     <row r="259" spans="1:11">
-      <c r="A259" s="24"/>
-      <c r="B259" s="24"/>
+      <c r="A259" s="25"/>
+      <c r="B259" s="25"/>
       <c r="C259" s="3" t="s">
         <v>6</v>
       </c>
@@ -6965,11 +6965,11 @@
       <c r="G259" s="3">
         <v>50</v>
       </c>
-      <c r="K259" s="34"/>
+      <c r="K259" s="33"/>
     </row>
     <row r="260" spans="1:11">
-      <c r="A260" s="24"/>
-      <c r="B260" s="24"/>
+      <c r="A260" s="25"/>
+      <c r="B260" s="25"/>
       <c r="C260" s="3" t="s">
         <v>236</v>
       </c>
@@ -6985,11 +6985,11 @@
       <c r="G260" s="3">
         <v>20</v>
       </c>
-      <c r="K260" s="34"/>
+      <c r="K260" s="33"/>
     </row>
     <row r="261" spans="1:11">
-      <c r="A261" s="24"/>
-      <c r="B261" s="24"/>
+      <c r="A261" s="25"/>
+      <c r="B261" s="25"/>
       <c r="C261" s="3" t="s">
         <v>237</v>
       </c>
@@ -7005,11 +7005,11 @@
       <c r="G261" s="3">
         <v>20</v>
       </c>
-      <c r="K261" s="34"/>
+      <c r="K261" s="33"/>
     </row>
     <row r="262" spans="1:11">
-      <c r="A262" s="24"/>
-      <c r="B262" s="24"/>
+      <c r="A262" s="25"/>
+      <c r="B262" s="25"/>
       <c r="C262" s="3" t="s">
         <v>238</v>
       </c>
@@ -7025,11 +7025,11 @@
       <c r="G262" s="3">
         <v>20</v>
       </c>
-      <c r="K262" s="34"/>
+      <c r="K262" s="33"/>
     </row>
     <row r="263" spans="1:11">
-      <c r="A263" s="24"/>
-      <c r="B263" s="24"/>
+      <c r="A263" s="25"/>
+      <c r="B263" s="25"/>
       <c r="C263" s="3" t="s">
         <v>239</v>
       </c>
@@ -7045,11 +7045,11 @@
       <c r="G263" s="3">
         <v>20</v>
       </c>
-      <c r="K263" s="34"/>
+      <c r="K263" s="33"/>
     </row>
     <row r="264" spans="1:11">
-      <c r="A264" s="24"/>
-      <c r="B264" s="24"/>
+      <c r="A264" s="25"/>
+      <c r="B264" s="25"/>
       <c r="C264" s="3" t="s">
         <v>240</v>
       </c>
@@ -7065,11 +7065,11 @@
       <c r="G264" s="3">
         <v>100</v>
       </c>
-      <c r="K264" s="34"/>
+      <c r="K264" s="33"/>
     </row>
     <row r="265" spans="1:11">
-      <c r="A265" s="24"/>
-      <c r="B265" s="24"/>
+      <c r="A265" s="25"/>
+      <c r="B265" s="25"/>
       <c r="C265" s="3" t="s">
         <v>241</v>
       </c>
@@ -7085,11 +7085,11 @@
       <c r="G265" s="3">
         <v>100</v>
       </c>
-      <c r="K265" s="34"/>
+      <c r="K265" s="33"/>
     </row>
     <row r="266" spans="1:11">
-      <c r="A266" s="24"/>
-      <c r="B266" s="24"/>
+      <c r="A266" s="25"/>
+      <c r="B266" s="25"/>
       <c r="C266" s="3" t="s">
         <v>242</v>
       </c>
@@ -7105,11 +7105,11 @@
       <c r="G266" s="3">
         <v>100</v>
       </c>
-      <c r="K266" s="34"/>
+      <c r="K266" s="33"/>
     </row>
     <row r="267" spans="1:11">
-      <c r="A267" s="25"/>
-      <c r="B267" s="25"/>
+      <c r="A267" s="26"/>
+      <c r="B267" s="26"/>
       <c r="C267" s="3" t="s">
         <v>243</v>
       </c>
@@ -7125,13 +7125,13 @@
       <c r="G267" s="3">
         <v>100</v>
       </c>
-      <c r="K267" s="35"/>
+      <c r="K267" s="34"/>
     </row>
     <row r="268" spans="1:11">
-      <c r="A268" s="26">
+      <c r="A268" s="24">
         <v>80</v>
       </c>
-      <c r="B268" s="26" t="s">
+      <c r="B268" s="24" t="s">
         <v>250</v>
       </c>
       <c r="C268" s="3" t="s">
@@ -7149,13 +7149,13 @@
       <c r="G268" s="3">
         <v>20</v>
       </c>
-      <c r="K268" s="33">
+      <c r="K268" s="32">
         <v>45552</v>
       </c>
     </row>
     <row r="269" spans="1:11">
-      <c r="A269" s="24"/>
-      <c r="B269" s="24"/>
+      <c r="A269" s="25"/>
+      <c r="B269" s="25"/>
       <c r="C269" s="3" t="s">
         <v>8</v>
       </c>
@@ -7171,11 +7171,11 @@
       <c r="G269" s="3">
         <v>30</v>
       </c>
-      <c r="K269" s="34"/>
+      <c r="K269" s="33"/>
     </row>
     <row r="270" spans="1:11">
-      <c r="A270" s="24"/>
-      <c r="B270" s="24"/>
+      <c r="A270" s="25"/>
+      <c r="B270" s="25"/>
       <c r="C270" s="3" t="s">
         <v>247</v>
       </c>
@@ -7191,11 +7191,11 @@
       <c r="G270" s="3">
         <v>50</v>
       </c>
-      <c r="K270" s="34"/>
+      <c r="K270" s="33"/>
     </row>
     <row r="271" spans="1:11">
-      <c r="A271" s="24"/>
-      <c r="B271" s="24"/>
+      <c r="A271" s="25"/>
+      <c r="B271" s="25"/>
       <c r="C271" s="3" t="s">
         <v>248</v>
       </c>
@@ -7211,11 +7211,11 @@
       <c r="G271" s="6">
         <v>60</v>
       </c>
-      <c r="K271" s="34"/>
+      <c r="K271" s="33"/>
     </row>
     <row r="272" spans="1:11">
-      <c r="A272" s="25"/>
-      <c r="B272" s="25"/>
+      <c r="A272" s="26"/>
+      <c r="B272" s="26"/>
       <c r="C272" s="3" t="s">
         <v>249</v>
       </c>
@@ -7231,13 +7231,13 @@
       <c r="G272" s="6">
         <v>3</v>
       </c>
-      <c r="K272" s="35"/>
+      <c r="K272" s="34"/>
     </row>
     <row r="273" spans="1:11">
-      <c r="A273" s="26">
+      <c r="A273" s="24">
         <v>81</v>
       </c>
-      <c r="B273" s="26" t="s">
+      <c r="B273" s="24" t="s">
         <v>252</v>
       </c>
       <c r="C273" s="3" t="s">
@@ -7255,13 +7255,13 @@
       <c r="G273" s="3">
         <v>20</v>
       </c>
-      <c r="K273" s="33">
+      <c r="K273" s="32">
         <v>45552</v>
       </c>
     </row>
     <row r="274" spans="1:11">
-      <c r="A274" s="25"/>
-      <c r="B274" s="25"/>
+      <c r="A274" s="26"/>
+      <c r="B274" s="26"/>
       <c r="C274" s="3" t="s">
         <v>251</v>
       </c>
@@ -7277,13 +7277,13 @@
       <c r="G274" s="3">
         <v>50</v>
       </c>
-      <c r="K274" s="35"/>
+      <c r="K274" s="34"/>
     </row>
     <row r="275" spans="1:11">
-      <c r="A275" s="26">
+      <c r="A275" s="24">
         <v>82</v>
       </c>
-      <c r="B275" s="26" t="s">
+      <c r="B275" s="24" t="s">
         <v>253</v>
       </c>
       <c r="C275" s="3" t="s">
@@ -7306,8 +7306,8 @@
       </c>
     </row>
     <row r="276" spans="1:11">
-      <c r="A276" s="25"/>
-      <c r="B276" s="25"/>
+      <c r="A276" s="26"/>
+      <c r="B276" s="26"/>
       <c r="C276" s="3" t="s">
         <v>8</v>
       </c>
@@ -7326,10 +7326,10 @@
       <c r="K276" s="39"/>
     </row>
     <row r="277" spans="1:11">
-      <c r="A277" s="26">
+      <c r="A277" s="24">
         <v>83</v>
       </c>
-      <c r="B277" s="26" t="s">
+      <c r="B277" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C277" s="3" t="s">
@@ -7347,13 +7347,13 @@
       <c r="G277" s="3">
         <v>50</v>
       </c>
-      <c r="K277" s="33">
+      <c r="K277" s="32">
         <v>45552</v>
       </c>
     </row>
     <row r="278" spans="1:11">
-      <c r="A278" s="24"/>
-      <c r="B278" s="24"/>
+      <c r="A278" s="25"/>
+      <c r="B278" s="25"/>
       <c r="C278" s="3" t="s">
         <v>6</v>
       </c>
@@ -7369,11 +7369,11 @@
       <c r="G278" s="3">
         <v>20</v>
       </c>
-      <c r="K278" s="34"/>
+      <c r="K278" s="33"/>
     </row>
     <row r="279" spans="1:11">
-      <c r="A279" s="24"/>
-      <c r="B279" s="24"/>
+      <c r="A279" s="25"/>
+      <c r="B279" s="25"/>
       <c r="C279" s="3" t="s">
         <v>8</v>
       </c>
@@ -7389,11 +7389,11 @@
       <c r="G279" s="3">
         <v>20</v>
       </c>
-      <c r="K279" s="34"/>
+      <c r="K279" s="33"/>
     </row>
     <row r="280" spans="1:11">
-      <c r="A280" s="24"/>
-      <c r="B280" s="24"/>
+      <c r="A280" s="25"/>
+      <c r="B280" s="25"/>
       <c r="C280" s="3" t="s">
         <v>12</v>
       </c>
@@ -7409,11 +7409,11 @@
       <c r="G280" s="3">
         <v>80</v>
       </c>
-      <c r="K280" s="34"/>
+      <c r="K280" s="33"/>
     </row>
     <row r="281" spans="1:11">
-      <c r="A281" s="25"/>
-      <c r="B281" s="25"/>
+      <c r="A281" s="26"/>
+      <c r="B281" s="26"/>
       <c r="C281" s="3" t="s">
         <v>11</v>
       </c>
@@ -7429,13 +7429,13 @@
       <c r="G281" s="3">
         <v>11</v>
       </c>
-      <c r="K281" s="35"/>
+      <c r="K281" s="34"/>
     </row>
     <row r="282" spans="1:11">
-      <c r="A282" s="26">
+      <c r="A282" s="24">
         <v>84</v>
       </c>
-      <c r="B282" s="26" t="s">
+      <c r="B282" s="24" t="s">
         <v>18</v>
       </c>
       <c r="C282" s="3" t="s">
@@ -7453,13 +7453,13 @@
       <c r="G282" s="3">
         <v>50</v>
       </c>
-      <c r="K282" s="33">
+      <c r="K282" s="32">
         <v>45552</v>
       </c>
     </row>
     <row r="283" spans="1:11">
-      <c r="A283" s="24"/>
-      <c r="B283" s="24"/>
+      <c r="A283" s="25"/>
+      <c r="B283" s="25"/>
       <c r="C283" s="3" t="s">
         <v>6</v>
       </c>
@@ -7475,11 +7475,11 @@
       <c r="G283" s="3">
         <v>20</v>
       </c>
-      <c r="K283" s="34"/>
+      <c r="K283" s="33"/>
     </row>
     <row r="284" spans="1:11">
-      <c r="A284" s="24"/>
-      <c r="B284" s="24"/>
+      <c r="A284" s="25"/>
+      <c r="B284" s="25"/>
       <c r="C284" s="3" t="s">
         <v>8</v>
       </c>
@@ -7495,11 +7495,11 @@
       <c r="G284" s="3">
         <v>20</v>
       </c>
-      <c r="K284" s="34"/>
+      <c r="K284" s="33"/>
     </row>
     <row r="285" spans="1:11">
-      <c r="A285" s="24"/>
-      <c r="B285" s="24"/>
+      <c r="A285" s="25"/>
+      <c r="B285" s="25"/>
       <c r="C285" s="3" t="s">
         <v>12</v>
       </c>
@@ -7515,11 +7515,11 @@
       <c r="G285" s="3">
         <v>80</v>
       </c>
-      <c r="K285" s="34"/>
+      <c r="K285" s="33"/>
     </row>
     <row r="286" spans="1:11">
-      <c r="A286" s="25"/>
-      <c r="B286" s="25"/>
+      <c r="A286" s="26"/>
+      <c r="B286" s="26"/>
       <c r="C286" s="3" t="s">
         <v>11</v>
       </c>
@@ -7535,13 +7535,13 @@
       <c r="G286" s="3">
         <v>11</v>
       </c>
-      <c r="K286" s="35"/>
+      <c r="K286" s="34"/>
     </row>
     <row r="287" spans="1:11">
-      <c r="A287" s="26">
+      <c r="A287" s="24">
         <v>85</v>
       </c>
-      <c r="B287" s="26" t="s">
+      <c r="B287" s="24" t="s">
         <v>23</v>
       </c>
       <c r="C287" s="3" t="s">
@@ -7562,13 +7562,13 @@
       <c r="J287" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="K287" s="33">
+      <c r="K287" s="32">
         <v>45552</v>
       </c>
     </row>
     <row r="288" spans="1:11">
-      <c r="A288" s="24"/>
-      <c r="B288" s="24"/>
+      <c r="A288" s="25"/>
+      <c r="B288" s="25"/>
       <c r="C288" s="3" t="s">
         <v>6</v>
       </c>
@@ -7584,11 +7584,11 @@
       <c r="G288" s="3">
         <v>20</v>
       </c>
-      <c r="K288" s="34"/>
+      <c r="K288" s="33"/>
     </row>
     <row r="289" spans="1:11">
-      <c r="A289" s="24"/>
-      <c r="B289" s="24"/>
+      <c r="A289" s="25"/>
+      <c r="B289" s="25"/>
       <c r="C289" s="3" t="s">
         <v>8</v>
       </c>
@@ -7604,11 +7604,11 @@
       <c r="G289" s="3">
         <v>20</v>
       </c>
-      <c r="K289" s="34"/>
+      <c r="K289" s="33"/>
     </row>
     <row r="290" spans="1:11">
-      <c r="A290" s="24"/>
-      <c r="B290" s="24"/>
+      <c r="A290" s="25"/>
+      <c r="B290" s="25"/>
       <c r="C290" s="3" t="s">
         <v>20</v>
       </c>
@@ -7622,11 +7622,11 @@
         <v>118</v>
       </c>
       <c r="G290"/>
-      <c r="K290" s="34"/>
+      <c r="K290" s="33"/>
     </row>
     <row r="291" spans="1:11">
-      <c r="A291" s="25"/>
-      <c r="B291" s="25"/>
+      <c r="A291" s="26"/>
+      <c r="B291" s="26"/>
       <c r="C291" s="3" t="s">
         <v>11</v>
       </c>
@@ -7642,13 +7642,13 @@
       <c r="G291" s="6">
         <v>11</v>
       </c>
-      <c r="K291" s="35"/>
+      <c r="K291" s="34"/>
     </row>
     <row r="292" spans="1:11">
-      <c r="A292" s="26">
+      <c r="A292" s="24">
         <v>86</v>
       </c>
-      <c r="B292" s="26" t="s">
+      <c r="B292" s="24" t="s">
         <v>255</v>
       </c>
       <c r="C292" s="3" t="s">
@@ -7666,13 +7666,13 @@
       <c r="G292" s="3">
         <v>20</v>
       </c>
-      <c r="K292" s="33">
+      <c r="K292" s="32">
         <v>45552</v>
       </c>
     </row>
     <row r="293" spans="1:11">
-      <c r="A293" s="25"/>
-      <c r="B293" s="25"/>
+      <c r="A293" s="26"/>
+      <c r="B293" s="26"/>
       <c r="C293" s="3" t="s">
         <v>100</v>
       </c>
@@ -7688,13 +7688,13 @@
       <c r="G293" s="3">
         <v>20</v>
       </c>
-      <c r="K293" s="35"/>
+      <c r="K293" s="34"/>
     </row>
     <row r="294" spans="1:11">
-      <c r="A294" s="26">
+      <c r="A294" s="24">
         <v>87</v>
       </c>
-      <c r="B294" s="26" t="s">
+      <c r="B294" s="24" t="s">
         <v>257</v>
       </c>
       <c r="C294" s="3" t="s">
@@ -7712,13 +7712,13 @@
       <c r="G294" s="3">
         <v>60</v>
       </c>
-      <c r="K294" s="33">
+      <c r="K294" s="32">
         <v>45552</v>
       </c>
     </row>
     <row r="295" spans="1:11">
-      <c r="A295" s="24"/>
-      <c r="B295" s="24"/>
+      <c r="A295" s="25"/>
+      <c r="B295" s="25"/>
       <c r="C295" s="3" t="s">
         <v>6</v>
       </c>
@@ -7734,11 +7734,11 @@
       <c r="G295" s="3">
         <v>20</v>
       </c>
-      <c r="K295" s="34"/>
+      <c r="K295" s="33"/>
     </row>
     <row r="296" spans="1:11">
-      <c r="A296" s="25"/>
-      <c r="B296" s="25"/>
+      <c r="A296" s="26"/>
+      <c r="B296" s="26"/>
       <c r="C296" s="3" t="s">
         <v>8</v>
       </c>
@@ -7754,13 +7754,13 @@
       <c r="G296" s="3">
         <v>20</v>
       </c>
-      <c r="K296" s="35"/>
+      <c r="K296" s="34"/>
     </row>
     <row r="297" spans="1:11">
-      <c r="A297" s="26">
+      <c r="A297" s="24">
         <v>88</v>
       </c>
-      <c r="B297" s="26" t="s">
+      <c r="B297" s="24" t="s">
         <v>40</v>
       </c>
       <c r="C297" s="11" t="s">
@@ -7779,13 +7779,13 @@
         <v>20</v>
       </c>
       <c r="H297" s="15"/>
-      <c r="K297" s="33">
+      <c r="K297" s="32">
         <v>45552</v>
       </c>
     </row>
     <row r="298" spans="1:11">
-      <c r="A298" s="24"/>
-      <c r="B298" s="24"/>
+      <c r="A298" s="25"/>
+      <c r="B298" s="25"/>
       <c r="C298" s="16" t="s">
         <v>8</v>
       </c>
@@ -7802,11 +7802,11 @@
         <v>20</v>
       </c>
       <c r="H298" s="17"/>
-      <c r="K298" s="34"/>
+      <c r="K298" s="33"/>
     </row>
     <row r="299" spans="1:11">
-      <c r="A299" s="24"/>
-      <c r="B299" s="24"/>
+      <c r="A299" s="25"/>
+      <c r="B299" s="25"/>
       <c r="C299" s="16" t="s">
         <v>38</v>
       </c>
@@ -7823,11 +7823,11 @@
         <v>10</v>
       </c>
       <c r="H299" s="17"/>
-      <c r="K299" s="34"/>
+      <c r="K299" s="33"/>
     </row>
     <row r="300" spans="1:11">
-      <c r="A300" s="24"/>
-      <c r="B300" s="24"/>
+      <c r="A300" s="25"/>
+      <c r="B300" s="25"/>
       <c r="C300" s="16" t="s">
         <v>39</v>
       </c>
@@ -7844,11 +7844,11 @@
         <v>11</v>
       </c>
       <c r="H300" s="17"/>
-      <c r="K300" s="34"/>
+      <c r="K300" s="33"/>
     </row>
     <row r="301" spans="1:11">
-      <c r="A301" s="24"/>
-      <c r="B301" s="24"/>
+      <c r="A301" s="25"/>
+      <c r="B301" s="25"/>
       <c r="C301" s="16" t="s">
         <v>9</v>
       </c>
@@ -7865,11 +7865,11 @@
         <v>50</v>
       </c>
       <c r="H301" s="17"/>
-      <c r="K301" s="34"/>
+      <c r="K301" s="33"/>
     </row>
     <row r="302" spans="1:11">
-      <c r="A302" s="25"/>
-      <c r="B302" s="25"/>
+      <c r="A302" s="26"/>
+      <c r="B302" s="26"/>
       <c r="C302" s="16" t="s">
         <v>37</v>
       </c>
@@ -7884,13 +7884,13 @@
       </c>
       <c r="G302" s="17"/>
       <c r="H302" s="17"/>
-      <c r="K302" s="35"/>
+      <c r="K302" s="34"/>
     </row>
     <row r="303" spans="1:11">
-      <c r="A303" s="26">
+      <c r="A303" s="24">
         <v>89</v>
       </c>
-      <c r="B303" s="26" t="s">
+      <c r="B303" s="24" t="s">
         <v>261</v>
       </c>
       <c r="C303" s="3" t="s">
@@ -7909,13 +7909,13 @@
         <v>20</v>
       </c>
       <c r="H303" s="4"/>
-      <c r="K303" s="33">
+      <c r="K303" s="32">
         <v>45553</v>
       </c>
     </row>
     <row r="304" spans="1:11">
-      <c r="A304" s="24"/>
-      <c r="B304" s="24"/>
+      <c r="A304" s="25"/>
+      <c r="B304" s="25"/>
       <c r="C304" s="3" t="s">
         <v>8</v>
       </c>
@@ -7931,11 +7931,11 @@
       <c r="G304" s="3">
         <v>20</v>
       </c>
-      <c r="K304" s="34"/>
+      <c r="K304" s="33"/>
     </row>
     <row r="305" spans="1:11">
-      <c r="A305" s="24"/>
-      <c r="B305" s="24"/>
+      <c r="A305" s="25"/>
+      <c r="B305" s="25"/>
       <c r="C305" s="3" t="s">
         <v>258</v>
       </c>
@@ -7951,11 +7951,11 @@
       <c r="G305" s="3">
         <v>50</v>
       </c>
-      <c r="K305" s="34"/>
+      <c r="K305" s="33"/>
     </row>
     <row r="306" spans="1:11">
-      <c r="A306" s="24"/>
-      <c r="B306" s="24"/>
+      <c r="A306" s="25"/>
+      <c r="B306" s="25"/>
       <c r="C306" s="3" t="s">
         <v>259</v>
       </c>
@@ -7971,11 +7971,11 @@
       <c r="G306" s="3">
         <v>50</v>
       </c>
-      <c r="K306" s="34"/>
+      <c r="K306" s="33"/>
     </row>
     <row r="307" spans="1:11">
-      <c r="A307" s="25"/>
-      <c r="B307" s="25"/>
+      <c r="A307" s="26"/>
+      <c r="B307" s="26"/>
       <c r="C307" s="3" t="s">
         <v>260</v>
       </c>
@@ -7991,13 +7991,13 @@
       <c r="G307" s="3">
         <v>2</v>
       </c>
-      <c r="K307" s="35"/>
+      <c r="K307" s="34"/>
     </row>
     <row r="308" spans="1:11">
-      <c r="A308" s="26">
+      <c r="A308" s="24">
         <v>90</v>
       </c>
-      <c r="B308" s="26" t="s">
+      <c r="B308" s="24" t="s">
         <v>265</v>
       </c>
       <c r="C308" s="3" t="s">
@@ -8016,13 +8016,13 @@
         <v>20</v>
       </c>
       <c r="H308" s="4"/>
-      <c r="K308" s="33">
+      <c r="K308" s="32">
         <v>45553</v>
       </c>
     </row>
     <row r="309" spans="1:11">
-      <c r="A309" s="24"/>
-      <c r="B309" s="24"/>
+      <c r="A309" s="25"/>
+      <c r="B309" s="25"/>
       <c r="C309" s="3" t="s">
         <v>8</v>
       </c>
@@ -8038,11 +8038,11 @@
       <c r="G309" s="3">
         <v>20</v>
       </c>
-      <c r="K309" s="34"/>
+      <c r="K309" s="33"/>
     </row>
     <row r="310" spans="1:11">
-      <c r="A310" s="24"/>
-      <c r="B310" s="24"/>
+      <c r="A310" s="25"/>
+      <c r="B310" s="25"/>
       <c r="C310" s="3" t="s">
         <v>262</v>
       </c>
@@ -8058,11 +8058,11 @@
       <c r="G310" s="3">
         <v>100</v>
       </c>
-      <c r="K310" s="34"/>
+      <c r="K310" s="33"/>
     </row>
     <row r="311" spans="1:11">
-      <c r="A311" s="24"/>
-      <c r="B311" s="24"/>
+      <c r="A311" s="25"/>
+      <c r="B311" s="25"/>
       <c r="C311" s="3" t="s">
         <v>263</v>
       </c>
@@ -8078,11 +8078,11 @@
       <c r="G311" s="3">
         <v>100</v>
       </c>
-      <c r="K311" s="35"/>
+      <c r="K311" s="34"/>
     </row>
     <row r="312" spans="1:11">
-      <c r="A312" s="25"/>
-      <c r="B312" s="25"/>
+      <c r="A312" s="26"/>
+      <c r="B312" s="26"/>
       <c r="C312" s="3" t="s">
         <v>264</v>
       </c>
@@ -8101,159 +8101,60 @@
     </row>
   </sheetData>
   <mergeCells count="231">
-    <mergeCell ref="B294:B296"/>
-    <mergeCell ref="A294:A296"/>
-    <mergeCell ref="B297:B302"/>
-    <mergeCell ref="A297:A302"/>
-    <mergeCell ref="B303:B307"/>
-    <mergeCell ref="A303:A307"/>
-    <mergeCell ref="B308:B312"/>
-    <mergeCell ref="A308:A312"/>
-    <mergeCell ref="A275:A276"/>
-    <mergeCell ref="A277:A281"/>
-    <mergeCell ref="A282:A286"/>
-    <mergeCell ref="B292:B293"/>
-    <mergeCell ref="A292:A293"/>
-    <mergeCell ref="B287:B291"/>
-    <mergeCell ref="A287:A291"/>
-    <mergeCell ref="A268:A272"/>
-    <mergeCell ref="A273:A274"/>
-    <mergeCell ref="B268:B272"/>
-    <mergeCell ref="B273:B274"/>
-    <mergeCell ref="B275:B276"/>
-    <mergeCell ref="B225:B228"/>
-    <mergeCell ref="B229:B231"/>
-    <mergeCell ref="B232:B245"/>
-    <mergeCell ref="B246:B253"/>
-    <mergeCell ref="B221:B224"/>
-    <mergeCell ref="A225:A228"/>
-    <mergeCell ref="A229:A231"/>
-    <mergeCell ref="A232:A245"/>
-    <mergeCell ref="A246:A253"/>
-    <mergeCell ref="A254:A255"/>
-    <mergeCell ref="A256:A267"/>
-    <mergeCell ref="B277:B281"/>
-    <mergeCell ref="B282:B286"/>
-    <mergeCell ref="A221:A224"/>
-    <mergeCell ref="A199:A201"/>
-    <mergeCell ref="A202:A204"/>
-    <mergeCell ref="A205:A207"/>
-    <mergeCell ref="A208:A210"/>
-    <mergeCell ref="A211:A213"/>
-    <mergeCell ref="A172:A175"/>
-    <mergeCell ref="A176:A178"/>
-    <mergeCell ref="A179:A192"/>
-    <mergeCell ref="A193:A195"/>
-    <mergeCell ref="A196:A198"/>
-    <mergeCell ref="A136:A138"/>
-    <mergeCell ref="A139:A142"/>
-    <mergeCell ref="A143:A146"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="B172:B175"/>
-    <mergeCell ref="B176:B178"/>
-    <mergeCell ref="B179:B192"/>
-    <mergeCell ref="A214:A216"/>
-    <mergeCell ref="A217:A220"/>
-    <mergeCell ref="B208:B210"/>
-    <mergeCell ref="B211:B213"/>
-    <mergeCell ref="B214:B216"/>
-    <mergeCell ref="B217:B220"/>
-    <mergeCell ref="B139:B142"/>
-    <mergeCell ref="B143:B146"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="B149:B152"/>
-    <mergeCell ref="A149:A152"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="A156:A157"/>
-    <mergeCell ref="B254:B255"/>
-    <mergeCell ref="B256:B267"/>
-    <mergeCell ref="B193:B195"/>
-    <mergeCell ref="B196:B198"/>
-    <mergeCell ref="B199:B201"/>
-    <mergeCell ref="B202:B204"/>
-    <mergeCell ref="B205:B207"/>
-    <mergeCell ref="B166:B169"/>
-    <mergeCell ref="B170:B171"/>
-    <mergeCell ref="A159:A160"/>
-    <mergeCell ref="A161:A162"/>
-    <mergeCell ref="A163:A165"/>
-    <mergeCell ref="A166:A169"/>
-    <mergeCell ref="A170:A171"/>
-    <mergeCell ref="B154:B155"/>
-    <mergeCell ref="B156:B157"/>
-    <mergeCell ref="B159:B160"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="B86:B90"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="B93:B96"/>
-    <mergeCell ref="B97:B100"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="B68:B72"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A68:A72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="A86:A90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="A93:A96"/>
-    <mergeCell ref="A97:A100"/>
-    <mergeCell ref="B129:B131"/>
-    <mergeCell ref="A109:A113"/>
-    <mergeCell ref="A116:A119"/>
-    <mergeCell ref="B133:B135"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="B109:B113"/>
-    <mergeCell ref="B116:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B123:B125"/>
-    <mergeCell ref="B126:B128"/>
-    <mergeCell ref="A120:A122"/>
-    <mergeCell ref="A123:A125"/>
-    <mergeCell ref="A126:A128"/>
-    <mergeCell ref="A129:A131"/>
-    <mergeCell ref="A133:A135"/>
-    <mergeCell ref="B161:B162"/>
-    <mergeCell ref="B163:B165"/>
+    <mergeCell ref="K221:K224"/>
+    <mergeCell ref="K225:K228"/>
+    <mergeCell ref="K229:K231"/>
+    <mergeCell ref="K232:K245"/>
+    <mergeCell ref="K246:K253"/>
+    <mergeCell ref="K254:K255"/>
+    <mergeCell ref="K256:K267"/>
+    <mergeCell ref="K303:K307"/>
+    <mergeCell ref="K308:K311"/>
+    <mergeCell ref="K268:K272"/>
+    <mergeCell ref="K273:K274"/>
+    <mergeCell ref="K275:K276"/>
+    <mergeCell ref="K277:K281"/>
+    <mergeCell ref="K282:K286"/>
+    <mergeCell ref="K287:K291"/>
+    <mergeCell ref="K292:K293"/>
+    <mergeCell ref="K294:K296"/>
+    <mergeCell ref="K297:K302"/>
+    <mergeCell ref="K193:K195"/>
+    <mergeCell ref="K196:K198"/>
+    <mergeCell ref="K199:K201"/>
+    <mergeCell ref="K202:K204"/>
+    <mergeCell ref="K205:K207"/>
+    <mergeCell ref="K208:K210"/>
+    <mergeCell ref="K211:K213"/>
+    <mergeCell ref="K214:K216"/>
+    <mergeCell ref="K217:K220"/>
+    <mergeCell ref="K156:K157"/>
+    <mergeCell ref="K159:K160"/>
+    <mergeCell ref="K161:K162"/>
+    <mergeCell ref="K163:K165"/>
+    <mergeCell ref="K166:K169"/>
+    <mergeCell ref="K170:K171"/>
+    <mergeCell ref="K172:K175"/>
+    <mergeCell ref="K176:K178"/>
+    <mergeCell ref="K179:K192"/>
+    <mergeCell ref="K126:K128"/>
+    <mergeCell ref="K129:K131"/>
+    <mergeCell ref="K133:K135"/>
+    <mergeCell ref="K136:K138"/>
+    <mergeCell ref="K139:K142"/>
+    <mergeCell ref="K143:K146"/>
+    <mergeCell ref="K147:K148"/>
+    <mergeCell ref="K149:K152"/>
+    <mergeCell ref="K154:K155"/>
+    <mergeCell ref="K91:K92"/>
+    <mergeCell ref="K93:K96"/>
+    <mergeCell ref="K97:K100"/>
+    <mergeCell ref="K101:K102"/>
+    <mergeCell ref="K103:K105"/>
+    <mergeCell ref="K109:K113"/>
+    <mergeCell ref="K116:K119"/>
+    <mergeCell ref="K120:K122"/>
+    <mergeCell ref="K123:K125"/>
     <mergeCell ref="B136:B138"/>
     <mergeCell ref="K2:K6"/>
     <mergeCell ref="K7:K11"/>
@@ -8278,60 +8179,159 @@
     <mergeCell ref="K78:K81"/>
     <mergeCell ref="K83:K85"/>
     <mergeCell ref="K86:K90"/>
-    <mergeCell ref="K91:K92"/>
-    <mergeCell ref="K93:K96"/>
-    <mergeCell ref="K97:K100"/>
-    <mergeCell ref="K101:K102"/>
-    <mergeCell ref="K103:K105"/>
-    <mergeCell ref="K109:K113"/>
-    <mergeCell ref="K116:K119"/>
-    <mergeCell ref="K120:K122"/>
-    <mergeCell ref="K123:K125"/>
-    <mergeCell ref="K126:K128"/>
-    <mergeCell ref="K129:K131"/>
-    <mergeCell ref="K133:K135"/>
-    <mergeCell ref="K136:K138"/>
-    <mergeCell ref="K139:K142"/>
-    <mergeCell ref="K143:K146"/>
-    <mergeCell ref="K147:K148"/>
-    <mergeCell ref="K149:K152"/>
-    <mergeCell ref="K154:K155"/>
-    <mergeCell ref="K156:K157"/>
-    <mergeCell ref="K159:K160"/>
-    <mergeCell ref="K161:K162"/>
-    <mergeCell ref="K163:K165"/>
-    <mergeCell ref="K166:K169"/>
-    <mergeCell ref="K170:K171"/>
-    <mergeCell ref="K172:K175"/>
-    <mergeCell ref="K176:K178"/>
-    <mergeCell ref="K179:K192"/>
-    <mergeCell ref="K193:K195"/>
-    <mergeCell ref="K196:K198"/>
-    <mergeCell ref="K199:K201"/>
-    <mergeCell ref="K202:K204"/>
-    <mergeCell ref="K205:K207"/>
-    <mergeCell ref="K208:K210"/>
-    <mergeCell ref="K211:K213"/>
-    <mergeCell ref="K214:K216"/>
-    <mergeCell ref="K217:K220"/>
-    <mergeCell ref="K221:K224"/>
-    <mergeCell ref="K225:K228"/>
-    <mergeCell ref="K229:K231"/>
-    <mergeCell ref="K232:K245"/>
-    <mergeCell ref="K246:K253"/>
-    <mergeCell ref="K254:K255"/>
-    <mergeCell ref="K256:K267"/>
-    <mergeCell ref="K303:K307"/>
-    <mergeCell ref="K308:K311"/>
-    <mergeCell ref="K268:K272"/>
-    <mergeCell ref="K273:K274"/>
-    <mergeCell ref="K275:K276"/>
-    <mergeCell ref="K277:K281"/>
-    <mergeCell ref="K282:K286"/>
-    <mergeCell ref="K287:K291"/>
-    <mergeCell ref="K292:K293"/>
-    <mergeCell ref="K294:K296"/>
-    <mergeCell ref="K297:K302"/>
+    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A93:A96"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="B129:B131"/>
+    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="A116:A119"/>
+    <mergeCell ref="B133:B135"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B109:B113"/>
+    <mergeCell ref="B116:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B123:B125"/>
+    <mergeCell ref="B126:B128"/>
+    <mergeCell ref="A120:A122"/>
+    <mergeCell ref="A123:A125"/>
+    <mergeCell ref="A126:A128"/>
+    <mergeCell ref="A129:A131"/>
+    <mergeCell ref="A133:A135"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A68:A72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="B93:B96"/>
+    <mergeCell ref="B97:B100"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="B68:B72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="B205:B207"/>
+    <mergeCell ref="B166:B169"/>
+    <mergeCell ref="B170:B171"/>
+    <mergeCell ref="A159:A160"/>
+    <mergeCell ref="A161:A162"/>
+    <mergeCell ref="A163:A165"/>
+    <mergeCell ref="A166:A169"/>
+    <mergeCell ref="A170:A171"/>
+    <mergeCell ref="B154:B155"/>
+    <mergeCell ref="B156:B157"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="B163:B165"/>
+    <mergeCell ref="A136:A138"/>
+    <mergeCell ref="A139:A142"/>
+    <mergeCell ref="A143:A146"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="B172:B175"/>
+    <mergeCell ref="B176:B178"/>
+    <mergeCell ref="B179:B192"/>
+    <mergeCell ref="A214:A216"/>
+    <mergeCell ref="A217:A220"/>
+    <mergeCell ref="B208:B210"/>
+    <mergeCell ref="B211:B213"/>
+    <mergeCell ref="B214:B216"/>
+    <mergeCell ref="B217:B220"/>
+    <mergeCell ref="B139:B142"/>
+    <mergeCell ref="B143:B146"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="B149:B152"/>
+    <mergeCell ref="A149:A152"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="A156:A157"/>
+    <mergeCell ref="B193:B195"/>
+    <mergeCell ref="B196:B198"/>
+    <mergeCell ref="B199:B201"/>
+    <mergeCell ref="B202:B204"/>
+    <mergeCell ref="A199:A201"/>
+    <mergeCell ref="A202:A204"/>
+    <mergeCell ref="A205:A207"/>
+    <mergeCell ref="A208:A210"/>
+    <mergeCell ref="A211:A213"/>
+    <mergeCell ref="A172:A175"/>
+    <mergeCell ref="A176:A178"/>
+    <mergeCell ref="A179:A192"/>
+    <mergeCell ref="A193:A195"/>
+    <mergeCell ref="A196:A198"/>
+    <mergeCell ref="B221:B224"/>
+    <mergeCell ref="A225:A228"/>
+    <mergeCell ref="A229:A231"/>
+    <mergeCell ref="A232:A245"/>
+    <mergeCell ref="A246:A253"/>
+    <mergeCell ref="A254:A255"/>
+    <mergeCell ref="A256:A267"/>
+    <mergeCell ref="B277:B281"/>
+    <mergeCell ref="B282:B286"/>
+    <mergeCell ref="A221:A224"/>
+    <mergeCell ref="B254:B255"/>
+    <mergeCell ref="B256:B267"/>
+    <mergeCell ref="A268:A272"/>
+    <mergeCell ref="A273:A274"/>
+    <mergeCell ref="B268:B272"/>
+    <mergeCell ref="B273:B274"/>
+    <mergeCell ref="B275:B276"/>
+    <mergeCell ref="B225:B228"/>
+    <mergeCell ref="B229:B231"/>
+    <mergeCell ref="B232:B245"/>
+    <mergeCell ref="B246:B253"/>
+    <mergeCell ref="B294:B296"/>
+    <mergeCell ref="A294:A296"/>
+    <mergeCell ref="B297:B302"/>
+    <mergeCell ref="A297:A302"/>
+    <mergeCell ref="B303:B307"/>
+    <mergeCell ref="A303:A307"/>
+    <mergeCell ref="B308:B312"/>
+    <mergeCell ref="A308:A312"/>
+    <mergeCell ref="A275:A276"/>
+    <mergeCell ref="A277:A281"/>
+    <mergeCell ref="A282:A286"/>
+    <mergeCell ref="B292:B293"/>
+    <mergeCell ref="A292:A293"/>
+    <mergeCell ref="B287:B291"/>
+    <mergeCell ref="A287:A291"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/DPI_Table_Audit/Audit-Process-Sheet.xlsx
+++ b/DPI_Table_Audit/Audit-Process-Sheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="293">
   <si>
     <t>Column Name</t>
   </si>
@@ -821,6 +821,84 @@
   </si>
   <si>
     <t>10-09-024</t>
+  </si>
+  <si>
+    <t>CriticalillnessTypeNameEng</t>
+  </si>
+  <si>
+    <t>CriticalillnessTypeHin</t>
+  </si>
+  <si>
+    <t>MstCriticalillnessType</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>SubjectCode</t>
+  </si>
+  <si>
+    <t>DesignationCode</t>
+  </si>
+  <si>
+    <t>SchoolMgmtDetailCode</t>
+  </si>
+  <si>
+    <t>CreatedBy</t>
+  </si>
+  <si>
+    <t>RollNo</t>
+  </si>
+  <si>
+    <t>MstEmpImportEnorllData</t>
+  </si>
+  <si>
+    <t>AcademicYear</t>
+  </si>
+  <si>
+    <t>EmpUniqueId</t>
+  </si>
+  <si>
+    <t>PropertyOwnerName</t>
+  </si>
+  <si>
+    <t>OwnerName</t>
+  </si>
+  <si>
+    <t>MobileNumber</t>
+  </si>
+  <si>
+    <t>SellerAddress</t>
+  </si>
+  <si>
+    <t>Accusation</t>
+  </si>
+  <si>
+    <t>UploadedDocument</t>
+  </si>
+  <si>
+    <t>SellerName</t>
+  </si>
+  <si>
+    <t>StateAddress</t>
+  </si>
+  <si>
+    <t>unique name with datetime combination</t>
+  </si>
+  <si>
+    <t>MstEmployeeAPRMS</t>
+  </si>
+  <si>
+    <t>AccountNumber</t>
+  </si>
+  <si>
+    <t>Account_Type</t>
+  </si>
+  <si>
+    <t>MstEmployeeAccountInfo</t>
   </si>
 </sst>
 </file>
@@ -828,7 +906,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="[$-C09]dd/mmm/yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-C09]dd/mmm/yy;@"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -1008,6 +1086,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1017,6 +1122,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1025,36 +1133,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1360,10 +1438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z312"/>
+  <dimension ref="A1:Z341"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E280" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49:K52"/>
+    <sheetView tabSelected="1" topLeftCell="D275" workbookViewId="0">
+      <selection activeCell="K345" sqref="K345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1378,7 +1456,7 @@
     <col min="8" max="8" width="19" style="3" customWidth="1"/>
     <col min="9" max="9" width="19.42578125" style="3" customWidth="1"/>
     <col min="10" max="10" width="40.85546875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="18" style="37" customWidth="1"/>
+    <col min="11" max="11" width="18" style="26" customWidth="1"/>
     <col min="12" max="15" width="9.140625" style="3"/>
     <col min="16" max="16" width="9.140625" style="3" customWidth="1"/>
     <col min="17" max="26" width="9.140625" style="3"/>
@@ -1415,15 +1493,15 @@
       <c r="J1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="24" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="30">
+      <c r="A2" s="32">
         <v>1</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1442,13 +1520,13 @@
         <v>20</v>
       </c>
       <c r="H2" s="4"/>
-      <c r="K2" s="32">
+      <c r="K2" s="27">
         <v>45552</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
@@ -1465,11 +1543,11 @@
         <v>20</v>
       </c>
       <c r="H3" s="4"/>
-      <c r="K3" s="33"/>
+      <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1486,11 +1564,11 @@
         <v>80</v>
       </c>
       <c r="H4" s="4"/>
-      <c r="K4" s="33"/>
+      <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
@@ -1507,11 +1585,11 @@
         <v>11</v>
       </c>
       <c r="H5" s="4"/>
-      <c r="K5" s="33"/>
+      <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
@@ -1528,13 +1606,13 @@
         <v>100</v>
       </c>
       <c r="H6" s="4"/>
-      <c r="K6" s="34"/>
+      <c r="K6" s="29"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="30">
+      <c r="A7" s="32">
         <v>2</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="32" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1552,13 +1630,13 @@
       <c r="G7" s="3">
         <v>20</v>
       </c>
-      <c r="K7" s="32">
+      <c r="K7" s="27">
         <v>45552</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
@@ -1574,11 +1652,11 @@
       <c r="G8" s="5">
         <v>20</v>
       </c>
-      <c r="K8" s="33"/>
+      <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
@@ -1594,11 +1672,11 @@
       <c r="G9" s="3">
         <v>80</v>
       </c>
-      <c r="K9" s="33"/>
+      <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
@@ -1614,11 +1692,11 @@
       <c r="G10" s="3">
         <v>11</v>
       </c>
-      <c r="K10" s="33"/>
+      <c r="K10" s="28"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
@@ -1634,13 +1712,13 @@
       <c r="G11" s="3">
         <v>100</v>
       </c>
-      <c r="K11" s="34"/>
+      <c r="K11" s="29"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="30">
+      <c r="A12" s="32">
         <v>3</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="32" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1658,13 +1736,13 @@
       <c r="G12" s="3">
         <v>20</v>
       </c>
-      <c r="K12" s="32">
+      <c r="K12" s="27">
         <v>45552</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="3" t="s">
         <v>8</v>
       </c>
@@ -1680,11 +1758,11 @@
       <c r="G13" s="5">
         <v>20</v>
       </c>
-      <c r="K13" s="33"/>
+      <c r="K13" s="28"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="3" t="s">
         <v>19</v>
       </c>
@@ -1700,11 +1778,11 @@
       <c r="G14" s="3">
         <v>50</v>
       </c>
-      <c r="K14" s="33"/>
+      <c r="K14" s="28"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="3" t="s">
         <v>20</v>
       </c>
@@ -1717,11 +1795,11 @@
       <c r="F15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="33"/>
+      <c r="K15" s="28"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="3" t="s">
         <v>22</v>
       </c>
@@ -1737,13 +1815,13 @@
       <c r="G16" s="5">
         <v>5</v>
       </c>
-      <c r="K16" s="34"/>
+      <c r="K16" s="29"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="30">
+      <c r="A17" s="32">
         <v>4</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="32" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -1762,13 +1840,13 @@
         <v>20</v>
       </c>
       <c r="J17" s="4"/>
-      <c r="K17" s="32">
+      <c r="K17" s="27">
         <v>45541</v>
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="3" t="s">
         <v>8</v>
       </c>
@@ -1785,11 +1863,11 @@
         <v>20</v>
       </c>
       <c r="J18" s="4"/>
-      <c r="K18" s="33"/>
+      <c r="K18" s="28"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="3" t="s">
         <v>24</v>
       </c>
@@ -1803,11 +1881,11 @@
         <v>21</v>
       </c>
       <c r="J19" s="4"/>
-      <c r="K19" s="33"/>
+      <c r="K19" s="28"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="3" t="s">
         <v>25</v>
       </c>
@@ -1826,24 +1904,24 @@
       <c r="J20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K20" s="33"/>
+      <c r="K20" s="28"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
       <c r="C21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K21" s="34"/>
+      <c r="K21" s="29"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="30">
+      <c r="A22" s="32">
         <v>5</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="32" t="s">
         <v>32</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -1861,13 +1939,13 @@
       <c r="G22" s="3">
         <v>20</v>
       </c>
-      <c r="K22" s="32">
+      <c r="K22" s="27">
         <v>45541</v>
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
       <c r="C23" s="3" t="s">
         <v>29</v>
       </c>
@@ -1883,11 +1961,11 @@
       <c r="G23" s="5">
         <v>20</v>
       </c>
-      <c r="K23" s="33"/>
+      <c r="K23" s="28"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="3" t="s">
         <v>30</v>
       </c>
@@ -1903,13 +1981,13 @@
       <c r="G24" s="3">
         <v>3000</v>
       </c>
-      <c r="K24" s="34"/>
+      <c r="K24" s="29"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="30">
+      <c r="A25" s="32">
         <v>6</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="32" t="s">
         <v>35</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -1927,13 +2005,13 @@
       <c r="G25" s="3">
         <v>20</v>
       </c>
-      <c r="K25" s="32">
+      <c r="K25" s="27">
         <v>45541</v>
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
       <c r="C26" s="3" t="s">
         <v>8</v>
       </c>
@@ -1949,11 +2027,11 @@
       <c r="G26" s="5">
         <v>20</v>
       </c>
-      <c r="K26" s="33"/>
+      <c r="K26" s="28"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
       <c r="C27" s="3" t="s">
         <v>33</v>
       </c>
@@ -1966,11 +2044,11 @@
       <c r="F27" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K27" s="33"/>
+      <c r="K27" s="28"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
       <c r="C28" s="3" t="s">
         <v>34</v>
       </c>
@@ -1986,13 +2064,13 @@
       <c r="G28" s="3">
         <v>50</v>
       </c>
-      <c r="K28" s="34"/>
+      <c r="K28" s="29"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="30">
-        <v>7</v>
-      </c>
-      <c r="B29" s="30" t="s">
+      <c r="A29" s="32">
+        <v>7</v>
+      </c>
+      <c r="B29" s="32" t="s">
         <v>36</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -2010,13 +2088,13 @@
       <c r="G29" s="3">
         <v>20</v>
       </c>
-      <c r="K29" s="32">
+      <c r="K29" s="27">
         <v>45553</v>
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
       <c r="C30" s="3" t="s">
         <v>8</v>
       </c>
@@ -2032,13 +2110,13 @@
       <c r="G30" s="5">
         <v>20</v>
       </c>
-      <c r="K30" s="34"/>
+      <c r="K30" s="29"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="30">
+      <c r="A31" s="32">
         <v>8</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="32" t="s">
         <v>40</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -2056,13 +2134,13 @@
       <c r="G31" s="3">
         <v>20</v>
       </c>
-      <c r="K31" s="32">
+      <c r="K31" s="27">
         <v>45553</v>
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="30"/>
-      <c r="B32" s="30"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
       <c r="C32" s="3" t="s">
         <v>8</v>
       </c>
@@ -2078,11 +2156,11 @@
       <c r="G32" s="5">
         <v>20</v>
       </c>
-      <c r="K32" s="33"/>
+      <c r="K32" s="28"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="32"/>
       <c r="C33" s="3" t="s">
         <v>37</v>
       </c>
@@ -2095,11 +2173,11 @@
       <c r="F33" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K33" s="33"/>
+      <c r="K33" s="28"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="30"/>
-      <c r="B34" s="30"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="32"/>
       <c r="C34" s="3" t="s">
         <v>38</v>
       </c>
@@ -2115,11 +2193,11 @@
       <c r="G34" s="3">
         <v>10</v>
       </c>
-      <c r="K34" s="33"/>
+      <c r="K34" s="28"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="30"/>
-      <c r="B35" s="30"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="32"/>
       <c r="C35" s="3" t="s">
         <v>39</v>
       </c>
@@ -2135,11 +2213,11 @@
       <c r="G35" s="3">
         <v>11</v>
       </c>
-      <c r="K35" s="33"/>
+      <c r="K35" s="28"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="30"/>
-      <c r="B36" s="30"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="32"/>
       <c r="C36" s="3" t="s">
         <v>9</v>
       </c>
@@ -2155,11 +2233,11 @@
       <c r="G36" s="6">
         <v>80</v>
       </c>
-      <c r="K36" s="33"/>
+      <c r="K36" s="28"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="30"/>
-      <c r="B37" s="30"/>
+      <c r="A37" s="32"/>
+      <c r="B37" s="32"/>
       <c r="C37" s="3" t="s">
         <v>12</v>
       </c>
@@ -2175,13 +2253,13 @@
       <c r="G37" s="6">
         <v>100</v>
       </c>
-      <c r="K37" s="34"/>
+      <c r="K37" s="29"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="30">
+      <c r="A38" s="32">
         <v>9</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="32" t="s">
         <v>45</v>
       </c>
       <c r="C38" s="3" t="s">
@@ -2199,13 +2277,13 @@
       <c r="G38" s="3">
         <v>20</v>
       </c>
-      <c r="K38" s="32">
+      <c r="K38" s="27">
         <v>45553</v>
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="30"/>
-      <c r="B39" s="30"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="32"/>
       <c r="C39" s="3" t="s">
         <v>42</v>
       </c>
@@ -2221,11 +2299,11 @@
       <c r="G39" s="3">
         <v>50</v>
       </c>
-      <c r="K39" s="33"/>
+      <c r="K39" s="28"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="30"/>
-      <c r="B40" s="30"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="32"/>
       <c r="C40" s="3" t="s">
         <v>43</v>
       </c>
@@ -2241,11 +2319,11 @@
       <c r="G40" s="3">
         <v>50</v>
       </c>
-      <c r="K40" s="33"/>
+      <c r="K40" s="28"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="30"/>
-      <c r="B41" s="30"/>
+      <c r="A41" s="32"/>
+      <c r="B41" s="32"/>
       <c r="C41" s="3" t="s">
         <v>44</v>
       </c>
@@ -2261,13 +2339,13 @@
       <c r="G41" s="3">
         <v>6</v>
       </c>
-      <c r="K41" s="34"/>
+      <c r="K41" s="29"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="30">
-        <v>10</v>
-      </c>
-      <c r="B42" s="30" t="s">
+      <c r="A42" s="32">
+        <v>10</v>
+      </c>
+      <c r="B42" s="32" t="s">
         <v>49</v>
       </c>
       <c r="C42" s="3" t="s">
@@ -2285,13 +2363,13 @@
       <c r="G42" s="3">
         <v>20</v>
       </c>
-      <c r="K42" s="32">
+      <c r="K42" s="27">
         <v>45540</v>
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="30"/>
-      <c r="B43" s="30"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="32"/>
       <c r="C43" s="3" t="s">
         <v>29</v>
       </c>
@@ -2307,11 +2385,11 @@
       <c r="G43" s="5">
         <v>20</v>
       </c>
-      <c r="K43" s="33"/>
+      <c r="K43" s="28"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="30"/>
-      <c r="B44" s="30"/>
+      <c r="A44" s="32"/>
+      <c r="B44" s="32"/>
       <c r="C44" s="3" t="s">
         <v>46</v>
       </c>
@@ -2327,11 +2405,11 @@
       <c r="G44" s="3">
         <v>20</v>
       </c>
-      <c r="K44" s="33"/>
+      <c r="K44" s="28"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="30"/>
-      <c r="B45" s="30"/>
+      <c r="A45" s="32"/>
+      <c r="B45" s="32"/>
       <c r="C45" s="3" t="s">
         <v>47</v>
       </c>
@@ -2347,11 +2425,11 @@
       <c r="G45" s="3">
         <v>10</v>
       </c>
-      <c r="K45" s="33"/>
+      <c r="K45" s="28"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="30"/>
-      <c r="B46" s="30"/>
+      <c r="A46" s="32"/>
+      <c r="B46" s="32"/>
       <c r="C46" s="3" t="s">
         <v>48</v>
       </c>
@@ -2367,13 +2445,13 @@
       <c r="G46" s="6">
         <v>20</v>
       </c>
-      <c r="K46" s="34"/>
+      <c r="K46" s="29"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="30">
+      <c r="A47" s="32">
         <v>11</v>
       </c>
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="32" t="s">
         <v>52</v>
       </c>
       <c r="C47" s="3" t="s">
@@ -2391,13 +2469,13 @@
       <c r="G47" s="3">
         <v>20</v>
       </c>
-      <c r="K47" s="32">
+      <c r="K47" s="27">
         <v>45540</v>
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="30"/>
-      <c r="B48" s="30"/>
+      <c r="A48" s="32"/>
+      <c r="B48" s="32"/>
       <c r="C48" s="3" t="s">
         <v>51</v>
       </c>
@@ -2413,13 +2491,13 @@
       <c r="G48" s="5">
         <v>11</v>
       </c>
-      <c r="K48" s="34"/>
+      <c r="K48" s="29"/>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="30">
+      <c r="A49" s="32">
         <v>12</v>
       </c>
-      <c r="B49" s="30" t="s">
+      <c r="B49" s="32" t="s">
         <v>56</v>
       </c>
       <c r="C49" s="3" t="s">
@@ -2437,13 +2515,13 @@
       <c r="G49" s="3">
         <v>20</v>
       </c>
-      <c r="K49" s="32">
+      <c r="K49" s="27">
         <v>45539</v>
       </c>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="30"/>
-      <c r="B50" s="30"/>
+      <c r="A50" s="32"/>
+      <c r="B50" s="32"/>
       <c r="C50" s="3" t="s">
         <v>53</v>
       </c>
@@ -2459,11 +2537,11 @@
       <c r="G50" s="3">
         <v>50</v>
       </c>
-      <c r="K50" s="33"/>
+      <c r="K50" s="28"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="30"/>
-      <c r="B51" s="30"/>
+      <c r="A51" s="32"/>
+      <c r="B51" s="32"/>
       <c r="C51" s="3" t="s">
         <v>54</v>
       </c>
@@ -2479,11 +2557,11 @@
       <c r="G51" s="3">
         <v>40</v>
       </c>
-      <c r="K51" s="33"/>
+      <c r="K51" s="28"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="30"/>
-      <c r="B52" s="30"/>
+      <c r="A52" s="32"/>
+      <c r="B52" s="32"/>
       <c r="C52" s="3" t="s">
         <v>55</v>
       </c>
@@ -2499,13 +2577,13 @@
       <c r="G52" s="3">
         <v>10</v>
       </c>
-      <c r="K52" s="34"/>
+      <c r="K52" s="29"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="30">
+      <c r="A53" s="32">
         <v>13</v>
       </c>
-      <c r="B53" s="30" t="s">
+      <c r="B53" s="32" t="s">
         <v>58</v>
       </c>
       <c r="C53" s="3" t="s">
@@ -2523,13 +2601,13 @@
       <c r="G53" s="3">
         <v>20</v>
       </c>
-      <c r="K53" s="32">
+      <c r="K53" s="27">
         <v>45540</v>
       </c>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="30"/>
-      <c r="B54" s="30"/>
+      <c r="A54" s="32"/>
+      <c r="B54" s="32"/>
       <c r="C54" s="3" t="s">
         <v>57</v>
       </c>
@@ -2545,13 +2623,13 @@
       <c r="G54" s="5">
         <v>25</v>
       </c>
-      <c r="K54" s="34"/>
+      <c r="K54" s="29"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="30">
+      <c r="A55" s="32">
         <v>14</v>
       </c>
-      <c r="B55" s="30" t="s">
+      <c r="B55" s="32" t="s">
         <v>59</v>
       </c>
       <c r="C55" s="3" t="s">
@@ -2569,13 +2647,13 @@
       <c r="G55" s="3">
         <v>20</v>
       </c>
-      <c r="K55" s="32">
+      <c r="K55" s="27">
         <v>45540</v>
       </c>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="30"/>
-      <c r="B56" s="30"/>
+      <c r="A56" s="32"/>
+      <c r="B56" s="32"/>
       <c r="C56" s="3" t="s">
         <v>29</v>
       </c>
@@ -2591,11 +2669,11 @@
       <c r="G56" s="5">
         <v>20</v>
       </c>
-      <c r="K56" s="33"/>
+      <c r="K56" s="28"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="30"/>
-      <c r="B57" s="30"/>
+      <c r="A57" s="32"/>
+      <c r="B57" s="32"/>
       <c r="C57" s="3" t="s">
         <v>30</v>
       </c>
@@ -2611,13 +2689,13 @@
       <c r="G57" s="3">
         <v>5000</v>
       </c>
-      <c r="K57" s="34"/>
+      <c r="K57" s="29"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="30">
+      <c r="A58" s="32">
         <v>15</v>
       </c>
-      <c r="B58" s="30" t="s">
+      <c r="B58" s="32" t="s">
         <v>61</v>
       </c>
       <c r="C58" s="3" t="s">
@@ -2635,13 +2713,13 @@
       <c r="G58" s="3">
         <v>20</v>
       </c>
-      <c r="K58" s="32">
+      <c r="K58" s="27">
         <v>45540</v>
       </c>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="30"/>
-      <c r="B59" s="30"/>
+      <c r="A59" s="32"/>
+      <c r="B59" s="32"/>
       <c r="C59" s="3" t="s">
         <v>60</v>
       </c>
@@ -2657,7 +2735,7 @@
       <c r="G59" s="5">
         <v>30</v>
       </c>
-      <c r="K59" s="34"/>
+      <c r="K59" s="29"/>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="13">
@@ -2681,7 +2759,7 @@
       <c r="G60" s="3">
         <v>20</v>
       </c>
-      <c r="K60" s="36">
+      <c r="K60" s="25">
         <v>45540</v>
       </c>
     </row>
@@ -2707,15 +2785,15 @@
       <c r="G61" s="3">
         <v>20</v>
       </c>
-      <c r="K61" s="36">
+      <c r="K61" s="25">
         <v>45540</v>
       </c>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="30">
+      <c r="A62" s="32">
         <v>18</v>
       </c>
-      <c r="B62" s="30" t="s">
+      <c r="B62" s="32" t="s">
         <v>65</v>
       </c>
       <c r="C62" s="3" t="s">
@@ -2733,13 +2811,13 @@
       <c r="G62" s="3">
         <v>20</v>
       </c>
-      <c r="K62" s="32">
+      <c r="K62" s="27">
         <v>45540</v>
       </c>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="30"/>
-      <c r="B63" s="30"/>
+      <c r="A63" s="32"/>
+      <c r="B63" s="32"/>
       <c r="C63" s="3" t="s">
         <v>64</v>
       </c>
@@ -2755,7 +2833,7 @@
       <c r="G63" s="5">
         <v>20</v>
       </c>
-      <c r="K63" s="34"/>
+      <c r="K63" s="29"/>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="13">
@@ -2779,15 +2857,15 @@
       <c r="G64" s="3">
         <v>20</v>
       </c>
-      <c r="K64" s="37">
+      <c r="K64" s="26">
         <v>45544</v>
       </c>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="30">
-        <v>20</v>
-      </c>
-      <c r="B65" s="30" t="s">
+      <c r="A65" s="32">
+        <v>20</v>
+      </c>
+      <c r="B65" s="32" t="s">
         <v>69</v>
       </c>
       <c r="C65" s="3" t="s">
@@ -2805,13 +2883,13 @@
       <c r="G65" s="3">
         <v>20</v>
       </c>
-      <c r="K65" s="32">
+      <c r="K65" s="27">
         <v>45544</v>
       </c>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="30"/>
-      <c r="B66" s="30"/>
+      <c r="A66" s="32"/>
+      <c r="B66" s="32"/>
       <c r="C66" s="3" t="s">
         <v>8</v>
       </c>
@@ -2827,11 +2905,11 @@
       <c r="G66" s="3">
         <v>20</v>
       </c>
-      <c r="K66" s="33"/>
+      <c r="K66" s="28"/>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="30"/>
-      <c r="B67" s="30"/>
+      <c r="A67" s="32"/>
+      <c r="B67" s="32"/>
       <c r="C67" s="3" t="s">
         <v>67</v>
       </c>
@@ -2842,13 +2920,13 @@
         <v>21</v>
       </c>
       <c r="G67" s="5"/>
-      <c r="K67" s="34"/>
+      <c r="K67" s="29"/>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="30">
+      <c r="A68" s="32">
         <v>21</v>
       </c>
-      <c r="B68" s="30" t="s">
+      <c r="B68" s="32" t="s">
         <v>85</v>
       </c>
       <c r="C68" s="3" t="s">
@@ -2866,13 +2944,13 @@
       <c r="G68" s="3">
         <v>20</v>
       </c>
-      <c r="K68" s="32">
+      <c r="K68" s="27">
         <v>45544</v>
       </c>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="30"/>
-      <c r="B69" s="30"/>
+      <c r="A69" s="32"/>
+      <c r="B69" s="32"/>
       <c r="C69" s="3" t="s">
         <v>70</v>
       </c>
@@ -2883,11 +2961,11 @@
         <v>21</v>
       </c>
       <c r="G69" s="5"/>
-      <c r="K69" s="33"/>
+      <c r="K69" s="28"/>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="30"/>
-      <c r="B70" s="30"/>
+      <c r="A70" s="32"/>
+      <c r="B70" s="32"/>
       <c r="C70" s="3" t="s">
         <v>71</v>
       </c>
@@ -2900,11 +2978,11 @@
       <c r="F70" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K70" s="33"/>
+      <c r="K70" s="28"/>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="30"/>
-      <c r="B71" s="30"/>
+      <c r="A71" s="32"/>
+      <c r="B71" s="32"/>
       <c r="C71" s="3" t="s">
         <v>73</v>
       </c>
@@ -2920,11 +2998,11 @@
       <c r="G71" s="3">
         <v>50</v>
       </c>
-      <c r="K71" s="33"/>
+      <c r="K71" s="28"/>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="30"/>
-      <c r="B72" s="30"/>
+      <c r="A72" s="32"/>
+      <c r="B72" s="32"/>
       <c r="C72" s="3" t="s">
         <v>74</v>
       </c>
@@ -2940,13 +3018,13 @@
       <c r="G72" s="3">
         <v>50</v>
       </c>
-      <c r="K72" s="34"/>
+      <c r="K72" s="29"/>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="30">
+      <c r="A73" s="32">
         <v>22</v>
       </c>
-      <c r="B73" s="30" t="s">
+      <c r="B73" s="32" t="s">
         <v>76</v>
       </c>
       <c r="C73" s="3" t="s">
@@ -2964,13 +3042,13 @@
       <c r="G73" s="3">
         <v>20</v>
       </c>
-      <c r="K73" s="32">
+      <c r="K73" s="27">
         <v>45540</v>
       </c>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="30"/>
-      <c r="B74" s="30"/>
+      <c r="A74" s="32"/>
+      <c r="B74" s="32"/>
       <c r="C74" s="3" t="s">
         <v>75</v>
       </c>
@@ -2986,13 +3064,13 @@
       <c r="G74" s="3">
         <v>1000</v>
       </c>
-      <c r="K74" s="34"/>
+      <c r="K74" s="29"/>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="30">
+      <c r="A75" s="32">
         <v>23</v>
       </c>
-      <c r="B75" s="30" t="s">
+      <c r="B75" s="32" t="s">
         <v>79</v>
       </c>
       <c r="C75" s="3" t="s">
@@ -3010,13 +3088,13 @@
       <c r="G75" s="3">
         <v>10</v>
       </c>
-      <c r="K75" s="32">
+      <c r="K75" s="27">
         <v>45544</v>
       </c>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="30"/>
-      <c r="B76" s="30"/>
+      <c r="A76" s="32"/>
+      <c r="B76" s="32"/>
       <c r="C76" s="3" t="s">
         <v>78</v>
       </c>
@@ -3032,7 +3110,7 @@
       <c r="G76" s="5">
         <v>5</v>
       </c>
-      <c r="K76" s="34"/>
+      <c r="K76" s="29"/>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="13">
@@ -3056,15 +3134,15 @@
       <c r="G77" s="3">
         <v>20</v>
       </c>
-      <c r="K77" s="37">
+      <c r="K77" s="26">
         <v>45540</v>
       </c>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="30">
+      <c r="A78" s="32">
         <v>25</v>
       </c>
-      <c r="B78" s="30" t="s">
+      <c r="B78" s="32" t="s">
         <v>84</v>
       </c>
       <c r="C78" s="3" t="s">
@@ -3082,13 +3160,13 @@
       <c r="G78" s="3">
         <v>20</v>
       </c>
-      <c r="K78" s="32">
+      <c r="K78" s="27">
         <v>45553</v>
       </c>
     </row>
     <row r="79" spans="1:11">
-      <c r="A79" s="30"/>
-      <c r="B79" s="30"/>
+      <c r="A79" s="32"/>
+      <c r="B79" s="32"/>
       <c r="C79" s="3" t="s">
         <v>81</v>
       </c>
@@ -3104,11 +3182,11 @@
       <c r="G79" s="3">
         <v>50</v>
       </c>
-      <c r="K79" s="33"/>
+      <c r="K79" s="28"/>
     </row>
     <row r="80" spans="1:11">
-      <c r="A80" s="30"/>
-      <c r="B80" s="30"/>
+      <c r="A80" s="32"/>
+      <c r="B80" s="32"/>
       <c r="C80" s="3" t="s">
         <v>82</v>
       </c>
@@ -3124,11 +3202,11 @@
       <c r="G80" s="3">
         <v>50</v>
       </c>
-      <c r="K80" s="33"/>
+      <c r="K80" s="28"/>
     </row>
     <row r="81" spans="1:11">
-      <c r="A81" s="30"/>
-      <c r="B81" s="30"/>
+      <c r="A81" s="32"/>
+      <c r="B81" s="32"/>
       <c r="C81" s="3" t="s">
         <v>83</v>
       </c>
@@ -3144,7 +3222,7 @@
       <c r="G81" s="3">
         <v>6</v>
       </c>
-      <c r="K81" s="34"/>
+      <c r="K81" s="29"/>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="13">
@@ -3168,15 +3246,15 @@
       <c r="G82" s="3">
         <v>20</v>
       </c>
-      <c r="K82" s="37">
+      <c r="K82" s="26">
         <v>45553</v>
       </c>
     </row>
     <row r="83" spans="1:11">
-      <c r="A83" s="30">
+      <c r="A83" s="32">
         <v>27</v>
       </c>
-      <c r="B83" s="30" t="s">
+      <c r="B83" s="32" t="s">
         <v>69</v>
       </c>
       <c r="C83" s="3" t="s">
@@ -3194,13 +3272,13 @@
       <c r="G83" s="3">
         <v>20</v>
       </c>
-      <c r="K83" s="32">
+      <c r="K83" s="27">
         <v>45544</v>
       </c>
     </row>
     <row r="84" spans="1:11">
-      <c r="A84" s="30"/>
-      <c r="B84" s="30"/>
+      <c r="A84" s="32"/>
+      <c r="B84" s="32"/>
       <c r="C84" s="3" t="s">
         <v>8</v>
       </c>
@@ -3216,11 +3294,11 @@
       <c r="G84" s="3">
         <v>20</v>
       </c>
-      <c r="K84" s="33"/>
+      <c r="K84" s="28"/>
     </row>
     <row r="85" spans="1:11">
-      <c r="A85" s="30"/>
-      <c r="B85" s="30"/>
+      <c r="A85" s="32"/>
+      <c r="B85" s="32"/>
       <c r="C85" s="3" t="s">
         <v>67</v>
       </c>
@@ -3231,13 +3309,13 @@
         <v>21</v>
       </c>
       <c r="G85" s="5"/>
-      <c r="K85" s="34"/>
+      <c r="K85" s="29"/>
     </row>
     <row r="86" spans="1:11">
-      <c r="A86" s="30">
+      <c r="A86" s="32">
         <v>28</v>
       </c>
-      <c r="B86" s="30" t="s">
+      <c r="B86" s="32" t="s">
         <v>85</v>
       </c>
       <c r="C86" s="3" t="s">
@@ -3255,13 +3333,13 @@
       <c r="G86" s="3">
         <v>20</v>
       </c>
-      <c r="K86" s="32">
+      <c r="K86" s="27">
         <v>45544</v>
       </c>
     </row>
     <row r="87" spans="1:11">
-      <c r="A87" s="30"/>
-      <c r="B87" s="30"/>
+      <c r="A87" s="32"/>
+      <c r="B87" s="32"/>
       <c r="C87" s="3" t="s">
         <v>70</v>
       </c>
@@ -3272,11 +3350,11 @@
         <v>21</v>
       </c>
       <c r="G87" s="5"/>
-      <c r="K87" s="33"/>
+      <c r="K87" s="28"/>
     </row>
     <row r="88" spans="1:11">
-      <c r="A88" s="30"/>
-      <c r="B88" s="30"/>
+      <c r="A88" s="32"/>
+      <c r="B88" s="32"/>
       <c r="C88" s="3" t="s">
         <v>71</v>
       </c>
@@ -3289,11 +3367,11 @@
       <c r="F88" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K88" s="33"/>
+      <c r="K88" s="28"/>
     </row>
     <row r="89" spans="1:11">
-      <c r="A89" s="30"/>
-      <c r="B89" s="30"/>
+      <c r="A89" s="32"/>
+      <c r="B89" s="32"/>
       <c r="C89" s="3" t="s">
         <v>73</v>
       </c>
@@ -3309,11 +3387,11 @@
       <c r="G89" s="3">
         <v>50</v>
       </c>
-      <c r="K89" s="33"/>
+      <c r="K89" s="28"/>
     </row>
     <row r="90" spans="1:11">
-      <c r="A90" s="30"/>
-      <c r="B90" s="30"/>
+      <c r="A90" s="32"/>
+      <c r="B90" s="32"/>
       <c r="C90" s="3" t="s">
         <v>74</v>
       </c>
@@ -3329,13 +3407,13 @@
       <c r="G90" s="3">
         <v>50</v>
       </c>
-      <c r="K90" s="34"/>
+      <c r="K90" s="29"/>
     </row>
     <row r="91" spans="1:11">
-      <c r="A91" s="30">
+      <c r="A91" s="32">
         <v>29</v>
       </c>
-      <c r="B91" s="30" t="s">
+      <c r="B91" s="32" t="s">
         <v>79</v>
       </c>
       <c r="C91" s="3" t="s">
@@ -3353,13 +3431,13 @@
       <c r="G91" s="3">
         <v>10</v>
       </c>
-      <c r="K91" s="32">
+      <c r="K91" s="27">
         <v>45544</v>
       </c>
     </row>
     <row r="92" spans="1:11">
-      <c r="A92" s="30"/>
-      <c r="B92" s="30"/>
+      <c r="A92" s="32"/>
+      <c r="B92" s="32"/>
       <c r="C92" s="3" t="s">
         <v>78</v>
       </c>
@@ -3375,13 +3453,13 @@
       <c r="G92" s="5">
         <v>5</v>
       </c>
-      <c r="K92" s="34"/>
+      <c r="K92" s="29"/>
     </row>
     <row r="93" spans="1:11">
-      <c r="A93" s="30">
+      <c r="A93" s="32">
         <v>30</v>
       </c>
-      <c r="B93" s="30" t="s">
+      <c r="B93" s="32" t="s">
         <v>92</v>
       </c>
       <c r="C93" s="3" t="s">
@@ -3399,13 +3477,13 @@
       <c r="G93" s="3">
         <v>20</v>
       </c>
-      <c r="K93" s="32">
+      <c r="K93" s="27">
         <v>45544</v>
       </c>
     </row>
     <row r="94" spans="1:11">
-      <c r="A94" s="30"/>
-      <c r="B94" s="30"/>
+      <c r="A94" s="32"/>
+      <c r="B94" s="32"/>
       <c r="C94" s="3" t="s">
         <v>87</v>
       </c>
@@ -3421,11 +3499,11 @@
       <c r="G94" s="3">
         <v>30</v>
       </c>
-      <c r="K94" s="33"/>
+      <c r="K94" s="28"/>
     </row>
     <row r="95" spans="1:11">
-      <c r="A95" s="30"/>
-      <c r="B95" s="30"/>
+      <c r="A95" s="32"/>
+      <c r="B95" s="32"/>
       <c r="C95" s="3" t="s">
         <v>88</v>
       </c>
@@ -3441,11 +3519,11 @@
       <c r="G95" s="3">
         <v>30</v>
       </c>
-      <c r="K95" s="33"/>
+      <c r="K95" s="28"/>
     </row>
     <row r="96" spans="1:11">
-      <c r="A96" s="30"/>
-      <c r="B96" s="30"/>
+      <c r="A96" s="32"/>
+      <c r="B96" s="32"/>
       <c r="C96" s="3" t="s">
         <v>90</v>
       </c>
@@ -3464,13 +3542,13 @@
       <c r="J96" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K96" s="34"/>
+      <c r="K96" s="29"/>
     </row>
     <row r="97" spans="1:11">
-      <c r="A97" s="30">
+      <c r="A97" s="32">
         <v>31</v>
       </c>
-      <c r="B97" s="30" t="s">
+      <c r="B97" s="32" t="s">
         <v>99</v>
       </c>
       <c r="C97" s="3" t="s">
@@ -3488,13 +3566,13 @@
       <c r="G97" s="3">
         <v>20</v>
       </c>
-      <c r="K97" s="32">
+      <c r="K97" s="27">
         <v>45544</v>
       </c>
     </row>
     <row r="98" spans="1:11">
-      <c r="A98" s="30"/>
-      <c r="B98" s="30"/>
+      <c r="A98" s="32"/>
+      <c r="B98" s="32"/>
       <c r="C98" s="3" t="s">
         <v>93</v>
       </c>
@@ -3513,11 +3591,11 @@
       <c r="J98" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="K98" s="33"/>
+      <c r="K98" s="28"/>
     </row>
     <row r="99" spans="1:11">
-      <c r="A99" s="30"/>
-      <c r="B99" s="30"/>
+      <c r="A99" s="32"/>
+      <c r="B99" s="32"/>
       <c r="C99" s="3" t="s">
         <v>94</v>
       </c>
@@ -3536,11 +3614,11 @@
       <c r="J99" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="K99" s="33"/>
+      <c r="K99" s="28"/>
     </row>
     <row r="100" spans="1:11">
-      <c r="A100" s="30"/>
-      <c r="B100" s="30"/>
+      <c r="A100" s="32"/>
+      <c r="B100" s="32"/>
       <c r="C100" s="3" t="s">
         <v>95</v>
       </c>
@@ -3559,13 +3637,13 @@
       <c r="J100" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="K100" s="34"/>
+      <c r="K100" s="29"/>
     </row>
     <row r="101" spans="1:11">
-      <c r="A101" s="30">
+      <c r="A101" s="32">
         <v>32</v>
       </c>
-      <c r="B101" s="30" t="s">
+      <c r="B101" s="32" t="s">
         <v>101</v>
       </c>
       <c r="C101" s="3" t="s">
@@ -3583,13 +3661,13 @@
       <c r="G101" s="3">
         <v>20</v>
       </c>
-      <c r="K101" s="32">
+      <c r="K101" s="27">
         <v>45546</v>
       </c>
     </row>
     <row r="102" spans="1:11">
-      <c r="A102" s="30"/>
-      <c r="B102" s="30"/>
+      <c r="A102" s="32"/>
+      <c r="B102" s="32"/>
       <c r="C102" s="3" t="s">
         <v>100</v>
       </c>
@@ -3605,13 +3683,13 @@
       <c r="G102" s="3">
         <v>20</v>
       </c>
-      <c r="K102" s="34"/>
+      <c r="K102" s="29"/>
     </row>
     <row r="103" spans="1:11">
-      <c r="A103" s="30">
+      <c r="A103" s="32">
         <v>33</v>
       </c>
-      <c r="B103" s="30" t="s">
+      <c r="B103" s="32" t="s">
         <v>102</v>
       </c>
       <c r="C103" s="3" t="s">
@@ -3629,13 +3707,13 @@
       <c r="G103" s="3">
         <v>20</v>
       </c>
-      <c r="K103" s="32">
+      <c r="K103" s="27">
         <v>45544</v>
       </c>
     </row>
     <row r="104" spans="1:11">
-      <c r="A104" s="30"/>
-      <c r="B104" s="30"/>
+      <c r="A104" s="32"/>
+      <c r="B104" s="32"/>
       <c r="C104" s="3" t="s">
         <v>100</v>
       </c>
@@ -3651,11 +3729,11 @@
       <c r="G104" s="3">
         <v>20</v>
       </c>
-      <c r="K104" s="33"/>
+      <c r="K104" s="28"/>
     </row>
     <row r="105" spans="1:11">
-      <c r="A105" s="30"/>
-      <c r="B105" s="30"/>
+      <c r="A105" s="32"/>
+      <c r="B105" s="32"/>
       <c r="C105" s="3" t="s">
         <v>71</v>
       </c>
@@ -3668,7 +3746,7 @@
       <c r="F105" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K105" s="34"/>
+      <c r="K105" s="29"/>
     </row>
     <row r="106" spans="1:11">
       <c r="A106" s="13">
@@ -3692,7 +3770,7 @@
       <c r="G106" s="3">
         <v>20</v>
       </c>
-      <c r="K106" s="37">
+      <c r="K106" s="26">
         <v>45544</v>
       </c>
     </row>
@@ -3718,7 +3796,7 @@
       <c r="G107" s="3">
         <v>30</v>
       </c>
-      <c r="K107" s="37">
+      <c r="K107" s="26">
         <v>45545</v>
       </c>
     </row>
@@ -3744,15 +3822,15 @@
       <c r="G108" s="3">
         <v>30</v>
       </c>
-      <c r="K108" s="37">
+      <c r="K108" s="26">
         <v>45545</v>
       </c>
     </row>
     <row r="109" spans="1:11">
-      <c r="A109" s="30">
+      <c r="A109" s="32">
         <v>37</v>
       </c>
-      <c r="B109" s="30" t="s">
+      <c r="B109" s="32" t="s">
         <v>112</v>
       </c>
       <c r="C109" s="3" t="s">
@@ -3770,13 +3848,13 @@
       <c r="G109" s="3">
         <v>50</v>
       </c>
-      <c r="K109" s="32">
+      <c r="K109" s="27">
         <v>45545</v>
       </c>
     </row>
     <row r="110" spans="1:11">
-      <c r="A110" s="30"/>
-      <c r="B110" s="30"/>
+      <c r="A110" s="32"/>
+      <c r="B110" s="32"/>
       <c r="C110" s="3" t="s">
         <v>109</v>
       </c>
@@ -3792,11 +3870,11 @@
       <c r="G110" s="3">
         <v>50</v>
       </c>
-      <c r="K110" s="33"/>
+      <c r="K110" s="28"/>
     </row>
     <row r="111" spans="1:11">
-      <c r="A111" s="30"/>
-      <c r="B111" s="30"/>
+      <c r="A111" s="32"/>
+      <c r="B111" s="32"/>
       <c r="C111" s="3" t="s">
         <v>110</v>
       </c>
@@ -3812,11 +3890,11 @@
       <c r="G111" s="3">
         <v>3</v>
       </c>
-      <c r="K111" s="33"/>
+      <c r="K111" s="28"/>
     </row>
     <row r="112" spans="1:11">
-      <c r="A112" s="30"/>
-      <c r="B112" s="30"/>
+      <c r="A112" s="32"/>
+      <c r="B112" s="32"/>
       <c r="C112" s="3" t="s">
         <v>41</v>
       </c>
@@ -3832,11 +3910,11 @@
       <c r="G112" s="5">
         <v>20</v>
       </c>
-      <c r="K112" s="33"/>
+      <c r="K112" s="28"/>
     </row>
     <row r="113" spans="1:11">
-      <c r="A113" s="30"/>
-      <c r="B113" s="30"/>
+      <c r="A113" s="32"/>
+      <c r="B113" s="32"/>
       <c r="C113" s="3" t="s">
         <v>111</v>
       </c>
@@ -3852,7 +3930,7 @@
       <c r="G113" s="6">
         <v>50</v>
       </c>
-      <c r="K113" s="34"/>
+      <c r="K113" s="29"/>
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="13">
@@ -3876,7 +3954,7 @@
       <c r="G114" s="3">
         <v>20</v>
       </c>
-      <c r="K114" s="37">
+      <c r="K114" s="26">
         <v>45545</v>
       </c>
     </row>
@@ -3902,15 +3980,15 @@
       <c r="G115" s="3">
         <v>20</v>
       </c>
-      <c r="K115" s="37">
+      <c r="K115" s="26">
         <v>45545</v>
       </c>
     </row>
     <row r="116" spans="1:11">
-      <c r="A116" s="30">
+      <c r="A116" s="32">
         <v>40</v>
       </c>
-      <c r="B116" s="30" t="s">
+      <c r="B116" s="32" t="s">
         <v>119</v>
       </c>
       <c r="C116" s="3" t="s">
@@ -3928,13 +4006,13 @@
       <c r="G116" s="3">
         <v>20</v>
       </c>
-      <c r="K116" s="32">
+      <c r="K116" s="27">
         <v>45545</v>
       </c>
     </row>
     <row r="117" spans="1:11">
-      <c r="A117" s="30"/>
-      <c r="B117" s="30"/>
+      <c r="A117" s="32"/>
+      <c r="B117" s="32"/>
       <c r="C117" s="3" t="s">
         <v>115</v>
       </c>
@@ -3950,11 +4028,11 @@
       <c r="G117" s="5">
         <v>30</v>
       </c>
-      <c r="K117" s="33"/>
+      <c r="K117" s="28"/>
     </row>
     <row r="118" spans="1:11">
-      <c r="A118" s="30"/>
-      <c r="B118" s="30"/>
+      <c r="A118" s="32"/>
+      <c r="B118" s="32"/>
       <c r="C118" s="3" t="s">
         <v>116</v>
       </c>
@@ -3970,11 +4048,11 @@
       <c r="G118" s="3">
         <v>30</v>
       </c>
-      <c r="K118" s="33"/>
+      <c r="K118" s="28"/>
     </row>
     <row r="119" spans="1:11">
-      <c r="A119" s="30"/>
-      <c r="B119" s="30"/>
+      <c r="A119" s="32"/>
+      <c r="B119" s="32"/>
       <c r="C119" s="3" t="s">
         <v>117</v>
       </c>
@@ -3984,13 +4062,13 @@
       <c r="F119" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="K119" s="34"/>
+      <c r="K119" s="29"/>
     </row>
     <row r="120" spans="1:11">
-      <c r="A120" s="24">
+      <c r="A120" s="33">
         <v>41</v>
       </c>
-      <c r="B120" s="30" t="s">
+      <c r="B120" s="32" t="s">
         <v>122</v>
       </c>
       <c r="C120" s="3" t="s">
@@ -4008,13 +4086,13 @@
       <c r="G120" s="3">
         <v>20</v>
       </c>
-      <c r="K120" s="32" t="s">
+      <c r="K120" s="27" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="121" spans="1:11">
-      <c r="A121" s="25"/>
-      <c r="B121" s="30"/>
+      <c r="A121" s="34"/>
+      <c r="B121" s="32"/>
       <c r="C121" s="3" t="s">
         <v>120</v>
       </c>
@@ -4030,11 +4108,11 @@
       <c r="G121" s="5">
         <v>10</v>
       </c>
-      <c r="K121" s="33"/>
+      <c r="K121" s="28"/>
     </row>
     <row r="122" spans="1:11">
-      <c r="A122" s="26"/>
-      <c r="B122" s="30"/>
+      <c r="A122" s="35"/>
+      <c r="B122" s="32"/>
       <c r="C122" s="3" t="s">
         <v>121</v>
       </c>
@@ -4050,13 +4128,13 @@
       <c r="G122" s="3">
         <v>15</v>
       </c>
-      <c r="K122" s="34"/>
+      <c r="K122" s="29"/>
     </row>
     <row r="123" spans="1:11">
-      <c r="A123" s="24">
+      <c r="A123" s="33">
         <v>42</v>
       </c>
-      <c r="B123" s="30" t="s">
+      <c r="B123" s="32" t="s">
         <v>124</v>
       </c>
       <c r="C123" s="3" t="s">
@@ -4074,13 +4152,13 @@
       <c r="G123" s="3">
         <v>20</v>
       </c>
-      <c r="K123" s="32">
+      <c r="K123" s="27">
         <v>45545</v>
       </c>
     </row>
     <row r="124" spans="1:11">
-      <c r="A124" s="25"/>
-      <c r="B124" s="30"/>
+      <c r="A124" s="34"/>
+      <c r="B124" s="32"/>
       <c r="C124" s="3" t="s">
         <v>123</v>
       </c>
@@ -4096,11 +4174,11 @@
       <c r="G124" s="5">
         <v>50</v>
       </c>
-      <c r="K124" s="33"/>
+      <c r="K124" s="28"/>
     </row>
     <row r="125" spans="1:11">
-      <c r="A125" s="26"/>
-      <c r="B125" s="30"/>
+      <c r="A125" s="35"/>
+      <c r="B125" s="32"/>
       <c r="C125" s="3" t="s">
         <v>121</v>
       </c>
@@ -4116,13 +4194,13 @@
       <c r="G125" s="3">
         <v>50</v>
       </c>
-      <c r="K125" s="34"/>
+      <c r="K125" s="29"/>
     </row>
     <row r="126" spans="1:11">
-      <c r="A126" s="24">
+      <c r="A126" s="33">
         <v>43</v>
       </c>
-      <c r="B126" s="30" t="s">
+      <c r="B126" s="32" t="s">
         <v>127</v>
       </c>
       <c r="C126" s="3" t="s">
@@ -4140,13 +4218,13 @@
       <c r="G126" s="3">
         <v>20</v>
       </c>
-      <c r="K126" s="32">
+      <c r="K126" s="27">
         <v>45546</v>
       </c>
     </row>
     <row r="127" spans="1:11">
-      <c r="A127" s="25"/>
-      <c r="B127" s="30"/>
+      <c r="A127" s="34"/>
+      <c r="B127" s="32"/>
       <c r="C127" s="3" t="s">
         <v>125</v>
       </c>
@@ -4162,11 +4240,11 @@
       <c r="G127" s="5">
         <v>60</v>
       </c>
-      <c r="K127" s="33"/>
+      <c r="K127" s="28"/>
     </row>
     <row r="128" spans="1:11">
-      <c r="A128" s="26"/>
-      <c r="B128" s="30"/>
+      <c r="A128" s="35"/>
+      <c r="B128" s="32"/>
       <c r="C128" s="3" t="s">
         <v>126</v>
       </c>
@@ -4182,13 +4260,13 @@
       <c r="G128" s="3">
         <v>60</v>
       </c>
-      <c r="K128" s="34"/>
+      <c r="K128" s="29"/>
     </row>
     <row r="129" spans="1:11">
-      <c r="A129" s="24">
+      <c r="A129" s="33">
         <v>44</v>
       </c>
-      <c r="B129" s="30" t="s">
+      <c r="B129" s="32" t="s">
         <v>129</v>
       </c>
       <c r="C129" s="3" t="s">
@@ -4206,13 +4284,13 @@
       <c r="G129" s="3">
         <v>20</v>
       </c>
-      <c r="K129" s="32">
+      <c r="K129" s="27">
         <v>45545</v>
       </c>
     </row>
     <row r="130" spans="1:11">
-      <c r="A130" s="25"/>
-      <c r="B130" s="30"/>
+      <c r="A130" s="34"/>
+      <c r="B130" s="32"/>
       <c r="C130" s="3" t="s">
         <v>128</v>
       </c>
@@ -4228,11 +4306,11 @@
       <c r="G130" s="5">
         <v>50</v>
       </c>
-      <c r="K130" s="33"/>
+      <c r="K130" s="28"/>
     </row>
     <row r="131" spans="1:11">
-      <c r="A131" s="26"/>
-      <c r="B131" s="30"/>
+      <c r="A131" s="35"/>
+      <c r="B131" s="32"/>
       <c r="C131" s="3" t="s">
         <v>126</v>
       </c>
@@ -4248,7 +4326,7 @@
       <c r="G131" s="3">
         <v>50</v>
       </c>
-      <c r="K131" s="34"/>
+      <c r="K131" s="29"/>
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="13">
@@ -4272,15 +4350,15 @@
       <c r="G132" s="3">
         <v>20</v>
       </c>
-      <c r="K132" s="36">
+      <c r="K132" s="25">
         <v>45545</v>
       </c>
     </row>
     <row r="133" spans="1:11">
-      <c r="A133" s="24">
+      <c r="A133" s="33">
         <v>46</v>
       </c>
-      <c r="B133" s="30" t="s">
+      <c r="B133" s="32" t="s">
         <v>133</v>
       </c>
       <c r="C133" s="3" t="s">
@@ -4298,13 +4376,13 @@
       <c r="G133" s="3">
         <v>20</v>
       </c>
-      <c r="K133" s="32">
+      <c r="K133" s="27">
         <v>45545</v>
       </c>
     </row>
     <row r="134" spans="1:11">
-      <c r="A134" s="25"/>
-      <c r="B134" s="30"/>
+      <c r="A134" s="34"/>
+      <c r="B134" s="32"/>
       <c r="C134" s="3" t="s">
         <v>131</v>
       </c>
@@ -4320,11 +4398,11 @@
       <c r="G134" s="3">
         <v>30</v>
       </c>
-      <c r="K134" s="33"/>
+      <c r="K134" s="28"/>
     </row>
     <row r="135" spans="1:11">
-      <c r="A135" s="26"/>
-      <c r="B135" s="30"/>
+      <c r="A135" s="35"/>
+      <c r="B135" s="32"/>
       <c r="C135" s="3" t="s">
         <v>132</v>
       </c>
@@ -4340,13 +4418,13 @@
       <c r="G135" s="3">
         <v>20</v>
       </c>
-      <c r="K135" s="34"/>
+      <c r="K135" s="29"/>
     </row>
     <row r="136" spans="1:11">
-      <c r="A136" s="24">
+      <c r="A136" s="33">
         <v>47</v>
       </c>
-      <c r="B136" s="30" t="s">
+      <c r="B136" s="32" t="s">
         <v>135</v>
       </c>
       <c r="C136" s="3" t="s">
@@ -4364,13 +4442,13 @@
       <c r="G136" s="3">
         <v>20</v>
       </c>
-      <c r="K136" s="32">
+      <c r="K136" s="27">
         <v>45545</v>
       </c>
     </row>
     <row r="137" spans="1:11">
-      <c r="A137" s="25"/>
-      <c r="B137" s="30"/>
+      <c r="A137" s="34"/>
+      <c r="B137" s="32"/>
       <c r="C137" s="3" t="s">
         <v>8</v>
       </c>
@@ -4387,11 +4465,11 @@
         <v>20</v>
       </c>
       <c r="I137" s="4"/>
-      <c r="K137" s="33"/>
+      <c r="K137" s="28"/>
     </row>
     <row r="138" spans="1:11">
-      <c r="A138" s="26"/>
-      <c r="B138" s="30"/>
+      <c r="A138" s="35"/>
+      <c r="B138" s="32"/>
       <c r="C138" s="3" t="s">
         <v>134</v>
       </c>
@@ -4405,13 +4483,13 @@
         <v>21</v>
       </c>
       <c r="I138" s="4"/>
-      <c r="K138" s="34"/>
+      <c r="K138" s="29"/>
     </row>
     <row r="139" spans="1:11">
-      <c r="A139" s="24">
+      <c r="A139" s="33">
         <v>48</v>
       </c>
-      <c r="B139" s="30" t="s">
+      <c r="B139" s="32" t="s">
         <v>141</v>
       </c>
       <c r="C139" s="3" t="s">
@@ -4430,13 +4508,13 @@
         <v>50</v>
       </c>
       <c r="I139" s="4"/>
-      <c r="K139" s="32">
+      <c r="K139" s="27">
         <v>45545</v>
       </c>
     </row>
     <row r="140" spans="1:11">
-      <c r="A140" s="25"/>
-      <c r="B140" s="30"/>
+      <c r="A140" s="34"/>
+      <c r="B140" s="32"/>
       <c r="C140" s="3" t="s">
         <v>137</v>
       </c>
@@ -4456,11 +4534,11 @@
       <c r="J140" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="K140" s="33"/>
+      <c r="K140" s="28"/>
     </row>
     <row r="141" spans="1:11">
-      <c r="A141" s="25"/>
-      <c r="B141" s="30"/>
+      <c r="A141" s="34"/>
+      <c r="B141" s="32"/>
       <c r="C141" s="3" t="s">
         <v>139</v>
       </c>
@@ -4477,11 +4555,11 @@
         <v>50</v>
       </c>
       <c r="I141" s="4"/>
-      <c r="K141" s="33"/>
+      <c r="K141" s="28"/>
     </row>
     <row r="142" spans="1:11">
-      <c r="A142" s="26"/>
-      <c r="B142" s="30"/>
+      <c r="A142" s="35"/>
+      <c r="B142" s="32"/>
       <c r="C142" s="3" t="s">
         <v>140</v>
       </c>
@@ -4492,13 +4570,13 @@
         <v>21</v>
       </c>
       <c r="I142" s="4"/>
-      <c r="K142" s="34"/>
+      <c r="K142" s="29"/>
     </row>
     <row r="143" spans="1:11">
-      <c r="A143" s="24">
+      <c r="A143" s="33">
         <v>49</v>
       </c>
-      <c r="B143" s="30" t="s">
+      <c r="B143" s="32" t="s">
         <v>146</v>
       </c>
       <c r="C143" s="3" t="s">
@@ -4516,13 +4594,13 @@
       <c r="G143" s="3">
         <v>2</v>
       </c>
-      <c r="K143" s="32">
+      <c r="K143" s="27">
         <v>45545</v>
       </c>
     </row>
     <row r="144" spans="1:11">
-      <c r="A144" s="25"/>
-      <c r="B144" s="30"/>
+      <c r="A144" s="34"/>
+      <c r="B144" s="32"/>
       <c r="C144" s="3" t="s">
         <v>143</v>
       </c>
@@ -4538,11 +4616,11 @@
       <c r="G144" s="3">
         <v>11</v>
       </c>
-      <c r="K144" s="33"/>
+      <c r="K144" s="28"/>
     </row>
     <row r="145" spans="1:11">
-      <c r="A145" s="25"/>
-      <c r="B145" s="30"/>
+      <c r="A145" s="34"/>
+      <c r="B145" s="32"/>
       <c r="C145" s="3" t="s">
         <v>144</v>
       </c>
@@ -4558,11 +4636,11 @@
       <c r="G145" s="3">
         <v>11</v>
       </c>
-      <c r="K145" s="33"/>
+      <c r="K145" s="28"/>
     </row>
     <row r="146" spans="1:11">
-      <c r="A146" s="26"/>
-      <c r="B146" s="30"/>
+      <c r="A146" s="35"/>
+      <c r="B146" s="32"/>
       <c r="C146" s="3" t="s">
         <v>145</v>
       </c>
@@ -4578,13 +4656,13 @@
       <c r="G146" s="3">
         <v>20</v>
       </c>
-      <c r="K146" s="34"/>
+      <c r="K146" s="29"/>
     </row>
     <row r="147" spans="1:11">
-      <c r="A147" s="24">
-        <v>50</v>
-      </c>
-      <c r="B147" s="30" t="s">
+      <c r="A147" s="33">
+        <v>50</v>
+      </c>
+      <c r="B147" s="32" t="s">
         <v>149</v>
       </c>
       <c r="C147" s="3" t="s">
@@ -4602,13 +4680,13 @@
       <c r="G147" s="3">
         <v>2</v>
       </c>
-      <c r="K147" s="32">
+      <c r="K147" s="27">
         <v>45545</v>
       </c>
     </row>
     <row r="148" spans="1:11">
-      <c r="A148" s="26"/>
-      <c r="B148" s="30"/>
+      <c r="A148" s="35"/>
+      <c r="B148" s="32"/>
       <c r="C148" s="3" t="s">
         <v>148</v>
       </c>
@@ -4624,13 +4702,13 @@
       <c r="G148" s="3">
         <v>50</v>
       </c>
-      <c r="K148" s="34"/>
+      <c r="K148" s="29"/>
     </row>
     <row r="149" spans="1:11">
-      <c r="A149" s="24">
+      <c r="A149" s="33">
         <v>51</v>
       </c>
-      <c r="B149" s="30" t="s">
+      <c r="B149" s="32" t="s">
         <v>153</v>
       </c>
       <c r="C149" s="3" t="s">
@@ -4648,13 +4726,13 @@
       <c r="G149" s="3">
         <v>20</v>
       </c>
-      <c r="K149" s="32">
+      <c r="K149" s="27">
         <v>45545</v>
       </c>
     </row>
     <row r="150" spans="1:11">
-      <c r="A150" s="25"/>
-      <c r="B150" s="30"/>
+      <c r="A150" s="34"/>
+      <c r="B150" s="32"/>
       <c r="C150" s="10" t="s">
         <v>150</v>
       </c>
@@ -4670,11 +4748,11 @@
       <c r="G150" s="3">
         <v>5</v>
       </c>
-      <c r="K150" s="33"/>
+      <c r="K150" s="28"/>
     </row>
     <row r="151" spans="1:11">
-      <c r="A151" s="25"/>
-      <c r="B151" s="30"/>
+      <c r="A151" s="34"/>
+      <c r="B151" s="32"/>
       <c r="C151" s="3" t="s">
         <v>151</v>
       </c>
@@ -4690,11 +4768,11 @@
       <c r="G151" s="3">
         <v>50</v>
       </c>
-      <c r="K151" s="33"/>
+      <c r="K151" s="28"/>
     </row>
     <row r="152" spans="1:11">
-      <c r="A152" s="26"/>
-      <c r="B152" s="30"/>
+      <c r="A152" s="35"/>
+      <c r="B152" s="32"/>
       <c r="C152" s="3" t="s">
         <v>152</v>
       </c>
@@ -4704,7 +4782,7 @@
       <c r="F152" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K152" s="34"/>
+      <c r="K152" s="29"/>
     </row>
     <row r="153" spans="1:11">
       <c r="A153" s="13">
@@ -4728,15 +4806,15 @@
       <c r="G153" s="3">
         <v>20</v>
       </c>
-      <c r="K153" s="37">
+      <c r="K153" s="26">
         <v>45545</v>
       </c>
     </row>
     <row r="154" spans="1:11">
-      <c r="A154" s="24">
+      <c r="A154" s="33">
         <v>53</v>
       </c>
-      <c r="B154" s="30" t="s">
+      <c r="B154" s="32" t="s">
         <v>156</v>
       </c>
       <c r="C154" s="3" t="s">
@@ -4754,13 +4832,13 @@
       <c r="G154" s="3">
         <v>30</v>
       </c>
-      <c r="K154" s="32">
+      <c r="K154" s="27">
         <v>45545</v>
       </c>
     </row>
     <row r="155" spans="1:11">
-      <c r="A155" s="26"/>
-      <c r="B155" s="30"/>
+      <c r="A155" s="35"/>
+      <c r="B155" s="32"/>
       <c r="C155" s="3" t="s">
         <v>50</v>
       </c>
@@ -4776,13 +4854,13 @@
       <c r="G155" s="3">
         <v>20</v>
       </c>
-      <c r="K155" s="34"/>
+      <c r="K155" s="29"/>
     </row>
     <row r="156" spans="1:11">
-      <c r="A156" s="24">
+      <c r="A156" s="33">
         <v>54</v>
       </c>
-      <c r="B156" s="30" t="s">
+      <c r="B156" s="32" t="s">
         <v>155</v>
       </c>
       <c r="C156" s="3" t="s">
@@ -4800,13 +4878,13 @@
       <c r="G156" s="3">
         <v>20</v>
       </c>
-      <c r="K156" s="32">
+      <c r="K156" s="27">
         <v>45545</v>
       </c>
     </row>
     <row r="157" spans="1:11">
-      <c r="A157" s="26"/>
-      <c r="B157" s="30"/>
+      <c r="A157" s="35"/>
+      <c r="B157" s="32"/>
       <c r="C157" s="3" t="s">
         <v>155</v>
       </c>
@@ -4822,7 +4900,7 @@
       <c r="G157" s="3">
         <v>50</v>
       </c>
-      <c r="K157" s="34"/>
+      <c r="K157" s="29"/>
     </row>
     <row r="158" spans="1:11">
       <c r="A158" s="13">
@@ -4846,15 +4924,15 @@
       <c r="G158" s="3">
         <v>100</v>
       </c>
-      <c r="K158" s="37">
+      <c r="K158" s="26">
         <v>45552</v>
       </c>
     </row>
     <row r="159" spans="1:11">
-      <c r="A159" s="24">
+      <c r="A159" s="33">
         <v>56</v>
       </c>
-      <c r="B159" s="30" t="s">
+      <c r="B159" s="32" t="s">
         <v>160</v>
       </c>
       <c r="C159" s="3" t="s">
@@ -4872,13 +4950,13 @@
       <c r="G159" s="3">
         <v>20</v>
       </c>
-      <c r="K159" s="32">
+      <c r="K159" s="27">
         <v>45546</v>
       </c>
     </row>
     <row r="160" spans="1:11">
-      <c r="A160" s="26"/>
-      <c r="B160" s="30"/>
+      <c r="A160" s="35"/>
+      <c r="B160" s="32"/>
       <c r="C160" s="3" t="s">
         <v>159</v>
       </c>
@@ -4894,13 +4972,13 @@
       <c r="G160" s="3">
         <v>3</v>
       </c>
-      <c r="K160" s="34"/>
+      <c r="K160" s="29"/>
     </row>
     <row r="161" spans="1:11">
-      <c r="A161" s="24">
+      <c r="A161" s="33">
         <v>57</v>
       </c>
-      <c r="B161" s="30" t="s">
+      <c r="B161" s="32" t="s">
         <v>162</v>
       </c>
       <c r="C161" s="3" t="s">
@@ -4918,13 +4996,13 @@
       <c r="G161" s="3">
         <v>20</v>
       </c>
-      <c r="K161" s="32">
+      <c r="K161" s="27">
         <v>45546</v>
       </c>
     </row>
     <row r="162" spans="1:11">
-      <c r="A162" s="26"/>
-      <c r="B162" s="30"/>
+      <c r="A162" s="35"/>
+      <c r="B162" s="32"/>
       <c r="C162" s="3" t="s">
         <v>161</v>
       </c>
@@ -4940,13 +5018,13 @@
       <c r="G162" s="3">
         <v>50</v>
       </c>
-      <c r="K162" s="34"/>
+      <c r="K162" s="29"/>
     </row>
     <row r="163" spans="1:11">
-      <c r="A163" s="24">
+      <c r="A163" s="33">
         <v>58</v>
       </c>
-      <c r="B163" s="30" t="s">
+      <c r="B163" s="32" t="s">
         <v>165</v>
       </c>
       <c r="C163" s="3" t="s">
@@ -4964,13 +5042,13 @@
       <c r="G163" s="3">
         <v>20</v>
       </c>
-      <c r="K163" s="32">
+      <c r="K163" s="27">
         <v>45546</v>
       </c>
     </row>
     <row r="164" spans="1:11">
-      <c r="A164" s="25"/>
-      <c r="B164" s="30"/>
+      <c r="A164" s="34"/>
+      <c r="B164" s="32"/>
       <c r="C164" s="3" t="s">
         <v>163</v>
       </c>
@@ -4986,11 +5064,11 @@
       <c r="G164" s="3">
         <v>25</v>
       </c>
-      <c r="K164" s="33"/>
+      <c r="K164" s="28"/>
     </row>
     <row r="165" spans="1:11">
-      <c r="A165" s="26"/>
-      <c r="B165" s="30"/>
+      <c r="A165" s="35"/>
+      <c r="B165" s="32"/>
       <c r="C165" s="3" t="s">
         <v>164</v>
       </c>
@@ -5000,13 +5078,13 @@
       <c r="F165" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="K165" s="34"/>
+      <c r="K165" s="29"/>
     </row>
     <row r="166" spans="1:11">
-      <c r="A166" s="24">
+      <c r="A166" s="33">
         <v>59</v>
       </c>
-      <c r="B166" s="30" t="s">
+      <c r="B166" s="32" t="s">
         <v>169</v>
       </c>
       <c r="C166" s="3" t="s">
@@ -5024,13 +5102,13 @@
       <c r="G166" s="3">
         <v>20</v>
       </c>
-      <c r="K166" s="32">
+      <c r="K166" s="27">
         <v>45546</v>
       </c>
     </row>
     <row r="167" spans="1:11">
-      <c r="A167" s="25"/>
-      <c r="B167" s="30"/>
+      <c r="A167" s="34"/>
+      <c r="B167" s="32"/>
       <c r="C167" s="3" t="s">
         <v>166</v>
       </c>
@@ -5046,11 +5124,11 @@
       <c r="G167" s="3">
         <v>10</v>
       </c>
-      <c r="K167" s="33"/>
+      <c r="K167" s="28"/>
     </row>
     <row r="168" spans="1:11">
-      <c r="A168" s="25"/>
-      <c r="B168" s="30"/>
+      <c r="A168" s="34"/>
+      <c r="B168" s="32"/>
       <c r="C168" s="3" t="s">
         <v>167</v>
       </c>
@@ -5066,11 +5144,11 @@
       <c r="G168" s="3">
         <v>10</v>
       </c>
-      <c r="K168" s="33"/>
+      <c r="K168" s="28"/>
     </row>
     <row r="169" spans="1:11">
-      <c r="A169" s="26"/>
-      <c r="B169" s="30"/>
+      <c r="A169" s="35"/>
+      <c r="B169" s="32"/>
       <c r="C169" s="3" t="s">
         <v>168</v>
       </c>
@@ -5086,13 +5164,13 @@
       <c r="G169" s="3">
         <v>2</v>
       </c>
-      <c r="K169" s="34"/>
+      <c r="K169" s="29"/>
     </row>
     <row r="170" spans="1:11">
-      <c r="A170" s="24">
+      <c r="A170" s="33">
         <v>60</v>
       </c>
-      <c r="B170" s="30" t="s">
+      <c r="B170" s="32" t="s">
         <v>170</v>
       </c>
       <c r="C170" s="3" t="s">
@@ -5110,13 +5188,13 @@
       <c r="G170" s="3">
         <v>20</v>
       </c>
-      <c r="K170" s="32">
+      <c r="K170" s="27">
         <v>45546</v>
       </c>
     </row>
     <row r="171" spans="1:11">
-      <c r="A171" s="26"/>
-      <c r="B171" s="30"/>
+      <c r="A171" s="35"/>
+      <c r="B171" s="32"/>
       <c r="C171" s="3" t="s">
         <v>71</v>
       </c>
@@ -5129,13 +5207,13 @@
       <c r="F171" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K171" s="34"/>
+      <c r="K171" s="29"/>
     </row>
     <row r="172" spans="1:11">
-      <c r="A172" s="24">
+      <c r="A172" s="33">
         <v>61</v>
       </c>
-      <c r="B172" s="30" t="s">
+      <c r="B172" s="32" t="s">
         <v>171</v>
       </c>
       <c r="C172" s="3" t="s">
@@ -5153,13 +5231,13 @@
       <c r="G172" s="3">
         <v>20</v>
       </c>
-      <c r="K172" s="32">
+      <c r="K172" s="27">
         <v>45546</v>
       </c>
     </row>
     <row r="173" spans="1:11">
-      <c r="A173" s="25"/>
-      <c r="B173" s="30"/>
+      <c r="A173" s="34"/>
+      <c r="B173" s="32"/>
       <c r="C173" s="3" t="s">
         <v>166</v>
       </c>
@@ -5175,11 +5253,11 @@
       <c r="G173" s="3">
         <v>10</v>
       </c>
-      <c r="K173" s="33"/>
+      <c r="K173" s="28"/>
     </row>
     <row r="174" spans="1:11">
-      <c r="A174" s="25"/>
-      <c r="B174" s="30"/>
+      <c r="A174" s="34"/>
+      <c r="B174" s="32"/>
       <c r="C174" s="3" t="s">
         <v>167</v>
       </c>
@@ -5195,11 +5273,11 @@
       <c r="G174" s="3">
         <v>10</v>
       </c>
-      <c r="K174" s="33"/>
+      <c r="K174" s="28"/>
     </row>
     <row r="175" spans="1:11">
-      <c r="A175" s="26"/>
-      <c r="B175" s="30"/>
+      <c r="A175" s="35"/>
+      <c r="B175" s="32"/>
       <c r="C175" s="3" t="s">
         <v>168</v>
       </c>
@@ -5215,13 +5293,13 @@
       <c r="G175" s="3">
         <v>2</v>
       </c>
-      <c r="K175" s="34"/>
+      <c r="K175" s="29"/>
     </row>
     <row r="176" spans="1:11">
-      <c r="A176" s="24">
+      <c r="A176" s="33">
         <v>62</v>
       </c>
-      <c r="B176" s="30" t="s">
+      <c r="B176" s="32" t="s">
         <v>174</v>
       </c>
       <c r="C176" s="3" t="s">
@@ -5239,13 +5317,13 @@
       <c r="G176" s="3">
         <v>20</v>
       </c>
-      <c r="K176" s="32">
+      <c r="K176" s="27">
         <v>45546</v>
       </c>
     </row>
     <row r="177" spans="1:11">
-      <c r="A177" s="25"/>
-      <c r="B177" s="30"/>
+      <c r="A177" s="34"/>
+      <c r="B177" s="32"/>
       <c r="C177" s="3" t="s">
         <v>8</v>
       </c>
@@ -5261,11 +5339,11 @@
       <c r="G177" s="3">
         <v>20</v>
       </c>
-      <c r="K177" s="33"/>
+      <c r="K177" s="28"/>
     </row>
     <row r="178" spans="1:11">
-      <c r="A178" s="26"/>
-      <c r="B178" s="30"/>
+      <c r="A178" s="35"/>
+      <c r="B178" s="32"/>
       <c r="C178" s="3" t="s">
         <v>173</v>
       </c>
@@ -5281,13 +5359,13 @@
       <c r="G178" s="3">
         <v>3</v>
       </c>
-      <c r="K178" s="34"/>
+      <c r="K178" s="29"/>
     </row>
     <row r="179" spans="1:11">
-      <c r="A179" s="24">
+      <c r="A179" s="33">
         <v>63</v>
       </c>
-      <c r="B179" s="31" t="s">
+      <c r="B179" s="36" t="s">
         <v>187</v>
       </c>
       <c r="C179" s="3" t="s">
@@ -5299,13 +5377,13 @@
       <c r="F179" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K179" s="32">
+      <c r="K179" s="27">
         <v>45551</v>
       </c>
     </row>
     <row r="180" spans="1:11">
-      <c r="A180" s="25"/>
-      <c r="B180" s="31"/>
+      <c r="A180" s="34"/>
+      <c r="B180" s="36"/>
       <c r="C180" s="3" t="s">
         <v>176</v>
       </c>
@@ -5321,11 +5399,11 @@
       <c r="G180" s="3">
         <v>3000</v>
       </c>
-      <c r="K180" s="33"/>
+      <c r="K180" s="28"/>
     </row>
     <row r="181" spans="1:11">
-      <c r="A181" s="25"/>
-      <c r="B181" s="31"/>
+      <c r="A181" s="34"/>
+      <c r="B181" s="36"/>
       <c r="C181" s="3" t="s">
         <v>177</v>
       </c>
@@ -5341,11 +5419,11 @@
       <c r="G181" s="3">
         <v>3000</v>
       </c>
-      <c r="K181" s="33"/>
+      <c r="K181" s="28"/>
     </row>
     <row r="182" spans="1:11">
-      <c r="A182" s="25"/>
-      <c r="B182" s="31"/>
+      <c r="A182" s="34"/>
+      <c r="B182" s="36"/>
       <c r="C182" s="3" t="s">
         <v>178</v>
       </c>
@@ -5361,11 +5439,11 @@
       <c r="G182" s="3">
         <v>3000</v>
       </c>
-      <c r="K182" s="33"/>
+      <c r="K182" s="28"/>
     </row>
     <row r="183" spans="1:11">
-      <c r="A183" s="25"/>
-      <c r="B183" s="31"/>
+      <c r="A183" s="34"/>
+      <c r="B183" s="36"/>
       <c r="C183" s="3" t="s">
         <v>179</v>
       </c>
@@ -5381,11 +5459,11 @@
       <c r="G183" s="3">
         <v>3000</v>
       </c>
-      <c r="K183" s="33"/>
+      <c r="K183" s="28"/>
     </row>
     <row r="184" spans="1:11">
-      <c r="A184" s="25"/>
-      <c r="B184" s="31"/>
+      <c r="A184" s="34"/>
+      <c r="B184" s="36"/>
       <c r="C184" s="3" t="s">
         <v>180</v>
       </c>
@@ -5401,11 +5479,11 @@
       <c r="G184" s="3">
         <v>3000</v>
       </c>
-      <c r="K184" s="33"/>
+      <c r="K184" s="28"/>
     </row>
     <row r="185" spans="1:11">
-      <c r="A185" s="25"/>
-      <c r="B185" s="31"/>
+      <c r="A185" s="34"/>
+      <c r="B185" s="36"/>
       <c r="C185" s="3" t="s">
         <v>181</v>
       </c>
@@ -5421,11 +5499,11 @@
       <c r="G185" s="3">
         <v>3000</v>
       </c>
-      <c r="K185" s="33"/>
+      <c r="K185" s="28"/>
     </row>
     <row r="186" spans="1:11">
-      <c r="A186" s="25"/>
-      <c r="B186" s="31"/>
+      <c r="A186" s="34"/>
+      <c r="B186" s="36"/>
       <c r="C186" s="3" t="s">
         <v>182</v>
       </c>
@@ -5441,11 +5519,11 @@
       <c r="G186" s="3">
         <v>3000</v>
       </c>
-      <c r="K186" s="33"/>
+      <c r="K186" s="28"/>
     </row>
     <row r="187" spans="1:11">
-      <c r="A187" s="25"/>
-      <c r="B187" s="31"/>
+      <c r="A187" s="34"/>
+      <c r="B187" s="36"/>
       <c r="C187" s="3" t="s">
         <v>183</v>
       </c>
@@ -5461,11 +5539,11 @@
       <c r="G187" s="3">
         <v>3000</v>
       </c>
-      <c r="K187" s="33"/>
+      <c r="K187" s="28"/>
     </row>
     <row r="188" spans="1:11">
-      <c r="A188" s="25"/>
-      <c r="B188" s="31"/>
+      <c r="A188" s="34"/>
+      <c r="B188" s="36"/>
       <c r="C188" s="3" t="s">
         <v>184</v>
       </c>
@@ -5481,11 +5559,11 @@
       <c r="G188" s="3">
         <v>3000</v>
       </c>
-      <c r="K188" s="33"/>
+      <c r="K188" s="28"/>
     </row>
     <row r="189" spans="1:11">
-      <c r="A189" s="25"/>
-      <c r="B189" s="31"/>
+      <c r="A189" s="34"/>
+      <c r="B189" s="36"/>
       <c r="C189" s="3" t="s">
         <v>185</v>
       </c>
@@ -5501,11 +5579,11 @@
       <c r="G189" s="3">
         <v>3000</v>
       </c>
-      <c r="K189" s="33"/>
+      <c r="K189" s="28"/>
     </row>
     <row r="190" spans="1:11">
-      <c r="A190" s="25"/>
-      <c r="B190" s="31"/>
+      <c r="A190" s="34"/>
+      <c r="B190" s="36"/>
       <c r="C190" s="3" t="s">
         <v>6</v>
       </c>
@@ -5521,11 +5599,11 @@
       <c r="G190" s="6">
         <v>20</v>
       </c>
-      <c r="K190" s="33"/>
+      <c r="K190" s="28"/>
     </row>
     <row r="191" spans="1:11">
-      <c r="A191" s="25"/>
-      <c r="B191" s="31"/>
+      <c r="A191" s="34"/>
+      <c r="B191" s="36"/>
       <c r="C191" s="3" t="s">
         <v>8</v>
       </c>
@@ -5541,11 +5619,11 @@
       <c r="G191" s="6">
         <v>20</v>
       </c>
-      <c r="K191" s="33"/>
+      <c r="K191" s="28"/>
     </row>
     <row r="192" spans="1:11">
-      <c r="A192" s="26"/>
-      <c r="B192" s="31"/>
+      <c r="A192" s="35"/>
+      <c r="B192" s="36"/>
       <c r="C192" s="3" t="s">
         <v>186</v>
       </c>
@@ -5558,13 +5636,13 @@
       <c r="F192" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="K192" s="34"/>
+      <c r="K192" s="29"/>
     </row>
     <row r="193" spans="1:11">
-      <c r="A193" s="24">
+      <c r="A193" s="33">
         <v>64</v>
       </c>
-      <c r="B193" s="30" t="s">
+      <c r="B193" s="32" t="s">
         <v>188</v>
       </c>
       <c r="C193" s="3" t="s">
@@ -5582,13 +5660,13 @@
       <c r="G193" s="3">
         <v>20</v>
       </c>
-      <c r="K193" s="32">
+      <c r="K193" s="27">
         <v>45546</v>
       </c>
     </row>
     <row r="194" spans="1:11">
-      <c r="A194" s="25"/>
-      <c r="B194" s="30"/>
+      <c r="A194" s="34"/>
+      <c r="B194" s="32"/>
       <c r="C194" s="3" t="s">
         <v>8</v>
       </c>
@@ -5604,11 +5682,11 @@
       <c r="G194" s="3">
         <v>20</v>
       </c>
-      <c r="K194" s="33"/>
+      <c r="K194" s="28"/>
     </row>
     <row r="195" spans="1:11">
-      <c r="A195" s="26"/>
-      <c r="B195" s="30"/>
+      <c r="A195" s="35"/>
+      <c r="B195" s="32"/>
       <c r="C195" s="3" t="s">
         <v>71</v>
       </c>
@@ -5621,13 +5699,13 @@
       <c r="F195" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K195" s="34"/>
+      <c r="K195" s="29"/>
     </row>
     <row r="196" spans="1:11">
-      <c r="A196" s="24">
+      <c r="A196" s="33">
         <v>65</v>
       </c>
-      <c r="B196" s="30" t="s">
+      <c r="B196" s="32" t="s">
         <v>189</v>
       </c>
       <c r="C196" s="3" t="s">
@@ -5645,13 +5723,13 @@
       <c r="G196" s="3">
         <v>20</v>
       </c>
-      <c r="K196" s="32">
+      <c r="K196" s="27">
         <v>45546</v>
       </c>
     </row>
     <row r="197" spans="1:11">
-      <c r="A197" s="25"/>
-      <c r="B197" s="30"/>
+      <c r="A197" s="34"/>
+      <c r="B197" s="32"/>
       <c r="C197" s="3" t="s">
         <v>8</v>
       </c>
@@ -5667,11 +5745,11 @@
       <c r="G197" s="3">
         <v>20</v>
       </c>
-      <c r="K197" s="33"/>
+      <c r="K197" s="28"/>
     </row>
     <row r="198" spans="1:11">
-      <c r="A198" s="26"/>
-      <c r="B198" s="30"/>
+      <c r="A198" s="35"/>
+      <c r="B198" s="32"/>
       <c r="C198" s="3" t="s">
         <v>71</v>
       </c>
@@ -5684,13 +5762,13 @@
       <c r="F198" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K198" s="34"/>
+      <c r="K198" s="29"/>
     </row>
     <row r="199" spans="1:11">
-      <c r="A199" s="24">
+      <c r="A199" s="33">
         <v>66</v>
       </c>
-      <c r="B199" s="30" t="s">
+      <c r="B199" s="32" t="s">
         <v>192</v>
       </c>
       <c r="C199" s="3" t="s">
@@ -5708,13 +5786,13 @@
       <c r="G199" s="3">
         <v>20</v>
       </c>
-      <c r="K199" s="32">
+      <c r="K199" s="27">
         <v>45546</v>
       </c>
     </row>
     <row r="200" spans="1:11">
-      <c r="A200" s="25"/>
-      <c r="B200" s="30"/>
+      <c r="A200" s="34"/>
+      <c r="B200" s="32"/>
       <c r="C200" s="3" t="s">
         <v>190</v>
       </c>
@@ -5730,11 +5808,11 @@
       <c r="G200" s="3">
         <v>40</v>
       </c>
-      <c r="K200" s="33"/>
+      <c r="K200" s="28"/>
     </row>
     <row r="201" spans="1:11">
-      <c r="A201" s="26"/>
-      <c r="B201" s="30"/>
+      <c r="A201" s="35"/>
+      <c r="B201" s="32"/>
       <c r="C201" s="3" t="s">
         <v>191</v>
       </c>
@@ -5750,13 +5828,13 @@
       <c r="G201" s="3">
         <v>40</v>
       </c>
-      <c r="K201" s="34"/>
+      <c r="K201" s="29"/>
     </row>
     <row r="202" spans="1:11">
-      <c r="A202" s="24">
+      <c r="A202" s="33">
         <v>67</v>
       </c>
-      <c r="B202" s="30" t="s">
+      <c r="B202" s="32" t="s">
         <v>195</v>
       </c>
       <c r="C202" s="3" t="s">
@@ -5774,13 +5852,13 @@
       <c r="G202" s="3">
         <v>20</v>
       </c>
-      <c r="K202" s="32">
+      <c r="K202" s="27">
         <v>45546</v>
       </c>
     </row>
     <row r="203" spans="1:11">
-      <c r="A203" s="25"/>
-      <c r="B203" s="30"/>
+      <c r="A203" s="34"/>
+      <c r="B203" s="32"/>
       <c r="C203" s="3" t="s">
         <v>193</v>
       </c>
@@ -5796,11 +5874,11 @@
       <c r="G203" s="3">
         <v>30</v>
       </c>
-      <c r="K203" s="33"/>
+      <c r="K203" s="28"/>
     </row>
     <row r="204" spans="1:11">
-      <c r="A204" s="26"/>
-      <c r="B204" s="30"/>
+      <c r="A204" s="35"/>
+      <c r="B204" s="32"/>
       <c r="C204" s="3" t="s">
         <v>194</v>
       </c>
@@ -5816,13 +5894,13 @@
       <c r="G204" s="3">
         <v>30</v>
       </c>
-      <c r="K204" s="34"/>
+      <c r="K204" s="29"/>
     </row>
     <row r="205" spans="1:11">
-      <c r="A205" s="24">
+      <c r="A205" s="33">
         <v>68</v>
       </c>
-      <c r="B205" s="30" t="s">
+      <c r="B205" s="32" t="s">
         <v>198</v>
       </c>
       <c r="C205" s="3" t="s">
@@ -5840,13 +5918,13 @@
       <c r="G205" s="3">
         <v>20</v>
       </c>
-      <c r="K205" s="32">
+      <c r="K205" s="27">
         <v>45546</v>
       </c>
     </row>
     <row r="206" spans="1:11">
-      <c r="A206" s="25"/>
-      <c r="B206" s="30"/>
+      <c r="A206" s="34"/>
+      <c r="B206" s="32"/>
       <c r="C206" s="3" t="s">
         <v>196</v>
       </c>
@@ -5862,11 +5940,11 @@
       <c r="G206" s="3">
         <v>30</v>
       </c>
-      <c r="K206" s="33"/>
+      <c r="K206" s="28"/>
     </row>
     <row r="207" spans="1:11">
-      <c r="A207" s="26"/>
-      <c r="B207" s="30"/>
+      <c r="A207" s="35"/>
+      <c r="B207" s="32"/>
       <c r="C207" s="3" t="s">
         <v>197</v>
       </c>
@@ -5882,13 +5960,13 @@
       <c r="G207" s="3">
         <v>30</v>
       </c>
-      <c r="K207" s="34"/>
+      <c r="K207" s="29"/>
     </row>
     <row r="208" spans="1:11">
-      <c r="A208" s="24">
+      <c r="A208" s="33">
         <v>69</v>
       </c>
-      <c r="B208" s="30" t="s">
+      <c r="B208" s="32" t="s">
         <v>201</v>
       </c>
       <c r="C208" s="3" t="s">
@@ -5906,13 +5984,13 @@
       <c r="G208" s="3">
         <v>20</v>
       </c>
-      <c r="K208" s="32">
+      <c r="K208" s="27">
         <v>45546</v>
       </c>
     </row>
     <row r="209" spans="1:11">
-      <c r="A209" s="25"/>
-      <c r="B209" s="30"/>
+      <c r="A209" s="34"/>
+      <c r="B209" s="32"/>
       <c r="C209" s="3" t="s">
         <v>199</v>
       </c>
@@ -5928,11 +6006,11 @@
       <c r="G209" s="3">
         <v>30</v>
       </c>
-      <c r="K209" s="33"/>
+      <c r="K209" s="28"/>
     </row>
     <row r="210" spans="1:11">
-      <c r="A210" s="26"/>
-      <c r="B210" s="30"/>
+      <c r="A210" s="35"/>
+      <c r="B210" s="32"/>
       <c r="C210" s="3" t="s">
         <v>200</v>
       </c>
@@ -5948,13 +6026,13 @@
       <c r="G210" s="3">
         <v>30</v>
       </c>
-      <c r="K210" s="34"/>
+      <c r="K210" s="29"/>
     </row>
     <row r="211" spans="1:11">
-      <c r="A211" s="24">
+      <c r="A211" s="33">
         <v>70</v>
       </c>
-      <c r="B211" s="30" t="s">
+      <c r="B211" s="32" t="s">
         <v>204</v>
       </c>
       <c r="C211" s="3" t="s">
@@ -5972,13 +6050,13 @@
       <c r="G211" s="3">
         <v>20</v>
       </c>
-      <c r="K211" s="32">
+      <c r="K211" s="27">
         <v>45546</v>
       </c>
     </row>
     <row r="212" spans="1:11">
-      <c r="A212" s="25"/>
-      <c r="B212" s="30"/>
+      <c r="A212" s="34"/>
+      <c r="B212" s="32"/>
       <c r="C212" s="3" t="s">
         <v>202</v>
       </c>
@@ -5994,11 +6072,11 @@
       <c r="G212" s="3">
         <v>60</v>
       </c>
-      <c r="K212" s="33"/>
+      <c r="K212" s="28"/>
     </row>
     <row r="213" spans="1:11">
-      <c r="A213" s="26"/>
-      <c r="B213" s="30"/>
+      <c r="A213" s="35"/>
+      <c r="B213" s="32"/>
       <c r="C213" s="3" t="s">
         <v>203</v>
       </c>
@@ -6014,13 +6092,13 @@
       <c r="G213" s="3">
         <v>60</v>
       </c>
-      <c r="K213" s="34"/>
+      <c r="K213" s="29"/>
     </row>
     <row r="214" spans="1:11">
-      <c r="A214" s="24">
+      <c r="A214" s="33">
         <v>71</v>
       </c>
-      <c r="B214" s="30" t="s">
+      <c r="B214" s="32" t="s">
         <v>205</v>
       </c>
       <c r="C214" s="11" t="s">
@@ -6038,13 +6116,13 @@
       <c r="G214" s="11">
         <v>20</v>
       </c>
-      <c r="K214" s="32">
+      <c r="K214" s="27">
         <v>45546</v>
       </c>
     </row>
     <row r="215" spans="1:11">
-      <c r="A215" s="25"/>
-      <c r="B215" s="30"/>
+      <c r="A215" s="34"/>
+      <c r="B215" s="32"/>
       <c r="C215" s="11" t="s">
         <v>202</v>
       </c>
@@ -6060,11 +6138,11 @@
       <c r="G215" s="11">
         <v>60</v>
       </c>
-      <c r="K215" s="33"/>
+      <c r="K215" s="28"/>
     </row>
     <row r="216" spans="1:11">
-      <c r="A216" s="26"/>
-      <c r="B216" s="30"/>
+      <c r="A216" s="35"/>
+      <c r="B216" s="32"/>
       <c r="C216" s="11" t="s">
         <v>203</v>
       </c>
@@ -6080,13 +6158,13 @@
       <c r="G216" s="11">
         <v>60</v>
       </c>
-      <c r="K216" s="34"/>
+      <c r="K216" s="29"/>
     </row>
     <row r="217" spans="1:11">
-      <c r="A217" s="24">
+      <c r="A217" s="33">
         <v>72</v>
       </c>
-      <c r="B217" s="24" t="s">
+      <c r="B217" s="33" t="s">
         <v>209</v>
       </c>
       <c r="C217" s="3" t="s">
@@ -6104,13 +6182,13 @@
       <c r="G217" s="3">
         <v>20</v>
       </c>
-      <c r="K217" s="32">
+      <c r="K217" s="27">
         <v>45546</v>
       </c>
     </row>
     <row r="218" spans="1:11">
-      <c r="A218" s="25"/>
-      <c r="B218" s="25"/>
+      <c r="A218" s="34"/>
+      <c r="B218" s="34"/>
       <c r="C218" s="3" t="s">
         <v>206</v>
       </c>
@@ -6126,11 +6204,11 @@
       <c r="G218" s="3">
         <v>60</v>
       </c>
-      <c r="K218" s="33"/>
+      <c r="K218" s="28"/>
     </row>
     <row r="219" spans="1:11" s="4" customFormat="1" ht="30" customHeight="1">
-      <c r="A219" s="25"/>
-      <c r="B219" s="25"/>
+      <c r="A219" s="34"/>
+      <c r="B219" s="34"/>
       <c r="C219" s="4" t="s">
         <v>207</v>
       </c>
@@ -6141,11 +6219,11 @@
       <c r="J219" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="K219" s="33"/>
+      <c r="K219" s="28"/>
     </row>
     <row r="220" spans="1:11">
-      <c r="A220" s="26"/>
-      <c r="B220" s="26"/>
+      <c r="A220" s="35"/>
+      <c r="B220" s="35"/>
       <c r="C220" s="3" t="s">
         <v>208</v>
       </c>
@@ -6155,13 +6233,13 @@
       <c r="J220" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="K220" s="34"/>
+      <c r="K220" s="29"/>
     </row>
     <row r="221" spans="1:11">
-      <c r="A221" s="24">
+      <c r="A221" s="33">
         <v>73</v>
       </c>
-      <c r="B221" s="24" t="s">
+      <c r="B221" s="33" t="s">
         <v>211</v>
       </c>
       <c r="C221" s="3" t="s">
@@ -6179,13 +6257,13 @@
       <c r="G221" s="3">
         <v>6</v>
       </c>
-      <c r="K221" s="32">
+      <c r="K221" s="27">
         <v>45551</v>
       </c>
     </row>
     <row r="222" spans="1:11">
-      <c r="A222" s="25"/>
-      <c r="B222" s="25"/>
+      <c r="A222" s="34"/>
+      <c r="B222" s="34"/>
       <c r="C222" s="3" t="s">
         <v>212</v>
       </c>
@@ -6201,11 +6279,11 @@
       <c r="G222" s="3">
         <v>6</v>
       </c>
-      <c r="K222" s="33"/>
+      <c r="K222" s="28"/>
     </row>
     <row r="223" spans="1:11">
-      <c r="A223" s="25"/>
-      <c r="B223" s="25"/>
+      <c r="A223" s="34"/>
+      <c r="B223" s="34"/>
       <c r="C223" s="3" t="s">
         <v>86</v>
       </c>
@@ -6221,11 +6299,11 @@
       <c r="G223" s="3">
         <v>20</v>
       </c>
-      <c r="K223" s="33"/>
+      <c r="K223" s="28"/>
     </row>
     <row r="224" spans="1:11">
-      <c r="A224" s="26"/>
-      <c r="B224" s="26"/>
+      <c r="A224" s="35"/>
+      <c r="B224" s="35"/>
       <c r="C224" s="3" t="s">
         <v>213</v>
       </c>
@@ -6241,13 +6319,13 @@
       <c r="G224" s="3">
         <v>20</v>
       </c>
-      <c r="K224" s="34"/>
+      <c r="K224" s="29"/>
     </row>
     <row r="225" spans="1:11">
-      <c r="A225" s="24">
+      <c r="A225" s="33">
         <v>74</v>
       </c>
-      <c r="B225" s="24" t="s">
+      <c r="B225" s="33" t="s">
         <v>216</v>
       </c>
       <c r="C225" s="3" t="s">
@@ -6265,13 +6343,13 @@
       <c r="G225" s="3">
         <v>20</v>
       </c>
-      <c r="K225" s="32">
+      <c r="K225" s="27">
         <v>45551</v>
       </c>
     </row>
     <row r="226" spans="1:11">
-      <c r="A226" s="25"/>
-      <c r="B226" s="25"/>
+      <c r="A226" s="34"/>
+      <c r="B226" s="34"/>
       <c r="C226" s="3" t="s">
         <v>8</v>
       </c>
@@ -6287,11 +6365,11 @@
       <c r="G226" s="3">
         <v>20</v>
       </c>
-      <c r="K226" s="33"/>
+      <c r="K226" s="28"/>
     </row>
     <row r="227" spans="1:11">
-      <c r="A227" s="25"/>
-      <c r="B227" s="25"/>
+      <c r="A227" s="34"/>
+      <c r="B227" s="34"/>
       <c r="C227" s="3" t="s">
         <v>214</v>
       </c>
@@ -6307,11 +6385,11 @@
       <c r="G227" s="3">
         <v>20</v>
       </c>
-      <c r="K227" s="33"/>
+      <c r="K227" s="28"/>
     </row>
     <row r="228" spans="1:11">
-      <c r="A228" s="26"/>
-      <c r="B228" s="26"/>
+      <c r="A228" s="35"/>
+      <c r="B228" s="35"/>
       <c r="C228" s="3" t="s">
         <v>215</v>
       </c>
@@ -6327,13 +6405,13 @@
       <c r="G228" s="3">
         <v>20</v>
       </c>
-      <c r="K228" s="34"/>
+      <c r="K228" s="29"/>
     </row>
     <row r="229" spans="1:11">
-      <c r="A229" s="24">
+      <c r="A229" s="33">
         <v>75</v>
       </c>
-      <c r="B229" s="24" t="s">
+      <c r="B229" s="33" t="s">
         <v>219</v>
       </c>
       <c r="C229" s="3" t="s">
@@ -6351,13 +6429,13 @@
       <c r="G229" s="3">
         <v>20</v>
       </c>
-      <c r="K229" s="32">
+      <c r="K229" s="27">
         <v>45551</v>
       </c>
     </row>
     <row r="230" spans="1:11">
-      <c r="A230" s="25"/>
-      <c r="B230" s="25"/>
+      <c r="A230" s="34"/>
+      <c r="B230" s="34"/>
       <c r="C230" s="3" t="s">
         <v>217</v>
       </c>
@@ -6373,11 +6451,11 @@
       <c r="G230" s="3">
         <v>20</v>
       </c>
-      <c r="K230" s="33"/>
+      <c r="K230" s="28"/>
     </row>
     <row r="231" spans="1:11">
-      <c r="A231" s="26"/>
-      <c r="B231" s="26"/>
+      <c r="A231" s="35"/>
+      <c r="B231" s="35"/>
       <c r="C231" s="3" t="s">
         <v>218</v>
       </c>
@@ -6393,13 +6471,13 @@
       <c r="G231" s="3">
         <v>20</v>
       </c>
-      <c r="K231" s="34"/>
+      <c r="K231" s="29"/>
     </row>
     <row r="232" spans="1:11">
-      <c r="A232" s="24">
+      <c r="A232" s="33">
         <v>76</v>
       </c>
-      <c r="B232" s="27" t="s">
+      <c r="B232" s="37" t="s">
         <v>220</v>
       </c>
       <c r="C232" s="3" t="s">
@@ -6411,13 +6489,13 @@
       <c r="F232" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K232" s="32">
+      <c r="K232" s="27">
         <v>45551</v>
       </c>
     </row>
     <row r="233" spans="1:11">
-      <c r="A233" s="25"/>
-      <c r="B233" s="28"/>
+      <c r="A233" s="34"/>
+      <c r="B233" s="38"/>
       <c r="C233" s="3" t="s">
         <v>176</v>
       </c>
@@ -6433,11 +6511,11 @@
       <c r="G233" s="3">
         <v>3000</v>
       </c>
-      <c r="K233" s="33"/>
+      <c r="K233" s="28"/>
     </row>
     <row r="234" spans="1:11">
-      <c r="A234" s="25"/>
-      <c r="B234" s="28"/>
+      <c r="A234" s="34"/>
+      <c r="B234" s="38"/>
       <c r="C234" s="3" t="s">
         <v>177</v>
       </c>
@@ -6453,11 +6531,11 @@
       <c r="G234" s="3">
         <v>3000</v>
       </c>
-      <c r="K234" s="33"/>
+      <c r="K234" s="28"/>
     </row>
     <row r="235" spans="1:11">
-      <c r="A235" s="25"/>
-      <c r="B235" s="28"/>
+      <c r="A235" s="34"/>
+      <c r="B235" s="38"/>
       <c r="C235" s="3" t="s">
         <v>178</v>
       </c>
@@ -6473,11 +6551,11 @@
       <c r="G235" s="3">
         <v>3000</v>
       </c>
-      <c r="K235" s="33"/>
+      <c r="K235" s="28"/>
     </row>
     <row r="236" spans="1:11">
-      <c r="A236" s="25"/>
-      <c r="B236" s="28"/>
+      <c r="A236" s="34"/>
+      <c r="B236" s="38"/>
       <c r="C236" s="3" t="s">
         <v>179</v>
       </c>
@@ -6493,11 +6571,11 @@
       <c r="G236" s="3">
         <v>3000</v>
       </c>
-      <c r="K236" s="33"/>
+      <c r="K236" s="28"/>
     </row>
     <row r="237" spans="1:11">
-      <c r="A237" s="25"/>
-      <c r="B237" s="28"/>
+      <c r="A237" s="34"/>
+      <c r="B237" s="38"/>
       <c r="C237" s="3" t="s">
         <v>180</v>
       </c>
@@ -6513,11 +6591,11 @@
       <c r="G237" s="3">
         <v>3000</v>
       </c>
-      <c r="K237" s="33"/>
+      <c r="K237" s="28"/>
     </row>
     <row r="238" spans="1:11">
-      <c r="A238" s="25"/>
-      <c r="B238" s="28"/>
+      <c r="A238" s="34"/>
+      <c r="B238" s="38"/>
       <c r="C238" s="3" t="s">
         <v>181</v>
       </c>
@@ -6533,11 +6611,11 @@
       <c r="G238" s="3">
         <v>3000</v>
       </c>
-      <c r="K238" s="33"/>
+      <c r="K238" s="28"/>
     </row>
     <row r="239" spans="1:11">
-      <c r="A239" s="25"/>
-      <c r="B239" s="28"/>
+      <c r="A239" s="34"/>
+      <c r="B239" s="38"/>
       <c r="C239" s="3" t="s">
         <v>182</v>
       </c>
@@ -6553,11 +6631,11 @@
       <c r="G239" s="3">
         <v>3000</v>
       </c>
-      <c r="K239" s="33"/>
+      <c r="K239" s="28"/>
     </row>
     <row r="240" spans="1:11">
-      <c r="A240" s="25"/>
-      <c r="B240" s="28"/>
+      <c r="A240" s="34"/>
+      <c r="B240" s="38"/>
       <c r="C240" s="3" t="s">
         <v>183</v>
       </c>
@@ -6573,11 +6651,11 @@
       <c r="G240" s="3">
         <v>3000</v>
       </c>
-      <c r="K240" s="33"/>
+      <c r="K240" s="28"/>
     </row>
     <row r="241" spans="1:11">
-      <c r="A241" s="25"/>
-      <c r="B241" s="28"/>
+      <c r="A241" s="34"/>
+      <c r="B241" s="38"/>
       <c r="C241" s="3" t="s">
         <v>184</v>
       </c>
@@ -6593,11 +6671,11 @@
       <c r="G241" s="3">
         <v>3000</v>
       </c>
-      <c r="K241" s="33"/>
+      <c r="K241" s="28"/>
     </row>
     <row r="242" spans="1:11">
-      <c r="A242" s="25"/>
-      <c r="B242" s="28"/>
+      <c r="A242" s="34"/>
+      <c r="B242" s="38"/>
       <c r="C242" s="3" t="s">
         <v>185</v>
       </c>
@@ -6613,11 +6691,11 @@
       <c r="G242" s="3">
         <v>3000</v>
       </c>
-      <c r="K242" s="33"/>
+      <c r="K242" s="28"/>
     </row>
     <row r="243" spans="1:11">
-      <c r="A243" s="25"/>
-      <c r="B243" s="28"/>
+      <c r="A243" s="34"/>
+      <c r="B243" s="38"/>
       <c r="C243" s="3" t="s">
         <v>6</v>
       </c>
@@ -6633,11 +6711,11 @@
       <c r="G243" s="6">
         <v>20</v>
       </c>
-      <c r="K243" s="33"/>
+      <c r="K243" s="28"/>
     </row>
     <row r="244" spans="1:11">
-      <c r="A244" s="25"/>
-      <c r="B244" s="28"/>
+      <c r="A244" s="34"/>
+      <c r="B244" s="38"/>
       <c r="C244" s="3" t="s">
         <v>8</v>
       </c>
@@ -6653,11 +6731,11 @@
       <c r="G244" s="6">
         <v>20</v>
       </c>
-      <c r="K244" s="33"/>
+      <c r="K244" s="28"/>
     </row>
     <row r="245" spans="1:11">
-      <c r="A245" s="26"/>
-      <c r="B245" s="29"/>
+      <c r="A245" s="35"/>
+      <c r="B245" s="39"/>
       <c r="C245" s="3" t="s">
         <v>186</v>
       </c>
@@ -6670,13 +6748,13 @@
       <c r="F245" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="K245" s="34"/>
+      <c r="K245" s="29"/>
     </row>
     <row r="246" spans="1:11" ht="45">
-      <c r="A246" s="24">
+      <c r="A246" s="33">
         <v>77</v>
       </c>
-      <c r="B246" s="24" t="s">
+      <c r="B246" s="33" t="s">
         <v>226</v>
       </c>
       <c r="C246" s="3" t="s">
@@ -6691,13 +6769,13 @@
       <c r="J246" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="K246" s="32">
+      <c r="K246" s="27">
         <v>45552</v>
       </c>
     </row>
     <row r="247" spans="1:11">
-      <c r="A247" s="25"/>
-      <c r="B247" s="25"/>
+      <c r="A247" s="34"/>
+      <c r="B247" s="34"/>
       <c r="C247" s="3" t="s">
         <v>222</v>
       </c>
@@ -6710,11 +6788,11 @@
       <c r="F247" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="K247" s="33"/>
+      <c r="K247" s="28"/>
     </row>
     <row r="248" spans="1:11" ht="45">
-      <c r="A248" s="25"/>
-      <c r="B248" s="25"/>
+      <c r="A248" s="34"/>
+      <c r="B248" s="34"/>
       <c r="C248" s="3" t="s">
         <v>223</v>
       </c>
@@ -6727,11 +6805,11 @@
       <c r="J248" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="K248" s="33"/>
+      <c r="K248" s="28"/>
     </row>
     <row r="249" spans="1:11" ht="45">
-      <c r="A249" s="25"/>
-      <c r="B249" s="25"/>
+      <c r="A249" s="34"/>
+      <c r="B249" s="34"/>
       <c r="C249" s="3" t="s">
         <v>224</v>
       </c>
@@ -6750,11 +6828,11 @@
       <c r="J249" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="K249" s="33"/>
+      <c r="K249" s="28"/>
     </row>
     <row r="250" spans="1:11">
-      <c r="A250" s="25"/>
-      <c r="B250" s="25"/>
+      <c r="A250" s="34"/>
+      <c r="B250" s="34"/>
       <c r="C250" s="3" t="s">
         <v>5</v>
       </c>
@@ -6770,11 +6848,11 @@
       <c r="G250" s="3">
         <v>3000</v>
       </c>
-      <c r="K250" s="33"/>
+      <c r="K250" s="28"/>
     </row>
     <row r="251" spans="1:11">
-      <c r="A251" s="25"/>
-      <c r="B251" s="25"/>
+      <c r="A251" s="34"/>
+      <c r="B251" s="34"/>
       <c r="C251" s="3" t="s">
         <v>225</v>
       </c>
@@ -6790,11 +6868,11 @@
       <c r="G251" s="3">
         <v>5</v>
       </c>
-      <c r="K251" s="33"/>
+      <c r="K251" s="28"/>
     </row>
     <row r="252" spans="1:11">
-      <c r="A252" s="25"/>
-      <c r="B252" s="25"/>
+      <c r="A252" s="34"/>
+      <c r="B252" s="34"/>
       <c r="C252" s="3" t="s">
         <v>6</v>
       </c>
@@ -6810,11 +6888,11 @@
       <c r="G252" s="3">
         <v>20</v>
       </c>
-      <c r="K252" s="33"/>
+      <c r="K252" s="28"/>
     </row>
     <row r="253" spans="1:11">
-      <c r="A253" s="26"/>
-      <c r="B253" s="26"/>
+      <c r="A253" s="35"/>
+      <c r="B253" s="35"/>
       <c r="C253" s="3" t="s">
         <v>8</v>
       </c>
@@ -6830,13 +6908,13 @@
       <c r="G253" s="3">
         <v>20</v>
       </c>
-      <c r="K253" s="34"/>
+      <c r="K253" s="29"/>
     </row>
     <row r="254" spans="1:11">
-      <c r="A254" s="24">
+      <c r="A254" s="33">
         <v>78</v>
       </c>
-      <c r="B254" s="24" t="s">
+      <c r="B254" s="33" t="s">
         <v>232</v>
       </c>
       <c r="C254" s="3" t="s">
@@ -6854,13 +6932,13 @@
       <c r="G254" s="3">
         <v>15</v>
       </c>
-      <c r="K254" s="32">
+      <c r="K254" s="27">
         <v>45552</v>
       </c>
     </row>
     <row r="255" spans="1:11">
-      <c r="A255" s="26"/>
-      <c r="B255" s="26"/>
+      <c r="A255" s="35"/>
+      <c r="B255" s="35"/>
       <c r="C255" s="3" t="s">
         <v>231</v>
       </c>
@@ -6876,13 +6954,13 @@
       <c r="G255" s="3">
         <v>15</v>
       </c>
-      <c r="K255" s="34"/>
+      <c r="K255" s="29"/>
     </row>
     <row r="256" spans="1:11" ht="30">
-      <c r="A256" s="24">
+      <c r="A256" s="33">
         <v>79</v>
       </c>
-      <c r="B256" s="24" t="s">
+      <c r="B256" s="33" t="s">
         <v>244</v>
       </c>
       <c r="C256" s="3" t="s">
@@ -6900,13 +6978,13 @@
       <c r="J256" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="K256" s="32">
+      <c r="K256" s="27">
         <v>45552</v>
       </c>
     </row>
     <row r="257" spans="1:11" ht="30">
-      <c r="A257" s="25"/>
-      <c r="B257" s="25"/>
+      <c r="A257" s="34"/>
+      <c r="B257" s="34"/>
       <c r="C257" s="3" t="s">
         <v>234</v>
       </c>
@@ -6925,11 +7003,11 @@
       <c r="J257" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="K257" s="33"/>
+      <c r="K257" s="28"/>
     </row>
     <row r="258" spans="1:11">
-      <c r="A258" s="25"/>
-      <c r="B258" s="25"/>
+      <c r="A258" s="34"/>
+      <c r="B258" s="34"/>
       <c r="C258" s="3" t="s">
         <v>235</v>
       </c>
@@ -6945,11 +7023,11 @@
       <c r="G258" s="3">
         <v>250</v>
       </c>
-      <c r="K258" s="33"/>
+      <c r="K258" s="28"/>
     </row>
     <row r="259" spans="1:11">
-      <c r="A259" s="25"/>
-      <c r="B259" s="25"/>
+      <c r="A259" s="34"/>
+      <c r="B259" s="34"/>
       <c r="C259" s="3" t="s">
         <v>6</v>
       </c>
@@ -6965,11 +7043,11 @@
       <c r="G259" s="3">
         <v>50</v>
       </c>
-      <c r="K259" s="33"/>
+      <c r="K259" s="28"/>
     </row>
     <row r="260" spans="1:11">
-      <c r="A260" s="25"/>
-      <c r="B260" s="25"/>
+      <c r="A260" s="34"/>
+      <c r="B260" s="34"/>
       <c r="C260" s="3" t="s">
         <v>236</v>
       </c>
@@ -6985,11 +7063,11 @@
       <c r="G260" s="3">
         <v>20</v>
       </c>
-      <c r="K260" s="33"/>
+      <c r="K260" s="28"/>
     </row>
     <row r="261" spans="1:11">
-      <c r="A261" s="25"/>
-      <c r="B261" s="25"/>
+      <c r="A261" s="34"/>
+      <c r="B261" s="34"/>
       <c r="C261" s="3" t="s">
         <v>237</v>
       </c>
@@ -7005,11 +7083,11 @@
       <c r="G261" s="3">
         <v>20</v>
       </c>
-      <c r="K261" s="33"/>
+      <c r="K261" s="28"/>
     </row>
     <row r="262" spans="1:11">
-      <c r="A262" s="25"/>
-      <c r="B262" s="25"/>
+      <c r="A262" s="34"/>
+      <c r="B262" s="34"/>
       <c r="C262" s="3" t="s">
         <v>238</v>
       </c>
@@ -7025,11 +7103,11 @@
       <c r="G262" s="3">
         <v>20</v>
       </c>
-      <c r="K262" s="33"/>
+      <c r="K262" s="28"/>
     </row>
     <row r="263" spans="1:11">
-      <c r="A263" s="25"/>
-      <c r="B263" s="25"/>
+      <c r="A263" s="34"/>
+      <c r="B263" s="34"/>
       <c r="C263" s="3" t="s">
         <v>239</v>
       </c>
@@ -7045,11 +7123,11 @@
       <c r="G263" s="3">
         <v>20</v>
       </c>
-      <c r="K263" s="33"/>
+      <c r="K263" s="28"/>
     </row>
     <row r="264" spans="1:11">
-      <c r="A264" s="25"/>
-      <c r="B264" s="25"/>
+      <c r="A264" s="34"/>
+      <c r="B264" s="34"/>
       <c r="C264" s="3" t="s">
         <v>240</v>
       </c>
@@ -7065,11 +7143,11 @@
       <c r="G264" s="3">
         <v>100</v>
       </c>
-      <c r="K264" s="33"/>
+      <c r="K264" s="28"/>
     </row>
     <row r="265" spans="1:11">
-      <c r="A265" s="25"/>
-      <c r="B265" s="25"/>
+      <c r="A265" s="34"/>
+      <c r="B265" s="34"/>
       <c r="C265" s="3" t="s">
         <v>241</v>
       </c>
@@ -7085,11 +7163,11 @@
       <c r="G265" s="3">
         <v>100</v>
       </c>
-      <c r="K265" s="33"/>
+      <c r="K265" s="28"/>
     </row>
     <row r="266" spans="1:11">
-      <c r="A266" s="25"/>
-      <c r="B266" s="25"/>
+      <c r="A266" s="34"/>
+      <c r="B266" s="34"/>
       <c r="C266" s="3" t="s">
         <v>242</v>
       </c>
@@ -7105,11 +7183,11 @@
       <c r="G266" s="3">
         <v>100</v>
       </c>
-      <c r="K266" s="33"/>
+      <c r="K266" s="28"/>
     </row>
     <row r="267" spans="1:11">
-      <c r="A267" s="26"/>
-      <c r="B267" s="26"/>
+      <c r="A267" s="35"/>
+      <c r="B267" s="35"/>
       <c r="C267" s="3" t="s">
         <v>243</v>
       </c>
@@ -7125,13 +7203,13 @@
       <c r="G267" s="3">
         <v>100</v>
       </c>
-      <c r="K267" s="34"/>
+      <c r="K267" s="29"/>
     </row>
     <row r="268" spans="1:11">
-      <c r="A268" s="24">
+      <c r="A268" s="33">
         <v>80</v>
       </c>
-      <c r="B268" s="24" t="s">
+      <c r="B268" s="33" t="s">
         <v>250</v>
       </c>
       <c r="C268" s="3" t="s">
@@ -7149,13 +7227,13 @@
       <c r="G268" s="3">
         <v>20</v>
       </c>
-      <c r="K268" s="32">
+      <c r="K268" s="27">
         <v>45552</v>
       </c>
     </row>
     <row r="269" spans="1:11">
-      <c r="A269" s="25"/>
-      <c r="B269" s="25"/>
+      <c r="A269" s="34"/>
+      <c r="B269" s="34"/>
       <c r="C269" s="3" t="s">
         <v>8</v>
       </c>
@@ -7171,11 +7249,11 @@
       <c r="G269" s="3">
         <v>30</v>
       </c>
-      <c r="K269" s="33"/>
+      <c r="K269" s="28"/>
     </row>
     <row r="270" spans="1:11">
-      <c r="A270" s="25"/>
-      <c r="B270" s="25"/>
+      <c r="A270" s="34"/>
+      <c r="B270" s="34"/>
       <c r="C270" s="3" t="s">
         <v>247</v>
       </c>
@@ -7191,11 +7269,11 @@
       <c r="G270" s="3">
         <v>50</v>
       </c>
-      <c r="K270" s="33"/>
+      <c r="K270" s="28"/>
     </row>
     <row r="271" spans="1:11">
-      <c r="A271" s="25"/>
-      <c r="B271" s="25"/>
+      <c r="A271" s="34"/>
+      <c r="B271" s="34"/>
       <c r="C271" s="3" t="s">
         <v>248</v>
       </c>
@@ -7211,11 +7289,11 @@
       <c r="G271" s="6">
         <v>60</v>
       </c>
-      <c r="K271" s="33"/>
+      <c r="K271" s="28"/>
     </row>
     <row r="272" spans="1:11">
-      <c r="A272" s="26"/>
-      <c r="B272" s="26"/>
+      <c r="A272" s="35"/>
+      <c r="B272" s="35"/>
       <c r="C272" s="3" t="s">
         <v>249</v>
       </c>
@@ -7231,13 +7309,13 @@
       <c r="G272" s="6">
         <v>3</v>
       </c>
-      <c r="K272" s="34"/>
+      <c r="K272" s="29"/>
     </row>
     <row r="273" spans="1:11">
-      <c r="A273" s="24">
+      <c r="A273" s="33">
         <v>81</v>
       </c>
-      <c r="B273" s="24" t="s">
+      <c r="B273" s="33" t="s">
         <v>252</v>
       </c>
       <c r="C273" s="3" t="s">
@@ -7255,13 +7333,13 @@
       <c r="G273" s="3">
         <v>20</v>
       </c>
-      <c r="K273" s="32">
+      <c r="K273" s="27">
         <v>45552</v>
       </c>
     </row>
     <row r="274" spans="1:11">
-      <c r="A274" s="26"/>
-      <c r="B274" s="26"/>
+      <c r="A274" s="35"/>
+      <c r="B274" s="35"/>
       <c r="C274" s="3" t="s">
         <v>251</v>
       </c>
@@ -7277,13 +7355,13 @@
       <c r="G274" s="3">
         <v>50</v>
       </c>
-      <c r="K274" s="34"/>
+      <c r="K274" s="29"/>
     </row>
     <row r="275" spans="1:11">
-      <c r="A275" s="24">
+      <c r="A275" s="33">
         <v>82</v>
       </c>
-      <c r="B275" s="24" t="s">
+      <c r="B275" s="33" t="s">
         <v>253</v>
       </c>
       <c r="C275" s="3" t="s">
@@ -7301,13 +7379,13 @@
       <c r="G275" s="3">
         <v>20</v>
       </c>
-      <c r="K275" s="38">
+      <c r="K275" s="30">
         <v>45552</v>
       </c>
     </row>
     <row r="276" spans="1:11">
-      <c r="A276" s="26"/>
-      <c r="B276" s="26"/>
+      <c r="A276" s="35"/>
+      <c r="B276" s="35"/>
       <c r="C276" s="3" t="s">
         <v>8</v>
       </c>
@@ -7323,13 +7401,13 @@
       <c r="G276" s="3">
         <v>20</v>
       </c>
-      <c r="K276" s="39"/>
+      <c r="K276" s="31"/>
     </row>
     <row r="277" spans="1:11">
-      <c r="A277" s="24">
+      <c r="A277" s="33">
         <v>83</v>
       </c>
-      <c r="B277" s="24" t="s">
+      <c r="B277" s="33" t="s">
         <v>17</v>
       </c>
       <c r="C277" s="3" t="s">
@@ -7347,13 +7425,13 @@
       <c r="G277" s="3">
         <v>50</v>
       </c>
-      <c r="K277" s="32">
+      <c r="K277" s="27">
         <v>45552</v>
       </c>
     </row>
     <row r="278" spans="1:11">
-      <c r="A278" s="25"/>
-      <c r="B278" s="25"/>
+      <c r="A278" s="34"/>
+      <c r="B278" s="34"/>
       <c r="C278" s="3" t="s">
         <v>6</v>
       </c>
@@ -7369,11 +7447,11 @@
       <c r="G278" s="3">
         <v>20</v>
       </c>
-      <c r="K278" s="33"/>
+      <c r="K278" s="28"/>
     </row>
     <row r="279" spans="1:11">
-      <c r="A279" s="25"/>
-      <c r="B279" s="25"/>
+      <c r="A279" s="34"/>
+      <c r="B279" s="34"/>
       <c r="C279" s="3" t="s">
         <v>8</v>
       </c>
@@ -7389,11 +7467,11 @@
       <c r="G279" s="3">
         <v>20</v>
       </c>
-      <c r="K279" s="33"/>
+      <c r="K279" s="28"/>
     </row>
     <row r="280" spans="1:11">
-      <c r="A280" s="25"/>
-      <c r="B280" s="25"/>
+      <c r="A280" s="34"/>
+      <c r="B280" s="34"/>
       <c r="C280" s="3" t="s">
         <v>12</v>
       </c>
@@ -7409,11 +7487,11 @@
       <c r="G280" s="3">
         <v>80</v>
       </c>
-      <c r="K280" s="33"/>
+      <c r="K280" s="28"/>
     </row>
     <row r="281" spans="1:11">
-      <c r="A281" s="26"/>
-      <c r="B281" s="26"/>
+      <c r="A281" s="35"/>
+      <c r="B281" s="35"/>
       <c r="C281" s="3" t="s">
         <v>11</v>
       </c>
@@ -7429,13 +7507,13 @@
       <c r="G281" s="3">
         <v>11</v>
       </c>
-      <c r="K281" s="34"/>
+      <c r="K281" s="29"/>
     </row>
     <row r="282" spans="1:11">
-      <c r="A282" s="24">
+      <c r="A282" s="33">
         <v>84</v>
       </c>
-      <c r="B282" s="24" t="s">
+      <c r="B282" s="33" t="s">
         <v>18</v>
       </c>
       <c r="C282" s="3" t="s">
@@ -7453,13 +7531,13 @@
       <c r="G282" s="3">
         <v>50</v>
       </c>
-      <c r="K282" s="32">
+      <c r="K282" s="27">
         <v>45552</v>
       </c>
     </row>
     <row r="283" spans="1:11">
-      <c r="A283" s="25"/>
-      <c r="B283" s="25"/>
+      <c r="A283" s="34"/>
+      <c r="B283" s="34"/>
       <c r="C283" s="3" t="s">
         <v>6</v>
       </c>
@@ -7475,11 +7553,11 @@
       <c r="G283" s="3">
         <v>20</v>
       </c>
-      <c r="K283" s="33"/>
+      <c r="K283" s="28"/>
     </row>
     <row r="284" spans="1:11">
-      <c r="A284" s="25"/>
-      <c r="B284" s="25"/>
+      <c r="A284" s="34"/>
+      <c r="B284" s="34"/>
       <c r="C284" s="3" t="s">
         <v>8</v>
       </c>
@@ -7495,11 +7573,11 @@
       <c r="G284" s="3">
         <v>20</v>
       </c>
-      <c r="K284" s="33"/>
+      <c r="K284" s="28"/>
     </row>
     <row r="285" spans="1:11">
-      <c r="A285" s="25"/>
-      <c r="B285" s="25"/>
+      <c r="A285" s="34"/>
+      <c r="B285" s="34"/>
       <c r="C285" s="3" t="s">
         <v>12</v>
       </c>
@@ -7515,11 +7593,11 @@
       <c r="G285" s="3">
         <v>80</v>
       </c>
-      <c r="K285" s="33"/>
+      <c r="K285" s="28"/>
     </row>
     <row r="286" spans="1:11">
-      <c r="A286" s="26"/>
-      <c r="B286" s="26"/>
+      <c r="A286" s="35"/>
+      <c r="B286" s="35"/>
       <c r="C286" s="3" t="s">
         <v>11</v>
       </c>
@@ -7535,13 +7613,13 @@
       <c r="G286" s="3">
         <v>11</v>
       </c>
-      <c r="K286" s="34"/>
+      <c r="K286" s="29"/>
     </row>
     <row r="287" spans="1:11">
-      <c r="A287" s="24">
+      <c r="A287" s="33">
         <v>85</v>
       </c>
-      <c r="B287" s="24" t="s">
+      <c r="B287" s="33" t="s">
         <v>23</v>
       </c>
       <c r="C287" s="3" t="s">
@@ -7562,13 +7640,13 @@
       <c r="J287" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="K287" s="32">
+      <c r="K287" s="27">
         <v>45552</v>
       </c>
     </row>
     <row r="288" spans="1:11">
-      <c r="A288" s="25"/>
-      <c r="B288" s="25"/>
+      <c r="A288" s="34"/>
+      <c r="B288" s="34"/>
       <c r="C288" s="3" t="s">
         <v>6</v>
       </c>
@@ -7584,11 +7662,11 @@
       <c r="G288" s="3">
         <v>20</v>
       </c>
-      <c r="K288" s="33"/>
+      <c r="K288" s="28"/>
     </row>
     <row r="289" spans="1:11">
-      <c r="A289" s="25"/>
-      <c r="B289" s="25"/>
+      <c r="A289" s="34"/>
+      <c r="B289" s="34"/>
       <c r="C289" s="3" t="s">
         <v>8</v>
       </c>
@@ -7604,11 +7682,11 @@
       <c r="G289" s="3">
         <v>20</v>
       </c>
-      <c r="K289" s="33"/>
+      <c r="K289" s="28"/>
     </row>
     <row r="290" spans="1:11">
-      <c r="A290" s="25"/>
-      <c r="B290" s="25"/>
+      <c r="A290" s="34"/>
+      <c r="B290" s="34"/>
       <c r="C290" s="3" t="s">
         <v>20</v>
       </c>
@@ -7622,11 +7700,11 @@
         <v>118</v>
       </c>
       <c r="G290"/>
-      <c r="K290" s="33"/>
+      <c r="K290" s="28"/>
     </row>
     <row r="291" spans="1:11">
-      <c r="A291" s="26"/>
-      <c r="B291" s="26"/>
+      <c r="A291" s="35"/>
+      <c r="B291" s="35"/>
       <c r="C291" s="3" t="s">
         <v>11</v>
       </c>
@@ -7642,13 +7720,13 @@
       <c r="G291" s="6">
         <v>11</v>
       </c>
-      <c r="K291" s="34"/>
+      <c r="K291" s="29"/>
     </row>
     <row r="292" spans="1:11">
-      <c r="A292" s="24">
+      <c r="A292" s="33">
         <v>86</v>
       </c>
-      <c r="B292" s="24" t="s">
+      <c r="B292" s="33" t="s">
         <v>255</v>
       </c>
       <c r="C292" s="3" t="s">
@@ -7666,13 +7744,13 @@
       <c r="G292" s="3">
         <v>20</v>
       </c>
-      <c r="K292" s="32">
+      <c r="K292" s="27">
         <v>45552</v>
       </c>
     </row>
     <row r="293" spans="1:11">
-      <c r="A293" s="26"/>
-      <c r="B293" s="26"/>
+      <c r="A293" s="35"/>
+      <c r="B293" s="35"/>
       <c r="C293" s="3" t="s">
         <v>100</v>
       </c>
@@ -7688,13 +7766,13 @@
       <c r="G293" s="3">
         <v>20</v>
       </c>
-      <c r="K293" s="34"/>
+      <c r="K293" s="29"/>
     </row>
     <row r="294" spans="1:11">
-      <c r="A294" s="24">
+      <c r="A294" s="33">
         <v>87</v>
       </c>
-      <c r="B294" s="24" t="s">
+      <c r="B294" s="33" t="s">
         <v>257</v>
       </c>
       <c r="C294" s="3" t="s">
@@ -7712,13 +7790,13 @@
       <c r="G294" s="3">
         <v>60</v>
       </c>
-      <c r="K294" s="32">
+      <c r="K294" s="27">
         <v>45552</v>
       </c>
     </row>
     <row r="295" spans="1:11">
-      <c r="A295" s="25"/>
-      <c r="B295" s="25"/>
+      <c r="A295" s="34"/>
+      <c r="B295" s="34"/>
       <c r="C295" s="3" t="s">
         <v>6</v>
       </c>
@@ -7734,11 +7812,11 @@
       <c r="G295" s="3">
         <v>20</v>
       </c>
-      <c r="K295" s="33"/>
+      <c r="K295" s="28"/>
     </row>
     <row r="296" spans="1:11">
-      <c r="A296" s="26"/>
-      <c r="B296" s="26"/>
+      <c r="A296" s="35"/>
+      <c r="B296" s="35"/>
       <c r="C296" s="3" t="s">
         <v>8</v>
       </c>
@@ -7754,13 +7832,13 @@
       <c r="G296" s="3">
         <v>20</v>
       </c>
-      <c r="K296" s="34"/>
+      <c r="K296" s="29"/>
     </row>
     <row r="297" spans="1:11">
-      <c r="A297" s="24">
+      <c r="A297" s="33">
         <v>88</v>
       </c>
-      <c r="B297" s="24" t="s">
+      <c r="B297" s="33" t="s">
         <v>40</v>
       </c>
       <c r="C297" s="11" t="s">
@@ -7779,13 +7857,13 @@
         <v>20</v>
       </c>
       <c r="H297" s="15"/>
-      <c r="K297" s="32">
+      <c r="K297" s="27">
         <v>45552</v>
       </c>
     </row>
     <row r="298" spans="1:11">
-      <c r="A298" s="25"/>
-      <c r="B298" s="25"/>
+      <c r="A298" s="34"/>
+      <c r="B298" s="34"/>
       <c r="C298" s="16" t="s">
         <v>8</v>
       </c>
@@ -7802,11 +7880,11 @@
         <v>20</v>
       </c>
       <c r="H298" s="17"/>
-      <c r="K298" s="33"/>
+      <c r="K298" s="28"/>
     </row>
     <row r="299" spans="1:11">
-      <c r="A299" s="25"/>
-      <c r="B299" s="25"/>
+      <c r="A299" s="34"/>
+      <c r="B299" s="34"/>
       <c r="C299" s="16" t="s">
         <v>38</v>
       </c>
@@ -7823,11 +7901,11 @@
         <v>10</v>
       </c>
       <c r="H299" s="17"/>
-      <c r="K299" s="33"/>
+      <c r="K299" s="28"/>
     </row>
     <row r="300" spans="1:11">
-      <c r="A300" s="25"/>
-      <c r="B300" s="25"/>
+      <c r="A300" s="34"/>
+      <c r="B300" s="34"/>
       <c r="C300" s="16" t="s">
         <v>39</v>
       </c>
@@ -7844,11 +7922,11 @@
         <v>11</v>
       </c>
       <c r="H300" s="17"/>
-      <c r="K300" s="33"/>
+      <c r="K300" s="28"/>
     </row>
     <row r="301" spans="1:11">
-      <c r="A301" s="25"/>
-      <c r="B301" s="25"/>
+      <c r="A301" s="34"/>
+      <c r="B301" s="34"/>
       <c r="C301" s="16" t="s">
         <v>9</v>
       </c>
@@ -7865,11 +7943,11 @@
         <v>50</v>
       </c>
       <c r="H301" s="17"/>
-      <c r="K301" s="33"/>
+      <c r="K301" s="28"/>
     </row>
     <row r="302" spans="1:11">
-      <c r="A302" s="26"/>
-      <c r="B302" s="26"/>
+      <c r="A302" s="35"/>
+      <c r="B302" s="35"/>
       <c r="C302" s="16" t="s">
         <v>37</v>
       </c>
@@ -7884,13 +7962,13 @@
       </c>
       <c r="G302" s="17"/>
       <c r="H302" s="17"/>
-      <c r="K302" s="34"/>
+      <c r="K302" s="29"/>
     </row>
     <row r="303" spans="1:11">
-      <c r="A303" s="24">
+      <c r="A303" s="33">
         <v>89</v>
       </c>
-      <c r="B303" s="24" t="s">
+      <c r="B303" s="33" t="s">
         <v>261</v>
       </c>
       <c r="C303" s="3" t="s">
@@ -7909,13 +7987,13 @@
         <v>20</v>
       </c>
       <c r="H303" s="4"/>
-      <c r="K303" s="32">
+      <c r="K303" s="27">
         <v>45553</v>
       </c>
     </row>
     <row r="304" spans="1:11">
-      <c r="A304" s="25"/>
-      <c r="B304" s="25"/>
+      <c r="A304" s="34"/>
+      <c r="B304" s="34"/>
       <c r="C304" s="3" t="s">
         <v>8</v>
       </c>
@@ -7931,11 +8009,11 @@
       <c r="G304" s="3">
         <v>20</v>
       </c>
-      <c r="K304" s="33"/>
+      <c r="K304" s="28"/>
     </row>
     <row r="305" spans="1:11">
-      <c r="A305" s="25"/>
-      <c r="B305" s="25"/>
+      <c r="A305" s="34"/>
+      <c r="B305" s="34"/>
       <c r="C305" s="3" t="s">
         <v>258</v>
       </c>
@@ -7951,11 +8029,11 @@
       <c r="G305" s="3">
         <v>50</v>
       </c>
-      <c r="K305" s="33"/>
+      <c r="K305" s="28"/>
     </row>
     <row r="306" spans="1:11">
-      <c r="A306" s="25"/>
-      <c r="B306" s="25"/>
+      <c r="A306" s="34"/>
+      <c r="B306" s="34"/>
       <c r="C306" s="3" t="s">
         <v>259</v>
       </c>
@@ -7971,11 +8049,11 @@
       <c r="G306" s="3">
         <v>50</v>
       </c>
-      <c r="K306" s="33"/>
+      <c r="K306" s="28"/>
     </row>
     <row r="307" spans="1:11">
-      <c r="A307" s="26"/>
-      <c r="B307" s="26"/>
+      <c r="A307" s="35"/>
+      <c r="B307" s="35"/>
       <c r="C307" s="3" t="s">
         <v>260</v>
       </c>
@@ -7991,13 +8069,13 @@
       <c r="G307" s="3">
         <v>2</v>
       </c>
-      <c r="K307" s="34"/>
+      <c r="K307" s="29"/>
     </row>
     <row r="308" spans="1:11">
-      <c r="A308" s="24">
+      <c r="A308" s="33">
         <v>90</v>
       </c>
-      <c r="B308" s="24" t="s">
+      <c r="B308" s="33" t="s">
         <v>265</v>
       </c>
       <c r="C308" s="3" t="s">
@@ -8016,13 +8094,13 @@
         <v>20</v>
       </c>
       <c r="H308" s="4"/>
-      <c r="K308" s="32">
+      <c r="K308" s="27">
         <v>45553</v>
       </c>
     </row>
     <row r="309" spans="1:11">
-      <c r="A309" s="25"/>
-      <c r="B309" s="25"/>
+      <c r="A309" s="34"/>
+      <c r="B309" s="34"/>
       <c r="C309" s="3" t="s">
         <v>8</v>
       </c>
@@ -8038,11 +8116,11 @@
       <c r="G309" s="3">
         <v>20</v>
       </c>
-      <c r="K309" s="33"/>
+      <c r="K309" s="28"/>
     </row>
     <row r="310" spans="1:11">
-      <c r="A310" s="25"/>
-      <c r="B310" s="25"/>
+      <c r="A310" s="34"/>
+      <c r="B310" s="34"/>
       <c r="C310" s="3" t="s">
         <v>262</v>
       </c>
@@ -8058,11 +8136,11 @@
       <c r="G310" s="3">
         <v>100</v>
       </c>
-      <c r="K310" s="33"/>
+      <c r="K310" s="28"/>
     </row>
     <row r="311" spans="1:11">
-      <c r="A311" s="25"/>
-      <c r="B311" s="25"/>
+      <c r="A311" s="34"/>
+      <c r="B311" s="34"/>
       <c r="C311" s="3" t="s">
         <v>263</v>
       </c>
@@ -8078,11 +8156,11 @@
       <c r="G311" s="3">
         <v>100</v>
       </c>
-      <c r="K311" s="34"/>
+      <c r="K311" s="29"/>
     </row>
     <row r="312" spans="1:11">
-      <c r="A312" s="26"/>
-      <c r="B312" s="26"/>
+      <c r="A312" s="35"/>
+      <c r="B312" s="35"/>
       <c r="C312" s="3" t="s">
         <v>264</v>
       </c>
@@ -8098,63 +8176,764 @@
       <c r="G312" s="3">
         <v>2</v>
       </c>
+      <c r="K312" s="27">
+        <v>45553</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11">
+      <c r="A313" s="33">
+        <v>91</v>
+      </c>
+      <c r="B313" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="C313" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D313" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E313" s="3">
+        <v>50</v>
+      </c>
+      <c r="F313" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G313" s="3">
+        <v>20</v>
+      </c>
+      <c r="K313" s="28"/>
+    </row>
+    <row r="314" spans="1:11">
+      <c r="A314" s="34"/>
+      <c r="B314" s="34"/>
+      <c r="C314" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D314" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E314" s="3">
+        <v>50</v>
+      </c>
+      <c r="F314" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G314" s="3">
+        <v>20</v>
+      </c>
+      <c r="K314" s="28"/>
+    </row>
+    <row r="315" spans="1:11">
+      <c r="A315" s="34"/>
+      <c r="B315" s="34"/>
+      <c r="C315" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D315" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E315" s="3">
+        <v>100</v>
+      </c>
+      <c r="F315" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G315" s="3">
+        <v>50</v>
+      </c>
+      <c r="K315" s="28"/>
+    </row>
+    <row r="316" spans="1:11">
+      <c r="A316" s="35"/>
+      <c r="B316" s="35"/>
+      <c r="C316" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D316" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E316" s="3">
+        <v>100</v>
+      </c>
+      <c r="F316" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G316" s="3">
+        <v>50</v>
+      </c>
+      <c r="K316" s="29"/>
+    </row>
+    <row r="317" spans="1:11">
+      <c r="A317" s="33">
+        <v>92</v>
+      </c>
+      <c r="B317" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="C317" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D317" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E317" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F317" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G317" s="3">
+        <v>20</v>
+      </c>
+      <c r="H317" s="4"/>
+      <c r="K317" s="27">
+        <v>45553</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11">
+      <c r="A318" s="34"/>
+      <c r="B318" s="34"/>
+      <c r="C318" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D318" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E318" s="3">
+        <v>50</v>
+      </c>
+      <c r="F318" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G318" s="3">
+        <v>20</v>
+      </c>
+      <c r="K318" s="28"/>
+    </row>
+    <row r="319" spans="1:11">
+      <c r="A319" s="34"/>
+      <c r="B319" s="34"/>
+      <c r="C319" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D319" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E319" s="3">
+        <v>15</v>
+      </c>
+      <c r="F319" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K319" s="28"/>
+    </row>
+    <row r="320" spans="1:11">
+      <c r="A320" s="34"/>
+      <c r="B320" s="34"/>
+      <c r="C320" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D320" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E320" s="3">
+        <v>10</v>
+      </c>
+      <c r="F320" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="K320" s="28"/>
+    </row>
+    <row r="321" spans="1:11">
+      <c r="A321" s="34"/>
+      <c r="B321" s="34"/>
+      <c r="C321" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D321" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E321" s="6">
+        <v>3</v>
+      </c>
+      <c r="F321" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G321" s="6">
+        <v>3</v>
+      </c>
+      <c r="K321" s="28"/>
+    </row>
+    <row r="322" spans="1:11">
+      <c r="A322" s="34"/>
+      <c r="B322" s="34"/>
+      <c r="C322" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D322" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E322" s="6">
+        <v>10</v>
+      </c>
+      <c r="F322" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G322" s="6">
+        <v>3</v>
+      </c>
+      <c r="K322" s="28"/>
+    </row>
+    <row r="323" spans="1:11">
+      <c r="A323" s="34"/>
+      <c r="B323" s="34"/>
+      <c r="C323" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D323" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E323" s="6">
+        <v>3</v>
+      </c>
+      <c r="F323" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K323" s="28"/>
+    </row>
+    <row r="324" spans="1:11">
+      <c r="A324" s="34"/>
+      <c r="B324" s="34"/>
+      <c r="C324" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D324" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E324" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F324" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K324" s="28"/>
+    </row>
+    <row r="325" spans="1:11">
+      <c r="A325" s="35"/>
+      <c r="B325" s="35"/>
+      <c r="C325" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D325" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E325" s="6">
+        <v>20</v>
+      </c>
+      <c r="F325" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G325" s="3">
+        <v>20</v>
+      </c>
+      <c r="K325" s="29"/>
+    </row>
+    <row r="326" spans="1:11">
+      <c r="A326" s="33">
+        <v>93</v>
+      </c>
+      <c r="B326" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="C326" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D326" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E326" s="3">
+        <v>0</v>
+      </c>
+      <c r="F326" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G326" s="3">
+        <v>0</v>
+      </c>
+      <c r="K326" s="27">
+        <v>45553</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11">
+      <c r="A327" s="34"/>
+      <c r="B327" s="34"/>
+      <c r="C327" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D327" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E327" s="3">
+        <v>6</v>
+      </c>
+      <c r="F327" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G327" s="3">
+        <v>8</v>
+      </c>
+      <c r="K327" s="28"/>
+    </row>
+    <row r="328" spans="1:11">
+      <c r="A328" s="34"/>
+      <c r="B328" s="34"/>
+      <c r="C328" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D328" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E328" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F328" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G328" s="3">
+        <v>50</v>
+      </c>
+      <c r="K328" s="28"/>
+    </row>
+    <row r="329" spans="1:11">
+      <c r="A329" s="34"/>
+      <c r="B329" s="34"/>
+      <c r="C329" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D329" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E329" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F329" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G329" s="3">
+        <v>50</v>
+      </c>
+      <c r="K329" s="28"/>
+    </row>
+    <row r="330" spans="1:11">
+      <c r="A330" s="34"/>
+      <c r="B330" s="34"/>
+      <c r="C330" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D330" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E330" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F330" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G330" s="6">
+        <v>10</v>
+      </c>
+      <c r="K330" s="28"/>
+    </row>
+    <row r="331" spans="1:11">
+      <c r="A331" s="34"/>
+      <c r="B331" s="34"/>
+      <c r="C331" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D331" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E331" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F331" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G331" s="6">
+        <v>150</v>
+      </c>
+      <c r="K331" s="28"/>
+    </row>
+    <row r="332" spans="1:11">
+      <c r="A332" s="34"/>
+      <c r="B332" s="34"/>
+      <c r="C332" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D332" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E332" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F332" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G332" s="6">
+        <v>100</v>
+      </c>
+      <c r="K332" s="28"/>
+    </row>
+    <row r="333" spans="1:11">
+      <c r="A333" s="34"/>
+      <c r="B333" s="34"/>
+      <c r="C333" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D333" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E333" s="3">
+        <v>50</v>
+      </c>
+      <c r="F333" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G333" s="6">
+        <v>20</v>
+      </c>
+      <c r="K333" s="28"/>
+    </row>
+    <row r="334" spans="1:11">
+      <c r="A334" s="34"/>
+      <c r="B334" s="34"/>
+      <c r="C334" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D334" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E334" s="3">
+        <v>50</v>
+      </c>
+      <c r="F334" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G334" s="6">
+        <v>20</v>
+      </c>
+      <c r="K334" s="28"/>
+    </row>
+    <row r="335" spans="1:11">
+      <c r="A335" s="34"/>
+      <c r="B335" s="34"/>
+      <c r="C335" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D335" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E335" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F335" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G335" s="6">
+        <v>50</v>
+      </c>
+      <c r="J335" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="K335" s="28"/>
+    </row>
+    <row r="336" spans="1:11">
+      <c r="A336" s="34"/>
+      <c r="B336" s="34"/>
+      <c r="C336" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D336" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E336" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F336" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G336" s="6">
+        <v>50</v>
+      </c>
+      <c r="K336" s="28"/>
+    </row>
+    <row r="337" spans="1:11">
+      <c r="A337" s="35"/>
+      <c r="B337" s="35"/>
+      <c r="C337" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D337" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E337" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F337" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G337" s="6">
+        <v>150</v>
+      </c>
+      <c r="K337" s="29"/>
+    </row>
+    <row r="338" spans="1:11">
+      <c r="A338" s="33">
+        <v>94</v>
+      </c>
+      <c r="B338" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C338" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D338" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E338" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F338" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G338" s="3">
+        <v>20</v>
+      </c>
+      <c r="H338" s="4"/>
+      <c r="K338" s="27">
+        <v>45553</v>
+      </c>
+    </row>
+    <row r="339" spans="1:11">
+      <c r="A339" s="34"/>
+      <c r="B339" s="34"/>
+      <c r="C339" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D339" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E339" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F339" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G339" s="3">
+        <v>20</v>
+      </c>
+      <c r="K339" s="28"/>
+    </row>
+    <row r="340" spans="1:11">
+      <c r="A340" s="34"/>
+      <c r="B340" s="34"/>
+      <c r="C340" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D340" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E340" s="3"/>
+      <c r="F340" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K340" s="28"/>
+    </row>
+    <row r="341" spans="1:11">
+      <c r="A341" s="35"/>
+      <c r="B341" s="35"/>
+      <c r="C341" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D341" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E341" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F341" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K341" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="231">
-    <mergeCell ref="K221:K224"/>
-    <mergeCell ref="K225:K228"/>
-    <mergeCell ref="K229:K231"/>
-    <mergeCell ref="K232:K245"/>
-    <mergeCell ref="K246:K253"/>
-    <mergeCell ref="K254:K255"/>
-    <mergeCell ref="K256:K267"/>
-    <mergeCell ref="K303:K307"/>
-    <mergeCell ref="K308:K311"/>
-    <mergeCell ref="K268:K272"/>
-    <mergeCell ref="K273:K274"/>
-    <mergeCell ref="K275:K276"/>
-    <mergeCell ref="K277:K281"/>
-    <mergeCell ref="K282:K286"/>
-    <mergeCell ref="K287:K291"/>
-    <mergeCell ref="K292:K293"/>
-    <mergeCell ref="K294:K296"/>
-    <mergeCell ref="K297:K302"/>
-    <mergeCell ref="K193:K195"/>
-    <mergeCell ref="K196:K198"/>
-    <mergeCell ref="K199:K201"/>
-    <mergeCell ref="K202:K204"/>
-    <mergeCell ref="K205:K207"/>
-    <mergeCell ref="K208:K210"/>
-    <mergeCell ref="K211:K213"/>
-    <mergeCell ref="K214:K216"/>
-    <mergeCell ref="K217:K220"/>
-    <mergeCell ref="K156:K157"/>
-    <mergeCell ref="K159:K160"/>
-    <mergeCell ref="K161:K162"/>
-    <mergeCell ref="K163:K165"/>
-    <mergeCell ref="K166:K169"/>
-    <mergeCell ref="K170:K171"/>
-    <mergeCell ref="K172:K175"/>
-    <mergeCell ref="K176:K178"/>
-    <mergeCell ref="K179:K192"/>
-    <mergeCell ref="K126:K128"/>
-    <mergeCell ref="K129:K131"/>
-    <mergeCell ref="K133:K135"/>
-    <mergeCell ref="K136:K138"/>
-    <mergeCell ref="K139:K142"/>
-    <mergeCell ref="K143:K146"/>
-    <mergeCell ref="K147:K148"/>
-    <mergeCell ref="K149:K152"/>
-    <mergeCell ref="K154:K155"/>
-    <mergeCell ref="K91:K92"/>
-    <mergeCell ref="K93:K96"/>
-    <mergeCell ref="K97:K100"/>
-    <mergeCell ref="K101:K102"/>
-    <mergeCell ref="K103:K105"/>
-    <mergeCell ref="K109:K113"/>
-    <mergeCell ref="K116:K119"/>
-    <mergeCell ref="K120:K122"/>
-    <mergeCell ref="K123:K125"/>
+  <mergeCells count="243">
+    <mergeCell ref="B313:B316"/>
+    <mergeCell ref="A313:A316"/>
+    <mergeCell ref="B317:B325"/>
+    <mergeCell ref="A317:A325"/>
+    <mergeCell ref="B326:B337"/>
+    <mergeCell ref="A326:A337"/>
+    <mergeCell ref="B338:B341"/>
+    <mergeCell ref="A338:A341"/>
+    <mergeCell ref="K312:K316"/>
+    <mergeCell ref="K317:K325"/>
+    <mergeCell ref="K326:K337"/>
+    <mergeCell ref="K338:K341"/>
+    <mergeCell ref="B294:B296"/>
+    <mergeCell ref="A294:A296"/>
+    <mergeCell ref="B297:B302"/>
+    <mergeCell ref="A297:A302"/>
+    <mergeCell ref="B303:B307"/>
+    <mergeCell ref="A303:A307"/>
+    <mergeCell ref="B308:B312"/>
+    <mergeCell ref="A308:A312"/>
+    <mergeCell ref="A275:A276"/>
+    <mergeCell ref="A277:A281"/>
+    <mergeCell ref="A282:A286"/>
+    <mergeCell ref="B292:B293"/>
+    <mergeCell ref="A292:A293"/>
+    <mergeCell ref="B287:B291"/>
+    <mergeCell ref="A287:A291"/>
+    <mergeCell ref="A229:A231"/>
+    <mergeCell ref="A232:A245"/>
+    <mergeCell ref="A246:A253"/>
+    <mergeCell ref="A254:A255"/>
+    <mergeCell ref="A256:A267"/>
+    <mergeCell ref="B277:B281"/>
+    <mergeCell ref="B282:B286"/>
+    <mergeCell ref="A221:A224"/>
+    <mergeCell ref="B254:B255"/>
+    <mergeCell ref="B256:B267"/>
+    <mergeCell ref="A268:A272"/>
+    <mergeCell ref="A273:A274"/>
+    <mergeCell ref="B268:B272"/>
+    <mergeCell ref="B273:B274"/>
+    <mergeCell ref="B275:B276"/>
+    <mergeCell ref="B225:B228"/>
+    <mergeCell ref="B229:B231"/>
+    <mergeCell ref="B232:B245"/>
+    <mergeCell ref="B246:B253"/>
+    <mergeCell ref="A208:A210"/>
+    <mergeCell ref="A211:A213"/>
+    <mergeCell ref="A172:A175"/>
+    <mergeCell ref="A176:A178"/>
+    <mergeCell ref="A179:A192"/>
+    <mergeCell ref="A193:A195"/>
+    <mergeCell ref="A196:A198"/>
+    <mergeCell ref="B221:B224"/>
+    <mergeCell ref="A225:A228"/>
+    <mergeCell ref="A136:A138"/>
+    <mergeCell ref="A139:A142"/>
+    <mergeCell ref="A143:A146"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="B172:B175"/>
+    <mergeCell ref="B176:B178"/>
+    <mergeCell ref="B179:B192"/>
+    <mergeCell ref="A214:A216"/>
+    <mergeCell ref="A217:A220"/>
+    <mergeCell ref="B208:B210"/>
+    <mergeCell ref="B211:B213"/>
+    <mergeCell ref="B214:B216"/>
+    <mergeCell ref="B217:B220"/>
+    <mergeCell ref="B139:B142"/>
+    <mergeCell ref="B143:B146"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="B149:B152"/>
+    <mergeCell ref="A149:A152"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="A156:A157"/>
+    <mergeCell ref="B193:B195"/>
+    <mergeCell ref="B196:B198"/>
+    <mergeCell ref="B199:B201"/>
+    <mergeCell ref="B202:B204"/>
+    <mergeCell ref="B205:B207"/>
+    <mergeCell ref="B166:B169"/>
+    <mergeCell ref="B170:B171"/>
+    <mergeCell ref="A159:A160"/>
+    <mergeCell ref="A161:A162"/>
+    <mergeCell ref="A163:A165"/>
+    <mergeCell ref="A166:A169"/>
+    <mergeCell ref="A170:A171"/>
+    <mergeCell ref="B154:B155"/>
+    <mergeCell ref="B156:B157"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="B163:B165"/>
+    <mergeCell ref="A199:A201"/>
+    <mergeCell ref="A202:A204"/>
+    <mergeCell ref="A205:A207"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="B93:B96"/>
+    <mergeCell ref="B97:B100"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="B68:B72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A68:A72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A93:A96"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="B129:B131"/>
+    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="A116:A119"/>
+    <mergeCell ref="B133:B135"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B109:B113"/>
+    <mergeCell ref="B116:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B123:B125"/>
+    <mergeCell ref="B126:B128"/>
+    <mergeCell ref="A120:A122"/>
+    <mergeCell ref="A123:A125"/>
+    <mergeCell ref="A126:A128"/>
+    <mergeCell ref="A129:A131"/>
+    <mergeCell ref="A133:A135"/>
     <mergeCell ref="B136:B138"/>
     <mergeCell ref="K2:K6"/>
     <mergeCell ref="K7:K11"/>
@@ -8179,159 +8958,60 @@
     <mergeCell ref="K78:K81"/>
     <mergeCell ref="K83:K85"/>
     <mergeCell ref="K86:K90"/>
-    <mergeCell ref="A86:A90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="A93:A96"/>
-    <mergeCell ref="A97:A100"/>
-    <mergeCell ref="B129:B131"/>
-    <mergeCell ref="A109:A113"/>
-    <mergeCell ref="A116:A119"/>
-    <mergeCell ref="B133:B135"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="B109:B113"/>
-    <mergeCell ref="B116:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B123:B125"/>
-    <mergeCell ref="B126:B128"/>
-    <mergeCell ref="A120:A122"/>
-    <mergeCell ref="A123:A125"/>
-    <mergeCell ref="A126:A128"/>
-    <mergeCell ref="A129:A131"/>
-    <mergeCell ref="A133:A135"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A68:A72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="B86:B90"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="B93:B96"/>
-    <mergeCell ref="B97:B100"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="B68:B72"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="B205:B207"/>
-    <mergeCell ref="B166:B169"/>
-    <mergeCell ref="B170:B171"/>
-    <mergeCell ref="A159:A160"/>
-    <mergeCell ref="A161:A162"/>
-    <mergeCell ref="A163:A165"/>
-    <mergeCell ref="A166:A169"/>
-    <mergeCell ref="A170:A171"/>
-    <mergeCell ref="B154:B155"/>
-    <mergeCell ref="B156:B157"/>
-    <mergeCell ref="B159:B160"/>
-    <mergeCell ref="B161:B162"/>
-    <mergeCell ref="B163:B165"/>
-    <mergeCell ref="A136:A138"/>
-    <mergeCell ref="A139:A142"/>
-    <mergeCell ref="A143:A146"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="B172:B175"/>
-    <mergeCell ref="B176:B178"/>
-    <mergeCell ref="B179:B192"/>
-    <mergeCell ref="A214:A216"/>
-    <mergeCell ref="A217:A220"/>
-    <mergeCell ref="B208:B210"/>
-    <mergeCell ref="B211:B213"/>
-    <mergeCell ref="B214:B216"/>
-    <mergeCell ref="B217:B220"/>
-    <mergeCell ref="B139:B142"/>
-    <mergeCell ref="B143:B146"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="B149:B152"/>
-    <mergeCell ref="A149:A152"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="A156:A157"/>
-    <mergeCell ref="B193:B195"/>
-    <mergeCell ref="B196:B198"/>
-    <mergeCell ref="B199:B201"/>
-    <mergeCell ref="B202:B204"/>
-    <mergeCell ref="A199:A201"/>
-    <mergeCell ref="A202:A204"/>
-    <mergeCell ref="A205:A207"/>
-    <mergeCell ref="A208:A210"/>
-    <mergeCell ref="A211:A213"/>
-    <mergeCell ref="A172:A175"/>
-    <mergeCell ref="A176:A178"/>
-    <mergeCell ref="A179:A192"/>
-    <mergeCell ref="A193:A195"/>
-    <mergeCell ref="A196:A198"/>
-    <mergeCell ref="B221:B224"/>
-    <mergeCell ref="A225:A228"/>
-    <mergeCell ref="A229:A231"/>
-    <mergeCell ref="A232:A245"/>
-    <mergeCell ref="A246:A253"/>
-    <mergeCell ref="A254:A255"/>
-    <mergeCell ref="A256:A267"/>
-    <mergeCell ref="B277:B281"/>
-    <mergeCell ref="B282:B286"/>
-    <mergeCell ref="A221:A224"/>
-    <mergeCell ref="B254:B255"/>
-    <mergeCell ref="B256:B267"/>
-    <mergeCell ref="A268:A272"/>
-    <mergeCell ref="A273:A274"/>
-    <mergeCell ref="B268:B272"/>
-    <mergeCell ref="B273:B274"/>
-    <mergeCell ref="B275:B276"/>
-    <mergeCell ref="B225:B228"/>
-    <mergeCell ref="B229:B231"/>
-    <mergeCell ref="B232:B245"/>
-    <mergeCell ref="B246:B253"/>
-    <mergeCell ref="B294:B296"/>
-    <mergeCell ref="A294:A296"/>
-    <mergeCell ref="B297:B302"/>
-    <mergeCell ref="A297:A302"/>
-    <mergeCell ref="B303:B307"/>
-    <mergeCell ref="A303:A307"/>
-    <mergeCell ref="B308:B312"/>
-    <mergeCell ref="A308:A312"/>
-    <mergeCell ref="A275:A276"/>
-    <mergeCell ref="A277:A281"/>
-    <mergeCell ref="A282:A286"/>
-    <mergeCell ref="B292:B293"/>
-    <mergeCell ref="A292:A293"/>
-    <mergeCell ref="B287:B291"/>
-    <mergeCell ref="A287:A291"/>
+    <mergeCell ref="K91:K92"/>
+    <mergeCell ref="K93:K96"/>
+    <mergeCell ref="K97:K100"/>
+    <mergeCell ref="K101:K102"/>
+    <mergeCell ref="K103:K105"/>
+    <mergeCell ref="K109:K113"/>
+    <mergeCell ref="K116:K119"/>
+    <mergeCell ref="K120:K122"/>
+    <mergeCell ref="K123:K125"/>
+    <mergeCell ref="K126:K128"/>
+    <mergeCell ref="K129:K131"/>
+    <mergeCell ref="K133:K135"/>
+    <mergeCell ref="K136:K138"/>
+    <mergeCell ref="K139:K142"/>
+    <mergeCell ref="K143:K146"/>
+    <mergeCell ref="K147:K148"/>
+    <mergeCell ref="K149:K152"/>
+    <mergeCell ref="K154:K155"/>
+    <mergeCell ref="K156:K157"/>
+    <mergeCell ref="K159:K160"/>
+    <mergeCell ref="K161:K162"/>
+    <mergeCell ref="K163:K165"/>
+    <mergeCell ref="K166:K169"/>
+    <mergeCell ref="K170:K171"/>
+    <mergeCell ref="K172:K175"/>
+    <mergeCell ref="K176:K178"/>
+    <mergeCell ref="K179:K192"/>
+    <mergeCell ref="K193:K195"/>
+    <mergeCell ref="K196:K198"/>
+    <mergeCell ref="K199:K201"/>
+    <mergeCell ref="K202:K204"/>
+    <mergeCell ref="K205:K207"/>
+    <mergeCell ref="K208:K210"/>
+    <mergeCell ref="K211:K213"/>
+    <mergeCell ref="K214:K216"/>
+    <mergeCell ref="K217:K220"/>
+    <mergeCell ref="K221:K224"/>
+    <mergeCell ref="K225:K228"/>
+    <mergeCell ref="K229:K231"/>
+    <mergeCell ref="K232:K245"/>
+    <mergeCell ref="K246:K253"/>
+    <mergeCell ref="K254:K255"/>
+    <mergeCell ref="K256:K267"/>
+    <mergeCell ref="K303:K307"/>
+    <mergeCell ref="K308:K311"/>
+    <mergeCell ref="K268:K272"/>
+    <mergeCell ref="K273:K274"/>
+    <mergeCell ref="K275:K276"/>
+    <mergeCell ref="K277:K281"/>
+    <mergeCell ref="K282:K286"/>
+    <mergeCell ref="K287:K291"/>
+    <mergeCell ref="K292:K293"/>
+    <mergeCell ref="K294:K296"/>
+    <mergeCell ref="K297:K302"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/DPI_Table_Audit/Audit-Process-Sheet.xlsx
+++ b/DPI_Table_Audit/Audit-Process-Sheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="300">
   <si>
     <t>Column Name</t>
   </si>
@@ -899,6 +899,29 @@
   </si>
   <si>
     <t>MstEmployeeAccountInfo</t>
+  </si>
+  <si>
+    <t>ClassName</t>
+  </si>
+  <si>
+    <t>ClassSession</t>
+  </si>
+  <si>
+    <t>ClassLastSession</t>
+  </si>
+  <si>
+    <t>ClassAnnualAverage</t>
+  </si>
+  <si>
+    <t>MstEmployeeAttendencePerformanceSheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if no need than remove it
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if no need than remove it because take classid in Class column
+</t>
   </si>
 </sst>
 </file>
@@ -1095,6 +1118,15 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1104,27 +1136,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1133,6 +1144,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1438,10 +1461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z341"/>
+  <dimension ref="A1:Z349"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D275" workbookViewId="0">
-      <selection activeCell="K345" sqref="K345"/>
+    <sheetView tabSelected="1" topLeftCell="A332" workbookViewId="0">
+      <selection activeCell="G343" sqref="G343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1498,10 +1521,10 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="32">
+      <c r="A2" s="36">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="36" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1520,13 +1543,13 @@
         <v>20</v>
       </c>
       <c r="H2" s="4"/>
-      <c r="K2" s="27">
+      <c r="K2" s="30">
         <v>45552</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
@@ -1543,11 +1566,11 @@
         <v>20</v>
       </c>
       <c r="H3" s="4"/>
-      <c r="K3" s="28"/>
+      <c r="K3" s="31"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1564,11 +1587,11 @@
         <v>80</v>
       </c>
       <c r="H4" s="4"/>
-      <c r="K4" s="28"/>
+      <c r="K4" s="31"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
@@ -1585,11 +1608,11 @@
         <v>11</v>
       </c>
       <c r="H5" s="4"/>
-      <c r="K5" s="28"/>
+      <c r="K5" s="31"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
@@ -1606,13 +1629,13 @@
         <v>100</v>
       </c>
       <c r="H6" s="4"/>
-      <c r="K6" s="29"/>
+      <c r="K6" s="32"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="32">
+      <c r="A7" s="36">
         <v>2</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="36" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1630,13 +1653,13 @@
       <c r="G7" s="3">
         <v>20</v>
       </c>
-      <c r="K7" s="27">
+      <c r="K7" s="30">
         <v>45552</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
@@ -1652,11 +1675,11 @@
       <c r="G8" s="5">
         <v>20</v>
       </c>
-      <c r="K8" s="28"/>
+      <c r="K8" s="31"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
@@ -1672,11 +1695,11 @@
       <c r="G9" s="3">
         <v>80</v>
       </c>
-      <c r="K9" s="28"/>
+      <c r="K9" s="31"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
@@ -1692,11 +1715,11 @@
       <c r="G10" s="3">
         <v>11</v>
       </c>
-      <c r="K10" s="28"/>
+      <c r="K10" s="31"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
@@ -1712,13 +1735,13 @@
       <c r="G11" s="3">
         <v>100</v>
       </c>
-      <c r="K11" s="29"/>
+      <c r="K11" s="32"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="32">
+      <c r="A12" s="36">
         <v>3</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="36" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1736,13 +1759,13 @@
       <c r="G12" s="3">
         <v>20</v>
       </c>
-      <c r="K12" s="27">
+      <c r="K12" s="30">
         <v>45552</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="3" t="s">
         <v>8</v>
       </c>
@@ -1758,11 +1781,11 @@
       <c r="G13" s="5">
         <v>20</v>
       </c>
-      <c r="K13" s="28"/>
+      <c r="K13" s="31"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="3" t="s">
         <v>19</v>
       </c>
@@ -1778,11 +1801,11 @@
       <c r="G14" s="3">
         <v>50</v>
       </c>
-      <c r="K14" s="28"/>
+      <c r="K14" s="31"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="3" t="s">
         <v>20</v>
       </c>
@@ -1795,11 +1818,11 @@
       <c r="F15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="28"/>
+      <c r="K15" s="31"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="3" t="s">
         <v>22</v>
       </c>
@@ -1815,13 +1838,13 @@
       <c r="G16" s="5">
         <v>5</v>
       </c>
-      <c r="K16" s="29"/>
+      <c r="K16" s="32"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="32">
+      <c r="A17" s="36">
         <v>4</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="36" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -1840,13 +1863,13 @@
         <v>20</v>
       </c>
       <c r="J17" s="4"/>
-      <c r="K17" s="27">
+      <c r="K17" s="30">
         <v>45541</v>
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
       <c r="C18" s="3" t="s">
         <v>8</v>
       </c>
@@ -1863,11 +1886,11 @@
         <v>20</v>
       </c>
       <c r="J18" s="4"/>
-      <c r="K18" s="28"/>
+      <c r="K18" s="31"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
       <c r="C19" s="3" t="s">
         <v>24</v>
       </c>
@@ -1881,11 +1904,11 @@
         <v>21</v>
       </c>
       <c r="J19" s="4"/>
-      <c r="K19" s="28"/>
+      <c r="K19" s="31"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
       <c r="C20" s="3" t="s">
         <v>25</v>
       </c>
@@ -1904,24 +1927,24 @@
       <c r="J20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K20" s="28"/>
+      <c r="K20" s="31"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K21" s="29"/>
+      <c r="K21" s="32"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="32">
+      <c r="A22" s="36">
         <v>5</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="36" t="s">
         <v>32</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -1939,13 +1962,13 @@
       <c r="G22" s="3">
         <v>20</v>
       </c>
-      <c r="K22" s="27">
+      <c r="K22" s="30">
         <v>45541</v>
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
       <c r="C23" s="3" t="s">
         <v>29</v>
       </c>
@@ -1961,11 +1984,11 @@
       <c r="G23" s="5">
         <v>20</v>
       </c>
-      <c r="K23" s="28"/>
+      <c r="K23" s="31"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="3" t="s">
         <v>30</v>
       </c>
@@ -1981,13 +2004,13 @@
       <c r="G24" s="3">
         <v>3000</v>
       </c>
-      <c r="K24" s="29"/>
+      <c r="K24" s="32"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="32">
+      <c r="A25" s="36">
         <v>6</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="36" t="s">
         <v>35</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -2005,13 +2028,13 @@
       <c r="G25" s="3">
         <v>20</v>
       </c>
-      <c r="K25" s="27">
+      <c r="K25" s="30">
         <v>45541</v>
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
       <c r="C26" s="3" t="s">
         <v>8</v>
       </c>
@@ -2027,11 +2050,11 @@
       <c r="G26" s="5">
         <v>20</v>
       </c>
-      <c r="K26" s="28"/>
+      <c r="K26" s="31"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
       <c r="C27" s="3" t="s">
         <v>33</v>
       </c>
@@ -2044,11 +2067,11 @@
       <c r="F27" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K27" s="28"/>
+      <c r="K27" s="31"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
       <c r="C28" s="3" t="s">
         <v>34</v>
       </c>
@@ -2064,13 +2087,13 @@
       <c r="G28" s="3">
         <v>50</v>
       </c>
-      <c r="K28" s="29"/>
+      <c r="K28" s="32"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="32">
-        <v>7</v>
-      </c>
-      <c r="B29" s="32" t="s">
+      <c r="A29" s="36">
+        <v>7</v>
+      </c>
+      <c r="B29" s="36" t="s">
         <v>36</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -2088,13 +2111,13 @@
       <c r="G29" s="3">
         <v>20</v>
       </c>
-      <c r="K29" s="27">
+      <c r="K29" s="30">
         <v>45553</v>
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
       <c r="C30" s="3" t="s">
         <v>8</v>
       </c>
@@ -2110,13 +2133,13 @@
       <c r="G30" s="5">
         <v>20</v>
       </c>
-      <c r="K30" s="29"/>
+      <c r="K30" s="32"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="32">
+      <c r="A31" s="36">
         <v>8</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="36" t="s">
         <v>40</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -2134,13 +2157,13 @@
       <c r="G31" s="3">
         <v>20</v>
       </c>
-      <c r="K31" s="27">
+      <c r="K31" s="30">
         <v>45553</v>
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="32"/>
-      <c r="B32" s="32"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="36"/>
       <c r="C32" s="3" t="s">
         <v>8</v>
       </c>
@@ -2156,11 +2179,11 @@
       <c r="G32" s="5">
         <v>20</v>
       </c>
-      <c r="K32" s="28"/>
+      <c r="K32" s="31"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="32"/>
-      <c r="B33" s="32"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="36"/>
       <c r="C33" s="3" t="s">
         <v>37</v>
       </c>
@@ -2173,11 +2196,11 @@
       <c r="F33" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K33" s="28"/>
+      <c r="K33" s="31"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="32"/>
-      <c r="B34" s="32"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="36"/>
       <c r="C34" s="3" t="s">
         <v>38</v>
       </c>
@@ -2193,11 +2216,11 @@
       <c r="G34" s="3">
         <v>10</v>
       </c>
-      <c r="K34" s="28"/>
+      <c r="K34" s="31"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="32"/>
-      <c r="B35" s="32"/>
+      <c r="A35" s="36"/>
+      <c r="B35" s="36"/>
       <c r="C35" s="3" t="s">
         <v>39</v>
       </c>
@@ -2213,11 +2236,11 @@
       <c r="G35" s="3">
         <v>11</v>
       </c>
-      <c r="K35" s="28"/>
+      <c r="K35" s="31"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="32"/>
-      <c r="B36" s="32"/>
+      <c r="A36" s="36"/>
+      <c r="B36" s="36"/>
       <c r="C36" s="3" t="s">
         <v>9</v>
       </c>
@@ -2233,11 +2256,11 @@
       <c r="G36" s="6">
         <v>80</v>
       </c>
-      <c r="K36" s="28"/>
+      <c r="K36" s="31"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="32"/>
-      <c r="B37" s="32"/>
+      <c r="A37" s="36"/>
+      <c r="B37" s="36"/>
       <c r="C37" s="3" t="s">
         <v>12</v>
       </c>
@@ -2253,13 +2276,13 @@
       <c r="G37" s="6">
         <v>100</v>
       </c>
-      <c r="K37" s="29"/>
+      <c r="K37" s="32"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="32">
+      <c r="A38" s="36">
         <v>9</v>
       </c>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="36" t="s">
         <v>45</v>
       </c>
       <c r="C38" s="3" t="s">
@@ -2277,13 +2300,13 @@
       <c r="G38" s="3">
         <v>20</v>
       </c>
-      <c r="K38" s="27">
+      <c r="K38" s="30">
         <v>45553</v>
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="32"/>
-      <c r="B39" s="32"/>
+      <c r="A39" s="36"/>
+      <c r="B39" s="36"/>
       <c r="C39" s="3" t="s">
         <v>42</v>
       </c>
@@ -2299,11 +2322,11 @@
       <c r="G39" s="3">
         <v>50</v>
       </c>
-      <c r="K39" s="28"/>
+      <c r="K39" s="31"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="32"/>
-      <c r="B40" s="32"/>
+      <c r="A40" s="36"/>
+      <c r="B40" s="36"/>
       <c r="C40" s="3" t="s">
         <v>43</v>
       </c>
@@ -2319,11 +2342,11 @@
       <c r="G40" s="3">
         <v>50</v>
       </c>
-      <c r="K40" s="28"/>
+      <c r="K40" s="31"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="32"/>
-      <c r="B41" s="32"/>
+      <c r="A41" s="36"/>
+      <c r="B41" s="36"/>
       <c r="C41" s="3" t="s">
         <v>44</v>
       </c>
@@ -2339,13 +2362,13 @@
       <c r="G41" s="3">
         <v>6</v>
       </c>
-      <c r="K41" s="29"/>
+      <c r="K41" s="32"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="32">
-        <v>10</v>
-      </c>
-      <c r="B42" s="32" t="s">
+      <c r="A42" s="36">
+        <v>10</v>
+      </c>
+      <c r="B42" s="36" t="s">
         <v>49</v>
       </c>
       <c r="C42" s="3" t="s">
@@ -2363,13 +2386,13 @@
       <c r="G42" s="3">
         <v>20</v>
       </c>
-      <c r="K42" s="27">
+      <c r="K42" s="30">
         <v>45540</v>
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="32"/>
-      <c r="B43" s="32"/>
+      <c r="A43" s="36"/>
+      <c r="B43" s="36"/>
       <c r="C43" s="3" t="s">
         <v>29</v>
       </c>
@@ -2385,11 +2408,11 @@
       <c r="G43" s="5">
         <v>20</v>
       </c>
-      <c r="K43" s="28"/>
+      <c r="K43" s="31"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="32"/>
-      <c r="B44" s="32"/>
+      <c r="A44" s="36"/>
+      <c r="B44" s="36"/>
       <c r="C44" s="3" t="s">
         <v>46</v>
       </c>
@@ -2405,11 +2428,11 @@
       <c r="G44" s="3">
         <v>20</v>
       </c>
-      <c r="K44" s="28"/>
+      <c r="K44" s="31"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="32"/>
-      <c r="B45" s="32"/>
+      <c r="A45" s="36"/>
+      <c r="B45" s="36"/>
       <c r="C45" s="3" t="s">
         <v>47</v>
       </c>
@@ -2425,11 +2448,11 @@
       <c r="G45" s="3">
         <v>10</v>
       </c>
-      <c r="K45" s="28"/>
+      <c r="K45" s="31"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="32"/>
-      <c r="B46" s="32"/>
+      <c r="A46" s="36"/>
+      <c r="B46" s="36"/>
       <c r="C46" s="3" t="s">
         <v>48</v>
       </c>
@@ -2445,13 +2468,13 @@
       <c r="G46" s="6">
         <v>20</v>
       </c>
-      <c r="K46" s="29"/>
+      <c r="K46" s="32"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="32">
+      <c r="A47" s="36">
         <v>11</v>
       </c>
-      <c r="B47" s="32" t="s">
+      <c r="B47" s="36" t="s">
         <v>52</v>
       </c>
       <c r="C47" s="3" t="s">
@@ -2469,13 +2492,13 @@
       <c r="G47" s="3">
         <v>20</v>
       </c>
-      <c r="K47" s="27">
+      <c r="K47" s="30">
         <v>45540</v>
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="32"/>
-      <c r="B48" s="32"/>
+      <c r="A48" s="36"/>
+      <c r="B48" s="36"/>
       <c r="C48" s="3" t="s">
         <v>51</v>
       </c>
@@ -2491,13 +2514,13 @@
       <c r="G48" s="5">
         <v>11</v>
       </c>
-      <c r="K48" s="29"/>
+      <c r="K48" s="32"/>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="32">
+      <c r="A49" s="36">
         <v>12</v>
       </c>
-      <c r="B49" s="32" t="s">
+      <c r="B49" s="36" t="s">
         <v>56</v>
       </c>
       <c r="C49" s="3" t="s">
@@ -2515,13 +2538,13 @@
       <c r="G49" s="3">
         <v>20</v>
       </c>
-      <c r="K49" s="27">
+      <c r="K49" s="30">
         <v>45539</v>
       </c>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="32"/>
-      <c r="B50" s="32"/>
+      <c r="A50" s="36"/>
+      <c r="B50" s="36"/>
       <c r="C50" s="3" t="s">
         <v>53</v>
       </c>
@@ -2537,11 +2560,11 @@
       <c r="G50" s="3">
         <v>50</v>
       </c>
-      <c r="K50" s="28"/>
+      <c r="K50" s="31"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="32"/>
-      <c r="B51" s="32"/>
+      <c r="A51" s="36"/>
+      <c r="B51" s="36"/>
       <c r="C51" s="3" t="s">
         <v>54</v>
       </c>
@@ -2557,11 +2580,11 @@
       <c r="G51" s="3">
         <v>40</v>
       </c>
-      <c r="K51" s="28"/>
+      <c r="K51" s="31"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="32"/>
-      <c r="B52" s="32"/>
+      <c r="A52" s="36"/>
+      <c r="B52" s="36"/>
       <c r="C52" s="3" t="s">
         <v>55</v>
       </c>
@@ -2577,13 +2600,13 @@
       <c r="G52" s="3">
         <v>10</v>
       </c>
-      <c r="K52" s="29"/>
+      <c r="K52" s="32"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="32">
+      <c r="A53" s="36">
         <v>13</v>
       </c>
-      <c r="B53" s="32" t="s">
+      <c r="B53" s="36" t="s">
         <v>58</v>
       </c>
       <c r="C53" s="3" t="s">
@@ -2601,13 +2624,13 @@
       <c r="G53" s="3">
         <v>20</v>
       </c>
-      <c r="K53" s="27">
+      <c r="K53" s="30">
         <v>45540</v>
       </c>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="32"/>
-      <c r="B54" s="32"/>
+      <c r="A54" s="36"/>
+      <c r="B54" s="36"/>
       <c r="C54" s="3" t="s">
         <v>57</v>
       </c>
@@ -2623,13 +2646,13 @@
       <c r="G54" s="5">
         <v>25</v>
       </c>
-      <c r="K54" s="29"/>
+      <c r="K54" s="32"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="32">
+      <c r="A55" s="36">
         <v>14</v>
       </c>
-      <c r="B55" s="32" t="s">
+      <c r="B55" s="36" t="s">
         <v>59</v>
       </c>
       <c r="C55" s="3" t="s">
@@ -2647,13 +2670,13 @@
       <c r="G55" s="3">
         <v>20</v>
       </c>
-      <c r="K55" s="27">
+      <c r="K55" s="30">
         <v>45540</v>
       </c>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="32"/>
-      <c r="B56" s="32"/>
+      <c r="A56" s="36"/>
+      <c r="B56" s="36"/>
       <c r="C56" s="3" t="s">
         <v>29</v>
       </c>
@@ -2669,11 +2692,11 @@
       <c r="G56" s="5">
         <v>20</v>
       </c>
-      <c r="K56" s="28"/>
+      <c r="K56" s="31"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="32"/>
-      <c r="B57" s="32"/>
+      <c r="A57" s="36"/>
+      <c r="B57" s="36"/>
       <c r="C57" s="3" t="s">
         <v>30</v>
       </c>
@@ -2689,13 +2712,13 @@
       <c r="G57" s="3">
         <v>5000</v>
       </c>
-      <c r="K57" s="29"/>
+      <c r="K57" s="32"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="32">
+      <c r="A58" s="36">
         <v>15</v>
       </c>
-      <c r="B58" s="32" t="s">
+      <c r="B58" s="36" t="s">
         <v>61</v>
       </c>
       <c r="C58" s="3" t="s">
@@ -2713,13 +2736,13 @@
       <c r="G58" s="3">
         <v>20</v>
       </c>
-      <c r="K58" s="27">
+      <c r="K58" s="30">
         <v>45540</v>
       </c>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="32"/>
-      <c r="B59" s="32"/>
+      <c r="A59" s="36"/>
+      <c r="B59" s="36"/>
       <c r="C59" s="3" t="s">
         <v>60</v>
       </c>
@@ -2735,7 +2758,7 @@
       <c r="G59" s="5">
         <v>30</v>
       </c>
-      <c r="K59" s="29"/>
+      <c r="K59" s="32"/>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="13">
@@ -2790,10 +2813,10 @@
       </c>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="32">
+      <c r="A62" s="36">
         <v>18</v>
       </c>
-      <c r="B62" s="32" t="s">
+      <c r="B62" s="36" t="s">
         <v>65</v>
       </c>
       <c r="C62" s="3" t="s">
@@ -2811,13 +2834,13 @@
       <c r="G62" s="3">
         <v>20</v>
       </c>
-      <c r="K62" s="27">
+      <c r="K62" s="30">
         <v>45540</v>
       </c>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="32"/>
-      <c r="B63" s="32"/>
+      <c r="A63" s="36"/>
+      <c r="B63" s="36"/>
       <c r="C63" s="3" t="s">
         <v>64</v>
       </c>
@@ -2833,7 +2856,7 @@
       <c r="G63" s="5">
         <v>20</v>
       </c>
-      <c r="K63" s="29"/>
+      <c r="K63" s="32"/>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="13">
@@ -2862,10 +2885,10 @@
       </c>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="32">
-        <v>20</v>
-      </c>
-      <c r="B65" s="32" t="s">
+      <c r="A65" s="36">
+        <v>20</v>
+      </c>
+      <c r="B65" s="36" t="s">
         <v>69</v>
       </c>
       <c r="C65" s="3" t="s">
@@ -2883,13 +2906,13 @@
       <c r="G65" s="3">
         <v>20</v>
       </c>
-      <c r="K65" s="27">
+      <c r="K65" s="30">
         <v>45544</v>
       </c>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="32"/>
-      <c r="B66" s="32"/>
+      <c r="A66" s="36"/>
+      <c r="B66" s="36"/>
       <c r="C66" s="3" t="s">
         <v>8</v>
       </c>
@@ -2905,11 +2928,11 @@
       <c r="G66" s="3">
         <v>20</v>
       </c>
-      <c r="K66" s="28"/>
+      <c r="K66" s="31"/>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="32"/>
-      <c r="B67" s="32"/>
+      <c r="A67" s="36"/>
+      <c r="B67" s="36"/>
       <c r="C67" s="3" t="s">
         <v>67</v>
       </c>
@@ -2920,13 +2943,13 @@
         <v>21</v>
       </c>
       <c r="G67" s="5"/>
-      <c r="K67" s="29"/>
+      <c r="K67" s="32"/>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="32">
+      <c r="A68" s="36">
         <v>21</v>
       </c>
-      <c r="B68" s="32" t="s">
+      <c r="B68" s="36" t="s">
         <v>85</v>
       </c>
       <c r="C68" s="3" t="s">
@@ -2944,13 +2967,13 @@
       <c r="G68" s="3">
         <v>20</v>
       </c>
-      <c r="K68" s="27">
+      <c r="K68" s="30">
         <v>45544</v>
       </c>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="32"/>
-      <c r="B69" s="32"/>
+      <c r="A69" s="36"/>
+      <c r="B69" s="36"/>
       <c r="C69" s="3" t="s">
         <v>70</v>
       </c>
@@ -2961,11 +2984,11 @@
         <v>21</v>
       </c>
       <c r="G69" s="5"/>
-      <c r="K69" s="28"/>
+      <c r="K69" s="31"/>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="32"/>
-      <c r="B70" s="32"/>
+      <c r="A70" s="36"/>
+      <c r="B70" s="36"/>
       <c r="C70" s="3" t="s">
         <v>71</v>
       </c>
@@ -2978,11 +3001,11 @@
       <c r="F70" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K70" s="28"/>
+      <c r="K70" s="31"/>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="32"/>
-      <c r="B71" s="32"/>
+      <c r="A71" s="36"/>
+      <c r="B71" s="36"/>
       <c r="C71" s="3" t="s">
         <v>73</v>
       </c>
@@ -2998,11 +3021,11 @@
       <c r="G71" s="3">
         <v>50</v>
       </c>
-      <c r="K71" s="28"/>
+      <c r="K71" s="31"/>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="32"/>
-      <c r="B72" s="32"/>
+      <c r="A72" s="36"/>
+      <c r="B72" s="36"/>
       <c r="C72" s="3" t="s">
         <v>74</v>
       </c>
@@ -3018,13 +3041,13 @@
       <c r="G72" s="3">
         <v>50</v>
       </c>
-      <c r="K72" s="29"/>
+      <c r="K72" s="32"/>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="32">
+      <c r="A73" s="36">
         <v>22</v>
       </c>
-      <c r="B73" s="32" t="s">
+      <c r="B73" s="36" t="s">
         <v>76</v>
       </c>
       <c r="C73" s="3" t="s">
@@ -3042,13 +3065,13 @@
       <c r="G73" s="3">
         <v>20</v>
       </c>
-      <c r="K73" s="27">
+      <c r="K73" s="30">
         <v>45540</v>
       </c>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="32"/>
-      <c r="B74" s="32"/>
+      <c r="A74" s="36"/>
+      <c r="B74" s="36"/>
       <c r="C74" s="3" t="s">
         <v>75</v>
       </c>
@@ -3064,13 +3087,13 @@
       <c r="G74" s="3">
         <v>1000</v>
       </c>
-      <c r="K74" s="29"/>
+      <c r="K74" s="32"/>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="32">
+      <c r="A75" s="36">
         <v>23</v>
       </c>
-      <c r="B75" s="32" t="s">
+      <c r="B75" s="36" t="s">
         <v>79</v>
       </c>
       <c r="C75" s="3" t="s">
@@ -3088,13 +3111,13 @@
       <c r="G75" s="3">
         <v>10</v>
       </c>
-      <c r="K75" s="27">
+      <c r="K75" s="30">
         <v>45544</v>
       </c>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="32"/>
-      <c r="B76" s="32"/>
+      <c r="A76" s="36"/>
+      <c r="B76" s="36"/>
       <c r="C76" s="3" t="s">
         <v>78</v>
       </c>
@@ -3110,7 +3133,7 @@
       <c r="G76" s="5">
         <v>5</v>
       </c>
-      <c r="K76" s="29"/>
+      <c r="K76" s="32"/>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="13">
@@ -3139,10 +3162,10 @@
       </c>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="32">
+      <c r="A78" s="36">
         <v>25</v>
       </c>
-      <c r="B78" s="32" t="s">
+      <c r="B78" s="36" t="s">
         <v>84</v>
       </c>
       <c r="C78" s="3" t="s">
@@ -3160,13 +3183,13 @@
       <c r="G78" s="3">
         <v>20</v>
       </c>
-      <c r="K78" s="27">
+      <c r="K78" s="30">
         <v>45553</v>
       </c>
     </row>
     <row r="79" spans="1:11">
-      <c r="A79" s="32"/>
-      <c r="B79" s="32"/>
+      <c r="A79" s="36"/>
+      <c r="B79" s="36"/>
       <c r="C79" s="3" t="s">
         <v>81</v>
       </c>
@@ -3182,11 +3205,11 @@
       <c r="G79" s="3">
         <v>50</v>
       </c>
-      <c r="K79" s="28"/>
+      <c r="K79" s="31"/>
     </row>
     <row r="80" spans="1:11">
-      <c r="A80" s="32"/>
-      <c r="B80" s="32"/>
+      <c r="A80" s="36"/>
+      <c r="B80" s="36"/>
       <c r="C80" s="3" t="s">
         <v>82</v>
       </c>
@@ -3202,11 +3225,11 @@
       <c r="G80" s="3">
         <v>50</v>
       </c>
-      <c r="K80" s="28"/>
+      <c r="K80" s="31"/>
     </row>
     <row r="81" spans="1:11">
-      <c r="A81" s="32"/>
-      <c r="B81" s="32"/>
+      <c r="A81" s="36"/>
+      <c r="B81" s="36"/>
       <c r="C81" s="3" t="s">
         <v>83</v>
       </c>
@@ -3222,7 +3245,7 @@
       <c r="G81" s="3">
         <v>6</v>
       </c>
-      <c r="K81" s="29"/>
+      <c r="K81" s="32"/>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="13">
@@ -3251,10 +3274,10 @@
       </c>
     </row>
     <row r="83" spans="1:11">
-      <c r="A83" s="32">
+      <c r="A83" s="36">
         <v>27</v>
       </c>
-      <c r="B83" s="32" t="s">
+      <c r="B83" s="36" t="s">
         <v>69</v>
       </c>
       <c r="C83" s="3" t="s">
@@ -3272,13 +3295,13 @@
       <c r="G83" s="3">
         <v>20</v>
       </c>
-      <c r="K83" s="27">
+      <c r="K83" s="30">
         <v>45544</v>
       </c>
     </row>
     <row r="84" spans="1:11">
-      <c r="A84" s="32"/>
-      <c r="B84" s="32"/>
+      <c r="A84" s="36"/>
+      <c r="B84" s="36"/>
       <c r="C84" s="3" t="s">
         <v>8</v>
       </c>
@@ -3294,11 +3317,11 @@
       <c r="G84" s="3">
         <v>20</v>
       </c>
-      <c r="K84" s="28"/>
+      <c r="K84" s="31"/>
     </row>
     <row r="85" spans="1:11">
-      <c r="A85" s="32"/>
-      <c r="B85" s="32"/>
+      <c r="A85" s="36"/>
+      <c r="B85" s="36"/>
       <c r="C85" s="3" t="s">
         <v>67</v>
       </c>
@@ -3309,13 +3332,13 @@
         <v>21</v>
       </c>
       <c r="G85" s="5"/>
-      <c r="K85" s="29"/>
+      <c r="K85" s="32"/>
     </row>
     <row r="86" spans="1:11">
-      <c r="A86" s="32">
+      <c r="A86" s="36">
         <v>28</v>
       </c>
-      <c r="B86" s="32" t="s">
+      <c r="B86" s="36" t="s">
         <v>85</v>
       </c>
       <c r="C86" s="3" t="s">
@@ -3333,13 +3356,13 @@
       <c r="G86" s="3">
         <v>20</v>
       </c>
-      <c r="K86" s="27">
+      <c r="K86" s="30">
         <v>45544</v>
       </c>
     </row>
     <row r="87" spans="1:11">
-      <c r="A87" s="32"/>
-      <c r="B87" s="32"/>
+      <c r="A87" s="36"/>
+      <c r="B87" s="36"/>
       <c r="C87" s="3" t="s">
         <v>70</v>
       </c>
@@ -3350,11 +3373,11 @@
         <v>21</v>
       </c>
       <c r="G87" s="5"/>
-      <c r="K87" s="28"/>
+      <c r="K87" s="31"/>
     </row>
     <row r="88" spans="1:11">
-      <c r="A88" s="32"/>
-      <c r="B88" s="32"/>
+      <c r="A88" s="36"/>
+      <c r="B88" s="36"/>
       <c r="C88" s="3" t="s">
         <v>71</v>
       </c>
@@ -3367,11 +3390,11 @@
       <c r="F88" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K88" s="28"/>
+      <c r="K88" s="31"/>
     </row>
     <row r="89" spans="1:11">
-      <c r="A89" s="32"/>
-      <c r="B89" s="32"/>
+      <c r="A89" s="36"/>
+      <c r="B89" s="36"/>
       <c r="C89" s="3" t="s">
         <v>73</v>
       </c>
@@ -3387,11 +3410,11 @@
       <c r="G89" s="3">
         <v>50</v>
       </c>
-      <c r="K89" s="28"/>
+      <c r="K89" s="31"/>
     </row>
     <row r="90" spans="1:11">
-      <c r="A90" s="32"/>
-      <c r="B90" s="32"/>
+      <c r="A90" s="36"/>
+      <c r="B90" s="36"/>
       <c r="C90" s="3" t="s">
         <v>74</v>
       </c>
@@ -3407,13 +3430,13 @@
       <c r="G90" s="3">
         <v>50</v>
       </c>
-      <c r="K90" s="29"/>
+      <c r="K90" s="32"/>
     </row>
     <row r="91" spans="1:11">
-      <c r="A91" s="32">
+      <c r="A91" s="36">
         <v>29</v>
       </c>
-      <c r="B91" s="32" t="s">
+      <c r="B91" s="36" t="s">
         <v>79</v>
       </c>
       <c r="C91" s="3" t="s">
@@ -3431,13 +3454,13 @@
       <c r="G91" s="3">
         <v>10</v>
       </c>
-      <c r="K91" s="27">
+      <c r="K91" s="30">
         <v>45544</v>
       </c>
     </row>
     <row r="92" spans="1:11">
-      <c r="A92" s="32"/>
-      <c r="B92" s="32"/>
+      <c r="A92" s="36"/>
+      <c r="B92" s="36"/>
       <c r="C92" s="3" t="s">
         <v>78</v>
       </c>
@@ -3453,13 +3476,13 @@
       <c r="G92" s="5">
         <v>5</v>
       </c>
-      <c r="K92" s="29"/>
+      <c r="K92" s="32"/>
     </row>
     <row r="93" spans="1:11">
-      <c r="A93" s="32">
+      <c r="A93" s="36">
         <v>30</v>
       </c>
-      <c r="B93" s="32" t="s">
+      <c r="B93" s="36" t="s">
         <v>92</v>
       </c>
       <c r="C93" s="3" t="s">
@@ -3477,13 +3500,13 @@
       <c r="G93" s="3">
         <v>20</v>
       </c>
-      <c r="K93" s="27">
+      <c r="K93" s="30">
         <v>45544</v>
       </c>
     </row>
     <row r="94" spans="1:11">
-      <c r="A94" s="32"/>
-      <c r="B94" s="32"/>
+      <c r="A94" s="36"/>
+      <c r="B94" s="36"/>
       <c r="C94" s="3" t="s">
         <v>87</v>
       </c>
@@ -3499,11 +3522,11 @@
       <c r="G94" s="3">
         <v>30</v>
       </c>
-      <c r="K94" s="28"/>
+      <c r="K94" s="31"/>
     </row>
     <row r="95" spans="1:11">
-      <c r="A95" s="32"/>
-      <c r="B95" s="32"/>
+      <c r="A95" s="36"/>
+      <c r="B95" s="36"/>
       <c r="C95" s="3" t="s">
         <v>88</v>
       </c>
@@ -3519,11 +3542,11 @@
       <c r="G95" s="3">
         <v>30</v>
       </c>
-      <c r="K95" s="28"/>
+      <c r="K95" s="31"/>
     </row>
     <row r="96" spans="1:11">
-      <c r="A96" s="32"/>
-      <c r="B96" s="32"/>
+      <c r="A96" s="36"/>
+      <c r="B96" s="36"/>
       <c r="C96" s="3" t="s">
         <v>90</v>
       </c>
@@ -3542,13 +3565,13 @@
       <c r="J96" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K96" s="29"/>
+      <c r="K96" s="32"/>
     </row>
     <row r="97" spans="1:11">
-      <c r="A97" s="32">
+      <c r="A97" s="36">
         <v>31</v>
       </c>
-      <c r="B97" s="32" t="s">
+      <c r="B97" s="36" t="s">
         <v>99</v>
       </c>
       <c r="C97" s="3" t="s">
@@ -3566,13 +3589,13 @@
       <c r="G97" s="3">
         <v>20</v>
       </c>
-      <c r="K97" s="27">
+      <c r="K97" s="30">
         <v>45544</v>
       </c>
     </row>
     <row r="98" spans="1:11">
-      <c r="A98" s="32"/>
-      <c r="B98" s="32"/>
+      <c r="A98" s="36"/>
+      <c r="B98" s="36"/>
       <c r="C98" s="3" t="s">
         <v>93</v>
       </c>
@@ -3591,11 +3614,11 @@
       <c r="J98" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="K98" s="28"/>
+      <c r="K98" s="31"/>
     </row>
     <row r="99" spans="1:11">
-      <c r="A99" s="32"/>
-      <c r="B99" s="32"/>
+      <c r="A99" s="36"/>
+      <c r="B99" s="36"/>
       <c r="C99" s="3" t="s">
         <v>94</v>
       </c>
@@ -3614,11 +3637,11 @@
       <c r="J99" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="K99" s="28"/>
+      <c r="K99" s="31"/>
     </row>
     <row r="100" spans="1:11">
-      <c r="A100" s="32"/>
-      <c r="B100" s="32"/>
+      <c r="A100" s="36"/>
+      <c r="B100" s="36"/>
       <c r="C100" s="3" t="s">
         <v>95</v>
       </c>
@@ -3637,13 +3660,13 @@
       <c r="J100" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="K100" s="29"/>
+      <c r="K100" s="32"/>
     </row>
     <row r="101" spans="1:11">
-      <c r="A101" s="32">
+      <c r="A101" s="36">
         <v>32</v>
       </c>
-      <c r="B101" s="32" t="s">
+      <c r="B101" s="36" t="s">
         <v>101</v>
       </c>
       <c r="C101" s="3" t="s">
@@ -3661,13 +3684,13 @@
       <c r="G101" s="3">
         <v>20</v>
       </c>
-      <c r="K101" s="27">
+      <c r="K101" s="30">
         <v>45546</v>
       </c>
     </row>
     <row r="102" spans="1:11">
-      <c r="A102" s="32"/>
-      <c r="B102" s="32"/>
+      <c r="A102" s="36"/>
+      <c r="B102" s="36"/>
       <c r="C102" s="3" t="s">
         <v>100</v>
       </c>
@@ -3683,13 +3706,13 @@
       <c r="G102" s="3">
         <v>20</v>
       </c>
-      <c r="K102" s="29"/>
+      <c r="K102" s="32"/>
     </row>
     <row r="103" spans="1:11">
-      <c r="A103" s="32">
+      <c r="A103" s="36">
         <v>33</v>
       </c>
-      <c r="B103" s="32" t="s">
+      <c r="B103" s="36" t="s">
         <v>102</v>
       </c>
       <c r="C103" s="3" t="s">
@@ -3707,13 +3730,13 @@
       <c r="G103" s="3">
         <v>20</v>
       </c>
-      <c r="K103" s="27">
+      <c r="K103" s="30">
         <v>45544</v>
       </c>
     </row>
     <row r="104" spans="1:11">
-      <c r="A104" s="32"/>
-      <c r="B104" s="32"/>
+      <c r="A104" s="36"/>
+      <c r="B104" s="36"/>
       <c r="C104" s="3" t="s">
         <v>100</v>
       </c>
@@ -3729,11 +3752,11 @@
       <c r="G104" s="3">
         <v>20</v>
       </c>
-      <c r="K104" s="28"/>
+      <c r="K104" s="31"/>
     </row>
     <row r="105" spans="1:11">
-      <c r="A105" s="32"/>
-      <c r="B105" s="32"/>
+      <c r="A105" s="36"/>
+      <c r="B105" s="36"/>
       <c r="C105" s="3" t="s">
         <v>71</v>
       </c>
@@ -3746,7 +3769,7 @@
       <c r="F105" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K105" s="29"/>
+      <c r="K105" s="32"/>
     </row>
     <row r="106" spans="1:11">
       <c r="A106" s="13">
@@ -3827,10 +3850,10 @@
       </c>
     </row>
     <row r="109" spans="1:11">
-      <c r="A109" s="32">
+      <c r="A109" s="36">
         <v>37</v>
       </c>
-      <c r="B109" s="32" t="s">
+      <c r="B109" s="36" t="s">
         <v>112</v>
       </c>
       <c r="C109" s="3" t="s">
@@ -3848,13 +3871,13 @@
       <c r="G109" s="3">
         <v>50</v>
       </c>
-      <c r="K109" s="27">
+      <c r="K109" s="30">
         <v>45545</v>
       </c>
     </row>
     <row r="110" spans="1:11">
-      <c r="A110" s="32"/>
-      <c r="B110" s="32"/>
+      <c r="A110" s="36"/>
+      <c r="B110" s="36"/>
       <c r="C110" s="3" t="s">
         <v>109</v>
       </c>
@@ -3870,11 +3893,11 @@
       <c r="G110" s="3">
         <v>50</v>
       </c>
-      <c r="K110" s="28"/>
+      <c r="K110" s="31"/>
     </row>
     <row r="111" spans="1:11">
-      <c r="A111" s="32"/>
-      <c r="B111" s="32"/>
+      <c r="A111" s="36"/>
+      <c r="B111" s="36"/>
       <c r="C111" s="3" t="s">
         <v>110</v>
       </c>
@@ -3890,11 +3913,11 @@
       <c r="G111" s="3">
         <v>3</v>
       </c>
-      <c r="K111" s="28"/>
+      <c r="K111" s="31"/>
     </row>
     <row r="112" spans="1:11">
-      <c r="A112" s="32"/>
-      <c r="B112" s="32"/>
+      <c r="A112" s="36"/>
+      <c r="B112" s="36"/>
       <c r="C112" s="3" t="s">
         <v>41</v>
       </c>
@@ -3910,11 +3933,11 @@
       <c r="G112" s="5">
         <v>20</v>
       </c>
-      <c r="K112" s="28"/>
+      <c r="K112" s="31"/>
     </row>
     <row r="113" spans="1:11">
-      <c r="A113" s="32"/>
-      <c r="B113" s="32"/>
+      <c r="A113" s="36"/>
+      <c r="B113" s="36"/>
       <c r="C113" s="3" t="s">
         <v>111</v>
       </c>
@@ -3930,7 +3953,7 @@
       <c r="G113" s="6">
         <v>50</v>
       </c>
-      <c r="K113" s="29"/>
+      <c r="K113" s="32"/>
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="13">
@@ -3985,10 +4008,10 @@
       </c>
     </row>
     <row r="116" spans="1:11">
-      <c r="A116" s="32">
+      <c r="A116" s="36">
         <v>40</v>
       </c>
-      <c r="B116" s="32" t="s">
+      <c r="B116" s="36" t="s">
         <v>119</v>
       </c>
       <c r="C116" s="3" t="s">
@@ -4006,13 +4029,13 @@
       <c r="G116" s="3">
         <v>20</v>
       </c>
-      <c r="K116" s="27">
+      <c r="K116" s="30">
         <v>45545</v>
       </c>
     </row>
     <row r="117" spans="1:11">
-      <c r="A117" s="32"/>
-      <c r="B117" s="32"/>
+      <c r="A117" s="36"/>
+      <c r="B117" s="36"/>
       <c r="C117" s="3" t="s">
         <v>115</v>
       </c>
@@ -4028,11 +4051,11 @@
       <c r="G117" s="5">
         <v>30</v>
       </c>
-      <c r="K117" s="28"/>
+      <c r="K117" s="31"/>
     </row>
     <row r="118" spans="1:11">
-      <c r="A118" s="32"/>
-      <c r="B118" s="32"/>
+      <c r="A118" s="36"/>
+      <c r="B118" s="36"/>
       <c r="C118" s="3" t="s">
         <v>116</v>
       </c>
@@ -4048,11 +4071,11 @@
       <c r="G118" s="3">
         <v>30</v>
       </c>
-      <c r="K118" s="28"/>
+      <c r="K118" s="31"/>
     </row>
     <row r="119" spans="1:11">
-      <c r="A119" s="32"/>
-      <c r="B119" s="32"/>
+      <c r="A119" s="36"/>
+      <c r="B119" s="36"/>
       <c r="C119" s="3" t="s">
         <v>117</v>
       </c>
@@ -4062,13 +4085,13 @@
       <c r="F119" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="K119" s="29"/>
+      <c r="K119" s="32"/>
     </row>
     <row r="120" spans="1:11">
-      <c r="A120" s="33">
+      <c r="A120" s="27">
         <v>41</v>
       </c>
-      <c r="B120" s="32" t="s">
+      <c r="B120" s="36" t="s">
         <v>122</v>
       </c>
       <c r="C120" s="3" t="s">
@@ -4086,13 +4109,13 @@
       <c r="G120" s="3">
         <v>20</v>
       </c>
-      <c r="K120" s="27" t="s">
+      <c r="K120" s="30" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="121" spans="1:11">
-      <c r="A121" s="34"/>
-      <c r="B121" s="32"/>
+      <c r="A121" s="28"/>
+      <c r="B121" s="36"/>
       <c r="C121" s="3" t="s">
         <v>120</v>
       </c>
@@ -4108,11 +4131,11 @@
       <c r="G121" s="5">
         <v>10</v>
       </c>
-      <c r="K121" s="28"/>
+      <c r="K121" s="31"/>
     </row>
     <row r="122" spans="1:11">
-      <c r="A122" s="35"/>
-      <c r="B122" s="32"/>
+      <c r="A122" s="29"/>
+      <c r="B122" s="36"/>
       <c r="C122" s="3" t="s">
         <v>121</v>
       </c>
@@ -4128,13 +4151,13 @@
       <c r="G122" s="3">
         <v>15</v>
       </c>
-      <c r="K122" s="29"/>
+      <c r="K122" s="32"/>
     </row>
     <row r="123" spans="1:11">
-      <c r="A123" s="33">
+      <c r="A123" s="27">
         <v>42</v>
       </c>
-      <c r="B123" s="32" t="s">
+      <c r="B123" s="36" t="s">
         <v>124</v>
       </c>
       <c r="C123" s="3" t="s">
@@ -4152,13 +4175,13 @@
       <c r="G123" s="3">
         <v>20</v>
       </c>
-      <c r="K123" s="27">
+      <c r="K123" s="30">
         <v>45545</v>
       </c>
     </row>
     <row r="124" spans="1:11">
-      <c r="A124" s="34"/>
-      <c r="B124" s="32"/>
+      <c r="A124" s="28"/>
+      <c r="B124" s="36"/>
       <c r="C124" s="3" t="s">
         <v>123</v>
       </c>
@@ -4174,11 +4197,11 @@
       <c r="G124" s="5">
         <v>50</v>
       </c>
-      <c r="K124" s="28"/>
+      <c r="K124" s="31"/>
     </row>
     <row r="125" spans="1:11">
-      <c r="A125" s="35"/>
-      <c r="B125" s="32"/>
+      <c r="A125" s="29"/>
+      <c r="B125" s="36"/>
       <c r="C125" s="3" t="s">
         <v>121</v>
       </c>
@@ -4194,13 +4217,13 @@
       <c r="G125" s="3">
         <v>50</v>
       </c>
-      <c r="K125" s="29"/>
+      <c r="K125" s="32"/>
     </row>
     <row r="126" spans="1:11">
-      <c r="A126" s="33">
+      <c r="A126" s="27">
         <v>43</v>
       </c>
-      <c r="B126" s="32" t="s">
+      <c r="B126" s="36" t="s">
         <v>127</v>
       </c>
       <c r="C126" s="3" t="s">
@@ -4218,13 +4241,13 @@
       <c r="G126" s="3">
         <v>20</v>
       </c>
-      <c r="K126" s="27">
+      <c r="K126" s="30">
         <v>45546</v>
       </c>
     </row>
     <row r="127" spans="1:11">
-      <c r="A127" s="34"/>
-      <c r="B127" s="32"/>
+      <c r="A127" s="28"/>
+      <c r="B127" s="36"/>
       <c r="C127" s="3" t="s">
         <v>125</v>
       </c>
@@ -4240,11 +4263,11 @@
       <c r="G127" s="5">
         <v>60</v>
       </c>
-      <c r="K127" s="28"/>
+      <c r="K127" s="31"/>
     </row>
     <row r="128" spans="1:11">
-      <c r="A128" s="35"/>
-      <c r="B128" s="32"/>
+      <c r="A128" s="29"/>
+      <c r="B128" s="36"/>
       <c r="C128" s="3" t="s">
         <v>126</v>
       </c>
@@ -4260,13 +4283,13 @@
       <c r="G128" s="3">
         <v>60</v>
       </c>
-      <c r="K128" s="29"/>
+      <c r="K128" s="32"/>
     </row>
     <row r="129" spans="1:11">
-      <c r="A129" s="33">
+      <c r="A129" s="27">
         <v>44</v>
       </c>
-      <c r="B129" s="32" t="s">
+      <c r="B129" s="36" t="s">
         <v>129</v>
       </c>
       <c r="C129" s="3" t="s">
@@ -4284,13 +4307,13 @@
       <c r="G129" s="3">
         <v>20</v>
       </c>
-      <c r="K129" s="27">
+      <c r="K129" s="30">
         <v>45545</v>
       </c>
     </row>
     <row r="130" spans="1:11">
-      <c r="A130" s="34"/>
-      <c r="B130" s="32"/>
+      <c r="A130" s="28"/>
+      <c r="B130" s="36"/>
       <c r="C130" s="3" t="s">
         <v>128</v>
       </c>
@@ -4306,11 +4329,11 @@
       <c r="G130" s="5">
         <v>50</v>
       </c>
-      <c r="K130" s="28"/>
+      <c r="K130" s="31"/>
     </row>
     <row r="131" spans="1:11">
-      <c r="A131" s="35"/>
-      <c r="B131" s="32"/>
+      <c r="A131" s="29"/>
+      <c r="B131" s="36"/>
       <c r="C131" s="3" t="s">
         <v>126</v>
       </c>
@@ -4326,7 +4349,7 @@
       <c r="G131" s="3">
         <v>50</v>
       </c>
-      <c r="K131" s="29"/>
+      <c r="K131" s="32"/>
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="13">
@@ -4355,10 +4378,10 @@
       </c>
     </row>
     <row r="133" spans="1:11">
-      <c r="A133" s="33">
+      <c r="A133" s="27">
         <v>46</v>
       </c>
-      <c r="B133" s="32" t="s">
+      <c r="B133" s="36" t="s">
         <v>133</v>
       </c>
       <c r="C133" s="3" t="s">
@@ -4376,13 +4399,13 @@
       <c r="G133" s="3">
         <v>20</v>
       </c>
-      <c r="K133" s="27">
+      <c r="K133" s="30">
         <v>45545</v>
       </c>
     </row>
     <row r="134" spans="1:11">
-      <c r="A134" s="34"/>
-      <c r="B134" s="32"/>
+      <c r="A134" s="28"/>
+      <c r="B134" s="36"/>
       <c r="C134" s="3" t="s">
         <v>131</v>
       </c>
@@ -4398,11 +4421,11 @@
       <c r="G134" s="3">
         <v>30</v>
       </c>
-      <c r="K134" s="28"/>
+      <c r="K134" s="31"/>
     </row>
     <row r="135" spans="1:11">
-      <c r="A135" s="35"/>
-      <c r="B135" s="32"/>
+      <c r="A135" s="29"/>
+      <c r="B135" s="36"/>
       <c r="C135" s="3" t="s">
         <v>132</v>
       </c>
@@ -4418,13 +4441,13 @@
       <c r="G135" s="3">
         <v>20</v>
       </c>
-      <c r="K135" s="29"/>
+      <c r="K135" s="32"/>
     </row>
     <row r="136" spans="1:11">
-      <c r="A136" s="33">
+      <c r="A136" s="27">
         <v>47</v>
       </c>
-      <c r="B136" s="32" t="s">
+      <c r="B136" s="36" t="s">
         <v>135</v>
       </c>
       <c r="C136" s="3" t="s">
@@ -4442,13 +4465,13 @@
       <c r="G136" s="3">
         <v>20</v>
       </c>
-      <c r="K136" s="27">
+      <c r="K136" s="30">
         <v>45545</v>
       </c>
     </row>
     <row r="137" spans="1:11">
-      <c r="A137" s="34"/>
-      <c r="B137" s="32"/>
+      <c r="A137" s="28"/>
+      <c r="B137" s="36"/>
       <c r="C137" s="3" t="s">
         <v>8</v>
       </c>
@@ -4465,11 +4488,11 @@
         <v>20</v>
       </c>
       <c r="I137" s="4"/>
-      <c r="K137" s="28"/>
+      <c r="K137" s="31"/>
     </row>
     <row r="138" spans="1:11">
-      <c r="A138" s="35"/>
-      <c r="B138" s="32"/>
+      <c r="A138" s="29"/>
+      <c r="B138" s="36"/>
       <c r="C138" s="3" t="s">
         <v>134</v>
       </c>
@@ -4483,13 +4506,13 @@
         <v>21</v>
       </c>
       <c r="I138" s="4"/>
-      <c r="K138" s="29"/>
+      <c r="K138" s="32"/>
     </row>
     <row r="139" spans="1:11">
-      <c r="A139" s="33">
+      <c r="A139" s="27">
         <v>48</v>
       </c>
-      <c r="B139" s="32" t="s">
+      <c r="B139" s="36" t="s">
         <v>141</v>
       </c>
       <c r="C139" s="3" t="s">
@@ -4508,13 +4531,13 @@
         <v>50</v>
       </c>
       <c r="I139" s="4"/>
-      <c r="K139" s="27">
+      <c r="K139" s="30">
         <v>45545</v>
       </c>
     </row>
     <row r="140" spans="1:11">
-      <c r="A140" s="34"/>
-      <c r="B140" s="32"/>
+      <c r="A140" s="28"/>
+      <c r="B140" s="36"/>
       <c r="C140" s="3" t="s">
         <v>137</v>
       </c>
@@ -4534,11 +4557,11 @@
       <c r="J140" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="K140" s="28"/>
+      <c r="K140" s="31"/>
     </row>
     <row r="141" spans="1:11">
-      <c r="A141" s="34"/>
-      <c r="B141" s="32"/>
+      <c r="A141" s="28"/>
+      <c r="B141" s="36"/>
       <c r="C141" s="3" t="s">
         <v>139</v>
       </c>
@@ -4555,11 +4578,11 @@
         <v>50</v>
       </c>
       <c r="I141" s="4"/>
-      <c r="K141" s="28"/>
+      <c r="K141" s="31"/>
     </row>
     <row r="142" spans="1:11">
-      <c r="A142" s="35"/>
-      <c r="B142" s="32"/>
+      <c r="A142" s="29"/>
+      <c r="B142" s="36"/>
       <c r="C142" s="3" t="s">
         <v>140</v>
       </c>
@@ -4570,13 +4593,13 @@
         <v>21</v>
       </c>
       <c r="I142" s="4"/>
-      <c r="K142" s="29"/>
+      <c r="K142" s="32"/>
     </row>
     <row r="143" spans="1:11">
-      <c r="A143" s="33">
+      <c r="A143" s="27">
         <v>49</v>
       </c>
-      <c r="B143" s="32" t="s">
+      <c r="B143" s="36" t="s">
         <v>146</v>
       </c>
       <c r="C143" s="3" t="s">
@@ -4594,13 +4617,13 @@
       <c r="G143" s="3">
         <v>2</v>
       </c>
-      <c r="K143" s="27">
+      <c r="K143" s="30">
         <v>45545</v>
       </c>
     </row>
     <row r="144" spans="1:11">
-      <c r="A144" s="34"/>
-      <c r="B144" s="32"/>
+      <c r="A144" s="28"/>
+      <c r="B144" s="36"/>
       <c r="C144" s="3" t="s">
         <v>143</v>
       </c>
@@ -4616,11 +4639,11 @@
       <c r="G144" s="3">
         <v>11</v>
       </c>
-      <c r="K144" s="28"/>
+      <c r="K144" s="31"/>
     </row>
     <row r="145" spans="1:11">
-      <c r="A145" s="34"/>
-      <c r="B145" s="32"/>
+      <c r="A145" s="28"/>
+      <c r="B145" s="36"/>
       <c r="C145" s="3" t="s">
         <v>144</v>
       </c>
@@ -4636,11 +4659,11 @@
       <c r="G145" s="3">
         <v>11</v>
       </c>
-      <c r="K145" s="28"/>
+      <c r="K145" s="31"/>
     </row>
     <row r="146" spans="1:11">
-      <c r="A146" s="35"/>
-      <c r="B146" s="32"/>
+      <c r="A146" s="29"/>
+      <c r="B146" s="36"/>
       <c r="C146" s="3" t="s">
         <v>145</v>
       </c>
@@ -4656,13 +4679,13 @@
       <c r="G146" s="3">
         <v>20</v>
       </c>
-      <c r="K146" s="29"/>
+      <c r="K146" s="32"/>
     </row>
     <row r="147" spans="1:11">
-      <c r="A147" s="33">
-        <v>50</v>
-      </c>
-      <c r="B147" s="32" t="s">
+      <c r="A147" s="27">
+        <v>50</v>
+      </c>
+      <c r="B147" s="36" t="s">
         <v>149</v>
       </c>
       <c r="C147" s="3" t="s">
@@ -4680,13 +4703,13 @@
       <c r="G147" s="3">
         <v>2</v>
       </c>
-      <c r="K147" s="27">
+      <c r="K147" s="30">
         <v>45545</v>
       </c>
     </row>
     <row r="148" spans="1:11">
-      <c r="A148" s="35"/>
-      <c r="B148" s="32"/>
+      <c r="A148" s="29"/>
+      <c r="B148" s="36"/>
       <c r="C148" s="3" t="s">
         <v>148</v>
       </c>
@@ -4702,13 +4725,13 @@
       <c r="G148" s="3">
         <v>50</v>
       </c>
-      <c r="K148" s="29"/>
+      <c r="K148" s="32"/>
     </row>
     <row r="149" spans="1:11">
-      <c r="A149" s="33">
+      <c r="A149" s="27">
         <v>51</v>
       </c>
-      <c r="B149" s="32" t="s">
+      <c r="B149" s="36" t="s">
         <v>153</v>
       </c>
       <c r="C149" s="3" t="s">
@@ -4726,13 +4749,13 @@
       <c r="G149" s="3">
         <v>20</v>
       </c>
-      <c r="K149" s="27">
+      <c r="K149" s="30">
         <v>45545</v>
       </c>
     </row>
     <row r="150" spans="1:11">
-      <c r="A150" s="34"/>
-      <c r="B150" s="32"/>
+      <c r="A150" s="28"/>
+      <c r="B150" s="36"/>
       <c r="C150" s="10" t="s">
         <v>150</v>
       </c>
@@ -4748,11 +4771,11 @@
       <c r="G150" s="3">
         <v>5</v>
       </c>
-      <c r="K150" s="28"/>
+      <c r="K150" s="31"/>
     </row>
     <row r="151" spans="1:11">
-      <c r="A151" s="34"/>
-      <c r="B151" s="32"/>
+      <c r="A151" s="28"/>
+      <c r="B151" s="36"/>
       <c r="C151" s="3" t="s">
         <v>151</v>
       </c>
@@ -4768,11 +4791,11 @@
       <c r="G151" s="3">
         <v>50</v>
       </c>
-      <c r="K151" s="28"/>
+      <c r="K151" s="31"/>
     </row>
     <row r="152" spans="1:11">
-      <c r="A152" s="35"/>
-      <c r="B152" s="32"/>
+      <c r="A152" s="29"/>
+      <c r="B152" s="36"/>
       <c r="C152" s="3" t="s">
         <v>152</v>
       </c>
@@ -4782,7 +4805,7 @@
       <c r="F152" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K152" s="29"/>
+      <c r="K152" s="32"/>
     </row>
     <row r="153" spans="1:11">
       <c r="A153" s="13">
@@ -4811,10 +4834,10 @@
       </c>
     </row>
     <row r="154" spans="1:11">
-      <c r="A154" s="33">
+      <c r="A154" s="27">
         <v>53</v>
       </c>
-      <c r="B154" s="32" t="s">
+      <c r="B154" s="36" t="s">
         <v>156</v>
       </c>
       <c r="C154" s="3" t="s">
@@ -4832,13 +4855,13 @@
       <c r="G154" s="3">
         <v>30</v>
       </c>
-      <c r="K154" s="27">
+      <c r="K154" s="30">
         <v>45545</v>
       </c>
     </row>
     <row r="155" spans="1:11">
-      <c r="A155" s="35"/>
-      <c r="B155" s="32"/>
+      <c r="A155" s="29"/>
+      <c r="B155" s="36"/>
       <c r="C155" s="3" t="s">
         <v>50</v>
       </c>
@@ -4854,13 +4877,13 @@
       <c r="G155" s="3">
         <v>20</v>
       </c>
-      <c r="K155" s="29"/>
+      <c r="K155" s="32"/>
     </row>
     <row r="156" spans="1:11">
-      <c r="A156" s="33">
+      <c r="A156" s="27">
         <v>54</v>
       </c>
-      <c r="B156" s="32" t="s">
+      <c r="B156" s="36" t="s">
         <v>155</v>
       </c>
       <c r="C156" s="3" t="s">
@@ -4878,13 +4901,13 @@
       <c r="G156" s="3">
         <v>20</v>
       </c>
-      <c r="K156" s="27">
+      <c r="K156" s="30">
         <v>45545</v>
       </c>
     </row>
     <row r="157" spans="1:11">
-      <c r="A157" s="35"/>
-      <c r="B157" s="32"/>
+      <c r="A157" s="29"/>
+      <c r="B157" s="36"/>
       <c r="C157" s="3" t="s">
         <v>155</v>
       </c>
@@ -4900,7 +4923,7 @@
       <c r="G157" s="3">
         <v>50</v>
       </c>
-      <c r="K157" s="29"/>
+      <c r="K157" s="32"/>
     </row>
     <row r="158" spans="1:11">
       <c r="A158" s="13">
@@ -4929,10 +4952,10 @@
       </c>
     </row>
     <row r="159" spans="1:11">
-      <c r="A159" s="33">
+      <c r="A159" s="27">
         <v>56</v>
       </c>
-      <c r="B159" s="32" t="s">
+      <c r="B159" s="36" t="s">
         <v>160</v>
       </c>
       <c r="C159" s="3" t="s">
@@ -4950,13 +4973,13 @@
       <c r="G159" s="3">
         <v>20</v>
       </c>
-      <c r="K159" s="27">
+      <c r="K159" s="30">
         <v>45546</v>
       </c>
     </row>
     <row r="160" spans="1:11">
-      <c r="A160" s="35"/>
-      <c r="B160" s="32"/>
+      <c r="A160" s="29"/>
+      <c r="B160" s="36"/>
       <c r="C160" s="3" t="s">
         <v>159</v>
       </c>
@@ -4972,13 +4995,13 @@
       <c r="G160" s="3">
         <v>3</v>
       </c>
-      <c r="K160" s="29"/>
+      <c r="K160" s="32"/>
     </row>
     <row r="161" spans="1:11">
-      <c r="A161" s="33">
+      <c r="A161" s="27">
         <v>57</v>
       </c>
-      <c r="B161" s="32" t="s">
+      <c r="B161" s="36" t="s">
         <v>162</v>
       </c>
       <c r="C161" s="3" t="s">
@@ -4996,13 +5019,13 @@
       <c r="G161" s="3">
         <v>20</v>
       </c>
-      <c r="K161" s="27">
+      <c r="K161" s="30">
         <v>45546</v>
       </c>
     </row>
     <row r="162" spans="1:11">
-      <c r="A162" s="35"/>
-      <c r="B162" s="32"/>
+      <c r="A162" s="29"/>
+      <c r="B162" s="36"/>
       <c r="C162" s="3" t="s">
         <v>161</v>
       </c>
@@ -5018,13 +5041,13 @@
       <c r="G162" s="3">
         <v>50</v>
       </c>
-      <c r="K162" s="29"/>
+      <c r="K162" s="32"/>
     </row>
     <row r="163" spans="1:11">
-      <c r="A163" s="33">
+      <c r="A163" s="27">
         <v>58</v>
       </c>
-      <c r="B163" s="32" t="s">
+      <c r="B163" s="36" t="s">
         <v>165</v>
       </c>
       <c r="C163" s="3" t="s">
@@ -5042,13 +5065,13 @@
       <c r="G163" s="3">
         <v>20</v>
       </c>
-      <c r="K163" s="27">
+      <c r="K163" s="30">
         <v>45546</v>
       </c>
     </row>
     <row r="164" spans="1:11">
-      <c r="A164" s="34"/>
-      <c r="B164" s="32"/>
+      <c r="A164" s="28"/>
+      <c r="B164" s="36"/>
       <c r="C164" s="3" t="s">
         <v>163</v>
       </c>
@@ -5064,11 +5087,11 @@
       <c r="G164" s="3">
         <v>25</v>
       </c>
-      <c r="K164" s="28"/>
+      <c r="K164" s="31"/>
     </row>
     <row r="165" spans="1:11">
-      <c r="A165" s="35"/>
-      <c r="B165" s="32"/>
+      <c r="A165" s="29"/>
+      <c r="B165" s="36"/>
       <c r="C165" s="3" t="s">
         <v>164</v>
       </c>
@@ -5078,13 +5101,13 @@
       <c r="F165" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="K165" s="29"/>
+      <c r="K165" s="32"/>
     </row>
     <row r="166" spans="1:11">
-      <c r="A166" s="33">
+      <c r="A166" s="27">
         <v>59</v>
       </c>
-      <c r="B166" s="32" t="s">
+      <c r="B166" s="36" t="s">
         <v>169</v>
       </c>
       <c r="C166" s="3" t="s">
@@ -5102,13 +5125,13 @@
       <c r="G166" s="3">
         <v>20</v>
       </c>
-      <c r="K166" s="27">
+      <c r="K166" s="30">
         <v>45546</v>
       </c>
     </row>
     <row r="167" spans="1:11">
-      <c r="A167" s="34"/>
-      <c r="B167" s="32"/>
+      <c r="A167" s="28"/>
+      <c r="B167" s="36"/>
       <c r="C167" s="3" t="s">
         <v>166</v>
       </c>
@@ -5124,11 +5147,11 @@
       <c r="G167" s="3">
         <v>10</v>
       </c>
-      <c r="K167" s="28"/>
+      <c r="K167" s="31"/>
     </row>
     <row r="168" spans="1:11">
-      <c r="A168" s="34"/>
-      <c r="B168" s="32"/>
+      <c r="A168" s="28"/>
+      <c r="B168" s="36"/>
       <c r="C168" s="3" t="s">
         <v>167</v>
       </c>
@@ -5144,11 +5167,11 @@
       <c r="G168" s="3">
         <v>10</v>
       </c>
-      <c r="K168" s="28"/>
+      <c r="K168" s="31"/>
     </row>
     <row r="169" spans="1:11">
-      <c r="A169" s="35"/>
-      <c r="B169" s="32"/>
+      <c r="A169" s="29"/>
+      <c r="B169" s="36"/>
       <c r="C169" s="3" t="s">
         <v>168</v>
       </c>
@@ -5164,13 +5187,13 @@
       <c r="G169" s="3">
         <v>2</v>
       </c>
-      <c r="K169" s="29"/>
+      <c r="K169" s="32"/>
     </row>
     <row r="170" spans="1:11">
-      <c r="A170" s="33">
+      <c r="A170" s="27">
         <v>60</v>
       </c>
-      <c r="B170" s="32" t="s">
+      <c r="B170" s="36" t="s">
         <v>170</v>
       </c>
       <c r="C170" s="3" t="s">
@@ -5188,13 +5211,13 @@
       <c r="G170" s="3">
         <v>20</v>
       </c>
-      <c r="K170" s="27">
+      <c r="K170" s="30">
         <v>45546</v>
       </c>
     </row>
     <row r="171" spans="1:11">
-      <c r="A171" s="35"/>
-      <c r="B171" s="32"/>
+      <c r="A171" s="29"/>
+      <c r="B171" s="36"/>
       <c r="C171" s="3" t="s">
         <v>71</v>
       </c>
@@ -5207,13 +5230,13 @@
       <c r="F171" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K171" s="29"/>
+      <c r="K171" s="32"/>
     </row>
     <row r="172" spans="1:11">
-      <c r="A172" s="33">
+      <c r="A172" s="27">
         <v>61</v>
       </c>
-      <c r="B172" s="32" t="s">
+      <c r="B172" s="36" t="s">
         <v>171</v>
       </c>
       <c r="C172" s="3" t="s">
@@ -5231,13 +5254,13 @@
       <c r="G172" s="3">
         <v>20</v>
       </c>
-      <c r="K172" s="27">
+      <c r="K172" s="30">
         <v>45546</v>
       </c>
     </row>
     <row r="173" spans="1:11">
-      <c r="A173" s="34"/>
-      <c r="B173" s="32"/>
+      <c r="A173" s="28"/>
+      <c r="B173" s="36"/>
       <c r="C173" s="3" t="s">
         <v>166</v>
       </c>
@@ -5253,11 +5276,11 @@
       <c r="G173" s="3">
         <v>10</v>
       </c>
-      <c r="K173" s="28"/>
+      <c r="K173" s="31"/>
     </row>
     <row r="174" spans="1:11">
-      <c r="A174" s="34"/>
-      <c r="B174" s="32"/>
+      <c r="A174" s="28"/>
+      <c r="B174" s="36"/>
       <c r="C174" s="3" t="s">
         <v>167</v>
       </c>
@@ -5273,11 +5296,11 @@
       <c r="G174" s="3">
         <v>10</v>
       </c>
-      <c r="K174" s="28"/>
+      <c r="K174" s="31"/>
     </row>
     <row r="175" spans="1:11">
-      <c r="A175" s="35"/>
-      <c r="B175" s="32"/>
+      <c r="A175" s="29"/>
+      <c r="B175" s="36"/>
       <c r="C175" s="3" t="s">
         <v>168</v>
       </c>
@@ -5293,13 +5316,13 @@
       <c r="G175" s="3">
         <v>2</v>
       </c>
-      <c r="K175" s="29"/>
+      <c r="K175" s="32"/>
     </row>
     <row r="176" spans="1:11">
-      <c r="A176" s="33">
+      <c r="A176" s="27">
         <v>62</v>
       </c>
-      <c r="B176" s="32" t="s">
+      <c r="B176" s="36" t="s">
         <v>174</v>
       </c>
       <c r="C176" s="3" t="s">
@@ -5317,13 +5340,13 @@
       <c r="G176" s="3">
         <v>20</v>
       </c>
-      <c r="K176" s="27">
+      <c r="K176" s="30">
         <v>45546</v>
       </c>
     </row>
     <row r="177" spans="1:11">
-      <c r="A177" s="34"/>
-      <c r="B177" s="32"/>
+      <c r="A177" s="28"/>
+      <c r="B177" s="36"/>
       <c r="C177" s="3" t="s">
         <v>8</v>
       </c>
@@ -5339,11 +5362,11 @@
       <c r="G177" s="3">
         <v>20</v>
       </c>
-      <c r="K177" s="28"/>
+      <c r="K177" s="31"/>
     </row>
     <row r="178" spans="1:11">
-      <c r="A178" s="35"/>
-      <c r="B178" s="32"/>
+      <c r="A178" s="29"/>
+      <c r="B178" s="36"/>
       <c r="C178" s="3" t="s">
         <v>173</v>
       </c>
@@ -5359,13 +5382,13 @@
       <c r="G178" s="3">
         <v>3</v>
       </c>
-      <c r="K178" s="29"/>
+      <c r="K178" s="32"/>
     </row>
     <row r="179" spans="1:11">
-      <c r="A179" s="33">
+      <c r="A179" s="27">
         <v>63</v>
       </c>
-      <c r="B179" s="36" t="s">
+      <c r="B179" s="37" t="s">
         <v>187</v>
       </c>
       <c r="C179" s="3" t="s">
@@ -5377,13 +5400,13 @@
       <c r="F179" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K179" s="27">
+      <c r="K179" s="30">
         <v>45551</v>
       </c>
     </row>
     <row r="180" spans="1:11">
-      <c r="A180" s="34"/>
-      <c r="B180" s="36"/>
+      <c r="A180" s="28"/>
+      <c r="B180" s="37"/>
       <c r="C180" s="3" t="s">
         <v>176</v>
       </c>
@@ -5399,11 +5422,11 @@
       <c r="G180" s="3">
         <v>3000</v>
       </c>
-      <c r="K180" s="28"/>
+      <c r="K180" s="31"/>
     </row>
     <row r="181" spans="1:11">
-      <c r="A181" s="34"/>
-      <c r="B181" s="36"/>
+      <c r="A181" s="28"/>
+      <c r="B181" s="37"/>
       <c r="C181" s="3" t="s">
         <v>177</v>
       </c>
@@ -5419,11 +5442,11 @@
       <c r="G181" s="3">
         <v>3000</v>
       </c>
-      <c r="K181" s="28"/>
+      <c r="K181" s="31"/>
     </row>
     <row r="182" spans="1:11">
-      <c r="A182" s="34"/>
-      <c r="B182" s="36"/>
+      <c r="A182" s="28"/>
+      <c r="B182" s="37"/>
       <c r="C182" s="3" t="s">
         <v>178</v>
       </c>
@@ -5439,11 +5462,11 @@
       <c r="G182" s="3">
         <v>3000</v>
       </c>
-      <c r="K182" s="28"/>
+      <c r="K182" s="31"/>
     </row>
     <row r="183" spans="1:11">
-      <c r="A183" s="34"/>
-      <c r="B183" s="36"/>
+      <c r="A183" s="28"/>
+      <c r="B183" s="37"/>
       <c r="C183" s="3" t="s">
         <v>179</v>
       </c>
@@ -5459,11 +5482,11 @@
       <c r="G183" s="3">
         <v>3000</v>
       </c>
-      <c r="K183" s="28"/>
+      <c r="K183" s="31"/>
     </row>
     <row r="184" spans="1:11">
-      <c r="A184" s="34"/>
-      <c r="B184" s="36"/>
+      <c r="A184" s="28"/>
+      <c r="B184" s="37"/>
       <c r="C184" s="3" t="s">
         <v>180</v>
       </c>
@@ -5479,11 +5502,11 @@
       <c r="G184" s="3">
         <v>3000</v>
       </c>
-      <c r="K184" s="28"/>
+      <c r="K184" s="31"/>
     </row>
     <row r="185" spans="1:11">
-      <c r="A185" s="34"/>
-      <c r="B185" s="36"/>
+      <c r="A185" s="28"/>
+      <c r="B185" s="37"/>
       <c r="C185" s="3" t="s">
         <v>181</v>
       </c>
@@ -5499,11 +5522,11 @@
       <c r="G185" s="3">
         <v>3000</v>
       </c>
-      <c r="K185" s="28"/>
+      <c r="K185" s="31"/>
     </row>
     <row r="186" spans="1:11">
-      <c r="A186" s="34"/>
-      <c r="B186" s="36"/>
+      <c r="A186" s="28"/>
+      <c r="B186" s="37"/>
       <c r="C186" s="3" t="s">
         <v>182</v>
       </c>
@@ -5519,11 +5542,11 @@
       <c r="G186" s="3">
         <v>3000</v>
       </c>
-      <c r="K186" s="28"/>
+      <c r="K186" s="31"/>
     </row>
     <row r="187" spans="1:11">
-      <c r="A187" s="34"/>
-      <c r="B187" s="36"/>
+      <c r="A187" s="28"/>
+      <c r="B187" s="37"/>
       <c r="C187" s="3" t="s">
         <v>183</v>
       </c>
@@ -5539,11 +5562,11 @@
       <c r="G187" s="3">
         <v>3000</v>
       </c>
-      <c r="K187" s="28"/>
+      <c r="K187" s="31"/>
     </row>
     <row r="188" spans="1:11">
-      <c r="A188" s="34"/>
-      <c r="B188" s="36"/>
+      <c r="A188" s="28"/>
+      <c r="B188" s="37"/>
       <c r="C188" s="3" t="s">
         <v>184</v>
       </c>
@@ -5559,11 +5582,11 @@
       <c r="G188" s="3">
         <v>3000</v>
       </c>
-      <c r="K188" s="28"/>
+      <c r="K188" s="31"/>
     </row>
     <row r="189" spans="1:11">
-      <c r="A189" s="34"/>
-      <c r="B189" s="36"/>
+      <c r="A189" s="28"/>
+      <c r="B189" s="37"/>
       <c r="C189" s="3" t="s">
         <v>185</v>
       </c>
@@ -5579,11 +5602,11 @@
       <c r="G189" s="3">
         <v>3000</v>
       </c>
-      <c r="K189" s="28"/>
+      <c r="K189" s="31"/>
     </row>
     <row r="190" spans="1:11">
-      <c r="A190" s="34"/>
-      <c r="B190" s="36"/>
+      <c r="A190" s="28"/>
+      <c r="B190" s="37"/>
       <c r="C190" s="3" t="s">
         <v>6</v>
       </c>
@@ -5599,11 +5622,11 @@
       <c r="G190" s="6">
         <v>20</v>
       </c>
-      <c r="K190" s="28"/>
+      <c r="K190" s="31"/>
     </row>
     <row r="191" spans="1:11">
-      <c r="A191" s="34"/>
-      <c r="B191" s="36"/>
+      <c r="A191" s="28"/>
+      <c r="B191" s="37"/>
       <c r="C191" s="3" t="s">
         <v>8</v>
       </c>
@@ -5619,11 +5642,11 @@
       <c r="G191" s="6">
         <v>20</v>
       </c>
-      <c r="K191" s="28"/>
+      <c r="K191" s="31"/>
     </row>
     <row r="192" spans="1:11">
-      <c r="A192" s="35"/>
-      <c r="B192" s="36"/>
+      <c r="A192" s="29"/>
+      <c r="B192" s="37"/>
       <c r="C192" s="3" t="s">
         <v>186</v>
       </c>
@@ -5636,13 +5659,13 @@
       <c r="F192" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="K192" s="29"/>
+      <c r="K192" s="32"/>
     </row>
     <row r="193" spans="1:11">
-      <c r="A193" s="33">
+      <c r="A193" s="27">
         <v>64</v>
       </c>
-      <c r="B193" s="32" t="s">
+      <c r="B193" s="36" t="s">
         <v>188</v>
       </c>
       <c r="C193" s="3" t="s">
@@ -5660,13 +5683,13 @@
       <c r="G193" s="3">
         <v>20</v>
       </c>
-      <c r="K193" s="27">
+      <c r="K193" s="30">
         <v>45546</v>
       </c>
     </row>
     <row r="194" spans="1:11">
-      <c r="A194" s="34"/>
-      <c r="B194" s="32"/>
+      <c r="A194" s="28"/>
+      <c r="B194" s="36"/>
       <c r="C194" s="3" t="s">
         <v>8</v>
       </c>
@@ -5682,11 +5705,11 @@
       <c r="G194" s="3">
         <v>20</v>
       </c>
-      <c r="K194" s="28"/>
+      <c r="K194" s="31"/>
     </row>
     <row r="195" spans="1:11">
-      <c r="A195" s="35"/>
-      <c r="B195" s="32"/>
+      <c r="A195" s="29"/>
+      <c r="B195" s="36"/>
       <c r="C195" s="3" t="s">
         <v>71</v>
       </c>
@@ -5699,13 +5722,13 @@
       <c r="F195" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K195" s="29"/>
+      <c r="K195" s="32"/>
     </row>
     <row r="196" spans="1:11">
-      <c r="A196" s="33">
+      <c r="A196" s="27">
         <v>65</v>
       </c>
-      <c r="B196" s="32" t="s">
+      <c r="B196" s="36" t="s">
         <v>189</v>
       </c>
       <c r="C196" s="3" t="s">
@@ -5723,13 +5746,13 @@
       <c r="G196" s="3">
         <v>20</v>
       </c>
-      <c r="K196" s="27">
+      <c r="K196" s="30">
         <v>45546</v>
       </c>
     </row>
     <row r="197" spans="1:11">
-      <c r="A197" s="34"/>
-      <c r="B197" s="32"/>
+      <c r="A197" s="28"/>
+      <c r="B197" s="36"/>
       <c r="C197" s="3" t="s">
         <v>8</v>
       </c>
@@ -5745,11 +5768,11 @@
       <c r="G197" s="3">
         <v>20</v>
       </c>
-      <c r="K197" s="28"/>
+      <c r="K197" s="31"/>
     </row>
     <row r="198" spans="1:11">
-      <c r="A198" s="35"/>
-      <c r="B198" s="32"/>
+      <c r="A198" s="29"/>
+      <c r="B198" s="36"/>
       <c r="C198" s="3" t="s">
         <v>71</v>
       </c>
@@ -5762,13 +5785,13 @@
       <c r="F198" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K198" s="29"/>
+      <c r="K198" s="32"/>
     </row>
     <row r="199" spans="1:11">
-      <c r="A199" s="33">
+      <c r="A199" s="27">
         <v>66</v>
       </c>
-      <c r="B199" s="32" t="s">
+      <c r="B199" s="36" t="s">
         <v>192</v>
       </c>
       <c r="C199" s="3" t="s">
@@ -5786,13 +5809,13 @@
       <c r="G199" s="3">
         <v>20</v>
       </c>
-      <c r="K199" s="27">
+      <c r="K199" s="30">
         <v>45546</v>
       </c>
     </row>
     <row r="200" spans="1:11">
-      <c r="A200" s="34"/>
-      <c r="B200" s="32"/>
+      <c r="A200" s="28"/>
+      <c r="B200" s="36"/>
       <c r="C200" s="3" t="s">
         <v>190</v>
       </c>
@@ -5808,11 +5831,11 @@
       <c r="G200" s="3">
         <v>40</v>
       </c>
-      <c r="K200" s="28"/>
+      <c r="K200" s="31"/>
     </row>
     <row r="201" spans="1:11">
-      <c r="A201" s="35"/>
-      <c r="B201" s="32"/>
+      <c r="A201" s="29"/>
+      <c r="B201" s="36"/>
       <c r="C201" s="3" t="s">
         <v>191</v>
       </c>
@@ -5828,13 +5851,13 @@
       <c r="G201" s="3">
         <v>40</v>
       </c>
-      <c r="K201" s="29"/>
+      <c r="K201" s="32"/>
     </row>
     <row r="202" spans="1:11">
-      <c r="A202" s="33">
+      <c r="A202" s="27">
         <v>67</v>
       </c>
-      <c r="B202" s="32" t="s">
+      <c r="B202" s="36" t="s">
         <v>195</v>
       </c>
       <c r="C202" s="3" t="s">
@@ -5852,13 +5875,13 @@
       <c r="G202" s="3">
         <v>20</v>
       </c>
-      <c r="K202" s="27">
+      <c r="K202" s="30">
         <v>45546</v>
       </c>
     </row>
     <row r="203" spans="1:11">
-      <c r="A203" s="34"/>
-      <c r="B203" s="32"/>
+      <c r="A203" s="28"/>
+      <c r="B203" s="36"/>
       <c r="C203" s="3" t="s">
         <v>193</v>
       </c>
@@ -5874,11 +5897,11 @@
       <c r="G203" s="3">
         <v>30</v>
       </c>
-      <c r="K203" s="28"/>
+      <c r="K203" s="31"/>
     </row>
     <row r="204" spans="1:11">
-      <c r="A204" s="35"/>
-      <c r="B204" s="32"/>
+      <c r="A204" s="29"/>
+      <c r="B204" s="36"/>
       <c r="C204" s="3" t="s">
         <v>194</v>
       </c>
@@ -5894,13 +5917,13 @@
       <c r="G204" s="3">
         <v>30</v>
       </c>
-      <c r="K204" s="29"/>
+      <c r="K204" s="32"/>
     </row>
     <row r="205" spans="1:11">
-      <c r="A205" s="33">
+      <c r="A205" s="27">
         <v>68</v>
       </c>
-      <c r="B205" s="32" t="s">
+      <c r="B205" s="36" t="s">
         <v>198</v>
       </c>
       <c r="C205" s="3" t="s">
@@ -5918,13 +5941,13 @@
       <c r="G205" s="3">
         <v>20</v>
       </c>
-      <c r="K205" s="27">
+      <c r="K205" s="30">
         <v>45546</v>
       </c>
     </row>
     <row r="206" spans="1:11">
-      <c r="A206" s="34"/>
-      <c r="B206" s="32"/>
+      <c r="A206" s="28"/>
+      <c r="B206" s="36"/>
       <c r="C206" s="3" t="s">
         <v>196</v>
       </c>
@@ -5940,11 +5963,11 @@
       <c r="G206" s="3">
         <v>30</v>
       </c>
-      <c r="K206" s="28"/>
+      <c r="K206" s="31"/>
     </row>
     <row r="207" spans="1:11">
-      <c r="A207" s="35"/>
-      <c r="B207" s="32"/>
+      <c r="A207" s="29"/>
+      <c r="B207" s="36"/>
       <c r="C207" s="3" t="s">
         <v>197</v>
       </c>
@@ -5960,13 +5983,13 @@
       <c r="G207" s="3">
         <v>30</v>
       </c>
-      <c r="K207" s="29"/>
+      <c r="K207" s="32"/>
     </row>
     <row r="208" spans="1:11">
-      <c r="A208" s="33">
+      <c r="A208" s="27">
         <v>69</v>
       </c>
-      <c r="B208" s="32" t="s">
+      <c r="B208" s="36" t="s">
         <v>201</v>
       </c>
       <c r="C208" s="3" t="s">
@@ -5984,13 +6007,13 @@
       <c r="G208" s="3">
         <v>20</v>
       </c>
-      <c r="K208" s="27">
+      <c r="K208" s="30">
         <v>45546</v>
       </c>
     </row>
     <row r="209" spans="1:11">
-      <c r="A209" s="34"/>
-      <c r="B209" s="32"/>
+      <c r="A209" s="28"/>
+      <c r="B209" s="36"/>
       <c r="C209" s="3" t="s">
         <v>199</v>
       </c>
@@ -6006,11 +6029,11 @@
       <c r="G209" s="3">
         <v>30</v>
       </c>
-      <c r="K209" s="28"/>
+      <c r="K209" s="31"/>
     </row>
     <row r="210" spans="1:11">
-      <c r="A210" s="35"/>
-      <c r="B210" s="32"/>
+      <c r="A210" s="29"/>
+      <c r="B210" s="36"/>
       <c r="C210" s="3" t="s">
         <v>200</v>
       </c>
@@ -6026,13 +6049,13 @@
       <c r="G210" s="3">
         <v>30</v>
       </c>
-      <c r="K210" s="29"/>
+      <c r="K210" s="32"/>
     </row>
     <row r="211" spans="1:11">
-      <c r="A211" s="33">
+      <c r="A211" s="27">
         <v>70</v>
       </c>
-      <c r="B211" s="32" t="s">
+      <c r="B211" s="36" t="s">
         <v>204</v>
       </c>
       <c r="C211" s="3" t="s">
@@ -6050,13 +6073,13 @@
       <c r="G211" s="3">
         <v>20</v>
       </c>
-      <c r="K211" s="27">
+      <c r="K211" s="30">
         <v>45546</v>
       </c>
     </row>
     <row r="212" spans="1:11">
-      <c r="A212" s="34"/>
-      <c r="B212" s="32"/>
+      <c r="A212" s="28"/>
+      <c r="B212" s="36"/>
       <c r="C212" s="3" t="s">
         <v>202</v>
       </c>
@@ -6072,11 +6095,11 @@
       <c r="G212" s="3">
         <v>60</v>
       </c>
-      <c r="K212" s="28"/>
+      <c r="K212" s="31"/>
     </row>
     <row r="213" spans="1:11">
-      <c r="A213" s="35"/>
-      <c r="B213" s="32"/>
+      <c r="A213" s="29"/>
+      <c r="B213" s="36"/>
       <c r="C213" s="3" t="s">
         <v>203</v>
       </c>
@@ -6092,13 +6115,13 @@
       <c r="G213" s="3">
         <v>60</v>
       </c>
-      <c r="K213" s="29"/>
+      <c r="K213" s="32"/>
     </row>
     <row r="214" spans="1:11">
-      <c r="A214" s="33">
+      <c r="A214" s="27">
         <v>71</v>
       </c>
-      <c r="B214" s="32" t="s">
+      <c r="B214" s="36" t="s">
         <v>205</v>
       </c>
       <c r="C214" s="11" t="s">
@@ -6116,13 +6139,13 @@
       <c r="G214" s="11">
         <v>20</v>
       </c>
-      <c r="K214" s="27">
+      <c r="K214" s="30">
         <v>45546</v>
       </c>
     </row>
     <row r="215" spans="1:11">
-      <c r="A215" s="34"/>
-      <c r="B215" s="32"/>
+      <c r="A215" s="28"/>
+      <c r="B215" s="36"/>
       <c r="C215" s="11" t="s">
         <v>202</v>
       </c>
@@ -6138,11 +6161,11 @@
       <c r="G215" s="11">
         <v>60</v>
       </c>
-      <c r="K215" s="28"/>
+      <c r="K215" s="31"/>
     </row>
     <row r="216" spans="1:11">
-      <c r="A216" s="35"/>
-      <c r="B216" s="32"/>
+      <c r="A216" s="29"/>
+      <c r="B216" s="36"/>
       <c r="C216" s="11" t="s">
         <v>203</v>
       </c>
@@ -6158,13 +6181,13 @@
       <c r="G216" s="11">
         <v>60</v>
       </c>
-      <c r="K216" s="29"/>
+      <c r="K216" s="32"/>
     </row>
     <row r="217" spans="1:11">
-      <c r="A217" s="33">
+      <c r="A217" s="27">
         <v>72</v>
       </c>
-      <c r="B217" s="33" t="s">
+      <c r="B217" s="27" t="s">
         <v>209</v>
       </c>
       <c r="C217" s="3" t="s">
@@ -6182,13 +6205,13 @@
       <c r="G217" s="3">
         <v>20</v>
       </c>
-      <c r="K217" s="27">
+      <c r="K217" s="30">
         <v>45546</v>
       </c>
     </row>
     <row r="218" spans="1:11">
-      <c r="A218" s="34"/>
-      <c r="B218" s="34"/>
+      <c r="A218" s="28"/>
+      <c r="B218" s="28"/>
       <c r="C218" s="3" t="s">
         <v>206</v>
       </c>
@@ -6204,11 +6227,11 @@
       <c r="G218" s="3">
         <v>60</v>
       </c>
-      <c r="K218" s="28"/>
+      <c r="K218" s="31"/>
     </row>
     <row r="219" spans="1:11" s="4" customFormat="1" ht="30" customHeight="1">
-      <c r="A219" s="34"/>
-      <c r="B219" s="34"/>
+      <c r="A219" s="28"/>
+      <c r="B219" s="28"/>
       <c r="C219" s="4" t="s">
         <v>207</v>
       </c>
@@ -6219,11 +6242,11 @@
       <c r="J219" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="K219" s="28"/>
+      <c r="K219" s="31"/>
     </row>
     <row r="220" spans="1:11">
-      <c r="A220" s="35"/>
-      <c r="B220" s="35"/>
+      <c r="A220" s="29"/>
+      <c r="B220" s="29"/>
       <c r="C220" s="3" t="s">
         <v>208</v>
       </c>
@@ -6233,13 +6256,13 @@
       <c r="J220" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="K220" s="29"/>
+      <c r="K220" s="32"/>
     </row>
     <row r="221" spans="1:11">
-      <c r="A221" s="33">
+      <c r="A221" s="27">
         <v>73</v>
       </c>
-      <c r="B221" s="33" t="s">
+      <c r="B221" s="27" t="s">
         <v>211</v>
       </c>
       <c r="C221" s="3" t="s">
@@ -6257,13 +6280,13 @@
       <c r="G221" s="3">
         <v>6</v>
       </c>
-      <c r="K221" s="27">
+      <c r="K221" s="30">
         <v>45551</v>
       </c>
     </row>
     <row r="222" spans="1:11">
-      <c r="A222" s="34"/>
-      <c r="B222" s="34"/>
+      <c r="A222" s="28"/>
+      <c r="B222" s="28"/>
       <c r="C222" s="3" t="s">
         <v>212</v>
       </c>
@@ -6279,11 +6302,11 @@
       <c r="G222" s="3">
         <v>6</v>
       </c>
-      <c r="K222" s="28"/>
+      <c r="K222" s="31"/>
     </row>
     <row r="223" spans="1:11">
-      <c r="A223" s="34"/>
-      <c r="B223" s="34"/>
+      <c r="A223" s="28"/>
+      <c r="B223" s="28"/>
       <c r="C223" s="3" t="s">
         <v>86</v>
       </c>
@@ -6299,11 +6322,11 @@
       <c r="G223" s="3">
         <v>20</v>
       </c>
-      <c r="K223" s="28"/>
+      <c r="K223" s="31"/>
     </row>
     <row r="224" spans="1:11">
-      <c r="A224" s="35"/>
-      <c r="B224" s="35"/>
+      <c r="A224" s="29"/>
+      <c r="B224" s="29"/>
       <c r="C224" s="3" t="s">
         <v>213</v>
       </c>
@@ -6319,13 +6342,13 @@
       <c r="G224" s="3">
         <v>20</v>
       </c>
-      <c r="K224" s="29"/>
+      <c r="K224" s="32"/>
     </row>
     <row r="225" spans="1:11">
-      <c r="A225" s="33">
+      <c r="A225" s="27">
         <v>74</v>
       </c>
-      <c r="B225" s="33" t="s">
+      <c r="B225" s="27" t="s">
         <v>216</v>
       </c>
       <c r="C225" s="3" t="s">
@@ -6343,13 +6366,13 @@
       <c r="G225" s="3">
         <v>20</v>
       </c>
-      <c r="K225" s="27">
+      <c r="K225" s="30">
         <v>45551</v>
       </c>
     </row>
     <row r="226" spans="1:11">
-      <c r="A226" s="34"/>
-      <c r="B226" s="34"/>
+      <c r="A226" s="28"/>
+      <c r="B226" s="28"/>
       <c r="C226" s="3" t="s">
         <v>8</v>
       </c>
@@ -6365,11 +6388,11 @@
       <c r="G226" s="3">
         <v>20</v>
       </c>
-      <c r="K226" s="28"/>
+      <c r="K226" s="31"/>
     </row>
     <row r="227" spans="1:11">
-      <c r="A227" s="34"/>
-      <c r="B227" s="34"/>
+      <c r="A227" s="28"/>
+      <c r="B227" s="28"/>
       <c r="C227" s="3" t="s">
         <v>214</v>
       </c>
@@ -6385,11 +6408,11 @@
       <c r="G227" s="3">
         <v>20</v>
       </c>
-      <c r="K227" s="28"/>
+      <c r="K227" s="31"/>
     </row>
     <row r="228" spans="1:11">
-      <c r="A228" s="35"/>
-      <c r="B228" s="35"/>
+      <c r="A228" s="29"/>
+      <c r="B228" s="29"/>
       <c r="C228" s="3" t="s">
         <v>215</v>
       </c>
@@ -6405,13 +6428,13 @@
       <c r="G228" s="3">
         <v>20</v>
       </c>
-      <c r="K228" s="29"/>
+      <c r="K228" s="32"/>
     </row>
     <row r="229" spans="1:11">
-      <c r="A229" s="33">
+      <c r="A229" s="27">
         <v>75</v>
       </c>
-      <c r="B229" s="33" t="s">
+      <c r="B229" s="27" t="s">
         <v>219</v>
       </c>
       <c r="C229" s="3" t="s">
@@ -6429,13 +6452,13 @@
       <c r="G229" s="3">
         <v>20</v>
       </c>
-      <c r="K229" s="27">
+      <c r="K229" s="30">
         <v>45551</v>
       </c>
     </row>
     <row r="230" spans="1:11">
-      <c r="A230" s="34"/>
-      <c r="B230" s="34"/>
+      <c r="A230" s="28"/>
+      <c r="B230" s="28"/>
       <c r="C230" s="3" t="s">
         <v>217</v>
       </c>
@@ -6451,11 +6474,11 @@
       <c r="G230" s="3">
         <v>20</v>
       </c>
-      <c r="K230" s="28"/>
+      <c r="K230" s="31"/>
     </row>
     <row r="231" spans="1:11">
-      <c r="A231" s="35"/>
-      <c r="B231" s="35"/>
+      <c r="A231" s="29"/>
+      <c r="B231" s="29"/>
       <c r="C231" s="3" t="s">
         <v>218</v>
       </c>
@@ -6471,13 +6494,13 @@
       <c r="G231" s="3">
         <v>20</v>
       </c>
-      <c r="K231" s="29"/>
+      <c r="K231" s="32"/>
     </row>
     <row r="232" spans="1:11">
-      <c r="A232" s="33">
+      <c r="A232" s="27">
         <v>76</v>
       </c>
-      <c r="B232" s="37" t="s">
+      <c r="B232" s="33" t="s">
         <v>220</v>
       </c>
       <c r="C232" s="3" t="s">
@@ -6489,13 +6512,13 @@
       <c r="F232" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K232" s="27">
+      <c r="K232" s="30">
         <v>45551</v>
       </c>
     </row>
     <row r="233" spans="1:11">
-      <c r="A233" s="34"/>
-      <c r="B233" s="38"/>
+      <c r="A233" s="28"/>
+      <c r="B233" s="34"/>
       <c r="C233" s="3" t="s">
         <v>176</v>
       </c>
@@ -6511,11 +6534,11 @@
       <c r="G233" s="3">
         <v>3000</v>
       </c>
-      <c r="K233" s="28"/>
+      <c r="K233" s="31"/>
     </row>
     <row r="234" spans="1:11">
-      <c r="A234" s="34"/>
-      <c r="B234" s="38"/>
+      <c r="A234" s="28"/>
+      <c r="B234" s="34"/>
       <c r="C234" s="3" t="s">
         <v>177</v>
       </c>
@@ -6531,11 +6554,11 @@
       <c r="G234" s="3">
         <v>3000</v>
       </c>
-      <c r="K234" s="28"/>
+      <c r="K234" s="31"/>
     </row>
     <row r="235" spans="1:11">
-      <c r="A235" s="34"/>
-      <c r="B235" s="38"/>
+      <c r="A235" s="28"/>
+      <c r="B235" s="34"/>
       <c r="C235" s="3" t="s">
         <v>178</v>
       </c>
@@ -6551,11 +6574,11 @@
       <c r="G235" s="3">
         <v>3000</v>
       </c>
-      <c r="K235" s="28"/>
+      <c r="K235" s="31"/>
     </row>
     <row r="236" spans="1:11">
-      <c r="A236" s="34"/>
-      <c r="B236" s="38"/>
+      <c r="A236" s="28"/>
+      <c r="B236" s="34"/>
       <c r="C236" s="3" t="s">
         <v>179</v>
       </c>
@@ -6571,11 +6594,11 @@
       <c r="G236" s="3">
         <v>3000</v>
       </c>
-      <c r="K236" s="28"/>
+      <c r="K236" s="31"/>
     </row>
     <row r="237" spans="1:11">
-      <c r="A237" s="34"/>
-      <c r="B237" s="38"/>
+      <c r="A237" s="28"/>
+      <c r="B237" s="34"/>
       <c r="C237" s="3" t="s">
         <v>180</v>
       </c>
@@ -6591,11 +6614,11 @@
       <c r="G237" s="3">
         <v>3000</v>
       </c>
-      <c r="K237" s="28"/>
+      <c r="K237" s="31"/>
     </row>
     <row r="238" spans="1:11">
-      <c r="A238" s="34"/>
-      <c r="B238" s="38"/>
+      <c r="A238" s="28"/>
+      <c r="B238" s="34"/>
       <c r="C238" s="3" t="s">
         <v>181</v>
       </c>
@@ -6611,11 +6634,11 @@
       <c r="G238" s="3">
         <v>3000</v>
       </c>
-      <c r="K238" s="28"/>
+      <c r="K238" s="31"/>
     </row>
     <row r="239" spans="1:11">
-      <c r="A239" s="34"/>
-      <c r="B239" s="38"/>
+      <c r="A239" s="28"/>
+      <c r="B239" s="34"/>
       <c r="C239" s="3" t="s">
         <v>182</v>
       </c>
@@ -6631,11 +6654,11 @@
       <c r="G239" s="3">
         <v>3000</v>
       </c>
-      <c r="K239" s="28"/>
+      <c r="K239" s="31"/>
     </row>
     <row r="240" spans="1:11">
-      <c r="A240" s="34"/>
-      <c r="B240" s="38"/>
+      <c r="A240" s="28"/>
+      <c r="B240" s="34"/>
       <c r="C240" s="3" t="s">
         <v>183</v>
       </c>
@@ -6651,11 +6674,11 @@
       <c r="G240" s="3">
         <v>3000</v>
       </c>
-      <c r="K240" s="28"/>
+      <c r="K240" s="31"/>
     </row>
     <row r="241" spans="1:11">
-      <c r="A241" s="34"/>
-      <c r="B241" s="38"/>
+      <c r="A241" s="28"/>
+      <c r="B241" s="34"/>
       <c r="C241" s="3" t="s">
         <v>184</v>
       </c>
@@ -6671,11 +6694,11 @@
       <c r="G241" s="3">
         <v>3000</v>
       </c>
-      <c r="K241" s="28"/>
+      <c r="K241" s="31"/>
     </row>
     <row r="242" spans="1:11">
-      <c r="A242" s="34"/>
-      <c r="B242" s="38"/>
+      <c r="A242" s="28"/>
+      <c r="B242" s="34"/>
       <c r="C242" s="3" t="s">
         <v>185</v>
       </c>
@@ -6691,11 +6714,11 @@
       <c r="G242" s="3">
         <v>3000</v>
       </c>
-      <c r="K242" s="28"/>
+      <c r="K242" s="31"/>
     </row>
     <row r="243" spans="1:11">
-      <c r="A243" s="34"/>
-      <c r="B243" s="38"/>
+      <c r="A243" s="28"/>
+      <c r="B243" s="34"/>
       <c r="C243" s="3" t="s">
         <v>6</v>
       </c>
@@ -6711,11 +6734,11 @@
       <c r="G243" s="6">
         <v>20</v>
       </c>
-      <c r="K243" s="28"/>
+      <c r="K243" s="31"/>
     </row>
     <row r="244" spans="1:11">
-      <c r="A244" s="34"/>
-      <c r="B244" s="38"/>
+      <c r="A244" s="28"/>
+      <c r="B244" s="34"/>
       <c r="C244" s="3" t="s">
         <v>8</v>
       </c>
@@ -6731,11 +6754,11 @@
       <c r="G244" s="6">
         <v>20</v>
       </c>
-      <c r="K244" s="28"/>
+      <c r="K244" s="31"/>
     </row>
     <row r="245" spans="1:11">
-      <c r="A245" s="35"/>
-      <c r="B245" s="39"/>
+      <c r="A245" s="29"/>
+      <c r="B245" s="35"/>
       <c r="C245" s="3" t="s">
         <v>186</v>
       </c>
@@ -6748,13 +6771,13 @@
       <c r="F245" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="K245" s="29"/>
+      <c r="K245" s="32"/>
     </row>
     <row r="246" spans="1:11" ht="45">
-      <c r="A246" s="33">
+      <c r="A246" s="27">
         <v>77</v>
       </c>
-      <c r="B246" s="33" t="s">
+      <c r="B246" s="27" t="s">
         <v>226</v>
       </c>
       <c r="C246" s="3" t="s">
@@ -6769,13 +6792,13 @@
       <c r="J246" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="K246" s="27">
+      <c r="K246" s="30">
         <v>45552</v>
       </c>
     </row>
     <row r="247" spans="1:11">
-      <c r="A247" s="34"/>
-      <c r="B247" s="34"/>
+      <c r="A247" s="28"/>
+      <c r="B247" s="28"/>
       <c r="C247" s="3" t="s">
         <v>222</v>
       </c>
@@ -6788,11 +6811,11 @@
       <c r="F247" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="K247" s="28"/>
+      <c r="K247" s="31"/>
     </row>
     <row r="248" spans="1:11" ht="45">
-      <c r="A248" s="34"/>
-      <c r="B248" s="34"/>
+      <c r="A248" s="28"/>
+      <c r="B248" s="28"/>
       <c r="C248" s="3" t="s">
         <v>223</v>
       </c>
@@ -6805,11 +6828,11 @@
       <c r="J248" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="K248" s="28"/>
+      <c r="K248" s="31"/>
     </row>
     <row r="249" spans="1:11" ht="45">
-      <c r="A249" s="34"/>
-      <c r="B249" s="34"/>
+      <c r="A249" s="28"/>
+      <c r="B249" s="28"/>
       <c r="C249" s="3" t="s">
         <v>224</v>
       </c>
@@ -6828,11 +6851,11 @@
       <c r="J249" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="K249" s="28"/>
+      <c r="K249" s="31"/>
     </row>
     <row r="250" spans="1:11">
-      <c r="A250" s="34"/>
-      <c r="B250" s="34"/>
+      <c r="A250" s="28"/>
+      <c r="B250" s="28"/>
       <c r="C250" s="3" t="s">
         <v>5</v>
       </c>
@@ -6848,11 +6871,11 @@
       <c r="G250" s="3">
         <v>3000</v>
       </c>
-      <c r="K250" s="28"/>
+      <c r="K250" s="31"/>
     </row>
     <row r="251" spans="1:11">
-      <c r="A251" s="34"/>
-      <c r="B251" s="34"/>
+      <c r="A251" s="28"/>
+      <c r="B251" s="28"/>
       <c r="C251" s="3" t="s">
         <v>225</v>
       </c>
@@ -6868,11 +6891,11 @@
       <c r="G251" s="3">
         <v>5</v>
       </c>
-      <c r="K251" s="28"/>
+      <c r="K251" s="31"/>
     </row>
     <row r="252" spans="1:11">
-      <c r="A252" s="34"/>
-      <c r="B252" s="34"/>
+      <c r="A252" s="28"/>
+      <c r="B252" s="28"/>
       <c r="C252" s="3" t="s">
         <v>6</v>
       </c>
@@ -6888,11 +6911,11 @@
       <c r="G252" s="3">
         <v>20</v>
       </c>
-      <c r="K252" s="28"/>
+      <c r="K252" s="31"/>
     </row>
     <row r="253" spans="1:11">
-      <c r="A253" s="35"/>
-      <c r="B253" s="35"/>
+      <c r="A253" s="29"/>
+      <c r="B253" s="29"/>
       <c r="C253" s="3" t="s">
         <v>8</v>
       </c>
@@ -6908,13 +6931,13 @@
       <c r="G253" s="3">
         <v>20</v>
       </c>
-      <c r="K253" s="29"/>
+      <c r="K253" s="32"/>
     </row>
     <row r="254" spans="1:11">
-      <c r="A254" s="33">
+      <c r="A254" s="27">
         <v>78</v>
       </c>
-      <c r="B254" s="33" t="s">
+      <c r="B254" s="27" t="s">
         <v>232</v>
       </c>
       <c r="C254" s="3" t="s">
@@ -6932,13 +6955,13 @@
       <c r="G254" s="3">
         <v>15</v>
       </c>
-      <c r="K254" s="27">
+      <c r="K254" s="30">
         <v>45552</v>
       </c>
     </row>
     <row r="255" spans="1:11">
-      <c r="A255" s="35"/>
-      <c r="B255" s="35"/>
+      <c r="A255" s="29"/>
+      <c r="B255" s="29"/>
       <c r="C255" s="3" t="s">
         <v>231</v>
       </c>
@@ -6954,13 +6977,13 @@
       <c r="G255" s="3">
         <v>15</v>
       </c>
-      <c r="K255" s="29"/>
+      <c r="K255" s="32"/>
     </row>
     <row r="256" spans="1:11" ht="30">
-      <c r="A256" s="33">
+      <c r="A256" s="27">
         <v>79</v>
       </c>
-      <c r="B256" s="33" t="s">
+      <c r="B256" s="27" t="s">
         <v>244</v>
       </c>
       <c r="C256" s="3" t="s">
@@ -6978,13 +7001,13 @@
       <c r="J256" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="K256" s="27">
+      <c r="K256" s="30">
         <v>45552</v>
       </c>
     </row>
     <row r="257" spans="1:11" ht="30">
-      <c r="A257" s="34"/>
-      <c r="B257" s="34"/>
+      <c r="A257" s="28"/>
+      <c r="B257" s="28"/>
       <c r="C257" s="3" t="s">
         <v>234</v>
       </c>
@@ -7003,11 +7026,11 @@
       <c r="J257" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="K257" s="28"/>
+      <c r="K257" s="31"/>
     </row>
     <row r="258" spans="1:11">
-      <c r="A258" s="34"/>
-      <c r="B258" s="34"/>
+      <c r="A258" s="28"/>
+      <c r="B258" s="28"/>
       <c r="C258" s="3" t="s">
         <v>235</v>
       </c>
@@ -7023,11 +7046,11 @@
       <c r="G258" s="3">
         <v>250</v>
       </c>
-      <c r="K258" s="28"/>
+      <c r="K258" s="31"/>
     </row>
     <row r="259" spans="1:11">
-      <c r="A259" s="34"/>
-      <c r="B259" s="34"/>
+      <c r="A259" s="28"/>
+      <c r="B259" s="28"/>
       <c r="C259" s="3" t="s">
         <v>6</v>
       </c>
@@ -7043,11 +7066,11 @@
       <c r="G259" s="3">
         <v>50</v>
       </c>
-      <c r="K259" s="28"/>
+      <c r="K259" s="31"/>
     </row>
     <row r="260" spans="1:11">
-      <c r="A260" s="34"/>
-      <c r="B260" s="34"/>
+      <c r="A260" s="28"/>
+      <c r="B260" s="28"/>
       <c r="C260" s="3" t="s">
         <v>236</v>
       </c>
@@ -7063,11 +7086,11 @@
       <c r="G260" s="3">
         <v>20</v>
       </c>
-      <c r="K260" s="28"/>
+      <c r="K260" s="31"/>
     </row>
     <row r="261" spans="1:11">
-      <c r="A261" s="34"/>
-      <c r="B261" s="34"/>
+      <c r="A261" s="28"/>
+      <c r="B261" s="28"/>
       <c r="C261" s="3" t="s">
         <v>237</v>
       </c>
@@ -7083,11 +7106,11 @@
       <c r="G261" s="3">
         <v>20</v>
       </c>
-      <c r="K261" s="28"/>
+      <c r="K261" s="31"/>
     </row>
     <row r="262" spans="1:11">
-      <c r="A262" s="34"/>
-      <c r="B262" s="34"/>
+      <c r="A262" s="28"/>
+      <c r="B262" s="28"/>
       <c r="C262" s="3" t="s">
         <v>238</v>
       </c>
@@ -7103,11 +7126,11 @@
       <c r="G262" s="3">
         <v>20</v>
       </c>
-      <c r="K262" s="28"/>
+      <c r="K262" s="31"/>
     </row>
     <row r="263" spans="1:11">
-      <c r="A263" s="34"/>
-      <c r="B263" s="34"/>
+      <c r="A263" s="28"/>
+      <c r="B263" s="28"/>
       <c r="C263" s="3" t="s">
         <v>239</v>
       </c>
@@ -7123,11 +7146,11 @@
       <c r="G263" s="3">
         <v>20</v>
       </c>
-      <c r="K263" s="28"/>
+      <c r="K263" s="31"/>
     </row>
     <row r="264" spans="1:11">
-      <c r="A264" s="34"/>
-      <c r="B264" s="34"/>
+      <c r="A264" s="28"/>
+      <c r="B264" s="28"/>
       <c r="C264" s="3" t="s">
         <v>240</v>
       </c>
@@ -7143,11 +7166,11 @@
       <c r="G264" s="3">
         <v>100</v>
       </c>
-      <c r="K264" s="28"/>
+      <c r="K264" s="31"/>
     </row>
     <row r="265" spans="1:11">
-      <c r="A265" s="34"/>
-      <c r="B265" s="34"/>
+      <c r="A265" s="28"/>
+      <c r="B265" s="28"/>
       <c r="C265" s="3" t="s">
         <v>241</v>
       </c>
@@ -7163,11 +7186,11 @@
       <c r="G265" s="3">
         <v>100</v>
       </c>
-      <c r="K265" s="28"/>
+      <c r="K265" s="31"/>
     </row>
     <row r="266" spans="1:11">
-      <c r="A266" s="34"/>
-      <c r="B266" s="34"/>
+      <c r="A266" s="28"/>
+      <c r="B266" s="28"/>
       <c r="C266" s="3" t="s">
         <v>242</v>
       </c>
@@ -7183,11 +7206,11 @@
       <c r="G266" s="3">
         <v>100</v>
       </c>
-      <c r="K266" s="28"/>
+      <c r="K266" s="31"/>
     </row>
     <row r="267" spans="1:11">
-      <c r="A267" s="35"/>
-      <c r="B267" s="35"/>
+      <c r="A267" s="29"/>
+      <c r="B267" s="29"/>
       <c r="C267" s="3" t="s">
         <v>243</v>
       </c>
@@ -7203,13 +7226,13 @@
       <c r="G267" s="3">
         <v>100</v>
       </c>
-      <c r="K267" s="29"/>
+      <c r="K267" s="32"/>
     </row>
     <row r="268" spans="1:11">
-      <c r="A268" s="33">
+      <c r="A268" s="27">
         <v>80</v>
       </c>
-      <c r="B268" s="33" t="s">
+      <c r="B268" s="27" t="s">
         <v>250</v>
       </c>
       <c r="C268" s="3" t="s">
@@ -7227,13 +7250,13 @@
       <c r="G268" s="3">
         <v>20</v>
       </c>
-      <c r="K268" s="27">
+      <c r="K268" s="30">
         <v>45552</v>
       </c>
     </row>
     <row r="269" spans="1:11">
-      <c r="A269" s="34"/>
-      <c r="B269" s="34"/>
+      <c r="A269" s="28"/>
+      <c r="B269" s="28"/>
       <c r="C269" s="3" t="s">
         <v>8</v>
       </c>
@@ -7249,11 +7272,11 @@
       <c r="G269" s="3">
         <v>30</v>
       </c>
-      <c r="K269" s="28"/>
+      <c r="K269" s="31"/>
     </row>
     <row r="270" spans="1:11">
-      <c r="A270" s="34"/>
-      <c r="B270" s="34"/>
+      <c r="A270" s="28"/>
+      <c r="B270" s="28"/>
       <c r="C270" s="3" t="s">
         <v>247</v>
       </c>
@@ -7269,11 +7292,11 @@
       <c r="G270" s="3">
         <v>50</v>
       </c>
-      <c r="K270" s="28"/>
+      <c r="K270" s="31"/>
     </row>
     <row r="271" spans="1:11">
-      <c r="A271" s="34"/>
-      <c r="B271" s="34"/>
+      <c r="A271" s="28"/>
+      <c r="B271" s="28"/>
       <c r="C271" s="3" t="s">
         <v>248</v>
       </c>
@@ -7289,11 +7312,11 @@
       <c r="G271" s="6">
         <v>60</v>
       </c>
-      <c r="K271" s="28"/>
+      <c r="K271" s="31"/>
     </row>
     <row r="272" spans="1:11">
-      <c r="A272" s="35"/>
-      <c r="B272" s="35"/>
+      <c r="A272" s="29"/>
+      <c r="B272" s="29"/>
       <c r="C272" s="3" t="s">
         <v>249</v>
       </c>
@@ -7309,13 +7332,13 @@
       <c r="G272" s="6">
         <v>3</v>
       </c>
-      <c r="K272" s="29"/>
+      <c r="K272" s="32"/>
     </row>
     <row r="273" spans="1:11">
-      <c r="A273" s="33">
+      <c r="A273" s="27">
         <v>81</v>
       </c>
-      <c r="B273" s="33" t="s">
+      <c r="B273" s="27" t="s">
         <v>252</v>
       </c>
       <c r="C273" s="3" t="s">
@@ -7333,13 +7356,13 @@
       <c r="G273" s="3">
         <v>20</v>
       </c>
-      <c r="K273" s="27">
+      <c r="K273" s="30">
         <v>45552</v>
       </c>
     </row>
     <row r="274" spans="1:11">
-      <c r="A274" s="35"/>
-      <c r="B274" s="35"/>
+      <c r="A274" s="29"/>
+      <c r="B274" s="29"/>
       <c r="C274" s="3" t="s">
         <v>251</v>
       </c>
@@ -7355,13 +7378,13 @@
       <c r="G274" s="3">
         <v>50</v>
       </c>
-      <c r="K274" s="29"/>
+      <c r="K274" s="32"/>
     </row>
     <row r="275" spans="1:11">
-      <c r="A275" s="33">
+      <c r="A275" s="27">
         <v>82</v>
       </c>
-      <c r="B275" s="33" t="s">
+      <c r="B275" s="27" t="s">
         <v>253</v>
       </c>
       <c r="C275" s="3" t="s">
@@ -7379,13 +7402,13 @@
       <c r="G275" s="3">
         <v>20</v>
       </c>
-      <c r="K275" s="30">
+      <c r="K275" s="38">
         <v>45552</v>
       </c>
     </row>
     <row r="276" spans="1:11">
-      <c r="A276" s="35"/>
-      <c r="B276" s="35"/>
+      <c r="A276" s="29"/>
+      <c r="B276" s="29"/>
       <c r="C276" s="3" t="s">
         <v>8</v>
       </c>
@@ -7401,13 +7424,13 @@
       <c r="G276" s="3">
         <v>20</v>
       </c>
-      <c r="K276" s="31"/>
+      <c r="K276" s="39"/>
     </row>
     <row r="277" spans="1:11">
-      <c r="A277" s="33">
+      <c r="A277" s="27">
         <v>83</v>
       </c>
-      <c r="B277" s="33" t="s">
+      <c r="B277" s="27" t="s">
         <v>17</v>
       </c>
       <c r="C277" s="3" t="s">
@@ -7425,13 +7448,13 @@
       <c r="G277" s="3">
         <v>50</v>
       </c>
-      <c r="K277" s="27">
+      <c r="K277" s="30">
         <v>45552</v>
       </c>
     </row>
     <row r="278" spans="1:11">
-      <c r="A278" s="34"/>
-      <c r="B278" s="34"/>
+      <c r="A278" s="28"/>
+      <c r="B278" s="28"/>
       <c r="C278" s="3" t="s">
         <v>6</v>
       </c>
@@ -7447,11 +7470,11 @@
       <c r="G278" s="3">
         <v>20</v>
       </c>
-      <c r="K278" s="28"/>
+      <c r="K278" s="31"/>
     </row>
     <row r="279" spans="1:11">
-      <c r="A279" s="34"/>
-      <c r="B279" s="34"/>
+      <c r="A279" s="28"/>
+      <c r="B279" s="28"/>
       <c r="C279" s="3" t="s">
         <v>8</v>
       </c>
@@ -7467,11 +7490,11 @@
       <c r="G279" s="3">
         <v>20</v>
       </c>
-      <c r="K279" s="28"/>
+      <c r="K279" s="31"/>
     </row>
     <row r="280" spans="1:11">
-      <c r="A280" s="34"/>
-      <c r="B280" s="34"/>
+      <c r="A280" s="28"/>
+      <c r="B280" s="28"/>
       <c r="C280" s="3" t="s">
         <v>12</v>
       </c>
@@ -7487,11 +7510,11 @@
       <c r="G280" s="3">
         <v>80</v>
       </c>
-      <c r="K280" s="28"/>
+      <c r="K280" s="31"/>
     </row>
     <row r="281" spans="1:11">
-      <c r="A281" s="35"/>
-      <c r="B281" s="35"/>
+      <c r="A281" s="29"/>
+      <c r="B281" s="29"/>
       <c r="C281" s="3" t="s">
         <v>11</v>
       </c>
@@ -7507,13 +7530,13 @@
       <c r="G281" s="3">
         <v>11</v>
       </c>
-      <c r="K281" s="29"/>
+      <c r="K281" s="32"/>
     </row>
     <row r="282" spans="1:11">
-      <c r="A282" s="33">
+      <c r="A282" s="27">
         <v>84</v>
       </c>
-      <c r="B282" s="33" t="s">
+      <c r="B282" s="27" t="s">
         <v>18</v>
       </c>
       <c r="C282" s="3" t="s">
@@ -7531,13 +7554,13 @@
       <c r="G282" s="3">
         <v>50</v>
       </c>
-      <c r="K282" s="27">
+      <c r="K282" s="30">
         <v>45552</v>
       </c>
     </row>
     <row r="283" spans="1:11">
-      <c r="A283" s="34"/>
-      <c r="B283" s="34"/>
+      <c r="A283" s="28"/>
+      <c r="B283" s="28"/>
       <c r="C283" s="3" t="s">
         <v>6</v>
       </c>
@@ -7553,11 +7576,11 @@
       <c r="G283" s="3">
         <v>20</v>
       </c>
-      <c r="K283" s="28"/>
+      <c r="K283" s="31"/>
     </row>
     <row r="284" spans="1:11">
-      <c r="A284" s="34"/>
-      <c r="B284" s="34"/>
+      <c r="A284" s="28"/>
+      <c r="B284" s="28"/>
       <c r="C284" s="3" t="s">
         <v>8</v>
       </c>
@@ -7573,11 +7596,11 @@
       <c r="G284" s="3">
         <v>20</v>
       </c>
-      <c r="K284" s="28"/>
+      <c r="K284" s="31"/>
     </row>
     <row r="285" spans="1:11">
-      <c r="A285" s="34"/>
-      <c r="B285" s="34"/>
+      <c r="A285" s="28"/>
+      <c r="B285" s="28"/>
       <c r="C285" s="3" t="s">
         <v>12</v>
       </c>
@@ -7593,11 +7616,11 @@
       <c r="G285" s="3">
         <v>80</v>
       </c>
-      <c r="K285" s="28"/>
+      <c r="K285" s="31"/>
     </row>
     <row r="286" spans="1:11">
-      <c r="A286" s="35"/>
-      <c r="B286" s="35"/>
+      <c r="A286" s="29"/>
+      <c r="B286" s="29"/>
       <c r="C286" s="3" t="s">
         <v>11</v>
       </c>
@@ -7613,13 +7636,13 @@
       <c r="G286" s="3">
         <v>11</v>
       </c>
-      <c r="K286" s="29"/>
+      <c r="K286" s="32"/>
     </row>
     <row r="287" spans="1:11">
-      <c r="A287" s="33">
+      <c r="A287" s="27">
         <v>85</v>
       </c>
-      <c r="B287" s="33" t="s">
+      <c r="B287" s="27" t="s">
         <v>23</v>
       </c>
       <c r="C287" s="3" t="s">
@@ -7640,13 +7663,13 @@
       <c r="J287" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="K287" s="27">
+      <c r="K287" s="30">
         <v>45552</v>
       </c>
     </row>
     <row r="288" spans="1:11">
-      <c r="A288" s="34"/>
-      <c r="B288" s="34"/>
+      <c r="A288" s="28"/>
+      <c r="B288" s="28"/>
       <c r="C288" s="3" t="s">
         <v>6</v>
       </c>
@@ -7662,11 +7685,11 @@
       <c r="G288" s="3">
         <v>20</v>
       </c>
-      <c r="K288" s="28"/>
+      <c r="K288" s="31"/>
     </row>
     <row r="289" spans="1:11">
-      <c r="A289" s="34"/>
-      <c r="B289" s="34"/>
+      <c r="A289" s="28"/>
+      <c r="B289" s="28"/>
       <c r="C289" s="3" t="s">
         <v>8</v>
       </c>
@@ -7682,11 +7705,11 @@
       <c r="G289" s="3">
         <v>20</v>
       </c>
-      <c r="K289" s="28"/>
+      <c r="K289" s="31"/>
     </row>
     <row r="290" spans="1:11">
-      <c r="A290" s="34"/>
-      <c r="B290" s="34"/>
+      <c r="A290" s="28"/>
+      <c r="B290" s="28"/>
       <c r="C290" s="3" t="s">
         <v>20</v>
       </c>
@@ -7700,11 +7723,11 @@
         <v>118</v>
       </c>
       <c r="G290"/>
-      <c r="K290" s="28"/>
+      <c r="K290" s="31"/>
     </row>
     <row r="291" spans="1:11">
-      <c r="A291" s="35"/>
-      <c r="B291" s="35"/>
+      <c r="A291" s="29"/>
+      <c r="B291" s="29"/>
       <c r="C291" s="3" t="s">
         <v>11</v>
       </c>
@@ -7720,13 +7743,13 @@
       <c r="G291" s="6">
         <v>11</v>
       </c>
-      <c r="K291" s="29"/>
+      <c r="K291" s="32"/>
     </row>
     <row r="292" spans="1:11">
-      <c r="A292" s="33">
+      <c r="A292" s="27">
         <v>86</v>
       </c>
-      <c r="B292" s="33" t="s">
+      <c r="B292" s="27" t="s">
         <v>255</v>
       </c>
       <c r="C292" s="3" t="s">
@@ -7744,13 +7767,13 @@
       <c r="G292" s="3">
         <v>20</v>
       </c>
-      <c r="K292" s="27">
+      <c r="K292" s="30">
         <v>45552</v>
       </c>
     </row>
     <row r="293" spans="1:11">
-      <c r="A293" s="35"/>
-      <c r="B293" s="35"/>
+      <c r="A293" s="29"/>
+      <c r="B293" s="29"/>
       <c r="C293" s="3" t="s">
         <v>100</v>
       </c>
@@ -7766,13 +7789,13 @@
       <c r="G293" s="3">
         <v>20</v>
       </c>
-      <c r="K293" s="29"/>
+      <c r="K293" s="32"/>
     </row>
     <row r="294" spans="1:11">
-      <c r="A294" s="33">
+      <c r="A294" s="27">
         <v>87</v>
       </c>
-      <c r="B294" s="33" t="s">
+      <c r="B294" s="27" t="s">
         <v>257</v>
       </c>
       <c r="C294" s="3" t="s">
@@ -7790,13 +7813,13 @@
       <c r="G294" s="3">
         <v>60</v>
       </c>
-      <c r="K294" s="27">
+      <c r="K294" s="30">
         <v>45552</v>
       </c>
     </row>
     <row r="295" spans="1:11">
-      <c r="A295" s="34"/>
-      <c r="B295" s="34"/>
+      <c r="A295" s="28"/>
+      <c r="B295" s="28"/>
       <c r="C295" s="3" t="s">
         <v>6</v>
       </c>
@@ -7812,11 +7835,11 @@
       <c r="G295" s="3">
         <v>20</v>
       </c>
-      <c r="K295" s="28"/>
+      <c r="K295" s="31"/>
     </row>
     <row r="296" spans="1:11">
-      <c r="A296" s="35"/>
-      <c r="B296" s="35"/>
+      <c r="A296" s="29"/>
+      <c r="B296" s="29"/>
       <c r="C296" s="3" t="s">
         <v>8</v>
       </c>
@@ -7832,13 +7855,13 @@
       <c r="G296" s="3">
         <v>20</v>
       </c>
-      <c r="K296" s="29"/>
+      <c r="K296" s="32"/>
     </row>
     <row r="297" spans="1:11">
-      <c r="A297" s="33">
+      <c r="A297" s="27">
         <v>88</v>
       </c>
-      <c r="B297" s="33" t="s">
+      <c r="B297" s="27" t="s">
         <v>40</v>
       </c>
       <c r="C297" s="11" t="s">
@@ -7857,13 +7880,13 @@
         <v>20</v>
       </c>
       <c r="H297" s="15"/>
-      <c r="K297" s="27">
+      <c r="K297" s="30">
         <v>45552</v>
       </c>
     </row>
     <row r="298" spans="1:11">
-      <c r="A298" s="34"/>
-      <c r="B298" s="34"/>
+      <c r="A298" s="28"/>
+      <c r="B298" s="28"/>
       <c r="C298" s="16" t="s">
         <v>8</v>
       </c>
@@ -7880,11 +7903,11 @@
         <v>20</v>
       </c>
       <c r="H298" s="17"/>
-      <c r="K298" s="28"/>
+      <c r="K298" s="31"/>
     </row>
     <row r="299" spans="1:11">
-      <c r="A299" s="34"/>
-      <c r="B299" s="34"/>
+      <c r="A299" s="28"/>
+      <c r="B299" s="28"/>
       <c r="C299" s="16" t="s">
         <v>38</v>
       </c>
@@ -7901,11 +7924,11 @@
         <v>10</v>
       </c>
       <c r="H299" s="17"/>
-      <c r="K299" s="28"/>
+      <c r="K299" s="31"/>
     </row>
     <row r="300" spans="1:11">
-      <c r="A300" s="34"/>
-      <c r="B300" s="34"/>
+      <c r="A300" s="28"/>
+      <c r="B300" s="28"/>
       <c r="C300" s="16" t="s">
         <v>39</v>
       </c>
@@ -7922,11 +7945,11 @@
         <v>11</v>
       </c>
       <c r="H300" s="17"/>
-      <c r="K300" s="28"/>
+      <c r="K300" s="31"/>
     </row>
     <row r="301" spans="1:11">
-      <c r="A301" s="34"/>
-      <c r="B301" s="34"/>
+      <c r="A301" s="28"/>
+      <c r="B301" s="28"/>
       <c r="C301" s="16" t="s">
         <v>9</v>
       </c>
@@ -7943,11 +7966,11 @@
         <v>50</v>
       </c>
       <c r="H301" s="17"/>
-      <c r="K301" s="28"/>
+      <c r="K301" s="31"/>
     </row>
     <row r="302" spans="1:11">
-      <c r="A302" s="35"/>
-      <c r="B302" s="35"/>
+      <c r="A302" s="29"/>
+      <c r="B302" s="29"/>
       <c r="C302" s="16" t="s">
         <v>37</v>
       </c>
@@ -7962,13 +7985,13 @@
       </c>
       <c r="G302" s="17"/>
       <c r="H302" s="17"/>
-      <c r="K302" s="29"/>
+      <c r="K302" s="32"/>
     </row>
     <row r="303" spans="1:11">
-      <c r="A303" s="33">
+      <c r="A303" s="27">
         <v>89</v>
       </c>
-      <c r="B303" s="33" t="s">
+      <c r="B303" s="27" t="s">
         <v>261</v>
       </c>
       <c r="C303" s="3" t="s">
@@ -7987,13 +8010,13 @@
         <v>20</v>
       </c>
       <c r="H303" s="4"/>
-      <c r="K303" s="27">
+      <c r="K303" s="30">
         <v>45553</v>
       </c>
     </row>
     <row r="304" spans="1:11">
-      <c r="A304" s="34"/>
-      <c r="B304" s="34"/>
+      <c r="A304" s="28"/>
+      <c r="B304" s="28"/>
       <c r="C304" s="3" t="s">
         <v>8</v>
       </c>
@@ -8009,11 +8032,11 @@
       <c r="G304" s="3">
         <v>20</v>
       </c>
-      <c r="K304" s="28"/>
+      <c r="K304" s="31"/>
     </row>
     <row r="305" spans="1:11">
-      <c r="A305" s="34"/>
-      <c r="B305" s="34"/>
+      <c r="A305" s="28"/>
+      <c r="B305" s="28"/>
       <c r="C305" s="3" t="s">
         <v>258</v>
       </c>
@@ -8029,11 +8052,11 @@
       <c r="G305" s="3">
         <v>50</v>
       </c>
-      <c r="K305" s="28"/>
+      <c r="K305" s="31"/>
     </row>
     <row r="306" spans="1:11">
-      <c r="A306" s="34"/>
-      <c r="B306" s="34"/>
+      <c r="A306" s="28"/>
+      <c r="B306" s="28"/>
       <c r="C306" s="3" t="s">
         <v>259</v>
       </c>
@@ -8049,11 +8072,11 @@
       <c r="G306" s="3">
         <v>50</v>
       </c>
-      <c r="K306" s="28"/>
+      <c r="K306" s="31"/>
     </row>
     <row r="307" spans="1:11">
-      <c r="A307" s="35"/>
-      <c r="B307" s="35"/>
+      <c r="A307" s="29"/>
+      <c r="B307" s="29"/>
       <c r="C307" s="3" t="s">
         <v>260</v>
       </c>
@@ -8069,13 +8092,13 @@
       <c r="G307" s="3">
         <v>2</v>
       </c>
-      <c r="K307" s="29"/>
+      <c r="K307" s="32"/>
     </row>
     <row r="308" spans="1:11">
-      <c r="A308" s="33">
+      <c r="A308" s="27">
         <v>90</v>
       </c>
-      <c r="B308" s="33" t="s">
+      <c r="B308" s="27" t="s">
         <v>265</v>
       </c>
       <c r="C308" s="3" t="s">
@@ -8094,13 +8117,13 @@
         <v>20</v>
       </c>
       <c r="H308" s="4"/>
-      <c r="K308" s="27">
+      <c r="K308" s="30">
         <v>45553</v>
       </c>
     </row>
     <row r="309" spans="1:11">
-      <c r="A309" s="34"/>
-      <c r="B309" s="34"/>
+      <c r="A309" s="28"/>
+      <c r="B309" s="28"/>
       <c r="C309" s="3" t="s">
         <v>8</v>
       </c>
@@ -8116,11 +8139,11 @@
       <c r="G309" s="3">
         <v>20</v>
       </c>
-      <c r="K309" s="28"/>
+      <c r="K309" s="31"/>
     </row>
     <row r="310" spans="1:11">
-      <c r="A310" s="34"/>
-      <c r="B310" s="34"/>
+      <c r="A310" s="28"/>
+      <c r="B310" s="28"/>
       <c r="C310" s="3" t="s">
         <v>262</v>
       </c>
@@ -8136,11 +8159,11 @@
       <c r="G310" s="3">
         <v>100</v>
       </c>
-      <c r="K310" s="28"/>
+      <c r="K310" s="31"/>
     </row>
     <row r="311" spans="1:11">
-      <c r="A311" s="34"/>
-      <c r="B311" s="34"/>
+      <c r="A311" s="28"/>
+      <c r="B311" s="28"/>
       <c r="C311" s="3" t="s">
         <v>263</v>
       </c>
@@ -8156,11 +8179,11 @@
       <c r="G311" s="3">
         <v>100</v>
       </c>
-      <c r="K311" s="29"/>
+      <c r="K311" s="32"/>
     </row>
     <row r="312" spans="1:11">
-      <c r="A312" s="35"/>
-      <c r="B312" s="35"/>
+      <c r="A312" s="29"/>
+      <c r="B312" s="29"/>
       <c r="C312" s="3" t="s">
         <v>264</v>
       </c>
@@ -8176,15 +8199,15 @@
       <c r="G312" s="3">
         <v>2</v>
       </c>
-      <c r="K312" s="27">
+      <c r="K312" s="30">
         <v>45553</v>
       </c>
     </row>
     <row r="313" spans="1:11">
-      <c r="A313" s="33">
+      <c r="A313" s="27">
         <v>91</v>
       </c>
-      <c r="B313" s="33" t="s">
+      <c r="B313" s="27" t="s">
         <v>269</v>
       </c>
       <c r="C313" s="3" t="s">
@@ -8202,11 +8225,11 @@
       <c r="G313" s="3">
         <v>20</v>
       </c>
-      <c r="K313" s="28"/>
+      <c r="K313" s="31"/>
     </row>
     <row r="314" spans="1:11">
-      <c r="A314" s="34"/>
-      <c r="B314" s="34"/>
+      <c r="A314" s="28"/>
+      <c r="B314" s="28"/>
       <c r="C314" s="3" t="s">
         <v>8</v>
       </c>
@@ -8222,11 +8245,11 @@
       <c r="G314" s="3">
         <v>20</v>
       </c>
-      <c r="K314" s="28"/>
+      <c r="K314" s="31"/>
     </row>
     <row r="315" spans="1:11">
-      <c r="A315" s="34"/>
-      <c r="B315" s="34"/>
+      <c r="A315" s="28"/>
+      <c r="B315" s="28"/>
       <c r="C315" s="3" t="s">
         <v>267</v>
       </c>
@@ -8242,11 +8265,11 @@
       <c r="G315" s="3">
         <v>50</v>
       </c>
-      <c r="K315" s="28"/>
+      <c r="K315" s="31"/>
     </row>
     <row r="316" spans="1:11">
-      <c r="A316" s="35"/>
-      <c r="B316" s="35"/>
+      <c r="A316" s="29"/>
+      <c r="B316" s="29"/>
       <c r="C316" s="3" t="s">
         <v>268</v>
       </c>
@@ -8262,13 +8285,13 @@
       <c r="G316" s="3">
         <v>50</v>
       </c>
-      <c r="K316" s="29"/>
+      <c r="K316" s="32"/>
     </row>
     <row r="317" spans="1:11">
-      <c r="A317" s="33">
+      <c r="A317" s="27">
         <v>92</v>
       </c>
-      <c r="B317" s="33" t="s">
+      <c r="B317" s="27" t="s">
         <v>277</v>
       </c>
       <c r="C317" s="3" t="s">
@@ -8287,13 +8310,13 @@
         <v>20</v>
       </c>
       <c r="H317" s="4"/>
-      <c r="K317" s="27">
+      <c r="K317" s="30">
         <v>45553</v>
       </c>
     </row>
     <row r="318" spans="1:11">
-      <c r="A318" s="34"/>
-      <c r="B318" s="34"/>
+      <c r="A318" s="28"/>
+      <c r="B318" s="28"/>
       <c r="C318" s="3" t="s">
         <v>8</v>
       </c>
@@ -8309,11 +8332,11 @@
       <c r="G318" s="3">
         <v>20</v>
       </c>
-      <c r="K318" s="28"/>
+      <c r="K318" s="31"/>
     </row>
     <row r="319" spans="1:11">
-      <c r="A319" s="34"/>
-      <c r="B319" s="34"/>
+      <c r="A319" s="28"/>
+      <c r="B319" s="28"/>
       <c r="C319" s="3" t="s">
         <v>270</v>
       </c>
@@ -8326,11 +8349,11 @@
       <c r="F319" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K319" s="28"/>
+      <c r="K319" s="31"/>
     </row>
     <row r="320" spans="1:11">
-      <c r="A320" s="34"/>
-      <c r="B320" s="34"/>
+      <c r="A320" s="28"/>
+      <c r="B320" s="28"/>
       <c r="C320" s="3" t="s">
         <v>271</v>
       </c>
@@ -8343,11 +8366,11 @@
       <c r="F320" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="K320" s="28"/>
+      <c r="K320" s="31"/>
     </row>
     <row r="321" spans="1:11">
-      <c r="A321" s="34"/>
-      <c r="B321" s="34"/>
+      <c r="A321" s="28"/>
+      <c r="B321" s="28"/>
       <c r="C321" s="3" t="s">
         <v>272</v>
       </c>
@@ -8363,11 +8386,11 @@
       <c r="G321" s="6">
         <v>3</v>
       </c>
-      <c r="K321" s="28"/>
+      <c r="K321" s="31"/>
     </row>
     <row r="322" spans="1:11">
-      <c r="A322" s="34"/>
-      <c r="B322" s="34"/>
+      <c r="A322" s="28"/>
+      <c r="B322" s="28"/>
       <c r="C322" s="3" t="s">
         <v>273</v>
       </c>
@@ -8383,11 +8406,11 @@
       <c r="G322" s="6">
         <v>3</v>
       </c>
-      <c r="K322" s="28"/>
+      <c r="K322" s="31"/>
     </row>
     <row r="323" spans="1:11">
-      <c r="A323" s="34"/>
-      <c r="B323" s="34"/>
+      <c r="A323" s="28"/>
+      <c r="B323" s="28"/>
       <c r="C323" s="3" t="s">
         <v>274</v>
       </c>
@@ -8400,11 +8423,11 @@
       <c r="F323" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K323" s="28"/>
+      <c r="K323" s="31"/>
     </row>
     <row r="324" spans="1:11">
-      <c r="A324" s="34"/>
-      <c r="B324" s="34"/>
+      <c r="A324" s="28"/>
+      <c r="B324" s="28"/>
       <c r="C324" s="3" t="s">
         <v>275</v>
       </c>
@@ -8417,11 +8440,11 @@
       <c r="F324" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="K324" s="28"/>
+      <c r="K324" s="31"/>
     </row>
     <row r="325" spans="1:11">
-      <c r="A325" s="35"/>
-      <c r="B325" s="35"/>
+      <c r="A325" s="29"/>
+      <c r="B325" s="29"/>
       <c r="C325" s="3" t="s">
         <v>276</v>
       </c>
@@ -8437,13 +8460,13 @@
       <c r="G325" s="3">
         <v>20</v>
       </c>
-      <c r="K325" s="29"/>
+      <c r="K325" s="32"/>
     </row>
     <row r="326" spans="1:11">
-      <c r="A326" s="33">
+      <c r="A326" s="27">
         <v>93</v>
       </c>
-      <c r="B326" s="33" t="s">
+      <c r="B326" s="27" t="s">
         <v>289</v>
       </c>
       <c r="C326" s="3" t="s">
@@ -8461,13 +8484,13 @@
       <c r="G326" s="3">
         <v>0</v>
       </c>
-      <c r="K326" s="27">
+      <c r="K326" s="30">
         <v>45553</v>
       </c>
     </row>
     <row r="327" spans="1:11">
-      <c r="A327" s="34"/>
-      <c r="B327" s="34"/>
+      <c r="A327" s="28"/>
+      <c r="B327" s="28"/>
       <c r="C327" s="3" t="s">
         <v>279</v>
       </c>
@@ -8483,11 +8506,11 @@
       <c r="G327" s="3">
         <v>8</v>
       </c>
-      <c r="K327" s="28"/>
+      <c r="K327" s="31"/>
     </row>
     <row r="328" spans="1:11">
-      <c r="A328" s="34"/>
-      <c r="B328" s="34"/>
+      <c r="A328" s="28"/>
+      <c r="B328" s="28"/>
       <c r="C328" s="3" t="s">
         <v>280</v>
       </c>
@@ -8503,11 +8526,11 @@
       <c r="G328" s="3">
         <v>50</v>
       </c>
-      <c r="K328" s="28"/>
+      <c r="K328" s="31"/>
     </row>
     <row r="329" spans="1:11">
-      <c r="A329" s="34"/>
-      <c r="B329" s="34"/>
+      <c r="A329" s="28"/>
+      <c r="B329" s="28"/>
       <c r="C329" s="3" t="s">
         <v>281</v>
       </c>
@@ -8523,11 +8546,11 @@
       <c r="G329" s="3">
         <v>50</v>
       </c>
-      <c r="K329" s="28"/>
+      <c r="K329" s="31"/>
     </row>
     <row r="330" spans="1:11">
-      <c r="A330" s="34"/>
-      <c r="B330" s="34"/>
+      <c r="A330" s="28"/>
+      <c r="B330" s="28"/>
       <c r="C330" s="3" t="s">
         <v>282</v>
       </c>
@@ -8543,11 +8566,11 @@
       <c r="G330" s="6">
         <v>10</v>
       </c>
-      <c r="K330" s="28"/>
+      <c r="K330" s="31"/>
     </row>
     <row r="331" spans="1:11">
-      <c r="A331" s="34"/>
-      <c r="B331" s="34"/>
+      <c r="A331" s="28"/>
+      <c r="B331" s="28"/>
       <c r="C331" s="3" t="s">
         <v>283</v>
       </c>
@@ -8563,11 +8586,11 @@
       <c r="G331" s="6">
         <v>150</v>
       </c>
-      <c r="K331" s="28"/>
+      <c r="K331" s="31"/>
     </row>
     <row r="332" spans="1:11">
-      <c r="A332" s="34"/>
-      <c r="B332" s="34"/>
+      <c r="A332" s="28"/>
+      <c r="B332" s="28"/>
       <c r="C332" s="3" t="s">
         <v>284</v>
       </c>
@@ -8583,11 +8606,11 @@
       <c r="G332" s="6">
         <v>100</v>
       </c>
-      <c r="K332" s="28"/>
+      <c r="K332" s="31"/>
     </row>
     <row r="333" spans="1:11">
-      <c r="A333" s="34"/>
-      <c r="B333" s="34"/>
+      <c r="A333" s="28"/>
+      <c r="B333" s="28"/>
       <c r="C333" s="3" t="s">
         <v>6</v>
       </c>
@@ -8603,11 +8626,11 @@
       <c r="G333" s="6">
         <v>20</v>
       </c>
-      <c r="K333" s="28"/>
+      <c r="K333" s="31"/>
     </row>
     <row r="334" spans="1:11">
-      <c r="A334" s="34"/>
-      <c r="B334" s="34"/>
+      <c r="A334" s="28"/>
+      <c r="B334" s="28"/>
       <c r="C334" s="3" t="s">
         <v>8</v>
       </c>
@@ -8623,11 +8646,11 @@
       <c r="G334" s="6">
         <v>20</v>
       </c>
-      <c r="K334" s="28"/>
+      <c r="K334" s="31"/>
     </row>
     <row r="335" spans="1:11">
-      <c r="A335" s="34"/>
-      <c r="B335" s="34"/>
+      <c r="A335" s="28"/>
+      <c r="B335" s="28"/>
       <c r="C335" s="3" t="s">
         <v>285</v>
       </c>
@@ -8646,11 +8669,11 @@
       <c r="J335" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="K335" s="28"/>
+      <c r="K335" s="31"/>
     </row>
     <row r="336" spans="1:11">
-      <c r="A336" s="34"/>
-      <c r="B336" s="34"/>
+      <c r="A336" s="28"/>
+      <c r="B336" s="28"/>
       <c r="C336" s="3" t="s">
         <v>286</v>
       </c>
@@ -8666,11 +8689,11 @@
       <c r="G336" s="6">
         <v>50</v>
       </c>
-      <c r="K336" s="28"/>
+      <c r="K336" s="31"/>
     </row>
     <row r="337" spans="1:11">
-      <c r="A337" s="35"/>
-      <c r="B337" s="35"/>
+      <c r="A337" s="29"/>
+      <c r="B337" s="29"/>
       <c r="C337" s="3" t="s">
         <v>287</v>
       </c>
@@ -8686,13 +8709,13 @@
       <c r="G337" s="6">
         <v>150</v>
       </c>
-      <c r="K337" s="29"/>
+      <c r="K337" s="32"/>
     </row>
     <row r="338" spans="1:11">
-      <c r="A338" s="33">
+      <c r="A338" s="27">
         <v>94</v>
       </c>
-      <c r="B338" s="33" t="s">
+      <c r="B338" s="27" t="s">
         <v>292</v>
       </c>
       <c r="C338" s="3" t="s">
@@ -8711,13 +8734,13 @@
         <v>20</v>
       </c>
       <c r="H338" s="4"/>
-      <c r="K338" s="27">
+      <c r="K338" s="30">
         <v>45553</v>
       </c>
     </row>
     <row r="339" spans="1:11">
-      <c r="A339" s="34"/>
-      <c r="B339" s="34"/>
+      <c r="A339" s="28"/>
+      <c r="B339" s="28"/>
       <c r="C339" s="3" t="s">
         <v>290</v>
       </c>
@@ -8733,11 +8756,11 @@
       <c r="G339" s="3">
         <v>20</v>
       </c>
-      <c r="K339" s="28"/>
+      <c r="K339" s="31"/>
     </row>
     <row r="340" spans="1:11">
-      <c r="A340" s="34"/>
-      <c r="B340" s="34"/>
+      <c r="A340" s="28"/>
+      <c r="B340" s="28"/>
       <c r="C340" s="3" t="s">
         <v>291</v>
       </c>
@@ -8748,11 +8771,11 @@
       <c r="F340" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K340" s="28"/>
+      <c r="K340" s="31"/>
     </row>
     <row r="341" spans="1:11">
-      <c r="A341" s="35"/>
-      <c r="B341" s="35"/>
+      <c r="A341" s="29"/>
+      <c r="B341" s="29"/>
       <c r="C341" s="3" t="s">
         <v>275</v>
       </c>
@@ -8765,65 +8788,315 @@
       <c r="F341" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="K341" s="29"/>
+      <c r="K341" s="32"/>
+    </row>
+    <row r="342" spans="1:11">
+      <c r="B342" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="C342" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D342" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E342" s="3"/>
+      <c r="F342" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K342" s="30">
+        <v>45553</v>
+      </c>
+    </row>
+    <row r="343" spans="1:11" ht="45">
+      <c r="B343" s="34"/>
+      <c r="C343" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D343" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E343" s="3">
+        <v>10</v>
+      </c>
+      <c r="J343" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="K343" s="31"/>
+    </row>
+    <row r="344" spans="1:11">
+      <c r="B344" s="34"/>
+      <c r="C344" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D344" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E344" s="3">
+        <v>10</v>
+      </c>
+      <c r="F344" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G344" s="3">
+        <v>9</v>
+      </c>
+      <c r="K344" s="31"/>
+    </row>
+    <row r="345" spans="1:11">
+      <c r="B345" s="34"/>
+      <c r="C345" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D345" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E345" s="3">
+        <v>10</v>
+      </c>
+      <c r="F345" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G345" s="3">
+        <v>9</v>
+      </c>
+      <c r="K345" s="31"/>
+    </row>
+    <row r="346" spans="1:11">
+      <c r="B346" s="34"/>
+      <c r="C346" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D346" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E346" s="3">
+        <v>10</v>
+      </c>
+      <c r="F346" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G346" s="3">
+        <v>5</v>
+      </c>
+      <c r="K346" s="31"/>
+    </row>
+    <row r="347" spans="1:11">
+      <c r="B347" s="34"/>
+      <c r="C347" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D347" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E347" s="3">
+        <v>50</v>
+      </c>
+      <c r="F347" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G347" s="3">
+        <v>20</v>
+      </c>
+      <c r="K347" s="31"/>
+    </row>
+    <row r="348" spans="1:11">
+      <c r="B348" s="34"/>
+      <c r="C348" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D348" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E348" s="3">
+        <v>50</v>
+      </c>
+      <c r="F348" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G348" s="3">
+        <v>20</v>
+      </c>
+      <c r="K348" s="31"/>
+    </row>
+    <row r="349" spans="1:11" ht="30">
+      <c r="B349" s="35"/>
+      <c r="C349" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D349" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E349" s="3"/>
+      <c r="J349" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="K349" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="243">
-    <mergeCell ref="B313:B316"/>
-    <mergeCell ref="A313:A316"/>
-    <mergeCell ref="B317:B325"/>
-    <mergeCell ref="A317:A325"/>
-    <mergeCell ref="B326:B337"/>
-    <mergeCell ref="A326:A337"/>
-    <mergeCell ref="B338:B341"/>
-    <mergeCell ref="A338:A341"/>
-    <mergeCell ref="K312:K316"/>
-    <mergeCell ref="K317:K325"/>
-    <mergeCell ref="K326:K337"/>
-    <mergeCell ref="K338:K341"/>
-    <mergeCell ref="B294:B296"/>
-    <mergeCell ref="A294:A296"/>
-    <mergeCell ref="B297:B302"/>
-    <mergeCell ref="A297:A302"/>
-    <mergeCell ref="B303:B307"/>
-    <mergeCell ref="A303:A307"/>
-    <mergeCell ref="B308:B312"/>
-    <mergeCell ref="A308:A312"/>
-    <mergeCell ref="A275:A276"/>
-    <mergeCell ref="A277:A281"/>
-    <mergeCell ref="A282:A286"/>
-    <mergeCell ref="B292:B293"/>
-    <mergeCell ref="A292:A293"/>
-    <mergeCell ref="B287:B291"/>
-    <mergeCell ref="A287:A291"/>
-    <mergeCell ref="A229:A231"/>
-    <mergeCell ref="A232:A245"/>
-    <mergeCell ref="A246:A253"/>
-    <mergeCell ref="A254:A255"/>
-    <mergeCell ref="A256:A267"/>
-    <mergeCell ref="B277:B281"/>
-    <mergeCell ref="B282:B286"/>
-    <mergeCell ref="A221:A224"/>
-    <mergeCell ref="B254:B255"/>
-    <mergeCell ref="B256:B267"/>
-    <mergeCell ref="A268:A272"/>
-    <mergeCell ref="A273:A274"/>
-    <mergeCell ref="B268:B272"/>
-    <mergeCell ref="B273:B274"/>
-    <mergeCell ref="B275:B276"/>
-    <mergeCell ref="B225:B228"/>
-    <mergeCell ref="B229:B231"/>
-    <mergeCell ref="B232:B245"/>
-    <mergeCell ref="B246:B253"/>
-    <mergeCell ref="A208:A210"/>
-    <mergeCell ref="A211:A213"/>
-    <mergeCell ref="A172:A175"/>
-    <mergeCell ref="A176:A178"/>
-    <mergeCell ref="A179:A192"/>
-    <mergeCell ref="A193:A195"/>
-    <mergeCell ref="A196:A198"/>
-    <mergeCell ref="B221:B224"/>
-    <mergeCell ref="A225:A228"/>
+  <mergeCells count="245">
+    <mergeCell ref="B342:B349"/>
+    <mergeCell ref="K342:K349"/>
+    <mergeCell ref="K221:K224"/>
+    <mergeCell ref="K225:K228"/>
+    <mergeCell ref="K229:K231"/>
+    <mergeCell ref="K232:K245"/>
+    <mergeCell ref="K246:K253"/>
+    <mergeCell ref="K254:K255"/>
+    <mergeCell ref="K256:K267"/>
+    <mergeCell ref="K303:K307"/>
+    <mergeCell ref="K308:K311"/>
+    <mergeCell ref="K268:K272"/>
+    <mergeCell ref="K273:K274"/>
+    <mergeCell ref="K275:K276"/>
+    <mergeCell ref="K277:K281"/>
+    <mergeCell ref="K282:K286"/>
+    <mergeCell ref="K287:K291"/>
+    <mergeCell ref="K292:K293"/>
+    <mergeCell ref="K294:K296"/>
+    <mergeCell ref="K297:K302"/>
+    <mergeCell ref="K193:K195"/>
+    <mergeCell ref="K196:K198"/>
+    <mergeCell ref="K199:K201"/>
+    <mergeCell ref="K202:K204"/>
+    <mergeCell ref="K205:K207"/>
+    <mergeCell ref="K208:K210"/>
+    <mergeCell ref="K211:K213"/>
+    <mergeCell ref="K214:K216"/>
+    <mergeCell ref="K217:K220"/>
+    <mergeCell ref="K156:K157"/>
+    <mergeCell ref="K159:K160"/>
+    <mergeCell ref="K161:K162"/>
+    <mergeCell ref="K163:K165"/>
+    <mergeCell ref="K166:K169"/>
+    <mergeCell ref="K170:K171"/>
+    <mergeCell ref="K172:K175"/>
+    <mergeCell ref="K176:K178"/>
+    <mergeCell ref="K179:K192"/>
+    <mergeCell ref="K126:K128"/>
+    <mergeCell ref="K129:K131"/>
+    <mergeCell ref="K133:K135"/>
+    <mergeCell ref="K136:K138"/>
+    <mergeCell ref="K139:K142"/>
+    <mergeCell ref="K143:K146"/>
+    <mergeCell ref="K147:K148"/>
+    <mergeCell ref="K149:K152"/>
+    <mergeCell ref="K154:K155"/>
+    <mergeCell ref="K91:K92"/>
+    <mergeCell ref="K93:K96"/>
+    <mergeCell ref="K97:K100"/>
+    <mergeCell ref="K101:K102"/>
+    <mergeCell ref="K103:K105"/>
+    <mergeCell ref="K109:K113"/>
+    <mergeCell ref="K116:K119"/>
+    <mergeCell ref="K120:K122"/>
+    <mergeCell ref="K123:K125"/>
+    <mergeCell ref="B136:B138"/>
+    <mergeCell ref="K2:K6"/>
+    <mergeCell ref="K7:K11"/>
+    <mergeCell ref="K12:K16"/>
+    <mergeCell ref="K17:K21"/>
+    <mergeCell ref="K22:K24"/>
+    <mergeCell ref="K25:K28"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K31:K37"/>
+    <mergeCell ref="K38:K41"/>
+    <mergeCell ref="K42:K46"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="K49:K52"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="K55:K57"/>
+    <mergeCell ref="K58:K59"/>
+    <mergeCell ref="K62:K63"/>
+    <mergeCell ref="K65:K67"/>
+    <mergeCell ref="K68:K72"/>
+    <mergeCell ref="K73:K74"/>
+    <mergeCell ref="K75:K76"/>
+    <mergeCell ref="K78:K81"/>
+    <mergeCell ref="K83:K85"/>
+    <mergeCell ref="K86:K90"/>
+    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A93:A96"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="B129:B131"/>
+    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="A116:A119"/>
+    <mergeCell ref="B133:B135"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B109:B113"/>
+    <mergeCell ref="B116:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B123:B125"/>
+    <mergeCell ref="B126:B128"/>
+    <mergeCell ref="A120:A122"/>
+    <mergeCell ref="A123:A125"/>
+    <mergeCell ref="A126:A128"/>
+    <mergeCell ref="A129:A131"/>
+    <mergeCell ref="A133:A135"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A68:A72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="B93:B96"/>
+    <mergeCell ref="B97:B100"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="B68:B72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="B166:B169"/>
+    <mergeCell ref="B170:B171"/>
+    <mergeCell ref="A159:A160"/>
+    <mergeCell ref="A161:A162"/>
+    <mergeCell ref="A163:A165"/>
+    <mergeCell ref="A166:A169"/>
+    <mergeCell ref="A170:A171"/>
+    <mergeCell ref="B154:B155"/>
+    <mergeCell ref="B156:B157"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="B163:B165"/>
     <mergeCell ref="A136:A138"/>
     <mergeCell ref="A139:A142"/>
     <mergeCell ref="A143:A146"/>
@@ -8848,170 +9121,65 @@
     <mergeCell ref="B196:B198"/>
     <mergeCell ref="B199:B201"/>
     <mergeCell ref="B202:B204"/>
+    <mergeCell ref="A208:A210"/>
+    <mergeCell ref="A211:A213"/>
+    <mergeCell ref="A172:A175"/>
+    <mergeCell ref="A176:A178"/>
+    <mergeCell ref="A179:A192"/>
+    <mergeCell ref="A193:A195"/>
+    <mergeCell ref="A196:A198"/>
+    <mergeCell ref="B221:B224"/>
+    <mergeCell ref="A225:A228"/>
     <mergeCell ref="B205:B207"/>
-    <mergeCell ref="B166:B169"/>
-    <mergeCell ref="B170:B171"/>
-    <mergeCell ref="A159:A160"/>
-    <mergeCell ref="A161:A162"/>
-    <mergeCell ref="A163:A165"/>
-    <mergeCell ref="A166:A169"/>
-    <mergeCell ref="A170:A171"/>
-    <mergeCell ref="B154:B155"/>
-    <mergeCell ref="B156:B157"/>
-    <mergeCell ref="B159:B160"/>
-    <mergeCell ref="B161:B162"/>
-    <mergeCell ref="B163:B165"/>
     <mergeCell ref="A199:A201"/>
     <mergeCell ref="A202:A204"/>
     <mergeCell ref="A205:A207"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="B86:B90"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="B93:B96"/>
-    <mergeCell ref="B97:B100"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="B68:B72"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A68:A72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="A86:A90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="A93:A96"/>
-    <mergeCell ref="A97:A100"/>
-    <mergeCell ref="B129:B131"/>
-    <mergeCell ref="A109:A113"/>
-    <mergeCell ref="A116:A119"/>
-    <mergeCell ref="B133:B135"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="B109:B113"/>
-    <mergeCell ref="B116:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B123:B125"/>
-    <mergeCell ref="B126:B128"/>
-    <mergeCell ref="A120:A122"/>
-    <mergeCell ref="A123:A125"/>
-    <mergeCell ref="A126:A128"/>
-    <mergeCell ref="A129:A131"/>
-    <mergeCell ref="A133:A135"/>
-    <mergeCell ref="B136:B138"/>
-    <mergeCell ref="K2:K6"/>
-    <mergeCell ref="K7:K11"/>
-    <mergeCell ref="K12:K16"/>
-    <mergeCell ref="K17:K21"/>
-    <mergeCell ref="K22:K24"/>
-    <mergeCell ref="K25:K28"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="K31:K37"/>
-    <mergeCell ref="K38:K41"/>
-    <mergeCell ref="K42:K46"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="K49:K52"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="K55:K57"/>
-    <mergeCell ref="K58:K59"/>
-    <mergeCell ref="K62:K63"/>
-    <mergeCell ref="K65:K67"/>
-    <mergeCell ref="K68:K72"/>
-    <mergeCell ref="K73:K74"/>
-    <mergeCell ref="K75:K76"/>
-    <mergeCell ref="K78:K81"/>
-    <mergeCell ref="K83:K85"/>
-    <mergeCell ref="K86:K90"/>
-    <mergeCell ref="K91:K92"/>
-    <mergeCell ref="K93:K96"/>
-    <mergeCell ref="K97:K100"/>
-    <mergeCell ref="K101:K102"/>
-    <mergeCell ref="K103:K105"/>
-    <mergeCell ref="K109:K113"/>
-    <mergeCell ref="K116:K119"/>
-    <mergeCell ref="K120:K122"/>
-    <mergeCell ref="K123:K125"/>
-    <mergeCell ref="K126:K128"/>
-    <mergeCell ref="K129:K131"/>
-    <mergeCell ref="K133:K135"/>
-    <mergeCell ref="K136:K138"/>
-    <mergeCell ref="K139:K142"/>
-    <mergeCell ref="K143:K146"/>
-    <mergeCell ref="K147:K148"/>
-    <mergeCell ref="K149:K152"/>
-    <mergeCell ref="K154:K155"/>
-    <mergeCell ref="K156:K157"/>
-    <mergeCell ref="K159:K160"/>
-    <mergeCell ref="K161:K162"/>
-    <mergeCell ref="K163:K165"/>
-    <mergeCell ref="K166:K169"/>
-    <mergeCell ref="K170:K171"/>
-    <mergeCell ref="K172:K175"/>
-    <mergeCell ref="K176:K178"/>
-    <mergeCell ref="K179:K192"/>
-    <mergeCell ref="K193:K195"/>
-    <mergeCell ref="K196:K198"/>
-    <mergeCell ref="K199:K201"/>
-    <mergeCell ref="K202:K204"/>
-    <mergeCell ref="K205:K207"/>
-    <mergeCell ref="K208:K210"/>
-    <mergeCell ref="K211:K213"/>
-    <mergeCell ref="K214:K216"/>
-    <mergeCell ref="K217:K220"/>
-    <mergeCell ref="K221:K224"/>
-    <mergeCell ref="K225:K228"/>
-    <mergeCell ref="K229:K231"/>
-    <mergeCell ref="K232:K245"/>
-    <mergeCell ref="K246:K253"/>
-    <mergeCell ref="K254:K255"/>
-    <mergeCell ref="K256:K267"/>
-    <mergeCell ref="K303:K307"/>
-    <mergeCell ref="K308:K311"/>
-    <mergeCell ref="K268:K272"/>
-    <mergeCell ref="K273:K274"/>
-    <mergeCell ref="K275:K276"/>
-    <mergeCell ref="K277:K281"/>
-    <mergeCell ref="K282:K286"/>
-    <mergeCell ref="K287:K291"/>
-    <mergeCell ref="K292:K293"/>
-    <mergeCell ref="K294:K296"/>
-    <mergeCell ref="K297:K302"/>
+    <mergeCell ref="A229:A231"/>
+    <mergeCell ref="A232:A245"/>
+    <mergeCell ref="A246:A253"/>
+    <mergeCell ref="A254:A255"/>
+    <mergeCell ref="A256:A267"/>
+    <mergeCell ref="B277:B281"/>
+    <mergeCell ref="B282:B286"/>
+    <mergeCell ref="A221:A224"/>
+    <mergeCell ref="B254:B255"/>
+    <mergeCell ref="B256:B267"/>
+    <mergeCell ref="A268:A272"/>
+    <mergeCell ref="A273:A274"/>
+    <mergeCell ref="B268:B272"/>
+    <mergeCell ref="B273:B274"/>
+    <mergeCell ref="B275:B276"/>
+    <mergeCell ref="B225:B228"/>
+    <mergeCell ref="B229:B231"/>
+    <mergeCell ref="B232:B245"/>
+    <mergeCell ref="B246:B253"/>
+    <mergeCell ref="B294:B296"/>
+    <mergeCell ref="A294:A296"/>
+    <mergeCell ref="B297:B302"/>
+    <mergeCell ref="A297:A302"/>
+    <mergeCell ref="B303:B307"/>
+    <mergeCell ref="A303:A307"/>
+    <mergeCell ref="B308:B312"/>
+    <mergeCell ref="A308:A312"/>
+    <mergeCell ref="A275:A276"/>
+    <mergeCell ref="A277:A281"/>
+    <mergeCell ref="A282:A286"/>
+    <mergeCell ref="B292:B293"/>
+    <mergeCell ref="A292:A293"/>
+    <mergeCell ref="B287:B291"/>
+    <mergeCell ref="A287:A291"/>
+    <mergeCell ref="B313:B316"/>
+    <mergeCell ref="A313:A316"/>
+    <mergeCell ref="B317:B325"/>
+    <mergeCell ref="A317:A325"/>
+    <mergeCell ref="B326:B337"/>
+    <mergeCell ref="A326:A337"/>
+    <mergeCell ref="B338:B341"/>
+    <mergeCell ref="A338:A341"/>
+    <mergeCell ref="K312:K316"/>
+    <mergeCell ref="K317:K325"/>
+    <mergeCell ref="K326:K337"/>
+    <mergeCell ref="K338:K341"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/DPI_Table_Audit/Audit-Process-Sheet.xlsx
+++ b/DPI_Table_Audit/Audit-Process-Sheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="345">
   <si>
     <t>Column Name</t>
   </si>
@@ -925,6 +925,139 @@
   </si>
   <si>
     <t>No Need of this table as discuss with om</t>
+  </si>
+  <si>
+    <t>ClassSubject</t>
+  </si>
+  <si>
+    <t>ClassTarget</t>
+  </si>
+  <si>
+    <t>ClassAchievement</t>
+  </si>
+  <si>
+    <t>MstEmployeeTargetSyllabusPerformanceSheets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if take subject id from master then its best
+</t>
+  </si>
+  <si>
+    <t>if no need than remove it</t>
+  </si>
+  <si>
+    <t>MstEmployeeTargetSyllabusSectionWisePerformanceSheet</t>
+  </si>
+  <si>
+    <t>ClassNoofStudents</t>
+  </si>
+  <si>
+    <t>ClassSecIGradePreviousYear</t>
+  </si>
+  <si>
+    <t>ClassSecIIGradePreviousYear</t>
+  </si>
+  <si>
+    <t>ClassSecIIIGradePreviousYear</t>
+  </si>
+  <si>
+    <t>ClassSecIVGradePreviousYear</t>
+  </si>
+  <si>
+    <t>ClassSecVGradePreviousYear</t>
+  </si>
+  <si>
+    <t>ClassSecIGradePresentYear</t>
+  </si>
+  <si>
+    <t>ClassSecIIGradePresentYear</t>
+  </si>
+  <si>
+    <t>ClassSecIIIGradePresentYear</t>
+  </si>
+  <si>
+    <t>ClassSecIVGradePresentYear</t>
+  </si>
+  <si>
+    <t>ClassSecVGradePresentYear</t>
+  </si>
+  <si>
+    <t>if take subject id from master then its best</t>
+  </si>
+  <si>
+    <t>FuelType</t>
+  </si>
+  <si>
+    <t>MstFuelType</t>
+  </si>
+  <si>
+    <t>MstGrievanceApproval</t>
+  </si>
+  <si>
+    <t>MstGuestFacultyBoardUniversity</t>
+  </si>
+  <si>
+    <t>BoardUniversityName</t>
+  </si>
+  <si>
+    <t>CourseName</t>
+  </si>
+  <si>
+    <t>MstGuestFacultyCourse</t>
+  </si>
+  <si>
+    <t>QualificationName</t>
+  </si>
+  <si>
+    <t>MstGuestFacultyQualification</t>
+  </si>
+  <si>
+    <t>MstGuestFacultySubject</t>
+  </si>
+  <si>
+    <t>HandicappedTypeNameEng</t>
+  </si>
+  <si>
+    <t>HandicappedTypeNameHin</t>
+  </si>
+  <si>
+    <t>MstHandicappedPercentage</t>
+  </si>
+  <si>
+    <t>MstHostelCategories</t>
+  </si>
+  <si>
+    <t>MessFeeAmt</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>(18,2)</t>
+  </si>
+  <si>
+    <t>(9,2)</t>
+  </si>
+  <si>
+    <t>MstHostelMessFees</t>
+  </si>
+  <si>
+    <t>IncomeCode</t>
+  </si>
+  <si>
+    <t>IncomeEng</t>
+  </si>
+  <si>
+    <t>IncomeHin</t>
+  </si>
+  <si>
+    <t>MaxIncome</t>
+  </si>
+  <si>
+    <t>IncomeOrderby</t>
+  </si>
+  <si>
+    <t>MstIncome</t>
   </si>
 </sst>
 </file>
@@ -934,7 +1067,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-C09]dd/mmm/yy;@"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -954,6 +1087,17 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1053,7 +1197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1135,18 +1279,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1462,10 +1614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z317"/>
+  <dimension ref="A1:Z370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="D351" workbookViewId="0">
+      <selection activeCell="J365" sqref="J365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1522,10 +1674,10 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="31">
+      <c r="A2" s="33">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1549,8 +1701,8 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
@@ -1570,8 +1722,8 @@
       <c r="K3" s="26"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="3" t="s">
         <v>23</v>
       </c>
@@ -1588,8 +1740,8 @@
       <c r="K4" s="26"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="3" t="s">
         <v>24</v>
       </c>
@@ -1611,8 +1763,8 @@
       <c r="K5" s="26"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="3" t="s">
         <v>25</v>
       </c>
@@ -1622,10 +1774,10 @@
       <c r="K6" s="27"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="31">
+      <c r="A7" s="33">
         <v>2</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="33" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1648,8 +1800,8 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="3" t="s">
         <v>28</v>
       </c>
@@ -1668,8 +1820,8 @@
       <c r="K8" s="26"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="3" t="s">
         <v>29</v>
       </c>
@@ -1688,10 +1840,10 @@
       <c r="K9" s="27"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="31">
+      <c r="A10" s="33">
         <v>3</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="33" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -1714,8 +1866,8 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
@@ -1734,8 +1886,8 @@
       <c r="K11" s="26"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="3" t="s">
         <v>32</v>
       </c>
@@ -1751,8 +1903,8 @@
       <c r="K12" s="26"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="3" t="s">
         <v>33</v>
       </c>
@@ -1771,10 +1923,10 @@
       <c r="K13" s="27"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="31">
+      <c r="A14" s="33">
         <v>4</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="33" t="s">
         <v>44</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -1797,8 +1949,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="3" t="s">
         <v>41</v>
       </c>
@@ -1817,8 +1969,8 @@
       <c r="K15" s="26"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="3" t="s">
         <v>42</v>
       </c>
@@ -1837,8 +1989,8 @@
       <c r="K16" s="26"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="3" t="s">
         <v>43</v>
       </c>
@@ -1857,10 +2009,10 @@
       <c r="K17" s="27"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="31">
+      <c r="A18" s="33">
         <v>5</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="33" t="s">
         <v>48</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -1883,8 +2035,8 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="3" t="s">
         <v>28</v>
       </c>
@@ -1903,8 +2055,8 @@
       <c r="K19" s="26"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="3" t="s">
         <v>45</v>
       </c>
@@ -1923,8 +2075,8 @@
       <c r="K20" s="26"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="3" t="s">
         <v>46</v>
       </c>
@@ -1943,8 +2095,8 @@
       <c r="K21" s="26"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="3" t="s">
         <v>47</v>
       </c>
@@ -1963,10 +2115,10 @@
       <c r="K22" s="27"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="31">
+      <c r="A23" s="33">
         <v>6</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="33" t="s">
         <v>51</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -1989,8 +2141,8 @@
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
       <c r="C24" s="3" t="s">
         <v>50</v>
       </c>
@@ -2009,10 +2161,10 @@
       <c r="K24" s="27"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="31">
-        <v>7</v>
-      </c>
-      <c r="B25" s="31" t="s">
+      <c r="A25" s="33">
+        <v>7</v>
+      </c>
+      <c r="B25" s="33" t="s">
         <v>55</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -2035,8 +2187,8 @@
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
       <c r="C26" s="3" t="s">
         <v>52</v>
       </c>
@@ -2055,8 +2207,8 @@
       <c r="K26" s="26"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
       <c r="C27" s="3" t="s">
         <v>53</v>
       </c>
@@ -2075,8 +2227,8 @@
       <c r="K27" s="26"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="31"/>
-      <c r="B28" s="31"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
       <c r="C28" s="3" t="s">
         <v>54</v>
       </c>
@@ -2095,10 +2247,10 @@
       <c r="K28" s="27"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="31">
+      <c r="A29" s="33">
         <v>8</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="33" t="s">
         <v>57</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -2121,8 +2273,8 @@
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
       <c r="C30" s="3" t="s">
         <v>56</v>
       </c>
@@ -2141,10 +2293,10 @@
       <c r="K30" s="27"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="31">
+      <c r="A31" s="33">
         <v>9</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="33" t="s">
         <v>58</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -2167,8 +2319,8 @@
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="31"/>
-      <c r="B32" s="31"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="33"/>
       <c r="C32" s="3" t="s">
         <v>28</v>
       </c>
@@ -2187,8 +2339,8 @@
       <c r="K32" s="26"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="31"/>
-      <c r="B33" s="31"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
       <c r="C33" s="3" t="s">
         <v>29</v>
       </c>
@@ -2207,10 +2359,10 @@
       <c r="K33" s="27"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="31">
-        <v>10</v>
-      </c>
-      <c r="B34" s="31" t="s">
+      <c r="A34" s="33">
+        <v>10</v>
+      </c>
+      <c r="B34" s="33" t="s">
         <v>60</v>
       </c>
       <c r="C34" s="3" t="s">
@@ -2233,8 +2385,8 @@
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="31"/>
-      <c r="B35" s="31"/>
+      <c r="A35" s="33"/>
+      <c r="B35" s="33"/>
       <c r="C35" s="3" t="s">
         <v>59</v>
       </c>
@@ -2305,10 +2457,10 @@
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="31">
+      <c r="A38" s="33">
         <v>13</v>
       </c>
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="33" t="s">
         <v>64</v>
       </c>
       <c r="C38" s="3" t="s">
@@ -2331,8 +2483,8 @@
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="31"/>
-      <c r="B39" s="31"/>
+      <c r="A39" s="33"/>
+      <c r="B39" s="33"/>
       <c r="C39" s="3" t="s">
         <v>63</v>
       </c>
@@ -2351,10 +2503,10 @@
       <c r="K39" s="27"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="31">
+      <c r="A40" s="33">
         <v>14</v>
       </c>
-      <c r="B40" s="31" t="s">
+      <c r="B40" s="33" t="s">
         <v>75</v>
       </c>
       <c r="C40" s="3" t="s">
@@ -2377,8 +2529,8 @@
       </c>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="31"/>
-      <c r="B41" s="31"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="33"/>
       <c r="C41" s="3" t="s">
         <v>74</v>
       </c>
@@ -2423,10 +2575,10 @@
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="31">
+      <c r="A43" s="33">
         <v>16</v>
       </c>
-      <c r="B43" s="31" t="s">
+      <c r="B43" s="33" t="s">
         <v>83</v>
       </c>
       <c r="C43" s="3" t="s">
@@ -2449,8 +2601,8 @@
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="31"/>
-      <c r="B44" s="31"/>
+      <c r="A44" s="33"/>
+      <c r="B44" s="33"/>
       <c r="C44" s="3" t="s">
         <v>80</v>
       </c>
@@ -2469,8 +2621,8 @@
       <c r="K44" s="26"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="31"/>
-      <c r="B45" s="31"/>
+      <c r="A45" s="33"/>
+      <c r="B45" s="33"/>
       <c r="C45" s="3" t="s">
         <v>81</v>
       </c>
@@ -2489,8 +2641,8 @@
       <c r="K45" s="26"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="31"/>
-      <c r="B46" s="31"/>
+      <c r="A46" s="33"/>
+      <c r="B46" s="33"/>
       <c r="C46" s="3" t="s">
         <v>82</v>
       </c>
@@ -2535,10 +2687,10 @@
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="31">
+      <c r="A48" s="33">
         <v>18</v>
       </c>
-      <c r="B48" s="31" t="s">
+      <c r="B48" s="33" t="s">
         <v>68</v>
       </c>
       <c r="C48" s="3" t="s">
@@ -2561,8 +2713,8 @@
       </c>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="31"/>
-      <c r="B49" s="31"/>
+      <c r="A49" s="33"/>
+      <c r="B49" s="33"/>
       <c r="C49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2581,8 +2733,8 @@
       <c r="K49" s="26"/>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="31"/>
-      <c r="B50" s="31"/>
+      <c r="A50" s="33"/>
+      <c r="B50" s="33"/>
       <c r="C50" s="3" t="s">
         <v>66</v>
       </c>
@@ -2596,10 +2748,10 @@
       <c r="K50" s="27"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="31">
+      <c r="A51" s="33">
         <v>19</v>
       </c>
-      <c r="B51" s="31" t="s">
+      <c r="B51" s="33" t="s">
         <v>84</v>
       </c>
       <c r="C51" s="3" t="s">
@@ -2622,8 +2774,8 @@
       </c>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="31"/>
-      <c r="B52" s="31"/>
+      <c r="A52" s="33"/>
+      <c r="B52" s="33"/>
       <c r="C52" s="3" t="s">
         <v>69</v>
       </c>
@@ -2637,8 +2789,8 @@
       <c r="K52" s="26"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="31"/>
-      <c r="B53" s="31"/>
+      <c r="A53" s="33"/>
+      <c r="B53" s="33"/>
       <c r="C53" s="3" t="s">
         <v>70</v>
       </c>
@@ -2654,8 +2806,8 @@
       <c r="K53" s="26"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="31"/>
-      <c r="B54" s="31"/>
+      <c r="A54" s="33"/>
+      <c r="B54" s="33"/>
       <c r="C54" s="3" t="s">
         <v>72</v>
       </c>
@@ -2674,8 +2826,8 @@
       <c r="K54" s="26"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="31"/>
-      <c r="B55" s="31"/>
+      <c r="A55" s="33"/>
+      <c r="B55" s="33"/>
       <c r="C55" s="3" t="s">
         <v>73</v>
       </c>
@@ -2694,10 +2846,10 @@
       <c r="K55" s="27"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="31">
-        <v>20</v>
-      </c>
-      <c r="B56" s="31" t="s">
+      <c r="A56" s="33">
+        <v>20</v>
+      </c>
+      <c r="B56" s="33" t="s">
         <v>78</v>
       </c>
       <c r="C56" s="3" t="s">
@@ -2720,8 +2872,8 @@
       </c>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="31"/>
-      <c r="B57" s="31"/>
+      <c r="A57" s="33"/>
+      <c r="B57" s="33"/>
       <c r="C57" s="3" t="s">
         <v>77</v>
       </c>
@@ -2740,10 +2892,10 @@
       <c r="K57" s="27"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="31">
+      <c r="A58" s="33">
         <v>21</v>
       </c>
-      <c r="B58" s="31" t="s">
+      <c r="B58" s="33" t="s">
         <v>91</v>
       </c>
       <c r="C58" s="3" t="s">
@@ -2766,8 +2918,8 @@
       </c>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="31"/>
-      <c r="B59" s="31"/>
+      <c r="A59" s="33"/>
+      <c r="B59" s="33"/>
       <c r="C59" s="3" t="s">
         <v>86</v>
       </c>
@@ -2786,8 +2938,8 @@
       <c r="K59" s="26"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="31"/>
-      <c r="B60" s="31"/>
+      <c r="A60" s="33"/>
+      <c r="B60" s="33"/>
       <c r="C60" s="3" t="s">
         <v>87</v>
       </c>
@@ -2806,8 +2958,8 @@
       <c r="K60" s="26"/>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="31"/>
-      <c r="B61" s="31"/>
+      <c r="A61" s="33"/>
+      <c r="B61" s="33"/>
       <c r="C61" s="3" t="s">
         <v>89</v>
       </c>
@@ -2829,10 +2981,10 @@
       <c r="K61" s="27"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="31">
+      <c r="A62" s="33">
         <v>22</v>
       </c>
-      <c r="B62" s="31" t="s">
+      <c r="B62" s="33" t="s">
         <v>98</v>
       </c>
       <c r="C62" s="3" t="s">
@@ -2855,8 +3007,8 @@
       </c>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="31"/>
-      <c r="B63" s="31"/>
+      <c r="A63" s="33"/>
+      <c r="B63" s="33"/>
       <c r="C63" s="3" t="s">
         <v>92</v>
       </c>
@@ -2878,8 +3030,8 @@
       <c r="K63" s="26"/>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="31"/>
-      <c r="B64" s="31"/>
+      <c r="A64" s="33"/>
+      <c r="B64" s="33"/>
       <c r="C64" s="3" t="s">
         <v>93</v>
       </c>
@@ -2901,8 +3053,8 @@
       <c r="K64" s="26"/>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="31"/>
-      <c r="B65" s="31"/>
+      <c r="A65" s="33"/>
+      <c r="B65" s="33"/>
       <c r="C65" s="3" t="s">
         <v>94</v>
       </c>
@@ -2970,10 +3122,10 @@
       <c r="K67" s="27"/>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="31">
+      <c r="A68" s="33">
         <v>24</v>
       </c>
-      <c r="B68" s="31" t="s">
+      <c r="B68" s="33" t="s">
         <v>101</v>
       </c>
       <c r="C68" s="3" t="s">
@@ -2996,8 +3148,8 @@
       </c>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="31"/>
-      <c r="B69" s="31"/>
+      <c r="A69" s="33"/>
+      <c r="B69" s="33"/>
       <c r="C69" s="3" t="s">
         <v>99</v>
       </c>
@@ -3016,8 +3168,8 @@
       <c r="K69" s="26"/>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="31"/>
-      <c r="B70" s="31"/>
+      <c r="A70" s="33"/>
+      <c r="B70" s="33"/>
       <c r="C70" s="3" t="s">
         <v>70</v>
       </c>
@@ -3111,10 +3263,10 @@
       </c>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="31">
+      <c r="A74" s="33">
         <v>28</v>
       </c>
-      <c r="B74" s="31" t="s">
+      <c r="B74" s="33" t="s">
         <v>111</v>
       </c>
       <c r="C74" s="3" t="s">
@@ -3137,8 +3289,8 @@
       </c>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="31"/>
-      <c r="B75" s="31"/>
+      <c r="A75" s="33"/>
+      <c r="B75" s="33"/>
       <c r="C75" s="3" t="s">
         <v>108</v>
       </c>
@@ -3157,8 +3309,8 @@
       <c r="K75" s="26"/>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="31"/>
-      <c r="B76" s="31"/>
+      <c r="A76" s="33"/>
+      <c r="B76" s="33"/>
       <c r="C76" s="3" t="s">
         <v>109</v>
       </c>
@@ -3177,8 +3329,8 @@
       <c r="K76" s="26"/>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="31"/>
-      <c r="B77" s="31"/>
+      <c r="A77" s="33"/>
+      <c r="B77" s="33"/>
       <c r="C77" s="3" t="s">
         <v>40</v>
       </c>
@@ -3197,8 +3349,8 @@
       <c r="K77" s="26"/>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="31"/>
-      <c r="B78" s="31"/>
+      <c r="A78" s="33"/>
+      <c r="B78" s="33"/>
       <c r="C78" s="3" t="s">
         <v>110</v>
       </c>
@@ -3269,10 +3421,10 @@
       </c>
     </row>
     <row r="81" spans="1:11">
-      <c r="A81" s="31">
+      <c r="A81" s="33">
         <v>31</v>
       </c>
-      <c r="B81" s="31" t="s">
+      <c r="B81" s="33" t="s">
         <v>118</v>
       </c>
       <c r="C81" s="3" t="s">
@@ -3295,8 +3447,8 @@
       </c>
     </row>
     <row r="82" spans="1:11">
-      <c r="A82" s="31"/>
-      <c r="B82" s="31"/>
+      <c r="A82" s="33"/>
+      <c r="B82" s="33"/>
       <c r="C82" s="3" t="s">
         <v>114</v>
       </c>
@@ -3315,8 +3467,8 @@
       <c r="K82" s="26"/>
     </row>
     <row r="83" spans="1:11">
-      <c r="A83" s="31"/>
-      <c r="B83" s="31"/>
+      <c r="A83" s="33"/>
+      <c r="B83" s="33"/>
       <c r="C83" s="3" t="s">
         <v>115</v>
       </c>
@@ -3335,8 +3487,8 @@
       <c r="K83" s="26"/>
     </row>
     <row r="84" spans="1:11">
-      <c r="A84" s="31"/>
-      <c r="B84" s="31"/>
+      <c r="A84" s="33"/>
+      <c r="B84" s="33"/>
       <c r="C84" s="3" t="s">
         <v>116</v>
       </c>
@@ -3352,7 +3504,7 @@
       <c r="A85" s="22">
         <v>32</v>
       </c>
-      <c r="B85" s="31" t="s">
+      <c r="B85" s="33" t="s">
         <v>121</v>
       </c>
       <c r="C85" s="3" t="s">
@@ -3376,7 +3528,7 @@
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="23"/>
-      <c r="B86" s="31"/>
+      <c r="B86" s="33"/>
       <c r="C86" s="3" t="s">
         <v>119</v>
       </c>
@@ -3396,7 +3548,7 @@
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="24"/>
-      <c r="B87" s="31"/>
+      <c r="B87" s="33"/>
       <c r="C87" s="3" t="s">
         <v>120</v>
       </c>
@@ -3418,7 +3570,7 @@
       <c r="A88" s="22">
         <v>33</v>
       </c>
-      <c r="B88" s="31" t="s">
+      <c r="B88" s="33" t="s">
         <v>123</v>
       </c>
       <c r="C88" s="3" t="s">
@@ -3442,7 +3594,7 @@
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="23"/>
-      <c r="B89" s="31"/>
+      <c r="B89" s="33"/>
       <c r="C89" s="3" t="s">
         <v>122</v>
       </c>
@@ -3462,7 +3614,7 @@
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="24"/>
-      <c r="B90" s="31"/>
+      <c r="B90" s="33"/>
       <c r="C90" s="3" t="s">
         <v>120</v>
       </c>
@@ -3484,7 +3636,7 @@
       <c r="A91" s="22">
         <v>34</v>
       </c>
-      <c r="B91" s="31" t="s">
+      <c r="B91" s="33" t="s">
         <v>126</v>
       </c>
       <c r="C91" s="3" t="s">
@@ -3508,7 +3660,7 @@
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="23"/>
-      <c r="B92" s="31"/>
+      <c r="B92" s="33"/>
       <c r="C92" s="3" t="s">
         <v>124</v>
       </c>
@@ -3528,7 +3680,7 @@
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="24"/>
-      <c r="B93" s="31"/>
+      <c r="B93" s="33"/>
       <c r="C93" s="3" t="s">
         <v>125</v>
       </c>
@@ -3550,7 +3702,7 @@
       <c r="A94" s="22">
         <v>35</v>
       </c>
-      <c r="B94" s="31" t="s">
+      <c r="B94" s="33" t="s">
         <v>128</v>
       </c>
       <c r="C94" s="3" t="s">
@@ -3574,7 +3726,7 @@
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="23"/>
-      <c r="B95" s="31"/>
+      <c r="B95" s="33"/>
       <c r="C95" s="3" t="s">
         <v>127</v>
       </c>
@@ -3594,7 +3746,7 @@
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="24"/>
-      <c r="B96" s="31"/>
+      <c r="B96" s="33"/>
       <c r="C96" s="3" t="s">
         <v>125</v>
       </c>
@@ -3642,7 +3794,7 @@
       <c r="A98" s="22">
         <v>37</v>
       </c>
-      <c r="B98" s="31" t="s">
+      <c r="B98" s="33" t="s">
         <v>132</v>
       </c>
       <c r="C98" s="3" t="s">
@@ -3666,7 +3818,7 @@
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="23"/>
-      <c r="B99" s="31"/>
+      <c r="B99" s="33"/>
       <c r="C99" s="3" t="s">
         <v>130</v>
       </c>
@@ -3686,7 +3838,7 @@
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="24"/>
-      <c r="B100" s="31"/>
+      <c r="B100" s="33"/>
       <c r="C100" s="3" t="s">
         <v>131</v>
       </c>
@@ -3708,7 +3860,7 @@
       <c r="A101" s="22">
         <v>38</v>
       </c>
-      <c r="B101" s="31" t="s">
+      <c r="B101" s="33" t="s">
         <v>134</v>
       </c>
       <c r="C101" s="3" t="s">
@@ -3732,7 +3884,7 @@
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="23"/>
-      <c r="B102" s="31"/>
+      <c r="B102" s="33"/>
       <c r="C102" s="3" t="s">
         <v>8</v>
       </c>
@@ -3753,7 +3905,7 @@
     </row>
     <row r="103" spans="1:11">
       <c r="A103" s="24"/>
-      <c r="B103" s="31"/>
+      <c r="B103" s="33"/>
       <c r="C103" s="3" t="s">
         <v>133</v>
       </c>
@@ -3773,7 +3925,7 @@
       <c r="A104" s="22">
         <v>39</v>
       </c>
-      <c r="B104" s="31" t="s">
+      <c r="B104" s="33" t="s">
         <v>140</v>
       </c>
       <c r="C104" s="3" t="s">
@@ -3798,7 +3950,7 @@
     </row>
     <row r="105" spans="1:11">
       <c r="A105" s="23"/>
-      <c r="B105" s="31"/>
+      <c r="B105" s="33"/>
       <c r="C105" s="3" t="s">
         <v>136</v>
       </c>
@@ -3822,7 +3974,7 @@
     </row>
     <row r="106" spans="1:11">
       <c r="A106" s="23"/>
-      <c r="B106" s="31"/>
+      <c r="B106" s="33"/>
       <c r="C106" s="3" t="s">
         <v>138</v>
       </c>
@@ -3843,7 +3995,7 @@
     </row>
     <row r="107" spans="1:11">
       <c r="A107" s="24"/>
-      <c r="B107" s="31"/>
+      <c r="B107" s="33"/>
       <c r="C107" s="3" t="s">
         <v>139</v>
       </c>
@@ -3860,7 +4012,7 @@
       <c r="A108" s="22">
         <v>40</v>
       </c>
-      <c r="B108" s="31" t="s">
+      <c r="B108" s="33" t="s">
         <v>145</v>
       </c>
       <c r="C108" s="3" t="s">
@@ -3884,7 +4036,7 @@
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="23"/>
-      <c r="B109" s="31"/>
+      <c r="B109" s="33"/>
       <c r="C109" s="3" t="s">
         <v>142</v>
       </c>
@@ -3904,7 +4056,7 @@
     </row>
     <row r="110" spans="1:11">
       <c r="A110" s="23"/>
-      <c r="B110" s="31"/>
+      <c r="B110" s="33"/>
       <c r="C110" s="3" t="s">
         <v>143</v>
       </c>
@@ -3924,7 +4076,7 @@
     </row>
     <row r="111" spans="1:11">
       <c r="A111" s="24"/>
-      <c r="B111" s="31"/>
+      <c r="B111" s="33"/>
       <c r="C111" s="3" t="s">
         <v>144</v>
       </c>
@@ -3946,7 +4098,7 @@
       <c r="A112" s="22">
         <v>41</v>
       </c>
-      <c r="B112" s="31" t="s">
+      <c r="B112" s="33" t="s">
         <v>148</v>
       </c>
       <c r="C112" s="3" t="s">
@@ -3970,7 +4122,7 @@
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="24"/>
-      <c r="B113" s="31"/>
+      <c r="B113" s="33"/>
       <c r="C113" s="3" t="s">
         <v>147</v>
       </c>
@@ -3992,7 +4144,7 @@
       <c r="A114" s="22">
         <v>42</v>
       </c>
-      <c r="B114" s="31" t="s">
+      <c r="B114" s="33" t="s">
         <v>152</v>
       </c>
       <c r="C114" s="3" t="s">
@@ -4016,7 +4168,7 @@
     </row>
     <row r="115" spans="1:11">
       <c r="A115" s="23"/>
-      <c r="B115" s="31"/>
+      <c r="B115" s="33"/>
       <c r="C115" s="7" t="s">
         <v>149</v>
       </c>
@@ -4036,7 +4188,7 @@
     </row>
     <row r="116" spans="1:11">
       <c r="A116" s="23"/>
-      <c r="B116" s="31"/>
+      <c r="B116" s="33"/>
       <c r="C116" s="3" t="s">
         <v>150</v>
       </c>
@@ -4056,7 +4208,7 @@
     </row>
     <row r="117" spans="1:11">
       <c r="A117" s="24"/>
-      <c r="B117" s="31"/>
+      <c r="B117" s="33"/>
       <c r="C117" s="3" t="s">
         <v>151</v>
       </c>
@@ -4098,7 +4250,7 @@
       <c r="A119" s="22">
         <v>44</v>
       </c>
-      <c r="B119" s="31" t="s">
+      <c r="B119" s="33" t="s">
         <v>155</v>
       </c>
       <c r="C119" s="3" t="s">
@@ -4122,7 +4274,7 @@
     </row>
     <row r="120" spans="1:11">
       <c r="A120" s="24"/>
-      <c r="B120" s="31"/>
+      <c r="B120" s="33"/>
       <c r="C120" s="3" t="s">
         <v>49</v>
       </c>
@@ -4144,7 +4296,7 @@
       <c r="A121" s="22">
         <v>45</v>
       </c>
-      <c r="B121" s="31" t="s">
+      <c r="B121" s="33" t="s">
         <v>154</v>
       </c>
       <c r="C121" s="3" t="s">
@@ -4168,7 +4320,7 @@
     </row>
     <row r="122" spans="1:11">
       <c r="A122" s="24"/>
-      <c r="B122" s="31"/>
+      <c r="B122" s="33"/>
       <c r="C122" s="3" t="s">
         <v>154</v>
       </c>
@@ -4216,7 +4368,7 @@
       <c r="A124" s="22">
         <v>47</v>
       </c>
-      <c r="B124" s="31" t="s">
+      <c r="B124" s="33" t="s">
         <v>159</v>
       </c>
       <c r="C124" s="3" t="s">
@@ -4240,7 +4392,7 @@
     </row>
     <row r="125" spans="1:11">
       <c r="A125" s="24"/>
-      <c r="B125" s="31"/>
+      <c r="B125" s="33"/>
       <c r="C125" s="3" t="s">
         <v>158</v>
       </c>
@@ -4262,7 +4414,7 @@
       <c r="A126" s="22">
         <v>48</v>
       </c>
-      <c r="B126" s="31" t="s">
+      <c r="B126" s="33" t="s">
         <v>161</v>
       </c>
       <c r="C126" s="3" t="s">
@@ -4286,7 +4438,7 @@
     </row>
     <row r="127" spans="1:11">
       <c r="A127" s="24"/>
-      <c r="B127" s="31"/>
+      <c r="B127" s="33"/>
       <c r="C127" s="3" t="s">
         <v>160</v>
       </c>
@@ -4308,7 +4460,7 @@
       <c r="A128" s="22">
         <v>49</v>
       </c>
-      <c r="B128" s="31" t="s">
+      <c r="B128" s="33" t="s">
         <v>164</v>
       </c>
       <c r="C128" s="3" t="s">
@@ -4332,7 +4484,7 @@
     </row>
     <row r="129" spans="1:11">
       <c r="A129" s="23"/>
-      <c r="B129" s="31"/>
+      <c r="B129" s="33"/>
       <c r="C129" s="3" t="s">
         <v>162</v>
       </c>
@@ -4352,7 +4504,7 @@
     </row>
     <row r="130" spans="1:11">
       <c r="A130" s="24"/>
-      <c r="B130" s="31"/>
+      <c r="B130" s="33"/>
       <c r="C130" s="3" t="s">
         <v>163</v>
       </c>
@@ -4368,7 +4520,7 @@
       <c r="A131" s="22">
         <v>50</v>
       </c>
-      <c r="B131" s="31" t="s">
+      <c r="B131" s="33" t="s">
         <v>168</v>
       </c>
       <c r="C131" s="3" t="s">
@@ -4392,7 +4544,7 @@
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="23"/>
-      <c r="B132" s="31"/>
+      <c r="B132" s="33"/>
       <c r="C132" s="3" t="s">
         <v>165</v>
       </c>
@@ -4412,7 +4564,7 @@
     </row>
     <row r="133" spans="1:11">
       <c r="A133" s="23"/>
-      <c r="B133" s="31"/>
+      <c r="B133" s="33"/>
       <c r="C133" s="3" t="s">
         <v>166</v>
       </c>
@@ -4432,7 +4584,7 @@
     </row>
     <row r="134" spans="1:11">
       <c r="A134" s="24"/>
-      <c r="B134" s="31"/>
+      <c r="B134" s="33"/>
       <c r="C134" s="3" t="s">
         <v>167</v>
       </c>
@@ -4454,7 +4606,7 @@
       <c r="A135" s="22">
         <v>51</v>
       </c>
-      <c r="B135" s="31" t="s">
+      <c r="B135" s="33" t="s">
         <v>169</v>
       </c>
       <c r="C135" s="3" t="s">
@@ -4478,7 +4630,7 @@
     </row>
     <row r="136" spans="1:11">
       <c r="A136" s="24"/>
-      <c r="B136" s="31"/>
+      <c r="B136" s="33"/>
       <c r="C136" s="3" t="s">
         <v>70</v>
       </c>
@@ -4497,7 +4649,7 @@
       <c r="A137" s="22">
         <v>52</v>
       </c>
-      <c r="B137" s="31" t="s">
+      <c r="B137" s="33" t="s">
         <v>170</v>
       </c>
       <c r="C137" s="3" t="s">
@@ -4521,7 +4673,7 @@
     </row>
     <row r="138" spans="1:11">
       <c r="A138" s="23"/>
-      <c r="B138" s="31"/>
+      <c r="B138" s="33"/>
       <c r="C138" s="3" t="s">
         <v>165</v>
       </c>
@@ -4541,7 +4693,7 @@
     </row>
     <row r="139" spans="1:11">
       <c r="A139" s="23"/>
-      <c r="B139" s="31"/>
+      <c r="B139" s="33"/>
       <c r="C139" s="3" t="s">
         <v>166</v>
       </c>
@@ -4561,7 +4713,7 @@
     </row>
     <row r="140" spans="1:11">
       <c r="A140" s="24"/>
-      <c r="B140" s="31"/>
+      <c r="B140" s="33"/>
       <c r="C140" s="3" t="s">
         <v>167</v>
       </c>
@@ -4583,7 +4735,7 @@
       <c r="A141" s="22">
         <v>53</v>
       </c>
-      <c r="B141" s="31" t="s">
+      <c r="B141" s="33" t="s">
         <v>173</v>
       </c>
       <c r="C141" s="3" t="s">
@@ -4607,7 +4759,7 @@
     </row>
     <row r="142" spans="1:11">
       <c r="A142" s="23"/>
-      <c r="B142" s="31"/>
+      <c r="B142" s="33"/>
       <c r="C142" s="3" t="s">
         <v>8</v>
       </c>
@@ -4627,7 +4779,7 @@
     </row>
     <row r="143" spans="1:11">
       <c r="A143" s="24"/>
-      <c r="B143" s="31"/>
+      <c r="B143" s="33"/>
       <c r="C143" s="3" t="s">
         <v>172</v>
       </c>
@@ -4649,7 +4801,7 @@
       <c r="A144" s="22">
         <v>54</v>
       </c>
-      <c r="B144" s="32" t="s">
+      <c r="B144" s="34" t="s">
         <v>186</v>
       </c>
       <c r="C144" s="3" t="s">
@@ -4667,7 +4819,7 @@
     </row>
     <row r="145" spans="1:11">
       <c r="A145" s="23"/>
-      <c r="B145" s="32"/>
+      <c r="B145" s="34"/>
       <c r="C145" s="3" t="s">
         <v>175</v>
       </c>
@@ -4687,7 +4839,7 @@
     </row>
     <row r="146" spans="1:11">
       <c r="A146" s="23"/>
-      <c r="B146" s="32"/>
+      <c r="B146" s="34"/>
       <c r="C146" s="3" t="s">
         <v>176</v>
       </c>
@@ -4707,7 +4859,7 @@
     </row>
     <row r="147" spans="1:11">
       <c r="A147" s="23"/>
-      <c r="B147" s="32"/>
+      <c r="B147" s="34"/>
       <c r="C147" s="3" t="s">
         <v>177</v>
       </c>
@@ -4727,7 +4879,7 @@
     </row>
     <row r="148" spans="1:11">
       <c r="A148" s="23"/>
-      <c r="B148" s="32"/>
+      <c r="B148" s="34"/>
       <c r="C148" s="3" t="s">
         <v>178</v>
       </c>
@@ -4747,7 +4899,7 @@
     </row>
     <row r="149" spans="1:11">
       <c r="A149" s="23"/>
-      <c r="B149" s="32"/>
+      <c r="B149" s="34"/>
       <c r="C149" s="3" t="s">
         <v>179</v>
       </c>
@@ -4767,7 +4919,7 @@
     </row>
     <row r="150" spans="1:11">
       <c r="A150" s="23"/>
-      <c r="B150" s="32"/>
+      <c r="B150" s="34"/>
       <c r="C150" s="3" t="s">
         <v>180</v>
       </c>
@@ -4787,7 +4939,7 @@
     </row>
     <row r="151" spans="1:11">
       <c r="A151" s="23"/>
-      <c r="B151" s="32"/>
+      <c r="B151" s="34"/>
       <c r="C151" s="3" t="s">
         <v>181</v>
       </c>
@@ -4807,7 +4959,7 @@
     </row>
     <row r="152" spans="1:11">
       <c r="A152" s="23"/>
-      <c r="B152" s="32"/>
+      <c r="B152" s="34"/>
       <c r="C152" s="3" t="s">
         <v>182</v>
       </c>
@@ -4827,7 +4979,7 @@
     </row>
     <row r="153" spans="1:11">
       <c r="A153" s="23"/>
-      <c r="B153" s="32"/>
+      <c r="B153" s="34"/>
       <c r="C153" s="3" t="s">
         <v>183</v>
       </c>
@@ -4847,7 +4999,7 @@
     </row>
     <row r="154" spans="1:11">
       <c r="A154" s="23"/>
-      <c r="B154" s="32"/>
+      <c r="B154" s="34"/>
       <c r="C154" s="3" t="s">
         <v>184</v>
       </c>
@@ -4867,7 +5019,7 @@
     </row>
     <row r="155" spans="1:11">
       <c r="A155" s="23"/>
-      <c r="B155" s="32"/>
+      <c r="B155" s="34"/>
       <c r="C155" s="3" t="s">
         <v>6</v>
       </c>
@@ -4887,7 +5039,7 @@
     </row>
     <row r="156" spans="1:11">
       <c r="A156" s="23"/>
-      <c r="B156" s="32"/>
+      <c r="B156" s="34"/>
       <c r="C156" s="3" t="s">
         <v>8</v>
       </c>
@@ -4907,7 +5059,7 @@
     </row>
     <row r="157" spans="1:11">
       <c r="A157" s="24"/>
-      <c r="B157" s="32"/>
+      <c r="B157" s="34"/>
       <c r="C157" s="3" t="s">
         <v>185</v>
       </c>
@@ -4926,7 +5078,7 @@
       <c r="A158" s="22">
         <v>55</v>
       </c>
-      <c r="B158" s="31" t="s">
+      <c r="B158" s="33" t="s">
         <v>187</v>
       </c>
       <c r="C158" s="3" t="s">
@@ -4950,7 +5102,7 @@
     </row>
     <row r="159" spans="1:11">
       <c r="A159" s="23"/>
-      <c r="B159" s="31"/>
+      <c r="B159" s="33"/>
       <c r="C159" s="3" t="s">
         <v>8</v>
       </c>
@@ -4970,7 +5122,7 @@
     </row>
     <row r="160" spans="1:11">
       <c r="A160" s="24"/>
-      <c r="B160" s="31"/>
+      <c r="B160" s="33"/>
       <c r="C160" s="3" t="s">
         <v>70</v>
       </c>
@@ -4989,7 +5141,7 @@
       <c r="A161" s="22">
         <v>56</v>
       </c>
-      <c r="B161" s="31" t="s">
+      <c r="B161" s="33" t="s">
         <v>188</v>
       </c>
       <c r="C161" s="3" t="s">
@@ -5013,7 +5165,7 @@
     </row>
     <row r="162" spans="1:11">
       <c r="A162" s="23"/>
-      <c r="B162" s="31"/>
+      <c r="B162" s="33"/>
       <c r="C162" s="3" t="s">
         <v>8</v>
       </c>
@@ -5033,7 +5185,7 @@
     </row>
     <row r="163" spans="1:11">
       <c r="A163" s="24"/>
-      <c r="B163" s="31"/>
+      <c r="B163" s="33"/>
       <c r="C163" s="3" t="s">
         <v>70</v>
       </c>
@@ -5052,7 +5204,7 @@
       <c r="A164" s="22">
         <v>57</v>
       </c>
-      <c r="B164" s="31" t="s">
+      <c r="B164" s="33" t="s">
         <v>191</v>
       </c>
       <c r="C164" s="3" t="s">
@@ -5076,7 +5228,7 @@
     </row>
     <row r="165" spans="1:11">
       <c r="A165" s="23"/>
-      <c r="B165" s="31"/>
+      <c r="B165" s="33"/>
       <c r="C165" s="3" t="s">
         <v>189</v>
       </c>
@@ -5096,7 +5248,7 @@
     </row>
     <row r="166" spans="1:11">
       <c r="A166" s="24"/>
-      <c r="B166" s="31"/>
+      <c r="B166" s="33"/>
       <c r="C166" s="3" t="s">
         <v>190</v>
       </c>
@@ -5118,7 +5270,7 @@
       <c r="A167" s="22">
         <v>58</v>
       </c>
-      <c r="B167" s="31" t="s">
+      <c r="B167" s="33" t="s">
         <v>194</v>
       </c>
       <c r="C167" s="3" t="s">
@@ -5142,7 +5294,7 @@
     </row>
     <row r="168" spans="1:11">
       <c r="A168" s="23"/>
-      <c r="B168" s="31"/>
+      <c r="B168" s="33"/>
       <c r="C168" s="3" t="s">
         <v>192</v>
       </c>
@@ -5162,7 +5314,7 @@
     </row>
     <row r="169" spans="1:11">
       <c r="A169" s="24"/>
-      <c r="B169" s="31"/>
+      <c r="B169" s="33"/>
       <c r="C169" s="3" t="s">
         <v>193</v>
       </c>
@@ -5184,7 +5336,7 @@
       <c r="A170" s="22">
         <v>59</v>
       </c>
-      <c r="B170" s="31" t="s">
+      <c r="B170" s="33" t="s">
         <v>197</v>
       </c>
       <c r="C170" s="3" t="s">
@@ -5208,7 +5360,7 @@
     </row>
     <row r="171" spans="1:11">
       <c r="A171" s="23"/>
-      <c r="B171" s="31"/>
+      <c r="B171" s="33"/>
       <c r="C171" s="3" t="s">
         <v>195</v>
       </c>
@@ -5228,7 +5380,7 @@
     </row>
     <row r="172" spans="1:11">
       <c r="A172" s="24"/>
-      <c r="B172" s="31"/>
+      <c r="B172" s="33"/>
       <c r="C172" s="3" t="s">
         <v>196</v>
       </c>
@@ -5250,7 +5402,7 @@
       <c r="A173" s="22">
         <v>60</v>
       </c>
-      <c r="B173" s="31" t="s">
+      <c r="B173" s="33" t="s">
         <v>200</v>
       </c>
       <c r="C173" s="3" t="s">
@@ -5274,7 +5426,7 @@
     </row>
     <row r="174" spans="1:11">
       <c r="A174" s="23"/>
-      <c r="B174" s="31"/>
+      <c r="B174" s="33"/>
       <c r="C174" s="3" t="s">
         <v>198</v>
       </c>
@@ -5294,7 +5446,7 @@
     </row>
     <row r="175" spans="1:11">
       <c r="A175" s="24"/>
-      <c r="B175" s="31"/>
+      <c r="B175" s="33"/>
       <c r="C175" s="3" t="s">
         <v>199</v>
       </c>
@@ -5316,7 +5468,7 @@
       <c r="A176" s="22">
         <v>61</v>
       </c>
-      <c r="B176" s="31" t="s">
+      <c r="B176" s="33" t="s">
         <v>203</v>
       </c>
       <c r="C176" s="3" t="s">
@@ -5340,7 +5492,7 @@
     </row>
     <row r="177" spans="1:11">
       <c r="A177" s="23"/>
-      <c r="B177" s="31"/>
+      <c r="B177" s="33"/>
       <c r="C177" s="3" t="s">
         <v>201</v>
       </c>
@@ -5360,7 +5512,7 @@
     </row>
     <row r="178" spans="1:11">
       <c r="A178" s="24"/>
-      <c r="B178" s="31"/>
+      <c r="B178" s="33"/>
       <c r="C178" s="3" t="s">
         <v>202</v>
       </c>
@@ -5382,7 +5534,7 @@
       <c r="A179" s="22">
         <v>62</v>
       </c>
-      <c r="B179" s="31" t="s">
+      <c r="B179" s="33" t="s">
         <v>204</v>
       </c>
       <c r="C179" s="8" t="s">
@@ -5406,7 +5558,7 @@
     </row>
     <row r="180" spans="1:11">
       <c r="A180" s="23"/>
-      <c r="B180" s="31"/>
+      <c r="B180" s="33"/>
       <c r="C180" s="8" t="s">
         <v>201</v>
       </c>
@@ -5426,7 +5578,7 @@
     </row>
     <row r="181" spans="1:11">
       <c r="A181" s="24"/>
-      <c r="B181" s="31"/>
+      <c r="B181" s="33"/>
       <c r="C181" s="8" t="s">
         <v>202</v>
       </c>
@@ -6663,7 +6815,7 @@
       <c r="G240" s="3">
         <v>20</v>
       </c>
-      <c r="K240" s="33">
+      <c r="K240" s="31">
         <v>45552</v>
       </c>
     </row>
@@ -6685,7 +6837,7 @@
       <c r="G241" s="3">
         <v>20</v>
       </c>
-      <c r="K241" s="34"/>
+      <c r="K241" s="32"/>
     </row>
     <row r="242" spans="1:11">
       <c r="A242" s="22">
@@ -8205,10 +8357,10 @@
       <c r="K314" s="27"/>
     </row>
     <row r="315" spans="1:11">
-      <c r="A315" s="31">
+      <c r="A315" s="33">
         <v>87</v>
       </c>
-      <c r="B315" s="31" t="s">
+      <c r="B315" s="33" t="s">
         <v>35</v>
       </c>
       <c r="C315" s="3" t="s">
@@ -8231,8 +8383,8 @@
       </c>
     </row>
     <row r="316" spans="1:11">
-      <c r="A316" s="31"/>
-      <c r="B316" s="31"/>
+      <c r="A316" s="33"/>
+      <c r="B316" s="33"/>
       <c r="C316" s="3" t="s">
         <v>8</v>
       </c>
@@ -8264,60 +8416,1254 @@
         <v>45553</v>
       </c>
     </row>
+    <row r="318" spans="1:11">
+      <c r="A318" s="22">
+        <v>89</v>
+      </c>
+      <c r="B318" s="28" t="s">
+        <v>304</v>
+      </c>
+      <c r="C318" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D318" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E318" s="3"/>
+      <c r="F318" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K318" s="25">
+        <v>45554</v>
+      </c>
+    </row>
+    <row r="319" spans="1:11" ht="45">
+      <c r="A319" s="23"/>
+      <c r="B319" s="29"/>
+      <c r="C319" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D319" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E319" s="3">
+        <v>10</v>
+      </c>
+      <c r="J319" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="K319" s="26"/>
+    </row>
+    <row r="320" spans="1:11" ht="30">
+      <c r="A320" s="23"/>
+      <c r="B320" s="29"/>
+      <c r="C320" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D320" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E320" s="3">
+        <v>50</v>
+      </c>
+      <c r="F320" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G320" s="3">
+        <v>20</v>
+      </c>
+      <c r="J320" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="K320" s="26"/>
+    </row>
+    <row r="321" spans="1:11">
+      <c r="A321" s="23"/>
+      <c r="B321" s="29"/>
+      <c r="C321" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D321" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E321" s="3">
+        <v>8</v>
+      </c>
+      <c r="F321" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G321" s="3">
+        <v>6</v>
+      </c>
+      <c r="K321" s="26"/>
+    </row>
+    <row r="322" spans="1:11">
+      <c r="A322" s="23"/>
+      <c r="B322" s="29"/>
+      <c r="C322" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D322" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E322" s="3">
+        <v>8</v>
+      </c>
+      <c r="F322" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G322" s="3">
+        <v>6</v>
+      </c>
+      <c r="K322" s="26"/>
+    </row>
+    <row r="323" spans="1:11">
+      <c r="A323" s="23"/>
+      <c r="B323" s="29"/>
+      <c r="C323" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D323" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E323" s="3">
+        <v>50</v>
+      </c>
+      <c r="F323" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G323" s="3">
+        <v>20</v>
+      </c>
+      <c r="K323" s="26"/>
+    </row>
+    <row r="324" spans="1:11">
+      <c r="A324" s="23"/>
+      <c r="B324" s="29"/>
+      <c r="C324" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D324" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E324" s="3">
+        <v>50</v>
+      </c>
+      <c r="F324" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G324" s="3">
+        <v>20</v>
+      </c>
+      <c r="J324" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="K324" s="26"/>
+    </row>
+    <row r="325" spans="1:11">
+      <c r="A325" s="24"/>
+      <c r="B325" s="30"/>
+      <c r="C325" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D325" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E325" s="3"/>
+      <c r="K325" s="27"/>
+    </row>
+    <row r="326" spans="1:11" ht="30" customHeight="1">
+      <c r="A326" s="22">
+        <v>90</v>
+      </c>
+      <c r="B326" s="28" t="s">
+        <v>307</v>
+      </c>
+      <c r="C326" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D326" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E326" s="3"/>
+      <c r="F326" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K326" s="25">
+        <v>45554</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11" ht="30" customHeight="1">
+      <c r="A327" s="23"/>
+      <c r="B327" s="29"/>
+      <c r="C327" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D327" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E327" s="3">
+        <v>10</v>
+      </c>
+      <c r="J327" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="K327" s="26"/>
+    </row>
+    <row r="328" spans="1:11" ht="30" customHeight="1">
+      <c r="A328" s="23"/>
+      <c r="B328" s="29"/>
+      <c r="C328" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D328" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E328" s="3">
+        <v>50</v>
+      </c>
+      <c r="F328" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G328" s="3">
+        <v>20</v>
+      </c>
+      <c r="J328" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="K328" s="26"/>
+    </row>
+    <row r="329" spans="1:11" ht="30" customHeight="1">
+      <c r="A329" s="23"/>
+      <c r="B329" s="29"/>
+      <c r="C329" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D329" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E329" s="3"/>
+      <c r="F329" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K329" s="26"/>
+    </row>
+    <row r="330" spans="1:11" ht="30" customHeight="1">
+      <c r="A330" s="23"/>
+      <c r="B330" s="29"/>
+      <c r="C330" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D330" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E330" s="3">
+        <v>3</v>
+      </c>
+      <c r="F330" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K330" s="26"/>
+    </row>
+    <row r="331" spans="1:11" ht="30" customHeight="1">
+      <c r="A331" s="23"/>
+      <c r="B331" s="29"/>
+      <c r="C331" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D331" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E331" s="3">
+        <v>3</v>
+      </c>
+      <c r="F331" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K331" s="26"/>
+    </row>
+    <row r="332" spans="1:11" ht="30" customHeight="1">
+      <c r="A332" s="23"/>
+      <c r="B332" s="29"/>
+      <c r="C332" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D332" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E332" s="3">
+        <v>3</v>
+      </c>
+      <c r="F332" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K332" s="26"/>
+    </row>
+    <row r="333" spans="1:11" ht="30" customHeight="1">
+      <c r="A333" s="23"/>
+      <c r="B333" s="29"/>
+      <c r="C333" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D333" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E333" s="3">
+        <v>3</v>
+      </c>
+      <c r="F333" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K333" s="26"/>
+    </row>
+    <row r="334" spans="1:11" ht="30" customHeight="1">
+      <c r="A334" s="23"/>
+      <c r="B334" s="29"/>
+      <c r="C334" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D334" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E334" s="3">
+        <v>3</v>
+      </c>
+      <c r="F334" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K334" s="26"/>
+    </row>
+    <row r="335" spans="1:11" ht="30" customHeight="1">
+      <c r="A335" s="23"/>
+      <c r="B335" s="29"/>
+      <c r="C335" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D335" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E335" s="3">
+        <v>3</v>
+      </c>
+      <c r="F335" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K335" s="26"/>
+    </row>
+    <row r="336" spans="1:11">
+      <c r="A336" s="23"/>
+      <c r="B336" s="29"/>
+      <c r="C336" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D336" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E336" s="3">
+        <v>3</v>
+      </c>
+      <c r="F336" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K336" s="26"/>
+    </row>
+    <row r="337" spans="1:11">
+      <c r="A337" s="23"/>
+      <c r="B337" s="29"/>
+      <c r="C337" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D337" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E337" s="3">
+        <v>3</v>
+      </c>
+      <c r="F337" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K337" s="26"/>
+    </row>
+    <row r="338" spans="1:11">
+      <c r="A338" s="23"/>
+      <c r="B338" s="29"/>
+      <c r="C338" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D338" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E338" s="3">
+        <v>3</v>
+      </c>
+      <c r="F338" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K338" s="26"/>
+    </row>
+    <row r="339" spans="1:11">
+      <c r="A339" s="23"/>
+      <c r="B339" s="29"/>
+      <c r="C339" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D339" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E339" s="3">
+        <v>3</v>
+      </c>
+      <c r="F339" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K339" s="26"/>
+    </row>
+    <row r="340" spans="1:11">
+      <c r="A340" s="23"/>
+      <c r="B340" s="29"/>
+      <c r="C340" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D340" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E340" s="3">
+        <v>50</v>
+      </c>
+      <c r="F340" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G340" s="3">
+        <v>20</v>
+      </c>
+      <c r="K340" s="26"/>
+    </row>
+    <row r="341" spans="1:11">
+      <c r="A341" s="23"/>
+      <c r="B341" s="29"/>
+      <c r="C341" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D341" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E341" s="3">
+        <v>50</v>
+      </c>
+      <c r="F341" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G341" s="3">
+        <v>20</v>
+      </c>
+      <c r="J341" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="K341" s="26"/>
+    </row>
+    <row r="342" spans="1:11">
+      <c r="A342" s="24"/>
+      <c r="B342" s="30"/>
+      <c r="C342" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D342" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E342" s="3"/>
+      <c r="K342" s="27"/>
+    </row>
+    <row r="343" spans="1:11">
+      <c r="A343" s="6">
+        <v>91</v>
+      </c>
+      <c r="B343" s="36" t="s">
+        <v>321</v>
+      </c>
+      <c r="C343" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D343" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E343" s="3">
+        <v>40</v>
+      </c>
+      <c r="F343" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G343" s="3">
+        <v>20</v>
+      </c>
+      <c r="K343" s="21">
+        <v>45554</v>
+      </c>
+    </row>
+    <row r="344" spans="1:11">
+      <c r="A344" s="22">
+        <v>92</v>
+      </c>
+      <c r="B344" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="C344" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D344" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E344" s="3">
+        <v>50</v>
+      </c>
+      <c r="F344" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G344" s="3">
+        <v>20</v>
+      </c>
+      <c r="K344" s="25">
+        <v>45554</v>
+      </c>
+    </row>
+    <row r="345" spans="1:11">
+      <c r="A345" s="24"/>
+      <c r="B345" s="24"/>
+      <c r="C345" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D345" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E345" s="3">
+        <v>50</v>
+      </c>
+      <c r="F345" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G345" s="3">
+        <v>20</v>
+      </c>
+      <c r="K345" s="27"/>
+    </row>
+    <row r="346" spans="1:11">
+      <c r="A346" s="22">
+        <v>93</v>
+      </c>
+      <c r="B346" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="C346" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D346" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E346" s="3">
+        <v>50</v>
+      </c>
+      <c r="F346" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G346" s="3">
+        <v>20</v>
+      </c>
+      <c r="K346" s="25">
+        <v>45554</v>
+      </c>
+    </row>
+    <row r="347" spans="1:11">
+      <c r="A347" s="24"/>
+      <c r="B347" s="24"/>
+      <c r="C347" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D347" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E347" s="3">
+        <v>250</v>
+      </c>
+      <c r="F347" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G347" s="3">
+        <v>50</v>
+      </c>
+      <c r="K347" s="27"/>
+    </row>
+    <row r="348" spans="1:11">
+      <c r="A348" s="22">
+        <v>94</v>
+      </c>
+      <c r="B348" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="C348" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D348" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E348" s="3">
+        <v>50</v>
+      </c>
+      <c r="F348" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G348" s="3">
+        <v>20</v>
+      </c>
+      <c r="K348" s="25">
+        <v>45554</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11">
+      <c r="A349" s="24"/>
+      <c r="B349" s="24"/>
+      <c r="C349" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D349" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E349" s="3">
+        <v>100</v>
+      </c>
+      <c r="F349" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G349" s="3">
+        <v>50</v>
+      </c>
+      <c r="K349" s="27"/>
+    </row>
+    <row r="350" spans="1:11">
+      <c r="A350" s="22">
+        <v>95</v>
+      </c>
+      <c r="B350" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="C350" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D350" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E350" s="3">
+        <v>50</v>
+      </c>
+      <c r="F350" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G350" s="3">
+        <v>20</v>
+      </c>
+      <c r="K350" s="25">
+        <v>45554</v>
+      </c>
+    </row>
+    <row r="351" spans="1:11">
+      <c r="A351" s="24"/>
+      <c r="B351" s="24"/>
+      <c r="C351" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D351" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E351" s="3">
+        <v>100</v>
+      </c>
+      <c r="F351" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G351" s="3">
+        <v>50</v>
+      </c>
+      <c r="K351" s="27"/>
+    </row>
+    <row r="352" spans="1:11">
+      <c r="A352" s="22">
+        <v>96</v>
+      </c>
+      <c r="B352" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="C352" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D352" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E352" s="3">
+        <v>50</v>
+      </c>
+      <c r="F352" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G352" s="3">
+        <v>20</v>
+      </c>
+      <c r="K352" s="25">
+        <v>45554</v>
+      </c>
+    </row>
+    <row r="353" spans="1:11">
+      <c r="A353" s="24"/>
+      <c r="B353" s="24"/>
+      <c r="C353" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D353" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E353" s="3">
+        <v>250</v>
+      </c>
+      <c r="F353" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G353" s="3">
+        <v>100</v>
+      </c>
+      <c r="K353" s="27"/>
+    </row>
+    <row r="354" spans="1:11">
+      <c r="A354" s="22">
+        <v>97</v>
+      </c>
+      <c r="B354" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="C354" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D354" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E354" s="3">
+        <v>100</v>
+      </c>
+      <c r="F354" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G354" s="3">
+        <v>50</v>
+      </c>
+      <c r="K354" s="25">
+        <v>45554</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11">
+      <c r="A355" s="23"/>
+      <c r="B355" s="23"/>
+      <c r="C355" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D355" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E355" s="3">
+        <v>100</v>
+      </c>
+      <c r="F355" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G355" s="3">
+        <v>50</v>
+      </c>
+      <c r="K355" s="26"/>
+    </row>
+    <row r="356" spans="1:11">
+      <c r="A356" s="23"/>
+      <c r="B356" s="23"/>
+      <c r="C356" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D356" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E356" s="3">
+        <v>50</v>
+      </c>
+      <c r="F356" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G356" s="3">
+        <v>20</v>
+      </c>
+      <c r="K356" s="26"/>
+    </row>
+    <row r="357" spans="1:11">
+      <c r="A357" s="24"/>
+      <c r="B357" s="24"/>
+      <c r="C357" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D357" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E357" s="3">
+        <v>50</v>
+      </c>
+      <c r="F357" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G357" s="3">
+        <v>20</v>
+      </c>
+      <c r="K357" s="27"/>
+    </row>
+    <row r="358" spans="1:11">
+      <c r="A358" s="22">
+        <v>98</v>
+      </c>
+      <c r="B358" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="C358" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D358" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E358" s="3">
+        <v>100</v>
+      </c>
+      <c r="F358" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G358" s="3">
+        <v>50</v>
+      </c>
+      <c r="K358" s="25">
+        <v>45554</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11">
+      <c r="A359" s="23"/>
+      <c r="B359" s="23"/>
+      <c r="C359" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D359" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E359" s="3">
+        <v>100</v>
+      </c>
+      <c r="F359" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G359" s="3">
+        <v>50</v>
+      </c>
+      <c r="K359" s="26"/>
+    </row>
+    <row r="360" spans="1:11">
+      <c r="A360" s="23"/>
+      <c r="B360" s="23"/>
+      <c r="C360" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D360" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E360" s="3">
+        <v>50</v>
+      </c>
+      <c r="F360" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G360" s="3">
+        <v>20</v>
+      </c>
+      <c r="K360" s="26"/>
+    </row>
+    <row r="361" spans="1:11">
+      <c r="A361" s="24"/>
+      <c r="B361" s="24"/>
+      <c r="C361" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D361" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E361" s="3">
+        <v>50</v>
+      </c>
+      <c r="F361" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G361" s="3">
+        <v>20</v>
+      </c>
+      <c r="K361" s="27"/>
+    </row>
+    <row r="362" spans="1:11">
+      <c r="A362" s="22">
+        <v>99</v>
+      </c>
+      <c r="B362" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="C362" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D362" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E362" s="3">
+        <v>50</v>
+      </c>
+      <c r="F362" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G362" s="3">
+        <v>20</v>
+      </c>
+      <c r="K362" s="25">
+        <v>45554</v>
+      </c>
+    </row>
+    <row r="363" spans="1:11" ht="15.75">
+      <c r="A363" s="24"/>
+      <c r="B363" s="24"/>
+      <c r="C363" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D363" s="37" t="s">
+        <v>335</v>
+      </c>
+      <c r="E363" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F363" s="37" t="s">
+        <v>335</v>
+      </c>
+      <c r="G363" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="K363" s="27"/>
+    </row>
+    <row r="364" spans="1:11">
+      <c r="A364" s="22">
+        <v>100</v>
+      </c>
+      <c r="B364" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="C364" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D364" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E364" s="3">
+        <v>10</v>
+      </c>
+      <c r="F364" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G364" s="3">
+        <v>2</v>
+      </c>
+      <c r="K364" s="25">
+        <v>45554</v>
+      </c>
+    </row>
+    <row r="365" spans="1:11">
+      <c r="A365" s="23"/>
+      <c r="B365" s="23"/>
+      <c r="C365" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D365" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E365" s="3">
+        <v>80</v>
+      </c>
+      <c r="F365" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G365" s="3">
+        <v>40</v>
+      </c>
+      <c r="K365" s="26"/>
+    </row>
+    <row r="366" spans="1:11">
+      <c r="A366" s="23"/>
+      <c r="B366" s="23"/>
+      <c r="C366" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D366" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E366" s="3">
+        <v>80</v>
+      </c>
+      <c r="F366" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G366" s="3">
+        <v>40</v>
+      </c>
+      <c r="K366" s="26"/>
+    </row>
+    <row r="367" spans="1:11" ht="15.75">
+      <c r="A367" s="23"/>
+      <c r="B367" s="23"/>
+      <c r="C367" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D367" s="37" t="s">
+        <v>335</v>
+      </c>
+      <c r="E367" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F367" s="37" t="s">
+        <v>335</v>
+      </c>
+      <c r="G367" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="K367" s="26"/>
+    </row>
+    <row r="368" spans="1:11" ht="15.75">
+      <c r="A368" s="23"/>
+      <c r="B368" s="23"/>
+      <c r="C368" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D368" s="37" t="s">
+        <v>335</v>
+      </c>
+      <c r="E368" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F368" s="37" t="s">
+        <v>335</v>
+      </c>
+      <c r="G368" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="K368" s="26"/>
+    </row>
+    <row r="369" spans="1:11">
+      <c r="A369" s="23"/>
+      <c r="B369" s="23"/>
+      <c r="C369" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="D369" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E369" s="3"/>
+      <c r="F369" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="K369" s="26"/>
+    </row>
+    <row r="370" spans="1:11">
+      <c r="A370" s="24"/>
+      <c r="B370" s="24"/>
+      <c r="C370" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D370" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E370" s="3">
+        <v>50</v>
+      </c>
+      <c r="F370" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G370" s="3">
+        <v>20</v>
+      </c>
+      <c r="K370" s="27"/>
+    </row>
   </sheetData>
-  <mergeCells count="225">
-    <mergeCell ref="A307:A314"/>
-    <mergeCell ref="K161:K163"/>
-    <mergeCell ref="K164:K166"/>
-    <mergeCell ref="K167:K169"/>
-    <mergeCell ref="K170:K172"/>
-    <mergeCell ref="K173:K175"/>
-    <mergeCell ref="K176:K178"/>
-    <mergeCell ref="K179:K181"/>
-    <mergeCell ref="K182:K185"/>
-    <mergeCell ref="B307:B314"/>
-    <mergeCell ref="K307:K314"/>
-    <mergeCell ref="K186:K189"/>
-    <mergeCell ref="K190:K193"/>
-    <mergeCell ref="K194:K196"/>
-    <mergeCell ref="K197:K210"/>
-    <mergeCell ref="K211:K218"/>
-    <mergeCell ref="K219:K220"/>
-    <mergeCell ref="K221:K232"/>
-    <mergeCell ref="K119:K120"/>
-    <mergeCell ref="K121:K122"/>
-    <mergeCell ref="K268:K272"/>
-    <mergeCell ref="K273:K276"/>
-    <mergeCell ref="K233:K237"/>
-    <mergeCell ref="K238:K239"/>
-    <mergeCell ref="K240:K241"/>
-    <mergeCell ref="K242:K246"/>
-    <mergeCell ref="K247:K251"/>
-    <mergeCell ref="K124:K125"/>
-    <mergeCell ref="K126:K127"/>
-    <mergeCell ref="K128:K130"/>
-    <mergeCell ref="K131:K134"/>
-    <mergeCell ref="K135:K136"/>
-    <mergeCell ref="K137:K140"/>
-    <mergeCell ref="K141:K143"/>
-    <mergeCell ref="K144:K157"/>
-    <mergeCell ref="K158:K160"/>
-    <mergeCell ref="K252:K256"/>
-    <mergeCell ref="K257:K258"/>
-    <mergeCell ref="K259:K261"/>
-    <mergeCell ref="K262:K267"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="K58:K61"/>
-    <mergeCell ref="K62:K65"/>
-    <mergeCell ref="K66:K67"/>
-    <mergeCell ref="K68:K70"/>
-    <mergeCell ref="K74:K78"/>
-    <mergeCell ref="K81:K84"/>
-    <mergeCell ref="K85:K87"/>
-    <mergeCell ref="K88:K90"/>
-    <mergeCell ref="K91:K93"/>
+  <mergeCells count="258">
+    <mergeCell ref="B362:B363"/>
+    <mergeCell ref="A362:A363"/>
+    <mergeCell ref="K362:K363"/>
+    <mergeCell ref="B364:B370"/>
+    <mergeCell ref="A364:A370"/>
+    <mergeCell ref="K364:K370"/>
+    <mergeCell ref="A352:A353"/>
+    <mergeCell ref="B352:B353"/>
+    <mergeCell ref="K352:K353"/>
+    <mergeCell ref="B354:B357"/>
+    <mergeCell ref="A354:A357"/>
+    <mergeCell ref="K354:K357"/>
+    <mergeCell ref="B358:B361"/>
+    <mergeCell ref="A358:A361"/>
+    <mergeCell ref="K358:K361"/>
+    <mergeCell ref="B346:B347"/>
+    <mergeCell ref="A346:A347"/>
+    <mergeCell ref="B348:B349"/>
+    <mergeCell ref="A348:A349"/>
+    <mergeCell ref="K346:K347"/>
+    <mergeCell ref="K348:K349"/>
+    <mergeCell ref="B350:B351"/>
+    <mergeCell ref="A350:A351"/>
+    <mergeCell ref="K350:K351"/>
+    <mergeCell ref="B318:B325"/>
+    <mergeCell ref="A318:A325"/>
+    <mergeCell ref="B326:B342"/>
+    <mergeCell ref="A326:A342"/>
+    <mergeCell ref="K318:K325"/>
+    <mergeCell ref="K326:K342"/>
+    <mergeCell ref="B344:B345"/>
+    <mergeCell ref="A344:A345"/>
+    <mergeCell ref="K344:K345"/>
+    <mergeCell ref="A278:A281"/>
+    <mergeCell ref="B282:B290"/>
+    <mergeCell ref="A282:A290"/>
+    <mergeCell ref="B291:B302"/>
+    <mergeCell ref="A291:A302"/>
+    <mergeCell ref="B303:B306"/>
+    <mergeCell ref="A303:A306"/>
+    <mergeCell ref="K277:K281"/>
+    <mergeCell ref="K282:K290"/>
+    <mergeCell ref="K291:K302"/>
+    <mergeCell ref="K303:K306"/>
+    <mergeCell ref="B278:B281"/>
+    <mergeCell ref="A259:A261"/>
+    <mergeCell ref="B262:B267"/>
+    <mergeCell ref="A262:A267"/>
+    <mergeCell ref="B268:B272"/>
+    <mergeCell ref="A268:A272"/>
+    <mergeCell ref="B273:B277"/>
+    <mergeCell ref="A273:A277"/>
+    <mergeCell ref="A240:A241"/>
+    <mergeCell ref="A242:A246"/>
+    <mergeCell ref="A247:A251"/>
+    <mergeCell ref="B257:B258"/>
+    <mergeCell ref="A257:A258"/>
+    <mergeCell ref="B252:B256"/>
+    <mergeCell ref="A252:A256"/>
+    <mergeCell ref="B259:B261"/>
+    <mergeCell ref="A221:A232"/>
+    <mergeCell ref="B242:B246"/>
+    <mergeCell ref="B247:B251"/>
+    <mergeCell ref="A186:A189"/>
+    <mergeCell ref="B219:B220"/>
+    <mergeCell ref="B221:B232"/>
+    <mergeCell ref="A233:A237"/>
+    <mergeCell ref="A238:A239"/>
+    <mergeCell ref="B233:B237"/>
+    <mergeCell ref="B238:B239"/>
+    <mergeCell ref="B240:B241"/>
+    <mergeCell ref="B190:B193"/>
+    <mergeCell ref="B194:B196"/>
+    <mergeCell ref="B197:B210"/>
+    <mergeCell ref="B211:B218"/>
+    <mergeCell ref="A137:A140"/>
+    <mergeCell ref="A141:A143"/>
+    <mergeCell ref="A144:A157"/>
+    <mergeCell ref="A158:A160"/>
+    <mergeCell ref="A161:A163"/>
+    <mergeCell ref="B186:B189"/>
+    <mergeCell ref="A190:A193"/>
+    <mergeCell ref="B170:B172"/>
+    <mergeCell ref="A164:A166"/>
+    <mergeCell ref="A167:A169"/>
+    <mergeCell ref="A170:A172"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="A104:A107"/>
+    <mergeCell ref="A108:A111"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B137:B140"/>
+    <mergeCell ref="B141:B143"/>
+    <mergeCell ref="B144:B157"/>
+    <mergeCell ref="A179:A181"/>
+    <mergeCell ref="A182:A185"/>
+    <mergeCell ref="B173:B175"/>
+    <mergeCell ref="B176:B178"/>
+    <mergeCell ref="B179:B181"/>
+    <mergeCell ref="B182:B185"/>
+    <mergeCell ref="B104:B107"/>
+    <mergeCell ref="B108:B111"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="B114:B117"/>
+    <mergeCell ref="A114:A117"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B158:B160"/>
+    <mergeCell ref="B161:B163"/>
+    <mergeCell ref="B164:B166"/>
+    <mergeCell ref="B167:B169"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="A128:A130"/>
+    <mergeCell ref="A131:A134"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="B315:B316"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B94:B96"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B131:B134"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B74:B78"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="A315:A316"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="A98:A100"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A124:A125"/>
     <mergeCell ref="K2:K6"/>
     <mergeCell ref="K7:K9"/>
     <mergeCell ref="K10:K13"/>
@@ -8342,157 +9688,68 @@
     <mergeCell ref="K108:K111"/>
     <mergeCell ref="K112:K113"/>
     <mergeCell ref="K114:K117"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A88:A90"/>
-    <mergeCell ref="A91:A93"/>
-    <mergeCell ref="A315:A316"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="A94:A96"/>
-    <mergeCell ref="A98:A100"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="K58:K61"/>
+    <mergeCell ref="K62:K65"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="K68:K70"/>
+    <mergeCell ref="K74:K78"/>
+    <mergeCell ref="K81:K84"/>
+    <mergeCell ref="K85:K87"/>
+    <mergeCell ref="K88:K90"/>
+    <mergeCell ref="K91:K93"/>
     <mergeCell ref="B58:B61"/>
     <mergeCell ref="B62:B65"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B315:B316"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="B94:B96"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B131:B134"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="B74:B78"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="A128:A130"/>
-    <mergeCell ref="A131:A134"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="A104:A107"/>
-    <mergeCell ref="A108:A111"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B137:B140"/>
-    <mergeCell ref="B141:B143"/>
-    <mergeCell ref="B144:B157"/>
-    <mergeCell ref="A179:A181"/>
-    <mergeCell ref="A182:A185"/>
-    <mergeCell ref="B173:B175"/>
-    <mergeCell ref="B176:B178"/>
-    <mergeCell ref="B179:B181"/>
-    <mergeCell ref="B182:B185"/>
-    <mergeCell ref="B104:B107"/>
-    <mergeCell ref="B108:B111"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="B114:B117"/>
-    <mergeCell ref="A114:A117"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B158:B160"/>
-    <mergeCell ref="B161:B163"/>
-    <mergeCell ref="B164:B166"/>
-    <mergeCell ref="B167:B169"/>
+    <mergeCell ref="K119:K120"/>
+    <mergeCell ref="K121:K122"/>
+    <mergeCell ref="K268:K272"/>
+    <mergeCell ref="K273:K276"/>
+    <mergeCell ref="K233:K237"/>
+    <mergeCell ref="K238:K239"/>
+    <mergeCell ref="K240:K241"/>
+    <mergeCell ref="K242:K246"/>
+    <mergeCell ref="K247:K251"/>
+    <mergeCell ref="K124:K125"/>
+    <mergeCell ref="K126:K127"/>
+    <mergeCell ref="K128:K130"/>
+    <mergeCell ref="K131:K134"/>
+    <mergeCell ref="K135:K136"/>
+    <mergeCell ref="K137:K140"/>
+    <mergeCell ref="K141:K143"/>
+    <mergeCell ref="K144:K157"/>
+    <mergeCell ref="K158:K160"/>
+    <mergeCell ref="K252:K256"/>
+    <mergeCell ref="K257:K258"/>
+    <mergeCell ref="K259:K261"/>
+    <mergeCell ref="K262:K267"/>
+    <mergeCell ref="A307:A314"/>
+    <mergeCell ref="K161:K163"/>
+    <mergeCell ref="K164:K166"/>
+    <mergeCell ref="K167:K169"/>
+    <mergeCell ref="K170:K172"/>
+    <mergeCell ref="K173:K175"/>
+    <mergeCell ref="K176:K178"/>
+    <mergeCell ref="K179:K181"/>
+    <mergeCell ref="K182:K185"/>
+    <mergeCell ref="B307:B314"/>
+    <mergeCell ref="K307:K314"/>
+    <mergeCell ref="K186:K189"/>
+    <mergeCell ref="K190:K193"/>
+    <mergeCell ref="K194:K196"/>
+    <mergeCell ref="K197:K210"/>
+    <mergeCell ref="K211:K218"/>
+    <mergeCell ref="K219:K220"/>
+    <mergeCell ref="K221:K232"/>
     <mergeCell ref="A173:A175"/>
     <mergeCell ref="A176:A178"/>
-    <mergeCell ref="A137:A140"/>
-    <mergeCell ref="A141:A143"/>
-    <mergeCell ref="A144:A157"/>
-    <mergeCell ref="A158:A160"/>
-    <mergeCell ref="A161:A163"/>
-    <mergeCell ref="B186:B189"/>
-    <mergeCell ref="A190:A193"/>
-    <mergeCell ref="B170:B172"/>
-    <mergeCell ref="A164:A166"/>
-    <mergeCell ref="A167:A169"/>
-    <mergeCell ref="A170:A172"/>
     <mergeCell ref="A194:A196"/>
     <mergeCell ref="A197:A210"/>
     <mergeCell ref="A211:A218"/>
     <mergeCell ref="A219:A220"/>
-    <mergeCell ref="A221:A232"/>
-    <mergeCell ref="B242:B246"/>
-    <mergeCell ref="B247:B251"/>
-    <mergeCell ref="A186:A189"/>
-    <mergeCell ref="B219:B220"/>
-    <mergeCell ref="B221:B232"/>
-    <mergeCell ref="A233:A237"/>
-    <mergeCell ref="A238:A239"/>
-    <mergeCell ref="B233:B237"/>
-    <mergeCell ref="B238:B239"/>
-    <mergeCell ref="B240:B241"/>
-    <mergeCell ref="B190:B193"/>
-    <mergeCell ref="B194:B196"/>
-    <mergeCell ref="B197:B210"/>
-    <mergeCell ref="B211:B218"/>
-    <mergeCell ref="A259:A261"/>
-    <mergeCell ref="B262:B267"/>
-    <mergeCell ref="A262:A267"/>
-    <mergeCell ref="B268:B272"/>
-    <mergeCell ref="A268:A272"/>
-    <mergeCell ref="B273:B277"/>
-    <mergeCell ref="A273:A277"/>
-    <mergeCell ref="A240:A241"/>
-    <mergeCell ref="A242:A246"/>
-    <mergeCell ref="A247:A251"/>
-    <mergeCell ref="B257:B258"/>
-    <mergeCell ref="A257:A258"/>
-    <mergeCell ref="B252:B256"/>
-    <mergeCell ref="A252:A256"/>
-    <mergeCell ref="B259:B261"/>
-    <mergeCell ref="A278:A281"/>
-    <mergeCell ref="B282:B290"/>
-    <mergeCell ref="A282:A290"/>
-    <mergeCell ref="B291:B302"/>
-    <mergeCell ref="A291:A302"/>
-    <mergeCell ref="B303:B306"/>
-    <mergeCell ref="A303:A306"/>
-    <mergeCell ref="K277:K281"/>
-    <mergeCell ref="K282:K290"/>
-    <mergeCell ref="K291:K302"/>
-    <mergeCell ref="K303:K306"/>
-    <mergeCell ref="B278:B281"/>
   </mergeCells>
-  <conditionalFormatting sqref="B1:B1048576">
+  <conditionalFormatting sqref="B1:B318 B326 B344 B346 B348 B350 B352 B354 B358 B362 B364 B371:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DPI_Table_Audit/Audit-Process-Sheet.xlsx
+++ b/DPI_Table_Audit/Audit-Process-Sheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="348">
   <si>
     <t>Column Name</t>
   </si>
@@ -1058,6 +1058,15 @@
   </si>
   <si>
     <t>MstIncome</t>
+  </si>
+  <si>
+    <t>MstCompassionQualification</t>
+  </si>
+  <si>
+    <t>MstInstallment</t>
+  </si>
+  <si>
+    <t>InstallmentNameHin</t>
   </si>
 </sst>
 </file>
@@ -1252,10 +1261,15 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1264,10 +1278,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1279,26 +1296,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1614,10 +1623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z370"/>
+  <dimension ref="A1:Z372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D351" workbookViewId="0">
-      <selection activeCell="J365" sqref="J365"/>
+    <sheetView tabSelected="1" topLeftCell="A363" workbookViewId="0">
+      <selection activeCell="C372" sqref="C372:G372"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1674,10 +1683,10 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="33">
+      <c r="A2" s="35">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="35" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1696,13 +1705,13 @@
         <v>20</v>
       </c>
       <c r="J2" s="4"/>
-      <c r="K2" s="25">
+      <c r="K2" s="28">
         <v>45541</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
@@ -1719,11 +1728,11 @@
         <v>20</v>
       </c>
       <c r="J3" s="4"/>
-      <c r="K3" s="26"/>
+      <c r="K3" s="31"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="3" t="s">
         <v>23</v>
       </c>
@@ -1737,11 +1746,11 @@
         <v>21</v>
       </c>
       <c r="J4" s="4"/>
-      <c r="K4" s="26"/>
+      <c r="K4" s="31"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="3" t="s">
         <v>24</v>
       </c>
@@ -1760,24 +1769,24 @@
       <c r="J5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="26"/>
+      <c r="K5" s="31"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="3" t="s">
         <v>25</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="27"/>
+      <c r="K6" s="29"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="33">
+      <c r="A7" s="35">
         <v>2</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="35" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1795,13 +1804,13 @@
       <c r="G7" s="3">
         <v>20</v>
       </c>
-      <c r="K7" s="25">
+      <c r="K7" s="28">
         <v>45541</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="3" t="s">
         <v>28</v>
       </c>
@@ -1817,11 +1826,11 @@
       <c r="G8" s="5">
         <v>20</v>
       </c>
-      <c r="K8" s="26"/>
+      <c r="K8" s="31"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="3" t="s">
         <v>29</v>
       </c>
@@ -1837,13 +1846,13 @@
       <c r="G9" s="3">
         <v>3000</v>
       </c>
-      <c r="K9" s="27"/>
+      <c r="K9" s="29"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="33">
+      <c r="A10" s="35">
         <v>3</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -1861,13 +1870,13 @@
       <c r="G10" s="3">
         <v>20</v>
       </c>
-      <c r="K10" s="25">
+      <c r="K10" s="28">
         <v>45541</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
@@ -1883,11 +1892,11 @@
       <c r="G11" s="5">
         <v>20</v>
       </c>
-      <c r="K11" s="26"/>
+      <c r="K11" s="31"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="3" t="s">
         <v>32</v>
       </c>
@@ -1900,11 +1909,11 @@
       <c r="F12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="26"/>
+      <c r="K12" s="31"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="33"/>
-      <c r="B13" s="33"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="3" t="s">
         <v>33</v>
       </c>
@@ -1920,13 +1929,13 @@
       <c r="G13" s="3">
         <v>50</v>
       </c>
-      <c r="K13" s="27"/>
+      <c r="K13" s="29"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="33">
+      <c r="A14" s="35">
         <v>4</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="35" t="s">
         <v>44</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -1944,13 +1953,13 @@
       <c r="G14" s="3">
         <v>20</v>
       </c>
-      <c r="K14" s="25">
+      <c r="K14" s="28">
         <v>45553</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="3" t="s">
         <v>41</v>
       </c>
@@ -1966,11 +1975,11 @@
       <c r="G15" s="3">
         <v>50</v>
       </c>
-      <c r="K15" s="26"/>
+      <c r="K15" s="31"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="3" t="s">
         <v>42</v>
       </c>
@@ -1986,11 +1995,11 @@
       <c r="G16" s="3">
         <v>50</v>
       </c>
-      <c r="K16" s="26"/>
+      <c r="K16" s="31"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="33"/>
-      <c r="B17" s="33"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="3" t="s">
         <v>43</v>
       </c>
@@ -2006,13 +2015,13 @@
       <c r="G17" s="3">
         <v>6</v>
       </c>
-      <c r="K17" s="27"/>
+      <c r="K17" s="29"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="33">
+      <c r="A18" s="35">
         <v>5</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="35" t="s">
         <v>48</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -2030,13 +2039,13 @@
       <c r="G18" s="3">
         <v>20</v>
       </c>
-      <c r="K18" s="25">
+      <c r="K18" s="28">
         <v>45540</v>
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="33"/>
-      <c r="B19" s="33"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="3" t="s">
         <v>28</v>
       </c>
@@ -2052,11 +2061,11 @@
       <c r="G19" s="5">
         <v>20</v>
       </c>
-      <c r="K19" s="26"/>
+      <c r="K19" s="31"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="33"/>
-      <c r="B20" s="33"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="3" t="s">
         <v>45</v>
       </c>
@@ -2072,11 +2081,11 @@
       <c r="G20" s="3">
         <v>20</v>
       </c>
-      <c r="K20" s="26"/>
+      <c r="K20" s="31"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="33"/>
-      <c r="B21" s="33"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
       <c r="C21" s="3" t="s">
         <v>46</v>
       </c>
@@ -2092,11 +2101,11 @@
       <c r="G21" s="3">
         <v>10</v>
       </c>
-      <c r="K21" s="26"/>
+      <c r="K21" s="31"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="33"/>
-      <c r="B22" s="33"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="3" t="s">
         <v>47</v>
       </c>
@@ -2112,13 +2121,13 @@
       <c r="G22" s="3">
         <v>20</v>
       </c>
-      <c r="K22" s="27"/>
+      <c r="K22" s="29"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="33">
+      <c r="A23" s="35">
         <v>6</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="35" t="s">
         <v>51</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -2136,13 +2145,13 @@
       <c r="G23" s="3">
         <v>20</v>
       </c>
-      <c r="K23" s="25">
+      <c r="K23" s="28">
         <v>45540</v>
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="3" t="s">
         <v>50</v>
       </c>
@@ -2158,13 +2167,13 @@
       <c r="G24" s="5">
         <v>11</v>
       </c>
-      <c r="K24" s="27"/>
+      <c r="K24" s="29"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="33">
-        <v>7</v>
-      </c>
-      <c r="B25" s="33" t="s">
+      <c r="A25" s="35">
+        <v>7</v>
+      </c>
+      <c r="B25" s="35" t="s">
         <v>55</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -2182,13 +2191,13 @@
       <c r="G25" s="3">
         <v>20</v>
       </c>
-      <c r="K25" s="25">
+      <c r="K25" s="28">
         <v>45539</v>
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="33"/>
-      <c r="B26" s="33"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
       <c r="C26" s="3" t="s">
         <v>52</v>
       </c>
@@ -2204,11 +2213,11 @@
       <c r="G26" s="3">
         <v>50</v>
       </c>
-      <c r="K26" s="26"/>
+      <c r="K26" s="31"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
       <c r="C27" s="3" t="s">
         <v>53</v>
       </c>
@@ -2224,11 +2233,11 @@
       <c r="G27" s="3">
         <v>40</v>
       </c>
-      <c r="K27" s="26"/>
+      <c r="K27" s="31"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
       <c r="C28" s="3" t="s">
         <v>54</v>
       </c>
@@ -2244,13 +2253,13 @@
       <c r="G28" s="3">
         <v>10</v>
       </c>
-      <c r="K28" s="27"/>
+      <c r="K28" s="29"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="33">
+      <c r="A29" s="35">
         <v>8</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="35" t="s">
         <v>57</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -2268,13 +2277,13 @@
       <c r="G29" s="3">
         <v>20</v>
       </c>
-      <c r="K29" s="25">
+      <c r="K29" s="28">
         <v>45540</v>
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="35"/>
       <c r="C30" s="3" t="s">
         <v>56</v>
       </c>
@@ -2290,13 +2299,13 @@
       <c r="G30" s="5">
         <v>25</v>
       </c>
-      <c r="K30" s="27"/>
+      <c r="K30" s="29"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="33">
+      <c r="A31" s="35">
         <v>9</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="35" t="s">
         <v>58</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -2314,13 +2323,13 @@
       <c r="G31" s="3">
         <v>20</v>
       </c>
-      <c r="K31" s="25">
+      <c r="K31" s="28">
         <v>45540</v>
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="33"/>
-      <c r="B32" s="33"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="35"/>
       <c r="C32" s="3" t="s">
         <v>28</v>
       </c>
@@ -2336,11 +2345,11 @@
       <c r="G32" s="5">
         <v>20</v>
       </c>
-      <c r="K32" s="26"/>
+      <c r="K32" s="31"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="33"/>
-      <c r="B33" s="33"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="35"/>
       <c r="C33" s="3" t="s">
         <v>29</v>
       </c>
@@ -2356,13 +2365,13 @@
       <c r="G33" s="3">
         <v>5000</v>
       </c>
-      <c r="K33" s="27"/>
+      <c r="K33" s="29"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="33">
-        <v>10</v>
-      </c>
-      <c r="B34" s="33" t="s">
+      <c r="A34" s="35">
+        <v>10</v>
+      </c>
+      <c r="B34" s="35" t="s">
         <v>60</v>
       </c>
       <c r="C34" s="3" t="s">
@@ -2380,13 +2389,13 @@
       <c r="G34" s="3">
         <v>20</v>
       </c>
-      <c r="K34" s="25">
+      <c r="K34" s="28">
         <v>45540</v>
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="33"/>
-      <c r="B35" s="33"/>
+      <c r="A35" s="35"/>
+      <c r="B35" s="35"/>
       <c r="C35" s="3" t="s">
         <v>59</v>
       </c>
@@ -2402,7 +2411,7 @@
       <c r="G35" s="5">
         <v>30</v>
       </c>
-      <c r="K35" s="27"/>
+      <c r="K35" s="29"/>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="6">
@@ -2457,10 +2466,10 @@
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="33">
+      <c r="A38" s="35">
         <v>13</v>
       </c>
-      <c r="B38" s="33" t="s">
+      <c r="B38" s="35" t="s">
         <v>64</v>
       </c>
       <c r="C38" s="3" t="s">
@@ -2478,13 +2487,13 @@
       <c r="G38" s="3">
         <v>20</v>
       </c>
-      <c r="K38" s="25">
+      <c r="K38" s="28">
         <v>45540</v>
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="33"/>
-      <c r="B39" s="33"/>
+      <c r="A39" s="35"/>
+      <c r="B39" s="35"/>
       <c r="C39" s="3" t="s">
         <v>63</v>
       </c>
@@ -2500,13 +2509,13 @@
       <c r="G39" s="5">
         <v>20</v>
       </c>
-      <c r="K39" s="27"/>
+      <c r="K39" s="29"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="33">
+      <c r="A40" s="35">
         <v>14</v>
       </c>
-      <c r="B40" s="33" t="s">
+      <c r="B40" s="35" t="s">
         <v>75</v>
       </c>
       <c r="C40" s="3" t="s">
@@ -2524,13 +2533,13 @@
       <c r="G40" s="3">
         <v>20</v>
       </c>
-      <c r="K40" s="25">
+      <c r="K40" s="28">
         <v>45540</v>
       </c>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="33"/>
-      <c r="B41" s="33"/>
+      <c r="A41" s="35"/>
+      <c r="B41" s="35"/>
       <c r="C41" s="3" t="s">
         <v>74</v>
       </c>
@@ -2546,7 +2555,7 @@
       <c r="G41" s="3">
         <v>1000</v>
       </c>
-      <c r="K41" s="27"/>
+      <c r="K41" s="29"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="6">
@@ -2575,10 +2584,10 @@
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="33">
+      <c r="A43" s="35">
         <v>16</v>
       </c>
-      <c r="B43" s="33" t="s">
+      <c r="B43" s="35" t="s">
         <v>83</v>
       </c>
       <c r="C43" s="3" t="s">
@@ -2596,13 +2605,13 @@
       <c r="G43" s="3">
         <v>20</v>
       </c>
-      <c r="K43" s="25">
+      <c r="K43" s="28">
         <v>45553</v>
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="33"/>
-      <c r="B44" s="33"/>
+      <c r="A44" s="35"/>
+      <c r="B44" s="35"/>
       <c r="C44" s="3" t="s">
         <v>80</v>
       </c>
@@ -2618,11 +2627,11 @@
       <c r="G44" s="3">
         <v>50</v>
       </c>
-      <c r="K44" s="26"/>
+      <c r="K44" s="31"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="33"/>
-      <c r="B45" s="33"/>
+      <c r="A45" s="35"/>
+      <c r="B45" s="35"/>
       <c r="C45" s="3" t="s">
         <v>81</v>
       </c>
@@ -2638,11 +2647,11 @@
       <c r="G45" s="3">
         <v>50</v>
       </c>
-      <c r="K45" s="26"/>
+      <c r="K45" s="31"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="33"/>
-      <c r="B46" s="33"/>
+      <c r="A46" s="35"/>
+      <c r="B46" s="35"/>
       <c r="C46" s="3" t="s">
         <v>82</v>
       </c>
@@ -2658,7 +2667,7 @@
       <c r="G46" s="3">
         <v>6</v>
       </c>
-      <c r="K46" s="27"/>
+      <c r="K46" s="29"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="6">
@@ -2687,10 +2696,10 @@
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="33">
+      <c r="A48" s="35">
         <v>18</v>
       </c>
-      <c r="B48" s="33" t="s">
+      <c r="B48" s="35" t="s">
         <v>68</v>
       </c>
       <c r="C48" s="3" t="s">
@@ -2708,13 +2717,13 @@
       <c r="G48" s="3">
         <v>20</v>
       </c>
-      <c r="K48" s="25">
+      <c r="K48" s="28">
         <v>45544</v>
       </c>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="33"/>
-      <c r="B49" s="33"/>
+      <c r="A49" s="35"/>
+      <c r="B49" s="35"/>
       <c r="C49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2730,11 +2739,11 @@
       <c r="G49" s="3">
         <v>20</v>
       </c>
-      <c r="K49" s="26"/>
+      <c r="K49" s="31"/>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="33"/>
-      <c r="B50" s="33"/>
+      <c r="A50" s="35"/>
+      <c r="B50" s="35"/>
       <c r="C50" s="3" t="s">
         <v>66</v>
       </c>
@@ -2745,13 +2754,13 @@
         <v>21</v>
       </c>
       <c r="G50" s="5"/>
-      <c r="K50" s="27"/>
+      <c r="K50" s="29"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="33">
+      <c r="A51" s="35">
         <v>19</v>
       </c>
-      <c r="B51" s="33" t="s">
+      <c r="B51" s="35" t="s">
         <v>84</v>
       </c>
       <c r="C51" s="3" t="s">
@@ -2769,13 +2778,13 @@
       <c r="G51" s="3">
         <v>20</v>
       </c>
-      <c r="K51" s="25">
+      <c r="K51" s="28">
         <v>45544</v>
       </c>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="33"/>
-      <c r="B52" s="33"/>
+      <c r="A52" s="35"/>
+      <c r="B52" s="35"/>
       <c r="C52" s="3" t="s">
         <v>69</v>
       </c>
@@ -2786,11 +2795,11 @@
         <v>21</v>
       </c>
       <c r="G52" s="5"/>
-      <c r="K52" s="26"/>
+      <c r="K52" s="31"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="33"/>
-      <c r="B53" s="33"/>
+      <c r="A53" s="35"/>
+      <c r="B53" s="35"/>
       <c r="C53" s="3" t="s">
         <v>70</v>
       </c>
@@ -2803,11 +2812,11 @@
       <c r="F53" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K53" s="26"/>
+      <c r="K53" s="31"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="33"/>
-      <c r="B54" s="33"/>
+      <c r="A54" s="35"/>
+      <c r="B54" s="35"/>
       <c r="C54" s="3" t="s">
         <v>72</v>
       </c>
@@ -2823,11 +2832,11 @@
       <c r="G54" s="3">
         <v>50</v>
       </c>
-      <c r="K54" s="26"/>
+      <c r="K54" s="31"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="33"/>
-      <c r="B55" s="33"/>
+      <c r="A55" s="35"/>
+      <c r="B55" s="35"/>
       <c r="C55" s="3" t="s">
         <v>73</v>
       </c>
@@ -2843,13 +2852,13 @@
       <c r="G55" s="3">
         <v>50</v>
       </c>
-      <c r="K55" s="27"/>
+      <c r="K55" s="29"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="33">
-        <v>20</v>
-      </c>
-      <c r="B56" s="33" t="s">
+      <c r="A56" s="35">
+        <v>20</v>
+      </c>
+      <c r="B56" s="35" t="s">
         <v>78</v>
       </c>
       <c r="C56" s="3" t="s">
@@ -2867,13 +2876,13 @@
       <c r="G56" s="3">
         <v>10</v>
       </c>
-      <c r="K56" s="25">
+      <c r="K56" s="28">
         <v>45544</v>
       </c>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="33"/>
-      <c r="B57" s="33"/>
+      <c r="A57" s="35"/>
+      <c r="B57" s="35"/>
       <c r="C57" s="3" t="s">
         <v>77</v>
       </c>
@@ -2889,13 +2898,13 @@
       <c r="G57" s="5">
         <v>5</v>
       </c>
-      <c r="K57" s="27"/>
+      <c r="K57" s="29"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="33">
+      <c r="A58" s="35">
         <v>21</v>
       </c>
-      <c r="B58" s="33" t="s">
+      <c r="B58" s="35" t="s">
         <v>91</v>
       </c>
       <c r="C58" s="3" t="s">
@@ -2913,13 +2922,13 @@
       <c r="G58" s="3">
         <v>20</v>
       </c>
-      <c r="K58" s="25">
+      <c r="K58" s="28">
         <v>45544</v>
       </c>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="33"/>
-      <c r="B59" s="33"/>
+      <c r="A59" s="35"/>
+      <c r="B59" s="35"/>
       <c r="C59" s="3" t="s">
         <v>86</v>
       </c>
@@ -2935,11 +2944,11 @@
       <c r="G59" s="3">
         <v>30</v>
       </c>
-      <c r="K59" s="26"/>
+      <c r="K59" s="31"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="33"/>
-      <c r="B60" s="33"/>
+      <c r="A60" s="35"/>
+      <c r="B60" s="35"/>
       <c r="C60" s="3" t="s">
         <v>87</v>
       </c>
@@ -2955,11 +2964,11 @@
       <c r="G60" s="3">
         <v>30</v>
       </c>
-      <c r="K60" s="26"/>
+      <c r="K60" s="31"/>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="33"/>
-      <c r="B61" s="33"/>
+      <c r="A61" s="35"/>
+      <c r="B61" s="35"/>
       <c r="C61" s="3" t="s">
         <v>89</v>
       </c>
@@ -2978,13 +2987,13 @@
       <c r="J61" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="K61" s="27"/>
+      <c r="K61" s="29"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="33">
+      <c r="A62" s="35">
         <v>22</v>
       </c>
-      <c r="B62" s="33" t="s">
+      <c r="B62" s="35" t="s">
         <v>98</v>
       </c>
       <c r="C62" s="3" t="s">
@@ -3002,13 +3011,13 @@
       <c r="G62" s="3">
         <v>20</v>
       </c>
-      <c r="K62" s="25">
+      <c r="K62" s="28">
         <v>45544</v>
       </c>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="33"/>
-      <c r="B63" s="33"/>
+      <c r="A63" s="35"/>
+      <c r="B63" s="35"/>
       <c r="C63" s="3" t="s">
         <v>92</v>
       </c>
@@ -3027,11 +3036,11 @@
       <c r="J63" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="K63" s="26"/>
+      <c r="K63" s="31"/>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="33"/>
-      <c r="B64" s="33"/>
+      <c r="A64" s="35"/>
+      <c r="B64" s="35"/>
       <c r="C64" s="3" t="s">
         <v>93</v>
       </c>
@@ -3050,11 +3059,11 @@
       <c r="J64" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="K64" s="26"/>
+      <c r="K64" s="31"/>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="33"/>
-      <c r="B65" s="33"/>
+      <c r="A65" s="35"/>
+      <c r="B65" s="35"/>
       <c r="C65" s="3" t="s">
         <v>94</v>
       </c>
@@ -3073,13 +3082,13 @@
       <c r="J65" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="K65" s="27"/>
+      <c r="K65" s="29"/>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="22">
+      <c r="A66" s="26">
         <v>23</v>
       </c>
-      <c r="B66" s="22" t="s">
+      <c r="B66" s="26" t="s">
         <v>100</v>
       </c>
       <c r="C66" s="3" t="s">
@@ -3097,13 +3106,13 @@
       <c r="G66" s="3">
         <v>20</v>
       </c>
-      <c r="K66" s="25">
+      <c r="K66" s="28">
         <v>45546</v>
       </c>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="24"/>
-      <c r="B67" s="24"/>
+      <c r="A67" s="27"/>
+      <c r="B67" s="27"/>
       <c r="C67" s="3" t="s">
         <v>99</v>
       </c>
@@ -3119,13 +3128,13 @@
       <c r="G67" s="3">
         <v>20</v>
       </c>
-      <c r="K67" s="27"/>
+      <c r="K67" s="29"/>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="33">
+      <c r="A68" s="35">
         <v>24</v>
       </c>
-      <c r="B68" s="33" t="s">
+      <c r="B68" s="35" t="s">
         <v>101</v>
       </c>
       <c r="C68" s="3" t="s">
@@ -3143,13 +3152,13 @@
       <c r="G68" s="3">
         <v>20</v>
       </c>
-      <c r="K68" s="25">
+      <c r="K68" s="28">
         <v>45544</v>
       </c>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="33"/>
-      <c r="B69" s="33"/>
+      <c r="A69" s="35"/>
+      <c r="B69" s="35"/>
       <c r="C69" s="3" t="s">
         <v>99</v>
       </c>
@@ -3165,11 +3174,11 @@
       <c r="G69" s="3">
         <v>20</v>
       </c>
-      <c r="K69" s="26"/>
+      <c r="K69" s="31"/>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="33"/>
-      <c r="B70" s="33"/>
+      <c r="A70" s="35"/>
+      <c r="B70" s="35"/>
       <c r="C70" s="3" t="s">
         <v>70</v>
       </c>
@@ -3182,7 +3191,7 @@
       <c r="F70" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K70" s="27"/>
+      <c r="K70" s="29"/>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="6">
@@ -3263,10 +3272,10 @@
       </c>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="33">
+      <c r="A74" s="35">
         <v>28</v>
       </c>
-      <c r="B74" s="33" t="s">
+      <c r="B74" s="35" t="s">
         <v>111</v>
       </c>
       <c r="C74" s="3" t="s">
@@ -3284,13 +3293,13 @@
       <c r="G74" s="3">
         <v>50</v>
       </c>
-      <c r="K74" s="25">
+      <c r="K74" s="28">
         <v>45545</v>
       </c>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="33"/>
-      <c r="B75" s="33"/>
+      <c r="A75" s="35"/>
+      <c r="B75" s="35"/>
       <c r="C75" s="3" t="s">
         <v>108</v>
       </c>
@@ -3306,11 +3315,11 @@
       <c r="G75" s="3">
         <v>50</v>
       </c>
-      <c r="K75" s="26"/>
+      <c r="K75" s="31"/>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="33"/>
-      <c r="B76" s="33"/>
+      <c r="A76" s="35"/>
+      <c r="B76" s="35"/>
       <c r="C76" s="3" t="s">
         <v>109</v>
       </c>
@@ -3326,11 +3335,11 @@
       <c r="G76" s="3">
         <v>3</v>
       </c>
-      <c r="K76" s="26"/>
+      <c r="K76" s="31"/>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="33"/>
-      <c r="B77" s="33"/>
+      <c r="A77" s="35"/>
+      <c r="B77" s="35"/>
       <c r="C77" s="3" t="s">
         <v>40</v>
       </c>
@@ -3346,11 +3355,11 @@
       <c r="G77" s="5">
         <v>20</v>
       </c>
-      <c r="K77" s="26"/>
+      <c r="K77" s="31"/>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="33"/>
-      <c r="B78" s="33"/>
+      <c r="A78" s="35"/>
+      <c r="B78" s="35"/>
       <c r="C78" s="3" t="s">
         <v>110</v>
       </c>
@@ -3366,7 +3375,7 @@
       <c r="G78" s="3">
         <v>50</v>
       </c>
-      <c r="K78" s="27"/>
+      <c r="K78" s="29"/>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="6">
@@ -3421,10 +3430,10 @@
       </c>
     </row>
     <row r="81" spans="1:11">
-      <c r="A81" s="33">
+      <c r="A81" s="35">
         <v>31</v>
       </c>
-      <c r="B81" s="33" t="s">
+      <c r="B81" s="35" t="s">
         <v>118</v>
       </c>
       <c r="C81" s="3" t="s">
@@ -3442,13 +3451,13 @@
       <c r="G81" s="3">
         <v>20</v>
       </c>
-      <c r="K81" s="25">
+      <c r="K81" s="28">
         <v>45545</v>
       </c>
     </row>
     <row r="82" spans="1:11">
-      <c r="A82" s="33"/>
-      <c r="B82" s="33"/>
+      <c r="A82" s="35"/>
+      <c r="B82" s="35"/>
       <c r="C82" s="3" t="s">
         <v>114</v>
       </c>
@@ -3464,11 +3473,11 @@
       <c r="G82" s="5">
         <v>30</v>
       </c>
-      <c r="K82" s="26"/>
+      <c r="K82" s="31"/>
     </row>
     <row r="83" spans="1:11">
-      <c r="A83" s="33"/>
-      <c r="B83" s="33"/>
+      <c r="A83" s="35"/>
+      <c r="B83" s="35"/>
       <c r="C83" s="3" t="s">
         <v>115</v>
       </c>
@@ -3484,11 +3493,11 @@
       <c r="G83" s="3">
         <v>30</v>
       </c>
-      <c r="K83" s="26"/>
+      <c r="K83" s="31"/>
     </row>
     <row r="84" spans="1:11">
-      <c r="A84" s="33"/>
-      <c r="B84" s="33"/>
+      <c r="A84" s="35"/>
+      <c r="B84" s="35"/>
       <c r="C84" s="3" t="s">
         <v>116</v>
       </c>
@@ -3498,13 +3507,13 @@
       <c r="F84" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="K84" s="27"/>
+      <c r="K84" s="29"/>
     </row>
     <row r="85" spans="1:11">
-      <c r="A85" s="22">
+      <c r="A85" s="26">
         <v>32</v>
       </c>
-      <c r="B85" s="33" t="s">
+      <c r="B85" s="35" t="s">
         <v>121</v>
       </c>
       <c r="C85" s="3" t="s">
@@ -3522,13 +3531,13 @@
       <c r="G85" s="3">
         <v>20</v>
       </c>
-      <c r="K85" s="25" t="s">
+      <c r="K85" s="28" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="86" spans="1:11">
-      <c r="A86" s="23"/>
-      <c r="B86" s="33"/>
+      <c r="A86" s="30"/>
+      <c r="B86" s="35"/>
       <c r="C86" s="3" t="s">
         <v>119</v>
       </c>
@@ -3544,11 +3553,11 @@
       <c r="G86" s="5">
         <v>10</v>
       </c>
-      <c r="K86" s="26"/>
+      <c r="K86" s="31"/>
     </row>
     <row r="87" spans="1:11">
-      <c r="A87" s="24"/>
-      <c r="B87" s="33"/>
+      <c r="A87" s="27"/>
+      <c r="B87" s="35"/>
       <c r="C87" s="3" t="s">
         <v>120</v>
       </c>
@@ -3564,13 +3573,13 @@
       <c r="G87" s="3">
         <v>15</v>
       </c>
-      <c r="K87" s="27"/>
+      <c r="K87" s="29"/>
     </row>
     <row r="88" spans="1:11">
-      <c r="A88" s="22">
+      <c r="A88" s="26">
         <v>33</v>
       </c>
-      <c r="B88" s="33" t="s">
+      <c r="B88" s="35" t="s">
         <v>123</v>
       </c>
       <c r="C88" s="3" t="s">
@@ -3588,13 +3597,13 @@
       <c r="G88" s="3">
         <v>20</v>
       </c>
-      <c r="K88" s="25">
+      <c r="K88" s="28">
         <v>45545</v>
       </c>
     </row>
     <row r="89" spans="1:11">
-      <c r="A89" s="23"/>
-      <c r="B89" s="33"/>
+      <c r="A89" s="30"/>
+      <c r="B89" s="35"/>
       <c r="C89" s="3" t="s">
         <v>122</v>
       </c>
@@ -3610,11 +3619,11 @@
       <c r="G89" s="5">
         <v>50</v>
       </c>
-      <c r="K89" s="26"/>
+      <c r="K89" s="31"/>
     </row>
     <row r="90" spans="1:11">
-      <c r="A90" s="24"/>
-      <c r="B90" s="33"/>
+      <c r="A90" s="27"/>
+      <c r="B90" s="35"/>
       <c r="C90" s="3" t="s">
         <v>120</v>
       </c>
@@ -3630,13 +3639,13 @@
       <c r="G90" s="3">
         <v>50</v>
       </c>
-      <c r="K90" s="27"/>
+      <c r="K90" s="29"/>
     </row>
     <row r="91" spans="1:11">
-      <c r="A91" s="22">
+      <c r="A91" s="26">
         <v>34</v>
       </c>
-      <c r="B91" s="33" t="s">
+      <c r="B91" s="35" t="s">
         <v>126</v>
       </c>
       <c r="C91" s="3" t="s">
@@ -3654,13 +3663,13 @@
       <c r="G91" s="3">
         <v>20</v>
       </c>
-      <c r="K91" s="25">
+      <c r="K91" s="28">
         <v>45546</v>
       </c>
     </row>
     <row r="92" spans="1:11">
-      <c r="A92" s="23"/>
-      <c r="B92" s="33"/>
+      <c r="A92" s="30"/>
+      <c r="B92" s="35"/>
       <c r="C92" s="3" t="s">
         <v>124</v>
       </c>
@@ -3676,11 +3685,11 @@
       <c r="G92" s="5">
         <v>60</v>
       </c>
-      <c r="K92" s="26"/>
+      <c r="K92" s="31"/>
     </row>
     <row r="93" spans="1:11">
-      <c r="A93" s="24"/>
-      <c r="B93" s="33"/>
+      <c r="A93" s="27"/>
+      <c r="B93" s="35"/>
       <c r="C93" s="3" t="s">
         <v>125</v>
       </c>
@@ -3696,13 +3705,13 @@
       <c r="G93" s="3">
         <v>60</v>
       </c>
-      <c r="K93" s="27"/>
+      <c r="K93" s="29"/>
     </row>
     <row r="94" spans="1:11">
-      <c r="A94" s="22">
+      <c r="A94" s="26">
         <v>35</v>
       </c>
-      <c r="B94" s="33" t="s">
+      <c r="B94" s="35" t="s">
         <v>128</v>
       </c>
       <c r="C94" s="3" t="s">
@@ -3720,13 +3729,13 @@
       <c r="G94" s="3">
         <v>20</v>
       </c>
-      <c r="K94" s="25">
+      <c r="K94" s="28">
         <v>45545</v>
       </c>
     </row>
     <row r="95" spans="1:11">
-      <c r="A95" s="23"/>
-      <c r="B95" s="33"/>
+      <c r="A95" s="30"/>
+      <c r="B95" s="35"/>
       <c r="C95" s="3" t="s">
         <v>127</v>
       </c>
@@ -3742,11 +3751,11 @@
       <c r="G95" s="5">
         <v>50</v>
       </c>
-      <c r="K95" s="26"/>
+      <c r="K95" s="31"/>
     </row>
     <row r="96" spans="1:11">
-      <c r="A96" s="24"/>
-      <c r="B96" s="33"/>
+      <c r="A96" s="27"/>
+      <c r="B96" s="35"/>
       <c r="C96" s="3" t="s">
         <v>125</v>
       </c>
@@ -3762,7 +3771,7 @@
       <c r="G96" s="3">
         <v>50</v>
       </c>
-      <c r="K96" s="27"/>
+      <c r="K96" s="29"/>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="6">
@@ -3791,10 +3800,10 @@
       </c>
     </row>
     <row r="98" spans="1:11">
-      <c r="A98" s="22">
+      <c r="A98" s="26">
         <v>37</v>
       </c>
-      <c r="B98" s="33" t="s">
+      <c r="B98" s="35" t="s">
         <v>132</v>
       </c>
       <c r="C98" s="3" t="s">
@@ -3812,13 +3821,13 @@
       <c r="G98" s="3">
         <v>20</v>
       </c>
-      <c r="K98" s="25">
+      <c r="K98" s="28">
         <v>45545</v>
       </c>
     </row>
     <row r="99" spans="1:11">
-      <c r="A99" s="23"/>
-      <c r="B99" s="33"/>
+      <c r="A99" s="30"/>
+      <c r="B99" s="35"/>
       <c r="C99" s="3" t="s">
         <v>130</v>
       </c>
@@ -3834,11 +3843,11 @@
       <c r="G99" s="3">
         <v>30</v>
       </c>
-      <c r="K99" s="26"/>
+      <c r="K99" s="31"/>
     </row>
     <row r="100" spans="1:11">
-      <c r="A100" s="24"/>
-      <c r="B100" s="33"/>
+      <c r="A100" s="27"/>
+      <c r="B100" s="35"/>
       <c r="C100" s="3" t="s">
         <v>131</v>
       </c>
@@ -3854,13 +3863,13 @@
       <c r="G100" s="3">
         <v>20</v>
       </c>
-      <c r="K100" s="27"/>
+      <c r="K100" s="29"/>
     </row>
     <row r="101" spans="1:11">
-      <c r="A101" s="22">
+      <c r="A101" s="26">
         <v>38</v>
       </c>
-      <c r="B101" s="33" t="s">
+      <c r="B101" s="35" t="s">
         <v>134</v>
       </c>
       <c r="C101" s="3" t="s">
@@ -3878,13 +3887,13 @@
       <c r="G101" s="3">
         <v>20</v>
       </c>
-      <c r="K101" s="25">
+      <c r="K101" s="28">
         <v>45545</v>
       </c>
     </row>
     <row r="102" spans="1:11">
-      <c r="A102" s="23"/>
-      <c r="B102" s="33"/>
+      <c r="A102" s="30"/>
+      <c r="B102" s="35"/>
       <c r="C102" s="3" t="s">
         <v>8</v>
       </c>
@@ -3901,11 +3910,11 @@
         <v>20</v>
       </c>
       <c r="I102" s="4"/>
-      <c r="K102" s="26"/>
+      <c r="K102" s="31"/>
     </row>
     <row r="103" spans="1:11">
-      <c r="A103" s="24"/>
-      <c r="B103" s="33"/>
+      <c r="A103" s="27"/>
+      <c r="B103" s="35"/>
       <c r="C103" s="3" t="s">
         <v>133</v>
       </c>
@@ -3919,13 +3928,13 @@
         <v>21</v>
       </c>
       <c r="I103" s="4"/>
-      <c r="K103" s="27"/>
+      <c r="K103" s="29"/>
     </row>
     <row r="104" spans="1:11">
-      <c r="A104" s="22">
+      <c r="A104" s="26">
         <v>39</v>
       </c>
-      <c r="B104" s="33" t="s">
+      <c r="B104" s="35" t="s">
         <v>140</v>
       </c>
       <c r="C104" s="3" t="s">
@@ -3944,13 +3953,13 @@
         <v>50</v>
       </c>
       <c r="I104" s="4"/>
-      <c r="K104" s="25">
+      <c r="K104" s="28">
         <v>45545</v>
       </c>
     </row>
     <row r="105" spans="1:11">
-      <c r="A105" s="23"/>
-      <c r="B105" s="33"/>
+      <c r="A105" s="30"/>
+      <c r="B105" s="35"/>
       <c r="C105" s="3" t="s">
         <v>136</v>
       </c>
@@ -3970,11 +3979,11 @@
       <c r="J105" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="K105" s="26"/>
+      <c r="K105" s="31"/>
     </row>
     <row r="106" spans="1:11">
-      <c r="A106" s="23"/>
-      <c r="B106" s="33"/>
+      <c r="A106" s="30"/>
+      <c r="B106" s="35"/>
       <c r="C106" s="3" t="s">
         <v>138</v>
       </c>
@@ -3991,11 +4000,11 @@
         <v>50</v>
       </c>
       <c r="I106" s="4"/>
-      <c r="K106" s="26"/>
+      <c r="K106" s="31"/>
     </row>
     <row r="107" spans="1:11">
-      <c r="A107" s="24"/>
-      <c r="B107" s="33"/>
+      <c r="A107" s="27"/>
+      <c r="B107" s="35"/>
       <c r="C107" s="3" t="s">
         <v>139</v>
       </c>
@@ -4006,13 +4015,13 @@
         <v>21</v>
       </c>
       <c r="I107" s="4"/>
-      <c r="K107" s="27"/>
+      <c r="K107" s="29"/>
     </row>
     <row r="108" spans="1:11">
-      <c r="A108" s="22">
+      <c r="A108" s="26">
         <v>40</v>
       </c>
-      <c r="B108" s="33" t="s">
+      <c r="B108" s="35" t="s">
         <v>145</v>
       </c>
       <c r="C108" s="3" t="s">
@@ -4030,13 +4039,13 @@
       <c r="G108" s="3">
         <v>2</v>
       </c>
-      <c r="K108" s="25">
+      <c r="K108" s="28">
         <v>45545</v>
       </c>
     </row>
     <row r="109" spans="1:11">
-      <c r="A109" s="23"/>
-      <c r="B109" s="33"/>
+      <c r="A109" s="30"/>
+      <c r="B109" s="35"/>
       <c r="C109" s="3" t="s">
         <v>142</v>
       </c>
@@ -4052,11 +4061,11 @@
       <c r="G109" s="3">
         <v>11</v>
       </c>
-      <c r="K109" s="26"/>
+      <c r="K109" s="31"/>
     </row>
     <row r="110" spans="1:11">
-      <c r="A110" s="23"/>
-      <c r="B110" s="33"/>
+      <c r="A110" s="30"/>
+      <c r="B110" s="35"/>
       <c r="C110" s="3" t="s">
         <v>143</v>
       </c>
@@ -4072,11 +4081,11 @@
       <c r="G110" s="3">
         <v>11</v>
       </c>
-      <c r="K110" s="26"/>
+      <c r="K110" s="31"/>
     </row>
     <row r="111" spans="1:11">
-      <c r="A111" s="24"/>
-      <c r="B111" s="33"/>
+      <c r="A111" s="27"/>
+      <c r="B111" s="35"/>
       <c r="C111" s="3" t="s">
         <v>144</v>
       </c>
@@ -4092,13 +4101,13 @@
       <c r="G111" s="3">
         <v>20</v>
       </c>
-      <c r="K111" s="27"/>
+      <c r="K111" s="29"/>
     </row>
     <row r="112" spans="1:11">
-      <c r="A112" s="22">
+      <c r="A112" s="26">
         <v>41</v>
       </c>
-      <c r="B112" s="33" t="s">
+      <c r="B112" s="35" t="s">
         <v>148</v>
       </c>
       <c r="C112" s="3" t="s">
@@ -4116,13 +4125,13 @@
       <c r="G112" s="3">
         <v>2</v>
       </c>
-      <c r="K112" s="25">
+      <c r="K112" s="28">
         <v>45545</v>
       </c>
     </row>
     <row r="113" spans="1:11">
-      <c r="A113" s="24"/>
-      <c r="B113" s="33"/>
+      <c r="A113" s="27"/>
+      <c r="B113" s="35"/>
       <c r="C113" s="3" t="s">
         <v>147</v>
       </c>
@@ -4138,13 +4147,13 @@
       <c r="G113" s="3">
         <v>50</v>
       </c>
-      <c r="K113" s="27"/>
+      <c r="K113" s="29"/>
     </row>
     <row r="114" spans="1:11">
-      <c r="A114" s="22">
+      <c r="A114" s="26">
         <v>42</v>
       </c>
-      <c r="B114" s="33" t="s">
+      <c r="B114" s="35" t="s">
         <v>152</v>
       </c>
       <c r="C114" s="3" t="s">
@@ -4162,13 +4171,13 @@
       <c r="G114" s="3">
         <v>20</v>
       </c>
-      <c r="K114" s="25">
+      <c r="K114" s="28">
         <v>45545</v>
       </c>
     </row>
     <row r="115" spans="1:11">
-      <c r="A115" s="23"/>
-      <c r="B115" s="33"/>
+      <c r="A115" s="30"/>
+      <c r="B115" s="35"/>
       <c r="C115" s="7" t="s">
         <v>149</v>
       </c>
@@ -4184,11 +4193,11 @@
       <c r="G115" s="3">
         <v>5</v>
       </c>
-      <c r="K115" s="26"/>
+      <c r="K115" s="31"/>
     </row>
     <row r="116" spans="1:11">
-      <c r="A116" s="23"/>
-      <c r="B116" s="33"/>
+      <c r="A116" s="30"/>
+      <c r="B116" s="35"/>
       <c r="C116" s="3" t="s">
         <v>150</v>
       </c>
@@ -4204,11 +4213,11 @@
       <c r="G116" s="3">
         <v>50</v>
       </c>
-      <c r="K116" s="26"/>
+      <c r="K116" s="31"/>
     </row>
     <row r="117" spans="1:11">
-      <c r="A117" s="24"/>
-      <c r="B117" s="33"/>
+      <c r="A117" s="27"/>
+      <c r="B117" s="35"/>
       <c r="C117" s="3" t="s">
         <v>151</v>
       </c>
@@ -4218,7 +4227,7 @@
       <c r="F117" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K117" s="27"/>
+      <c r="K117" s="29"/>
     </row>
     <row r="118" spans="1:11">
       <c r="A118" s="6">
@@ -4247,10 +4256,10 @@
       </c>
     </row>
     <row r="119" spans="1:11">
-      <c r="A119" s="22">
+      <c r="A119" s="26">
         <v>44</v>
       </c>
-      <c r="B119" s="33" t="s">
+      <c r="B119" s="35" t="s">
         <v>155</v>
       </c>
       <c r="C119" s="3" t="s">
@@ -4268,13 +4277,13 @@
       <c r="G119" s="3">
         <v>30</v>
       </c>
-      <c r="K119" s="25">
+      <c r="K119" s="28">
         <v>45545</v>
       </c>
     </row>
     <row r="120" spans="1:11">
-      <c r="A120" s="24"/>
-      <c r="B120" s="33"/>
+      <c r="A120" s="27"/>
+      <c r="B120" s="35"/>
       <c r="C120" s="3" t="s">
         <v>49</v>
       </c>
@@ -4290,13 +4299,13 @@
       <c r="G120" s="3">
         <v>20</v>
       </c>
-      <c r="K120" s="27"/>
+      <c r="K120" s="29"/>
     </row>
     <row r="121" spans="1:11">
-      <c r="A121" s="22">
+      <c r="A121" s="26">
         <v>45</v>
       </c>
-      <c r="B121" s="33" t="s">
+      <c r="B121" s="35" t="s">
         <v>154</v>
       </c>
       <c r="C121" s="3" t="s">
@@ -4314,13 +4323,13 @@
       <c r="G121" s="3">
         <v>20</v>
       </c>
-      <c r="K121" s="25">
+      <c r="K121" s="28">
         <v>45545</v>
       </c>
     </row>
     <row r="122" spans="1:11">
-      <c r="A122" s="24"/>
-      <c r="B122" s="33"/>
+      <c r="A122" s="27"/>
+      <c r="B122" s="35"/>
       <c r="C122" s="3" t="s">
         <v>154</v>
       </c>
@@ -4336,7 +4345,7 @@
       <c r="G122" s="3">
         <v>50</v>
       </c>
-      <c r="K122" s="27"/>
+      <c r="K122" s="29"/>
     </row>
     <row r="123" spans="1:11">
       <c r="A123" s="6">
@@ -4365,10 +4374,10 @@
       </c>
     </row>
     <row r="124" spans="1:11">
-      <c r="A124" s="22">
+      <c r="A124" s="26">
         <v>47</v>
       </c>
-      <c r="B124" s="33" t="s">
+      <c r="B124" s="35" t="s">
         <v>159</v>
       </c>
       <c r="C124" s="3" t="s">
@@ -4386,13 +4395,13 @@
       <c r="G124" s="3">
         <v>20</v>
       </c>
-      <c r="K124" s="25">
+      <c r="K124" s="28">
         <v>45546</v>
       </c>
     </row>
     <row r="125" spans="1:11">
-      <c r="A125" s="24"/>
-      <c r="B125" s="33"/>
+      <c r="A125" s="27"/>
+      <c r="B125" s="35"/>
       <c r="C125" s="3" t="s">
         <v>158</v>
       </c>
@@ -4408,13 +4417,13 @@
       <c r="G125" s="3">
         <v>3</v>
       </c>
-      <c r="K125" s="27"/>
+      <c r="K125" s="29"/>
     </row>
     <row r="126" spans="1:11">
-      <c r="A126" s="22">
+      <c r="A126" s="26">
         <v>48</v>
       </c>
-      <c r="B126" s="33" t="s">
+      <c r="B126" s="35" t="s">
         <v>161</v>
       </c>
       <c r="C126" s="3" t="s">
@@ -4432,13 +4441,13 @@
       <c r="G126" s="3">
         <v>20</v>
       </c>
-      <c r="K126" s="25">
+      <c r="K126" s="28">
         <v>45546</v>
       </c>
     </row>
     <row r="127" spans="1:11">
-      <c r="A127" s="24"/>
-      <c r="B127" s="33"/>
+      <c r="A127" s="27"/>
+      <c r="B127" s="35"/>
       <c r="C127" s="3" t="s">
         <v>160</v>
       </c>
@@ -4454,13 +4463,13 @@
       <c r="G127" s="3">
         <v>50</v>
       </c>
-      <c r="K127" s="27"/>
+      <c r="K127" s="29"/>
     </row>
     <row r="128" spans="1:11">
-      <c r="A128" s="22">
+      <c r="A128" s="26">
         <v>49</v>
       </c>
-      <c r="B128" s="33" t="s">
+      <c r="B128" s="35" t="s">
         <v>164</v>
       </c>
       <c r="C128" s="3" t="s">
@@ -4478,13 +4487,13 @@
       <c r="G128" s="3">
         <v>20</v>
       </c>
-      <c r="K128" s="25">
+      <c r="K128" s="28">
         <v>45546</v>
       </c>
     </row>
     <row r="129" spans="1:11">
-      <c r="A129" s="23"/>
-      <c r="B129" s="33"/>
+      <c r="A129" s="30"/>
+      <c r="B129" s="35"/>
       <c r="C129" s="3" t="s">
         <v>162</v>
       </c>
@@ -4500,11 +4509,11 @@
       <c r="G129" s="3">
         <v>25</v>
       </c>
-      <c r="K129" s="26"/>
+      <c r="K129" s="31"/>
     </row>
     <row r="130" spans="1:11">
-      <c r="A130" s="24"/>
-      <c r="B130" s="33"/>
+      <c r="A130" s="27"/>
+      <c r="B130" s="35"/>
       <c r="C130" s="3" t="s">
         <v>163</v>
       </c>
@@ -4514,13 +4523,13 @@
       <c r="F130" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="K130" s="27"/>
+      <c r="K130" s="29"/>
     </row>
     <row r="131" spans="1:11">
-      <c r="A131" s="22">
-        <v>50</v>
-      </c>
-      <c r="B131" s="33" t="s">
+      <c r="A131" s="26">
+        <v>50</v>
+      </c>
+      <c r="B131" s="35" t="s">
         <v>168</v>
       </c>
       <c r="C131" s="3" t="s">
@@ -4538,13 +4547,13 @@
       <c r="G131" s="3">
         <v>20</v>
       </c>
-      <c r="K131" s="25">
+      <c r="K131" s="28">
         <v>45546</v>
       </c>
     </row>
     <row r="132" spans="1:11">
-      <c r="A132" s="23"/>
-      <c r="B132" s="33"/>
+      <c r="A132" s="30"/>
+      <c r="B132" s="35"/>
       <c r="C132" s="3" t="s">
         <v>165</v>
       </c>
@@ -4560,11 +4569,11 @@
       <c r="G132" s="3">
         <v>10</v>
       </c>
-      <c r="K132" s="26"/>
+      <c r="K132" s="31"/>
     </row>
     <row r="133" spans="1:11">
-      <c r="A133" s="23"/>
-      <c r="B133" s="33"/>
+      <c r="A133" s="30"/>
+      <c r="B133" s="35"/>
       <c r="C133" s="3" t="s">
         <v>166</v>
       </c>
@@ -4580,11 +4589,11 @@
       <c r="G133" s="3">
         <v>10</v>
       </c>
-      <c r="K133" s="26"/>
+      <c r="K133" s="31"/>
     </row>
     <row r="134" spans="1:11">
-      <c r="A134" s="24"/>
-      <c r="B134" s="33"/>
+      <c r="A134" s="27"/>
+      <c r="B134" s="35"/>
       <c r="C134" s="3" t="s">
         <v>167</v>
       </c>
@@ -4600,13 +4609,13 @@
       <c r="G134" s="3">
         <v>2</v>
       </c>
-      <c r="K134" s="27"/>
+      <c r="K134" s="29"/>
     </row>
     <row r="135" spans="1:11">
-      <c r="A135" s="22">
+      <c r="A135" s="26">
         <v>51</v>
       </c>
-      <c r="B135" s="33" t="s">
+      <c r="B135" s="35" t="s">
         <v>169</v>
       </c>
       <c r="C135" s="3" t="s">
@@ -4624,13 +4633,13 @@
       <c r="G135" s="3">
         <v>20</v>
       </c>
-      <c r="K135" s="25">
+      <c r="K135" s="28">
         <v>45546</v>
       </c>
     </row>
     <row r="136" spans="1:11">
-      <c r="A136" s="24"/>
-      <c r="B136" s="33"/>
+      <c r="A136" s="27"/>
+      <c r="B136" s="35"/>
       <c r="C136" s="3" t="s">
         <v>70</v>
       </c>
@@ -4643,13 +4652,13 @@
       <c r="F136" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K136" s="27"/>
+      <c r="K136" s="29"/>
     </row>
     <row r="137" spans="1:11">
-      <c r="A137" s="22">
+      <c r="A137" s="26">
         <v>52</v>
       </c>
-      <c r="B137" s="33" t="s">
+      <c r="B137" s="35" t="s">
         <v>170</v>
       </c>
       <c r="C137" s="3" t="s">
@@ -4667,13 +4676,13 @@
       <c r="G137" s="3">
         <v>20</v>
       </c>
-      <c r="K137" s="25">
+      <c r="K137" s="28">
         <v>45546</v>
       </c>
     </row>
     <row r="138" spans="1:11">
-      <c r="A138" s="23"/>
-      <c r="B138" s="33"/>
+      <c r="A138" s="30"/>
+      <c r="B138" s="35"/>
       <c r="C138" s="3" t="s">
         <v>165</v>
       </c>
@@ -4689,11 +4698,11 @@
       <c r="G138" s="3">
         <v>10</v>
       </c>
-      <c r="K138" s="26"/>
+      <c r="K138" s="31"/>
     </row>
     <row r="139" spans="1:11">
-      <c r="A139" s="23"/>
-      <c r="B139" s="33"/>
+      <c r="A139" s="30"/>
+      <c r="B139" s="35"/>
       <c r="C139" s="3" t="s">
         <v>166</v>
       </c>
@@ -4709,11 +4718,11 @@
       <c r="G139" s="3">
         <v>10</v>
       </c>
-      <c r="K139" s="26"/>
+      <c r="K139" s="31"/>
     </row>
     <row r="140" spans="1:11">
-      <c r="A140" s="24"/>
-      <c r="B140" s="33"/>
+      <c r="A140" s="27"/>
+      <c r="B140" s="35"/>
       <c r="C140" s="3" t="s">
         <v>167</v>
       </c>
@@ -4729,13 +4738,13 @@
       <c r="G140" s="3">
         <v>2</v>
       </c>
-      <c r="K140" s="27"/>
+      <c r="K140" s="29"/>
     </row>
     <row r="141" spans="1:11">
-      <c r="A141" s="22">
+      <c r="A141" s="26">
         <v>53</v>
       </c>
-      <c r="B141" s="33" t="s">
+      <c r="B141" s="35" t="s">
         <v>173</v>
       </c>
       <c r="C141" s="3" t="s">
@@ -4753,13 +4762,13 @@
       <c r="G141" s="3">
         <v>20</v>
       </c>
-      <c r="K141" s="25">
+      <c r="K141" s="28">
         <v>45546</v>
       </c>
     </row>
     <row r="142" spans="1:11">
-      <c r="A142" s="23"/>
-      <c r="B142" s="33"/>
+      <c r="A142" s="30"/>
+      <c r="B142" s="35"/>
       <c r="C142" s="3" t="s">
         <v>8</v>
       </c>
@@ -4775,11 +4784,11 @@
       <c r="G142" s="3">
         <v>20</v>
       </c>
-      <c r="K142" s="26"/>
+      <c r="K142" s="31"/>
     </row>
     <row r="143" spans="1:11">
-      <c r="A143" s="24"/>
-      <c r="B143" s="33"/>
+      <c r="A143" s="27"/>
+      <c r="B143" s="35"/>
       <c r="C143" s="3" t="s">
         <v>172</v>
       </c>
@@ -4795,13 +4804,13 @@
       <c r="G143" s="3">
         <v>3</v>
       </c>
-      <c r="K143" s="27"/>
+      <c r="K143" s="29"/>
     </row>
     <row r="144" spans="1:11">
-      <c r="A144" s="22">
+      <c r="A144" s="26">
         <v>54</v>
       </c>
-      <c r="B144" s="34" t="s">
+      <c r="B144" s="36" t="s">
         <v>186</v>
       </c>
       <c r="C144" s="3" t="s">
@@ -4813,13 +4822,13 @@
       <c r="F144" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K144" s="25">
+      <c r="K144" s="28">
         <v>45551</v>
       </c>
     </row>
     <row r="145" spans="1:11">
-      <c r="A145" s="23"/>
-      <c r="B145" s="34"/>
+      <c r="A145" s="30"/>
+      <c r="B145" s="36"/>
       <c r="C145" s="3" t="s">
         <v>175</v>
       </c>
@@ -4835,11 +4844,11 @@
       <c r="G145" s="3">
         <v>3000</v>
       </c>
-      <c r="K145" s="26"/>
+      <c r="K145" s="31"/>
     </row>
     <row r="146" spans="1:11">
-      <c r="A146" s="23"/>
-      <c r="B146" s="34"/>
+      <c r="A146" s="30"/>
+      <c r="B146" s="36"/>
       <c r="C146" s="3" t="s">
         <v>176</v>
       </c>
@@ -4855,11 +4864,11 @@
       <c r="G146" s="3">
         <v>3000</v>
       </c>
-      <c r="K146" s="26"/>
+      <c r="K146" s="31"/>
     </row>
     <row r="147" spans="1:11">
-      <c r="A147" s="23"/>
-      <c r="B147" s="34"/>
+      <c r="A147" s="30"/>
+      <c r="B147" s="36"/>
       <c r="C147" s="3" t="s">
         <v>177</v>
       </c>
@@ -4875,11 +4884,11 @@
       <c r="G147" s="3">
         <v>3000</v>
       </c>
-      <c r="K147" s="26"/>
+      <c r="K147" s="31"/>
     </row>
     <row r="148" spans="1:11">
-      <c r="A148" s="23"/>
-      <c r="B148" s="34"/>
+      <c r="A148" s="30"/>
+      <c r="B148" s="36"/>
       <c r="C148" s="3" t="s">
         <v>178</v>
       </c>
@@ -4895,11 +4904,11 @@
       <c r="G148" s="3">
         <v>3000</v>
       </c>
-      <c r="K148" s="26"/>
+      <c r="K148" s="31"/>
     </row>
     <row r="149" spans="1:11">
-      <c r="A149" s="23"/>
-      <c r="B149" s="34"/>
+      <c r="A149" s="30"/>
+      <c r="B149" s="36"/>
       <c r="C149" s="3" t="s">
         <v>179</v>
       </c>
@@ -4915,11 +4924,11 @@
       <c r="G149" s="3">
         <v>3000</v>
       </c>
-      <c r="K149" s="26"/>
+      <c r="K149" s="31"/>
     </row>
     <row r="150" spans="1:11">
-      <c r="A150" s="23"/>
-      <c r="B150" s="34"/>
+      <c r="A150" s="30"/>
+      <c r="B150" s="36"/>
       <c r="C150" s="3" t="s">
         <v>180</v>
       </c>
@@ -4935,11 +4944,11 @@
       <c r="G150" s="3">
         <v>3000</v>
       </c>
-      <c r="K150" s="26"/>
+      <c r="K150" s="31"/>
     </row>
     <row r="151" spans="1:11">
-      <c r="A151" s="23"/>
-      <c r="B151" s="34"/>
+      <c r="A151" s="30"/>
+      <c r="B151" s="36"/>
       <c r="C151" s="3" t="s">
         <v>181</v>
       </c>
@@ -4955,11 +4964,11 @@
       <c r="G151" s="3">
         <v>3000</v>
       </c>
-      <c r="K151" s="26"/>
+      <c r="K151" s="31"/>
     </row>
     <row r="152" spans="1:11">
-      <c r="A152" s="23"/>
-      <c r="B152" s="34"/>
+      <c r="A152" s="30"/>
+      <c r="B152" s="36"/>
       <c r="C152" s="3" t="s">
         <v>182</v>
       </c>
@@ -4975,11 +4984,11 @@
       <c r="G152" s="3">
         <v>3000</v>
       </c>
-      <c r="K152" s="26"/>
+      <c r="K152" s="31"/>
     </row>
     <row r="153" spans="1:11">
-      <c r="A153" s="23"/>
-      <c r="B153" s="34"/>
+      <c r="A153" s="30"/>
+      <c r="B153" s="36"/>
       <c r="C153" s="3" t="s">
         <v>183</v>
       </c>
@@ -4995,11 +5004,11 @@
       <c r="G153" s="3">
         <v>3000</v>
       </c>
-      <c r="K153" s="26"/>
+      <c r="K153" s="31"/>
     </row>
     <row r="154" spans="1:11">
-      <c r="A154" s="23"/>
-      <c r="B154" s="34"/>
+      <c r="A154" s="30"/>
+      <c r="B154" s="36"/>
       <c r="C154" s="3" t="s">
         <v>184</v>
       </c>
@@ -5015,11 +5024,11 @@
       <c r="G154" s="3">
         <v>3000</v>
       </c>
-      <c r="K154" s="26"/>
+      <c r="K154" s="31"/>
     </row>
     <row r="155" spans="1:11">
-      <c r="A155" s="23"/>
-      <c r="B155" s="34"/>
+      <c r="A155" s="30"/>
+      <c r="B155" s="36"/>
       <c r="C155" s="3" t="s">
         <v>6</v>
       </c>
@@ -5035,11 +5044,11 @@
       <c r="G155" s="3">
         <v>20</v>
       </c>
-      <c r="K155" s="26"/>
+      <c r="K155" s="31"/>
     </row>
     <row r="156" spans="1:11">
-      <c r="A156" s="23"/>
-      <c r="B156" s="34"/>
+      <c r="A156" s="30"/>
+      <c r="B156" s="36"/>
       <c r="C156" s="3" t="s">
         <v>8</v>
       </c>
@@ -5055,11 +5064,11 @@
       <c r="G156" s="3">
         <v>20</v>
       </c>
-      <c r="K156" s="26"/>
+      <c r="K156" s="31"/>
     </row>
     <row r="157" spans="1:11">
-      <c r="A157" s="24"/>
-      <c r="B157" s="34"/>
+      <c r="A157" s="27"/>
+      <c r="B157" s="36"/>
       <c r="C157" s="3" t="s">
         <v>185</v>
       </c>
@@ -5072,13 +5081,13 @@
       <c r="F157" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="K157" s="27"/>
+      <c r="K157" s="29"/>
     </row>
     <row r="158" spans="1:11">
-      <c r="A158" s="22">
+      <c r="A158" s="26">
         <v>55</v>
       </c>
-      <c r="B158" s="33" t="s">
+      <c r="B158" s="35" t="s">
         <v>187</v>
       </c>
       <c r="C158" s="3" t="s">
@@ -5096,13 +5105,13 @@
       <c r="G158" s="3">
         <v>20</v>
       </c>
-      <c r="K158" s="25">
+      <c r="K158" s="28">
         <v>45546</v>
       </c>
     </row>
     <row r="159" spans="1:11">
-      <c r="A159" s="23"/>
-      <c r="B159" s="33"/>
+      <c r="A159" s="30"/>
+      <c r="B159" s="35"/>
       <c r="C159" s="3" t="s">
         <v>8</v>
       </c>
@@ -5118,11 +5127,11 @@
       <c r="G159" s="3">
         <v>20</v>
       </c>
-      <c r="K159" s="26"/>
+      <c r="K159" s="31"/>
     </row>
     <row r="160" spans="1:11">
-      <c r="A160" s="24"/>
-      <c r="B160" s="33"/>
+      <c r="A160" s="27"/>
+      <c r="B160" s="35"/>
       <c r="C160" s="3" t="s">
         <v>70</v>
       </c>
@@ -5135,13 +5144,13 @@
       <c r="F160" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K160" s="27"/>
+      <c r="K160" s="29"/>
     </row>
     <row r="161" spans="1:11">
-      <c r="A161" s="22">
+      <c r="A161" s="26">
         <v>56</v>
       </c>
-      <c r="B161" s="33" t="s">
+      <c r="B161" s="35" t="s">
         <v>188</v>
       </c>
       <c r="C161" s="3" t="s">
@@ -5159,13 +5168,13 @@
       <c r="G161" s="3">
         <v>20</v>
       </c>
-      <c r="K161" s="25">
+      <c r="K161" s="28">
         <v>45546</v>
       </c>
     </row>
     <row r="162" spans="1:11">
-      <c r="A162" s="23"/>
-      <c r="B162" s="33"/>
+      <c r="A162" s="30"/>
+      <c r="B162" s="35"/>
       <c r="C162" s="3" t="s">
         <v>8</v>
       </c>
@@ -5181,11 +5190,11 @@
       <c r="G162" s="3">
         <v>20</v>
       </c>
-      <c r="K162" s="26"/>
+      <c r="K162" s="31"/>
     </row>
     <row r="163" spans="1:11">
-      <c r="A163" s="24"/>
-      <c r="B163" s="33"/>
+      <c r="A163" s="27"/>
+      <c r="B163" s="35"/>
       <c r="C163" s="3" t="s">
         <v>70</v>
       </c>
@@ -5198,13 +5207,13 @@
       <c r="F163" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K163" s="27"/>
+      <c r="K163" s="29"/>
     </row>
     <row r="164" spans="1:11">
-      <c r="A164" s="22">
+      <c r="A164" s="26">
         <v>57</v>
       </c>
-      <c r="B164" s="33" t="s">
+      <c r="B164" s="35" t="s">
         <v>191</v>
       </c>
       <c r="C164" s="3" t="s">
@@ -5222,13 +5231,13 @@
       <c r="G164" s="3">
         <v>20</v>
       </c>
-      <c r="K164" s="25">
+      <c r="K164" s="28">
         <v>45546</v>
       </c>
     </row>
     <row r="165" spans="1:11">
-      <c r="A165" s="23"/>
-      <c r="B165" s="33"/>
+      <c r="A165" s="30"/>
+      <c r="B165" s="35"/>
       <c r="C165" s="3" t="s">
         <v>189</v>
       </c>
@@ -5244,11 +5253,11 @@
       <c r="G165" s="3">
         <v>40</v>
       </c>
-      <c r="K165" s="26"/>
+      <c r="K165" s="31"/>
     </row>
     <row r="166" spans="1:11">
-      <c r="A166" s="24"/>
-      <c r="B166" s="33"/>
+      <c r="A166" s="27"/>
+      <c r="B166" s="35"/>
       <c r="C166" s="3" t="s">
         <v>190</v>
       </c>
@@ -5264,13 +5273,13 @@
       <c r="G166" s="3">
         <v>40</v>
       </c>
-      <c r="K166" s="27"/>
+      <c r="K166" s="29"/>
     </row>
     <row r="167" spans="1:11">
-      <c r="A167" s="22">
+      <c r="A167" s="26">
         <v>58</v>
       </c>
-      <c r="B167" s="33" t="s">
+      <c r="B167" s="35" t="s">
         <v>194</v>
       </c>
       <c r="C167" s="3" t="s">
@@ -5288,13 +5297,13 @@
       <c r="G167" s="3">
         <v>20</v>
       </c>
-      <c r="K167" s="25">
+      <c r="K167" s="28">
         <v>45546</v>
       </c>
     </row>
     <row r="168" spans="1:11">
-      <c r="A168" s="23"/>
-      <c r="B168" s="33"/>
+      <c r="A168" s="30"/>
+      <c r="B168" s="35"/>
       <c r="C168" s="3" t="s">
         <v>192</v>
       </c>
@@ -5310,11 +5319,11 @@
       <c r="G168" s="3">
         <v>30</v>
       </c>
-      <c r="K168" s="26"/>
+      <c r="K168" s="31"/>
     </row>
     <row r="169" spans="1:11">
-      <c r="A169" s="24"/>
-      <c r="B169" s="33"/>
+      <c r="A169" s="27"/>
+      <c r="B169" s="35"/>
       <c r="C169" s="3" t="s">
         <v>193</v>
       </c>
@@ -5330,13 +5339,13 @@
       <c r="G169" s="3">
         <v>30</v>
       </c>
-      <c r="K169" s="27"/>
+      <c r="K169" s="29"/>
     </row>
     <row r="170" spans="1:11">
-      <c r="A170" s="22">
+      <c r="A170" s="26">
         <v>59</v>
       </c>
-      <c r="B170" s="33" t="s">
+      <c r="B170" s="35" t="s">
         <v>197</v>
       </c>
       <c r="C170" s="3" t="s">
@@ -5354,13 +5363,13 @@
       <c r="G170" s="3">
         <v>20</v>
       </c>
-      <c r="K170" s="25">
+      <c r="K170" s="28">
         <v>45546</v>
       </c>
     </row>
     <row r="171" spans="1:11">
-      <c r="A171" s="23"/>
-      <c r="B171" s="33"/>
+      <c r="A171" s="30"/>
+      <c r="B171" s="35"/>
       <c r="C171" s="3" t="s">
         <v>195</v>
       </c>
@@ -5376,11 +5385,11 @@
       <c r="G171" s="3">
         <v>30</v>
       </c>
-      <c r="K171" s="26"/>
+      <c r="K171" s="31"/>
     </row>
     <row r="172" spans="1:11">
-      <c r="A172" s="24"/>
-      <c r="B172" s="33"/>
+      <c r="A172" s="27"/>
+      <c r="B172" s="35"/>
       <c r="C172" s="3" t="s">
         <v>196</v>
       </c>
@@ -5396,13 +5405,13 @@
       <c r="G172" s="3">
         <v>30</v>
       </c>
-      <c r="K172" s="27"/>
+      <c r="K172" s="29"/>
     </row>
     <row r="173" spans="1:11">
-      <c r="A173" s="22">
+      <c r="A173" s="26">
         <v>60</v>
       </c>
-      <c r="B173" s="33" t="s">
+      <c r="B173" s="35" t="s">
         <v>200</v>
       </c>
       <c r="C173" s="3" t="s">
@@ -5420,13 +5429,13 @@
       <c r="G173" s="3">
         <v>20</v>
       </c>
-      <c r="K173" s="25">
+      <c r="K173" s="28">
         <v>45546</v>
       </c>
     </row>
     <row r="174" spans="1:11">
-      <c r="A174" s="23"/>
-      <c r="B174" s="33"/>
+      <c r="A174" s="30"/>
+      <c r="B174" s="35"/>
       <c r="C174" s="3" t="s">
         <v>198</v>
       </c>
@@ -5442,11 +5451,11 @@
       <c r="G174" s="3">
         <v>30</v>
       </c>
-      <c r="K174" s="26"/>
+      <c r="K174" s="31"/>
     </row>
     <row r="175" spans="1:11">
-      <c r="A175" s="24"/>
-      <c r="B175" s="33"/>
+      <c r="A175" s="27"/>
+      <c r="B175" s="35"/>
       <c r="C175" s="3" t="s">
         <v>199</v>
       </c>
@@ -5462,13 +5471,13 @@
       <c r="G175" s="3">
         <v>30</v>
       </c>
-      <c r="K175" s="27"/>
+      <c r="K175" s="29"/>
     </row>
     <row r="176" spans="1:11">
-      <c r="A176" s="22">
+      <c r="A176" s="26">
         <v>61</v>
       </c>
-      <c r="B176" s="33" t="s">
+      <c r="B176" s="35" t="s">
         <v>203</v>
       </c>
       <c r="C176" s="3" t="s">
@@ -5486,13 +5495,13 @@
       <c r="G176" s="3">
         <v>20</v>
       </c>
-      <c r="K176" s="25">
+      <c r="K176" s="28">
         <v>45546</v>
       </c>
     </row>
     <row r="177" spans="1:11">
-      <c r="A177" s="23"/>
-      <c r="B177" s="33"/>
+      <c r="A177" s="30"/>
+      <c r="B177" s="35"/>
       <c r="C177" s="3" t="s">
         <v>201</v>
       </c>
@@ -5508,11 +5517,11 @@
       <c r="G177" s="3">
         <v>60</v>
       </c>
-      <c r="K177" s="26"/>
+      <c r="K177" s="31"/>
     </row>
     <row r="178" spans="1:11">
-      <c r="A178" s="24"/>
-      <c r="B178" s="33"/>
+      <c r="A178" s="27"/>
+      <c r="B178" s="35"/>
       <c r="C178" s="3" t="s">
         <v>202</v>
       </c>
@@ -5528,13 +5537,13 @@
       <c r="G178" s="3">
         <v>60</v>
       </c>
-      <c r="K178" s="27"/>
+      <c r="K178" s="29"/>
     </row>
     <row r="179" spans="1:11">
-      <c r="A179" s="22">
+      <c r="A179" s="26">
         <v>62</v>
       </c>
-      <c r="B179" s="33" t="s">
+      <c r="B179" s="35" t="s">
         <v>204</v>
       </c>
       <c r="C179" s="8" t="s">
@@ -5552,13 +5561,13 @@
       <c r="G179" s="8">
         <v>20</v>
       </c>
-      <c r="K179" s="25">
+      <c r="K179" s="28">
         <v>45546</v>
       </c>
     </row>
     <row r="180" spans="1:11">
-      <c r="A180" s="23"/>
-      <c r="B180" s="33"/>
+      <c r="A180" s="30"/>
+      <c r="B180" s="35"/>
       <c r="C180" s="8" t="s">
         <v>201</v>
       </c>
@@ -5574,11 +5583,11 @@
       <c r="G180" s="8">
         <v>60</v>
       </c>
-      <c r="K180" s="26"/>
+      <c r="K180" s="31"/>
     </row>
     <row r="181" spans="1:11">
-      <c r="A181" s="24"/>
-      <c r="B181" s="33"/>
+      <c r="A181" s="27"/>
+      <c r="B181" s="35"/>
       <c r="C181" s="8" t="s">
         <v>202</v>
       </c>
@@ -5594,13 +5603,13 @@
       <c r="G181" s="8">
         <v>60</v>
       </c>
-      <c r="K181" s="27"/>
+      <c r="K181" s="29"/>
     </row>
     <row r="182" spans="1:11">
-      <c r="A182" s="22">
+      <c r="A182" s="26">
         <v>63</v>
       </c>
-      <c r="B182" s="22" t="s">
+      <c r="B182" s="26" t="s">
         <v>208</v>
       </c>
       <c r="C182" s="3" t="s">
@@ -5618,13 +5627,13 @@
       <c r="G182" s="3">
         <v>20</v>
       </c>
-      <c r="K182" s="25">
+      <c r="K182" s="28">
         <v>45546</v>
       </c>
     </row>
     <row r="183" spans="1:11">
-      <c r="A183" s="23"/>
-      <c r="B183" s="23"/>
+      <c r="A183" s="30"/>
+      <c r="B183" s="30"/>
       <c r="C183" s="3" t="s">
         <v>205</v>
       </c>
@@ -5640,11 +5649,11 @@
       <c r="G183" s="3">
         <v>60</v>
       </c>
-      <c r="K183" s="26"/>
+      <c r="K183" s="31"/>
     </row>
     <row r="184" spans="1:11" s="4" customFormat="1" ht="30" customHeight="1">
-      <c r="A184" s="23"/>
-      <c r="B184" s="23"/>
+      <c r="A184" s="30"/>
+      <c r="B184" s="30"/>
       <c r="C184" s="4" t="s">
         <v>206</v>
       </c>
@@ -5655,11 +5664,11 @@
       <c r="J184" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="K184" s="26"/>
+      <c r="K184" s="31"/>
     </row>
     <row r="185" spans="1:11">
-      <c r="A185" s="24"/>
-      <c r="B185" s="24"/>
+      <c r="A185" s="27"/>
+      <c r="B185" s="27"/>
       <c r="C185" s="3" t="s">
         <v>207</v>
       </c>
@@ -5669,13 +5678,13 @@
       <c r="J185" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="K185" s="27"/>
+      <c r="K185" s="29"/>
     </row>
     <row r="186" spans="1:11">
-      <c r="A186" s="22">
+      <c r="A186" s="26">
         <v>64</v>
       </c>
-      <c r="B186" s="22" t="s">
+      <c r="B186" s="26" t="s">
         <v>210</v>
       </c>
       <c r="C186" s="3" t="s">
@@ -5693,13 +5702,13 @@
       <c r="G186" s="3">
         <v>6</v>
       </c>
-      <c r="K186" s="25">
+      <c r="K186" s="28">
         <v>45551</v>
       </c>
     </row>
     <row r="187" spans="1:11">
-      <c r="A187" s="23"/>
-      <c r="B187" s="23"/>
+      <c r="A187" s="30"/>
+      <c r="B187" s="30"/>
       <c r="C187" s="3" t="s">
         <v>211</v>
       </c>
@@ -5715,11 +5724,11 @@
       <c r="G187" s="3">
         <v>6</v>
       </c>
-      <c r="K187" s="26"/>
+      <c r="K187" s="31"/>
     </row>
     <row r="188" spans="1:11">
-      <c r="A188" s="23"/>
-      <c r="B188" s="23"/>
+      <c r="A188" s="30"/>
+      <c r="B188" s="30"/>
       <c r="C188" s="3" t="s">
         <v>85</v>
       </c>
@@ -5735,11 +5744,11 @@
       <c r="G188" s="3">
         <v>20</v>
       </c>
-      <c r="K188" s="26"/>
+      <c r="K188" s="31"/>
     </row>
     <row r="189" spans="1:11">
-      <c r="A189" s="24"/>
-      <c r="B189" s="24"/>
+      <c r="A189" s="27"/>
+      <c r="B189" s="27"/>
       <c r="C189" s="3" t="s">
         <v>212</v>
       </c>
@@ -5755,13 +5764,13 @@
       <c r="G189" s="3">
         <v>20</v>
       </c>
-      <c r="K189" s="27"/>
+      <c r="K189" s="29"/>
     </row>
     <row r="190" spans="1:11">
-      <c r="A190" s="22">
+      <c r="A190" s="26">
         <v>65</v>
       </c>
-      <c r="B190" s="22" t="s">
+      <c r="B190" s="26" t="s">
         <v>215</v>
       </c>
       <c r="C190" s="3" t="s">
@@ -5779,13 +5788,13 @@
       <c r="G190" s="3">
         <v>20</v>
       </c>
-      <c r="K190" s="25">
+      <c r="K190" s="28">
         <v>45551</v>
       </c>
     </row>
     <row r="191" spans="1:11">
-      <c r="A191" s="23"/>
-      <c r="B191" s="23"/>
+      <c r="A191" s="30"/>
+      <c r="B191" s="30"/>
       <c r="C191" s="3" t="s">
         <v>8</v>
       </c>
@@ -5801,11 +5810,11 @@
       <c r="G191" s="3">
         <v>20</v>
       </c>
-      <c r="K191" s="26"/>
+      <c r="K191" s="31"/>
     </row>
     <row r="192" spans="1:11">
-      <c r="A192" s="23"/>
-      <c r="B192" s="23"/>
+      <c r="A192" s="30"/>
+      <c r="B192" s="30"/>
       <c r="C192" s="3" t="s">
         <v>213</v>
       </c>
@@ -5821,11 +5830,11 @@
       <c r="G192" s="3">
         <v>20</v>
       </c>
-      <c r="K192" s="26"/>
+      <c r="K192" s="31"/>
     </row>
     <row r="193" spans="1:11">
-      <c r="A193" s="24"/>
-      <c r="B193" s="24"/>
+      <c r="A193" s="27"/>
+      <c r="B193" s="27"/>
       <c r="C193" s="3" t="s">
         <v>214</v>
       </c>
@@ -5841,13 +5850,13 @@
       <c r="G193" s="3">
         <v>20</v>
       </c>
-      <c r="K193" s="27"/>
+      <c r="K193" s="29"/>
     </row>
     <row r="194" spans="1:11">
-      <c r="A194" s="22">
+      <c r="A194" s="26">
         <v>66</v>
       </c>
-      <c r="B194" s="22" t="s">
+      <c r="B194" s="26" t="s">
         <v>218</v>
       </c>
       <c r="C194" s="3" t="s">
@@ -5865,13 +5874,13 @@
       <c r="G194" s="3">
         <v>20</v>
       </c>
-      <c r="K194" s="25">
+      <c r="K194" s="28">
         <v>45551</v>
       </c>
     </row>
     <row r="195" spans="1:11">
-      <c r="A195" s="23"/>
-      <c r="B195" s="23"/>
+      <c r="A195" s="30"/>
+      <c r="B195" s="30"/>
       <c r="C195" s="3" t="s">
         <v>216</v>
       </c>
@@ -5887,11 +5896,11 @@
       <c r="G195" s="3">
         <v>20</v>
       </c>
-      <c r="K195" s="26"/>
+      <c r="K195" s="31"/>
     </row>
     <row r="196" spans="1:11">
-      <c r="A196" s="24"/>
-      <c r="B196" s="24"/>
+      <c r="A196" s="27"/>
+      <c r="B196" s="27"/>
       <c r="C196" s="3" t="s">
         <v>217</v>
       </c>
@@ -5907,13 +5916,13 @@
       <c r="G196" s="3">
         <v>20</v>
       </c>
-      <c r="K196" s="27"/>
+      <c r="K196" s="29"/>
     </row>
     <row r="197" spans="1:11">
-      <c r="A197" s="22">
+      <c r="A197" s="26">
         <v>67</v>
       </c>
-      <c r="B197" s="28" t="s">
+      <c r="B197" s="32" t="s">
         <v>219</v>
       </c>
       <c r="C197" s="3" t="s">
@@ -5925,13 +5934,13 @@
       <c r="F197" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K197" s="25">
+      <c r="K197" s="28">
         <v>45551</v>
       </c>
     </row>
     <row r="198" spans="1:11">
-      <c r="A198" s="23"/>
-      <c r="B198" s="29"/>
+      <c r="A198" s="30"/>
+      <c r="B198" s="33"/>
       <c r="C198" s="3" t="s">
         <v>175</v>
       </c>
@@ -5947,11 +5956,11 @@
       <c r="G198" s="3">
         <v>3000</v>
       </c>
-      <c r="K198" s="26"/>
+      <c r="K198" s="31"/>
     </row>
     <row r="199" spans="1:11">
-      <c r="A199" s="23"/>
-      <c r="B199" s="29"/>
+      <c r="A199" s="30"/>
+      <c r="B199" s="33"/>
       <c r="C199" s="3" t="s">
         <v>176</v>
       </c>
@@ -5967,11 +5976,11 @@
       <c r="G199" s="3">
         <v>3000</v>
       </c>
-      <c r="K199" s="26"/>
+      <c r="K199" s="31"/>
     </row>
     <row r="200" spans="1:11">
-      <c r="A200" s="23"/>
-      <c r="B200" s="29"/>
+      <c r="A200" s="30"/>
+      <c r="B200" s="33"/>
       <c r="C200" s="3" t="s">
         <v>177</v>
       </c>
@@ -5987,11 +5996,11 @@
       <c r="G200" s="3">
         <v>3000</v>
       </c>
-      <c r="K200" s="26"/>
+      <c r="K200" s="31"/>
     </row>
     <row r="201" spans="1:11">
-      <c r="A201" s="23"/>
-      <c r="B201" s="29"/>
+      <c r="A201" s="30"/>
+      <c r="B201" s="33"/>
       <c r="C201" s="3" t="s">
         <v>178</v>
       </c>
@@ -6007,11 +6016,11 @@
       <c r="G201" s="3">
         <v>3000</v>
       </c>
-      <c r="K201" s="26"/>
+      <c r="K201" s="31"/>
     </row>
     <row r="202" spans="1:11">
-      <c r="A202" s="23"/>
-      <c r="B202" s="29"/>
+      <c r="A202" s="30"/>
+      <c r="B202" s="33"/>
       <c r="C202" s="3" t="s">
         <v>179</v>
       </c>
@@ -6027,11 +6036,11 @@
       <c r="G202" s="3">
         <v>3000</v>
       </c>
-      <c r="K202" s="26"/>
+      <c r="K202" s="31"/>
     </row>
     <row r="203" spans="1:11">
-      <c r="A203" s="23"/>
-      <c r="B203" s="29"/>
+      <c r="A203" s="30"/>
+      <c r="B203" s="33"/>
       <c r="C203" s="3" t="s">
         <v>180</v>
       </c>
@@ -6047,11 +6056,11 @@
       <c r="G203" s="3">
         <v>3000</v>
       </c>
-      <c r="K203" s="26"/>
+      <c r="K203" s="31"/>
     </row>
     <row r="204" spans="1:11">
-      <c r="A204" s="23"/>
-      <c r="B204" s="29"/>
+      <c r="A204" s="30"/>
+      <c r="B204" s="33"/>
       <c r="C204" s="3" t="s">
         <v>181</v>
       </c>
@@ -6067,11 +6076,11 @@
       <c r="G204" s="3">
         <v>3000</v>
       </c>
-      <c r="K204" s="26"/>
+      <c r="K204" s="31"/>
     </row>
     <row r="205" spans="1:11">
-      <c r="A205" s="23"/>
-      <c r="B205" s="29"/>
+      <c r="A205" s="30"/>
+      <c r="B205" s="33"/>
       <c r="C205" s="3" t="s">
         <v>182</v>
       </c>
@@ -6087,11 +6096,11 @@
       <c r="G205" s="3">
         <v>3000</v>
       </c>
-      <c r="K205" s="26"/>
+      <c r="K205" s="31"/>
     </row>
     <row r="206" spans="1:11">
-      <c r="A206" s="23"/>
-      <c r="B206" s="29"/>
+      <c r="A206" s="30"/>
+      <c r="B206" s="33"/>
       <c r="C206" s="3" t="s">
         <v>183</v>
       </c>
@@ -6107,11 +6116,11 @@
       <c r="G206" s="3">
         <v>3000</v>
       </c>
-      <c r="K206" s="26"/>
+      <c r="K206" s="31"/>
     </row>
     <row r="207" spans="1:11">
-      <c r="A207" s="23"/>
-      <c r="B207" s="29"/>
+      <c r="A207" s="30"/>
+      <c r="B207" s="33"/>
       <c r="C207" s="3" t="s">
         <v>184</v>
       </c>
@@ -6127,11 +6136,11 @@
       <c r="G207" s="3">
         <v>3000</v>
       </c>
-      <c r="K207" s="26"/>
+      <c r="K207" s="31"/>
     </row>
     <row r="208" spans="1:11">
-      <c r="A208" s="23"/>
-      <c r="B208" s="29"/>
+      <c r="A208" s="30"/>
+      <c r="B208" s="33"/>
       <c r="C208" s="3" t="s">
         <v>6</v>
       </c>
@@ -6147,11 +6156,11 @@
       <c r="G208" s="3">
         <v>20</v>
       </c>
-      <c r="K208" s="26"/>
+      <c r="K208" s="31"/>
     </row>
     <row r="209" spans="1:11">
-      <c r="A209" s="23"/>
-      <c r="B209" s="29"/>
+      <c r="A209" s="30"/>
+      <c r="B209" s="33"/>
       <c r="C209" s="3" t="s">
         <v>8</v>
       </c>
@@ -6167,11 +6176,11 @@
       <c r="G209" s="3">
         <v>20</v>
       </c>
-      <c r="K209" s="26"/>
+      <c r="K209" s="31"/>
     </row>
     <row r="210" spans="1:11">
-      <c r="A210" s="24"/>
-      <c r="B210" s="30"/>
+      <c r="A210" s="27"/>
+      <c r="B210" s="34"/>
       <c r="C210" s="3" t="s">
         <v>185</v>
       </c>
@@ -6184,13 +6193,13 @@
       <c r="F210" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="K210" s="27"/>
+      <c r="K210" s="29"/>
     </row>
     <row r="211" spans="1:11" ht="45">
-      <c r="A211" s="22">
+      <c r="A211" s="26">
         <v>68</v>
       </c>
-      <c r="B211" s="22" t="s">
+      <c r="B211" s="26" t="s">
         <v>225</v>
       </c>
       <c r="C211" s="3" t="s">
@@ -6205,13 +6214,13 @@
       <c r="J211" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="K211" s="25">
+      <c r="K211" s="28">
         <v>45552</v>
       </c>
     </row>
     <row r="212" spans="1:11">
-      <c r="A212" s="23"/>
-      <c r="B212" s="23"/>
+      <c r="A212" s="30"/>
+      <c r="B212" s="30"/>
       <c r="C212" s="3" t="s">
         <v>221</v>
       </c>
@@ -6224,11 +6233,11 @@
       <c r="F212" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="K212" s="26"/>
+      <c r="K212" s="31"/>
     </row>
     <row r="213" spans="1:11" ht="45">
-      <c r="A213" s="23"/>
-      <c r="B213" s="23"/>
+      <c r="A213" s="30"/>
+      <c r="B213" s="30"/>
       <c r="C213" s="3" t="s">
         <v>222</v>
       </c>
@@ -6241,11 +6250,11 @@
       <c r="J213" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="K213" s="26"/>
+      <c r="K213" s="31"/>
     </row>
     <row r="214" spans="1:11" ht="45">
-      <c r="A214" s="23"/>
-      <c r="B214" s="23"/>
+      <c r="A214" s="30"/>
+      <c r="B214" s="30"/>
       <c r="C214" s="3" t="s">
         <v>223</v>
       </c>
@@ -6264,11 +6273,11 @@
       <c r="J214" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="K214" s="26"/>
+      <c r="K214" s="31"/>
     </row>
     <row r="215" spans="1:11">
-      <c r="A215" s="23"/>
-      <c r="B215" s="23"/>
+      <c r="A215" s="30"/>
+      <c r="B215" s="30"/>
       <c r="C215" s="3" t="s">
         <v>5</v>
       </c>
@@ -6284,11 +6293,11 @@
       <c r="G215" s="3">
         <v>3000</v>
       </c>
-      <c r="K215" s="26"/>
+      <c r="K215" s="31"/>
     </row>
     <row r="216" spans="1:11">
-      <c r="A216" s="23"/>
-      <c r="B216" s="23"/>
+      <c r="A216" s="30"/>
+      <c r="B216" s="30"/>
       <c r="C216" s="3" t="s">
         <v>224</v>
       </c>
@@ -6304,11 +6313,11 @@
       <c r="G216" s="3">
         <v>5</v>
       </c>
-      <c r="K216" s="26"/>
+      <c r="K216" s="31"/>
     </row>
     <row r="217" spans="1:11">
-      <c r="A217" s="23"/>
-      <c r="B217" s="23"/>
+      <c r="A217" s="30"/>
+      <c r="B217" s="30"/>
       <c r="C217" s="3" t="s">
         <v>6</v>
       </c>
@@ -6324,11 +6333,11 @@
       <c r="G217" s="3">
         <v>20</v>
       </c>
-      <c r="K217" s="26"/>
+      <c r="K217" s="31"/>
     </row>
     <row r="218" spans="1:11">
-      <c r="A218" s="24"/>
-      <c r="B218" s="24"/>
+      <c r="A218" s="27"/>
+      <c r="B218" s="27"/>
       <c r="C218" s="3" t="s">
         <v>8</v>
       </c>
@@ -6344,13 +6353,13 @@
       <c r="G218" s="3">
         <v>20</v>
       </c>
-      <c r="K218" s="27"/>
+      <c r="K218" s="29"/>
     </row>
     <row r="219" spans="1:11">
-      <c r="A219" s="22">
+      <c r="A219" s="26">
         <v>69</v>
       </c>
-      <c r="B219" s="22" t="s">
+      <c r="B219" s="26" t="s">
         <v>231</v>
       </c>
       <c r="C219" s="3" t="s">
@@ -6368,13 +6377,13 @@
       <c r="G219" s="3">
         <v>15</v>
       </c>
-      <c r="K219" s="25">
+      <c r="K219" s="28">
         <v>45552</v>
       </c>
     </row>
     <row r="220" spans="1:11">
-      <c r="A220" s="24"/>
-      <c r="B220" s="24"/>
+      <c r="A220" s="27"/>
+      <c r="B220" s="27"/>
       <c r="C220" s="3" t="s">
         <v>230</v>
       </c>
@@ -6390,13 +6399,13 @@
       <c r="G220" s="3">
         <v>15</v>
       </c>
-      <c r="K220" s="27"/>
+      <c r="K220" s="29"/>
     </row>
     <row r="221" spans="1:11" ht="30">
-      <c r="A221" s="22">
+      <c r="A221" s="26">
         <v>70</v>
       </c>
-      <c r="B221" s="22" t="s">
+      <c r="B221" s="26" t="s">
         <v>243</v>
       </c>
       <c r="C221" s="3" t="s">
@@ -6414,13 +6423,13 @@
       <c r="J221" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="K221" s="25">
+      <c r="K221" s="28">
         <v>45552</v>
       </c>
     </row>
     <row r="222" spans="1:11" ht="30">
-      <c r="A222" s="23"/>
-      <c r="B222" s="23"/>
+      <c r="A222" s="30"/>
+      <c r="B222" s="30"/>
       <c r="C222" s="3" t="s">
         <v>233</v>
       </c>
@@ -6439,11 +6448,11 @@
       <c r="J222" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="K222" s="26"/>
+      <c r="K222" s="31"/>
     </row>
     <row r="223" spans="1:11">
-      <c r="A223" s="23"/>
-      <c r="B223" s="23"/>
+      <c r="A223" s="30"/>
+      <c r="B223" s="30"/>
       <c r="C223" s="3" t="s">
         <v>234</v>
       </c>
@@ -6459,11 +6468,11 @@
       <c r="G223" s="3">
         <v>250</v>
       </c>
-      <c r="K223" s="26"/>
+      <c r="K223" s="31"/>
     </row>
     <row r="224" spans="1:11">
-      <c r="A224" s="23"/>
-      <c r="B224" s="23"/>
+      <c r="A224" s="30"/>
+      <c r="B224" s="30"/>
       <c r="C224" s="3" t="s">
         <v>6</v>
       </c>
@@ -6479,11 +6488,11 @@
       <c r="G224" s="3">
         <v>50</v>
       </c>
-      <c r="K224" s="26"/>
+      <c r="K224" s="31"/>
     </row>
     <row r="225" spans="1:11">
-      <c r="A225" s="23"/>
-      <c r="B225" s="23"/>
+      <c r="A225" s="30"/>
+      <c r="B225" s="30"/>
       <c r="C225" s="3" t="s">
         <v>235</v>
       </c>
@@ -6499,11 +6508,11 @@
       <c r="G225" s="3">
         <v>20</v>
       </c>
-      <c r="K225" s="26"/>
+      <c r="K225" s="31"/>
     </row>
     <row r="226" spans="1:11">
-      <c r="A226" s="23"/>
-      <c r="B226" s="23"/>
+      <c r="A226" s="30"/>
+      <c r="B226" s="30"/>
       <c r="C226" s="3" t="s">
         <v>236</v>
       </c>
@@ -6519,11 +6528,11 @@
       <c r="G226" s="3">
         <v>20</v>
       </c>
-      <c r="K226" s="26"/>
+      <c r="K226" s="31"/>
     </row>
     <row r="227" spans="1:11">
-      <c r="A227" s="23"/>
-      <c r="B227" s="23"/>
+      <c r="A227" s="30"/>
+      <c r="B227" s="30"/>
       <c r="C227" s="3" t="s">
         <v>237</v>
       </c>
@@ -6539,11 +6548,11 @@
       <c r="G227" s="3">
         <v>20</v>
       </c>
-      <c r="K227" s="26"/>
+      <c r="K227" s="31"/>
     </row>
     <row r="228" spans="1:11">
-      <c r="A228" s="23"/>
-      <c r="B228" s="23"/>
+      <c r="A228" s="30"/>
+      <c r="B228" s="30"/>
       <c r="C228" s="3" t="s">
         <v>238</v>
       </c>
@@ -6559,11 +6568,11 @@
       <c r="G228" s="3">
         <v>20</v>
       </c>
-      <c r="K228" s="26"/>
+      <c r="K228" s="31"/>
     </row>
     <row r="229" spans="1:11">
-      <c r="A229" s="23"/>
-      <c r="B229" s="23"/>
+      <c r="A229" s="30"/>
+      <c r="B229" s="30"/>
       <c r="C229" s="3" t="s">
         <v>239</v>
       </c>
@@ -6579,11 +6588,11 @@
       <c r="G229" s="3">
         <v>100</v>
       </c>
-      <c r="K229" s="26"/>
+      <c r="K229" s="31"/>
     </row>
     <row r="230" spans="1:11">
-      <c r="A230" s="23"/>
-      <c r="B230" s="23"/>
+      <c r="A230" s="30"/>
+      <c r="B230" s="30"/>
       <c r="C230" s="3" t="s">
         <v>240</v>
       </c>
@@ -6599,11 +6608,11 @@
       <c r="G230" s="3">
         <v>100</v>
       </c>
-      <c r="K230" s="26"/>
+      <c r="K230" s="31"/>
     </row>
     <row r="231" spans="1:11">
-      <c r="A231" s="23"/>
-      <c r="B231" s="23"/>
+      <c r="A231" s="30"/>
+      <c r="B231" s="30"/>
       <c r="C231" s="3" t="s">
         <v>241</v>
       </c>
@@ -6619,11 +6628,11 @@
       <c r="G231" s="3">
         <v>100</v>
       </c>
-      <c r="K231" s="26"/>
+      <c r="K231" s="31"/>
     </row>
     <row r="232" spans="1:11">
-      <c r="A232" s="24"/>
-      <c r="B232" s="24"/>
+      <c r="A232" s="27"/>
+      <c r="B232" s="27"/>
       <c r="C232" s="3" t="s">
         <v>242</v>
       </c>
@@ -6639,13 +6648,13 @@
       <c r="G232" s="3">
         <v>100</v>
       </c>
-      <c r="K232" s="27"/>
+      <c r="K232" s="29"/>
     </row>
     <row r="233" spans="1:11">
-      <c r="A233" s="22">
+      <c r="A233" s="26">
         <v>71</v>
       </c>
-      <c r="B233" s="22" t="s">
+      <c r="B233" s="26" t="s">
         <v>249</v>
       </c>
       <c r="C233" s="3" t="s">
@@ -6663,13 +6672,13 @@
       <c r="G233" s="3">
         <v>20</v>
       </c>
-      <c r="K233" s="25">
+      <c r="K233" s="28">
         <v>45552</v>
       </c>
     </row>
     <row r="234" spans="1:11">
-      <c r="A234" s="23"/>
-      <c r="B234" s="23"/>
+      <c r="A234" s="30"/>
+      <c r="B234" s="30"/>
       <c r="C234" s="3" t="s">
         <v>8</v>
       </c>
@@ -6685,11 +6694,11 @@
       <c r="G234" s="3">
         <v>30</v>
       </c>
-      <c r="K234" s="26"/>
+      <c r="K234" s="31"/>
     </row>
     <row r="235" spans="1:11">
-      <c r="A235" s="23"/>
-      <c r="B235" s="23"/>
+      <c r="A235" s="30"/>
+      <c r="B235" s="30"/>
       <c r="C235" s="3" t="s">
         <v>246</v>
       </c>
@@ -6705,11 +6714,11 @@
       <c r="G235" s="3">
         <v>50</v>
       </c>
-      <c r="K235" s="26"/>
+      <c r="K235" s="31"/>
     </row>
     <row r="236" spans="1:11">
-      <c r="A236" s="23"/>
-      <c r="B236" s="23"/>
+      <c r="A236" s="30"/>
+      <c r="B236" s="30"/>
       <c r="C236" s="3" t="s">
         <v>247</v>
       </c>
@@ -6725,11 +6734,11 @@
       <c r="G236" s="3">
         <v>60</v>
       </c>
-      <c r="K236" s="26"/>
+      <c r="K236" s="31"/>
     </row>
     <row r="237" spans="1:11">
-      <c r="A237" s="24"/>
-      <c r="B237" s="24"/>
+      <c r="A237" s="27"/>
+      <c r="B237" s="27"/>
       <c r="C237" s="3" t="s">
         <v>248</v>
       </c>
@@ -6745,13 +6754,13 @@
       <c r="G237" s="3">
         <v>3</v>
       </c>
-      <c r="K237" s="27"/>
+      <c r="K237" s="29"/>
     </row>
     <row r="238" spans="1:11">
-      <c r="A238" s="22">
+      <c r="A238" s="26">
         <v>72</v>
       </c>
-      <c r="B238" s="22" t="s">
+      <c r="B238" s="26" t="s">
         <v>251</v>
       </c>
       <c r="C238" s="3" t="s">
@@ -6769,13 +6778,13 @@
       <c r="G238" s="3">
         <v>20</v>
       </c>
-      <c r="K238" s="25">
+      <c r="K238" s="28">
         <v>45552</v>
       </c>
     </row>
     <row r="239" spans="1:11">
-      <c r="A239" s="24"/>
-      <c r="B239" s="24"/>
+      <c r="A239" s="27"/>
+      <c r="B239" s="27"/>
       <c r="C239" s="3" t="s">
         <v>250</v>
       </c>
@@ -6791,13 +6800,13 @@
       <c r="G239" s="3">
         <v>50</v>
       </c>
-      <c r="K239" s="27"/>
+      <c r="K239" s="29"/>
     </row>
     <row r="240" spans="1:11">
-      <c r="A240" s="22">
+      <c r="A240" s="26">
         <v>73</v>
       </c>
-      <c r="B240" s="22" t="s">
+      <c r="B240" s="26" t="s">
         <v>252</v>
       </c>
       <c r="C240" s="3" t="s">
@@ -6815,13 +6824,13 @@
       <c r="G240" s="3">
         <v>20</v>
       </c>
-      <c r="K240" s="31">
+      <c r="K240" s="37">
         <v>45552</v>
       </c>
     </row>
     <row r="241" spans="1:11">
-      <c r="A241" s="24"/>
-      <c r="B241" s="24"/>
+      <c r="A241" s="27"/>
+      <c r="B241" s="27"/>
       <c r="C241" s="3" t="s">
         <v>8</v>
       </c>
@@ -6837,13 +6846,13 @@
       <c r="G241" s="3">
         <v>20</v>
       </c>
-      <c r="K241" s="32"/>
+      <c r="K241" s="38"/>
     </row>
     <row r="242" spans="1:11">
-      <c r="A242" s="22">
+      <c r="A242" s="26">
         <v>74</v>
       </c>
-      <c r="B242" s="22" t="s">
+      <c r="B242" s="26" t="s">
         <v>17</v>
       </c>
       <c r="C242" s="3" t="s">
@@ -6861,13 +6870,13 @@
       <c r="G242" s="3">
         <v>50</v>
       </c>
-      <c r="K242" s="25">
+      <c r="K242" s="28">
         <v>45552</v>
       </c>
     </row>
     <row r="243" spans="1:11">
-      <c r="A243" s="23"/>
-      <c r="B243" s="23"/>
+      <c r="A243" s="30"/>
+      <c r="B243" s="30"/>
       <c r="C243" s="3" t="s">
         <v>6</v>
       </c>
@@ -6883,11 +6892,11 @@
       <c r="G243" s="3">
         <v>20</v>
       </c>
-      <c r="K243" s="26"/>
+      <c r="K243" s="31"/>
     </row>
     <row r="244" spans="1:11">
-      <c r="A244" s="23"/>
-      <c r="B244" s="23"/>
+      <c r="A244" s="30"/>
+      <c r="B244" s="30"/>
       <c r="C244" s="3" t="s">
         <v>8</v>
       </c>
@@ -6903,11 +6912,11 @@
       <c r="G244" s="3">
         <v>20</v>
       </c>
-      <c r="K244" s="26"/>
+      <c r="K244" s="31"/>
     </row>
     <row r="245" spans="1:11">
-      <c r="A245" s="23"/>
-      <c r="B245" s="23"/>
+      <c r="A245" s="30"/>
+      <c r="B245" s="30"/>
       <c r="C245" s="3" t="s">
         <v>12</v>
       </c>
@@ -6923,11 +6932,11 @@
       <c r="G245" s="3">
         <v>80</v>
       </c>
-      <c r="K245" s="26"/>
+      <c r="K245" s="31"/>
     </row>
     <row r="246" spans="1:11">
-      <c r="A246" s="24"/>
-      <c r="B246" s="24"/>
+      <c r="A246" s="27"/>
+      <c r="B246" s="27"/>
       <c r="C246" s="3" t="s">
         <v>11</v>
       </c>
@@ -6943,13 +6952,13 @@
       <c r="G246" s="3">
         <v>11</v>
       </c>
-      <c r="K246" s="27"/>
+      <c r="K246" s="29"/>
     </row>
     <row r="247" spans="1:11">
-      <c r="A247" s="22">
+      <c r="A247" s="26">
         <v>75</v>
       </c>
-      <c r="B247" s="22" t="s">
+      <c r="B247" s="26" t="s">
         <v>18</v>
       </c>
       <c r="C247" s="3" t="s">
@@ -6967,13 +6976,13 @@
       <c r="G247" s="3">
         <v>50</v>
       </c>
-      <c r="K247" s="25">
+      <c r="K247" s="28">
         <v>45552</v>
       </c>
     </row>
     <row r="248" spans="1:11">
-      <c r="A248" s="23"/>
-      <c r="B248" s="23"/>
+      <c r="A248" s="30"/>
+      <c r="B248" s="30"/>
       <c r="C248" s="3" t="s">
         <v>6</v>
       </c>
@@ -6989,11 +6998,11 @@
       <c r="G248" s="3">
         <v>20</v>
       </c>
-      <c r="K248" s="26"/>
+      <c r="K248" s="31"/>
     </row>
     <row r="249" spans="1:11">
-      <c r="A249" s="23"/>
-      <c r="B249" s="23"/>
+      <c r="A249" s="30"/>
+      <c r="B249" s="30"/>
       <c r="C249" s="3" t="s">
         <v>8</v>
       </c>
@@ -7009,11 +7018,11 @@
       <c r="G249" s="3">
         <v>20</v>
       </c>
-      <c r="K249" s="26"/>
+      <c r="K249" s="31"/>
     </row>
     <row r="250" spans="1:11">
-      <c r="A250" s="23"/>
-      <c r="B250" s="23"/>
+      <c r="A250" s="30"/>
+      <c r="B250" s="30"/>
       <c r="C250" s="3" t="s">
         <v>12</v>
       </c>
@@ -7029,11 +7038,11 @@
       <c r="G250" s="3">
         <v>80</v>
       </c>
-      <c r="K250" s="26"/>
+      <c r="K250" s="31"/>
     </row>
     <row r="251" spans="1:11">
-      <c r="A251" s="24"/>
-      <c r="B251" s="24"/>
+      <c r="A251" s="27"/>
+      <c r="B251" s="27"/>
       <c r="C251" s="3" t="s">
         <v>11</v>
       </c>
@@ -7049,13 +7058,13 @@
       <c r="G251" s="3">
         <v>11</v>
       </c>
-      <c r="K251" s="27"/>
+      <c r="K251" s="29"/>
     </row>
     <row r="252" spans="1:11">
-      <c r="A252" s="22">
+      <c r="A252" s="26">
         <v>76</v>
       </c>
-      <c r="B252" s="22" t="s">
+      <c r="B252" s="26" t="s">
         <v>22</v>
       </c>
       <c r="C252" s="3" t="s">
@@ -7076,13 +7085,13 @@
       <c r="J252" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="K252" s="25">
+      <c r="K252" s="28">
         <v>45552</v>
       </c>
     </row>
     <row r="253" spans="1:11">
-      <c r="A253" s="23"/>
-      <c r="B253" s="23"/>
+      <c r="A253" s="30"/>
+      <c r="B253" s="30"/>
       <c r="C253" s="3" t="s">
         <v>6</v>
       </c>
@@ -7098,11 +7107,11 @@
       <c r="G253" s="3">
         <v>20</v>
       </c>
-      <c r="K253" s="26"/>
+      <c r="K253" s="31"/>
     </row>
     <row r="254" spans="1:11">
-      <c r="A254" s="23"/>
-      <c r="B254" s="23"/>
+      <c r="A254" s="30"/>
+      <c r="B254" s="30"/>
       <c r="C254" s="3" t="s">
         <v>8</v>
       </c>
@@ -7118,11 +7127,11 @@
       <c r="G254" s="3">
         <v>20</v>
       </c>
-      <c r="K254" s="26"/>
+      <c r="K254" s="31"/>
     </row>
     <row r="255" spans="1:11">
-      <c r="A255" s="23"/>
-      <c r="B255" s="23"/>
+      <c r="A255" s="30"/>
+      <c r="B255" s="30"/>
       <c r="C255" s="3" t="s">
         <v>20</v>
       </c>
@@ -7136,11 +7145,11 @@
         <v>117</v>
       </c>
       <c r="G255"/>
-      <c r="K255" s="26"/>
+      <c r="K255" s="31"/>
     </row>
     <row r="256" spans="1:11">
-      <c r="A256" s="24"/>
-      <c r="B256" s="24"/>
+      <c r="A256" s="27"/>
+      <c r="B256" s="27"/>
       <c r="C256" s="3" t="s">
         <v>11</v>
       </c>
@@ -7156,13 +7165,13 @@
       <c r="G256" s="3">
         <v>11</v>
       </c>
-      <c r="K256" s="27"/>
+      <c r="K256" s="29"/>
     </row>
     <row r="257" spans="1:11">
-      <c r="A257" s="22">
+      <c r="A257" s="26">
         <v>77</v>
       </c>
-      <c r="B257" s="22" t="s">
+      <c r="B257" s="26" t="s">
         <v>254</v>
       </c>
       <c r="C257" s="3" t="s">
@@ -7180,13 +7189,13 @@
       <c r="G257" s="3">
         <v>20</v>
       </c>
-      <c r="K257" s="25">
+      <c r="K257" s="28">
         <v>45552</v>
       </c>
     </row>
     <row r="258" spans="1:11">
-      <c r="A258" s="24"/>
-      <c r="B258" s="24"/>
+      <c r="A258" s="27"/>
+      <c r="B258" s="27"/>
       <c r="C258" s="3" t="s">
         <v>99</v>
       </c>
@@ -7202,13 +7211,13 @@
       <c r="G258" s="3">
         <v>20</v>
       </c>
-      <c r="K258" s="27"/>
+      <c r="K258" s="29"/>
     </row>
     <row r="259" spans="1:11">
-      <c r="A259" s="22">
+      <c r="A259" s="26">
         <v>78</v>
       </c>
-      <c r="B259" s="22" t="s">
+      <c r="B259" s="26" t="s">
         <v>256</v>
       </c>
       <c r="C259" s="3" t="s">
@@ -7226,13 +7235,13 @@
       <c r="G259" s="3">
         <v>60</v>
       </c>
-      <c r="K259" s="25">
+      <c r="K259" s="28">
         <v>45552</v>
       </c>
     </row>
     <row r="260" spans="1:11">
-      <c r="A260" s="23"/>
-      <c r="B260" s="23"/>
+      <c r="A260" s="30"/>
+      <c r="B260" s="30"/>
       <c r="C260" s="3" t="s">
         <v>6</v>
       </c>
@@ -7248,11 +7257,11 @@
       <c r="G260" s="3">
         <v>20</v>
       </c>
-      <c r="K260" s="26"/>
+      <c r="K260" s="31"/>
     </row>
     <row r="261" spans="1:11">
-      <c r="A261" s="24"/>
-      <c r="B261" s="24"/>
+      <c r="A261" s="27"/>
+      <c r="B261" s="27"/>
       <c r="C261" s="3" t="s">
         <v>8</v>
       </c>
@@ -7268,13 +7277,13 @@
       <c r="G261" s="3">
         <v>20</v>
       </c>
-      <c r="K261" s="27"/>
+      <c r="K261" s="29"/>
     </row>
     <row r="262" spans="1:11">
-      <c r="A262" s="22">
+      <c r="A262" s="26">
         <v>79</v>
       </c>
-      <c r="B262" s="22" t="s">
+      <c r="B262" s="26" t="s">
         <v>39</v>
       </c>
       <c r="C262" s="8" t="s">
@@ -7293,13 +7302,13 @@
         <v>20</v>
       </c>
       <c r="H262" s="11"/>
-      <c r="K262" s="25">
+      <c r="K262" s="28">
         <v>45553</v>
       </c>
     </row>
     <row r="263" spans="1:11">
-      <c r="A263" s="23"/>
-      <c r="B263" s="23"/>
+      <c r="A263" s="30"/>
+      <c r="B263" s="30"/>
       <c r="C263" s="12" t="s">
         <v>8</v>
       </c>
@@ -7316,11 +7325,11 @@
         <v>20</v>
       </c>
       <c r="H263" s="13"/>
-      <c r="K263" s="26"/>
+      <c r="K263" s="31"/>
     </row>
     <row r="264" spans="1:11">
-      <c r="A264" s="23"/>
-      <c r="B264" s="23"/>
+      <c r="A264" s="30"/>
+      <c r="B264" s="30"/>
       <c r="C264" s="12" t="s">
         <v>37</v>
       </c>
@@ -7337,11 +7346,11 @@
         <v>10</v>
       </c>
       <c r="H264" s="13"/>
-      <c r="K264" s="26"/>
+      <c r="K264" s="31"/>
     </row>
     <row r="265" spans="1:11">
-      <c r="A265" s="23"/>
-      <c r="B265" s="23"/>
+      <c r="A265" s="30"/>
+      <c r="B265" s="30"/>
       <c r="C265" s="12" t="s">
         <v>38</v>
       </c>
@@ -7358,11 +7367,11 @@
         <v>11</v>
       </c>
       <c r="H265" s="13"/>
-      <c r="K265" s="26"/>
+      <c r="K265" s="31"/>
     </row>
     <row r="266" spans="1:11">
-      <c r="A266" s="23"/>
-      <c r="B266" s="23"/>
+      <c r="A266" s="30"/>
+      <c r="B266" s="30"/>
       <c r="C266" s="12" t="s">
         <v>9</v>
       </c>
@@ -7379,11 +7388,11 @@
         <v>50</v>
       </c>
       <c r="H266" s="13"/>
-      <c r="K266" s="26"/>
+      <c r="K266" s="31"/>
     </row>
     <row r="267" spans="1:11">
-      <c r="A267" s="24"/>
-      <c r="B267" s="24"/>
+      <c r="A267" s="27"/>
+      <c r="B267" s="27"/>
       <c r="C267" s="12" t="s">
         <v>36</v>
       </c>
@@ -7398,13 +7407,13 @@
       </c>
       <c r="G267" s="13"/>
       <c r="H267" s="13"/>
-      <c r="K267" s="27"/>
+      <c r="K267" s="29"/>
     </row>
     <row r="268" spans="1:11">
-      <c r="A268" s="22">
+      <c r="A268" s="26">
         <v>80</v>
       </c>
-      <c r="B268" s="22" t="s">
+      <c r="B268" s="26" t="s">
         <v>260</v>
       </c>
       <c r="C268" s="3" t="s">
@@ -7423,13 +7432,13 @@
         <v>20</v>
       </c>
       <c r="H268" s="4"/>
-      <c r="K268" s="25">
+      <c r="K268" s="28">
         <v>45553</v>
       </c>
     </row>
     <row r="269" spans="1:11">
-      <c r="A269" s="23"/>
-      <c r="B269" s="23"/>
+      <c r="A269" s="30"/>
+      <c r="B269" s="30"/>
       <c r="C269" s="3" t="s">
         <v>8</v>
       </c>
@@ -7445,11 +7454,11 @@
       <c r="G269" s="3">
         <v>20</v>
       </c>
-      <c r="K269" s="26"/>
+      <c r="K269" s="31"/>
     </row>
     <row r="270" spans="1:11">
-      <c r="A270" s="23"/>
-      <c r="B270" s="23"/>
+      <c r="A270" s="30"/>
+      <c r="B270" s="30"/>
       <c r="C270" s="3" t="s">
         <v>257</v>
       </c>
@@ -7465,11 +7474,11 @@
       <c r="G270" s="3">
         <v>50</v>
       </c>
-      <c r="K270" s="26"/>
+      <c r="K270" s="31"/>
     </row>
     <row r="271" spans="1:11">
-      <c r="A271" s="23"/>
-      <c r="B271" s="23"/>
+      <c r="A271" s="30"/>
+      <c r="B271" s="30"/>
       <c r="C271" s="3" t="s">
         <v>258</v>
       </c>
@@ -7485,11 +7494,11 @@
       <c r="G271" s="3">
         <v>50</v>
       </c>
-      <c r="K271" s="26"/>
+      <c r="K271" s="31"/>
     </row>
     <row r="272" spans="1:11">
-      <c r="A272" s="24"/>
-      <c r="B272" s="24"/>
+      <c r="A272" s="27"/>
+      <c r="B272" s="27"/>
       <c r="C272" s="3" t="s">
         <v>259</v>
       </c>
@@ -7505,13 +7514,13 @@
       <c r="G272" s="3">
         <v>2</v>
       </c>
-      <c r="K272" s="27"/>
+      <c r="K272" s="29"/>
     </row>
     <row r="273" spans="1:11">
-      <c r="A273" s="22">
+      <c r="A273" s="26">
         <v>81</v>
       </c>
-      <c r="B273" s="22" t="s">
+      <c r="B273" s="26" t="s">
         <v>264</v>
       </c>
       <c r="C273" s="3" t="s">
@@ -7530,13 +7539,13 @@
         <v>20</v>
       </c>
       <c r="H273" s="4"/>
-      <c r="K273" s="25">
+      <c r="K273" s="28">
         <v>45553</v>
       </c>
     </row>
     <row r="274" spans="1:11">
-      <c r="A274" s="23"/>
-      <c r="B274" s="23"/>
+      <c r="A274" s="30"/>
+      <c r="B274" s="30"/>
       <c r="C274" s="3" t="s">
         <v>8</v>
       </c>
@@ -7552,11 +7561,11 @@
       <c r="G274" s="3">
         <v>20</v>
       </c>
-      <c r="K274" s="26"/>
+      <c r="K274" s="31"/>
     </row>
     <row r="275" spans="1:11">
-      <c r="A275" s="23"/>
-      <c r="B275" s="23"/>
+      <c r="A275" s="30"/>
+      <c r="B275" s="30"/>
       <c r="C275" s="3" t="s">
         <v>261</v>
       </c>
@@ -7572,11 +7581,11 @@
       <c r="G275" s="3">
         <v>100</v>
       </c>
-      <c r="K275" s="26"/>
+      <c r="K275" s="31"/>
     </row>
     <row r="276" spans="1:11">
-      <c r="A276" s="23"/>
-      <c r="B276" s="23"/>
+      <c r="A276" s="30"/>
+      <c r="B276" s="30"/>
       <c r="C276" s="3" t="s">
         <v>262</v>
       </c>
@@ -7592,11 +7601,11 @@
       <c r="G276" s="3">
         <v>100</v>
       </c>
-      <c r="K276" s="27"/>
+      <c r="K276" s="29"/>
     </row>
     <row r="277" spans="1:11">
-      <c r="A277" s="24"/>
-      <c r="B277" s="24"/>
+      <c r="A277" s="27"/>
+      <c r="B277" s="27"/>
       <c r="C277" s="3" t="s">
         <v>263</v>
       </c>
@@ -7612,15 +7621,15 @@
       <c r="G277" s="3">
         <v>2</v>
       </c>
-      <c r="K277" s="25">
+      <c r="K277" s="28">
         <v>45553</v>
       </c>
     </row>
     <row r="278" spans="1:11">
-      <c r="A278" s="22">
+      <c r="A278" s="26">
         <v>82</v>
       </c>
-      <c r="B278" s="22" t="s">
+      <c r="B278" s="26" t="s">
         <v>268</v>
       </c>
       <c r="C278" s="3" t="s">
@@ -7638,11 +7647,11 @@
       <c r="G278" s="3">
         <v>20</v>
       </c>
-      <c r="K278" s="26"/>
+      <c r="K278" s="31"/>
     </row>
     <row r="279" spans="1:11">
-      <c r="A279" s="23"/>
-      <c r="B279" s="23"/>
+      <c r="A279" s="30"/>
+      <c r="B279" s="30"/>
       <c r="C279" s="3" t="s">
         <v>8</v>
       </c>
@@ -7658,11 +7667,11 @@
       <c r="G279" s="3">
         <v>20</v>
       </c>
-      <c r="K279" s="26"/>
+      <c r="K279" s="31"/>
     </row>
     <row r="280" spans="1:11">
-      <c r="A280" s="23"/>
-      <c r="B280" s="23"/>
+      <c r="A280" s="30"/>
+      <c r="B280" s="30"/>
       <c r="C280" s="3" t="s">
         <v>266</v>
       </c>
@@ -7678,11 +7687,11 @@
       <c r="G280" s="3">
         <v>50</v>
       </c>
-      <c r="K280" s="26"/>
+      <c r="K280" s="31"/>
     </row>
     <row r="281" spans="1:11">
-      <c r="A281" s="24"/>
-      <c r="B281" s="24"/>
+      <c r="A281" s="27"/>
+      <c r="B281" s="27"/>
       <c r="C281" s="3" t="s">
         <v>267</v>
       </c>
@@ -7698,13 +7707,13 @@
       <c r="G281" s="3">
         <v>50</v>
       </c>
-      <c r="K281" s="27"/>
+      <c r="K281" s="29"/>
     </row>
     <row r="282" spans="1:11">
-      <c r="A282" s="22">
+      <c r="A282" s="26">
         <v>83</v>
       </c>
-      <c r="B282" s="22" t="s">
+      <c r="B282" s="26" t="s">
         <v>276</v>
       </c>
       <c r="C282" s="3" t="s">
@@ -7723,13 +7732,13 @@
         <v>20</v>
       </c>
       <c r="H282" s="4"/>
-      <c r="K282" s="25">
+      <c r="K282" s="28">
         <v>45553</v>
       </c>
     </row>
     <row r="283" spans="1:11">
-      <c r="A283" s="23"/>
-      <c r="B283" s="23"/>
+      <c r="A283" s="30"/>
+      <c r="B283" s="30"/>
       <c r="C283" s="3" t="s">
         <v>8</v>
       </c>
@@ -7745,11 +7754,11 @@
       <c r="G283" s="3">
         <v>20</v>
       </c>
-      <c r="K283" s="26"/>
+      <c r="K283" s="31"/>
     </row>
     <row r="284" spans="1:11">
-      <c r="A284" s="23"/>
-      <c r="B284" s="23"/>
+      <c r="A284" s="30"/>
+      <c r="B284" s="30"/>
       <c r="C284" s="3" t="s">
         <v>269</v>
       </c>
@@ -7762,11 +7771,11 @@
       <c r="F284" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K284" s="26"/>
+      <c r="K284" s="31"/>
     </row>
     <row r="285" spans="1:11">
-      <c r="A285" s="23"/>
-      <c r="B285" s="23"/>
+      <c r="A285" s="30"/>
+      <c r="B285" s="30"/>
       <c r="C285" s="3" t="s">
         <v>270</v>
       </c>
@@ -7779,11 +7788,11 @@
       <c r="F285" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="K285" s="26"/>
+      <c r="K285" s="31"/>
     </row>
     <row r="286" spans="1:11">
-      <c r="A286" s="23"/>
-      <c r="B286" s="23"/>
+      <c r="A286" s="30"/>
+      <c r="B286" s="30"/>
       <c r="C286" s="3" t="s">
         <v>271</v>
       </c>
@@ -7799,11 +7808,11 @@
       <c r="G286" s="3">
         <v>3</v>
       </c>
-      <c r="K286" s="26"/>
+      <c r="K286" s="31"/>
     </row>
     <row r="287" spans="1:11">
-      <c r="A287" s="23"/>
-      <c r="B287" s="23"/>
+      <c r="A287" s="30"/>
+      <c r="B287" s="30"/>
       <c r="C287" s="3" t="s">
         <v>272</v>
       </c>
@@ -7819,11 +7828,11 @@
       <c r="G287" s="3">
         <v>3</v>
       </c>
-      <c r="K287" s="26"/>
+      <c r="K287" s="31"/>
     </row>
     <row r="288" spans="1:11">
-      <c r="A288" s="23"/>
-      <c r="B288" s="23"/>
+      <c r="A288" s="30"/>
+      <c r="B288" s="30"/>
       <c r="C288" s="3" t="s">
         <v>273</v>
       </c>
@@ -7836,11 +7845,11 @@
       <c r="F288" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K288" s="26"/>
+      <c r="K288" s="31"/>
     </row>
     <row r="289" spans="1:11">
-      <c r="A289" s="23"/>
-      <c r="B289" s="23"/>
+      <c r="A289" s="30"/>
+      <c r="B289" s="30"/>
       <c r="C289" s="3" t="s">
         <v>274</v>
       </c>
@@ -7853,11 +7862,11 @@
       <c r="F289" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="K289" s="26"/>
+      <c r="K289" s="31"/>
     </row>
     <row r="290" spans="1:11">
-      <c r="A290" s="24"/>
-      <c r="B290" s="24"/>
+      <c r="A290" s="27"/>
+      <c r="B290" s="27"/>
       <c r="C290" s="3" t="s">
         <v>275</v>
       </c>
@@ -7873,13 +7882,13 @@
       <c r="G290" s="3">
         <v>20</v>
       </c>
-      <c r="K290" s="27"/>
+      <c r="K290" s="29"/>
     </row>
     <row r="291" spans="1:11">
-      <c r="A291" s="22">
+      <c r="A291" s="26">
         <v>84</v>
       </c>
-      <c r="B291" s="22" t="s">
+      <c r="B291" s="26" t="s">
         <v>288</v>
       </c>
       <c r="C291" s="3" t="s">
@@ -7897,13 +7906,13 @@
       <c r="G291" s="3">
         <v>0</v>
       </c>
-      <c r="K291" s="25">
+      <c r="K291" s="28">
         <v>45553</v>
       </c>
     </row>
     <row r="292" spans="1:11">
-      <c r="A292" s="23"/>
-      <c r="B292" s="23"/>
+      <c r="A292" s="30"/>
+      <c r="B292" s="30"/>
       <c r="C292" s="3" t="s">
         <v>278</v>
       </c>
@@ -7919,11 +7928,11 @@
       <c r="G292" s="3">
         <v>8</v>
       </c>
-      <c r="K292" s="26"/>
+      <c r="K292" s="31"/>
     </row>
     <row r="293" spans="1:11">
-      <c r="A293" s="23"/>
-      <c r="B293" s="23"/>
+      <c r="A293" s="30"/>
+      <c r="B293" s="30"/>
       <c r="C293" s="3" t="s">
         <v>279</v>
       </c>
@@ -7939,11 +7948,11 @@
       <c r="G293" s="3">
         <v>50</v>
       </c>
-      <c r="K293" s="26"/>
+      <c r="K293" s="31"/>
     </row>
     <row r="294" spans="1:11">
-      <c r="A294" s="23"/>
-      <c r="B294" s="23"/>
+      <c r="A294" s="30"/>
+      <c r="B294" s="30"/>
       <c r="C294" s="3" t="s">
         <v>280</v>
       </c>
@@ -7959,11 +7968,11 @@
       <c r="G294" s="3">
         <v>50</v>
       </c>
-      <c r="K294" s="26"/>
+      <c r="K294" s="31"/>
     </row>
     <row r="295" spans="1:11">
-      <c r="A295" s="23"/>
-      <c r="B295" s="23"/>
+      <c r="A295" s="30"/>
+      <c r="B295" s="30"/>
       <c r="C295" s="3" t="s">
         <v>281</v>
       </c>
@@ -7979,11 +7988,11 @@
       <c r="G295" s="3">
         <v>10</v>
       </c>
-      <c r="K295" s="26"/>
+      <c r="K295" s="31"/>
     </row>
     <row r="296" spans="1:11">
-      <c r="A296" s="23"/>
-      <c r="B296" s="23"/>
+      <c r="A296" s="30"/>
+      <c r="B296" s="30"/>
       <c r="C296" s="3" t="s">
         <v>282</v>
       </c>
@@ -7999,11 +8008,11 @@
       <c r="G296" s="3">
         <v>150</v>
       </c>
-      <c r="K296" s="26"/>
+      <c r="K296" s="31"/>
     </row>
     <row r="297" spans="1:11">
-      <c r="A297" s="23"/>
-      <c r="B297" s="23"/>
+      <c r="A297" s="30"/>
+      <c r="B297" s="30"/>
       <c r="C297" s="3" t="s">
         <v>283</v>
       </c>
@@ -8019,11 +8028,11 @@
       <c r="G297" s="3">
         <v>100</v>
       </c>
-      <c r="K297" s="26"/>
+      <c r="K297" s="31"/>
     </row>
     <row r="298" spans="1:11">
-      <c r="A298" s="23"/>
-      <c r="B298" s="23"/>
+      <c r="A298" s="30"/>
+      <c r="B298" s="30"/>
       <c r="C298" s="3" t="s">
         <v>6</v>
       </c>
@@ -8039,11 +8048,11 @@
       <c r="G298" s="3">
         <v>20</v>
       </c>
-      <c r="K298" s="26"/>
+      <c r="K298" s="31"/>
     </row>
     <row r="299" spans="1:11">
-      <c r="A299" s="23"/>
-      <c r="B299" s="23"/>
+      <c r="A299" s="30"/>
+      <c r="B299" s="30"/>
       <c r="C299" s="3" t="s">
         <v>8</v>
       </c>
@@ -8059,11 +8068,11 @@
       <c r="G299" s="3">
         <v>20</v>
       </c>
-      <c r="K299" s="26"/>
+      <c r="K299" s="31"/>
     </row>
     <row r="300" spans="1:11">
-      <c r="A300" s="23"/>
-      <c r="B300" s="23"/>
+      <c r="A300" s="30"/>
+      <c r="B300" s="30"/>
       <c r="C300" s="3" t="s">
         <v>284</v>
       </c>
@@ -8082,11 +8091,11 @@
       <c r="J300" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="K300" s="26"/>
+      <c r="K300" s="31"/>
     </row>
     <row r="301" spans="1:11">
-      <c r="A301" s="23"/>
-      <c r="B301" s="23"/>
+      <c r="A301" s="30"/>
+      <c r="B301" s="30"/>
       <c r="C301" s="3" t="s">
         <v>285</v>
       </c>
@@ -8102,11 +8111,11 @@
       <c r="G301" s="3">
         <v>50</v>
       </c>
-      <c r="K301" s="26"/>
+      <c r="K301" s="31"/>
     </row>
     <row r="302" spans="1:11">
-      <c r="A302" s="24"/>
-      <c r="B302" s="24"/>
+      <c r="A302" s="27"/>
+      <c r="B302" s="27"/>
       <c r="C302" s="3" t="s">
         <v>286</v>
       </c>
@@ -8122,13 +8131,13 @@
       <c r="G302" s="3">
         <v>150</v>
       </c>
-      <c r="K302" s="27"/>
+      <c r="K302" s="29"/>
     </row>
     <row r="303" spans="1:11">
-      <c r="A303" s="22">
+      <c r="A303" s="26">
         <v>85</v>
       </c>
-      <c r="B303" s="22" t="s">
+      <c r="B303" s="26" t="s">
         <v>291</v>
       </c>
       <c r="C303" s="3" t="s">
@@ -8147,13 +8156,13 @@
         <v>20</v>
       </c>
       <c r="H303" s="4"/>
-      <c r="K303" s="25">
+      <c r="K303" s="28">
         <v>45553</v>
       </c>
     </row>
     <row r="304" spans="1:11">
-      <c r="A304" s="23"/>
-      <c r="B304" s="23"/>
+      <c r="A304" s="30"/>
+      <c r="B304" s="30"/>
       <c r="C304" s="3" t="s">
         <v>289</v>
       </c>
@@ -8169,11 +8178,11 @@
       <c r="G304" s="3">
         <v>20</v>
       </c>
-      <c r="K304" s="26"/>
+      <c r="K304" s="31"/>
     </row>
     <row r="305" spans="1:11">
-      <c r="A305" s="23"/>
-      <c r="B305" s="23"/>
+      <c r="A305" s="30"/>
+      <c r="B305" s="30"/>
       <c r="C305" s="3" t="s">
         <v>290</v>
       </c>
@@ -8184,11 +8193,11 @@
       <c r="F305" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K305" s="26"/>
+      <c r="K305" s="31"/>
     </row>
     <row r="306" spans="1:11">
-      <c r="A306" s="24"/>
-      <c r="B306" s="24"/>
+      <c r="A306" s="27"/>
+      <c r="B306" s="27"/>
       <c r="C306" s="3" t="s">
         <v>274</v>
       </c>
@@ -8201,13 +8210,13 @@
       <c r="F306" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="K306" s="27"/>
+      <c r="K306" s="29"/>
     </row>
     <row r="307" spans="1:11">
-      <c r="A307" s="22">
+      <c r="A307" s="26">
         <v>86</v>
       </c>
-      <c r="B307" s="28" t="s">
+      <c r="B307" s="32" t="s">
         <v>296</v>
       </c>
       <c r="C307" s="3" t="s">
@@ -8220,13 +8229,13 @@
       <c r="F307" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K307" s="25">
+      <c r="K307" s="28">
         <v>45553</v>
       </c>
     </row>
     <row r="308" spans="1:11" ht="45">
-      <c r="A308" s="23"/>
-      <c r="B308" s="29"/>
+      <c r="A308" s="30"/>
+      <c r="B308" s="33"/>
       <c r="C308" s="3" t="s">
         <v>292</v>
       </c>
@@ -8239,11 +8248,11 @@
       <c r="J308" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="K308" s="26"/>
+      <c r="K308" s="31"/>
     </row>
     <row r="309" spans="1:11">
-      <c r="A309" s="23"/>
-      <c r="B309" s="29"/>
+      <c r="A309" s="30"/>
+      <c r="B309" s="33"/>
       <c r="C309" s="3" t="s">
         <v>293</v>
       </c>
@@ -8259,11 +8268,11 @@
       <c r="G309" s="3">
         <v>9</v>
       </c>
-      <c r="K309" s="26"/>
+      <c r="K309" s="31"/>
     </row>
     <row r="310" spans="1:11">
-      <c r="A310" s="23"/>
-      <c r="B310" s="29"/>
+      <c r="A310" s="30"/>
+      <c r="B310" s="33"/>
       <c r="C310" s="3" t="s">
         <v>294</v>
       </c>
@@ -8279,11 +8288,11 @@
       <c r="G310" s="3">
         <v>9</v>
       </c>
-      <c r="K310" s="26"/>
+      <c r="K310" s="31"/>
     </row>
     <row r="311" spans="1:11">
-      <c r="A311" s="23"/>
-      <c r="B311" s="29"/>
+      <c r="A311" s="30"/>
+      <c r="B311" s="33"/>
       <c r="C311" s="3" t="s">
         <v>295</v>
       </c>
@@ -8299,11 +8308,11 @@
       <c r="G311" s="3">
         <v>5</v>
       </c>
-      <c r="K311" s="26"/>
+      <c r="K311" s="31"/>
     </row>
     <row r="312" spans="1:11">
-      <c r="A312" s="23"/>
-      <c r="B312" s="29"/>
+      <c r="A312" s="30"/>
+      <c r="B312" s="33"/>
       <c r="C312" s="3" t="s">
         <v>6</v>
       </c>
@@ -8319,11 +8328,11 @@
       <c r="G312" s="3">
         <v>20</v>
       </c>
-      <c r="K312" s="26"/>
+      <c r="K312" s="31"/>
     </row>
     <row r="313" spans="1:11">
-      <c r="A313" s="23"/>
-      <c r="B313" s="29"/>
+      <c r="A313" s="30"/>
+      <c r="B313" s="33"/>
       <c r="C313" s="3" t="s">
         <v>8</v>
       </c>
@@ -8339,11 +8348,11 @@
       <c r="G313" s="3">
         <v>20</v>
       </c>
-      <c r="K313" s="26"/>
+      <c r="K313" s="31"/>
     </row>
     <row r="314" spans="1:11" ht="30">
-      <c r="A314" s="24"/>
-      <c r="B314" s="30"/>
+      <c r="A314" s="27"/>
+      <c r="B314" s="34"/>
       <c r="C314" s="3" t="s">
         <v>185</v>
       </c>
@@ -8354,13 +8363,13 @@
       <c r="J314" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="K314" s="27"/>
+      <c r="K314" s="29"/>
     </row>
     <row r="315" spans="1:11">
-      <c r="A315" s="33">
+      <c r="A315" s="35">
         <v>87</v>
       </c>
-      <c r="B315" s="33" t="s">
+      <c r="B315" s="35" t="s">
         <v>35</v>
       </c>
       <c r="C315" s="3" t="s">
@@ -8378,13 +8387,13 @@
       <c r="G315" s="3">
         <v>20</v>
       </c>
-      <c r="K315" s="25">
+      <c r="K315" s="28">
         <v>45553</v>
       </c>
     </row>
     <row r="316" spans="1:11">
-      <c r="A316" s="33"/>
-      <c r="B316" s="33"/>
+      <c r="A316" s="35"/>
+      <c r="B316" s="35"/>
       <c r="C316" s="3" t="s">
         <v>8</v>
       </c>
@@ -8400,7 +8409,7 @@
       <c r="G316" s="5">
         <v>20</v>
       </c>
-      <c r="K316" s="27"/>
+      <c r="K316" s="29"/>
     </row>
     <row r="317" spans="1:11">
       <c r="A317" s="6">
@@ -8417,10 +8426,10 @@
       </c>
     </row>
     <row r="318" spans="1:11">
-      <c r="A318" s="22">
+      <c r="A318" s="26">
         <v>89</v>
       </c>
-      <c r="B318" s="28" t="s">
+      <c r="B318" s="32" t="s">
         <v>304</v>
       </c>
       <c r="C318" s="3" t="s">
@@ -8433,13 +8442,13 @@
       <c r="F318" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K318" s="25">
+      <c r="K318" s="28">
         <v>45554</v>
       </c>
     </row>
     <row r="319" spans="1:11" ht="45">
-      <c r="A319" s="23"/>
-      <c r="B319" s="29"/>
+      <c r="A319" s="30"/>
+      <c r="B319" s="33"/>
       <c r="C319" s="3" t="s">
         <v>292</v>
       </c>
@@ -8452,11 +8461,11 @@
       <c r="J319" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="K319" s="26"/>
+      <c r="K319" s="31"/>
     </row>
     <row r="320" spans="1:11" ht="30">
-      <c r="A320" s="23"/>
-      <c r="B320" s="29"/>
+      <c r="A320" s="30"/>
+      <c r="B320" s="33"/>
       <c r="C320" s="3" t="s">
         <v>301</v>
       </c>
@@ -8475,11 +8484,11 @@
       <c r="J320" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="K320" s="26"/>
+      <c r="K320" s="31"/>
     </row>
     <row r="321" spans="1:11">
-      <c r="A321" s="23"/>
-      <c r="B321" s="29"/>
+      <c r="A321" s="30"/>
+      <c r="B321" s="33"/>
       <c r="C321" s="3" t="s">
         <v>302</v>
       </c>
@@ -8495,11 +8504,11 @@
       <c r="G321" s="3">
         <v>6</v>
       </c>
-      <c r="K321" s="26"/>
+      <c r="K321" s="31"/>
     </row>
     <row r="322" spans="1:11">
-      <c r="A322" s="23"/>
-      <c r="B322" s="29"/>
+      <c r="A322" s="30"/>
+      <c r="B322" s="33"/>
       <c r="C322" s="3" t="s">
         <v>303</v>
       </c>
@@ -8515,11 +8524,11 @@
       <c r="G322" s="3">
         <v>6</v>
       </c>
-      <c r="K322" s="26"/>
+      <c r="K322" s="31"/>
     </row>
     <row r="323" spans="1:11">
-      <c r="A323" s="23"/>
-      <c r="B323" s="29"/>
+      <c r="A323" s="30"/>
+      <c r="B323" s="33"/>
       <c r="C323" s="3" t="s">
         <v>6</v>
       </c>
@@ -8535,11 +8544,11 @@
       <c r="G323" s="3">
         <v>20</v>
       </c>
-      <c r="K323" s="26"/>
+      <c r="K323" s="31"/>
     </row>
     <row r="324" spans="1:11">
-      <c r="A324" s="23"/>
-      <c r="B324" s="29"/>
+      <c r="A324" s="30"/>
+      <c r="B324" s="33"/>
       <c r="C324" s="3" t="s">
         <v>8</v>
       </c>
@@ -8558,11 +8567,11 @@
       <c r="J324" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="K324" s="26"/>
+      <c r="K324" s="31"/>
     </row>
     <row r="325" spans="1:11">
-      <c r="A325" s="24"/>
-      <c r="B325" s="30"/>
+      <c r="A325" s="27"/>
+      <c r="B325" s="34"/>
       <c r="C325" s="3" t="s">
         <v>185</v>
       </c>
@@ -8570,13 +8579,13 @@
         <v>67</v>
       </c>
       <c r="E325" s="3"/>
-      <c r="K325" s="27"/>
+      <c r="K325" s="29"/>
     </row>
     <row r="326" spans="1:11" ht="30" customHeight="1">
-      <c r="A326" s="22">
+      <c r="A326" s="26">
         <v>90</v>
       </c>
-      <c r="B326" s="28" t="s">
+      <c r="B326" s="32" t="s">
         <v>307</v>
       </c>
       <c r="C326" s="3" t="s">
@@ -8589,13 +8598,13 @@
       <c r="F326" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K326" s="25">
+      <c r="K326" s="28">
         <v>45554</v>
       </c>
     </row>
     <row r="327" spans="1:11" ht="30" customHeight="1">
-      <c r="A327" s="23"/>
-      <c r="B327" s="29"/>
+      <c r="A327" s="30"/>
+      <c r="B327" s="33"/>
       <c r="C327" s="3" t="s">
         <v>292</v>
       </c>
@@ -8605,14 +8614,14 @@
       <c r="E327" s="3">
         <v>10</v>
       </c>
-      <c r="J327" s="35" t="s">
+      <c r="J327" s="22" t="s">
         <v>298</v>
       </c>
-      <c r="K327" s="26"/>
+      <c r="K327" s="31"/>
     </row>
     <row r="328" spans="1:11" ht="30" customHeight="1">
-      <c r="A328" s="23"/>
-      <c r="B328" s="29"/>
+      <c r="A328" s="30"/>
+      <c r="B328" s="33"/>
       <c r="C328" s="3" t="s">
         <v>301</v>
       </c>
@@ -8631,11 +8640,11 @@
       <c r="J328" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="K328" s="26"/>
+      <c r="K328" s="31"/>
     </row>
     <row r="329" spans="1:11" ht="30" customHeight="1">
-      <c r="A329" s="23"/>
-      <c r="B329" s="29"/>
+      <c r="A329" s="30"/>
+      <c r="B329" s="33"/>
       <c r="C329" s="3" t="s">
         <v>308</v>
       </c>
@@ -8646,11 +8655,11 @@
       <c r="F329" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K329" s="26"/>
+      <c r="K329" s="31"/>
     </row>
     <row r="330" spans="1:11" ht="30" customHeight="1">
-      <c r="A330" s="23"/>
-      <c r="B330" s="29"/>
+      <c r="A330" s="30"/>
+      <c r="B330" s="33"/>
       <c r="C330" s="3" t="s">
         <v>309</v>
       </c>
@@ -8663,11 +8672,11 @@
       <c r="F330" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K330" s="26"/>
+      <c r="K330" s="31"/>
     </row>
     <row r="331" spans="1:11" ht="30" customHeight="1">
-      <c r="A331" s="23"/>
-      <c r="B331" s="29"/>
+      <c r="A331" s="30"/>
+      <c r="B331" s="33"/>
       <c r="C331" s="3" t="s">
         <v>310</v>
       </c>
@@ -8680,11 +8689,11 @@
       <c r="F331" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K331" s="26"/>
+      <c r="K331" s="31"/>
     </row>
     <row r="332" spans="1:11" ht="30" customHeight="1">
-      <c r="A332" s="23"/>
-      <c r="B332" s="29"/>
+      <c r="A332" s="30"/>
+      <c r="B332" s="33"/>
       <c r="C332" s="3" t="s">
         <v>311</v>
       </c>
@@ -8697,11 +8706,11 @@
       <c r="F332" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K332" s="26"/>
+      <c r="K332" s="31"/>
     </row>
     <row r="333" spans="1:11" ht="30" customHeight="1">
-      <c r="A333" s="23"/>
-      <c r="B333" s="29"/>
+      <c r="A333" s="30"/>
+      <c r="B333" s="33"/>
       <c r="C333" s="3" t="s">
         <v>312</v>
       </c>
@@ -8714,11 +8723,11 @@
       <c r="F333" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K333" s="26"/>
+      <c r="K333" s="31"/>
     </row>
     <row r="334" spans="1:11" ht="30" customHeight="1">
-      <c r="A334" s="23"/>
-      <c r="B334" s="29"/>
+      <c r="A334" s="30"/>
+      <c r="B334" s="33"/>
       <c r="C334" s="3" t="s">
         <v>313</v>
       </c>
@@ -8731,11 +8740,11 @@
       <c r="F334" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K334" s="26"/>
+      <c r="K334" s="31"/>
     </row>
     <row r="335" spans="1:11" ht="30" customHeight="1">
-      <c r="A335" s="23"/>
-      <c r="B335" s="29"/>
+      <c r="A335" s="30"/>
+      <c r="B335" s="33"/>
       <c r="C335" s="3" t="s">
         <v>314</v>
       </c>
@@ -8748,11 +8757,11 @@
       <c r="F335" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K335" s="26"/>
+      <c r="K335" s="31"/>
     </row>
     <row r="336" spans="1:11">
-      <c r="A336" s="23"/>
-      <c r="B336" s="29"/>
+      <c r="A336" s="30"/>
+      <c r="B336" s="33"/>
       <c r="C336" s="3" t="s">
         <v>315</v>
       </c>
@@ -8765,11 +8774,11 @@
       <c r="F336" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K336" s="26"/>
+      <c r="K336" s="31"/>
     </row>
     <row r="337" spans="1:11">
-      <c r="A337" s="23"/>
-      <c r="B337" s="29"/>
+      <c r="A337" s="30"/>
+      <c r="B337" s="33"/>
       <c r="C337" s="3" t="s">
         <v>316</v>
       </c>
@@ -8782,11 +8791,11 @@
       <c r="F337" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K337" s="26"/>
+      <c r="K337" s="31"/>
     </row>
     <row r="338" spans="1:11">
-      <c r="A338" s="23"/>
-      <c r="B338" s="29"/>
+      <c r="A338" s="30"/>
+      <c r="B338" s="33"/>
       <c r="C338" s="3" t="s">
         <v>317</v>
       </c>
@@ -8799,11 +8808,11 @@
       <c r="F338" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K338" s="26"/>
+      <c r="K338" s="31"/>
     </row>
     <row r="339" spans="1:11">
-      <c r="A339" s="23"/>
-      <c r="B339" s="29"/>
+      <c r="A339" s="30"/>
+      <c r="B339" s="33"/>
       <c r="C339" s="3" t="s">
         <v>318</v>
       </c>
@@ -8816,11 +8825,11 @@
       <c r="F339" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K339" s="26"/>
+      <c r="K339" s="31"/>
     </row>
     <row r="340" spans="1:11">
-      <c r="A340" s="23"/>
-      <c r="B340" s="29"/>
+      <c r="A340" s="30"/>
+      <c r="B340" s="33"/>
       <c r="C340" s="3" t="s">
         <v>6</v>
       </c>
@@ -8836,11 +8845,11 @@
       <c r="G340" s="3">
         <v>20</v>
       </c>
-      <c r="K340" s="26"/>
+      <c r="K340" s="31"/>
     </row>
     <row r="341" spans="1:11">
-      <c r="A341" s="23"/>
-      <c r="B341" s="29"/>
+      <c r="A341" s="30"/>
+      <c r="B341" s="33"/>
       <c r="C341" s="3" t="s">
         <v>8</v>
       </c>
@@ -8859,11 +8868,11 @@
       <c r="J341" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="K341" s="26"/>
+      <c r="K341" s="31"/>
     </row>
     <row r="342" spans="1:11">
-      <c r="A342" s="24"/>
-      <c r="B342" s="30"/>
+      <c r="A342" s="27"/>
+      <c r="B342" s="34"/>
       <c r="C342" s="3" t="s">
         <v>185</v>
       </c>
@@ -8871,13 +8880,13 @@
         <v>67</v>
       </c>
       <c r="E342" s="3"/>
-      <c r="K342" s="27"/>
+      <c r="K342" s="29"/>
     </row>
     <row r="343" spans="1:11">
       <c r="A343" s="6">
         <v>91</v>
       </c>
-      <c r="B343" s="36" t="s">
+      <c r="B343" s="23" t="s">
         <v>321</v>
       </c>
       <c r="C343" s="3" t="s">
@@ -8900,10 +8909,10 @@
       </c>
     </row>
     <row r="344" spans="1:11">
-      <c r="A344" s="22">
+      <c r="A344" s="26">
         <v>92</v>
       </c>
-      <c r="B344" s="22" t="s">
+      <c r="B344" s="26" t="s">
         <v>322</v>
       </c>
       <c r="C344" s="3" t="s">
@@ -8921,13 +8930,13 @@
       <c r="G344" s="3">
         <v>20</v>
       </c>
-      <c r="K344" s="25">
+      <c r="K344" s="28">
         <v>45554</v>
       </c>
     </row>
     <row r="345" spans="1:11">
-      <c r="A345" s="24"/>
-      <c r="B345" s="24"/>
+      <c r="A345" s="27"/>
+      <c r="B345" s="27"/>
       <c r="C345" s="3" t="s">
         <v>8</v>
       </c>
@@ -8943,13 +8952,13 @@
       <c r="G345" s="3">
         <v>20</v>
       </c>
-      <c r="K345" s="27"/>
+      <c r="K345" s="29"/>
     </row>
     <row r="346" spans="1:11">
-      <c r="A346" s="22">
+      <c r="A346" s="26">
         <v>93</v>
       </c>
-      <c r="B346" s="22" t="s">
+      <c r="B346" s="26" t="s">
         <v>323</v>
       </c>
       <c r="C346" s="3" t="s">
@@ -8967,13 +8976,13 @@
       <c r="G346" s="3">
         <v>20</v>
       </c>
-      <c r="K346" s="25">
+      <c r="K346" s="28">
         <v>45554</v>
       </c>
     </row>
     <row r="347" spans="1:11">
-      <c r="A347" s="24"/>
-      <c r="B347" s="24"/>
+      <c r="A347" s="27"/>
+      <c r="B347" s="27"/>
       <c r="C347" s="3" t="s">
         <v>324</v>
       </c>
@@ -8989,13 +8998,13 @@
       <c r="G347" s="3">
         <v>50</v>
       </c>
-      <c r="K347" s="27"/>
+      <c r="K347" s="29"/>
     </row>
     <row r="348" spans="1:11">
-      <c r="A348" s="22">
+      <c r="A348" s="26">
         <v>94</v>
       </c>
-      <c r="B348" s="22" t="s">
+      <c r="B348" s="26" t="s">
         <v>326</v>
       </c>
       <c r="C348" s="3" t="s">
@@ -9013,13 +9022,13 @@
       <c r="G348" s="3">
         <v>20</v>
       </c>
-      <c r="K348" s="25">
+      <c r="K348" s="28">
         <v>45554</v>
       </c>
     </row>
     <row r="349" spans="1:11">
-      <c r="A349" s="24"/>
-      <c r="B349" s="24"/>
+      <c r="A349" s="27"/>
+      <c r="B349" s="27"/>
       <c r="C349" s="3" t="s">
         <v>325</v>
       </c>
@@ -9035,13 +9044,13 @@
       <c r="G349" s="3">
         <v>50</v>
       </c>
-      <c r="K349" s="27"/>
+      <c r="K349" s="29"/>
     </row>
     <row r="350" spans="1:11">
-      <c r="A350" s="22">
+      <c r="A350" s="26">
         <v>95</v>
       </c>
-      <c r="B350" s="22" t="s">
+      <c r="B350" s="26" t="s">
         <v>328</v>
       </c>
       <c r="C350" s="3" t="s">
@@ -9059,13 +9068,13 @@
       <c r="G350" s="3">
         <v>20</v>
       </c>
-      <c r="K350" s="25">
+      <c r="K350" s="28">
         <v>45554</v>
       </c>
     </row>
     <row r="351" spans="1:11">
-      <c r="A351" s="24"/>
-      <c r="B351" s="24"/>
+      <c r="A351" s="27"/>
+      <c r="B351" s="27"/>
       <c r="C351" s="3" t="s">
         <v>327</v>
       </c>
@@ -9081,13 +9090,13 @@
       <c r="G351" s="3">
         <v>50</v>
       </c>
-      <c r="K351" s="27"/>
+      <c r="K351" s="29"/>
     </row>
     <row r="352" spans="1:11">
-      <c r="A352" s="22">
+      <c r="A352" s="26">
         <v>96</v>
       </c>
-      <c r="B352" s="22" t="s">
+      <c r="B352" s="26" t="s">
         <v>329</v>
       </c>
       <c r="C352" s="3" t="s">
@@ -9105,13 +9114,13 @@
       <c r="G352" s="3">
         <v>20</v>
       </c>
-      <c r="K352" s="25">
+      <c r="K352" s="28">
         <v>45554</v>
       </c>
     </row>
     <row r="353" spans="1:11">
-      <c r="A353" s="24"/>
-      <c r="B353" s="24"/>
+      <c r="A353" s="27"/>
+      <c r="B353" s="27"/>
       <c r="C353" s="3" t="s">
         <v>110</v>
       </c>
@@ -9127,13 +9136,13 @@
       <c r="G353" s="3">
         <v>100</v>
       </c>
-      <c r="K353" s="27"/>
+      <c r="K353" s="29"/>
     </row>
     <row r="354" spans="1:11">
-      <c r="A354" s="22">
+      <c r="A354" s="26">
         <v>97</v>
       </c>
-      <c r="B354" s="22" t="s">
+      <c r="B354" s="26" t="s">
         <v>332</v>
       </c>
       <c r="C354" s="3" t="s">
@@ -9151,13 +9160,13 @@
       <c r="G354" s="3">
         <v>50</v>
       </c>
-      <c r="K354" s="25">
+      <c r="K354" s="28">
         <v>45554</v>
       </c>
     </row>
     <row r="355" spans="1:11">
-      <c r="A355" s="23"/>
-      <c r="B355" s="23"/>
+      <c r="A355" s="30"/>
+      <c r="B355" s="30"/>
       <c r="C355" s="3" t="s">
         <v>331</v>
       </c>
@@ -9173,11 +9182,11 @@
       <c r="G355" s="3">
         <v>50</v>
       </c>
-      <c r="K355" s="26"/>
+      <c r="K355" s="31"/>
     </row>
     <row r="356" spans="1:11">
-      <c r="A356" s="23"/>
-      <c r="B356" s="23"/>
+      <c r="A356" s="30"/>
+      <c r="B356" s="30"/>
       <c r="C356" s="3" t="s">
         <v>8</v>
       </c>
@@ -9193,11 +9202,11 @@
       <c r="G356" s="3">
         <v>20</v>
       </c>
-      <c r="K356" s="26"/>
+      <c r="K356" s="31"/>
     </row>
     <row r="357" spans="1:11">
-      <c r="A357" s="24"/>
-      <c r="B357" s="24"/>
+      <c r="A357" s="27"/>
+      <c r="B357" s="27"/>
       <c r="C357" s="3" t="s">
         <v>6</v>
       </c>
@@ -9213,13 +9222,13 @@
       <c r="G357" s="3">
         <v>20</v>
       </c>
-      <c r="K357" s="27"/>
+      <c r="K357" s="29"/>
     </row>
     <row r="358" spans="1:11">
-      <c r="A358" s="22">
+      <c r="A358" s="26">
         <v>98</v>
       </c>
-      <c r="B358" s="22" t="s">
+      <c r="B358" s="26" t="s">
         <v>333</v>
       </c>
       <c r="C358" s="3" t="s">
@@ -9237,13 +9246,13 @@
       <c r="G358" s="3">
         <v>50</v>
       </c>
-      <c r="K358" s="25">
+      <c r="K358" s="28">
         <v>45554</v>
       </c>
     </row>
     <row r="359" spans="1:11">
-      <c r="A359" s="23"/>
-      <c r="B359" s="23"/>
+      <c r="A359" s="30"/>
+      <c r="B359" s="30"/>
       <c r="C359" s="3" t="s">
         <v>331</v>
       </c>
@@ -9259,11 +9268,11 @@
       <c r="G359" s="3">
         <v>50</v>
       </c>
-      <c r="K359" s="26"/>
+      <c r="K359" s="31"/>
     </row>
     <row r="360" spans="1:11">
-      <c r="A360" s="23"/>
-      <c r="B360" s="23"/>
+      <c r="A360" s="30"/>
+      <c r="B360" s="30"/>
       <c r="C360" s="3" t="s">
         <v>8</v>
       </c>
@@ -9279,11 +9288,11 @@
       <c r="G360" s="3">
         <v>20</v>
       </c>
-      <c r="K360" s="26"/>
+      <c r="K360" s="31"/>
     </row>
     <row r="361" spans="1:11">
-      <c r="A361" s="24"/>
-      <c r="B361" s="24"/>
+      <c r="A361" s="27"/>
+      <c r="B361" s="27"/>
       <c r="C361" s="3" t="s">
         <v>6</v>
       </c>
@@ -9299,13 +9308,13 @@
       <c r="G361" s="3">
         <v>20</v>
       </c>
-      <c r="K361" s="27"/>
+      <c r="K361" s="29"/>
     </row>
     <row r="362" spans="1:11">
-      <c r="A362" s="22">
+      <c r="A362" s="26">
         <v>99</v>
       </c>
-      <c r="B362" s="22" t="s">
+      <c r="B362" s="26" t="s">
         <v>338</v>
       </c>
       <c r="C362" s="3" t="s">
@@ -9323,35 +9332,35 @@
       <c r="G362" s="3">
         <v>20</v>
       </c>
-      <c r="K362" s="25">
+      <c r="K362" s="28">
         <v>45554</v>
       </c>
     </row>
     <row r="363" spans="1:11" ht="15.75">
-      <c r="A363" s="24"/>
-      <c r="B363" s="24"/>
+      <c r="A363" s="27"/>
+      <c r="B363" s="27"/>
       <c r="C363" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="D363" s="37" t="s">
+      <c r="D363" s="24" t="s">
         <v>335</v>
       </c>
       <c r="E363" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="F363" s="37" t="s">
+      <c r="F363" s="24" t="s">
         <v>335</v>
       </c>
       <c r="G363" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="K363" s="27"/>
+      <c r="K363" s="29"/>
     </row>
     <row r="364" spans="1:11">
-      <c r="A364" s="22">
+      <c r="A364" s="26">
         <v>100</v>
       </c>
-      <c r="B364" s="22" t="s">
+      <c r="B364" s="26" t="s">
         <v>344</v>
       </c>
       <c r="C364" s="3" t="s">
@@ -9369,13 +9378,13 @@
       <c r="G364" s="3">
         <v>2</v>
       </c>
-      <c r="K364" s="25">
+      <c r="K364" s="28">
         <v>45554</v>
       </c>
     </row>
     <row r="365" spans="1:11">
-      <c r="A365" s="23"/>
-      <c r="B365" s="23"/>
+      <c r="A365" s="30"/>
+      <c r="B365" s="30"/>
       <c r="C365" s="3" t="s">
         <v>340</v>
       </c>
@@ -9391,11 +9400,11 @@
       <c r="G365" s="3">
         <v>40</v>
       </c>
-      <c r="K365" s="26"/>
+      <c r="K365" s="31"/>
     </row>
     <row r="366" spans="1:11">
-      <c r="A366" s="23"/>
-      <c r="B366" s="23"/>
+      <c r="A366" s="30"/>
+      <c r="B366" s="30"/>
       <c r="C366" s="3" t="s">
         <v>341</v>
       </c>
@@ -9411,66 +9420,66 @@
       <c r="G366" s="3">
         <v>40</v>
       </c>
-      <c r="K366" s="26"/>
+      <c r="K366" s="31"/>
     </row>
     <row r="367" spans="1:11" ht="15.75">
-      <c r="A367" s="23"/>
-      <c r="B367" s="23"/>
+      <c r="A367" s="30"/>
+      <c r="B367" s="30"/>
       <c r="C367" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="D367" s="37" t="s">
+      <c r="D367" s="24" t="s">
         <v>335</v>
       </c>
       <c r="E367" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="F367" s="37" t="s">
+      <c r="F367" s="24" t="s">
         <v>335</v>
       </c>
       <c r="G367" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="K367" s="26"/>
+      <c r="K367" s="31"/>
     </row>
     <row r="368" spans="1:11" ht="15.75">
-      <c r="A368" s="23"/>
-      <c r="B368" s="23"/>
+      <c r="A368" s="30"/>
+      <c r="B368" s="30"/>
       <c r="C368" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="D368" s="37" t="s">
+      <c r="D368" s="24" t="s">
         <v>335</v>
       </c>
       <c r="E368" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="F368" s="37" t="s">
+      <c r="F368" s="24" t="s">
         <v>335</v>
       </c>
       <c r="G368" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="K368" s="26"/>
+      <c r="K368" s="31"/>
     </row>
     <row r="369" spans="1:11">
-      <c r="A369" s="23"/>
-      <c r="B369" s="23"/>
+      <c r="A369" s="30"/>
+      <c r="B369" s="30"/>
       <c r="C369" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="D369" s="38" t="s">
+      <c r="D369" s="25" t="s">
         <v>67</v>
       </c>
       <c r="E369" s="3"/>
-      <c r="F369" s="38" t="s">
+      <c r="F369" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="K369" s="26"/>
+      <c r="K369" s="31"/>
     </row>
     <row r="370" spans="1:11">
-      <c r="A370" s="24"/>
-      <c r="B370" s="24"/>
+      <c r="A370" s="27"/>
+      <c r="B370" s="27"/>
       <c r="C370" s="3" t="s">
         <v>144</v>
       </c>
@@ -9486,96 +9495,210 @@
       <c r="G370" s="3">
         <v>20</v>
       </c>
-      <c r="K370" s="27"/>
+      <c r="K370" s="29"/>
+    </row>
+    <row r="371" spans="1:11">
+      <c r="A371" s="6">
+        <v>101</v>
+      </c>
+      <c r="B371" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C371" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D371" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E371" s="3">
+        <v>80</v>
+      </c>
+      <c r="F371" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G371" s="3">
+        <v>50</v>
+      </c>
+      <c r="K371" s="21">
+        <v>45554</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11">
+      <c r="A372" s="6">
+        <v>102</v>
+      </c>
+      <c r="B372" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C372" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="D372" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E372" s="10">
+        <v>40</v>
+      </c>
+      <c r="F372" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G372" s="10">
+        <v>20</v>
+      </c>
+      <c r="K372" s="21">
+        <v>45554</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="258">
-    <mergeCell ref="B362:B363"/>
-    <mergeCell ref="A362:A363"/>
-    <mergeCell ref="K362:K363"/>
-    <mergeCell ref="B364:B370"/>
-    <mergeCell ref="A364:A370"/>
-    <mergeCell ref="K364:K370"/>
-    <mergeCell ref="A352:A353"/>
-    <mergeCell ref="B352:B353"/>
-    <mergeCell ref="K352:K353"/>
-    <mergeCell ref="B354:B357"/>
-    <mergeCell ref="A354:A357"/>
-    <mergeCell ref="K354:K357"/>
-    <mergeCell ref="B358:B361"/>
-    <mergeCell ref="A358:A361"/>
-    <mergeCell ref="K358:K361"/>
-    <mergeCell ref="B346:B347"/>
-    <mergeCell ref="A346:A347"/>
-    <mergeCell ref="B348:B349"/>
-    <mergeCell ref="A348:A349"/>
-    <mergeCell ref="K346:K347"/>
-    <mergeCell ref="K348:K349"/>
-    <mergeCell ref="B350:B351"/>
-    <mergeCell ref="A350:A351"/>
-    <mergeCell ref="K350:K351"/>
-    <mergeCell ref="B318:B325"/>
-    <mergeCell ref="A318:A325"/>
-    <mergeCell ref="B326:B342"/>
-    <mergeCell ref="A326:A342"/>
-    <mergeCell ref="K318:K325"/>
-    <mergeCell ref="K326:K342"/>
-    <mergeCell ref="B344:B345"/>
-    <mergeCell ref="A344:A345"/>
-    <mergeCell ref="K344:K345"/>
-    <mergeCell ref="A278:A281"/>
-    <mergeCell ref="B282:B290"/>
-    <mergeCell ref="A282:A290"/>
-    <mergeCell ref="B291:B302"/>
-    <mergeCell ref="A291:A302"/>
-    <mergeCell ref="B303:B306"/>
-    <mergeCell ref="A303:A306"/>
-    <mergeCell ref="K277:K281"/>
-    <mergeCell ref="K282:K290"/>
-    <mergeCell ref="K291:K302"/>
-    <mergeCell ref="K303:K306"/>
-    <mergeCell ref="B278:B281"/>
-    <mergeCell ref="A259:A261"/>
-    <mergeCell ref="B262:B267"/>
-    <mergeCell ref="A262:A267"/>
-    <mergeCell ref="B268:B272"/>
-    <mergeCell ref="A268:A272"/>
-    <mergeCell ref="B273:B277"/>
-    <mergeCell ref="A273:A277"/>
-    <mergeCell ref="A240:A241"/>
-    <mergeCell ref="A242:A246"/>
-    <mergeCell ref="A247:A251"/>
-    <mergeCell ref="B257:B258"/>
-    <mergeCell ref="A257:A258"/>
-    <mergeCell ref="B252:B256"/>
-    <mergeCell ref="A252:A256"/>
-    <mergeCell ref="B259:B261"/>
-    <mergeCell ref="A221:A232"/>
-    <mergeCell ref="B242:B246"/>
-    <mergeCell ref="B247:B251"/>
-    <mergeCell ref="A186:A189"/>
-    <mergeCell ref="B219:B220"/>
-    <mergeCell ref="B221:B232"/>
-    <mergeCell ref="A233:A237"/>
-    <mergeCell ref="A238:A239"/>
-    <mergeCell ref="B233:B237"/>
-    <mergeCell ref="B238:B239"/>
-    <mergeCell ref="B240:B241"/>
-    <mergeCell ref="B190:B193"/>
-    <mergeCell ref="B194:B196"/>
-    <mergeCell ref="B197:B210"/>
-    <mergeCell ref="B211:B218"/>
-    <mergeCell ref="A137:A140"/>
-    <mergeCell ref="A141:A143"/>
-    <mergeCell ref="A144:A157"/>
-    <mergeCell ref="A158:A160"/>
-    <mergeCell ref="A161:A163"/>
-    <mergeCell ref="B186:B189"/>
-    <mergeCell ref="A190:A193"/>
-    <mergeCell ref="B170:B172"/>
-    <mergeCell ref="A164:A166"/>
-    <mergeCell ref="A167:A169"/>
-    <mergeCell ref="A170:A172"/>
+    <mergeCell ref="A307:A314"/>
+    <mergeCell ref="K161:K163"/>
+    <mergeCell ref="K164:K166"/>
+    <mergeCell ref="K167:K169"/>
+    <mergeCell ref="K170:K172"/>
+    <mergeCell ref="K173:K175"/>
+    <mergeCell ref="K176:K178"/>
+    <mergeCell ref="K179:K181"/>
+    <mergeCell ref="K182:K185"/>
+    <mergeCell ref="B307:B314"/>
+    <mergeCell ref="K307:K314"/>
+    <mergeCell ref="K186:K189"/>
+    <mergeCell ref="K190:K193"/>
+    <mergeCell ref="K194:K196"/>
+    <mergeCell ref="K197:K210"/>
+    <mergeCell ref="K211:K218"/>
+    <mergeCell ref="K219:K220"/>
+    <mergeCell ref="K221:K232"/>
+    <mergeCell ref="A173:A175"/>
+    <mergeCell ref="A176:A178"/>
+    <mergeCell ref="A194:A196"/>
+    <mergeCell ref="A197:A210"/>
+    <mergeCell ref="A211:A218"/>
+    <mergeCell ref="A219:A220"/>
+    <mergeCell ref="K119:K120"/>
+    <mergeCell ref="K121:K122"/>
+    <mergeCell ref="K268:K272"/>
+    <mergeCell ref="K273:K276"/>
+    <mergeCell ref="K233:K237"/>
+    <mergeCell ref="K238:K239"/>
+    <mergeCell ref="K240:K241"/>
+    <mergeCell ref="K242:K246"/>
+    <mergeCell ref="K247:K251"/>
+    <mergeCell ref="K124:K125"/>
+    <mergeCell ref="K126:K127"/>
+    <mergeCell ref="K128:K130"/>
+    <mergeCell ref="K131:K134"/>
+    <mergeCell ref="K135:K136"/>
+    <mergeCell ref="K137:K140"/>
+    <mergeCell ref="K141:K143"/>
+    <mergeCell ref="K144:K157"/>
+    <mergeCell ref="K158:K160"/>
+    <mergeCell ref="K252:K256"/>
+    <mergeCell ref="K257:K258"/>
+    <mergeCell ref="K259:K261"/>
+    <mergeCell ref="K262:K267"/>
+    <mergeCell ref="K58:K61"/>
+    <mergeCell ref="K62:K65"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="K68:K70"/>
+    <mergeCell ref="K74:K78"/>
+    <mergeCell ref="K81:K84"/>
+    <mergeCell ref="K85:K87"/>
+    <mergeCell ref="K88:K90"/>
+    <mergeCell ref="K91:K93"/>
+    <mergeCell ref="K2:K6"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="K10:K13"/>
+    <mergeCell ref="K315:K316"/>
+    <mergeCell ref="K14:K17"/>
+    <mergeCell ref="K18:K22"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="K25:K28"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K31:K33"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="K43:K46"/>
+    <mergeCell ref="K48:K50"/>
+    <mergeCell ref="K51:K55"/>
+    <mergeCell ref="K56:K57"/>
+    <mergeCell ref="K94:K96"/>
+    <mergeCell ref="K98:K100"/>
+    <mergeCell ref="K101:K103"/>
+    <mergeCell ref="K104:K107"/>
+    <mergeCell ref="K108:K111"/>
+    <mergeCell ref="K112:K113"/>
+    <mergeCell ref="K114:K117"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="A315:A316"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="A98:A100"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B315:B316"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B94:B96"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B131:B134"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B74:B78"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="A128:A130"/>
+    <mergeCell ref="A131:A134"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="B128:B130"/>
     <mergeCell ref="A101:A103"/>
     <mergeCell ref="A104:A107"/>
     <mergeCell ref="A108:A111"/>
@@ -9600,154 +9723,92 @@
     <mergeCell ref="B161:B163"/>
     <mergeCell ref="B164:B166"/>
     <mergeCell ref="B167:B169"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="A128:A130"/>
-    <mergeCell ref="A131:A134"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="B315:B316"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="B94:B96"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B131:B134"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="B74:B78"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A88:A90"/>
-    <mergeCell ref="A91:A93"/>
-    <mergeCell ref="A315:A316"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="A94:A96"/>
-    <mergeCell ref="A98:A100"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="K2:K6"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="K10:K13"/>
-    <mergeCell ref="K315:K316"/>
-    <mergeCell ref="K14:K17"/>
-    <mergeCell ref="K18:K22"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="K25:K28"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="K31:K33"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="K43:K46"/>
-    <mergeCell ref="K48:K50"/>
-    <mergeCell ref="K51:K55"/>
-    <mergeCell ref="K56:K57"/>
-    <mergeCell ref="K94:K96"/>
-    <mergeCell ref="K98:K100"/>
-    <mergeCell ref="K101:K103"/>
-    <mergeCell ref="K104:K107"/>
-    <mergeCell ref="K108:K111"/>
-    <mergeCell ref="K112:K113"/>
-    <mergeCell ref="K114:K117"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="K58:K61"/>
-    <mergeCell ref="K62:K65"/>
-    <mergeCell ref="K66:K67"/>
-    <mergeCell ref="K68:K70"/>
-    <mergeCell ref="K74:K78"/>
-    <mergeCell ref="K81:K84"/>
-    <mergeCell ref="K85:K87"/>
-    <mergeCell ref="K88:K90"/>
-    <mergeCell ref="K91:K93"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="K119:K120"/>
-    <mergeCell ref="K121:K122"/>
-    <mergeCell ref="K268:K272"/>
-    <mergeCell ref="K273:K276"/>
-    <mergeCell ref="K233:K237"/>
-    <mergeCell ref="K238:K239"/>
-    <mergeCell ref="K240:K241"/>
-    <mergeCell ref="K242:K246"/>
-    <mergeCell ref="K247:K251"/>
-    <mergeCell ref="K124:K125"/>
-    <mergeCell ref="K126:K127"/>
-    <mergeCell ref="K128:K130"/>
-    <mergeCell ref="K131:K134"/>
-    <mergeCell ref="K135:K136"/>
-    <mergeCell ref="K137:K140"/>
-    <mergeCell ref="K141:K143"/>
-    <mergeCell ref="K144:K157"/>
-    <mergeCell ref="K158:K160"/>
-    <mergeCell ref="K252:K256"/>
-    <mergeCell ref="K257:K258"/>
-    <mergeCell ref="K259:K261"/>
-    <mergeCell ref="K262:K267"/>
-    <mergeCell ref="A307:A314"/>
-    <mergeCell ref="K161:K163"/>
-    <mergeCell ref="K164:K166"/>
-    <mergeCell ref="K167:K169"/>
-    <mergeCell ref="K170:K172"/>
-    <mergeCell ref="K173:K175"/>
-    <mergeCell ref="K176:K178"/>
-    <mergeCell ref="K179:K181"/>
-    <mergeCell ref="K182:K185"/>
-    <mergeCell ref="B307:B314"/>
-    <mergeCell ref="K307:K314"/>
-    <mergeCell ref="K186:K189"/>
-    <mergeCell ref="K190:K193"/>
-    <mergeCell ref="K194:K196"/>
-    <mergeCell ref="K197:K210"/>
-    <mergeCell ref="K211:K218"/>
-    <mergeCell ref="K219:K220"/>
-    <mergeCell ref="K221:K232"/>
-    <mergeCell ref="A173:A175"/>
-    <mergeCell ref="A176:A178"/>
-    <mergeCell ref="A194:A196"/>
-    <mergeCell ref="A197:A210"/>
-    <mergeCell ref="A211:A218"/>
-    <mergeCell ref="A219:A220"/>
+    <mergeCell ref="A137:A140"/>
+    <mergeCell ref="A141:A143"/>
+    <mergeCell ref="A144:A157"/>
+    <mergeCell ref="A158:A160"/>
+    <mergeCell ref="A161:A163"/>
+    <mergeCell ref="B186:B189"/>
+    <mergeCell ref="A190:A193"/>
+    <mergeCell ref="B170:B172"/>
+    <mergeCell ref="A164:A166"/>
+    <mergeCell ref="A167:A169"/>
+    <mergeCell ref="A170:A172"/>
+    <mergeCell ref="A221:A232"/>
+    <mergeCell ref="B242:B246"/>
+    <mergeCell ref="B247:B251"/>
+    <mergeCell ref="A186:A189"/>
+    <mergeCell ref="B219:B220"/>
+    <mergeCell ref="B221:B232"/>
+    <mergeCell ref="A233:A237"/>
+    <mergeCell ref="A238:A239"/>
+    <mergeCell ref="B233:B237"/>
+    <mergeCell ref="B238:B239"/>
+    <mergeCell ref="B240:B241"/>
+    <mergeCell ref="B190:B193"/>
+    <mergeCell ref="B194:B196"/>
+    <mergeCell ref="B197:B210"/>
+    <mergeCell ref="B211:B218"/>
+    <mergeCell ref="A259:A261"/>
+    <mergeCell ref="B262:B267"/>
+    <mergeCell ref="A262:A267"/>
+    <mergeCell ref="B268:B272"/>
+    <mergeCell ref="A268:A272"/>
+    <mergeCell ref="B273:B277"/>
+    <mergeCell ref="A273:A277"/>
+    <mergeCell ref="A240:A241"/>
+    <mergeCell ref="A242:A246"/>
+    <mergeCell ref="A247:A251"/>
+    <mergeCell ref="B257:B258"/>
+    <mergeCell ref="A257:A258"/>
+    <mergeCell ref="B252:B256"/>
+    <mergeCell ref="A252:A256"/>
+    <mergeCell ref="B259:B261"/>
+    <mergeCell ref="A278:A281"/>
+    <mergeCell ref="B282:B290"/>
+    <mergeCell ref="A282:A290"/>
+    <mergeCell ref="B291:B302"/>
+    <mergeCell ref="A291:A302"/>
+    <mergeCell ref="B303:B306"/>
+    <mergeCell ref="A303:A306"/>
+    <mergeCell ref="K277:K281"/>
+    <mergeCell ref="K282:K290"/>
+    <mergeCell ref="K291:K302"/>
+    <mergeCell ref="K303:K306"/>
+    <mergeCell ref="B278:B281"/>
+    <mergeCell ref="B318:B325"/>
+    <mergeCell ref="A318:A325"/>
+    <mergeCell ref="B326:B342"/>
+    <mergeCell ref="A326:A342"/>
+    <mergeCell ref="K318:K325"/>
+    <mergeCell ref="K326:K342"/>
+    <mergeCell ref="B344:B345"/>
+    <mergeCell ref="A344:A345"/>
+    <mergeCell ref="K344:K345"/>
+    <mergeCell ref="B346:B347"/>
+    <mergeCell ref="A346:A347"/>
+    <mergeCell ref="B348:B349"/>
+    <mergeCell ref="A348:A349"/>
+    <mergeCell ref="K346:K347"/>
+    <mergeCell ref="K348:K349"/>
+    <mergeCell ref="B350:B351"/>
+    <mergeCell ref="A350:A351"/>
+    <mergeCell ref="K350:K351"/>
+    <mergeCell ref="B362:B363"/>
+    <mergeCell ref="A362:A363"/>
+    <mergeCell ref="K362:K363"/>
+    <mergeCell ref="B364:B370"/>
+    <mergeCell ref="A364:A370"/>
+    <mergeCell ref="K364:K370"/>
+    <mergeCell ref="A352:A353"/>
+    <mergeCell ref="B352:B353"/>
+    <mergeCell ref="K352:K353"/>
+    <mergeCell ref="B354:B357"/>
+    <mergeCell ref="A354:A357"/>
+    <mergeCell ref="K354:K357"/>
+    <mergeCell ref="B358:B361"/>
+    <mergeCell ref="A358:A361"/>
+    <mergeCell ref="K358:K361"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:B318 B326 B344 B346 B348 B350 B352 B354 B358 B362 B364 B371:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>

--- a/DPI_Table_Audit/Audit-Process-Sheet.xlsx
+++ b/DPI_Table_Audit/Audit-Process-Sheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="412">
   <si>
     <t>Column Name</t>
   </si>
@@ -1067,6 +1067,201 @@
   </si>
   <si>
     <t>InstallmentNameHin</t>
+  </si>
+  <si>
+    <t>MstEmployeeRegistration</t>
+  </si>
+  <si>
+    <t>MstEmployeeOfficialInfo</t>
+  </si>
+  <si>
+    <t>MstOfficeRegistration</t>
+  </si>
+  <si>
+    <t>MstSankul</t>
+  </si>
+  <si>
+    <t>MstPanel</t>
+  </si>
+  <si>
+    <t>MstUser</t>
+  </si>
+  <si>
+    <t>MstUserType</t>
+  </si>
+  <si>
+    <t>UserTypeName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-Sep-24
+</t>
+  </si>
+  <si>
+    <t>Varchar</t>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+  </si>
+  <si>
+    <t>ApproverIPAddress</t>
+  </si>
+  <si>
+    <t>OTPno</t>
+  </si>
+  <si>
+    <t>VARCHAR(8)</t>
+  </si>
+  <si>
+    <t>DSCverifiedAfterApprovalIP</t>
+  </si>
+  <si>
+    <t>DSCverifiedBeforeApprovalIP</t>
+  </si>
+  <si>
+    <t>ReqVerStatus</t>
+  </si>
+  <si>
+    <t>BranchName</t>
+  </si>
+  <si>
+    <t>Varchar(100)</t>
+  </si>
+  <si>
+    <t>BranchAddress</t>
+  </si>
+  <si>
+    <t>Varchar(200)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MstIFCSCode
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04-Sep-24
+</t>
+  </si>
+  <si>
+    <t>SamgraID</t>
+  </si>
+  <si>
+    <t>Present Addrees Line -1</t>
+  </si>
+  <si>
+    <t>NVarchar</t>
+  </si>
+  <si>
+    <t>Present Addrees Line -2</t>
+  </si>
+  <si>
+    <t>IdentificationMark</t>
+  </si>
+  <si>
+    <t>Married</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>Bit</t>
+  </si>
+  <si>
+    <t>ProfilePic</t>
+  </si>
+  <si>
+    <t>EmpRank</t>
+  </si>
+  <si>
+    <t>Permanent Addrees Line -1</t>
+  </si>
+  <si>
+    <t>Permanent Addrees Line -2</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Decimal</t>
+  </si>
+  <si>
+    <t>18,2</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>EPFNumber</t>
+  </si>
+  <si>
+    <t>VARCHAR(25)</t>
+  </si>
+  <si>
+    <t>NPSNumber</t>
+  </si>
+  <si>
+    <t>VARCHAR(15)</t>
+  </si>
+  <si>
+    <t>UANNumber</t>
+  </si>
+  <si>
+    <t>GroupInsuranceNumber</t>
+  </si>
+  <si>
+    <t>VARCHAR(30)</t>
+  </si>
+  <si>
+    <t>GratuityNumber</t>
+  </si>
+  <si>
+    <t>EGLSNumber</t>
+  </si>
+  <si>
+    <t>EDLINumber</t>
+  </si>
+  <si>
+    <t>GPFNO</t>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+  </si>
+  <si>
+    <t>ESICNumber</t>
+  </si>
+  <si>
+    <t>IncrementMonthNo</t>
+  </si>
+  <si>
+    <t>OrderNo</t>
+  </si>
+  <si>
+    <t>SamviliamOrderNo</t>
+  </si>
+  <si>
+    <t>FirstAppOrderNo</t>
+  </si>
+  <si>
+    <t>FirstAppSamviliamOrderNo</t>
+  </si>
+  <si>
+    <t>OfficeCode</t>
+  </si>
+  <si>
+    <t>VARCHAR(11)</t>
+  </si>
+  <si>
+    <t>GramPanchayatCode</t>
+  </si>
+  <si>
+    <t>VARCHAR(5)</t>
+  </si>
+  <si>
+    <t>Standerd 22</t>
+  </si>
+  <si>
+    <t>Standerd 12</t>
+  </si>
+  <si>
+    <t>Standerd 17</t>
   </si>
 </sst>
 </file>
@@ -1076,7 +1271,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-C09]dd/mmm/yy;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1109,13 +1304,26 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -1206,7 +1414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1269,6 +1477,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1308,11 +1519,328 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="29">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1623,10 +2151,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z372"/>
+  <dimension ref="A1:Z497"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A363" workbookViewId="0">
-      <selection activeCell="C372" sqref="C372:G372"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="C343" sqref="C343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1635,8 +2163,7 @@
     <col min="2" max="2" width="37.5703125" style="3" customWidth="1"/>
     <col min="3" max="3" width="26.5703125" style="3" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="3" customWidth="1"/>
+    <col min="5" max="6" width="20.7109375" style="5" customWidth="1"/>
     <col min="7" max="7" width="20.85546875" style="3" customWidth="1"/>
     <col min="8" max="8" width="19" style="3" customWidth="1"/>
     <col min="9" max="9" width="19.42578125" style="3" customWidth="1"/>
@@ -1663,7 +2190,7 @@
       <c r="E1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="14" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1683,10 +2210,10 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="35">
+      <c r="A2" s="36">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="36" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1698,20 +2225,20 @@
       <c r="E2" s="5">
         <v>50</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="3">
         <v>20</v>
       </c>
       <c r="J2" s="4"/>
-      <c r="K2" s="28">
+      <c r="K2" s="29">
         <v>45541</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
@@ -1721,18 +2248,18 @@
       <c r="E3" s="5">
         <v>50</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="5">
         <v>20</v>
       </c>
       <c r="J3" s="4"/>
-      <c r="K3" s="31"/>
+      <c r="K3" s="32"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="3" t="s">
         <v>23</v>
       </c>
@@ -1742,15 +2269,15 @@
       <c r="E4" s="5">
         <v>50</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="5" t="s">
         <v>21</v>
       </c>
       <c r="J4" s="4"/>
-      <c r="K4" s="31"/>
+      <c r="K4" s="32"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="3" t="s">
         <v>24</v>
       </c>
@@ -1760,7 +2287,7 @@
       <c r="E5" s="5">
         <v>150</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="3">
@@ -1769,24 +2296,24 @@
       <c r="J5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="31"/>
+      <c r="K5" s="32"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="3" t="s">
         <v>25</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="29"/>
+      <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="35">
+      <c r="A7" s="36">
         <v>2</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="36" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1798,19 +2325,19 @@
       <c r="E7" s="5">
         <v>40</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G7" s="3">
         <v>20</v>
       </c>
-      <c r="K7" s="28">
+      <c r="K7" s="29">
         <v>45541</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="3" t="s">
         <v>28</v>
       </c>
@@ -1820,17 +2347,17 @@
       <c r="E8" s="5">
         <v>40</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G8" s="5">
         <v>20</v>
       </c>
-      <c r="K8" s="31"/>
+      <c r="K8" s="32"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="3" t="s">
         <v>29</v>
       </c>
@@ -1840,19 +2367,19 @@
       <c r="E9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="3">
         <v>3000</v>
       </c>
-      <c r="K9" s="29"/>
+      <c r="K9" s="30"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="35">
+      <c r="A10" s="36">
         <v>3</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="36" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -1864,19 +2391,19 @@
       <c r="E10" s="5">
         <v>50</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G10" s="3">
         <v>20</v>
       </c>
-      <c r="K10" s="28">
+      <c r="K10" s="29">
         <v>45541</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="35"/>
-      <c r="B11" s="35"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
@@ -1886,17 +2413,17 @@
       <c r="E11" s="5">
         <v>50</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G11" s="5">
         <v>20</v>
       </c>
-      <c r="K11" s="31"/>
+      <c r="K11" s="32"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="3" t="s">
         <v>32</v>
       </c>
@@ -1906,14 +2433,14 @@
       <c r="E12" s="5">
         <v>50</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="31"/>
+      <c r="K12" s="32"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="35"/>
-      <c r="B13" s="35"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="3" t="s">
         <v>33</v>
       </c>
@@ -1923,19 +2450,19 @@
       <c r="E13" s="5">
         <v>100</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="3">
         <v>50</v>
       </c>
-      <c r="K13" s="29"/>
+      <c r="K13" s="30"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="35">
+      <c r="A14" s="36">
         <v>4</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="36" t="s">
         <v>44</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -1947,19 +2474,19 @@
       <c r="E14" s="5">
         <v>50</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G14" s="3">
         <v>20</v>
       </c>
-      <c r="K14" s="28">
+      <c r="K14" s="29">
         <v>45553</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="3" t="s">
         <v>41</v>
       </c>
@@ -1969,17 +2496,17 @@
       <c r="E15" s="5">
         <v>50</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G15" s="3">
         <v>50</v>
       </c>
-      <c r="K15" s="31"/>
+      <c r="K15" s="32"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="3" t="s">
         <v>42</v>
       </c>
@@ -1989,17 +2516,17 @@
       <c r="E16" s="5">
         <v>90</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="3">
         <v>50</v>
       </c>
-      <c r="K16" s="31"/>
+      <c r="K16" s="32"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
       <c r="C17" s="3" t="s">
         <v>43</v>
       </c>
@@ -2009,19 +2536,19 @@
       <c r="E17" s="5">
         <v>10</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G17" s="3">
         <v>6</v>
       </c>
-      <c r="K17" s="29"/>
+      <c r="K17" s="30"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="35">
+      <c r="A18" s="36">
         <v>5</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="36" t="s">
         <v>48</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -2033,19 +2560,19 @@
       <c r="E18" s="5">
         <v>40</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G18" s="3">
         <v>20</v>
       </c>
-      <c r="K18" s="28">
+      <c r="K18" s="29">
         <v>45540</v>
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
       <c r="C19" s="3" t="s">
         <v>28</v>
       </c>
@@ -2055,17 +2582,17 @@
       <c r="E19" s="5">
         <v>40</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G19" s="5">
         <v>20</v>
       </c>
-      <c r="K19" s="31"/>
+      <c r="K19" s="32"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
       <c r="C20" s="3" t="s">
         <v>45</v>
       </c>
@@ -2075,17 +2602,17 @@
       <c r="E20" s="5">
         <v>40</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G20" s="3">
         <v>20</v>
       </c>
-      <c r="K20" s="31"/>
+      <c r="K20" s="32"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="3" t="s">
         <v>46</v>
       </c>
@@ -2095,17 +2622,17 @@
       <c r="E21" s="5">
         <v>30</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G21" s="3">
         <v>10</v>
       </c>
-      <c r="K21" s="31"/>
+      <c r="K21" s="32"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
       <c r="C22" s="3" t="s">
         <v>47</v>
       </c>
@@ -2115,19 +2642,19 @@
       <c r="E22" s="5">
         <v>40</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G22" s="3">
         <v>20</v>
       </c>
-      <c r="K22" s="29"/>
+      <c r="K22" s="30"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="35">
+      <c r="A23" s="36">
         <v>6</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="36" t="s">
         <v>51</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -2139,19 +2666,19 @@
       <c r="E23" s="5">
         <v>50</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G23" s="3">
         <v>20</v>
       </c>
-      <c r="K23" s="28">
+      <c r="K23" s="29">
         <v>45540</v>
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="3" t="s">
         <v>50</v>
       </c>
@@ -2161,19 +2688,19 @@
       <c r="E24" s="5">
         <v>20</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G24" s="5">
         <v>11</v>
       </c>
-      <c r="K24" s="29"/>
+      <c r="K24" s="30"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="35">
-        <v>7</v>
-      </c>
-      <c r="B25" s="35" t="s">
+      <c r="A25" s="36">
+        <v>7</v>
+      </c>
+      <c r="B25" s="36" t="s">
         <v>55</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -2185,19 +2712,19 @@
       <c r="E25" s="5">
         <v>50</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G25" s="3">
         <v>20</v>
       </c>
-      <c r="K25" s="28">
+      <c r="K25" s="29">
         <v>45539</v>
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
       <c r="C26" s="3" t="s">
         <v>52</v>
       </c>
@@ -2207,17 +2734,17 @@
       <c r="E26" s="5">
         <v>100</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G26" s="3">
         <v>50</v>
       </c>
-      <c r="K26" s="31"/>
+      <c r="K26" s="32"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
       <c r="C27" s="3" t="s">
         <v>53</v>
       </c>
@@ -2227,17 +2754,17 @@
       <c r="E27" s="5">
         <v>80</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="3">
         <v>40</v>
       </c>
-      <c r="K27" s="31"/>
+      <c r="K27" s="32"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
       <c r="C28" s="3" t="s">
         <v>54</v>
       </c>
@@ -2247,19 +2774,19 @@
       <c r="E28" s="5">
         <v>15</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G28" s="3">
         <v>10</v>
       </c>
-      <c r="K28" s="29"/>
+      <c r="K28" s="30"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="35">
+      <c r="A29" s="36">
         <v>8</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="36" t="s">
         <v>57</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -2271,19 +2798,19 @@
       <c r="E29" s="5">
         <v>50</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G29" s="3">
         <v>20</v>
       </c>
-      <c r="K29" s="28">
+      <c r="K29" s="29">
         <v>45540</v>
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
       <c r="C30" s="3" t="s">
         <v>56</v>
       </c>
@@ -2293,19 +2820,19 @@
       <c r="E30" s="5">
         <v>100</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G30" s="5">
         <v>25</v>
       </c>
-      <c r="K30" s="29"/>
+      <c r="K30" s="30"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="35">
+      <c r="A31" s="36">
         <v>9</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="36" t="s">
         <v>58</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -2317,19 +2844,19 @@
       <c r="E31" s="5">
         <v>40</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G31" s="3">
         <v>20</v>
       </c>
-      <c r="K31" s="28">
+      <c r="K31" s="29">
         <v>45540</v>
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="35"/>
-      <c r="B32" s="35"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="36"/>
       <c r="C32" s="3" t="s">
         <v>28</v>
       </c>
@@ -2339,17 +2866,17 @@
       <c r="E32" s="5">
         <v>40</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G32" s="5">
         <v>20</v>
       </c>
-      <c r="K32" s="31"/>
+      <c r="K32" s="32"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="35"/>
-      <c r="B33" s="35"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="36"/>
       <c r="C33" s="3" t="s">
         <v>29</v>
       </c>
@@ -2359,19 +2886,19 @@
       <c r="E33" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="3">
         <v>5000</v>
       </c>
-      <c r="K33" s="29"/>
+      <c r="K33" s="30"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="35">
-        <v>10</v>
-      </c>
-      <c r="B34" s="35" t="s">
+      <c r="A34" s="36">
+        <v>10</v>
+      </c>
+      <c r="B34" s="36" t="s">
         <v>60</v>
       </c>
       <c r="C34" s="3" t="s">
@@ -2383,19 +2910,19 @@
       <c r="E34" s="5">
         <v>50</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G34" s="3">
         <v>20</v>
       </c>
-      <c r="K34" s="28">
+      <c r="K34" s="29">
         <v>45540</v>
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="35"/>
-      <c r="B35" s="35"/>
+      <c r="A35" s="36"/>
+      <c r="B35" s="36"/>
       <c r="C35" s="3" t="s">
         <v>59</v>
       </c>
@@ -2405,13 +2932,13 @@
       <c r="E35" s="5">
         <v>100</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G35" s="5">
         <v>30</v>
       </c>
-      <c r="K35" s="29"/>
+      <c r="K35" s="30"/>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="6">
@@ -2429,7 +2956,7 @@
       <c r="E36" s="5">
         <v>50</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G36" s="3">
@@ -2455,7 +2982,7 @@
       <c r="E37" s="5">
         <v>50</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G37" s="3">
@@ -2466,10 +2993,10 @@
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="35">
+      <c r="A38" s="36">
         <v>13</v>
       </c>
-      <c r="B38" s="35" t="s">
+      <c r="B38" s="36" t="s">
         <v>64</v>
       </c>
       <c r="C38" s="3" t="s">
@@ -2481,19 +3008,19 @@
       <c r="E38" s="5">
         <v>40</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G38" s="3">
         <v>20</v>
       </c>
-      <c r="K38" s="28">
+      <c r="K38" s="29">
         <v>45540</v>
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="35"/>
-      <c r="B39" s="35"/>
+      <c r="A39" s="36"/>
+      <c r="B39" s="36"/>
       <c r="C39" s="3" t="s">
         <v>63</v>
       </c>
@@ -2503,19 +3030,19 @@
       <c r="E39" s="5">
         <v>40</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G39" s="5">
         <v>20</v>
       </c>
-      <c r="K39" s="29"/>
+      <c r="K39" s="30"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="35">
+      <c r="A40" s="36">
         <v>14</v>
       </c>
-      <c r="B40" s="35" t="s">
+      <c r="B40" s="36" t="s">
         <v>75</v>
       </c>
       <c r="C40" s="3" t="s">
@@ -2527,19 +3054,19 @@
       <c r="E40" s="5">
         <v>50</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F40" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G40" s="3">
         <v>20</v>
       </c>
-      <c r="K40" s="28">
+      <c r="K40" s="29">
         <v>45540</v>
       </c>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="35"/>
-      <c r="B41" s="35"/>
+      <c r="A41" s="36"/>
+      <c r="B41" s="36"/>
       <c r="C41" s="3" t="s">
         <v>74</v>
       </c>
@@ -2549,13 +3076,13 @@
       <c r="E41" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F41" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="3">
         <v>1000</v>
       </c>
-      <c r="K41" s="29"/>
+      <c r="K41" s="30"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="6">
@@ -2573,7 +3100,7 @@
       <c r="E42" s="5">
         <v>50</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F42" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G42" s="3">
@@ -2584,10 +3111,10 @@
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="35">
+      <c r="A43" s="36">
         <v>16</v>
       </c>
-      <c r="B43" s="35" t="s">
+      <c r="B43" s="36" t="s">
         <v>83</v>
       </c>
       <c r="C43" s="3" t="s">
@@ -2599,19 +3126,19 @@
       <c r="E43" s="5">
         <v>50</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F43" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G43" s="3">
         <v>20</v>
       </c>
-      <c r="K43" s="28">
+      <c r="K43" s="29">
         <v>45553</v>
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="35"/>
-      <c r="B44" s="35"/>
+      <c r="A44" s="36"/>
+      <c r="B44" s="36"/>
       <c r="C44" s="3" t="s">
         <v>80</v>
       </c>
@@ -2621,17 +3148,17 @@
       <c r="E44" s="5">
         <v>80</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F44" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G44" s="3">
         <v>50</v>
       </c>
-      <c r="K44" s="31"/>
+      <c r="K44" s="32"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="35"/>
-      <c r="B45" s="35"/>
+      <c r="A45" s="36"/>
+      <c r="B45" s="36"/>
       <c r="C45" s="3" t="s">
         <v>81</v>
       </c>
@@ -2641,17 +3168,17 @@
       <c r="E45" s="5">
         <v>100</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="F45" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="3">
         <v>50</v>
       </c>
-      <c r="K45" s="31"/>
+      <c r="K45" s="32"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="35"/>
-      <c r="B46" s="35"/>
+      <c r="A46" s="36"/>
+      <c r="B46" s="36"/>
       <c r="C46" s="3" t="s">
         <v>82</v>
       </c>
@@ -2661,13 +3188,13 @@
       <c r="E46" s="5">
         <v>10</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F46" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G46" s="3">
         <v>6</v>
       </c>
-      <c r="K46" s="29"/>
+      <c r="K46" s="30"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="6">
@@ -2685,7 +3212,7 @@
       <c r="E47" s="5">
         <v>50</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F47" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G47" s="3">
@@ -2696,10 +3223,10 @@
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="35">
+      <c r="A48" s="36">
         <v>18</v>
       </c>
-      <c r="B48" s="35" t="s">
+      <c r="B48" s="36" t="s">
         <v>68</v>
       </c>
       <c r="C48" s="3" t="s">
@@ -2711,19 +3238,19 @@
       <c r="E48" s="5">
         <v>50</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F48" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G48" s="3">
         <v>20</v>
       </c>
-      <c r="K48" s="28">
+      <c r="K48" s="29">
         <v>45544</v>
       </c>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="35"/>
-      <c r="B49" s="35"/>
+      <c r="A49" s="36"/>
+      <c r="B49" s="36"/>
       <c r="C49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2733,34 +3260,34 @@
       <c r="E49" s="5">
         <v>50</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F49" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G49" s="3">
         <v>20</v>
       </c>
-      <c r="K49" s="31"/>
+      <c r="K49" s="32"/>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="35"/>
-      <c r="B50" s="35"/>
+      <c r="A50" s="36"/>
+      <c r="B50" s="36"/>
       <c r="C50" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="F50" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G50" s="5"/>
-      <c r="K50" s="29"/>
+      <c r="K50" s="30"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="35">
+      <c r="A51" s="36">
         <v>19</v>
       </c>
-      <c r="B51" s="35" t="s">
+      <c r="B51" s="36" t="s">
         <v>84</v>
       </c>
       <c r="C51" s="3" t="s">
@@ -2772,34 +3299,34 @@
       <c r="E51" s="5">
         <v>50</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="F51" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G51" s="3">
         <v>20</v>
       </c>
-      <c r="K51" s="28">
+      <c r="K51" s="29">
         <v>45544</v>
       </c>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="35"/>
-      <c r="B52" s="35"/>
+      <c r="A52" s="36"/>
+      <c r="B52" s="36"/>
       <c r="C52" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="F52" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G52" s="5"/>
-      <c r="K52" s="31"/>
+      <c r="K52" s="32"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="35"/>
-      <c r="B53" s="35"/>
+      <c r="A53" s="36"/>
+      <c r="B53" s="36"/>
       <c r="C53" s="3" t="s">
         <v>70</v>
       </c>
@@ -2809,14 +3336,14 @@
       <c r="E53" s="5">
         <v>15</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="F53" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="K53" s="31"/>
+      <c r="K53" s="32"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="35"/>
-      <c r="B54" s="35"/>
+      <c r="A54" s="36"/>
+      <c r="B54" s="36"/>
       <c r="C54" s="3" t="s">
         <v>72</v>
       </c>
@@ -2826,17 +3353,17 @@
       <c r="E54" s="5">
         <v>60</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="F54" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G54" s="3">
         <v>50</v>
       </c>
-      <c r="K54" s="31"/>
+      <c r="K54" s="32"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="35"/>
-      <c r="B55" s="35"/>
+      <c r="A55" s="36"/>
+      <c r="B55" s="36"/>
       <c r="C55" s="3" t="s">
         <v>73</v>
       </c>
@@ -2846,19 +3373,19 @@
       <c r="E55" s="5">
         <v>80</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="F55" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="3">
         <v>50</v>
       </c>
-      <c r="K55" s="29"/>
+      <c r="K55" s="30"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="35">
-        <v>20</v>
-      </c>
-      <c r="B56" s="35" t="s">
+      <c r="A56" s="36">
+        <v>20</v>
+      </c>
+      <c r="B56" s="36" t="s">
         <v>78</v>
       </c>
       <c r="C56" s="3" t="s">
@@ -2870,19 +3397,19 @@
       <c r="E56" s="5">
         <v>30</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="F56" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G56" s="3">
         <v>10</v>
       </c>
-      <c r="K56" s="28">
+      <c r="K56" s="29">
         <v>45544</v>
       </c>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="35"/>
-      <c r="B57" s="35"/>
+      <c r="A57" s="36"/>
+      <c r="B57" s="36"/>
       <c r="C57" s="3" t="s">
         <v>77</v>
       </c>
@@ -2892,19 +3419,19 @@
       <c r="E57" s="5">
         <v>30</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="F57" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G57" s="5">
         <v>5</v>
       </c>
-      <c r="K57" s="29"/>
+      <c r="K57" s="30"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="35">
+      <c r="A58" s="36">
         <v>21</v>
       </c>
-      <c r="B58" s="35" t="s">
+      <c r="B58" s="36" t="s">
         <v>91</v>
       </c>
       <c r="C58" s="3" t="s">
@@ -2916,19 +3443,19 @@
       <c r="E58" s="5">
         <v>50</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="F58" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G58" s="3">
         <v>20</v>
       </c>
-      <c r="K58" s="28">
+      <c r="K58" s="29">
         <v>45544</v>
       </c>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="35"/>
-      <c r="B59" s="35"/>
+      <c r="A59" s="36"/>
+      <c r="B59" s="36"/>
       <c r="C59" s="3" t="s">
         <v>86</v>
       </c>
@@ -2938,17 +3465,17 @@
       <c r="E59" s="5">
         <v>60</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="F59" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G59" s="3">
         <v>30</v>
       </c>
-      <c r="K59" s="31"/>
+      <c r="K59" s="32"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="35"/>
-      <c r="B60" s="35"/>
+      <c r="A60" s="36"/>
+      <c r="B60" s="36"/>
       <c r="C60" s="3" t="s">
         <v>87</v>
       </c>
@@ -2958,17 +3485,17 @@
       <c r="E60" s="5">
         <v>90</v>
       </c>
-      <c r="F60" s="3" t="s">
+      <c r="F60" s="5" t="s">
         <v>88</v>
       </c>
       <c r="G60" s="3">
         <v>30</v>
       </c>
-      <c r="K60" s="31"/>
+      <c r="K60" s="32"/>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="35"/>
-      <c r="B61" s="35"/>
+      <c r="A61" s="36"/>
+      <c r="B61" s="36"/>
       <c r="C61" s="3" t="s">
         <v>89</v>
       </c>
@@ -2978,7 +3505,7 @@
       <c r="E61" s="5">
         <v>10</v>
       </c>
-      <c r="F61" s="3" t="s">
+      <c r="F61" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G61" s="3">
@@ -2987,13 +3514,13 @@
       <c r="J61" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="K61" s="29"/>
+      <c r="K61" s="30"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="35">
+      <c r="A62" s="36">
         <v>22</v>
       </c>
-      <c r="B62" s="35" t="s">
+      <c r="B62" s="36" t="s">
         <v>98</v>
       </c>
       <c r="C62" s="3" t="s">
@@ -3005,19 +3532,19 @@
       <c r="E62" s="5">
         <v>50</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="F62" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G62" s="3">
         <v>20</v>
       </c>
-      <c r="K62" s="28">
+      <c r="K62" s="29">
         <v>45544</v>
       </c>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="35"/>
-      <c r="B63" s="35"/>
+      <c r="A63" s="36"/>
+      <c r="B63" s="36"/>
       <c r="C63" s="3" t="s">
         <v>92</v>
       </c>
@@ -3027,7 +3554,7 @@
       <c r="E63" s="5">
         <v>50</v>
       </c>
-      <c r="F63" s="3" t="s">
+      <c r="F63" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G63" s="3">
@@ -3036,11 +3563,11 @@
       <c r="J63" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="K63" s="31"/>
+      <c r="K63" s="32"/>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="35"/>
-      <c r="B64" s="35"/>
+      <c r="A64" s="36"/>
+      <c r="B64" s="36"/>
       <c r="C64" s="3" t="s">
         <v>93</v>
       </c>
@@ -3050,7 +3577,7 @@
       <c r="E64" s="5">
         <v>60</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="F64" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G64" s="3">
@@ -3059,11 +3586,11 @@
       <c r="J64" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="K64" s="31"/>
+      <c r="K64" s="32"/>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="35"/>
-      <c r="B65" s="35"/>
+      <c r="A65" s="36"/>
+      <c r="B65" s="36"/>
       <c r="C65" s="3" t="s">
         <v>94</v>
       </c>
@@ -3073,7 +3600,7 @@
       <c r="E65" s="5">
         <v>10</v>
       </c>
-      <c r="F65" s="3" t="s">
+      <c r="F65" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G65" s="3">
@@ -3082,13 +3609,13 @@
       <c r="J65" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="K65" s="29"/>
+      <c r="K65" s="30"/>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="26">
+      <c r="A66" s="27">
         <v>23</v>
       </c>
-      <c r="B66" s="26" t="s">
+      <c r="B66" s="27" t="s">
         <v>100</v>
       </c>
       <c r="C66" s="3" t="s">
@@ -3100,19 +3627,19 @@
       <c r="E66" s="5">
         <v>50</v>
       </c>
-      <c r="F66" s="3" t="s">
+      <c r="F66" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G66" s="3">
         <v>20</v>
       </c>
-      <c r="K66" s="28">
+      <c r="K66" s="29">
         <v>45546</v>
       </c>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="27"/>
-      <c r="B67" s="27"/>
+      <c r="A67" s="28"/>
+      <c r="B67" s="28"/>
       <c r="C67" s="3" t="s">
         <v>99</v>
       </c>
@@ -3122,19 +3649,19 @@
       <c r="E67" s="5">
         <v>50</v>
       </c>
-      <c r="F67" s="3" t="s">
+      <c r="F67" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G67" s="3">
         <v>20</v>
       </c>
-      <c r="K67" s="29"/>
+      <c r="K67" s="30"/>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="35">
+      <c r="A68" s="36">
         <v>24</v>
       </c>
-      <c r="B68" s="35" t="s">
+      <c r="B68" s="36" t="s">
         <v>101</v>
       </c>
       <c r="C68" s="3" t="s">
@@ -3146,19 +3673,19 @@
       <c r="E68" s="5">
         <v>50</v>
       </c>
-      <c r="F68" s="3" t="s">
+      <c r="F68" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G68" s="3">
         <v>20</v>
       </c>
-      <c r="K68" s="28">
+      <c r="K68" s="29">
         <v>45544</v>
       </c>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="35"/>
-      <c r="B69" s="35"/>
+      <c r="A69" s="36"/>
+      <c r="B69" s="36"/>
       <c r="C69" s="3" t="s">
         <v>99</v>
       </c>
@@ -3168,17 +3695,17 @@
       <c r="E69" s="5">
         <v>50</v>
       </c>
-      <c r="F69" s="3" t="s">
+      <c r="F69" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G69" s="3">
         <v>20</v>
       </c>
-      <c r="K69" s="31"/>
+      <c r="K69" s="32"/>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="35"/>
-      <c r="B70" s="35"/>
+      <c r="A70" s="36"/>
+      <c r="B70" s="36"/>
       <c r="C70" s="3" t="s">
         <v>70</v>
       </c>
@@ -3188,10 +3715,10 @@
       <c r="E70" s="5">
         <v>15</v>
       </c>
-      <c r="F70" s="3" t="s">
+      <c r="F70" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="K70" s="29"/>
+      <c r="K70" s="30"/>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="6">
@@ -3209,7 +3736,7 @@
       <c r="E71" s="5">
         <v>50</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="F71" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G71" s="3">
@@ -3235,7 +3762,7 @@
       <c r="E72" s="5">
         <v>60</v>
       </c>
-      <c r="F72" s="3" t="s">
+      <c r="F72" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="3">
@@ -3261,7 +3788,7 @@
       <c r="E73" s="5">
         <v>60</v>
       </c>
-      <c r="F73" s="3" t="s">
+      <c r="F73" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="3">
@@ -3272,10 +3799,10 @@
       </c>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="35">
+      <c r="A74" s="36">
         <v>28</v>
       </c>
-      <c r="B74" s="35" t="s">
+      <c r="B74" s="36" t="s">
         <v>111</v>
       </c>
       <c r="C74" s="3" t="s">
@@ -3287,19 +3814,19 @@
       <c r="E74" s="5">
         <v>100</v>
       </c>
-      <c r="F74" s="3" t="s">
+      <c r="F74" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="3">
         <v>50</v>
       </c>
-      <c r="K74" s="28">
+      <c r="K74" s="29">
         <v>45545</v>
       </c>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="35"/>
-      <c r="B75" s="35"/>
+      <c r="A75" s="36"/>
+      <c r="B75" s="36"/>
       <c r="C75" s="3" t="s">
         <v>108</v>
       </c>
@@ -3309,17 +3836,17 @@
       <c r="E75" s="5">
         <v>100</v>
       </c>
-      <c r="F75" s="3" t="s">
+      <c r="F75" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G75" s="3">
         <v>50</v>
       </c>
-      <c r="K75" s="31"/>
+      <c r="K75" s="32"/>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="35"/>
-      <c r="B76" s="35"/>
+      <c r="A76" s="36"/>
+      <c r="B76" s="36"/>
       <c r="C76" s="3" t="s">
         <v>109</v>
       </c>
@@ -3329,17 +3856,17 @@
       <c r="E76" s="5">
         <v>10</v>
       </c>
-      <c r="F76" s="3" t="s">
+      <c r="F76" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G76" s="3">
         <v>3</v>
       </c>
-      <c r="K76" s="31"/>
+      <c r="K76" s="32"/>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="35"/>
-      <c r="B77" s="35"/>
+      <c r="A77" s="36"/>
+      <c r="B77" s="36"/>
       <c r="C77" s="3" t="s">
         <v>40</v>
       </c>
@@ -3349,17 +3876,17 @@
       <c r="E77" s="5">
         <v>50</v>
       </c>
-      <c r="F77" s="3" t="s">
+      <c r="F77" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G77" s="5">
         <v>20</v>
       </c>
-      <c r="K77" s="31"/>
+      <c r="K77" s="32"/>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="35"/>
-      <c r="B78" s="35"/>
+      <c r="A78" s="36"/>
+      <c r="B78" s="36"/>
       <c r="C78" s="3" t="s">
         <v>110</v>
       </c>
@@ -3369,13 +3896,13 @@
       <c r="E78" s="5">
         <v>200</v>
       </c>
-      <c r="F78" s="3" t="s">
+      <c r="F78" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G78" s="3">
         <v>50</v>
       </c>
-      <c r="K78" s="29"/>
+      <c r="K78" s="30"/>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="6">
@@ -3393,7 +3920,7 @@
       <c r="E79" s="5">
         <v>50</v>
       </c>
-      <c r="F79" s="3" t="s">
+      <c r="F79" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G79" s="3">
@@ -3419,7 +3946,7 @@
       <c r="E80" s="5">
         <v>50</v>
       </c>
-      <c r="F80" s="3" t="s">
+      <c r="F80" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G80" s="3">
@@ -3430,10 +3957,10 @@
       </c>
     </row>
     <row r="81" spans="1:11">
-      <c r="A81" s="35">
+      <c r="A81" s="36">
         <v>31</v>
       </c>
-      <c r="B81" s="35" t="s">
+      <c r="B81" s="36" t="s">
         <v>118</v>
       </c>
       <c r="C81" s="3" t="s">
@@ -3445,19 +3972,19 @@
       <c r="E81" s="5">
         <v>50</v>
       </c>
-      <c r="F81" s="3" t="s">
+      <c r="F81" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G81" s="3">
         <v>20</v>
       </c>
-      <c r="K81" s="28">
+      <c r="K81" s="29">
         <v>45545</v>
       </c>
     </row>
     <row r="82" spans="1:11">
-      <c r="A82" s="35"/>
-      <c r="B82" s="35"/>
+      <c r="A82" s="36"/>
+      <c r="B82" s="36"/>
       <c r="C82" s="3" t="s">
         <v>114</v>
       </c>
@@ -3467,17 +3994,17 @@
       <c r="E82" s="5">
         <v>80</v>
       </c>
-      <c r="F82" s="3" t="s">
+      <c r="F82" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G82" s="5">
         <v>30</v>
       </c>
-      <c r="K82" s="31"/>
+      <c r="K82" s="32"/>
     </row>
     <row r="83" spans="1:11">
-      <c r="A83" s="35"/>
-      <c r="B83" s="35"/>
+      <c r="A83" s="36"/>
+      <c r="B83" s="36"/>
       <c r="C83" s="3" t="s">
         <v>115</v>
       </c>
@@ -3487,33 +4014,33 @@
       <c r="E83" s="5">
         <v>100</v>
       </c>
-      <c r="F83" s="3" t="s">
+      <c r="F83" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="3">
         <v>30</v>
       </c>
-      <c r="K83" s="31"/>
+      <c r="K83" s="32"/>
     </row>
     <row r="84" spans="1:11">
-      <c r="A84" s="35"/>
-      <c r="B84" s="35"/>
+      <c r="A84" s="36"/>
+      <c r="B84" s="36"/>
       <c r="C84" s="3" t="s">
         <v>116</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F84" s="3" t="s">
+      <c r="F84" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="K84" s="29"/>
+      <c r="K84" s="30"/>
     </row>
     <row r="85" spans="1:11">
-      <c r="A85" s="26">
+      <c r="A85" s="27">
         <v>32</v>
       </c>
-      <c r="B85" s="35" t="s">
+      <c r="B85" s="36" t="s">
         <v>121</v>
       </c>
       <c r="C85" s="3" t="s">
@@ -3525,19 +4052,19 @@
       <c r="E85" s="5">
         <v>50</v>
       </c>
-      <c r="F85" s="3" t="s">
+      <c r="F85" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G85" s="3">
         <v>20</v>
       </c>
-      <c r="K85" s="28" t="s">
+      <c r="K85" s="29" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="86" spans="1:11">
-      <c r="A86" s="30"/>
-      <c r="B86" s="35"/>
+      <c r="A86" s="31"/>
+      <c r="B86" s="36"/>
       <c r="C86" s="3" t="s">
         <v>119</v>
       </c>
@@ -3547,17 +4074,17 @@
       <c r="E86" s="5">
         <v>50</v>
       </c>
-      <c r="F86" s="3" t="s">
+      <c r="F86" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G86" s="5">
         <v>10</v>
       </c>
-      <c r="K86" s="31"/>
+      <c r="K86" s="32"/>
     </row>
     <row r="87" spans="1:11">
-      <c r="A87" s="27"/>
-      <c r="B87" s="35"/>
+      <c r="A87" s="28"/>
+      <c r="B87" s="36"/>
       <c r="C87" s="3" t="s">
         <v>120</v>
       </c>
@@ -3567,19 +4094,19 @@
       <c r="E87" s="5">
         <v>80</v>
       </c>
-      <c r="F87" s="3" t="s">
+      <c r="F87" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="3">
         <v>15</v>
       </c>
-      <c r="K87" s="29"/>
+      <c r="K87" s="30"/>
     </row>
     <row r="88" spans="1:11">
-      <c r="A88" s="26">
+      <c r="A88" s="27">
         <v>33</v>
       </c>
-      <c r="B88" s="35" t="s">
+      <c r="B88" s="36" t="s">
         <v>123</v>
       </c>
       <c r="C88" s="3" t="s">
@@ -3591,19 +4118,19 @@
       <c r="E88" s="5">
         <v>50</v>
       </c>
-      <c r="F88" s="3" t="s">
+      <c r="F88" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G88" s="3">
         <v>20</v>
       </c>
-      <c r="K88" s="28">
+      <c r="K88" s="29">
         <v>45545</v>
       </c>
     </row>
     <row r="89" spans="1:11">
-      <c r="A89" s="30"/>
-      <c r="B89" s="35"/>
+      <c r="A89" s="31"/>
+      <c r="B89" s="36"/>
       <c r="C89" s="3" t="s">
         <v>122</v>
       </c>
@@ -3613,17 +4140,17 @@
       <c r="E89" s="5">
         <v>100</v>
       </c>
-      <c r="F89" s="3" t="s">
+      <c r="F89" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G89" s="5">
         <v>50</v>
       </c>
-      <c r="K89" s="31"/>
+      <c r="K89" s="32"/>
     </row>
     <row r="90" spans="1:11">
-      <c r="A90" s="27"/>
-      <c r="B90" s="35"/>
+      <c r="A90" s="28"/>
+      <c r="B90" s="36"/>
       <c r="C90" s="3" t="s">
         <v>120</v>
       </c>
@@ -3633,19 +4160,19 @@
       <c r="E90" s="5">
         <v>130</v>
       </c>
-      <c r="F90" s="3" t="s">
+      <c r="F90" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="3">
         <v>50</v>
       </c>
-      <c r="K90" s="29"/>
+      <c r="K90" s="30"/>
     </row>
     <row r="91" spans="1:11">
-      <c r="A91" s="26">
+      <c r="A91" s="27">
         <v>34</v>
       </c>
-      <c r="B91" s="35" t="s">
+      <c r="B91" s="36" t="s">
         <v>126</v>
       </c>
       <c r="C91" s="3" t="s">
@@ -3657,19 +4184,19 @@
       <c r="E91" s="5">
         <v>50</v>
       </c>
-      <c r="F91" s="3" t="s">
+      <c r="F91" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G91" s="3">
         <v>20</v>
       </c>
-      <c r="K91" s="28">
+      <c r="K91" s="29">
         <v>45546</v>
       </c>
     </row>
     <row r="92" spans="1:11">
-      <c r="A92" s="30"/>
-      <c r="B92" s="35"/>
+      <c r="A92" s="31"/>
+      <c r="B92" s="36"/>
       <c r="C92" s="3" t="s">
         <v>124</v>
       </c>
@@ -3679,17 +4206,17 @@
       <c r="E92" s="5">
         <v>130</v>
       </c>
-      <c r="F92" s="3" t="s">
+      <c r="F92" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="5">
         <v>60</v>
       </c>
-      <c r="K92" s="31"/>
+      <c r="K92" s="32"/>
     </row>
     <row r="93" spans="1:11">
-      <c r="A93" s="27"/>
-      <c r="B93" s="35"/>
+      <c r="A93" s="28"/>
+      <c r="B93" s="36"/>
       <c r="C93" s="3" t="s">
         <v>125</v>
       </c>
@@ -3699,19 +4226,19 @@
       <c r="E93" s="5">
         <v>100</v>
       </c>
-      <c r="F93" s="3" t="s">
+      <c r="F93" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G93" s="3">
         <v>60</v>
       </c>
-      <c r="K93" s="29"/>
+      <c r="K93" s="30"/>
     </row>
     <row r="94" spans="1:11">
-      <c r="A94" s="26">
+      <c r="A94" s="27">
         <v>35</v>
       </c>
-      <c r="B94" s="35" t="s">
+      <c r="B94" s="36" t="s">
         <v>128</v>
       </c>
       <c r="C94" s="3" t="s">
@@ -3723,19 +4250,19 @@
       <c r="E94" s="5">
         <v>50</v>
       </c>
-      <c r="F94" s="3" t="s">
+      <c r="F94" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G94" s="3">
         <v>20</v>
       </c>
-      <c r="K94" s="28">
+      <c r="K94" s="29">
         <v>45545</v>
       </c>
     </row>
     <row r="95" spans="1:11">
-      <c r="A95" s="30"/>
-      <c r="B95" s="35"/>
+      <c r="A95" s="31"/>
+      <c r="B95" s="36"/>
       <c r="C95" s="3" t="s">
         <v>127</v>
       </c>
@@ -3745,17 +4272,17 @@
       <c r="E95" s="5">
         <v>90</v>
       </c>
-      <c r="F95" s="3" t="s">
+      <c r="F95" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="5">
         <v>50</v>
       </c>
-      <c r="K95" s="31"/>
+      <c r="K95" s="32"/>
     </row>
     <row r="96" spans="1:11">
-      <c r="A96" s="27"/>
-      <c r="B96" s="35"/>
+      <c r="A96" s="28"/>
+      <c r="B96" s="36"/>
       <c r="C96" s="3" t="s">
         <v>125</v>
       </c>
@@ -3765,13 +4292,13 @@
       <c r="E96" s="5">
         <v>60</v>
       </c>
-      <c r="F96" s="3" t="s">
+      <c r="F96" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G96" s="3">
         <v>50</v>
       </c>
-      <c r="K96" s="29"/>
+      <c r="K96" s="30"/>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="6">
@@ -3789,7 +4316,7 @@
       <c r="E97" s="5">
         <v>50</v>
       </c>
-      <c r="F97" s="3" t="s">
+      <c r="F97" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G97" s="3">
@@ -3800,10 +4327,10 @@
       </c>
     </row>
     <row r="98" spans="1:11">
-      <c r="A98" s="26">
+      <c r="A98" s="27">
         <v>37</v>
       </c>
-      <c r="B98" s="35" t="s">
+      <c r="B98" s="36" t="s">
         <v>132</v>
       </c>
       <c r="C98" s="3" t="s">
@@ -3815,19 +4342,19 @@
       <c r="E98" s="5">
         <v>50</v>
       </c>
-      <c r="F98" s="3" t="s">
+      <c r="F98" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G98" s="3">
         <v>20</v>
       </c>
-      <c r="K98" s="28">
+      <c r="K98" s="29">
         <v>45545</v>
       </c>
     </row>
     <row r="99" spans="1:11">
-      <c r="A99" s="30"/>
-      <c r="B99" s="35"/>
+      <c r="A99" s="31"/>
+      <c r="B99" s="36"/>
       <c r="C99" s="3" t="s">
         <v>130</v>
       </c>
@@ -3837,17 +4364,17 @@
       <c r="E99" s="5">
         <v>100</v>
       </c>
-      <c r="F99" s="3" t="s">
+      <c r="F99" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="3">
         <v>30</v>
       </c>
-      <c r="K99" s="31"/>
+      <c r="K99" s="32"/>
     </row>
     <row r="100" spans="1:11">
-      <c r="A100" s="27"/>
-      <c r="B100" s="35"/>
+      <c r="A100" s="28"/>
+      <c r="B100" s="36"/>
       <c r="C100" s="3" t="s">
         <v>131</v>
       </c>
@@ -3857,19 +4384,19 @@
       <c r="E100" s="5">
         <v>60</v>
       </c>
-      <c r="F100" s="3" t="s">
+      <c r="F100" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G100" s="3">
         <v>20</v>
       </c>
-      <c r="K100" s="29"/>
+      <c r="K100" s="30"/>
     </row>
     <row r="101" spans="1:11">
-      <c r="A101" s="26">
+      <c r="A101" s="27">
         <v>38</v>
       </c>
-      <c r="B101" s="35" t="s">
+      <c r="B101" s="36" t="s">
         <v>134</v>
       </c>
       <c r="C101" s="3" t="s">
@@ -3881,19 +4408,19 @@
       <c r="E101" s="5">
         <v>50</v>
       </c>
-      <c r="F101" s="3" t="s">
+      <c r="F101" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G101" s="3">
         <v>20</v>
       </c>
-      <c r="K101" s="28">
+      <c r="K101" s="29">
         <v>45545</v>
       </c>
     </row>
     <row r="102" spans="1:11">
-      <c r="A102" s="30"/>
-      <c r="B102" s="35"/>
+      <c r="A102" s="31"/>
+      <c r="B102" s="36"/>
       <c r="C102" s="3" t="s">
         <v>8</v>
       </c>
@@ -3903,18 +4430,18 @@
       <c r="E102" s="5">
         <v>50</v>
       </c>
-      <c r="F102" s="3" t="s">
+      <c r="F102" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G102" s="3">
         <v>20</v>
       </c>
       <c r="I102" s="4"/>
-      <c r="K102" s="31"/>
+      <c r="K102" s="32"/>
     </row>
     <row r="103" spans="1:11">
-      <c r="A103" s="27"/>
-      <c r="B103" s="35"/>
+      <c r="A103" s="28"/>
+      <c r="B103" s="36"/>
       <c r="C103" s="3" t="s">
         <v>133</v>
       </c>
@@ -3924,17 +4451,17 @@
       <c r="E103" s="5">
         <v>10</v>
       </c>
-      <c r="F103" s="3" t="s">
+      <c r="F103" s="5" t="s">
         <v>21</v>
       </c>
       <c r="I103" s="4"/>
-      <c r="K103" s="29"/>
+      <c r="K103" s="30"/>
     </row>
     <row r="104" spans="1:11">
-      <c r="A104" s="26">
+      <c r="A104" s="27">
         <v>39</v>
       </c>
-      <c r="B104" s="35" t="s">
+      <c r="B104" s="36" t="s">
         <v>140</v>
       </c>
       <c r="C104" s="3" t="s">
@@ -3946,20 +4473,20 @@
       <c r="E104" s="5">
         <v>80</v>
       </c>
-      <c r="F104" s="3" t="s">
+      <c r="F104" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G104" s="3">
         <v>50</v>
       </c>
       <c r="I104" s="4"/>
-      <c r="K104" s="28">
+      <c r="K104" s="29">
         <v>45545</v>
       </c>
     </row>
     <row r="105" spans="1:11">
-      <c r="A105" s="30"/>
-      <c r="B105" s="35"/>
+      <c r="A105" s="31"/>
+      <c r="B105" s="36"/>
       <c r="C105" s="3" t="s">
         <v>136</v>
       </c>
@@ -3969,7 +4496,7 @@
       <c r="E105" s="5">
         <v>200</v>
       </c>
-      <c r="F105" s="3" t="s">
+      <c r="F105" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G105" s="3">
@@ -3979,11 +4506,11 @@
       <c r="J105" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="K105" s="31"/>
+      <c r="K105" s="32"/>
     </row>
     <row r="106" spans="1:11">
-      <c r="A106" s="30"/>
-      <c r="B106" s="35"/>
+      <c r="A106" s="31"/>
+      <c r="B106" s="36"/>
       <c r="C106" s="3" t="s">
         <v>138</v>
       </c>
@@ -3993,35 +4520,35 @@
       <c r="E106" s="5">
         <v>200</v>
       </c>
-      <c r="F106" s="3" t="s">
+      <c r="F106" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="3">
         <v>50</v>
       </c>
       <c r="I106" s="4"/>
-      <c r="K106" s="31"/>
+      <c r="K106" s="32"/>
     </row>
     <row r="107" spans="1:11">
-      <c r="A107" s="27"/>
-      <c r="B107" s="35"/>
+      <c r="A107" s="28"/>
+      <c r="B107" s="36"/>
       <c r="C107" s="3" t="s">
         <v>139</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F107" s="3" t="s">
+      <c r="F107" s="5" t="s">
         <v>21</v>
       </c>
       <c r="I107" s="4"/>
-      <c r="K107" s="29"/>
+      <c r="K107" s="30"/>
     </row>
     <row r="108" spans="1:11">
-      <c r="A108" s="26">
+      <c r="A108" s="27">
         <v>40</v>
       </c>
-      <c r="B108" s="35" t="s">
+      <c r="B108" s="36" t="s">
         <v>145</v>
       </c>
       <c r="C108" s="3" t="s">
@@ -4033,19 +4560,19 @@
       <c r="E108" s="5">
         <v>10</v>
       </c>
-      <c r="F108" s="3" t="s">
+      <c r="F108" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G108" s="3">
         <v>2</v>
       </c>
-      <c r="K108" s="28">
+      <c r="K108" s="29">
         <v>45545</v>
       </c>
     </row>
     <row r="109" spans="1:11">
-      <c r="A109" s="30"/>
-      <c r="B109" s="35"/>
+      <c r="A109" s="31"/>
+      <c r="B109" s="36"/>
       <c r="C109" s="3" t="s">
         <v>142</v>
       </c>
@@ -4055,17 +4582,17 @@
       <c r="E109" s="5">
         <v>20</v>
       </c>
-      <c r="F109" s="3" t="s">
+      <c r="F109" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G109" s="3">
         <v>11</v>
       </c>
-      <c r="K109" s="31"/>
+      <c r="K109" s="32"/>
     </row>
     <row r="110" spans="1:11">
-      <c r="A110" s="30"/>
-      <c r="B110" s="35"/>
+      <c r="A110" s="31"/>
+      <c r="B110" s="36"/>
       <c r="C110" s="3" t="s">
         <v>143</v>
       </c>
@@ -4075,17 +4602,17 @@
       <c r="E110" s="5">
         <v>25</v>
       </c>
-      <c r="F110" s="3" t="s">
+      <c r="F110" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="3">
         <v>11</v>
       </c>
-      <c r="K110" s="31"/>
+      <c r="K110" s="32"/>
     </row>
     <row r="111" spans="1:11">
-      <c r="A111" s="27"/>
-      <c r="B111" s="35"/>
+      <c r="A111" s="28"/>
+      <c r="B111" s="36"/>
       <c r="C111" s="3" t="s">
         <v>144</v>
       </c>
@@ -4095,19 +4622,19 @@
       <c r="E111" s="5">
         <v>50</v>
       </c>
-      <c r="F111" s="3" t="s">
+      <c r="F111" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G111" s="3">
         <v>20</v>
       </c>
-      <c r="K111" s="29"/>
+      <c r="K111" s="30"/>
     </row>
     <row r="112" spans="1:11">
-      <c r="A112" s="26">
+      <c r="A112" s="27">
         <v>41</v>
       </c>
-      <c r="B112" s="35" t="s">
+      <c r="B112" s="36" t="s">
         <v>148</v>
       </c>
       <c r="C112" s="3" t="s">
@@ -4119,19 +4646,19 @@
       <c r="E112" s="5">
         <v>2</v>
       </c>
-      <c r="F112" s="3" t="s">
+      <c r="F112" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G112" s="3">
         <v>2</v>
       </c>
-      <c r="K112" s="28">
+      <c r="K112" s="29">
         <v>45545</v>
       </c>
     </row>
     <row r="113" spans="1:11">
-      <c r="A113" s="27"/>
-      <c r="B113" s="35"/>
+      <c r="A113" s="28"/>
+      <c r="B113" s="36"/>
       <c r="C113" s="3" t="s">
         <v>147</v>
       </c>
@@ -4141,19 +4668,19 @@
       <c r="E113" s="5">
         <v>50</v>
       </c>
-      <c r="F113" s="3" t="s">
+      <c r="F113" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G113" s="3">
         <v>50</v>
       </c>
-      <c r="K113" s="29"/>
+      <c r="K113" s="30"/>
     </row>
     <row r="114" spans="1:11">
-      <c r="A114" s="26">
+      <c r="A114" s="27">
         <v>42</v>
       </c>
-      <c r="B114" s="35" t="s">
+      <c r="B114" s="36" t="s">
         <v>152</v>
       </c>
       <c r="C114" s="3" t="s">
@@ -4165,19 +4692,19 @@
       <c r="E114" s="5">
         <v>50</v>
       </c>
-      <c r="F114" s="3" t="s">
+      <c r="F114" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G114" s="3">
         <v>20</v>
       </c>
-      <c r="K114" s="28">
+      <c r="K114" s="29">
         <v>45545</v>
       </c>
     </row>
     <row r="115" spans="1:11">
-      <c r="A115" s="30"/>
-      <c r="B115" s="35"/>
+      <c r="A115" s="31"/>
+      <c r="B115" s="36"/>
       <c r="C115" s="7" t="s">
         <v>149</v>
       </c>
@@ -4187,17 +4714,17 @@
       <c r="E115" s="5">
         <v>10</v>
       </c>
-      <c r="F115" s="3" t="s">
+      <c r="F115" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G115" s="3">
         <v>5</v>
       </c>
-      <c r="K115" s="31"/>
+      <c r="K115" s="32"/>
     </row>
     <row r="116" spans="1:11">
-      <c r="A116" s="30"/>
-      <c r="B116" s="35"/>
+      <c r="A116" s="31"/>
+      <c r="B116" s="36"/>
       <c r="C116" s="3" t="s">
         <v>150</v>
       </c>
@@ -4207,27 +4734,27 @@
       <c r="E116" s="5">
         <v>80</v>
       </c>
-      <c r="F116" s="3" t="s">
+      <c r="F116" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G116" s="3">
         <v>50</v>
       </c>
-      <c r="K116" s="31"/>
+      <c r="K116" s="32"/>
     </row>
     <row r="117" spans="1:11">
-      <c r="A117" s="27"/>
-      <c r="B117" s="35"/>
+      <c r="A117" s="28"/>
+      <c r="B117" s="36"/>
       <c r="C117" s="3" t="s">
         <v>151</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F117" s="3" t="s">
+      <c r="F117" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K117" s="29"/>
+      <c r="K117" s="30"/>
     </row>
     <row r="118" spans="1:11">
       <c r="A118" s="6">
@@ -4245,7 +4772,7 @@
       <c r="E118" s="5">
         <v>50</v>
       </c>
-      <c r="F118" s="3" t="s">
+      <c r="F118" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G118" s="3">
@@ -4256,10 +4783,10 @@
       </c>
     </row>
     <row r="119" spans="1:11">
-      <c r="A119" s="26">
+      <c r="A119" s="27">
         <v>44</v>
       </c>
-      <c r="B119" s="35" t="s">
+      <c r="B119" s="36" t="s">
         <v>155</v>
       </c>
       <c r="C119" s="3" t="s">
@@ -4271,19 +4798,19 @@
       <c r="E119" s="5">
         <v>100</v>
       </c>
-      <c r="F119" s="3" t="s">
+      <c r="F119" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G119" s="3">
         <v>30</v>
       </c>
-      <c r="K119" s="28">
+      <c r="K119" s="29">
         <v>45545</v>
       </c>
     </row>
     <row r="120" spans="1:11">
-      <c r="A120" s="27"/>
-      <c r="B120" s="35"/>
+      <c r="A120" s="28"/>
+      <c r="B120" s="36"/>
       <c r="C120" s="3" t="s">
         <v>49</v>
       </c>
@@ -4293,19 +4820,19 @@
       <c r="E120" s="5">
         <v>50</v>
       </c>
-      <c r="F120" s="3" t="s">
+      <c r="F120" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G120" s="3">
         <v>20</v>
       </c>
-      <c r="K120" s="29"/>
+      <c r="K120" s="30"/>
     </row>
     <row r="121" spans="1:11">
-      <c r="A121" s="26">
+      <c r="A121" s="27">
         <v>45</v>
       </c>
-      <c r="B121" s="35" t="s">
+      <c r="B121" s="36" t="s">
         <v>154</v>
       </c>
       <c r="C121" s="3" t="s">
@@ -4317,19 +4844,19 @@
       <c r="E121" s="5">
         <v>50</v>
       </c>
-      <c r="F121" s="3" t="s">
+      <c r="F121" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G121" s="3">
         <v>20</v>
       </c>
-      <c r="K121" s="28">
+      <c r="K121" s="29">
         <v>45545</v>
       </c>
     </row>
     <row r="122" spans="1:11">
-      <c r="A122" s="27"/>
-      <c r="B122" s="35"/>
+      <c r="A122" s="28"/>
+      <c r="B122" s="36"/>
       <c r="C122" s="3" t="s">
         <v>154</v>
       </c>
@@ -4339,13 +4866,13 @@
       <c r="E122" s="5">
         <v>100</v>
       </c>
-      <c r="F122" s="3" t="s">
+      <c r="F122" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G122" s="3">
         <v>50</v>
       </c>
-      <c r="K122" s="29"/>
+      <c r="K122" s="30"/>
     </row>
     <row r="123" spans="1:11">
       <c r="A123" s="6">
@@ -4363,7 +4890,7 @@
       <c r="E123" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F123" s="3" t="s">
+      <c r="F123" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G123" s="3">
@@ -4374,10 +4901,10 @@
       </c>
     </row>
     <row r="124" spans="1:11">
-      <c r="A124" s="26">
+      <c r="A124" s="27">
         <v>47</v>
       </c>
-      <c r="B124" s="35" t="s">
+      <c r="B124" s="36" t="s">
         <v>159</v>
       </c>
       <c r="C124" s="3" t="s">
@@ -4389,19 +4916,19 @@
       <c r="E124" s="5">
         <v>50</v>
       </c>
-      <c r="F124" s="3" t="s">
+      <c r="F124" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G124" s="3">
         <v>20</v>
       </c>
-      <c r="K124" s="28">
+      <c r="K124" s="29">
         <v>45546</v>
       </c>
     </row>
     <row r="125" spans="1:11">
-      <c r="A125" s="27"/>
-      <c r="B125" s="35"/>
+      <c r="A125" s="28"/>
+      <c r="B125" s="36"/>
       <c r="C125" s="3" t="s">
         <v>158</v>
       </c>
@@ -4411,19 +4938,19 @@
       <c r="E125" s="5">
         <v>50</v>
       </c>
-      <c r="F125" s="3" t="s">
+      <c r="F125" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="3">
         <v>3</v>
       </c>
-      <c r="K125" s="29"/>
+      <c r="K125" s="30"/>
     </row>
     <row r="126" spans="1:11">
-      <c r="A126" s="26">
+      <c r="A126" s="27">
         <v>48</v>
       </c>
-      <c r="B126" s="35" t="s">
+      <c r="B126" s="36" t="s">
         <v>161</v>
       </c>
       <c r="C126" s="3" t="s">
@@ -4435,19 +4962,19 @@
       <c r="E126" s="5">
         <v>50</v>
       </c>
-      <c r="F126" s="3" t="s">
+      <c r="F126" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G126" s="3">
         <v>20</v>
       </c>
-      <c r="K126" s="28">
+      <c r="K126" s="29">
         <v>45546</v>
       </c>
     </row>
     <row r="127" spans="1:11">
-      <c r="A127" s="27"/>
-      <c r="B127" s="35"/>
+      <c r="A127" s="28"/>
+      <c r="B127" s="36"/>
       <c r="C127" s="3" t="s">
         <v>160</v>
       </c>
@@ -4457,19 +4984,19 @@
       <c r="E127" s="5">
         <v>90</v>
       </c>
-      <c r="F127" s="3" t="s">
+      <c r="F127" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="3">
         <v>50</v>
       </c>
-      <c r="K127" s="29"/>
+      <c r="K127" s="30"/>
     </row>
     <row r="128" spans="1:11">
-      <c r="A128" s="26">
+      <c r="A128" s="27">
         <v>49</v>
       </c>
-      <c r="B128" s="35" t="s">
+      <c r="B128" s="36" t="s">
         <v>164</v>
       </c>
       <c r="C128" s="3" t="s">
@@ -4481,19 +5008,19 @@
       <c r="E128" s="5">
         <v>50</v>
       </c>
-      <c r="F128" s="3" t="s">
+      <c r="F128" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G128" s="3">
         <v>20</v>
       </c>
-      <c r="K128" s="28">
+      <c r="K128" s="29">
         <v>45546</v>
       </c>
     </row>
     <row r="129" spans="1:11">
-      <c r="A129" s="30"/>
-      <c r="B129" s="35"/>
+      <c r="A129" s="31"/>
+      <c r="B129" s="36"/>
       <c r="C129" s="3" t="s">
         <v>162</v>
       </c>
@@ -4503,33 +5030,33 @@
       <c r="E129" s="5">
         <v>50</v>
       </c>
-      <c r="F129" s="3" t="s">
+      <c r="F129" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="3">
         <v>25</v>
       </c>
-      <c r="K129" s="31"/>
+      <c r="K129" s="32"/>
     </row>
     <row r="130" spans="1:11">
-      <c r="A130" s="27"/>
-      <c r="B130" s="35"/>
+      <c r="A130" s="28"/>
+      <c r="B130" s="36"/>
       <c r="C130" s="3" t="s">
         <v>163</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F130" s="3" t="s">
+      <c r="F130" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="K130" s="29"/>
+      <c r="K130" s="30"/>
     </row>
     <row r="131" spans="1:11">
-      <c r="A131" s="26">
-        <v>50</v>
-      </c>
-      <c r="B131" s="35" t="s">
+      <c r="A131" s="27">
+        <v>50</v>
+      </c>
+      <c r="B131" s="36" t="s">
         <v>168</v>
       </c>
       <c r="C131" s="3" t="s">
@@ -4541,19 +5068,19 @@
       <c r="E131" s="5">
         <v>50</v>
       </c>
-      <c r="F131" s="3" t="s">
+      <c r="F131" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G131" s="3">
         <v>20</v>
       </c>
-      <c r="K131" s="28">
+      <c r="K131" s="29">
         <v>45546</v>
       </c>
     </row>
     <row r="132" spans="1:11">
-      <c r="A132" s="30"/>
-      <c r="B132" s="35"/>
+      <c r="A132" s="31"/>
+      <c r="B132" s="36"/>
       <c r="C132" s="3" t="s">
         <v>165</v>
       </c>
@@ -4563,17 +5090,17 @@
       <c r="E132" s="5">
         <v>80</v>
       </c>
-      <c r="F132" s="3" t="s">
+      <c r="F132" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G132" s="3">
         <v>10</v>
       </c>
-      <c r="K132" s="31"/>
+      <c r="K132" s="32"/>
     </row>
     <row r="133" spans="1:11">
-      <c r="A133" s="30"/>
-      <c r="B133" s="35"/>
+      <c r="A133" s="31"/>
+      <c r="B133" s="36"/>
       <c r="C133" s="3" t="s">
         <v>166</v>
       </c>
@@ -4583,17 +5110,17 @@
       <c r="E133" s="5">
         <v>80</v>
       </c>
-      <c r="F133" s="3" t="s">
+      <c r="F133" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="3">
         <v>10</v>
       </c>
-      <c r="K133" s="31"/>
+      <c r="K133" s="32"/>
     </row>
     <row r="134" spans="1:11">
-      <c r="A134" s="27"/>
-      <c r="B134" s="35"/>
+      <c r="A134" s="28"/>
+      <c r="B134" s="36"/>
       <c r="C134" s="3" t="s">
         <v>167</v>
       </c>
@@ -4603,19 +5130,19 @@
       <c r="E134" s="5">
         <v>2</v>
       </c>
-      <c r="F134" s="3" t="s">
+      <c r="F134" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G134" s="3">
         <v>2</v>
       </c>
-      <c r="K134" s="29"/>
+      <c r="K134" s="30"/>
     </row>
     <row r="135" spans="1:11">
-      <c r="A135" s="26">
+      <c r="A135" s="27">
         <v>51</v>
       </c>
-      <c r="B135" s="35" t="s">
+      <c r="B135" s="36" t="s">
         <v>169</v>
       </c>
       <c r="C135" s="3" t="s">
@@ -4627,19 +5154,19 @@
       <c r="E135" s="5">
         <v>50</v>
       </c>
-      <c r="F135" s="3" t="s">
+      <c r="F135" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G135" s="3">
         <v>20</v>
       </c>
-      <c r="K135" s="28">
+      <c r="K135" s="29">
         <v>45546</v>
       </c>
     </row>
     <row r="136" spans="1:11">
-      <c r="A136" s="27"/>
-      <c r="B136" s="35"/>
+      <c r="A136" s="28"/>
+      <c r="B136" s="36"/>
       <c r="C136" s="3" t="s">
         <v>70</v>
       </c>
@@ -4649,16 +5176,16 @@
       <c r="E136" s="5">
         <v>20</v>
       </c>
-      <c r="F136" s="3" t="s">
+      <c r="F136" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="K136" s="29"/>
+      <c r="K136" s="30"/>
     </row>
     <row r="137" spans="1:11">
-      <c r="A137" s="26">
+      <c r="A137" s="27">
         <v>52</v>
       </c>
-      <c r="B137" s="35" t="s">
+      <c r="B137" s="36" t="s">
         <v>170</v>
       </c>
       <c r="C137" s="3" t="s">
@@ -4670,19 +5197,19 @@
       <c r="E137" s="5">
         <v>50</v>
       </c>
-      <c r="F137" s="3" t="s">
+      <c r="F137" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G137" s="3">
         <v>20</v>
       </c>
-      <c r="K137" s="28">
+      <c r="K137" s="29">
         <v>45546</v>
       </c>
     </row>
     <row r="138" spans="1:11">
-      <c r="A138" s="30"/>
-      <c r="B138" s="35"/>
+      <c r="A138" s="31"/>
+      <c r="B138" s="36"/>
       <c r="C138" s="3" t="s">
         <v>165</v>
       </c>
@@ -4692,17 +5219,17 @@
       <c r="E138" s="5">
         <v>80</v>
       </c>
-      <c r="F138" s="3" t="s">
+      <c r="F138" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G138" s="3">
         <v>10</v>
       </c>
-      <c r="K138" s="31"/>
+      <c r="K138" s="32"/>
     </row>
     <row r="139" spans="1:11">
-      <c r="A139" s="30"/>
-      <c r="B139" s="35"/>
+      <c r="A139" s="31"/>
+      <c r="B139" s="36"/>
       <c r="C139" s="3" t="s">
         <v>166</v>
       </c>
@@ -4712,17 +5239,17 @@
       <c r="E139" s="5">
         <v>80</v>
       </c>
-      <c r="F139" s="3" t="s">
+      <c r="F139" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="3">
         <v>10</v>
       </c>
-      <c r="K139" s="31"/>
+      <c r="K139" s="32"/>
     </row>
     <row r="140" spans="1:11">
-      <c r="A140" s="27"/>
-      <c r="B140" s="35"/>
+      <c r="A140" s="28"/>
+      <c r="B140" s="36"/>
       <c r="C140" s="3" t="s">
         <v>167</v>
       </c>
@@ -4732,19 +5259,19 @@
       <c r="E140" s="5">
         <v>2</v>
       </c>
-      <c r="F140" s="3" t="s">
+      <c r="F140" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G140" s="3">
         <v>2</v>
       </c>
-      <c r="K140" s="29"/>
+      <c r="K140" s="30"/>
     </row>
     <row r="141" spans="1:11">
-      <c r="A141" s="26">
+      <c r="A141" s="27">
         <v>53</v>
       </c>
-      <c r="B141" s="35" t="s">
+      <c r="B141" s="36" t="s">
         <v>173</v>
       </c>
       <c r="C141" s="3" t="s">
@@ -4756,19 +5283,19 @@
       <c r="E141" s="5">
         <v>50</v>
       </c>
-      <c r="F141" s="3" t="s">
+      <c r="F141" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G141" s="3">
         <v>20</v>
       </c>
-      <c r="K141" s="28">
+      <c r="K141" s="29">
         <v>45546</v>
       </c>
     </row>
     <row r="142" spans="1:11">
-      <c r="A142" s="30"/>
-      <c r="B142" s="35"/>
+      <c r="A142" s="31"/>
+      <c r="B142" s="36"/>
       <c r="C142" s="3" t="s">
         <v>8</v>
       </c>
@@ -4778,17 +5305,17 @@
       <c r="E142" s="5">
         <v>50</v>
       </c>
-      <c r="F142" s="3" t="s">
+      <c r="F142" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G142" s="3">
         <v>20</v>
       </c>
-      <c r="K142" s="31"/>
+      <c r="K142" s="32"/>
     </row>
     <row r="143" spans="1:11">
-      <c r="A143" s="27"/>
-      <c r="B143" s="35"/>
+      <c r="A143" s="28"/>
+      <c r="B143" s="36"/>
       <c r="C143" s="3" t="s">
         <v>172</v>
       </c>
@@ -4798,19 +5325,19 @@
       <c r="E143" s="5">
         <v>10</v>
       </c>
-      <c r="F143" s="3" t="s">
+      <c r="F143" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G143" s="3">
         <v>3</v>
       </c>
-      <c r="K143" s="29"/>
+      <c r="K143" s="30"/>
     </row>
     <row r="144" spans="1:11">
-      <c r="A144" s="26">
+      <c r="A144" s="27">
         <v>54</v>
       </c>
-      <c r="B144" s="36" t="s">
+      <c r="B144" s="37" t="s">
         <v>186</v>
       </c>
       <c r="C144" s="3" t="s">
@@ -4819,16 +5346,16 @@
       <c r="D144" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F144" s="3" t="s">
+      <c r="F144" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K144" s="28">
+      <c r="K144" s="29">
         <v>45551</v>
       </c>
     </row>
     <row r="145" spans="1:11">
-      <c r="A145" s="30"/>
-      <c r="B145" s="36"/>
+      <c r="A145" s="31"/>
+      <c r="B145" s="37"/>
       <c r="C145" s="3" t="s">
         <v>175</v>
       </c>
@@ -4838,17 +5365,17 @@
       <c r="E145" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F145" s="3" t="s">
+      <c r="F145" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="3">
         <v>3000</v>
       </c>
-      <c r="K145" s="31"/>
+      <c r="K145" s="32"/>
     </row>
     <row r="146" spans="1:11">
-      <c r="A146" s="30"/>
-      <c r="B146" s="36"/>
+      <c r="A146" s="31"/>
+      <c r="B146" s="37"/>
       <c r="C146" s="3" t="s">
         <v>176</v>
       </c>
@@ -4858,17 +5385,17 @@
       <c r="E146" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F146" s="3" t="s">
+      <c r="F146" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="3">
         <v>3000</v>
       </c>
-      <c r="K146" s="31"/>
+      <c r="K146" s="32"/>
     </row>
     <row r="147" spans="1:11">
-      <c r="A147" s="30"/>
-      <c r="B147" s="36"/>
+      <c r="A147" s="31"/>
+      <c r="B147" s="37"/>
       <c r="C147" s="3" t="s">
         <v>177</v>
       </c>
@@ -4878,17 +5405,17 @@
       <c r="E147" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F147" s="3" t="s">
+      <c r="F147" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="3">
         <v>3000</v>
       </c>
-      <c r="K147" s="31"/>
+      <c r="K147" s="32"/>
     </row>
     <row r="148" spans="1:11">
-      <c r="A148" s="30"/>
-      <c r="B148" s="36"/>
+      <c r="A148" s="31"/>
+      <c r="B148" s="37"/>
       <c r="C148" s="3" t="s">
         <v>178</v>
       </c>
@@ -4898,17 +5425,17 @@
       <c r="E148" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F148" s="3" t="s">
+      <c r="F148" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="3">
         <v>3000</v>
       </c>
-      <c r="K148" s="31"/>
+      <c r="K148" s="32"/>
     </row>
     <row r="149" spans="1:11">
-      <c r="A149" s="30"/>
-      <c r="B149" s="36"/>
+      <c r="A149" s="31"/>
+      <c r="B149" s="37"/>
       <c r="C149" s="3" t="s">
         <v>179</v>
       </c>
@@ -4918,17 +5445,17 @@
       <c r="E149" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F149" s="3" t="s">
+      <c r="F149" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="3">
         <v>3000</v>
       </c>
-      <c r="K149" s="31"/>
+      <c r="K149" s="32"/>
     </row>
     <row r="150" spans="1:11">
-      <c r="A150" s="30"/>
-      <c r="B150" s="36"/>
+      <c r="A150" s="31"/>
+      <c r="B150" s="37"/>
       <c r="C150" s="3" t="s">
         <v>180</v>
       </c>
@@ -4938,17 +5465,17 @@
       <c r="E150" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F150" s="3" t="s">
+      <c r="F150" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="3">
         <v>3000</v>
       </c>
-      <c r="K150" s="31"/>
+      <c r="K150" s="32"/>
     </row>
     <row r="151" spans="1:11">
-      <c r="A151" s="30"/>
-      <c r="B151" s="36"/>
+      <c r="A151" s="31"/>
+      <c r="B151" s="37"/>
       <c r="C151" s="3" t="s">
         <v>181</v>
       </c>
@@ -4958,17 +5485,17 @@
       <c r="E151" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F151" s="3" t="s">
+      <c r="F151" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="3">
         <v>3000</v>
       </c>
-      <c r="K151" s="31"/>
+      <c r="K151" s="32"/>
     </row>
     <row r="152" spans="1:11">
-      <c r="A152" s="30"/>
-      <c r="B152" s="36"/>
+      <c r="A152" s="31"/>
+      <c r="B152" s="37"/>
       <c r="C152" s="3" t="s">
         <v>182</v>
       </c>
@@ -4978,17 +5505,17 @@
       <c r="E152" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F152" s="3" t="s">
+      <c r="F152" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="3">
         <v>3000</v>
       </c>
-      <c r="K152" s="31"/>
+      <c r="K152" s="32"/>
     </row>
     <row r="153" spans="1:11">
-      <c r="A153" s="30"/>
-      <c r="B153" s="36"/>
+      <c r="A153" s="31"/>
+      <c r="B153" s="37"/>
       <c r="C153" s="3" t="s">
         <v>183</v>
       </c>
@@ -4998,17 +5525,17 @@
       <c r="E153" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F153" s="3" t="s">
+      <c r="F153" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="3">
         <v>3000</v>
       </c>
-      <c r="K153" s="31"/>
+      <c r="K153" s="32"/>
     </row>
     <row r="154" spans="1:11">
-      <c r="A154" s="30"/>
-      <c r="B154" s="36"/>
+      <c r="A154" s="31"/>
+      <c r="B154" s="37"/>
       <c r="C154" s="3" t="s">
         <v>184</v>
       </c>
@@ -5018,17 +5545,17 @@
       <c r="E154" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F154" s="3" t="s">
+      <c r="F154" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="3">
         <v>3000</v>
       </c>
-      <c r="K154" s="31"/>
+      <c r="K154" s="32"/>
     </row>
     <row r="155" spans="1:11">
-      <c r="A155" s="30"/>
-      <c r="B155" s="36"/>
+      <c r="A155" s="31"/>
+      <c r="B155" s="37"/>
       <c r="C155" s="3" t="s">
         <v>6</v>
       </c>
@@ -5038,17 +5565,17 @@
       <c r="E155" s="5">
         <v>50</v>
       </c>
-      <c r="F155" s="3" t="s">
+      <c r="F155" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G155" s="3">
         <v>20</v>
       </c>
-      <c r="K155" s="31"/>
+      <c r="K155" s="32"/>
     </row>
     <row r="156" spans="1:11">
-      <c r="A156" s="30"/>
-      <c r="B156" s="36"/>
+      <c r="A156" s="31"/>
+      <c r="B156" s="37"/>
       <c r="C156" s="3" t="s">
         <v>8</v>
       </c>
@@ -5058,17 +5585,17 @@
       <c r="E156" s="5">
         <v>50</v>
       </c>
-      <c r="F156" s="3" t="s">
+      <c r="F156" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G156" s="3">
         <v>20</v>
       </c>
-      <c r="K156" s="31"/>
+      <c r="K156" s="32"/>
     </row>
     <row r="157" spans="1:11">
-      <c r="A157" s="27"/>
-      <c r="B157" s="36"/>
+      <c r="A157" s="28"/>
+      <c r="B157" s="37"/>
       <c r="C157" s="3" t="s">
         <v>185</v>
       </c>
@@ -5078,16 +5605,16 @@
       <c r="E157" s="5">
         <v>50</v>
       </c>
-      <c r="F157" s="3" t="s">
+      <c r="F157" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="K157" s="29"/>
+      <c r="K157" s="30"/>
     </row>
     <row r="158" spans="1:11">
-      <c r="A158" s="26">
+      <c r="A158" s="27">
         <v>55</v>
       </c>
-      <c r="B158" s="35" t="s">
+      <c r="B158" s="36" t="s">
         <v>187</v>
       </c>
       <c r="C158" s="3" t="s">
@@ -5099,19 +5626,19 @@
       <c r="E158" s="5">
         <v>50</v>
       </c>
-      <c r="F158" s="3" t="s">
+      <c r="F158" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G158" s="3">
         <v>20</v>
       </c>
-      <c r="K158" s="28">
+      <c r="K158" s="29">
         <v>45546</v>
       </c>
     </row>
     <row r="159" spans="1:11">
-      <c r="A159" s="30"/>
-      <c r="B159" s="35"/>
+      <c r="A159" s="31"/>
+      <c r="B159" s="36"/>
       <c r="C159" s="3" t="s">
         <v>8</v>
       </c>
@@ -5121,17 +5648,17 @@
       <c r="E159" s="5">
         <v>50</v>
       </c>
-      <c r="F159" s="3" t="s">
+      <c r="F159" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G159" s="3">
         <v>20</v>
       </c>
-      <c r="K159" s="31"/>
+      <c r="K159" s="32"/>
     </row>
     <row r="160" spans="1:11">
-      <c r="A160" s="27"/>
-      <c r="B160" s="35"/>
+      <c r="A160" s="28"/>
+      <c r="B160" s="36"/>
       <c r="C160" s="3" t="s">
         <v>70</v>
       </c>
@@ -5141,16 +5668,16 @@
       <c r="E160" s="5">
         <v>15</v>
       </c>
-      <c r="F160" s="3" t="s">
+      <c r="F160" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="K160" s="29"/>
+      <c r="K160" s="30"/>
     </row>
     <row r="161" spans="1:11">
-      <c r="A161" s="26">
+      <c r="A161" s="27">
         <v>56</v>
       </c>
-      <c r="B161" s="35" t="s">
+      <c r="B161" s="36" t="s">
         <v>188</v>
       </c>
       <c r="C161" s="3" t="s">
@@ -5162,19 +5689,19 @@
       <c r="E161" s="5">
         <v>50</v>
       </c>
-      <c r="F161" s="3" t="s">
+      <c r="F161" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G161" s="3">
         <v>20</v>
       </c>
-      <c r="K161" s="28">
+      <c r="K161" s="29">
         <v>45546</v>
       </c>
     </row>
     <row r="162" spans="1:11">
-      <c r="A162" s="30"/>
-      <c r="B162" s="35"/>
+      <c r="A162" s="31"/>
+      <c r="B162" s="36"/>
       <c r="C162" s="3" t="s">
         <v>8</v>
       </c>
@@ -5184,17 +5711,17 @@
       <c r="E162" s="5">
         <v>50</v>
       </c>
-      <c r="F162" s="3" t="s">
+      <c r="F162" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G162" s="3">
         <v>20</v>
       </c>
-      <c r="K162" s="31"/>
+      <c r="K162" s="32"/>
     </row>
     <row r="163" spans="1:11">
-      <c r="A163" s="27"/>
-      <c r="B163" s="35"/>
+      <c r="A163" s="28"/>
+      <c r="B163" s="36"/>
       <c r="C163" s="3" t="s">
         <v>70</v>
       </c>
@@ -5204,16 +5731,16 @@
       <c r="E163" s="5">
         <v>15</v>
       </c>
-      <c r="F163" s="3" t="s">
+      <c r="F163" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="K163" s="29"/>
+      <c r="K163" s="30"/>
     </row>
     <row r="164" spans="1:11">
-      <c r="A164" s="26">
+      <c r="A164" s="27">
         <v>57</v>
       </c>
-      <c r="B164" s="35" t="s">
+      <c r="B164" s="36" t="s">
         <v>191</v>
       </c>
       <c r="C164" s="3" t="s">
@@ -5225,19 +5752,19 @@
       <c r="E164" s="5">
         <v>50</v>
       </c>
-      <c r="F164" s="3" t="s">
+      <c r="F164" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G164" s="3">
         <v>20</v>
       </c>
-      <c r="K164" s="28">
+      <c r="K164" s="29">
         <v>45546</v>
       </c>
     </row>
     <row r="165" spans="1:11">
-      <c r="A165" s="30"/>
-      <c r="B165" s="35"/>
+      <c r="A165" s="31"/>
+      <c r="B165" s="36"/>
       <c r="C165" s="3" t="s">
         <v>189</v>
       </c>
@@ -5247,17 +5774,17 @@
       <c r="E165" s="5">
         <v>50</v>
       </c>
-      <c r="F165" s="3" t="s">
+      <c r="F165" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G165" s="3">
         <v>40</v>
       </c>
-      <c r="K165" s="31"/>
+      <c r="K165" s="32"/>
     </row>
     <row r="166" spans="1:11">
-      <c r="A166" s="27"/>
-      <c r="B166" s="35"/>
+      <c r="A166" s="28"/>
+      <c r="B166" s="36"/>
       <c r="C166" s="3" t="s">
         <v>190</v>
       </c>
@@ -5267,19 +5794,19 @@
       <c r="E166" s="5">
         <v>60</v>
       </c>
-      <c r="F166" s="3" t="s">
+      <c r="F166" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="3">
         <v>40</v>
       </c>
-      <c r="K166" s="29"/>
+      <c r="K166" s="30"/>
     </row>
     <row r="167" spans="1:11">
-      <c r="A167" s="26">
+      <c r="A167" s="27">
         <v>58</v>
       </c>
-      <c r="B167" s="35" t="s">
+      <c r="B167" s="36" t="s">
         <v>194</v>
       </c>
       <c r="C167" s="3" t="s">
@@ -5291,19 +5818,19 @@
       <c r="E167" s="5">
         <v>50</v>
       </c>
-      <c r="F167" s="3" t="s">
+      <c r="F167" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G167" s="3">
         <v>20</v>
       </c>
-      <c r="K167" s="28">
+      <c r="K167" s="29">
         <v>45546</v>
       </c>
     </row>
     <row r="168" spans="1:11">
-      <c r="A168" s="30"/>
-      <c r="B168" s="35"/>
+      <c r="A168" s="31"/>
+      <c r="B168" s="36"/>
       <c r="C168" s="3" t="s">
         <v>192</v>
       </c>
@@ -5313,17 +5840,17 @@
       <c r="E168" s="5">
         <v>60</v>
       </c>
-      <c r="F168" s="3" t="s">
+      <c r="F168" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G168" s="3">
         <v>30</v>
       </c>
-      <c r="K168" s="31"/>
+      <c r="K168" s="32"/>
     </row>
     <row r="169" spans="1:11">
-      <c r="A169" s="27"/>
-      <c r="B169" s="35"/>
+      <c r="A169" s="28"/>
+      <c r="B169" s="36"/>
       <c r="C169" s="3" t="s">
         <v>193</v>
       </c>
@@ -5333,19 +5860,19 @@
       <c r="E169" s="5">
         <v>90</v>
       </c>
-      <c r="F169" s="3" t="s">
+      <c r="F169" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="3">
         <v>30</v>
       </c>
-      <c r="K169" s="29"/>
+      <c r="K169" s="30"/>
     </row>
     <row r="170" spans="1:11">
-      <c r="A170" s="26">
+      <c r="A170" s="27">
         <v>59</v>
       </c>
-      <c r="B170" s="35" t="s">
+      <c r="B170" s="36" t="s">
         <v>197</v>
       </c>
       <c r="C170" s="3" t="s">
@@ -5357,19 +5884,19 @@
       <c r="E170" s="5">
         <v>50</v>
       </c>
-      <c r="F170" s="3" t="s">
+      <c r="F170" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G170" s="3">
         <v>20</v>
       </c>
-      <c r="K170" s="28">
+      <c r="K170" s="29">
         <v>45546</v>
       </c>
     </row>
     <row r="171" spans="1:11">
-      <c r="A171" s="30"/>
-      <c r="B171" s="35"/>
+      <c r="A171" s="31"/>
+      <c r="B171" s="36"/>
       <c r="C171" s="3" t="s">
         <v>195</v>
       </c>
@@ -5379,17 +5906,17 @@
       <c r="E171" s="5">
         <v>60</v>
       </c>
-      <c r="F171" s="3" t="s">
+      <c r="F171" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="3">
         <v>30</v>
       </c>
-      <c r="K171" s="31"/>
+      <c r="K171" s="32"/>
     </row>
     <row r="172" spans="1:11">
-      <c r="A172" s="27"/>
-      <c r="B172" s="35"/>
+      <c r="A172" s="28"/>
+      <c r="B172" s="36"/>
       <c r="C172" s="3" t="s">
         <v>196</v>
       </c>
@@ -5399,19 +5926,19 @@
       <c r="E172" s="5">
         <v>50</v>
       </c>
-      <c r="F172" s="3" t="s">
+      <c r="F172" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G172" s="3">
         <v>30</v>
       </c>
-      <c r="K172" s="29"/>
+      <c r="K172" s="30"/>
     </row>
     <row r="173" spans="1:11">
-      <c r="A173" s="26">
+      <c r="A173" s="27">
         <v>60</v>
       </c>
-      <c r="B173" s="35" t="s">
+      <c r="B173" s="36" t="s">
         <v>200</v>
       </c>
       <c r="C173" s="3" t="s">
@@ -5423,19 +5950,19 @@
       <c r="E173" s="5">
         <v>50</v>
       </c>
-      <c r="F173" s="3" t="s">
+      <c r="F173" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G173" s="3">
         <v>20</v>
       </c>
-      <c r="K173" s="28">
+      <c r="K173" s="29">
         <v>45546</v>
       </c>
     </row>
     <row r="174" spans="1:11">
-      <c r="A174" s="30"/>
-      <c r="B174" s="35"/>
+      <c r="A174" s="31"/>
+      <c r="B174" s="36"/>
       <c r="C174" s="3" t="s">
         <v>198</v>
       </c>
@@ -5445,17 +5972,17 @@
       <c r="E174" s="5">
         <v>50</v>
       </c>
-      <c r="F174" s="3" t="s">
+      <c r="F174" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G174" s="3">
         <v>30</v>
       </c>
-      <c r="K174" s="31"/>
+      <c r="K174" s="32"/>
     </row>
     <row r="175" spans="1:11">
-      <c r="A175" s="27"/>
-      <c r="B175" s="35"/>
+      <c r="A175" s="28"/>
+      <c r="B175" s="36"/>
       <c r="C175" s="3" t="s">
         <v>199</v>
       </c>
@@ -5465,19 +5992,19 @@
       <c r="E175" s="5">
         <v>60</v>
       </c>
-      <c r="F175" s="3" t="s">
+      <c r="F175" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="3">
         <v>30</v>
       </c>
-      <c r="K175" s="29"/>
+      <c r="K175" s="30"/>
     </row>
     <row r="176" spans="1:11">
-      <c r="A176" s="26">
+      <c r="A176" s="27">
         <v>61</v>
       </c>
-      <c r="B176" s="35" t="s">
+      <c r="B176" s="36" t="s">
         <v>203</v>
       </c>
       <c r="C176" s="3" t="s">
@@ -5489,19 +6016,19 @@
       <c r="E176" s="5">
         <v>50</v>
       </c>
-      <c r="F176" s="3" t="s">
+      <c r="F176" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G176" s="3">
         <v>20</v>
       </c>
-      <c r="K176" s="28">
+      <c r="K176" s="29">
         <v>45546</v>
       </c>
     </row>
     <row r="177" spans="1:11">
-      <c r="A177" s="30"/>
-      <c r="B177" s="35"/>
+      <c r="A177" s="31"/>
+      <c r="B177" s="36"/>
       <c r="C177" s="3" t="s">
         <v>201</v>
       </c>
@@ -5511,17 +6038,17 @@
       <c r="E177" s="5">
         <v>130</v>
       </c>
-      <c r="F177" s="3" t="s">
+      <c r="F177" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="3">
         <v>60</v>
       </c>
-      <c r="K177" s="31"/>
+      <c r="K177" s="32"/>
     </row>
     <row r="178" spans="1:11">
-      <c r="A178" s="27"/>
-      <c r="B178" s="35"/>
+      <c r="A178" s="28"/>
+      <c r="B178" s="36"/>
       <c r="C178" s="3" t="s">
         <v>202</v>
       </c>
@@ -5531,19 +6058,19 @@
       <c r="E178" s="5">
         <v>100</v>
       </c>
-      <c r="F178" s="3" t="s">
+      <c r="F178" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G178" s="3">
         <v>60</v>
       </c>
-      <c r="K178" s="29"/>
+      <c r="K178" s="30"/>
     </row>
     <row r="179" spans="1:11">
-      <c r="A179" s="26">
+      <c r="A179" s="27">
         <v>62</v>
       </c>
-      <c r="B179" s="35" t="s">
+      <c r="B179" s="36" t="s">
         <v>204</v>
       </c>
       <c r="C179" s="8" t="s">
@@ -5555,19 +6082,19 @@
       <c r="E179" s="15">
         <v>50</v>
       </c>
-      <c r="F179" s="8" t="s">
+      <c r="F179" s="15" t="s">
         <v>7</v>
       </c>
       <c r="G179" s="8">
         <v>20</v>
       </c>
-      <c r="K179" s="28">
+      <c r="K179" s="29">
         <v>45546</v>
       </c>
     </row>
     <row r="180" spans="1:11">
-      <c r="A180" s="30"/>
-      <c r="B180" s="35"/>
+      <c r="A180" s="31"/>
+      <c r="B180" s="36"/>
       <c r="C180" s="8" t="s">
         <v>201</v>
       </c>
@@ -5577,17 +6104,17 @@
       <c r="E180" s="15">
         <v>130</v>
       </c>
-      <c r="F180" s="8" t="s">
+      <c r="F180" s="15" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="8">
         <v>60</v>
       </c>
-      <c r="K180" s="31"/>
+      <c r="K180" s="32"/>
     </row>
     <row r="181" spans="1:11">
-      <c r="A181" s="27"/>
-      <c r="B181" s="35"/>
+      <c r="A181" s="28"/>
+      <c r="B181" s="36"/>
       <c r="C181" s="8" t="s">
         <v>202</v>
       </c>
@@ -5597,19 +6124,19 @@
       <c r="E181" s="15">
         <v>100</v>
       </c>
-      <c r="F181" s="8" t="s">
+      <c r="F181" s="15" t="s">
         <v>7</v>
       </c>
       <c r="G181" s="8">
         <v>60</v>
       </c>
-      <c r="K181" s="29"/>
+      <c r="K181" s="30"/>
     </row>
     <row r="182" spans="1:11">
-      <c r="A182" s="26">
+      <c r="A182" s="27">
         <v>63</v>
       </c>
-      <c r="B182" s="26" t="s">
+      <c r="B182" s="27" t="s">
         <v>208</v>
       </c>
       <c r="C182" s="3" t="s">
@@ -5621,19 +6148,19 @@
       <c r="E182" s="5">
         <v>50</v>
       </c>
-      <c r="F182" s="3" t="s">
+      <c r="F182" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G182" s="3">
         <v>20</v>
       </c>
-      <c r="K182" s="28">
+      <c r="K182" s="29">
         <v>45546</v>
       </c>
     </row>
     <row r="183" spans="1:11">
-      <c r="A183" s="30"/>
-      <c r="B183" s="30"/>
+      <c r="A183" s="31"/>
+      <c r="B183" s="31"/>
       <c r="C183" s="3" t="s">
         <v>205</v>
       </c>
@@ -5643,17 +6170,17 @@
       <c r="E183" s="5">
         <v>100</v>
       </c>
-      <c r="F183" s="3" t="s">
+      <c r="F183" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G183" s="3">
         <v>60</v>
       </c>
-      <c r="K183" s="31"/>
+      <c r="K183" s="32"/>
     </row>
     <row r="184" spans="1:11" s="4" customFormat="1" ht="30" customHeight="1">
-      <c r="A184" s="30"/>
-      <c r="B184" s="30"/>
+      <c r="A184" s="31"/>
+      <c r="B184" s="31"/>
       <c r="C184" s="4" t="s">
         <v>206</v>
       </c>
@@ -5661,14 +6188,15 @@
         <v>67</v>
       </c>
       <c r="E184" s="16"/>
+      <c r="F184" s="16"/>
       <c r="J184" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="K184" s="31"/>
+      <c r="K184" s="32"/>
     </row>
     <row r="185" spans="1:11">
-      <c r="A185" s="27"/>
-      <c r="B185" s="27"/>
+      <c r="A185" s="28"/>
+      <c r="B185" s="28"/>
       <c r="C185" s="3" t="s">
         <v>207</v>
       </c>
@@ -5678,13 +6206,13 @@
       <c r="J185" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="K185" s="29"/>
+      <c r="K185" s="30"/>
     </row>
     <row r="186" spans="1:11">
-      <c r="A186" s="26">
+      <c r="A186" s="27">
         <v>64</v>
       </c>
-      <c r="B186" s="26" t="s">
+      <c r="B186" s="27" t="s">
         <v>210</v>
       </c>
       <c r="C186" s="3" t="s">
@@ -5696,19 +6224,19 @@
       <c r="E186" s="5">
         <v>6</v>
       </c>
-      <c r="F186" s="3" t="s">
+      <c r="F186" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G186" s="3">
         <v>6</v>
       </c>
-      <c r="K186" s="28">
+      <c r="K186" s="29">
         <v>45551</v>
       </c>
     </row>
     <row r="187" spans="1:11">
-      <c r="A187" s="30"/>
-      <c r="B187" s="30"/>
+      <c r="A187" s="31"/>
+      <c r="B187" s="31"/>
       <c r="C187" s="3" t="s">
         <v>211</v>
       </c>
@@ -5718,17 +6246,17 @@
       <c r="E187" s="5">
         <v>6</v>
       </c>
-      <c r="F187" s="3" t="s">
+      <c r="F187" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G187" s="3">
         <v>6</v>
       </c>
-      <c r="K187" s="31"/>
+      <c r="K187" s="32"/>
     </row>
     <row r="188" spans="1:11">
-      <c r="A188" s="30"/>
-      <c r="B188" s="30"/>
+      <c r="A188" s="31"/>
+      <c r="B188" s="31"/>
       <c r="C188" s="3" t="s">
         <v>85</v>
       </c>
@@ -5738,17 +6266,17 @@
       <c r="E188" s="5">
         <v>50</v>
       </c>
-      <c r="F188" s="3" t="s">
+      <c r="F188" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G188" s="3">
         <v>20</v>
       </c>
-      <c r="K188" s="31"/>
+      <c r="K188" s="32"/>
     </row>
     <row r="189" spans="1:11">
-      <c r="A189" s="27"/>
-      <c r="B189" s="27"/>
+      <c r="A189" s="28"/>
+      <c r="B189" s="28"/>
       <c r="C189" s="3" t="s">
         <v>212</v>
       </c>
@@ -5758,19 +6286,19 @@
       <c r="E189" s="5">
         <v>50</v>
       </c>
-      <c r="F189" s="3" t="s">
+      <c r="F189" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G189" s="3">
         <v>20</v>
       </c>
-      <c r="K189" s="29"/>
+      <c r="K189" s="30"/>
     </row>
     <row r="190" spans="1:11">
-      <c r="A190" s="26">
+      <c r="A190" s="27">
         <v>65</v>
       </c>
-      <c r="B190" s="26" t="s">
+      <c r="B190" s="27" t="s">
         <v>215</v>
       </c>
       <c r="C190" s="3" t="s">
@@ -5782,19 +6310,19 @@
       <c r="E190" s="5">
         <v>50</v>
       </c>
-      <c r="F190" s="3" t="s">
+      <c r="F190" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G190" s="3">
         <v>20</v>
       </c>
-      <c r="K190" s="28">
+      <c r="K190" s="29">
         <v>45551</v>
       </c>
     </row>
     <row r="191" spans="1:11">
-      <c r="A191" s="30"/>
-      <c r="B191" s="30"/>
+      <c r="A191" s="31"/>
+      <c r="B191" s="31"/>
       <c r="C191" s="3" t="s">
         <v>8</v>
       </c>
@@ -5804,17 +6332,17 @@
       <c r="E191" s="5">
         <v>50</v>
       </c>
-      <c r="F191" s="3" t="s">
+      <c r="F191" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G191" s="3">
         <v>20</v>
       </c>
-      <c r="K191" s="31"/>
+      <c r="K191" s="32"/>
     </row>
     <row r="192" spans="1:11">
-      <c r="A192" s="30"/>
-      <c r="B192" s="30"/>
+      <c r="A192" s="31"/>
+      <c r="B192" s="31"/>
       <c r="C192" s="3" t="s">
         <v>213</v>
       </c>
@@ -5824,17 +6352,17 @@
       <c r="E192" s="5">
         <v>50</v>
       </c>
-      <c r="F192" s="3" t="s">
+      <c r="F192" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G192" s="3">
         <v>20</v>
       </c>
-      <c r="K192" s="31"/>
+      <c r="K192" s="32"/>
     </row>
     <row r="193" spans="1:11">
-      <c r="A193" s="27"/>
-      <c r="B193" s="27"/>
+      <c r="A193" s="28"/>
+      <c r="B193" s="28"/>
       <c r="C193" s="3" t="s">
         <v>214</v>
       </c>
@@ -5844,19 +6372,19 @@
       <c r="E193" s="5">
         <v>50</v>
       </c>
-      <c r="F193" s="3" t="s">
+      <c r="F193" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="3">
         <v>20</v>
       </c>
-      <c r="K193" s="29"/>
+      <c r="K193" s="30"/>
     </row>
     <row r="194" spans="1:11">
-      <c r="A194" s="26">
+      <c r="A194" s="27">
         <v>66</v>
       </c>
-      <c r="B194" s="26" t="s">
+      <c r="B194" s="27" t="s">
         <v>218</v>
       </c>
       <c r="C194" s="3" t="s">
@@ -5868,19 +6396,19 @@
       <c r="E194" s="5">
         <v>50</v>
       </c>
-      <c r="F194" s="3" t="s">
+      <c r="F194" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G194" s="3">
         <v>20</v>
       </c>
-      <c r="K194" s="28">
+      <c r="K194" s="29">
         <v>45551</v>
       </c>
     </row>
     <row r="195" spans="1:11">
-      <c r="A195" s="30"/>
-      <c r="B195" s="30"/>
+      <c r="A195" s="31"/>
+      <c r="B195" s="31"/>
       <c r="C195" s="3" t="s">
         <v>216</v>
       </c>
@@ -5890,17 +6418,17 @@
       <c r="E195" s="5">
         <v>50</v>
       </c>
-      <c r="F195" s="3" t="s">
+      <c r="F195" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G195" s="3">
         <v>20</v>
       </c>
-      <c r="K195" s="31"/>
+      <c r="K195" s="32"/>
     </row>
     <row r="196" spans="1:11">
-      <c r="A196" s="27"/>
-      <c r="B196" s="27"/>
+      <c r="A196" s="28"/>
+      <c r="B196" s="28"/>
       <c r="C196" s="3" t="s">
         <v>217</v>
       </c>
@@ -5910,19 +6438,19 @@
       <c r="E196" s="5">
         <v>50</v>
       </c>
-      <c r="F196" s="3" t="s">
+      <c r="F196" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="3">
         <v>20</v>
       </c>
-      <c r="K196" s="29"/>
+      <c r="K196" s="30"/>
     </row>
     <row r="197" spans="1:11">
-      <c r="A197" s="26">
+      <c r="A197" s="27">
         <v>67</v>
       </c>
-      <c r="B197" s="32" t="s">
+      <c r="B197" s="33" t="s">
         <v>219</v>
       </c>
       <c r="C197" s="3" t="s">
@@ -5931,16 +6459,16 @@
       <c r="D197" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F197" s="3" t="s">
+      <c r="F197" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K197" s="28">
+      <c r="K197" s="29">
         <v>45551</v>
       </c>
     </row>
     <row r="198" spans="1:11">
-      <c r="A198" s="30"/>
-      <c r="B198" s="33"/>
+      <c r="A198" s="31"/>
+      <c r="B198" s="34"/>
       <c r="C198" s="3" t="s">
         <v>175</v>
       </c>
@@ -5950,17 +6478,17 @@
       <c r="E198" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F198" s="3" t="s">
+      <c r="F198" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="3">
         <v>3000</v>
       </c>
-      <c r="K198" s="31"/>
+      <c r="K198" s="32"/>
     </row>
     <row r="199" spans="1:11">
-      <c r="A199" s="30"/>
-      <c r="B199" s="33"/>
+      <c r="A199" s="31"/>
+      <c r="B199" s="34"/>
       <c r="C199" s="3" t="s">
         <v>176</v>
       </c>
@@ -5970,17 +6498,17 @@
       <c r="E199" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F199" s="3" t="s">
+      <c r="F199" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="3">
         <v>3000</v>
       </c>
-      <c r="K199" s="31"/>
+      <c r="K199" s="32"/>
     </row>
     <row r="200" spans="1:11">
-      <c r="A200" s="30"/>
-      <c r="B200" s="33"/>
+      <c r="A200" s="31"/>
+      <c r="B200" s="34"/>
       <c r="C200" s="3" t="s">
         <v>177</v>
       </c>
@@ -5990,17 +6518,17 @@
       <c r="E200" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F200" s="3" t="s">
+      <c r="F200" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="3">
         <v>3000</v>
       </c>
-      <c r="K200" s="31"/>
+      <c r="K200" s="32"/>
     </row>
     <row r="201" spans="1:11">
-      <c r="A201" s="30"/>
-      <c r="B201" s="33"/>
+      <c r="A201" s="31"/>
+      <c r="B201" s="34"/>
       <c r="C201" s="3" t="s">
         <v>178</v>
       </c>
@@ -6010,17 +6538,17 @@
       <c r="E201" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F201" s="3" t="s">
+      <c r="F201" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="3">
         <v>3000</v>
       </c>
-      <c r="K201" s="31"/>
+      <c r="K201" s="32"/>
     </row>
     <row r="202" spans="1:11">
-      <c r="A202" s="30"/>
-      <c r="B202" s="33"/>
+      <c r="A202" s="31"/>
+      <c r="B202" s="34"/>
       <c r="C202" s="3" t="s">
         <v>179</v>
       </c>
@@ -6030,17 +6558,17 @@
       <c r="E202" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F202" s="3" t="s">
+      <c r="F202" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="3">
         <v>3000</v>
       </c>
-      <c r="K202" s="31"/>
+      <c r="K202" s="32"/>
     </row>
     <row r="203" spans="1:11">
-      <c r="A203" s="30"/>
-      <c r="B203" s="33"/>
+      <c r="A203" s="31"/>
+      <c r="B203" s="34"/>
       <c r="C203" s="3" t="s">
         <v>180</v>
       </c>
@@ -6050,17 +6578,17 @@
       <c r="E203" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F203" s="3" t="s">
+      <c r="F203" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="3">
         <v>3000</v>
       </c>
-      <c r="K203" s="31"/>
+      <c r="K203" s="32"/>
     </row>
     <row r="204" spans="1:11">
-      <c r="A204" s="30"/>
-      <c r="B204" s="33"/>
+      <c r="A204" s="31"/>
+      <c r="B204" s="34"/>
       <c r="C204" s="3" t="s">
         <v>181</v>
       </c>
@@ -6070,17 +6598,17 @@
       <c r="E204" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F204" s="3" t="s">
+      <c r="F204" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="3">
         <v>3000</v>
       </c>
-      <c r="K204" s="31"/>
+      <c r="K204" s="32"/>
     </row>
     <row r="205" spans="1:11">
-      <c r="A205" s="30"/>
-      <c r="B205" s="33"/>
+      <c r="A205" s="31"/>
+      <c r="B205" s="34"/>
       <c r="C205" s="3" t="s">
         <v>182</v>
       </c>
@@ -6090,17 +6618,17 @@
       <c r="E205" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F205" s="3" t="s">
+      <c r="F205" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G205" s="3">
         <v>3000</v>
       </c>
-      <c r="K205" s="31"/>
+      <c r="K205" s="32"/>
     </row>
     <row r="206" spans="1:11">
-      <c r="A206" s="30"/>
-      <c r="B206" s="33"/>
+      <c r="A206" s="31"/>
+      <c r="B206" s="34"/>
       <c r="C206" s="3" t="s">
         <v>183</v>
       </c>
@@ -6110,17 +6638,17 @@
       <c r="E206" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F206" s="3" t="s">
+      <c r="F206" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="3">
         <v>3000</v>
       </c>
-      <c r="K206" s="31"/>
+      <c r="K206" s="32"/>
     </row>
     <row r="207" spans="1:11">
-      <c r="A207" s="30"/>
-      <c r="B207" s="33"/>
+      <c r="A207" s="31"/>
+      <c r="B207" s="34"/>
       <c r="C207" s="3" t="s">
         <v>184</v>
       </c>
@@ -6130,17 +6658,17 @@
       <c r="E207" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F207" s="3" t="s">
+      <c r="F207" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G207" s="3">
         <v>3000</v>
       </c>
-      <c r="K207" s="31"/>
+      <c r="K207" s="32"/>
     </row>
     <row r="208" spans="1:11">
-      <c r="A208" s="30"/>
-      <c r="B208" s="33"/>
+      <c r="A208" s="31"/>
+      <c r="B208" s="34"/>
       <c r="C208" s="3" t="s">
         <v>6</v>
       </c>
@@ -6150,17 +6678,17 @@
       <c r="E208" s="5">
         <v>50</v>
       </c>
-      <c r="F208" s="3" t="s">
+      <c r="F208" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G208" s="3">
         <v>20</v>
       </c>
-      <c r="K208" s="31"/>
+      <c r="K208" s="32"/>
     </row>
     <row r="209" spans="1:11">
-      <c r="A209" s="30"/>
-      <c r="B209" s="33"/>
+      <c r="A209" s="31"/>
+      <c r="B209" s="34"/>
       <c r="C209" s="3" t="s">
         <v>8</v>
       </c>
@@ -6170,17 +6698,17 @@
       <c r="E209" s="5">
         <v>50</v>
       </c>
-      <c r="F209" s="3" t="s">
+      <c r="F209" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G209" s="3">
         <v>20</v>
       </c>
-      <c r="K209" s="31"/>
+      <c r="K209" s="32"/>
     </row>
     <row r="210" spans="1:11">
-      <c r="A210" s="27"/>
-      <c r="B210" s="34"/>
+      <c r="A210" s="28"/>
+      <c r="B210" s="35"/>
       <c r="C210" s="3" t="s">
         <v>185</v>
       </c>
@@ -6190,16 +6718,16 @@
       <c r="E210" s="5">
         <v>50</v>
       </c>
-      <c r="F210" s="3" t="s">
+      <c r="F210" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="K210" s="29"/>
+      <c r="K210" s="30"/>
     </row>
     <row r="211" spans="1:11" ht="45">
-      <c r="A211" s="26">
+      <c r="A211" s="27">
         <v>68</v>
       </c>
-      <c r="B211" s="26" t="s">
+      <c r="B211" s="27" t="s">
         <v>225</v>
       </c>
       <c r="C211" s="3" t="s">
@@ -6214,13 +6742,13 @@
       <c r="J211" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="K211" s="28">
+      <c r="K211" s="29">
         <v>45552</v>
       </c>
     </row>
     <row r="212" spans="1:11">
-      <c r="A212" s="30"/>
-      <c r="B212" s="30"/>
+      <c r="A212" s="31"/>
+      <c r="B212" s="31"/>
       <c r="C212" s="3" t="s">
         <v>221</v>
       </c>
@@ -6230,14 +6758,14 @@
       <c r="E212" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F212" s="3" t="s">
+      <c r="F212" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="K212" s="31"/>
+      <c r="K212" s="32"/>
     </row>
     <row r="213" spans="1:11" ht="45">
-      <c r="A213" s="30"/>
-      <c r="B213" s="30"/>
+      <c r="A213" s="31"/>
+      <c r="B213" s="31"/>
       <c r="C213" s="3" t="s">
         <v>222</v>
       </c>
@@ -6250,11 +6778,11 @@
       <c r="J213" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="K213" s="31"/>
+      <c r="K213" s="32"/>
     </row>
     <row r="214" spans="1:11" ht="45">
-      <c r="A214" s="30"/>
-      <c r="B214" s="30"/>
+      <c r="A214" s="31"/>
+      <c r="B214" s="31"/>
       <c r="C214" s="3" t="s">
         <v>223</v>
       </c>
@@ -6264,7 +6792,7 @@
       <c r="E214" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F214" s="3" t="s">
+      <c r="F214" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G214" s="3">
@@ -6273,11 +6801,11 @@
       <c r="J214" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="K214" s="31"/>
+      <c r="K214" s="32"/>
     </row>
     <row r="215" spans="1:11">
-      <c r="A215" s="30"/>
-      <c r="B215" s="30"/>
+      <c r="A215" s="31"/>
+      <c r="B215" s="31"/>
       <c r="C215" s="3" t="s">
         <v>5</v>
       </c>
@@ -6287,17 +6815,17 @@
       <c r="E215" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F215" s="3" t="s">
+      <c r="F215" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G215" s="3">
         <v>3000</v>
       </c>
-      <c r="K215" s="31"/>
+      <c r="K215" s="32"/>
     </row>
     <row r="216" spans="1:11">
-      <c r="A216" s="30"/>
-      <c r="B216" s="30"/>
+      <c r="A216" s="31"/>
+      <c r="B216" s="31"/>
       <c r="C216" s="3" t="s">
         <v>224</v>
       </c>
@@ -6307,17 +6835,17 @@
       <c r="E216" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F216" s="3" t="s">
+      <c r="F216" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G216" s="3">
         <v>5</v>
       </c>
-      <c r="K216" s="31"/>
+      <c r="K216" s="32"/>
     </row>
     <row r="217" spans="1:11">
-      <c r="A217" s="30"/>
-      <c r="B217" s="30"/>
+      <c r="A217" s="31"/>
+      <c r="B217" s="31"/>
       <c r="C217" s="3" t="s">
         <v>6</v>
       </c>
@@ -6327,17 +6855,17 @@
       <c r="E217" s="5">
         <v>50</v>
       </c>
-      <c r="F217" s="3" t="s">
+      <c r="F217" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G217" s="3">
         <v>20</v>
       </c>
-      <c r="K217" s="31"/>
+      <c r="K217" s="32"/>
     </row>
     <row r="218" spans="1:11">
-      <c r="A218" s="27"/>
-      <c r="B218" s="27"/>
+      <c r="A218" s="28"/>
+      <c r="B218" s="28"/>
       <c r="C218" s="3" t="s">
         <v>8</v>
       </c>
@@ -6347,19 +6875,19 @@
       <c r="E218" s="5">
         <v>50</v>
       </c>
-      <c r="F218" s="3" t="s">
+      <c r="F218" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G218" s="3">
         <v>20</v>
       </c>
-      <c r="K218" s="29"/>
+      <c r="K218" s="30"/>
     </row>
     <row r="219" spans="1:11">
-      <c r="A219" s="26">
+      <c r="A219" s="27">
         <v>69</v>
       </c>
-      <c r="B219" s="26" t="s">
+      <c r="B219" s="27" t="s">
         <v>231</v>
       </c>
       <c r="C219" s="3" t="s">
@@ -6371,19 +6899,19 @@
       <c r="E219" s="5">
         <v>30</v>
       </c>
-      <c r="F219" s="3" t="s">
+      <c r="F219" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G219" s="3">
         <v>15</v>
       </c>
-      <c r="K219" s="28">
+      <c r="K219" s="29">
         <v>45552</v>
       </c>
     </row>
     <row r="220" spans="1:11">
-      <c r="A220" s="27"/>
-      <c r="B220" s="27"/>
+      <c r="A220" s="28"/>
+      <c r="B220" s="28"/>
       <c r="C220" s="3" t="s">
         <v>230</v>
       </c>
@@ -6393,19 +6921,19 @@
       <c r="E220" s="5">
         <v>60</v>
       </c>
-      <c r="F220" s="3" t="s">
+      <c r="F220" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G220" s="3">
         <v>15</v>
       </c>
-      <c r="K220" s="29"/>
+      <c r="K220" s="30"/>
     </row>
     <row r="221" spans="1:11" ht="30">
-      <c r="A221" s="26">
+      <c r="A221" s="27">
         <v>70</v>
       </c>
-      <c r="B221" s="26" t="s">
+      <c r="B221" s="27" t="s">
         <v>243</v>
       </c>
       <c r="C221" s="3" t="s">
@@ -6414,7 +6942,7 @@
       <c r="D221" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F221" s="3" t="s">
+      <c r="F221" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G221" s="3">
@@ -6423,13 +6951,13 @@
       <c r="J221" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="K221" s="28">
+      <c r="K221" s="29">
         <v>45552</v>
       </c>
     </row>
     <row r="222" spans="1:11" ht="30">
-      <c r="A222" s="30"/>
-      <c r="B222" s="30"/>
+      <c r="A222" s="31"/>
+      <c r="B222" s="31"/>
       <c r="C222" s="3" t="s">
         <v>233</v>
       </c>
@@ -6439,7 +6967,7 @@
       <c r="E222" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F222" s="3" t="s">
+      <c r="F222" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G222" s="3">
@@ -6448,11 +6976,11 @@
       <c r="J222" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="K222" s="31"/>
+      <c r="K222" s="32"/>
     </row>
     <row r="223" spans="1:11">
-      <c r="A223" s="30"/>
-      <c r="B223" s="30"/>
+      <c r="A223" s="31"/>
+      <c r="B223" s="31"/>
       <c r="C223" s="3" t="s">
         <v>234</v>
       </c>
@@ -6462,17 +6990,17 @@
       <c r="E223" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F223" s="3" t="s">
+      <c r="F223" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G223" s="3">
         <v>250</v>
       </c>
-      <c r="K223" s="31"/>
+      <c r="K223" s="32"/>
     </row>
     <row r="224" spans="1:11">
-      <c r="A224" s="30"/>
-      <c r="B224" s="30"/>
+      <c r="A224" s="31"/>
+      <c r="B224" s="31"/>
       <c r="C224" s="3" t="s">
         <v>6</v>
       </c>
@@ -6482,17 +7010,17 @@
       <c r="E224" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F224" s="3" t="s">
+      <c r="F224" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G224" s="3">
         <v>50</v>
       </c>
-      <c r="K224" s="31"/>
+      <c r="K224" s="32"/>
     </row>
     <row r="225" spans="1:11">
-      <c r="A225" s="30"/>
-      <c r="B225" s="30"/>
+      <c r="A225" s="31"/>
+      <c r="B225" s="31"/>
       <c r="C225" s="3" t="s">
         <v>235</v>
       </c>
@@ -6502,17 +7030,17 @@
       <c r="E225" s="5">
         <v>50</v>
       </c>
-      <c r="F225" s="3" t="s">
+      <c r="F225" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G225" s="3">
         <v>20</v>
       </c>
-      <c r="K225" s="31"/>
+      <c r="K225" s="32"/>
     </row>
     <row r="226" spans="1:11">
-      <c r="A226" s="30"/>
-      <c r="B226" s="30"/>
+      <c r="A226" s="31"/>
+      <c r="B226" s="31"/>
       <c r="C226" s="3" t="s">
         <v>236</v>
       </c>
@@ -6522,17 +7050,17 @@
       <c r="E226" s="5">
         <v>50</v>
       </c>
-      <c r="F226" s="3" t="s">
+      <c r="F226" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G226" s="3">
         <v>20</v>
       </c>
-      <c r="K226" s="31"/>
+      <c r="K226" s="32"/>
     </row>
     <row r="227" spans="1:11">
-      <c r="A227" s="30"/>
-      <c r="B227" s="30"/>
+      <c r="A227" s="31"/>
+      <c r="B227" s="31"/>
       <c r="C227" s="3" t="s">
         <v>237</v>
       </c>
@@ -6542,17 +7070,17 @@
       <c r="E227" s="5">
         <v>50</v>
       </c>
-      <c r="F227" s="3" t="s">
+      <c r="F227" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G227" s="3">
         <v>20</v>
       </c>
-      <c r="K227" s="31"/>
+      <c r="K227" s="32"/>
     </row>
     <row r="228" spans="1:11">
-      <c r="A228" s="30"/>
-      <c r="B228" s="30"/>
+      <c r="A228" s="31"/>
+      <c r="B228" s="31"/>
       <c r="C228" s="3" t="s">
         <v>238</v>
       </c>
@@ -6562,17 +7090,17 @@
       <c r="E228" s="5">
         <v>50</v>
       </c>
-      <c r="F228" s="3" t="s">
+      <c r="F228" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G228" s="3">
         <v>20</v>
       </c>
-      <c r="K228" s="31"/>
+      <c r="K228" s="32"/>
     </row>
     <row r="229" spans="1:11">
-      <c r="A229" s="30"/>
-      <c r="B229" s="30"/>
+      <c r="A229" s="31"/>
+      <c r="B229" s="31"/>
       <c r="C229" s="3" t="s">
         <v>239</v>
       </c>
@@ -6582,17 +7110,17 @@
       <c r="E229" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F229" s="3" t="s">
+      <c r="F229" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G229" s="3">
         <v>100</v>
       </c>
-      <c r="K229" s="31"/>
+      <c r="K229" s="32"/>
     </row>
     <row r="230" spans="1:11">
-      <c r="A230" s="30"/>
-      <c r="B230" s="30"/>
+      <c r="A230" s="31"/>
+      <c r="B230" s="31"/>
       <c r="C230" s="3" t="s">
         <v>240</v>
       </c>
@@ -6602,17 +7130,17 @@
       <c r="E230" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F230" s="3" t="s">
+      <c r="F230" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G230" s="3">
         <v>100</v>
       </c>
-      <c r="K230" s="31"/>
+      <c r="K230" s="32"/>
     </row>
     <row r="231" spans="1:11">
-      <c r="A231" s="30"/>
-      <c r="B231" s="30"/>
+      <c r="A231" s="31"/>
+      <c r="B231" s="31"/>
       <c r="C231" s="3" t="s">
         <v>241</v>
       </c>
@@ -6622,17 +7150,17 @@
       <c r="E231" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F231" s="3" t="s">
+      <c r="F231" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G231" s="3">
         <v>100</v>
       </c>
-      <c r="K231" s="31"/>
+      <c r="K231" s="32"/>
     </row>
     <row r="232" spans="1:11">
-      <c r="A232" s="27"/>
-      <c r="B232" s="27"/>
+      <c r="A232" s="28"/>
+      <c r="B232" s="28"/>
       <c r="C232" s="3" t="s">
         <v>242</v>
       </c>
@@ -6642,19 +7170,19 @@
       <c r="E232" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F232" s="3" t="s">
+      <c r="F232" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G232" s="3">
         <v>100</v>
       </c>
-      <c r="K232" s="29"/>
+      <c r="K232" s="30"/>
     </row>
     <row r="233" spans="1:11">
-      <c r="A233" s="26">
+      <c r="A233" s="27">
         <v>71</v>
       </c>
-      <c r="B233" s="26" t="s">
+      <c r="B233" s="27" t="s">
         <v>249</v>
       </c>
       <c r="C233" s="3" t="s">
@@ -6666,19 +7194,19 @@
       <c r="E233" s="5">
         <v>50</v>
       </c>
-      <c r="F233" s="3" t="s">
+      <c r="F233" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G233" s="3">
         <v>20</v>
       </c>
-      <c r="K233" s="28">
+      <c r="K233" s="29">
         <v>45552</v>
       </c>
     </row>
     <row r="234" spans="1:11">
-      <c r="A234" s="30"/>
-      <c r="B234" s="30"/>
+      <c r="A234" s="31"/>
+      <c r="B234" s="31"/>
       <c r="C234" s="3" t="s">
         <v>8</v>
       </c>
@@ -6688,17 +7216,17 @@
       <c r="E234" s="5">
         <v>50</v>
       </c>
-      <c r="F234" s="3" t="s">
+      <c r="F234" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G234" s="3">
         <v>30</v>
       </c>
-      <c r="K234" s="31"/>
+      <c r="K234" s="32"/>
     </row>
     <row r="235" spans="1:11">
-      <c r="A235" s="30"/>
-      <c r="B235" s="30"/>
+      <c r="A235" s="31"/>
+      <c r="B235" s="31"/>
       <c r="C235" s="3" t="s">
         <v>246</v>
       </c>
@@ -6708,17 +7236,17 @@
       <c r="E235" s="5">
         <v>80</v>
       </c>
-      <c r="F235" s="3" t="s">
+      <c r="F235" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G235" s="3">
         <v>50</v>
       </c>
-      <c r="K235" s="31"/>
+      <c r="K235" s="32"/>
     </row>
     <row r="236" spans="1:11">
-      <c r="A236" s="30"/>
-      <c r="B236" s="30"/>
+      <c r="A236" s="31"/>
+      <c r="B236" s="31"/>
       <c r="C236" s="3" t="s">
         <v>247</v>
       </c>
@@ -6728,17 +7256,17 @@
       <c r="E236" s="5">
         <v>100</v>
       </c>
-      <c r="F236" s="3" t="s">
+      <c r="F236" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G236" s="3">
         <v>60</v>
       </c>
-      <c r="K236" s="31"/>
+      <c r="K236" s="32"/>
     </row>
     <row r="237" spans="1:11">
-      <c r="A237" s="27"/>
-      <c r="B237" s="27"/>
+      <c r="A237" s="28"/>
+      <c r="B237" s="28"/>
       <c r="C237" s="3" t="s">
         <v>248</v>
       </c>
@@ -6748,19 +7276,19 @@
       <c r="E237" s="5">
         <v>10</v>
       </c>
-      <c r="F237" s="3" t="s">
+      <c r="F237" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G237" s="3">
         <v>3</v>
       </c>
-      <c r="K237" s="29"/>
+      <c r="K237" s="30"/>
     </row>
     <row r="238" spans="1:11">
-      <c r="A238" s="26">
+      <c r="A238" s="27">
         <v>72</v>
       </c>
-      <c r="B238" s="26" t="s">
+      <c r="B238" s="27" t="s">
         <v>251</v>
       </c>
       <c r="C238" s="3" t="s">
@@ -6772,19 +7300,19 @@
       <c r="E238" s="5">
         <v>50</v>
       </c>
-      <c r="F238" s="3" t="s">
+      <c r="F238" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G238" s="3">
         <v>20</v>
       </c>
-      <c r="K238" s="28">
+      <c r="K238" s="29">
         <v>45552</v>
       </c>
     </row>
     <row r="239" spans="1:11">
-      <c r="A239" s="27"/>
-      <c r="B239" s="27"/>
+      <c r="A239" s="28"/>
+      <c r="B239" s="28"/>
       <c r="C239" s="3" t="s">
         <v>250</v>
       </c>
@@ -6794,19 +7322,19 @@
       <c r="E239" s="5">
         <v>150</v>
       </c>
-      <c r="F239" s="3" t="s">
+      <c r="F239" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G239" s="3">
         <v>50</v>
       </c>
-      <c r="K239" s="29"/>
+      <c r="K239" s="30"/>
     </row>
     <row r="240" spans="1:11">
-      <c r="A240" s="26">
+      <c r="A240" s="27">
         <v>73</v>
       </c>
-      <c r="B240" s="26" t="s">
+      <c r="B240" s="27" t="s">
         <v>252</v>
       </c>
       <c r="C240" s="3" t="s">
@@ -6818,19 +7346,19 @@
       <c r="E240" s="5">
         <v>50</v>
       </c>
-      <c r="F240" s="3" t="s">
+      <c r="F240" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G240" s="3">
         <v>20</v>
       </c>
-      <c r="K240" s="37">
+      <c r="K240" s="38">
         <v>45552</v>
       </c>
     </row>
     <row r="241" spans="1:11">
-      <c r="A241" s="27"/>
-      <c r="B241" s="27"/>
+      <c r="A241" s="28"/>
+      <c r="B241" s="28"/>
       <c r="C241" s="3" t="s">
         <v>8</v>
       </c>
@@ -6840,19 +7368,19 @@
       <c r="E241" s="5">
         <v>50</v>
       </c>
-      <c r="F241" s="3" t="s">
+      <c r="F241" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G241" s="3">
         <v>20</v>
       </c>
-      <c r="K241" s="38"/>
+      <c r="K241" s="39"/>
     </row>
     <row r="242" spans="1:11">
-      <c r="A242" s="26">
+      <c r="A242" s="27">
         <v>74</v>
       </c>
-      <c r="B242" s="26" t="s">
+      <c r="B242" s="27" t="s">
         <v>17</v>
       </c>
       <c r="C242" s="3" t="s">
@@ -6864,19 +7392,19 @@
       <c r="E242" s="5">
         <v>150</v>
       </c>
-      <c r="F242" s="3" t="s">
+      <c r="F242" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G242" s="3">
         <v>50</v>
       </c>
-      <c r="K242" s="28">
+      <c r="K242" s="29">
         <v>45552</v>
       </c>
     </row>
     <row r="243" spans="1:11">
-      <c r="A243" s="30"/>
-      <c r="B243" s="30"/>
+      <c r="A243" s="31"/>
+      <c r="B243" s="31"/>
       <c r="C243" s="3" t="s">
         <v>6</v>
       </c>
@@ -6886,17 +7414,17 @@
       <c r="E243" s="5">
         <v>50</v>
       </c>
-      <c r="F243" s="3" t="s">
+      <c r="F243" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G243" s="3">
         <v>20</v>
       </c>
-      <c r="K243" s="31"/>
+      <c r="K243" s="32"/>
     </row>
     <row r="244" spans="1:11">
-      <c r="A244" s="30"/>
-      <c r="B244" s="30"/>
+      <c r="A244" s="31"/>
+      <c r="B244" s="31"/>
       <c r="C244" s="3" t="s">
         <v>8</v>
       </c>
@@ -6906,17 +7434,17 @@
       <c r="E244" s="5">
         <v>50</v>
       </c>
-      <c r="F244" s="3" t="s">
+      <c r="F244" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G244" s="3">
         <v>20</v>
       </c>
-      <c r="K244" s="31"/>
+      <c r="K244" s="32"/>
     </row>
     <row r="245" spans="1:11">
-      <c r="A245" s="30"/>
-      <c r="B245" s="30"/>
+      <c r="A245" s="31"/>
+      <c r="B245" s="31"/>
       <c r="C245" s="3" t="s">
         <v>12</v>
       </c>
@@ -6926,17 +7454,17 @@
       <c r="E245" s="5">
         <v>150</v>
       </c>
-      <c r="F245" s="3" t="s">
+      <c r="F245" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G245" s="3">
         <v>80</v>
       </c>
-      <c r="K245" s="31"/>
+      <c r="K245" s="32"/>
     </row>
     <row r="246" spans="1:11">
-      <c r="A246" s="27"/>
-      <c r="B246" s="27"/>
+      <c r="A246" s="28"/>
+      <c r="B246" s="28"/>
       <c r="C246" s="3" t="s">
         <v>11</v>
       </c>
@@ -6946,19 +7474,19 @@
       <c r="E246" s="5">
         <v>15</v>
       </c>
-      <c r="F246" s="3" t="s">
+      <c r="F246" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G246" s="3">
         <v>11</v>
       </c>
-      <c r="K246" s="29"/>
+      <c r="K246" s="30"/>
     </row>
     <row r="247" spans="1:11">
-      <c r="A247" s="26">
+      <c r="A247" s="27">
         <v>75</v>
       </c>
-      <c r="B247" s="26" t="s">
+      <c r="B247" s="27" t="s">
         <v>18</v>
       </c>
       <c r="C247" s="3" t="s">
@@ -6970,19 +7498,19 @@
       <c r="E247" s="5">
         <v>150</v>
       </c>
-      <c r="F247" s="3" t="s">
+      <c r="F247" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G247" s="3">
         <v>50</v>
       </c>
-      <c r="K247" s="28">
+      <c r="K247" s="29">
         <v>45552</v>
       </c>
     </row>
     <row r="248" spans="1:11">
-      <c r="A248" s="30"/>
-      <c r="B248" s="30"/>
+      <c r="A248" s="31"/>
+      <c r="B248" s="31"/>
       <c r="C248" s="3" t="s">
         <v>6</v>
       </c>
@@ -6992,17 +7520,17 @@
       <c r="E248" s="5">
         <v>50</v>
       </c>
-      <c r="F248" s="3" t="s">
+      <c r="F248" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G248" s="3">
         <v>20</v>
       </c>
-      <c r="K248" s="31"/>
+      <c r="K248" s="32"/>
     </row>
     <row r="249" spans="1:11">
-      <c r="A249" s="30"/>
-      <c r="B249" s="30"/>
+      <c r="A249" s="31"/>
+      <c r="B249" s="31"/>
       <c r="C249" s="3" t="s">
         <v>8</v>
       </c>
@@ -7012,17 +7540,17 @@
       <c r="E249" s="5">
         <v>50</v>
       </c>
-      <c r="F249" s="3" t="s">
+      <c r="F249" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G249" s="3">
         <v>20</v>
       </c>
-      <c r="K249" s="31"/>
+      <c r="K249" s="32"/>
     </row>
     <row r="250" spans="1:11">
-      <c r="A250" s="30"/>
-      <c r="B250" s="30"/>
+      <c r="A250" s="31"/>
+      <c r="B250" s="31"/>
       <c r="C250" s="3" t="s">
         <v>12</v>
       </c>
@@ -7032,17 +7560,17 @@
       <c r="E250" s="5">
         <v>150</v>
       </c>
-      <c r="F250" s="3" t="s">
+      <c r="F250" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G250" s="3">
         <v>80</v>
       </c>
-      <c r="K250" s="31"/>
+      <c r="K250" s="32"/>
     </row>
     <row r="251" spans="1:11">
-      <c r="A251" s="27"/>
-      <c r="B251" s="27"/>
+      <c r="A251" s="28"/>
+      <c r="B251" s="28"/>
       <c r="C251" s="3" t="s">
         <v>11</v>
       </c>
@@ -7052,19 +7580,19 @@
       <c r="E251" s="5">
         <v>15</v>
       </c>
-      <c r="F251" s="3" t="s">
+      <c r="F251" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G251" s="3">
         <v>11</v>
       </c>
-      <c r="K251" s="29"/>
+      <c r="K251" s="30"/>
     </row>
     <row r="252" spans="1:11">
-      <c r="A252" s="26">
+      <c r="A252" s="27">
         <v>76</v>
       </c>
-      <c r="B252" s="26" t="s">
+      <c r="B252" s="27" t="s">
         <v>22</v>
       </c>
       <c r="C252" s="3" t="s">
@@ -7076,7 +7604,7 @@
       <c r="E252" s="5">
         <v>100</v>
       </c>
-      <c r="F252" s="3" t="s">
+      <c r="F252" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G252" s="3">
@@ -7085,13 +7613,13 @@
       <c r="J252" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="K252" s="28">
+      <c r="K252" s="29">
         <v>45552</v>
       </c>
     </row>
     <row r="253" spans="1:11">
-      <c r="A253" s="30"/>
-      <c r="B253" s="30"/>
+      <c r="A253" s="31"/>
+      <c r="B253" s="31"/>
       <c r="C253" s="3" t="s">
         <v>6</v>
       </c>
@@ -7101,17 +7629,17 @@
       <c r="E253" s="5">
         <v>50</v>
       </c>
-      <c r="F253" s="3" t="s">
+      <c r="F253" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G253" s="3">
         <v>20</v>
       </c>
-      <c r="K253" s="31"/>
+      <c r="K253" s="32"/>
     </row>
     <row r="254" spans="1:11">
-      <c r="A254" s="30"/>
-      <c r="B254" s="30"/>
+      <c r="A254" s="31"/>
+      <c r="B254" s="31"/>
       <c r="C254" s="3" t="s">
         <v>8</v>
       </c>
@@ -7121,17 +7649,17 @@
       <c r="E254" s="5">
         <v>50</v>
       </c>
-      <c r="F254" s="3" t="s">
+      <c r="F254" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G254" s="3">
         <v>20</v>
       </c>
-      <c r="K254" s="31"/>
+      <c r="K254" s="32"/>
     </row>
     <row r="255" spans="1:11">
-      <c r="A255" s="30"/>
-      <c r="B255" s="30"/>
+      <c r="A255" s="31"/>
+      <c r="B255" s="31"/>
       <c r="C255" s="3" t="s">
         <v>20</v>
       </c>
@@ -7141,15 +7669,15 @@
       <c r="E255" s="5">
         <v>50</v>
       </c>
-      <c r="F255" s="3" t="s">
+      <c r="F255" s="5" t="s">
         <v>117</v>
       </c>
       <c r="G255"/>
-      <c r="K255" s="31"/>
+      <c r="K255" s="32"/>
     </row>
     <row r="256" spans="1:11">
-      <c r="A256" s="27"/>
-      <c r="B256" s="27"/>
+      <c r="A256" s="28"/>
+      <c r="B256" s="28"/>
       <c r="C256" s="3" t="s">
         <v>11</v>
       </c>
@@ -7159,19 +7687,19 @@
       <c r="E256" s="5">
         <v>15</v>
       </c>
-      <c r="F256" s="3" t="s">
+      <c r="F256" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G256" s="3">
         <v>11</v>
       </c>
-      <c r="K256" s="29"/>
+      <c r="K256" s="30"/>
     </row>
     <row r="257" spans="1:11">
-      <c r="A257" s="26">
+      <c r="A257" s="27">
         <v>77</v>
       </c>
-      <c r="B257" s="26" t="s">
+      <c r="B257" s="27" t="s">
         <v>254</v>
       </c>
       <c r="C257" s="3" t="s">
@@ -7183,19 +7711,19 @@
       <c r="E257" s="5">
         <v>50</v>
       </c>
-      <c r="F257" s="3" t="s">
+      <c r="F257" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G257" s="3">
         <v>20</v>
       </c>
-      <c r="K257" s="28">
+      <c r="K257" s="29">
         <v>45552</v>
       </c>
     </row>
     <row r="258" spans="1:11">
-      <c r="A258" s="27"/>
-      <c r="B258" s="27"/>
+      <c r="A258" s="28"/>
+      <c r="B258" s="28"/>
       <c r="C258" s="3" t="s">
         <v>99</v>
       </c>
@@ -7205,19 +7733,19 @@
       <c r="E258" s="5">
         <v>50</v>
       </c>
-      <c r="F258" s="3" t="s">
+      <c r="F258" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G258" s="3">
         <v>20</v>
       </c>
-      <c r="K258" s="29"/>
+      <c r="K258" s="30"/>
     </row>
     <row r="259" spans="1:11">
-      <c r="A259" s="26">
+      <c r="A259" s="27">
         <v>78</v>
       </c>
-      <c r="B259" s="26" t="s">
+      <c r="B259" s="27" t="s">
         <v>256</v>
       </c>
       <c r="C259" s="3" t="s">
@@ -7229,19 +7757,19 @@
       <c r="E259" s="5">
         <v>120</v>
       </c>
-      <c r="F259" s="3" t="s">
+      <c r="F259" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G259" s="3">
         <v>60</v>
       </c>
-      <c r="K259" s="28">
+      <c r="K259" s="29">
         <v>45552</v>
       </c>
     </row>
     <row r="260" spans="1:11">
-      <c r="A260" s="30"/>
-      <c r="B260" s="30"/>
+      <c r="A260" s="31"/>
+      <c r="B260" s="31"/>
       <c r="C260" s="3" t="s">
         <v>6</v>
       </c>
@@ -7251,17 +7779,17 @@
       <c r="E260" s="5">
         <v>50</v>
       </c>
-      <c r="F260" s="3" t="s">
+      <c r="F260" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G260" s="3">
         <v>20</v>
       </c>
-      <c r="K260" s="31"/>
+      <c r="K260" s="32"/>
     </row>
     <row r="261" spans="1:11">
-      <c r="A261" s="27"/>
-      <c r="B261" s="27"/>
+      <c r="A261" s="28"/>
+      <c r="B261" s="28"/>
       <c r="C261" s="3" t="s">
         <v>8</v>
       </c>
@@ -7271,19 +7799,19 @@
       <c r="E261" s="5">
         <v>50</v>
       </c>
-      <c r="F261" s="3" t="s">
+      <c r="F261" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G261" s="3">
         <v>20</v>
       </c>
-      <c r="K261" s="29"/>
+      <c r="K261" s="30"/>
     </row>
     <row r="262" spans="1:11">
-      <c r="A262" s="26">
+      <c r="A262" s="27">
         <v>79</v>
       </c>
-      <c r="B262" s="26" t="s">
+      <c r="B262" s="27" t="s">
         <v>39</v>
       </c>
       <c r="C262" s="8" t="s">
@@ -7295,20 +7823,20 @@
       <c r="E262" s="17">
         <v>50</v>
       </c>
-      <c r="F262" s="10" t="s">
+      <c r="F262" s="17" t="s">
         <v>7</v>
       </c>
       <c r="G262" s="10">
         <v>20</v>
       </c>
       <c r="H262" s="11"/>
-      <c r="K262" s="28">
+      <c r="K262" s="29">
         <v>45553</v>
       </c>
     </row>
     <row r="263" spans="1:11">
-      <c r="A263" s="30"/>
-      <c r="B263" s="30"/>
+      <c r="A263" s="31"/>
+      <c r="B263" s="31"/>
       <c r="C263" s="12" t="s">
         <v>8</v>
       </c>
@@ -7318,18 +7846,18 @@
       <c r="E263" s="18">
         <v>50</v>
       </c>
-      <c r="F263" s="13" t="s">
+      <c r="F263" s="18" t="s">
         <v>7</v>
       </c>
       <c r="G263" s="13">
         <v>20</v>
       </c>
       <c r="H263" s="13"/>
-      <c r="K263" s="31"/>
+      <c r="K263" s="32"/>
     </row>
     <row r="264" spans="1:11">
-      <c r="A264" s="30"/>
-      <c r="B264" s="30"/>
+      <c r="A264" s="31"/>
+      <c r="B264" s="31"/>
       <c r="C264" s="12" t="s">
         <v>37</v>
       </c>
@@ -7339,18 +7867,18 @@
       <c r="E264" s="18">
         <v>15</v>
       </c>
-      <c r="F264" s="13" t="s">
+      <c r="F264" s="18" t="s">
         <v>7</v>
       </c>
       <c r="G264" s="13">
         <v>10</v>
       </c>
       <c r="H264" s="13"/>
-      <c r="K264" s="31"/>
+      <c r="K264" s="32"/>
     </row>
     <row r="265" spans="1:11">
-      <c r="A265" s="30"/>
-      <c r="B265" s="30"/>
+      <c r="A265" s="31"/>
+      <c r="B265" s="31"/>
       <c r="C265" s="12" t="s">
         <v>38</v>
       </c>
@@ -7360,18 +7888,18 @@
       <c r="E265" s="18">
         <v>15</v>
       </c>
-      <c r="F265" s="13" t="s">
+      <c r="F265" s="18" t="s">
         <v>7</v>
       </c>
       <c r="G265" s="13">
         <v>11</v>
       </c>
       <c r="H265" s="13"/>
-      <c r="K265" s="31"/>
+      <c r="K265" s="32"/>
     </row>
     <row r="266" spans="1:11">
-      <c r="A266" s="30"/>
-      <c r="B266" s="30"/>
+      <c r="A266" s="31"/>
+      <c r="B266" s="31"/>
       <c r="C266" s="12" t="s">
         <v>9</v>
       </c>
@@ -7381,18 +7909,18 @@
       <c r="E266" s="18">
         <v>100</v>
       </c>
-      <c r="F266" s="13" t="s">
+      <c r="F266" s="18" t="s">
         <v>7</v>
       </c>
       <c r="G266" s="13">
         <v>50</v>
       </c>
       <c r="H266" s="13"/>
-      <c r="K266" s="31"/>
+      <c r="K266" s="32"/>
     </row>
     <row r="267" spans="1:11">
-      <c r="A267" s="27"/>
-      <c r="B267" s="27"/>
+      <c r="A267" s="28"/>
+      <c r="B267" s="28"/>
       <c r="C267" s="12" t="s">
         <v>36</v>
       </c>
@@ -7402,18 +7930,18 @@
       <c r="E267" s="18">
         <v>50</v>
       </c>
-      <c r="F267" s="13" t="s">
+      <c r="F267" s="18" t="s">
         <v>21</v>
       </c>
       <c r="G267" s="13"/>
       <c r="H267" s="13"/>
-      <c r="K267" s="29"/>
+      <c r="K267" s="30"/>
     </row>
     <row r="268" spans="1:11">
-      <c r="A268" s="26">
+      <c r="A268" s="27">
         <v>80</v>
       </c>
-      <c r="B268" s="26" t="s">
+      <c r="B268" s="27" t="s">
         <v>260</v>
       </c>
       <c r="C268" s="3" t="s">
@@ -7425,20 +7953,20 @@
       <c r="E268" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F268" s="3" t="s">
+      <c r="F268" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G268" s="3">
         <v>20</v>
       </c>
       <c r="H268" s="4"/>
-      <c r="K268" s="28">
+      <c r="K268" s="29">
         <v>45553</v>
       </c>
     </row>
     <row r="269" spans="1:11">
-      <c r="A269" s="30"/>
-      <c r="B269" s="30"/>
+      <c r="A269" s="31"/>
+      <c r="B269" s="31"/>
       <c r="C269" s="3" t="s">
         <v>8</v>
       </c>
@@ -7448,17 +7976,17 @@
       <c r="E269" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F269" s="3" t="s">
+      <c r="F269" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G269" s="3">
         <v>20</v>
       </c>
-      <c r="K269" s="31"/>
+      <c r="K269" s="32"/>
     </row>
     <row r="270" spans="1:11">
-      <c r="A270" s="30"/>
-      <c r="B270" s="30"/>
+      <c r="A270" s="31"/>
+      <c r="B270" s="31"/>
       <c r="C270" s="3" t="s">
         <v>257</v>
       </c>
@@ -7468,17 +7996,17 @@
       <c r="E270" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F270" s="3" t="s">
+      <c r="F270" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G270" s="3">
         <v>50</v>
       </c>
-      <c r="K270" s="31"/>
+      <c r="K270" s="32"/>
     </row>
     <row r="271" spans="1:11">
-      <c r="A271" s="30"/>
-      <c r="B271" s="30"/>
+      <c r="A271" s="31"/>
+      <c r="B271" s="31"/>
       <c r="C271" s="3" t="s">
         <v>258</v>
       </c>
@@ -7488,17 +8016,17 @@
       <c r="E271" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F271" s="3" t="s">
+      <c r="F271" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G271" s="3">
         <v>50</v>
       </c>
-      <c r="K271" s="31"/>
+      <c r="K271" s="32"/>
     </row>
     <row r="272" spans="1:11">
-      <c r="A272" s="27"/>
-      <c r="B272" s="27"/>
+      <c r="A272" s="28"/>
+      <c r="B272" s="28"/>
       <c r="C272" s="3" t="s">
         <v>259</v>
       </c>
@@ -7508,19 +8036,19 @@
       <c r="E272" s="5">
         <v>2</v>
       </c>
-      <c r="F272" s="3" t="s">
+      <c r="F272" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G272" s="3">
         <v>2</v>
       </c>
-      <c r="K272" s="29"/>
+      <c r="K272" s="30"/>
     </row>
     <row r="273" spans="1:11">
-      <c r="A273" s="26">
+      <c r="A273" s="27">
         <v>81</v>
       </c>
-      <c r="B273" s="26" t="s">
+      <c r="B273" s="27" t="s">
         <v>264</v>
       </c>
       <c r="C273" s="3" t="s">
@@ -7532,20 +8060,20 @@
       <c r="E273" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F273" s="3" t="s">
+      <c r="F273" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G273" s="3">
         <v>20</v>
       </c>
       <c r="H273" s="4"/>
-      <c r="K273" s="28">
+      <c r="K273" s="29">
         <v>45553</v>
       </c>
     </row>
     <row r="274" spans="1:11">
-      <c r="A274" s="30"/>
-      <c r="B274" s="30"/>
+      <c r="A274" s="31"/>
+      <c r="B274" s="31"/>
       <c r="C274" s="3" t="s">
         <v>8</v>
       </c>
@@ -7555,17 +8083,17 @@
       <c r="E274" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F274" s="3" t="s">
+      <c r="F274" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G274" s="3">
         <v>20</v>
       </c>
-      <c r="K274" s="31"/>
+      <c r="K274" s="32"/>
     </row>
     <row r="275" spans="1:11">
-      <c r="A275" s="30"/>
-      <c r="B275" s="30"/>
+      <c r="A275" s="31"/>
+      <c r="B275" s="31"/>
       <c r="C275" s="3" t="s">
         <v>261</v>
       </c>
@@ -7575,17 +8103,17 @@
       <c r="E275" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F275" s="3" t="s">
+      <c r="F275" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G275" s="3">
         <v>100</v>
       </c>
-      <c r="K275" s="31"/>
+      <c r="K275" s="32"/>
     </row>
     <row r="276" spans="1:11">
-      <c r="A276" s="30"/>
-      <c r="B276" s="30"/>
+      <c r="A276" s="31"/>
+      <c r="B276" s="31"/>
       <c r="C276" s="3" t="s">
         <v>262</v>
       </c>
@@ -7595,17 +8123,17 @@
       <c r="E276" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F276" s="3" t="s">
+      <c r="F276" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G276" s="3">
         <v>100</v>
       </c>
-      <c r="K276" s="29"/>
+      <c r="K276" s="30"/>
     </row>
     <row r="277" spans="1:11">
-      <c r="A277" s="27"/>
-      <c r="B277" s="27"/>
+      <c r="A277" s="28"/>
+      <c r="B277" s="28"/>
       <c r="C277" s="3" t="s">
         <v>263</v>
       </c>
@@ -7615,21 +8143,21 @@
       <c r="E277" s="5">
         <v>2</v>
       </c>
-      <c r="F277" s="3" t="s">
+      <c r="F277" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G277" s="3">
         <v>2</v>
       </c>
-      <c r="K277" s="28">
+      <c r="K277" s="29">
         <v>45553</v>
       </c>
     </row>
     <row r="278" spans="1:11">
-      <c r="A278" s="26">
+      <c r="A278" s="27">
         <v>82</v>
       </c>
-      <c r="B278" s="26" t="s">
+      <c r="B278" s="27" t="s">
         <v>268</v>
       </c>
       <c r="C278" s="3" t="s">
@@ -7641,17 +8169,17 @@
       <c r="E278" s="3">
         <v>50</v>
       </c>
-      <c r="F278" s="3" t="s">
+      <c r="F278" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G278" s="3">
         <v>20</v>
       </c>
-      <c r="K278" s="31"/>
+      <c r="K278" s="32"/>
     </row>
     <row r="279" spans="1:11">
-      <c r="A279" s="30"/>
-      <c r="B279" s="30"/>
+      <c r="A279" s="31"/>
+      <c r="B279" s="31"/>
       <c r="C279" s="3" t="s">
         <v>8</v>
       </c>
@@ -7661,17 +8189,17 @@
       <c r="E279" s="3">
         <v>50</v>
       </c>
-      <c r="F279" s="3" t="s">
+      <c r="F279" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G279" s="3">
         <v>20</v>
       </c>
-      <c r="K279" s="31"/>
+      <c r="K279" s="32"/>
     </row>
     <row r="280" spans="1:11">
-      <c r="A280" s="30"/>
-      <c r="B280" s="30"/>
+      <c r="A280" s="31"/>
+      <c r="B280" s="31"/>
       <c r="C280" s="3" t="s">
         <v>266</v>
       </c>
@@ -7681,17 +8209,17 @@
       <c r="E280" s="3">
         <v>100</v>
       </c>
-      <c r="F280" s="3" t="s">
+      <c r="F280" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G280" s="3">
         <v>50</v>
       </c>
-      <c r="K280" s="31"/>
+      <c r="K280" s="32"/>
     </row>
     <row r="281" spans="1:11">
-      <c r="A281" s="27"/>
-      <c r="B281" s="27"/>
+      <c r="A281" s="28"/>
+      <c r="B281" s="28"/>
       <c r="C281" s="3" t="s">
         <v>267</v>
       </c>
@@ -7701,19 +8229,19 @@
       <c r="E281" s="3">
         <v>100</v>
       </c>
-      <c r="F281" s="3" t="s">
+      <c r="F281" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G281" s="3">
         <v>50</v>
       </c>
-      <c r="K281" s="29"/>
+      <c r="K281" s="30"/>
     </row>
     <row r="282" spans="1:11">
-      <c r="A282" s="26">
+      <c r="A282" s="27">
         <v>83</v>
       </c>
-      <c r="B282" s="26" t="s">
+      <c r="B282" s="27" t="s">
         <v>276</v>
       </c>
       <c r="C282" s="3" t="s">
@@ -7725,20 +8253,20 @@
       <c r="E282" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F282" s="3" t="s">
+      <c r="F282" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G282" s="3">
         <v>20</v>
       </c>
       <c r="H282" s="4"/>
-      <c r="K282" s="28">
+      <c r="K282" s="29">
         <v>45553</v>
       </c>
     </row>
     <row r="283" spans="1:11">
-      <c r="A283" s="30"/>
-      <c r="B283" s="30"/>
+      <c r="A283" s="31"/>
+      <c r="B283" s="31"/>
       <c r="C283" s="3" t="s">
         <v>8</v>
       </c>
@@ -7748,17 +8276,17 @@
       <c r="E283" s="3">
         <v>50</v>
       </c>
-      <c r="F283" s="3" t="s">
+      <c r="F283" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G283" s="3">
         <v>20</v>
       </c>
-      <c r="K283" s="31"/>
+      <c r="K283" s="32"/>
     </row>
     <row r="284" spans="1:11">
-      <c r="A284" s="30"/>
-      <c r="B284" s="30"/>
+      <c r="A284" s="31"/>
+      <c r="B284" s="31"/>
       <c r="C284" s="3" t="s">
         <v>269</v>
       </c>
@@ -7768,14 +8296,14 @@
       <c r="E284" s="3">
         <v>15</v>
       </c>
-      <c r="F284" s="3" t="s">
+      <c r="F284" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="K284" s="31"/>
+      <c r="K284" s="32"/>
     </row>
     <row r="285" spans="1:11">
-      <c r="A285" s="30"/>
-      <c r="B285" s="30"/>
+      <c r="A285" s="31"/>
+      <c r="B285" s="31"/>
       <c r="C285" s="3" t="s">
         <v>270</v>
       </c>
@@ -7785,14 +8313,14 @@
       <c r="E285" s="3">
         <v>10</v>
       </c>
-      <c r="F285" s="3" t="s">
+      <c r="F285" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="K285" s="31"/>
+      <c r="K285" s="32"/>
     </row>
     <row r="286" spans="1:11">
-      <c r="A286" s="30"/>
-      <c r="B286" s="30"/>
+      <c r="A286" s="31"/>
+      <c r="B286" s="31"/>
       <c r="C286" s="3" t="s">
         <v>271</v>
       </c>
@@ -7802,17 +8330,17 @@
       <c r="E286" s="3">
         <v>3</v>
       </c>
-      <c r="F286" s="3" t="s">
+      <c r="F286" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G286" s="3">
         <v>3</v>
       </c>
-      <c r="K286" s="31"/>
+      <c r="K286" s="32"/>
     </row>
     <row r="287" spans="1:11">
-      <c r="A287" s="30"/>
-      <c r="B287" s="30"/>
+      <c r="A287" s="31"/>
+      <c r="B287" s="31"/>
       <c r="C287" s="3" t="s">
         <v>272</v>
       </c>
@@ -7822,17 +8350,17 @@
       <c r="E287" s="3">
         <v>10</v>
       </c>
-      <c r="F287" s="3" t="s">
+      <c r="F287" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G287" s="3">
         <v>3</v>
       </c>
-      <c r="K287" s="31"/>
+      <c r="K287" s="32"/>
     </row>
     <row r="288" spans="1:11">
-      <c r="A288" s="30"/>
-      <c r="B288" s="30"/>
+      <c r="A288" s="31"/>
+      <c r="B288" s="31"/>
       <c r="C288" s="3" t="s">
         <v>273</v>
       </c>
@@ -7842,14 +8370,14 @@
       <c r="E288" s="3">
         <v>3</v>
       </c>
-      <c r="F288" s="3" t="s">
+      <c r="F288" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K288" s="31"/>
+      <c r="K288" s="32"/>
     </row>
     <row r="289" spans="1:11">
-      <c r="A289" s="30"/>
-      <c r="B289" s="30"/>
+      <c r="A289" s="31"/>
+      <c r="B289" s="31"/>
       <c r="C289" s="3" t="s">
         <v>274</v>
       </c>
@@ -7859,14 +8387,14 @@
       <c r="E289" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F289" s="3" t="s">
+      <c r="F289" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="K289" s="31"/>
+      <c r="K289" s="32"/>
     </row>
     <row r="290" spans="1:11">
-      <c r="A290" s="27"/>
-      <c r="B290" s="27"/>
+      <c r="A290" s="28"/>
+      <c r="B290" s="28"/>
       <c r="C290" s="3" t="s">
         <v>275</v>
       </c>
@@ -7876,19 +8404,19 @@
       <c r="E290" s="3">
         <v>20</v>
       </c>
-      <c r="F290" s="3" t="s">
+      <c r="F290" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G290" s="3">
         <v>20</v>
       </c>
-      <c r="K290" s="29"/>
+      <c r="K290" s="30"/>
     </row>
     <row r="291" spans="1:11">
-      <c r="A291" s="26">
+      <c r="A291" s="27">
         <v>84</v>
       </c>
-      <c r="B291" s="26" t="s">
+      <c r="B291" s="27" t="s">
         <v>288</v>
       </c>
       <c r="C291" s="3" t="s">
@@ -7900,19 +8428,19 @@
       <c r="E291" s="3">
         <v>0</v>
       </c>
-      <c r="F291" s="3" t="s">
+      <c r="F291" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G291" s="3">
         <v>0</v>
       </c>
-      <c r="K291" s="28">
+      <c r="K291" s="29">
         <v>45553</v>
       </c>
     </row>
     <row r="292" spans="1:11">
-      <c r="A292" s="30"/>
-      <c r="B292" s="30"/>
+      <c r="A292" s="31"/>
+      <c r="B292" s="31"/>
       <c r="C292" s="3" t="s">
         <v>278</v>
       </c>
@@ -7922,17 +8450,17 @@
       <c r="E292" s="3">
         <v>6</v>
       </c>
-      <c r="F292" s="3" t="s">
+      <c r="F292" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G292" s="3">
         <v>8</v>
       </c>
-      <c r="K292" s="31"/>
+      <c r="K292" s="32"/>
     </row>
     <row r="293" spans="1:11">
-      <c r="A293" s="30"/>
-      <c r="B293" s="30"/>
+      <c r="A293" s="31"/>
+      <c r="B293" s="31"/>
       <c r="C293" s="3" t="s">
         <v>279</v>
       </c>
@@ -7942,17 +8470,17 @@
       <c r="E293" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F293" s="3" t="s">
+      <c r="F293" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G293" s="3">
         <v>50</v>
       </c>
-      <c r="K293" s="31"/>
+      <c r="K293" s="32"/>
     </row>
     <row r="294" spans="1:11">
-      <c r="A294" s="30"/>
-      <c r="B294" s="30"/>
+      <c r="A294" s="31"/>
+      <c r="B294" s="31"/>
       <c r="C294" s="3" t="s">
         <v>280</v>
       </c>
@@ -7962,17 +8490,17 @@
       <c r="E294" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F294" s="3" t="s">
+      <c r="F294" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G294" s="3">
         <v>50</v>
       </c>
-      <c r="K294" s="31"/>
+      <c r="K294" s="32"/>
     </row>
     <row r="295" spans="1:11">
-      <c r="A295" s="30"/>
-      <c r="B295" s="30"/>
+      <c r="A295" s="31"/>
+      <c r="B295" s="31"/>
       <c r="C295" s="3" t="s">
         <v>281</v>
       </c>
@@ -7982,17 +8510,17 @@
       <c r="E295" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F295" s="3" t="s">
+      <c r="F295" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G295" s="3">
         <v>10</v>
       </c>
-      <c r="K295" s="31"/>
+      <c r="K295" s="32"/>
     </row>
     <row r="296" spans="1:11">
-      <c r="A296" s="30"/>
-      <c r="B296" s="30"/>
+      <c r="A296" s="31"/>
+      <c r="B296" s="31"/>
       <c r="C296" s="3" t="s">
         <v>282</v>
       </c>
@@ -8002,17 +8530,17 @@
       <c r="E296" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F296" s="3" t="s">
+      <c r="F296" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G296" s="3">
         <v>150</v>
       </c>
-      <c r="K296" s="31"/>
+      <c r="K296" s="32"/>
     </row>
     <row r="297" spans="1:11">
-      <c r="A297" s="30"/>
-      <c r="B297" s="30"/>
+      <c r="A297" s="31"/>
+      <c r="B297" s="31"/>
       <c r="C297" s="3" t="s">
         <v>283</v>
       </c>
@@ -8022,17 +8550,17 @@
       <c r="E297" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F297" s="3" t="s">
+      <c r="F297" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G297" s="3">
         <v>100</v>
       </c>
-      <c r="K297" s="31"/>
+      <c r="K297" s="32"/>
     </row>
     <row r="298" spans="1:11">
-      <c r="A298" s="30"/>
-      <c r="B298" s="30"/>
+      <c r="A298" s="31"/>
+      <c r="B298" s="31"/>
       <c r="C298" s="3" t="s">
         <v>6</v>
       </c>
@@ -8042,17 +8570,17 @@
       <c r="E298" s="3">
         <v>50</v>
       </c>
-      <c r="F298" s="3" t="s">
+      <c r="F298" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G298" s="3">
         <v>20</v>
       </c>
-      <c r="K298" s="31"/>
+      <c r="K298" s="32"/>
     </row>
     <row r="299" spans="1:11">
-      <c r="A299" s="30"/>
-      <c r="B299" s="30"/>
+      <c r="A299" s="31"/>
+      <c r="B299" s="31"/>
       <c r="C299" s="3" t="s">
         <v>8</v>
       </c>
@@ -8062,17 +8590,17 @@
       <c r="E299" s="3">
         <v>50</v>
       </c>
-      <c r="F299" s="3" t="s">
+      <c r="F299" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G299" s="3">
         <v>20</v>
       </c>
-      <c r="K299" s="31"/>
+      <c r="K299" s="32"/>
     </row>
     <row r="300" spans="1:11">
-      <c r="A300" s="30"/>
-      <c r="B300" s="30"/>
+      <c r="A300" s="31"/>
+      <c r="B300" s="31"/>
       <c r="C300" s="3" t="s">
         <v>284</v>
       </c>
@@ -8082,7 +8610,7 @@
       <c r="E300" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F300" s="3" t="s">
+      <c r="F300" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G300" s="3">
@@ -8091,11 +8619,11 @@
       <c r="J300" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="K300" s="31"/>
+      <c r="K300" s="32"/>
     </row>
     <row r="301" spans="1:11">
-      <c r="A301" s="30"/>
-      <c r="B301" s="30"/>
+      <c r="A301" s="31"/>
+      <c r="B301" s="31"/>
       <c r="C301" s="3" t="s">
         <v>285</v>
       </c>
@@ -8105,17 +8633,17 @@
       <c r="E301" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F301" s="3" t="s">
+      <c r="F301" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G301" s="3">
         <v>50</v>
       </c>
-      <c r="K301" s="31"/>
+      <c r="K301" s="32"/>
     </row>
     <row r="302" spans="1:11">
-      <c r="A302" s="27"/>
-      <c r="B302" s="27"/>
+      <c r="A302" s="28"/>
+      <c r="B302" s="28"/>
       <c r="C302" s="3" t="s">
         <v>286</v>
       </c>
@@ -8125,19 +8653,19 @@
       <c r="E302" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F302" s="3" t="s">
+      <c r="F302" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G302" s="3">
         <v>150</v>
       </c>
-      <c r="K302" s="29"/>
+      <c r="K302" s="30"/>
     </row>
     <row r="303" spans="1:11">
-      <c r="A303" s="26">
+      <c r="A303" s="27">
         <v>85</v>
       </c>
-      <c r="B303" s="26" t="s">
+      <c r="B303" s="27" t="s">
         <v>291</v>
       </c>
       <c r="C303" s="3" t="s">
@@ -8149,20 +8677,20 @@
       <c r="E303" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F303" s="3" t="s">
+      <c r="F303" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G303" s="3">
         <v>20</v>
       </c>
       <c r="H303" s="4"/>
-      <c r="K303" s="28">
+      <c r="K303" s="29">
         <v>45553</v>
       </c>
     </row>
     <row r="304" spans="1:11">
-      <c r="A304" s="30"/>
-      <c r="B304" s="30"/>
+      <c r="A304" s="31"/>
+      <c r="B304" s="31"/>
       <c r="C304" s="3" t="s">
         <v>289</v>
       </c>
@@ -8172,17 +8700,17 @@
       <c r="E304" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F304" s="3" t="s">
+      <c r="F304" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G304" s="3">
         <v>20</v>
       </c>
-      <c r="K304" s="31"/>
+      <c r="K304" s="32"/>
     </row>
     <row r="305" spans="1:11">
-      <c r="A305" s="30"/>
-      <c r="B305" s="30"/>
+      <c r="A305" s="31"/>
+      <c r="B305" s="31"/>
       <c r="C305" s="3" t="s">
         <v>290</v>
       </c>
@@ -8190,14 +8718,14 @@
         <v>67</v>
       </c>
       <c r="E305" s="3"/>
-      <c r="F305" s="3" t="s">
+      <c r="F305" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K305" s="31"/>
+      <c r="K305" s="32"/>
     </row>
     <row r="306" spans="1:11">
-      <c r="A306" s="27"/>
-      <c r="B306" s="27"/>
+      <c r="A306" s="28"/>
+      <c r="B306" s="28"/>
       <c r="C306" s="3" t="s">
         <v>274</v>
       </c>
@@ -8207,16 +8735,16 @@
       <c r="E306" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F306" s="3" t="s">
+      <c r="F306" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="K306" s="29"/>
+      <c r="K306" s="30"/>
     </row>
     <row r="307" spans="1:11">
-      <c r="A307" s="26">
+      <c r="A307" s="27">
         <v>86</v>
       </c>
-      <c r="B307" s="32" t="s">
+      <c r="B307" s="33" t="s">
         <v>296</v>
       </c>
       <c r="C307" s="3" t="s">
@@ -8226,16 +8754,16 @@
         <v>67</v>
       </c>
       <c r="E307" s="3"/>
-      <c r="F307" s="3" t="s">
+      <c r="F307" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K307" s="28">
+      <c r="K307" s="29">
         <v>45553</v>
       </c>
     </row>
     <row r="308" spans="1:11" ht="45">
-      <c r="A308" s="30"/>
-      <c r="B308" s="33"/>
+      <c r="A308" s="31"/>
+      <c r="B308" s="34"/>
       <c r="C308" s="3" t="s">
         <v>292</v>
       </c>
@@ -8248,11 +8776,11 @@
       <c r="J308" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="K308" s="31"/>
+      <c r="K308" s="32"/>
     </row>
     <row r="309" spans="1:11">
-      <c r="A309" s="30"/>
-      <c r="B309" s="33"/>
+      <c r="A309" s="31"/>
+      <c r="B309" s="34"/>
       <c r="C309" s="3" t="s">
         <v>293</v>
       </c>
@@ -8262,17 +8790,17 @@
       <c r="E309" s="3">
         <v>10</v>
       </c>
-      <c r="F309" s="3" t="s">
+      <c r="F309" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G309" s="3">
         <v>9</v>
       </c>
-      <c r="K309" s="31"/>
+      <c r="K309" s="32"/>
     </row>
     <row r="310" spans="1:11">
-      <c r="A310" s="30"/>
-      <c r="B310" s="33"/>
+      <c r="A310" s="31"/>
+      <c r="B310" s="34"/>
       <c r="C310" s="3" t="s">
         <v>294</v>
       </c>
@@ -8282,17 +8810,17 @@
       <c r="E310" s="3">
         <v>10</v>
       </c>
-      <c r="F310" s="3" t="s">
+      <c r="F310" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G310" s="3">
         <v>9</v>
       </c>
-      <c r="K310" s="31"/>
+      <c r="K310" s="32"/>
     </row>
     <row r="311" spans="1:11">
-      <c r="A311" s="30"/>
-      <c r="B311" s="33"/>
+      <c r="A311" s="31"/>
+      <c r="B311" s="34"/>
       <c r="C311" s="3" t="s">
         <v>295</v>
       </c>
@@ -8302,17 +8830,17 @@
       <c r="E311" s="3">
         <v>10</v>
       </c>
-      <c r="F311" s="3" t="s">
+      <c r="F311" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G311" s="3">
         <v>5</v>
       </c>
-      <c r="K311" s="31"/>
+      <c r="K311" s="32"/>
     </row>
     <row r="312" spans="1:11">
-      <c r="A312" s="30"/>
-      <c r="B312" s="33"/>
+      <c r="A312" s="31"/>
+      <c r="B312" s="34"/>
       <c r="C312" s="3" t="s">
         <v>6</v>
       </c>
@@ -8322,17 +8850,17 @@
       <c r="E312" s="3">
         <v>50</v>
       </c>
-      <c r="F312" s="3" t="s">
+      <c r="F312" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G312" s="3">
         <v>20</v>
       </c>
-      <c r="K312" s="31"/>
+      <c r="K312" s="32"/>
     </row>
     <row r="313" spans="1:11">
-      <c r="A313" s="30"/>
-      <c r="B313" s="33"/>
+      <c r="A313" s="31"/>
+      <c r="B313" s="34"/>
       <c r="C313" s="3" t="s">
         <v>8</v>
       </c>
@@ -8342,17 +8870,17 @@
       <c r="E313" s="3">
         <v>50</v>
       </c>
-      <c r="F313" s="3" t="s">
+      <c r="F313" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G313" s="3">
         <v>20</v>
       </c>
-      <c r="K313" s="31"/>
+      <c r="K313" s="32"/>
     </row>
     <row r="314" spans="1:11" ht="30">
-      <c r="A314" s="27"/>
-      <c r="B314" s="34"/>
+      <c r="A314" s="28"/>
+      <c r="B314" s="35"/>
       <c r="C314" s="3" t="s">
         <v>185</v>
       </c>
@@ -8363,13 +8891,13 @@
       <c r="J314" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="K314" s="29"/>
+      <c r="K314" s="30"/>
     </row>
     <row r="315" spans="1:11">
-      <c r="A315" s="35">
+      <c r="A315" s="36">
         <v>87</v>
       </c>
-      <c r="B315" s="35" t="s">
+      <c r="B315" s="36" t="s">
         <v>35</v>
       </c>
       <c r="C315" s="3" t="s">
@@ -8381,19 +8909,19 @@
       <c r="E315" s="5">
         <v>50</v>
       </c>
-      <c r="F315" s="3" t="s">
+      <c r="F315" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G315" s="3">
         <v>20</v>
       </c>
-      <c r="K315" s="28">
+      <c r="K315" s="29">
         <v>45553</v>
       </c>
     </row>
     <row r="316" spans="1:11">
-      <c r="A316" s="35"/>
-      <c r="B316" s="35"/>
+      <c r="A316" s="36"/>
+      <c r="B316" s="36"/>
       <c r="C316" s="3" t="s">
         <v>8</v>
       </c>
@@ -8403,13 +8931,13 @@
       <c r="E316" s="5">
         <v>50</v>
       </c>
-      <c r="F316" s="3" t="s">
+      <c r="F316" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G316" s="5">
         <v>20</v>
       </c>
-      <c r="K316" s="29"/>
+      <c r="K316" s="30"/>
     </row>
     <row r="317" spans="1:11">
       <c r="A317" s="6">
@@ -8426,10 +8954,10 @@
       </c>
     </row>
     <row r="318" spans="1:11">
-      <c r="A318" s="26">
+      <c r="A318" s="27">
         <v>89</v>
       </c>
-      <c r="B318" s="32" t="s">
+      <c r="B318" s="33" t="s">
         <v>304</v>
       </c>
       <c r="C318" s="3" t="s">
@@ -8439,16 +8967,16 @@
         <v>67</v>
       </c>
       <c r="E318" s="3"/>
-      <c r="F318" s="3" t="s">
+      <c r="F318" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K318" s="28">
+      <c r="K318" s="29">
         <v>45554</v>
       </c>
     </row>
     <row r="319" spans="1:11" ht="45">
-      <c r="A319" s="30"/>
-      <c r="B319" s="33"/>
+      <c r="A319" s="31"/>
+      <c r="B319" s="34"/>
       <c r="C319" s="3" t="s">
         <v>292</v>
       </c>
@@ -8461,11 +8989,11 @@
       <c r="J319" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="K319" s="31"/>
+      <c r="K319" s="32"/>
     </row>
     <row r="320" spans="1:11" ht="30">
-      <c r="A320" s="30"/>
-      <c r="B320" s="33"/>
+      <c r="A320" s="31"/>
+      <c r="B320" s="34"/>
       <c r="C320" s="3" t="s">
         <v>301</v>
       </c>
@@ -8475,7 +9003,7 @@
       <c r="E320" s="3">
         <v>50</v>
       </c>
-      <c r="F320" s="3" t="s">
+      <c r="F320" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G320" s="3">
@@ -8484,11 +9012,11 @@
       <c r="J320" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="K320" s="31"/>
+      <c r="K320" s="32"/>
     </row>
     <row r="321" spans="1:11">
-      <c r="A321" s="30"/>
-      <c r="B321" s="33"/>
+      <c r="A321" s="31"/>
+      <c r="B321" s="34"/>
       <c r="C321" s="3" t="s">
         <v>302</v>
       </c>
@@ -8498,17 +9026,17 @@
       <c r="E321" s="3">
         <v>8</v>
       </c>
-      <c r="F321" s="3" t="s">
+      <c r="F321" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G321" s="3">
         <v>6</v>
       </c>
-      <c r="K321" s="31"/>
+      <c r="K321" s="32"/>
     </row>
     <row r="322" spans="1:11">
-      <c r="A322" s="30"/>
-      <c r="B322" s="33"/>
+      <c r="A322" s="31"/>
+      <c r="B322" s="34"/>
       <c r="C322" s="3" t="s">
         <v>303</v>
       </c>
@@ -8518,17 +9046,17 @@
       <c r="E322" s="3">
         <v>8</v>
       </c>
-      <c r="F322" s="3" t="s">
+      <c r="F322" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G322" s="3">
         <v>6</v>
       </c>
-      <c r="K322" s="31"/>
+      <c r="K322" s="32"/>
     </row>
     <row r="323" spans="1:11">
-      <c r="A323" s="30"/>
-      <c r="B323" s="33"/>
+      <c r="A323" s="31"/>
+      <c r="B323" s="34"/>
       <c r="C323" s="3" t="s">
         <v>6</v>
       </c>
@@ -8538,17 +9066,17 @@
       <c r="E323" s="3">
         <v>50</v>
       </c>
-      <c r="F323" s="3" t="s">
+      <c r="F323" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G323" s="3">
         <v>20</v>
       </c>
-      <c r="K323" s="31"/>
+      <c r="K323" s="32"/>
     </row>
     <row r="324" spans="1:11">
-      <c r="A324" s="30"/>
-      <c r="B324" s="33"/>
+      <c r="A324" s="31"/>
+      <c r="B324" s="34"/>
       <c r="C324" s="3" t="s">
         <v>8</v>
       </c>
@@ -8558,7 +9086,7 @@
       <c r="E324" s="3">
         <v>50</v>
       </c>
-      <c r="F324" s="3" t="s">
+      <c r="F324" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G324" s="3">
@@ -8567,11 +9095,11 @@
       <c r="J324" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="K324" s="31"/>
+      <c r="K324" s="32"/>
     </row>
     <row r="325" spans="1:11">
-      <c r="A325" s="27"/>
-      <c r="B325" s="34"/>
+      <c r="A325" s="28"/>
+      <c r="B325" s="35"/>
       <c r="C325" s="3" t="s">
         <v>185</v>
       </c>
@@ -8579,13 +9107,13 @@
         <v>67</v>
       </c>
       <c r="E325" s="3"/>
-      <c r="K325" s="29"/>
+      <c r="K325" s="30"/>
     </row>
     <row r="326" spans="1:11" ht="30" customHeight="1">
-      <c r="A326" s="26">
+      <c r="A326" s="27">
         <v>90</v>
       </c>
-      <c r="B326" s="32" t="s">
+      <c r="B326" s="33" t="s">
         <v>307</v>
       </c>
       <c r="C326" s="3" t="s">
@@ -8595,16 +9123,16 @@
         <v>67</v>
       </c>
       <c r="E326" s="3"/>
-      <c r="F326" s="3" t="s">
+      <c r="F326" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K326" s="28">
+      <c r="K326" s="29">
         <v>45554</v>
       </c>
     </row>
     <row r="327" spans="1:11" ht="30" customHeight="1">
-      <c r="A327" s="30"/>
-      <c r="B327" s="33"/>
+      <c r="A327" s="31"/>
+      <c r="B327" s="34"/>
       <c r="C327" s="3" t="s">
         <v>292</v>
       </c>
@@ -8617,11 +9145,11 @@
       <c r="J327" s="22" t="s">
         <v>298</v>
       </c>
-      <c r="K327" s="31"/>
+      <c r="K327" s="32"/>
     </row>
     <row r="328" spans="1:11" ht="30" customHeight="1">
-      <c r="A328" s="30"/>
-      <c r="B328" s="33"/>
+      <c r="A328" s="31"/>
+      <c r="B328" s="34"/>
       <c r="C328" s="3" t="s">
         <v>301</v>
       </c>
@@ -8631,7 +9159,7 @@
       <c r="E328" s="3">
         <v>50</v>
       </c>
-      <c r="F328" s="3" t="s">
+      <c r="F328" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G328" s="3">
@@ -8640,11 +9168,11 @@
       <c r="J328" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="K328" s="31"/>
+      <c r="K328" s="32"/>
     </row>
     <row r="329" spans="1:11" ht="30" customHeight="1">
-      <c r="A329" s="30"/>
-      <c r="B329" s="33"/>
+      <c r="A329" s="31"/>
+      <c r="B329" s="34"/>
       <c r="C329" s="3" t="s">
         <v>308</v>
       </c>
@@ -8652,14 +9180,14 @@
         <v>67</v>
       </c>
       <c r="E329" s="3"/>
-      <c r="F329" s="3" t="s">
+      <c r="F329" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K329" s="31"/>
+      <c r="K329" s="32"/>
     </row>
     <row r="330" spans="1:11" ht="30" customHeight="1">
-      <c r="A330" s="30"/>
-      <c r="B330" s="33"/>
+      <c r="A330" s="31"/>
+      <c r="B330" s="34"/>
       <c r="C330" s="3" t="s">
         <v>309</v>
       </c>
@@ -8669,14 +9197,14 @@
       <c r="E330" s="3">
         <v>3</v>
       </c>
-      <c r="F330" s="3" t="s">
+      <c r="F330" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K330" s="31"/>
+      <c r="K330" s="32"/>
     </row>
     <row r="331" spans="1:11" ht="30" customHeight="1">
-      <c r="A331" s="30"/>
-      <c r="B331" s="33"/>
+      <c r="A331" s="31"/>
+      <c r="B331" s="34"/>
       <c r="C331" s="3" t="s">
         <v>310</v>
       </c>
@@ -8686,14 +9214,14 @@
       <c r="E331" s="3">
         <v>3</v>
       </c>
-      <c r="F331" s="3" t="s">
+      <c r="F331" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K331" s="31"/>
+      <c r="K331" s="32"/>
     </row>
     <row r="332" spans="1:11" ht="30" customHeight="1">
-      <c r="A332" s="30"/>
-      <c r="B332" s="33"/>
+      <c r="A332" s="31"/>
+      <c r="B332" s="34"/>
       <c r="C332" s="3" t="s">
         <v>311</v>
       </c>
@@ -8703,14 +9231,14 @@
       <c r="E332" s="3">
         <v>3</v>
       </c>
-      <c r="F332" s="3" t="s">
+      <c r="F332" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K332" s="31"/>
+      <c r="K332" s="32"/>
     </row>
     <row r="333" spans="1:11" ht="30" customHeight="1">
-      <c r="A333" s="30"/>
-      <c r="B333" s="33"/>
+      <c r="A333" s="31"/>
+      <c r="B333" s="34"/>
       <c r="C333" s="3" t="s">
         <v>312</v>
       </c>
@@ -8720,14 +9248,14 @@
       <c r="E333" s="3">
         <v>3</v>
       </c>
-      <c r="F333" s="3" t="s">
+      <c r="F333" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K333" s="31"/>
+      <c r="K333" s="32"/>
     </row>
     <row r="334" spans="1:11" ht="30" customHeight="1">
-      <c r="A334" s="30"/>
-      <c r="B334" s="33"/>
+      <c r="A334" s="31"/>
+      <c r="B334" s="34"/>
       <c r="C334" s="3" t="s">
         <v>313</v>
       </c>
@@ -8737,14 +9265,14 @@
       <c r="E334" s="3">
         <v>3</v>
       </c>
-      <c r="F334" s="3" t="s">
+      <c r="F334" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K334" s="31"/>
+      <c r="K334" s="32"/>
     </row>
     <row r="335" spans="1:11" ht="30" customHeight="1">
-      <c r="A335" s="30"/>
-      <c r="B335" s="33"/>
+      <c r="A335" s="31"/>
+      <c r="B335" s="34"/>
       <c r="C335" s="3" t="s">
         <v>314</v>
       </c>
@@ -8754,14 +9282,14 @@
       <c r="E335" s="3">
         <v>3</v>
       </c>
-      <c r="F335" s="3" t="s">
+      <c r="F335" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K335" s="31"/>
+      <c r="K335" s="32"/>
     </row>
     <row r="336" spans="1:11">
-      <c r="A336" s="30"/>
-      <c r="B336" s="33"/>
+      <c r="A336" s="31"/>
+      <c r="B336" s="34"/>
       <c r="C336" s="3" t="s">
         <v>315</v>
       </c>
@@ -8771,14 +9299,14 @@
       <c r="E336" s="3">
         <v>3</v>
       </c>
-      <c r="F336" s="3" t="s">
+      <c r="F336" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K336" s="31"/>
+      <c r="K336" s="32"/>
     </row>
     <row r="337" spans="1:11">
-      <c r="A337" s="30"/>
-      <c r="B337" s="33"/>
+      <c r="A337" s="31"/>
+      <c r="B337" s="34"/>
       <c r="C337" s="3" t="s">
         <v>316</v>
       </c>
@@ -8788,14 +9316,14 @@
       <c r="E337" s="3">
         <v>3</v>
       </c>
-      <c r="F337" s="3" t="s">
+      <c r="F337" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K337" s="31"/>
+      <c r="K337" s="32"/>
     </row>
     <row r="338" spans="1:11">
-      <c r="A338" s="30"/>
-      <c r="B338" s="33"/>
+      <c r="A338" s="31"/>
+      <c r="B338" s="34"/>
       <c r="C338" s="3" t="s">
         <v>317</v>
       </c>
@@ -8805,14 +9333,14 @@
       <c r="E338" s="3">
         <v>3</v>
       </c>
-      <c r="F338" s="3" t="s">
+      <c r="F338" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K338" s="31"/>
+      <c r="K338" s="32"/>
     </row>
     <row r="339" spans="1:11">
-      <c r="A339" s="30"/>
-      <c r="B339" s="33"/>
+      <c r="A339" s="31"/>
+      <c r="B339" s="34"/>
       <c r="C339" s="3" t="s">
         <v>318</v>
       </c>
@@ -8822,14 +9350,14 @@
       <c r="E339" s="3">
         <v>3</v>
       </c>
-      <c r="F339" s="3" t="s">
+      <c r="F339" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K339" s="31"/>
+      <c r="K339" s="32"/>
     </row>
     <row r="340" spans="1:11">
-      <c r="A340" s="30"/>
-      <c r="B340" s="33"/>
+      <c r="A340" s="31"/>
+      <c r="B340" s="34"/>
       <c r="C340" s="3" t="s">
         <v>6</v>
       </c>
@@ -8839,17 +9367,17 @@
       <c r="E340" s="3">
         <v>50</v>
       </c>
-      <c r="F340" s="3" t="s">
+      <c r="F340" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G340" s="3">
         <v>20</v>
       </c>
-      <c r="K340" s="31"/>
+      <c r="K340" s="32"/>
     </row>
     <row r="341" spans="1:11">
-      <c r="A341" s="30"/>
-      <c r="B341" s="33"/>
+      <c r="A341" s="31"/>
+      <c r="B341" s="34"/>
       <c r="C341" s="3" t="s">
         <v>8</v>
       </c>
@@ -8859,7 +9387,7 @@
       <c r="E341" s="3">
         <v>50</v>
       </c>
-      <c r="F341" s="3" t="s">
+      <c r="F341" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G341" s="3">
@@ -8868,11 +9396,11 @@
       <c r="J341" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="K341" s="31"/>
+      <c r="K341" s="32"/>
     </row>
     <row r="342" spans="1:11">
-      <c r="A342" s="27"/>
-      <c r="B342" s="34"/>
+      <c r="A342" s="28"/>
+      <c r="B342" s="35"/>
       <c r="C342" s="3" t="s">
         <v>185</v>
       </c>
@@ -8880,7 +9408,7 @@
         <v>67</v>
       </c>
       <c r="E342" s="3"/>
-      <c r="K342" s="29"/>
+      <c r="K342" s="30"/>
     </row>
     <row r="343" spans="1:11">
       <c r="A343" s="6">
@@ -8898,7 +9426,7 @@
       <c r="E343" s="3">
         <v>40</v>
       </c>
-      <c r="F343" s="3" t="s">
+      <c r="F343" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G343" s="3">
@@ -8909,10 +9437,10 @@
       </c>
     </row>
     <row r="344" spans="1:11">
-      <c r="A344" s="26">
+      <c r="A344" s="27">
         <v>92</v>
       </c>
-      <c r="B344" s="26" t="s">
+      <c r="B344" s="27" t="s">
         <v>322</v>
       </c>
       <c r="C344" s="3" t="s">
@@ -8924,19 +9452,19 @@
       <c r="E344" s="3">
         <v>50</v>
       </c>
-      <c r="F344" s="3" t="s">
+      <c r="F344" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G344" s="3">
         <v>20</v>
       </c>
-      <c r="K344" s="28">
+      <c r="K344" s="29">
         <v>45554</v>
       </c>
     </row>
     <row r="345" spans="1:11">
-      <c r="A345" s="27"/>
-      <c r="B345" s="27"/>
+      <c r="A345" s="28"/>
+      <c r="B345" s="28"/>
       <c r="C345" s="3" t="s">
         <v>8</v>
       </c>
@@ -8946,19 +9474,19 @@
       <c r="E345" s="3">
         <v>50</v>
       </c>
-      <c r="F345" s="3" t="s">
+      <c r="F345" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G345" s="3">
         <v>20</v>
       </c>
-      <c r="K345" s="29"/>
+      <c r="K345" s="30"/>
     </row>
     <row r="346" spans="1:11">
-      <c r="A346" s="26">
+      <c r="A346" s="27">
         <v>93</v>
       </c>
-      <c r="B346" s="26" t="s">
+      <c r="B346" s="27" t="s">
         <v>323</v>
       </c>
       <c r="C346" s="3" t="s">
@@ -8970,19 +9498,19 @@
       <c r="E346" s="3">
         <v>50</v>
       </c>
-      <c r="F346" s="3" t="s">
+      <c r="F346" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G346" s="3">
         <v>20</v>
       </c>
-      <c r="K346" s="28">
+      <c r="K346" s="29">
         <v>45554</v>
       </c>
     </row>
     <row r="347" spans="1:11">
-      <c r="A347" s="27"/>
-      <c r="B347" s="27"/>
+      <c r="A347" s="28"/>
+      <c r="B347" s="28"/>
       <c r="C347" s="3" t="s">
         <v>324</v>
       </c>
@@ -8992,19 +9520,19 @@
       <c r="E347" s="3">
         <v>250</v>
       </c>
-      <c r="F347" s="3" t="s">
+      <c r="F347" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G347" s="3">
         <v>50</v>
       </c>
-      <c r="K347" s="29"/>
+      <c r="K347" s="30"/>
     </row>
     <row r="348" spans="1:11">
-      <c r="A348" s="26">
+      <c r="A348" s="27">
         <v>94</v>
       </c>
-      <c r="B348" s="26" t="s">
+      <c r="B348" s="27" t="s">
         <v>326</v>
       </c>
       <c r="C348" s="3" t="s">
@@ -9016,19 +9544,19 @@
       <c r="E348" s="3">
         <v>50</v>
       </c>
-      <c r="F348" s="3" t="s">
+      <c r="F348" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G348" s="3">
         <v>20</v>
       </c>
-      <c r="K348" s="28">
+      <c r="K348" s="29">
         <v>45554</v>
       </c>
     </row>
     <row r="349" spans="1:11">
-      <c r="A349" s="27"/>
-      <c r="B349" s="27"/>
+      <c r="A349" s="28"/>
+      <c r="B349" s="28"/>
       <c r="C349" s="3" t="s">
         <v>325</v>
       </c>
@@ -9038,19 +9566,19 @@
       <c r="E349" s="3">
         <v>100</v>
       </c>
-      <c r="F349" s="3" t="s">
+      <c r="F349" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G349" s="3">
         <v>50</v>
       </c>
-      <c r="K349" s="29"/>
+      <c r="K349" s="30"/>
     </row>
     <row r="350" spans="1:11">
-      <c r="A350" s="26">
+      <c r="A350" s="27">
         <v>95</v>
       </c>
-      <c r="B350" s="26" t="s">
+      <c r="B350" s="27" t="s">
         <v>328</v>
       </c>
       <c r="C350" s="3" t="s">
@@ -9062,19 +9590,19 @@
       <c r="E350" s="3">
         <v>50</v>
       </c>
-      <c r="F350" s="3" t="s">
+      <c r="F350" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G350" s="3">
         <v>20</v>
       </c>
-      <c r="K350" s="28">
+      <c r="K350" s="29">
         <v>45554</v>
       </c>
     </row>
     <row r="351" spans="1:11">
-      <c r="A351" s="27"/>
-      <c r="B351" s="27"/>
+      <c r="A351" s="28"/>
+      <c r="B351" s="28"/>
       <c r="C351" s="3" t="s">
         <v>327</v>
       </c>
@@ -9084,19 +9612,19 @@
       <c r="E351" s="3">
         <v>100</v>
       </c>
-      <c r="F351" s="3" t="s">
+      <c r="F351" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G351" s="3">
         <v>50</v>
       </c>
-      <c r="K351" s="29"/>
+      <c r="K351" s="30"/>
     </row>
     <row r="352" spans="1:11">
-      <c r="A352" s="26">
+      <c r="A352" s="27">
         <v>96</v>
       </c>
-      <c r="B352" s="26" t="s">
+      <c r="B352" s="27" t="s">
         <v>329</v>
       </c>
       <c r="C352" s="3" t="s">
@@ -9108,19 +9636,19 @@
       <c r="E352" s="3">
         <v>50</v>
       </c>
-      <c r="F352" s="3" t="s">
+      <c r="F352" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G352" s="3">
         <v>20</v>
       </c>
-      <c r="K352" s="28">
+      <c r="K352" s="29">
         <v>45554</v>
       </c>
     </row>
     <row r="353" spans="1:11">
-      <c r="A353" s="27"/>
-      <c r="B353" s="27"/>
+      <c r="A353" s="28"/>
+      <c r="B353" s="28"/>
       <c r="C353" s="3" t="s">
         <v>110</v>
       </c>
@@ -9130,19 +9658,19 @@
       <c r="E353" s="3">
         <v>250</v>
       </c>
-      <c r="F353" s="3" t="s">
+      <c r="F353" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G353" s="3">
         <v>100</v>
       </c>
-      <c r="K353" s="29"/>
+      <c r="K353" s="30"/>
     </row>
     <row r="354" spans="1:11">
-      <c r="A354" s="26">
+      <c r="A354" s="27">
         <v>97</v>
       </c>
-      <c r="B354" s="26" t="s">
+      <c r="B354" s="27" t="s">
         <v>332</v>
       </c>
       <c r="C354" s="3" t="s">
@@ -9154,19 +9682,19 @@
       <c r="E354" s="3">
         <v>100</v>
       </c>
-      <c r="F354" s="3" t="s">
+      <c r="F354" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G354" s="3">
         <v>50</v>
       </c>
-      <c r="K354" s="28">
+      <c r="K354" s="29">
         <v>45554</v>
       </c>
     </row>
     <row r="355" spans="1:11">
-      <c r="A355" s="30"/>
-      <c r="B355" s="30"/>
+      <c r="A355" s="31"/>
+      <c r="B355" s="31"/>
       <c r="C355" s="3" t="s">
         <v>331</v>
       </c>
@@ -9176,17 +9704,17 @@
       <c r="E355" s="3">
         <v>100</v>
       </c>
-      <c r="F355" s="3" t="s">
+      <c r="F355" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G355" s="3">
         <v>50</v>
       </c>
-      <c r="K355" s="31"/>
+      <c r="K355" s="32"/>
     </row>
     <row r="356" spans="1:11">
-      <c r="A356" s="30"/>
-      <c r="B356" s="30"/>
+      <c r="A356" s="31"/>
+      <c r="B356" s="31"/>
       <c r="C356" s="3" t="s">
         <v>8</v>
       </c>
@@ -9196,17 +9724,17 @@
       <c r="E356" s="3">
         <v>50</v>
       </c>
-      <c r="F356" s="3" t="s">
+      <c r="F356" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G356" s="3">
         <v>20</v>
       </c>
-      <c r="K356" s="31"/>
+      <c r="K356" s="32"/>
     </row>
     <row r="357" spans="1:11">
-      <c r="A357" s="27"/>
-      <c r="B357" s="27"/>
+      <c r="A357" s="28"/>
+      <c r="B357" s="28"/>
       <c r="C357" s="3" t="s">
         <v>6</v>
       </c>
@@ -9216,19 +9744,19 @@
       <c r="E357" s="3">
         <v>50</v>
       </c>
-      <c r="F357" s="3" t="s">
+      <c r="F357" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G357" s="3">
         <v>20</v>
       </c>
-      <c r="K357" s="29"/>
+      <c r="K357" s="30"/>
     </row>
     <row r="358" spans="1:11">
-      <c r="A358" s="26">
+      <c r="A358" s="27">
         <v>98</v>
       </c>
-      <c r="B358" s="26" t="s">
+      <c r="B358" s="27" t="s">
         <v>333</v>
       </c>
       <c r="C358" s="3" t="s">
@@ -9240,19 +9768,19 @@
       <c r="E358" s="3">
         <v>100</v>
       </c>
-      <c r="F358" s="3" t="s">
+      <c r="F358" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G358" s="3">
         <v>50</v>
       </c>
-      <c r="K358" s="28">
+      <c r="K358" s="29">
         <v>45554</v>
       </c>
     </row>
     <row r="359" spans="1:11">
-      <c r="A359" s="30"/>
-      <c r="B359" s="30"/>
+      <c r="A359" s="31"/>
+      <c r="B359" s="31"/>
       <c r="C359" s="3" t="s">
         <v>331</v>
       </c>
@@ -9262,17 +9790,17 @@
       <c r="E359" s="3">
         <v>100</v>
       </c>
-      <c r="F359" s="3" t="s">
+      <c r="F359" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G359" s="3">
         <v>50</v>
       </c>
-      <c r="K359" s="31"/>
+      <c r="K359" s="32"/>
     </row>
     <row r="360" spans="1:11">
-      <c r="A360" s="30"/>
-      <c r="B360" s="30"/>
+      <c r="A360" s="31"/>
+      <c r="B360" s="31"/>
       <c r="C360" s="3" t="s">
         <v>8</v>
       </c>
@@ -9282,17 +9810,17 @@
       <c r="E360" s="3">
         <v>50</v>
       </c>
-      <c r="F360" s="3" t="s">
+      <c r="F360" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G360" s="3">
         <v>20</v>
       </c>
-      <c r="K360" s="31"/>
+      <c r="K360" s="32"/>
     </row>
     <row r="361" spans="1:11">
-      <c r="A361" s="27"/>
-      <c r="B361" s="27"/>
+      <c r="A361" s="28"/>
+      <c r="B361" s="28"/>
       <c r="C361" s="3" t="s">
         <v>6</v>
       </c>
@@ -9302,19 +9830,19 @@
       <c r="E361" s="3">
         <v>50</v>
       </c>
-      <c r="F361" s="3" t="s">
+      <c r="F361" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G361" s="3">
         <v>20</v>
       </c>
-      <c r="K361" s="29"/>
+      <c r="K361" s="30"/>
     </row>
     <row r="362" spans="1:11">
-      <c r="A362" s="26">
+      <c r="A362" s="27">
         <v>99</v>
       </c>
-      <c r="B362" s="26" t="s">
+      <c r="B362" s="27" t="s">
         <v>338</v>
       </c>
       <c r="C362" s="3" t="s">
@@ -9326,19 +9854,19 @@
       <c r="E362" s="3">
         <v>50</v>
       </c>
-      <c r="F362" s="3" t="s">
+      <c r="F362" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G362" s="3">
         <v>20</v>
       </c>
-      <c r="K362" s="28">
+      <c r="K362" s="29">
         <v>45554</v>
       </c>
     </row>
     <row r="363" spans="1:11" ht="15.75">
-      <c r="A363" s="27"/>
-      <c r="B363" s="27"/>
+      <c r="A363" s="28"/>
+      <c r="B363" s="28"/>
       <c r="C363" s="3" t="s">
         <v>334</v>
       </c>
@@ -9348,19 +9876,19 @@
       <c r="E363" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="F363" s="24" t="s">
+      <c r="F363" s="51" t="s">
         <v>335</v>
       </c>
       <c r="G363" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="K363" s="29"/>
+      <c r="K363" s="30"/>
     </row>
     <row r="364" spans="1:11">
-      <c r="A364" s="26">
+      <c r="A364" s="27">
         <v>100</v>
       </c>
-      <c r="B364" s="26" t="s">
+      <c r="B364" s="27" t="s">
         <v>344</v>
       </c>
       <c r="C364" s="3" t="s">
@@ -9372,19 +9900,19 @@
       <c r="E364" s="3">
         <v>10</v>
       </c>
-      <c r="F364" s="3" t="s">
+      <c r="F364" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G364" s="3">
         <v>2</v>
       </c>
-      <c r="K364" s="28">
+      <c r="K364" s="29">
         <v>45554</v>
       </c>
     </row>
     <row r="365" spans="1:11">
-      <c r="A365" s="30"/>
-      <c r="B365" s="30"/>
+      <c r="A365" s="31"/>
+      <c r="B365" s="31"/>
       <c r="C365" s="3" t="s">
         <v>340</v>
       </c>
@@ -9394,17 +9922,17 @@
       <c r="E365" s="3">
         <v>80</v>
       </c>
-      <c r="F365" s="3" t="s">
+      <c r="F365" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G365" s="3">
         <v>40</v>
       </c>
-      <c r="K365" s="31"/>
+      <c r="K365" s="32"/>
     </row>
     <row r="366" spans="1:11">
-      <c r="A366" s="30"/>
-      <c r="B366" s="30"/>
+      <c r="A366" s="31"/>
+      <c r="B366" s="31"/>
       <c r="C366" s="3" t="s">
         <v>341</v>
       </c>
@@ -9414,17 +9942,17 @@
       <c r="E366" s="3">
         <v>80</v>
       </c>
-      <c r="F366" s="3" t="s">
+      <c r="F366" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G366" s="3">
         <v>40</v>
       </c>
-      <c r="K366" s="31"/>
+      <c r="K366" s="32"/>
     </row>
     <row r="367" spans="1:11" ht="15.75">
-      <c r="A367" s="30"/>
-      <c r="B367" s="30"/>
+      <c r="A367" s="31"/>
+      <c r="B367" s="31"/>
       <c r="C367" s="3" t="s">
         <v>342</v>
       </c>
@@ -9434,17 +9962,17 @@
       <c r="E367" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="F367" s="24" t="s">
+      <c r="F367" s="51" t="s">
         <v>335</v>
       </c>
       <c r="G367" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="K367" s="31"/>
+      <c r="K367" s="32"/>
     </row>
     <row r="368" spans="1:11" ht="15.75">
-      <c r="A368" s="30"/>
-      <c r="B368" s="30"/>
+      <c r="A368" s="31"/>
+      <c r="B368" s="31"/>
       <c r="C368" s="3" t="s">
         <v>342</v>
       </c>
@@ -9454,17 +9982,17 @@
       <c r="E368" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="F368" s="24" t="s">
+      <c r="F368" s="51" t="s">
         <v>335</v>
       </c>
       <c r="G368" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="K368" s="31"/>
-    </row>
-    <row r="369" spans="1:11">
-      <c r="A369" s="30"/>
-      <c r="B369" s="30"/>
+      <c r="K368" s="32"/>
+    </row>
+    <row r="369" spans="1:15">
+      <c r="A369" s="31"/>
+      <c r="B369" s="31"/>
       <c r="C369" s="3" t="s">
         <v>343</v>
       </c>
@@ -9472,14 +10000,14 @@
         <v>67</v>
       </c>
       <c r="E369" s="3"/>
-      <c r="F369" s="25" t="s">
+      <c r="F369" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="K369" s="31"/>
-    </row>
-    <row r="370" spans="1:11">
-      <c r="A370" s="27"/>
-      <c r="B370" s="27"/>
+      <c r="K369" s="32"/>
+    </row>
+    <row r="370" spans="1:15">
+      <c r="A370" s="28"/>
+      <c r="B370" s="28"/>
       <c r="C370" s="3" t="s">
         <v>144</v>
       </c>
@@ -9489,15 +10017,15 @@
       <c r="E370" s="3">
         <v>50</v>
       </c>
-      <c r="F370" s="3" t="s">
+      <c r="F370" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G370" s="3">
         <v>20</v>
       </c>
-      <c r="K370" s="29"/>
-    </row>
-    <row r="371" spans="1:11">
+      <c r="K370" s="30"/>
+    </row>
+    <row r="371" spans="1:15">
       <c r="A371" s="6">
         <v>101</v>
       </c>
@@ -9513,7 +10041,7 @@
       <c r="E371" s="3">
         <v>80</v>
       </c>
-      <c r="F371" s="3" t="s">
+      <c r="F371" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G371" s="3">
@@ -9523,7 +10051,7 @@
         <v>45554</v>
       </c>
     </row>
-    <row r="372" spans="1:11">
+    <row r="372" spans="1:15">
       <c r="A372" s="6">
         <v>102</v>
       </c>
@@ -9539,7 +10067,7 @@
       <c r="E372" s="10">
         <v>40</v>
       </c>
-      <c r="F372" s="10" t="s">
+      <c r="F372" s="17" t="s">
         <v>10</v>
       </c>
       <c r="G372" s="10">
@@ -9549,8 +10077,1125 @@
         <v>45554</v>
       </c>
     </row>
+    <row r="373" spans="1:15">
+      <c r="A373" s="27">
+        <v>103</v>
+      </c>
+      <c r="B373" s="27" t="s">
+        <v>354</v>
+      </c>
+      <c r="C373" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D373" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E373" s="3">
+        <v>50</v>
+      </c>
+      <c r="F373" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G373" s="3">
+        <v>20</v>
+      </c>
+      <c r="K373" s="29">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="374" spans="1:15">
+      <c r="A374" s="28"/>
+      <c r="B374" s="28"/>
+      <c r="C374" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D374" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E374" s="3">
+        <v>50</v>
+      </c>
+      <c r="F374" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G374" s="3">
+        <v>30</v>
+      </c>
+      <c r="K374" s="30"/>
+    </row>
+    <row r="375" spans="1:15">
+      <c r="A375" s="6">
+        <v>104</v>
+      </c>
+      <c r="B375" s="41" t="s">
+        <v>353</v>
+      </c>
+      <c r="C375" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D375" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E375" s="5">
+        <v>50</v>
+      </c>
+      <c r="F375" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G375" s="3">
+        <v>20</v>
+      </c>
+      <c r="K375" s="20">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="376" spans="1:15">
+      <c r="A376" s="27">
+        <v>105</v>
+      </c>
+      <c r="B376" s="42" t="s">
+        <v>352</v>
+      </c>
+      <c r="C376" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D376" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E376" s="3">
+        <v>100</v>
+      </c>
+      <c r="F376" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G376" s="3">
+        <v>30</v>
+      </c>
+      <c r="K376" s="32" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="377" spans="1:15">
+      <c r="A377" s="28"/>
+      <c r="B377" s="43"/>
+      <c r="C377" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D377" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E377" s="3">
+        <v>50</v>
+      </c>
+      <c r="F377" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G377" s="3">
+        <v>20</v>
+      </c>
+      <c r="K377" s="30"/>
+    </row>
+    <row r="378" spans="1:15">
+      <c r="A378" s="6">
+        <v>106</v>
+      </c>
+      <c r="B378" s="41" t="s">
+        <v>350</v>
+      </c>
+      <c r="C378" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D378" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E378" s="3">
+        <v>50</v>
+      </c>
+      <c r="F378" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="K378" s="45">
+        <v>45539</v>
+      </c>
+    </row>
+    <row r="379" spans="1:15">
+      <c r="A379" s="27">
+        <v>107</v>
+      </c>
+      <c r="B379" s="42" t="s">
+        <v>351</v>
+      </c>
+      <c r="C379" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D379" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E379" s="3">
+        <v>50</v>
+      </c>
+      <c r="F379" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="K379" s="48">
+        <v>45539</v>
+      </c>
+      <c r="O379" s="44"/>
+    </row>
+    <row r="380" spans="1:15">
+      <c r="A380" s="31"/>
+      <c r="B380" s="47"/>
+      <c r="C380" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="D380" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E380" s="3">
+        <v>50</v>
+      </c>
+      <c r="F380" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="K380" s="48"/>
+    </row>
+    <row r="381" spans="1:15">
+      <c r="A381" s="31"/>
+      <c r="B381" s="47"/>
+      <c r="C381" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D381" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E381" s="3">
+        <v>10</v>
+      </c>
+      <c r="F381" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="K381" s="48"/>
+    </row>
+    <row r="382" spans="1:15">
+      <c r="A382" s="31"/>
+      <c r="B382" s="47"/>
+      <c r="C382" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="D382" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E382" s="3">
+        <v>50</v>
+      </c>
+      <c r="F382" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="K382" s="48"/>
+    </row>
+    <row r="383" spans="1:15">
+      <c r="A383" s="31"/>
+      <c r="B383" s="47"/>
+      <c r="C383" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="D383" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E383" s="3">
+        <v>50</v>
+      </c>
+      <c r="F383" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="K383" s="48"/>
+    </row>
+    <row r="384" spans="1:15">
+      <c r="A384" s="28"/>
+      <c r="B384" s="43"/>
+      <c r="C384" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="D384" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E384" s="3"/>
+      <c r="F384" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="K384" s="46"/>
+    </row>
+    <row r="385" spans="1:11">
+      <c r="A385" s="27">
+        <v>108</v>
+      </c>
+      <c r="B385" s="49" t="s">
+        <v>369</v>
+      </c>
+      <c r="C385" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="D385" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E385" s="5">
+        <v>600</v>
+      </c>
+      <c r="F385" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="K385" s="50" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="386" spans="1:11">
+      <c r="A386" s="31"/>
+      <c r="B386" s="47"/>
+      <c r="C386" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="D386" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E386" s="5">
+        <v>500</v>
+      </c>
+      <c r="F386" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="K386" s="32"/>
+    </row>
+    <row r="387" spans="1:11">
+      <c r="A387" s="28"/>
+      <c r="B387" s="43"/>
+      <c r="C387" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D387" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E387" s="5">
+        <v>50</v>
+      </c>
+      <c r="F387" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="K387" s="30"/>
+    </row>
+    <row r="388" spans="1:11">
+      <c r="A388" s="27">
+        <v>109</v>
+      </c>
+      <c r="B388" s="42" t="s">
+        <v>348</v>
+      </c>
+      <c r="C388" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="D388" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E388" s="5">
+        <v>20</v>
+      </c>
+      <c r="F388" s="5">
+        <v>12</v>
+      </c>
+      <c r="K388" s="50" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="389" spans="1:11">
+      <c r="A389" s="31"/>
+      <c r="B389" s="47"/>
+      <c r="C389" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D389" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="E389" s="5">
+        <v>500</v>
+      </c>
+      <c r="F389" s="5">
+        <v>250</v>
+      </c>
+      <c r="K389" s="32"/>
+    </row>
+    <row r="390" spans="1:11">
+      <c r="A390" s="31"/>
+      <c r="B390" s="47"/>
+      <c r="C390" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D390" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="E390" s="5">
+        <v>500</v>
+      </c>
+      <c r="F390" s="5">
+        <v>250</v>
+      </c>
+      <c r="K390" s="32"/>
+    </row>
+    <row r="391" spans="1:11">
+      <c r="A391" s="31"/>
+      <c r="B391" s="47"/>
+      <c r="C391" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D391" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="E391" s="5">
+        <v>200</v>
+      </c>
+      <c r="F391" s="5">
+        <v>100</v>
+      </c>
+      <c r="K391" s="32"/>
+    </row>
+    <row r="392" spans="1:11">
+      <c r="A392" s="31"/>
+      <c r="B392" s="47"/>
+      <c r="C392" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D392" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="E392" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="F392" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="K392" s="32"/>
+    </row>
+    <row r="393" spans="1:11">
+      <c r="A393" s="31"/>
+      <c r="B393" s="47"/>
+      <c r="C393" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D393" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E393" s="5">
+        <v>100</v>
+      </c>
+      <c r="F393" s="5">
+        <v>50</v>
+      </c>
+      <c r="K393" s="32"/>
+    </row>
+    <row r="394" spans="1:11">
+      <c r="A394" s="31"/>
+      <c r="B394" s="47"/>
+      <c r="C394" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="D394" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E394" s="5">
+        <v>25</v>
+      </c>
+      <c r="F394" s="5">
+        <v>8</v>
+      </c>
+      <c r="K394" s="32"/>
+    </row>
+    <row r="395" spans="1:11">
+      <c r="A395" s="31"/>
+      <c r="B395" s="47"/>
+      <c r="C395" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="D395" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="E395" s="5">
+        <v>500</v>
+      </c>
+      <c r="F395" s="5">
+        <v>250</v>
+      </c>
+      <c r="K395" s="32"/>
+    </row>
+    <row r="396" spans="1:11">
+      <c r="A396" s="31"/>
+      <c r="B396" s="47"/>
+      <c r="C396" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="D396" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="E396" s="5">
+        <v>500</v>
+      </c>
+      <c r="F396" s="5">
+        <v>250</v>
+      </c>
+      <c r="K396" s="32"/>
+    </row>
+    <row r="397" spans="1:11">
+      <c r="A397" s="28"/>
+      <c r="B397" s="43"/>
+      <c r="C397" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D397" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="E397" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="F397" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="K397" s="30"/>
+    </row>
+    <row r="398" spans="1:11">
+      <c r="A398" s="27">
+        <v>110</v>
+      </c>
+      <c r="B398" s="42" t="s">
+        <v>349</v>
+      </c>
+      <c r="C398" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D398" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="E398" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="F398" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="J398" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="K398" s="50" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="399" spans="1:11">
+      <c r="A399" s="31"/>
+      <c r="B399" s="47"/>
+      <c r="C399" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D399" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="E399" s="3">
+        <v>30</v>
+      </c>
+      <c r="F399" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="J399" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="K399" s="32"/>
+    </row>
+    <row r="400" spans="1:11">
+      <c r="A400" s="31"/>
+      <c r="B400" s="47"/>
+      <c r="C400" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D400" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="E400" s="3">
+        <v>30</v>
+      </c>
+      <c r="F400" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="J400" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="K400" s="32"/>
+    </row>
+    <row r="401" spans="1:11">
+      <c r="A401" s="31"/>
+      <c r="B401" s="47"/>
+      <c r="C401" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="D401" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="E401" s="3">
+        <v>30</v>
+      </c>
+      <c r="F401" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="K401" s="32"/>
+    </row>
+    <row r="402" spans="1:11">
+      <c r="A402" s="31"/>
+      <c r="B402" s="47"/>
+      <c r="C402" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D402" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="E402" s="3">
+        <v>30</v>
+      </c>
+      <c r="F402" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="K402" s="32"/>
+    </row>
+    <row r="403" spans="1:11">
+      <c r="A403" s="31"/>
+      <c r="B403" s="47"/>
+      <c r="C403" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="D403" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="E403" s="3">
+        <v>30</v>
+      </c>
+      <c r="F403" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="K403" s="32"/>
+    </row>
+    <row r="404" spans="1:11">
+      <c r="A404" s="31"/>
+      <c r="B404" s="47"/>
+      <c r="C404" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D404" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="E404" s="3">
+        <v>30</v>
+      </c>
+      <c r="F404" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="K404" s="32"/>
+    </row>
+    <row r="405" spans="1:11">
+      <c r="A405" s="31"/>
+      <c r="B405" s="47"/>
+      <c r="C405" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="D405" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="E405" s="3">
+        <v>30</v>
+      </c>
+      <c r="F405" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="J405" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="K405" s="32"/>
+    </row>
+    <row r="406" spans="1:11">
+      <c r="A406" s="31"/>
+      <c r="B406" s="47"/>
+      <c r="C406" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D406" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="E406" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="F406" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="K406" s="32"/>
+    </row>
+    <row r="407" spans="1:11">
+      <c r="A407" s="31"/>
+      <c r="B407" s="47"/>
+      <c r="C407" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D407" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="E407" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="F407" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="K407" s="32"/>
+    </row>
+    <row r="408" spans="1:11">
+      <c r="A408" s="31"/>
+      <c r="B408" s="47"/>
+      <c r="C408" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D408" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="E408" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="F408" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="J408" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="K408" s="32"/>
+    </row>
+    <row r="409" spans="1:11">
+      <c r="A409" s="31"/>
+      <c r="B409" s="47"/>
+      <c r="C409" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="D409" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E409" s="3"/>
+      <c r="F409" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="K409" s="32"/>
+    </row>
+    <row r="410" spans="1:11">
+      <c r="A410" s="31"/>
+      <c r="B410" s="47"/>
+      <c r="C410" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D410" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="E410" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="F410" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="K410" s="32"/>
+    </row>
+    <row r="411" spans="1:11">
+      <c r="A411" s="31"/>
+      <c r="B411" s="47"/>
+      <c r="C411" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="D411" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="E411" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="F411" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="K411" s="32"/>
+    </row>
+    <row r="412" spans="1:11">
+      <c r="A412" s="31"/>
+      <c r="B412" s="47"/>
+      <c r="C412" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="D412" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="E412" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="F412" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="K412" s="32"/>
+    </row>
+    <row r="413" spans="1:11">
+      <c r="A413" s="31"/>
+      <c r="B413" s="47"/>
+      <c r="C413" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="D413" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="E413" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="F413" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="K413" s="32"/>
+    </row>
+    <row r="414" spans="1:11">
+      <c r="A414" s="31"/>
+      <c r="B414" s="47"/>
+      <c r="C414" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D414" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="E414" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="F414" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="K414" s="32"/>
+    </row>
+    <row r="415" spans="1:11">
+      <c r="A415" s="31"/>
+      <c r="B415" s="47"/>
+      <c r="C415" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="D415" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E415" s="3">
+        <v>30</v>
+      </c>
+      <c r="F415" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="K415" s="32"/>
+    </row>
+    <row r="416" spans="1:11">
+      <c r="A416" s="31"/>
+      <c r="B416" s="47"/>
+      <c r="C416" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="D416" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E416" s="3">
+        <v>10</v>
+      </c>
+      <c r="F416" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="K416" s="32"/>
+    </row>
+    <row r="417" spans="1:11">
+      <c r="A417" s="28"/>
+      <c r="B417" s="43"/>
+      <c r="C417" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D417" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E417" s="3">
+        <v>50</v>
+      </c>
+      <c r="F417" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="K417" s="30"/>
+    </row>
+    <row r="418" spans="1:11">
+      <c r="A418" s="6">
+        <v>111</v>
+      </c>
+      <c r="B418" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="C418" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D418" s="3">
+        <v>40</v>
+      </c>
+      <c r="E418" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F418" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="419" spans="1:11">
+      <c r="B419" s="40"/>
+      <c r="D419" s="5"/>
+      <c r="E419" s="3"/>
+    </row>
+    <row r="420" spans="1:11">
+      <c r="B420" s="40"/>
+    </row>
+    <row r="421" spans="1:11">
+      <c r="B421" s="40"/>
+    </row>
+    <row r="422" spans="1:11">
+      <c r="B422" s="40"/>
+    </row>
+    <row r="423" spans="1:11">
+      <c r="B423" s="40"/>
+    </row>
+    <row r="424" spans="1:11">
+      <c r="B424" s="40"/>
+    </row>
+    <row r="425" spans="1:11">
+      <c r="B425" s="40"/>
+    </row>
+    <row r="426" spans="1:11">
+      <c r="B426" s="40"/>
+    </row>
+    <row r="427" spans="1:11">
+      <c r="B427" s="40"/>
+    </row>
+    <row r="428" spans="1:11">
+      <c r="B428" s="40"/>
+    </row>
+    <row r="429" spans="1:11">
+      <c r="B429" s="40"/>
+    </row>
+    <row r="430" spans="1:11">
+      <c r="B430" s="40"/>
+    </row>
+    <row r="431" spans="1:11">
+      <c r="B431" s="40"/>
+    </row>
+    <row r="432" spans="1:11">
+      <c r="B432" s="40"/>
+    </row>
+    <row r="433" spans="2:2">
+      <c r="B433" s="40"/>
+    </row>
+    <row r="434" spans="2:2">
+      <c r="B434" s="40"/>
+    </row>
+    <row r="435" spans="2:2">
+      <c r="B435" s="40"/>
+    </row>
+    <row r="436" spans="2:2">
+      <c r="B436" s="40"/>
+    </row>
+    <row r="437" spans="2:2">
+      <c r="B437" s="40"/>
+    </row>
+    <row r="438" spans="2:2">
+      <c r="B438" s="40"/>
+    </row>
+    <row r="439" spans="2:2">
+      <c r="B439" s="40"/>
+    </row>
+    <row r="440" spans="2:2">
+      <c r="B440" s="40"/>
+    </row>
+    <row r="441" spans="2:2">
+      <c r="B441" s="40"/>
+    </row>
+    <row r="442" spans="2:2">
+      <c r="B442" s="40"/>
+    </row>
+    <row r="443" spans="2:2">
+      <c r="B443" s="40"/>
+    </row>
+    <row r="444" spans="2:2">
+      <c r="B444" s="40"/>
+    </row>
+    <row r="445" spans="2:2">
+      <c r="B445" s="40"/>
+    </row>
+    <row r="446" spans="2:2">
+      <c r="B446" s="40"/>
+    </row>
+    <row r="447" spans="2:2">
+      <c r="B447" s="40"/>
+    </row>
+    <row r="448" spans="2:2">
+      <c r="B448" s="40"/>
+    </row>
+    <row r="449" spans="2:2">
+      <c r="B449" s="40"/>
+    </row>
+    <row r="450" spans="2:2">
+      <c r="B450" s="40"/>
+    </row>
+    <row r="451" spans="2:2">
+      <c r="B451" s="40"/>
+    </row>
+    <row r="452" spans="2:2">
+      <c r="B452" s="40"/>
+    </row>
+    <row r="453" spans="2:2">
+      <c r="B453" s="40"/>
+    </row>
+    <row r="454" spans="2:2">
+      <c r="B454" s="40"/>
+    </row>
+    <row r="455" spans="2:2">
+      <c r="B455" s="40"/>
+    </row>
+    <row r="456" spans="2:2">
+      <c r="B456" s="40"/>
+    </row>
+    <row r="457" spans="2:2">
+      <c r="B457" s="40"/>
+    </row>
+    <row r="458" spans="2:2">
+      <c r="B458" s="40"/>
+    </row>
+    <row r="459" spans="2:2">
+      <c r="B459" s="40"/>
+    </row>
+    <row r="460" spans="2:2">
+      <c r="B460" s="40"/>
+    </row>
+    <row r="461" spans="2:2">
+      <c r="B461" s="40"/>
+    </row>
+    <row r="462" spans="2:2">
+      <c r="B462" s="40"/>
+    </row>
+    <row r="463" spans="2:2">
+      <c r="B463" s="40"/>
+    </row>
+    <row r="464" spans="2:2">
+      <c r="B464" s="40"/>
+    </row>
+    <row r="465" spans="2:2">
+      <c r="B465" s="40"/>
+    </row>
+    <row r="466" spans="2:2">
+      <c r="B466" s="40"/>
+    </row>
+    <row r="467" spans="2:2">
+      <c r="B467" s="40"/>
+    </row>
+    <row r="468" spans="2:2">
+      <c r="B468" s="40"/>
+    </row>
+    <row r="469" spans="2:2">
+      <c r="B469" s="40"/>
+    </row>
+    <row r="470" spans="2:2">
+      <c r="B470" s="40"/>
+    </row>
+    <row r="471" spans="2:2">
+      <c r="B471" s="40"/>
+    </row>
+    <row r="472" spans="2:2">
+      <c r="B472" s="40"/>
+    </row>
+    <row r="473" spans="2:2">
+      <c r="B473" s="40"/>
+    </row>
+    <row r="474" spans="2:2">
+      <c r="B474" s="40"/>
+    </row>
+    <row r="475" spans="2:2">
+      <c r="B475" s="40"/>
+    </row>
+    <row r="476" spans="2:2">
+      <c r="B476" s="40"/>
+    </row>
+    <row r="477" spans="2:2">
+      <c r="B477" s="40"/>
+    </row>
+    <row r="478" spans="2:2">
+      <c r="B478" s="40"/>
+    </row>
+    <row r="479" spans="2:2">
+      <c r="B479" s="40"/>
+    </row>
+    <row r="480" spans="2:2">
+      <c r="B480" s="40"/>
+    </row>
+    <row r="481" spans="2:2">
+      <c r="B481" s="40"/>
+    </row>
+    <row r="482" spans="2:2">
+      <c r="B482" s="40"/>
+    </row>
+    <row r="483" spans="2:2">
+      <c r="B483" s="40"/>
+    </row>
+    <row r="484" spans="2:2">
+      <c r="B484" s="40"/>
+    </row>
+    <row r="485" spans="2:2">
+      <c r="B485" s="40"/>
+    </row>
+    <row r="486" spans="2:2">
+      <c r="B486" s="40"/>
+    </row>
+    <row r="487" spans="2:2">
+      <c r="B487" s="40"/>
+    </row>
+    <row r="488" spans="2:2">
+      <c r="B488" s="40"/>
+    </row>
+    <row r="489" spans="2:2">
+      <c r="B489" s="40"/>
+    </row>
+    <row r="490" spans="2:2">
+      <c r="B490" s="40"/>
+    </row>
+    <row r="491" spans="2:2">
+      <c r="B491" s="40"/>
+    </row>
+    <row r="492" spans="2:2">
+      <c r="B492" s="40"/>
+    </row>
+    <row r="493" spans="2:2">
+      <c r="B493" s="40"/>
+    </row>
+    <row r="494" spans="2:2">
+      <c r="B494" s="40"/>
+    </row>
+    <row r="495" spans="2:2">
+      <c r="B495" s="40"/>
+    </row>
+    <row r="496" spans="2:2">
+      <c r="B496" s="40"/>
+    </row>
+    <row r="497" spans="2:2">
+      <c r="B497" s="40"/>
+    </row>
   </sheetData>
-  <mergeCells count="258">
+  <mergeCells count="276">
+    <mergeCell ref="B385:B387"/>
+    <mergeCell ref="A385:A387"/>
+    <mergeCell ref="K385:K387"/>
+    <mergeCell ref="B388:B397"/>
+    <mergeCell ref="A388:A397"/>
+    <mergeCell ref="K388:K397"/>
+    <mergeCell ref="B398:B417"/>
+    <mergeCell ref="A398:A417"/>
+    <mergeCell ref="K398:K417"/>
+    <mergeCell ref="B373:B374"/>
+    <mergeCell ref="A373:A374"/>
+    <mergeCell ref="K373:K374"/>
+    <mergeCell ref="B376:B377"/>
+    <mergeCell ref="A376:A377"/>
+    <mergeCell ref="K376:K377"/>
+    <mergeCell ref="B379:B384"/>
+    <mergeCell ref="A379:A384"/>
+    <mergeCell ref="K379:K384"/>
     <mergeCell ref="A307:A314"/>
     <mergeCell ref="K161:K163"/>
     <mergeCell ref="K164:K166"/>
@@ -9810,7 +11455,16 @@
     <mergeCell ref="A358:A361"/>
     <mergeCell ref="K358:K361"/>
   </mergeCells>
-  <conditionalFormatting sqref="B1:B318 B326 B344 B346 B348 B350 B352 B354 B358 B362 B364 B371:B1048576">
+  <conditionalFormatting sqref="B1:B318 B326 B344 B346 B348 B350 B352 B354 B358 B362 B364 B371:B373 B375 B378:B379 B385 B388 B418:B1048576">
+    <cfRule type="duplicateValues" dxfId="28" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B376">
+    <cfRule type="duplicateValues" dxfId="27" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B398">
+    <cfRule type="duplicateValues" dxfId="26" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DPI_Table_Audit/Audit-Process-Sheet.xlsx
+++ b/DPI_Table_Audit/Audit-Process-Sheet.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="421">
   <si>
     <t>Column Name</t>
   </si>
@@ -1262,6 +1262,34 @@
   </si>
   <si>
     <t>Standerd 17</t>
+  </si>
+  <si>
+    <t>MstGramPanchayat</t>
+  </si>
+  <si>
+    <t>MstHandicappedType</t>
+  </si>
+  <si>
+    <t>MstInstituteRegistration_</t>
+  </si>
+  <si>
+    <t>MstMenuActions</t>
+  </si>
+  <si>
+    <t>No use of table can delete it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No use of table can delete it.
+</t>
+  </si>
+  <si>
+    <t>MstMenu_</t>
+  </si>
+  <si>
+    <t>MstOIS</t>
+  </si>
+  <si>
+    <t>MstSchoolRegistration</t>
   </si>
 </sst>
 </file>
@@ -1271,7 +1299,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-C09]dd/mmm/yy;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1310,6 +1338,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1414,7 +1447,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1480,22 +1513,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1507,310 +1579,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2151,16 +1942,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z497"/>
+  <dimension ref="A1:Z428"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="C343" sqref="C343"/>
+    <sheetView tabSelected="1" topLeftCell="F417" workbookViewId="0">
+      <selection activeCell="K428" sqref="K428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="37.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="51.7109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="26.5703125" style="3" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" style="3" customWidth="1"/>
     <col min="5" max="6" width="20.7109375" style="5" customWidth="1"/>
@@ -2210,10 +2001,10 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="36">
+      <c r="A2" s="51">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="51" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -2232,13 +2023,13 @@
         <v>20</v>
       </c>
       <c r="J2" s="4"/>
-      <c r="K2" s="29">
+      <c r="K2" s="43">
         <v>45541</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
@@ -2255,11 +2046,11 @@
         <v>20</v>
       </c>
       <c r="J3" s="4"/>
-      <c r="K3" s="32"/>
+      <c r="K3" s="40"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
       <c r="C4" s="3" t="s">
         <v>23</v>
       </c>
@@ -2273,11 +2064,11 @@
         <v>21</v>
       </c>
       <c r="J4" s="4"/>
-      <c r="K4" s="32"/>
+      <c r="K4" s="40"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
       <c r="C5" s="3" t="s">
         <v>24</v>
       </c>
@@ -2296,24 +2087,24 @@
       <c r="J5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="32"/>
+      <c r="K5" s="40"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="3" t="s">
         <v>25</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="30"/>
+      <c r="K6" s="41"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="36">
+      <c r="A7" s="51">
         <v>2</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="51" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -2331,13 +2122,13 @@
       <c r="G7" s="3">
         <v>20</v>
       </c>
-      <c r="K7" s="29">
+      <c r="K7" s="43">
         <v>45541</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="3" t="s">
         <v>28</v>
       </c>
@@ -2353,11 +2144,11 @@
       <c r="G8" s="5">
         <v>20</v>
       </c>
-      <c r="K8" s="32"/>
+      <c r="K8" s="40"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="3" t="s">
         <v>29</v>
       </c>
@@ -2373,13 +2164,13 @@
       <c r="G9" s="3">
         <v>3000</v>
       </c>
-      <c r="K9" s="30"/>
+      <c r="K9" s="41"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="36">
+      <c r="A10" s="51">
         <v>3</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="51" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -2397,13 +2188,13 @@
       <c r="G10" s="3">
         <v>20</v>
       </c>
-      <c r="K10" s="29">
+      <c r="K10" s="43">
         <v>45541</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
@@ -2419,11 +2210,11 @@
       <c r="G11" s="5">
         <v>20</v>
       </c>
-      <c r="K11" s="32"/>
+      <c r="K11" s="40"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="3" t="s">
         <v>32</v>
       </c>
@@ -2436,11 +2227,11 @@
       <c r="F12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="32"/>
+      <c r="K12" s="40"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="3" t="s">
         <v>33</v>
       </c>
@@ -2456,13 +2247,13 @@
       <c r="G13" s="3">
         <v>50</v>
       </c>
-      <c r="K13" s="30"/>
+      <c r="K13" s="41"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="36">
+      <c r="A14" s="51">
         <v>4</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="51" t="s">
         <v>44</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -2480,13 +2271,13 @@
       <c r="G14" s="3">
         <v>20</v>
       </c>
-      <c r="K14" s="29">
+      <c r="K14" s="43">
         <v>45553</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="36"/>
-      <c r="B15" s="36"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="3" t="s">
         <v>41</v>
       </c>
@@ -2502,11 +2293,11 @@
       <c r="G15" s="3">
         <v>50</v>
       </c>
-      <c r="K15" s="32"/>
+      <c r="K15" s="40"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="3" t="s">
         <v>42</v>
       </c>
@@ -2522,11 +2313,11 @@
       <c r="G16" s="3">
         <v>50</v>
       </c>
-      <c r="K16" s="32"/>
+      <c r="K16" s="40"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="36"/>
-      <c r="B17" s="36"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="3" t="s">
         <v>43</v>
       </c>
@@ -2542,13 +2333,13 @@
       <c r="G17" s="3">
         <v>6</v>
       </c>
-      <c r="K17" s="30"/>
+      <c r="K17" s="41"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="36">
+      <c r="A18" s="51">
         <v>5</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="51" t="s">
         <v>48</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -2566,13 +2357,13 @@
       <c r="G18" s="3">
         <v>20</v>
       </c>
-      <c r="K18" s="29">
+      <c r="K18" s="43">
         <v>45540</v>
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="3" t="s">
         <v>28</v>
       </c>
@@ -2588,11 +2379,11 @@
       <c r="G19" s="5">
         <v>20</v>
       </c>
-      <c r="K19" s="32"/>
+      <c r="K19" s="40"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="3" t="s">
         <v>45</v>
       </c>
@@ -2608,11 +2399,11 @@
       <c r="G20" s="3">
         <v>20</v>
       </c>
-      <c r="K20" s="32"/>
+      <c r="K20" s="40"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="36"/>
-      <c r="B21" s="36"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="51"/>
       <c r="C21" s="3" t="s">
         <v>46</v>
       </c>
@@ -2628,11 +2419,11 @@
       <c r="G21" s="3">
         <v>10</v>
       </c>
-      <c r="K21" s="32"/>
+      <c r="K21" s="40"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="51"/>
       <c r="C22" s="3" t="s">
         <v>47</v>
       </c>
@@ -2648,13 +2439,13 @@
       <c r="G22" s="3">
         <v>20</v>
       </c>
-      <c r="K22" s="30"/>
+      <c r="K22" s="41"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="36">
+      <c r="A23" s="51">
         <v>6</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="51" t="s">
         <v>51</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -2672,13 +2463,13 @@
       <c r="G23" s="3">
         <v>20</v>
       </c>
-      <c r="K23" s="29">
+      <c r="K23" s="43">
         <v>45540</v>
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
+      <c r="A24" s="51"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="3" t="s">
         <v>50</v>
       </c>
@@ -2694,13 +2485,13 @@
       <c r="G24" s="5">
         <v>11</v>
       </c>
-      <c r="K24" s="30"/>
+      <c r="K24" s="41"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="36">
-        <v>7</v>
-      </c>
-      <c r="B25" s="36" t="s">
+      <c r="A25" s="51">
+        <v>7</v>
+      </c>
+      <c r="B25" s="51" t="s">
         <v>55</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -2718,13 +2509,13 @@
       <c r="G25" s="3">
         <v>20</v>
       </c>
-      <c r="K25" s="29">
+      <c r="K25" s="43">
         <v>45539</v>
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="51"/>
       <c r="C26" s="3" t="s">
         <v>52</v>
       </c>
@@ -2740,11 +2531,11 @@
       <c r="G26" s="3">
         <v>50</v>
       </c>
-      <c r="K26" s="32"/>
+      <c r="K26" s="40"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="3" t="s">
         <v>53</v>
       </c>
@@ -2760,11 +2551,11 @@
       <c r="G27" s="3">
         <v>40</v>
       </c>
-      <c r="K27" s="32"/>
+      <c r="K27" s="40"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36"/>
+      <c r="A28" s="51"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="3" t="s">
         <v>54</v>
       </c>
@@ -2780,13 +2571,13 @@
       <c r="G28" s="3">
         <v>10</v>
       </c>
-      <c r="K28" s="30"/>
+      <c r="K28" s="41"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="36">
+      <c r="A29" s="51">
         <v>8</v>
       </c>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="51" t="s">
         <v>57</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -2804,13 +2595,13 @@
       <c r="G29" s="3">
         <v>20</v>
       </c>
-      <c r="K29" s="29">
+      <c r="K29" s="43">
         <v>45540</v>
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="36"/>
-      <c r="B30" s="36"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="51"/>
       <c r="C30" s="3" t="s">
         <v>56</v>
       </c>
@@ -2826,13 +2617,13 @@
       <c r="G30" s="5">
         <v>25</v>
       </c>
-      <c r="K30" s="30"/>
+      <c r="K30" s="41"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="36">
+      <c r="A31" s="51">
         <v>9</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="51" t="s">
         <v>58</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -2850,13 +2641,13 @@
       <c r="G31" s="3">
         <v>20</v>
       </c>
-      <c r="K31" s="29">
+      <c r="K31" s="43">
         <v>45540</v>
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="36"/>
-      <c r="B32" s="36"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="51"/>
       <c r="C32" s="3" t="s">
         <v>28</v>
       </c>
@@ -2872,11 +2663,11 @@
       <c r="G32" s="5">
         <v>20</v>
       </c>
-      <c r="K32" s="32"/>
+      <c r="K32" s="40"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="36"/>
-      <c r="B33" s="36"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="51"/>
       <c r="C33" s="3" t="s">
         <v>29</v>
       </c>
@@ -2892,13 +2683,13 @@
       <c r="G33" s="3">
         <v>5000</v>
       </c>
-      <c r="K33" s="30"/>
+      <c r="K33" s="41"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="36">
-        <v>10</v>
-      </c>
-      <c r="B34" s="36" t="s">
+      <c r="A34" s="51">
+        <v>10</v>
+      </c>
+      <c r="B34" s="51" t="s">
         <v>60</v>
       </c>
       <c r="C34" s="3" t="s">
@@ -2916,13 +2707,13 @@
       <c r="G34" s="3">
         <v>20</v>
       </c>
-      <c r="K34" s="29">
+      <c r="K34" s="43">
         <v>45540</v>
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="36"/>
-      <c r="B35" s="36"/>
+      <c r="A35" s="51"/>
+      <c r="B35" s="51"/>
       <c r="C35" s="3" t="s">
         <v>59</v>
       </c>
@@ -2938,7 +2729,7 @@
       <c r="G35" s="5">
         <v>30</v>
       </c>
-      <c r="K35" s="30"/>
+      <c r="K35" s="41"/>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="6">
@@ -2993,10 +2784,10 @@
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="36">
+      <c r="A38" s="51">
         <v>13</v>
       </c>
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="51" t="s">
         <v>64</v>
       </c>
       <c r="C38" s="3" t="s">
@@ -3014,13 +2805,13 @@
       <c r="G38" s="3">
         <v>20</v>
       </c>
-      <c r="K38" s="29">
+      <c r="K38" s="43">
         <v>45540</v>
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="36"/>
-      <c r="B39" s="36"/>
+      <c r="A39" s="51"/>
+      <c r="B39" s="51"/>
       <c r="C39" s="3" t="s">
         <v>63</v>
       </c>
@@ -3036,13 +2827,13 @@
       <c r="G39" s="5">
         <v>20</v>
       </c>
-      <c r="K39" s="30"/>
+      <c r="K39" s="41"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="36">
+      <c r="A40" s="51">
         <v>14</v>
       </c>
-      <c r="B40" s="36" t="s">
+      <c r="B40" s="51" t="s">
         <v>75</v>
       </c>
       <c r="C40" s="3" t="s">
@@ -3060,13 +2851,13 @@
       <c r="G40" s="3">
         <v>20</v>
       </c>
-      <c r="K40" s="29">
+      <c r="K40" s="43">
         <v>45540</v>
       </c>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="36"/>
-      <c r="B41" s="36"/>
+      <c r="A41" s="51"/>
+      <c r="B41" s="51"/>
       <c r="C41" s="3" t="s">
         <v>74</v>
       </c>
@@ -3082,7 +2873,7 @@
       <c r="G41" s="3">
         <v>1000</v>
       </c>
-      <c r="K41" s="30"/>
+      <c r="K41" s="41"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="6">
@@ -3111,10 +2902,10 @@
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="36">
+      <c r="A43" s="51">
         <v>16</v>
       </c>
-      <c r="B43" s="36" t="s">
+      <c r="B43" s="51" t="s">
         <v>83</v>
       </c>
       <c r="C43" s="3" t="s">
@@ -3132,13 +2923,13 @@
       <c r="G43" s="3">
         <v>20</v>
       </c>
-      <c r="K43" s="29">
+      <c r="K43" s="43">
         <v>45553</v>
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="36"/>
-      <c r="B44" s="36"/>
+      <c r="A44" s="51"/>
+      <c r="B44" s="51"/>
       <c r="C44" s="3" t="s">
         <v>80</v>
       </c>
@@ -3154,11 +2945,11 @@
       <c r="G44" s="3">
         <v>50</v>
       </c>
-      <c r="K44" s="32"/>
+      <c r="K44" s="40"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="36"/>
-      <c r="B45" s="36"/>
+      <c r="A45" s="51"/>
+      <c r="B45" s="51"/>
       <c r="C45" s="3" t="s">
         <v>81</v>
       </c>
@@ -3174,11 +2965,11 @@
       <c r="G45" s="3">
         <v>50</v>
       </c>
-      <c r="K45" s="32"/>
+      <c r="K45" s="40"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="36"/>
-      <c r="B46" s="36"/>
+      <c r="A46" s="51"/>
+      <c r="B46" s="51"/>
       <c r="C46" s="3" t="s">
         <v>82</v>
       </c>
@@ -3194,7 +2985,7 @@
       <c r="G46" s="3">
         <v>6</v>
       </c>
-      <c r="K46" s="30"/>
+      <c r="K46" s="41"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="6">
@@ -3223,10 +3014,10 @@
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="36">
+      <c r="A48" s="51">
         <v>18</v>
       </c>
-      <c r="B48" s="36" t="s">
+      <c r="B48" s="51" t="s">
         <v>68</v>
       </c>
       <c r="C48" s="3" t="s">
@@ -3244,13 +3035,13 @@
       <c r="G48" s="3">
         <v>20</v>
       </c>
-      <c r="K48" s="29">
+      <c r="K48" s="43">
         <v>45544</v>
       </c>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="36"/>
-      <c r="B49" s="36"/>
+      <c r="A49" s="51"/>
+      <c r="B49" s="51"/>
       <c r="C49" s="3" t="s">
         <v>8</v>
       </c>
@@ -3266,11 +3057,11 @@
       <c r="G49" s="3">
         <v>20</v>
       </c>
-      <c r="K49" s="32"/>
+      <c r="K49" s="40"/>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="36"/>
-      <c r="B50" s="36"/>
+      <c r="A50" s="51"/>
+      <c r="B50" s="51"/>
       <c r="C50" s="3" t="s">
         <v>66</v>
       </c>
@@ -3281,13 +3072,13 @@
         <v>21</v>
       </c>
       <c r="G50" s="5"/>
-      <c r="K50" s="30"/>
+      <c r="K50" s="41"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="36">
+      <c r="A51" s="51">
         <v>19</v>
       </c>
-      <c r="B51" s="36" t="s">
+      <c r="B51" s="51" t="s">
         <v>84</v>
       </c>
       <c r="C51" s="3" t="s">
@@ -3305,13 +3096,13 @@
       <c r="G51" s="3">
         <v>20</v>
       </c>
-      <c r="K51" s="29">
+      <c r="K51" s="43">
         <v>45544</v>
       </c>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="36"/>
-      <c r="B52" s="36"/>
+      <c r="A52" s="51"/>
+      <c r="B52" s="51"/>
       <c r="C52" s="3" t="s">
         <v>69</v>
       </c>
@@ -3322,11 +3113,11 @@
         <v>21</v>
       </c>
       <c r="G52" s="5"/>
-      <c r="K52" s="32"/>
+      <c r="K52" s="40"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="36"/>
-      <c r="B53" s="36"/>
+      <c r="A53" s="51"/>
+      <c r="B53" s="51"/>
       <c r="C53" s="3" t="s">
         <v>70</v>
       </c>
@@ -3339,11 +3130,11 @@
       <c r="F53" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="K53" s="32"/>
+      <c r="K53" s="40"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="36"/>
-      <c r="B54" s="36"/>
+      <c r="A54" s="51"/>
+      <c r="B54" s="51"/>
       <c r="C54" s="3" t="s">
         <v>72</v>
       </c>
@@ -3359,11 +3150,11 @@
       <c r="G54" s="3">
         <v>50</v>
       </c>
-      <c r="K54" s="32"/>
+      <c r="K54" s="40"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="36"/>
-      <c r="B55" s="36"/>
+      <c r="A55" s="51"/>
+      <c r="B55" s="51"/>
       <c r="C55" s="3" t="s">
         <v>73</v>
       </c>
@@ -3379,13 +3170,13 @@
       <c r="G55" s="3">
         <v>50</v>
       </c>
-      <c r="K55" s="30"/>
+      <c r="K55" s="41"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="36">
-        <v>20</v>
-      </c>
-      <c r="B56" s="36" t="s">
+      <c r="A56" s="51">
+        <v>20</v>
+      </c>
+      <c r="B56" s="51" t="s">
         <v>78</v>
       </c>
       <c r="C56" s="3" t="s">
@@ -3403,13 +3194,13 @@
       <c r="G56" s="3">
         <v>10</v>
       </c>
-      <c r="K56" s="29">
+      <c r="K56" s="43">
         <v>45544</v>
       </c>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="36"/>
-      <c r="B57" s="36"/>
+      <c r="A57" s="51"/>
+      <c r="B57" s="51"/>
       <c r="C57" s="3" t="s">
         <v>77</v>
       </c>
@@ -3425,13 +3216,13 @@
       <c r="G57" s="5">
         <v>5</v>
       </c>
-      <c r="K57" s="30"/>
+      <c r="K57" s="41"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="36">
+      <c r="A58" s="51">
         <v>21</v>
       </c>
-      <c r="B58" s="36" t="s">
+      <c r="B58" s="51" t="s">
         <v>91</v>
       </c>
       <c r="C58" s="3" t="s">
@@ -3449,13 +3240,13 @@
       <c r="G58" s="3">
         <v>20</v>
       </c>
-      <c r="K58" s="29">
+      <c r="K58" s="43">
         <v>45544</v>
       </c>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="36"/>
-      <c r="B59" s="36"/>
+      <c r="A59" s="51"/>
+      <c r="B59" s="51"/>
       <c r="C59" s="3" t="s">
         <v>86</v>
       </c>
@@ -3471,11 +3262,11 @@
       <c r="G59" s="3">
         <v>30</v>
       </c>
-      <c r="K59" s="32"/>
+      <c r="K59" s="40"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="36"/>
-      <c r="B60" s="36"/>
+      <c r="A60" s="51"/>
+      <c r="B60" s="51"/>
       <c r="C60" s="3" t="s">
         <v>87</v>
       </c>
@@ -3491,11 +3282,11 @@
       <c r="G60" s="3">
         <v>30</v>
       </c>
-      <c r="K60" s="32"/>
+      <c r="K60" s="40"/>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="36"/>
-      <c r="B61" s="36"/>
+      <c r="A61" s="51"/>
+      <c r="B61" s="51"/>
       <c r="C61" s="3" t="s">
         <v>89</v>
       </c>
@@ -3514,13 +3305,13 @@
       <c r="J61" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="K61" s="30"/>
+      <c r="K61" s="41"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="36">
+      <c r="A62" s="51">
         <v>22</v>
       </c>
-      <c r="B62" s="36" t="s">
+      <c r="B62" s="51" t="s">
         <v>98</v>
       </c>
       <c r="C62" s="3" t="s">
@@ -3538,13 +3329,13 @@
       <c r="G62" s="3">
         <v>20</v>
       </c>
-      <c r="K62" s="29">
+      <c r="K62" s="43">
         <v>45544</v>
       </c>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="36"/>
-      <c r="B63" s="36"/>
+      <c r="A63" s="51"/>
+      <c r="B63" s="51"/>
       <c r="C63" s="3" t="s">
         <v>92</v>
       </c>
@@ -3563,11 +3354,11 @@
       <c r="J63" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="K63" s="32"/>
+      <c r="K63" s="40"/>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="36"/>
-      <c r="B64" s="36"/>
+      <c r="A64" s="51"/>
+      <c r="B64" s="51"/>
       <c r="C64" s="3" t="s">
         <v>93</v>
       </c>
@@ -3586,11 +3377,11 @@
       <c r="J64" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="K64" s="32"/>
+      <c r="K64" s="40"/>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="36"/>
-      <c r="B65" s="36"/>
+      <c r="A65" s="51"/>
+      <c r="B65" s="51"/>
       <c r="C65" s="3" t="s">
         <v>94</v>
       </c>
@@ -3609,13 +3400,13 @@
       <c r="J65" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="K65" s="30"/>
+      <c r="K65" s="41"/>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="27">
+      <c r="A66" s="36">
         <v>23</v>
       </c>
-      <c r="B66" s="27" t="s">
+      <c r="B66" s="36" t="s">
         <v>100</v>
       </c>
       <c r="C66" s="3" t="s">
@@ -3633,13 +3424,13 @@
       <c r="G66" s="3">
         <v>20</v>
       </c>
-      <c r="K66" s="29">
+      <c r="K66" s="43">
         <v>45546</v>
       </c>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="28"/>
-      <c r="B67" s="28"/>
+      <c r="A67" s="38"/>
+      <c r="B67" s="38"/>
       <c r="C67" s="3" t="s">
         <v>99</v>
       </c>
@@ -3655,13 +3446,13 @@
       <c r="G67" s="3">
         <v>20</v>
       </c>
-      <c r="K67" s="30"/>
+      <c r="K67" s="41"/>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="36">
+      <c r="A68" s="51">
         <v>24</v>
       </c>
-      <c r="B68" s="36" t="s">
+      <c r="B68" s="51" t="s">
         <v>101</v>
       </c>
       <c r="C68" s="3" t="s">
@@ -3679,13 +3470,13 @@
       <c r="G68" s="3">
         <v>20</v>
       </c>
-      <c r="K68" s="29">
+      <c r="K68" s="43">
         <v>45544</v>
       </c>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="36"/>
-      <c r="B69" s="36"/>
+      <c r="A69" s="51"/>
+      <c r="B69" s="51"/>
       <c r="C69" s="3" t="s">
         <v>99</v>
       </c>
@@ -3701,11 +3492,11 @@
       <c r="G69" s="3">
         <v>20</v>
       </c>
-      <c r="K69" s="32"/>
+      <c r="K69" s="40"/>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="36"/>
-      <c r="B70" s="36"/>
+      <c r="A70" s="51"/>
+      <c r="B70" s="51"/>
       <c r="C70" s="3" t="s">
         <v>70</v>
       </c>
@@ -3718,7 +3509,7 @@
       <c r="F70" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="K70" s="30"/>
+      <c r="K70" s="41"/>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="6">
@@ -3799,10 +3590,10 @@
       </c>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="36">
+      <c r="A74" s="51">
         <v>28</v>
       </c>
-      <c r="B74" s="36" t="s">
+      <c r="B74" s="51" t="s">
         <v>111</v>
       </c>
       <c r="C74" s="3" t="s">
@@ -3820,13 +3611,13 @@
       <c r="G74" s="3">
         <v>50</v>
       </c>
-      <c r="K74" s="29">
+      <c r="K74" s="43">
         <v>45545</v>
       </c>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="36"/>
-      <c r="B75" s="36"/>
+      <c r="A75" s="51"/>
+      <c r="B75" s="51"/>
       <c r="C75" s="3" t="s">
         <v>108</v>
       </c>
@@ -3842,11 +3633,11 @@
       <c r="G75" s="3">
         <v>50</v>
       </c>
-      <c r="K75" s="32"/>
+      <c r="K75" s="40"/>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="36"/>
-      <c r="B76" s="36"/>
+      <c r="A76" s="51"/>
+      <c r="B76" s="51"/>
       <c r="C76" s="3" t="s">
         <v>109</v>
       </c>
@@ -3862,11 +3653,11 @@
       <c r="G76" s="3">
         <v>3</v>
       </c>
-      <c r="K76" s="32"/>
+      <c r="K76" s="40"/>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="36"/>
-      <c r="B77" s="36"/>
+      <c r="A77" s="51"/>
+      <c r="B77" s="51"/>
       <c r="C77" s="3" t="s">
         <v>40</v>
       </c>
@@ -3882,11 +3673,11 @@
       <c r="G77" s="5">
         <v>20</v>
       </c>
-      <c r="K77" s="32"/>
+      <c r="K77" s="40"/>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="36"/>
-      <c r="B78" s="36"/>
+      <c r="A78" s="51"/>
+      <c r="B78" s="51"/>
       <c r="C78" s="3" t="s">
         <v>110</v>
       </c>
@@ -3902,7 +3693,7 @@
       <c r="G78" s="3">
         <v>50</v>
       </c>
-      <c r="K78" s="30"/>
+      <c r="K78" s="41"/>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="6">
@@ -3957,10 +3748,10 @@
       </c>
     </row>
     <row r="81" spans="1:11">
-      <c r="A81" s="36">
+      <c r="A81" s="51">
         <v>31</v>
       </c>
-      <c r="B81" s="36" t="s">
+      <c r="B81" s="51" t="s">
         <v>118</v>
       </c>
       <c r="C81" s="3" t="s">
@@ -3978,13 +3769,13 @@
       <c r="G81" s="3">
         <v>20</v>
       </c>
-      <c r="K81" s="29">
+      <c r="K81" s="43">
         <v>45545</v>
       </c>
     </row>
     <row r="82" spans="1:11">
-      <c r="A82" s="36"/>
-      <c r="B82" s="36"/>
+      <c r="A82" s="51"/>
+      <c r="B82" s="51"/>
       <c r="C82" s="3" t="s">
         <v>114</v>
       </c>
@@ -4000,11 +3791,11 @@
       <c r="G82" s="5">
         <v>30</v>
       </c>
-      <c r="K82" s="32"/>
+      <c r="K82" s="40"/>
     </row>
     <row r="83" spans="1:11">
-      <c r="A83" s="36"/>
-      <c r="B83" s="36"/>
+      <c r="A83" s="51"/>
+      <c r="B83" s="51"/>
       <c r="C83" s="3" t="s">
         <v>115</v>
       </c>
@@ -4020,11 +3811,11 @@
       <c r="G83" s="3">
         <v>30</v>
       </c>
-      <c r="K83" s="32"/>
+      <c r="K83" s="40"/>
     </row>
     <row r="84" spans="1:11">
-      <c r="A84" s="36"/>
-      <c r="B84" s="36"/>
+      <c r="A84" s="51"/>
+      <c r="B84" s="51"/>
       <c r="C84" s="3" t="s">
         <v>116</v>
       </c>
@@ -4034,13 +3825,13 @@
       <c r="F84" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="K84" s="30"/>
+      <c r="K84" s="41"/>
     </row>
     <row r="85" spans="1:11">
-      <c r="A85" s="27">
+      <c r="A85" s="36">
         <v>32</v>
       </c>
-      <c r="B85" s="36" t="s">
+      <c r="B85" s="51" t="s">
         <v>121</v>
       </c>
       <c r="C85" s="3" t="s">
@@ -4058,13 +3849,13 @@
       <c r="G85" s="3">
         <v>20</v>
       </c>
-      <c r="K85" s="29" t="s">
+      <c r="K85" s="43" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="86" spans="1:11">
-      <c r="A86" s="31"/>
-      <c r="B86" s="36"/>
+      <c r="A86" s="37"/>
+      <c r="B86" s="51"/>
       <c r="C86" s="3" t="s">
         <v>119</v>
       </c>
@@ -4080,11 +3871,11 @@
       <c r="G86" s="5">
         <v>10</v>
       </c>
-      <c r="K86" s="32"/>
+      <c r="K86" s="40"/>
     </row>
     <row r="87" spans="1:11">
-      <c r="A87" s="28"/>
-      <c r="B87" s="36"/>
+      <c r="A87" s="38"/>
+      <c r="B87" s="51"/>
       <c r="C87" s="3" t="s">
         <v>120</v>
       </c>
@@ -4100,13 +3891,13 @@
       <c r="G87" s="3">
         <v>15</v>
       </c>
-      <c r="K87" s="30"/>
+      <c r="K87" s="41"/>
     </row>
     <row r="88" spans="1:11">
-      <c r="A88" s="27">
+      <c r="A88" s="36">
         <v>33</v>
       </c>
-      <c r="B88" s="36" t="s">
+      <c r="B88" s="51" t="s">
         <v>123</v>
       </c>
       <c r="C88" s="3" t="s">
@@ -4124,13 +3915,13 @@
       <c r="G88" s="3">
         <v>20</v>
       </c>
-      <c r="K88" s="29">
+      <c r="K88" s="43">
         <v>45545</v>
       </c>
     </row>
     <row r="89" spans="1:11">
-      <c r="A89" s="31"/>
-      <c r="B89" s="36"/>
+      <c r="A89" s="37"/>
+      <c r="B89" s="51"/>
       <c r="C89" s="3" t="s">
         <v>122</v>
       </c>
@@ -4146,11 +3937,11 @@
       <c r="G89" s="5">
         <v>50</v>
       </c>
-      <c r="K89" s="32"/>
+      <c r="K89" s="40"/>
     </row>
     <row r="90" spans="1:11">
-      <c r="A90" s="28"/>
-      <c r="B90" s="36"/>
+      <c r="A90" s="38"/>
+      <c r="B90" s="51"/>
       <c r="C90" s="3" t="s">
         <v>120</v>
       </c>
@@ -4166,13 +3957,13 @@
       <c r="G90" s="3">
         <v>50</v>
       </c>
-      <c r="K90" s="30"/>
+      <c r="K90" s="41"/>
     </row>
     <row r="91" spans="1:11">
-      <c r="A91" s="27">
+      <c r="A91" s="36">
         <v>34</v>
       </c>
-      <c r="B91" s="36" t="s">
+      <c r="B91" s="51" t="s">
         <v>126</v>
       </c>
       <c r="C91" s="3" t="s">
@@ -4190,13 +3981,13 @@
       <c r="G91" s="3">
         <v>20</v>
       </c>
-      <c r="K91" s="29">
+      <c r="K91" s="43">
         <v>45546</v>
       </c>
     </row>
     <row r="92" spans="1:11">
-      <c r="A92" s="31"/>
-      <c r="B92" s="36"/>
+      <c r="A92" s="37"/>
+      <c r="B92" s="51"/>
       <c r="C92" s="3" t="s">
         <v>124</v>
       </c>
@@ -4212,11 +4003,11 @@
       <c r="G92" s="5">
         <v>60</v>
       </c>
-      <c r="K92" s="32"/>
+      <c r="K92" s="40"/>
     </row>
     <row r="93" spans="1:11">
-      <c r="A93" s="28"/>
-      <c r="B93" s="36"/>
+      <c r="A93" s="38"/>
+      <c r="B93" s="51"/>
       <c r="C93" s="3" t="s">
         <v>125</v>
       </c>
@@ -4232,13 +4023,13 @@
       <c r="G93" s="3">
         <v>60</v>
       </c>
-      <c r="K93" s="30"/>
+      <c r="K93" s="41"/>
     </row>
     <row r="94" spans="1:11">
-      <c r="A94" s="27">
+      <c r="A94" s="36">
         <v>35</v>
       </c>
-      <c r="B94" s="36" t="s">
+      <c r="B94" s="51" t="s">
         <v>128</v>
       </c>
       <c r="C94" s="3" t="s">
@@ -4256,13 +4047,13 @@
       <c r="G94" s="3">
         <v>20</v>
       </c>
-      <c r="K94" s="29">
+      <c r="K94" s="43">
         <v>45545</v>
       </c>
     </row>
     <row r="95" spans="1:11">
-      <c r="A95" s="31"/>
-      <c r="B95" s="36"/>
+      <c r="A95" s="37"/>
+      <c r="B95" s="51"/>
       <c r="C95" s="3" t="s">
         <v>127</v>
       </c>
@@ -4278,11 +4069,11 @@
       <c r="G95" s="5">
         <v>50</v>
       </c>
-      <c r="K95" s="32"/>
+      <c r="K95" s="40"/>
     </row>
     <row r="96" spans="1:11">
-      <c r="A96" s="28"/>
-      <c r="B96" s="36"/>
+      <c r="A96" s="38"/>
+      <c r="B96" s="51"/>
       <c r="C96" s="3" t="s">
         <v>125</v>
       </c>
@@ -4298,7 +4089,7 @@
       <c r="G96" s="3">
         <v>50</v>
       </c>
-      <c r="K96" s="30"/>
+      <c r="K96" s="41"/>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="6">
@@ -4327,10 +4118,10 @@
       </c>
     </row>
     <row r="98" spans="1:11">
-      <c r="A98" s="27">
+      <c r="A98" s="36">
         <v>37</v>
       </c>
-      <c r="B98" s="36" t="s">
+      <c r="B98" s="51" t="s">
         <v>132</v>
       </c>
       <c r="C98" s="3" t="s">
@@ -4348,13 +4139,13 @@
       <c r="G98" s="3">
         <v>20</v>
       </c>
-      <c r="K98" s="29">
+      <c r="K98" s="43">
         <v>45545</v>
       </c>
     </row>
     <row r="99" spans="1:11">
-      <c r="A99" s="31"/>
-      <c r="B99" s="36"/>
+      <c r="A99" s="37"/>
+      <c r="B99" s="51"/>
       <c r="C99" s="3" t="s">
         <v>130</v>
       </c>
@@ -4370,11 +4161,11 @@
       <c r="G99" s="3">
         <v>30</v>
       </c>
-      <c r="K99" s="32"/>
+      <c r="K99" s="40"/>
     </row>
     <row r="100" spans="1:11">
-      <c r="A100" s="28"/>
-      <c r="B100" s="36"/>
+      <c r="A100" s="38"/>
+      <c r="B100" s="51"/>
       <c r="C100" s="3" t="s">
         <v>131</v>
       </c>
@@ -4390,13 +4181,13 @@
       <c r="G100" s="3">
         <v>20</v>
       </c>
-      <c r="K100" s="30"/>
+      <c r="K100" s="41"/>
     </row>
     <row r="101" spans="1:11">
-      <c r="A101" s="27">
+      <c r="A101" s="36">
         <v>38</v>
       </c>
-      <c r="B101" s="36" t="s">
+      <c r="B101" s="51" t="s">
         <v>134</v>
       </c>
       <c r="C101" s="3" t="s">
@@ -4414,13 +4205,13 @@
       <c r="G101" s="3">
         <v>20</v>
       </c>
-      <c r="K101" s="29">
+      <c r="K101" s="43">
         <v>45545</v>
       </c>
     </row>
     <row r="102" spans="1:11">
-      <c r="A102" s="31"/>
-      <c r="B102" s="36"/>
+      <c r="A102" s="37"/>
+      <c r="B102" s="51"/>
       <c r="C102" s="3" t="s">
         <v>8</v>
       </c>
@@ -4437,11 +4228,11 @@
         <v>20</v>
       </c>
       <c r="I102" s="4"/>
-      <c r="K102" s="32"/>
+      <c r="K102" s="40"/>
     </row>
     <row r="103" spans="1:11">
-      <c r="A103" s="28"/>
-      <c r="B103" s="36"/>
+      <c r="A103" s="38"/>
+      <c r="B103" s="51"/>
       <c r="C103" s="3" t="s">
         <v>133</v>
       </c>
@@ -4455,13 +4246,13 @@
         <v>21</v>
       </c>
       <c r="I103" s="4"/>
-      <c r="K103" s="30"/>
+      <c r="K103" s="41"/>
     </row>
     <row r="104" spans="1:11">
-      <c r="A104" s="27">
+      <c r="A104" s="36">
         <v>39</v>
       </c>
-      <c r="B104" s="36" t="s">
+      <c r="B104" s="51" t="s">
         <v>140</v>
       </c>
       <c r="C104" s="3" t="s">
@@ -4480,13 +4271,13 @@
         <v>50</v>
       </c>
       <c r="I104" s="4"/>
-      <c r="K104" s="29">
+      <c r="K104" s="43">
         <v>45545</v>
       </c>
     </row>
     <row r="105" spans="1:11">
-      <c r="A105" s="31"/>
-      <c r="B105" s="36"/>
+      <c r="A105" s="37"/>
+      <c r="B105" s="51"/>
       <c r="C105" s="3" t="s">
         <v>136</v>
       </c>
@@ -4506,11 +4297,11 @@
       <c r="J105" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="K105" s="32"/>
+      <c r="K105" s="40"/>
     </row>
     <row r="106" spans="1:11">
-      <c r="A106" s="31"/>
-      <c r="B106" s="36"/>
+      <c r="A106" s="37"/>
+      <c r="B106" s="51"/>
       <c r="C106" s="3" t="s">
         <v>138</v>
       </c>
@@ -4527,11 +4318,11 @@
         <v>50</v>
       </c>
       <c r="I106" s="4"/>
-      <c r="K106" s="32"/>
+      <c r="K106" s="40"/>
     </row>
     <row r="107" spans="1:11">
-      <c r="A107" s="28"/>
-      <c r="B107" s="36"/>
+      <c r="A107" s="38"/>
+      <c r="B107" s="51"/>
       <c r="C107" s="3" t="s">
         <v>139</v>
       </c>
@@ -4542,13 +4333,13 @@
         <v>21</v>
       </c>
       <c r="I107" s="4"/>
-      <c r="K107" s="30"/>
+      <c r="K107" s="41"/>
     </row>
     <row r="108" spans="1:11">
-      <c r="A108" s="27">
+      <c r="A108" s="36">
         <v>40</v>
       </c>
-      <c r="B108" s="36" t="s">
+      <c r="B108" s="51" t="s">
         <v>145</v>
       </c>
       <c r="C108" s="3" t="s">
@@ -4566,13 +4357,13 @@
       <c r="G108" s="3">
         <v>2</v>
       </c>
-      <c r="K108" s="29">
+      <c r="K108" s="43">
         <v>45545</v>
       </c>
     </row>
     <row r="109" spans="1:11">
-      <c r="A109" s="31"/>
-      <c r="B109" s="36"/>
+      <c r="A109" s="37"/>
+      <c r="B109" s="51"/>
       <c r="C109" s="3" t="s">
         <v>142</v>
       </c>
@@ -4588,11 +4379,11 @@
       <c r="G109" s="3">
         <v>11</v>
       </c>
-      <c r="K109" s="32"/>
+      <c r="K109" s="40"/>
     </row>
     <row r="110" spans="1:11">
-      <c r="A110" s="31"/>
-      <c r="B110" s="36"/>
+      <c r="A110" s="37"/>
+      <c r="B110" s="51"/>
       <c r="C110" s="3" t="s">
         <v>143</v>
       </c>
@@ -4608,11 +4399,11 @@
       <c r="G110" s="3">
         <v>11</v>
       </c>
-      <c r="K110" s="32"/>
+      <c r="K110" s="40"/>
     </row>
     <row r="111" spans="1:11">
-      <c r="A111" s="28"/>
-      <c r="B111" s="36"/>
+      <c r="A111" s="38"/>
+      <c r="B111" s="51"/>
       <c r="C111" s="3" t="s">
         <v>144</v>
       </c>
@@ -4628,13 +4419,13 @@
       <c r="G111" s="3">
         <v>20</v>
       </c>
-      <c r="K111" s="30"/>
+      <c r="K111" s="41"/>
     </row>
     <row r="112" spans="1:11">
-      <c r="A112" s="27">
+      <c r="A112" s="36">
         <v>41</v>
       </c>
-      <c r="B112" s="36" t="s">
+      <c r="B112" s="51" t="s">
         <v>148</v>
       </c>
       <c r="C112" s="3" t="s">
@@ -4652,13 +4443,13 @@
       <c r="G112" s="3">
         <v>2</v>
       </c>
-      <c r="K112" s="29">
+      <c r="K112" s="43">
         <v>45545</v>
       </c>
     </row>
     <row r="113" spans="1:11">
-      <c r="A113" s="28"/>
-      <c r="B113" s="36"/>
+      <c r="A113" s="38"/>
+      <c r="B113" s="51"/>
       <c r="C113" s="3" t="s">
         <v>147</v>
       </c>
@@ -4674,13 +4465,13 @@
       <c r="G113" s="3">
         <v>50</v>
       </c>
-      <c r="K113" s="30"/>
+      <c r="K113" s="41"/>
     </row>
     <row r="114" spans="1:11">
-      <c r="A114" s="27">
+      <c r="A114" s="36">
         <v>42</v>
       </c>
-      <c r="B114" s="36" t="s">
+      <c r="B114" s="51" t="s">
         <v>152</v>
       </c>
       <c r="C114" s="3" t="s">
@@ -4698,13 +4489,13 @@
       <c r="G114" s="3">
         <v>20</v>
       </c>
-      <c r="K114" s="29">
+      <c r="K114" s="43">
         <v>45545</v>
       </c>
     </row>
     <row r="115" spans="1:11">
-      <c r="A115" s="31"/>
-      <c r="B115" s="36"/>
+      <c r="A115" s="37"/>
+      <c r="B115" s="51"/>
       <c r="C115" s="7" t="s">
         <v>149</v>
       </c>
@@ -4720,11 +4511,11 @@
       <c r="G115" s="3">
         <v>5</v>
       </c>
-      <c r="K115" s="32"/>
+      <c r="K115" s="40"/>
     </row>
     <row r="116" spans="1:11">
-      <c r="A116" s="31"/>
-      <c r="B116" s="36"/>
+      <c r="A116" s="37"/>
+      <c r="B116" s="51"/>
       <c r="C116" s="3" t="s">
         <v>150</v>
       </c>
@@ -4740,11 +4531,11 @@
       <c r="G116" s="3">
         <v>50</v>
       </c>
-      <c r="K116" s="32"/>
+      <c r="K116" s="40"/>
     </row>
     <row r="117" spans="1:11">
-      <c r="A117" s="28"/>
-      <c r="B117" s="36"/>
+      <c r="A117" s="38"/>
+      <c r="B117" s="51"/>
       <c r="C117" s="3" t="s">
         <v>151</v>
       </c>
@@ -4754,7 +4545,7 @@
       <c r="F117" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K117" s="30"/>
+      <c r="K117" s="41"/>
     </row>
     <row r="118" spans="1:11">
       <c r="A118" s="6">
@@ -4783,10 +4574,10 @@
       </c>
     </row>
     <row r="119" spans="1:11">
-      <c r="A119" s="27">
+      <c r="A119" s="36">
         <v>44</v>
       </c>
-      <c r="B119" s="36" t="s">
+      <c r="B119" s="51" t="s">
         <v>155</v>
       </c>
       <c r="C119" s="3" t="s">
@@ -4804,13 +4595,13 @@
       <c r="G119" s="3">
         <v>30</v>
       </c>
-      <c r="K119" s="29">
+      <c r="K119" s="43">
         <v>45545</v>
       </c>
     </row>
     <row r="120" spans="1:11">
-      <c r="A120" s="28"/>
-      <c r="B120" s="36"/>
+      <c r="A120" s="38"/>
+      <c r="B120" s="51"/>
       <c r="C120" s="3" t="s">
         <v>49</v>
       </c>
@@ -4826,13 +4617,13 @@
       <c r="G120" s="3">
         <v>20</v>
       </c>
-      <c r="K120" s="30"/>
+      <c r="K120" s="41"/>
     </row>
     <row r="121" spans="1:11">
-      <c r="A121" s="27">
+      <c r="A121" s="36">
         <v>45</v>
       </c>
-      <c r="B121" s="36" t="s">
+      <c r="B121" s="51" t="s">
         <v>154</v>
       </c>
       <c r="C121" s="3" t="s">
@@ -4850,13 +4641,13 @@
       <c r="G121" s="3">
         <v>20</v>
       </c>
-      <c r="K121" s="29">
+      <c r="K121" s="43">
         <v>45545</v>
       </c>
     </row>
     <row r="122" spans="1:11">
-      <c r="A122" s="28"/>
-      <c r="B122" s="36"/>
+      <c r="A122" s="38"/>
+      <c r="B122" s="51"/>
       <c r="C122" s="3" t="s">
         <v>154</v>
       </c>
@@ -4872,7 +4663,7 @@
       <c r="G122" s="3">
         <v>50</v>
       </c>
-      <c r="K122" s="30"/>
+      <c r="K122" s="41"/>
     </row>
     <row r="123" spans="1:11">
       <c r="A123" s="6">
@@ -4901,10 +4692,10 @@
       </c>
     </row>
     <row r="124" spans="1:11">
-      <c r="A124" s="27">
+      <c r="A124" s="36">
         <v>47</v>
       </c>
-      <c r="B124" s="36" t="s">
+      <c r="B124" s="51" t="s">
         <v>159</v>
       </c>
       <c r="C124" s="3" t="s">
@@ -4922,13 +4713,13 @@
       <c r="G124" s="3">
         <v>20</v>
       </c>
-      <c r="K124" s="29">
+      <c r="K124" s="43">
         <v>45546</v>
       </c>
     </row>
     <row r="125" spans="1:11">
-      <c r="A125" s="28"/>
-      <c r="B125" s="36"/>
+      <c r="A125" s="38"/>
+      <c r="B125" s="51"/>
       <c r="C125" s="3" t="s">
         <v>158</v>
       </c>
@@ -4944,13 +4735,13 @@
       <c r="G125" s="3">
         <v>3</v>
       </c>
-      <c r="K125" s="30"/>
+      <c r="K125" s="41"/>
     </row>
     <row r="126" spans="1:11">
-      <c r="A126" s="27">
+      <c r="A126" s="36">
         <v>48</v>
       </c>
-      <c r="B126" s="36" t="s">
+      <c r="B126" s="51" t="s">
         <v>161</v>
       </c>
       <c r="C126" s="3" t="s">
@@ -4968,13 +4759,13 @@
       <c r="G126" s="3">
         <v>20</v>
       </c>
-      <c r="K126" s="29">
+      <c r="K126" s="43">
         <v>45546</v>
       </c>
     </row>
     <row r="127" spans="1:11">
-      <c r="A127" s="28"/>
-      <c r="B127" s="36"/>
+      <c r="A127" s="38"/>
+      <c r="B127" s="51"/>
       <c r="C127" s="3" t="s">
         <v>160</v>
       </c>
@@ -4990,13 +4781,13 @@
       <c r="G127" s="3">
         <v>50</v>
       </c>
-      <c r="K127" s="30"/>
+      <c r="K127" s="41"/>
     </row>
     <row r="128" spans="1:11">
-      <c r="A128" s="27">
+      <c r="A128" s="36">
         <v>49</v>
       </c>
-      <c r="B128" s="36" t="s">
+      <c r="B128" s="51" t="s">
         <v>164</v>
       </c>
       <c r="C128" s="3" t="s">
@@ -5014,13 +4805,13 @@
       <c r="G128" s="3">
         <v>20</v>
       </c>
-      <c r="K128" s="29">
+      <c r="K128" s="43">
         <v>45546</v>
       </c>
     </row>
     <row r="129" spans="1:11">
-      <c r="A129" s="31"/>
-      <c r="B129" s="36"/>
+      <c r="A129" s="37"/>
+      <c r="B129" s="51"/>
       <c r="C129" s="3" t="s">
         <v>162</v>
       </c>
@@ -5036,11 +4827,11 @@
       <c r="G129" s="3">
         <v>25</v>
       </c>
-      <c r="K129" s="32"/>
+      <c r="K129" s="40"/>
     </row>
     <row r="130" spans="1:11">
-      <c r="A130" s="28"/>
-      <c r="B130" s="36"/>
+      <c r="A130" s="38"/>
+      <c r="B130" s="51"/>
       <c r="C130" s="3" t="s">
         <v>163</v>
       </c>
@@ -5050,13 +4841,13 @@
       <c r="F130" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="K130" s="30"/>
+      <c r="K130" s="41"/>
     </row>
     <row r="131" spans="1:11">
-      <c r="A131" s="27">
-        <v>50</v>
-      </c>
-      <c r="B131" s="36" t="s">
+      <c r="A131" s="36">
+        <v>50</v>
+      </c>
+      <c r="B131" s="51" t="s">
         <v>168</v>
       </c>
       <c r="C131" s="3" t="s">
@@ -5074,13 +4865,13 @@
       <c r="G131" s="3">
         <v>20</v>
       </c>
-      <c r="K131" s="29">
+      <c r="K131" s="43">
         <v>45546</v>
       </c>
     </row>
     <row r="132" spans="1:11">
-      <c r="A132" s="31"/>
-      <c r="B132" s="36"/>
+      <c r="A132" s="37"/>
+      <c r="B132" s="51"/>
       <c r="C132" s="3" t="s">
         <v>165</v>
       </c>
@@ -5096,11 +4887,11 @@
       <c r="G132" s="3">
         <v>10</v>
       </c>
-      <c r="K132" s="32"/>
+      <c r="K132" s="40"/>
     </row>
     <row r="133" spans="1:11">
-      <c r="A133" s="31"/>
-      <c r="B133" s="36"/>
+      <c r="A133" s="37"/>
+      <c r="B133" s="51"/>
       <c r="C133" s="3" t="s">
         <v>166</v>
       </c>
@@ -5116,11 +4907,11 @@
       <c r="G133" s="3">
         <v>10</v>
       </c>
-      <c r="K133" s="32"/>
+      <c r="K133" s="40"/>
     </row>
     <row r="134" spans="1:11">
-      <c r="A134" s="28"/>
-      <c r="B134" s="36"/>
+      <c r="A134" s="38"/>
+      <c r="B134" s="51"/>
       <c r="C134" s="3" t="s">
         <v>167</v>
       </c>
@@ -5136,13 +4927,13 @@
       <c r="G134" s="3">
         <v>2</v>
       </c>
-      <c r="K134" s="30"/>
+      <c r="K134" s="41"/>
     </row>
     <row r="135" spans="1:11">
-      <c r="A135" s="27">
+      <c r="A135" s="36">
         <v>51</v>
       </c>
-      <c r="B135" s="36" t="s">
+      <c r="B135" s="51" t="s">
         <v>169</v>
       </c>
       <c r="C135" s="3" t="s">
@@ -5160,13 +4951,13 @@
       <c r="G135" s="3">
         <v>20</v>
       </c>
-      <c r="K135" s="29">
+      <c r="K135" s="43">
         <v>45546</v>
       </c>
     </row>
     <row r="136" spans="1:11">
-      <c r="A136" s="28"/>
-      <c r="B136" s="36"/>
+      <c r="A136" s="38"/>
+      <c r="B136" s="51"/>
       <c r="C136" s="3" t="s">
         <v>70</v>
       </c>
@@ -5179,13 +4970,13 @@
       <c r="F136" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="K136" s="30"/>
+      <c r="K136" s="41"/>
     </row>
     <row r="137" spans="1:11">
-      <c r="A137" s="27">
+      <c r="A137" s="36">
         <v>52</v>
       </c>
-      <c r="B137" s="36" t="s">
+      <c r="B137" s="51" t="s">
         <v>170</v>
       </c>
       <c r="C137" s="3" t="s">
@@ -5203,13 +4994,13 @@
       <c r="G137" s="3">
         <v>20</v>
       </c>
-      <c r="K137" s="29">
+      <c r="K137" s="43">
         <v>45546</v>
       </c>
     </row>
     <row r="138" spans="1:11">
-      <c r="A138" s="31"/>
-      <c r="B138" s="36"/>
+      <c r="A138" s="37"/>
+      <c r="B138" s="51"/>
       <c r="C138" s="3" t="s">
         <v>165</v>
       </c>
@@ -5225,11 +5016,11 @@
       <c r="G138" s="3">
         <v>10</v>
       </c>
-      <c r="K138" s="32"/>
+      <c r="K138" s="40"/>
     </row>
     <row r="139" spans="1:11">
-      <c r="A139" s="31"/>
-      <c r="B139" s="36"/>
+      <c r="A139" s="37"/>
+      <c r="B139" s="51"/>
       <c r="C139" s="3" t="s">
         <v>166</v>
       </c>
@@ -5245,11 +5036,11 @@
       <c r="G139" s="3">
         <v>10</v>
       </c>
-      <c r="K139" s="32"/>
+      <c r="K139" s="40"/>
     </row>
     <row r="140" spans="1:11">
-      <c r="A140" s="28"/>
-      <c r="B140" s="36"/>
+      <c r="A140" s="38"/>
+      <c r="B140" s="51"/>
       <c r="C140" s="3" t="s">
         <v>167</v>
       </c>
@@ -5265,13 +5056,13 @@
       <c r="G140" s="3">
         <v>2</v>
       </c>
-      <c r="K140" s="30"/>
+      <c r="K140" s="41"/>
     </row>
     <row r="141" spans="1:11">
-      <c r="A141" s="27">
+      <c r="A141" s="36">
         <v>53</v>
       </c>
-      <c r="B141" s="36" t="s">
+      <c r="B141" s="51" t="s">
         <v>173</v>
       </c>
       <c r="C141" s="3" t="s">
@@ -5289,13 +5080,13 @@
       <c r="G141" s="3">
         <v>20</v>
       </c>
-      <c r="K141" s="29">
+      <c r="K141" s="43">
         <v>45546</v>
       </c>
     </row>
     <row r="142" spans="1:11">
-      <c r="A142" s="31"/>
-      <c r="B142" s="36"/>
+      <c r="A142" s="37"/>
+      <c r="B142" s="51"/>
       <c r="C142" s="3" t="s">
         <v>8</v>
       </c>
@@ -5311,11 +5102,11 @@
       <c r="G142" s="3">
         <v>20</v>
       </c>
-      <c r="K142" s="32"/>
+      <c r="K142" s="40"/>
     </row>
     <row r="143" spans="1:11">
-      <c r="A143" s="28"/>
-      <c r="B143" s="36"/>
+      <c r="A143" s="38"/>
+      <c r="B143" s="51"/>
       <c r="C143" s="3" t="s">
         <v>172</v>
       </c>
@@ -5331,13 +5122,13 @@
       <c r="G143" s="3">
         <v>3</v>
       </c>
-      <c r="K143" s="30"/>
+      <c r="K143" s="41"/>
     </row>
     <row r="144" spans="1:11">
-      <c r="A144" s="27">
+      <c r="A144" s="36">
         <v>54</v>
       </c>
-      <c r="B144" s="37" t="s">
+      <c r="B144" s="52" t="s">
         <v>186</v>
       </c>
       <c r="C144" s="3" t="s">
@@ -5349,13 +5140,13 @@
       <c r="F144" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K144" s="29">
+      <c r="K144" s="43">
         <v>45551</v>
       </c>
     </row>
     <row r="145" spans="1:11">
-      <c r="A145" s="31"/>
-      <c r="B145" s="37"/>
+      <c r="A145" s="37"/>
+      <c r="B145" s="52"/>
       <c r="C145" s="3" t="s">
         <v>175</v>
       </c>
@@ -5371,11 +5162,11 @@
       <c r="G145" s="3">
         <v>3000</v>
       </c>
-      <c r="K145" s="32"/>
+      <c r="K145" s="40"/>
     </row>
     <row r="146" spans="1:11">
-      <c r="A146" s="31"/>
-      <c r="B146" s="37"/>
+      <c r="A146" s="37"/>
+      <c r="B146" s="52"/>
       <c r="C146" s="3" t="s">
         <v>176</v>
       </c>
@@ -5391,11 +5182,11 @@
       <c r="G146" s="3">
         <v>3000</v>
       </c>
-      <c r="K146" s="32"/>
+      <c r="K146" s="40"/>
     </row>
     <row r="147" spans="1:11">
-      <c r="A147" s="31"/>
-      <c r="B147" s="37"/>
+      <c r="A147" s="37"/>
+      <c r="B147" s="52"/>
       <c r="C147" s="3" t="s">
         <v>177</v>
       </c>
@@ -5411,11 +5202,11 @@
       <c r="G147" s="3">
         <v>3000</v>
       </c>
-      <c r="K147" s="32"/>
+      <c r="K147" s="40"/>
     </row>
     <row r="148" spans="1:11">
-      <c r="A148" s="31"/>
-      <c r="B148" s="37"/>
+      <c r="A148" s="37"/>
+      <c r="B148" s="52"/>
       <c r="C148" s="3" t="s">
         <v>178</v>
       </c>
@@ -5431,11 +5222,11 @@
       <c r="G148" s="3">
         <v>3000</v>
       </c>
-      <c r="K148" s="32"/>
+      <c r="K148" s="40"/>
     </row>
     <row r="149" spans="1:11">
-      <c r="A149" s="31"/>
-      <c r="B149" s="37"/>
+      <c r="A149" s="37"/>
+      <c r="B149" s="52"/>
       <c r="C149" s="3" t="s">
         <v>179</v>
       </c>
@@ -5451,11 +5242,11 @@
       <c r="G149" s="3">
         <v>3000</v>
       </c>
-      <c r="K149" s="32"/>
+      <c r="K149" s="40"/>
     </row>
     <row r="150" spans="1:11">
-      <c r="A150" s="31"/>
-      <c r="B150" s="37"/>
+      <c r="A150" s="37"/>
+      <c r="B150" s="52"/>
       <c r="C150" s="3" t="s">
         <v>180</v>
       </c>
@@ -5471,11 +5262,11 @@
       <c r="G150" s="3">
         <v>3000</v>
       </c>
-      <c r="K150" s="32"/>
+      <c r="K150" s="40"/>
     </row>
     <row r="151" spans="1:11">
-      <c r="A151" s="31"/>
-      <c r="B151" s="37"/>
+      <c r="A151" s="37"/>
+      <c r="B151" s="52"/>
       <c r="C151" s="3" t="s">
         <v>181</v>
       </c>
@@ -5491,11 +5282,11 @@
       <c r="G151" s="3">
         <v>3000</v>
       </c>
-      <c r="K151" s="32"/>
+      <c r="K151" s="40"/>
     </row>
     <row r="152" spans="1:11">
-      <c r="A152" s="31"/>
-      <c r="B152" s="37"/>
+      <c r="A152" s="37"/>
+      <c r="B152" s="52"/>
       <c r="C152" s="3" t="s">
         <v>182</v>
       </c>
@@ -5511,11 +5302,11 @@
       <c r="G152" s="3">
         <v>3000</v>
       </c>
-      <c r="K152" s="32"/>
+      <c r="K152" s="40"/>
     </row>
     <row r="153" spans="1:11">
-      <c r="A153" s="31"/>
-      <c r="B153" s="37"/>
+      <c r="A153" s="37"/>
+      <c r="B153" s="52"/>
       <c r="C153" s="3" t="s">
         <v>183</v>
       </c>
@@ -5531,11 +5322,11 @@
       <c r="G153" s="3">
         <v>3000</v>
       </c>
-      <c r="K153" s="32"/>
+      <c r="K153" s="40"/>
     </row>
     <row r="154" spans="1:11">
-      <c r="A154" s="31"/>
-      <c r="B154" s="37"/>
+      <c r="A154" s="37"/>
+      <c r="B154" s="52"/>
       <c r="C154" s="3" t="s">
         <v>184</v>
       </c>
@@ -5551,11 +5342,11 @@
       <c r="G154" s="3">
         <v>3000</v>
       </c>
-      <c r="K154" s="32"/>
+      <c r="K154" s="40"/>
     </row>
     <row r="155" spans="1:11">
-      <c r="A155" s="31"/>
-      <c r="B155" s="37"/>
+      <c r="A155" s="37"/>
+      <c r="B155" s="52"/>
       <c r="C155" s="3" t="s">
         <v>6</v>
       </c>
@@ -5571,11 +5362,11 @@
       <c r="G155" s="3">
         <v>20</v>
       </c>
-      <c r="K155" s="32"/>
+      <c r="K155" s="40"/>
     </row>
     <row r="156" spans="1:11">
-      <c r="A156" s="31"/>
-      <c r="B156" s="37"/>
+      <c r="A156" s="37"/>
+      <c r="B156" s="52"/>
       <c r="C156" s="3" t="s">
         <v>8</v>
       </c>
@@ -5591,11 +5382,11 @@
       <c r="G156" s="3">
         <v>20</v>
       </c>
-      <c r="K156" s="32"/>
+      <c r="K156" s="40"/>
     </row>
     <row r="157" spans="1:11">
-      <c r="A157" s="28"/>
-      <c r="B157" s="37"/>
+      <c r="A157" s="38"/>
+      <c r="B157" s="52"/>
       <c r="C157" s="3" t="s">
         <v>185</v>
       </c>
@@ -5608,13 +5399,13 @@
       <c r="F157" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="K157" s="30"/>
+      <c r="K157" s="41"/>
     </row>
     <row r="158" spans="1:11">
-      <c r="A158" s="27">
+      <c r="A158" s="36">
         <v>55</v>
       </c>
-      <c r="B158" s="36" t="s">
+      <c r="B158" s="51" t="s">
         <v>187</v>
       </c>
       <c r="C158" s="3" t="s">
@@ -5632,13 +5423,13 @@
       <c r="G158" s="3">
         <v>20</v>
       </c>
-      <c r="K158" s="29">
+      <c r="K158" s="43">
         <v>45546</v>
       </c>
     </row>
     <row r="159" spans="1:11">
-      <c r="A159" s="31"/>
-      <c r="B159" s="36"/>
+      <c r="A159" s="37"/>
+      <c r="B159" s="51"/>
       <c r="C159" s="3" t="s">
         <v>8</v>
       </c>
@@ -5654,11 +5445,11 @@
       <c r="G159" s="3">
         <v>20</v>
       </c>
-      <c r="K159" s="32"/>
+      <c r="K159" s="40"/>
     </row>
     <row r="160" spans="1:11">
-      <c r="A160" s="28"/>
-      <c r="B160" s="36"/>
+      <c r="A160" s="38"/>
+      <c r="B160" s="51"/>
       <c r="C160" s="3" t="s">
         <v>70</v>
       </c>
@@ -5671,13 +5462,13 @@
       <c r="F160" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="K160" s="30"/>
+      <c r="K160" s="41"/>
     </row>
     <row r="161" spans="1:11">
-      <c r="A161" s="27">
+      <c r="A161" s="36">
         <v>56</v>
       </c>
-      <c r="B161" s="36" t="s">
+      <c r="B161" s="51" t="s">
         <v>188</v>
       </c>
       <c r="C161" s="3" t="s">
@@ -5695,13 +5486,13 @@
       <c r="G161" s="3">
         <v>20</v>
       </c>
-      <c r="K161" s="29">
+      <c r="K161" s="43">
         <v>45546</v>
       </c>
     </row>
     <row r="162" spans="1:11">
-      <c r="A162" s="31"/>
-      <c r="B162" s="36"/>
+      <c r="A162" s="37"/>
+      <c r="B162" s="51"/>
       <c r="C162" s="3" t="s">
         <v>8</v>
       </c>
@@ -5717,11 +5508,11 @@
       <c r="G162" s="3">
         <v>20</v>
       </c>
-      <c r="K162" s="32"/>
+      <c r="K162" s="40"/>
     </row>
     <row r="163" spans="1:11">
-      <c r="A163" s="28"/>
-      <c r="B163" s="36"/>
+      <c r="A163" s="38"/>
+      <c r="B163" s="51"/>
       <c r="C163" s="3" t="s">
         <v>70</v>
       </c>
@@ -5734,13 +5525,13 @@
       <c r="F163" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="K163" s="30"/>
+      <c r="K163" s="41"/>
     </row>
     <row r="164" spans="1:11">
-      <c r="A164" s="27">
+      <c r="A164" s="36">
         <v>57</v>
       </c>
-      <c r="B164" s="36" t="s">
+      <c r="B164" s="51" t="s">
         <v>191</v>
       </c>
       <c r="C164" s="3" t="s">
@@ -5758,13 +5549,13 @@
       <c r="G164" s="3">
         <v>20</v>
       </c>
-      <c r="K164" s="29">
+      <c r="K164" s="43">
         <v>45546</v>
       </c>
     </row>
     <row r="165" spans="1:11">
-      <c r="A165" s="31"/>
-      <c r="B165" s="36"/>
+      <c r="A165" s="37"/>
+      <c r="B165" s="51"/>
       <c r="C165" s="3" t="s">
         <v>189</v>
       </c>
@@ -5780,11 +5571,11 @@
       <c r="G165" s="3">
         <v>40</v>
       </c>
-      <c r="K165" s="32"/>
+      <c r="K165" s="40"/>
     </row>
     <row r="166" spans="1:11">
-      <c r="A166" s="28"/>
-      <c r="B166" s="36"/>
+      <c r="A166" s="38"/>
+      <c r="B166" s="51"/>
       <c r="C166" s="3" t="s">
         <v>190</v>
       </c>
@@ -5800,13 +5591,13 @@
       <c r="G166" s="3">
         <v>40</v>
       </c>
-      <c r="K166" s="30"/>
+      <c r="K166" s="41"/>
     </row>
     <row r="167" spans="1:11">
-      <c r="A167" s="27">
+      <c r="A167" s="36">
         <v>58</v>
       </c>
-      <c r="B167" s="36" t="s">
+      <c r="B167" s="51" t="s">
         <v>194</v>
       </c>
       <c r="C167" s="3" t="s">
@@ -5824,13 +5615,13 @@
       <c r="G167" s="3">
         <v>20</v>
       </c>
-      <c r="K167" s="29">
+      <c r="K167" s="43">
         <v>45546</v>
       </c>
     </row>
     <row r="168" spans="1:11">
-      <c r="A168" s="31"/>
-      <c r="B168" s="36"/>
+      <c r="A168" s="37"/>
+      <c r="B168" s="51"/>
       <c r="C168" s="3" t="s">
         <v>192</v>
       </c>
@@ -5846,11 +5637,11 @@
       <c r="G168" s="3">
         <v>30</v>
       </c>
-      <c r="K168" s="32"/>
+      <c r="K168" s="40"/>
     </row>
     <row r="169" spans="1:11">
-      <c r="A169" s="28"/>
-      <c r="B169" s="36"/>
+      <c r="A169" s="38"/>
+      <c r="B169" s="51"/>
       <c r="C169" s="3" t="s">
         <v>193</v>
       </c>
@@ -5866,13 +5657,13 @@
       <c r="G169" s="3">
         <v>30</v>
       </c>
-      <c r="K169" s="30"/>
+      <c r="K169" s="41"/>
     </row>
     <row r="170" spans="1:11">
-      <c r="A170" s="27">
+      <c r="A170" s="36">
         <v>59</v>
       </c>
-      <c r="B170" s="36" t="s">
+      <c r="B170" s="51" t="s">
         <v>197</v>
       </c>
       <c r="C170" s="3" t="s">
@@ -5890,13 +5681,13 @@
       <c r="G170" s="3">
         <v>20</v>
       </c>
-      <c r="K170" s="29">
+      <c r="K170" s="43">
         <v>45546</v>
       </c>
     </row>
     <row r="171" spans="1:11">
-      <c r="A171" s="31"/>
-      <c r="B171" s="36"/>
+      <c r="A171" s="37"/>
+      <c r="B171" s="51"/>
       <c r="C171" s="3" t="s">
         <v>195</v>
       </c>
@@ -5912,11 +5703,11 @@
       <c r="G171" s="3">
         <v>30</v>
       </c>
-      <c r="K171" s="32"/>
+      <c r="K171" s="40"/>
     </row>
     <row r="172" spans="1:11">
-      <c r="A172" s="28"/>
-      <c r="B172" s="36"/>
+      <c r="A172" s="38"/>
+      <c r="B172" s="51"/>
       <c r="C172" s="3" t="s">
         <v>196</v>
       </c>
@@ -5932,13 +5723,13 @@
       <c r="G172" s="3">
         <v>30</v>
       </c>
-      <c r="K172" s="30"/>
+      <c r="K172" s="41"/>
     </row>
     <row r="173" spans="1:11">
-      <c r="A173" s="27">
+      <c r="A173" s="36">
         <v>60</v>
       </c>
-      <c r="B173" s="36" t="s">
+      <c r="B173" s="51" t="s">
         <v>200</v>
       </c>
       <c r="C173" s="3" t="s">
@@ -5956,13 +5747,13 @@
       <c r="G173" s="3">
         <v>20</v>
       </c>
-      <c r="K173" s="29">
+      <c r="K173" s="43">
         <v>45546</v>
       </c>
     </row>
     <row r="174" spans="1:11">
-      <c r="A174" s="31"/>
-      <c r="B174" s="36"/>
+      <c r="A174" s="37"/>
+      <c r="B174" s="51"/>
       <c r="C174" s="3" t="s">
         <v>198</v>
       </c>
@@ -5978,11 +5769,11 @@
       <c r="G174" s="3">
         <v>30</v>
       </c>
-      <c r="K174" s="32"/>
+      <c r="K174" s="40"/>
     </row>
     <row r="175" spans="1:11">
-      <c r="A175" s="28"/>
-      <c r="B175" s="36"/>
+      <c r="A175" s="38"/>
+      <c r="B175" s="51"/>
       <c r="C175" s="3" t="s">
         <v>199</v>
       </c>
@@ -5998,13 +5789,13 @@
       <c r="G175" s="3">
         <v>30</v>
       </c>
-      <c r="K175" s="30"/>
+      <c r="K175" s="41"/>
     </row>
     <row r="176" spans="1:11">
-      <c r="A176" s="27">
+      <c r="A176" s="36">
         <v>61</v>
       </c>
-      <c r="B176" s="36" t="s">
+      <c r="B176" s="51" t="s">
         <v>203</v>
       </c>
       <c r="C176" s="3" t="s">
@@ -6022,13 +5813,13 @@
       <c r="G176" s="3">
         <v>20</v>
       </c>
-      <c r="K176" s="29">
+      <c r="K176" s="43">
         <v>45546</v>
       </c>
     </row>
     <row r="177" spans="1:11">
-      <c r="A177" s="31"/>
-      <c r="B177" s="36"/>
+      <c r="A177" s="37"/>
+      <c r="B177" s="51"/>
       <c r="C177" s="3" t="s">
         <v>201</v>
       </c>
@@ -6044,11 +5835,11 @@
       <c r="G177" s="3">
         <v>60</v>
       </c>
-      <c r="K177" s="32"/>
+      <c r="K177" s="40"/>
     </row>
     <row r="178" spans="1:11">
-      <c r="A178" s="28"/>
-      <c r="B178" s="36"/>
+      <c r="A178" s="38"/>
+      <c r="B178" s="51"/>
       <c r="C178" s="3" t="s">
         <v>202</v>
       </c>
@@ -6064,13 +5855,13 @@
       <c r="G178" s="3">
         <v>60</v>
       </c>
-      <c r="K178" s="30"/>
+      <c r="K178" s="41"/>
     </row>
     <row r="179" spans="1:11">
-      <c r="A179" s="27">
+      <c r="A179" s="36">
         <v>62</v>
       </c>
-      <c r="B179" s="36" t="s">
+      <c r="B179" s="51" t="s">
         <v>204</v>
       </c>
       <c r="C179" s="8" t="s">
@@ -6088,13 +5879,13 @@
       <c r="G179" s="8">
         <v>20</v>
       </c>
-      <c r="K179" s="29">
+      <c r="K179" s="43">
         <v>45546</v>
       </c>
     </row>
     <row r="180" spans="1:11">
-      <c r="A180" s="31"/>
-      <c r="B180" s="36"/>
+      <c r="A180" s="37"/>
+      <c r="B180" s="51"/>
       <c r="C180" s="8" t="s">
         <v>201</v>
       </c>
@@ -6110,11 +5901,11 @@
       <c r="G180" s="8">
         <v>60</v>
       </c>
-      <c r="K180" s="32"/>
+      <c r="K180" s="40"/>
     </row>
     <row r="181" spans="1:11">
-      <c r="A181" s="28"/>
-      <c r="B181" s="36"/>
+      <c r="A181" s="38"/>
+      <c r="B181" s="51"/>
       <c r="C181" s="8" t="s">
         <v>202</v>
       </c>
@@ -6130,13 +5921,13 @@
       <c r="G181" s="8">
         <v>60</v>
       </c>
-      <c r="K181" s="30"/>
+      <c r="K181" s="41"/>
     </row>
     <row r="182" spans="1:11">
-      <c r="A182" s="27">
+      <c r="A182" s="36">
         <v>63</v>
       </c>
-      <c r="B182" s="27" t="s">
+      <c r="B182" s="36" t="s">
         <v>208</v>
       </c>
       <c r="C182" s="3" t="s">
@@ -6154,13 +5945,13 @@
       <c r="G182" s="3">
         <v>20</v>
       </c>
-      <c r="K182" s="29">
+      <c r="K182" s="43">
         <v>45546</v>
       </c>
     </row>
     <row r="183" spans="1:11">
-      <c r="A183" s="31"/>
-      <c r="B183" s="31"/>
+      <c r="A183" s="37"/>
+      <c r="B183" s="37"/>
       <c r="C183" s="3" t="s">
         <v>205</v>
       </c>
@@ -6176,11 +5967,11 @@
       <c r="G183" s="3">
         <v>60</v>
       </c>
-      <c r="K183" s="32"/>
+      <c r="K183" s="40"/>
     </row>
     <row r="184" spans="1:11" s="4" customFormat="1" ht="30" customHeight="1">
-      <c r="A184" s="31"/>
-      <c r="B184" s="31"/>
+      <c r="A184" s="37"/>
+      <c r="B184" s="37"/>
       <c r="C184" s="4" t="s">
         <v>206</v>
       </c>
@@ -6192,11 +5983,11 @@
       <c r="J184" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="K184" s="32"/>
+      <c r="K184" s="40"/>
     </row>
     <row r="185" spans="1:11">
-      <c r="A185" s="28"/>
-      <c r="B185" s="28"/>
+      <c r="A185" s="38"/>
+      <c r="B185" s="38"/>
       <c r="C185" s="3" t="s">
         <v>207</v>
       </c>
@@ -6206,13 +5997,13 @@
       <c r="J185" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="K185" s="30"/>
+      <c r="K185" s="41"/>
     </row>
     <row r="186" spans="1:11">
-      <c r="A186" s="27">
+      <c r="A186" s="36">
         <v>64</v>
       </c>
-      <c r="B186" s="27" t="s">
+      <c r="B186" s="36" t="s">
         <v>210</v>
       </c>
       <c r="C186" s="3" t="s">
@@ -6230,13 +6021,13 @@
       <c r="G186" s="3">
         <v>6</v>
       </c>
-      <c r="K186" s="29">
+      <c r="K186" s="43">
         <v>45551</v>
       </c>
     </row>
     <row r="187" spans="1:11">
-      <c r="A187" s="31"/>
-      <c r="B187" s="31"/>
+      <c r="A187" s="37"/>
+      <c r="B187" s="37"/>
       <c r="C187" s="3" t="s">
         <v>211</v>
       </c>
@@ -6252,11 +6043,11 @@
       <c r="G187" s="3">
         <v>6</v>
       </c>
-      <c r="K187" s="32"/>
+      <c r="K187" s="40"/>
     </row>
     <row r="188" spans="1:11">
-      <c r="A188" s="31"/>
-      <c r="B188" s="31"/>
+      <c r="A188" s="37"/>
+      <c r="B188" s="37"/>
       <c r="C188" s="3" t="s">
         <v>85</v>
       </c>
@@ -6272,11 +6063,11 @@
       <c r="G188" s="3">
         <v>20</v>
       </c>
-      <c r="K188" s="32"/>
+      <c r="K188" s="40"/>
     </row>
     <row r="189" spans="1:11">
-      <c r="A189" s="28"/>
-      <c r="B189" s="28"/>
+      <c r="A189" s="38"/>
+      <c r="B189" s="38"/>
       <c r="C189" s="3" t="s">
         <v>212</v>
       </c>
@@ -6292,13 +6083,13 @@
       <c r="G189" s="3">
         <v>20</v>
       </c>
-      <c r="K189" s="30"/>
+      <c r="K189" s="41"/>
     </row>
     <row r="190" spans="1:11">
-      <c r="A190" s="27">
+      <c r="A190" s="36">
         <v>65</v>
       </c>
-      <c r="B190" s="27" t="s">
+      <c r="B190" s="36" t="s">
         <v>215</v>
       </c>
       <c r="C190" s="3" t="s">
@@ -6316,13 +6107,13 @@
       <c r="G190" s="3">
         <v>20</v>
       </c>
-      <c r="K190" s="29">
+      <c r="K190" s="43">
         <v>45551</v>
       </c>
     </row>
     <row r="191" spans="1:11">
-      <c r="A191" s="31"/>
-      <c r="B191" s="31"/>
+      <c r="A191" s="37"/>
+      <c r="B191" s="37"/>
       <c r="C191" s="3" t="s">
         <v>8</v>
       </c>
@@ -6338,11 +6129,11 @@
       <c r="G191" s="3">
         <v>20</v>
       </c>
-      <c r="K191" s="32"/>
+      <c r="K191" s="40"/>
     </row>
     <row r="192" spans="1:11">
-      <c r="A192" s="31"/>
-      <c r="B192" s="31"/>
+      <c r="A192" s="37"/>
+      <c r="B192" s="37"/>
       <c r="C192" s="3" t="s">
         <v>213</v>
       </c>
@@ -6358,11 +6149,11 @@
       <c r="G192" s="3">
         <v>20</v>
       </c>
-      <c r="K192" s="32"/>
+      <c r="K192" s="40"/>
     </row>
     <row r="193" spans="1:11">
-      <c r="A193" s="28"/>
-      <c r="B193" s="28"/>
+      <c r="A193" s="38"/>
+      <c r="B193" s="38"/>
       <c r="C193" s="3" t="s">
         <v>214</v>
       </c>
@@ -6378,13 +6169,13 @@
       <c r="G193" s="3">
         <v>20</v>
       </c>
-      <c r="K193" s="30"/>
+      <c r="K193" s="41"/>
     </row>
     <row r="194" spans="1:11">
-      <c r="A194" s="27">
+      <c r="A194" s="36">
         <v>66</v>
       </c>
-      <c r="B194" s="27" t="s">
+      <c r="B194" s="36" t="s">
         <v>218</v>
       </c>
       <c r="C194" s="3" t="s">
@@ -6402,13 +6193,13 @@
       <c r="G194" s="3">
         <v>20</v>
       </c>
-      <c r="K194" s="29">
+      <c r="K194" s="43">
         <v>45551</v>
       </c>
     </row>
     <row r="195" spans="1:11">
-      <c r="A195" s="31"/>
-      <c r="B195" s="31"/>
+      <c r="A195" s="37"/>
+      <c r="B195" s="37"/>
       <c r="C195" s="3" t="s">
         <v>216</v>
       </c>
@@ -6424,11 +6215,11 @@
       <c r="G195" s="3">
         <v>20</v>
       </c>
-      <c r="K195" s="32"/>
+      <c r="K195" s="40"/>
     </row>
     <row r="196" spans="1:11">
-      <c r="A196" s="28"/>
-      <c r="B196" s="28"/>
+      <c r="A196" s="38"/>
+      <c r="B196" s="38"/>
       <c r="C196" s="3" t="s">
         <v>217</v>
       </c>
@@ -6444,13 +6235,13 @@
       <c r="G196" s="3">
         <v>20</v>
       </c>
-      <c r="K196" s="30"/>
+      <c r="K196" s="41"/>
     </row>
     <row r="197" spans="1:11">
-      <c r="A197" s="27">
+      <c r="A197" s="36">
         <v>67</v>
       </c>
-      <c r="B197" s="33" t="s">
+      <c r="B197" s="46" t="s">
         <v>219</v>
       </c>
       <c r="C197" s="3" t="s">
@@ -6462,13 +6253,13 @@
       <c r="F197" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K197" s="29">
+      <c r="K197" s="43">
         <v>45551</v>
       </c>
     </row>
     <row r="198" spans="1:11">
-      <c r="A198" s="31"/>
-      <c r="B198" s="34"/>
+      <c r="A198" s="37"/>
+      <c r="B198" s="47"/>
       <c r="C198" s="3" t="s">
         <v>175</v>
       </c>
@@ -6484,11 +6275,11 @@
       <c r="G198" s="3">
         <v>3000</v>
       </c>
-      <c r="K198" s="32"/>
+      <c r="K198" s="40"/>
     </row>
     <row r="199" spans="1:11">
-      <c r="A199" s="31"/>
-      <c r="B199" s="34"/>
+      <c r="A199" s="37"/>
+      <c r="B199" s="47"/>
       <c r="C199" s="3" t="s">
         <v>176</v>
       </c>
@@ -6504,11 +6295,11 @@
       <c r="G199" s="3">
         <v>3000</v>
       </c>
-      <c r="K199" s="32"/>
+      <c r="K199" s="40"/>
     </row>
     <row r="200" spans="1:11">
-      <c r="A200" s="31"/>
-      <c r="B200" s="34"/>
+      <c r="A200" s="37"/>
+      <c r="B200" s="47"/>
       <c r="C200" s="3" t="s">
         <v>177</v>
       </c>
@@ -6524,11 +6315,11 @@
       <c r="G200" s="3">
         <v>3000</v>
       </c>
-      <c r="K200" s="32"/>
+      <c r="K200" s="40"/>
     </row>
     <row r="201" spans="1:11">
-      <c r="A201" s="31"/>
-      <c r="B201" s="34"/>
+      <c r="A201" s="37"/>
+      <c r="B201" s="47"/>
       <c r="C201" s="3" t="s">
         <v>178</v>
       </c>
@@ -6544,11 +6335,11 @@
       <c r="G201" s="3">
         <v>3000</v>
       </c>
-      <c r="K201" s="32"/>
+      <c r="K201" s="40"/>
     </row>
     <row r="202" spans="1:11">
-      <c r="A202" s="31"/>
-      <c r="B202" s="34"/>
+      <c r="A202" s="37"/>
+      <c r="B202" s="47"/>
       <c r="C202" s="3" t="s">
         <v>179</v>
       </c>
@@ -6564,11 +6355,11 @@
       <c r="G202" s="3">
         <v>3000</v>
       </c>
-      <c r="K202" s="32"/>
+      <c r="K202" s="40"/>
     </row>
     <row r="203" spans="1:11">
-      <c r="A203" s="31"/>
-      <c r="B203" s="34"/>
+      <c r="A203" s="37"/>
+      <c r="B203" s="47"/>
       <c r="C203" s="3" t="s">
         <v>180</v>
       </c>
@@ -6584,11 +6375,11 @@
       <c r="G203" s="3">
         <v>3000</v>
       </c>
-      <c r="K203" s="32"/>
+      <c r="K203" s="40"/>
     </row>
     <row r="204" spans="1:11">
-      <c r="A204" s="31"/>
-      <c r="B204" s="34"/>
+      <c r="A204" s="37"/>
+      <c r="B204" s="47"/>
       <c r="C204" s="3" t="s">
         <v>181</v>
       </c>
@@ -6604,11 +6395,11 @@
       <c r="G204" s="3">
         <v>3000</v>
       </c>
-      <c r="K204" s="32"/>
+      <c r="K204" s="40"/>
     </row>
     <row r="205" spans="1:11">
-      <c r="A205" s="31"/>
-      <c r="B205" s="34"/>
+      <c r="A205" s="37"/>
+      <c r="B205" s="47"/>
       <c r="C205" s="3" t="s">
         <v>182</v>
       </c>
@@ -6624,11 +6415,11 @@
       <c r="G205" s="3">
         <v>3000</v>
       </c>
-      <c r="K205" s="32"/>
+      <c r="K205" s="40"/>
     </row>
     <row r="206" spans="1:11">
-      <c r="A206" s="31"/>
-      <c r="B206" s="34"/>
+      <c r="A206" s="37"/>
+      <c r="B206" s="47"/>
       <c r="C206" s="3" t="s">
         <v>183</v>
       </c>
@@ -6644,11 +6435,11 @@
       <c r="G206" s="3">
         <v>3000</v>
       </c>
-      <c r="K206" s="32"/>
+      <c r="K206" s="40"/>
     </row>
     <row r="207" spans="1:11">
-      <c r="A207" s="31"/>
-      <c r="B207" s="34"/>
+      <c r="A207" s="37"/>
+      <c r="B207" s="47"/>
       <c r="C207" s="3" t="s">
         <v>184</v>
       </c>
@@ -6664,11 +6455,11 @@
       <c r="G207" s="3">
         <v>3000</v>
       </c>
-      <c r="K207" s="32"/>
+      <c r="K207" s="40"/>
     </row>
     <row r="208" spans="1:11">
-      <c r="A208" s="31"/>
-      <c r="B208" s="34"/>
+      <c r="A208" s="37"/>
+      <c r="B208" s="47"/>
       <c r="C208" s="3" t="s">
         <v>6</v>
       </c>
@@ -6684,11 +6475,11 @@
       <c r="G208" s="3">
         <v>20</v>
       </c>
-      <c r="K208" s="32"/>
+      <c r="K208" s="40"/>
     </row>
     <row r="209" spans="1:11">
-      <c r="A209" s="31"/>
-      <c r="B209" s="34"/>
+      <c r="A209" s="37"/>
+      <c r="B209" s="47"/>
       <c r="C209" s="3" t="s">
         <v>8</v>
       </c>
@@ -6704,11 +6495,11 @@
       <c r="G209" s="3">
         <v>20</v>
       </c>
-      <c r="K209" s="32"/>
+      <c r="K209" s="40"/>
     </row>
     <row r="210" spans="1:11">
-      <c r="A210" s="28"/>
-      <c r="B210" s="35"/>
+      <c r="A210" s="38"/>
+      <c r="B210" s="48"/>
       <c r="C210" s="3" t="s">
         <v>185</v>
       </c>
@@ -6721,13 +6512,13 @@
       <c r="F210" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="K210" s="30"/>
+      <c r="K210" s="41"/>
     </row>
     <row r="211" spans="1:11" ht="45">
-      <c r="A211" s="27">
+      <c r="A211" s="36">
         <v>68</v>
       </c>
-      <c r="B211" s="27" t="s">
+      <c r="B211" s="36" t="s">
         <v>225</v>
       </c>
       <c r="C211" s="3" t="s">
@@ -6742,13 +6533,13 @@
       <c r="J211" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="K211" s="29">
+      <c r="K211" s="43">
         <v>45552</v>
       </c>
     </row>
     <row r="212" spans="1:11">
-      <c r="A212" s="31"/>
-      <c r="B212" s="31"/>
+      <c r="A212" s="37"/>
+      <c r="B212" s="37"/>
       <c r="C212" s="3" t="s">
         <v>221</v>
       </c>
@@ -6761,11 +6552,11 @@
       <c r="F212" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="K212" s="32"/>
+      <c r="K212" s="40"/>
     </row>
     <row r="213" spans="1:11" ht="45">
-      <c r="A213" s="31"/>
-      <c r="B213" s="31"/>
+      <c r="A213" s="37"/>
+      <c r="B213" s="37"/>
       <c r="C213" s="3" t="s">
         <v>222</v>
       </c>
@@ -6778,11 +6569,11 @@
       <c r="J213" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="K213" s="32"/>
+      <c r="K213" s="40"/>
     </row>
     <row r="214" spans="1:11" ht="45">
-      <c r="A214" s="31"/>
-      <c r="B214" s="31"/>
+      <c r="A214" s="37"/>
+      <c r="B214" s="37"/>
       <c r="C214" s="3" t="s">
         <v>223</v>
       </c>
@@ -6801,11 +6592,11 @@
       <c r="J214" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="K214" s="32"/>
+      <c r="K214" s="40"/>
     </row>
     <row r="215" spans="1:11">
-      <c r="A215" s="31"/>
-      <c r="B215" s="31"/>
+      <c r="A215" s="37"/>
+      <c r="B215" s="37"/>
       <c r="C215" s="3" t="s">
         <v>5</v>
       </c>
@@ -6821,11 +6612,11 @@
       <c r="G215" s="3">
         <v>3000</v>
       </c>
-      <c r="K215" s="32"/>
+      <c r="K215" s="40"/>
     </row>
     <row r="216" spans="1:11">
-      <c r="A216" s="31"/>
-      <c r="B216" s="31"/>
+      <c r="A216" s="37"/>
+      <c r="B216" s="37"/>
       <c r="C216" s="3" t="s">
         <v>224</v>
       </c>
@@ -6841,11 +6632,11 @@
       <c r="G216" s="3">
         <v>5</v>
       </c>
-      <c r="K216" s="32"/>
+      <c r="K216" s="40"/>
     </row>
     <row r="217" spans="1:11">
-      <c r="A217" s="31"/>
-      <c r="B217" s="31"/>
+      <c r="A217" s="37"/>
+      <c r="B217" s="37"/>
       <c r="C217" s="3" t="s">
         <v>6</v>
       </c>
@@ -6861,11 +6652,11 @@
       <c r="G217" s="3">
         <v>20</v>
       </c>
-      <c r="K217" s="32"/>
+      <c r="K217" s="40"/>
     </row>
     <row r="218" spans="1:11">
-      <c r="A218" s="28"/>
-      <c r="B218" s="28"/>
+      <c r="A218" s="38"/>
+      <c r="B218" s="38"/>
       <c r="C218" s="3" t="s">
         <v>8</v>
       </c>
@@ -6881,13 +6672,13 @@
       <c r="G218" s="3">
         <v>20</v>
       </c>
-      <c r="K218" s="30"/>
+      <c r="K218" s="41"/>
     </row>
     <row r="219" spans="1:11">
-      <c r="A219" s="27">
+      <c r="A219" s="36">
         <v>69</v>
       </c>
-      <c r="B219" s="27" t="s">
+      <c r="B219" s="36" t="s">
         <v>231</v>
       </c>
       <c r="C219" s="3" t="s">
@@ -6905,13 +6696,13 @@
       <c r="G219" s="3">
         <v>15</v>
       </c>
-      <c r="K219" s="29">
+      <c r="K219" s="43">
         <v>45552</v>
       </c>
     </row>
     <row r="220" spans="1:11">
-      <c r="A220" s="28"/>
-      <c r="B220" s="28"/>
+      <c r="A220" s="38"/>
+      <c r="B220" s="38"/>
       <c r="C220" s="3" t="s">
         <v>230</v>
       </c>
@@ -6927,13 +6718,13 @@
       <c r="G220" s="3">
         <v>15</v>
       </c>
-      <c r="K220" s="30"/>
+      <c r="K220" s="41"/>
     </row>
     <row r="221" spans="1:11" ht="30">
-      <c r="A221" s="27">
+      <c r="A221" s="36">
         <v>70</v>
       </c>
-      <c r="B221" s="27" t="s">
+      <c r="B221" s="36" t="s">
         <v>243</v>
       </c>
       <c r="C221" s="3" t="s">
@@ -6951,13 +6742,13 @@
       <c r="J221" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="K221" s="29">
+      <c r="K221" s="43">
         <v>45552</v>
       </c>
     </row>
     <row r="222" spans="1:11" ht="30">
-      <c r="A222" s="31"/>
-      <c r="B222" s="31"/>
+      <c r="A222" s="37"/>
+      <c r="B222" s="37"/>
       <c r="C222" s="3" t="s">
         <v>233</v>
       </c>
@@ -6976,11 +6767,11 @@
       <c r="J222" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="K222" s="32"/>
+      <c r="K222" s="40"/>
     </row>
     <row r="223" spans="1:11">
-      <c r="A223" s="31"/>
-      <c r="B223" s="31"/>
+      <c r="A223" s="37"/>
+      <c r="B223" s="37"/>
       <c r="C223" s="3" t="s">
         <v>234</v>
       </c>
@@ -6996,11 +6787,11 @@
       <c r="G223" s="3">
         <v>250</v>
       </c>
-      <c r="K223" s="32"/>
+      <c r="K223" s="40"/>
     </row>
     <row r="224" spans="1:11">
-      <c r="A224" s="31"/>
-      <c r="B224" s="31"/>
+      <c r="A224" s="37"/>
+      <c r="B224" s="37"/>
       <c r="C224" s="3" t="s">
         <v>6</v>
       </c>
@@ -7016,11 +6807,11 @@
       <c r="G224" s="3">
         <v>50</v>
       </c>
-      <c r="K224" s="32"/>
+      <c r="K224" s="40"/>
     </row>
     <row r="225" spans="1:11">
-      <c r="A225" s="31"/>
-      <c r="B225" s="31"/>
+      <c r="A225" s="37"/>
+      <c r="B225" s="37"/>
       <c r="C225" s="3" t="s">
         <v>235</v>
       </c>
@@ -7036,11 +6827,11 @@
       <c r="G225" s="3">
         <v>20</v>
       </c>
-      <c r="K225" s="32"/>
+      <c r="K225" s="40"/>
     </row>
     <row r="226" spans="1:11">
-      <c r="A226" s="31"/>
-      <c r="B226" s="31"/>
+      <c r="A226" s="37"/>
+      <c r="B226" s="37"/>
       <c r="C226" s="3" t="s">
         <v>236</v>
       </c>
@@ -7056,11 +6847,11 @@
       <c r="G226" s="3">
         <v>20</v>
       </c>
-      <c r="K226" s="32"/>
+      <c r="K226" s="40"/>
     </row>
     <row r="227" spans="1:11">
-      <c r="A227" s="31"/>
-      <c r="B227" s="31"/>
+      <c r="A227" s="37"/>
+      <c r="B227" s="37"/>
       <c r="C227" s="3" t="s">
         <v>237</v>
       </c>
@@ -7076,11 +6867,11 @@
       <c r="G227" s="3">
         <v>20</v>
       </c>
-      <c r="K227" s="32"/>
+      <c r="K227" s="40"/>
     </row>
     <row r="228" spans="1:11">
-      <c r="A228" s="31"/>
-      <c r="B228" s="31"/>
+      <c r="A228" s="37"/>
+      <c r="B228" s="37"/>
       <c r="C228" s="3" t="s">
         <v>238</v>
       </c>
@@ -7096,11 +6887,11 @@
       <c r="G228" s="3">
         <v>20</v>
       </c>
-      <c r="K228" s="32"/>
+      <c r="K228" s="40"/>
     </row>
     <row r="229" spans="1:11">
-      <c r="A229" s="31"/>
-      <c r="B229" s="31"/>
+      <c r="A229" s="37"/>
+      <c r="B229" s="37"/>
       <c r="C229" s="3" t="s">
         <v>239</v>
       </c>
@@ -7116,11 +6907,11 @@
       <c r="G229" s="3">
         <v>100</v>
       </c>
-      <c r="K229" s="32"/>
+      <c r="K229" s="40"/>
     </row>
     <row r="230" spans="1:11">
-      <c r="A230" s="31"/>
-      <c r="B230" s="31"/>
+      <c r="A230" s="37"/>
+      <c r="B230" s="37"/>
       <c r="C230" s="3" t="s">
         <v>240</v>
       </c>
@@ -7136,11 +6927,11 @@
       <c r="G230" s="3">
         <v>100</v>
       </c>
-      <c r="K230" s="32"/>
+      <c r="K230" s="40"/>
     </row>
     <row r="231" spans="1:11">
-      <c r="A231" s="31"/>
-      <c r="B231" s="31"/>
+      <c r="A231" s="37"/>
+      <c r="B231" s="37"/>
       <c r="C231" s="3" t="s">
         <v>241</v>
       </c>
@@ -7156,11 +6947,11 @@
       <c r="G231" s="3">
         <v>100</v>
       </c>
-      <c r="K231" s="32"/>
+      <c r="K231" s="40"/>
     </row>
     <row r="232" spans="1:11">
-      <c r="A232" s="28"/>
-      <c r="B232" s="28"/>
+      <c r="A232" s="38"/>
+      <c r="B232" s="38"/>
       <c r="C232" s="3" t="s">
         <v>242</v>
       </c>
@@ -7176,13 +6967,13 @@
       <c r="G232" s="3">
         <v>100</v>
       </c>
-      <c r="K232" s="30"/>
+      <c r="K232" s="41"/>
     </row>
     <row r="233" spans="1:11">
-      <c r="A233" s="27">
+      <c r="A233" s="36">
         <v>71</v>
       </c>
-      <c r="B233" s="27" t="s">
+      <c r="B233" s="36" t="s">
         <v>249</v>
       </c>
       <c r="C233" s="3" t="s">
@@ -7200,13 +6991,13 @@
       <c r="G233" s="3">
         <v>20</v>
       </c>
-      <c r="K233" s="29">
+      <c r="K233" s="43">
         <v>45552</v>
       </c>
     </row>
     <row r="234" spans="1:11">
-      <c r="A234" s="31"/>
-      <c r="B234" s="31"/>
+      <c r="A234" s="37"/>
+      <c r="B234" s="37"/>
       <c r="C234" s="3" t="s">
         <v>8</v>
       </c>
@@ -7222,11 +7013,11 @@
       <c r="G234" s="3">
         <v>30</v>
       </c>
-      <c r="K234" s="32"/>
+      <c r="K234" s="40"/>
     </row>
     <row r="235" spans="1:11">
-      <c r="A235" s="31"/>
-      <c r="B235" s="31"/>
+      <c r="A235" s="37"/>
+      <c r="B235" s="37"/>
       <c r="C235" s="3" t="s">
         <v>246</v>
       </c>
@@ -7242,11 +7033,11 @@
       <c r="G235" s="3">
         <v>50</v>
       </c>
-      <c r="K235" s="32"/>
+      <c r="K235" s="40"/>
     </row>
     <row r="236" spans="1:11">
-      <c r="A236" s="31"/>
-      <c r="B236" s="31"/>
+      <c r="A236" s="37"/>
+      <c r="B236" s="37"/>
       <c r="C236" s="3" t="s">
         <v>247</v>
       </c>
@@ -7262,11 +7053,11 @@
       <c r="G236" s="3">
         <v>60</v>
       </c>
-      <c r="K236" s="32"/>
+      <c r="K236" s="40"/>
     </row>
     <row r="237" spans="1:11">
-      <c r="A237" s="28"/>
-      <c r="B237" s="28"/>
+      <c r="A237" s="38"/>
+      <c r="B237" s="38"/>
       <c r="C237" s="3" t="s">
         <v>248</v>
       </c>
@@ -7282,13 +7073,13 @@
       <c r="G237" s="3">
         <v>3</v>
       </c>
-      <c r="K237" s="30"/>
+      <c r="K237" s="41"/>
     </row>
     <row r="238" spans="1:11">
-      <c r="A238" s="27">
+      <c r="A238" s="36">
         <v>72</v>
       </c>
-      <c r="B238" s="27" t="s">
+      <c r="B238" s="36" t="s">
         <v>251</v>
       </c>
       <c r="C238" s="3" t="s">
@@ -7306,13 +7097,13 @@
       <c r="G238" s="3">
         <v>20</v>
       </c>
-      <c r="K238" s="29">
+      <c r="K238" s="43">
         <v>45552</v>
       </c>
     </row>
     <row r="239" spans="1:11">
-      <c r="A239" s="28"/>
-      <c r="B239" s="28"/>
+      <c r="A239" s="38"/>
+      <c r="B239" s="38"/>
       <c r="C239" s="3" t="s">
         <v>250</v>
       </c>
@@ -7328,13 +7119,13 @@
       <c r="G239" s="3">
         <v>50</v>
       </c>
-      <c r="K239" s="30"/>
+      <c r="K239" s="41"/>
     </row>
     <row r="240" spans="1:11">
-      <c r="A240" s="27">
+      <c r="A240" s="36">
         <v>73</v>
       </c>
-      <c r="B240" s="27" t="s">
+      <c r="B240" s="36" t="s">
         <v>252</v>
       </c>
       <c r="C240" s="3" t="s">
@@ -7352,13 +7143,13 @@
       <c r="G240" s="3">
         <v>20</v>
       </c>
-      <c r="K240" s="38">
+      <c r="K240" s="49">
         <v>45552</v>
       </c>
     </row>
     <row r="241" spans="1:11">
-      <c r="A241" s="28"/>
-      <c r="B241" s="28"/>
+      <c r="A241" s="38"/>
+      <c r="B241" s="38"/>
       <c r="C241" s="3" t="s">
         <v>8</v>
       </c>
@@ -7374,13 +7165,13 @@
       <c r="G241" s="3">
         <v>20</v>
       </c>
-      <c r="K241" s="39"/>
+      <c r="K241" s="50"/>
     </row>
     <row r="242" spans="1:11">
-      <c r="A242" s="27">
+      <c r="A242" s="36">
         <v>74</v>
       </c>
-      <c r="B242" s="27" t="s">
+      <c r="B242" s="36" t="s">
         <v>17</v>
       </c>
       <c r="C242" s="3" t="s">
@@ -7398,13 +7189,13 @@
       <c r="G242" s="3">
         <v>50</v>
       </c>
-      <c r="K242" s="29">
+      <c r="K242" s="43">
         <v>45552</v>
       </c>
     </row>
     <row r="243" spans="1:11">
-      <c r="A243" s="31"/>
-      <c r="B243" s="31"/>
+      <c r="A243" s="37"/>
+      <c r="B243" s="37"/>
       <c r="C243" s="3" t="s">
         <v>6</v>
       </c>
@@ -7420,11 +7211,11 @@
       <c r="G243" s="3">
         <v>20</v>
       </c>
-      <c r="K243" s="32"/>
+      <c r="K243" s="40"/>
     </row>
     <row r="244" spans="1:11">
-      <c r="A244" s="31"/>
-      <c r="B244" s="31"/>
+      <c r="A244" s="37"/>
+      <c r="B244" s="37"/>
       <c r="C244" s="3" t="s">
         <v>8</v>
       </c>
@@ -7440,11 +7231,11 @@
       <c r="G244" s="3">
         <v>20</v>
       </c>
-      <c r="K244" s="32"/>
+      <c r="K244" s="40"/>
     </row>
     <row r="245" spans="1:11">
-      <c r="A245" s="31"/>
-      <c r="B245" s="31"/>
+      <c r="A245" s="37"/>
+      <c r="B245" s="37"/>
       <c r="C245" s="3" t="s">
         <v>12</v>
       </c>
@@ -7460,11 +7251,11 @@
       <c r="G245" s="3">
         <v>80</v>
       </c>
-      <c r="K245" s="32"/>
+      <c r="K245" s="40"/>
     </row>
     <row r="246" spans="1:11">
-      <c r="A246" s="28"/>
-      <c r="B246" s="28"/>
+      <c r="A246" s="38"/>
+      <c r="B246" s="38"/>
       <c r="C246" s="3" t="s">
         <v>11</v>
       </c>
@@ -7480,13 +7271,13 @@
       <c r="G246" s="3">
         <v>11</v>
       </c>
-      <c r="K246" s="30"/>
+      <c r="K246" s="41"/>
     </row>
     <row r="247" spans="1:11">
-      <c r="A247" s="27">
+      <c r="A247" s="36">
         <v>75</v>
       </c>
-      <c r="B247" s="27" t="s">
+      <c r="B247" s="36" t="s">
         <v>18</v>
       </c>
       <c r="C247" s="3" t="s">
@@ -7504,13 +7295,13 @@
       <c r="G247" s="3">
         <v>50</v>
       </c>
-      <c r="K247" s="29">
+      <c r="K247" s="43">
         <v>45552</v>
       </c>
     </row>
     <row r="248" spans="1:11">
-      <c r="A248" s="31"/>
-      <c r="B248" s="31"/>
+      <c r="A248" s="37"/>
+      <c r="B248" s="37"/>
       <c r="C248" s="3" t="s">
         <v>6</v>
       </c>
@@ -7526,11 +7317,11 @@
       <c r="G248" s="3">
         <v>20</v>
       </c>
-      <c r="K248" s="32"/>
+      <c r="K248" s="40"/>
     </row>
     <row r="249" spans="1:11">
-      <c r="A249" s="31"/>
-      <c r="B249" s="31"/>
+      <c r="A249" s="37"/>
+      <c r="B249" s="37"/>
       <c r="C249" s="3" t="s">
         <v>8</v>
       </c>
@@ -7546,11 +7337,11 @@
       <c r="G249" s="3">
         <v>20</v>
       </c>
-      <c r="K249" s="32"/>
+      <c r="K249" s="40"/>
     </row>
     <row r="250" spans="1:11">
-      <c r="A250" s="31"/>
-      <c r="B250" s="31"/>
+      <c r="A250" s="37"/>
+      <c r="B250" s="37"/>
       <c r="C250" s="3" t="s">
         <v>12</v>
       </c>
@@ -7566,11 +7357,11 @@
       <c r="G250" s="3">
         <v>80</v>
       </c>
-      <c r="K250" s="32"/>
+      <c r="K250" s="40"/>
     </row>
     <row r="251" spans="1:11">
-      <c r="A251" s="28"/>
-      <c r="B251" s="28"/>
+      <c r="A251" s="38"/>
+      <c r="B251" s="38"/>
       <c r="C251" s="3" t="s">
         <v>11</v>
       </c>
@@ -7586,13 +7377,13 @@
       <c r="G251" s="3">
         <v>11</v>
       </c>
-      <c r="K251" s="30"/>
+      <c r="K251" s="41"/>
     </row>
     <row r="252" spans="1:11">
-      <c r="A252" s="27">
+      <c r="A252" s="36">
         <v>76</v>
       </c>
-      <c r="B252" s="27" t="s">
+      <c r="B252" s="36" t="s">
         <v>22</v>
       </c>
       <c r="C252" s="3" t="s">
@@ -7613,13 +7404,13 @@
       <c r="J252" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="K252" s="29">
+      <c r="K252" s="43">
         <v>45552</v>
       </c>
     </row>
     <row r="253" spans="1:11">
-      <c r="A253" s="31"/>
-      <c r="B253" s="31"/>
+      <c r="A253" s="37"/>
+      <c r="B253" s="37"/>
       <c r="C253" s="3" t="s">
         <v>6</v>
       </c>
@@ -7635,11 +7426,11 @@
       <c r="G253" s="3">
         <v>20</v>
       </c>
-      <c r="K253" s="32"/>
+      <c r="K253" s="40"/>
     </row>
     <row r="254" spans="1:11">
-      <c r="A254" s="31"/>
-      <c r="B254" s="31"/>
+      <c r="A254" s="37"/>
+      <c r="B254" s="37"/>
       <c r="C254" s="3" t="s">
         <v>8</v>
       </c>
@@ -7655,11 +7446,11 @@
       <c r="G254" s="3">
         <v>20</v>
       </c>
-      <c r="K254" s="32"/>
+      <c r="K254" s="40"/>
     </row>
     <row r="255" spans="1:11">
-      <c r="A255" s="31"/>
-      <c r="B255" s="31"/>
+      <c r="A255" s="37"/>
+      <c r="B255" s="37"/>
       <c r="C255" s="3" t="s">
         <v>20</v>
       </c>
@@ -7673,11 +7464,11 @@
         <v>117</v>
       </c>
       <c r="G255"/>
-      <c r="K255" s="32"/>
+      <c r="K255" s="40"/>
     </row>
     <row r="256" spans="1:11">
-      <c r="A256" s="28"/>
-      <c r="B256" s="28"/>
+      <c r="A256" s="38"/>
+      <c r="B256" s="38"/>
       <c r="C256" s="3" t="s">
         <v>11</v>
       </c>
@@ -7693,13 +7484,13 @@
       <c r="G256" s="3">
         <v>11</v>
       </c>
-      <c r="K256" s="30"/>
+      <c r="K256" s="41"/>
     </row>
     <row r="257" spans="1:11">
-      <c r="A257" s="27">
+      <c r="A257" s="36">
         <v>77</v>
       </c>
-      <c r="B257" s="27" t="s">
+      <c r="B257" s="36" t="s">
         <v>254</v>
       </c>
       <c r="C257" s="3" t="s">
@@ -7717,13 +7508,13 @@
       <c r="G257" s="3">
         <v>20</v>
       </c>
-      <c r="K257" s="29">
+      <c r="K257" s="43">
         <v>45552</v>
       </c>
     </row>
     <row r="258" spans="1:11">
-      <c r="A258" s="28"/>
-      <c r="B258" s="28"/>
+      <c r="A258" s="38"/>
+      <c r="B258" s="38"/>
       <c r="C258" s="3" t="s">
         <v>99</v>
       </c>
@@ -7739,13 +7530,13 @@
       <c r="G258" s="3">
         <v>20</v>
       </c>
-      <c r="K258" s="30"/>
+      <c r="K258" s="41"/>
     </row>
     <row r="259" spans="1:11">
-      <c r="A259" s="27">
+      <c r="A259" s="36">
         <v>78</v>
       </c>
-      <c r="B259" s="27" t="s">
+      <c r="B259" s="36" t="s">
         <v>256</v>
       </c>
       <c r="C259" s="3" t="s">
@@ -7763,13 +7554,13 @@
       <c r="G259" s="3">
         <v>60</v>
       </c>
-      <c r="K259" s="29">
+      <c r="K259" s="43">
         <v>45552</v>
       </c>
     </row>
     <row r="260" spans="1:11">
-      <c r="A260" s="31"/>
-      <c r="B260" s="31"/>
+      <c r="A260" s="37"/>
+      <c r="B260" s="37"/>
       <c r="C260" s="3" t="s">
         <v>6</v>
       </c>
@@ -7785,11 +7576,11 @@
       <c r="G260" s="3">
         <v>20</v>
       </c>
-      <c r="K260" s="32"/>
+      <c r="K260" s="40"/>
     </row>
     <row r="261" spans="1:11">
-      <c r="A261" s="28"/>
-      <c r="B261" s="28"/>
+      <c r="A261" s="38"/>
+      <c r="B261" s="38"/>
       <c r="C261" s="3" t="s">
         <v>8</v>
       </c>
@@ -7805,13 +7596,13 @@
       <c r="G261" s="3">
         <v>20</v>
       </c>
-      <c r="K261" s="30"/>
+      <c r="K261" s="41"/>
     </row>
     <row r="262" spans="1:11">
-      <c r="A262" s="27">
+      <c r="A262" s="36">
         <v>79</v>
       </c>
-      <c r="B262" s="27" t="s">
+      <c r="B262" s="36" t="s">
         <v>39</v>
       </c>
       <c r="C262" s="8" t="s">
@@ -7830,13 +7621,13 @@
         <v>20</v>
       </c>
       <c r="H262" s="11"/>
-      <c r="K262" s="29">
+      <c r="K262" s="43">
         <v>45553</v>
       </c>
     </row>
     <row r="263" spans="1:11">
-      <c r="A263" s="31"/>
-      <c r="B263" s="31"/>
+      <c r="A263" s="37"/>
+      <c r="B263" s="37"/>
       <c r="C263" s="12" t="s">
         <v>8</v>
       </c>
@@ -7853,11 +7644,11 @@
         <v>20</v>
       </c>
       <c r="H263" s="13"/>
-      <c r="K263" s="32"/>
+      <c r="K263" s="40"/>
     </row>
     <row r="264" spans="1:11">
-      <c r="A264" s="31"/>
-      <c r="B264" s="31"/>
+      <c r="A264" s="37"/>
+      <c r="B264" s="37"/>
       <c r="C264" s="12" t="s">
         <v>37</v>
       </c>
@@ -7874,11 +7665,11 @@
         <v>10</v>
       </c>
       <c r="H264" s="13"/>
-      <c r="K264" s="32"/>
+      <c r="K264" s="40"/>
     </row>
     <row r="265" spans="1:11">
-      <c r="A265" s="31"/>
-      <c r="B265" s="31"/>
+      <c r="A265" s="37"/>
+      <c r="B265" s="37"/>
       <c r="C265" s="12" t="s">
         <v>38</v>
       </c>
@@ -7895,11 +7686,11 @@
         <v>11</v>
       </c>
       <c r="H265" s="13"/>
-      <c r="K265" s="32"/>
+      <c r="K265" s="40"/>
     </row>
     <row r="266" spans="1:11">
-      <c r="A266" s="31"/>
-      <c r="B266" s="31"/>
+      <c r="A266" s="37"/>
+      <c r="B266" s="37"/>
       <c r="C266" s="12" t="s">
         <v>9</v>
       </c>
@@ -7916,11 +7707,11 @@
         <v>50</v>
       </c>
       <c r="H266" s="13"/>
-      <c r="K266" s="32"/>
+      <c r="K266" s="40"/>
     </row>
     <row r="267" spans="1:11">
-      <c r="A267" s="28"/>
-      <c r="B267" s="28"/>
+      <c r="A267" s="38"/>
+      <c r="B267" s="38"/>
       <c r="C267" s="12" t="s">
         <v>36</v>
       </c>
@@ -7935,13 +7726,13 @@
       </c>
       <c r="G267" s="13"/>
       <c r="H267" s="13"/>
-      <c r="K267" s="30"/>
+      <c r="K267" s="41"/>
     </row>
     <row r="268" spans="1:11">
-      <c r="A268" s="27">
+      <c r="A268" s="36">
         <v>80</v>
       </c>
-      <c r="B268" s="27" t="s">
+      <c r="B268" s="36" t="s">
         <v>260</v>
       </c>
       <c r="C268" s="3" t="s">
@@ -7960,13 +7751,13 @@
         <v>20</v>
       </c>
       <c r="H268" s="4"/>
-      <c r="K268" s="29">
+      <c r="K268" s="43">
         <v>45553</v>
       </c>
     </row>
     <row r="269" spans="1:11">
-      <c r="A269" s="31"/>
-      <c r="B269" s="31"/>
+      <c r="A269" s="37"/>
+      <c r="B269" s="37"/>
       <c r="C269" s="3" t="s">
         <v>8</v>
       </c>
@@ -7982,11 +7773,11 @@
       <c r="G269" s="3">
         <v>20</v>
       </c>
-      <c r="K269" s="32"/>
+      <c r="K269" s="40"/>
     </row>
     <row r="270" spans="1:11">
-      <c r="A270" s="31"/>
-      <c r="B270" s="31"/>
+      <c r="A270" s="37"/>
+      <c r="B270" s="37"/>
       <c r="C270" s="3" t="s">
         <v>257</v>
       </c>
@@ -8002,11 +7793,11 @@
       <c r="G270" s="3">
         <v>50</v>
       </c>
-      <c r="K270" s="32"/>
+      <c r="K270" s="40"/>
     </row>
     <row r="271" spans="1:11">
-      <c r="A271" s="31"/>
-      <c r="B271" s="31"/>
+      <c r="A271" s="37"/>
+      <c r="B271" s="37"/>
       <c r="C271" s="3" t="s">
         <v>258</v>
       </c>
@@ -8022,11 +7813,11 @@
       <c r="G271" s="3">
         <v>50</v>
       </c>
-      <c r="K271" s="32"/>
+      <c r="K271" s="40"/>
     </row>
     <row r="272" spans="1:11">
-      <c r="A272" s="28"/>
-      <c r="B272" s="28"/>
+      <c r="A272" s="38"/>
+      <c r="B272" s="38"/>
       <c r="C272" s="3" t="s">
         <v>259</v>
       </c>
@@ -8042,13 +7833,13 @@
       <c r="G272" s="3">
         <v>2</v>
       </c>
-      <c r="K272" s="30"/>
+      <c r="K272" s="41"/>
     </row>
     <row r="273" spans="1:11">
-      <c r="A273" s="27">
+      <c r="A273" s="36">
         <v>81</v>
       </c>
-      <c r="B273" s="27" t="s">
+      <c r="B273" s="36" t="s">
         <v>264</v>
       </c>
       <c r="C273" s="3" t="s">
@@ -8067,13 +7858,13 @@
         <v>20</v>
       </c>
       <c r="H273" s="4"/>
-      <c r="K273" s="29">
+      <c r="K273" s="43">
         <v>45553</v>
       </c>
     </row>
     <row r="274" spans="1:11">
-      <c r="A274" s="31"/>
-      <c r="B274" s="31"/>
+      <c r="A274" s="37"/>
+      <c r="B274" s="37"/>
       <c r="C274" s="3" t="s">
         <v>8</v>
       </c>
@@ -8089,11 +7880,11 @@
       <c r="G274" s="3">
         <v>20</v>
       </c>
-      <c r="K274" s="32"/>
+      <c r="K274" s="40"/>
     </row>
     <row r="275" spans="1:11">
-      <c r="A275" s="31"/>
-      <c r="B275" s="31"/>
+      <c r="A275" s="37"/>
+      <c r="B275" s="37"/>
       <c r="C275" s="3" t="s">
         <v>261</v>
       </c>
@@ -8109,11 +7900,11 @@
       <c r="G275" s="3">
         <v>100</v>
       </c>
-      <c r="K275" s="32"/>
+      <c r="K275" s="40"/>
     </row>
     <row r="276" spans="1:11">
-      <c r="A276" s="31"/>
-      <c r="B276" s="31"/>
+      <c r="A276" s="37"/>
+      <c r="B276" s="37"/>
       <c r="C276" s="3" t="s">
         <v>262</v>
       </c>
@@ -8129,11 +7920,11 @@
       <c r="G276" s="3">
         <v>100</v>
       </c>
-      <c r="K276" s="30"/>
+      <c r="K276" s="41"/>
     </row>
     <row r="277" spans="1:11">
-      <c r="A277" s="28"/>
-      <c r="B277" s="28"/>
+      <c r="A277" s="38"/>
+      <c r="B277" s="38"/>
       <c r="C277" s="3" t="s">
         <v>263</v>
       </c>
@@ -8149,15 +7940,15 @@
       <c r="G277" s="3">
         <v>2</v>
       </c>
-      <c r="K277" s="29">
+      <c r="K277" s="43">
         <v>45553</v>
       </c>
     </row>
     <row r="278" spans="1:11">
-      <c r="A278" s="27">
+      <c r="A278" s="36">
         <v>82</v>
       </c>
-      <c r="B278" s="27" t="s">
+      <c r="B278" s="36" t="s">
         <v>268</v>
       </c>
       <c r="C278" s="3" t="s">
@@ -8175,11 +7966,11 @@
       <c r="G278" s="3">
         <v>20</v>
       </c>
-      <c r="K278" s="32"/>
+      <c r="K278" s="40"/>
     </row>
     <row r="279" spans="1:11">
-      <c r="A279" s="31"/>
-      <c r="B279" s="31"/>
+      <c r="A279" s="37"/>
+      <c r="B279" s="37"/>
       <c r="C279" s="3" t="s">
         <v>8</v>
       </c>
@@ -8195,11 +7986,11 @@
       <c r="G279" s="3">
         <v>20</v>
       </c>
-      <c r="K279" s="32"/>
+      <c r="K279" s="40"/>
     </row>
     <row r="280" spans="1:11">
-      <c r="A280" s="31"/>
-      <c r="B280" s="31"/>
+      <c r="A280" s="37"/>
+      <c r="B280" s="37"/>
       <c r="C280" s="3" t="s">
         <v>266</v>
       </c>
@@ -8215,11 +8006,11 @@
       <c r="G280" s="3">
         <v>50</v>
       </c>
-      <c r="K280" s="32"/>
+      <c r="K280" s="40"/>
     </row>
     <row r="281" spans="1:11">
-      <c r="A281" s="28"/>
-      <c r="B281" s="28"/>
+      <c r="A281" s="38"/>
+      <c r="B281" s="38"/>
       <c r="C281" s="3" t="s">
         <v>267</v>
       </c>
@@ -8235,13 +8026,13 @@
       <c r="G281" s="3">
         <v>50</v>
       </c>
-      <c r="K281" s="30"/>
+      <c r="K281" s="41"/>
     </row>
     <row r="282" spans="1:11">
-      <c r="A282" s="27">
+      <c r="A282" s="36">
         <v>83</v>
       </c>
-      <c r="B282" s="27" t="s">
+      <c r="B282" s="36" t="s">
         <v>276</v>
       </c>
       <c r="C282" s="3" t="s">
@@ -8260,13 +8051,13 @@
         <v>20</v>
       </c>
       <c r="H282" s="4"/>
-      <c r="K282" s="29">
+      <c r="K282" s="43">
         <v>45553</v>
       </c>
     </row>
     <row r="283" spans="1:11">
-      <c r="A283" s="31"/>
-      <c r="B283" s="31"/>
+      <c r="A283" s="37"/>
+      <c r="B283" s="37"/>
       <c r="C283" s="3" t="s">
         <v>8</v>
       </c>
@@ -8282,11 +8073,11 @@
       <c r="G283" s="3">
         <v>20</v>
       </c>
-      <c r="K283" s="32"/>
+      <c r="K283" s="40"/>
     </row>
     <row r="284" spans="1:11">
-      <c r="A284" s="31"/>
-      <c r="B284" s="31"/>
+      <c r="A284" s="37"/>
+      <c r="B284" s="37"/>
       <c r="C284" s="3" t="s">
         <v>269</v>
       </c>
@@ -8299,11 +8090,11 @@
       <c r="F284" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="K284" s="32"/>
+      <c r="K284" s="40"/>
     </row>
     <row r="285" spans="1:11">
-      <c r="A285" s="31"/>
-      <c r="B285" s="31"/>
+      <c r="A285" s="37"/>
+      <c r="B285" s="37"/>
       <c r="C285" s="3" t="s">
         <v>270</v>
       </c>
@@ -8316,11 +8107,11 @@
       <c r="F285" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="K285" s="32"/>
+      <c r="K285" s="40"/>
     </row>
     <row r="286" spans="1:11">
-      <c r="A286" s="31"/>
-      <c r="B286" s="31"/>
+      <c r="A286" s="37"/>
+      <c r="B286" s="37"/>
       <c r="C286" s="3" t="s">
         <v>271</v>
       </c>
@@ -8336,11 +8127,11 @@
       <c r="G286" s="3">
         <v>3</v>
       </c>
-      <c r="K286" s="32"/>
+      <c r="K286" s="40"/>
     </row>
     <row r="287" spans="1:11">
-      <c r="A287" s="31"/>
-      <c r="B287" s="31"/>
+      <c r="A287" s="37"/>
+      <c r="B287" s="37"/>
       <c r="C287" s="3" t="s">
         <v>272</v>
       </c>
@@ -8356,11 +8147,11 @@
       <c r="G287" s="3">
         <v>3</v>
       </c>
-      <c r="K287" s="32"/>
+      <c r="K287" s="40"/>
     </row>
     <row r="288" spans="1:11">
-      <c r="A288" s="31"/>
-      <c r="B288" s="31"/>
+      <c r="A288" s="37"/>
+      <c r="B288" s="37"/>
       <c r="C288" s="3" t="s">
         <v>273</v>
       </c>
@@ -8373,11 +8164,11 @@
       <c r="F288" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K288" s="32"/>
+      <c r="K288" s="40"/>
     </row>
     <row r="289" spans="1:11">
-      <c r="A289" s="31"/>
-      <c r="B289" s="31"/>
+      <c r="A289" s="37"/>
+      <c r="B289" s="37"/>
       <c r="C289" s="3" t="s">
         <v>274</v>
       </c>
@@ -8390,11 +8181,11 @@
       <c r="F289" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="K289" s="32"/>
+      <c r="K289" s="40"/>
     </row>
     <row r="290" spans="1:11">
-      <c r="A290" s="28"/>
-      <c r="B290" s="28"/>
+      <c r="A290" s="38"/>
+      <c r="B290" s="38"/>
       <c r="C290" s="3" t="s">
         <v>275</v>
       </c>
@@ -8410,13 +8201,13 @@
       <c r="G290" s="3">
         <v>20</v>
       </c>
-      <c r="K290" s="30"/>
+      <c r="K290" s="41"/>
     </row>
     <row r="291" spans="1:11">
-      <c r="A291" s="27">
+      <c r="A291" s="36">
         <v>84</v>
       </c>
-      <c r="B291" s="27" t="s">
+      <c r="B291" s="36" t="s">
         <v>288</v>
       </c>
       <c r="C291" s="3" t="s">
@@ -8434,13 +8225,13 @@
       <c r="G291" s="3">
         <v>0</v>
       </c>
-      <c r="K291" s="29">
+      <c r="K291" s="43">
         <v>45553</v>
       </c>
     </row>
     <row r="292" spans="1:11">
-      <c r="A292" s="31"/>
-      <c r="B292" s="31"/>
+      <c r="A292" s="37"/>
+      <c r="B292" s="37"/>
       <c r="C292" s="3" t="s">
         <v>278</v>
       </c>
@@ -8456,11 +8247,11 @@
       <c r="G292" s="3">
         <v>8</v>
       </c>
-      <c r="K292" s="32"/>
+      <c r="K292" s="40"/>
     </row>
     <row r="293" spans="1:11">
-      <c r="A293" s="31"/>
-      <c r="B293" s="31"/>
+      <c r="A293" s="37"/>
+      <c r="B293" s="37"/>
       <c r="C293" s="3" t="s">
         <v>279</v>
       </c>
@@ -8476,11 +8267,11 @@
       <c r="G293" s="3">
         <v>50</v>
       </c>
-      <c r="K293" s="32"/>
+      <c r="K293" s="40"/>
     </row>
     <row r="294" spans="1:11">
-      <c r="A294" s="31"/>
-      <c r="B294" s="31"/>
+      <c r="A294" s="37"/>
+      <c r="B294" s="37"/>
       <c r="C294" s="3" t="s">
         <v>280</v>
       </c>
@@ -8496,11 +8287,11 @@
       <c r="G294" s="3">
         <v>50</v>
       </c>
-      <c r="K294" s="32"/>
+      <c r="K294" s="40"/>
     </row>
     <row r="295" spans="1:11">
-      <c r="A295" s="31"/>
-      <c r="B295" s="31"/>
+      <c r="A295" s="37"/>
+      <c r="B295" s="37"/>
       <c r="C295" s="3" t="s">
         <v>281</v>
       </c>
@@ -8516,11 +8307,11 @@
       <c r="G295" s="3">
         <v>10</v>
       </c>
-      <c r="K295" s="32"/>
+      <c r="K295" s="40"/>
     </row>
     <row r="296" spans="1:11">
-      <c r="A296" s="31"/>
-      <c r="B296" s="31"/>
+      <c r="A296" s="37"/>
+      <c r="B296" s="37"/>
       <c r="C296" s="3" t="s">
         <v>282</v>
       </c>
@@ -8536,11 +8327,11 @@
       <c r="G296" s="3">
         <v>150</v>
       </c>
-      <c r="K296" s="32"/>
+      <c r="K296" s="40"/>
     </row>
     <row r="297" spans="1:11">
-      <c r="A297" s="31"/>
-      <c r="B297" s="31"/>
+      <c r="A297" s="37"/>
+      <c r="B297" s="37"/>
       <c r="C297" s="3" t="s">
         <v>283</v>
       </c>
@@ -8556,11 +8347,11 @@
       <c r="G297" s="3">
         <v>100</v>
       </c>
-      <c r="K297" s="32"/>
+      <c r="K297" s="40"/>
     </row>
     <row r="298" spans="1:11">
-      <c r="A298" s="31"/>
-      <c r="B298" s="31"/>
+      <c r="A298" s="37"/>
+      <c r="B298" s="37"/>
       <c r="C298" s="3" t="s">
         <v>6</v>
       </c>
@@ -8576,11 +8367,11 @@
       <c r="G298" s="3">
         <v>20</v>
       </c>
-      <c r="K298" s="32"/>
+      <c r="K298" s="40"/>
     </row>
     <row r="299" spans="1:11">
-      <c r="A299" s="31"/>
-      <c r="B299" s="31"/>
+      <c r="A299" s="37"/>
+      <c r="B299" s="37"/>
       <c r="C299" s="3" t="s">
         <v>8</v>
       </c>
@@ -8596,11 +8387,11 @@
       <c r="G299" s="3">
         <v>20</v>
       </c>
-      <c r="K299" s="32"/>
+      <c r="K299" s="40"/>
     </row>
     <row r="300" spans="1:11">
-      <c r="A300" s="31"/>
-      <c r="B300" s="31"/>
+      <c r="A300" s="37"/>
+      <c r="B300" s="37"/>
       <c r="C300" s="3" t="s">
         <v>284</v>
       </c>
@@ -8619,11 +8410,11 @@
       <c r="J300" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="K300" s="32"/>
+      <c r="K300" s="40"/>
     </row>
     <row r="301" spans="1:11">
-      <c r="A301" s="31"/>
-      <c r="B301" s="31"/>
+      <c r="A301" s="37"/>
+      <c r="B301" s="37"/>
       <c r="C301" s="3" t="s">
         <v>285</v>
       </c>
@@ -8639,11 +8430,11 @@
       <c r="G301" s="3">
         <v>50</v>
       </c>
-      <c r="K301" s="32"/>
+      <c r="K301" s="40"/>
     </row>
     <row r="302" spans="1:11">
-      <c r="A302" s="28"/>
-      <c r="B302" s="28"/>
+      <c r="A302" s="38"/>
+      <c r="B302" s="38"/>
       <c r="C302" s="3" t="s">
         <v>286</v>
       </c>
@@ -8659,13 +8450,13 @@
       <c r="G302" s="3">
         <v>150</v>
       </c>
-      <c r="K302" s="30"/>
+      <c r="K302" s="41"/>
     </row>
     <row r="303" spans="1:11">
-      <c r="A303" s="27">
+      <c r="A303" s="36">
         <v>85</v>
       </c>
-      <c r="B303" s="27" t="s">
+      <c r="B303" s="36" t="s">
         <v>291</v>
       </c>
       <c r="C303" s="3" t="s">
@@ -8684,13 +8475,13 @@
         <v>20</v>
       </c>
       <c r="H303" s="4"/>
-      <c r="K303" s="29">
+      <c r="K303" s="43">
         <v>45553</v>
       </c>
     </row>
     <row r="304" spans="1:11">
-      <c r="A304" s="31"/>
-      <c r="B304" s="31"/>
+      <c r="A304" s="37"/>
+      <c r="B304" s="37"/>
       <c r="C304" s="3" t="s">
         <v>289</v>
       </c>
@@ -8706,11 +8497,11 @@
       <c r="G304" s="3">
         <v>20</v>
       </c>
-      <c r="K304" s="32"/>
+      <c r="K304" s="40"/>
     </row>
     <row r="305" spans="1:11">
-      <c r="A305" s="31"/>
-      <c r="B305" s="31"/>
+      <c r="A305" s="37"/>
+      <c r="B305" s="37"/>
       <c r="C305" s="3" t="s">
         <v>290</v>
       </c>
@@ -8721,11 +8512,11 @@
       <c r="F305" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K305" s="32"/>
+      <c r="K305" s="40"/>
     </row>
     <row r="306" spans="1:11">
-      <c r="A306" s="28"/>
-      <c r="B306" s="28"/>
+      <c r="A306" s="38"/>
+      <c r="B306" s="38"/>
       <c r="C306" s="3" t="s">
         <v>274</v>
       </c>
@@ -8738,13 +8529,13 @@
       <c r="F306" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="K306" s="30"/>
+      <c r="K306" s="41"/>
     </row>
     <row r="307" spans="1:11">
-      <c r="A307" s="27">
+      <c r="A307" s="36">
         <v>86</v>
       </c>
-      <c r="B307" s="33" t="s">
+      <c r="B307" s="46" t="s">
         <v>296</v>
       </c>
       <c r="C307" s="3" t="s">
@@ -8757,13 +8548,13 @@
       <c r="F307" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K307" s="29">
+      <c r="K307" s="43">
         <v>45553</v>
       </c>
     </row>
     <row r="308" spans="1:11" ht="45">
-      <c r="A308" s="31"/>
-      <c r="B308" s="34"/>
+      <c r="A308" s="37"/>
+      <c r="B308" s="47"/>
       <c r="C308" s="3" t="s">
         <v>292</v>
       </c>
@@ -8776,11 +8567,11 @@
       <c r="J308" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="K308" s="32"/>
+      <c r="K308" s="40"/>
     </row>
     <row r="309" spans="1:11">
-      <c r="A309" s="31"/>
-      <c r="B309" s="34"/>
+      <c r="A309" s="37"/>
+      <c r="B309" s="47"/>
       <c r="C309" s="3" t="s">
         <v>293</v>
       </c>
@@ -8796,11 +8587,11 @@
       <c r="G309" s="3">
         <v>9</v>
       </c>
-      <c r="K309" s="32"/>
+      <c r="K309" s="40"/>
     </row>
     <row r="310" spans="1:11">
-      <c r="A310" s="31"/>
-      <c r="B310" s="34"/>
+      <c r="A310" s="37"/>
+      <c r="B310" s="47"/>
       <c r="C310" s="3" t="s">
         <v>294</v>
       </c>
@@ -8816,11 +8607,11 @@
       <c r="G310" s="3">
         <v>9</v>
       </c>
-      <c r="K310" s="32"/>
+      <c r="K310" s="40"/>
     </row>
     <row r="311" spans="1:11">
-      <c r="A311" s="31"/>
-      <c r="B311" s="34"/>
+      <c r="A311" s="37"/>
+      <c r="B311" s="47"/>
       <c r="C311" s="3" t="s">
         <v>295</v>
       </c>
@@ -8836,11 +8627,11 @@
       <c r="G311" s="3">
         <v>5</v>
       </c>
-      <c r="K311" s="32"/>
+      <c r="K311" s="40"/>
     </row>
     <row r="312" spans="1:11">
-      <c r="A312" s="31"/>
-      <c r="B312" s="34"/>
+      <c r="A312" s="37"/>
+      <c r="B312" s="47"/>
       <c r="C312" s="3" t="s">
         <v>6</v>
       </c>
@@ -8856,11 +8647,11 @@
       <c r="G312" s="3">
         <v>20</v>
       </c>
-      <c r="K312" s="32"/>
+      <c r="K312" s="40"/>
     </row>
     <row r="313" spans="1:11">
-      <c r="A313" s="31"/>
-      <c r="B313" s="34"/>
+      <c r="A313" s="37"/>
+      <c r="B313" s="47"/>
       <c r="C313" s="3" t="s">
         <v>8</v>
       </c>
@@ -8876,11 +8667,11 @@
       <c r="G313" s="3">
         <v>20</v>
       </c>
-      <c r="K313" s="32"/>
+      <c r="K313" s="40"/>
     </row>
     <row r="314" spans="1:11" ht="30">
-      <c r="A314" s="28"/>
-      <c r="B314" s="35"/>
+      <c r="A314" s="38"/>
+      <c r="B314" s="48"/>
       <c r="C314" s="3" t="s">
         <v>185</v>
       </c>
@@ -8891,13 +8682,13 @@
       <c r="J314" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="K314" s="30"/>
+      <c r="K314" s="41"/>
     </row>
     <row r="315" spans="1:11">
-      <c r="A315" s="36">
+      <c r="A315" s="51">
         <v>87</v>
       </c>
-      <c r="B315" s="36" t="s">
+      <c r="B315" s="51" t="s">
         <v>35</v>
       </c>
       <c r="C315" s="3" t="s">
@@ -8915,13 +8706,13 @@
       <c r="G315" s="3">
         <v>20</v>
       </c>
-      <c r="K315" s="29">
+      <c r="K315" s="43">
         <v>45553</v>
       </c>
     </row>
     <row r="316" spans="1:11">
-      <c r="A316" s="36"/>
-      <c r="B316" s="36"/>
+      <c r="A316" s="51"/>
+      <c r="B316" s="51"/>
       <c r="C316" s="3" t="s">
         <v>8</v>
       </c>
@@ -8937,7 +8728,7 @@
       <c r="G316" s="5">
         <v>20</v>
       </c>
-      <c r="K316" s="30"/>
+      <c r="K316" s="41"/>
     </row>
     <row r="317" spans="1:11">
       <c r="A317" s="6">
@@ -8954,10 +8745,10 @@
       </c>
     </row>
     <row r="318" spans="1:11">
-      <c r="A318" s="27">
+      <c r="A318" s="36">
         <v>89</v>
       </c>
-      <c r="B318" s="33" t="s">
+      <c r="B318" s="46" t="s">
         <v>304</v>
       </c>
       <c r="C318" s="3" t="s">
@@ -8970,13 +8761,13 @@
       <c r="F318" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K318" s="29">
+      <c r="K318" s="43">
         <v>45554</v>
       </c>
     </row>
     <row r="319" spans="1:11" ht="45">
-      <c r="A319" s="31"/>
-      <c r="B319" s="34"/>
+      <c r="A319" s="37"/>
+      <c r="B319" s="47"/>
       <c r="C319" s="3" t="s">
         <v>292</v>
       </c>
@@ -8989,11 +8780,11 @@
       <c r="J319" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="K319" s="32"/>
+      <c r="K319" s="40"/>
     </row>
     <row r="320" spans="1:11" ht="30">
-      <c r="A320" s="31"/>
-      <c r="B320" s="34"/>
+      <c r="A320" s="37"/>
+      <c r="B320" s="47"/>
       <c r="C320" s="3" t="s">
         <v>301</v>
       </c>
@@ -9012,11 +8803,11 @@
       <c r="J320" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="K320" s="32"/>
+      <c r="K320" s="40"/>
     </row>
     <row r="321" spans="1:11">
-      <c r="A321" s="31"/>
-      <c r="B321" s="34"/>
+      <c r="A321" s="37"/>
+      <c r="B321" s="47"/>
       <c r="C321" s="3" t="s">
         <v>302</v>
       </c>
@@ -9032,11 +8823,11 @@
       <c r="G321" s="3">
         <v>6</v>
       </c>
-      <c r="K321" s="32"/>
+      <c r="K321" s="40"/>
     </row>
     <row r="322" spans="1:11">
-      <c r="A322" s="31"/>
-      <c r="B322" s="34"/>
+      <c r="A322" s="37"/>
+      <c r="B322" s="47"/>
       <c r="C322" s="3" t="s">
         <v>303</v>
       </c>
@@ -9052,11 +8843,11 @@
       <c r="G322" s="3">
         <v>6</v>
       </c>
-      <c r="K322" s="32"/>
+      <c r="K322" s="40"/>
     </row>
     <row r="323" spans="1:11">
-      <c r="A323" s="31"/>
-      <c r="B323" s="34"/>
+      <c r="A323" s="37"/>
+      <c r="B323" s="47"/>
       <c r="C323" s="3" t="s">
         <v>6</v>
       </c>
@@ -9072,11 +8863,11 @@
       <c r="G323" s="3">
         <v>20</v>
       </c>
-      <c r="K323" s="32"/>
+      <c r="K323" s="40"/>
     </row>
     <row r="324" spans="1:11">
-      <c r="A324" s="31"/>
-      <c r="B324" s="34"/>
+      <c r="A324" s="37"/>
+      <c r="B324" s="47"/>
       <c r="C324" s="3" t="s">
         <v>8</v>
       </c>
@@ -9095,11 +8886,11 @@
       <c r="J324" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="K324" s="32"/>
+      <c r="K324" s="40"/>
     </row>
     <row r="325" spans="1:11">
-      <c r="A325" s="28"/>
-      <c r="B325" s="35"/>
+      <c r="A325" s="38"/>
+      <c r="B325" s="48"/>
       <c r="C325" s="3" t="s">
         <v>185</v>
       </c>
@@ -9107,13 +8898,13 @@
         <v>67</v>
       </c>
       <c r="E325" s="3"/>
-      <c r="K325" s="30"/>
+      <c r="K325" s="41"/>
     </row>
     <row r="326" spans="1:11" ht="30" customHeight="1">
-      <c r="A326" s="27">
+      <c r="A326" s="36">
         <v>90</v>
       </c>
-      <c r="B326" s="33" t="s">
+      <c r="B326" s="46" t="s">
         <v>307</v>
       </c>
       <c r="C326" s="3" t="s">
@@ -9126,13 +8917,13 @@
       <c r="F326" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K326" s="29">
+      <c r="K326" s="43">
         <v>45554</v>
       </c>
     </row>
     <row r="327" spans="1:11" ht="30" customHeight="1">
-      <c r="A327" s="31"/>
-      <c r="B327" s="34"/>
+      <c r="A327" s="37"/>
+      <c r="B327" s="47"/>
       <c r="C327" s="3" t="s">
         <v>292</v>
       </c>
@@ -9145,11 +8936,11 @@
       <c r="J327" s="22" t="s">
         <v>298</v>
       </c>
-      <c r="K327" s="32"/>
+      <c r="K327" s="40"/>
     </row>
     <row r="328" spans="1:11" ht="30" customHeight="1">
-      <c r="A328" s="31"/>
-      <c r="B328" s="34"/>
+      <c r="A328" s="37"/>
+      <c r="B328" s="47"/>
       <c r="C328" s="3" t="s">
         <v>301</v>
       </c>
@@ -9168,11 +8959,11 @@
       <c r="J328" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="K328" s="32"/>
+      <c r="K328" s="40"/>
     </row>
     <row r="329" spans="1:11" ht="30" customHeight="1">
-      <c r="A329" s="31"/>
-      <c r="B329" s="34"/>
+      <c r="A329" s="37"/>
+      <c r="B329" s="47"/>
       <c r="C329" s="3" t="s">
         <v>308</v>
       </c>
@@ -9183,11 +8974,11 @@
       <c r="F329" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K329" s="32"/>
+      <c r="K329" s="40"/>
     </row>
     <row r="330" spans="1:11" ht="30" customHeight="1">
-      <c r="A330" s="31"/>
-      <c r="B330" s="34"/>
+      <c r="A330" s="37"/>
+      <c r="B330" s="47"/>
       <c r="C330" s="3" t="s">
         <v>309</v>
       </c>
@@ -9200,11 +8991,11 @@
       <c r="F330" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K330" s="32"/>
+      <c r="K330" s="40"/>
     </row>
     <row r="331" spans="1:11" ht="30" customHeight="1">
-      <c r="A331" s="31"/>
-      <c r="B331" s="34"/>
+      <c r="A331" s="37"/>
+      <c r="B331" s="47"/>
       <c r="C331" s="3" t="s">
         <v>310</v>
       </c>
@@ -9217,11 +9008,11 @@
       <c r="F331" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K331" s="32"/>
+      <c r="K331" s="40"/>
     </row>
     <row r="332" spans="1:11" ht="30" customHeight="1">
-      <c r="A332" s="31"/>
-      <c r="B332" s="34"/>
+      <c r="A332" s="37"/>
+      <c r="B332" s="47"/>
       <c r="C332" s="3" t="s">
         <v>311</v>
       </c>
@@ -9234,11 +9025,11 @@
       <c r="F332" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K332" s="32"/>
+      <c r="K332" s="40"/>
     </row>
     <row r="333" spans="1:11" ht="30" customHeight="1">
-      <c r="A333" s="31"/>
-      <c r="B333" s="34"/>
+      <c r="A333" s="37"/>
+      <c r="B333" s="47"/>
       <c r="C333" s="3" t="s">
         <v>312</v>
       </c>
@@ -9251,11 +9042,11 @@
       <c r="F333" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K333" s="32"/>
+      <c r="K333" s="40"/>
     </row>
     <row r="334" spans="1:11" ht="30" customHeight="1">
-      <c r="A334" s="31"/>
-      <c r="B334" s="34"/>
+      <c r="A334" s="37"/>
+      <c r="B334" s="47"/>
       <c r="C334" s="3" t="s">
         <v>313</v>
       </c>
@@ -9268,11 +9059,11 @@
       <c r="F334" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K334" s="32"/>
+      <c r="K334" s="40"/>
     </row>
     <row r="335" spans="1:11" ht="30" customHeight="1">
-      <c r="A335" s="31"/>
-      <c r="B335" s="34"/>
+      <c r="A335" s="37"/>
+      <c r="B335" s="47"/>
       <c r="C335" s="3" t="s">
         <v>314</v>
       </c>
@@ -9285,11 +9076,11 @@
       <c r="F335" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K335" s="32"/>
+      <c r="K335" s="40"/>
     </row>
     <row r="336" spans="1:11">
-      <c r="A336" s="31"/>
-      <c r="B336" s="34"/>
+      <c r="A336" s="37"/>
+      <c r="B336" s="47"/>
       <c r="C336" s="3" t="s">
         <v>315</v>
       </c>
@@ -9302,11 +9093,11 @@
       <c r="F336" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K336" s="32"/>
+      <c r="K336" s="40"/>
     </row>
     <row r="337" spans="1:11">
-      <c r="A337" s="31"/>
-      <c r="B337" s="34"/>
+      <c r="A337" s="37"/>
+      <c r="B337" s="47"/>
       <c r="C337" s="3" t="s">
         <v>316</v>
       </c>
@@ -9319,11 +9110,11 @@
       <c r="F337" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K337" s="32"/>
+      <c r="K337" s="40"/>
     </row>
     <row r="338" spans="1:11">
-      <c r="A338" s="31"/>
-      <c r="B338" s="34"/>
+      <c r="A338" s="37"/>
+      <c r="B338" s="47"/>
       <c r="C338" s="3" t="s">
         <v>317</v>
       </c>
@@ -9336,11 +9127,11 @@
       <c r="F338" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K338" s="32"/>
+      <c r="K338" s="40"/>
     </row>
     <row r="339" spans="1:11">
-      <c r="A339" s="31"/>
-      <c r="B339" s="34"/>
+      <c r="A339" s="37"/>
+      <c r="B339" s="47"/>
       <c r="C339" s="3" t="s">
         <v>318</v>
       </c>
@@ -9353,11 +9144,11 @@
       <c r="F339" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K339" s="32"/>
+      <c r="K339" s="40"/>
     </row>
     <row r="340" spans="1:11">
-      <c r="A340" s="31"/>
-      <c r="B340" s="34"/>
+      <c r="A340" s="37"/>
+      <c r="B340" s="47"/>
       <c r="C340" s="3" t="s">
         <v>6</v>
       </c>
@@ -9373,11 +9164,11 @@
       <c r="G340" s="3">
         <v>20</v>
       </c>
-      <c r="K340" s="32"/>
+      <c r="K340" s="40"/>
     </row>
     <row r="341" spans="1:11">
-      <c r="A341" s="31"/>
-      <c r="B341" s="34"/>
+      <c r="A341" s="37"/>
+      <c r="B341" s="47"/>
       <c r="C341" s="3" t="s">
         <v>8</v>
       </c>
@@ -9396,11 +9187,11 @@
       <c r="J341" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="K341" s="32"/>
+      <c r="K341" s="40"/>
     </row>
     <row r="342" spans="1:11">
-      <c r="A342" s="28"/>
-      <c r="B342" s="35"/>
+      <c r="A342" s="38"/>
+      <c r="B342" s="48"/>
       <c r="C342" s="3" t="s">
         <v>185</v>
       </c>
@@ -9408,7 +9199,7 @@
         <v>67</v>
       </c>
       <c r="E342" s="3"/>
-      <c r="K342" s="30"/>
+      <c r="K342" s="41"/>
     </row>
     <row r="343" spans="1:11">
       <c r="A343" s="6">
@@ -9437,10 +9228,10 @@
       </c>
     </row>
     <row r="344" spans="1:11">
-      <c r="A344" s="27">
+      <c r="A344" s="36">
         <v>92</v>
       </c>
-      <c r="B344" s="27" t="s">
+      <c r="B344" s="36" t="s">
         <v>322</v>
       </c>
       <c r="C344" s="3" t="s">
@@ -9458,13 +9249,13 @@
       <c r="G344" s="3">
         <v>20</v>
       </c>
-      <c r="K344" s="29">
+      <c r="K344" s="43">
         <v>45554</v>
       </c>
     </row>
     <row r="345" spans="1:11">
-      <c r="A345" s="28"/>
-      <c r="B345" s="28"/>
+      <c r="A345" s="38"/>
+      <c r="B345" s="38"/>
       <c r="C345" s="3" t="s">
         <v>8</v>
       </c>
@@ -9480,13 +9271,13 @@
       <c r="G345" s="3">
         <v>20</v>
       </c>
-      <c r="K345" s="30"/>
+      <c r="K345" s="41"/>
     </row>
     <row r="346" spans="1:11">
-      <c r="A346" s="27">
+      <c r="A346" s="36">
         <v>93</v>
       </c>
-      <c r="B346" s="27" t="s">
+      <c r="B346" s="36" t="s">
         <v>323</v>
       </c>
       <c r="C346" s="3" t="s">
@@ -9504,13 +9295,13 @@
       <c r="G346" s="3">
         <v>20</v>
       </c>
-      <c r="K346" s="29">
+      <c r="K346" s="43">
         <v>45554</v>
       </c>
     </row>
     <row r="347" spans="1:11">
-      <c r="A347" s="28"/>
-      <c r="B347" s="28"/>
+      <c r="A347" s="38"/>
+      <c r="B347" s="38"/>
       <c r="C347" s="3" t="s">
         <v>324</v>
       </c>
@@ -9526,13 +9317,13 @@
       <c r="G347" s="3">
         <v>50</v>
       </c>
-      <c r="K347" s="30"/>
+      <c r="K347" s="41"/>
     </row>
     <row r="348" spans="1:11">
-      <c r="A348" s="27">
+      <c r="A348" s="36">
         <v>94</v>
       </c>
-      <c r="B348" s="27" t="s">
+      <c r="B348" s="36" t="s">
         <v>326</v>
       </c>
       <c r="C348" s="3" t="s">
@@ -9550,13 +9341,13 @@
       <c r="G348" s="3">
         <v>20</v>
       </c>
-      <c r="K348" s="29">
+      <c r="K348" s="43">
         <v>45554</v>
       </c>
     </row>
     <row r="349" spans="1:11">
-      <c r="A349" s="28"/>
-      <c r="B349" s="28"/>
+      <c r="A349" s="38"/>
+      <c r="B349" s="38"/>
       <c r="C349" s="3" t="s">
         <v>325</v>
       </c>
@@ -9572,13 +9363,13 @@
       <c r="G349" s="3">
         <v>50</v>
       </c>
-      <c r="K349" s="30"/>
+      <c r="K349" s="41"/>
     </row>
     <row r="350" spans="1:11">
-      <c r="A350" s="27">
+      <c r="A350" s="36">
         <v>95</v>
       </c>
-      <c r="B350" s="27" t="s">
+      <c r="B350" s="36" t="s">
         <v>328</v>
       </c>
       <c r="C350" s="3" t="s">
@@ -9596,13 +9387,13 @@
       <c r="G350" s="3">
         <v>20</v>
       </c>
-      <c r="K350" s="29">
+      <c r="K350" s="43">
         <v>45554</v>
       </c>
     </row>
     <row r="351" spans="1:11">
-      <c r="A351" s="28"/>
-      <c r="B351" s="28"/>
+      <c r="A351" s="38"/>
+      <c r="B351" s="38"/>
       <c r="C351" s="3" t="s">
         <v>327</v>
       </c>
@@ -9618,13 +9409,13 @@
       <c r="G351" s="3">
         <v>50</v>
       </c>
-      <c r="K351" s="30"/>
+      <c r="K351" s="41"/>
     </row>
     <row r="352" spans="1:11">
-      <c r="A352" s="27">
+      <c r="A352" s="36">
         <v>96</v>
       </c>
-      <c r="B352" s="27" t="s">
+      <c r="B352" s="36" t="s">
         <v>329</v>
       </c>
       <c r="C352" s="3" t="s">
@@ -9642,13 +9433,13 @@
       <c r="G352" s="3">
         <v>20</v>
       </c>
-      <c r="K352" s="29">
+      <c r="K352" s="43">
         <v>45554</v>
       </c>
     </row>
     <row r="353" spans="1:11">
-      <c r="A353" s="28"/>
-      <c r="B353" s="28"/>
+      <c r="A353" s="38"/>
+      <c r="B353" s="38"/>
       <c r="C353" s="3" t="s">
         <v>110</v>
       </c>
@@ -9664,13 +9455,13 @@
       <c r="G353" s="3">
         <v>100</v>
       </c>
-      <c r="K353" s="30"/>
+      <c r="K353" s="41"/>
     </row>
     <row r="354" spans="1:11">
-      <c r="A354" s="27">
+      <c r="A354" s="36">
         <v>97</v>
       </c>
-      <c r="B354" s="27" t="s">
+      <c r="B354" s="36" t="s">
         <v>332</v>
       </c>
       <c r="C354" s="3" t="s">
@@ -9688,13 +9479,13 @@
       <c r="G354" s="3">
         <v>50</v>
       </c>
-      <c r="K354" s="29">
+      <c r="K354" s="43">
         <v>45554</v>
       </c>
     </row>
     <row r="355" spans="1:11">
-      <c r="A355" s="31"/>
-      <c r="B355" s="31"/>
+      <c r="A355" s="37"/>
+      <c r="B355" s="37"/>
       <c r="C355" s="3" t="s">
         <v>331</v>
       </c>
@@ -9710,11 +9501,11 @@
       <c r="G355" s="3">
         <v>50</v>
       </c>
-      <c r="K355" s="32"/>
+      <c r="K355" s="40"/>
     </row>
     <row r="356" spans="1:11">
-      <c r="A356" s="31"/>
-      <c r="B356" s="31"/>
+      <c r="A356" s="37"/>
+      <c r="B356" s="37"/>
       <c r="C356" s="3" t="s">
         <v>8</v>
       </c>
@@ -9730,11 +9521,11 @@
       <c r="G356" s="3">
         <v>20</v>
       </c>
-      <c r="K356" s="32"/>
+      <c r="K356" s="40"/>
     </row>
     <row r="357" spans="1:11">
-      <c r="A357" s="28"/>
-      <c r="B357" s="28"/>
+      <c r="A357" s="38"/>
+      <c r="B357" s="38"/>
       <c r="C357" s="3" t="s">
         <v>6</v>
       </c>
@@ -9750,13 +9541,13 @@
       <c r="G357" s="3">
         <v>20</v>
       </c>
-      <c r="K357" s="30"/>
+      <c r="K357" s="41"/>
     </row>
     <row r="358" spans="1:11">
-      <c r="A358" s="27">
+      <c r="A358" s="36">
         <v>98</v>
       </c>
-      <c r="B358" s="27" t="s">
+      <c r="B358" s="36" t="s">
         <v>333</v>
       </c>
       <c r="C358" s="3" t="s">
@@ -9774,13 +9565,13 @@
       <c r="G358" s="3">
         <v>50</v>
       </c>
-      <c r="K358" s="29">
+      <c r="K358" s="43">
         <v>45554</v>
       </c>
     </row>
     <row r="359" spans="1:11">
-      <c r="A359" s="31"/>
-      <c r="B359" s="31"/>
+      <c r="A359" s="37"/>
+      <c r="B359" s="37"/>
       <c r="C359" s="3" t="s">
         <v>331</v>
       </c>
@@ -9796,11 +9587,11 @@
       <c r="G359" s="3">
         <v>50</v>
       </c>
-      <c r="K359" s="32"/>
+      <c r="K359" s="40"/>
     </row>
     <row r="360" spans="1:11">
-      <c r="A360" s="31"/>
-      <c r="B360" s="31"/>
+      <c r="A360" s="37"/>
+      <c r="B360" s="37"/>
       <c r="C360" s="3" t="s">
         <v>8</v>
       </c>
@@ -9816,11 +9607,11 @@
       <c r="G360" s="3">
         <v>20</v>
       </c>
-      <c r="K360" s="32"/>
+      <c r="K360" s="40"/>
     </row>
     <row r="361" spans="1:11">
-      <c r="A361" s="28"/>
-      <c r="B361" s="28"/>
+      <c r="A361" s="38"/>
+      <c r="B361" s="38"/>
       <c r="C361" s="3" t="s">
         <v>6</v>
       </c>
@@ -9836,13 +9627,13 @@
       <c r="G361" s="3">
         <v>20</v>
       </c>
-      <c r="K361" s="30"/>
+      <c r="K361" s="41"/>
     </row>
     <row r="362" spans="1:11">
-      <c r="A362" s="27">
+      <c r="A362" s="36">
         <v>99</v>
       </c>
-      <c r="B362" s="27" t="s">
+      <c r="B362" s="36" t="s">
         <v>338</v>
       </c>
       <c r="C362" s="3" t="s">
@@ -9860,13 +9651,13 @@
       <c r="G362" s="3">
         <v>20</v>
       </c>
-      <c r="K362" s="29">
+      <c r="K362" s="43">
         <v>45554</v>
       </c>
     </row>
     <row r="363" spans="1:11" ht="15.75">
-      <c r="A363" s="28"/>
-      <c r="B363" s="28"/>
+      <c r="A363" s="38"/>
+      <c r="B363" s="38"/>
       <c r="C363" s="3" t="s">
         <v>334</v>
       </c>
@@ -9876,19 +9667,19 @@
       <c r="E363" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="F363" s="51" t="s">
+      <c r="F363" s="31" t="s">
         <v>335</v>
       </c>
       <c r="G363" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="K363" s="30"/>
+      <c r="K363" s="41"/>
     </row>
     <row r="364" spans="1:11">
-      <c r="A364" s="27">
+      <c r="A364" s="36">
         <v>100</v>
       </c>
-      <c r="B364" s="27" t="s">
+      <c r="B364" s="36" t="s">
         <v>344</v>
       </c>
       <c r="C364" s="3" t="s">
@@ -9906,13 +9697,13 @@
       <c r="G364" s="3">
         <v>2</v>
       </c>
-      <c r="K364" s="29">
+      <c r="K364" s="43">
         <v>45554</v>
       </c>
     </row>
     <row r="365" spans="1:11">
-      <c r="A365" s="31"/>
-      <c r="B365" s="31"/>
+      <c r="A365" s="37"/>
+      <c r="B365" s="37"/>
       <c r="C365" s="3" t="s">
         <v>340</v>
       </c>
@@ -9928,11 +9719,11 @@
       <c r="G365" s="3">
         <v>40</v>
       </c>
-      <c r="K365" s="32"/>
+      <c r="K365" s="40"/>
     </row>
     <row r="366" spans="1:11">
-      <c r="A366" s="31"/>
-      <c r="B366" s="31"/>
+      <c r="A366" s="37"/>
+      <c r="B366" s="37"/>
       <c r="C366" s="3" t="s">
         <v>341</v>
       </c>
@@ -9948,11 +9739,11 @@
       <c r="G366" s="3">
         <v>40</v>
       </c>
-      <c r="K366" s="32"/>
+      <c r="K366" s="40"/>
     </row>
     <row r="367" spans="1:11" ht="15.75">
-      <c r="A367" s="31"/>
-      <c r="B367" s="31"/>
+      <c r="A367" s="37"/>
+      <c r="B367" s="37"/>
       <c r="C367" s="3" t="s">
         <v>342</v>
       </c>
@@ -9962,17 +9753,17 @@
       <c r="E367" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="F367" s="51" t="s">
+      <c r="F367" s="31" t="s">
         <v>335</v>
       </c>
       <c r="G367" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="K367" s="32"/>
+      <c r="K367" s="40"/>
     </row>
     <row r="368" spans="1:11" ht="15.75">
-      <c r="A368" s="31"/>
-      <c r="B368" s="31"/>
+      <c r="A368" s="37"/>
+      <c r="B368" s="37"/>
       <c r="C368" s="3" t="s">
         <v>342</v>
       </c>
@@ -9982,17 +9773,17 @@
       <c r="E368" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="F368" s="51" t="s">
+      <c r="F368" s="31" t="s">
         <v>335</v>
       </c>
       <c r="G368" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="K368" s="32"/>
+      <c r="K368" s="40"/>
     </row>
     <row r="369" spans="1:15">
-      <c r="A369" s="31"/>
-      <c r="B369" s="31"/>
+      <c r="A369" s="37"/>
+      <c r="B369" s="37"/>
       <c r="C369" s="3" t="s">
         <v>343</v>
       </c>
@@ -10000,14 +9791,14 @@
         <v>67</v>
       </c>
       <c r="E369" s="3"/>
-      <c r="F369" s="52" t="s">
+      <c r="F369" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="K369" s="32"/>
+      <c r="K369" s="40"/>
     </row>
     <row r="370" spans="1:15">
-      <c r="A370" s="28"/>
-      <c r="B370" s="28"/>
+      <c r="A370" s="38"/>
+      <c r="B370" s="38"/>
       <c r="C370" s="3" t="s">
         <v>144</v>
       </c>
@@ -10023,7 +9814,7 @@
       <c r="G370" s="3">
         <v>20</v>
       </c>
-      <c r="K370" s="30"/>
+      <c r="K370" s="41"/>
     </row>
     <row r="371" spans="1:15">
       <c r="A371" s="6">
@@ -10078,10 +9869,10 @@
       </c>
     </row>
     <row r="373" spans="1:15">
-      <c r="A373" s="27">
+      <c r="A373" s="36">
         <v>103</v>
       </c>
-      <c r="B373" s="27" t="s">
+      <c r="B373" s="36" t="s">
         <v>354</v>
       </c>
       <c r="C373" s="3" t="s">
@@ -10099,13 +9890,13 @@
       <c r="G373" s="3">
         <v>20</v>
       </c>
-      <c r="K373" s="29">
+      <c r="K373" s="43">
         <v>45540</v>
       </c>
     </row>
     <row r="374" spans="1:15">
-      <c r="A374" s="28"/>
-      <c r="B374" s="28"/>
+      <c r="A374" s="38"/>
+      <c r="B374" s="38"/>
       <c r="C374" s="3" t="s">
         <v>355</v>
       </c>
@@ -10121,13 +9912,13 @@
       <c r="G374" s="3">
         <v>30</v>
       </c>
-      <c r="K374" s="30"/>
+      <c r="K374" s="41"/>
     </row>
     <row r="375" spans="1:15">
       <c r="A375" s="6">
         <v>104</v>
       </c>
-      <c r="B375" s="41" t="s">
+      <c r="B375" s="28" t="s">
         <v>353</v>
       </c>
       <c r="C375" s="3" t="s">
@@ -10150,7 +9941,7 @@
       </c>
     </row>
     <row r="376" spans="1:15">
-      <c r="A376" s="27">
+      <c r="A376" s="36">
         <v>105</v>
       </c>
       <c r="B376" s="42" t="s">
@@ -10171,13 +9962,13 @@
       <c r="G376" s="3">
         <v>30</v>
       </c>
-      <c r="K376" s="32" t="s">
+      <c r="K376" s="40" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="377" spans="1:15">
-      <c r="A377" s="28"/>
-      <c r="B377" s="43"/>
+      <c r="A377" s="38"/>
+      <c r="B377" s="35"/>
       <c r="C377" s="3" t="s">
         <v>49</v>
       </c>
@@ -10193,13 +9984,13 @@
       <c r="G377" s="3">
         <v>20</v>
       </c>
-      <c r="K377" s="30"/>
+      <c r="K377" s="41"/>
     </row>
     <row r="378" spans="1:15">
       <c r="A378" s="6">
         <v>106</v>
       </c>
-      <c r="B378" s="41" t="s">
+      <c r="B378" s="28" t="s">
         <v>350</v>
       </c>
       <c r="C378" s="3" t="s">
@@ -10214,12 +10005,12 @@
       <c r="F378" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="K378" s="45">
+      <c r="K378" s="30">
         <v>45539</v>
       </c>
     </row>
     <row r="379" spans="1:15">
-      <c r="A379" s="27">
+      <c r="A379" s="36">
         <v>107</v>
       </c>
       <c r="B379" s="42" t="s">
@@ -10237,14 +10028,14 @@
       <c r="F379" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="K379" s="48">
+      <c r="K379" s="44">
         <v>45539</v>
       </c>
-      <c r="O379" s="44"/>
+      <c r="O379" s="29"/>
     </row>
     <row r="380" spans="1:15">
-      <c r="A380" s="31"/>
-      <c r="B380" s="47"/>
+      <c r="A380" s="37"/>
+      <c r="B380" s="34"/>
       <c r="C380" s="3" t="s">
         <v>359</v>
       </c>
@@ -10257,11 +10048,11 @@
       <c r="F380" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="K380" s="48"/>
+      <c r="K380" s="44"/>
     </row>
     <row r="381" spans="1:15">
-      <c r="A381" s="31"/>
-      <c r="B381" s="47"/>
+      <c r="A381" s="37"/>
+      <c r="B381" s="34"/>
       <c r="C381" s="3" t="s">
         <v>360</v>
       </c>
@@ -10274,11 +10065,11 @@
       <c r="F381" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="K381" s="48"/>
+      <c r="K381" s="44"/>
     </row>
     <row r="382" spans="1:15">
-      <c r="A382" s="31"/>
-      <c r="B382" s="47"/>
+      <c r="A382" s="37"/>
+      <c r="B382" s="34"/>
       <c r="C382" s="3" t="s">
         <v>362</v>
       </c>
@@ -10291,11 +10082,11 @@
       <c r="F382" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="K382" s="48"/>
+      <c r="K382" s="44"/>
     </row>
     <row r="383" spans="1:15">
-      <c r="A383" s="31"/>
-      <c r="B383" s="47"/>
+      <c r="A383" s="37"/>
+      <c r="B383" s="34"/>
       <c r="C383" s="3" t="s">
         <v>363</v>
       </c>
@@ -10308,11 +10099,11 @@
       <c r="F383" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="K383" s="48"/>
+      <c r="K383" s="44"/>
     </row>
     <row r="384" spans="1:15">
-      <c r="A384" s="28"/>
-      <c r="B384" s="43"/>
+      <c r="A384" s="38"/>
+      <c r="B384" s="35"/>
       <c r="C384" s="3" t="s">
         <v>364</v>
       </c>
@@ -10323,13 +10114,13 @@
       <c r="F384" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="K384" s="46"/>
+      <c r="K384" s="45"/>
     </row>
     <row r="385" spans="1:11">
-      <c r="A385" s="27">
+      <c r="A385" s="36">
         <v>108</v>
       </c>
-      <c r="B385" s="49" t="s">
+      <c r="B385" s="33" t="s">
         <v>369</v>
       </c>
       <c r="C385" s="3" t="s">
@@ -10344,13 +10135,13 @@
       <c r="F385" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="K385" s="50" t="s">
+      <c r="K385" s="39" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="386" spans="1:11">
-      <c r="A386" s="31"/>
-      <c r="B386" s="47"/>
+      <c r="A386" s="37"/>
+      <c r="B386" s="34"/>
       <c r="C386" s="3" t="s">
         <v>367</v>
       </c>
@@ -10363,11 +10154,11 @@
       <c r="F386" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="K386" s="32"/>
+      <c r="K386" s="40"/>
     </row>
     <row r="387" spans="1:11">
-      <c r="A387" s="28"/>
-      <c r="B387" s="43"/>
+      <c r="A387" s="38"/>
+      <c r="B387" s="35"/>
       <c r="C387" s="3" t="s">
         <v>49</v>
       </c>
@@ -10380,10 +10171,10 @@
       <c r="F387" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="K387" s="30"/>
+      <c r="K387" s="41"/>
     </row>
     <row r="388" spans="1:11">
-      <c r="A388" s="27">
+      <c r="A388" s="36">
         <v>109</v>
       </c>
       <c r="B388" s="42" t="s">
@@ -10401,13 +10192,13 @@
       <c r="F388" s="5">
         <v>12</v>
       </c>
-      <c r="K388" s="50" t="s">
+      <c r="K388" s="39" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="389" spans="1:11">
-      <c r="A389" s="31"/>
-      <c r="B389" s="47"/>
+      <c r="A389" s="37"/>
+      <c r="B389" s="34"/>
       <c r="C389" s="3" t="s">
         <v>372</v>
       </c>
@@ -10420,11 +10211,11 @@
       <c r="F389" s="5">
         <v>250</v>
       </c>
-      <c r="K389" s="32"/>
+      <c r="K389" s="40"/>
     </row>
     <row r="390" spans="1:11">
-      <c r="A390" s="31"/>
-      <c r="B390" s="47"/>
+      <c r="A390" s="37"/>
+      <c r="B390" s="34"/>
       <c r="C390" s="3" t="s">
         <v>374</v>
       </c>
@@ -10437,11 +10228,11 @@
       <c r="F390" s="5">
         <v>250</v>
       </c>
-      <c r="K390" s="32"/>
+      <c r="K390" s="40"/>
     </row>
     <row r="391" spans="1:11">
-      <c r="A391" s="31"/>
-      <c r="B391" s="47"/>
+      <c r="A391" s="37"/>
+      <c r="B391" s="34"/>
       <c r="C391" s="3" t="s">
         <v>375</v>
       </c>
@@ -10454,11 +10245,11 @@
       <c r="F391" s="5">
         <v>100</v>
       </c>
-      <c r="K391" s="32"/>
+      <c r="K391" s="40"/>
     </row>
     <row r="392" spans="1:11">
-      <c r="A392" s="31"/>
-      <c r="B392" s="47"/>
+      <c r="A392" s="37"/>
+      <c r="B392" s="34"/>
       <c r="C392" s="3" t="s">
         <v>376</v>
       </c>
@@ -10471,11 +10262,11 @@
       <c r="F392" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="K392" s="32"/>
+      <c r="K392" s="40"/>
     </row>
     <row r="393" spans="1:11">
-      <c r="A393" s="31"/>
-      <c r="B393" s="47"/>
+      <c r="A393" s="37"/>
+      <c r="B393" s="34"/>
       <c r="C393" s="3" t="s">
         <v>379</v>
       </c>
@@ -10488,11 +10279,11 @@
       <c r="F393" s="5">
         <v>50</v>
       </c>
-      <c r="K393" s="32"/>
+      <c r="K393" s="40"/>
     </row>
     <row r="394" spans="1:11">
-      <c r="A394" s="31"/>
-      <c r="B394" s="47"/>
+      <c r="A394" s="37"/>
+      <c r="B394" s="34"/>
       <c r="C394" s="3" t="s">
         <v>380</v>
       </c>
@@ -10505,11 +10296,11 @@
       <c r="F394" s="5">
         <v>8</v>
       </c>
-      <c r="K394" s="32"/>
+      <c r="K394" s="40"/>
     </row>
     <row r="395" spans="1:11">
-      <c r="A395" s="31"/>
-      <c r="B395" s="47"/>
+      <c r="A395" s="37"/>
+      <c r="B395" s="34"/>
       <c r="C395" s="3" t="s">
         <v>381</v>
       </c>
@@ -10522,11 +10313,11 @@
       <c r="F395" s="5">
         <v>250</v>
       </c>
-      <c r="K395" s="32"/>
+      <c r="K395" s="40"/>
     </row>
     <row r="396" spans="1:11">
-      <c r="A396" s="31"/>
-      <c r="B396" s="47"/>
+      <c r="A396" s="37"/>
+      <c r="B396" s="34"/>
       <c r="C396" s="3" t="s">
         <v>382</v>
       </c>
@@ -10539,11 +10330,11 @@
       <c r="F396" s="5">
         <v>250</v>
       </c>
-      <c r="K396" s="32"/>
+      <c r="K396" s="40"/>
     </row>
     <row r="397" spans="1:11">
-      <c r="A397" s="28"/>
-      <c r="B397" s="43"/>
+      <c r="A397" s="38"/>
+      <c r="B397" s="35"/>
       <c r="C397" s="3" t="s">
         <v>383</v>
       </c>
@@ -10556,10 +10347,10 @@
       <c r="F397" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="K397" s="30"/>
+      <c r="K397" s="41"/>
     </row>
     <row r="398" spans="1:11">
-      <c r="A398" s="27">
+      <c r="A398" s="36">
         <v>110</v>
       </c>
       <c r="B398" s="42" t="s">
@@ -10580,13 +10371,13 @@
       <c r="J398" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="K398" s="50" t="s">
+      <c r="K398" s="39" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="399" spans="1:11">
-      <c r="A399" s="31"/>
-      <c r="B399" s="47"/>
+      <c r="A399" s="37"/>
+      <c r="B399" s="34"/>
       <c r="C399" s="3" t="s">
         <v>389</v>
       </c>
@@ -10602,11 +10393,11 @@
       <c r="J399" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="K399" s="32"/>
+      <c r="K399" s="40"/>
     </row>
     <row r="400" spans="1:11">
-      <c r="A400" s="31"/>
-      <c r="B400" s="47"/>
+      <c r="A400" s="37"/>
+      <c r="B400" s="34"/>
       <c r="C400" s="3" t="s">
         <v>391</v>
       </c>
@@ -10622,11 +10413,11 @@
       <c r="J400" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="K400" s="32"/>
+      <c r="K400" s="40"/>
     </row>
     <row r="401" spans="1:11">
-      <c r="A401" s="31"/>
-      <c r="B401" s="47"/>
+      <c r="A401" s="37"/>
+      <c r="B401" s="34"/>
       <c r="C401" s="3" t="s">
         <v>392</v>
       </c>
@@ -10639,11 +10430,11 @@
       <c r="F401" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="K401" s="32"/>
+      <c r="K401" s="40"/>
     </row>
     <row r="402" spans="1:11">
-      <c r="A402" s="31"/>
-      <c r="B402" s="47"/>
+      <c r="A402" s="37"/>
+      <c r="B402" s="34"/>
       <c r="C402" s="3" t="s">
         <v>394</v>
       </c>
@@ -10656,11 +10447,11 @@
       <c r="F402" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="K402" s="32"/>
+      <c r="K402" s="40"/>
     </row>
     <row r="403" spans="1:11">
-      <c r="A403" s="31"/>
-      <c r="B403" s="47"/>
+      <c r="A403" s="37"/>
+      <c r="B403" s="34"/>
       <c r="C403" s="3" t="s">
         <v>395</v>
       </c>
@@ -10673,11 +10464,11 @@
       <c r="F403" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="K403" s="32"/>
+      <c r="K403" s="40"/>
     </row>
     <row r="404" spans="1:11">
-      <c r="A404" s="31"/>
-      <c r="B404" s="47"/>
+      <c r="A404" s="37"/>
+      <c r="B404" s="34"/>
       <c r="C404" s="3" t="s">
         <v>396</v>
       </c>
@@ -10690,11 +10481,11 @@
       <c r="F404" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="K404" s="32"/>
+      <c r="K404" s="40"/>
     </row>
     <row r="405" spans="1:11">
-      <c r="A405" s="31"/>
-      <c r="B405" s="47"/>
+      <c r="A405" s="37"/>
+      <c r="B405" s="34"/>
       <c r="C405" s="3" t="s">
         <v>397</v>
       </c>
@@ -10710,11 +10501,11 @@
       <c r="J405" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="K405" s="32"/>
+      <c r="K405" s="40"/>
     </row>
     <row r="406" spans="1:11">
-      <c r="A406" s="31"/>
-      <c r="B406" s="47"/>
+      <c r="A406" s="37"/>
+      <c r="B406" s="34"/>
       <c r="C406" s="3" t="s">
         <v>274</v>
       </c>
@@ -10727,11 +10518,11 @@
       <c r="F406" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="K406" s="32"/>
+      <c r="K406" s="40"/>
     </row>
     <row r="407" spans="1:11">
-      <c r="A407" s="31"/>
-      <c r="B407" s="47"/>
+      <c r="A407" s="37"/>
+      <c r="B407" s="34"/>
       <c r="C407" s="3" t="s">
         <v>85</v>
       </c>
@@ -10744,11 +10535,11 @@
       <c r="F407" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="K407" s="32"/>
+      <c r="K407" s="40"/>
     </row>
     <row r="408" spans="1:11">
-      <c r="A408" s="31"/>
-      <c r="B408" s="47"/>
+      <c r="A408" s="37"/>
+      <c r="B408" s="34"/>
       <c r="C408" s="3" t="s">
         <v>399</v>
       </c>
@@ -10764,11 +10555,11 @@
       <c r="J408" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="K408" s="32"/>
+      <c r="K408" s="40"/>
     </row>
     <row r="409" spans="1:11">
-      <c r="A409" s="31"/>
-      <c r="B409" s="47"/>
+      <c r="A409" s="37"/>
+      <c r="B409" s="34"/>
       <c r="C409" s="3" t="s">
         <v>400</v>
       </c>
@@ -10779,11 +10570,11 @@
       <c r="F409" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="K409" s="32"/>
+      <c r="K409" s="40"/>
     </row>
     <row r="410" spans="1:11">
-      <c r="A410" s="31"/>
-      <c r="B410" s="47"/>
+      <c r="A410" s="37"/>
+      <c r="B410" s="34"/>
       <c r="C410" s="3" t="s">
         <v>401</v>
       </c>
@@ -10796,11 +10587,11 @@
       <c r="F410" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="K410" s="32"/>
+      <c r="K410" s="40"/>
     </row>
     <row r="411" spans="1:11">
-      <c r="A411" s="31"/>
-      <c r="B411" s="47"/>
+      <c r="A411" s="37"/>
+      <c r="B411" s="34"/>
       <c r="C411" s="3" t="s">
         <v>402</v>
       </c>
@@ -10813,11 +10604,11 @@
       <c r="F411" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="K411" s="32"/>
+      <c r="K411" s="40"/>
     </row>
     <row r="412" spans="1:11">
-      <c r="A412" s="31"/>
-      <c r="B412" s="47"/>
+      <c r="A412" s="37"/>
+      <c r="B412" s="34"/>
       <c r="C412" s="3" t="s">
         <v>403</v>
       </c>
@@ -10830,11 +10621,11 @@
       <c r="F412" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="K412" s="32"/>
+      <c r="K412" s="40"/>
     </row>
     <row r="413" spans="1:11">
-      <c r="A413" s="31"/>
-      <c r="B413" s="47"/>
+      <c r="A413" s="37"/>
+      <c r="B413" s="34"/>
       <c r="C413" s="3" t="s">
         <v>404</v>
       </c>
@@ -10847,11 +10638,11 @@
       <c r="F413" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="K413" s="32"/>
+      <c r="K413" s="40"/>
     </row>
     <row r="414" spans="1:11">
-      <c r="A414" s="31"/>
-      <c r="B414" s="47"/>
+      <c r="A414" s="37"/>
+      <c r="B414" s="34"/>
       <c r="C414" s="3" t="s">
         <v>289</v>
       </c>
@@ -10864,11 +10655,11 @@
       <c r="F414" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="K414" s="32"/>
+      <c r="K414" s="40"/>
     </row>
     <row r="415" spans="1:11">
-      <c r="A415" s="31"/>
-      <c r="B415" s="47"/>
+      <c r="A415" s="37"/>
+      <c r="B415" s="34"/>
       <c r="C415" s="3" t="s">
         <v>405</v>
       </c>
@@ -10881,11 +10672,11 @@
       <c r="F415" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="K415" s="32"/>
+      <c r="K415" s="40"/>
     </row>
     <row r="416" spans="1:11">
-      <c r="A416" s="31"/>
-      <c r="B416" s="47"/>
+      <c r="A416" s="37"/>
+      <c r="B416" s="34"/>
       <c r="C416" s="3" t="s">
         <v>407</v>
       </c>
@@ -10898,11 +10689,11 @@
       <c r="F416" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="K416" s="32"/>
+      <c r="K416" s="40"/>
     </row>
     <row r="417" spans="1:11">
-      <c r="A417" s="28"/>
-      <c r="B417" s="43"/>
+      <c r="A417" s="38"/>
+      <c r="B417" s="35"/>
       <c r="C417" s="3" t="s">
         <v>49</v>
       </c>
@@ -10915,7 +10706,7 @@
       <c r="F417" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="K417" s="30"/>
+      <c r="K417" s="41"/>
     </row>
     <row r="418" spans="1:11">
       <c r="A418" s="6">
@@ -10936,266 +10727,465 @@
       <c r="F418" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="419" spans="1:11">
-      <c r="B419" s="40"/>
-      <c r="D419" s="5"/>
-      <c r="E419" s="3"/>
+      <c r="K418" s="21">
+        <v>45555</v>
+      </c>
+    </row>
+    <row r="419" spans="1:11" ht="16.5">
+      <c r="A419" s="6">
+        <v>112</v>
+      </c>
+      <c r="B419" s="53" t="s">
+        <v>412</v>
+      </c>
+      <c r="C419" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D419" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E419" s="3">
+        <v>50</v>
+      </c>
+      <c r="F419" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G419" s="3">
+        <v>20</v>
+      </c>
+      <c r="K419" s="43">
+        <v>45556</v>
+      </c>
     </row>
     <row r="420" spans="1:11">
-      <c r="B420" s="40"/>
+      <c r="A420" s="36">
+        <v>113</v>
+      </c>
+      <c r="B420" s="36" t="s">
+        <v>413</v>
+      </c>
+      <c r="C420" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="D420" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E420" s="10">
+        <v>100</v>
+      </c>
+      <c r="F420" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G420" s="10">
+        <v>50</v>
+      </c>
+      <c r="K420" s="40"/>
     </row>
     <row r="421" spans="1:11">
-      <c r="B421" s="40"/>
+      <c r="A421" s="37"/>
+      <c r="B421" s="37"/>
+      <c r="C421" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="D421" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E421" s="13">
+        <v>100</v>
+      </c>
+      <c r="F421" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G421" s="13">
+        <v>50</v>
+      </c>
+      <c r="K421" s="40"/>
     </row>
     <row r="422" spans="1:11">
-      <c r="B422" s="40"/>
+      <c r="A422" s="37"/>
+      <c r="B422" s="37"/>
+      <c r="C422" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D422" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E422" s="13">
+        <v>50</v>
+      </c>
+      <c r="F422" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G422" s="13">
+        <v>50</v>
+      </c>
+      <c r="K422" s="40"/>
     </row>
     <row r="423" spans="1:11">
-      <c r="B423" s="40"/>
-    </row>
-    <row r="424" spans="1:11">
-      <c r="B424" s="40"/>
+      <c r="A423" s="38"/>
+      <c r="B423" s="38"/>
+      <c r="C423" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D423" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E423" s="13">
+        <v>50</v>
+      </c>
+      <c r="F423" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G423" s="13">
+        <v>50</v>
+      </c>
+      <c r="K423" s="41"/>
+    </row>
+    <row r="424" spans="1:11" ht="16.5">
+      <c r="A424" s="6">
+        <v>114</v>
+      </c>
+      <c r="B424" s="53" t="s">
+        <v>414</v>
+      </c>
+      <c r="C424" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D424" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E424" s="3">
+        <v>50</v>
+      </c>
+      <c r="F424" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G424" s="3">
+        <v>20</v>
+      </c>
+      <c r="K424" s="21">
+        <v>45555</v>
+      </c>
     </row>
     <row r="425" spans="1:11">
-      <c r="B425" s="40"/>
-    </row>
-    <row r="426" spans="1:11">
-      <c r="B426" s="40"/>
+      <c r="A425" s="6">
+        <v>115</v>
+      </c>
+      <c r="B425" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="J425" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="K425" s="21">
+        <v>45556</v>
+      </c>
+    </row>
+    <row r="426" spans="1:11" ht="30">
+      <c r="A426" s="6">
+        <v>116</v>
+      </c>
+      <c r="B426" s="23" t="s">
+        <v>418</v>
+      </c>
+      <c r="J426" s="27" t="s">
+        <v>417</v>
+      </c>
+      <c r="K426" s="21">
+        <v>45557</v>
+      </c>
     </row>
     <row r="427" spans="1:11">
-      <c r="B427" s="40"/>
+      <c r="A427" s="6">
+        <v>117</v>
+      </c>
+      <c r="B427" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="C427" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="D427" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E427" s="3">
+        <v>30</v>
+      </c>
+      <c r="F427" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G427" s="3">
+        <v>15</v>
+      </c>
+      <c r="K427" s="54">
+        <v>45555</v>
+      </c>
     </row>
     <row r="428" spans="1:11">
-      <c r="B428" s="40"/>
-    </row>
-    <row r="429" spans="1:11">
-      <c r="B429" s="40"/>
-    </row>
-    <row r="430" spans="1:11">
-      <c r="B430" s="40"/>
-    </row>
-    <row r="431" spans="1:11">
-      <c r="B431" s="40"/>
-    </row>
-    <row r="432" spans="1:11">
-      <c r="B432" s="40"/>
-    </row>
-    <row r="433" spans="2:2">
-      <c r="B433" s="40"/>
-    </row>
-    <row r="434" spans="2:2">
-      <c r="B434" s="40"/>
-    </row>
-    <row r="435" spans="2:2">
-      <c r="B435" s="40"/>
-    </row>
-    <row r="436" spans="2:2">
-      <c r="B436" s="40"/>
-    </row>
-    <row r="437" spans="2:2">
-      <c r="B437" s="40"/>
-    </row>
-    <row r="438" spans="2:2">
-      <c r="B438" s="40"/>
-    </row>
-    <row r="439" spans="2:2">
-      <c r="B439" s="40"/>
-    </row>
-    <row r="440" spans="2:2">
-      <c r="B440" s="40"/>
-    </row>
-    <row r="441" spans="2:2">
-      <c r="B441" s="40"/>
-    </row>
-    <row r="442" spans="2:2">
-      <c r="B442" s="40"/>
-    </row>
-    <row r="443" spans="2:2">
-      <c r="B443" s="40"/>
-    </row>
-    <row r="444" spans="2:2">
-      <c r="B444" s="40"/>
-    </row>
-    <row r="445" spans="2:2">
-      <c r="B445" s="40"/>
-    </row>
-    <row r="446" spans="2:2">
-      <c r="B446" s="40"/>
-    </row>
-    <row r="447" spans="2:2">
-      <c r="B447" s="40"/>
-    </row>
-    <row r="448" spans="2:2">
-      <c r="B448" s="40"/>
-    </row>
-    <row r="449" spans="2:2">
-      <c r="B449" s="40"/>
-    </row>
-    <row r="450" spans="2:2">
-      <c r="B450" s="40"/>
-    </row>
-    <row r="451" spans="2:2">
-      <c r="B451" s="40"/>
-    </row>
-    <row r="452" spans="2:2">
-      <c r="B452" s="40"/>
-    </row>
-    <row r="453" spans="2:2">
-      <c r="B453" s="40"/>
-    </row>
-    <row r="454" spans="2:2">
-      <c r="B454" s="40"/>
-    </row>
-    <row r="455" spans="2:2">
-      <c r="B455" s="40"/>
-    </row>
-    <row r="456" spans="2:2">
-      <c r="B456" s="40"/>
-    </row>
-    <row r="457" spans="2:2">
-      <c r="B457" s="40"/>
-    </row>
-    <row r="458" spans="2:2">
-      <c r="B458" s="40"/>
-    </row>
-    <row r="459" spans="2:2">
-      <c r="B459" s="40"/>
-    </row>
-    <row r="460" spans="2:2">
-      <c r="B460" s="40"/>
-    </row>
-    <row r="461" spans="2:2">
-      <c r="B461" s="40"/>
-    </row>
-    <row r="462" spans="2:2">
-      <c r="B462" s="40"/>
-    </row>
-    <row r="463" spans="2:2">
-      <c r="B463" s="40"/>
-    </row>
-    <row r="464" spans="2:2">
-      <c r="B464" s="40"/>
-    </row>
-    <row r="465" spans="2:2">
-      <c r="B465" s="40"/>
-    </row>
-    <row r="466" spans="2:2">
-      <c r="B466" s="40"/>
-    </row>
-    <row r="467" spans="2:2">
-      <c r="B467" s="40"/>
-    </row>
-    <row r="468" spans="2:2">
-      <c r="B468" s="40"/>
-    </row>
-    <row r="469" spans="2:2">
-      <c r="B469" s="40"/>
-    </row>
-    <row r="470" spans="2:2">
-      <c r="B470" s="40"/>
-    </row>
-    <row r="471" spans="2:2">
-      <c r="B471" s="40"/>
-    </row>
-    <row r="472" spans="2:2">
-      <c r="B472" s="40"/>
-    </row>
-    <row r="473" spans="2:2">
-      <c r="B473" s="40"/>
-    </row>
-    <row r="474" spans="2:2">
-      <c r="B474" s="40"/>
-    </row>
-    <row r="475" spans="2:2">
-      <c r="B475" s="40"/>
-    </row>
-    <row r="476" spans="2:2">
-      <c r="B476" s="40"/>
-    </row>
-    <row r="477" spans="2:2">
-      <c r="B477" s="40"/>
-    </row>
-    <row r="478" spans="2:2">
-      <c r="B478" s="40"/>
-    </row>
-    <row r="479" spans="2:2">
-      <c r="B479" s="40"/>
-    </row>
-    <row r="480" spans="2:2">
-      <c r="B480" s="40"/>
-    </row>
-    <row r="481" spans="2:2">
-      <c r="B481" s="40"/>
-    </row>
-    <row r="482" spans="2:2">
-      <c r="B482" s="40"/>
-    </row>
-    <row r="483" spans="2:2">
-      <c r="B483" s="40"/>
-    </row>
-    <row r="484" spans="2:2">
-      <c r="B484" s="40"/>
-    </row>
-    <row r="485" spans="2:2">
-      <c r="B485" s="40"/>
-    </row>
-    <row r="486" spans="2:2">
-      <c r="B486" s="40"/>
-    </row>
-    <row r="487" spans="2:2">
-      <c r="B487" s="40"/>
-    </row>
-    <row r="488" spans="2:2">
-      <c r="B488" s="40"/>
-    </row>
-    <row r="489" spans="2:2">
-      <c r="B489" s="40"/>
-    </row>
-    <row r="490" spans="2:2">
-      <c r="B490" s="40"/>
-    </row>
-    <row r="491" spans="2:2">
-      <c r="B491" s="40"/>
-    </row>
-    <row r="492" spans="2:2">
-      <c r="B492" s="40"/>
-    </row>
-    <row r="493" spans="2:2">
-      <c r="B493" s="40"/>
-    </row>
-    <row r="494" spans="2:2">
-      <c r="B494" s="40"/>
-    </row>
-    <row r="495" spans="2:2">
-      <c r="B495" s="40"/>
-    </row>
-    <row r="496" spans="2:2">
-      <c r="B496" s="40"/>
-    </row>
-    <row r="497" spans="2:2">
-      <c r="B497" s="40"/>
+      <c r="A428" s="6">
+        <v>118</v>
+      </c>
+      <c r="B428" s="23" t="s">
+        <v>420</v>
+      </c>
+      <c r="C428" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D428" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E428" s="3">
+        <v>50</v>
+      </c>
+      <c r="F428" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G428" s="3">
+        <v>20</v>
+      </c>
+      <c r="K428" s="54">
+        <v>45555</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="276">
-    <mergeCell ref="B385:B387"/>
-    <mergeCell ref="A385:A387"/>
-    <mergeCell ref="K385:K387"/>
-    <mergeCell ref="B388:B397"/>
-    <mergeCell ref="A388:A397"/>
-    <mergeCell ref="K388:K397"/>
-    <mergeCell ref="B398:B417"/>
-    <mergeCell ref="A398:A417"/>
-    <mergeCell ref="K398:K417"/>
-    <mergeCell ref="B373:B374"/>
-    <mergeCell ref="A373:A374"/>
-    <mergeCell ref="K373:K374"/>
-    <mergeCell ref="B376:B377"/>
-    <mergeCell ref="A376:A377"/>
-    <mergeCell ref="K376:K377"/>
-    <mergeCell ref="B379:B384"/>
-    <mergeCell ref="A379:A384"/>
-    <mergeCell ref="K379:K384"/>
+  <mergeCells count="279">
+    <mergeCell ref="B420:B423"/>
+    <mergeCell ref="A420:A423"/>
+    <mergeCell ref="K419:K423"/>
+    <mergeCell ref="B362:B363"/>
+    <mergeCell ref="A362:A363"/>
+    <mergeCell ref="K362:K363"/>
+    <mergeCell ref="B364:B370"/>
+    <mergeCell ref="A364:A370"/>
+    <mergeCell ref="K364:K370"/>
+    <mergeCell ref="A352:A353"/>
+    <mergeCell ref="B352:B353"/>
+    <mergeCell ref="K352:K353"/>
+    <mergeCell ref="B354:B357"/>
+    <mergeCell ref="A354:A357"/>
+    <mergeCell ref="K354:K357"/>
+    <mergeCell ref="B358:B361"/>
+    <mergeCell ref="A358:A361"/>
+    <mergeCell ref="K358:K361"/>
+    <mergeCell ref="B346:B347"/>
+    <mergeCell ref="A346:A347"/>
+    <mergeCell ref="B348:B349"/>
+    <mergeCell ref="A348:A349"/>
+    <mergeCell ref="K346:K347"/>
+    <mergeCell ref="K348:K349"/>
+    <mergeCell ref="B350:B351"/>
+    <mergeCell ref="A350:A351"/>
+    <mergeCell ref="K350:K351"/>
+    <mergeCell ref="B318:B325"/>
+    <mergeCell ref="A318:A325"/>
+    <mergeCell ref="B326:B342"/>
+    <mergeCell ref="A326:A342"/>
+    <mergeCell ref="K318:K325"/>
+    <mergeCell ref="K326:K342"/>
+    <mergeCell ref="B344:B345"/>
+    <mergeCell ref="A344:A345"/>
+    <mergeCell ref="K344:K345"/>
+    <mergeCell ref="A278:A281"/>
+    <mergeCell ref="B282:B290"/>
+    <mergeCell ref="A282:A290"/>
+    <mergeCell ref="B291:B302"/>
+    <mergeCell ref="A291:A302"/>
+    <mergeCell ref="B303:B306"/>
+    <mergeCell ref="A303:A306"/>
+    <mergeCell ref="K277:K281"/>
+    <mergeCell ref="K282:K290"/>
+    <mergeCell ref="K291:K302"/>
+    <mergeCell ref="K303:K306"/>
+    <mergeCell ref="B278:B281"/>
+    <mergeCell ref="A259:A261"/>
+    <mergeCell ref="B262:B267"/>
+    <mergeCell ref="A262:A267"/>
+    <mergeCell ref="B268:B272"/>
+    <mergeCell ref="A268:A272"/>
+    <mergeCell ref="B273:B277"/>
+    <mergeCell ref="A273:A277"/>
+    <mergeCell ref="A240:A241"/>
+    <mergeCell ref="A242:A246"/>
+    <mergeCell ref="A247:A251"/>
+    <mergeCell ref="B257:B258"/>
+    <mergeCell ref="A257:A258"/>
+    <mergeCell ref="B252:B256"/>
+    <mergeCell ref="A252:A256"/>
+    <mergeCell ref="B259:B261"/>
+    <mergeCell ref="A221:A232"/>
+    <mergeCell ref="B242:B246"/>
+    <mergeCell ref="B247:B251"/>
+    <mergeCell ref="A186:A189"/>
+    <mergeCell ref="B219:B220"/>
+    <mergeCell ref="B221:B232"/>
+    <mergeCell ref="A233:A237"/>
+    <mergeCell ref="A238:A239"/>
+    <mergeCell ref="B233:B237"/>
+    <mergeCell ref="B238:B239"/>
+    <mergeCell ref="B240:B241"/>
+    <mergeCell ref="B190:B193"/>
+    <mergeCell ref="B194:B196"/>
+    <mergeCell ref="B197:B210"/>
+    <mergeCell ref="B211:B218"/>
+    <mergeCell ref="A137:A140"/>
+    <mergeCell ref="A141:A143"/>
+    <mergeCell ref="A144:A157"/>
+    <mergeCell ref="A158:A160"/>
+    <mergeCell ref="A161:A163"/>
+    <mergeCell ref="B186:B189"/>
+    <mergeCell ref="A190:A193"/>
+    <mergeCell ref="B170:B172"/>
+    <mergeCell ref="A164:A166"/>
+    <mergeCell ref="A167:A169"/>
+    <mergeCell ref="A170:A172"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="A104:A107"/>
+    <mergeCell ref="A108:A111"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B137:B140"/>
+    <mergeCell ref="B141:B143"/>
+    <mergeCell ref="B144:B157"/>
+    <mergeCell ref="A179:A181"/>
+    <mergeCell ref="A182:A185"/>
+    <mergeCell ref="B173:B175"/>
+    <mergeCell ref="B176:B178"/>
+    <mergeCell ref="B179:B181"/>
+    <mergeCell ref="B182:B185"/>
+    <mergeCell ref="B104:B107"/>
+    <mergeCell ref="B108:B111"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="B114:B117"/>
+    <mergeCell ref="A114:A117"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B158:B160"/>
+    <mergeCell ref="B161:B163"/>
+    <mergeCell ref="B164:B166"/>
+    <mergeCell ref="B167:B169"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="A128:A130"/>
+    <mergeCell ref="A131:A134"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="B315:B316"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B94:B96"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B131:B134"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B74:B78"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="A315:A316"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="A98:A100"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="K2:K6"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="K10:K13"/>
+    <mergeCell ref="K315:K316"/>
+    <mergeCell ref="K14:K17"/>
+    <mergeCell ref="K18:K22"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="K25:K28"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K31:K33"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="K43:K46"/>
+    <mergeCell ref="K48:K50"/>
+    <mergeCell ref="K51:K55"/>
+    <mergeCell ref="K56:K57"/>
+    <mergeCell ref="K94:K96"/>
+    <mergeCell ref="K98:K100"/>
+    <mergeCell ref="K101:K103"/>
+    <mergeCell ref="K104:K107"/>
+    <mergeCell ref="K108:K111"/>
+    <mergeCell ref="K112:K113"/>
+    <mergeCell ref="K114:K117"/>
+    <mergeCell ref="K58:K61"/>
+    <mergeCell ref="K62:K65"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="K68:K70"/>
+    <mergeCell ref="K74:K78"/>
+    <mergeCell ref="K81:K84"/>
+    <mergeCell ref="K85:K87"/>
+    <mergeCell ref="K88:K90"/>
+    <mergeCell ref="K91:K93"/>
+    <mergeCell ref="K119:K120"/>
+    <mergeCell ref="K121:K122"/>
+    <mergeCell ref="K268:K272"/>
+    <mergeCell ref="K273:K276"/>
+    <mergeCell ref="K233:K237"/>
+    <mergeCell ref="K238:K239"/>
+    <mergeCell ref="K240:K241"/>
+    <mergeCell ref="K242:K246"/>
+    <mergeCell ref="K247:K251"/>
+    <mergeCell ref="K124:K125"/>
+    <mergeCell ref="K126:K127"/>
+    <mergeCell ref="K128:K130"/>
+    <mergeCell ref="K131:K134"/>
+    <mergeCell ref="K135:K136"/>
+    <mergeCell ref="K137:K140"/>
+    <mergeCell ref="K141:K143"/>
+    <mergeCell ref="K144:K157"/>
+    <mergeCell ref="K158:K160"/>
+    <mergeCell ref="K252:K256"/>
+    <mergeCell ref="K257:K258"/>
+    <mergeCell ref="K259:K261"/>
+    <mergeCell ref="K262:K267"/>
     <mergeCell ref="A307:A314"/>
     <mergeCell ref="K161:K163"/>
     <mergeCell ref="K164:K166"/>
@@ -11220,251 +11210,35 @@
     <mergeCell ref="A197:A210"/>
     <mergeCell ref="A211:A218"/>
     <mergeCell ref="A219:A220"/>
-    <mergeCell ref="K119:K120"/>
-    <mergeCell ref="K121:K122"/>
-    <mergeCell ref="K268:K272"/>
-    <mergeCell ref="K273:K276"/>
-    <mergeCell ref="K233:K237"/>
-    <mergeCell ref="K238:K239"/>
-    <mergeCell ref="K240:K241"/>
-    <mergeCell ref="K242:K246"/>
-    <mergeCell ref="K247:K251"/>
-    <mergeCell ref="K124:K125"/>
-    <mergeCell ref="K126:K127"/>
-    <mergeCell ref="K128:K130"/>
-    <mergeCell ref="K131:K134"/>
-    <mergeCell ref="K135:K136"/>
-    <mergeCell ref="K137:K140"/>
-    <mergeCell ref="K141:K143"/>
-    <mergeCell ref="K144:K157"/>
-    <mergeCell ref="K158:K160"/>
-    <mergeCell ref="K252:K256"/>
-    <mergeCell ref="K257:K258"/>
-    <mergeCell ref="K259:K261"/>
-    <mergeCell ref="K262:K267"/>
-    <mergeCell ref="K58:K61"/>
-    <mergeCell ref="K62:K65"/>
-    <mergeCell ref="K66:K67"/>
-    <mergeCell ref="K68:K70"/>
-    <mergeCell ref="K74:K78"/>
-    <mergeCell ref="K81:K84"/>
-    <mergeCell ref="K85:K87"/>
-    <mergeCell ref="K88:K90"/>
-    <mergeCell ref="K91:K93"/>
-    <mergeCell ref="K2:K6"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="K10:K13"/>
-    <mergeCell ref="K315:K316"/>
-    <mergeCell ref="K14:K17"/>
-    <mergeCell ref="K18:K22"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="K25:K28"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="K31:K33"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="K43:K46"/>
-    <mergeCell ref="K48:K50"/>
-    <mergeCell ref="K51:K55"/>
-    <mergeCell ref="K56:K57"/>
-    <mergeCell ref="K94:K96"/>
-    <mergeCell ref="K98:K100"/>
-    <mergeCell ref="K101:K103"/>
-    <mergeCell ref="K104:K107"/>
-    <mergeCell ref="K108:K111"/>
-    <mergeCell ref="K112:K113"/>
-    <mergeCell ref="K114:K117"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A88:A90"/>
-    <mergeCell ref="A91:A93"/>
-    <mergeCell ref="A315:A316"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="A94:A96"/>
-    <mergeCell ref="A98:A100"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B315:B316"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="B94:B96"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B131:B134"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="B74:B78"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="A128:A130"/>
-    <mergeCell ref="A131:A134"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="A104:A107"/>
-    <mergeCell ref="A108:A111"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B137:B140"/>
-    <mergeCell ref="B141:B143"/>
-    <mergeCell ref="B144:B157"/>
-    <mergeCell ref="A179:A181"/>
-    <mergeCell ref="A182:A185"/>
-    <mergeCell ref="B173:B175"/>
-    <mergeCell ref="B176:B178"/>
-    <mergeCell ref="B179:B181"/>
-    <mergeCell ref="B182:B185"/>
-    <mergeCell ref="B104:B107"/>
-    <mergeCell ref="B108:B111"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="B114:B117"/>
-    <mergeCell ref="A114:A117"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B158:B160"/>
-    <mergeCell ref="B161:B163"/>
-    <mergeCell ref="B164:B166"/>
-    <mergeCell ref="B167:B169"/>
-    <mergeCell ref="A137:A140"/>
-    <mergeCell ref="A141:A143"/>
-    <mergeCell ref="A144:A157"/>
-    <mergeCell ref="A158:A160"/>
-    <mergeCell ref="A161:A163"/>
-    <mergeCell ref="B186:B189"/>
-    <mergeCell ref="A190:A193"/>
-    <mergeCell ref="B170:B172"/>
-    <mergeCell ref="A164:A166"/>
-    <mergeCell ref="A167:A169"/>
-    <mergeCell ref="A170:A172"/>
-    <mergeCell ref="A221:A232"/>
-    <mergeCell ref="B242:B246"/>
-    <mergeCell ref="B247:B251"/>
-    <mergeCell ref="A186:A189"/>
-    <mergeCell ref="B219:B220"/>
-    <mergeCell ref="B221:B232"/>
-    <mergeCell ref="A233:A237"/>
-    <mergeCell ref="A238:A239"/>
-    <mergeCell ref="B233:B237"/>
-    <mergeCell ref="B238:B239"/>
-    <mergeCell ref="B240:B241"/>
-    <mergeCell ref="B190:B193"/>
-    <mergeCell ref="B194:B196"/>
-    <mergeCell ref="B197:B210"/>
-    <mergeCell ref="B211:B218"/>
-    <mergeCell ref="A259:A261"/>
-    <mergeCell ref="B262:B267"/>
-    <mergeCell ref="A262:A267"/>
-    <mergeCell ref="B268:B272"/>
-    <mergeCell ref="A268:A272"/>
-    <mergeCell ref="B273:B277"/>
-    <mergeCell ref="A273:A277"/>
-    <mergeCell ref="A240:A241"/>
-    <mergeCell ref="A242:A246"/>
-    <mergeCell ref="A247:A251"/>
-    <mergeCell ref="B257:B258"/>
-    <mergeCell ref="A257:A258"/>
-    <mergeCell ref="B252:B256"/>
-    <mergeCell ref="A252:A256"/>
-    <mergeCell ref="B259:B261"/>
-    <mergeCell ref="A278:A281"/>
-    <mergeCell ref="B282:B290"/>
-    <mergeCell ref="A282:A290"/>
-    <mergeCell ref="B291:B302"/>
-    <mergeCell ref="A291:A302"/>
-    <mergeCell ref="B303:B306"/>
-    <mergeCell ref="A303:A306"/>
-    <mergeCell ref="K277:K281"/>
-    <mergeCell ref="K282:K290"/>
-    <mergeCell ref="K291:K302"/>
-    <mergeCell ref="K303:K306"/>
-    <mergeCell ref="B278:B281"/>
-    <mergeCell ref="B318:B325"/>
-    <mergeCell ref="A318:A325"/>
-    <mergeCell ref="B326:B342"/>
-    <mergeCell ref="A326:A342"/>
-    <mergeCell ref="K318:K325"/>
-    <mergeCell ref="K326:K342"/>
-    <mergeCell ref="B344:B345"/>
-    <mergeCell ref="A344:A345"/>
-    <mergeCell ref="K344:K345"/>
-    <mergeCell ref="B346:B347"/>
-    <mergeCell ref="A346:A347"/>
-    <mergeCell ref="B348:B349"/>
-    <mergeCell ref="A348:A349"/>
-    <mergeCell ref="K346:K347"/>
-    <mergeCell ref="K348:K349"/>
-    <mergeCell ref="B350:B351"/>
-    <mergeCell ref="A350:A351"/>
-    <mergeCell ref="K350:K351"/>
-    <mergeCell ref="B362:B363"/>
-    <mergeCell ref="A362:A363"/>
-    <mergeCell ref="K362:K363"/>
-    <mergeCell ref="B364:B370"/>
-    <mergeCell ref="A364:A370"/>
-    <mergeCell ref="K364:K370"/>
-    <mergeCell ref="A352:A353"/>
-    <mergeCell ref="B352:B353"/>
-    <mergeCell ref="K352:K353"/>
-    <mergeCell ref="B354:B357"/>
-    <mergeCell ref="A354:A357"/>
-    <mergeCell ref="K354:K357"/>
-    <mergeCell ref="B358:B361"/>
-    <mergeCell ref="A358:A361"/>
-    <mergeCell ref="K358:K361"/>
+    <mergeCell ref="B373:B374"/>
+    <mergeCell ref="A373:A374"/>
+    <mergeCell ref="K373:K374"/>
+    <mergeCell ref="B376:B377"/>
+    <mergeCell ref="A376:A377"/>
+    <mergeCell ref="K376:K377"/>
+    <mergeCell ref="B379:B384"/>
+    <mergeCell ref="A379:A384"/>
+    <mergeCell ref="K379:K384"/>
+    <mergeCell ref="B385:B387"/>
+    <mergeCell ref="A385:A387"/>
+    <mergeCell ref="K385:K387"/>
+    <mergeCell ref="B388:B397"/>
+    <mergeCell ref="A388:A397"/>
+    <mergeCell ref="K388:K397"/>
+    <mergeCell ref="B398:B417"/>
+    <mergeCell ref="A398:A417"/>
+    <mergeCell ref="K398:K417"/>
   </mergeCells>
-  <conditionalFormatting sqref="B1:B318 B326 B344 B346 B348 B350 B352 B354 B358 B362 B364 B371:B373 B375 B378:B379 B385 B388 B418:B1048576">
-    <cfRule type="duplicateValues" dxfId="28" priority="4"/>
+  <conditionalFormatting sqref="B1:B318 B326 B344 B346 B348 B350 B352 B354 B358 B362 B364 B371:B373 B375 B378:B379 B385 B388 B418 B420 B425 B429:B1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B376">
-    <cfRule type="duplicateValues" dxfId="27" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B398">
-    <cfRule type="duplicateValues" dxfId="26" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576">
+  <conditionalFormatting sqref="B1:B418 B420 B425 B429:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DPI_Table_Audit/Audit-Process-Sheet.xlsx
+++ b/DPI_Table_Audit/Audit-Process-Sheet.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82923A3-E057-454B-88FF-44DEE1E5DC41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9064A5-FC55-42A9-93A6-8C051D6CB205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="423">
   <si>
     <t>Column Name</t>
   </si>
@@ -1291,6 +1291,12 @@
   </si>
   <si>
     <t>MstInstituteRegistration</t>
+  </si>
+  <si>
+    <t>InsuranceCompanyName</t>
+  </si>
+  <si>
+    <t>MstInsuranceCompany</t>
   </si>
 </sst>
 </file>
@@ -1532,6 +1538,30 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1550,14 +1580,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1565,33 +1595,11 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1602,29 +1610,29 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1971,34 +1979,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z428"/>
+  <dimension ref="A1:Z429"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C408" workbookViewId="0">
-      <selection activeCell="B419" sqref="B419:K428"/>
+    <sheetView tabSelected="1" topLeftCell="A416" workbookViewId="0">
+      <selection activeCell="K431" sqref="K431"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="51.7109375" style="45" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="2" customWidth="1"/>
-    <col min="5" max="6" width="20.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="51.6640625" style="58" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" style="2" customWidth="1"/>
+    <col min="5" max="6" width="20.6640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" style="2" customWidth="1"/>
     <col min="8" max="8" width="19" style="2" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="40.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="40.88671875" style="2" customWidth="1"/>
     <col min="11" max="11" width="18" style="20" customWidth="1"/>
-    <col min="12" max="15" width="9.140625" style="2"/>
-    <col min="16" max="16" width="9.140625" style="2" customWidth="1"/>
-    <col min="17" max="26" width="9.140625" style="2"/>
+    <col min="12" max="15" width="9.109375" style="2"/>
+    <col min="16" max="16" width="9.109375" style="2" customWidth="1"/>
+    <col min="17" max="26" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="57" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -2029,11 +2037,11 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="34">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="54">
         <v>1</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="52" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -2052,13 +2060,13 @@
         <v>20</v>
       </c>
       <c r="J2" s="3"/>
-      <c r="K2" s="31">
+      <c r="K2" s="39">
         <v>45541</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
-      <c r="B3" s="41"/>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="54"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
@@ -2075,11 +2083,11 @@
         <v>20</v>
       </c>
       <c r="J3" s="3"/>
-      <c r="K3" s="32"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="41"/>
+      <c r="K3" s="40"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="54"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
@@ -2093,11 +2101,11 @@
         <v>21</v>
       </c>
       <c r="J4" s="3"/>
-      <c r="K4" s="32"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
-      <c r="B5" s="41"/>
+      <c r="K4" s="40"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="54"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
@@ -2116,24 +2124,24 @@
       <c r="J5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="32"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
-      <c r="B6" s="41"/>
+      <c r="K5" s="40"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="54"/>
+      <c r="B6" s="52"/>
       <c r="C6" s="2" t="s">
         <v>25</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="33"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="34">
+      <c r="K6" s="41"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="54">
         <v>2</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="52" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -2151,13 +2159,13 @@
       <c r="G7" s="2">
         <v>20</v>
       </c>
-      <c r="K7" s="31">
+      <c r="K7" s="39">
         <v>45541</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-      <c r="B8" s="41"/>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="54"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="2" t="s">
         <v>28</v>
       </c>
@@ -2173,11 +2181,11 @@
       <c r="G8" s="4">
         <v>20</v>
       </c>
-      <c r="K8" s="32"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="41"/>
+      <c r="K8" s="40"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="54"/>
+      <c r="B9" s="52"/>
       <c r="C9" s="2" t="s">
         <v>29</v>
       </c>
@@ -2193,13 +2201,13 @@
       <c r="G9" s="2">
         <v>3000</v>
       </c>
-      <c r="K9" s="33"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="34">
+      <c r="K9" s="41"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="54">
         <v>3</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="52" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -2217,13 +2225,13 @@
       <c r="G10" s="2">
         <v>20</v>
       </c>
-      <c r="K10" s="31">
+      <c r="K10" s="39">
         <v>45541</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
-      <c r="B11" s="41"/>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="54"/>
+      <c r="B11" s="52"/>
       <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
@@ -2239,11 +2247,11 @@
       <c r="G11" s="4">
         <v>20</v>
       </c>
-      <c r="K11" s="32"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
-      <c r="B12" s="41"/>
+      <c r="K11" s="40"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="54"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="2" t="s">
         <v>32</v>
       </c>
@@ -2256,11 +2264,11 @@
       <c r="F12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="32"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
-      <c r="B13" s="41"/>
+      <c r="K12" s="40"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="54"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="2" t="s">
         <v>33</v>
       </c>
@@ -2276,13 +2284,13 @@
       <c r="G13" s="2">
         <v>50</v>
       </c>
-      <c r="K13" s="33"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="34">
+      <c r="K13" s="41"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="54">
         <v>4</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="52" t="s">
         <v>44</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -2300,13 +2308,13 @@
       <c r="G14" s="2">
         <v>20</v>
       </c>
-      <c r="K14" s="31">
+      <c r="K14" s="39">
         <v>45553</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="41"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="54"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="2" t="s">
         <v>41</v>
       </c>
@@ -2322,11 +2330,11 @@
       <c r="G15" s="2">
         <v>50</v>
       </c>
-      <c r="K15" s="32"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
-      <c r="B16" s="41"/>
+      <c r="K15" s="40"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="54"/>
+      <c r="B16" s="52"/>
       <c r="C16" s="2" t="s">
         <v>42</v>
       </c>
@@ -2342,11 +2350,11 @@
       <c r="G16" s="2">
         <v>50</v>
       </c>
-      <c r="K16" s="32"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-      <c r="B17" s="41"/>
+      <c r="K16" s="40"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="54"/>
+      <c r="B17" s="52"/>
       <c r="C17" s="2" t="s">
         <v>43</v>
       </c>
@@ -2362,13 +2370,13 @@
       <c r="G17" s="2">
         <v>6</v>
       </c>
-      <c r="K17" s="33"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="34">
+      <c r="K17" s="41"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="54">
         <v>5</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="52" t="s">
         <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -2386,13 +2394,13 @@
       <c r="G18" s="2">
         <v>20</v>
       </c>
-      <c r="K18" s="31">
+      <c r="K18" s="39">
         <v>45540</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
-      <c r="B19" s="41"/>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="54"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="2" t="s">
         <v>28</v>
       </c>
@@ -2408,11 +2416,11 @@
       <c r="G19" s="4">
         <v>20</v>
       </c>
-      <c r="K19" s="32"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
-      <c r="B20" s="41"/>
+      <c r="K19" s="40"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="54"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="2" t="s">
         <v>45</v>
       </c>
@@ -2428,11 +2436,11 @@
       <c r="G20" s="2">
         <v>20</v>
       </c>
-      <c r="K20" s="32"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
-      <c r="B21" s="41"/>
+      <c r="K20" s="40"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="54"/>
+      <c r="B21" s="52"/>
       <c r="C21" s="2" t="s">
         <v>46</v>
       </c>
@@ -2448,11 +2456,11 @@
       <c r="G21" s="2">
         <v>10</v>
       </c>
-      <c r="K21" s="32"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
-      <c r="B22" s="41"/>
+      <c r="K21" s="40"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="54"/>
+      <c r="B22" s="52"/>
       <c r="C22" s="2" t="s">
         <v>47</v>
       </c>
@@ -2468,13 +2476,13 @@
       <c r="G22" s="2">
         <v>20</v>
       </c>
-      <c r="K22" s="33"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="34">
+      <c r="K22" s="41"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="54">
         <v>6</v>
       </c>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="52" t="s">
         <v>51</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -2492,13 +2500,13 @@
       <c r="G23" s="2">
         <v>20</v>
       </c>
-      <c r="K23" s="31">
+      <c r="K23" s="39">
         <v>45540</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
-      <c r="B24" s="41"/>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="54"/>
+      <c r="B24" s="52"/>
       <c r="C24" s="2" t="s">
         <v>50</v>
       </c>
@@ -2514,13 +2522,13 @@
       <c r="G24" s="4">
         <v>11</v>
       </c>
-      <c r="K24" s="33"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="34">
-        <v>7</v>
-      </c>
-      <c r="B25" s="41" t="s">
+      <c r="K24" s="41"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="54">
+        <v>7</v>
+      </c>
+      <c r="B25" s="52" t="s">
         <v>55</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -2538,13 +2546,13 @@
       <c r="G25" s="2">
         <v>20</v>
       </c>
-      <c r="K25" s="31">
+      <c r="K25" s="39">
         <v>45539</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
-      <c r="B26" s="41"/>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="54"/>
+      <c r="B26" s="52"/>
       <c r="C26" s="2" t="s">
         <v>52</v>
       </c>
@@ -2560,11 +2568,11 @@
       <c r="G26" s="2">
         <v>50</v>
       </c>
-      <c r="K26" s="32"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
-      <c r="B27" s="41"/>
+      <c r="K26" s="40"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="54"/>
+      <c r="B27" s="52"/>
       <c r="C27" s="2" t="s">
         <v>53</v>
       </c>
@@ -2580,11 +2588,11 @@
       <c r="G27" s="2">
         <v>40</v>
       </c>
-      <c r="K27" s="32"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-      <c r="B28" s="41"/>
+      <c r="K27" s="40"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="54"/>
+      <c r="B28" s="52"/>
       <c r="C28" s="2" t="s">
         <v>54</v>
       </c>
@@ -2600,13 +2608,13 @@
       <c r="G28" s="2">
         <v>10</v>
       </c>
-      <c r="K28" s="33"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="34">
+      <c r="K28" s="41"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="54">
         <v>8</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="52" t="s">
         <v>57</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -2624,13 +2632,13 @@
       <c r="G29" s="2">
         <v>20</v>
       </c>
-      <c r="K29" s="31">
+      <c r="K29" s="39">
         <v>45540</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
-      <c r="B30" s="41"/>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="54"/>
+      <c r="B30" s="52"/>
       <c r="C30" s="2" t="s">
         <v>56</v>
       </c>
@@ -2646,13 +2654,13 @@
       <c r="G30" s="4">
         <v>25</v>
       </c>
-      <c r="K30" s="33"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="34">
+      <c r="K30" s="41"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="54">
         <v>9</v>
       </c>
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="52" t="s">
         <v>58</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -2670,13 +2678,13 @@
       <c r="G31" s="2">
         <v>20</v>
       </c>
-      <c r="K31" s="31">
+      <c r="K31" s="39">
         <v>45540</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="34"/>
-      <c r="B32" s="41"/>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="54"/>
+      <c r="B32" s="52"/>
       <c r="C32" s="2" t="s">
         <v>28</v>
       </c>
@@ -2692,11 +2700,11 @@
       <c r="G32" s="4">
         <v>20</v>
       </c>
-      <c r="K32" s="32"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="34"/>
-      <c r="B33" s="41"/>
+      <c r="K32" s="40"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="54"/>
+      <c r="B33" s="52"/>
       <c r="C33" s="2" t="s">
         <v>29</v>
       </c>
@@ -2712,13 +2720,13 @@
       <c r="G33" s="2">
         <v>5000</v>
       </c>
-      <c r="K33" s="33"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="34">
-        <v>10</v>
-      </c>
-      <c r="B34" s="41" t="s">
+      <c r="K33" s="41"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="54">
+        <v>10</v>
+      </c>
+      <c r="B34" s="52" t="s">
         <v>60</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -2736,13 +2744,13 @@
       <c r="G34" s="2">
         <v>20</v>
       </c>
-      <c r="K34" s="31">
+      <c r="K34" s="39">
         <v>45540</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="34"/>
-      <c r="B35" s="41"/>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="54"/>
+      <c r="B35" s="52"/>
       <c r="C35" s="2" t="s">
         <v>59</v>
       </c>
@@ -2758,13 +2766,13 @@
       <c r="G35" s="4">
         <v>30</v>
       </c>
-      <c r="K35" s="33"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K35" s="41"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>11</v>
       </c>
-      <c r="B36" s="42" t="s">
+      <c r="B36" s="28" t="s">
         <v>61</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -2786,11 +2794,11 @@
         <v>45540</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>12</v>
       </c>
-      <c r="B37" s="42" t="s">
+      <c r="B37" s="28" t="s">
         <v>62</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -2812,11 +2820,11 @@
         <v>45540</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="34">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="54">
         <v>13</v>
       </c>
-      <c r="B38" s="41" t="s">
+      <c r="B38" s="52" t="s">
         <v>64</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -2834,13 +2842,13 @@
       <c r="G38" s="2">
         <v>20</v>
       </c>
-      <c r="K38" s="31">
+      <c r="K38" s="39">
         <v>45540</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="34"/>
-      <c r="B39" s="41"/>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="54"/>
+      <c r="B39" s="52"/>
       <c r="C39" s="2" t="s">
         <v>63</v>
       </c>
@@ -2856,13 +2864,13 @@
       <c r="G39" s="4">
         <v>20</v>
       </c>
-      <c r="K39" s="33"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="34">
+      <c r="K39" s="41"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="54">
         <v>14</v>
       </c>
-      <c r="B40" s="41" t="s">
+      <c r="B40" s="52" t="s">
         <v>75</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -2880,13 +2888,13 @@
       <c r="G40" s="2">
         <v>20</v>
       </c>
-      <c r="K40" s="31">
+      <c r="K40" s="39">
         <v>45540</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="34"/>
-      <c r="B41" s="41"/>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="54"/>
+      <c r="B41" s="52"/>
       <c r="C41" s="2" t="s">
         <v>74</v>
       </c>
@@ -2902,13 +2910,13 @@
       <c r="G41" s="2">
         <v>1000</v>
       </c>
-      <c r="K41" s="33"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K41" s="41"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>15</v>
       </c>
-      <c r="B42" s="42" t="s">
+      <c r="B42" s="28" t="s">
         <v>79</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -2930,11 +2938,11 @@
         <v>45540</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="34">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="54">
         <v>16</v>
       </c>
-      <c r="B43" s="41" t="s">
+      <c r="B43" s="52" t="s">
         <v>83</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -2952,13 +2960,13 @@
       <c r="G43" s="2">
         <v>20</v>
       </c>
-      <c r="K43" s="31">
+      <c r="K43" s="39">
         <v>45553</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="34"/>
-      <c r="B44" s="41"/>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="54"/>
+      <c r="B44" s="52"/>
       <c r="C44" s="2" t="s">
         <v>80</v>
       </c>
@@ -2974,11 +2982,11 @@
       <c r="G44" s="2">
         <v>50</v>
       </c>
-      <c r="K44" s="32"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="34"/>
-      <c r="B45" s="41"/>
+      <c r="K44" s="40"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="54"/>
+      <c r="B45" s="52"/>
       <c r="C45" s="2" t="s">
         <v>81</v>
       </c>
@@ -2994,11 +3002,11 @@
       <c r="G45" s="2">
         <v>50</v>
       </c>
-      <c r="K45" s="32"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="34"/>
-      <c r="B46" s="41"/>
+      <c r="K45" s="40"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="54"/>
+      <c r="B46" s="52"/>
       <c r="C46" s="2" t="s">
         <v>82</v>
       </c>
@@ -3014,13 +3022,13 @@
       <c r="G46" s="2">
         <v>6</v>
       </c>
-      <c r="K46" s="33"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K46" s="41"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>17</v>
       </c>
-      <c r="B47" s="42" t="s">
+      <c r="B47" s="28" t="s">
         <v>65</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -3042,11 +3050,11 @@
         <v>45553</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="34">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="54">
         <v>18</v>
       </c>
-      <c r="B48" s="41" t="s">
+      <c r="B48" s="52" t="s">
         <v>68</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -3064,13 +3072,13 @@
       <c r="G48" s="2">
         <v>20</v>
       </c>
-      <c r="K48" s="31">
+      <c r="K48" s="39">
         <v>45544</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="34"/>
-      <c r="B49" s="41"/>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="54"/>
+      <c r="B49" s="52"/>
       <c r="C49" s="2" t="s">
         <v>8</v>
       </c>
@@ -3086,11 +3094,11 @@
       <c r="G49" s="2">
         <v>20</v>
       </c>
-      <c r="K49" s="32"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="34"/>
-      <c r="B50" s="41"/>
+      <c r="K49" s="40"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="54"/>
+      <c r="B50" s="52"/>
       <c r="C50" s="2" t="s">
         <v>66</v>
       </c>
@@ -3101,13 +3109,13 @@
         <v>21</v>
       </c>
       <c r="G50" s="4"/>
-      <c r="K50" s="33"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="34">
+      <c r="K50" s="41"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="54">
         <v>19</v>
       </c>
-      <c r="B51" s="41" t="s">
+      <c r="B51" s="52" t="s">
         <v>84</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -3125,13 +3133,13 @@
       <c r="G51" s="2">
         <v>20</v>
       </c>
-      <c r="K51" s="31">
+      <c r="K51" s="39">
         <v>45544</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="34"/>
-      <c r="B52" s="41"/>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="54"/>
+      <c r="B52" s="52"/>
       <c r="C52" s="2" t="s">
         <v>69</v>
       </c>
@@ -3142,11 +3150,11 @@
         <v>21</v>
       </c>
       <c r="G52" s="4"/>
-      <c r="K52" s="32"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="34"/>
-      <c r="B53" s="41"/>
+      <c r="K52" s="40"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="54"/>
+      <c r="B53" s="52"/>
       <c r="C53" s="2" t="s">
         <v>70</v>
       </c>
@@ -3159,11 +3167,11 @@
       <c r="F53" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="K53" s="32"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="34"/>
-      <c r="B54" s="41"/>
+      <c r="K53" s="40"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="54"/>
+      <c r="B54" s="52"/>
       <c r="C54" s="2" t="s">
         <v>72</v>
       </c>
@@ -3179,11 +3187,11 @@
       <c r="G54" s="2">
         <v>50</v>
       </c>
-      <c r="K54" s="32"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="34"/>
-      <c r="B55" s="41"/>
+      <c r="K54" s="40"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="54"/>
+      <c r="B55" s="52"/>
       <c r="C55" s="2" t="s">
         <v>73</v>
       </c>
@@ -3199,13 +3207,13 @@
       <c r="G55" s="2">
         <v>50</v>
       </c>
-      <c r="K55" s="33"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="34">
-        <v>20</v>
-      </c>
-      <c r="B56" s="41" t="s">
+      <c r="K55" s="41"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="54">
+        <v>20</v>
+      </c>
+      <c r="B56" s="52" t="s">
         <v>78</v>
       </c>
       <c r="C56" s="2" t="s">
@@ -3223,13 +3231,13 @@
       <c r="G56" s="2">
         <v>10</v>
       </c>
-      <c r="K56" s="31">
+      <c r="K56" s="39">
         <v>45544</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="34"/>
-      <c r="B57" s="41"/>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="54"/>
+      <c r="B57" s="52"/>
       <c r="C57" s="2" t="s">
         <v>77</v>
       </c>
@@ -3245,13 +3253,13 @@
       <c r="G57" s="4">
         <v>5</v>
       </c>
-      <c r="K57" s="33"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="34">
+      <c r="K57" s="41"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="54">
         <v>21</v>
       </c>
-      <c r="B58" s="41" t="s">
+      <c r="B58" s="52" t="s">
         <v>91</v>
       </c>
       <c r="C58" s="2" t="s">
@@ -3269,13 +3277,13 @@
       <c r="G58" s="2">
         <v>20</v>
       </c>
-      <c r="K58" s="31">
+      <c r="K58" s="39">
         <v>45544</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="34"/>
-      <c r="B59" s="41"/>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="54"/>
+      <c r="B59" s="52"/>
       <c r="C59" s="2" t="s">
         <v>86</v>
       </c>
@@ -3291,11 +3299,11 @@
       <c r="G59" s="2">
         <v>30</v>
       </c>
-      <c r="K59" s="32"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="34"/>
-      <c r="B60" s="41"/>
+      <c r="K59" s="40"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="54"/>
+      <c r="B60" s="52"/>
       <c r="C60" s="2" t="s">
         <v>87</v>
       </c>
@@ -3311,11 +3319,11 @@
       <c r="G60" s="2">
         <v>30</v>
       </c>
-      <c r="K60" s="32"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="34"/>
-      <c r="B61" s="41"/>
+      <c r="K60" s="40"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="54"/>
+      <c r="B61" s="52"/>
       <c r="C61" s="2" t="s">
         <v>89</v>
       </c>
@@ -3334,13 +3342,13 @@
       <c r="J61" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="K61" s="33"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="34">
+      <c r="K61" s="41"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="54">
         <v>22</v>
       </c>
-      <c r="B62" s="41" t="s">
+      <c r="B62" s="52" t="s">
         <v>98</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -3358,13 +3366,13 @@
       <c r="G62" s="2">
         <v>20</v>
       </c>
-      <c r="K62" s="31">
+      <c r="K62" s="39">
         <v>45544</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="34"/>
-      <c r="B63" s="41"/>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="54"/>
+      <c r="B63" s="52"/>
       <c r="C63" s="2" t="s">
         <v>92</v>
       </c>
@@ -3383,11 +3391,11 @@
       <c r="J63" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="K63" s="32"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="34"/>
-      <c r="B64" s="41"/>
+      <c r="K63" s="40"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="54"/>
+      <c r="B64" s="52"/>
       <c r="C64" s="2" t="s">
         <v>93</v>
       </c>
@@ -3406,11 +3414,11 @@
       <c r="J64" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="K64" s="32"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="34"/>
-      <c r="B65" s="41"/>
+      <c r="K64" s="40"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="54"/>
+      <c r="B65" s="52"/>
       <c r="C65" s="2" t="s">
         <v>94</v>
       </c>
@@ -3429,13 +3437,13 @@
       <c r="J65" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="K65" s="33"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="28">
+      <c r="K65" s="41"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="36">
         <v>23</v>
       </c>
-      <c r="B66" s="43" t="s">
+      <c r="B66" s="33" t="s">
         <v>100</v>
       </c>
       <c r="C66" s="2" t="s">
@@ -3453,13 +3461,13 @@
       <c r="G66" s="2">
         <v>20</v>
       </c>
-      <c r="K66" s="31">
+      <c r="K66" s="39">
         <v>45546</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="30"/>
-      <c r="B67" s="44"/>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="38"/>
+      <c r="B67" s="35"/>
       <c r="C67" s="2" t="s">
         <v>99</v>
       </c>
@@ -3475,13 +3483,13 @@
       <c r="G67" s="2">
         <v>20</v>
       </c>
-      <c r="K67" s="33"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="34">
+      <c r="K67" s="41"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="54">
         <v>24</v>
       </c>
-      <c r="B68" s="41" t="s">
+      <c r="B68" s="52" t="s">
         <v>101</v>
       </c>
       <c r="C68" s="2" t="s">
@@ -3499,13 +3507,13 @@
       <c r="G68" s="2">
         <v>20</v>
       </c>
-      <c r="K68" s="31">
+      <c r="K68" s="39">
         <v>45544</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="34"/>
-      <c r="B69" s="41"/>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="54"/>
+      <c r="B69" s="52"/>
       <c r="C69" s="2" t="s">
         <v>99</v>
       </c>
@@ -3521,11 +3529,11 @@
       <c r="G69" s="2">
         <v>20</v>
       </c>
-      <c r="K69" s="32"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="34"/>
-      <c r="B70" s="41"/>
+      <c r="K69" s="40"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="54"/>
+      <c r="B70" s="52"/>
       <c r="C70" s="2" t="s">
         <v>70</v>
       </c>
@@ -3538,13 +3546,13 @@
       <c r="F70" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="K70" s="33"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K70" s="41"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="5">
         <v>25</v>
       </c>
-      <c r="B71" s="42" t="s">
+      <c r="B71" s="28" t="s">
         <v>102</v>
       </c>
       <c r="C71" s="2" t="s">
@@ -3566,11 +3574,11 @@
         <v>45544</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
         <v>26</v>
       </c>
-      <c r="B72" s="42" t="s">
+      <c r="B72" s="28" t="s">
         <v>104</v>
       </c>
       <c r="C72" s="2" t="s">
@@ -3592,11 +3600,11 @@
         <v>45545</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
         <v>27</v>
       </c>
-      <c r="B73" s="42" t="s">
+      <c r="B73" s="28" t="s">
         <v>106</v>
       </c>
       <c r="C73" s="2" t="s">
@@ -3618,11 +3626,11 @@
         <v>45545</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="34">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="54">
         <v>28</v>
       </c>
-      <c r="B74" s="41" t="s">
+      <c r="B74" s="52" t="s">
         <v>111</v>
       </c>
       <c r="C74" s="2" t="s">
@@ -3640,13 +3648,13 @@
       <c r="G74" s="2">
         <v>50</v>
       </c>
-      <c r="K74" s="31">
+      <c r="K74" s="39">
         <v>45545</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="34"/>
-      <c r="B75" s="41"/>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="54"/>
+      <c r="B75" s="52"/>
       <c r="C75" s="2" t="s">
         <v>108</v>
       </c>
@@ -3662,11 +3670,11 @@
       <c r="G75" s="2">
         <v>50</v>
       </c>
-      <c r="K75" s="32"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="34"/>
-      <c r="B76" s="41"/>
+      <c r="K75" s="40"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="54"/>
+      <c r="B76" s="52"/>
       <c r="C76" s="2" t="s">
         <v>109</v>
       </c>
@@ -3682,11 +3690,11 @@
       <c r="G76" s="2">
         <v>3</v>
       </c>
-      <c r="K76" s="32"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="34"/>
-      <c r="B77" s="41"/>
+      <c r="K76" s="40"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="54"/>
+      <c r="B77" s="52"/>
       <c r="C77" s="2" t="s">
         <v>40</v>
       </c>
@@ -3702,11 +3710,11 @@
       <c r="G77" s="4">
         <v>20</v>
       </c>
-      <c r="K77" s="32"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="34"/>
-      <c r="B78" s="41"/>
+      <c r="K77" s="40"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="54"/>
+      <c r="B78" s="52"/>
       <c r="C78" s="2" t="s">
         <v>110</v>
       </c>
@@ -3722,13 +3730,13 @@
       <c r="G78" s="2">
         <v>50</v>
       </c>
-      <c r="K78" s="33"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K78" s="41"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="5">
         <v>29</v>
       </c>
-      <c r="B79" s="42" t="s">
+      <c r="B79" s="28" t="s">
         <v>112</v>
       </c>
       <c r="C79" s="2" t="s">
@@ -3750,11 +3758,11 @@
         <v>45545</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
         <v>30</v>
       </c>
-      <c r="B80" s="42" t="s">
+      <c r="B80" s="28" t="s">
         <v>113</v>
       </c>
       <c r="C80" s="2" t="s">
@@ -3776,11 +3784,11 @@
         <v>45545</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="34">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="54">
         <v>31</v>
       </c>
-      <c r="B81" s="41" t="s">
+      <c r="B81" s="52" t="s">
         <v>118</v>
       </c>
       <c r="C81" s="2" t="s">
@@ -3798,13 +3806,13 @@
       <c r="G81" s="2">
         <v>20</v>
       </c>
-      <c r="K81" s="31">
+      <c r="K81" s="39">
         <v>45545</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="34"/>
-      <c r="B82" s="41"/>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="54"/>
+      <c r="B82" s="52"/>
       <c r="C82" s="2" t="s">
         <v>114</v>
       </c>
@@ -3820,11 +3828,11 @@
       <c r="G82" s="4">
         <v>30</v>
       </c>
-      <c r="K82" s="32"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="34"/>
-      <c r="B83" s="41"/>
+      <c r="K82" s="40"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="54"/>
+      <c r="B83" s="52"/>
       <c r="C83" s="2" t="s">
         <v>115</v>
       </c>
@@ -3840,11 +3848,11 @@
       <c r="G83" s="2">
         <v>30</v>
       </c>
-      <c r="K83" s="32"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="34"/>
-      <c r="B84" s="41"/>
+      <c r="K83" s="40"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="54"/>
+      <c r="B84" s="52"/>
       <c r="C84" s="2" t="s">
         <v>116</v>
       </c>
@@ -3854,13 +3862,13 @@
       <c r="F84" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="K84" s="33"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="28">
+      <c r="K84" s="41"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="36">
         <v>32</v>
       </c>
-      <c r="B85" s="41" t="s">
+      <c r="B85" s="52" t="s">
         <v>121</v>
       </c>
       <c r="C85" s="2" t="s">
@@ -3878,13 +3886,13 @@
       <c r="G85" s="2">
         <v>20</v>
       </c>
-      <c r="K85" s="31" t="s">
+      <c r="K85" s="39" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="29"/>
-      <c r="B86" s="41"/>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="37"/>
+      <c r="B86" s="52"/>
       <c r="C86" s="2" t="s">
         <v>119</v>
       </c>
@@ -3900,11 +3908,11 @@
       <c r="G86" s="4">
         <v>10</v>
       </c>
-      <c r="K86" s="32"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="30"/>
-      <c r="B87" s="41"/>
+      <c r="K86" s="40"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="38"/>
+      <c r="B87" s="52"/>
       <c r="C87" s="2" t="s">
         <v>120</v>
       </c>
@@ -3920,13 +3928,13 @@
       <c r="G87" s="2">
         <v>15</v>
       </c>
-      <c r="K87" s="33"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="28">
+      <c r="K87" s="41"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="36">
         <v>33</v>
       </c>
-      <c r="B88" s="41" t="s">
+      <c r="B88" s="52" t="s">
         <v>123</v>
       </c>
       <c r="C88" s="2" t="s">
@@ -3944,13 +3952,13 @@
       <c r="G88" s="2">
         <v>20</v>
       </c>
-      <c r="K88" s="31">
+      <c r="K88" s="39">
         <v>45545</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="29"/>
-      <c r="B89" s="41"/>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="37"/>
+      <c r="B89" s="52"/>
       <c r="C89" s="2" t="s">
         <v>122</v>
       </c>
@@ -3966,11 +3974,11 @@
       <c r="G89" s="4">
         <v>50</v>
       </c>
-      <c r="K89" s="32"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="30"/>
-      <c r="B90" s="41"/>
+      <c r="K89" s="40"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="38"/>
+      <c r="B90" s="52"/>
       <c r="C90" s="2" t="s">
         <v>120</v>
       </c>
@@ -3986,13 +3994,13 @@
       <c r="G90" s="2">
         <v>50</v>
       </c>
-      <c r="K90" s="33"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="28">
+      <c r="K90" s="41"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="36">
         <v>34</v>
       </c>
-      <c r="B91" s="41" t="s">
+      <c r="B91" s="52" t="s">
         <v>126</v>
       </c>
       <c r="C91" s="2" t="s">
@@ -4010,13 +4018,13 @@
       <c r="G91" s="2">
         <v>20</v>
       </c>
-      <c r="K91" s="31">
+      <c r="K91" s="39">
         <v>45546</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="29"/>
-      <c r="B92" s="41"/>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" s="37"/>
+      <c r="B92" s="52"/>
       <c r="C92" s="2" t="s">
         <v>124</v>
       </c>
@@ -4032,11 +4040,11 @@
       <c r="G92" s="4">
         <v>60</v>
       </c>
-      <c r="K92" s="32"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="30"/>
-      <c r="B93" s="41"/>
+      <c r="K92" s="40"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" s="38"/>
+      <c r="B93" s="52"/>
       <c r="C93" s="2" t="s">
         <v>125</v>
       </c>
@@ -4052,13 +4060,13 @@
       <c r="G93" s="2">
         <v>60</v>
       </c>
-      <c r="K93" s="33"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="28">
+      <c r="K93" s="41"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="36">
         <v>35</v>
       </c>
-      <c r="B94" s="41" t="s">
+      <c r="B94" s="52" t="s">
         <v>128</v>
       </c>
       <c r="C94" s="2" t="s">
@@ -4076,13 +4084,13 @@
       <c r="G94" s="2">
         <v>20</v>
       </c>
-      <c r="K94" s="31">
+      <c r="K94" s="39">
         <v>45545</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="29"/>
-      <c r="B95" s="41"/>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="37"/>
+      <c r="B95" s="52"/>
       <c r="C95" s="2" t="s">
         <v>127</v>
       </c>
@@ -4098,11 +4106,11 @@
       <c r="G95" s="4">
         <v>50</v>
       </c>
-      <c r="K95" s="32"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="30"/>
-      <c r="B96" s="41"/>
+      <c r="K95" s="40"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="38"/>
+      <c r="B96" s="52"/>
       <c r="C96" s="2" t="s">
         <v>125</v>
       </c>
@@ -4118,13 +4126,13 @@
       <c r="G96" s="2">
         <v>50</v>
       </c>
-      <c r="K96" s="33"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K96" s="41"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="5">
         <v>36</v>
       </c>
-      <c r="B97" s="45" t="s">
+      <c r="B97" s="58" t="s">
         <v>129</v>
       </c>
       <c r="C97" s="2" t="s">
@@ -4146,11 +4154,11 @@
         <v>45545</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="28">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="36">
         <v>37</v>
       </c>
-      <c r="B98" s="41" t="s">
+      <c r="B98" s="52" t="s">
         <v>132</v>
       </c>
       <c r="C98" s="2" t="s">
@@ -4168,13 +4176,13 @@
       <c r="G98" s="2">
         <v>20</v>
       </c>
-      <c r="K98" s="31">
+      <c r="K98" s="39">
         <v>45545</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="29"/>
-      <c r="B99" s="41"/>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="37"/>
+      <c r="B99" s="52"/>
       <c r="C99" s="2" t="s">
         <v>130</v>
       </c>
@@ -4190,11 +4198,11 @@
       <c r="G99" s="2">
         <v>30</v>
       </c>
-      <c r="K99" s="32"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="30"/>
-      <c r="B100" s="41"/>
+      <c r="K99" s="40"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="38"/>
+      <c r="B100" s="52"/>
       <c r="C100" s="2" t="s">
         <v>131</v>
       </c>
@@ -4210,13 +4218,13 @@
       <c r="G100" s="2">
         <v>20</v>
       </c>
-      <c r="K100" s="33"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="28">
+      <c r="K100" s="41"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="36">
         <v>38</v>
       </c>
-      <c r="B101" s="41" t="s">
+      <c r="B101" s="52" t="s">
         <v>134</v>
       </c>
       <c r="C101" s="2" t="s">
@@ -4234,13 +4242,13 @@
       <c r="G101" s="2">
         <v>20</v>
       </c>
-      <c r="K101" s="31">
+      <c r="K101" s="39">
         <v>45545</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="29"/>
-      <c r="B102" s="41"/>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="37"/>
+      <c r="B102" s="52"/>
       <c r="C102" s="2" t="s">
         <v>8</v>
       </c>
@@ -4257,11 +4265,11 @@
         <v>20</v>
       </c>
       <c r="I102" s="3"/>
-      <c r="K102" s="32"/>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="30"/>
-      <c r="B103" s="41"/>
+      <c r="K102" s="40"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" s="38"/>
+      <c r="B103" s="52"/>
       <c r="C103" s="2" t="s">
         <v>133</v>
       </c>
@@ -4275,13 +4283,13 @@
         <v>21</v>
       </c>
       <c r="I103" s="3"/>
-      <c r="K103" s="33"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="28">
+      <c r="K103" s="41"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" s="36">
         <v>39</v>
       </c>
-      <c r="B104" s="41" t="s">
+      <c r="B104" s="52" t="s">
         <v>140</v>
       </c>
       <c r="C104" s="2" t="s">
@@ -4300,13 +4308,13 @@
         <v>50</v>
       </c>
       <c r="I104" s="3"/>
-      <c r="K104" s="31">
+      <c r="K104" s="39">
         <v>45545</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="29"/>
-      <c r="B105" s="41"/>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" s="37"/>
+      <c r="B105" s="52"/>
       <c r="C105" s="2" t="s">
         <v>136</v>
       </c>
@@ -4326,11 +4334,11 @@
       <c r="J105" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="K105" s="32"/>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="29"/>
-      <c r="B106" s="41"/>
+      <c r="K105" s="40"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" s="37"/>
+      <c r="B106" s="52"/>
       <c r="C106" s="2" t="s">
         <v>138</v>
       </c>
@@ -4347,11 +4355,11 @@
         <v>50</v>
       </c>
       <c r="I106" s="3"/>
-      <c r="K106" s="32"/>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="30"/>
-      <c r="B107" s="41"/>
+      <c r="K106" s="40"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107" s="38"/>
+      <c r="B107" s="52"/>
       <c r="C107" s="2" t="s">
         <v>139</v>
       </c>
@@ -4362,13 +4370,13 @@
         <v>21</v>
       </c>
       <c r="I107" s="3"/>
-      <c r="K107" s="33"/>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="28">
+      <c r="K107" s="41"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108" s="36">
         <v>40</v>
       </c>
-      <c r="B108" s="41" t="s">
+      <c r="B108" s="52" t="s">
         <v>145</v>
       </c>
       <c r="C108" s="2" t="s">
@@ -4386,13 +4394,13 @@
       <c r="G108" s="2">
         <v>2</v>
       </c>
-      <c r="K108" s="31">
+      <c r="K108" s="39">
         <v>45545</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="29"/>
-      <c r="B109" s="41"/>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" s="37"/>
+      <c r="B109" s="52"/>
       <c r="C109" s="2" t="s">
         <v>142</v>
       </c>
@@ -4408,11 +4416,11 @@
       <c r="G109" s="2">
         <v>11</v>
       </c>
-      <c r="K109" s="32"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="29"/>
-      <c r="B110" s="41"/>
+      <c r="K109" s="40"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110" s="37"/>
+      <c r="B110" s="52"/>
       <c r="C110" s="2" t="s">
         <v>143</v>
       </c>
@@ -4428,11 +4436,11 @@
       <c r="G110" s="2">
         <v>11</v>
       </c>
-      <c r="K110" s="32"/>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="30"/>
-      <c r="B111" s="41"/>
+      <c r="K110" s="40"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111" s="38"/>
+      <c r="B111" s="52"/>
       <c r="C111" s="2" t="s">
         <v>144</v>
       </c>
@@ -4448,13 +4456,13 @@
       <c r="G111" s="2">
         <v>20</v>
       </c>
-      <c r="K111" s="33"/>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="28">
+      <c r="K111" s="41"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112" s="36">
         <v>41</v>
       </c>
-      <c r="B112" s="41" t="s">
+      <c r="B112" s="52" t="s">
         <v>148</v>
       </c>
       <c r="C112" s="2" t="s">
@@ -4472,13 +4480,13 @@
       <c r="G112" s="2">
         <v>2</v>
       </c>
-      <c r="K112" s="31">
+      <c r="K112" s="39">
         <v>45545</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="30"/>
-      <c r="B113" s="41"/>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" s="38"/>
+      <c r="B113" s="52"/>
       <c r="C113" s="2" t="s">
         <v>147</v>
       </c>
@@ -4494,13 +4502,13 @@
       <c r="G113" s="2">
         <v>50</v>
       </c>
-      <c r="K113" s="33"/>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="28">
+      <c r="K113" s="41"/>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114" s="36">
         <v>42</v>
       </c>
-      <c r="B114" s="41" t="s">
+      <c r="B114" s="52" t="s">
         <v>152</v>
       </c>
       <c r="C114" s="2" t="s">
@@ -4518,13 +4526,13 @@
       <c r="G114" s="2">
         <v>20</v>
       </c>
-      <c r="K114" s="31">
+      <c r="K114" s="39">
         <v>45545</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="29"/>
-      <c r="B115" s="41"/>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115" s="37"/>
+      <c r="B115" s="52"/>
       <c r="C115" s="6" t="s">
         <v>149</v>
       </c>
@@ -4540,11 +4548,11 @@
       <c r="G115" s="2">
         <v>5</v>
       </c>
-      <c r="K115" s="32"/>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="29"/>
-      <c r="B116" s="41"/>
+      <c r="K115" s="40"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116" s="37"/>
+      <c r="B116" s="52"/>
       <c r="C116" s="2" t="s">
         <v>150</v>
       </c>
@@ -4560,11 +4568,11 @@
       <c r="G116" s="2">
         <v>50</v>
       </c>
-      <c r="K116" s="32"/>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="30"/>
-      <c r="B117" s="41"/>
+      <c r="K116" s="40"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A117" s="38"/>
+      <c r="B117" s="52"/>
       <c r="C117" s="2" t="s">
         <v>151</v>
       </c>
@@ -4574,13 +4582,13 @@
       <c r="F117" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K117" s="33"/>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K117" s="41"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="5">
         <v>43</v>
       </c>
-      <c r="B118" s="45" t="s">
+      <c r="B118" s="58" t="s">
         <v>153</v>
       </c>
       <c r="C118" s="2" t="s">
@@ -4602,11 +4610,11 @@
         <v>45545</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="28">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119" s="36">
         <v>44</v>
       </c>
-      <c r="B119" s="41" t="s">
+      <c r="B119" s="52" t="s">
         <v>155</v>
       </c>
       <c r="C119" s="2" t="s">
@@ -4624,13 +4632,13 @@
       <c r="G119" s="2">
         <v>30</v>
       </c>
-      <c r="K119" s="31">
+      <c r="K119" s="39">
         <v>45545</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="30"/>
-      <c r="B120" s="41"/>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A120" s="38"/>
+      <c r="B120" s="52"/>
       <c r="C120" s="2" t="s">
         <v>49</v>
       </c>
@@ -4646,13 +4654,13 @@
       <c r="G120" s="2">
         <v>20</v>
       </c>
-      <c r="K120" s="33"/>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="28">
+      <c r="K120" s="41"/>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121" s="36">
         <v>45</v>
       </c>
-      <c r="B121" s="41" t="s">
+      <c r="B121" s="52" t="s">
         <v>154</v>
       </c>
       <c r="C121" s="2" t="s">
@@ -4670,13 +4678,13 @@
       <c r="G121" s="2">
         <v>20</v>
       </c>
-      <c r="K121" s="31">
+      <c r="K121" s="39">
         <v>45545</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="30"/>
-      <c r="B122" s="41"/>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122" s="38"/>
+      <c r="B122" s="52"/>
       <c r="C122" s="2" t="s">
         <v>154</v>
       </c>
@@ -4692,13 +4700,13 @@
       <c r="G122" s="2">
         <v>50</v>
       </c>
-      <c r="K122" s="33"/>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K122" s="41"/>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="5">
         <v>46</v>
       </c>
-      <c r="B123" s="46" t="s">
+      <c r="B123" s="28" t="s">
         <v>157</v>
       </c>
       <c r="C123" s="2" t="s">
@@ -4720,11 +4728,11 @@
         <v>45552</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="28">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124" s="36">
         <v>47</v>
       </c>
-      <c r="B124" s="41" t="s">
+      <c r="B124" s="52" t="s">
         <v>159</v>
       </c>
       <c r="C124" s="2" t="s">
@@ -4742,13 +4750,13 @@
       <c r="G124" s="2">
         <v>20</v>
       </c>
-      <c r="K124" s="31">
+      <c r="K124" s="39">
         <v>45546</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="30"/>
-      <c r="B125" s="41"/>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A125" s="38"/>
+      <c r="B125" s="52"/>
       <c r="C125" s="2" t="s">
         <v>158</v>
       </c>
@@ -4764,13 +4772,13 @@
       <c r="G125" s="2">
         <v>3</v>
       </c>
-      <c r="K125" s="33"/>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="28">
+      <c r="K125" s="41"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126" s="36">
         <v>48</v>
       </c>
-      <c r="B126" s="41" t="s">
+      <c r="B126" s="52" t="s">
         <v>161</v>
       </c>
       <c r="C126" s="2" t="s">
@@ -4788,13 +4796,13 @@
       <c r="G126" s="2">
         <v>20</v>
       </c>
-      <c r="K126" s="31">
+      <c r="K126" s="39">
         <v>45546</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="30"/>
-      <c r="B127" s="41"/>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127" s="38"/>
+      <c r="B127" s="52"/>
       <c r="C127" s="2" t="s">
         <v>160</v>
       </c>
@@ -4810,13 +4818,13 @@
       <c r="G127" s="2">
         <v>50</v>
       </c>
-      <c r="K127" s="33"/>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="28">
+      <c r="K127" s="41"/>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A128" s="36">
         <v>49</v>
       </c>
-      <c r="B128" s="41" t="s">
+      <c r="B128" s="52" t="s">
         <v>164</v>
       </c>
       <c r="C128" s="2" t="s">
@@ -4834,13 +4842,13 @@
       <c r="G128" s="2">
         <v>20</v>
       </c>
-      <c r="K128" s="31">
+      <c r="K128" s="39">
         <v>45546</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="29"/>
-      <c r="B129" s="41"/>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A129" s="37"/>
+      <c r="B129" s="52"/>
       <c r="C129" s="2" t="s">
         <v>162</v>
       </c>
@@ -4856,11 +4864,11 @@
       <c r="G129" s="2">
         <v>25</v>
       </c>
-      <c r="K129" s="32"/>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="30"/>
-      <c r="B130" s="41"/>
+      <c r="K129" s="40"/>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A130" s="38"/>
+      <c r="B130" s="52"/>
       <c r="C130" s="2" t="s">
         <v>163</v>
       </c>
@@ -4870,13 +4878,13 @@
       <c r="F130" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="K130" s="33"/>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="28">
-        <v>50</v>
-      </c>
-      <c r="B131" s="41" t="s">
+      <c r="K130" s="41"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" s="36">
+        <v>50</v>
+      </c>
+      <c r="B131" s="52" t="s">
         <v>168</v>
       </c>
       <c r="C131" s="2" t="s">
@@ -4894,13 +4902,13 @@
       <c r="G131" s="2">
         <v>20</v>
       </c>
-      <c r="K131" s="31">
+      <c r="K131" s="39">
         <v>45546</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="29"/>
-      <c r="B132" s="41"/>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132" s="37"/>
+      <c r="B132" s="52"/>
       <c r="C132" s="2" t="s">
         <v>165</v>
       </c>
@@ -4916,11 +4924,11 @@
       <c r="G132" s="2">
         <v>10</v>
       </c>
-      <c r="K132" s="32"/>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="29"/>
-      <c r="B133" s="41"/>
+      <c r="K132" s="40"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A133" s="37"/>
+      <c r="B133" s="52"/>
       <c r="C133" s="2" t="s">
         <v>166</v>
       </c>
@@ -4936,11 +4944,11 @@
       <c r="G133" s="2">
         <v>10</v>
       </c>
-      <c r="K133" s="32"/>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="30"/>
-      <c r="B134" s="41"/>
+      <c r="K133" s="40"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A134" s="38"/>
+      <c r="B134" s="52"/>
       <c r="C134" s="2" t="s">
         <v>167</v>
       </c>
@@ -4956,13 +4964,13 @@
       <c r="G134" s="2">
         <v>2</v>
       </c>
-      <c r="K134" s="33"/>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="28">
+      <c r="K134" s="41"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A135" s="36">
         <v>51</v>
       </c>
-      <c r="B135" s="41" t="s">
+      <c r="B135" s="52" t="s">
         <v>169</v>
       </c>
       <c r="C135" s="2" t="s">
@@ -4980,13 +4988,13 @@
       <c r="G135" s="2">
         <v>20</v>
       </c>
-      <c r="K135" s="31">
+      <c r="K135" s="39">
         <v>45546</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="30"/>
-      <c r="B136" s="41"/>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A136" s="38"/>
+      <c r="B136" s="52"/>
       <c r="C136" s="2" t="s">
         <v>70</v>
       </c>
@@ -4999,13 +5007,13 @@
       <c r="F136" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="K136" s="33"/>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="28">
+      <c r="K136" s="41"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A137" s="36">
         <v>52</v>
       </c>
-      <c r="B137" s="41" t="s">
+      <c r="B137" s="52" t="s">
         <v>170</v>
       </c>
       <c r="C137" s="2" t="s">
@@ -5023,13 +5031,13 @@
       <c r="G137" s="2">
         <v>20</v>
       </c>
-      <c r="K137" s="31">
+      <c r="K137" s="39">
         <v>45546</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" s="29"/>
-      <c r="B138" s="41"/>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A138" s="37"/>
+      <c r="B138" s="52"/>
       <c r="C138" s="2" t="s">
         <v>165</v>
       </c>
@@ -5045,11 +5053,11 @@
       <c r="G138" s="2">
         <v>10</v>
       </c>
-      <c r="K138" s="32"/>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="29"/>
-      <c r="B139" s="41"/>
+      <c r="K138" s="40"/>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A139" s="37"/>
+      <c r="B139" s="52"/>
       <c r="C139" s="2" t="s">
         <v>166</v>
       </c>
@@ -5065,11 +5073,11 @@
       <c r="G139" s="2">
         <v>10</v>
       </c>
-      <c r="K139" s="32"/>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" s="30"/>
-      <c r="B140" s="41"/>
+      <c r="K139" s="40"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A140" s="38"/>
+      <c r="B140" s="52"/>
       <c r="C140" s="2" t="s">
         <v>167</v>
       </c>
@@ -5085,13 +5093,13 @@
       <c r="G140" s="2">
         <v>2</v>
       </c>
-      <c r="K140" s="33"/>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" s="28">
+      <c r="K140" s="41"/>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A141" s="36">
         <v>53</v>
       </c>
-      <c r="B141" s="41" t="s">
+      <c r="B141" s="52" t="s">
         <v>173</v>
       </c>
       <c r="C141" s="2" t="s">
@@ -5109,13 +5117,13 @@
       <c r="G141" s="2">
         <v>20</v>
       </c>
-      <c r="K141" s="31">
+      <c r="K141" s="39">
         <v>45546</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" s="29"/>
-      <c r="B142" s="41"/>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A142" s="37"/>
+      <c r="B142" s="52"/>
       <c r="C142" s="2" t="s">
         <v>8</v>
       </c>
@@ -5131,11 +5139,11 @@
       <c r="G142" s="2">
         <v>20</v>
       </c>
-      <c r="K142" s="32"/>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" s="30"/>
-      <c r="B143" s="41"/>
+      <c r="K142" s="40"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A143" s="38"/>
+      <c r="B143" s="52"/>
       <c r="C143" s="2" t="s">
         <v>172</v>
       </c>
@@ -5151,13 +5159,13 @@
       <c r="G143" s="2">
         <v>3</v>
       </c>
-      <c r="K143" s="33"/>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144" s="28">
+      <c r="K143" s="41"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A144" s="36">
         <v>54</v>
       </c>
-      <c r="B144" s="47" t="s">
+      <c r="B144" s="53" t="s">
         <v>186</v>
       </c>
       <c r="C144" s="2" t="s">
@@ -5169,13 +5177,13 @@
       <c r="F144" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K144" s="31">
+      <c r="K144" s="39">
         <v>45551</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145" s="29"/>
-      <c r="B145" s="47"/>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A145" s="37"/>
+      <c r="B145" s="53"/>
       <c r="C145" s="2" t="s">
         <v>175</v>
       </c>
@@ -5191,11 +5199,11 @@
       <c r="G145" s="2">
         <v>3000</v>
       </c>
-      <c r="K145" s="32"/>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A146" s="29"/>
-      <c r="B146" s="47"/>
+      <c r="K145" s="40"/>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A146" s="37"/>
+      <c r="B146" s="53"/>
       <c r="C146" s="2" t="s">
         <v>176</v>
       </c>
@@ -5211,11 +5219,11 @@
       <c r="G146" s="2">
         <v>3000</v>
       </c>
-      <c r="K146" s="32"/>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147" s="29"/>
-      <c r="B147" s="47"/>
+      <c r="K146" s="40"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A147" s="37"/>
+      <c r="B147" s="53"/>
       <c r="C147" s="2" t="s">
         <v>177</v>
       </c>
@@ -5231,11 +5239,11 @@
       <c r="G147" s="2">
         <v>3000</v>
       </c>
-      <c r="K147" s="32"/>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" s="29"/>
-      <c r="B148" s="47"/>
+      <c r="K147" s="40"/>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A148" s="37"/>
+      <c r="B148" s="53"/>
       <c r="C148" s="2" t="s">
         <v>178</v>
       </c>
@@ -5251,11 +5259,11 @@
       <c r="G148" s="2">
         <v>3000</v>
       </c>
-      <c r="K148" s="32"/>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A149" s="29"/>
-      <c r="B149" s="47"/>
+      <c r="K148" s="40"/>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A149" s="37"/>
+      <c r="B149" s="53"/>
       <c r="C149" s="2" t="s">
         <v>179</v>
       </c>
@@ -5271,11 +5279,11 @@
       <c r="G149" s="2">
         <v>3000</v>
       </c>
-      <c r="K149" s="32"/>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A150" s="29"/>
-      <c r="B150" s="47"/>
+      <c r="K149" s="40"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A150" s="37"/>
+      <c r="B150" s="53"/>
       <c r="C150" s="2" t="s">
         <v>180</v>
       </c>
@@ -5291,11 +5299,11 @@
       <c r="G150" s="2">
         <v>3000</v>
       </c>
-      <c r="K150" s="32"/>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A151" s="29"/>
-      <c r="B151" s="47"/>
+      <c r="K150" s="40"/>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A151" s="37"/>
+      <c r="B151" s="53"/>
       <c r="C151" s="2" t="s">
         <v>181</v>
       </c>
@@ -5311,11 +5319,11 @@
       <c r="G151" s="2">
         <v>3000</v>
       </c>
-      <c r="K151" s="32"/>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A152" s="29"/>
-      <c r="B152" s="47"/>
+      <c r="K151" s="40"/>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A152" s="37"/>
+      <c r="B152" s="53"/>
       <c r="C152" s="2" t="s">
         <v>182</v>
       </c>
@@ -5331,11 +5339,11 @@
       <c r="G152" s="2">
         <v>3000</v>
       </c>
-      <c r="K152" s="32"/>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A153" s="29"/>
-      <c r="B153" s="47"/>
+      <c r="K152" s="40"/>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A153" s="37"/>
+      <c r="B153" s="53"/>
       <c r="C153" s="2" t="s">
         <v>183</v>
       </c>
@@ -5351,11 +5359,11 @@
       <c r="G153" s="2">
         <v>3000</v>
       </c>
-      <c r="K153" s="32"/>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A154" s="29"/>
-      <c r="B154" s="47"/>
+      <c r="K153" s="40"/>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A154" s="37"/>
+      <c r="B154" s="53"/>
       <c r="C154" s="2" t="s">
         <v>184</v>
       </c>
@@ -5371,11 +5379,11 @@
       <c r="G154" s="2">
         <v>3000</v>
       </c>
-      <c r="K154" s="32"/>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A155" s="29"/>
-      <c r="B155" s="47"/>
+      <c r="K154" s="40"/>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A155" s="37"/>
+      <c r="B155" s="53"/>
       <c r="C155" s="2" t="s">
         <v>6</v>
       </c>
@@ -5391,11 +5399,11 @@
       <c r="G155" s="2">
         <v>20</v>
       </c>
-      <c r="K155" s="32"/>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A156" s="29"/>
-      <c r="B156" s="47"/>
+      <c r="K155" s="40"/>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A156" s="37"/>
+      <c r="B156" s="53"/>
       <c r="C156" s="2" t="s">
         <v>8</v>
       </c>
@@ -5411,11 +5419,11 @@
       <c r="G156" s="2">
         <v>20</v>
       </c>
-      <c r="K156" s="32"/>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A157" s="30"/>
-      <c r="B157" s="47"/>
+      <c r="K156" s="40"/>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A157" s="38"/>
+      <c r="B157" s="53"/>
       <c r="C157" s="2" t="s">
         <v>185</v>
       </c>
@@ -5428,13 +5436,13 @@
       <c r="F157" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="K157" s="33"/>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A158" s="28">
+      <c r="K157" s="41"/>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A158" s="36">
         <v>55</v>
       </c>
-      <c r="B158" s="41" t="s">
+      <c r="B158" s="52" t="s">
         <v>187</v>
       </c>
       <c r="C158" s="2" t="s">
@@ -5452,13 +5460,13 @@
       <c r="G158" s="2">
         <v>20</v>
       </c>
-      <c r="K158" s="31">
+      <c r="K158" s="39">
         <v>45546</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A159" s="29"/>
-      <c r="B159" s="41"/>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A159" s="37"/>
+      <c r="B159" s="52"/>
       <c r="C159" s="2" t="s">
         <v>8</v>
       </c>
@@ -5474,11 +5482,11 @@
       <c r="G159" s="2">
         <v>20</v>
       </c>
-      <c r="K159" s="32"/>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A160" s="30"/>
-      <c r="B160" s="41"/>
+      <c r="K159" s="40"/>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A160" s="38"/>
+      <c r="B160" s="52"/>
       <c r="C160" s="2" t="s">
         <v>70</v>
       </c>
@@ -5491,13 +5499,13 @@
       <c r="F160" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="K160" s="33"/>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A161" s="28">
+      <c r="K160" s="41"/>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A161" s="36">
         <v>56</v>
       </c>
-      <c r="B161" s="41" t="s">
+      <c r="B161" s="52" t="s">
         <v>188</v>
       </c>
       <c r="C161" s="2" t="s">
@@ -5515,13 +5523,13 @@
       <c r="G161" s="2">
         <v>20</v>
       </c>
-      <c r="K161" s="31">
+      <c r="K161" s="39">
         <v>45546</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A162" s="29"/>
-      <c r="B162" s="41"/>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A162" s="37"/>
+      <c r="B162" s="52"/>
       <c r="C162" s="2" t="s">
         <v>8</v>
       </c>
@@ -5537,11 +5545,11 @@
       <c r="G162" s="2">
         <v>20</v>
       </c>
-      <c r="K162" s="32"/>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A163" s="30"/>
-      <c r="B163" s="41"/>
+      <c r="K162" s="40"/>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A163" s="38"/>
+      <c r="B163" s="52"/>
       <c r="C163" s="2" t="s">
         <v>70</v>
       </c>
@@ -5554,13 +5562,13 @@
       <c r="F163" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="K163" s="33"/>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A164" s="28">
+      <c r="K163" s="41"/>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A164" s="36">
         <v>57</v>
       </c>
-      <c r="B164" s="41" t="s">
+      <c r="B164" s="52" t="s">
         <v>191</v>
       </c>
       <c r="C164" s="2" t="s">
@@ -5578,13 +5586,13 @@
       <c r="G164" s="2">
         <v>20</v>
       </c>
-      <c r="K164" s="31">
+      <c r="K164" s="39">
         <v>45546</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A165" s="29"/>
-      <c r="B165" s="41"/>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A165" s="37"/>
+      <c r="B165" s="52"/>
       <c r="C165" s="2" t="s">
         <v>189</v>
       </c>
@@ -5600,11 +5608,11 @@
       <c r="G165" s="2">
         <v>40</v>
       </c>
-      <c r="K165" s="32"/>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A166" s="30"/>
-      <c r="B166" s="41"/>
+      <c r="K165" s="40"/>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A166" s="38"/>
+      <c r="B166" s="52"/>
       <c r="C166" s="2" t="s">
         <v>190</v>
       </c>
@@ -5620,13 +5628,13 @@
       <c r="G166" s="2">
         <v>40</v>
       </c>
-      <c r="K166" s="33"/>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A167" s="28">
+      <c r="K166" s="41"/>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A167" s="36">
         <v>58</v>
       </c>
-      <c r="B167" s="41" t="s">
+      <c r="B167" s="52" t="s">
         <v>194</v>
       </c>
       <c r="C167" s="2" t="s">
@@ -5644,13 +5652,13 @@
       <c r="G167" s="2">
         <v>20</v>
       </c>
-      <c r="K167" s="31">
+      <c r="K167" s="39">
         <v>45546</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A168" s="29"/>
-      <c r="B168" s="41"/>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A168" s="37"/>
+      <c r="B168" s="52"/>
       <c r="C168" s="2" t="s">
         <v>192</v>
       </c>
@@ -5666,11 +5674,11 @@
       <c r="G168" s="2">
         <v>30</v>
       </c>
-      <c r="K168" s="32"/>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A169" s="30"/>
-      <c r="B169" s="41"/>
+      <c r="K168" s="40"/>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A169" s="38"/>
+      <c r="B169" s="52"/>
       <c r="C169" s="2" t="s">
         <v>193</v>
       </c>
@@ -5686,13 +5694,13 @@
       <c r="G169" s="2">
         <v>30</v>
       </c>
-      <c r="K169" s="33"/>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A170" s="28">
+      <c r="K169" s="41"/>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A170" s="36">
         <v>59</v>
       </c>
-      <c r="B170" s="41" t="s">
+      <c r="B170" s="52" t="s">
         <v>197</v>
       </c>
       <c r="C170" s="2" t="s">
@@ -5710,13 +5718,13 @@
       <c r="G170" s="2">
         <v>20</v>
       </c>
-      <c r="K170" s="31">
+      <c r="K170" s="39">
         <v>45546</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A171" s="29"/>
-      <c r="B171" s="41"/>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A171" s="37"/>
+      <c r="B171" s="52"/>
       <c r="C171" s="2" t="s">
         <v>195</v>
       </c>
@@ -5732,11 +5740,11 @@
       <c r="G171" s="2">
         <v>30</v>
       </c>
-      <c r="K171" s="32"/>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A172" s="30"/>
-      <c r="B172" s="41"/>
+      <c r="K171" s="40"/>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A172" s="38"/>
+      <c r="B172" s="52"/>
       <c r="C172" s="2" t="s">
         <v>196</v>
       </c>
@@ -5752,13 +5760,13 @@
       <c r="G172" s="2">
         <v>30</v>
       </c>
-      <c r="K172" s="33"/>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A173" s="28">
+      <c r="K172" s="41"/>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A173" s="36">
         <v>60</v>
       </c>
-      <c r="B173" s="41" t="s">
+      <c r="B173" s="52" t="s">
         <v>200</v>
       </c>
       <c r="C173" s="2" t="s">
@@ -5776,13 +5784,13 @@
       <c r="G173" s="2">
         <v>20</v>
       </c>
-      <c r="K173" s="31">
+      <c r="K173" s="39">
         <v>45546</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A174" s="29"/>
-      <c r="B174" s="41"/>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A174" s="37"/>
+      <c r="B174" s="52"/>
       <c r="C174" s="2" t="s">
         <v>198</v>
       </c>
@@ -5798,11 +5806,11 @@
       <c r="G174" s="2">
         <v>30</v>
       </c>
-      <c r="K174" s="32"/>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A175" s="30"/>
-      <c r="B175" s="41"/>
+      <c r="K174" s="40"/>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A175" s="38"/>
+      <c r="B175" s="52"/>
       <c r="C175" s="2" t="s">
         <v>199</v>
       </c>
@@ -5818,13 +5826,13 @@
       <c r="G175" s="2">
         <v>30</v>
       </c>
-      <c r="K175" s="33"/>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A176" s="28">
+      <c r="K175" s="41"/>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A176" s="36">
         <v>61</v>
       </c>
-      <c r="B176" s="41" t="s">
+      <c r="B176" s="52" t="s">
         <v>203</v>
       </c>
       <c r="C176" s="2" t="s">
@@ -5842,13 +5850,13 @@
       <c r="G176" s="2">
         <v>20</v>
       </c>
-      <c r="K176" s="31">
+      <c r="K176" s="39">
         <v>45546</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A177" s="29"/>
-      <c r="B177" s="41"/>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A177" s="37"/>
+      <c r="B177" s="52"/>
       <c r="C177" s="2" t="s">
         <v>201</v>
       </c>
@@ -5864,11 +5872,11 @@
       <c r="G177" s="2">
         <v>60</v>
       </c>
-      <c r="K177" s="32"/>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A178" s="30"/>
-      <c r="B178" s="41"/>
+      <c r="K177" s="40"/>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A178" s="38"/>
+      <c r="B178" s="52"/>
       <c r="C178" s="2" t="s">
         <v>202</v>
       </c>
@@ -5884,13 +5892,13 @@
       <c r="G178" s="2">
         <v>60</v>
       </c>
-      <c r="K178" s="33"/>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A179" s="28">
+      <c r="K178" s="41"/>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A179" s="36">
         <v>62</v>
       </c>
-      <c r="B179" s="41" t="s">
+      <c r="B179" s="52" t="s">
         <v>204</v>
       </c>
       <c r="C179" s="7" t="s">
@@ -5908,13 +5916,13 @@
       <c r="G179" s="7">
         <v>20</v>
       </c>
-      <c r="K179" s="31">
+      <c r="K179" s="39">
         <v>45546</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A180" s="29"/>
-      <c r="B180" s="41"/>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A180" s="37"/>
+      <c r="B180" s="52"/>
       <c r="C180" s="7" t="s">
         <v>201</v>
       </c>
@@ -5930,11 +5938,11 @@
       <c r="G180" s="7">
         <v>60</v>
       </c>
-      <c r="K180" s="32"/>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A181" s="30"/>
-      <c r="B181" s="41"/>
+      <c r="K180" s="40"/>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A181" s="38"/>
+      <c r="B181" s="52"/>
       <c r="C181" s="7" t="s">
         <v>202</v>
       </c>
@@ -5950,13 +5958,13 @@
       <c r="G181" s="7">
         <v>60</v>
       </c>
-      <c r="K181" s="33"/>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A182" s="28">
+      <c r="K181" s="41"/>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A182" s="36">
         <v>63</v>
       </c>
-      <c r="B182" s="43" t="s">
+      <c r="B182" s="33" t="s">
         <v>208</v>
       </c>
       <c r="C182" s="2" t="s">
@@ -5974,13 +5982,13 @@
       <c r="G182" s="2">
         <v>20</v>
       </c>
-      <c r="K182" s="31">
+      <c r="K182" s="39">
         <v>45546</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A183" s="29"/>
-      <c r="B183" s="48"/>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A183" s="37"/>
+      <c r="B183" s="34"/>
       <c r="C183" s="2" t="s">
         <v>205</v>
       </c>
@@ -5996,11 +6004,11 @@
       <c r="G183" s="2">
         <v>60</v>
       </c>
-      <c r="K183" s="32"/>
-    </row>
-    <row r="184" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="29"/>
-      <c r="B184" s="48"/>
+      <c r="K183" s="40"/>
+    </row>
+    <row r="184" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="37"/>
+      <c r="B184" s="34"/>
       <c r="C184" s="3" t="s">
         <v>206</v>
       </c>
@@ -6012,11 +6020,11 @@
       <c r="J184" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="K184" s="32"/>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A185" s="30"/>
-      <c r="B185" s="44"/>
+      <c r="K184" s="40"/>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A185" s="38"/>
+      <c r="B185" s="35"/>
       <c r="C185" s="2" t="s">
         <v>207</v>
       </c>
@@ -6026,13 +6034,13 @@
       <c r="J185" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K185" s="33"/>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A186" s="28">
+      <c r="K185" s="41"/>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A186" s="36">
         <v>64</v>
       </c>
-      <c r="B186" s="43" t="s">
+      <c r="B186" s="33" t="s">
         <v>210</v>
       </c>
       <c r="C186" s="2" t="s">
@@ -6050,13 +6058,13 @@
       <c r="G186" s="2">
         <v>6</v>
       </c>
-      <c r="K186" s="31">
+      <c r="K186" s="39">
         <v>45551</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A187" s="29"/>
-      <c r="B187" s="48"/>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A187" s="37"/>
+      <c r="B187" s="34"/>
       <c r="C187" s="2" t="s">
         <v>211</v>
       </c>
@@ -6072,11 +6080,11 @@
       <c r="G187" s="2">
         <v>6</v>
       </c>
-      <c r="K187" s="32"/>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A188" s="29"/>
-      <c r="B188" s="48"/>
+      <c r="K187" s="40"/>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A188" s="37"/>
+      <c r="B188" s="34"/>
       <c r="C188" s="2" t="s">
         <v>85</v>
       </c>
@@ -6092,11 +6100,11 @@
       <c r="G188" s="2">
         <v>20</v>
       </c>
-      <c r="K188" s="32"/>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A189" s="30"/>
-      <c r="B189" s="44"/>
+      <c r="K188" s="40"/>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A189" s="38"/>
+      <c r="B189" s="35"/>
       <c r="C189" s="2" t="s">
         <v>212</v>
       </c>
@@ -6112,13 +6120,13 @@
       <c r="G189" s="2">
         <v>20</v>
       </c>
-      <c r="K189" s="33"/>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A190" s="28">
+      <c r="K189" s="41"/>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A190" s="36">
         <v>65</v>
       </c>
-      <c r="B190" s="43" t="s">
+      <c r="B190" s="33" t="s">
         <v>215</v>
       </c>
       <c r="C190" s="2" t="s">
@@ -6136,13 +6144,13 @@
       <c r="G190" s="2">
         <v>20</v>
       </c>
-      <c r="K190" s="31">
+      <c r="K190" s="39">
         <v>45551</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A191" s="29"/>
-      <c r="B191" s="48"/>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A191" s="37"/>
+      <c r="B191" s="34"/>
       <c r="C191" s="2" t="s">
         <v>8</v>
       </c>
@@ -6158,11 +6166,11 @@
       <c r="G191" s="2">
         <v>20</v>
       </c>
-      <c r="K191" s="32"/>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A192" s="29"/>
-      <c r="B192" s="48"/>
+      <c r="K191" s="40"/>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A192" s="37"/>
+      <c r="B192" s="34"/>
       <c r="C192" s="2" t="s">
         <v>213</v>
       </c>
@@ -6178,11 +6186,11 @@
       <c r="G192" s="2">
         <v>20</v>
       </c>
-      <c r="K192" s="32"/>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A193" s="30"/>
-      <c r="B193" s="44"/>
+      <c r="K192" s="40"/>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A193" s="38"/>
+      <c r="B193" s="35"/>
       <c r="C193" s="2" t="s">
         <v>214</v>
       </c>
@@ -6198,13 +6206,13 @@
       <c r="G193" s="2">
         <v>20</v>
       </c>
-      <c r="K193" s="33"/>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A194" s="28">
+      <c r="K193" s="41"/>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A194" s="36">
         <v>66</v>
       </c>
-      <c r="B194" s="43" t="s">
+      <c r="B194" s="33" t="s">
         <v>218</v>
       </c>
       <c r="C194" s="2" t="s">
@@ -6222,13 +6230,13 @@
       <c r="G194" s="2">
         <v>20</v>
       </c>
-      <c r="K194" s="31">
+      <c r="K194" s="39">
         <v>45551</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A195" s="29"/>
-      <c r="B195" s="48"/>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A195" s="37"/>
+      <c r="B195" s="34"/>
       <c r="C195" s="2" t="s">
         <v>216</v>
       </c>
@@ -6244,11 +6252,11 @@
       <c r="G195" s="2">
         <v>20</v>
       </c>
-      <c r="K195" s="32"/>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A196" s="30"/>
-      <c r="B196" s="44"/>
+      <c r="K195" s="40"/>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A196" s="38"/>
+      <c r="B196" s="35"/>
       <c r="C196" s="2" t="s">
         <v>217</v>
       </c>
@@ -6264,10 +6272,10 @@
       <c r="G196" s="2">
         <v>20</v>
       </c>
-      <c r="K196" s="33"/>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A197" s="28">
+      <c r="K196" s="41"/>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A197" s="36">
         <v>67</v>
       </c>
       <c r="B197" s="49" t="s">
@@ -6282,12 +6290,12 @@
       <c r="F197" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K197" s="31">
+      <c r="K197" s="39">
         <v>45551</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A198" s="29"/>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A198" s="37"/>
       <c r="B198" s="50"/>
       <c r="C198" s="2" t="s">
         <v>175</v>
@@ -6304,10 +6312,10 @@
       <c r="G198" s="2">
         <v>3000</v>
       </c>
-      <c r="K198" s="32"/>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A199" s="29"/>
+      <c r="K198" s="40"/>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A199" s="37"/>
       <c r="B199" s="50"/>
       <c r="C199" s="2" t="s">
         <v>176</v>
@@ -6324,10 +6332,10 @@
       <c r="G199" s="2">
         <v>3000</v>
       </c>
-      <c r="K199" s="32"/>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A200" s="29"/>
+      <c r="K199" s="40"/>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A200" s="37"/>
       <c r="B200" s="50"/>
       <c r="C200" s="2" t="s">
         <v>177</v>
@@ -6344,10 +6352,10 @@
       <c r="G200" s="2">
         <v>3000</v>
       </c>
-      <c r="K200" s="32"/>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A201" s="29"/>
+      <c r="K200" s="40"/>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A201" s="37"/>
       <c r="B201" s="50"/>
       <c r="C201" s="2" t="s">
         <v>178</v>
@@ -6364,10 +6372,10 @@
       <c r="G201" s="2">
         <v>3000</v>
       </c>
-      <c r="K201" s="32"/>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A202" s="29"/>
+      <c r="K201" s="40"/>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A202" s="37"/>
       <c r="B202" s="50"/>
       <c r="C202" s="2" t="s">
         <v>179</v>
@@ -6384,10 +6392,10 @@
       <c r="G202" s="2">
         <v>3000</v>
       </c>
-      <c r="K202" s="32"/>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A203" s="29"/>
+      <c r="K202" s="40"/>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A203" s="37"/>
       <c r="B203" s="50"/>
       <c r="C203" s="2" t="s">
         <v>180</v>
@@ -6404,10 +6412,10 @@
       <c r="G203" s="2">
         <v>3000</v>
       </c>
-      <c r="K203" s="32"/>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A204" s="29"/>
+      <c r="K203" s="40"/>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A204" s="37"/>
       <c r="B204" s="50"/>
       <c r="C204" s="2" t="s">
         <v>181</v>
@@ -6424,10 +6432,10 @@
       <c r="G204" s="2">
         <v>3000</v>
       </c>
-      <c r="K204" s="32"/>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A205" s="29"/>
+      <c r="K204" s="40"/>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A205" s="37"/>
       <c r="B205" s="50"/>
       <c r="C205" s="2" t="s">
         <v>182</v>
@@ -6444,10 +6452,10 @@
       <c r="G205" s="2">
         <v>3000</v>
       </c>
-      <c r="K205" s="32"/>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A206" s="29"/>
+      <c r="K205" s="40"/>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A206" s="37"/>
       <c r="B206" s="50"/>
       <c r="C206" s="2" t="s">
         <v>183</v>
@@ -6464,10 +6472,10 @@
       <c r="G206" s="2">
         <v>3000</v>
       </c>
-      <c r="K206" s="32"/>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A207" s="29"/>
+      <c r="K206" s="40"/>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A207" s="37"/>
       <c r="B207" s="50"/>
       <c r="C207" s="2" t="s">
         <v>184</v>
@@ -6484,10 +6492,10 @@
       <c r="G207" s="2">
         <v>3000</v>
       </c>
-      <c r="K207" s="32"/>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A208" s="29"/>
+      <c r="K207" s="40"/>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A208" s="37"/>
       <c r="B208" s="50"/>
       <c r="C208" s="2" t="s">
         <v>6</v>
@@ -6504,10 +6512,10 @@
       <c r="G208" s="2">
         <v>20</v>
       </c>
-      <c r="K208" s="32"/>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A209" s="29"/>
+      <c r="K208" s="40"/>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A209" s="37"/>
       <c r="B209" s="50"/>
       <c r="C209" s="2" t="s">
         <v>8</v>
@@ -6524,10 +6532,10 @@
       <c r="G209" s="2">
         <v>20</v>
       </c>
-      <c r="K209" s="32"/>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A210" s="30"/>
+      <c r="K209" s="40"/>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A210" s="38"/>
       <c r="B210" s="51"/>
       <c r="C210" s="2" t="s">
         <v>185</v>
@@ -6541,13 +6549,13 @@
       <c r="F210" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="K210" s="33"/>
-    </row>
-    <row r="211" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A211" s="28">
+      <c r="K210" s="41"/>
+    </row>
+    <row r="211" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A211" s="36">
         <v>68</v>
       </c>
-      <c r="B211" s="43" t="s">
+      <c r="B211" s="33" t="s">
         <v>225</v>
       </c>
       <c r="C211" s="2" t="s">
@@ -6562,13 +6570,13 @@
       <c r="J211" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="K211" s="31">
+      <c r="K211" s="39">
         <v>45552</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A212" s="29"/>
-      <c r="B212" s="48"/>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A212" s="37"/>
+      <c r="B212" s="34"/>
       <c r="C212" s="2" t="s">
         <v>221</v>
       </c>
@@ -6581,11 +6589,11 @@
       <c r="F212" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="K212" s="32"/>
-    </row>
-    <row r="213" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A213" s="29"/>
-      <c r="B213" s="48"/>
+      <c r="K212" s="40"/>
+    </row>
+    <row r="213" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A213" s="37"/>
+      <c r="B213" s="34"/>
       <c r="C213" s="2" t="s">
         <v>222</v>
       </c>
@@ -6598,11 +6606,11 @@
       <c r="J213" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="K213" s="32"/>
-    </row>
-    <row r="214" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A214" s="29"/>
-      <c r="B214" s="48"/>
+      <c r="K213" s="40"/>
+    </row>
+    <row r="214" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A214" s="37"/>
+      <c r="B214" s="34"/>
       <c r="C214" s="2" t="s">
         <v>223</v>
       </c>
@@ -6621,11 +6629,11 @@
       <c r="J214" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="K214" s="32"/>
-    </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A215" s="29"/>
-      <c r="B215" s="48"/>
+      <c r="K214" s="40"/>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A215" s="37"/>
+      <c r="B215" s="34"/>
       <c r="C215" s="2" t="s">
         <v>5</v>
       </c>
@@ -6641,11 +6649,11 @@
       <c r="G215" s="2">
         <v>3000</v>
       </c>
-      <c r="K215" s="32"/>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A216" s="29"/>
-      <c r="B216" s="48"/>
+      <c r="K215" s="40"/>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A216" s="37"/>
+      <c r="B216" s="34"/>
       <c r="C216" s="2" t="s">
         <v>224</v>
       </c>
@@ -6661,11 +6669,11 @@
       <c r="G216" s="2">
         <v>5</v>
       </c>
-      <c r="K216" s="32"/>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A217" s="29"/>
-      <c r="B217" s="48"/>
+      <c r="K216" s="40"/>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A217" s="37"/>
+      <c r="B217" s="34"/>
       <c r="C217" s="2" t="s">
         <v>6</v>
       </c>
@@ -6681,11 +6689,11 @@
       <c r="G217" s="2">
         <v>20</v>
       </c>
-      <c r="K217" s="32"/>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A218" s="30"/>
-      <c r="B218" s="44"/>
+      <c r="K217" s="40"/>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A218" s="38"/>
+      <c r="B218" s="35"/>
       <c r="C218" s="2" t="s">
         <v>8</v>
       </c>
@@ -6701,13 +6709,13 @@
       <c r="G218" s="2">
         <v>20</v>
       </c>
-      <c r="K218" s="33"/>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A219" s="28">
+      <c r="K218" s="41"/>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A219" s="36">
         <v>69</v>
       </c>
-      <c r="B219" s="43" t="s">
+      <c r="B219" s="33" t="s">
         <v>231</v>
       </c>
       <c r="C219" s="2" t="s">
@@ -6725,13 +6733,13 @@
       <c r="G219" s="2">
         <v>15</v>
       </c>
-      <c r="K219" s="31">
+      <c r="K219" s="39">
         <v>45552</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A220" s="30"/>
-      <c r="B220" s="44"/>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A220" s="38"/>
+      <c r="B220" s="35"/>
       <c r="C220" s="2" t="s">
         <v>230</v>
       </c>
@@ -6747,13 +6755,13 @@
       <c r="G220" s="2">
         <v>15</v>
       </c>
-      <c r="K220" s="33"/>
-    </row>
-    <row r="221" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A221" s="28">
+      <c r="K220" s="41"/>
+    </row>
+    <row r="221" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A221" s="36">
         <v>70</v>
       </c>
-      <c r="B221" s="43" t="s">
+      <c r="B221" s="33" t="s">
         <v>243</v>
       </c>
       <c r="C221" s="2" t="s">
@@ -6771,13 +6779,13 @@
       <c r="J221" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="K221" s="31">
+      <c r="K221" s="39">
         <v>45552</v>
       </c>
     </row>
-    <row r="222" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A222" s="29"/>
-      <c r="B222" s="48"/>
+    <row r="222" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A222" s="37"/>
+      <c r="B222" s="34"/>
       <c r="C222" s="2" t="s">
         <v>233</v>
       </c>
@@ -6796,11 +6804,11 @@
       <c r="J222" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="K222" s="32"/>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A223" s="29"/>
-      <c r="B223" s="48"/>
+      <c r="K222" s="40"/>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A223" s="37"/>
+      <c r="B223" s="34"/>
       <c r="C223" s="2" t="s">
         <v>234</v>
       </c>
@@ -6816,11 +6824,11 @@
       <c r="G223" s="2">
         <v>250</v>
       </c>
-      <c r="K223" s="32"/>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A224" s="29"/>
-      <c r="B224" s="48"/>
+      <c r="K223" s="40"/>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A224" s="37"/>
+      <c r="B224" s="34"/>
       <c r="C224" s="2" t="s">
         <v>6</v>
       </c>
@@ -6836,11 +6844,11 @@
       <c r="G224" s="2">
         <v>50</v>
       </c>
-      <c r="K224" s="32"/>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A225" s="29"/>
-      <c r="B225" s="48"/>
+      <c r="K224" s="40"/>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A225" s="37"/>
+      <c r="B225" s="34"/>
       <c r="C225" s="2" t="s">
         <v>235</v>
       </c>
@@ -6856,11 +6864,11 @@
       <c r="G225" s="2">
         <v>20</v>
       </c>
-      <c r="K225" s="32"/>
-    </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A226" s="29"/>
-      <c r="B226" s="48"/>
+      <c r="K225" s="40"/>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A226" s="37"/>
+      <c r="B226" s="34"/>
       <c r="C226" s="2" t="s">
         <v>236</v>
       </c>
@@ -6876,11 +6884,11 @@
       <c r="G226" s="2">
         <v>20</v>
       </c>
-      <c r="K226" s="32"/>
-    </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A227" s="29"/>
-      <c r="B227" s="48"/>
+      <c r="K226" s="40"/>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A227" s="37"/>
+      <c r="B227" s="34"/>
       <c r="C227" s="2" t="s">
         <v>237</v>
       </c>
@@ -6896,11 +6904,11 @@
       <c r="G227" s="2">
         <v>20</v>
       </c>
-      <c r="K227" s="32"/>
-    </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A228" s="29"/>
-      <c r="B228" s="48"/>
+      <c r="K227" s="40"/>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A228" s="37"/>
+      <c r="B228" s="34"/>
       <c r="C228" s="2" t="s">
         <v>238</v>
       </c>
@@ -6916,11 +6924,11 @@
       <c r="G228" s="2">
         <v>20</v>
       </c>
-      <c r="K228" s="32"/>
-    </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A229" s="29"/>
-      <c r="B229" s="48"/>
+      <c r="K228" s="40"/>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A229" s="37"/>
+      <c r="B229" s="34"/>
       <c r="C229" s="2" t="s">
         <v>239</v>
       </c>
@@ -6936,11 +6944,11 @@
       <c r="G229" s="2">
         <v>100</v>
       </c>
-      <c r="K229" s="32"/>
-    </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A230" s="29"/>
-      <c r="B230" s="48"/>
+      <c r="K229" s="40"/>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A230" s="37"/>
+      <c r="B230" s="34"/>
       <c r="C230" s="2" t="s">
         <v>240</v>
       </c>
@@ -6956,11 +6964,11 @@
       <c r="G230" s="2">
         <v>100</v>
       </c>
-      <c r="K230" s="32"/>
-    </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A231" s="29"/>
-      <c r="B231" s="48"/>
+      <c r="K230" s="40"/>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A231" s="37"/>
+      <c r="B231" s="34"/>
       <c r="C231" s="2" t="s">
         <v>241</v>
       </c>
@@ -6976,11 +6984,11 @@
       <c r="G231" s="2">
         <v>100</v>
       </c>
-      <c r="K231" s="32"/>
-    </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A232" s="30"/>
-      <c r="B232" s="44"/>
+      <c r="K231" s="40"/>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A232" s="38"/>
+      <c r="B232" s="35"/>
       <c r="C232" s="2" t="s">
         <v>242</v>
       </c>
@@ -6996,13 +7004,13 @@
       <c r="G232" s="2">
         <v>100</v>
       </c>
-      <c r="K232" s="33"/>
-    </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A233" s="28">
+      <c r="K232" s="41"/>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A233" s="36">
         <v>71</v>
       </c>
-      <c r="B233" s="43" t="s">
+      <c r="B233" s="33" t="s">
         <v>249</v>
       </c>
       <c r="C233" s="2" t="s">
@@ -7020,13 +7028,13 @@
       <c r="G233" s="2">
         <v>20</v>
       </c>
-      <c r="K233" s="31">
+      <c r="K233" s="39">
         <v>45552</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A234" s="29"/>
-      <c r="B234" s="48"/>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A234" s="37"/>
+      <c r="B234" s="34"/>
       <c r="C234" s="2" t="s">
         <v>8</v>
       </c>
@@ -7042,11 +7050,11 @@
       <c r="G234" s="2">
         <v>30</v>
       </c>
-      <c r="K234" s="32"/>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A235" s="29"/>
-      <c r="B235" s="48"/>
+      <c r="K234" s="40"/>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A235" s="37"/>
+      <c r="B235" s="34"/>
       <c r="C235" s="2" t="s">
         <v>246</v>
       </c>
@@ -7062,11 +7070,11 @@
       <c r="G235" s="2">
         <v>50</v>
       </c>
-      <c r="K235" s="32"/>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A236" s="29"/>
-      <c r="B236" s="48"/>
+      <c r="K235" s="40"/>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A236" s="37"/>
+      <c r="B236" s="34"/>
       <c r="C236" s="2" t="s">
         <v>247</v>
       </c>
@@ -7082,11 +7090,11 @@
       <c r="G236" s="2">
         <v>60</v>
       </c>
-      <c r="K236" s="32"/>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A237" s="30"/>
-      <c r="B237" s="44"/>
+      <c r="K236" s="40"/>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A237" s="38"/>
+      <c r="B237" s="35"/>
       <c r="C237" s="2" t="s">
         <v>248</v>
       </c>
@@ -7102,13 +7110,13 @@
       <c r="G237" s="2">
         <v>3</v>
       </c>
-      <c r="K237" s="33"/>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A238" s="28">
+      <c r="K237" s="41"/>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A238" s="36">
         <v>72</v>
       </c>
-      <c r="B238" s="43" t="s">
+      <c r="B238" s="33" t="s">
         <v>251</v>
       </c>
       <c r="C238" s="2" t="s">
@@ -7126,13 +7134,13 @@
       <c r="G238" s="2">
         <v>20</v>
       </c>
-      <c r="K238" s="31">
+      <c r="K238" s="39">
         <v>45552</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A239" s="30"/>
-      <c r="B239" s="44"/>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A239" s="38"/>
+      <c r="B239" s="35"/>
       <c r="C239" s="2" t="s">
         <v>250</v>
       </c>
@@ -7148,13 +7156,13 @@
       <c r="G239" s="2">
         <v>50</v>
       </c>
-      <c r="K239" s="33"/>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A240" s="28">
+      <c r="K239" s="41"/>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A240" s="36">
         <v>73</v>
       </c>
-      <c r="B240" s="43" t="s">
+      <c r="B240" s="33" t="s">
         <v>252</v>
       </c>
       <c r="C240" s="2" t="s">
@@ -7172,13 +7180,13 @@
       <c r="G240" s="2">
         <v>20</v>
       </c>
-      <c r="K240" s="35">
+      <c r="K240" s="55">
         <v>45552</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A241" s="30"/>
-      <c r="B241" s="44"/>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A241" s="38"/>
+      <c r="B241" s="35"/>
       <c r="C241" s="2" t="s">
         <v>8</v>
       </c>
@@ -7194,13 +7202,13 @@
       <c r="G241" s="2">
         <v>20</v>
       </c>
-      <c r="K241" s="36"/>
-    </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A242" s="28">
+      <c r="K241" s="56"/>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A242" s="36">
         <v>74</v>
       </c>
-      <c r="B242" s="43" t="s">
+      <c r="B242" s="33" t="s">
         <v>17</v>
       </c>
       <c r="C242" s="2" t="s">
@@ -7218,13 +7226,13 @@
       <c r="G242" s="2">
         <v>50</v>
       </c>
-      <c r="K242" s="31">
+      <c r="K242" s="39">
         <v>45552</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A243" s="29"/>
-      <c r="B243" s="48"/>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A243" s="37"/>
+      <c r="B243" s="34"/>
       <c r="C243" s="2" t="s">
         <v>6</v>
       </c>
@@ -7240,11 +7248,11 @@
       <c r="G243" s="2">
         <v>20</v>
       </c>
-      <c r="K243" s="32"/>
-    </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A244" s="29"/>
-      <c r="B244" s="48"/>
+      <c r="K243" s="40"/>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A244" s="37"/>
+      <c r="B244" s="34"/>
       <c r="C244" s="2" t="s">
         <v>8</v>
       </c>
@@ -7260,11 +7268,11 @@
       <c r="G244" s="2">
         <v>20</v>
       </c>
-      <c r="K244" s="32"/>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A245" s="29"/>
-      <c r="B245" s="48"/>
+      <c r="K244" s="40"/>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A245" s="37"/>
+      <c r="B245" s="34"/>
       <c r="C245" s="2" t="s">
         <v>12</v>
       </c>
@@ -7280,11 +7288,11 @@
       <c r="G245" s="2">
         <v>80</v>
       </c>
-      <c r="K245" s="32"/>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A246" s="30"/>
-      <c r="B246" s="44"/>
+      <c r="K245" s="40"/>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A246" s="38"/>
+      <c r="B246" s="35"/>
       <c r="C246" s="2" t="s">
         <v>11</v>
       </c>
@@ -7300,13 +7308,13 @@
       <c r="G246" s="2">
         <v>11</v>
       </c>
-      <c r="K246" s="33"/>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A247" s="28">
+      <c r="K246" s="41"/>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A247" s="36">
         <v>75</v>
       </c>
-      <c r="B247" s="43" t="s">
+      <c r="B247" s="33" t="s">
         <v>18</v>
       </c>
       <c r="C247" s="2" t="s">
@@ -7324,13 +7332,13 @@
       <c r="G247" s="2">
         <v>50</v>
       </c>
-      <c r="K247" s="31">
+      <c r="K247" s="39">
         <v>45552</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A248" s="29"/>
-      <c r="B248" s="48"/>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A248" s="37"/>
+      <c r="B248" s="34"/>
       <c r="C248" s="2" t="s">
         <v>6</v>
       </c>
@@ -7346,11 +7354,11 @@
       <c r="G248" s="2">
         <v>20</v>
       </c>
-      <c r="K248" s="32"/>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A249" s="29"/>
-      <c r="B249" s="48"/>
+      <c r="K248" s="40"/>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A249" s="37"/>
+      <c r="B249" s="34"/>
       <c r="C249" s="2" t="s">
         <v>8</v>
       </c>
@@ -7366,11 +7374,11 @@
       <c r="G249" s="2">
         <v>20</v>
       </c>
-      <c r="K249" s="32"/>
-    </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A250" s="29"/>
-      <c r="B250" s="48"/>
+      <c r="K249" s="40"/>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A250" s="37"/>
+      <c r="B250" s="34"/>
       <c r="C250" s="2" t="s">
         <v>12</v>
       </c>
@@ -7386,11 +7394,11 @@
       <c r="G250" s="2">
         <v>80</v>
       </c>
-      <c r="K250" s="32"/>
-    </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A251" s="30"/>
-      <c r="B251" s="44"/>
+      <c r="K250" s="40"/>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A251" s="38"/>
+      <c r="B251" s="35"/>
       <c r="C251" s="2" t="s">
         <v>11</v>
       </c>
@@ -7406,13 +7414,13 @@
       <c r="G251" s="2">
         <v>11</v>
       </c>
-      <c r="K251" s="33"/>
-    </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A252" s="28">
+      <c r="K251" s="41"/>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A252" s="36">
         <v>76</v>
       </c>
-      <c r="B252" s="43" t="s">
+      <c r="B252" s="33" t="s">
         <v>22</v>
       </c>
       <c r="C252" s="2" t="s">
@@ -7433,13 +7441,13 @@
       <c r="J252" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="K252" s="31">
+      <c r="K252" s="39">
         <v>45552</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A253" s="29"/>
-      <c r="B253" s="48"/>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A253" s="37"/>
+      <c r="B253" s="34"/>
       <c r="C253" s="2" t="s">
         <v>6</v>
       </c>
@@ -7455,11 +7463,11 @@
       <c r="G253" s="2">
         <v>20</v>
       </c>
-      <c r="K253" s="32"/>
-    </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A254" s="29"/>
-      <c r="B254" s="48"/>
+      <c r="K253" s="40"/>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A254" s="37"/>
+      <c r="B254" s="34"/>
       <c r="C254" s="2" t="s">
         <v>8</v>
       </c>
@@ -7475,11 +7483,11 @@
       <c r="G254" s="2">
         <v>20</v>
       </c>
-      <c r="K254" s="32"/>
-    </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A255" s="29"/>
-      <c r="B255" s="48"/>
+      <c r="K254" s="40"/>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A255" s="37"/>
+      <c r="B255" s="34"/>
       <c r="C255" s="2" t="s">
         <v>20</v>
       </c>
@@ -7493,11 +7501,11 @@
         <v>117</v>
       </c>
       <c r="G255"/>
-      <c r="K255" s="32"/>
-    </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A256" s="30"/>
-      <c r="B256" s="44"/>
+      <c r="K255" s="40"/>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A256" s="38"/>
+      <c r="B256" s="35"/>
       <c r="C256" s="2" t="s">
         <v>11</v>
       </c>
@@ -7513,13 +7521,13 @@
       <c r="G256" s="2">
         <v>11</v>
       </c>
-      <c r="K256" s="33"/>
-    </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A257" s="28">
+      <c r="K256" s="41"/>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A257" s="36">
         <v>77</v>
       </c>
-      <c r="B257" s="43" t="s">
+      <c r="B257" s="33" t="s">
         <v>254</v>
       </c>
       <c r="C257" s="2" t="s">
@@ -7537,13 +7545,13 @@
       <c r="G257" s="2">
         <v>20</v>
       </c>
-      <c r="K257" s="31">
+      <c r="K257" s="39">
         <v>45552</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A258" s="30"/>
-      <c r="B258" s="44"/>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A258" s="38"/>
+      <c r="B258" s="35"/>
       <c r="C258" s="2" t="s">
         <v>99</v>
       </c>
@@ -7559,13 +7567,13 @@
       <c r="G258" s="2">
         <v>20</v>
       </c>
-      <c r="K258" s="33"/>
-    </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A259" s="28">
+      <c r="K258" s="41"/>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A259" s="36">
         <v>78</v>
       </c>
-      <c r="B259" s="43" t="s">
+      <c r="B259" s="33" t="s">
         <v>256</v>
       </c>
       <c r="C259" s="2" t="s">
@@ -7583,13 +7591,13 @@
       <c r="G259" s="2">
         <v>60</v>
       </c>
-      <c r="K259" s="31">
+      <c r="K259" s="39">
         <v>45552</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A260" s="29"/>
-      <c r="B260" s="48"/>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A260" s="37"/>
+      <c r="B260" s="34"/>
       <c r="C260" s="2" t="s">
         <v>6</v>
       </c>
@@ -7605,11 +7613,11 @@
       <c r="G260" s="2">
         <v>20</v>
       </c>
-      <c r="K260" s="32"/>
-    </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A261" s="30"/>
-      <c r="B261" s="44"/>
+      <c r="K260" s="40"/>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A261" s="38"/>
+      <c r="B261" s="35"/>
       <c r="C261" s="2" t="s">
         <v>8</v>
       </c>
@@ -7625,13 +7633,13 @@
       <c r="G261" s="2">
         <v>20</v>
       </c>
-      <c r="K261" s="33"/>
-    </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A262" s="28">
+      <c r="K261" s="41"/>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A262" s="36">
         <v>79</v>
       </c>
-      <c r="B262" s="43" t="s">
+      <c r="B262" s="33" t="s">
         <v>39</v>
       </c>
       <c r="C262" s="7" t="s">
@@ -7650,13 +7658,13 @@
         <v>20</v>
       </c>
       <c r="H262" s="10"/>
-      <c r="K262" s="31">
+      <c r="K262" s="39">
         <v>45553</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A263" s="29"/>
-      <c r="B263" s="48"/>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A263" s="37"/>
+      <c r="B263" s="34"/>
       <c r="C263" s="11" t="s">
         <v>8</v>
       </c>
@@ -7673,11 +7681,11 @@
         <v>20</v>
       </c>
       <c r="H263" s="12"/>
-      <c r="K263" s="32"/>
-    </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A264" s="29"/>
-      <c r="B264" s="48"/>
+      <c r="K263" s="40"/>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A264" s="37"/>
+      <c r="B264" s="34"/>
       <c r="C264" s="11" t="s">
         <v>37</v>
       </c>
@@ -7694,11 +7702,11 @@
         <v>10</v>
       </c>
       <c r="H264" s="12"/>
-      <c r="K264" s="32"/>
-    </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A265" s="29"/>
-      <c r="B265" s="48"/>
+      <c r="K264" s="40"/>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A265" s="37"/>
+      <c r="B265" s="34"/>
       <c r="C265" s="11" t="s">
         <v>38</v>
       </c>
@@ -7715,11 +7723,11 @@
         <v>11</v>
       </c>
       <c r="H265" s="12"/>
-      <c r="K265" s="32"/>
-    </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A266" s="29"/>
-      <c r="B266" s="48"/>
+      <c r="K265" s="40"/>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A266" s="37"/>
+      <c r="B266" s="34"/>
       <c r="C266" s="11" t="s">
         <v>9</v>
       </c>
@@ -7736,11 +7744,11 @@
         <v>50</v>
       </c>
       <c r="H266" s="12"/>
-      <c r="K266" s="32"/>
-    </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A267" s="30"/>
-      <c r="B267" s="44"/>
+      <c r="K266" s="40"/>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A267" s="38"/>
+      <c r="B267" s="35"/>
       <c r="C267" s="11" t="s">
         <v>36</v>
       </c>
@@ -7755,13 +7763,13 @@
       </c>
       <c r="G267" s="12"/>
       <c r="H267" s="12"/>
-      <c r="K267" s="33"/>
-    </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A268" s="28">
+      <c r="K267" s="41"/>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A268" s="36">
         <v>80</v>
       </c>
-      <c r="B268" s="43" t="s">
+      <c r="B268" s="33" t="s">
         <v>260</v>
       </c>
       <c r="C268" s="2" t="s">
@@ -7780,13 +7788,13 @@
         <v>20</v>
       </c>
       <c r="H268" s="3"/>
-      <c r="K268" s="31">
+      <c r="K268" s="39">
         <v>45553</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A269" s="29"/>
-      <c r="B269" s="48"/>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A269" s="37"/>
+      <c r="B269" s="34"/>
       <c r="C269" s="2" t="s">
         <v>8</v>
       </c>
@@ -7802,11 +7810,11 @@
       <c r="G269" s="2">
         <v>20</v>
       </c>
-      <c r="K269" s="32"/>
-    </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A270" s="29"/>
-      <c r="B270" s="48"/>
+      <c r="K269" s="40"/>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A270" s="37"/>
+      <c r="B270" s="34"/>
       <c r="C270" s="2" t="s">
         <v>257</v>
       </c>
@@ -7822,11 +7830,11 @@
       <c r="G270" s="2">
         <v>50</v>
       </c>
-      <c r="K270" s="32"/>
-    </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A271" s="29"/>
-      <c r="B271" s="48"/>
+      <c r="K270" s="40"/>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A271" s="37"/>
+      <c r="B271" s="34"/>
       <c r="C271" s="2" t="s">
         <v>258</v>
       </c>
@@ -7842,11 +7850,11 @@
       <c r="G271" s="2">
         <v>50</v>
       </c>
-      <c r="K271" s="32"/>
-    </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A272" s="30"/>
-      <c r="B272" s="44"/>
+      <c r="K271" s="40"/>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A272" s="38"/>
+      <c r="B272" s="35"/>
       <c r="C272" s="2" t="s">
         <v>259</v>
       </c>
@@ -7862,13 +7870,13 @@
       <c r="G272" s="2">
         <v>2</v>
       </c>
-      <c r="K272" s="33"/>
-    </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A273" s="28">
+      <c r="K272" s="41"/>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A273" s="36">
         <v>81</v>
       </c>
-      <c r="B273" s="43" t="s">
+      <c r="B273" s="33" t="s">
         <v>264</v>
       </c>
       <c r="C273" s="2" t="s">
@@ -7887,13 +7895,13 @@
         <v>20</v>
       </c>
       <c r="H273" s="3"/>
-      <c r="K273" s="31">
+      <c r="K273" s="39">
         <v>45553</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A274" s="29"/>
-      <c r="B274" s="48"/>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A274" s="37"/>
+      <c r="B274" s="34"/>
       <c r="C274" s="2" t="s">
         <v>8</v>
       </c>
@@ -7909,11 +7917,11 @@
       <c r="G274" s="2">
         <v>20</v>
       </c>
-      <c r="K274" s="32"/>
-    </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A275" s="29"/>
-      <c r="B275" s="48"/>
+      <c r="K274" s="40"/>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A275" s="37"/>
+      <c r="B275" s="34"/>
       <c r="C275" s="2" t="s">
         <v>261</v>
       </c>
@@ -7929,11 +7937,11 @@
       <c r="G275" s="2">
         <v>100</v>
       </c>
-      <c r="K275" s="32"/>
-    </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A276" s="29"/>
-      <c r="B276" s="48"/>
+      <c r="K275" s="40"/>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A276" s="37"/>
+      <c r="B276" s="34"/>
       <c r="C276" s="2" t="s">
         <v>262</v>
       </c>
@@ -7949,11 +7957,11 @@
       <c r="G276" s="2">
         <v>100</v>
       </c>
-      <c r="K276" s="33"/>
-    </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A277" s="30"/>
-      <c r="B277" s="44"/>
+      <c r="K276" s="41"/>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A277" s="38"/>
+      <c r="B277" s="35"/>
       <c r="C277" s="2" t="s">
         <v>263</v>
       </c>
@@ -7969,15 +7977,15 @@
       <c r="G277" s="2">
         <v>2</v>
       </c>
-      <c r="K277" s="31">
+      <c r="K277" s="39">
         <v>45553</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A278" s="28">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A278" s="36">
         <v>82</v>
       </c>
-      <c r="B278" s="43" t="s">
+      <c r="B278" s="33" t="s">
         <v>268</v>
       </c>
       <c r="C278" s="2" t="s">
@@ -7995,11 +8003,11 @@
       <c r="G278" s="2">
         <v>20</v>
       </c>
-      <c r="K278" s="32"/>
-    </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A279" s="29"/>
-      <c r="B279" s="48"/>
+      <c r="K278" s="40"/>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A279" s="37"/>
+      <c r="B279" s="34"/>
       <c r="C279" s="2" t="s">
         <v>8</v>
       </c>
@@ -8015,11 +8023,11 @@
       <c r="G279" s="2">
         <v>20</v>
       </c>
-      <c r="K279" s="32"/>
-    </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A280" s="29"/>
-      <c r="B280" s="48"/>
+      <c r="K279" s="40"/>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A280" s="37"/>
+      <c r="B280" s="34"/>
       <c r="C280" s="2" t="s">
         <v>266</v>
       </c>
@@ -8035,11 +8043,11 @@
       <c r="G280" s="2">
         <v>50</v>
       </c>
-      <c r="K280" s="32"/>
-    </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A281" s="30"/>
-      <c r="B281" s="44"/>
+      <c r="K280" s="40"/>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A281" s="38"/>
+      <c r="B281" s="35"/>
       <c r="C281" s="2" t="s">
         <v>267</v>
       </c>
@@ -8055,13 +8063,13 @@
       <c r="G281" s="2">
         <v>50</v>
       </c>
-      <c r="K281" s="33"/>
-    </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A282" s="28">
+      <c r="K281" s="41"/>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A282" s="36">
         <v>83</v>
       </c>
-      <c r="B282" s="43" t="s">
+      <c r="B282" s="33" t="s">
         <v>276</v>
       </c>
       <c r="C282" s="2" t="s">
@@ -8080,13 +8088,13 @@
         <v>20</v>
       </c>
       <c r="H282" s="3"/>
-      <c r="K282" s="31">
+      <c r="K282" s="39">
         <v>45553</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A283" s="29"/>
-      <c r="B283" s="48"/>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A283" s="37"/>
+      <c r="B283" s="34"/>
       <c r="C283" s="2" t="s">
         <v>8</v>
       </c>
@@ -8102,11 +8110,11 @@
       <c r="G283" s="2">
         <v>20</v>
       </c>
-      <c r="K283" s="32"/>
-    </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A284" s="29"/>
-      <c r="B284" s="48"/>
+      <c r="K283" s="40"/>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A284" s="37"/>
+      <c r="B284" s="34"/>
       <c r="C284" s="2" t="s">
         <v>269</v>
       </c>
@@ -8119,11 +8127,11 @@
       <c r="F284" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="K284" s="32"/>
-    </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A285" s="29"/>
-      <c r="B285" s="48"/>
+      <c r="K284" s="40"/>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A285" s="37"/>
+      <c r="B285" s="34"/>
       <c r="C285" s="2" t="s">
         <v>270</v>
       </c>
@@ -8136,11 +8144,11 @@
       <c r="F285" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="K285" s="32"/>
-    </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A286" s="29"/>
-      <c r="B286" s="48"/>
+      <c r="K285" s="40"/>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A286" s="37"/>
+      <c r="B286" s="34"/>
       <c r="C286" s="2" t="s">
         <v>271</v>
       </c>
@@ -8156,11 +8164,11 @@
       <c r="G286" s="2">
         <v>3</v>
       </c>
-      <c r="K286" s="32"/>
-    </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A287" s="29"/>
-      <c r="B287" s="48"/>
+      <c r="K286" s="40"/>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A287" s="37"/>
+      <c r="B287" s="34"/>
       <c r="C287" s="2" t="s">
         <v>272</v>
       </c>
@@ -8176,11 +8184,11 @@
       <c r="G287" s="2">
         <v>3</v>
       </c>
-      <c r="K287" s="32"/>
-    </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A288" s="29"/>
-      <c r="B288" s="48"/>
+      <c r="K287" s="40"/>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A288" s="37"/>
+      <c r="B288" s="34"/>
       <c r="C288" s="2" t="s">
         <v>273</v>
       </c>
@@ -8193,11 +8201,11 @@
       <c r="F288" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K288" s="32"/>
-    </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A289" s="29"/>
-      <c r="B289" s="48"/>
+      <c r="K288" s="40"/>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A289" s="37"/>
+      <c r="B289" s="34"/>
       <c r="C289" s="2" t="s">
         <v>274</v>
       </c>
@@ -8210,11 +8218,11 @@
       <c r="F289" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="K289" s="32"/>
-    </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A290" s="30"/>
-      <c r="B290" s="44"/>
+      <c r="K289" s="40"/>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A290" s="38"/>
+      <c r="B290" s="35"/>
       <c r="C290" s="2" t="s">
         <v>275</v>
       </c>
@@ -8230,13 +8238,13 @@
       <c r="G290" s="2">
         <v>20</v>
       </c>
-      <c r="K290" s="33"/>
-    </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A291" s="28">
+      <c r="K290" s="41"/>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A291" s="36">
         <v>84</v>
       </c>
-      <c r="B291" s="43" t="s">
+      <c r="B291" s="33" t="s">
         <v>288</v>
       </c>
       <c r="C291" s="2" t="s">
@@ -8254,13 +8262,13 @@
       <c r="G291" s="2">
         <v>0</v>
       </c>
-      <c r="K291" s="31">
+      <c r="K291" s="39">
         <v>45553</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A292" s="29"/>
-      <c r="B292" s="48"/>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A292" s="37"/>
+      <c r="B292" s="34"/>
       <c r="C292" s="2" t="s">
         <v>278</v>
       </c>
@@ -8276,11 +8284,11 @@
       <c r="G292" s="2">
         <v>8</v>
       </c>
-      <c r="K292" s="32"/>
-    </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A293" s="29"/>
-      <c r="B293" s="48"/>
+      <c r="K292" s="40"/>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A293" s="37"/>
+      <c r="B293" s="34"/>
       <c r="C293" s="2" t="s">
         <v>279</v>
       </c>
@@ -8296,11 +8304,11 @@
       <c r="G293" s="2">
         <v>50</v>
       </c>
-      <c r="K293" s="32"/>
-    </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A294" s="29"/>
-      <c r="B294" s="48"/>
+      <c r="K293" s="40"/>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A294" s="37"/>
+      <c r="B294" s="34"/>
       <c r="C294" s="2" t="s">
         <v>280</v>
       </c>
@@ -8316,11 +8324,11 @@
       <c r="G294" s="2">
         <v>50</v>
       </c>
-      <c r="K294" s="32"/>
-    </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A295" s="29"/>
-      <c r="B295" s="48"/>
+      <c r="K294" s="40"/>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A295" s="37"/>
+      <c r="B295" s="34"/>
       <c r="C295" s="2" t="s">
         <v>281</v>
       </c>
@@ -8336,11 +8344,11 @@
       <c r="G295" s="2">
         <v>10</v>
       </c>
-      <c r="K295" s="32"/>
-    </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A296" s="29"/>
-      <c r="B296" s="48"/>
+      <c r="K295" s="40"/>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A296" s="37"/>
+      <c r="B296" s="34"/>
       <c r="C296" s="2" t="s">
         <v>282</v>
       </c>
@@ -8356,11 +8364,11 @@
       <c r="G296" s="2">
         <v>150</v>
       </c>
-      <c r="K296" s="32"/>
-    </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A297" s="29"/>
-      <c r="B297" s="48"/>
+      <c r="K296" s="40"/>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A297" s="37"/>
+      <c r="B297" s="34"/>
       <c r="C297" s="2" t="s">
         <v>283</v>
       </c>
@@ -8376,11 +8384,11 @@
       <c r="G297" s="2">
         <v>100</v>
       </c>
-      <c r="K297" s="32"/>
-    </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A298" s="29"/>
-      <c r="B298" s="48"/>
+      <c r="K297" s="40"/>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A298" s="37"/>
+      <c r="B298" s="34"/>
       <c r="C298" s="2" t="s">
         <v>6</v>
       </c>
@@ -8396,11 +8404,11 @@
       <c r="G298" s="2">
         <v>20</v>
       </c>
-      <c r="K298" s="32"/>
-    </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A299" s="29"/>
-      <c r="B299" s="48"/>
+      <c r="K298" s="40"/>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A299" s="37"/>
+      <c r="B299" s="34"/>
       <c r="C299" s="2" t="s">
         <v>8</v>
       </c>
@@ -8416,11 +8424,11 @@
       <c r="G299" s="2">
         <v>20</v>
       </c>
-      <c r="K299" s="32"/>
-    </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A300" s="29"/>
-      <c r="B300" s="48"/>
+      <c r="K299" s="40"/>
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A300" s="37"/>
+      <c r="B300" s="34"/>
       <c r="C300" s="2" t="s">
         <v>284</v>
       </c>
@@ -8439,11 +8447,11 @@
       <c r="J300" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="K300" s="32"/>
-    </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A301" s="29"/>
-      <c r="B301" s="48"/>
+      <c r="K300" s="40"/>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A301" s="37"/>
+      <c r="B301" s="34"/>
       <c r="C301" s="2" t="s">
         <v>285</v>
       </c>
@@ -8459,11 +8467,11 @@
       <c r="G301" s="2">
         <v>50</v>
       </c>
-      <c r="K301" s="32"/>
-    </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A302" s="30"/>
-      <c r="B302" s="44"/>
+      <c r="K301" s="40"/>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A302" s="38"/>
+      <c r="B302" s="35"/>
       <c r="C302" s="2" t="s">
         <v>286</v>
       </c>
@@ -8479,13 +8487,13 @@
       <c r="G302" s="2">
         <v>150</v>
       </c>
-      <c r="K302" s="33"/>
-    </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A303" s="28">
+      <c r="K302" s="41"/>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A303" s="36">
         <v>85</v>
       </c>
-      <c r="B303" s="43" t="s">
+      <c r="B303" s="33" t="s">
         <v>291</v>
       </c>
       <c r="C303" s="2" t="s">
@@ -8504,13 +8512,13 @@
         <v>20</v>
       </c>
       <c r="H303" s="3"/>
-      <c r="K303" s="31">
+      <c r="K303" s="39">
         <v>45553</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A304" s="29"/>
-      <c r="B304" s="48"/>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A304" s="37"/>
+      <c r="B304" s="34"/>
       <c r="C304" s="2" t="s">
         <v>289</v>
       </c>
@@ -8526,11 +8534,11 @@
       <c r="G304" s="2">
         <v>20</v>
       </c>
-      <c r="K304" s="32"/>
-    </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A305" s="29"/>
-      <c r="B305" s="48"/>
+      <c r="K304" s="40"/>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A305" s="37"/>
+      <c r="B305" s="34"/>
       <c r="C305" s="2" t="s">
         <v>290</v>
       </c>
@@ -8541,11 +8549,11 @@
       <c r="F305" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K305" s="32"/>
-    </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A306" s="30"/>
-      <c r="B306" s="44"/>
+      <c r="K305" s="40"/>
+    </row>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A306" s="38"/>
+      <c r="B306" s="35"/>
       <c r="C306" s="2" t="s">
         <v>274</v>
       </c>
@@ -8558,10 +8566,10 @@
       <c r="F306" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="K306" s="33"/>
-    </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A307" s="28">
+      <c r="K306" s="41"/>
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A307" s="36">
         <v>86</v>
       </c>
       <c r="B307" s="49" t="s">
@@ -8577,12 +8585,12 @@
       <c r="F307" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K307" s="31">
+      <c r="K307" s="39">
         <v>45553</v>
       </c>
     </row>
-    <row r="308" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A308" s="29"/>
+    <row r="308" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A308" s="37"/>
       <c r="B308" s="50"/>
       <c r="C308" s="2" t="s">
         <v>292</v>
@@ -8596,10 +8604,10 @@
       <c r="J308" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="K308" s="32"/>
-    </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A309" s="29"/>
+      <c r="K308" s="40"/>
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A309" s="37"/>
       <c r="B309" s="50"/>
       <c r="C309" s="2" t="s">
         <v>293</v>
@@ -8616,10 +8624,10 @@
       <c r="G309" s="2">
         <v>9</v>
       </c>
-      <c r="K309" s="32"/>
-    </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A310" s="29"/>
+      <c r="K309" s="40"/>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A310" s="37"/>
       <c r="B310" s="50"/>
       <c r="C310" s="2" t="s">
         <v>294</v>
@@ -8636,10 +8644,10 @@
       <c r="G310" s="2">
         <v>9</v>
       </c>
-      <c r="K310" s="32"/>
-    </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A311" s="29"/>
+      <c r="K310" s="40"/>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A311" s="37"/>
       <c r="B311" s="50"/>
       <c r="C311" s="2" t="s">
         <v>295</v>
@@ -8656,10 +8664,10 @@
       <c r="G311" s="2">
         <v>5</v>
       </c>
-      <c r="K311" s="32"/>
-    </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A312" s="29"/>
+      <c r="K311" s="40"/>
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A312" s="37"/>
       <c r="B312" s="50"/>
       <c r="C312" s="2" t="s">
         <v>6</v>
@@ -8676,10 +8684,10 @@
       <c r="G312" s="2">
         <v>20</v>
       </c>
-      <c r="K312" s="32"/>
-    </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A313" s="29"/>
+      <c r="K312" s="40"/>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A313" s="37"/>
       <c r="B313" s="50"/>
       <c r="C313" s="2" t="s">
         <v>8</v>
@@ -8696,10 +8704,10 @@
       <c r="G313" s="2">
         <v>20</v>
       </c>
-      <c r="K313" s="32"/>
-    </row>
-    <row r="314" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A314" s="30"/>
+      <c r="K313" s="40"/>
+    </row>
+    <row r="314" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A314" s="38"/>
       <c r="B314" s="51"/>
       <c r="C314" s="2" t="s">
         <v>185</v>
@@ -8711,13 +8719,13 @@
       <c r="J314" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="K314" s="33"/>
-    </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A315" s="34">
+      <c r="K314" s="41"/>
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A315" s="54">
         <v>87</v>
       </c>
-      <c r="B315" s="41" t="s">
+      <c r="B315" s="52" t="s">
         <v>35</v>
       </c>
       <c r="C315" s="2" t="s">
@@ -8735,13 +8743,13 @@
       <c r="G315" s="2">
         <v>20</v>
       </c>
-      <c r="K315" s="31">
+      <c r="K315" s="39">
         <v>45553</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A316" s="34"/>
-      <c r="B316" s="41"/>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A316" s="54"/>
+      <c r="B316" s="52"/>
       <c r="C316" s="2" t="s">
         <v>8</v>
       </c>
@@ -8757,13 +8765,13 @@
       <c r="G316" s="4">
         <v>20</v>
       </c>
-      <c r="K316" s="33"/>
-    </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K316" s="41"/>
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="5">
         <v>88</v>
       </c>
-      <c r="B317" s="46" t="s">
+      <c r="B317" s="28" t="s">
         <v>299</v>
       </c>
       <c r="J317" s="2" t="s">
@@ -8773,8 +8781,8 @@
         <v>45553</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A318" s="28">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A318" s="36">
         <v>89</v>
       </c>
       <c r="B318" s="49" t="s">
@@ -8790,12 +8798,12 @@
       <c r="F318" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K318" s="31">
+      <c r="K318" s="39">
         <v>45554</v>
       </c>
     </row>
-    <row r="319" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A319" s="29"/>
+    <row r="319" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A319" s="37"/>
       <c r="B319" s="50"/>
       <c r="C319" s="2" t="s">
         <v>292</v>
@@ -8809,10 +8817,10 @@
       <c r="J319" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="K319" s="32"/>
-    </row>
-    <row r="320" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A320" s="29"/>
+      <c r="K319" s="40"/>
+    </row>
+    <row r="320" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A320" s="37"/>
       <c r="B320" s="50"/>
       <c r="C320" s="2" t="s">
         <v>301</v>
@@ -8832,10 +8840,10 @@
       <c r="J320" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="K320" s="32"/>
-    </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A321" s="29"/>
+      <c r="K320" s="40"/>
+    </row>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A321" s="37"/>
       <c r="B321" s="50"/>
       <c r="C321" s="2" t="s">
         <v>302</v>
@@ -8852,10 +8860,10 @@
       <c r="G321" s="2">
         <v>6</v>
       </c>
-      <c r="K321" s="32"/>
-    </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A322" s="29"/>
+      <c r="K321" s="40"/>
+    </row>
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A322" s="37"/>
       <c r="B322" s="50"/>
       <c r="C322" s="2" t="s">
         <v>303</v>
@@ -8872,10 +8880,10 @@
       <c r="G322" s="2">
         <v>6</v>
       </c>
-      <c r="K322" s="32"/>
-    </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A323" s="29"/>
+      <c r="K322" s="40"/>
+    </row>
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A323" s="37"/>
       <c r="B323" s="50"/>
       <c r="C323" s="2" t="s">
         <v>6</v>
@@ -8892,10 +8900,10 @@
       <c r="G323" s="2">
         <v>20</v>
       </c>
-      <c r="K323" s="32"/>
-    </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A324" s="29"/>
+      <c r="K323" s="40"/>
+    </row>
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A324" s="37"/>
       <c r="B324" s="50"/>
       <c r="C324" s="2" t="s">
         <v>8</v>
@@ -8915,10 +8923,10 @@
       <c r="J324" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="K324" s="32"/>
-    </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A325" s="30"/>
+      <c r="K324" s="40"/>
+    </row>
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A325" s="38"/>
       <c r="B325" s="51"/>
       <c r="C325" s="2" t="s">
         <v>185</v>
@@ -8927,10 +8935,10 @@
         <v>67</v>
       </c>
       <c r="E325" s="2"/>
-      <c r="K325" s="33"/>
-    </row>
-    <row r="326" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A326" s="28">
+      <c r="K325" s="41"/>
+    </row>
+    <row r="326" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A326" s="36">
         <v>90</v>
       </c>
       <c r="B326" s="49" t="s">
@@ -8946,12 +8954,12 @@
       <c r="F326" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K326" s="31">
+      <c r="K326" s="39">
         <v>45554</v>
       </c>
     </row>
-    <row r="327" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A327" s="29"/>
+    <row r="327" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A327" s="37"/>
       <c r="B327" s="50"/>
       <c r="C327" s="2" t="s">
         <v>292</v>
@@ -8965,10 +8973,10 @@
       <c r="J327" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="K327" s="32"/>
-    </row>
-    <row r="328" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="29"/>
+      <c r="K327" s="40"/>
+    </row>
+    <row r="328" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A328" s="37"/>
       <c r="B328" s="50"/>
       <c r="C328" s="2" t="s">
         <v>301</v>
@@ -8988,10 +8996,10 @@
       <c r="J328" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="K328" s="32"/>
-    </row>
-    <row r="329" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A329" s="29"/>
+      <c r="K328" s="40"/>
+    </row>
+    <row r="329" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A329" s="37"/>
       <c r="B329" s="50"/>
       <c r="C329" s="2" t="s">
         <v>308</v>
@@ -9003,10 +9011,10 @@
       <c r="F329" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K329" s="32"/>
-    </row>
-    <row r="330" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A330" s="29"/>
+      <c r="K329" s="40"/>
+    </row>
+    <row r="330" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A330" s="37"/>
       <c r="B330" s="50"/>
       <c r="C330" s="2" t="s">
         <v>309</v>
@@ -9020,10 +9028,10 @@
       <c r="F330" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K330" s="32"/>
-    </row>
-    <row r="331" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A331" s="29"/>
+      <c r="K330" s="40"/>
+    </row>
+    <row r="331" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A331" s="37"/>
       <c r="B331" s="50"/>
       <c r="C331" s="2" t="s">
         <v>310</v>
@@ -9037,10 +9045,10 @@
       <c r="F331" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K331" s="32"/>
-    </row>
-    <row r="332" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="29"/>
+      <c r="K331" s="40"/>
+    </row>
+    <row r="332" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A332" s="37"/>
       <c r="B332" s="50"/>
       <c r="C332" s="2" t="s">
         <v>311</v>
@@ -9054,10 +9062,10 @@
       <c r="F332" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K332" s="32"/>
-    </row>
-    <row r="333" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="29"/>
+      <c r="K332" s="40"/>
+    </row>
+    <row r="333" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A333" s="37"/>
       <c r="B333" s="50"/>
       <c r="C333" s="2" t="s">
         <v>312</v>
@@ -9071,10 +9079,10 @@
       <c r="F333" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K333" s="32"/>
-    </row>
-    <row r="334" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="29"/>
+      <c r="K333" s="40"/>
+    </row>
+    <row r="334" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A334" s="37"/>
       <c r="B334" s="50"/>
       <c r="C334" s="2" t="s">
         <v>313</v>
@@ -9088,10 +9096,10 @@
       <c r="F334" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K334" s="32"/>
-    </row>
-    <row r="335" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="29"/>
+      <c r="K334" s="40"/>
+    </row>
+    <row r="335" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A335" s="37"/>
       <c r="B335" s="50"/>
       <c r="C335" s="2" t="s">
         <v>314</v>
@@ -9105,10 +9113,10 @@
       <c r="F335" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K335" s="32"/>
-    </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A336" s="29"/>
+      <c r="K335" s="40"/>
+    </row>
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A336" s="37"/>
       <c r="B336" s="50"/>
       <c r="C336" s="2" t="s">
         <v>315</v>
@@ -9122,10 +9130,10 @@
       <c r="F336" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K336" s="32"/>
-    </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A337" s="29"/>
+      <c r="K336" s="40"/>
+    </row>
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A337" s="37"/>
       <c r="B337" s="50"/>
       <c r="C337" s="2" t="s">
         <v>316</v>
@@ -9139,10 +9147,10 @@
       <c r="F337" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K337" s="32"/>
-    </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A338" s="29"/>
+      <c r="K337" s="40"/>
+    </row>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A338" s="37"/>
       <c r="B338" s="50"/>
       <c r="C338" s="2" t="s">
         <v>317</v>
@@ -9156,10 +9164,10 @@
       <c r="F338" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K338" s="32"/>
-    </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A339" s="29"/>
+      <c r="K338" s="40"/>
+    </row>
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A339" s="37"/>
       <c r="B339" s="50"/>
       <c r="C339" s="2" t="s">
         <v>318</v>
@@ -9173,10 +9181,10 @@
       <c r="F339" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K339" s="32"/>
-    </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A340" s="29"/>
+      <c r="K339" s="40"/>
+    </row>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A340" s="37"/>
       <c r="B340" s="50"/>
       <c r="C340" s="2" t="s">
         <v>6</v>
@@ -9193,10 +9201,10 @@
       <c r="G340" s="2">
         <v>20</v>
       </c>
-      <c r="K340" s="32"/>
-    </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A341" s="29"/>
+      <c r="K340" s="40"/>
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A341" s="37"/>
       <c r="B341" s="50"/>
       <c r="C341" s="2" t="s">
         <v>8</v>
@@ -9216,10 +9224,10 @@
       <c r="J341" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="K341" s="32"/>
-    </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A342" s="30"/>
+      <c r="K341" s="40"/>
+    </row>
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A342" s="38"/>
       <c r="B342" s="51"/>
       <c r="C342" s="2" t="s">
         <v>185</v>
@@ -9228,13 +9236,13 @@
         <v>67</v>
       </c>
       <c r="E342" s="2"/>
-      <c r="K342" s="33"/>
-    </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K342" s="41"/>
+    </row>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="5">
         <v>91</v>
       </c>
-      <c r="B343" s="52" t="s">
+      <c r="B343" s="29" t="s">
         <v>321</v>
       </c>
       <c r="C343" s="2" t="s">
@@ -9256,11 +9264,11 @@
         <v>45554</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A344" s="28">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A344" s="36">
         <v>92</v>
       </c>
-      <c r="B344" s="43" t="s">
+      <c r="B344" s="33" t="s">
         <v>322</v>
       </c>
       <c r="C344" s="2" t="s">
@@ -9278,13 +9286,13 @@
       <c r="G344" s="2">
         <v>20</v>
       </c>
-      <c r="K344" s="31">
+      <c r="K344" s="39">
         <v>45554</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A345" s="30"/>
-      <c r="B345" s="44"/>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A345" s="38"/>
+      <c r="B345" s="35"/>
       <c r="C345" s="2" t="s">
         <v>8</v>
       </c>
@@ -9300,13 +9308,13 @@
       <c r="G345" s="2">
         <v>20</v>
       </c>
-      <c r="K345" s="33"/>
-    </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A346" s="28">
+      <c r="K345" s="41"/>
+    </row>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A346" s="36">
         <v>93</v>
       </c>
-      <c r="B346" s="43" t="s">
+      <c r="B346" s="33" t="s">
         <v>323</v>
       </c>
       <c r="C346" s="2" t="s">
@@ -9324,13 +9332,13 @@
       <c r="G346" s="2">
         <v>20</v>
       </c>
-      <c r="K346" s="31">
+      <c r="K346" s="39">
         <v>45554</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A347" s="30"/>
-      <c r="B347" s="44"/>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A347" s="38"/>
+      <c r="B347" s="35"/>
       <c r="C347" s="2" t="s">
         <v>324</v>
       </c>
@@ -9346,13 +9354,13 @@
       <c r="G347" s="2">
         <v>50</v>
       </c>
-      <c r="K347" s="33"/>
-    </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A348" s="28">
+      <c r="K347" s="41"/>
+    </row>
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A348" s="36">
         <v>94</v>
       </c>
-      <c r="B348" s="43" t="s">
+      <c r="B348" s="33" t="s">
         <v>326</v>
       </c>
       <c r="C348" s="2" t="s">
@@ -9370,13 +9378,13 @@
       <c r="G348" s="2">
         <v>20</v>
       </c>
-      <c r="K348" s="31">
+      <c r="K348" s="39">
         <v>45554</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A349" s="30"/>
-      <c r="B349" s="44"/>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A349" s="38"/>
+      <c r="B349" s="35"/>
       <c r="C349" s="2" t="s">
         <v>325</v>
       </c>
@@ -9392,13 +9400,13 @@
       <c r="G349" s="2">
         <v>50</v>
       </c>
-      <c r="K349" s="33"/>
-    </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A350" s="28">
+      <c r="K349" s="41"/>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A350" s="36">
         <v>95</v>
       </c>
-      <c r="B350" s="43" t="s">
+      <c r="B350" s="33" t="s">
         <v>328</v>
       </c>
       <c r="C350" s="2" t="s">
@@ -9416,13 +9424,13 @@
       <c r="G350" s="2">
         <v>20</v>
       </c>
-      <c r="K350" s="31">
+      <c r="K350" s="39">
         <v>45554</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A351" s="30"/>
-      <c r="B351" s="44"/>
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A351" s="38"/>
+      <c r="B351" s="35"/>
       <c r="C351" s="2" t="s">
         <v>327</v>
       </c>
@@ -9438,13 +9446,13 @@
       <c r="G351" s="2">
         <v>50</v>
       </c>
-      <c r="K351" s="33"/>
-    </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A352" s="28">
+      <c r="K351" s="41"/>
+    </row>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A352" s="36">
         <v>96</v>
       </c>
-      <c r="B352" s="43" t="s">
+      <c r="B352" s="33" t="s">
         <v>329</v>
       </c>
       <c r="C352" s="2" t="s">
@@ -9462,13 +9470,13 @@
       <c r="G352" s="2">
         <v>20</v>
       </c>
-      <c r="K352" s="31">
+      <c r="K352" s="39">
         <v>45554</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A353" s="30"/>
-      <c r="B353" s="44"/>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A353" s="38"/>
+      <c r="B353" s="35"/>
       <c r="C353" s="2" t="s">
         <v>110</v>
       </c>
@@ -9484,13 +9492,13 @@
       <c r="G353" s="2">
         <v>100</v>
       </c>
-      <c r="K353" s="33"/>
-    </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A354" s="28">
+      <c r="K353" s="41"/>
+    </row>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A354" s="36">
         <v>97</v>
       </c>
-      <c r="B354" s="43" t="s">
+      <c r="B354" s="33" t="s">
         <v>332</v>
       </c>
       